--- a/fund/data/fund.xlsx
+++ b/fund/data/fund.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="93">
   <si>
     <t>id</t>
   </si>
@@ -26,82 +26,274 @@
     <t>total_net_value</t>
   </si>
   <si>
+    <t>513100</t>
+  </si>
+  <si>
     <t>国泰纳斯达克100ETF</t>
   </si>
   <si>
     <t xml:space="preserve"> [[1366819200000,1.0],[1366905600000,1.0],[1367510400000,1.0],[1367942400000,1.0],[1368115200000,1.001],[1368460800000,1.001],[1368547200000,1.001],[1368633600000,1.003],[1368720000000,1.004],[1368979200000,1.006],[1369065600000,1.006],[1369152000000,0.999],[1369238400000,0.998],[1369324800000,0.997],[1369670400000,1.002],[1369756800000,0.998],[1369843200000,1.002],[1369929600000,0.994],[1370188800000,0.996],[1370275200000,0.99],[1370361600000,0.98],[1370448000000,0.983],[1370534400000,0.993],[1371052800000,0.985],[1371139200000,0.979],[1371398400000,0.987],[1371484800000,0.996],[1371571200000,0.985],[1371657600000,0.961],[1371744000000,0.958],[1372003200000,0.949],[1372089600000,0.955],[1372176000000,0.964],[1372262400000,0.968],[1372348800000,0.969],[1372521600000,0.969],[1372608000000,0.975],[1372694400000,0.975],[1372780800000,0.98],[1372953600000,0.987],[1373212800000,0.988],[1373299200000,0.993],[1373385600000,0.997],[1373472000000,1.016],[1373558400000,1.022],[1373817600000,1.024],[1373904000000,1.024],[1373990400000,1.026],[1374076800000,1.024],[1374163200000,1.013],[1374422400000,1.016],[1374508800000,1.008],[1374595200000,1.011],[1374681600000,1.019],[1374768000000,1.023],[1375027200000,1.021],[1375113600000,1.027],[1375200000000,1.029],[1375286400000,1.04],[1375372800000,1.046],[1375632000000,1.046],[1375718400000,1.039],[1375804800000,1.037],[1375891200000,1.042],[1375977600000,1.037],[1376236800000,1.039],[1376323200000,1.045],[1376409600000,1.041],[1376496000000,1.023],[1376582400000,1.021],[1376841600000,1.02],[1376928000000,1.025],[1377014400000,1.021],[1377100800000,1.031],[1377187200000,1.039],[1377446400000,1.037],[1377532800000,1.017],[1377619200000,1.02],[1377705600000,1.027],[1377792000000,1.021],[1378137600000,1.027],[1378224000000,1.038],[1378310400000,1.039],[1378396800000,1.041],[1378656000000,1.052],[1378742400000,1.057],[1378828800000,1.055],[1378915200000,1.053],[1379001600000,1.054],[1379260800000,1.051],[1379347200000,1.059],[1379433600000,1.072],[1379865600000,1.067],[1379952000000,1.067],[1380038400000,1.063],[1380124800000,1.071],[1380211200000,1.07],[1380470400000,1.066],[1381161600000,1.045],[1381248000000,1.042],[1381334400000,1.064],[1381420800000,1.072],[1381680000000,1.079],[1381766400000,1.075],[1381852800000,1.087],[1381939200000,1.093],[1382025600000,1.109],[1382284800000,1.111],[1382371200000,1.113],[1382457600000,1.106],[1382544000000,1.111],[1382630400000,1.118],[1382889600000,1.118],[1382976000000,1.121],[1383062400000,1.12],[1383148800000,1.118],[1383235200000,1.119],[1383494400000,1.121],[1383580800000,1.122],[1383667200000,1.122],[1383753600000,1.101],[1383840000000,1.114],[1384099200000,1.112],[1384185600000,1.113],[1384272000000,1.126],[1384358400000,1.129],[1384444800000,1.131],[1384704000000,1.12],[1384790400000,1.117],[1384876800000,1.113],[1384963200000,1.128],[1385049600000,1.134],[1385308800000,1.135],[1385395200000,1.142],[1385481600000,1.146],[1385654400000,1.152],[1385913600000,1.149],[1386000000000,1.149],[1386086400000,1.15],[1386172800000,1.148],[1386259200000,1.155],[1386518400000,1.157],[1386604800000,1.156],[1386691200000,1.141],[1386777600000,1.138],[1386864000000,1.137],[1387123200000,1.143],[1387209600000,1.141],[1387296000000,1.154],[1387382400000,1.152],[1387468800000,1.164],[1387728000000,1.175],[1387814400000,1.176],[1387987200000,1.18],[1388073600000,1.174],[1388332800000,1.172],[1388419200000,1.178],[1388592000000,1.17],[1388678400000,1.163],[1388937600000,1.16],[1389024000000,1.17],[1389110400000,1.173],[1389196800000,1.169],[1389283200000,1.171],[1389542400000,1.153],[1389628800000,1.174],[1389715200000,1.184],[1389801600000,1.186],[1389888000000,1.179],[1390233600000,1.188],[1390320000000,1.191],[1390406400000,1.187],[1390492800000,1.163],[1390752000000,1.153],[1390838400000,1.151],[1390924800000,1.139],[1391011200000,1.16],[1391702400000,1.169],[1391961600000,1.176],[1392048000000,1.188],[1392134400000,1.19],[1392220800000,1.2],[1392307200000,1.201],[1392652800000,1.206],[1392739200000,1.199],[1392825600000,1.205],[1392912000000,1.203],[1393171200000,1.21],[1393257600000,1.208],[1393344000000,1.207],[1393430400000,1.215],[1393516800000,1.214],[1393776000000,1.205],[1393862400000,1.221],[1393948800000,1.224],[1394035200000,1.222],[1394121600000,1.216],[1394380800000,1.219],[1394467200000,1.215],[1394553600000,1.22],[1394640000000,1.202],[1394726400000,1.195],[1394985600000,1.205],[1395072000000,1.219],[1395158400000,1.212],[1395244800000,1.217],[1395331200000,1.204],[1395590400000,1.193],[1395676800000,1.196],[1395763200000,1.182],[1395849600000,1.176],[1395936000000,1.178],[1396195200000,1.186],[1396281600000,1.207],[1396368000000,1.209],[1396454400000,1.2],[1396540800000,1.169],[1396886400000,1.168],[1396972800000,1.187],[1397059200000,1.151],[1397145600000,1.138],[1397404800000,1.147],[1397491200000,1.152],[1397577600000,1.167],[1397664000000,1.167],[1398009600000,1.176],[1398096000000,1.185],[1398182400000,1.175],[1398268800000,1.185],[1398355200000,1.166],[1398614400000,1.17],[1398700800000,1.179],[1398787200000,1.182],[1399219200000,1.189],[1399305600000,1.173],[1399392000000,1.17],[1399478400000,1.169],[1399564800000,1.174],[1399824000000,1.194],[1399910400000,1.194],[1399996800000,1.189],[1400083200000,1.179],[1400169600000,1.186],[1400428800000,1.196],[1400515200000,1.191],[1400601600000,1.202],[1400688000000,1.208],[1400774400000,1.217],[1401120000000,1.232],[1401206400000,1.229],[1401292800000,1.236],[1401379200000,1.237],[1401724800000,1.235],[1401811200000,1.238],[1401897600000,1.25],[1401984000000,1.254],[1402243200000,1.252],[1402329600000,1.253],[1402416000000,1.253],[1402502400000,1.243],[1402588800000,1.246],[1402848000000,1.248],[1402934400000,1.248],[1403020800000,1.256],[1403107200000,1.254],[1403193600000,1.255],[1403452800000,1.256],[1403539200000,1.254],[1403625600000,1.263],[1403712000000,1.262],[1403798400000,1.268],[1404057600000,1.269],[1404144000000,1.284],[1404230400000,1.286],[1404316800000,1.295],[1404662400000,1.292],[1404748800000,1.276],[1404835200000,1.285],[1404921600000,1.278],[1405008000000,1.286],[1405267200000,1.294],[1405353600000,1.289],[1405440000000,1.295],[1405526400000,1.279],[1405612800000,1.298],[1405872000000,1.296],[1405958400000,1.305],[1406044800000,1.313],[1406131200000,1.312],[1406217600000,1.307],[1406476800000,1.308],[1406563200000,1.305],[1406649600000,1.311],[1406736000000,1.286],[1406822400000,1.282],[1407081600000,1.29],[1407168000000,1.279],[1407254400000,1.28],[1407340800000,1.275],[1407427200000,1.283],[1407686400000,1.289],[1407772800000,1.287],[1407859200000,1.302],[1407945600000,1.309],[1408032000000,1.315],[1408291200000,1.325],[1408377600000,1.332],[1408464000000,1.333],[1408550400000,1.336],[1408636800000,1.338],[1408896000000,1.344],[1408982400000,1.345],[1409068800000,1.346],[1409155200000,1.343],[1409241600000,1.349],[1409587200000,1.354],[1409673600000,1.346],[1409760000000,1.343],[1409846400000,1.352],[1410192000000,1.339],[1410278400000,1.348],[1410364800000,1.348],[1410451200000,1.34],[1410710400000,1.327],[1410796800000,1.339],[1410883200000,1.341],[1410969600000,1.351],[1411056000000,1.349],[1411315200000,1.337],[1411401600000,1.334],[1411488000000,1.348],[1411574400000,1.32],[1411660800000,1.335],[1411920000000,1.334],[1412006400000,1.335],[1412697600000,1.331],[1412784000000,1.307],[1412870400000,1.275],[1413129600000,1.255],[1413216000000,1.255],[1413302400000,1.248],[1413388800000,1.239],[1413475200000,1.256],[1413734400000,1.273],[1413820800000,1.304],[1413907200000,1.297],[1413993600000,1.317],[1414080000000,1.326],[1414339200000,1.326],[1414425600000,1.344],[1414512000000,1.339],[1414598400000,1.343],[1414684800000,1.361],[1414944000000,1.366],[1415030400000,1.363],[1415116800000,1.361],[1415203200000,1.367],[1415289600000,1.366],[1415548800000,1.366],[1415635200000,1.37],[1415721600000,1.373],[1415808000000,1.379],[1415894400000,1.383],[1416153600000,1.379],[1416240000000,1.389],[1416326400000,1.382],[1416412800000,1.389],[1416499200000,1.391],[1416758400000,1.402],[1416844800000,1.402],[1416931200000,1.411],[1417104000000,1.417],[1417363200000,1.401],[1417449600000,1.406],[1417536000000,1.41],[1417622400000,1.41],[1417708800000,1.409],[1417968000000,1.395],[1418054400000,1.4],[1418140800000,1.376],[1418227200000,1.381],[1418313600000,1.367],[1418572800000,1.352],[1418659200000,1.331],[1418745600000,1.354],[1418832000000,1.39],[1418918400000,1.394],[1419177600000,1.398],[1419264000000,1.394],[1419350400000,1.396],[1419523200000,1.405],[1419782400000,1.405],[1419868800000,1.395],[1419955200000,1.38],[1420387200000,1.357],[1420473600000,1.341],[1420560000000,1.358],[1420646400000,1.384],[1420732800000,1.375],[1420992000000,1.359],[1421078400000,1.356],[1421164800000,1.35],[1421251200000,1.332],[1421337600000,1.349],[1421683200000,1.359],[1421769600000,1.367],[1421856000000,1.392],[1421942400000,1.396],[1422201600000,1.396],[1422288000000,1.36],[1422374400000,1.349],[1422460800000,1.362],[1422547200000,1.353],[1422806400000,1.366],[1422892800000,1.379],[1422979200000,1.377],[1423065600000,1.39],[1423152000000,1.379],[1423411200000,1.376],[1423497600000,1.396],[1423584000000,1.402],[1423670400000,1.419],[1423756800000,1.429],[1424102400000,1.431],[1424793600000,1.45],[1424880000000,1.456],[1424966400000,1.452],[1425225600000,1.467],[1425312000000,1.459],[1425398400000,1.454],[1425484800000,1.457],[1425571200000,1.439],[1425830400000,1.444],[1425916800000,1.417],[1426003200000,1.412],[1426089600000,1.422],[1426176000000,1.414],[1426435200000,1.432],[1426521600000,1.433],[1426608000000,1.448],[1426694400000,1.447],[1426780800000,1.459],[1427040000000,1.453],[1427126400000,1.447],[1427212800000,1.413],[1427299200000,1.407],[1427385600000,1.414],[1427644800000,1.431],[1427731200000,1.416],[1427817600000,1.409],[1427904000000,1.41],[1428336000000,1.416],[1428422400000,1.427],[1428508800000,1.436],[1428595200000,1.442],[1428854400000,1.439],[1428940800000,1.435],[1429027200000,1.443],[1429113600000,1.438],[1429200000000,1.414],[1429459200000,1.436],[1429545600000,1.442],[1429632000000,1.45],[1429718400000,1.457],[1429804800000,1.476],[1430064000000,1.471],[1430150400000,1.467],[1430236800000,1.457],[1430323200000,1.431],[1430668800000,1.455],[1430755200000,1.432],[1430841600000,1.422],[1430928000000,1.429],[1431014400000,1.448],[1431273600000,1.441],[1431360000000,1.436],[1431446400000,1.437],[1431532800000,1.458],[1431619200000,1.458],[1431878400000,1.465],[1431964800000,1.462],[1432051200000,1.463],[1432137600000,1.471],[1432224000000,1.47],[1432569600000,1.453],[1432656000000,1.477],[1432742400000,1.472],[1432828800000,1.463],[1433088000000,1.466],[1433174400000,1.461],[1433260800000,1.464],[1433347200000,1.455],[1433433600000,1.453],[1433692800000,1.441],[1433779200000,1.44],[1433865600000,1.458],[1433952000000,1.458],[1434038400000,1.448],[1434297600000,1.442],[1434384000000,1.448],[1434470400000,1.453],[1434556800000,1.471],[1434643200000,1.465],[1434988800000,1.476],[1435075200000,1.468],[1435161600000,1.465],[1435248000000,1.456],[1435507200000,1.424],[1435593600000,1.428],[1435680000000,1.439],[1435766400000,1.441],[1436112000000,1.436],[1436198400000,1.439],[1436284800000,1.414],[1436371200000,1.414],[1436457600000,1.435],[1436716800000,1.458],[1436803200000,1.468],[1436889600000,1.47],[1436976000000,1.49],[1437062400000,1.511],[1437321600000,1.517],[1437408000000,1.514],[1437494400000,1.497],[1437580800000,1.493],[1437667200000,1.478],[1437926400000,1.466],[1438012800000,1.479],[1438099200000,1.485],[1438185600000,1.492],[1438272000000,1.489],[1438531200000,1.486],[1438617600000,1.483],[1438704000000,1.494],[1438790400000,1.473],[1438876800000,1.47],[1439136000000,1.487],[1439222400000,1.495],[1439308800000,1.521],[1439395200000,1.534],[1439481600000,1.537],[1439740800000,1.548],[1439827200000,1.541],[1439913600000,1.53],[1440000000000,1.487],[1440086400000,1.426],[1440345600000,1.374],[1440432000000,1.37],[1440518400000,1.438],[1440604800000,1.473],[1440691200000,1.473],[1440950400000,1.453],[1441036800000,1.405],[1441123200000,1.44],[1441641600000,1.456],[1441728000000,1.439],[1441814400000,1.456],[1441900800000,1.464],[1442160000000,1.459],[1442246400000,1.475],[1442332800000,1.484],[1442419200000,1.484],[1442505600000,1.462],[1442764800000,1.467],[1442851200000,1.448],[1442937600000,1.449],[1443024000000,1.445],[1443110400000,1.433],[1443369600000,1.391],[1443456000000,1.383],[1443542400000,1.414],[1444233600000,1.468],[1444320000000,1.475],[1444579200000,1.477],[1444665600000,1.463],[1444752000000,1.465],[1444838400000,1.488],[1444924800000,1.496],[1445184000000,1.505],[1445270400000,1.5],[1445356800000,1.488],[1445443200000,1.517],[1445529600000,1.558],[1445788800000,1.559],[1445875200000,1.561],[1445961600000,1.574],[1446048000000,1.573],[1446134400000,1.564],[1446393600000,1.573],[1446480000000,1.581],[1446566400000,1.582],[1446652800000,1.579],[1446739200000,1.582],[1446998400000,1.567],[1447084800000,1.564],[1447171200000,1.563],[1447257600000,1.548],[1447344000000,1.521],[1447603200000,1.544],[1447689600000,1.544],[1447776000000,1.574],[1447862400000,1.574],[1447948800000,1.584],[1448208000000,1.582],[1448294400000,1.581],[1448380800000,1.582],[1448553600000,1.586],[1448812800000,1.582],[1448899200000,1.6],[1448985600000,1.589],[1449072000000,1.563],[1449158400000,1.596],[1449417600000,1.592],[1449504000000,1.595],[1449590400000,1.572],[1449676800000,1.581],[1449763200000,1.549],[1450022400000,1.563],[1450108800000,1.574],[1450195200000,1.598],[1450281600000,1.579],[1450368000000,1.552],[1450627200000,1.566],[1450713600000,1.576],[1450800000000,1.588],[1450886400000,1.587],[1451232000000,1.586],[1451318400000,1.613],[1451404800000,1.6],[1451491200000,1.581],[1451836800000,1.551],[1451923200000,1.549],[1452009600000,1.539],[1452096000000,1.499],[1452182400000,1.487],[1452441600000,1.491],[1452528000000,1.508],[1452614400000,1.457],[1452700800000,1.486],[1452787200000,1.444],[1453132800000,1.443],[1453219200000,1.439],[1453305600000,1.441],[1453392000000,1.482],[1453651200000,1.459],[1453737600000,1.473],[1453824000000,1.434],[1453910400000,1.454],[1453996800000,1.487],[1454256000000,1.49],[1454342400000,1.456],[1454428800000,1.45],[1454515200000,1.447],[1454601600000,1.394],[1455552000000,1.419],[1455638400000,1.455],[1455724800000,1.436],[1455811200000,1.441],[1456070400000,1.464],[1456156800000,1.442],[1456243200000,1.456],[1456329600000,1.471],[1456416000000,1.469],[1456675200000,1.46],[1456761600000,1.505],[1456848000000,1.508],[1456934400000,1.503],[1457020800000,1.501],[1457280000000,1.488],[1457366400000,1.473],[1457452800000,1.485],[1457539200000,1.483],[1457625600000,1.504],[1457884800000,1.506],[1457971200000,1.509],[1458057600000,1.524],[1458144000000,1.518],[1458230400000,1.514],[1458489600000,1.524],[1458576000000,1.531],[1458662400000,1.518],[1458748800000,1.524],[1459094400000,1.523],[1459180800000,1.543],[1459267200000,1.546],[1459353600000,1.538],[1459440000000,1.554],[1459785600000,1.535],[1459872000000,1.562],[1459958400000,1.537],[1460044800000,1.538],[1460304000000,1.53],[1460390400000,1.542],[1460476800000,1.562],[1460563200000,1.569],[1460649600000,1.565],[1460908800000,1.57],[1460995200000,1.559],[1461081600000,1.557],[1461168000000,1.562],[1461254400000,1.541],[1461513600000,1.546],[1461600000000,1.533],[1461686400000,1.52],[1461772800000,1.505],[1461859200000,1.489],[1462204800000,1.488],[1462291200000,1.487],[1462377600000,1.491],[1462464000000,1.499],[1462723200000,1.501],[1462809600000,1.525],[1462896000000,1.509],[1462982400000,1.497],[1463068800000,1.498],[1463328000000,1.519],[1463414400000,1.497],[1463500800000,1.503],[1463587200000,1.502],[1463673600000,1.518],[1463932800000,1.514],[1464019200000,1.545],[1464105600000,1.562],[1464192000000,1.562],[1464278400000,1.57],[1464624000000,1.58],[1464710400000,1.581],[1464796800000,1.58],[1464883200000,1.575],[1465142400000,1.572],[1465228800000,1.572],[1465315200000,1.574],[1465747200000,1.545],[1465833600000,1.545],[1465920000000,1.545],[1466006400000,1.544],[1466092800000,1.528],[1466352000000,1.535],[1466438400000,1.538],[1466524800000,1.541],[1466611200000,1.557],[1466697600000,1.496],[1466956800000,1.479],[1467043200000,1.514],[1467129600000,1.535],[1467216000000,1.554],[1467302400000,1.565],[1467648000000,1.557],[1467734400000,1.575],[1467820800000,1.58],[1467907200000,1.605],[1468166400000,1.614],[1468252800000,1.624],[1468339200000,1.619],[1468425600000,1.629],[1468512000000,1.625],[1468771200000,1.639],[1468857600000,1.634],[1468944000000,1.652],[1469030400000,1.647],[1469116800000,1.648],[1469376000000,1.653],[1469462400000,1.653],[1469548800000,1.661],[1469635200000,1.666],[1469721600000,1.667],[1469980800000,1.67],[1470067200000,1.661],[1470153600000,1.66],[1470240000000,1.67],[1470326400000,1.686],[1470585600000,1.689],[1470672000000,1.691],[1470758400000,1.686],[1470844800000,1.686],[1470931200000,1.694],[1471190400000,1.698],[1471276800000,1.685],[1471363200000,1.682],[1471449600000,1.689],[1471536000000,1.686],[1471795200000,1.698],[1471881600000,1.699],[1471968000000,1.683],[1472054400000,1.685],[1472140800000,1.685],[1472400000000,1.697],[1472486400000,1.691],[1472572800000,1.691],[1472659200000,1.692],[1472745600000,1.696],[1473091200000,1.706],[1473177600000,1.704],[1473264000000,1.695],[1473350400000,1.654],[1473609600000,1.688],[1473696000000,1.669],[1473782400000,1.681],[1474214400000,1.696],[1474300800000,1.694],[1474387200000,1.715],[1474473600000,1.722],[1474560000000,1.715],[1474819200000,1.702],[1474905600000,1.717],[1474992000000,1.72],[1475078400000,1.708],[1475164800000,1.723],[1476028800000,1.735],[1476115200000,1.712],[1476201600000,1.715],[1476288000000,1.71],[1476374400000,1.708],[1476633600000,1.709],[1476720000000,1.722],[1476806400000,1.721],[1476892800000,1.72],[1476979200000,1.733],[1477238400000,1.757],[1477324800000,1.751],[1477411200000,1.739],[1477497600000,1.731],[1477584000000,1.723],[1477843200000,1.716],[1477929600000,1.707],[1478016000000,1.688],[1478102400000,1.671],[1478188800000,1.665],[1478448000000,1.71],[1478534400000,1.723],[1478620800000,1.731],[1478707200000,1.705],[1478793600000,1.711],[1479052800000,1.697],[1479139200000,1.726],[1479225600000,1.738],[1479312000000,1.753],[1479398400000,1.749],[1479657600000,1.772],[1479744000000,1.772],[1479830400000,1.768],[1480003200000,1.78],[1480262400000,1.773],[1480348800000,1.775],[1480435200000,1.752],[1480521600000,1.726],[1480608000000,1.724],[1480867200000,1.739],[1480953600000,1.736],[1481040000000,1.764],[1481126400000,1.765],[1481212800000,1.784],[1481472000000,1.78],[1481558400000,1.799],[1481644800000,1.796],[1481731200000,1.806],[1481817600000,1.805],[1482076800000,1.807],[1482163200000,1.817],[1482249600000,1.816],[1482336000000,1.809],[1482422400000,1.812],[1482768000000,1.82],[1482854400000,1.807],[1482940800000,1.804],[1483027200000,1.782],[1483113600000,1.782],[1483372800000,1.802],[1483459200000,1.812],[1483545600000,1.816],[1483632000000,1.815],[1483891200000,1.836],[1483977600000,1.839],[1484064000000,1.844],[1484150400000,1.839],[1484236800000,1.839],[1484582400000,1.836],[1484668800000,1.827],[1484755200000,1.827],[1484841600000,1.834],[1485100800000,1.832],[1485187200000,1.838],[1485273600000,1.862],[1485360000000,1.864],[1486051200000,1.865],[1486310400000,1.868],[1486396800000,1.875],[1486483200000,1.885],[1486569600000,1.887],[1486656000000,1.895],[1486915200000,1.908],[1487001600000,1.912],[1487088000000,1.918],[1487174400000,1.917],[1487260800000,1.921],[1487606400000,1.938],[1487692800000,1.94],[1487779200000,1.93],[1487865600000,1.932],[1488124800000,1.938],[1488211200000,1.93],[1488297600000,1.952],[1488384000000,1.943],[1488470400000,1.949],[1488729600000,1.941],[1488816000000,1.942],[1488902400000,1.947],[1488988800000,1.951],[1489075200000,1.959],[1489334400000,1.958],[1489420800000,1.957],[1489507200000,1.969],[1489593600000,1.961],[1489680000000,1.96],[1489939200000,1.965],[1490025600000,1.938],[1490112000000,1.945],[1490198400000,1.94],[1490284800000,1.943],[1490544000000,1.942],[1490630400000,1.956],[1490716800000,1.968],[1490803200000,1.971],[1490889600000,1.972],[1491321600000,1.964],[1491408000000,1.965],[1491494400000,1.965],[1491753600000,1.968],[1491840000000,1.958],[1491926400000,1.949],[1492012800000,1.933],[1492358400000,1.953],[1492444800000,1.952],[1492531200000,1.949],[1492617600000,1.968],[1492704000000,1.969],[1492963200000,1.988],[1493049600000,2.007],[1493136000000,2.005],[1493222400000,2.017],[1493308800000,2.022],[1493654400000,2.045],[1493740800000,2.036],[1493827200000,2.039],[1493913600000,2.044],[1494172800000,2.05],[1494259200000,2.06],[1494345600000,2.062],[1494432000000,2.06],[1494518400000,2.061],[1494777600000,2.065],[1494864000000,2.071],[1494950400000,2.015],[1495036800000,2.03],[1495123200000,2.045],[1495382400000,2.058],[1495468800000,2.059],[1495555200000,2.072],[1495641600000,2.087],[1495728000000,2.091],[1496160000000,2.088],[1496246400000,2.082],[1496332800000,2.105],[1496592000000,2.099],[1496678400000,2.091],[1496764800000,2.096],[1496851200000,2.101],[1496937600000,2.052],[1497196800000,2.04],[1497283200000,2.055],[1497369600000,2.046],[1497456000000,2.034],[1497542400000,2.03],[1497801600000,2.062],[1497888000000,2.049],[1497974400000,2.072],[1498060800000,2.071],[1498147200000,2.081],[1498406400000,2.072],[1498492800000,2.036],[1498579200000,2.059],[1498665600000,2.02],[1498752000000,2.013],[1499011200000,1.996],[1499184000000,2.019],[1499270400000,2.001],[1499356800000,2.021],[1499616000000,2.036],[1499702400000,2.042],[1499788800000,2.064],[1499875200000,2.067],[1499961600000,2.082],[1500220800000,2.076],[1500307200000,2.091],[1500393600000,2.099],[1500480000000,2.101],[1500566400000,2.099],[1500825600000,2.106],[1500912000000,2.105],[1500998400000,2.113],[1501084800000,2.094],[1501171200000,2.093],[1501430400000,2.081],[1501516800000,2.082],[1501603200000,2.09],[1501689600000,2.083],[1501776000000,2.083],[1502035200000,2.098],[1502121600000,2.094],[1502208000000,2.088],[1502294400000,2.034],[1502380800000,2.045],[1502640000000,2.07],[1502726400000,2.074],[1502812800000,2.08],[1502899200000,2.036],[1502985600000,2.035],[1503244800000,2.032],[1503331200000,2.059],[1503417600000,2.052],[1503504000000,2.043],[1503590400000,2.041],[1503849600000,2.039],[1503936000000,2.046],[1504022400000,2.065],[1504108800000,2.082],[1504195200000,2.078],[1504540800000,2.042],[1504627200000,2.047],[1504713600000,2.05],[1504800000000,2.026],[1505059200000,2.047],[1505145600000,2.061],[1505232000000,2.068],[1505318400000,2.058],[1505404800000,2.063],[1505664000000,2.06],[1505750400000,2.067],[1505836800000,2.066],[1505923200000,2.059],[1506009600000,2.058],[1506268800000,2.039],[1506355200000,2.047],[1506441600000,2.07],[1506528000000,2.071],[1506614400000,2.09],[1507478400000,2.121],[1507564800000,2.116],[1507651200000,2.109],[1507737600000,2.104],[1507824000000,2.113],[1508083200000,2.12],[1508169600000,2.124],[1508256000000,2.125],[1508342400000,2.12],[1508428800000,2.126],[1508688000000,2.115],[1508774400000,2.121],[1508860800000,2.114],[1508947200000,2.106],[1509033600000,2.171],[1509292800000,2.177],[1509379200000,2.181],[1509465600000,2.178],[1509552000000,2.169],[1509638400000,2.186],[1509897600000,2.198],[1509984000000,2.199],[1510070400000,2.209],[1510156800000,2.2],[1510243200000,2.198],[1510502400000,2.203],[1510588800000,2.196],[1510675200000,2.181],[1510761600000,2.211],[1510848000000,2.202],[1511107200000,2.2],[1511193600000,2.227],[1511280000000,2.227],[1511452800000,2.219],[1511712000000,2.22],[1511798400000,2.228],[1511884800000,2.193],[1511971200000,2.212],[1512057600000,2.203],[1512316800000,2.179],[1512403200000,2.18],[1512489600000,2.191],[1512576000000,2.2],[1512662400000,2.211],[1512921600000,2.226],[1513008000000,2.223],[1513094400000,2.229],[1513180800000,2.221],[1513267200000,2.25],[1513526400000,2.269],[1513612800000,2.255],[1513699200000,2.251],[1513785600000,2.243],[1513872000000,2.241],[1514217600000,2.216],[1514304000000,2.217],[1514390400000,2.218],[1514476800000,2.201],[1514649600000,2.201],[1514822400000,2.23],[1514908800000,2.246],[1514995200000,2.253],[1515081600000,2.272],[1515340800000,2.276],[1515427200000,2.281],[1515513600000,2.284],[1515600000000,2.298],[1515686400000,2.307],[1516032000000,2.28],[1516118400000,2.304],[1516204800000,2.307],[1516291200000,2.307],[1516550400000,2.329],[1516636800000,2.345],[1516723200000,2.327],[1516809600000,2.318],[1516896000000,2.344],[1517155200000,2.326],[1517241600000,2.308],[1517328000000,2.316],[1517414400000,2.29],[1517500800000,2.237],[1517760000000,2.154],[1517846400000,2.213],[1517932800000,2.179],[1518019200000,2.085],[1518105600000,2.133],[1518364800000,2.163],[1518451200000,2.181],[1518537600000,2.229],[1519228800000,2.262],[1519315200000,2.307],[1519574400000,2.334],[1519660800000,2.295],[1519747200000,2.285],[1519833600000,2.251],[1519920000000,2.271],[1520179200000,2.299],[1520265600000,2.308],[1520352000000,2.31],[1520438400000,2.321],[1520524800000,2.375],[1520784000000,2.38],[1520870400000,2.347],[1520956800000,2.344],[1521043200000,2.339],[1521129600000,2.342],[1521388800000,2.288],[1521475200000,2.292],[1521561600000,2.286],[1521648000000,2.22],[1521734400000,2.166],[1521993600000,2.244],[1522080000000,2.157],[1522166400000,2.135],[1522252800000,2.183],[1522598400000,2.111],[1522684800000,2.135],[1522771200000,2.172],[1523203200000,2.15],[1523289600000,2.196],[1523376000000,2.179],[1523462400000,2.2],[1523548800000,2.192],[1523808000000,2.207],[1523894400000,2.249],[1523980800000,2.257],[1524067200000,2.239],[1524153600000,2.205],[1524412800000,2.204],[1524499200000,2.163],[1524585600000,2.16],[1524672000000,2.213],[1524758400000,2.218],[1525190400000,2.222],[1525276800000,2.224],[1525363200000,2.26],[1525622400000,2.279],[1525708800000,2.279],[1525795200000,2.307],[1525881600000,2.332],[1525968000000,2.322],[1526227200000,2.32],[1526313600000,2.299],[1526400000000,2.323],[1526486400000,2.312],[1526572800000,2.304],[1526832000000,2.319],[1526918400000,2.313],[1527004800000,2.331],[1527091200000,2.33],[1527177600000,2.335],[1527523200000,2.329],[1527609600000,2.352],[1527696000000,2.347],[1527782400000,2.382],[1528041600000,2.407],[1528128000000,2.413],[1528214400000,2.424],[1528300800000,2.4],[1528387200000,2.404],[1528646400000,2.412],[1528732800000,2.428],[1528819200000,2.427],[1528905600000,2.447],[1528992000000,2.452],[1529337600000,2.439],[1529424000000,2.47],[1529510400000,2.453],[1529596800000,2.451],[1529856000000,2.401],[1529942400000,2.421],[1530028800000,2.4],[1530115200000,2.434],[1530201600000,2.445],[1530288000000,2.445],[1530460800000,2.464],[1530547200000,2.448],[1530720000000,2.467],[1530806400000,2.511],[1531065600000,2.536],[1531152000000,2.533],[1531238400000,2.518],[1531324800000,2.578],[1531411200000,2.581],[1531670400000,2.573],[1531756800000,2.594],[1531843200000,2.591],[1531929600000,2.584],[1532016000000,2.605],[1532275200000,2.613],[1532361600000,2.634],[1532448000000,2.674],[1532534400000,2.627],[1532620800000,2.598],[1532880000000,2.57],[1532966400000,2.586],[1533052800000,2.604],[1533139200000,2.625],[1533225600000,2.649],[1533484800000,2.672],[1533571200000,2.678],[1533657600000,2.674],[1533744000000,2.673],[1533830400000,2.658],[1534089600000,2.663],[1534176000000,2.681],[1534262400000,2.654],[1534348800000,2.664],[1534435200000,2.663],[1534694400000,2.655],[1534780800000,2.651],[1534867200000,2.658],[1534953600000,2.658],[1535040000000,2.697],[1535299200000,2.716],[1535385600000,2.702],[1535472000000,2.735],[1535558400000,2.73],[1535644800000,2.74],[1535990400000,2.726],[1536076800000,2.693],[1536163200000,2.666],[1536249600000,2.658],[1536508800000,2.671],[1536595200000,2.696],[1536681600000,2.691],[1536768000000,2.715],[1536854400000,2.705],[1537113600000,2.671],[1537200000000,2.694],[1537286400000,2.693],[1537372800000,2.721],[1537459200000,2.699],[1537804800000,2.715],[1537891200000,2.719],[1537977600000,2.746],[1538064000000,2.751],[1538928000000,2.66],[1539014400000,2.668],[1539100800000,2.55],[1539187200000,2.524],[1539273600000,2.592],[1539532800000,2.561],[1539619200000,2.637],[1539705600000,2.636],[1539792000000,2.583],[1539878400000,2.583],[1540137600000,2.59],[1540224000000,2.584],[1540310400000,2.467],[1540396800000,2.547],[1540483200000,2.493],[1540742400000,2.436],[1540828800000,2.478],[1540915200000,2.538],[1541001600000,2.578],[1541088000000,2.53],[1541347200000,2.504],[1541433600000,2.527],[1541520000000,2.603],[1541606400000,2.591],[1541692800000,2.554],[1541952000000,2.484],[1542038400000,2.49],[1542124800000,2.46],[1542211200000,2.504],[1542297600000,2.493],[1542556800000,2.406],[1542643200000,2.368],[1542729600000,2.391],[1542902400000,2.368],[1543161600000,2.428],[1543248000000,2.436],[1543334400000,2.515],[1543420800000,2.502],[1543507200000,2.522],[1543766400000,2.568],[1543852800000,2.453],[1544025600000,2.456],[1544112000000,2.378],[1544371200000,2.404],[1544457600000,2.422],[1544544000000,2.446],[1544630400000,2.437],[1544716800000,2.375],[1544976000000,2.329],[1545062400000,2.342],[1545148800000,2.29],[1545235200000,2.258],[1545321600000,2.184],[1545580800000,2.137],[1545753600000,2.261],[1545840000000,2.272],[1545926400000,2.261],[1546185600000,2.277],[1546358400000,2.284],[1546444800000,2.21],[1546531200000,2.305],[1546790400000,2.325],[1546876800000,2.343],[1546963200000,2.364],[1547049600000,2.358],[1547136000000,2.342],[1547395200000,2.309],[1547481600000,2.353],[1547568000000,2.355],[1547654400000,2.372],[1547740800000,2.398],[1548000000000,2.401],[1548086400000,2.356],[1548172800000,2.363],[1548259200000,2.373],[1548345600000,2.408],[1548604800000,2.36],[1548691200000,2.333],[1548777600000,2.395],[1548864000000,2.418],[1548950400000,2.409],[1549814400000,2.436],[1549900800000,2.483],[1549987200000,2.48],[1550073600000,2.486],[1550160000000,2.493],[1550419200000,2.494],[1550505600000,2.497],[1550592000000,2.494],[1550678400000,2.472],[1550764800000,2.488],[1551024000000,2.496],[1551110400000,2.492],[1551196800000,2.486],[1551283200000,2.481],[1551369600000,2.502],[1551628800000,2.504],[1551715200000,2.504],[1551801600000,2.491],[1551888000000,2.463],[1551974400000,2.464],[1552233600000,2.515],[1552320000000,2.525],[1552406400000,2.544],[1552492800000,2.535],[1552579200000,2.564],[1552838400000,2.567],[1552924800000,2.574],[1553011200000,2.586],[1553097600000,2.615],[1553184000000,2.561],[1553443200000,2.563],[1553529600000,2.573],[1553616000000,2.562],[1553702400000,2.571],[1553788800000,2.594],[1554048000000,2.623],[1554134400000,2.629],[1554220800000,2.647],[1554307200000,2.64],[1554652800000,2.666],[1554739200000,2.653],[1554825600000,2.666],[1554912000000,2.659],[1554998400000,2.678],[1555257600000,2.673],[1555344000000,2.682],[1555430400000,2.691],[1555516800000,2.687],[1555603200000,2.692],[1555862400000,2.699],[1555948800000,2.735],[1556035200000,2.732],[1556121600000,2.745],[1556208000000,2.749],[1556467200000,2.752],[1556553600000,2.733],[1557072000000,2.74],[1557158400000,2.698],[1557244800000,2.69],[1557331200000,2.68],[1557417600000,2.692],[1557676800000,2.597],[1557763200000,2.639],[1557849600000,2.686],[1557936000000,2.714],[1558022400000,2.692],[1558281600000,2.651],[1558368000000,2.677],[1558454400000,2.666],[1558540800000,2.626],[1558627200000,2.624],[1558886400000,2.621],[1558972800000,2.615],[1559059200000,2.593],[1559145600000,2.604],[1559232000000,2.562],[1559491200000,2.504],[1559577600000,2.567],[1559664000000,2.589],[1559750400000,2.611],[1560096000000,2.691],[1560182400000,2.695],[1560268800000,2.68],[1560355200000,2.695],[1560441600000,2.683],[1560700800000,2.7],[1560787200000,2.739],[1560873600000,2.749],[1560960000000,2.771],[1561046400000,2.754],[1561305600000,2.753],[1561392000000,2.709],[1561478400000,2.726],[1561564800000,2.74],[1561651200000,2.743],[1561824000000,2.743],[1561910400000,2.776],[1561996800000,2.78],[1562083200000,2.806],[1562169600000,2.809],[1562256000000,2.802],[1562515200000,2.789],[1562601600000,2.803],[1562688000000,2.83],[1562774400000,2.821],[1562860800000,2.836],[1563120000000,2.845],[1563206400000,2.832],[1563292800000,2.823],[1563379200000,2.826],[1563465600000,2.796],[1563724800000,2.826],[1563811200000,2.846],[1563897600000,2.867],[1563984000000,2.834],[1564070400000,2.866],[1564329600000,2.857],[1564416000000,2.846],[1564502400000,2.808],[1564588800000,2.794],[1564675200000,2.758],[1564934400000,2.666],[1565020800000,2.722],[1565107200000,2.745],[1565193600000,2.81],[1565280000000,2.786],[1565539200000,2.758],[1565625600000,2.823],[1565712000000,2.736],[1565798400000,2.733],[1565884800000,2.778],[15661440</t>
   </si>
   <si>
+    <t>513500</t>
+  </si>
+  <si>
     <t>博时标普500ETF</t>
   </si>
   <si>
     <t xml:space="preserve"> [[1386172800000,1.0],[1386259200000,1.0002],[1386864000000,1.0005],[1387468800000,1.0029],[1388073600000,1.005],[1388419200000,1.006],[1388678400000,1.0049],[1389110400000,1.0064],[1389628800000,1.0068],[1389801600000,1.0073],[1389888000000,1.0063],[1390320000000,1.0093],[1390406400000,1.0025],[1390838400000,0.9845],[1390924800000,0.9752],[1391011200000,0.9821],[1391702400000,0.9882],[1391961600000,0.9911],[1392048000000,1.0026],[1392134400000,1.0033],[1392652800000,1.0151],[1392825600000,1.0157],[1393171200000,1.0205],[1393430400000,1.0249],[1393516800000,1.0277],[1393862400000,1.036],[1393948800000,1.0365],[1394035200000,1.0383],[1394121600000,1.0381],[1394380800000,1.0394],[1395158400000,1.031],[1395244800000,1.0395],[1395590400000,1.0311],[1395676800000,1.0354],[1395763200000,1.0282],[1395849600000,1.0269],[1395936000000,1.0321],[1396195200000,1.0406],[1396368000000,1.0503],[1396454400000,1.0497],[1396886400000,1.0295],[1396972800000,1.0401],[1397059200000,1.0189],[1397145600000,1.0092],[1397404800000,1.0178],[1397491200000,1.0254],[1397577600000,1.036],[1397664000000,1.0374],[1397750400000,1.0374],[1398009600000,1.0409],[1398268800000,1.0447],[1398355200000,1.0361],[1398700800000,1.0439],[1398787200000,1.0474],[1399219200000,1.0473],[1399392000000,1.044],[1399478400000,1.043],[1399564800000,1.045],[1399824000000,1.0558],[1399910400000,1.0566],[1399996800000,1.0521],[1400083200000,1.0421],[1400169600000,1.0455],[1400428800000,1.0496],[1400515200000,1.0425],[1400601600000,1.0515],[1400688000000,1.0543],[1400774400000,1.0591],[1401120000000,1.0654],[1401206400000,1.0645],[1401292800000,1.0704],[1401379200000,1.0722],[1401724800000,1.0728],[1401811200000,1.0747],[1401897600000,1.082],[1401984000000,1.0857],[1402243200000,1.0842],[1402329600000,1.0834],[1402416000000,1.0806],[1402502400000,1.0733],[1402588800000,1.0764],[1402848000000,1.0778],[1402934400000,1.0793],[1403020800000,1.0881],[1403107200000,1.0891],[1403193600000,1.0908],[1403452800000,1.0911],[1403539200000,1.0841],[1403625600000,1.0893],[1403712000000,1.0875],[1403798400000,1.0896],[1404057600000,1.0877],[1404144000000,1.0947],[1404230400000,1.0949],[1404316800000,1.1017],[1404662400000,1.0987],[1404748800000,1.0908],[1404835200000,1.0948],[1404921600000,1.0881],[1405008000000,1.0903],[1405267200000,1.0956],[1405353600000,1.0935],[1405440000000,1.0989],[1405526400000,1.0866],[1405612800000,1.0976],[1405872000000,1.0946],[1405958400000,1.1],[1406044800000,1.1025],[1406131200000,1.103],[1406217600000,1.098],[1406476800000,1.0987],[1406563200000,1.0935],[1406649600000,1.0943],[1406736000000,1.0729],[1406822400000,1.0698],[1407081600000,1.0771],[1407168000000,1.0666],[1407254400000,1.0673],[1407340800000,1.0615],[1407427200000,1.0718],[1407686400000,1.0743],[1407772800000,1.0726],[1407859200000,1.0803],[1407945600000,1.0852],[1408032000000,1.0851],[1408291200000,1.0941],[1408377600000,1.1001],[1408464000000,1.1034],[1408550400000,1.1076],[1408636800000,1.1053],[1408896000000,1.1111],[1408982400000,1.1125],[1409068800000,1.1125],[1409155200000,1.1105],[1409241600000,1.1144],[1409587200000,1.1143],[1409673600000,1.1139],[1409760000000,1.1117],[1409846400000,1.1179],[1410192000000,1.1041],[1410278400000,1.1065],[1410364800000,1.1082],[1410451200000,1.1018],[1410710400000,1.1007],[1410796800000,1.1091],[1410883200000,1.1103],[1410969600000,1.1165],[1411056000000,1.1154],[1411315200000,1.1068],[1411401600000,1.1002],[1411488000000,1.1087],[1411574400000,1.0915],[1411660800000,1.1011],[1411920000000,1.0988],[1412006400000,1.0956],[1412697600000,1.0933],[1412784000000,1.0702],[1412870400000,1.058],[1413129600000,1.0401],[1413216000000,1.0413],[1413302400000,1.0331],[1413388800000,1.0324],[1413475200000,1.046],[1413734400000,1.056],[1413820800000,1.0762],[1413907200000,1.0689],[1413993600000,1.0823],[1414080000000,1.09],[1414339200000,1.088],[1414425600000,1.1005],[1414512000000,1.0986],[1414598400000,1.1066],[1414684800000,1.1196],[1414944000000,1.1205],[1415030400000,1.1176],[1415116800000,1.1236],[1415203200000,1.1293],[1415289600000,1.1304],[1415548800000,1.1299],[1415635200000,1.1313],[1415721600000,1.1311],[1415808000000,1.1314],[1415894400000,1.1314],[1416153600000,1.1324],[1416240000000,1.1387],[1416326400000,1.1365],[1416412800000,1.1391],[1416499200000,1.1445],[1416758400000,1.1483],[1416844800000,1.1466],[1416931200000,1.1493],[1417104000000,1.1463],[1417363200000,1.1388],[1417449600000,1.1454],[1417536000000,1.1508],[1417622400000,1.1501],[1417708800000,1.1514],[1417968000000,1.1415],[1418054400000,1.1405],[1418140800000,1.121],[1418227200000,1.1254],[1418313600000,1.1077],[1418572800000,1.1006],[1418659200000,1.0917],[1418745600000,1.1132],[1418832000000,1.1412],[1418918400000,1.1466],[1419177600000,1.1511],[1419264000000,1.1535],[1419350400000,1.1536],[1419523200000,1.1562],[1419782400000,1.1584],[1419868800000,1.1532],[1419955200000,1.1406],[1420387200000,1.1205],[1420473600000,1.1105],[1420560000000,1.1239],[1420646400000,1.1446],[1420732800000,1.1346],[1420992000000,1.1241],[1421078400000,1.1206],[1421164800000,1.1144],[1421251200000,1.1037],[1421337600000,1.1183],[1421683200000,1.121],[1421769600000,1.1272],[1421856000000,1.1439],[1421942400000,1.1393],[1422201600000,1.143],[1422288000000,1.1277],[1422374400000,1.1107],[1422460800000,1.1226],[1422547200000,1.1084],[1422806400000,1.1231],[1422892800000,1.1389],[1422979200000,1.1334],[1423065600000,1.1462],[1423152000000,1.1409],[1423411200000,1.1367],[1423497600000,1.1485],[1423584000000,1.1492],[1423670400000,1.1608],[1423756800000,1.1648],[1424016000000,1.1648],[1424102400000,1.1674],[1424793600000,1.1761],[1424880000000,1.1745],[1424966400000,1.1727],[1425225600000,1.1805],[1425312000000,1.1757],[1425398400000,1.1703],[1425484800000,1.1718],[1425571200000,1.1555],[1425830400000,1.1606],[1425916800000,1.1414],[1426003200000,1.1398],[1426089600000,1.1548],[1426176000000,1.1472],[1426435200000,1.1631],[1426521600000,1.1587],[1426608000000,1.1722],[1426694400000,1.1646],[1426780800000,1.1757],[1427040000000,1.1727],[1427126400000,1.1647],[1427212800000,1.1481],[1427299200000,1.1447],[1427385600000,1.148],[1427644800000,1.1621],[1427731200000,1.1524],[1427817600000,1.1483],[1427904000000,1.1516],[1428336000000,1.1549],[1428422400000,1.1594],[1428508800000,1.1644],[1428595200000,1.171],[1428854400000,1.1665],[1428940800000,1.1687],[1429027200000,1.1733],[1429113600000,1.1721],[1429200000000,1.1581],[1429459200000,1.1683],[1429545600000,1.168],[1429632000000,1.174],[1429718400000,1.1768],[1429804800000,1.1786],[1430064000000,1.1732],[1430150400000,1.1764],[1430236800000,1.1711],[1430323200000,1.1588],[1430668800000,1.1757],[1430755200000,1.1622],[1430841600000,1.1569],[1430928000000,1.1607],[1431014400000,1.1768],[1431273600000,1.1706],[1431360000000,1.1677],[1431446400000,1.167],[1431532800000,1.1791],[1431619200000,1.1799],[1431878400000,1.1833],[1431964800000,1.1832],[1432051200000,1.1827],[1432137600000,1.1858],[1432224000000,1.183],[1432569600000,1.1726],[1432656000000,1.1839],[1432742400000,1.1827],[1432828800000,1.1751],[1433088000000,1.1778],[1433174400000,1.1769],[1433260800000,1.1792],[1433347200000,1.1692],[1433433600000,1.1677],[1433692800000,1.1613],[1433779200000,1.1613],[1433865600000,1.1752],[1433952000000,1.1773],[1434038400000,1.1693],[1434297600000,1.1639],[1434384000000,1.1703],[1434470400000,1.1725],[1434556800000,1.1836],[1434643200000,1.1768],[1434988800000,1.185],[1435075200000,1.1771],[1435161600000,1.1737],[1435248000000,1.1732],[1435507200000,1.1492],[1435593600000,1.1517],[1435680000000,1.1601],[1435766400000,1.16],[1436112000000,1.1558],[1436198400000,1.1625],[1436284800000,1.1437],[1436371200000,1.1457],[1436457600000,1.1599],[1436716800000,1.1762],[1436803200000,1.1819],[1436889600000,1.182],[1436976000000,1.1916],[1437062400000,1.1932],[1437321600000,1.1945],[1437408000000,1.1895],[1437494400000,1.1861],[1437580800000,1.1795],[1437667200000,1.1668],[1437926400000,1.1599],[1438012800000,1.1738],[1438099200000,1.1825],[1438185600000,1.1829],[1438272000000,1.1803],[1438531200000,1.1768],[1438617600000,1.1742],[1438704000000,1.1785],[1438790400000,1.1696],[1438876800000,1.1661],[1439136000000,1.1807],[1439222400000,1.1906],[1439308800000,1.2107],[1439395200000,1.2224],[1439481600000,1.2265],[1439740800000,1.2328],[1439827200000,1.2297],[1439913600000,1.2194],[1440000000000,1.1925],[1440086400000,1.1543],[1440345600000,1.1081],[1440432000000,1.0963],[1440518400000,1.1399],[1440604800000,1.1682],[1440691200000,1.1672],[1440950400000,1.1558],[1441036800000,1.1196],[1441123200000,1.1377],[1441641600000,1.1499],[1441728000000,1.134],[1441814400000,1.1423],[1441900800000,1.1468],[1442160000000,1.1419],[1442246400000,1.1557],[1442332800000,1.1665],[1442419200000,1.1627],[1442505600000,1.1431],[1442764800000,1.1494],[1442851200000,1.136],[1442937600000,1.1345],[1443024000000,1.131],[1443110400000,1.1304],[1443369600000,1.1008],[1443456000000,1.101],[1443542400000,1.1211],[1444233600000,1.1737],[1444320000000,1.1744],[1444579200000,1.1742],[1444665600000,1.163],[1444752000000,1.1607],[1444838400000,1.178],[1444924800000,1.1839],[1445184000000,1.1858],[1445270400000,1.1856],[1445356800000,1.1762],[1445443200000,1.1964],[1445529600000,1.2112],[1445788800000,1.2079],[1445875200000,1.2038],[1445961600000,1.2189],[1446048000000,1.2195],[1446134400000,1.2117],[1446393600000,1.2194],[1446480000000,1.2257],[1446566400000,1.2223],[1446652800000,1.2218],[1446739200000,1.223],[1446998400000,1.2133],[1447084800000,1.2159],[1447171200000,1.2121],[1447257600000,1.1955],[1447344000000,1.1826],[1447603200000,1.202],[1447689600000,1.2006],[1447776000000,1.2209],[1447862400000,1.2195],[1447948800000,1.2241],[1448208000000,1.2241],[1448294400000,1.226],[1448380800000,1.2257],[1448553600000,1.2273],[1448812800000,1.2224],[1448899200000,1.2357],[1448985600000,1.2223],[1449072000000,1.2052],[1449158400000,1.2273],[1449417600000,1.2213],[1449504000000,1.215],[1449590400000,1.2067],[1449676800000,1.2113],[1449763200000,1.1902],[1450022400000,1.1982],[1450108800000,1.2122],[1450195200000,1.231],[1450281600000,1.2149],[1450368000000,1.1944],[1450627200000,1.2028],[1450713600000,1.2135],[1450800000000,1.2281],[1450886400000,1.2266],[1451232000000,1.2237],[1451318400000,1.239],[1451404800000,1.2307],[1451491200000,1.2199],[1451836800000,1.2033],[1451923200000,1.2081],[1452009600000,1.1952],[1452096000000,1.1725],[1452182400000,1.1596],[1452441600000,1.1603],[1452528000000,1.1692],[1452614400000,1.1406],[1452700800000,1.1594],[1452787200000,1.1349],[1453132800000,1.1345],[1453219200000,1.1212],[1453305600000,1.127],[1453392000000,1.1495],[1453651200000,1.1312],[1453737600000,1.1469],[1453824000000,1.1343],[1453910400000,1.1404],[1453996800000,1.1683],[1454256000000,1.1681],[1454342400000,1.146],[1454428800000,1.152],[1454515200000,1.152],[1454601600000,1.1293],[1455552000000,1.1361],[1455638400000,1.1568],[1455724800000,1.15],[1455811200000,1.1506],[1456070400000,1.1666],[1456156800000,1.1541],[1456243200000,1.1599],[1456329600000,1.1735],[1456416000000,1.1716],[1456675200000,1.1642],[1456761600000,1.1908],[1456848000000,1.1975],[1456934400000,1.2003],[1457020800000,1.202],[1457280000000,1.1999],[1457366400000,1.1854],[1457452800000,1.1926],[1457539200000,1.1932],[1457625600000,1.2088],[1457884800000,1.2074],[1457971200000,1.2082],[1458057600000,1.2167],[1458144000000,1.2208],[1458230400000,1.2199],[1458489600000,1.2248],[1458576000000,1.2266],[1458662400000,1.2181],[1458748800000,1.2215],[1459094400000,1.2235],[1459180800000,1.2312],[1459267200000,1.2326],[1459353600000,1.2257],[1459440000000,1.233],[1459785600000,1.2182],[1459872000000,1.233],[1459958400000,1.2173],[1460044800000,1.2211],[1460304000000,1.2161],[1460390400000,1.2272],[1460476800000,1.2392],[1460563200000,1.2452],[1460649600000,1.2443],[1460908800000,1.2499],[1460995200000,1.2521],[1461081600000,1.2508],[1461168000000,1.2485],[1461254400000,1.2504],[1461513600000,1.2523],[1461600000000,1.2501],[1461686400000,1.2513],[1461772800000,1.2421],[1461859200000,1.2288],[1462204800000,1.2271],[1462291200000,1.2271],[1462377600000,1.2304],[1462464000000,1.2358],[1462723200000,1.2348],[1462809600000,1.2525],[1462896000000,1.2407],[1462982400000,1.2358],[1463068800000,1.2308],[1463328000000,1.2446],[1463414400000,1.2306],[1463500800000,1.2312],[1463587200000,1.2326],[1463673600000,1.2397],[1463932800000,1.236],[1464019200000,1.253],[1464105600000,1.2659],[1464192000000,1.2632],[1464278400000,1.2675],[1464624000000,1.2718],[1464710400000,1.2754],[1464796800000,1.2751999999999999],[1464883200000,1.2735],[1465142400000,1.2739],[1465228800000,1.2778],[1465315200000,1.2817],[1465747200000,1.2617],[1465833600000,1.2592],[1465920000000,1.2609],[1466006400000,1.26],[1466092800000,1.2568],[1466352000000,1.2624],[1466438400000,1.2647],[1466524800000,1.2678],[1466611200000,1.2795],[1466697600000,1.2355],[1466956800000,1.2239],[1467043200000,1.2489],[1467129600000,1.2665],[1467216000000,1.2832],[1467302400000,1.2894],[1467648000000,1.2824],[1467734400000,1.2945],[1467820800000,1.2928],[1467907200000,1.3129],[1468166400000,1.3171],[1468252800000,1.3284],[1468339200000,1.3275],[1468425600000,1.3335],[1468512000000,1.3314],[1468771200000,1.3376],[1468857600000,1.3359],[1468944000000,1.3412],[1469030400000,1.3348],[1469116800000,1.3368],[1469376000000,1.3364],[1469462400000,1.3352],[1469548800000,1.3315],[1469635200000,1.3322],[1469721600000,1.3327],[1469980800000,1.3261],[1470067200000,1.3212],[1470153600000,1.3205],[1470240000000,1.326],[1470326400000,1.3366],[1470585600000,1.3395],[1470672000000,1.3396],[1470758400000,1.3349],[1470844800000,1.3358],[1470931200000,1.3405],[1471190400000,1.342],[1471276800000,1.3324],[1471363200000,1.3302],[1471449600000,1.3374],[1471536000000,1.3343],[1471795200000,1.3422],[1471881600000,1.3435],[1471968000000,1.3333],[1472054400000,1.3351],[1472140800000,1.3307],[1472400000000,1.3449],[1472486400000,1.3415],[1472572800000,1.3404],[1472659200000,1.3378],[1472745600000,1.3423],[1473091200000,1.3444],[1473177600000,1.3421],[1473264000000,1.3406],[1473350400000,1.3091],[1473609600000,1.3328],[1473696000000,1.3099],[1473782400000,1.3122],[1474214400000,1.3186],[1474300800000,1.3151],[1474387200000,1.3321],[1474473600000,1.336],[1474560000000,1.3314],[1474819200000,1.3214],[1474905600000,1.328],[1474992000000,1.3359],[1475078400000,1.324],[1475164800000,1.3359],[1476028800000,1.3379],[1476115200000,1.3231],[1476201600000,1.3276],[1476288000000,1.3242],[1476374400000,1.3218],[1476633600000,1.322],[1476720000000,1.3285],[1476806400000,1.3317],[1476892800000,1.3297],[1476979200000,1.3343],[1477238400000,1.3431],[1477324800000,1.339],[1477411200000,1.3359],[1477497600000,1.3324],[1477584000000,1.3308],[1477843200000,1.3262],[1477929600000,1.3189],[1478016000000,1.3073],[1478102400000,1.3006],[1478188800000,1.2989],[1478448000000,1.3317],[1478534400000,1.339],[1478620800000,1.3542],[1478707200000,1.3581],[1478793600000,1.3606],[1479052800000,1.3639],[1479139200000,1.3785],[1479225600000,1.3785],[1479312000000,1.387],[1479398400000,1.386],[1479657600000,1.3998],[1479744000000,1.3989],[1479830400000,1.4025],[1480003200000,1.4132],[1480262400000,1.4033],[1480348800000,1.4023],[1480435200000,1.3983],[1480521600000,1.3953],[1480608000000,1.3925],[1480867200000,1.4021],[1480953600000,1.4008],[1481040000000,1.4241],[1481126400000,1.4259],[1481212800000,1.4393],[1481472000000,1.4398],[1481558400000,1.4463],[1481644800000,1.4366],[1481731200000,1.4475],[1481817600000,1.4494],[1482076800000,1.4481],[1482163200000,1.4568],[1482249600000,1.4537],[1482336000000,1.45],[1482422400000,1.4524],[1482768000000,1.4553],[1482854400000,1.4441],[1482940800000,1.4436],[1483027200000,1.4344],[1483113600000,1.4343],[1483372800000,1.448],[1483459200000,1.4568],[1483545600000,1.4513],[1483632000000,1.4432],[1483891200000,1.45],[1483977600000,1.4493],[1484064000000,1.4535],[1484150400000,1.4485],[1484236800000,1.4469],[1484496000000,1.4461],[1484582400000,1.4439],[1484668800000,1.4377],[1484755200000,1.4336],[1484841600000,1.4406],[1485100800000,1.4345],[1485187200000,1.4391],[1485273600000,1.4556],[1485360000000,1.4545],[1486051200000,1.4543],[1486310400000,1.4518],[1486396800000,1.4519],[1486483200000,1.4584],[1486569600000,1.4641],[1486656000000,1.4717],[1486915200000,1.4813],[1487001600000,1.4856],[1487088000000,1.4895],[1487174400000,1.4881],[1487260800000,1.4868],[1487606400000,1.5025],[1487692800000,1.502],[1487779200000,1.4998],[1487865600000,1.5014],[1488124800000,1.5065],[1488211200000,1.5012],[1488297600000,1.5229],[1488384000000,1.5144],[1488470400000,1.5169],[1488729600000,1.5096],[1488816000000,1.5088],[1488902400000,1.5074],[1488988800000,1.5106],[1489075200000,1.5152],[1489334400000,1.5132],[1489420800000,1.5108],[1489507200000,1.5232],[1489593600000,1.5153],[1489680000000,1.5135],[1489939200000,1.513],[1490025600000,1.4961],[1490112000000,1.4948],[1490198400000,1.4925],[1490284800000,1.4912],[1490544000000,1.4864],[1490630400000,1.4987],[1490716800000,1.5036],[1490803200000,1.5074],[1490889600000,1.5062],[1491321600000,1.4982],[1491408000000,1.5019],[1491494400000,1.5011],[1491753600000,1.504],[1491840000000,1.5002],[1491926400000,1.4941],[1492012800000,1.4778],[1492358400000,1.4931],[1492444800000,1.4902],[1492531200000,1.4838],[1492617600000,1.4977],[1492704000000,1.4939],[1492963200000,1.5066],[1493049600000,1.5192],[1493136000000,1.5187],[1493222400000,1.5208],[1493308800000,1.5186],[1493654400000,1.5233],[1493740800000,1.5202],[1493827200000,1.5226],[1493913600000,1.5272],[1494172800000,1.5285],[1494259200000,1.529],[1494345600000,1.5318],[1494432000000,1.5286],[1494518400000,1.524],[1494777600000,1.5291],[1494864000000,1.5269],[1494950400000,1.4964],[1495036800000,1.5013],[1495123200000,1.5152],[1495382400000,1.5204],[1495468800000,1.5229],[1495555200000,1.5288],[1495641600000,1.5343],[1495728000000,1.535],[1496160000000,1.5311],[1496246400000,1.5307],[1496332800000,1.5358],[1496592000000,1.5308],[1496678400000,1.5266],[1496764800000,1.5274],[1496851200000,1.5295],[1496937600000,1.5291],[1497196800000,1.5271],[1497283200000,1.5343],[1497369600000,1.5324],[1497456000000,1.5273],[1497542400000,1.5308],[1497801600000,1.5429],[1497888000000,1.5355],[1497974400000,1.5368],[1498060800000,1.5361],[1498147200000,1.5393],[1498406400000,1.5393],[1498492800000,1.5286],[1498579200000,1.5369],[1498665600000,1.5212],[1498752000000,1.5191],[1499011200000,1.5232],[1499184000000,1.5288],[1499270400000,1.5157],[1499356800000,1.5245],[1499616000000,1.5269],[1499702400000,1.5262],[1499788800000,1.5348],[1499875200000,1.5362],[1499961600000,1.5426],[1500220800000,1.5377],[1500307200000,1.5397],[1500393600000,1.5444],[1500480000000,1.5445],[1500566400000,1.5428],[1500825600000,1.541],[1500912000000,1.5471],[1500998400000,1.5484],[1501084800000,1.542],[1501171200000,1.5413],[1501430400000,1.538],[1501516800000,1.5387],[1501603200000,1.541],[1501689600000,1.5381],[1501776000000,1.5391],[1502035200000,1.5437],[1502121600000,1.5391],[1502208000000,1.5362],[1502294400000,1.5075],[1502380800000,1.5066],[1502640000000,1.5207],[1502726400000,1.5222],[1502812800000,1.5267],[1502899200000,1.5017],[1502985600000,1.4997],[1503244800000,1.5005],[1503331200000,1.5129],[1503417600000,1.5085],[1503504000000,1.503],[1503590400000,1.5068],[1503849600000,1.5024],[1503936000000,1.5025],[1504022400000,1.5053],[1504108800000,1.5118],[1504195200000,1.5126],[1504540800000,1.489],[1504627200000,1.4923],[1504713600000,1.4913],[1504800000000,1.4838],[1505059200000,1.4988],[1505145600000,1.5103],[1505232000000,1.5139],[1505318400000,1.5145],[1505404800000,1.5165],[1505664000000,1.5185],[1505750400000,1.5227],[1505836800000,1.5269],[1505923200000,1.5268],[1506009600000,1.5276],[1506268800000,1.5262],[1506355200000,1.5293],[1506441600000,1.5381],[1506528000000,1.5423],[1506614400000,1.5499],[1507478400000,1.5687],[1507564800000,1.5672],[1507651200000,1.5596],[1507737600000,1.5564],[1507824000000,1.5591],[1508083200000,1.5611],[1508169600000,1.5631],[1508256000000,1.5668],[1508342400000,1.5697],[1508428800000,1.5778],[1508688000000,1.574],[1508774400000,1.5781],[1508860800000,1.572],[1508947200000,1.5731],[1509033600000,1.5899],[1509292800000,1.585],[1509379200000,1.5844],[1509465600000,1.5846],[1509552000000,1.5825],[1509638400000,1.5846],[1509897600000,1.5906],[1509984000000,1.5895],[1510070400000,1.5931],[1510156800000,1.5886],[1510243200000,1.5866],[1510502400000,1.5895],[1510588800000,1.5872],[1510675200000,1.5756],[1510761600000,1.5895],[1510848000000,1.585],[1511107200000,1.5869],[1511193600000,1.5992],[1511280000000,1.5965],[1511452800000,1.5883],[1511712000000,1.5892],[1511798400000,1.6066],[1511884800000,1.608],[1511971200000,1.6222],[1512057600000,1.6197],[1512316800000,1.6189],[1512403200000,1.6128],[1512489600000,1.6138],[1512576000000,1.6195],[1512662400000,1.6288],[1512921600000,1.632],[1513008000000,1.6347],[1513094400000,1.6361],[1513180800000,1.6242],[1513267200000,1.6407],[1513526400000,1.6505],[1513612800000,1.6436],[1513699200000,1.6416],[1513785600000,1.6384],[1513872000000,1.6383],[1514217600000,1.627],[1514304000000,1.6283],[1514390400000,1.631],[1514476800000,1.6211],[1514649600000,1.621],[1514822400000,1.6277],[1514908800000,1.6343],[1514995200000,1.6441],[1515081600000,1.6524],[1515340800000,1.653],[1515427200000,1.6589],[1515513600000,1.6629],[1515600000000,1.6731],[1515686400000,1.679],[1516032000000,1.659],[1516118400000,1.6734],[1516204800000,1.6724],[1516291200000,1.6739],[1516550400000,1.6856],[1516636800000,1.6866],[1516723200000,1.6833],[1516809600000,1.6793],[1516896000000,1.6916],[1517155200000,1.6758],[1517241600000,1.6588],[1517328000000,1.6604],[1517414400000,1.6516],[1517500800000,1.6124],[1517760000000,1.549],[1517846400000,1.5781],[1517932800000,1.5653],[1518019200000,1.5058],[1518105600000,1.5372],[1518364800000,1.5533],[1518451200000,1.5637],[1518537600000,1.5894],[1519228800000,1.5957],[1519315200000,1.6197],[1519574400000,1.6361],[1519660800000,1.6095],[1519747200000,1.5954],[1519833600000,1.5757],[1519920000000,1.5833],[1520179200000,1.603],[1520265600000,1.6061],[1520352000000,1.6031],[1520438400000,1.6093],[1520524800000,1.6424],[1520784000000,1.6372],[1520870400000,1.624],[1520956800000,1.6146],[1521043200000,1.6119],[1521129600000,1.6195],[1521388800000,1.596],[1521475200000,1.5964],[1521561600000,1.5973],[1521648000000,1.5514],[1521734400000,1.5214],[1521993600000,1.5602],[1522080000000,1.5245],[1522166400000,1.5195],[1522252800000,1.5466],[1522598400000,1.5052],[1522684800000,1.5259],[1522771200000,1.5459],[1523203200000,1.5323],[1523289600000,1.5566],[1523376000000,1.5443],[1523462400000,1.5552],[1523548800000,1.5523],[1523808000000,1.5645],[1523894400000,1.5782],[1523980800000,1.5807],[1524067200000,1.572],[1524153600000,1.5602],[1524412800000,1.5634],[1524499200000,1.5473],[1524585600000,1.5462],[1524672000000,1.5676],[1524758400000,1.572],[1525190400000,1.5581],[1525276800000,1.5564],[1525363200000,1.5712],[1525622400000,1.578],[1525708800000,1.5797],[1525795200000,1.5965],[1525881600000,1.6125],[1525968000000,1.6097],[1526227200000,1.6066],[1526313600000,1.5991],[1526400000000,1.6124],[1526486400000,1.6097],[1526572800000,1.6077],[1526832000000,1.6217],[1526918400000,1.6153],[1527004800000,1.6198],[1527091200000,1.6176],[1527177600000,1.6151],[1527523200000,1.6003],[1527609600000,1.6254],[1527696000000,1.6129],[1527782400000,1.6288],[1528041600000,1.6393],[1528128000000,1.6393],[1528214400000,1.6503],[1528300800000,1.6463],[1528387200000,1.6535],[1528646400000,1.6567],[1528732800000,1.6608],[1528819200000,1.6549],[1528905600000,1.6544],[1528992000000,1.6612],[1529337600000,1.6492],[1529424000000,1.6608],[1529510400000,1.6534],[1529596800000,1.6589],[1529856000000,1.6382],[1529942400000,1.6489],[1530028800000,1.6441],[1530115200000,1.6639],[1530201600000,1.6702],[1530288000000,1.6701],[1530460800000,1.6749],[1530547200000,1.6749],[1530720000000,1.6818],[1530806400000,1.6999],[1531065600000,1.7165],[1531152000000,1.7189],[1531238400000,1.706],[1531324800000,1.7335],[1531411200000,1.7353],[1531670400000,1.7341],[1531756800000,1.7427],[1531843200000,1.7488],[1531929600000,1.7458],[1532016000000,1.7596],[1532275200000,1.7608],[1532361600000,1.7768],[1532448000000,1.7967],[1532534400000,1.7817],[1532620800000,1.7769],[1532880000000,1.7715],[1532966400000,1.781],[1533052800000,1.7822],[1533139200000,1.782],[1533225600000,1.8004],[1533484800000,1.8118],[1533571200000,1.8147],[1533657600000,1.8109],[1533744000000,1.8086],[1533830400000,1.7983],[1534089600000,1.7971],[1534176000000,1.8103],[1534262400000,1.8008],[1534348800000,1.8177],[1534435200000,1.8223],[1534694400000,1.8221],[1534780800000,1.8164],[1534867200000,1.8133],[1534953600000,1.8128],[1535040000000,1.8331],[1535299200000,1.8418],[1535385600000,1.8302],[1535472000000,1.8412],[1535558400000,1.8343],[1535644800000,1.8382],[1535990400000,1.8334],[1536076800000,1.8305],[1536163200000,1.823],[1536249600000,1.819],[1536508800000,1.8269],[1536595200000,1.8363],[1536681600000,1.8384],[1536768000000,1.8469],[1536854400000,1.8443],[1537113600000,1.8378],[1537200000000,1.8487],[1537286400000,1.8514],[1537372800000,1.8649],[1537459200000,1.8596],[1537804800000,1.8529],[1537891200000,1.8502],[1537977600000,1.8574],[1538064000000,1.8613],[1538928000000,1.8468],[1539014400000,1.8461],[1539100800000,1.7868],[1539187200000,1.7511],[1539273600000,1.7762],[1539532800000,1.7663],[1539619200000,1.8039],[1539705600000,1.803],[1539792000000,1.7814],[1539878400000,1.7836],[1540137600000,1.7719],[1540224000000,1.7649],[1540310400000,1.7112],[1540396800000,1.7438],[1540483200000,1.7166],[1540742400000,1.7019],[1540828800000,1.7335],[1540915200000,1.754],[1541001600000,1.7731],[1541088000000,1.7546],[1541347200000,1.7543],[1541433600000,1.7679],[1541520000000,1.805],[1541606400000,1.8038],[1541692800000,1.7915],[1541952000000,1.7599],[1542038400000,1.7612],[1542124800000,1.7424],[1542211200000,1.7612],[1542297600000,1.7648],[1542556800000,1.7321],[1542643200000,1.7014],[1542729600000,1.7108],[1542902400000,1.696],[1543161600000,1.7262],[1543248000000,1.7322],[1543334400000,1.7728],[1543420800000,1.7656],[1543507200000,1.78],[1543766400000,1.8009],[1543852800000,1.7306],[1544025600000,1.7198],[1544112000000,1.6818],[1544371200000,1.6854],[1544457600000,1.6924],[1544544000000,1.7031],[1544630400000,1.6956],[1544716800000,1.6638],[1544976000000,1.6337],[1545062400000,1.6322],[1545148800000,1.6077],[1545235200000,1.5845],[1545321600000,1.5499],[1545580800000,1.5116],[1545753600000,1.5814],[1545840000000,1.5963],[1545926400000,1.5885],[1546185600000,1.6019],[1546358400000,1.6004],[1546444800000,1.5645],[1546531200000,1.6179],[1546790400000,1.6276],[1546876800000,1.6407],[1546963200000,1.6507],[1547049600000,1.6495],[1547136000000,1.6434],[1547395200000,1.6266],[1547481600000,1.6436],[1547568000000,1.649],[1547654400000,1.661],[1547740800000,1.6847],[1548086400000,1.6653],[1548172800000,1.6718],[1548259200000,1.67],[1548345600000,1.6874],[1548604800000,1.6629],[1548691200000,1.6578],[1548777600000,1.6833],[1548864000000,1.6902],[1548950400000,1.6932],[1549814400000,1.7058],[1549900800000,1.7346],[1549987200000,1.7376],[1550073600000,1.7353],[1550160000000,1.7514],[1550505600000,1.7544],[1550592000000,1.7555],[1550678400000,1.7407],[1550764800000,1.7501],[1551024000000,1.7518],[1551110400000,1.7457],[1551196800000,1.7425],[1551283200000,1.739],[1551369600000,1.7525],[1551628800000,1.7477],[1551715200000,1.7446],[1551801600000,1.7345],[1551888000000,1.7222],[1551974400000,1.7215],[1552233600000,1.7457],[1552320000000,1.749],[1552406400000,1.761],[1552492800000,1.7571],[1552579200000,1.7702],[1552838400000,1.7746],[1552924800000,1.7737],[1553011200000,1.7694],[1553097600000,1.782],[1553184000000,1.7507],[1553443200000,1.7532],[1553529600000,1.7643],[1553616000000,1.7587],[1553702400000,1.7684],[1553788800000,1.7821],[1554048000000,1.7987],[1554134400000,1.7978],[1554220800000,1.8026],[1554307200000,1.8029],[1554652800000,1.817],[1554739200000,1.805],[1554825600000,1.8105],[1554912000000,1.8099],[1554998400000,1.8256],[1555257600000,1.8215],[1555344000000,1.8219],[1555430400000,1.8181],[1555516800000,1.8158],[1555862400000,1.8207],[1555948800000,1.8381],[1556035200000,1.8373],[1556121600000,1.8392],[1556208000000,1.8479],[1556467200000,1.8498],[1556553600000,1.851],[1557072000000,1.8445],[1557158400000,1.8213],[1557244800000,1.818],[1557331200000,1.8147],[1557417600000,1.8285],[1557676800000,1.785],[1557763200000,1.8103],[1557849600000,1.8285],[1557936000000,1.846],[1558022400000,1.8396],[1558281600000,1.8305],[1558368000000,1.8459],[1558454400000,1.8407],[1558540800000,1.819],[1558627200000,1.8218],[1558972800000,1.8058],[1559059200000,1.7935],[1559145600000,1.7976],[1559232000000,1.7742],[1559491200000,1.7667],[1559577600000,1.8026],[1559664000000,1.8195],[1559750400000,1.8323],[1560096000000,1.8596],[1560182400000,1.8589],[1560268800000,1.8552],[1560355200000,1.8633],[1560441600000,1.8606],[1560700800000,1.8622],[1560787200000,1.8804],[1560873600000,1.8846],[1560960000000,1.9],[1561046400000,1.8884],[1561305600000,1.886],[1561392000000,1.87],[1561478400000,1.871],[1561564800000,1.8805],[1561651200000,1.8902],[1561824000000,1.8901],[1561910400000,1.9037],[1561996800000,1.9036],[1562083200000,1.9223],[1562256000000,1.9203],[1562515200000,1.9161],[1562601600000,1.9183],[1562688000000,1.9271],[1562774400000,1.9265],[1562860800000,1.935],[1563120000000,1.9356],[1563206400000,1.93],[1563292800000,1.9205],[1563379200000,1.9257],[1563465600000,1.9104],[1563724800000,1.9191],[1563811200000,1.9337],[1563897600000,1.9439],[1563984000000,1.9304],[1564070400000,1.946],[1564329600000,1.9435],[1564416000000,1.9396],[1564502400000,1.918],[1564588800000,1.9034],[1564675200000,1.8914],[1564934400000,1.8408],[1565020800000,1.8769],[1565107200000,1.8862],[1565193600000,1.9233],[1565280000000,1.913],[1565539200000,1.8922],[1565625600000,1.9232],[1565712000000,1.8668],[1565798400000,1.8705],[1565884800000,1.8989],[1566144000000,1.9229],[1566230400000,1.9101],[1566316800000,1.9255],[1566403200000,1.9259],[1566489600000,1.8784],[1566748800000,1.8989],[1566835200000,1.8985],[1566921600000,1.9118],[1567008000000,1.9367],[1567094400000,1.938],[1567440000000,1.9247],[1567526400000,1.9455],[1567612800000,1.9701],[1567699200000,1.9722],[1567958400000,1.9718],[1568044800000,1.9722],[1568131200000,1.9864],[1568217600000,1.9925],[1568563200000,1.9799],[1568649600000,1.987],[1568736000000,1.9875],[1568822400000,1.9877],[1568908800000,1.9778],[1569168000000,1.9779],[1569254400000,1.961],[1569340800000,1.9728],[1569427200000,1.9682],[1569513600000,1.958],[1569772800000,1.9677],[1570464000000,1.9126],[1570550400000,1.9306],[1570636800000,1.9432],[1570723200000,1.9643],[1570982400000,1.9613],[1571068800000,1.9803],[1571155200000,1.9774],[1571241600000,1.9841],[1571328000000,1.9736],[1571587200000,1.9868],[1571673600000,1.9793],[1571760000000,1.9874],[1571846400000,1.9903],[1571932800000,1.999],[1572192000000,2.0103],[1572278400000,2.0045],[1572364800000,2.0103],[1572451200000,2.0027],[1572537600000,2.0192],[1572796800000,2.025],[1572883200000,2.0226],[1572969600000,2.0156],[1573056000000,2.0198],[1573142400000,2.0233],[1573401600000,2.0189],[1573488000000,2.0237],[1573574400000,2.0263],[1573660800000,2.03],[1573747200000,2.0461],[1574006400000,2.0456],[1574092800000,2.0442],[1574179200000,2.0394],[1574265600000,2.0391],[1574352000000,2.046],[1574611200000,2.0639],[1574697600000,2.067],[1574784000000,2.0757],[1574956800000,2.0662],[1575216000000,2.0472],[1575302400000,2.0324],[1575388800000,2.0495],[1575475200000,2.057],[1575561600000,2.0717],[1575820800000,2.0657],[1575907200000,2.0635],[1575993600000,2.069],[1576080000000,2.0829],[1576166400000,2.0807],[1576425600000,2.0883],[1576512000000,2.0903],[1576598400000,2.0897],[1576684800000,2.1005],[1576771200000,2.1105],[1577030400000,2.115],[1577116800000,2.1147],[1577289600000,2.1161],[1577376000000,2.1182],[1577635200000,2.104],[1577721600000,2.1088],[1577894400000,2.1222],[1577980800000,2.1094],[1578240000000,2.1176],[1578326400000,2.1111],[1578412800000,2.1146],[1578499200000,2.1303],[1578585600000,2.1198],[1578844800000,2.1318],[1578931200000,2.1195],[1579017600000,2.12],[1579104000000,2.1363],[1579190400000,2.1468],[1579536000000,2.1323],[1579622400000,2.1406],[1579708800000,2.1439],[1580659200000,2.106],[1580745600000,2.1537],[1580832000000,2.1792],[1580918400000,2.1918],[1581004800000,2.1734],[1581264000000,2.1927],[1581350400000,2.1974],[1581436800000,2.2061],[1581523200000,2.2052],[1581609600000,2.2113],[1581955200000,2.204],[1582041600000,2.2205],[1582128000000,2.2123],[1582214400000,2.1949],[1582473600000,2.1224],[158</t>
   </si>
   <si>
+    <t>161128</t>
+  </si>
+  <si>
     <t>易方达标普信息科技人民币</t>
   </si>
   <si>
     <t xml:space="preserve"> [[1481558400000,1.0],[1481817600000,1.0007],[1482076800000,0.9984],[1482163200000,1.0002],[1482249600000,1.0004],[1482336000000,0.9998],[1482422400000,1.0001],[1482681600000,1.0],[1482768000000,1.0],[1482854400000,1.0006],[1482940800000,1.0006],[1483027200000,0.9987],[1483113600000,0.9987],[1483372800000,1.0014],[1483459200000,1.0021],[1483545600000,0.999],[1483632000000,0.9899],[1483891200000,0.9996],[1483977600000,0.999],[1484064000000,1.0007],[1484150400000,0.9982],[1484236800000,0.9956],[1484582400000,0.9957],[1484668800000,0.9897],[1484755200000,0.9897],[1484841600000,0.9928],[1485100800000,0.9911],[1485187200000,0.9933],[1485273600000,1.0032],[1485360000000,1.0018],[1486051200000,1.0039],[1486310400000,1.0056],[1486396800000,1.0085],[1486483200000,1.0136],[1486569600000,1.0141],[1486656000000,1.0174],[1486915200000,1.0233],[1487001600000,1.0251],[1487088000000,1.0262],[1487174400000,1.0281],[1487260800000,1.0278],[1487606400000,1.0376],[1487692800000,1.0398],[1487779200000,1.0367],[1487865600000,1.0379],[1488124800000,1.0397],[1488211200000,1.0348],[1488297600000,1.0497],[1488384000000,1.0432],[1488470400000,1.0464],[1488729600000,1.0431],[1488816000000,1.047],[1488902400000,1.0491],[1488988800000,1.0499],[1489075200000,1.0548],[1489334400000,1.0538],[1489420800000,1.0533],[1489507200000,1.059],[1489593600000,1.0575],[1489680000000,1.0582],[1489939200000,1.0611],[1490025600000,1.0477],[1490112000000,1.0526],[1490198400000,1.0489],[1490284800000,1.0492],[1490544000000,1.0479],[1490630400000,1.0561],[1490716800000,1.0601],[1490803200000,1.0611],[1490889600000,1.0616],[1491321600000,1.0558],[1491408000000,1.0557],[1491494400000,1.0553],[1491753600000,1.0552],[1491840000000,1.0497],[1491926400000,1.0455],[1492012800000,1.0374],[1492358400000,1.0488],[1492444800000,1.0489],[1492531200000,1.0453],[1492617600000,1.0568],[1492704000000,1.0572],[1492963200000,1.0677],[1493049600000,1.0765],[1493136000000,1.074],[1493222400000,1.081],[1493308800000,1.0849],[1493654400000,1.0969],[1493740800000,1.0947],[1493827200000,1.096],[1493913600000,1.098],[1494172800000,1.1035],[1494259200000,1.1065],[1494345600000,1.1109],[1494432000000,1.1097],[1494518400000,1.1114],[1494777600000,1.1155],[1494864000000,1.1202],[1494950400000,1.0884],[1495036800000,1.094],[1495123200000,1.1018],[1495382400000,1.1099],[1495468800000,1.1106],[1495555200000,1.1172],[1495641600000,1.1245],[1495728000000,1.1248],[1496160000000,1.1237],[1496246400000,1.1179],[1496332800000,1.1286],[1496592000000,1.1268],[1496678400000,1.1227],[1496764800000,1.1176],[1496851200000,1.1285],[1496937600000,1.103],[1497196800000,1.0909],[1497283200000,1.0995],[1497369600000,1.0938],[1497456000000,1.0875],[1497542400000,1.0878],[1497801600000,1.1044],[1497888000000,1.0981],[1497974400000,1.1066],[1498060800000,1.1071],[1498147200000,1.1147],[1498406400000,1.108],[1498492800000,1.0915],[1498579200000,1.1014],[1498665600000,1.0803],[1498752000000,1.0752],[1499011200000,1.0667],[1499184000000,1.0798],[1499270400000,1.0715],[1499356800000,1.0835],[1499616000000,1.0925],[1499702400000,1.0966],[1499788800000,1.1084],[1499875200000,1.1106],[1499961600000,1.1194],[1500220800000,1.1162],[1500307200000,1.1226],[1500393600000,1.1258],[1500480000000,1.1265],[1500566400000,1.1248],[1500825600000,1.1271],[1500912000000,1.1265],[1500998400000,1.1293],[1501084800000,1.1169],[1501171200000,1.117],[1501430400000,1.1097],[1501516800000,1.1129],[1501603200000,1.119],[1501689600000,1.1156],[1501776000000,1.1169],[1502035200000,1.1246],[1502121600000,1.1226],[1502208000000,1.121],[1502294400000,1.0935],[1502380800000,1.099],[1502640000000,1.1148],[1502726400000,1.1192],[1502812800000,1.1237],[1502899200000,1.1009],[1502985600000,1.1009],[1503244800000,1.0995],[1503331200000,1.1128],[1503417600000,1.1114],[1503504000000,1.1083],[1503590400000,1.108],[1503849600000,1.107],[1503936000000,1.1103],[1504022400000,1.1159],[1504108800000,1.1219],[1504195200000,1.1197],[1504540800000,1.1005],[1504627200000,1.1014],[1504713600000,1.1059],[1504800000000,1.0928],[1505059200000,1.1076],[1505145600000,1.1139],[1505232000000,1.114],[1505318400000,1.1115],[1505404800000,1.1139],[1505664000000,1.1134],[1505750400000,1.1194],[1505836800000,1.1168],[1505923200000,1.1139],[1506009600000,1.1143],[1506268800000,1.1002],[1506355200000,1.1066],[1506441600000,1.1206],[1506528000000,1.1238],[1506614400000,1.1331],[1507478400000,1.1523],[1507564800000,1.1489],[1507651200000,1.1463],[1507737600000,1.1462],[1507824000000,1.1529],[1508083200000,1.1562],[1508169600000,1.1567],[1508256000000,1.162],[1508342400000,1.1599],[1508428800000,1.1673],[1508688000000,1.1646],[1508774400000,1.1696],[1508860800000,1.1668],[1508947200000,1.1699],[1509033600000,1.2059],[1509292800000,1.2108],[1509379200000,1.2136],[1509465600000,1.2126],[1509552000000,1.2119],[1509638400000,1.2193],[1509897600000,1.2265],[1509984000000,1.2272],[1510070400000,1.2338],[1510156800000,1.225],[1510243200000,1.2236],[1510502400000,1.2244],[1510588800000,1.2234],[1510675200000,1.2119],[1510761600000,1.227],[1510848000000,1.219],[1511107200000,1.222],[1511193600000,1.2375],[1511280000000,1.2333],[1511452800000,1.2305],[1511712000000,1.2313],[1511798400000,1.2348],[1511884800000,1.2061],[1511971200000,1.2173],[1512057600000,1.2113],[1512316800000,1.1896],[1512403200000,1.192],[1512489600000,1.2013],[1512576000000,1.2092],[1512662400000,1.2144],[1512921600000,1.2224],[1513008000000,1.2196],[1513094400000,1.2216],[1513180800000,1.2168],[1513267200000,1.2324],[1513526400000,1.2421],[1513612800000,1.2346],[1513699200000,1.2329],[1513785600000,1.2247],[1513872000000,1.2243],[1514217600000,1.2091],[1514304000000,1.211],[1514390400000,1.2119],[1514476800000,1.206],[1514649600000,1.2096],[1514822400000,1.2207],[1514908800000,1.2299],[1514995200000,1.2382],[1515081600000,1.2494],[1515340800000,1.2519],[1515427200000,1.2515],[1515513600000,1.2524],[1515600000000,1.2568],[1515686400000,1.2597],[1516032000000,1.2438],[1516118400000,1.2615],[1516204800000,1.2648],[1516291200000,1.262],[1516550400000,1.2711],[1516636800000,1.2769],[1516723200000,1.2641],[1516809600000,1.2576],[1516896000000,1.2713],[1517155200000,1.2576],[1517241600000,1.2464],[1517328000000,1.2555],[1517414400000,1.2495],[1517500800000,1.2114],[1517760000000,1.1678],[1517846400000,1.1998],[1517932800000,1.1792],[1518019200000,1.1298],[1518105600000,1.1647],[1518364800000,1.181],[1518451200000,1.1889],[1518537600000,1.2152],[1519228800000,1.2335],[1519315200000,1.2579],[1519574400000,1.2744],[1519660800000,1.2586],[1519747200000,1.2532],[1519833600000,1.2341],[1519920000000,1.245],[1520179200000,1.2578],[1520265600000,1.2597],[1520352000000,1.2643],[1520438400000,1.2687],[1520524800000,1.2974],[1520784000000,1.2986],[1520870400000,1.2817],[1520956800000,1.2805],[1521043200000,1.2802],[1521129600000,1.2833],[1521388800000,1.257],[1521475200000,1.2557],[1521561600000,1.2516],[1521648000000,1.2152],[1521734400000,1.1855],[1521993600000,1.2294],[1522080000000,1.1815],[1522166400000,1.1712],[1522252800000,1.2002],[1522598400000,1.1654],[1522684800000,1.1778],[1522771200000,1.1951],[1523203200000,1.1826],[1523289600000,1.2098],[1523376000000,1.2008],[1523462400000,1.2139],[1523548800000,1.2113],[1523808000000,1.219],[1523894400000,1.2398],[1523980800000,1.2379],[1524067200000,1.2249],[1524153600000,1.2086],[1524412800000,1.2065],[1524499200000,1.1874],[1524585600000,1.183],[1524672000000,1.2123],[1524758400000,1.2107],[1525190400000,1.2263],[1525276800000,1.2309],[1525363200000,1.2505],[1525622400000,1.2609],[1525708800000,1.2661],[1525795200000,1.284],[1525881600000,1.3003],[1525968000000,1.2921],[1526227200000,1.2882],[1526313600000,1.2793],[1526400000000,1.2895],[1526486400000,1.2822],[1526572800000,1.2782],[1526832000000,1.2902],[1526918400000,1.2858],[1527004800000,1.2958],[1527091200000,1.2951],[1527177600000,1.2961],[1527523200000,1.2909],[1527609600000,1.3034],[1527696000000,1.3024],[1527782400000,1.3255],[1528041600000,1.3383],[1528128000000,1.3426],[1528214400000,1.3469],[1528300800000,1.3304],[1528387200000,1.3324],[1528646400000,1.3333],[1528732800000,1.3418],[1528819200000,1.3396],[1528905600000,1.3431],[1528992000000,1.3445],[1529337600000,1.3371],[1529424000000,1.3485],[1529510400000,1.3406],[1529596800000,1.3376999999999999],[1529856000000,1.3107],[1529942400000,1.3222],[1530028800000,1.3116],[1530115200000,1.3324],[1530201600000,1.3364],[1530288000000,1.3353],[1530460800000,1.3474],[1530547200000,1.3363],[1530720000000,1.3488],[1530806400000,1.3676],[1531065600000,1.3791],[1531152000000,1.3794],[1531238400000,1.3722],[1531324800000,1.4046],[1531411200000,1.4043],[1531670400000,1.4001],[1531756800000,1.4118],[1531843200000,1.4121],[1531929600000,1.4105],[1532016000000,1.4235],[1532275200000,1.4286],[1532361600000,1.4412],[1532448000000,1.4643],[1532534400000,1.4349],[1532620800000,1.414],[1532880000000,1.3948],[1532966400000,1.3991],[1533052800000,1.4143],[1533139200000,1.4252],[1533225600000,1.4372],[1533484800000,1.4491],[1533571200000,1.4516],[1533657600000,1.4528],[1533744000000,1.4523],[1533830400000,1.4438],[1534089600000,1.4457],[1534176000000,1.4552],[1534262400000,1.4445],[1534348800000,1.4495],[1534435200000,1.4509],[1534694400000,1.4451],[1534780800000,1.439],[1534867200000,1.4436],[1534953600000,1.4479],[1535040000000,1.4699],[1535299200000,1.4789],[1535385600000,1.4725],[1535472000000,1.4867],[1535558400000,1.4838],[1535644800000,1.4876],[1535990400000,1.4816],[1536076800000,1.4625],[1536163200000,1.4504],[1536249600000,1.4456],[1536508800000,1.4533],[1536595200000,1.4669],[1536681600000,1.4611],[1536768000000,1.4758],[1536854400000,1.4734],[1537113600000,1.4569],[1537200000000,1.4664],[1537286400000,1.4653],[1537372800000,1.4805],[1537459200000,1.4721],[1537804800000,1.4774],[1537891200000,1.4744],[1537977600000,1.4833],[1538064000000,1.4926],[1538928000000,1.4477],[1539014400000,1.4538],[1539100800000,1.3883],[1539187200000,1.3721],[1539273600000,1.4163],[1539532800000,1.3946],[1539619200000,1.4342],[1539705600000,1.4276],[1539792000000,1.4035],[1539878400000,1.4059],[1540137600000,1.4135],[1540224000000,1.4101],[1540310400000,1.3512],[1540396800000,1.395],[1540483200000,1.3718],[1540742400000,1.3456],[1540828800000,1.3645],[1540915200000,1.397],[1541001600000,1.4135],[1541088000000,1.3821],[1541347200000,1.3719],[1541433600000,1.3821],[1541520000000,1.4193],[1541606400000,1.4198],[1541692800000,1.4008],[1541952000000,1.3565],[1542038400000,1.3606],[1542124800000,1.3405],[1542211200000,1.3717],[1542297600000,1.3702],[1542556800000,1.3178],[1542643200000,1.2918],[1542729600000,1.3028],[1542902400000,1.2891],[1543161600000,1.3193],[1543248000000,1.3225],[1543334400000,1.3669],[1543420800000,1.3516],[1543507200000,1.3653],[1543766400000,1.394],[1543852800000,1.3335],[1544025600000,1.33],[1544112000000,1.2867],[1544371200000,1.3046],[1544457600000,1.3114],[1544544000000,1.3226],[1544630400000,1.3195],[1544716800000,1.2879],[1544976000000,1.2638],[1545062400000,1.2734],[1545148800000,1.2502],[1545235200000,1.229],[1545321600000,1.1921],[1545580800000,1.1637],[1545753600000,1.2287],[1545840000000,1.2387],[1545926400000,1.2308],[1546185600000,1.2415],[1546358400000,1.2395],[1546444800000,1.1825],[1546531200000,1.2312],[1546790400000,1.24],[1546876800000,1.2486],[1546963200000,1.2655],[1547049600000,1.2643],[1547136000000,1.258],[1547395200000,1.2406],[1547481600000,1.2578],[1547568000000,1.2597],[1547654400000,1.2673],[1547740800000,1.2866],[1548086400000,1.2683],[1548172800000,1.2754],[1548259200000,1.2835],[1548345600000,1.3038],[1548604800000,1.2774],[1548691200000,1.2629],[1548777600000,1.2992],[1548864000000,1.2916],[1548950400000,1.3001],[1549814400000,1.3314],[1549900800000,1.3541],[1549987200000,1.354],[1550073600000,1.3571],[1550160000000,1.3648],[1550505600000,1.3651],[1550592000000,1.3649],[1550678400000,1.3588],[1550764800000,1.3739],[1551024000000,1.3799],[1551110400000,1.3788],[1551196800000,1.3756],[1551283200000,1.3724],[1551369600000,1.3827],[1551628800000,1.3793],[1551715200000,1.3744],[1551801600000,1.3682],[1551888000000,1.3573],[1551974400000,1.3595],[1552233600000,1.3871],[1552320000000,1.3924],[1552406400000,1.4012],[1552492800000,1.4017],[1552579200000,1.4211],[1552838400000,1.4248],[1552924800000,1.4269],[1553011200000,1.4242],[1553097600000,1.4524],[1553184000000,1.4217],[1553443200000,1.4195],[1553529600000,1.4258],[1553616000000,1.4204],[1553702400000,1.4281],[1553788800000,1.4428],[1554048000000,1.4584],[1554134400000,1.4619],[1554220800000,1.4741],[1554307200000,1.4652],[1554652800000,1.4799],[1554739200000,1.4713],[1554825600000,1.4806],[1554912000000,1.4784],[1554998400000,1.4908],[1555257600000,1.4878],[1555344000000,1.4942],[1555430400000,1.5026],[1555516800000,1.5022],[1555862400000,1.5079],[1555948800000,1.5303],[1556035200000,1.5335],[1556121600000,1.5363],[1556208000000,1.5312],[1556467200000,1.5306],[1556553600000,1.533],[1557072000000,1.5247],[1557158400000,1.5003],[1557244800000,1.4975],[1557331200000,1.4897],[1557417600000,1.4984],[1557676800000,1.446],[1557763200000,1.4769],[1557849600000,1.4976],[1557936000000,1.5127],[1558022400000,1.5046],[1558281600000,1.4823],[1558368000000,1.4991],[1558454400000,1.4912],[1558540800000,1.4669],[1558627200000,1.4675],[1558972800000,1.4623],[1559059200000,1.4544],[1559145600000,1.4627],[1559232000000,1.4407],[1559491200000,1.4146],[1559577600000,1.4566],[1559664000000,1.4777],[1559750400000,1.494],[1560096000000,1.5346],[1560182400000,1.5351],[1560268800000,1.5267],[1560355200000,1.5301],[1560441600000,1.5181],[1560700800000,1.5204],[1560787200000,1.5451],[1560873600000,1.5503],[1560960000000,1.5693],[1561046400000,1.5552],[1561305600000,1.5579],[1561392000000,1.5328],[1561478400000,1.5512],[1561564800000,1.5569],[1561651200000,1.558],[1561824000000,1.5574],[1561910400000,1.5777],[1561996800000,1.5774],[1562083200000,1.5907],[1562256000000,1.589],[1562515200000,1.582],[1562601600000,1.5862],[1562688000000,1.5982],[1562774400000,1.5993],[1562860800000,1.6109],[1563120000000,1.6156],[1563206400000,1.6026],[1563292800000,1.6007],[1563379200000,1.6113],[1563465600000,1.6001],[1563724800000,1.6212],[1563811200000,1.6309],[1563897600000,1.6449],[1563984000000,1.6298],[1564070400000,1.6396],[1564329600000,1.6392],[1564416000000,1.6295],[1564502400000,1.6064],[1564588800000,1.6007],[1564675200000,1.5765],[1564934400000,1.52],[1565020800000,1.5538],[1565107200000,1.5704],[1565193600000,1.607],[1565280000000,1.5911],[1565539200000,1.5739],[1565625600000,1.613],[1565712000000,1.5664],[1565798400000,1.5628],[1565884800000,1.5913],[1566144000000,1.6157],[1566230400000,1.6096],[1566316800000,1.6271],[1566403200000,1.6243],[1566489600000,1.5747],[1566748800000,1.5955],[1566835200000,1.5988],[1566921600000,1.6008],[1567008000000,1.6276],[1567094400000,1.6282],[1567440000000,1.6085],[1567526400000,1.6346],[1567612800000,1.6666],[1567699200000,1.6642],[1567958400000,1.6527],[1568044800000,1.645],[1568131200000,1.6606],[1568217600000,1.6689],[1568563200000,1.6497],[1568649600000,1.6568],[1568736000000,1.6577],[1568822400000,1.6611],[1568908800000,1.6439],[1569168000000,1.6474],[1569254400000,1.6312],[1569340800000,1.6503],[1569427200000,1.651],[1569513600000,1.6308],[1569772800000,1.6464],[1570464000000,1.6119],[1570550400000,1.6342],[1570636800000,1.644],[1570723200000,1.6671],[1570982400000,1.6653],[1571068800000,1.6822],[1571155200000,1.6718],[1571241600000,1.669],[1571328000000,1.6524],[1571587200000,1.6686],[1571673600000,1.6467],[1571760000000,1.6505],[1571846400000,1.673],[1571932800000,1.6923],[1572192000000,1.7127],[1572278400000,1.6944],[1572364800000,1.7035],[1572451200000,1.7004],[1572537600000,1.7179],[1572796800000,1.7254],[1572883200000,1.7231],[1572969600000,1.716],[1573056000000,1.7262],[1573142400000,1.7343],[1573401600000,1.7348],[1573488000000,1.7407],[1573574400000,1.7457],[1573660800000,1.745],[1573747200000,1.7589],[1574006400000,1.7615],[1574092800000,1.7652],[1574179200000,1.7562],[1574265600000,1.7507],[1574352000000,1.7507],[1574611200000,1.7763],[1574697600000,1.7761],[1574784000000,1.7857],[1574870400000,1.7838],[1574956800000,1.7787],[1575216000000,1.7547],[1575302400000,1.7396],[1575388800000,1.7493],[1575475200000,1.759],[1575561600000,1.7741],[1575820800000,1.7664],[1575907200000,1.7664],[1575993600000,1.7778],[1576080000000,1.7929],[1576166400000,1.8013],[1576425600000,1.81],[1576512000000,1.8084],[1576598400000,1.8072],[1576684800000,1.8205],[1576771200000,1.8303],[1577030400000,1.8378],[1577116800000,1.8383],[1577203200000,1.837],[1577289600000,1.8425],[1577376000000,1.8447],[1577635200000,1.8326],[1577721600000,1.8375],[1577894400000,1.8636],[1577980800000,1.8466],[1578240000000,1.8522],[1578326400000,1.8497],[1578412800000,1.8619],[1578499200000,1.8831],[1578585600000,1.8759],[1578844800000,1.8971],[1578931200000,1.8787],[1579017600000,1.8771],[1579104000000,1.9006],[1579190400000,1.9153],[1579449600000,1.9095],[1579536000000,1.9062],[1579622400000,1.9186],[1579708800000,1.9279],[1580659200000,1.9119],[1580745600000,1.9736],[1580832000000,1.9855],[1580918400000,2.0068],[1581004800000,1.9844],[1581264000000,2.011],[1581350400000,2.0056],[1581436800000,2.0214],[1581523200000,2.0176],[1581609600000,2.0275],[1581868800000,2.026],[1581955200000,2.0203],[1582041600000,2.0456],[1582128000000,2.0257],[1582214400000,1.9859],[1582473600000,1.9055],[1582560000000,1.8447],[1582646400000,1.8492],[1582732800000,1.7503],[1582819200000,1.7605],[1583078400000,1.8554],[1583164800000,1.7809],[1583251200000,1.8419],[1583337600000,1.7847],[1583424000000,1.7482],[1583683200000,1.6209],[1583769600000,1.7214],[1583856000000,1.6474],[1583942400000,1.4894],[1584028800000,1.6746],[1584288000000,1.448],[1584374400000,1.5434],[1584460800000,1.4803],[1584547200000,1.5001],[1584633600000,1.4475],[1584892800000,1.4313],[1584979200000,1.5728],[1585065600000,1.5624],[1585152000000,1.655],[1585238400000,1.5773],[1585497600000,1.6408],[1585584000000,1.6211],[1585670400000,1.5478],[1585756800000,1.587],[1585843200000,1.5643],[1586188800000,1.6737],[1586275200000,1.707],[1586361600000,1.7087],[1586448000000,1.7045],[1586707200000,1.7071],[1586793600000,1.7773],[1586880000000,1.7413],[1586966400000,1.7693],[1587052800000,1.792],[1587312000000,1.76],[1587398400000,1.6934],[1587484800000,1.7588],[1587571200000,1.7469],[1587657600000,1.78],[1587916800000,1.7928],[1588003200000,1.7688],[1588089600000,1.8398],[1588176000000,1.8284],[1588694400000,1.8413],[1588780800000,1.8745],[1588867200000,1.8964],[1589126400000,1.9079],[1589212800000,1.8728],[1589299200000,1.8417],[1589385600000,1.8655],[1589472000000,1.8727],[1589731200000,1.9206],[1589817600000,1.91],[1589904000000,1.9507],[1589990400000,1.9224],[1590076800000,1.9319],[1590336000000,1.9391],[1590422400000,1.9391],[1590508800000,1.9437],[1590595200000,1.9452],[1590681600000,1.968],[1590940800000,1.9683],[1591027200000,1.9817],[1591113600000,1.9947],[1591200000000,1.977],[1591286400000,2.0262],[1591545600000,2.0322],[1591632000000,2.0365],[1591718400000,2.0688],[1591804800000,1.9515],[1591891200000,1.9837],[1592150400000,2.001],[1592236800000,2.0375],[1592323200000,2.0416],[1592409600000,2.0519],[1592496000000,2.0376],[1592755200000,2.0733],[1592841600000,2.0813],[1592928000000,2.0326],[1593360000000,2.0468],[1593446400000,2.0838],[1593532800000,2.0832],[1593619200000,2.0893],[1593705600000,2.0914],[1593964800000,2.1276],[1594051200000,2.0954],[1594137600000,2.124],[1594224000000,2.1279],[1594310400000,2.1229],[1594569600000,2.0803],[1594656000000,2.1049],[1594742400000,2.1153],[1594828800000,2.0883],[1594915200000,2.1018],[1595174400000,2.1495],[1595260800000,2.1256],[1595347200000,2.138],[1595433600000,2.091],[1595520000000,2.0677],[1595779200000,2.1019],[1595865600000,2.0731],[1595952000000,2.1047],[1596038400000,2.1135],[1596124800000,2.1619],[1596384000000,2.2172],[1596470400000,2.2159],[1596556800000,2.2216],[1596643200000,2.2423],[1596729600000,2.2094],[1596988800000,2.21],[1597075200000,2.1743],[1597161600000,2.2179],[1597248000000,2.2135],[1597334400000,2.2107],[1597593600000,2.2231],[1597680000000,2.2302],[1597766400000,2.2203],[1597852800000,2.2539],[1597939200000,2.274],[1598198400000,2.2956],[1598284800000,2.3065],[1598371200000,2.3475],[1598457600000,2.3421],[1598544000000,2.3629],[1598803200000,2.3609],[1598889600000,2.3982],[1598976000000,2.4148],[1599062400000,2.2821],[1599148800000,2.2549],[1599408000000,2.2556],[1599494400000,2.1585],[1599580800000,2.2281],[1599667200000,2.1775],[1599753600000,2.1637],[1600012800000,2.205],[1600099200000,2.2215],[1600185600000,2.1764],[1600272000000,2.1543],[1600358400000,2.1182],[1600617600000,2.1336],[1600704000000,2.1752],[1600790400000,2.1125],[1600876800000,2.126],[1600963200000,2.177],[1601222400000,2.2192],[1601308800000,2.2102],[1601395200000,2.2269],[1602172800000,2.2782],[1602432000000,2.3147],[1602518400000,2.3065],[1602604800000,2.3002],[1602691200000,2.2871],[1602777600000,2.2795],[1603036800000,2.2283],[1603123200000,2.2337],[1603209600000,2.2261],[1603296000000,2.2089],[1603382400000,2.2111],[1603641600000,2.1661],[1603728000000,2.1852],[1603814400000,2.1016],[1603900800000,2.1417],[1603987200000,2.0911],[1604246400000,2.0921],[1604332800000,2.1247],[1604419200000,2.1956],[1604505600000,2.2647],[1604592000000,2.2515],[1604851200000,2.2302],[1604937600000,2.1818],[1605024000000,2.2385],[1605110400000,2.2242],[1605196800000,2.2439],[1605456000000,2.2565],[1605542400000,2.235],[1605628800000,2.2067],[1605715200000,2.2204],[1605801600000,2.2085],[1606060800000,2.2054],[1606147200000,2.2375],[1606233600000,2.2403],[1606320000000,2.2413],[1606406400000,2.2513],[1606665600000,2.266],[1606752000000,2.3009],[1606838400000,2.2855],[1606924800000,2.2826],[1607011200000,2.3016],[1607270400000,2.3022],[1607356800000,2.3083],[1607443200000,2.2667],[1607529600000,2.274],[1607616000000,2.2667],[1607875200000,2.2739],[1607961600000,2.3111],[1608048000000,2.3245],[1608134400000,2.3412],[1608220800000,2.3322],[1608480000000,2.3403],[1608566400000,2.3549],[1608652800000,2.3421],[1608739200000,2.3513],[1608825600000,2.3502],[1609084800000,2.3723],[1609171200000,2.3682],[1609257600000,2.3632],[1609344000000,null],[1609689600000,2.3328],[1609776000000,2.325],[1609862400000,2.2798],[1609948800000,2.3372],[1610035200000,2.3577],[1610294400000,2.3384],[1610380800000,2.3311],[1610467200000,2.3376],[1610553600000,2.3217],[1610640000000,2.2962],[1610899200000,2.3036],[1610985600000,2.3335],[1611072000000,2.3769],[1611158400000,2.4012],[1611244800000,2.3909],[1611504000000,2.4181],[1611590400000,2.4193],[1611676800000,2.368],[1611763200000,2.3849],[1611849600000,2.326],[1612108800000,2.3779],[1612195200000,2.411],[1612281600000,2.4016],[1612368000000,2.4347],[1612454400000,2.4344],[1612713600000,2.4568],[1612800000000,2.4472],[1612886400000,null],[1613577600000,2.4395],[1613664000000,2.4392],[1613923200000,2.3843],[1614009600000,2.3769],[1614096000000,2.4146],[1614182400000,2.3303],[1614268800000,2.3505],[1614528000000,2.423],[1614614400000,2.3805],[1614700800000,2.3222],[1614787200000,2.2792],[1614873600000,2.3271],[1615132800000,2.2682],[1615219200000,2.3616],[1615305600000,2.344],[1615392000000,2.3867],[1615478400000,2.3659],[1615737600000,2.3967],[1615824000000,2.4152],[1615910400000,2.4108],[1615996800000,2.3413],[1616083200000,2.3448],[1616342400000,2.3908],[1616428800000,2.3707],[1616515200000,2.3503],[1616601600000,2.3506],[1616688000000,2.4103],[1616947200000,2.3999],[1617033600000,2.3866],[1617120000000,2.4231],[1617206400000,2.4664],[1617292800000,2.4688],[1617638400000,2.5026],[1617724800000,2.5099],[1617811200000,2.5468],[1617897600000,2.5685],[1618156800000,2.5631],[1618243200000,2.5814],[1618329600000,2.5499],[1618416000000,2.5901],[1618502400000,2.5889],[1618761600000,2.5652],[1618848000000,2.5398],[1618934400000,2.5619],[1619020800000,2.5279],[1619107200000,2.5634],[1619366400000,2.5759],[1619452800000,2.5696],[1619539200000,2.5432],[1619625600000,2.5372],[1619712000000,2.5016],[1620230400000,2.4797],[1620316800000,2.4908],[1620576000000,2.4212],[1620662400000,2.4092],[1620748800000,2.344],[1620835200000,2.3875],[1620921600000,2.4321],[1621180800000,2.4077],[1621267200000,2.3909],[1621353600000,2.3954],[1621440000000,2.4455],[1621526400000,2.4272],[1621785600000,2.4712],[1621872000000,2.4678],[1621958400000,2.4605],[1622044800000,2.4457],[1622131200000,2.4462],[1622390400000,2.4392],[1622476800000,2.4252],[1622563200000,2.4472],[1622649600000,2.4274],[1622736000000,2.4813],[1622995200000,2.4765],[1623081600000,2.475],[1623168000000,2.4782],[1623254400000,2.4966],[1623340800000,2.5051],[1623686400000,2.5226],[1623772800000,2.5104],[1623859200000,2.5468],[1623945600000,2.5266],[1624204800000,2.5597],[1624291200000,2.584],[1624377600000,2.5815],[1624464000000,2.6053],[1624550400000,2.5984],[1624809600000,2.6188],[1624896000000,2.6357],[1624982400000,2.6346],[1625068800000,2.6415],[1625155200000,2.6765],[1625414400000,2.6756],[1625500800000,2.6813],[1625587200000,2.7002],[1625673600000,2.6744],[1625760000000,2.7005],[1626019200000,2.7027],[1626105600000,2.7125],[1626192000000,2.7338],[1626278400000,2.7048]]</t>
   </si>
   <si>
+    <t>510300</t>
+  </si>
+  <si>
     <t>华泰柏瑞沪深300ETF</t>
   </si>
   <si>
     <t xml:space="preserve"> [[1336060800000,1.007],[1336665600000,0.978],[1337270400000,0.955],[1337529600000,0.96],[1337875200000,0.955],[1338134400000,0.97],[1338220800000,0.984],[1338307200000,0.98],[1338393600000,0.977],[1338480000000,0.978],[1338739200000,0.951],[1338825600000,0.951],[1338912000000,0.95],[1338998400000,0.946],[1339084800000,0.94],[1339344000000,0.953],[1339430400000,0.946],[1339516800000,0.962],[1339603200000,0.955],[1339689600000,0.958],[1339948800000,0.963],[1340035200000,0.955],[1340121600000,0.953],[1340208000000,0.939],[1340553600000,0.919],[1340640000000,0.92],[1340726400000,0.917],[1340812800000,0.91],[1340899200000,0.923],[1340985600000,0.923],[1341158400000,0.924],[1341244800000,0.926],[1341331200000,0.924],[1341417600000,0.913],[1341504000000,0.928],[1341763200000,0.908],[1341849600000,0.904],[1341936000000,0.911],[1342022400000,0.92],[1342108800000,0.921],[1342368000000,0.903],[1342454400000,0.908],[1342540800000,0.908],[1342627200000,0.912],[1342713600000,0.902],[1342972800000,0.89],[1343059200000,0.894],[1343145600000,0.888],[1343232000000,0.883],[1343318400000,0.884],[1343577600000,0.879],[1343664000000,0.878],[1343750400000,0.888],[1343836800000,0.879],[1343923200000,0.887],[1344182400000,0.898],[1344268800000,0.9],[1344355200000,0.9],[1344441600000,0.908],[1344528000000,0.904],[1344787200000,0.886],[1344873600000,0.888],[1344960000000,0.879],[1345046400000,0.874],[1345132800000,0.872],[1345392000000,0.868],[1345478400000,0.872],[1345564800000,0.865],[1345651200000,0.868],[1345737600000,0.858],[1345996800000,0.84],[1346083200000,0.844],[1346169600000,0.835],[1346256000000,0.834],[1346342400000,0.831],[1346601600000,0.84],[1346688000000,0.831],[1346774400000,0.829],[1346860800000,0.836],[1346947200000,0.874],[1347206400000,0.877],[1347292800000,0.871],[1347379200000,0.875],[1347465600000,0.867],[1347552000000,0.873],[1347811200000,0.852],[1347897600000,0.843],[1347984000000,0.847],[1348070400000,0.828],[1348156800000,0.829],[1348416000000,0.835],[1348502400000,0.833],[1348588800000,0.824],[1348675200000,0.849],[1348761600000,0.864],[1348934400000,0.864],[1349625600000,0.855],[1349712000000,0.874],[1349798400000,0.876],[1349884800000,0.868],[1349971200000,0.868],[1350230400000,0.865],[1350316800000,0.866],[1350403200000,0.867],[1350489600000,0.88],[1350576000000,0.879],[1350835200000,0.882],[1350921600000,0.871],[1351008000000,0.87],[1351094400000,0.863],[1351180800000,0.847],[1351440000000,0.842],[1351526400000,0.844],[1351612800000,0.849],[1351699200000,0.866],[1351785600000,0.869],[1352044800000,0.867],[1352131200000,0.864],[1352217600000,0.862],[1352304000000,0.846],[1352390400000,0.844],[1352649600000,0.848],[1352736000000,0.834],[1352822400000,0.838],[1352908800000,0.826],[1352995200000,0.821],[1353254400000,0.819],[1353340800000,0.816],[1353427200000,0.827],[1353513600000,0.821],[1353600000000,0.826],[1353859200000,0.819],[1353945600000,0.81],[1354032000000,0.802],[1354118400000,0.797],[1354204800000,0.806],[1354464000000,0.795],[1354550400000,0.803],[1354636800000,0.832],[1354723200000,0.83],[1354809600000,0.846],[1355068800000,0.855],[1355155200000,0.851],[1355241600000,0.854],[1355328000000,0.845],[1355414400000,0.887],[1355673600000,0.891],[1355760000000,0.892],[1355846400000,0.893],[1355932800000,0.898],[1356019200000,0.893],[1356278400000,0.896],[1356364800000,0.921],[1356451200000,0.925],[1356537600000,0.92],[1356624000000,0.933],[1356883200000,0.949],[1357228800000,0.95],[1357488000000,0.9537],[1357574400000,0.9499],[1357660800000,0.95009999999999994],[1357747200000,0.9518],[1357833600000,0.9343],[1358092800000,0.9692],[1358179200000,0.9759],[1358265600000,0.969],[1358352000000,0.9599],[1358438400000,0.9757],[1358697600000,0.9815],[1358784000000,0.9763],[1358870400000,0.9803],[1358956800000,0.971],[1359043200000,0.967],[1359302400000,0.9965],[1359388800000,1.0052],[1359475200000,1.0098],[1359561600000,1.0091],[1359648000000,1.0297],[1359907200000,1.0312],[1359993600000,1.04],[1360080000000,1.0415],[1360166400000,1.0355],[1360252800000,1.04],[1361116800000,1.0272],[1361203200000,1.0081],[1361289600000,1.0144],[1361376000000,0.9804],[1361462400000,0.9752],[1361721600000,0.9782],[1361808000000,0.9644],[1361894400000,0.9744],[1361980800000,1.0033],[1362067200000,1.0015],[1362326400000,0.956],[1362412800000,0.9843],[1362499200000,0.9945],[1362585600000,0.9832],[1362672000000,0.9787],[1362931200000,0.9733],[1363017600000,0.9596],[1363104000000,0.9492],[1363190400000,0.9517],[1363276800000,0.9537],[1363536000000,0.9399],[1363622400000,0.9483],[1363708800000,0.9795],[1363795200000,0.9813],[1363881600000,0.9826],[1364140800000,0.9807],[1364227200000,0.9667],[1364313600000,0.9698],[1364400000000,0.9388],[1364486400000,0.9375],[1364745600000,0.9369],[1364832000000,0.9346],[1364918400000,0.9338],[1365350400000,0.9298],[1365436800000,0.9361],[1365523200000,0.9346],[1365609600000,0.9319],[1365696000000,0.9262],[1365955200000,0.9168],[1366041600000,0.9251],[1366128000000,0.9247],[1366214400000,0.927],[1366300800000,0.9525],[1366560000000,0.9513],[1366646400000,0.9213],[1366732800000,0.9382],[1366819200000,0.928],[1366905600000,0.9204],[1367424000000,0.9211],[1367510400000,0.9373],[1367769600000,0.9495],[1367856000000,0.951],[1367942400000,0.9559],[1368028800000,0.9503],[1368115200000,0.9552],[1368374400000,0.9514],[1368460800000,0.9376],[1368547200000,0.9427],[1368633600000,0.96],[1368720000000,0.9746],[1368979200000,0.9813],[1369065600000,0.9833],[1369152000000,0.9846],[1369238400000,0.9719],[1369324800000,0.9773],[1369584000000,0.9781],[1369670400000,0.9947],[1369756800000,0.994],[1369843200000,0.991],[1369929600000,0.9808],[1370188800000,0.9807],[1370275200000,0.9672],[1370361600000,0.9656],[1370448000000,0.954],[1370534400000,0.9388],[1371052800000,0.9092],[1371139200000,0.9156],[1371398400000,0.9109],[1371484800000,0.9169],[1371571200000,0.9106],[1371657600000,0.8813],[1371744000000,0.8804],[1372003200000,0.8259],[1372089600000,0.824],[1372176000000,0.826],[1372262400000,0.8238],[1372348800000,0.8394],[1372521600000,0.8394],[1372608000000,0.8444],[1372694400000,0.8477],[1372780800000,0.8418],[1372867200000,0.8489],[1372953600000,0.8511],[1373212800000,0.8283],[1373299200000,0.828],[1373385600000,0.8511],[1373472000000,0.8909],[1373558400000,0.8717],[1373817600000,0.8836],[1373904000000,0.8875],[1373990400000,0.8747],[1374076800000,0.8609],[1374163200000,0.8403],[1374422400000,0.8455],[1374508800000,0.8695],[1374595200000,0.8636],[1374681600000,0.8596],[1374768000000,0.8545],[1375027200000,0.8365],[1375113600000,0.8415],[1375200000000,0.843],[1375286400000,0.8627],[1375372800000,0.8635],[1375632000000,0.8752],[1375718400000,0.881],[1375804800000,0.8761],[1375891200000,0.875],[1375977600000,0.8786],[1376236800000,0.9037],[1376323200000,0.9061],[1376409600000,0.9024],[1376496000000,0.8921],[1376582400000,0.8855],[1376841600000,0.896],[1376928000000,0.8889],[1377014400000,0.8874],[1377100800000,0.8858],[1377187200000,0.8795],[1377446400000,0.8977],[1377532800000,0.8997],[1377619200000,0.8949],[1377705600000,0.8911],[1377792000000,0.8894],[1378051200000,0.8918],[1378137600000,0.9046],[1378224000000,0.9032],[1378310400000,0.8998],[1378396800000,0.9059],[1378656000000,0.9371],[1378742400000,0.9507],[1378828800000,0.9537],[1378915200000,0.9629],[1379001600000,0.9558],[1379260800000,0.9517],[1379347200000,0.9329],[1379433600000,0.9349],[1379865600000,0.9499],[1379952000000,0.9391],[1380038400000,0.9335],[1380124800000,0.9166],[1380211200000,0.9206],[1380470400000,0.9259],[1381161600000,0.9382],[1381248000000,0.9426],[1381334400000,0.9336],[1381420800000,0.9484],[1381680000000,0.9499],[1381766400000,0.948],[1381852800000,0.9305],[1381939200000,0.9273],[1382025600000,0.9321],[1382284800000,0.9492],[1382371200000,0.9396],[1382457600000,0.9293],[1382544000000,0.9224],[1382630400000,0.9104],[1382889600000,0.9094],[1382976000000,0.9117],[1383062400000,0.9251],[1383148800000,0.9122],[1383235200000,0.9164],[1383494400000,0.9147],[1383580800000,0.9159],[1383667200000,0.9045],[1383753600000,0.8996],[1383840000000,0.8872],[1384099200000,0.8902],[1384185600000,0.8993],[1384272000000,0.8796],[1384358400000,0.8858],[1384444800000,0.9032],[1384704000000,0.9326],[1384790400000,0.9263],[1384876800000,0.931],[1384963200000,0.9254],[1385049600000,0.9208],[1385308800000,0.9172],[1385395200000,0.9168],[1385481600000,0.9269],[1385568000000,0.9365],[1385654400000,0.9362],[1385913600000,0.9284],[1386000000000,0.9375],[1386086400000,0.9497],[1386172800000,0.947],[1386259200000,0.941],[1386518400000,0.9405],[1386604800000,0.9415],[1386691200000,0.9262],[1386777600000,0.925],[1386864000000,0.9241],[1387123200000,0.9092],[1387209600000,0.9048],[1387296000000,0.9051],[1387382400000,0.8957],[1387468800000,0.8751],[1387728000000,0.8775],[1387814400000,0.8788],[1387900800000,0.8852],[1387987200000,0.8701],[1388073600000,0.8846],[1388332800000,0.883],[1388419200000,0.8946],[1388592000000,0.8915],[1388678400000,0.8796],[1388937600000,0.8597],[1389024000000,0.8595],[1389110400000,0.861],[1389196800000,0.8535],[1389283200000,0.8468],[1389542400000,0.8425],[1389628800000,0.8498],[1389715200000,0.8483],[1389801600000,0.8494],[1389888000000,0.8368],[1390147200000,0.832],[1390233600000,0.8401],[1390320000000,0.8609],[1390406400000,0.8565],[1390492800000,0.8615],[1390752000000,0.8505],[1390838400000,0.8519],[1390924800000,0.8549],[1391011200000,0.8455],[1391702400000,0.8491],[1391961600000,0.8695],[1392048000000,0.8761],[1392134400000,0.8782],[1392220800000,0.8739],[1392307200000,0.8798],[1392566400000,0.8857],[1392652800000,0.875],[1392739200000,0.8846],[1392825600000,0.8768],[1392912000000,0.8683],[1393171200000,0.8499],[1393257600000,0.829],[1393344000000,0.8309],[1393430400000,0.8275],[1393516800000,0.8365],[1393776000000,0.8408],[1393862400000,0.8384],[1393948800000,0.8309],[1394035200000,0.8345],[1394121600000,0.8325],[1394380800000,0.8064],[1394467200000,0.8104],[1394553600000,0.8124],[1394640000000,0.8221],[1394726400000,0.8156],[1394985600000,0.8231],[1395072000000,0.8213],[1395158400000,0.8149],[1395244800000,0.8023],[1395331200000,0.8288],[1395590400000,0.8352],[1395676800000,0.8345],[1395763200000,0.8332],[1395849600000,0.8275],[1395936000000,0.8261],[1396195200000,0.824],[1396281600000,0.8302],[1396368000000,0.8367],[1396454400000,0.8309],[1396540800000,0.8383],[1396886400000,0.8574],[1396972800000,0.858],[1397059200000,0.8708],[1397145600000,0.8697],[1397404800000,0.8689],[1397491200000,0.8546],[1397577600000,0.8557],[1397664000000,0.8528],[1397750400000,0.8526],[1398009600000,0.8389],[1398096000000,0.8424],[1398182400000,0.8416],[1398268800000,0.8402],[1398355200000,0.8319],[1398614400000,0.8196],[1398700800000,0.8282],[1398787200000,0.8285],[1399219200000,0.8276],[1399305600000,0.828],[1399392000000,0.8206],[1399478400000,0.8207],[1399564800000,0.82],[1399824000000,0.837],[1399910400000,0.8351],[1399996800000,0.8343],[1400083200000,0.8239],[1400169600000,0.8247],[1400428800000,0.8134],[1400515200000,0.8136],[1400601600000,0.8211],[1400688000000,0.8195],[1400774400000,0.8262],[1401033600000,0.8291],[1401120000000,0.826],[1401206400000,0.8342],[1401292800000,0.829],[1401379200000,0.8296],[1401724800000,0.8273],[1401811200000,0.8193],[1401897600000,0.8277],[1401984000000,0.8225],[1402243200000,0.8222],[1402329600000,0.8322],[1402416000000,0.832],[1402502400000,0.8295],[1402588800000,0.8382],[1402848000000,0.8441],[1402934400000,0.8366],[1403020800000,0.8336],[1403107200000,0.8214],[1403193600000,0.8258],[1403452800000,0.8253],[1403539200000,0.8304],[1403625600000,0.8268],[1403712000000,0.8329],[1403798400000,0.8339],[1404057600000,0.8395],[1404144000000,0.8395],[1404230400000,0.842],[1404316800000,0.8462],[1404403200000,0.8459],[1404662400000,0.8451],[1404748800000,0.8466],[1404835200000,0.835],[1404921600000,0.8337],[1405008000000,0.8382],[1405267200000,0.8475],[1405353600000,0.8488],[1405440000000,0.8476],[1405526400000,0.8432],[1405612800000,0.8472],[1405872000000,0.848],[1405958400000,0.858],[1406044800000,0.8599],[1406131200000,0.8746],[1406217600000,0.8837],[1406476800000,0.9073],[1406563200000,0.9102],[1406649600000,0.9072],[1406736000000,0.9178],[1406822400000,0.91],[1407081600000,0.9272],[1407168000000,0.9249],[1407254400000,0.9225],[1407340800000,0.9091],[1407427200000,0.9108],[1407686400000,0.9235],[1407772800000,0.9204],[1407859200000,0.9211],[1407945600000,0.9125],[1408032000000,0.9219],[1408291200000,0.927],[1408377600000,0.9271],[1408464000000,0.9239],[1408550400000,0.9194],[1408636800000,0.9235],[1408896000000,0.915],[1408982400000,0.9079],[1409068800000,0.9093],[1409155200000,0.9032],[1409241600000,0.9134],[1409500800000,0.9197],[1409587200000,0.9313],[1409673600000,0.9397],[1409760000000,0.9462],[1409846400000,0.9548],[1410192000000,0.9531],[1410278400000,0.9484],[1410364800000,0.945],[1410451200000,0.9508],[1410710400000,0.9503],[1410796800000,0.9322],[1410883200000,0.9368],[1410969600000,0.9396],[1411056000000,0.9458],[1411315200000,0.9283],[1411401600000,0.936],[1411488000000,0.9519],[1411574400000,0.9499],[1411660800000,0.95],[1411920000000,0.9538],[1412006400000,0.9549],[1412697600000,0.965],[1412784000000,0.9662],[1412870400000,0.9604],[1413129600000,0.9559],[1413216000000,0.9526],[1413302400000,0.9589],[1413388800000,0.9517],[1413475200000,0.9507],[1413734400000,0.9555],[1413820800000,0.9474],[1413907200000,0.942],[1413993600000,0.9335],[1414080000000,0.9314],[1414339200000,0.9233],[1414425600000,0.9411],[1414512000000,0.954],[1414598400000,0.9603],[1414684800000,0.9747],[1414944000000,0.9763],[1415030400000,0.9764],[1415116800000,0.9727],[1415203200000,0.9736],[1415289600000,0.9721],[1415548800000,0.9955],[1415635200000,0.9928],[1415721600000,1.0061],[1415808000000,1.0005],[1415894400000,1.001],[1416153600000,0.9956],[1416240000000,0.986],[1416326400000,0.9844],[1416412800000,0.9844],[1416499200000,1.002],[1416758400000,1.0266],[1416844800000,1.04],[1416931200000,1.0535],[1417017600000,1.0647],[1417104000000,1.0841],[1417363200000,1.0874],[1417449600000,1.1258],[1417536000000,1.142],[1417622400000,1.1925],[1417708800000,1.1994],[1417968000000,1.2466],[1418054400000,1.1925],[1418140800000,1.2361],[1418227200000,1.2229],[1418313600000,1.2272],[1418572800000,1.2353],[1418659200000,1.267],[1418745600000,1.2888],[1418832000000,1.2843],[1418918400000,1.2986],[1419177600000,1.303],[1419264000000,1.2761],[1419350400000,1.2407],[1419436800000,1.2801],[1419523200000,1.321],[1419782400000,1.3249],[1419868800000,1.3259],[1419955200000,1.3541],[1420387200000,1.3945],[1420473600000,1.3935],[1420560000000,1.393],[1420646400000,1.3612],[1420732800000,1.3562],[1420992000000,1.3438],[1421078400000,1.3439],[1421164800000,1.3392],[1421251200000,1.3766],[1421337600000,1.3878],[1421596800000,1.2834],[1421683200000,1.299],[1421769600000,1.355],[1421856000000,1.362],[1421942400000,1.3637],[1422201600000,1.3764],[1422288000000,1.3642],[1422374400000,1.3459],[1422460800000,1.3299],[1422547200000,1.3132],[1422806400000,1.2841],[1422892800000,1.3146],[1422979200000,1.3012],[1423065600000,1.2883],[1423152000000,1.2682],[1423411200000,1.2805],[1423497600000,1.303],[1423584000000,1.313],[1423670400000,1.3163],[1423756800000,1.3261],[1424016000000,1.3373],[1424102400000,1.3458],[1424793600000,1.3296],[1424880000000,1.3618],[1424966400000,1.3641],[1425225600000,1.3746],[1425312000000,1.3401],[1425398400000,1.3485],[1425484800000,1.3358],[1425571200000,1.3291],[1425830400000,1.351],[1425916800000,1.3446],[1426003200000,1.3459],[1426089600000,1.3708],[1426176000000,1.3799],[1426435200000,1.4122],[1426521600000,1.4308],[1426608000000,1.4629],[1426694400000,1.4607],[1426780800000,1.4796],[1427040000000,1.5086],[1427126400000,1.5093],[1427212800000,1.4976],[1427299200000,1.5011],[1427385600000,1.5089],[1427644800000,1.5512],[1427731200000,1.5371],[1427817600000,1.5638],[1427904000000,1.5644],[1427990400000,1.5813],[1428336000000,1.6139],[1428422400000,1.6273],[1428508800000,1.6158],[1428595200000,1.6457],[1428854400000,1.6741],[1428940800000,1.6808],[1429027200000,1.6606],[1429113600000,1.709],[1429200000000,1.7393],[1429459200000,1.7123],[1429545600000,1.7478],[1429632000000,1.7918],[1429718400000,1.7925],[1429804800000,1.7791],[1430064000000,1.8176],[1430150400000,1.7945],[1430236800000,1.8057],[1430323200000,1.798],[1430668800000,1.8114],[1430755200000,1.741],[1430841600000,1.7252],[1430928000000,1.6946],[1431014400000,1.7271],[1431273600000,1.775],[1431360000000,1.7953],[1431446400000,1.7849],[1431532800000,1.7788],[1431619200000,1.7488],[1431878400000,1.7323],[1431964800000,1.7893],[1432051200000,1.7996],[1432137600000,1.8303],[1432224000000,1.8708],[1432483200000,1.9246],[1432569600000,1.9607],[1432656000000,1.9549],[1432742400000,1.8274],[1432828800000,1.8293],[1433088000000,1.9153],[1433174400000,1.9461],[1433260800000,1.9413],[1433347200000,1.9548],[1433433600000,1.9733],[1433692800000,2.0173],[1433779200000,2.0039],[1433865600000,2.0],[1433952000000,1.9984],[1434038400000,2.0079],[1434297600000,1.9681],[1434384000000,1.913],[1434470400000,1.9399],[1434556800000,1.8648],[1434643200000,1.7603],[1434988800000,1.8162],[1435075200000,1.8505],[1435161600000,1.7875],[1435248000000,1.6537],[1435507200000,1.6007],[1435593600000,1.7043],[1435680000000,1.6238],[1435766400000,1.5705],[1435852800000,1.4922],[1436112000000,1.5342],[1436198400000,1.509],[1436284800000,1.411],[1436371200000,1.4987],[1436457600000,1.5769],[1436716800000,1.6157],[1436803200000,1.579],[1436889600000,1.5256],[1436976000000,1.5372],[1437062400000,1.5957],[1437321600000,1.5994],[1437408000000,1.6022],[1437494400000,1.5996],[1437580800000,1.6344],[1437667200000,1.6069],[1437926400000,1.4744],[1438012800000,1.4717],[1438099200000,1.5162],[1438185600000,1.4734],[1438272000000,1.4741],[1438531200000,1.4785],[1438617600000,1.5227],[1438704000000,1.4924],[1438790400000,1.4795],[1438876800000,1.5075],[1439136000000,1.5733],[1439222400000,1.5666],[1439308800000,1.5477],[1439395200000,1.5694],[1439481600000,1.5687],[1439740800000,1.57],[1439827200000,1.4766],[1439913600000,1.4992],[1440000000000,1.4528],[1440086400000,1.3889],[1440345600000,1.2722],[1440432000000,1.1859],[1440518400000,1.1795],[1440604800000,1.2466],[1440691200000,1.2976],[1440950400000,1.3072],[1441036800000,1.3056],[1441123200000,1.3072],[1441555200000,1.2643],[1441641600000,1.2954],[1441728000000,1.3199],[1441814400000,1.3041],[1441900800000,1.3],[1442160000000,1.275],[1442246400000,1.2271],[1442332800000,1.2859],[1442419200000,1.2592],[1442505600000,1.265],[1442764800000,1.2867],[1442851200000,1.2984],[1442937600000,1.2707],[1443024000000,1.279],[1443110400000,1.2592],[1443369600000,1.2633],[1443456000000,1.2395],[1443542400000,1.2486],[1444233600000,1.2834],[1444320000000,1.2997],[1444579200000,1.3401],[1444665600000,1.3391],[1444752000000,1.3247],[1444838400000,1.3548],[1444924800000,1.3724],[1445184000000,1.3725],[1445270400000,1.3889],[1445356800000,1.35],[1445443200000,1.3692],[1445529600000,1.3868],[1445788800000,1.3934],[1445875200000,1.3949],[1445961600000,1.3694],[1446048000000,1.3726],[1446134400000,1.373],[1446393600000,1.3512],[1446480000000,1.3473],[1446566400000,1.4083],[1446652800000,1.4369],[1446739200000,1.4695],[1446998400000,1.4869],[1447084800000,1.4843],[1447171200000,1.4845],[1447257600000,1.4702],[1447344000000,1.452],[1447603200000,1.4594],[1447689600000,1.4572],[1447776000000,1.4413],[1447862400000,1.4634],[1447948800000,1.4632],[1448208000000,1.4552],[1448294400000,1.4555],[1448380800000,1.4658],[1448467200000,1.4575],[1448553600000,1.3822],[1448812800000,1.3858],[1448899200000,1.395],[1448985600000,1.4432],[1449072000000,1.4535],[1449158400000,1.4268],[1449417600000,1.4304],[1449504000000,1.4063],[1449590400000,1.4111],[1449676800000,1.4066],[1449763200000,1.4008],[1450022400000,1.4393],[1450108800000,1.4329],[1450195200000,1.4296],[1450281600000,1.4558],[1450368000000,1.4603],[1450627200000,1.4968],[1450713600000,1.5006],[1450800000000,1.4968],[1450886400000,1.4831],[1450972800000,1.4864],[1451232000000,1.4452],[1451318400000,1.4578],[1451404800000,1.4592],[1451491200000,1.4464],[1451836800000,1.3484],[1451923200000,1.3521],[1452009600000,1.3748],[1452096000000,1.2829],[1452182400000,1.308],[1452441600000,1.2446],[1452528000000,1.2531],[1452614400000,1.2307],[1452700800000,1.2553],[1452787200000,1.2168],[1453046400000,1.2213],[1453132800000,1.2559],[1453219200000,1.2377],[1453305600000,1.2031],[1453392000000,1.215],[1453651200000,1.2207],[1453737600000,1.1507],[1453824000000,1.1469],[1453910400000,1.1185],[1453996800000,1.1528],[1454256000000,1.1361],[1454342400000,1.1585],[1454428800000,1.1538],[1454515200000,1.1672],[1454601600000,1.1594],[1455465600000,1.1529],[1455552000000,1.1864],[1455638400000,1.1961],[1455724800000,1.1925],[1455811200000,1.1917],[1456070400000,1.2168],[1456156800000,1.2058],[1456243200000,1.2133],[1456329600000,1.1424],[1456416000000,1.1536],[1456675200000,1.1273],[1456761600000,1.147],[1456848000000,1.1918],[1456934400000,1.1944],[1457020800000,1.2075],[1457280000000,1.2115],[1457366400000,1.2126],[1457452800000,1.1993],[1457539200000,1.1775],[1457625600000,1.1794],[1457884800000,1.1969],[1457971200000,1.2003],[1458057600000,1.2059],[1458144000000,1.2186],[1458230400000,1.2363],[1458489600000,1.265],[1458576000000,1.2562],[1458662400000,1.2601],[1458748800000,1.24],[1458835200000,1.2459],[1459094400000,1.2354],[1459180800000,1.2226],[1459267200000,1.2526],[1459353600000,1.2532],[1459440000000,1.2546],[1459785600000,1.2704],[1459872000000,1.2678],[1459958400000,1.2499],[1460044800000,1.241],[1460304000000,1.2574],[1460390400000,1.2531],[1460476800000,1.269],[1460563200000,1.2744],[1460649600000,1.2729],[1460908800000,1.2567],[1460995200000,1.2603],[1461081600000,1.239],[1461168000000,1.2315],[1461254400000,1.2369],[1461513600000,1.232],[1461600000000,1.2384],[1461686400000,1.2336],[1461772800000,1.2318],[1461859200000,1.2306],[1462204800000,1.2516],[1462291200000,1.2501],[1462377600000,1.2518],[1462464000000,1.2216],[1462723200000,1.1976],[1462809600000,1.1989],[1462896000000,1.204],[1462982400000,1.2066],[1463068800000,1.201],[1463328000000,1.2085],[1463414400000,1.2054],[1463500800000,1.1989],[1463587200000,1.197],[1463673600000,1.2028],[1463932800000,1.2064],[1464019200000,1.1976],[1464105600000,1.1961],[1464192000000,1.1981],[1464278400000,1.1975],[1464537600000,1.1991],[1464624000000,1.2374],[1464710400000,1.234],[1464796800000,1.2365],[1464883200000,1.245],[1465142400000,1.2422],[1465228800000,1.2417],[1465315200000,1.2378],[1465747200000,1.2018],[1465833600000,1.2055],[1465920000000,1.2206],[1466006400000,1.2135],[1466092800000,1.22],[1466352000000,1.2209],[1466438400000,1.2185],[1466524800000,1.2288],[1466611200000,1.2237],[1466697600000,1.2105],[1466956800000,1.2265],[1467043200000,1.2327],[1467129600000,1.2383],[1467216000000,1.2396],[1467302400000,1.2403],[1467561600000,1.2592],[1467648000000,1.261],[1467734400000,1.2649],[1467820800000,1.2647],[1467907200000,1.2601],[1468166400000,1.2646],[1468252800000,1.2905],[1468339200000,1.2964],[1468425600000,1.2942],[1468512000000,1.2948],[1468771200000,1.2895],[1468857600000,1.2849],[1468944000000,1.281],[1469030400000,1.2866],[1469116800000,1.2765],[1469376000000,1.2789],[1469462400000,1.2934],[1469548800000,1.2746],[1469635200000,1.2757],[1469721600000,1.2701],[1469980800000,1.2599],[1470067200000,1.2644],[1470153600000,1.2661],[1470240000000,1.2688],[1470326400000,1.2707],[1470585600000,1.2814],[1470672000000,1.2898],[1470758400000,1.2848],[1470844800000,1.2816],[1470931200000,1.3044],[1471190400000,1.3411],[1471276800000,1.3354],[1471363200000,1.3335],[1471449600000,1.3303],[1471536000000,1.3311],[1471795200000,1.3205],[1471881600000,1.3225],[1471968000000,1.3184],[1472054400000,1.3106],[1472140800000,1.3099],[1472400000000,1.3101],[1472486400000,1.3117],[1472572800000,1.3175],[1472659200000,1.3078],[1472745600000,1.3128],[1473004800000,1.3156],[1473091200000,1.3244],[1473177600000,1.3236],[1473264000000,1.323],[1473350400000,1.315],[1473609600000,1.2943],[1473696000000,1.2934],[1473782400000,1.2853],[1474214400000,1.2945],[1474300800000,1.2923],[1474387200000,1.2959],[1474473600000,1.305],[1474560000000,1.299],[1474819200000,1.2787],[1474905600000,1.2865],[1474992000000,1.2828],[1475078400000,1.2879],[1475164800000,1.2913],[1476028800000,1.3063],[1476115200000,1.3109],[1476201600000,1.3086],[1476288000000,1.3095],[1476374400000,1.3106],[1476633600000,1.3],[1476720000000,1.3162],[1476806400000,1.3143],[1476892800000,1.3152],[1476979200000,1.3187],[1477238400000,1.3336],[1477324800000,1.3336],[1477411200000,1.3287],[1477497600000,1.3253],[1477584000000,1.3232],[1477843200000,1.3217],[1477929600000,1.3302],[1478016000000,1.3206],[1478102400000,1.3324],[1478188800000,1.3283],[1478448000000,1.3291],[1478534400000,1.3346],[1478620800000,1.3279],[1478707200000,1.3419],[1478793600000,1.3518],[1479052800000,1.3566],[1479139200000,1.3564],[1479225600000,1.3563],[1479312000000,1.3589],[1479398400000,1.3517],[1479657600000,1.3605],[1479744000000,1.3708],[1479830400000,1.3735],[1479916800000,1.3788],[1480003200000,1.391],[1480262400000,1.3963],[1480348800000,1.4071],[1480435200000,1.3973],[1480521600000,1.4076],[1480608000000,1.3938],[1480867200000,1.3712],[1480953600000,1.3674],[1481040000000,1.3736],[1481126400000,1.3715],[1481212800000,1.3802],[1481472000000,1.3482],[1481558400000,1.3465],[1481644800000,1.3366],[1481731200000,1.3222],[1481817600000,1.3241],[1482076800000,1.3176],[1482163200000,1.31],[1482249600000,1.321],[1482336000000,1.32],[1482422400000,1.3094],[1482681600000,1.315],[1482768000000,1.3127],[1482854400000,1.3072],[1482940800000,1.3056],[1483027200000,1.3104],[1483113600000,1.3103],[1483372800000,1.3224],[1483459200000,1.3322],[1483545600000,1.332],[1483632000000,1.3244],[1483891200000,1.3304],[1483977600000,1.3283],[1484064000000,1.3194],[1484150400000,1.313],[1484236800000,1.3138],[1484496000000,1.3135],[1484582400000,1.3161],[1484668800000,1.321],[1484755200000,1.3172],[1484841600000,1.3268],[1485100800000,1.3301],[1485187200000,1.3302],[1485273600000,1.3345],[1485360000000,1.3389],[1486051200000,1.3301],[1486310400000,1.3332],[1486396800000,1.3304],[1486483200000,1.3369],[1486569600000,1.3417],[1486656000000,1.348],[1486915200000,1.3565],[1487001600000,1.3562],[1487088000000,1.351],[1487174400000,1.358],[1487260800000,1.3508],[1487520000000,1.3692],[1487606400000,1.3734],[1487692800000,1.376],[1487779200000,1.3698],[1487865600000,1.3701],[1488124800000,1.3598],[1488211200000,1.3622],[1488297600000,1.3643],[1488384000000,1.3557],[1488470400000,1.353],[1488729600000,1.3599],[1488816000000,1.3627],[1488902400000,1.3608],[1488988800000,1.3527],[1489075200000,1.3531],[1489334400000,1.3642],[1489420800000,1.3636],[1489507200000,1.3662],[1489593600000,1.3728],[1489680000000,1.3596],[1489939200000,1.3609],[1490025600000,1.3671],[1490112000000,1.3612],[1490198400000,1.3655],[1490284800000,1.3757],[1490544000000,1.3714],[1490630400000,1.3684],[1490716800000,1.3669],[1490803200000,1.3564],[1490889600000,1.3639],[1491321600000,1.3816],[1491408000000,1.3854],[1491494400000,1.3868],[1491753600000,1.3821],[1491840000000,1.3866],[1491926400000,1.3836],[1492012800000,1.3855],[1492099200000,1.3751],[1492358400000,1.3726],[1492444800000,1.3663],[1492531200000,1.3601],[1492617600000,1.3659],[1492704000000,1.3677],[1492963200000,1.3546],[1493049600000,1.3582],[1493136000000,1.3598],[1493222400000,1.3604],[1493308800000,1.3578],[1493654400000,1.3528],[1493740800000,1.3479],[1493827200000,1.3446],[1493913600000,1.3365],[1494172800000,1.3276],[1494259200000,1.3258],[1494345600000,1.321],[1494432000000,1.3281],[1494518400000,1.3391],[1494777600000,1.3444],[1494864000000,1.3554],[1494950400000,1.3485],[1495036800000,1.3442],[1495123200000,1.3464],[1495382400000,1.3492],[1495468800000,1.3541],[1495555200000,1.3541],[1495641600000,1.3772],[1495728000000,1.3754],[1496160000000,1.3799],[1496246400000,1.3817],[1496332800000,1.3776],[1496592000000,1.3714],[1496678400000,1.3804],[1496764800000,1.3958],[1496851200000,1.406],[1496937600000,1.4122],[1497196800000,1.4116],[1497283200000,1.4148],[1497369600000,1.4],[1497456000000,1.3978],[1497542400000,1.3957],[1497801600000,1.4088],[1497888000000,1.4062],[1497974400000,1.4217],[1498060800000,1.4227],[1498147200000,1.4348],[1498406400000,1.4515],[1498492800000,1.454],[1498579200000,1.4434],[1498665600000,1.4523],[1498752000000,1.4519],[1499011200000,1.4458],[1499097600000,1.4346],[1499184000000,1.4508],[1499270400000,1.4516],[1499356800000,1.4515],[1499616000000,1.4516],[1499702400000,1.4595],[1499788800000,1.4555],[1499875200000,1.467],[1499961600000,1.4744],[1500220800000,1.4598],[1500307200000,1.4616],[1500393600000,1.4852],[1500480000000,1.492],[1500566400000,1.4852],[1500825600000,1.4908],[1500912000000,1.482],[1500998400000,1.4768],[1501084800000,1.4795],[1501171200000,1.4832],[1501430400000,1.4891],[1501516800000,1.5013],[1501603200000,1.4982],[1501689600000,1.4859],[1501776000000,1.4785],[1502035200000,1.4856],[1502121600000,1.488],[1502208000000,1.4876],[1502294400000,1.4819],[1502380800000,1.4566],[1502640000000,1.4742],[1502726400000,1.4784],[1502812800000,1.4766],[1502899200000,1.484],[1502985600000,1.4857],[1503244800000,1.4917],[1503331200000,1.4959],[1503417600000,1.4973],[1503504000000,1.4894],[1503590400000,1.5123],[1503849600000,1.5297],[1503936000000,1.5274],[1504022400000,1.5273],[1504108800000,1.5228],[1504195200000,1.5259],[1504454400000,1.5322],[1504540800000,1.5364],[1504627200000,1.5336],[1504713600000,1.5263],[1504800000000,1.5248],[1505059200000,1.5246],[1505145600000,1.5292],[1505232000000,1.5308],[1505318400000,1.526],[1505404800000,1.5265],[1505664000000,1.5308],[1505750400000,1.5265],[1505836800000,1.5305],[1505923200000,1.5287],[1506009600000,1.5286],[1506268800000,1.521],[1506355200000,1.5225],[1506441600000,1.5225],[1506528000000,1.523],[1506614400000,1.5282],[1507478400000,1.545],[1507564800000,1.5478],[1507651200000,1.5526],[1507737600000,1.5565],[1507824000000,1.5594],[1508083200000,1.5565],[1508169600000,1.5564],[1508256000000,1.568],[1508342400000,1.5632],[1508428800000,1.5616],[1508688000000,1.5631],[1508774400000,1.5738],[1508860800000,1.5803],[1508947200000,1.5865],[1509033600000,1.5971],[1509292800000,1.5924],[1509379200000,1.5913],[1509465600000,1.5875],[1509552000000,1.5876999999999999],[1509638400000,1.586],[1509897600000,1.5965],[1509984000000,1.6089],[1510070400000,1.6066],[1510156800000,1.617],[1510243200000,1.6305],[1510502400000,1.6364],[1510588800000,1.6257],[1510675200000,1.6161],[1510761600000,1.6279],[1510848000000,1.6338],[1511107200000,1.6423],[1511193600000,1.67],[1511280000000,1.6736],[1511366400000,1.6266],[1511452800000,1.6273],[1511712000000,1.6069],[1511798400000,1.6091],[1511884800000,1.6085],[1511971200000,1.5908],[1512057600000,1.588],[1512316800000,1.5958],[1512403200000,1.6038],[1512489600000,1.5945],[1512576000000,1.5774],[1512662400000,1.5895],[1512921600000,1.61],[1513008000000,1.5899],[1513094400000,1.6026],[1513180800000,1.5936],[1513267200000,1.5766],[1513526400000,1.5782],[1513612800000,1.5969],[1513699200000,1.5952],[1513785600000,1.609],[1513872000000,1.604],[1514131200000,1.5991],[1514217600000,1.6036],[1514304000000,1.5801],[1514390400000,1.5905],[1514476800000,1.5949],[1514649600000,1.5949],[1514822400000,1.6161],[1514908800000,1.6251],[1514995200000,1.6316],[1515081600000,1.6353],[1515340800000,1.6433],[1515427200000,1.6543],[1515513600000,1.6613],[1515600000000,1.6604],[1515686400000,1.6677],[1515945600000,1.6678],[1516032000000,1.6803],[1516118400000,1.6763],[1516204800000,1.6851],[1516291200000,1.6902],[1516550400000,1.7093],[1516636800000,1.7263],[1516723200000,1.729],[1516809600000,1.7198],[1516896000000,1.7261],[1517155200000,1.6965],[1517241600000,1.6794],[1517328000000,1.6868],[1517414400000,1.6758],[1517500800000,1.685],[1517760000000,1.686],[1517846400000,1.6396],[1517932800000,1.603],[1518019200000,1.589],[1518105600000,1.5254],[1518364800000,1.5437],[1518451200000,1.5607],[1518537600000,1.5723],[1519228800000,1.6039],[1519315200000,1.6108],[1519574400000,1.6283],[1519660800000,1.6062],[1519747200000,1.5931],[1519833600000,1.6027],[1519920000000,1.5906],[1520179200000,1.5911],[1520265600000,1.609],[1520352000000,1.5978],[1520438400000,1.6131],[1520524800000,1.6247],[1520784000000,1.6315],[1520870400000,1.6179],[1520956800000,1.6113],[1521043200000,1.6199],[1521129600000,1.6051],[1521388800000,1.6118],[1521475200000,1.613],[1521561600000,1.6066],[1521648000000,1.5913],[1521734400000,1.5484],[1521993600000,1.5389],[1522080000000,1.5513],[1522166400000,1.525],[1522252800000,1.5441],[1522339200000,1.5458],[1522598400000,1.5415],[1522684800000,1.5325],[1522771200000,1.5298],[1523203200000,1.5291],[1523289600000,1</t>
   </si>
   <si>
+    <t>510500</t>
+  </si>
+  <si>
     <t>南方中证500ETF</t>
   </si>
   <si>
     <t xml:space="preserve"> [[1360080000000,1.0],[1360252800000,1.0022],[1361462400000,0.9954],[1362067200000,1.0135],[1362672000000,0.998],[1363190400000,0.9682],[1363276800000,0.9699],[1363536000000,0.9575],[1363622400000,0.9605],[1363708800000,0.9851],[1363795200000,0.9954],[1363881600000,0.9995],[1364140800000,0.9963],[1364227200000,0.9894],[1364313600000,0.9917],[1364400000000,0.9631],[1364486400000,0.9626],[1364745600000,0.9691],[1364832000000,0.9573],[1364918400000,0.9487],[1365350400000,0.9525],[1365436800000,0.9618],[1365523200000,0.9598],[1365609600000,0.9559],[1365696000000,0.9478],[1365955200000,0.9345],[1366041600000,0.9446],[1366128000000,0.9529],[1366214400000,0.9558],[1366300800000,0.976],[1366560000000,0.9805],[1366646400000,0.954],[1366732800000,0.973],[1366819200000,0.9582],[1366905600000,0.9428],[1367424000000,0.9471],[1367510400000,0.9656],[1367769600000,0.9838],[1367856000000,0.9859],[1367942400000,0.9949],[1368028800000,0.9955],[1368115200000,1.0018],[1368374400000,1.0056],[1368460800000,0.9944],[1368547200000,1.0077],[1368633600000,1.018],[1368720000000,1.0335],[1368979200000,1.0462],[1369065600000,1.0598],[1369152000000,1.0516],[1369238400000,1.0428],[1369324800000,1.0591],[1369584000000,1.0699],[1369670400000,1.0721],[1369756800000,1.0802],[1369843200000,1.0829],[1369929600000,1.0763],[1370188800000,1.0691],[1370275200000,1.0483],[1370361600000,1.0527],[1370448000000,1.0344],[1370534400000,1.0142],[1371052800000,0.986],[1371139200000,1.0057],[1371398400000,1.0081],[1371484800000,1.0119],[1371571200000,1.0059],[1371657600000,0.9729],[1371744000000,0.968],[1372003200000,0.9083],[1372089600000,0.9046],[1372176000000,0.9234],[1372262400000,0.9086],[1372348800000,0.9095],[1372521600000,0.9095],[1372608000000,0.9266],[1372694400000,0.9416],[1372780800000,0.9431],[1372867200000,0.9506],[1372953600000,0.9454],[1373212800000,0.9089],[1373299200000,0.9143],[1373385600000,0.9429],[1373472000000,0.9694],[1373558400000,0.9609],[1373817600000,0.9803],[1373904000000,0.9925],[1373990400000,0.9782],[1374076800000,0.9772],[1374163200000,0.9529],[1374422400000,0.9716],[1374508800000,0.9951],[1374595200000,1.001],[1374681600000,0.982],[1374768000000,0.9809],[1375027200000,0.962],[1375113600000,0.9577],[1375200000000,0.963],[1375286400000,0.9884],[1375372800000,0.9919],[1375632000000,1.0084],[1375718400000,1.0192],[1375804800000,1.0094],[1375891200000,1.0121],[1375977600000,1.0158],[1376236800000,1.032],[1376323200000,1.0374],[1376409600000,1.0334],[1376496000000,1.0194],[1376582400000,0.9978],[1376841600000,1.0131],[1376928000000,1.0105],[1377014400000,1.0183],[1377100800000,1.0209],[1377187200000,1.0185],[1377446400000,1.0396],[1377532800000,1.0476],[1377619200000,1.0397],[1377705600000,1.0389],[1377792000000,1.0285],[1378051200000,1.0357],[1378137600000,1.0511],[1378224000000,1.054],[1378310400000,1.056],[1378396800000,1.0645],[1378656000000,1.0754],[1378742400000,1.0863],[1378828800000,1.076],[1378915200000,1.079],[1379001600000,1.0803],[1379260800000,1.0815],[1379347200000,1.0624],[1379433600000,1.0725],[1379865600000,1.0941],[1379952000000,1.0951],[1380038400000,1.0911],[1380124800000,1.0684],[1380211200000,1.0725],[1380470400000,1.0865],[1381161600000,1.1046],[1381248000000,1.1166],[1381334400000,1.1106],[1381420800000,1.1294],[1381680000000,1.141],[1381766400000,1.1426],[1381852800000,1.1115],[1381939200000,1.1097],[1382025600000,1.1135],[1382284800000,1.1411],[1382371200000,1.1291],[1382457600000,1.1005],[1382544000000,1.0932],[1382630400000,1.0717],[1382889600000,1.068],[1382976000000,1.0386],[1383062400000,1.0555],[1383148800000,1.0413],[1383235200000,1.0381],[1383494400000,1.0453],[1383580800000,1.059],[1383667200000,1.0477],[1383753600000,1.0331],[1383840000000,1.0177],[1384099200000,1.0221],[1384185600000,1.0317],[1384272000000,1.0124],[1384358400000,1.0259],[1384444800000,1.0473],[1384704000000,1.0729],[1384790400000,1.0763],[1384876800000,1.087],[1384963200000,1.0833],[1385049600000,1.0769],[1385308800000,1.0761],[1385395200000,1.0777],[1385481600000,1.0901],[1385568000000,1.0993],[1385654400000,1.1059],[1385913600000,1.0567],[1386000000000,1.0816],[1386086400000,1.1021],[1386172800000,1.1008],[1386259200000,1.098],[1386518400000,1.1061],[1386604800000,1.1068],[1386691200000,1.0945],[1386777600000,1.0972],[1386864000000,1.0993],[1387123200000,1.0801],[1387209600000,1.0733],[1387296000000,1.0733],[1387382400000,1.0624],[1387468800000,1.0489],[1387728000000,1.0477],[1387814400000,1.0549],[1387900800000,1.066],[1387987200000,1.0477],[1388073600000,1.0639],[1388332800000,1.0672],[1388419200000,1.0717],[1388592000000,1.0769],[1388678400000,1.0681],[1388937600000,1.0384],[1389024000000,1.0447],[1389110400000,1.046],[1389196800000,1.0342],[1389283200000,1.0153],[1389542400000,1.0105],[1389628800000,1.0305],[1389715200000,1.0374],[1389801600000,1.039],[1389888000000,1.0271],[1390147200000,1.0193],[1390233600000,1.0349],[1390320000000,1.0626],[1390406400000,1.07],[1390492800000,1.0859],[1390752000000,1.0857],[1390838400000,1.0833],[1390924800000,1.093],[1391011200000,1.0866],[1391702400000,1.1066],[1391961600000,1.1392],[1392048000000,1.1408],[1392134400000,1.1534],[1392220800000,1.1363],[1392307200000,1.1558],[1392566400000,1.1777],[1392652800000,1.1762],[1392739200000,1.1763],[1392825600000,1.1597],[1392912000000,1.1521],[1393171200000,1.1475],[1393257600000,1.1071],[1393344000000,1.1144],[1393430400000,1.0996],[1393516800000,1.1111],[1393776000000,1.1342],[1393862400000,1.1344],[1393948800000,1.1285],[1394035200000,1.127],[1394121600000,1.1213],[1394380800000,1.0787],[1394467200000,1.0798],[1394553600000,1.0801],[1394640000000,1.0917],[1394726400000,1.0866],[1394985600000,1.1084],[1395072000000,1.1144],[1395158400000,1.112],[1395244800000,1.0829],[1395331200000,1.1041],[1395590400000,1.1134],[1395676800000,1.1149],[1395763200000,1.1178],[1395849600000,1.1017],[1395936000000,1.0797],[1396195200000,1.0728],[1396281600000,1.0892],[1396368000000,1.0899],[1396454400000,1.0883],[1396540800000,1.1003],[1396886400000,1.1119],[1396972800000,1.1222],[1397059200000,1.1279],[1397145600000,1.1229],[1397404800000,1.1312],[1397491200000,1.123],[1397577600000,1.1224],[1397664000000,1.121],[1397750400000,1.125],[1398009600000,1.1071],[1398096000000,1.102],[1398182400000,1.097],[1398268800000,1.0846],[1398355200000,1.061],[1398614400000,1.0287],[1398700800000,1.0439],[1398787200000,1.0516],[1399219200000,1.0605],[1399305600000,1.066],[1399392000000,1.0471],[1399478400000,1.0483],[1399564800000,1.0378],[1399824000000,1.0647],[1399910400000,1.0632],[1399996800000,1.0623],[1400083200000,1.0425],[1400169600000,1.0412],[1400428800000,1.0356],[1400515200000,1.0385],[1400601600000,1.0476],[1400688000000,1.0476],[1400774400000,1.0593],[1401033600000,1.0707],[1401120000000,1.0682],[1401206400000,1.0804],[1401292800000,1.0693],[1401379200000,1.0714],[1401724800000,1.0695],[1401811200000,1.0602],[1401897600000,1.0723],[1401984000000,1.0685],[1402243200000,1.0628],[1402329600000,1.0748],[1402416000000,1.0799],[1402502400000,1.078],[1402588800000,1.0893],[1402848000000,1.0959],[1402934400000,1.0865],[1403020800000,1.081],[1403107200000,1.0528],[1403193600000,1.0626],[1403452800000,1.07],[1403539200000,1.077],[1403625600000,1.0702],[1403712000000,1.0837],[1403798400000,1.0916],[1404057600000,1.1017],[1404144000000,1.1092],[1404230400000,1.1171],[1404316800000,1.1284],[1404403200000,1.1246],[1404662400000,1.1274],[1404748800000,1.1345],[1404835200000,1.1189],[1404921600000,1.1189],[1405008000000,1.1324],[1405267200000,1.1495],[1405353600000,1.1504],[1405440000000,1.1417],[1405526400000,1.1331],[1405612800000,1.1363],[1405872000000,1.1328],[1405958400000,1.1477],[1406044800000,1.1403],[1406131200000,1.1396],[1406217600000,1.1495],[1406476800000,1.1714],[1406563200000,1.1826],[1406649600000,1.1849],[1406736000000,1.1967],[1406822400000,1.1836],[1407081600000,1.2028],[1407168000000,1.2087],[1407254400000,1.2167],[1407340800000,1.2048],[1407427200000,1.212],[1407686400000,1.2303],[1407772800000,1.2366],[1407859200000,1.2372],[1407945600000,1.2292],[1408032000000,1.2433],[1408291200000,1.2601],[1408377600000,1.2639],[1408464000000,1.264],[1408550400000,1.2637],[1408636800000,1.2711],[1408896000000,1.2613],[1408982400000,1.2391],[1409068800000,1.2429],[1409155200000,1.2317],[1409241600000,1.2447],[1409500800000,1.2669],[1409587200000,1.2861],[1409673600000,1.2952],[1409760000000,1.3062],[1409846400000,1.3113],[1410192000000,1.3211],[1410278400000,1.3234],[1410364800000,1.322],[1410451200000,1.3365],[1410710400000,1.3506],[1410796800000,1.305],[1410883200000,1.3165],[1410969600000,1.3257],[1411056000000,1.3368],[1411315200000,1.3187],[1411401600000,1.3355],[1411488000000,1.3527],[1411574400000,1.3528],[1411660800000,1.3576],[1411920000000,1.371],[1412006400000,1.3819],[1412697600000,1.4036],[1412784000000,1.4065],[1412870400000,1.4003],[1413129600000,1.4004],[1413216000000,1.3958],[1413302400000,1.4018],[1413388800000,1.3789],[1413475200000,1.3661],[1413734400000,1.3852],[1413820800000,1.3725],[1413907200000,1.3561],[1413993600000,1.3363],[1414080000000,1.3417],[1414339200000,1.3515],[1414425600000,1.3839],[1414512000000,1.4027],[1414598400000,1.4029],[1414684800000,1.4011],[1414944000000,1.4129],[1415030400000,1.4058],[1415116800000,1.4035],[1415203200000,1.4117],[1415289600000,1.3983],[1415548800000,1.4132],[1415635200000,1.3712],[1415721600000,1.3947],[1415808000000,1.3824],[1415894400000,1.379],[1416153600000,1.3926],[1416240000000,1.3952],[1416326400000,1.4001],[1416412800000,1.3971],[1416499200000,1.4126],[1416758400000,1.4357],[1416844800000,1.4573],[1416931200000,1.4644],[1417017600000,1.4749],[1417104000000,1.4732],[1417363200000,1.4627],[1417449600000,1.4822],[1417536000000,1.4994],[1417622400000,1.5311],[1417708800000,1.4979],[1417968000000,1.5198],[1418054400000,1.4586],[1418140800000,1.5088],[1418227200000,1.531],[1418313600000,1.5415],[1418572800000,1.5656],[1418659200000,1.5716],[1418745600000,1.5574],[1418832000000,1.5574],[1418918400000,1.5482],[1419177600000,1.4872],[1419264000000,1.4561],[1419350400000,1.4752],[1419436800000,1.5037],[1419523200000,1.5199],[1419782400000,1.5045],[1419868800000,1.4786],[1419955200000,1.4918],[1420387200000,1.518],[1420473600000,1.5354],[1420560000000,1.5377],[1420646400000,1.5254],[1420732800000,1.5157],[1420992000000,1.4943],[1421078400000,1.5144],[1421164800000,1.5074],[1421251200000,1.5266],[1421337600000,1.5466],[1421596800000,1.4808],[1421683200000,1.534],[1421769600000,1.573],[1421856000000,1.5952],[1421942400000,1.5799],[1422201600000,1.6154],[1422288000000,1.6202],[1422374400000,1.6114],[1422460800000,1.6005],[1422547200000,1.5812],[1422806400000,1.5746],[1422892800000,1.602],[1422979200000,1.5952],[1423065600000,1.5869],[1423152000000,1.5534],[1423411200000,1.545],[1423497600000,1.5661],[1423584000000,1.5832],[1423670400000,1.5943],[1423756800000,1.6189],[1424016000000,1.6469],[1424102400000,1.6584],[1424793600000,1.6569],[1424880000000,1.6745],[1424966400000,1.6882],[1425225600000,1.722],[1425312000000,1.7161],[1425398400000,1.7417],[1425484800000,1.7413],[1425571200000,1.7201],[1425830400000,1.7422],[1425916800000,1.7601],[1426003200000,1.7563],[1426089600000,1.7555],[1426176000000,1.775],[1426435200000,1.8272],[1426521600000,1.8555],[1426608000000,1.8863],[1426694400000,1.9016],[1426780800000,1.9209],[1427040000000,1.9674],[1427126400000,1.9755],[1427212800000,1.9976],[1427299200000,1.9835],[1427385600000,2.0063],[1427644800000,2.0313],[1427731200000,2.0334],[1427817600000,2.0819],[1427904000000,2.1198],[1427990400000,2.153],[1428336000000,2.2047],[1428422400000,2.189],[1428508800000,2.1716],[1428595200000,2.2293],[1428854400000,2.277],[1428940800000,2.2762],[1429027200000,2.1874],[1429113600000,2.2182],[1429200000000,2.2379],[1429459200000,2.1987],[1429545600000,2.278],[1429632000000,2.3375],[1429718400000,2.3628],[1429804800000,2.367],[1430064000000,2.3937],[1430150400000,2.3261],[1430236800000,2.3732],[1430323200000,2.3872],[1430668800000,2.3967],[1430755200000,2.3106],[1430841600000,2.2784],[1430928000000,2.2284],[1431014400000,2.312],[1431273600000,2.4122],[1431360000000,2.4647],[1431446400000,2.4868],[1431532800000,2.4839],[1431619200000,2.4645],[1431878400000,2.5096],[1431964800000,2.5719],[1432051200000,2.6148],[1432137600000,2.7114],[1432224000000,2.7562],[1432483200000,2.8296],[1432569600000,2.9236],[1432656000000,2.9583],[1432742400000,2.7807],[1432828800000,2.8092],[1433088000000,2.956],[1433174400000,3.0693],[1433260800000,3.0958],[1433347200000,3.0948],[1433433600000,3.1456],[1433692800000,3.1136],[1433779200000,3.1088],[1433865600000,3.1667],[1433952000000,3.2103],[1434038400000,3.263],[1434297600000,3.2017],[1434384000000,3.0742],[1434470400000,3.1375],[1434556800000,3.0347],[1434643200000,2.8259],[1434988800000,2.8406],[1435075200000,2.9027],[1435161600000,2.7997],[1435248000000,2.5626],[1435507200000,2.3899],[1435593600000,2.5073],[1435680000000,2.3679],[1435766400000,2.2066],[1435852800000,2.0718],[1436112000000,2.0423],[1436198400000,1.9067],[1436284800000,1.8608],[1436371200000,1.9448],[1436457600000,2.0432],[1436716800000,2.1705],[1436803200000,2.215],[1436889600000,2.0878],[1436976000000,2.1378],[1437062400000,2.2557],[1437321600000,2.2904],[1437408000000,2.3207],[1437494400000,2.3501],[1437580800000,2.4223],[1437667200000,2.3852],[1437926400000,2.2057],[1438012800000,2.1632],[1438099200000,2.2679],[1438185600000,2.2057],[1438272000000,2.1863],[1438531200000,2.1331],[1438617600000,2.2483],[1438704000000,2.2194],[1438790400000,2.2063],[1438876800000,2.2696],[1439136000000,2.3787],[1439222400000,2.3895],[1439308800000,2.362],[1439395200000,2.4186],[1439481600000,2.4448],[1439740800000,2.4999],[1439827200000,2.3131],[1439913600000,2.3653],[1440000000000,2.2852],[1440086400000,2.1629],[1440345600000,1.989],[1440432000000,1.8384],[1440518400000,1.7691],[1440604800000,1.8316],[1440691200000,1.9428],[1440950400000,1.8672],[1441036800000,1.748],[1441123200000,1.7345],[1441555200000,1.7462],[1441641600000,1.8168],[1441728000000,1.8683],[1441814400000,1.8379],[1441900800000,1.854],[1442160000000,1.7289],[1442246400000,1.6331],[1442332800000,1.7429],[1442419200000,1.7107],[1442505600000,1.7327],[1442764800000,1.7948],[1442851200000,1.8084],[1442937600000,1.7879],[1443024000000,1.8139],[1443110400000,1.7546],[1443369600000,1.7866],[1443456000000,1.7533],[1443542400000,1.7591],[1444233600000,1.8304],[1444320000000,1.8583],[1444579200000,1.9306],[1444665600000,1.9553],[1444752000000,1.9337],[1444838400000,1.9933],[1444924800000,2.0274],[1445184000000,2.0275],[1445270400000,2.0614],[1445356800000,1.9338],[1445443200000,2.008],[1445529600000,2.0583],[1445788800000,2.0738],[1445875200000,2.0876],[1445961600000,2.0362],[1446048000000,2.0541],[1446134400000,2.0476],[1446393600000,2.0058],[1446480000000,2.0017],[1446566400000,2.1023],[1446652800000,2.1044],[1446739200000,2.1533],[1446998400000,2.1811],[1447084800000,2.1895],[1447171200000,2.2212],[1447257600000,2.2203],[1447344000000,2.1876],[1447603200000,2.2309],[1447689600000,2.2105],[1447776000000,2.1744],[1447862400000,2.2298],[1447948800000,2.2551],[1448208000000,2.237],[1448294400000,2.2526],[1448380800000,2.2882],[1448467200000,2.2739],[1448553600000,2.1298],[1448812800000,2.1392],[1448899200000,2.1494],[1448985600000,2.1387],[1449072000000,2.186],[1449158400000,2.1695],[1449417600000,2.1945],[1449504000000,2.1375],[1449590400000,2.1292],[1449676800000,2.123],[1449763200000,2.1067],[1450022400000,2.1501],[1450108800000,2.1669],[1450195200000,2.1759],[1450281600000,2.2297],[1450368000000,2.2247],[1450627200000,2.2503],[1450713600000,2.27],[1450800000000,2.2459],[1450886400000,2.24],[1450972800000,2.2514],[1451232000000,2.1971],[1451318400000,2.2178],[1451404800000,2.2369],[1451491200000,2.2013],[1451836800000,2.0185],[1451923200000,1.9906],[1452009600000,2.0415],[1452096000000,1.8681],[1452182400000,1.8986],[1452441600000,1.7709],[1452528000000,1.7732],[1452614400000,1.7118],[1452700800000,1.7697],[1452787200000,1.7029],[1453046400000,1.7278],[1453132800000,1.7908],[1453219200000,1.7737],[1453305600000,1.7031],[1453392000000,1.731],[1453651200000,1.7492],[1453737600000,1.62],[1453824000000,1.5984],[1453910400000,1.5298],[1453996800000,1.5869],[1454256000000,1.5665],[1454342400000,1.621],[1454428800000,1.6278],[1454515200000,1.6603],[1454601600000,1.6437],[1455465600000,1.6447],[1455552000000,1.7126],[1455638400000,1.7325],[1455724800000,1.7284],[1455811200000,1.7349],[1456070400000,1.7709],[1456156800000,1.7612],[1456243200000,1.7729],[1456329600000,1.6322],[1456416000000,1.6389],[1456675200000,1.5525],[1456761600000,1.5884],[1456848000000,1.6697],[1456934400000,1.6767],[1457020800000,1.6315],[1457280000000,1.6695],[1457366400000,1.6729],[1457452800000,1.6301],[1457539200000,1.6041],[1457625600000,1.6018],[1457884800000,1.6556],[1457971200000,1.6418],[1458057600000,1.6197],[1458144000000,1.6731],[1458230400000,1.7323],[1458489600000,1.7758],[1458576000000,1.7688],[1458662400000,1.7814],[1458748800000,1.7523],[1458835200000,1.7691],[1459094400000,1.7577],[1459180800000,1.7239],[1459267200000,1.7867],[1459353600000,1.7922],[1459440000000,1.783],[1459785600000,1.8304],[1459872000000,1.841],[1459958400000,1.8139],[1460044800000,1.7961],[1460304000000,1.8359],[1460390400000,1.8209],[1460476800000,1.8481],[1460563200000,1.8646],[1460649600000,1.8591],[1460908800000,1.8289],[1460995200000,1.8361],[1461081600000,1.7525],[1461168000000,1.7385],[1461254400000,1.7496],[1461513600000,1.7404],[1461600000000,1.7602],[1461686400000,1.7519],[1461772800000,1.7441],[1461859200000,1.7432],[1462204800000,1.796],[1462291200000,1.7972],[1462377600000,1.8071],[1462464000000,1.7378],[1462723200000,1.6739],[1462809600000,1.6726],[1462896000000,1.6685],[1462982400000,1.6692],[1463068800000,1.6657],[1463328000000,1.6944],[1463414400000,1.6891],[1463500800000,1.6423],[1463587200000,1.6532],[1463673600000,1.6728],[1463932800000,1.6953],[1464019200000,1.6762],[1464105600000,1.6683],[1464192000000,1.6766],[1464278400000,1.6761],[1464537600000,1.6684],[1464624000000,1.7379],[1464710400000,1.7458],[1464796800000,1.7572],[1464883200000,1.7639],[1465142400000,1.7688],[1465228800000,1.7674],[1465315200000,1.7628],[1465747200000,1.6831],[1465833600000,1.6863],[1465920000000,1.7425],[1466006400000,1.736],[1466092800000,1.7461],[1466352000000,1.7528],[1466438400000,1.733],[1466524800000,1.7597],[1466611200000,1.7512],[1466697600000,1.7292],[1466956800000,1.7707],[1467043200000,1.7895],[1467129600000,1.7937],[1467216000000,1.7949],[1467302400000,1.7917],[1467561600000,1.8272],[1467648000000,1.8381],[1467734400000,1.8462],[1467820800000,1.8533],[1467907200000,1.8484],[1468166400000,1.8521],[1468252800000,1.8759],[1468339200000,1.8911],[1468425600000,1.8939],[1468512000000,1.8901],[1468771200000,1.8808],[1468857600000,1.8855],[1468944000000,1.8815],[1469030400000,1.8888],[1469116800000,1.874],[1469376000000,1.879],[1469462400000,1.904],[1469548800000,1.8259],[1469635200000,1.8295],[1469721600000,1.8177],[1469980800000,1.79],[1470067200000,1.8073],[1470153600000,1.816],[1470240000000,1.8277],[1470326400000,1.818],[1470585600000,1.8441],[1470672000000,1.8592],[1470758400000,1.8526],[1470844800000,1.8259],[1470931200000,1.8468],[1471190400000,1.8892],[1471276800000,1.897],[1471363200000,1.9026],[1471449600000,1.903],[1471536000000,1.906],[1471795200000,1.8829],[1471881600000,1.8848],[1471968000000,1.8869],[1472054400000,1.8714],[1472140800000,1.8797],[1472400000000,1.8846],[1472486400000,1.8843],[1472572800000,1.8868],[1472659200000,1.8717],[1472745600000,1.8644],[1473004800000,1.8746],[1473091200000,1.9046],[1473177600000,1.905],[1473264000000,1.9118],[1473350400000,1.8988],[1473609600000,1.8461],[1473696000000,1.8542],[1473782400000,1.8423],[1474214400000,1.8614],[1474300800000,1.8607],[1474387200000,1.8616],[1474473600000,1.874],[1474560000000,1.8698],[1474819200000,1.8327],[1474905600000,1.8453],[1474992000000,1.8441],[1475078400000,1.8498],[1475164800000,1.8582],[1476028800000,1.8929],[1476115200000,1.9039],[1476201600000,1.9028],[1476288000000,1.9036],[1476374400000,1.8992],[1476633600000,1.8827],[1476720000000,1.9108],[1476806400000,1.9067],[1476892800000,1.9077],[1476979200000,1.9009],[1477238400000,1.92],[1477324800000,1.9268],[1477411200000,1.9171],[1477497600000,1.9133],[1477584000000,1.8955],[1477843200000,1.8943],[1477929600000,1.9106],[1478016000000,1.8952],[1478102400000,1.9036],[1478188800000,1.8974],[1478448000000,1.899],[1478534400000,1.9091],[1478620800000,1.8946],[1478707200000,1.9191],[1478793600000,1.9331],[1479052800000,1.942],[1479139200000,1.9495],[1479225600000,1.9509],[1479312000000,1.9488],[1479398400000,1.9388],[1479657600000,1.9413],[1479744000000,1.9557],[1479830400000,1.9468],[1479916800000,1.9441],[1480003200000,1.9525],[1480262400000,1.9578],[1480348800000,1.943],[1480435200000,1.9326],[1480521600000,1.944],[1480608000000,1.9139],[1480867200000,1.9041],[1480953600000,1.9056],[1481040000000,1.9241],[1481126400000,1.9151],[1481212800000,1.9105],[1481472000000,1.8328],[1481558400000,1.8411],[1481644800000,1.8302],[1481731200000,1.8417],[1481817600000,1.8532],[1482076800000,1.8536],[1482163200000,1.8477],[1482249600000,1.8615],[1482336000000,1.8597],[1482422400000,1.8426],[1482681600000,1.8463],[1482768000000,1.8448],[1482854400000,1.8395],[1482940800000,1.8347],[1483027200000,1.8377],[1483113600000,1.8376],[1483372800000,1.8541],[1483459200000,1.8758],[1483545600000,1.8771],[1483632000000,1.869],[1483891200000,1.8815],[1483977600000,1.8754],[1484064000000,1.8574],[1484150400000,1.8401],[1484236800000,1.8173],[1484496000000,1.7687],[1484582400000,1.7841],[1484668800000,1.7807],[1484755200000,1.7735],[1484841600000,1.7966],[1485100800000,1.811],[1485187200000,1.809],[1485273600000,1.8134],[1485360000000,1.8262],[1486051200000,1.821],[1486310400000,1.8361],[1486396800000,1.8351],[1486483200000,1.8457],[1486569600000,1.8573],[1486656000000,1.859],[1486915200000,1.8686],[1487001600000,1.87],[1487088000000,1.8512],[1487174400000,1.8651],[1487260800000,1.8499],[1487520000000,1.8727],[1487606400000,1.8873],[1487692800000,1.8988],[1487779200000,1.8988],[1487865600000,1.8996],[1488124800000,1.8843],[1488211200000,1.8921],[1488297600000,1.8972],[1488384000000,1.8877],[1488470400000,1.893],[1488729600000,1.9118],[1488816000000,1.9134],[1488902400000,1.9059],[1488988800000,1.889],[1489075200000,1.8917],[1489334400000,1.9093],[1489420800000,1.9051],[1489507200000,1.903],[1489593600000,1.92],[1489680000000,1.9027],[1489939200000,1.9067],[1490025600000,1.9117],[1490112000000,1.907],[1490198400000,1.9107],[1490284800000,1.9212],[1490544000000,1.9122],[1490630400000,1.9072],[1490716800000,1.9019],[1490803200000,1.8714],[1490889600000,1.8788],[1491321600000,1.9194],[1491408000000,1.925],[1491494400000,1.9306],[1491753600000,1.927],[1491840000000,1.9451],[1491926400000,1.93],[1492012800000,1.9418],[1492099200000,1.9162],[1492358400000,1.895],[1492444800000,1.884],[1492531200000,1.8641],[1492617600000,1.8633],[1492704000000,1.8496],[1492963200000,1.8023],[1493049600000,1.8085],[1493136000000,1.8131],[1493222400000,1.818],[1493308800000,1.8237],[1493654400000,1.8247],[1493740800000,1.8193],[1493827200000,1.8131],[1493913600000,1.7879],[1494172800000,1.7544],[1494259200000,1.7649],[1494345600000,1.7283],[1494432000000,1.7243],[1494518400000,1.7219],[1494777600000,1.7309],[1494864000000,1.7667],[1494950400000,1.7707],[1495036800000,1.7558],[1495123200000,1.7555],[1495382400000,1.7302],[1495468800000,1.694],[1495555200000,1.7041],[1495641600000,1.7195],[1495728000000,1.7163],[1496160000000,1.7123],[1496246400000,1.6789],[1496332800000,1.6975],[1496592000000,1.7103],[1496678400000,1.7176],[1496764800000,1.7514],[1496851200000,1.7533],[1496937600000,1.7574],[1497196800000,1.7382],[1497283200000,1.761],[1497369600000,1.7572],[1497456000000,1.7735],[1497542400000,1.7718],[1497801600000,1.785],[1497888000000,1.7879],[1497974400000,1.7912],[1498060800000,1.7665],[1498147200000,1.7713],[1498406400000,1.8015],[1498492800000,1.8021],[1498579200000,1.7942],[1498665600000,1.8036],[1498752000000,1.8101],[1499011200000,1.8217],[1499097600000,1.8126],[1499184000000,1.8264],[1499270400000,1.8288],[1499356800000,1.8364],[1499616000000,1.8307],[1499702400000,1.8081],[1499788800000,1.8089],[1499875200000,1.8143],[1499961600000,1.8085],[1500220800000,1.7343],[1500307200000,1.7523],[1500393600000,1.7882],[1500480000000,1.8002],[1500566400000,1.8086],[1500825600000,1.8207],[1500912000000,1.8165],[1500998400000,1.8147],[1501084800000,1.8261],[1501171200000,1.8357],[1501430400000,1.86],[1501516800000,1.8565],[1501603200000,1.8465],[1501689600000,1.8495],[1501776000000,1.8388],[1502035200000,1.8615],[1502121600000,1.8615],[1502208000000,1.8725],[1502294400000,1.8573],[1502380800000,1.8198],[1502640000000,1.8584],[1502726400000,1.8648],[1502812800000,1.8662],[1502899200000,1.8802],[1502985600000,1.8747],[1503244800000,1.8913],[1503331200000,1.883],[1503417600000,1.8674],[1503504000000,1.8544],[1503590400000,1.8746],[1503849600000,1.8977],[1503936000000,1.8926],[1504022400000,1.9061],[1504108800000,1.9112],[1504195200000,1.9278],[1504454400000,1.9387],[1504540800000,1.9411],[1504627200000,1.9514],[1504713600000,1.9372],[1504800000000,1.9413],[1505059200000,1.9638],[1505145600000,1.9624],[1505232000000,1.9741],[1505318400000,1.9705],[1505404800000,1.9557],[1505664000000,1.97],[1505750400000,1.96],[1505836800000,1.9766],[1505923200000,1.9529],[1506009600000,1.9409],[1506268800000,1.9166],[1506355200000,1.9251],[1506441600000,1.9439],[1506528000000,1.9395],[1506614400000,1.9498],[1507478400000,1.9719],[1507564800000,1.9799],[1507651200000,1.9684],[1507737600000,1.9659],[1507824000000,1.9813],[1508083200000,1.9545],[1508169600000,1.9524],[1508256000000,1.9378],[1508342400000,1.9195],[1508428800000,1.9402],[1508688000000,1.9522],[1508774400000,1.9491],[1508860800000,1.9626],[1508947200000,1.9698],[1509033600000,1.9575],[1509292800000,1.9224],[1509379200000,1.9366],[1509465600000,1.9344],[1509552000000,1.9143],[1509638400000,1.897],[1509897600000,1.922],[1509984000000,1.934],[1510070400000,1.9374],[1510156800000,1.9517],[1510243200000,1.9608],[1510502400000,1.9695],[1510588800000,1.9527],[1510675200000,1.9301],[1510761600000,1.9363],[1510848000000,1.8787],[1511107200000,1.8993],[1511193600000,1.9063],[1511280000000,1.9011],[1511366400000,1.853],[1511452800000,1.8539],[1511712000000,1.829],[1511798400000,1.8598],[1511884800000,1.8656],[1511971200000,1.8491],[1512057600000,1.8644],[1512316800000,1.8536],[1512403200000,1.8106],[1512489600000,1.8225],[1512576000000,1.8138],[1512662400000,1.8335],[1512921600000,1.8578],[1513008000000,1.8425],[1513094400000,1.8554],[1513180800000,1.8574],[1513267200000,1.8425],[1513526400000,1.8314],[1513612800000,1.8468],[1513699200000,1.8312],[1513785600000,1.8433],[1513872000000,1.8444],[1514131200000,1.8271],[1514217600000,1.8376],[1514304000000,1.8237],[1514390400000,1.8332],[1514476800000,1.8469],[1514649600000,1.8468],[1514822400000,1.8709],[1514908800000,1.8874],[1514995200000,1.8958],[1515081600000,1.8957],[1515340800000,1.9041],[1515427200000,1.9039],[1515513600000,1.8922],[1515600000000,1.8982],[1515686400000,1.8903],[1515945600000,1.8472],[1516032000000,1.8609],[1516118400000,1.8506],[1516204800000,1.8557],[1516291200000,1.8509],[1516550400000,1.8734],[1516636800000,1.8754],[1516723200000,1.8873],[1516809600000,1.8839],[1516896000000,1.8841],[1517155200000,1.862],[1517241600000,1.863],[1517328000000,1.8263],[1517414400000,1.766],[1517500800000,1.7715],[1517760000000,1.7696],[1517846400000,1.6834],[1517932800000,1.6849],[1518019200000,1.7012],[1518105600000,1.6383],[1518364800000,1.6813],[1518451200000,1.6923],[1518537600000,1.6977],[1519228800000,1.7334],[1519315200000,1.7398],[1519574400000,1.779],[1519660800000,1.7735],[1519747200000,1.7772],[1519833600000,1.7967],[1519920000000,1.7868],[1520179200000,1.7888],[1520265600000,1.8131],[1520352000000,1.7958],[1520438400000,1.8093],[1520524800000,1.8319],[1520784000000,1.858],[1520870400000,1.8462],[1520956800000,1.827],[1521043200000,1.8237],[1521129600000,1.8139],[1521388800000,1.8157],[1521475200000,1.8214],[1521561600000,1.8082],[1521648000000,1.7997],[1521734400000,1.7066],[1521993600000,1.7409],[1522080000000,1.7798],[1522166400000,1.7617],[1522252800000,1.7798],[1522339200000,1.8035],[1522598400000,1.8055],[1522684800000,1.7872],[1522771200000,1.7752],[1523203200000,1.7773],[1523289600000,1.7885],[1523376000000,1.7953],[1523462400000,1.7849],[1523548800000,1.7777],[1523808000000,1.7731],[1523894400000,1.7376],[1523980800000,1.7611],[1524067200000,1.7711],[1524153600000,1.7345],[1524412800000,1.7172],[1524499200000,1.757],[1524585600000,1.7576],[1524672000000,1.725],[1524758400000,1.7293],[1525190400000,1.7274],[1525276800000,1.744],[1525363200000,1.7442],[1525622400000,1.7768],[1525708800000,1.7835],[1525795200000,1.7797],[1525881600000,1.7831],[1525968000000,1.7691],[1526227200000,1.7621],[1526313600000,1.778],[1526400000000,1.7738],[1526486400000,1.7653],[1526572800000,1.7721],[1526832000000,1.795],[1526918400000,1.8013],[1527004800000,1.7784],[1527091200000,1.7724],[1527177600000,1.7514],[1527436800000,1.7435],[1527523200000,1.7269],[1527609600000,1.6817],[1527696000000,1.7031],[1527782400000,1.6831],[1528041600000,1.6826],[1528128000000,1.7106],[1528214400000,1.7104],[1528300800000,1.6992],[1528387200000,1.6789],[1528646400000,1.6682],[1528732800000,1.6865],[1528819200000,1.6613],[1528905600000,1.6557],[1528992000000,1.626],[1529337600000,1.5238],[1529424000000,1.5415],[1529510400000,1.5093],[1529596800000,1.5309],[1529856000000,1.5206],[1529942400000,1.5311],[1530028800000,1.5161],[1530115200000,1.5005],[1530201600000,1.5495],[1530288000000,1.5494],[1530460800000,1.5255],[1530547200000,1.5431],[1530633600000,1.521],[1530720000000,1.4805],[1530806400000,1.4849],[1531065600000,1.5185],[1531152000000,1.5275],[1531238400000,1.4977],[1531324800000,1.5391],[1531411200000,1.5488],[1531670400000,1.5462],[1531756800000,1.5463],[1531843200000,1.5353],[1531929600000,1.5217],[1532016000000,1.5412],[1532275200000,1.5527],[1532361600000,1.5799],[1532448000000,1.5811],[1532534400000,1.5705],[1532620800000,1.5635],[1532880000000,1.5441],[1532966400000,1.5447],[1533052800000,1.5197],[1533139200000,1.4863],[1533225600000,1.4671],[1533484800000,1.4357],[1533571200000,1.475],[1533657600000,1.4523],[1533744000000,1.4897],[1533830400000,1.4977],[1534089600000,1.5053],[1534176000000,1.5001],[1534262400000,1.469],[1534348800000,1.4561],[1534435200000,1.4304],[1534694400000,1.4393],[1534780800000,1.4573],[1534867200000,1.4411],[1534953600000,1.4492],[1535040000000,1.4458],[1535299200000,1.4783],[1535385600000,1.4824],[1535472000000,1.4728],[1535558400000,1.4508],[1535644800000,1.4352],[1535904000000,1.4421],[1535990400000,1.4575],[1536076800000,1.4351],[1536163200000,1.4284],[1536249600000,1.4278],[1536508800000,1.4019],[1536595200000,1.4013],[1536681600000,1.3986],[1536768000000,1.4068],[1536854400000,1.3919],[1537113600000,1.3717],[1537200000000,1.3959],[1537286400000,1.4121],[1537372800000,1.4112],[1537459200000,1.4331],[1537804800000,1.4294],[1537891200000,1.4366],[1537977600000,1.419],[1538064000000,1.4326],[1538928000000,1.3865],[1539014400000,1.3828],[1539100800000,1.3816],[1539187200000,1.2853],[1539273600000,1.2767],[1539532800000,1.2533],[1539619200000,1.2237],[1539705600000,1.2338],[1539792000000,1.2],[1539878400000,1.2327],[1540137600000,1.2941],[1540224000000,1.2701],[1540310400000,1.2677],[1540396800000,1.2643],[1540483200000,1.264],[1540742400000,1.2429],[1540828800000,1.2556],[1540915200000,1.2761],[1541001600000,1.2844],[1541088000000,1.3265],[1541347200000,1.3276],[1541433600000,1.3273],[1541520000000,1.3209],[1541606400000,1.3117],[1541692800000,1.3083],[1541952000000,1.3424],[1542038400000,1.3671],[1542124800000,1.3618],[1542211200000,1.3844],[1542297600000,1.3964],[1542556800000,1.3997],[1542643200000,1.3599],[1542729600000,1.3649],[1542816000000,1.3641],[1542902400000,1.3112],[1543161600000,1.3086],[1543248000000,1.3144],[1543334400000,1.3311],[1543420800000,1.3027],[1543507200000,1.3117],[1543766400000,1.3537],[1543852800000,1.3602],[1543939200000,1.3504],[1544025600000,1.3227],[1544112000000,1.3232],[1544371200000,1.3083],[1544457600000,1.3198],[1544544000000,1.3199],[1544630400000,1.3352],[1544716800000,1.3021],[1544976000000,1.2996],[1545062400000,1.2926],[1545148800000,1.2748],[1545235200000,1.2782],[1545321600000,1.2696],[1545580800000,1.2831],[1545667200000,1.2684],[1545753600000,1.2633],[1545840000000,1.2494],[1545926400000,1.251],[1546185600000,1.2509],[1546358400000,1.2401],[1546444800000,1.2345],[1546531200000,1.2638],[1546790400000,1.2874],[1546876800000,1.2841],[1546963200000,1.2877],[1547049600000,1.2856],[1547136000000</t>
   </si>
   <si>
+    <t>159901</t>
+  </si>
+  <si>
     <t>易方达深证100ETF</t>
   </si>
   <si>
     <t xml:space="preserve"> [[1143129600000,1.0],[1143734400000,1.02],[1144339200000,1.053],[1144944000000,1.119],[1145548800000,1.14],[1145808000000,1.121],[1145894400000,1.131],[1145980800000,1.142],[1146067200000,1.149],[1146153600000,1.158],[1147017600000,1.207],[1147104000000,1.242],[1147190400000,1.254],[1147276800000,1.238],[1147363200000,1.267],[1147622400000,1.33],[1147708800000,1.313],[1147795200000,1.319],[1147881600000,1.321],[1147968000000,1.355],[1148227200000,1.361],[1148313600000,1.296],[1148400000000,1.291],[1148486400000,1.296],[1148572800000,1.323],[1148832000000,1.356],[1148918400000,1.369],[1149004800000,1.353],[1149091200000,1.383],[1149177600000,1.362],[1149436800000,1.38],[1149523200000,1.375],[1149609600000,1.3],[1149696000000,1.302],[1149782400000,1.279],[1150041600000,1.283],[1150128000000,1.282],[1150214400000,1.266],[1150300800000,1.268],[1150387200000,1.302],[1150646400000,1.323],[1150732800000,1.325],[1150819200000,1.318],[1150905600000,1.313],[1150992000000,1.327],[1151251200000,1.354],[1151337600000,1.357],[1151424000000,1.353],[1151510400000,1.39],[1151596800000,1.389],[1151856000000,1.417],[1151942400000,1.402],[1152028800000,1.391],[1152115200000,1.414],[1152201600000,1.408],[1152460800000,1.412],[1152547200000,1.418],[1152633600000,1.422],[1152720000000,1.351],[1152806400000,1.365],[1153065600000,1.38],[1153152000000,1.384],[1153238400000,1.34],[1153324800000,1.348],[1153411200000,1.359],[1153670400000,1.361],[1153756800000,1.378],[1153843200000,1.371],[1153929600000,1.349],[1154016000000,1.334],[1154275200000,1.28],[1154361600000,1.27],[1154448000000,1.261],[1154534400000,1.255],[1154620800000,1.224],[1154880000000,1.206],[1154966400000,1.239],[1155052800000,1.236],[1155139200000,1.257],[1155225600000,1.259],[1155484800000,1.231],[1155571200000,1.252],[1155657600000,1.272],[1155744000000,1.261],[1155830400000,1.254],[1156089600000,1.258],[1156176000000,1.274],[1156262400000,1.272],[1156348800000,1.276],[1156435200000,1.282],[1156694400000,1.318],[1156780800000,1.326],[1156867200000,1.333],[1156953600000,1.34],[1157040000000,1.319],[1157299200000,1.34],[1157385600000,1.334],[1157472000000,1.339],[1157558400000,1.32],[1157644800000,1.319],[1157904000000,1.327],[1157990400000,1.336],[1158076800000,1.32],[1158163200000,1.316],[1158249600000,1.339],[1158508800000,1.357],[1158595200000,1.357],[1158681600000,1.361],[1158768000000,1.369],[1158854400000,1.361],[1159113600000,1.361],[1159200000000,1.345],[1159286400000,1.357],[1159372800000,1.373],[1159459200000,1.388],[1159545600000,1.388],[1160323200000,1.414],[1160409600000,1.413],[1160496000000,1.41],[1160582400000,1.397],[1160668800000,1.406],[1160928000000,1.393],[1161014400000,1.397],[1161100800000,1.419],[1161187200000,1.422],[1161273600000,1.423],[1161532800000,1.389],[1161619200000,1.419],[1161705600000,1.43],[1161792000000,1.441],[1161878400000,1.427],[1162137600000,1.426],[1162224000000,1.44],[1162310400000,1.448],[1162396800000,1.45],[1162483200000,1.463],[1162742400000,1.481],[1162828800000,1.488],[1162915200000,1.474],[1163001600000,1.499],[1163088000000,1.467],[1163347200000,1.429],[1163433600000,1.446],[1163520000000,1.498],[1163606400000,1.497],[1163692800000,1.527],[1163952000000,1.551],[1164038400000,1.572],[1164124800000,1.588],[1164211200000,1.592],[1164297600000,1.598],[1164556800000,1.625],[1164643200000,1.621],[1164729600000,1.651],[1164816000000,1.706],[1164902400000,1.729],[1165161600000,1.771],[1165248000000,1.786],[1165334400000,1.759],[1165420800000,1.746],[1165507200000,1.69],[1165766400000,1.772],[1165852800000,1.781],[1165939200000,1.782],[1166025600000,1.804],[1166112000000,1.843],[1166371200000,1.899],[1166457600000,1.891],[1166544000000,1.915],[1166630400000,1.888],[1166716800000,1.862],[1166976000000,1.899],[1167062400000,1.888],[1167148800000,1.917],[1167235200000,1.905],[1167321600000,1.954],[1167494400000,1.954],[1167840000000,1.97],[1167926400000,1.983],[1168185600000,2.037],[1168272000000,2.094],[1168358400000,2.167],[1168444800000,2.153],[1168531200000,2.115],[1168790400000,2.241],[1168876800000,2.34],[1168963200000,2.278],[1169049600000,2.297],[1169136000000,2.376],[1169395200000,2.467],[1169481600000,2.464],[1169568000000,2.48],[1169654400000,2.375],[1169740800000,2.429],[1170000000000,2.48],[1170086400000,2.458],[1170172800000,2.288],[1170259200000,2.303],[1170345600000,2.207],[1170604800000,2.201],[1170691200000,2.229],[1170777600000,2.286],[1170864000000,2.328],[1170950400000,2.315],[1171209600000,2.402],[1171296000000,2.44],[1171382400000,2.504],[1171468800000,2.586],[1171555200000,2.596],[1172419200000,2.618],[1172505600000,2.378],[1172592000000,2.46],[1172678400000,2.383],[1172764800000,2.421],[1173024000000,2.407],[1173110400000,2.431],[1173196800000,2.497],[1173283200000,2.536],[1173369600000,2.511],[1173628800000,2.512],[1173715200000,2.541],[1173801600000,2.509],[1173888000000,2.557],[1173974400000,2.524],[1174233600000,2.556],[1174320000000,2.576],[1174406400000,2.61],[1174492800000,2.616],[1174579200000,2.635],[1174838400000,2.682],[1174924800000,2.69],[1175011200000,2.676],[1175097600000,2.653],[1175184000000,2.653],[1175270400000,2.653],[1175443200000,2.72],[1175529600000,2.767],[1175616000000,2.805],[1175702400000,2.837],[1175788800000,2.88],[1176048000000,2.945],[1176134400000,2.99],[1176220800000,3.029],[1176307200000,3.1],[1176393600000,3.118],[1176652800000,3.196],[1176739200000,3.225],[1176825600000,3.274],[1176912000000,3.114],[1176998400000,3.246],[1177257600000,3.378],[1177344000000,3.379],[1177430400000,3.373],[1177516800000,3.427],[1177603200000,3.382],[1177862400000,3.444],[1178553600000,3.593],[1178640000000,3.618],[1178726400000,3.644],[1178812800000,3.625],[1179072000000,3.688],[1179158400000,3.578],[1179244800000,3.665],[1179331200000,3.758],[1179417600000,3.774],[1179676800000,3.835],[1179763200000,3.889],[1179849600000,3.964],[1179936000000,3.939],[1180022400000,4.011],[1180281600000,4.117],[1180368000000,4.247],[1180454400000,3.974],[1180540800000,4.026],[1180627200000,3.887],[1180886400000,3.589],[1180972800000,3.739],[1181059200000,3.83],[1181145600000,3.954],[1181232000000,4.012],[1181491200000,4.119],[1181577600000,4.244],[1181664000000,4.326],[1181750400000,4.287],[1181836800000,4.293],[1182096000000,4.409],[1182182400000,4.457],[1182268800000,4.4],[1182355200000,4.439],[1182441600000,4.261],[1182700800000,4.066],[1182787200000,4.123],[1182873600000,4.25],[1182960000000,4.022],[1183046400000,4.036],[1183132800000,4.036],[1183305600000,4.019],[1183392000000,4.114],[1183478400000,4.028],[1183564800000,3.789],[1183651200000,3.984],[1183910400000,4.13],[1183996800000,4.06],[1184083200000,4.095],[1184169600000,4.111],[1184256000000,4.1],[1184515200000,3.953],[1184601600000,4.065],[1184688000000,4.078],[1184774400000,4.077],[1184860800000,4.252],[1185120000000,4.466],[1185206400000,4.474],[1185292800000,4.555],[1185379200000,4.631],[1185465600000,4.646],[1185724800000,4.768],[1185811200000,4.826],[1185897600000,4.666],[1185984000000,4.871],[1186070400000,5.031],[1186329600000,5.144],[1186416000000,5.148],[1186502400000,5.05],[1186588800000,5.161],[1186675200000,5.052],[1186934400000,5.002],[1187020800000,5.076],[1187107200000,5.056],[1187193600000,5.0],[1187280000000,4.907],[1187539200000,5.16],[1187625600000,5.249],[1187712000000,5.366],[1187798400000,5.45],[1187884800000,5.513],[1188144000000,5.53],[1188230400000,5.531],[1188316800000,5.427],[1188403200000,5.508],[1188489600000,5.573],[1188748800000,5.673],[1188835200000,5.628],[1188921600000,5.624],[1189008000000,5.66],[1189094400000,5.546],[1189353600000,5.623],[1189440000000,5.354],[1189526400000,5.449],[1189612800000,5.615],[1189699200000,5.691],[1189958400000,5.794],[1190044800000,5.756],[1190131200000,5.695],[1190217600000,5.755],[1190304000000,5.746],[1190563200000,5.796],[1190649600000,5.753],[1190736000000,5.643],[1190822400000,5.728],[1190908800000,5.898],[1191081600000,5.898],[1191772800000,5.976],[1191859200000,6.008],[1191945600000,5.99],[1192032000000,5.998],[1192118400000,5.929],[1192377600000,5.945],[1192464000000,6.021],[1192550400000,5.982],[1192636800000,5.794],[1192723200000,5.824],[1192982400000,5.682],[1193068800000,5.744],[1193155200000,5.765],[1193241600000,5.543],[1193328000000,5.624],[1193587200000,5.727],[1193673600000,5.794],[1193760000000,5.942],[1193846400000,5.812],[1193932800000,5.623],[1194192000000,5.518],[1194278400000,5.525],[1194364800000,5.557],[1194451200000,5.328],[1194537600000,5.232],[1194796800000,5.189],[1194883200000,5.116],[1194969600000,5.305],[1195056000000,5.226],[1195142400000,5.137],[1195401600000,5.14],[1195488000000,5.238],[1195574400000,5.174],[1195660800000,4.924],[1195747200000,5.005],[1196006400000,4.955],[1196092800000,4.866],[1196179200000,4.776],[1196265600000,4.929],[1196352000000,4.841],[1196611200000,4.89],[1196697600000,4.946],[1196784000000,5.095],[1196870400000,5.09],[1196956800000,5.16],[1197216000000,5.277],[1197302400000,5.271],[1197388800000,5.231],[1197475200000,5.001],[1197561600000,5.122],[1197820800000,5.032],[1197907200000,5.014],[1197993600000,5.118],[1198080000000,5.193],[1198166400000,5.26],[1198425600000,5.359],[1198512000000,5.382],[1198598400000,5.458],[1198684800000,5.561],[1198771200000,5.532],[1198857600000,5.531],[1199030400000,5.531],[1199203200000,5.596],[1199289600000,5.639],[1199376000000,5.704],[1199635200000,5.79],[1199721600000,5.737],[1199808000000,5.855],[1199894400000,5.943],[1199980800000,5.953],[1200240000000,6.002],[1200326400000,5.99],[1200412800000,5.803],[1200499200000,5.677],[1200585600000,5.753],[1200844800000,5.467],[1200931200000,5.081],[1201017600000,5.352],[1201104000000,5.443],[1201190400000,5.5],[1201449600000,5.148],[1201536000000,5.163],[1201622400000,5.144],[1201708800000,5.023],[1201795200000,4.958],[1202054400000,5.349],[1202140800000,5.318],[1202832000000,5.225],[1202918400000,5.295],[1203004800000,5.24],[1203264000000,5.357],[1203350400000,5.482],[1203436800000,5.385],[1203523200000,5.364],[1203609600000,5.198],[1203868800000,4.998],[1203955200000,4.944],[1204041600000,5.068],[1204128000000,5.058],[1204214400000,5.109],[1204473600000,5.238],[1204560000000,5.129],[1204646400000,5.102],[1204732800000,5.129],[1204819200000,5.075],[1205078400000,4.862],[1205164800000,4.853],[1205251200000,4.715],[1205337600000,4.573],[1205424000000,4.527],[1205683200000,4.299],[1205769600000,4.068],[1205856000000,4.227],[1205942400000,4.372],[1206028800000,4.426],[1206288000000,4.244],[1206374400000,4.326],[1206460800000,4.346],[1206547200000,4.209],[1206633600000,4.372],[1206892800000,4.242],[1206979200000,3.966],[1207065600000,3.887],[1207152000000,3.985],[1207497600000,4.217],[1207584000000,4.28],[1207670400000,4.117],[1207756800000,4.191],[1207843200000,4.21],[1208102400000,3.927],[1208188800000,3.961],[1208275200000,3.863],[1208361600000,3.74],[1208448000000,3.619],[1208707200000,3.565],[1208793600000,3.571],[1208880000000,3.754],[1208966400000,4.089],[1209052800000,4.148],[1209312000000,4.069],[1209398400000,4.103],[1209484800000,4.282],[1209916800000,4.396],[1210003200000,4.34],[1210089600000,4.135],[1210176000000,4.245],[1210262400000,4.202],[1210521600000,4.233],[1210608000000,4.217],[1210694400000,4.352],[1210780800000,4.308],[1210867200000,4.28],[1211126400000,4.254],[1211212800000,4.025],[1211299200000,4.101],[1211385600000,4.017],[1211472000000,3.967],[1211731200000,3.857],[1211817600000,3.885],[1211904000000,3.986],[1211990400000,3.883],[1212076800000,3.904],[1212336000000,3.91],[1212422400000,3.887],[1212508800000,3.86],[1212595200000,3.814],[1212681600000,3.782],[1213027200000,3.491],[1213113600000,3.395],[1213200000000,3.36],[1213286400000,3.231],[1213545600000,3.191],[1213632000000,3.061],[1213718400000,3.215],[1213804800000,2.983],[1213891200000,3.047],[1214150400000,2.999],[1214236800000,3.086],[1214323200000,3.223],[1214409600000,3.236],[1214496000000,3.055],[1214755200000,3.036],[1214841600000,2.96],[1214928000000,2.981],[1215014400000,3.066],[1215100800000,3.06],[1215360000000,3.213],[1215446400000,3.24],[1215532800000,3.358],[1215619200000,3.308],[1215705600000,3.27],[1215964800000,3.286],[1216051200000,3.168],[1216137600000,3.045],[1216224000000,3.024],[1216310400000,3.116],[1216569600000,3.215],[1216656000000,3.21],[1216742400000,3.167],[1216828800000,3.249],[1216915200000,3.224],[1217174400000,3.249],[1217260800000,3.193],[1217347200000,3.175],[1217433600000,3.093],[1217520000000,3.118],[1217779200000,3.049],[1217865600000,2.95],[1217952000000,2.949],[1218038400000,2.948],[1218124800000,2.808],[1218384000000,2.644],[1218470400000,2.646],[1218556800000,2.663],[1218643200000,2.668],[1218729600000,2.655],[1218988800000,2.518],[1219075200000,2.553],[1219161600000,2.731],[1219248000000,2.639],[1219334400000,2.594],[1219593600000,2.582],[1219680000000,2.51],[1219766400000,2.49],[1219852800000,2.485],[1219939200000,2.547],[1220198400000,2.456],[1220284800000,2.431],[1220371200000,2.39],[1220457600000,2.405],[1220544000000,2.334],[1220803200000,2.246],[1220889600000,2.253],[1220976000000,2.261],[1221062400000,2.206],[1221148800000,2.223],[1221494400000,2.202],[1221580800000,2.151],[1221667200000,2.11],[1221753600000,2.295],[1222012800000,2.392],[1222099200000,2.266],[1222185600000,2.276],[1222272000000,2.356],[1222358400000,2.407],[1222704000000,2.406],[1223222400000,2.307],[1223308800000,2.298],[1223395200000,2.232],[1223481600000,2.189],[1223568000000,2.079],[1223827200000,2.126],[1223913600000,2.093],[1224000000000,2.073],[1224086400000,1.994],[1224172800000,2.007],[1224432000000,2.068],[1224518400000,2.057],[1224604800000,2.021],[1224691200000,2.035],[1224777600000,1.987],[1225036800000,1.857],[1225123200000,1.9],[1225209600000,1.863],[1225296000000,1.888],[1225382400000,1.86],[1225641600000,1.849],[1225728000000,1.808],[1225814400000,1.866],[1225900800000,1.829],[1225987200000,1.841],[1226246400000,1.957],[1226332800000,1.952],[1226419200000,1.968],[1226505600000,2.046],[1226592000000,2.138],[1226851200000,2.191],[1226937600000,2.038],[1227024000000,2.16],[1227110400000,2.169],[1227196800000,2.169],[1227456000000,2.086],[1227542400000,2.085],[1227628800000,2.099],[1227715200000,2.144],[1227801600000,2.131],[1228060800000,2.176],[1228147200000,2.194],[1228233600000,2.274],[1228320000000,2.294],[1228406400000,2.34],[1228665600000,2.419],[1228752000000,2.369],[1228838400000,2.41],[1228924800000,2.359],[1229011200000,2.272],[1229270400000,2.284],[1229356800000,2.328],[1229443200000,2.344],[1229529600000,2.38],[1229616000000,2.391],[1229875200000,2.355],[1229961600000,2.24],[1230048000000,2.2],[1230134400000,2.183],[1230220800000,2.159],[1230480000000,2.149],[1230566400000,2.124],[1230652800000,2.099],[1231084800000,2.153],[1231171200000,2.211],[1231257600000,2.195],[1231344000000,2.158],[1231430400000,2.192],[1231689600000,2.198],[1231776000000,2.143],[1231862400000,2.227],[1231948800000,2.23],[1232035200000,2.259],[1232294400000,2.272],[1232380800000,2.288],[1232467200000,2.279],[1232553600000,2.308],[1232640000000,2.299],[1233504000000,2.326],[1233590400000,2.382],[1233676800000,2.44],[1233763200000,2.411],[1233849600000,2.518],[1234108800000,2.61],[1234195200000,2.67],[1234281600000,2.678],[1234368000000,2.693],[1234454400000,2.791],[1234713600000,2.837],[1234800000000,2.739],[1234886400000,2.63],[1234972800000,2.68],[1235059200000,2.751],[1235318400000,2.841],[1235404800000,2.74],[1235491200000,2.703],[1235577600000,2.549],[1235664000000,2.477],[1235923200000,2.526],[1236009600000,2.516],[1236096000000,2.677],[1236182400000,2.683],[1236268800000,2.676],[1236528000000,2.578],[1236614400000,2.613],[1236700800000,2.587],[1236787200000,2.588],[1236873600000,2.566],[1237132800000,2.603],[1237219200000,2.715],[1237305600000,2.741],[1237392000000,2.793],[1237478400000,2.796],[1237737600000,2.867],[1237824000000,2.884],[1237910400000,2.817],[1237996800000,2.887],[1238083200000,2.895],[1238342400000,2.877],[1238428800000,2.907],[1238515200000,2.957],[1238601600000,2.991],[1238688000000,2.966],[1239033600000,2.97],[1239120000000,2.868],[1239206400000,2.908],[1239292800000,3.003],[1239552000000,3.057],[1239638400000,3.1],[1239724800000,3.118],[1239811200000,3.117],[1239897600000,3.073],[1240156800000,3.136],[1240243200000,3.095],[1240329600000,2.964],[1240416000000,2.993],[1240502400000,2.976],[1240761600000,2.898],[1240848000000,2.914],[1240934400000,2.991],[1241020800000,3.028],[1241366400000,3.142],[1241452800000,3.16],[1241539200000,3.219],[1241625600000,3.21],[1241712000000,3.231],[1241971200000,3.132],[1242057600000,3.22],[1242144000000,3.25],[1242230400000,3.247],[1242316800000,3.258],[1242576000000,3.272],[1242662400000,3.304],[1242748800000,3.29],[1242835200000,3.214],[1242921600000,3.209],[1243180800000,3.238],[1243267200000,3.196],[1243353600000,3.222],[1243785600000,3.304],[1243872000000,3.323],[1243958400000,3.386],[1244044800000,3.397],[1244131200000,3.378],[1244390400000,3.366],[1244476800000,3.394],[1244563200000,3.421],[1244649600000,3.386],[1244736000000,3.332],[1244995200000,3.393],[1245081600000,3.399],[1245168000000,3.473],[1245254400000,3.511],[1245340800000,3.533],[1245600000000,3.514],[1245686400000,3.5],[1245772800000,3.571],[1245859200000,3.568],[1245945600000,3.579],[1246204800000,3.631],[1246291200000,3.614],[1246377600000,3.689],[1246464000000,3.726],[1246550400000,3.804],[1246809600000,3.864],[1246896000000,3.835],[1246982400000,3.875],[1247068800000,3.923],[1247155200000,3.944],[1247414400000,3.944],[1247500800000,4.043],[1247587200000,4.071],[1247673600000,4.07],[1247760000000,4.092],[1248019200000,4.171],[1248105600000,4.106],[1248192000000,4.167],[1248278400000,4.216],[1248364800000,4.215],[1248624000000,4.278],[1248710400000,4.312],[1248796800000,4.07],[1248883200000,4.123],[1248969600000,4.254],[1249228800000,4.326],[1249315200000,4.353],[1249401600000,4.316],[1249488000000,4.24],[1249574400000,4.086],[1249833600000,4.09],[1249920000000,4.125],[1250006400000,3.957],[1250092800000,4.011],[1250179200000,3.902],[1250438400000,3.646],[1250524800000,3.686],[1250611200000,3.518],[1250697600000,3.651],[1250784000000,3.725],[1251043200000,3.783],[1251129600000,3.672],[1251216000000,3.771],[1251302400000,3.755],[1251388800000,3.626],[1251648000000,3.363],[1251734400000,3.361],[1251820800000,3.391],[1251907200000,3.592],[1251993600000,3.634],[1252252800000,3.674],[1252339200000,3.761],[1252425600000,3.805],[1252512000000,3.761],[1252598400000,3.823],[1252857600000,3.916],[1252944000000,3.938],[1253030400000,3.901],[1253116800000,3.956],[1253203200000,3.814],[1253462400000,3.842],[1253548800000,3.763],[1253635200000,3.653],[1253721600000,3.652],[1253808000000,3.624],[1254067200000,3.535],[1254153600000,3.517],[1254240000000,3.561],[1255017600000,3.743],[1255276800000,3.736],[1255363200000,3.781],[1255449600000,3.811],[1255536000000,3.822],[1255622400000,3.831],[1255881600000,3.955],[1255968000000,4.008],[1256054400000,4.008],[1256140800000,3.994],[1256227200000,4.062],[1256486400000,4.063],[1256572800000,3.948],[1256659200000,3.984],[1256745600000,3.896],[1256832000000,3.931],[1257091200000,4.064],[1257177600000,4.115],[1257264000000,4.135],[1257350400000,4.133],[1257436800000,4.162],[1257696000000,4.176],[1257782400000,4.2],[1257868800000,4.191],[1257955200000,4.21],[1258041600000,4.234],[1258300800000,4.357],[1258387200000,4.357],[1258473600000,4.356],[1258560000000,4.381],[1258646400000,4.383],[1258905600000,4.432],[1258992000000,4.283],[1259078400000,4.395],[1259164800000,4.234],[1259251200000,4.104],[1259510400000,4.285],[1259596800000,4.355],[1259683200000,4.398],[1259769600000,4.394],[1259856000000,4.4],[1260115200000,4.457],[1260201600000,4.426],[1260288000000,4.365],[1260374400000,4.392],[1260460800000,4.396],[1260720000000,4.412],[1260806400000,4.382],[1260892800000,4.338],[1260979200000,4.241],[1261065600000,4.093],[1261324800000,4.124],[1261411200000,4.011],[1261497600000,4.063],[1261584000000,4.21],[1261670400000,4.212],[1261929600000,4.275],[1262016000000,4.291],[1262102400000,4.329],[1262188800000,4.348],[1262534400000,4.309],[1262620800000,4.313],[1262707200000,4.312],[1262793600000,4.231],[1262880000000,4.246],[1263139200000,4.22],[1263225600000,4.294],[1263312000000,4.192],[1263398400000,4.258],[1263484800000,4.284],[1263744000000,4.323],[1263830400000,4.325],[1263916800000,4.178],[1264003200000,4.181],[1264089600000,4.071],[1264348800000,4.032],[1264435200000,3.923],[1264521600000,3.893],[1264608000000,3.928],[1264694400000,3.938],[1264953600000,3.888],[1265040000000,3.867],[1265126400000,3.967],[1265212800000,3.956],[1265299200000,3.876],[1265558400000,3.887],[1265644800000,3.892],[1265731200000,3.953],[1265817600000,3.965],[1265904000000,3.996],[1266768000000,3.974],[1266854400000,3.949],[1266940800000,4.019],[1267027200000,4.082],[1267113600000,4.071],[1267372800000,4.111],[1267459200000,4.101],[1267545600000,4.128],[1267632000000,4.019],[1267718400000,4.03],[1267977600000,4.061],[1268064000000,4.083],[1268150400000,4.042],[1268236800000,4.031],[1268323200000,3.97],[1268582400000,3.898],[1268668800000,3.912],[1268755200000,4.005],[1268841600000,4.007],[1268928000000,4.045],[1269187200000,4.048],[1269273600000,4.028],[1269360000000,4.031],[1269446400000,3.968],[1269532800000,4.014],[1269792000000,3.89],[1269878400000,3.903],[1269964800000,3.881],[1270051200000,3.94],[1270137600000,3.969],[1270483200000,3.959],[1270569600000,3.947],[1270656000000,3.903],[1270742400000,3.942],[1271001600000,3.915],[1271088000000,3.936],[1271174400000,3.954],[1271260800000,3.932],[1271347200000,3.906],[1271606400000,3.681],[1271692800000,3.67],[1271779200000,3.756],[1271865600000,3.742],[1271952000000,3.731],[1272211200000,3.711],[1272297600000,3.633],[1272384000000,3.626],[1272470400000,3.558],[1272556800000,3.537],[1272902400000,3.488],[1272988800000,3.517],[1273075200000,3.361],[1273161600000,3.279],[1273420800000,3.287],[1273507200000,3.223],[1273593600000,3.227],[1273680000000,3.311],[1273766400000,3.297],[1274025600000,3.107],[1274112000000,3.179],[1274198400000,3.176],[1274284800000,3.153],[1274371200000,3.228],[1274630400000,3.358],[1274716800000,3.296],[1274803200000,3.295],[1274889600000,3.352],[1274976000000,3.345],[1275235200000,3.255],[1275321600000,3.215],[1275408000000,3.247],[1275494400000,3.224],[1275580800000,3.247],[1275840000000,3.197],[1275926400000,3.212],[1276012800000,3.3],[1276099200000,3.272],[1276185600000,3.273],[1276704000000,3.243],[1276790400000,3.168],[1277049600000,3.266],[1277136000000,3.279],[1277222400000,3.254],[1277308800000,3.257],[1277395200000,3.206],[1277654400000,3.174],[1277740800000,3.017],[1277827200000,2.979],[1277913600000,2.927],[1278000000000,2.925],[1278259200000,2.909],[1278345600000,2.977],[1278432000000,3.015],[1278518400000,3.008],[1278604800000,3.109],[1278864000000,3.146],[1278950400000,3.105],[1279036800000,3.112],[1279123200000,3.071],[1279209600000,3.093],[1279468800000,3.177],[1279555200000,3.256],[1279641600000,3.252],[1279728000000,3.298],[1279814400000,3.311],[1280073600000,3.341],[1280160000000,3.333],[1280246400000,3.411],[1280332800000,3.423],[1280419200000,3.415],[1280678400000,3.483],[1280764800000,3.426],[1280851200000,3.444],[1280937600000,3.421],[1281024000000,3.482],[1281283200000,3.509],[1281369600000,3.41],[1281456000000,3.438],[1281542400000,3.395],[1281628800000,3.458],[1281888000000,3.54],[1281974400000,3.573],[1282060800000,3.574],[1282147200000,3.589],[1282233600000,3.515],[1282492800000,3.521],[1282579200000,3.56],[1282665600000,3.485],[1282752000000,3.501],[1282838400000,3.51],[1283097600000,3.595],[1283184000000,3.608],[1283270400000,3.583],[1283356800000,3.63],[1283443200000,3.637],[1283702400000,3.683],[1283788800000,3.705],[1283875200000,3.726],[1283961600000,3.654],[1284048000000,3.677],[1284307200000,3.738],[1284393600000,3.734],[1284480000000,3.663],[1284566400000,3.589],[1284652800000,3.602],[1284912000000,3.575],[1284998400000,3.585],[1285516800000,3.658],[1285603200000,3.623],[1285689600000,3.6],[1285776000000,3.671],[1286467200000,3.801],[1286726400000,3.881],[1286812800000,3.927],[1286899200000,3.991],[1286985600000,3.941],[1287072000000,4.014],[1287331200000,3.971],[1287417600000,4.071],[1287504000000,4.116],[1287590400000,4.132],[1287676800000,4.165],[1287936000000,4.304],[1288022400000,4.3],[1288108800000,4.222],[1288195200000,4.217],[1288281600000,4.221],[1288540800000,4.346],[1288627200000,4.32],[1288713600000,4.227],[1288800000000,4.31],[1288886400000,4.352],[1289145600000,4.386],[1289232000000,4.382],[1289318400000,4.381],[1289404800000,4.37],[1289491200000,4.066],[1289750400000,4.116],[1289836800000,3.929],[1289923200000,3.81],[1290009600000,3.885],[1290096000000,3.945],[1290355200000,3.959],[1290441600000,3.898],[1290528000000,4.016],[1290614400000,4.064],[1290700800000,4.031],[1290960000000,4.035],[1291046400000,3.969],[1291132800000,3.955],[1291219200000,3.988],[1291305600000,3.988],[1291564800000,3.969],[1291651200000,4.04],[1291737600000,4.021],[1291824000000,3.945],[1291910400000,3.988],[1292169600000,4.121],[1292256000000,4.144],[1292342400000,4.121],[1292428800000,4.116],[1292515200000,4.107],[1292774400000,4.05],[1292860800000,4.13],[1292947200000,4.097],[1293033600000,4.05],[1293120000000,4.012],[1293379200000,3.926],[1293465600000,3.841],[1293552000000,3.869],[1293638400000,3.888],[1293724800000,3.993],[1294070400000,4.064],[1294156800000,4.045],[1294243200000,4.026],[1294329600000,4.007],[1294588800000,3.926],[1294675200000,3.936],[1294761600000,3.94],[1294848000000,3.94],[1294934400000,3.888],[1295193600000,3.712],[1295280000000,3.722],[1295366400000,3.817],[1295452800000,3.675],[1295539200000,3.703],[1295798400000,3.646],[1295884800000,3.627],[1295971200000,3.679],[1296057600000,3.746],[1296144000000,3.779],[1296403200000,3.817],[1296489600000,3.812],[1297180800000,3.76],[1297267200000,3.869],[1297353600000,3.912],[1297612800000,4.035],[1297699200000,4.035],[1297785600000,4.097],[1297872000000,4.097],[1297958400000,4.045],[1298217600000,4.13],[1298304000000,4.016],[1298390400000,4.031],[1298476800000,4.054],[1298563200000,4.069],[1298822400000,4.14],[1298908800000,4.144],[1298995200000,4.126],[1299081600000,4.069],[1299168000000,4.126],[1299427200000,4.206],[1299513600000,4.206],[1299600000000,4.206],[1299686400000,4.154],[1299772800000,4.116],[1300032000000,4.159],[1300118400000,4.088],[1300204800000,4.13],[1300291200000,4.059],[1300377600000,4.083],[1300636800000,4.054],[1300723200000,4.064],[1300809600000,4.126],[1300896000000,4.111],[1300982400000,4.159],[1301241600000,4.14],[1301328000000,4.073],[1301414400000,4.064],[1301500800000,4.026],[1301587200000,4.064],[1302019200000,4.073],[1302105600000,4.116],[1302192000000,4.163],[1302451200000,4.13],[1302537600000,4.121],[1302624000000,4.173],[1302710400000,4.149],[1302796800000,4.14],[1303056000000,4.144],[1303142400000,4.088],[1303228800000,4.083],[1303315200000,4.102],[1303401600000,4.0761],[1303660800000,4.0059],[1303747200000,3.9793],[1303833600000,3.947],[1303920000000,3.8639],[1304006400000,3.9242],[1304352000000,3.9598],[1304438400000,3.8568],[1304524800000,3.8568],[1304611200000,3.862],[1304870400000,3.882],[1304956800000,3.9109],[1305043200000,3.9085],[1305129600000,3.8634],[1305216000000,3.8862],[1305475200000,3.8554],[1305561600000,3.8734],[1305648000000,3.8995],[1305734400000,3.8763],[1305820800000,3.8758],[1306080000000,3.7438],[1306166400000,3.7448],[1306252800000,3.7035],[1306339200000,3.6731],[1306425600000,3.6465],[1306684800000,3.6247],[1306771200000,3.6902],[1306857600000,3.7068],[1306944000000,3.6493],[1307030400000,3.6978],[1307376000000,3.7262],[1307462400000,3.74],[1307548800000,3.6626],[1307635200000,3.6797],[1307894400000,3.6626],[1307980800000,3.7253],[1308067200000,3.6873],[1308153600000,3.6261],[1308240000000,3.5971],[1308499200000,3.5658],[1308585600000,3.619],[1308672000000,3.6223],[1308758400000,3.6949],[1308844800000,3.7723],[1309104000000,3.7899],[1309190400000,3.7975],[1309276800000,3.7543],[1309363200000,3.8108],[1309449600000,3.8321],[1309708800000,3.9223],[1309795200000,3.929],[1309881600000,3.9318],[1309968000000,3.9256],[1310054400000,3.9328],[1310313600000,3.9461],[1310400000000,3.8862],[1310486400000,3.9536],[1310572800000,3.956],[1310659200000,3.9779],[1310918400000,3.9679],[1311004800000,3.9304],[1311091200000,3.9309],[1311177600000,3.8943],[1311264000000,3.909],[1311523200000,3.7766],[1311609600000,3.7908],[1311696000000,3.8321],[1311782400000,3.8202],[1311868800000,3.7875],[1312128000000,3.7965],[1312214400000,3.7761],[1312300800000,3.7737],[1312387200000,3.7813],[1312473600000,3.7096],[1312732800000,3.5715],[1312819200000,3.5696],[1312905600000,3.6085],[1312992000000,3.6607],[1313078400000,3.6755],[1313337600000,3.7258],[1313424000000,3.6963],[1313510400000,3.674],[1313596800000,3.6161],[1313683200000,3.58],[1313942400000,3.5283],[1314028800000,3.5743],[1314115200000,3.5696],[1314201600000,3.6736],[1314288000000,3.6698],[1314547200000,3.6152],[1314633600000,3.5985],[1314720000000,3.6052],[1314806400000,3.5886],[1314892800000,3.5511],[1315152000000,3.4651],[1315238400000,3.4172],[1315324800000,3.4898],[1315411200000,3.4604],[1315497600000,3.4428],[1315843200000,3.4025],[1315929600000,3.421],[1316016000000,3.4262],[1316102400000,3.4319],[1316361600000,3.3607],[1316448000000,3.3711],[1316534400000,3.4718],[1316620800000,3.3683],[1316707200000,3.337],[1316966400000,3.2786],[1317052800000,3.308],[1317139200000,3.2752],[1317225600000,3.233],[1317312000000,3.2282],[1318176000000,3.1936],[1318262400000,3.1651],[1318348800000,3.2724],[1318435200000,3.2985],[1318521600000,3.2838],[1318780800000,3.2985],[1318867200000,3.2064],[1318953600000,3.1746],[1319040000000,3.0858],[1319126400000,3.0497],[1319385600000,3.1233],[1319472000000,3.2026],[1319558400000,3.2382],[1319644800000,3.2382],[1319731200000,3.3113],[1319990400000,3.2985],[1320076800000,3.2914],[1320163200000,3.3389],[1320249600000,3.3564],[1320336000000,3.3787],[1320595200000,3.3474],[1320681600000,3.3313],[1320768000000,3.3692],[1320854400000,3.317],[1320940800000,3.3085],[1321200000000,3.3787],[1321286400000,3.3711],[1321372800000,3.2876],[1321459200000,3.2809],[1321545600000,3.1917],[1321804800000,3.195],[1321891200000,3.1917],[1321977600000,3.1717],[1322064000000,3.1765],[1322150400000,3.1518],[1322409600000,3.1542],[1322496000000,3.1964],[1322582400000,3.0887],[1322668800000,3.1556],[1322755200000,3.1134],[1323014400000,3.0417],[1323100800000,3.0431],[1323187200000,3.0478],[1323273600000,3.0426],[1323360000000,3.0127],[1323619200000,2.9771],[1323705600000,2.9159],[1323792000000,2.8807],[1323878400000,2.8152],[1323964800000,2.8769],[1324224000000,2.8741],[1324310400000,2.867],[1324396800000,2.8128],[1324483200000,2.81],[1324569600000,2.8323],[1324828800000,2.8019],[1324915200000,2.7492],[1325001600000,2.7549],[1325088000000,2.763],[1325174400000,2.8081],[1325260800000,2.8081],[1325606400000,2.7397],[1325692800000,2.697],[1325779200000,2.7112],[1326038400000,2.8067],[1326124800000,2.913],[1326211200000,2.9054],[1326297600000,2.8954],[1326384000000,2.8314],[1326643200000,2.7654],[1326729600000,2.9064],[1326816000000,2.8589],[1326902400000,2.9087],[1326988800000,2.9548],[1327852800000,2.9016],[1327939200000,2.9087],[1328025600000,2.8727],[1328112000000,2.9296],[1328198400000,2.9515],[1328457600000,2.9572],[1328544000000,2.9021],[1328630400000,2.9875],[1328716800000,2.9956],[1328803200000,3.007],[1329062400000,3.0099],[1329148800000,3.0023],[1329235200000,3.0431],[1329321600000,3.0289],[1329408000000,3.0246],[1329667200000,3.027],[1329753600000,3.0569],[1329840000000,3.1148],[1329926400000,3.1295],[1330012800000,3.1907],[1330272000000,3.2069],[1330358400000,3.1988],[1330444800000,3.1613],[1330531200000,3.1637],[1330617600000,3.2335],[1330876800000,3.2183],[1330963200000,3.176],[1331049600000,3.1594],[1331136000000,3.1993],[1331222400000,3.2477],[1331481600000,3.2392],[1331568000000,3.2738],[1331654400000,3.1665],[1331740800000,3.1475],[1331827200000,3.2069],[1332086400000,3.2178],[1332172800000,3.1594],[1332259200000,3.1613],[1332345600000,3.1471],[1332432000000,3.0939],[1332691200000,3.1029],[1332777600000,3.0811],[1332864000000,2.9814],[1332950400000,2.9496],[1333036800000,2.9434],[1333123200000,2.9434],[1333555200000,3.0317],[1333641600000,3.0526],[1333900800000,3.0232],[1333987200000,3.0531],[1334073600000,3.0597],[1334160000000,3.12],[1334246400000,3.1338],[1334505600000,3.1219],[1334592000000,3.0763],[1334678400000,3.1471],[1334764800000,3.1361],[1334851200000,3.1642],[1335110400000,3.1352],[1335196800000,3.1238],[1335283200000,3.1594],[1335369600000,3.1651],[1335456000000,3.1542],[1335888000000,3.2259],[1335974400000,3.2392],[1336060800000,3.2691],[1336320000000,3.2833],[1336406400000,3.2657],[1336492800000,3.1979],[1336579200000,3.1998],[1336665600000,3.</t>
   </si>
   <si>
+    <t>510050</t>
+  </si>
+  <si>
     <t>华夏上证50ETF</t>
   </si>
   <si>
     <t xml:space="preserve"> [[1104336000000,1.0],[1104422400000,0.996],[1105027200000,0.981],[1105632000000,0.983],[1106236800000,0.988],[1106841600000,0.976],[1107446400000,0.873],[1108656000000,0.856],[1108915200000,0.874],[1109001600000,0.887],[1109088000000,0.878],[1109174400000,0.877],[1109260800000,0.878],[1109520000000,0.869],[1109606400000,0.866],[1109692800000,0.856],[1109779200000,0.862],[1109865600000,0.859],[1110124800000,0.864],[1110211200000,0.876],[1110297600000,0.869],[1110384000000,0.851],[1110470400000,0.854],[1110729600000,0.857],[1110816000000,0.841],[1110902400000,0.833],[1110988800000,0.827],[1111075200000,0.821],[1111334400000,0.823],[1111420800000,0.808],[1111507200000,0.802],[1111593600000,0.808],[1111680000000,0.807],[1111939200000,0.806],[1112025600000,0.803],[1112112000000,0.791],[1112198400000,0.796],[1112284800000,0.823],[1112544000000,0.809],[1112630400000,0.802],[1112716800000,0.817],[1112803200000,0.825],[1112889600000,0.838],[1113148800000,0.831],[1113235200000,0.819],[1113321600000,0.836],[1113408000000,0.826],[1113494400000,0.817],[1113753600000,0.806],[1113840000000,0.809],[1113926400000,0.799],[1114012800000,0.794],[1114099200000,0.795],[1114358400000,0.791],[1114444800000,0.799],[1114531200000,0.785],[1114617600000,0.795],[1114704000000,0.792],[1115568000000,0.777],[1115654400000,0.781],[1115740800000,0.773],[1115827200000,0.756],[1115913600000,0.759],[1116172800000,0.75],[1116259200000,0.753],[1116345600000,0.755],[1116432000000,0.757],[1116518400000,0.755],[1116777600000,0.742],[1116864000000,0.742],[1116950400000,0.743],[1117036800000,0.734],[1117123200000,0.729],[1117382400000,0.734],[1117468800000,0.736],[1117555200000,0.724],[1117641600000,0.707],[1117728000000,0.706],[1117987200000,0.723],[1118073600000,0.72],[1118160000000,0.778],[1118246400000,0.784],[1118332800000,0.773],[1118592000000,0.769],[1118678400000,0.764],[1118764800000,0.755],[1118851200000,0.767],[1118937600000,0.771],[1119196800000,0.79],[1119283200000,0.78],[1119369600000,0.785],[1119456000000,0.779],[1119542400000,0.784],[1119801600000,0.794],[1119888000000,0.788],[1119974400000,0.785],[1120060800000,0.773],[1120147200000,0.762],[1120406400000,0.761],[1120492800000,0.755],[1120579200000,0.749],[1120665600000,0.75],[1120752000000,0.742],[1121011200000,0.741],[1121097600000,0.768],[1121184000000,0.763],[1121270400000,0.769],[1121356800000,0.764],[1121616000000,0.763],[1121702400000,0.763],[1121788800000,0.77],[1121875200000,0.773],[1121961600000,0.785],[1122220800000,0.781],[1122307200000,0.797],[1122393600000,0.809],[1122480000000,0.807],[1122566400000,0.805],[1122825600000,0.807],[1122912000000,0.814],[1122998400000,0.814],[1123084800000,0.812],[1123171200000,0.829],[1123430400000,0.829],[1123516800000,0.831],[1123603200000,0.839],[1123689600000,0.849],[1123776000000,0.839],[1124035200000,0.854],[1124121600000,0.842],[1124208000000,0.848],[1124294400000,0.83],[1124380800000,0.833],[1124640000000,0.84],[1124726400000,0.835],[1124812800000,0.842],[1124899200000,0.84],[1124985600000,0.839],[1125244800000,0.828],[1125331200000,0.825],[1125417600000,0.833],[1125504000000,0.844],[1125590400000,0.846],[1125849600000,0.846],[1125936000000,0.832],[1126022400000,0.841],[1126108800000,0.843],[1126195200000,0.84],[1126454400000,0.838],[1126540800000,0.846],[1126627200000,0.85],[1126713600000,0.85],[1126800000000,0.847],[1127059200000,0.848],[1127145600000,0.843],[1127232000000,0.827],[1127318400000,0.813],[1127404800000,0.809],[1127664000000,0.81],[1127750400000,0.798],[1127836800000,0.799],[1127923200000,0.808],[1128009600000,0.809],[1128873600000,0.803],[1128960000000,0.812],[1129046400000,0.811],[1129132800000,0.804],[1129219200000,0.793],[1129478400000,0.785],[1129564800000,0.787],[1129651200000,0.785],[1129737600000,0.789],[1129824000000,0.79],[1130083200000,0.786],[1130169600000,0.78],[1130256000000,0.761],[1130342400000,0.764],[1130428800000,0.763],[1130688000000,0.773],[1130774400000,0.77],[1130860800000,0.776],[1130947200000,0.769],[1131033600000,0.772],[1131292800000,0.767],[1131379200000,0.772],[1131465600000,0.769],[1131552000000,0.759],[1131638400000,0.76],[1131897600000,0.756],[1131984000000,0.752],[1132070400000,0.757],[1132156800000,0.757],[1132243200000,0.774],[1132502400000,0.772],[1132588800000,0.76],[1132675200000,0.769],[1132761600000,0.777],[1132848000000,0.783],[1133107200000,0.779],[1133193600000,0.771],[1133280000000,0.776],[1133366400000,0.775],[1133452800000,0.773],[1133712000000,0.767],[1133798400000,0.776],[1133884800000,0.784],[1133971200000,0.782],[1134057600000,0.794],[1134316800000,0.791],[1134403200000,0.79],[1134489600000,0.795],[1134576000000,0.795],[1134662400000,0.799],[1134921600000,0.798],[1135008000000,0.804],[1135094400000,0.801],[1135180800000,0.805],[1135267200000,0.809],[1135526400000,0.814],[1135612800000,0.81],[1135699200000,0.811],[1135785600000,0.82],[1135872000000,0.814],[1135958400000,0.814],[1136304000000,0.831],[1136390400000,0.846],[1136476800000,0.855],[1136736000000,0.856],[1136822400000,0.856],[1136908800000,0.85],[1136995200000,0.854],[1137081600000,0.849],[1137340800000,0.833],[1137427200000,0.836],[1137513600000,0.853],[1137600000000,0.859],[1137686400000,0.858],[1137945600000,0.858],[1138032000000,0.856],[1138118400000,0.865],[1139155200000,0.879],[1139241600000,0.874],[1139328000000,0.88],[1139414400000,0.869],[1139500800000,0.877],[1139760000000,0.876],[1139846400000,0.879],[1139932800000,0.885],[1140019200000,0.873],[1140105600000,0.875],[1140364800000,0.875],[1140451200000,0.889],[1140537600000,0.887],[1140624000000,0.894],[1140710400000,0.899],[1140969600000,0.909],[1141056000000,0.915],[1141142400000,0.917],[1141228800000,0.901],[1141315200000,0.904],[1141574400000,1.069],[1141660800000,1.048],[1141747200000,1.044],[1141833600000,1.037],[1141920000000,1.041],[1142179200000,1.049],[1142265600000,1.045],[1142352000000,1.054],[1142438400000,1.051],[1142524800000,1.048],[1142784000000,1.062],[1142870400000,1.062],[1142956800000,1.063],[1143043200000,1.062],[1143129600000,1.055],[1143388800000,1.06],[1143475200000,1.062],[1143561600000,1.074],[1143648000000,1.065],[1143734400000,1.065],[1143993600000,1.081],[1144080000000,1.092],[1144166400000,1.099],[1144252800000,1.093],[1144339200000,1.087],[1144598400000,1.101],[1144684800000,1.105],[1144771200000,1.101],[1144857600000,1.081],[1144944000000,1.103],[1145203200000,1.116],[1145289600000,1.123],[1145376000000,1.128],[1145462400000,1.118],[1145548800000,1.139],[1145808000000,1.141],[1145894400000,1.131],[1145980800000,1.151],[1146067200000,1.146],[1146153600000,1.171],[1147017600000,1.208],[1147104000000,1.232],[1147190400000,1.238],[1147276800000,1.226],[1147363200000,1.273],[1147622400000,1.314],[1147708800000,1.308],[1147795200000,1.311],[1147881600000,1.295],[1147968000000,1.334],[1148227200000,1.335],[1148313600000,1.296],[1148400000000,1.293],[1148486400000,1.294],[1148572800000,1.312],[1148832000000,1.342],[1148918400000,1.346],[1149004800000,1.333],[1149091200000,1.366],[1149177600000,1.354],[1149436800000,1.36],[1149523200000,1.358],[1149609600000,1.297],[1149696000000,1.309],[1149782400000,1.282],[1150041600000,1.287],[1150128000000,1.284],[1150214400000,1.271],[1150300800000,1.271],[1150387200000,1.302],[1150646400000,1.314],[1150732800000,1.319],[1150819200000,1.314],[1150905600000,1.315],[1150992000000,1.321],[1151251200000,1.348],[1151337600000,1.346],[1151424000000,1.345],[1151510400000,1.373],[1151596800000,1.371],[1151856000000,1.398],[1151942400000,1.386],[1152028800000,1.36],[1152115200000,1.379],[1152201600000,1.366],[1152460800000,1.366],[1152547200000,1.37],[1152633600000,1.369],[1152720000000,1.312],[1152806400000,1.321],[1153065600000,1.331],[1153152000000,1.327],[1153238400000,1.299],[1153324800000,1.306],[1153411200000,1.318],[1153670400000,1.32],[1153756800000,1.332],[1153843200000,1.333],[1153929600000,1.322],[1154016000000,1.311],[1154275200000,1.275],[1154361600000,1.263],[1154448000000,1.258],[1154534400000,1.26],[1154620800000,1.239],[1154880000000,1.224],[1154966400000,1.244],[1155052800000,1.243],[1155139200000,1.264],[1155225600000,1.264],[1155484800000,1.242],[1155571200000,1.26],[1155657600000,1.273],[1155744000000,1.263],[1155830400000,1.262],[1156089600000,1.263],[1156176000000,1.275],[1156262400000,1.276],[1156348800000,1.284],[1156435200000,1.284],[1156694400000,1.306],[1156780800000,1.307],[1156867200000,1.306],[1156953600000,1.306],[1157040000000,1.289],[1157299200000,1.305],[1157385600000,1.312],[1157472000000,1.318],[1157558400000,1.305],[1157644800000,1.312],[1157904000000,1.321],[1157990400000,1.331],[1158076800000,1.335],[1158163200000,1.338],[1158249600000,1.365],[1158508800000,1.366],[1158595200000,1.373],[1158681600000,1.37],[1158768000000,1.382],[1158854400000,1.366],[1159113600000,1.364],[1159200000000,1.347],[1159286400000,1.36],[1159372800000,1.374],[1159459200000,1.39],[1159545600000,1.39],[1160323200000,1.432],[1160409600000,1.434],[1160496000000,1.434],[1160582400000,1.429],[1160668800000,1.431],[1160928000000,1.415],[1161014400000,1.403],[1161100800000,1.428],[1161187200000,1.429],[1161273600000,1.434],[1161532800000,1.412],[1161619200000,1.443],[1161705600000,1.451],[1161792000000,1.464],[1161878400000,1.45],[1162137600000,1.464],[1162224000000,1.487],[1162310400000,1.507],[1162396800000,1.503],[1162483200000,1.518],[1162742400000,1.551],[1162828800000,1.565],[1162915200000,1.546],[1163001600000,1.58],[1163088000000,1.571],[1163347200000,1.548],[1163433600000,1.565],[1163520000000,1.602],[1163606400000,1.609],[1163692800000,1.635],[1163952000000,1.68],[1164038400000,1.698],[1164124800000,1.704],[1164211200000,1.718],[1164297600000,1.707],[1164556800000,1.704],[1164643200000,1.689],[1164729600000,1.706],[1164816000000,1.753],[1164902400000,1.759],[1165161600000,1.821],[1165248000000,1.834],[1165334400000,1.829],[1165420800000,1.842],[1165507200000,1.779],[1165766400000,1.856],[1165852800000,1.875],[1165939200000,1.875],[1166025600000,1.908],[1166112000000,1.932],[1166371200000,1.977],[1166457600000,1.984],[1166544000000,1.984],[1166630400000,1.957],[1166716800000,1.952],[1166976000000,2.004],[1167062400000,2.013],[1167148800000,2.072],[1167235200000,2.084],[1167321600000,2.161],[1167494400000,2.159],[1167840000000,2.203],[1167926400000,2.185],[1168185600000,2.232],[1168272000000,2.319],[1168358400000,2.351],[1168444800000,2.307],[1168531200000,2.246],[1168790400000,2.342],[1168876800000,2.376],[1168963200000,2.345],[1169049600000,2.324],[1169136000000,2.393],[1169395200000,2.485],[1169481600000,2.529],[1169568000000,2.57],[1169654400000,2.514],[1169740800000,2.599],[1170000000000,2.675],[1170086400000,2.652],[1170172800000,2.48],[1170259200000,2.477],[1170345600000,2.368],[1170604800000,2.307],[1170691200000,2.364],[1170777600000,2.421],[1170864000000,2.447],[1170950400000,2.421],[1171209600000,2.51],[1171296000000,2.542],[1171382400000,2.617],[1171468800000,2.689],[1171555200000,2.687],[1172419200000,2.703],[1172505600000,2.454],[1172592000000,2.53],[1172678400000,2.467],[1172764800000,2.497],[1173024000000,2.44],[1173110400000,2.505],[1173196800000,2.562],[1173283200000,2.581],[1173369600000,2.575],[1173628800000,2.568],[1173715200000,2.578],[1173801600000,2.524],[1173888000000,2.571],[1173974400000,2.535],[1174233600000,2.615],[1174320000000,2.614],[1174406400000,2.638],[1174492800000,2.654],[1174579200000,2.646],[1174838400000,2.683],[1174924800000,2.689],[1175011200000,2.738],[1175097600000,2.758],[1175184000000,2.745],[1175270400000,2.745],[1175443200000,2.803],[1175529600000,2.828],[1175616000000,2.841],[1175702400000,2.858],[1175788800000,2.854],[1176048000000,2.911],[1176134400000,2.945],[1176220800000,2.99],[1176307200000,3.021],[1176393600000,3.001],[1176652800000,3.08],[1176739200000,3.073],[1176825600000,3.054],[1176912000000,2.932],[1176998400000,3.037],[1177257600000,3.156],[1177344000000,3.167],[1177430400000,3.193],[1177516800000,3.214],[1177603200000,3.186],[1177862400000,3.241],[1178553600000,3.329],[1178640000000,3.369],[1178726400000,3.4],[1178812800000,3.388],[1179072000000,3.411],[1179158400000,3.279],[1179244800000,3.346],[1179331200000,3.393],[1179417600000,3.373],[1179676800000,3.385],[1179763200000,3.404],[1179849600000,3.447],[1179936000000,3.432],[1180022400000,3.467],[1180281600000,3.529],[1180368000000,3.591],[1180454400000,3.375],[1180540800000,3.484],[1180627200000,3.443],[1180886400000,3.207],[1180972800000,3.296],[1181059200000,3.299],[1181145600000,3.386],[1181232000000,3.382],[1181491200000,3.459],[1181577600000,3.535],[1181664000000,3.606],[1181750400000,3.566],[1181836800000,3.595],[1182096000000,3.708],[1182182400000,3.71],[1182268800000,3.625],[1182355200000,3.688],[1182441600000,3.619],[1182700800000,3.522],[1182787200000,3.552],[1182873600000,3.656],[1182960000000,3.557],[1183046400000,3.498],[1183132800000,3.498],[1183305600000,3.502],[1183392000000,3.552],[1183478400000,3.465],[1183564800000,3.312],[1183651200000,3.439],[1183910400000,3.53],[1183996800000,3.525],[1184083200000,3.528],[1184169600000,3.568],[1184256000000,3.567],[1184515200000,3.463],[1184601600000,3.552],[1184688000000,3.576],[1184774400000,3.567],[1184860800000,3.716],[1185120000000,3.852],[1185206400000,3.857],[1185292800000,3.941],[1185379200000,3.948],[1185465600000,3.929],[1185724800000,4.008],[1185811200000,4.043],[1185897600000,3.922],[1185984000000,4.014],[1186070400000,4.19],[1186329600000,4.28],[1186416000000,4.293],[1186502400000,4.268],[1186588800000,4.385],[1186675200000,4.387],[1186934400000,4.422],[1187020800000,4.462],[1187107200000,4.486],[1187193600000,4.374],[1187280000000,4.264],[1187539200000,4.51],[1187625600000,4.589],[1187712000000,4.644],[1187798400000,4.702],[1187884800000,4.817],[1188144000000,4.847],[1188230400000,4.861],[1188316800000,4.783],[1188403200000,4.822],[1188489600000,4.886],[1188748800000,4.988],[1188835200000,4.914],[1188921600000,4.9],[1189008000000,4.969],[1189094400000,4.873],[1189353600000,4.94],[1189440000000,4.735],[1189526400000,4.774],[1189612800000,4.88],[1189699200000,4.913],[1189958400000,5.005],[1190044800000,4.961],[1190131200000,4.92],[1190217600000,4.974],[1190304000000,4.938],[1190563200000,4.99],[1190649600000,4.934],[1190736000000,4.864],[1190822400000,4.921],[1190908800000,5.048],[1191081600000,5.048],[1191772800000,5.14],[1191859200000,5.171],[1191945600000,5.195],[1192032000000,5.35],[1192118400000,5.343],[1192377600000,5.471],[1192464000000,5.5],[1192550400000,5.434],[1192636800000,5.231],[1192723200000,5.218],[1192982400000,5.105],[1193068800000,5.207],[1193155200000,5.269],[1193241600000,5.062],[1193328000000,5.134],[1193587200000,5.244],[1193673600000,5.295],[1193760000000,5.345],[1193846400000,5.282],[1193932800000,5.16],[1194192000000,5.066],[1194278400000,5.019],[1194364800000,5.061],[1194451200000,4.831],[1194537600000,4.8],[1194796800000,4.769],[1194883200000,4.72],[1194969600000,4.901],[1195056000000,4.854],[1195142400000,4.783],[1195401600000,4.75],[1195488000000,4.81],[1195574400000,4.741],[1195660800000,4.566],[1195747200000,4.644],[1196006400000,4.602],[1196092800000,4.529],[1196179200000,4.486],[1196265600000,4.684],[1196352000000,4.586],[1196611200000,4.625],[1196697600000,4.681],[1196784000000,4.797],[1196870400000,4.804],[1196956800000,4.862],[1197216000000,4.914],[1197302400000,4.9],[1197388800000,4.817],[1197475200000,4.67],[1197561600000,4.751],[1197820800000,4.609],[1197907200000,4.587],[1197993600000,4.697],[1198080000000,4.784],[1198166400000,4.83],[1198425600000,4.919],[1198512000000,4.915],[1198598400000,4.933],[1198684800000,5.025],[1198771200000,4.993],[1198857600000,4.993],[1199030400000,4.993],[1199203200000,4.997],[1199289600000,5.01],[1199376000000,5.062],[1199635200000,5.118],[1199721600000,5.14],[1199808000000,5.192],[1199894400000,5.225],[1199980800000,5.292],[1200240000000,5.311],[1200326400000,5.26],[1200412800000,5.076],[1200499200000,4.986],[1200585600000,5.005],[1200844800000,4.766],[1200931200000,4.449],[1201017600000,4.619],[1201104000000,4.611],[1201190400000,4.676],[1201449600000,4.353],[1201536000000,4.368],[1201622400000,4.29],[1201708800000,4.235],[1201795200000,4.225],[1202054400000,4.564],[1202140800000,4.533],[1202832000000,4.416],[1202918400000,4.473],[1203004800000,4.406],[1203264000000,4.48],[1203350400000,4.571],[1203436800000,4.447],[1203523200000,4.384],[1203609600000,4.211],[1203868800000,4.063],[1203955200000,4.095],[1204041600000,4.2],[1204128000000,4.173],[1204214400000,4.216],[1204473600000,4.294],[1204560000000,4.166],[1204646400000,4.114],[1204732800000,4.186],[1204819200000,4.129],[1205078400000,3.965],[1205164800000,3.973],[1205251200000,3.856],[1205337600000,3.802],[1205424000000,3.763],[1205683200000,3.646],[1205769600000,3.517],[1205856000000,3.601],[1205942400000,3.683],[1206028800000,3.692],[1206288000000,3.521],[1206374400000,3.54],[1206460800000,3.552],[1206547200000,3.396],[1206633600000,3.559],[1206892800000,3.458],[1206979200000,3.331],[1207065600000,3.362],[1207152000000,3.457],[1207497600000,3.595],[1207584000000,3.615],[1207670400000,3.424],[1207756800000,3.465],[1207843200000,3.491],[1208102400000,3.288],[1208188800000,3.319],[1208275200000,3.251],[1208361600000,3.168],[1208448000000,3.071],[1208707200000,3.103],[1208793600000,3.158],[1208880000000,3.298],[1208966400000,3.593],[1209052800000,3.589],[1209312000000,3.512],[1209398400000,3.554],[1209484800000,3.737],[1209916800000,3.787],[1210003200000,3.739],[1210089600000,3.579],[1210176000000,3.645],[1210262400000,3.585],[1210521600000,3.599],[1210608000000,3.533],[1210694400000,3.645],[1210780800000,3.621],[1210867200000,3.62],[1211126400000,3.588],[1211212800000,3.431],[1211299200000,3.495],[1211385600000,3.44],[1211472000000,3.441],[1211731200000,3.342],[1211817600000,3.348],[1211904000000,3.436],[1211990400000,3.362],[1212076800000,3.396],[1212336000000,3.412],[1212422400000,3.402],[1212508800000,3.327],[1212595200000,3.305],[1212681600000,3.28],[1213027200000,3.038],[1213113600000,2.996],[1213200000000,2.937],[1213286400000,2.874],[1213545600000,2.879],[1213632000000,2.814],[1213718400000,2.934],[1213804800000,2.75],[1213891200000,2.823],[1214150400000,2.765],[1214236800000,2.803],[1214323200000,2.893],[1214409600000,2.886],[1214496000000,2.751],[1214755200000,2.72],[1214841600000,2.612],[1214928000000,2.597],[1215014400000,2.633],[1215100800000,2.615],[1215360000000,2.75],[1215446400000,2.757],[1215532800000,2.87],[1215619200000,2.836],[1215705600000,2.82],[1215964800000,2.836],[1216051200000,2.716],[1216137600000,2.635],[1216224000000,2.616],[1216310400000,2.716],[1216569600000,2.795],[1216656000000,2.786],[1216742400000,2.777],[1216828800000,2.877],[1216915200000,2.838],[1217174400000,2.857],[1217260800000,2.806],[1217347200000,2.789],[1217433600000,2.725],[1217520000000,2.77],[1217779200000,2.713],[1217865600000,2.67],[1217952000000,2.702],[1218038400000,2.694],[1218124800000,2.59],[1218384000000,2.496],[1218470400000,2.483],[1218556800000,2.469],[1218643200000,2.46],[1218729600000,2.48],[1218988800000,2.362],[1219075200000,2.396],[1219161600000,2.581],[1219248000000,2.496],[1219334400000,2.461],[1219593600000,2.468],[1219680000000,2.426],[1219766400000,2.426],[1219852800000,2.443],[1219939200000,2.488],[1220198400000,2.407],[1220284800000,2.38],[1220371200000,2.338],[1220457600000,2.336],[1220544000000,2.278],[1220803200000,2.245],[1220889600000,2.256],[1220976000000,2.256],[1221062400000,2.17],[1221148800000,2.175],[1221494400000,2.066],[1221580800000,1.971],[1221667200000,1.943],[1221753600000,2.112],[1222012800000,2.261],[1222099200000,2.19],[1222185600000,2.202],[1222272000000,2.286],[1222358400000,2.286],[1222704000000,2.286],[1223222400000,2.168],[1223308800000,2.13],[1223395200000,2.039],[1223481600000,2.021],[1223568000000,1.949],[1223827200000,2.042],[1223913600000,1.991],[1224000000000,1.973],[1224086400000,1.887],[1224172800000,1.894],[1224432000000,1.952],[1224518400000,1.933],[1224604800000,1.885],[1224691200000,1.872],[1224777600000,1.811],[1225036800000,1.688],[1225123200000,1.741],[1225209600000,1.702],[1225296000000,1.752],[1225382400000,1.715],[1225641600000,1.713],[1225728000000,1.7],[1225814400000,1.769],[1225900800000,1.721],[1225987200000,1.756],[1226246400000,1.879],[1226332800000,1.849],[1226419200000,1.865],[1226505600000,1.925],[1226592000000,1.971],[1226851200000,2.001],[1226937600000,1.868],[1227024000000,1.965],[1227110400000,1.931],[1227196800000,1.918],[1227456000000,1.842],[1227542400000,1.841],[1227628800000,1.848],[1227715200000,1.865],[1227801600000,1.814],[1228060800000,1.829],[1228147200000,1.823],[1228233600000,1.9],[1228320000000,1.939],[1228406400000,1.958],[1228665600000,2.033],[1228752000000,1.978],[1228838400000,2.036],[1228924800000,1.992],[1229011200000,1.915],[1229270400000,1.927],[1229356800000,1.931],[1229443200000,1.928],[1229529600000,1.978],[1229616000000,1.979],[1229875200000,1.944],[1229961600000,1.865],[1230048000000,1.84],[1230134400000,1.824],[1230220800000,1.824],[1230480000000,1.814],[1230566400000,1.795],[1230652800000,1.789],[1231084800000,1.847],[1231171200000,1.901],[1231257600000,1.885],[1231344000000,1.842],[1231430400000,1.861],[1231689600000,1.854],[1231776000000,1.822],[1231862400000,1.894],[1231948800000,1.885],[1232035200000,1.926],[1232294400000,1.957],[1232380800000,1.968],[1232467200000,1.963],[1232553600000,1.976],[1232640000000,1.966],[1233504000000,1.97],[1233590400000,2.015],[1233676800000,2.073],[1233763200000,2.071],[1233849600000,2.14],[1234108800000,2.172],[1234195200000,2.181],[1234281600000,2.187],[1234368000000,2.153],[1234454400000,2.22],[1234713600000,2.292],[1234800000000,2.23],[1234886400000,2.129],[1234972800000,2.13],[1235059200000,2.153],[1235318400000,2.198],[1235404800000,2.093],[1235491200000,2.118],[1235577600000,2.052],[1235664000000,2.034],[1235923200000,2.035],[1236009600000,2.003],[1236096000000,2.13],[1236182400000,2.156],[1236268800000,2.138],[1236528000000,2.071],[1236614400000,2.104],[1236700800000,2.087],[1236787200000,2.081],[1236873600000,2.078],[1237132800000,2.112],[1237219200000,2.169],[1237305600000,2.165],[1237392000000,2.203],[1237478400000,2.194],[1237737600000,2.241],[1237824000000,2.253],[1237910400000,2.22],[1237996800000,2.292],[1238083200000,2.311],[1238342400000,2.3],[1238428800000,2.316],[1238515200000,2.34],[1238601600000,2.372],[1238688000000,2.387],[1239033600000,2.387],[1239120000000,2.295],[1239206400000,2.333],[1239292800000,2.388],[1239552000000,2.441],[1239638400000,2.452],[1239724800000,2.445],[1239811200000,2.443],[1239897600000,2.415],[1240156800000,2.459],[1240243200000,2.429],[1240329600000,2.364],[1240416000000,2.366],[1240502400000,2.35],[1240761600000,2.311],[1240848000000,2.307],[1240934400000,2.396],[1241020800000,2.393],[1241366400000,2.465],[1241452800000,2.468],[1241539200000,2.492],[1241625600000,2.503],[1241712000000,2.538],[1241971200000,2.513],[1242057600000,2.556],[1242144000000,2.576],[1242230400000,2.539],[1242316800000,2.539],[1242576000000,2.548],[1242662400000,2.571],[1242748800000,2.536],[1242835200000,2.48],[1242921600000,2.475],[1243180800000,2.479],[1243267200000,2.451],[1243353600000,2.503],[1243785600000,2.602],[1243872000000,2.6],[1243958400000,2.684],[1244044800000,2.716],[1244131200000,2.7],[1244390400000,2.729],[1244476800000,2.739],[1244563200000,2.758],[1244649600000,2.744],[1244736000000,2.698],[1244995200000,2.768],[1245081600000,2.756],[1245168000000,2.789],[1245254400000,2.844],[1245340800000,2.872],[1245600000000,2.884],[1245686400000,2.899],[1245772800000,2.906],[1245859200000,2.906],[1245945600000,2.915],[1246204800000,2.97],[1246291200000,2.96],[1246377600000,3.032],[1246464000000,3.082],[1246550400000,3.115],[1246809600000,3.161],[1246896000000,3.123],[1246982400000,3.104],[1247068800000,3.141],[1247155200000,3.127],[1247414400000,3.07],[1247500800000,3.164],[1247587200000,3.198],[1247673600000,3.222],[1247760000000,3.231],[1248019200000,3.288],[1248105600000,3.253],[1248192000000,3.316],[1248278400000,3.363],[1248364800000,3.395],[1248624000000,3.466],[1248710400000,3.458],[1248796800000,3.309],[1248883200000,3.406],[1248969600000,3.48],[1249228800000,3.508],[1249315200000,3.477],[1249401600000,3.422],[1249488000000,3.348],[1249574400000,3.271],[1249833600000,3.246],[1249920000000,3.248],[1250006400000,3.106],[1250092800000,3.148],[1250179200000,3.071],[1250438400000,2.912],[1250524800000,2.929],[1250611200000,2.799],[1250697600000,2.918],[1250784000000,2.96],[1251043200000,2.961],[1251129600000,2.834],[1251216000000,2.874],[1251302400000,2.855],[1251388800000,2.757],[1251648000000,2.582],[1251734400000,2.617],[1251820800000,2.673],[1251907200000,2.797],[1251993600000,2.805],[1252252800000,2.823],[1252339200000,2.871],[1252425600000,2.883],[1252512000000,2.858],[1252598400000,2.941],[1252857600000,2.973],[1252944000000,2.974],[1253030400000,2.918],[1253116800000,2.97],[1253203200000,2.872],[1253462400000,2.867],[1253548800000,2.802],[1253635200000,2.763],[1253721600000,2.802],[1253808000000,2.793],[1254067200000,2.72],[1254153600000,2.738],[1254240000000,2.762],[1255017600000,2.889],[1255276800000,2.871],[1255363200000,2.916],[1255449600000,2.939],[1255536000000,2.951],[1255622400000,2.948],[1255881600000,3.011],[1255968000000,3.058],[1256054400000,3.05],[1256140800000,3.025],[1256227200000,3.085],[1256486400000,3.089],[1256572800000,3.007],[1256659200000,3.002],[1256745600000,2.931],[1256832000000,2.963],[1257091200000,3.065],[1257177600000,3.096],[1257264000000,3.114],[1257350400000,3.116],[1257436800000,3.127],[1257696000000,3.134],[1257782400000,3.135],[1257868800000,3.122],[1257955200000,3.119],[1258041600000,3.137],[1258300800000,3.227],[1258387200000,3.232],[1258473600000,3.232],[1258560000000,3.227],[1258646400000,3.203],[1258905600000,3.218],[1258992000000,3.136],[1259078400000,3.188],[1259164800000,3.061],[1259251200000,2.977],[1259510400000,3.071],[1259596800000,3.099],[1259683200000,3.124],[1259769600000,3.106],[1259856000000,3.209],[1260115200000,3.22],[1260201600000,3.17],[1260288000000,3.103],[1260374400000,3.119],[1260460800000,3.117],[1260720000000,3.172],[1260806400000,3.137],[1260892800000,3.123],[1260979200000,3.066],[1261065600000,3.019],[1261324800000,3.005],[1261411200000,2.939],[1261497600000,2.956],[1261584000000,3.026],[1261670400000,2.999],[1261929600000,3.042],[1262016000000,3.07],[1262102400000,3.151],[1262188800000,3.164],[1262534400000,3.118],[1262620800000,3.151],[1262707200000,3.116],[1262793600000,3.057],[1262880000000,3.058],[1263139200000,3.071],[1263225600000,3.106],[1263312000000,2.98],[1263398400000,3.007],[1263484800000,3.014],[1263744000000,3.007],[1263830400000,3.021],[1263916800000,2.937],[1264003200000,2.958],[1264089600000,2.962],[1264348800000,2.93],[1264435200000,2.881],[1264521600000,2.825],[1264608000000,2.81],[1264694400000,2.8],[1264953600000,2.762],[1265040000000,2.768],[1265126400000,2.842],[1265212800000,2.823],[1265299200000,2.774],[1265558400000,2.763],[1265644800000,2.784],[1265731200000,2.821],[1265817600000,2.828],[1265904000000,2.851],[1266768000000,2.832],[1266854400000,2.783],[1266940800000,2.812],[1267027200000,2.848],[1267113600000,2.839],[1267372800000,2.881],[1267459200000,2.871],[1267545600000,2.883],[1267632000000,2.825],[1267718400000,2.832],[1267977600000,2.851],[1268064000000,2.872],[1268150400000,2.86],[1268236800000,2.868],[1268323200000,2.838],[1268582400000,2.796],[1268668800000,2.821],[1268755200000,2.876],[1268841600000,2.861],[1268928000000,2.88],[1269187200000,2.887],[1269273600000,2.858],[1269360000000,2.858],[1269446400000,2.819],[1269532800000,2.859],[1269792000000,2.942],[1269878400000,2.948],[1269964800000,2.925],[1270051200000,2.956],[1270137600000,2.958],[1270483200000,2.957],[1270569600000,2.938],[1270656000000,2.896],[1270742400000,2.919],[1271001600000,2.887],[1271088000000,2.943],[1271174400000,2.945],[1271260800000,2.944],[1271347200000,2.9],[1271606400000,2.76],[1271692800000,2.752],[1271779200000,2.793],[1271865600000,2.742],[1271952000000,2.729],[1272211200000,2.711],[1272297600000,2.665],[1272384000000,2.658],[1272470400000,2.657],[1272556800000,2.686],[1272902400000,2.644],[1272988800000,2.647],[1273075200000,2.529],[1273161600000,2.497],[1273420800000,2.529],[1273507200000,2.483],[1273593600000,2.522],[1273680000000,2.57],[1273766400000,2.544],[1274025600000,2.436],[1274112000000,2.486],[1274198400000,2.472],[1274284800000,2.434],[1274371200000,2.455],[1274630400000,2.531],[1274716800000,2.473],[1274803200000,2.472],[1274889600000,2.504],[1274976000000,2.493],[1275235200000,2.439],[1275321600000,2.421],[1275408000000,2.419],[1275494400000,2.404],[1275580800000,2.404],[1275840000000,2.356],[1275926400000,2.346],[1276012800000,2.42],[1276099200000,2.381],[1276185600000,2.391],[1276704000000,2.389],[1276790400000,2.377],[1277049600000,2.451],[1277136000000,2.447],[1277222400000,2.427],[1277308800000,2.429],[1277395200000,2.433],[1277654400000,2.427],[1277740800000,2.337],[1277827200000,2.323],[1277913600000,2.303],[1278000000000,2.318],[1278259200000,2.301],[1278345600000,2.336],[1278432000000,2.34],[1278518400000,2.34],[1278604800000,2.391],[1278864000000,2.41],[1278950400000,2.377],[1279036800000,2.395],[1279123200000,2.356],[1279209600000,2.356],[1279468800000,2.403],[1279555200000,2.441],[1279641600000,2.446],[1279728000000,2.469],[1279814400000,2.483],[1280073600000,2.491],[1280160000000,2.472],[1280246400000,2.528],[1280332800000,2.539],[1280419200000,2.532],[1280678400000,2.567],[1280764800000,2.523],[1280851200000,2.526],[1280937600000,2.493],[1281024000000,2.524],[1281283200000,2.535],[1281369600000,2.472],[1281456000000,2.478],[1281542400000,2.448],[1281628800000,2.467],[1281888000000,2.516],[1281974400000,2.528],[1282060800000,2.52],[1282147200000,2.544],[1282233600000,2.512],[1282492800000,2.507],[1282579200000,2.504],[1282665600000,2.451],[1282752000000,2.449],[1282838400000,2.454],[1283097600000,2.484],[1283184000000,2.461],[1283270400000,2.454],[1283356800000,2.474],[1283443200000,2.466],[1283702400000,2.52],[1283788800000,2.517],[1283875200000,2.497],[1283961600000,2.453],[1284048000000,2.449],[1284307200000,2.459],[1284393600000,2.464],[1284480000000,2.426],[1284566400000,2.384],[1284652800000,2.384],[1284912000000,2.388],[1284998400000,2.393],[1285516800000,2.411],[1285603200000,2.391],[1285689600000,2.397],[1285776000000,2.451],[1286467200000,2.542],[1286726400000,2.63],[1286812800000,2.659],[1286899200000,2.699],[1286985600000,2.736],[1287072000000,2.842],[1287331200000,2.828],[1287417600000,2.871],[1287504000000,2.878],[1287590400000,2.832],[1287676800000,2.816],[1287936000000,2.889],[1288022400000,2.864],[1288108800000,2.808],[1288195200000,2.807],[1288281600000,2.767],[1288540800000,2.825],[1288627200000,2.816],[1288713600000,2.809],[1288800000000,2.842],[1288886400000,2.868],[1289145600000,2.883],[1289232000000,2.844],[1289318400000,2.806],[1289404800000,2.836],[1289491200000,2.692],[1289750400000,2.683],[1289836800000,2.567],[1289923200000,2.544],[1290009600000,2.572],[1290096000000,2.575],[1290355200000,2.55],[1290441600000,2.505],[1290528000000,2.551],[1290614400000,2.586],[1290700800000,2.558],[1290960000000,2.551],[1291046400000,2.513],[1291132800000,2.518],[1291219200000,2.533],[1291305600000,2.545],[1291564800000,2.574],[1291651200000,2.593],[1291737600000,2.559],[1291824000000,2.533],[1291910400000,2.563],[1292169600000,2.625],[1292256000000,2.62],[1292342400000,2.602],[1292428800000,2.581],[1292515200000,2.576],[1292774400000,2.537],[1292860800000,2.596],[1292947200000,2.563],[1293033600000,2.559],[1293120000000,2.554],[1293379200000,2.511],[1293465600000,2.479],[1293552000000,2.483],[1293638400000,2.472],[1293724800000,2.509],[1294070400000,2.554],[1294156800000,2.535],[1294243200000,2.517],[1294329600000,2.543],[1294588800000,2.507],[1294675200000,2.536],[1294761600000,2.557],[1294848000000,2.554],[1294934400000,2.516],[1295193600000,2.441],[1295280000000,2.447],[1295366400000,2.483],[1295452800000,2.414],[1295539200000,2.449],[1295798400000,2.433],[1295884800000,2.432],[1295971200000,2.449],[1296057600000,2.477],[1296144000000,2.471],[1296403200000,2.493],[1296489600000,2.5],[1297180800000,2.468],[1297267200000,2.507],[1297353600000,2.509],[1297612800000,2.59],[1297699200000,2.584],[1297785600000,2.594],[1297872000000,2.589],[1297958400000,2.569],[1298217600000,2.588],[1298304000000,2.523],[1298390400000,2.529],[1298476800000,2.536],[1298563200000,2.539],[1298822400000,2.556],[1298908800000,2.572],[1298995200000,2.58],[1299081600000,2.593],[1299168000000,2.626],[1299427200000,2.675],[1299513600000,2.675],[1299600000000,2.672],[1299686400000,2.615],[1299772800000,2.589],[1300032000000,2.595],[1300118400000,2.554],[1300204800000,2.589],[1300291200000,2.558],[1300377600000,2.572],[130063</t>
   </si>
   <si>
+    <t>159915</t>
+  </si>
+  <si>
     <t>易方达创业板ETF</t>
   </si>
   <si>
     <t xml:space="preserve"> [[1316448000000,1.0],[1316707200000,0.9983],[1317312000000,0.9974],[1318521600000,0.9992],[1319126400000,0.9973],[1319731200000,0.9995],[1320336000000,1.0037],[1320940800000,1.0087],[1321545600000,0.9968],[1321804800000,0.9924],[1321891200000,0.9951],[1321977600000,0.9914],[1322150400000,0.9888],[1322582400000,0.9601],[1322755200000,0.95],[1323014400000,0.9089],[1323100800000,0.9151],[1323187200000,0.9203],[1323273600000,0.9278],[1323360000000,0.9159],[1323619200000,0.907],[1323705600000,0.8826],[1323792000000,0.8679],[1323878400000,0.8576],[1323964800000,0.8937],[1324224000000,0.9101],[1324310400000,0.8965],[1324396800000,0.874],[1324483200000,0.8701],[1324569600000,0.8741],[1324828800000,0.8646],[1324915200000,0.8355],[1325001600000,0.8247],[1325088000000,0.8234],[1325174400000,0.8381],[1325260800000,0.838],[1325606400000,0.8122],[1325692800000,0.7667],[1325779200000,0.7693],[1326038400000,0.7965],[1326124800000,0.824],[1326211200000,0.8256],[1326297600000,0.8165],[1326384000000,0.7663],[1326643200000,0.7295],[1326729600000,0.7624],[1326816000000,0.7192],[1326902400000,0.7281],[1326988800000,0.7437],[1327852800000,0.7491],[1327939200000,0.7462],[1328025600000,0.7486],[1328112000000,0.7653],[1328198400000,0.782],[1328457600000,0.7893],[1328544000000,0.7746],[1328630400000,0.796],[1328716800000,0.8021],[1328803200000,0.8034],[1329062400000,0.8217],[1329148800000,0.8188],[1329235200000,0.833],[1329321600000,0.8295],[1329408000000,0.8249],[1329667200000,0.8286],[1329753600000,0.8467],[1329840000000,0.8726],[1329926400000,0.8695],[1330012800000,0.8757],[1330272000000,0.8734],[1330358400000,0.859],[1330444800000,0.8444],[1330531200000,0.8533],[1330617600000,0.8698],[1330876800000,0.872],[1330963200000,0.8623],[1331049600000,0.8605],[1331136000000,0.8745],[1331222400000,0.8928],[1331481600000,0.9025],[1331568000000,0.9096],[1331654400000,0.8686],[1331740800000,0.8571],[1331827200000,0.8789],[1332086400000,0.8947],[1332172800000,0.8674],[1332259200000,0.8631],[1332345600000,0.8621],[1332432000000,0.8473],[1332691200000,0.8465],[1332777600000,0.8449],[1332864000000,0.8026],[1332950400000,0.7863],[1333036800000,0.7804],[1333123200000,0.7804],[1333555200000,0.8021],[1333641600000,0.8067],[1333900800000,0.7933],[1333987200000,0.8017],[1334073600000,0.8034],[1334160000000,0.82],[1334246400000,0.8268],[1334505600000,0.8237],[1334592000000,0.8158],[1334678400000,0.832],[1334764800000,0.834],[1334851200000,0.838],[1335110400000,0.7945],[1335196800000,0.7844],[1335283200000,0.7854],[1335369600000,0.7814],[1335456000000,0.7893],[1335888000000,0.7988],[1335974400000,0.8055],[1336060800000,0.8215],[1336320000000,0.8444],[1336406400000,0.843],[1336492800000,0.8289],[1336579200000,0.8382],[1336665600000,0.8315],[1336924800000,0.83],[1337011200000,0.8303],[1337097600000,0.8189],[1337184000000,0.8263],[1337270400000,0.815],[1337529600000,0.8134],[1337616000000,0.8248],[1337702400000,0.8231],[1337788800000,0.8225],[1337875200000,0.8113],[1338134400000,0.8158],[1338220800000,0.832],[1338307200000,0.8401],[1338393600000,0.8487],[1338480000000,0.8485],[1338739200000,0.8289],[1338825600000,0.8277],[1338912000000,0.8268],[1338998400000,0.8224],[1339084800000,0.8253],[1339344000000,0.849],[1339430400000,0.8499],[1339516800000,0.8627],[1339603200000,0.8563],[1339689600000,0.8578],[1339948800000,0.8701],[1340035200000,0.864],[1340121600000,0.8651],[1340208000000,0.8546],[1340553600000,0.8335],[1340640000000,0.8281],[1340726400000,0.8315],[1340812800000,0.8225],[1340899200000,0.8399],[1340985600000,0.8398],[1341158400000,0.8558],[1341244800000,0.8588],[1341331200000,0.8539],[1341417600000,0.8365],[1341504000000,0.8513],[1341763200000,0.8341],[1341849600000,0.824],[1341936000000,0.8307],[1342022400000,0.8478],[1342108800000,0.8381],[1342368000000,0.7987],[1342454400000,0.8051],[1342540800000,0.811],[1342627200000,0.819],[1342713600000,0.8157],[1342972800000,0.8137],[1343059200000,0.8158],[1343145600000,0.8179],[1343232000000,0.8161],[1343318400000,0.8125],[1343577600000,0.7952],[1343664000000,0.782],[1343750400000,0.7963],[1343836800000,0.798],[1343923200000,0.822],[1344182400000,0.843],[1344268800000,0.8495],[1344355200000,0.8426],[1344441600000,0.8576],[1344528000000,0.8575],[1344787200000,0.8397],[1344873600000,0.8497],[1344960000000,0.8421],[1345046400000,0.835],[1345132800000,0.8322],[1345392000000,0.8433],[1345478400000,0.864],[1345564800000,0.8616],[1345651200000,0.8657],[1345737600000,0.846],[1345996800000,0.8336],[1346083200000,0.8395],[1346169600000,0.8387],[1346256000000,0.8125],[1346342400000,0.8154],[1346601600000,0.835],[1346688000000,0.8338],[1346774400000,0.8428],[1346860800000,0.8531],[1346947200000,0.8757],[1347206400000,0.8788],[1347292800000,0.8782],[1347379200000,0.879],[1347465600000,0.8646],[1347552000000,0.8584],[1347811200000,0.8351],[1347897600000,0.8346],[1347984000000,0.8398],[1348070400000,0.8152],[1348156800000,0.7974],[1348416000000,0.7964],[1348502400000,0.7872],[1348588800000,0.7634],[1348675200000,0.7808],[1348761600000,0.7953],[1348934400000,0.7952],[1349625600000,0.7962],[1349712000000,0.8214],[1349798400000,0.8319],[1349884800000,0.8204],[1349971200000,0.817],[1350230400000,0.809],[1350316800000,0.8129],[1350403200000,0.8171],[1350489600000,0.8302],[1350576000000,0.8289],[1350835200000,0.8344],[1350921600000,0.8196],[1351008000000,0.8155],[1351094400000,0.8035],[1351180800000,0.7897],[1351440000000,0.7929],[1351526400000,0.7945],[1351612800000,0.7968],[1351699200000,0.8084],[1351785600000,0.808],[1352044800000,0.7981],[1352131200000,0.7954],[1352217600000,0.7945],[1352304000000,0.7785],[1352390400000,0.7749],[1352649600000,0.7793],[1352736000000,0.7687],[1352822400000,0.7663],[1352908800000,0.7594],[1352995200000,0.7559],[1353254400000,0.7568],[1353340800000,0.7563],[1353427200000,0.7602],[1353513600000,0.7509],[1353600000000,0.7505],[1353859200000,0.736],[1353945600000,0.7101],[1354032000000,0.7003],[1354118400000,0.6951],[1354204800000,0.6993],[1354464000000,0.6841],[1354550400000,0.6923],[1354636800000,0.7197],[1354723200000,0.7191],[1354809600000,0.7341],[1355068800000,0.7441],[1355155200000,0.738],[1355241600000,0.7362],[1355328000000,0.7277],[1355414400000,0.7552],[1355673600000,0.7476],[1355760000000,0.7435],[1355846400000,0.7504],[1355932800000,0.7575],[1356019200000,0.7686],[1356278400000,0.7819],[1356364800000,0.7982],[1356451200000,0.8153],[1356537600000,0.8044],[1356624000000,0.8135],[1356883200000,0.8202],[1357228800000,0.8097],[1357488000000,0.8243],[1357574400000,0.8414],[1357660800000,0.8429],[1357747200000,0.8505],[1357833600000,0.8394],[1358092800000,0.8725],[1358179200000,0.893],[1358265600000,0.8883],[1358352000000,0.8812],[1358438400000,0.903],[1358697600000,0.9089],[1358784000000,0.889],[1358870400000,0.8929],[1358956800000,0.8694],[1359043200000,0.8751],[1359302400000,0.9001],[1359388800000,0.908],[1359475200000,0.8987],[1359561600000,0.8899],[1359648000000,0.8971],[1359907200000,0.8851],[1359993600000,0.895],[1360080000000,0.9063],[1360166400000,0.9221],[1360252800000,0.9413],[1361116800000,0.9551],[1361203200000,0.9374],[1361289600000,0.9728],[1361376000000,0.9597],[1361462400000,0.9591],[1361721600000,0.9782],[1361808000000,0.9732],[1361894400000,0.9673],[1361980800000,0.9843],[1362067200000,1.0113],[1362326400000,0.9869],[1362412800000,1.0148],[1362499200000,1.0316],[1362585600000,1.0025],[1362672000000,0.9882],[1362931200000,0.9932],[1363017600000,0.96],[1363104000000,0.9534],[1363190400000,0.9624],[1363276800000,0.9758],[1363536000000,0.9737],[1363622400000,0.9631],[1363708800000,0.9898],[1363795200000,1.0085],[1363881600000,1.0075],[1364140800000,1.0073],[1364227200000,1.0011],[1364313600000,1.0083],[1364400000000,0.991],[1364486400000,0.9898],[1364745600000,1.0016],[1364832000000,0.9658],[1364918400000,0.9545],[1365350400000,0.9754],[1365436800000,0.985],[1365523200000,0.9719],[1365609600000,0.9688],[1365696000000,0.9676],[1365955200000,0.9559],[1366041600000,0.967],[1366128000000,0.991],[1366214400000,0.9978],[1366300800000,1.0192],[1366560000000,1.0463],[1366646400000,1.0209],[1366732800000,1.0547],[1366819200000,1.0322],[1366905600000,1.0161],[1367424000000,1.0432],[1367510400000,1.0719],[1367769600000,1.0931],[1367856000000,1.0925],[1367942400000,1.1183],[1368028800000,1.1323],[1368115200000,1.1281],[1368374400000,1.136],[1368460800000,1.1147],[1368547200000,1.1558],[1368633600000,1.1525],[1368720000000,1.1683],[1368979200000,1.2005],[1369065600000,1.2253],[1369152000000,1.1873],[1369238400000,1.1908],[1369324800000,1.2259],[1369584000000,1.2439],[1369670400000,1.2092],[1369756800000,1.2172],[1369843200000,1.2264],[1369929600000,1.2258],[1370188800000,1.2023],[1370275200000,1.1687],[1370361600000,1.1803],[1370448000000,1.1685],[1370534400000,1.1779],[1371052800000,1.177],[1371139200000,1.2211],[1371398400000,1.2274],[1371484800000,1.2265],[1371571200000,1.2206],[1371657600000,1.1774],[1371744000000,1.1729],[1372003200000,1.1116],[1372089600000,1.1267],[1372176000000,1.1881],[1372262400000,1.1691],[1372348800000,1.1561],[1372521600000,1.1561],[1372608000000,1.2063],[1372694400000,1.2379],[1372780800000,1.2622],[1372867200000,1.2432],[1372953600000,1.2085],[1373212800000,1.1777],[1373299200000,1.2007],[1373385600000,1.2215],[1373472000000,1.2352],[1373558400000,1.2528],[1373817600000,1.3022],[1373904000000,1.3063],[1373990400000,1.2905],[1374076800000,1.2886],[1374163200000,1.275],[1374422400000,1.318],[1374508800000,1.3463],[1374595200000,1.3725],[1374681600000,1.31],[1374768000000,1.3166],[1375027200000,1.2897],[1375113600000,1.2737],[1375200000000,1.2848],[1375286400000,1.3481],[1375372800000,1.3466],[1375632000000,1.3626],[1375718400000,1.3723],[1375804800000,1.3316],[1375891200000,1.3429],[1375977600000,1.3279],[1376236800000,1.3159],[1376323200000,1.3277],[1376409600000,1.337],[1376496000000,1.3219],[1376582400000,1.2827],[1376841600000,1.3266],[1376928000000,1.3314],[1377014400000,1.3376],[1377100800000,1.3552],[1377187200000,1.3797],[1377446400000,1.3993],[1377532800000,1.4124],[1377619200000,1.386],[1377705600000,1.384],[1377792000000,1.3382],[1378051200000,1.366],[1378137600000,1.393],[1378224000000,1.395],[1378310400000,1.4292],[1378396800000,1.4461],[1378656000000,1.4379],[1378742400000,1.4242],[1378828800000,1.3765],[1378915200000,1.3764],[1379001600000,1.4129],[1379260800000,1.441],[1379347200000,1.4305],[1379433600000,1.4531],[1379865600000,1.4935],[1379952000000,1.4961],[1380038400000,1.4901],[1380124800000,1.4715],[1380211200000,1.4908],[1380470400000,1.5391],[1381161600000,1.5611],[1381248000000,1.5928],[1381334400000,1.5519],[1381420800000,1.5538],[1381680000000,1.5689],[1381766400000,1.5649],[1381852800000,1.5035],[1381939200000,1.4889],[1382025600000,1.5181],[1382284800000,1.5737],[1382371200000,1.5185],[1382457600000,1.4743],[1382544000000,1.4574],[1382630400000,1.4274],[1382889600000,1.4384],[1382976000000,1.4189],[1383062400000,1.4315],[1383148800000,1.3893],[1383235200000,1.3747],[1383494400000,1.3754],[1383580800000,1.4172],[1383667200000,1.3968],[1383753600000,1.377],[1383840000000,1.3626],[1384099200000,1.3642],[1384185600000,1.3816],[1384272000000,1.3635],[1384358400000,1.4053],[1384444800000,1.4269],[1384704000000,1.4515],[1384790400000,1.4592],[1384876800000,1.4604],[1384963200000,1.4601],[1385049600000,1.4557],[1385308800000,1.4541],[1385395200000,1.4519],[1385481600000,1.4938],[1385568000000,1.5019],[1385654400000,1.5354],[1385913600000,1.4095],[1386000000000,1.4111],[1386086400000,1.3943],[1386172800000,1.3517],[1386259200000,1.3569],[1386518400000,1.3958],[1386604800000,1.3849],[1386691200000,1.3988],[1386777600000,1.437],[1386864000000,1.4358],[1387123200000,1.4376],[1387209600000,1.424],[1387296000000,1.411],[1387382400000,1.4111],[1387468800000,1.4085],[1387728000000,1.3962],[1387814400000,1.414],[1387900800000,1.4468],[1387987200000,1.4258],[1388073600000,1.4534],[1388332800000,1.4682],[1388419200000,1.4642],[1388592000000,1.4958],[1388678400000,1.5178],[1388937600000,1.485],[1389024000000,1.5171],[1389110400000,1.5756],[1389196800000,1.5481],[1389283200000,1.5181],[1389542400000,1.5286],[1389628800000,1.5709],[1389715200000,1.587],[1389801600000,1.5644],[1389888000000,1.5649],[1390147200000,1.5393],[1390233600000,1.5776],[1390320000000,1.605],[1390406400000,1.6377],[1390492800000,1.6629],[1390752000000,1.655],[1390838400000,1.648],[1390924800000,1.676],[1391011200000,1.6753],[1391702400000,1.7159],[1391961600000,1.7389],[1392048000000,1.7097],[1392134400000,1.724],[1392220800000,1.6622],[1392307200000,1.6958],[1392566400000,1.7434],[1392652800000,1.7281],[1392739200000,1.7267],[1392825600000,1.6941],[1392912000000,1.6991],[1393171200000,1.7217],[1393257600000,1.6466],[1393344000000,1.6389],[1393430400000,1.5814],[1393516800000,1.6037],[1393776000000,1.6369],[1393862400000,1.631],[1393948800000,1.6348],[1394035200000,1.6326],[1394121600000,1.6304],[1394380800000,1.5709],[1394467200000,1.5583],[1394553600000,1.5621],[1394640000000,1.6038],[1394726400000,1.6006],[1394985600000,1.6486],[1395072000000,1.6577],[1395158400000,1.6362],[1395244800000,1.5824],[1395331200000,1.5848],[1395590400000,1.5597],[1395676800000,1.5577],[1395763200000,1.5829],[1395849600000,1.5279],[1395936000000,1.4864],[1396195200000,1.4835],[1396281600000,1.5137],[1396368000000,1.4839],[1396454400000,1.4815],[1396540800000,1.5045],[1396886400000,1.5089],[1396972800000,1.5318],[1397059200000,1.5433],[1397145600000,1.5237],[1397404800000,1.5333],[1397491200000,1.53],[1397577600000,1.5185],[1397664000000,1.5278],[1397750400000,1.5384],[1398009600000,1.5235],[1398096000000,1.4932],[1398182400000,1.4825],[1398268800000,1.4752],[1398355200000,1.4447],[1398614400000,1.4068],[1398700800000,1.417],[1398787200000,1.4352],[1399219200000,1.456],[1399305600000,1.4722],[1399392000000,1.4429],[1399478400000,1.4318],[1399564800000,1.4086],[1399824000000,1.4306],[1399910400000,1.4297],[1399996800000,1.4324],[1400083200000,1.4058],[1400169600000,1.376],[1400428800000,1.3784],[1400515200000,1.3961],[1400601600000,1.4108],[1400688000000,1.4236],[1400774400000,1.4532],[1401033600000,1.4809],[1401120000000,1.465],[1401206400000,1.5013],[1401292800000,1.4736],[1401379200000,1.4784],[1401724800000,1.48],[1401811200000,1.4819],[1401897600000,1.5195],[1401984000000,1.514],[1402243200000,1.4874],[1402329600000,1.5186],[1402416000000,1.5336],[1402502400000,1.5297],[1402588800000,1.5507],[1402848000000,1.5649],[1402934400000,1.5441],[1403020800000,1.5292],[1403107200000,1.4812],[1403193600000,1.4964],[1403452800000,1.5263],[1403539200000,1.5353],[1403625600000,1.5236],[1403712000000,1.5543],[1403798400000,1.5565],[1404057600000,1.5737],[1404144000000,1.5817],[1404230400000,1.5906],[1404316800000,1.5935],[1404403200000,1.5815],[1404662400000,1.561],[1404748800000,1.5795],[1404835200000,1.5507],[1404921600000,1.5276],[1405008000000,1.5226],[1405267200000,1.5313],[1405353600000,1.5029],[1405440000000,1.4778],[1405526400000,1.4714],[1405612800000,1.4637],[1405872000000,1.465],[1405958400000,1.4897],[1406044800000,1.4489],[1406131200000,1.4253],[1406217600000,1.4407],[1406476800000,1.4724],[1406563200000,1.4914],[1406649600000,1.5036],[1406736000000,1.5055],[1406822400000,1.4851],[1407081600000,1.4894],[1407168000000,1.5235],[1407254400000,1.529],[1407340800000,1.5249],[1407427200000,1.542],[1407686400000,1.5643],[1407772800000,1.5628],[1407859200000,1.5494],[1407945600000,1.5449],[1408032000000,1.558],[1408291200000,1.5974],[1408377600000,1.6057],[1408464000000,1.5958],[1408550400000,1.6183],[1408636800000,1.6331],[1408896000000,1.6137],[1408982400000,1.5784],[1409068800000,1.588],[1409155200000,1.5703],[1409241600000,1.5921],[1409500800000,1.6223],[1409587200000,1.6353],[1409673600000,1.6487],[1409760000000,1.668],[1409846400000,1.6619],[1410192000000,1.6661],[1410278400000,1.6778],[1410364800000,1.6864],[1410451200000,1.6983],[1410710400000,1.7006],[1410796800000,1.644],[1410883200000,1.6502],[1410969600000,1.6626],[1411056000000,1.6714],[1411315200000,1.6546],[1411401600000,1.6732],[1411488000000,1.6908],[1411574400000,1.6812],[1411660800000,1.6842],[1411920000000,1.6999],[1412006400000,1.7151],[1412697600000,1.7328],[1412784000000,1.7373],[1412870400000,1.7301],[1413129600000,1.7237],[1413216000000,1.7138],[1413302400000,1.7208],[1413388800000,1.7015],[1413475200000,1.6848],[1413734400000,1.7077],[1413820800000,1.6918],[1413907200000,1.6779],[1413993600000,1.6495],[1414080000000,1.6493],[1414339200000,1.6645],[1414425600000,1.6964],[1414512000000,1.7049],[1414598400000,1.7006],[1414684800000,1.6873],[1414944000000,1.705],[1415030400000,1.6902],[1415116800000,1.686],[1415203200000,1.7075],[1415289600000,1.6968],[1415548800000,1.6884],[1415635200000,1.6307],[1415721600000,1.6462],[1415808000000,1.6115],[1415894400000,1.6098],[1416153600000,1.6417],[1416240000000,1.6524],[1416326400000,1.6763],[1416412800000,1.6645],[1416499200000,1.6752],[1416758400000,1.6782],[1416844800000,1.714],[1416931200000,1.7269],[1417017600000,1.7365],[1417104000000,1.7443],[1417363200000,1.7248],[1417449600000,1.7388],[1417536000000,1.7804],[1417622400000,1.7988],[1417708800000,1.7562],[1417968000000,1.7395],[1418054400000,1.6726],[1418140800000,1.7454],[1418227200000,1.7612],[1418313600000,1.7994],[1418572800000,1.8355],[1418659200000,1.8269],[1418745600000,1.8209],[1418832000000,1.8101],[1418918400000,1.7705],[1419177600000,1.6872],[1419264000000,1.6645],[1419350400000,1.6888],[1419436800000,1.699],[1419523200000,1.7061],[1419782400000,1.6673],[1419868800000,1.6252],[1419955200000,1.6373],[1420387200000,1.6298],[1420473600000,1.711],[1420560000000,1.6928],[1420646400000,1.7122],[1420732800000,1.7239],[1420992000000,1.7597],[1421078400000,1.776],[1421164800000,1.7616],[1421251200000,1.7596],[1421337600000,1.8175],[1421596800000,1.8069],[1421683200000,1.8838],[1421769600000,1.9074],[1421856000000,1.9303],[1421942400000,1.8795],[1422201600000,1.9252],[1422288000000,1.9294],[1422374400000,1.9159],[1422460800000,1.8937],[1422547200000,1.8602],[1422806400000,1.878],[1422892800000,1.9342],[1422979200000,1.9399],[1423065600000,1.9571],[1423152000000,1.9102],[1423411200000,1.8862],[1423497600000,1.9281],[1423584000000,1.9553],[1423670400000,1.9726],[1423756800000,2.0122],[1424016000000,2.09],[1424102400000,2.0884],[1424793600000,2.07],[1424880000000,2.0744],[1424966400000,2.1261],[1425225600000,2.1898],[1425312000000,2.1622],[1425398400000,2.2147],[1425484800000,2.2199],[1425571200000,2.1511],[1425830400000,2.1975],[1425916800000,2.2531],[1426003200000,2.2425],[1426089600000,2.2234],[1426176000000,2.2787],[1426435200000,2.3588],[1426521600000,2.3527],[1426608000000,2.4014],[1426694400000,2.4026],[1426780800000,2.4351],[1427040000000,2.5218],[1427126400000,2.5917],[1427212800000,2.6206],[1427299200000,2.5172],[1427385600000,2.5518],[1427644800000,2.5139],[1427731200000,2.5621],[1427817600000,2.6368],[1427904000000,2.711],[1427990400000,2.7448],[1428336000000,2.7936],[1428422400000,2.7202],[1428508800000,2.732],[1428595200000,2.7924],[1428854400000,2.8195],[1428940800000,2.8],[1429027200000,2.6775],[1429113600000,2.7266],[1429200000000,2.7075],[1429459200000,2.6693],[1429545600000,2.8211],[1429632000000,2.8983],[1429718400000,2.9777],[1429804800000,3.0103],[1430064000000,3.0258],[1430150400000,2.966],[1430236800000,3.087],[1430323200000,3.1521],[1430668800000,3.1356],[1430755200000,3.0652],[1430841600000,3.131],[1430928000000,3.085],[1431014400000,3.2699],[1431273600000,3.4599],[1431360000000,3.5717],[1431446400000,3.508],[1431532800000,3.4521],[1431619200000,3.4564],[1431878400000,3.6009],[1431964800000,3.6493],[1432051200000,3.7394],[1432137600000,3.8721],[1432224000000,3.8555],[1432483200000,3.7993],[1432569600000,3.959],[1432656000000,3.9679],[1432742400000,3.7515],[1432828800000,3.8695],[1433088000000,4.0611],[1433174400000,4.2615],[1433260800000,4.3485],[1433347200000,4.3009],[1433433600000,4.2356],[1433692800000,4.0335],[1433779200000,4.0368],[1433865600000,4.1777],[1433952000000,4.2056],[1434038400000,4.2437],[1434297600000,4.0149],[1434384000000,3.8944],[1434470400000,4.0618],[1434556800000,3.8029],[1434643200000,3.5927],[1434988800000,3.6785],[1435075200000,3.6689],[1435161600000,3.4712],[1435248000000,3.1553],[1435507200000,2.9006],[1435593600000,3.0843],[1435680000000,2.9706],[1435766400000,2.846],[1435852800000,2.7955],[1436112000000,2.6701],[1436198400000,2.5055],[1436284800000,2.5198],[1436371200000,2.6061],[1436457600000,2.7259],[1436716800000,2.8995],[1436803200000,2.9473],[1436889600000,2.7956],[1436976000000,2.8436],[1437062400000,3.0235],[1437321600000,3.0978],[1437408000000,3.133],[1437494400000,3.1458],[1437580800000,3.226],[1437667200000,3.1433],[1437926400000,2.8962],[1438012800000,2.7806],[1438099200000,2.9127],[1438185600000,2.7638],[1438272000000,2.7445],[1438531200000,2.5858],[1438617600000,2.7573],[1438704000000,2.7077],[1438790400000,2.6865],[1438876800000,2.7997],[1439136000000,2.949],[1439222400000,2.9391],[1439308800000,2.8511],[1439395200000,2.925],[1439481600000,2.9106],[1439740800000,2.9014],[1439827200000,2.7145],[1439913600000,2.7905],[1440000000000,2.7201],[1440086400000,2.5293],[1440345600000,2.3131],[1440432000000,2.1291],[1440518400000,2.0139],[1440604800000,2.0917],[1440691200000,2.2292],[1440950400000,2.1339],[1441036800000,2.0135],[1441123200000,1.9749],[1441555200000,2.0182],[1441641600000,2.1389],[1441728000000,2.218],[1441814400000,2.1797],[1441900800000,2.2043],[1442160000000,2.0232],[1442246400000,1.8951],[1442332800000,2.0467],[1442419200000,2.0543],[1442505600000,2.1156],[1442764800000,2.2313],[1442851200000,2.2346],[1442937600000,2.2368],[1443024000000,2.2724],[1443110400000,2.174],[1443369600000,2.2917],[1443456000000,2.2644],[1443542400000,2.2436],[1444233600000,2.3656],[1444320000000,2.3953],[1444579200000,2.5088],[1444665600000,2.5374],[1444752000000,2.4947],[1444838400000,2.6082],[1444924800000,2.6589],[1445184000000,2.641],[1445270400000,2.7298],[1445356800000,2.539],[1445443200000,2.6684],[1445529600000,2.7553],[1445788800000,2.7444],[1445875200000,2.7878],[1445961600000,2.7007],[1446048000000,2.7026],[1446134400000,2.6953],[1446393600000,2.6431],[1446480000000,2.6407],[1446566400000,2.8136],[1446652800000,2.7916],[1446739200000,2.8987],[1446998400000,2.9662],[1447084800000,2.992],[1447171200000,3.0569],[1447257600000,3.0323],[1447344000000,2.9461],[1447603200000,3.0365],[1447689600000,2.9483],[1447776000000,2.8868],[1447862400000,3.0021],[1447948800000,3.0327],[1448208000000,3.0006],[1448294400000,3.0489],[1448380800000,3.1354],[1448467200000,3.0656],[1448553600000,2.8665],[1448812800000,2.8896],[1448899200000,2.8696],[1448985600000,2.8226],[1449072000000,2.9223],[1449158400000,2.9031],[1449417600000,2.9516],[1449504000000,2.9019],[1449590400000,2.8757],[1449676800000,2.9033],[1449763200000,2.8768],[1450022400000,2.9169],[1450108800000,2.9552],[1450195200000,2.9729],[1450281600000,3.0486],[1450368000000,3.0421],[1450627200000,3.041],[1450713600000,3.0498],[1450800000000,2.9903],[1450886400000,3.0028],[1450972800000,3.0004],[1451232000000,2.9363],[1451318400000,2.9511],[1451404800000,2.9825],[1451491200000,2.9152],[1451836800000,2.6863],[1451923200000,2.6103],[1452009600000,2.6635],[1452096000000,2.4457],[1452182400000,2.4384],[1452441600000,2.292],[1452528000000,2.3342],[1452614400000,2.2432],[1452700800000,2.366],[1452787200000,2.2998],[1453046400000,2.3669],[1453132800000,2.439],[1453219200000,2.3986],[1453305600000,2.2989],[1453392000000,2.3392],[1453651200000,2.3493],[1453737600000,2.1697],[1453824000000,2.1734],[1453910400000,2.074],[1453996800000,2.1699],[1454256000000,2.1683],[1454342400000,2.2605],[1454428800000,2.2764],[1454515200000,2.317],[1454601600000,2.2829],[1455465600000,2.3056],[1455552000000,2.4036],[1455638400000,2.4189],[1455724800000,2.3906],[1455811200000,2.4136],[1456070400000,2.4529],[1456156800000,2.4212],[1456243200000,2.4045],[1456329600000,2.2145],[1456416000000,2.1888],[1456675200000,2.0391],[1456761600000,2.1007],[1456848000000,2.1937],[1456934400000,2.1818],[1457020800000,2.0701],[1457280000000,2.1215],[1457366400000,2.1758],[1457452800000,2.141],[1457539200000,2.1035],[1457625600000,2.1023],[1457884800000,2.1996],[1457971200000,2.1699],[1458057600000,2.1472],[1458144000000,2.2693],[1458230400000,2.3703],[1458489600000,2.425],[1458576000000,2.4189],[1458662400000,2.4606],[1458748800000,2.4158],[1458835200000,2.4119],[1459094400000,2.3934],[1459180800000,2.341],[1459267200000,2.449],[1459353600000,2.4399],[1459440000000,2.4061],[1459785600000,2.4887],[1459872000000,2.5078],[1459958400000,2.4548],[1460044800000,2.4347],[1460304000000,2.4929],[1460390400000,2.4719],[1460476800000,2.5049],[1460563200000,2.5383],[1460649600000,2.5221],[1460908800000,2.4742],[1460995200000,2.4818],[1461081600000,2.3419],[1461168000000,2.3037],[1461254400000,2.3331],[1461513600000,2.3222],[1461600000000,2.3538],[1461686400000,2.3439],[1461772800000,2.3534],[1461859200000,2.3354],[1462204800000,2.4215],[1462291200000,2.4147],[1462377600000,2.429],[1462464000000,2.3254],[1462723200000,2.2425],[1462809600000,2.2431],[1462896000000,2.222],[1462982400000,2.2213],[1463068800000,2.211],[1463328000000,2.2471],[1463414400000,2.2731],[1463500800000,2.2064],[1463587200000,2.2251],[1463673600000,2.2562],[1463932800000,2.2928],[1464019200000,2.2681],[1464105600000,2.259],[1464192000000,2.2798],[1464278400000,2.2623],[1464537600000,2.2499],[1464624000000,2.3615],[1464710400000,2.3723],[1464796800000,2.3942],[1464883200000,2.4147],[1465142400000,2.4107],[1465228800000,2.4083],[1465315200000,2.3974],[1465747200000,2.2572],[1465833600000,2.2632],[1465920000000,2.3389],[1466006400000,2.3097],[1466092800000,2.3326],[1466352000000,2.329],[1466438400000,2.301],[1466524800000,2.3588],[1466611200000,2.3511],[1466697600000,2.3403],[1466956800000,2.4104],[1467043200000,2.437],[1467129600000,2.4296],[1467216000000,2.4457],[1467302400000,2.4278],[1467561600000,2.4681],[1467648000000,2.4651],[1467734400000,2.4605],[1467820800000,2.4522],[1467907200000,2.4579],[1468166400000,2.4361],[1468252800000,2.4668],[1468339200000,2.5073],[1468425600000,2.5158],[1468512000000,2.4844],[1468771200000,2.4699],[1468857600000,2.4952],[1468944000000,2.4895],[1469030400000,2.4859],[1469116800000,2.4697],[1469376000000,2.4652],[1469462400000,2.5012],[1469548800000,2.3685],[1469635200000,2.3517],[1469721600000,2.3331],[1469980800000,2.308],[1470067200000,2.3233],[1470153600000,2.3179],[1470240000000,2.341],[1470326400000,2.3187],[1470585600000,2.3418],[1470672000000,2.3677],[1470758400000,2.3487],[1470844800000,2.3124],[1470931200000,2.3345],[1471190400000,2.4093],[1471276800000,2.4179],[1471363200000,2.4254],[1471449600000,2.4183],[1471536000000,2.4215],[1471795200000,2.3812],[1471881600000,2.3886],[1471968000000,2.408],[1472054400000,2.3955],[1472140800000,2.4053],[1472400000000,2.4089],[1472486400000,2.4115],[1472572800000,2.4073],[1472659200000,2.396],[1472745600000,2.3848],[1473004800000,2.3974],[1473091200000,2.4407],[1473177600000,2.429],[1473264000000,2.4412],[1473350400000,2.4193],[1473609600000,2.3569],[1473696000000,2.3572],[1473782400000,2.3558],[1474214400000,2.378],[1474300800000,2.3705],[1474387200000,2.3745],[1474473600000,2.3812],[1474560000000,2.3683],[1474819200000,2.3318],[1474905600000,2.3512],[1474992000000,2.3498],[1475078400000,2.3569],[1475164800000,2.3613],[1476028800000,2.4243],[1476115200000,2.4268],[1476201600000,2.4253],[1476288000000,2.4243],[1476374400000,2.4092],[1476633600000,2.3805],[1476720000000,2.4131],[1476806400000,2.3987],[1476892800000,2.4079],[1476979200000,2.3947],[1477238400000,2.4159],[1477324800000,2.4151],[1477411200000,2.3982],[1477497600000,2.396],[1477584000000,2.3776],[1477843200000,2.3713],[1477929600000,2.3892],[1478016000000,2.3566],[1478102400000,2.3639],[1478188800000,2.3553],[1478448000000,2.3394],[1478534400000,2.3612],[1478620800000,2.3325],[1478707200000,2.354],[1478793600000,2.358],[1479052800000,2.3738],[1479139200000,2.3929],[1479225600000,2.3963],[1479312000000,2.3751],[1479398400000,2.369],[1479657600000,2.363],[1479744000000,2.3903],[1479830400000,2.3772],[1479916800000,2.3564],[1480003200000,2.3792],[1480262400000,2.3777],[1480348800000,2.3714],[1480435200000,2.3962],[1480521600000,2.395],[1480608000000,2.3529],[1480867200000,2.3533],[1480953600000,2.3297],[1481040000000,2.3433],[1481126400000,2.3215],[1481212800000,2.3054],[1481472000000,2.1794],[1481558400000,2.1801],[1481644800000,2.156],[1481731200000,2.17],[1481817600000,2.194],[1482076800000,2.1747],[1482163200000,2.1766],[1482249600000,2.1869],[1482336000000,2.181],[1482422400000,2.1571],[1482681600000,2.1675],[1482768000000,2.1617],[1482854400000,2.1492],[1482940800000,2.1516],[1483027200000,2.1551],[1483113600000,2.1551],[1483372800000,2.1559],[1483459200000,2.1865],[1483545600000,2.1781],[1483632000000,2.1579],[1483891200000,2.1543],[1483977600000,2.1435],[1484064000000,2.128],[1484150400000,2.1198],[1484236800000,2.0869],[1484496000000,2.0111],[1484582400000,2.0513],[1484668800000,2.0272],[1484755200000,2.0254],[1484841600000,2.0653],[1485100800000,2.0726],[1485187200000,2.0443],[1485273600000,2.0546],[1485360000000,2.0716],[1486051200000,2.061],[1486310400000,2.0868],[1486396800000,2.0744],[1486483200000,2.0904],[1486569600000,2.1017],[1486656000000,2.0914],[1486915200000,2.1011],[1487001600000,2.0964],[1487088000000,2.0779],[1487174400000,2.0836],[1487260800000,2.0674],[1487520000000,2.0806],[1487606400000,2.1091],[1487692800000,2.1079],[1487779200000,2.1144],[1487865600000,2.128],[1488124800000,2.1152],[1488211200000,2.1156],[1488297600000,2.1208],[1488384000000,2.1081],[1488470400000,2.1168],[1488729600000,2.1544],[1488816000000,2.1709],[1488902400000,2.1563],[1488988800000,2.1447],[1489075200000,2.1404],[1489334400000,2.1631],[1489420800000,2.149],[1489507200000,2.1491],[1489593600000,2.1589],[1489680000000,2.1402],[1489939200000,2.1447],[1490025600000,2.1526],[1490112000000,2.1389],[1490198400000,2.1387],[1490284800000,2.1569],[1490544000000,2.1376],[1490630400000,2.1341],[1490716800000,2.1175],[1490803200000,2.0788],[1490889600000,2.0942],[1491321600000,2.1331],[1491408000000,2.1342],[1491494400000,2.1366],[1491753600000,2.1001],[1491840000000,2.1057],[1491926400000,2.0838],[1492012800000,2.0977],[1492099200000,2.0726],[1492358400000,2.0516],[1492444800000,2.03],[1492531200000,2.0271],[1492617600000,2.0325],[1492704000000,2.0201],[1492963200000,1.9884],[1493049600000,1.9984],[1493136000000,2.0001],[1493222400000,2.0246],[1493308800000,2.0331],[1493654400000,2.0331],[1493740800000,2.0217],[1493827200000,2.0191],[1493913600000,1.9973],[1494172800000,1.9651],[1494259200000,1.9801],[1494345600000,1.946],[1494432000000,1.9473],[1494518400000,1.9498],[1494777600000,1.9543],[1494864000000,1.994],[1494950400000,2.0025],[1495036800000,1.9927],[1495123200000,1.9791],[1495382400000,1.9648],[1495468800000,1.932],[1495555200000,1.9525],[1495641600000,1.9541],[1495728000000,1.9409],[1496160000000,1.9454],[1496246400000,1.9065],[1496332800000,1.9258],[1496592000000,1.9428],[1496678400000,1.9484],[1496764800000,1.9853],[1496851200000,1.9797],[1496937600000,1.9812],[1497196800000,1.9585],[1497283200000,1.9807],[1497369600000,1.9753],[1497456000000,2.0036],[1497542400000,1.997],[1497801600000,2.004],[1497888000000,2.009],[1497974400000,2.0128],[1498060800000,1.9839],[1498147200000,1.994],[1498406400000,2.0092],[1498492800000,2.0079],[1498579200000,1.9949],[1498665600000,2.0012],[1498752000000,2.0064],[1499011200000,2.0262],[1499097600000,2.0191],[1499184000000,2.0268],[1499270400000,2.0294],[1499356800000,2.0256],[1499616000000,1.9901],[1499702400000,1.9688],[1499788800000,1.972],[1499875200000,1.9635],[1499961600000,1.9269],[1500220800000,1.8286],[1500307200000,1.8408],[1500393600000,1.8599],[1500480000000,1.8642],[1500566400000,1.8658],[1500825600000,1.8617],[1500912000000,1.8635],[1500998400000,1.856],[1501084800000,1.9231],[1501171200000,1.914],[1501430400000,1.9165],[1501516800000,1.9217],[1501603200000,1.9039],[1501689600000,1.9129],[1501776000000,1.898],[1502035200000,1.9121],[1502121600000,1.9451],[1502208000000,1.9459],[1502294400000,1.9356],[1502380800000,1.9228],[1502640000000,1.9792],[1502726400000,1.9848],[1502812800000,2.0141],[1502899200000,2.0231],[1502985600000,2.0103],[1503244800000,2.0184],[1503331200000,2.0025],[1503417600000,1.9941],[1503504000000,1.9813],[1503590400000,2.0002],[1503849600000,2.0332],[1503936000000,2.0207],[1504022400000,2.0285],[1504108800000,2.0403],[1504195200000,2.058],[1504454400000,2.0784],[1504540800000,2.0804],[1504627200000,2.0997],[1504713600000,2.0858],[1504800000000,2.0802],[1505059200000,2.0923],[1505145600000,2.0791],[1505232000000,2.0833],[1505318400000,2.0733],[1505404800000,2.0689],[1505664000000,2.09],[1505750400000,2.074],[1505836800000,2.0877],[150592320000</t>
   </si>
   <si>
+    <t>512010</t>
+  </si>
+  <si>
     <t>易方达沪深300医药ETF</t>
   </si>
   <si>
     <t xml:space="preserve"> [[1379865600000,1.0],[1380211200000,1.0022],[1380470400000,1.0026],[1381420800000,1.0042],[1382025600000,1.0052],[1382284800000,1.0073],[1382371200000,1.0066],[1382457600000,1.0029],[1382544000000,1.001],[1382630400000,0.977],[1382889600000,0.9616],[1382976000000,0.9546],[1383062400000,0.9652],[1383148800000,0.9472],[1383235200000,0.953],[1383494400000,0.9399],[1383580800000,0.9407],[1383667200000,0.9246],[1383753600000,0.9079],[1383840000000,0.896],[1384099200000,0.9205],[1384185600000,0.9325],[1384272000000,0.9173],[1384358400000,0.9326],[1384444800000,0.9387],[1384704000000,0.9445],[1384790400000,0.9382],[1384876800000,0.9431],[1384963200000,0.9412],[1385049600000,0.9326],[1385308800000,0.9331],[1385395200000,0.9327],[1385481600000,0.9412],[1385568000000,0.9477],[1385654400000,0.9544],[1385913600000,0.9304],[1386000000000,0.9517],[1386086400000,0.9636],[1386172800000,0.9636],[1386259200000,0.964],[1386518400000,0.9622],[1386604800000,0.9512],[1386691200000,0.9445],[1386777600000,0.9538],[1386864000000,0.9537],[1387123200000,0.9363],[1387209600000,0.9439],[1387296000000,0.9495],[1387382400000,0.9354],[1387468800000,0.9289],[1387728000000,0.9559],[1387814400000,0.9514],[1387900800000,0.9517],[1387987200000,0.9459],[1388073600000,0.9548],[1388332800000,0.9497],[1388419200000,0.9607],[1388592000000,0.9806],[1388678400000,0.9726],[1388937600000,0.948],[1389024000000,0.9556],[1389110400000,0.9631],[1389196800000,0.956],[1389283200000,0.9381],[1389542400000,0.9289],[1389628800000,0.9366],[1389715200000,0.9472],[1389801600000,0.9391],[1389888000000,0.9232],[1390147200000,0.9099],[1390233600000,0.9135],[1390320000000,0.9326],[1390406400000,0.9282],[1390492800000,0.9333],[1390752000000,0.914],[1390838400000,0.9215],[1390924800000,0.9245],[1391011200000,0.9198],[1391702400000,0.9123],[1391961600000,0.946],[1392048000000,0.9511],[1392134400000,0.9551],[1392220800000,0.9351],[1392307200000,0.9505],[1392566400000,0.9571],[1392652800000,0.9583],[1392739200000,0.966],[1392825600000,0.9568],[1392912000000,0.953],[1393171200000,0.9546],[1393257600000,0.9298],[1393344000000,0.9332],[1393430400000,0.9017],[1393516800000,0.9069],[1393776000000,0.9129],[1393862400000,0.9062],[1393948800000,0.8949],[1394035200000,0.8872],[1394121600000,0.8991],[1394380800000,0.8805],[1394467200000,0.8927],[1394553600000,0.891],[1394640000000,0.904],[1394726400000,0.8958],[1394985600000,0.9063],[1395072000000,0.9066],[1395158400000,0.895],[1395244800000,0.8708],[1395331200000,0.8855],[1395590400000,0.8791],[1395676800000,0.8783],[1395763200000,0.8889],[1395849600000,0.8752],[1395936000000,0.8636],[1396195200000,0.8582],[1396281600000,0.8639],[1396368000000,0.8557],[1396454400000,0.8558],[1396540800000,0.8618],[1396886400000,0.8811],[1396972800000,0.8857],[1397059200000,0.8839],[1397145600000,0.8949],[1397404800000,0.8957],[1397491200000,0.8863],[1397577600000,0.8857],[1397664000000,0.8797],[1397750400000,0.8777],[1398009600000,0.869],[1398096000000,0.8617],[1398182400000,0.8613],[1398268800000,0.8536],[1398355200000,0.8406],[1398614400000,0.8226],[1398700800000,0.8306],[1398787200000,0.8421],[1399219200000,0.8464],[1399305600000,0.8489],[1399392000000,0.8378],[1399478400000,0.839],[1399564800000,0.8392],[1399824000000,0.8517],[1399910400000,0.8493],[1399996800000,0.8504],[1400083200000,0.8367],[1400169600000,0.8313],[1400428800000,0.8169],[1400515200000,0.8167],[1400601600000,0.8233],[1400688000000,0.823],[1400774400000,0.8288],[1401033600000,0.8423],[1401120000000,0.8387],[1401206400000,0.8438],[1401292800000,0.84],[1401379200000,0.8411],[1401724800000,0.8415],[1401811200000,0.8282],[1401897600000,0.837],[1401984000000,0.834],[1402243200000,0.8353],[1402329600000,0.8439],[1402416000000,0.8497],[1402502400000,0.8466],[1402588800000,0.8485],[1402848000000,0.8479],[1402934400000,0.843],[1403020800000,0.8413],[1403107200000,0.829],[1403193600000,0.8312],[1403452800000,0.8291],[1403539200000,0.839],[1403625600000,0.8379],[1403712000000,0.8426],[1403798400000,0.8474],[1404057600000,0.8526],[1404144000000,0.8501],[1404230400000,0.8485],[1404316800000,0.8587],[1404403200000,0.8516],[1404662400000,0.8453],[1404748800000,0.8462],[1404835200000,0.831],[1404921600000,0.8301],[1405008000000,0.83],[1405267200000,0.8375],[1405353600000,0.8492],[1405440000000,0.8429],[1405526400000,0.8346],[1405612800000,0.8403],[1405872000000,0.847],[1405958400000,0.852],[1406044800000,0.8449],[1406131200000,0.8532],[1406217600000,0.8583],[1406476800000,0.8704],[1406563200000,0.8733],[1406649600000,0.8801],[1406736000000,0.8836],[1406822400000,0.8886],[1407081600000,0.8947],[1407168000000,0.8924],[1407254400000,0.8904],[1407340800000,0.878],[1407427200000,0.8792],[1407686400000,0.8907],[1407772800000,0.888],[1407859200000,0.885],[1407945600000,0.8795],[1408032000000,0.8887],[1408291200000,0.8964],[1408377600000,0.8948],[1408464000000,0.8918],[1408550400000,0.8871],[1408636800000,0.8936],[1408896000000,0.8834],[1408982400000,0.8701],[1409068800000,0.8709],[1409155200000,0.8662],[1409241600000,0.8719],[1409500800000,0.88],[1409587200000,0.8863],[1409673600000,0.8937],[1409760000000,0.8953],[1409846400000,0.9016],[1410192000000,0.9052],[1410278400000,0.9014],[1410364800000,0.894],[1410451200000,0.8993],[1410710400000,0.9017],[1410796800000,0.8831],[1410883200000,0.8931],[1410969600000,0.9059],[1411056000000,0.9134],[1411315200000,0.9036],[1411401600000,0.9125],[1411488000000,0.9213],[1411574400000,0.9171],[1411660800000,0.9187],[1411920000000,0.9248],[1412006400000,0.9279],[1412697600000,0.9652],[1412784000000,0.9573],[1412870400000,0.9555],[1413129600000,0.9644],[1413216000000,0.9545],[1413302400000,0.9772],[1413388800000,0.9662],[1413475200000,0.964],[1413734400000,0.974],[1413820800000,0.9601],[1413907200000,0.9431],[1413993600000,0.9314],[1414080000000,0.9295],[1414339200000,0.9385],[1414425600000,0.9544],[1414512000000,0.9582],[1414598400000,0.9615],[1414684800000,0.9601],[1414944000000,0.9607],[1415030400000,0.9479],[1415116800000,0.9474],[1415203200000,0.9519],[1415289600000,0.9416],[1415548800000,0.9535],[1415635200000,0.942],[1415721600000,0.9533],[1415808000000,0.9444],[1415894400000,0.9576],[1416153600000,0.9596],[1416240000000,0.9535],[1416326400000,0.9618],[1416412800000,0.9528],[1416499200000,0.9611],[1416758400000,0.9664],[1416844800000,0.9775],[1416931200000,0.9778],[1417017600000,0.9831],[1417104000000,0.9766],[1417363200000,0.9912],[1417449600000,1.0022],[1417536000000,1.0039],[1417622400000,1.0256],[1417708800000,1.0132],[1417968000000,1.0228],[1418054400000,0.9977],[1418140800000,1.032],[1418227200000,1.0243],[1418313600000,1.0275],[1418572800000,1.0422],[1418659200000,1.0377],[1418745600000,1.0189],[1418832000000,1.01],[1418918400000,0.9982],[1419177600000,0.9751],[1419264000000,0.9735],[1419350400000,0.9756],[1419436800000,0.9802],[1419523200000,0.9916],[1419782400000,0.9827],[1419868800000,0.9904],[1419955200000,1.0032],[1420387200000,1.0206],[1420473600000,1.0536],[1420560000000,1.0431],[1420646400000,1.0395],[1420732800000,1.0274],[1420992000000,1.0355],[1421078400000,1.0457],[1421164800000,1.0418],[1421251200000,1.0433],[1421337600000,1.0528],[1421596800000,1.0203],[1421683200000,1.0401],[1421769600000,1.0608],[1421856000000,1.0706],[1421942400000,1.0601],[1422201600000,1.0824],[1422288000000,1.0818],[1422374400000,1.0723],[1422460800000,1.0541],[1422547200000,1.0488],[1422806400000,1.0458],[1422892800000,1.0551],[1422979200000,1.04],[1423065600000,1.0251],[1423152000000,1.0124],[1423411200000,1.0163],[1423497600000,1.024],[1423584000000,1.0337],[1423670400000,1.0365],[1423756800000,1.0472],[1424016000000,1.0566],[1424102400000,1.0627],[1424793600000,1.0626],[1424880000000,1.0711],[1424966400000,1.0691],[1425225600000,1.0745],[1425312000000,1.0668],[1425398400000,1.0986],[1425484800000,1.0961],[1425571200000,1.0767],[1425830400000,1.0857],[1425916800000,1.0973],[1426003200000,1.0905],[1426089600000,1.0924],[1426176000000,1.1003],[1426435200000,1.1268],[1426521600000,1.1292],[1426608000000,1.1468],[1426694400000,1.1404],[1426780800000,1.1537],[1427040000000,1.1671],[1427126400000,1.1867],[1427212800000,1.1958],[1427299200000,1.1834],[1427385600000,1.1905],[1427644800000,1.2069],[1427731200000,1.2],[1427817600000,1.2216],[1427904000000,1.2273],[1427990400000,1.2385],[1428336000000,1.2724],[1428422400000,1.2575],[1428508800000,1.2528],[1428595200000,1.2888],[1428854400000,1.3312],[1428940800000,1.3358],[1429027200000,1.2942],[1429113600000,1.3174],[1429200000000,1.3134],[1429459200000,1.2667],[1429545600000,1.3201],[1429632000000,1.3503],[1429718400000,1.3433],[1429804800000,1.3436],[1430064000000,1.3639],[1430150400000,1.3261],[1430236800000,1.3501],[1430323200000,1.3461],[1430668800000,1.3445],[1430755200000,1.3224],[1430841600000,1.319],[1430928000000,1.2953],[1431014400000,1.33],[1431273600000,1.3705],[1431360000000,1.3801],[1431446400000,1.3852],[1431532800000,1.3728],[1431619200000,1.3493],[1431878400000,1.3742],[1431964800000,1.405],[1432051200000,1.4123],[1432137600000,1.4651],[1432224000000,1.4784],[1432483200000,1.5232],[1432569600000,1.5548],[1432656000000,1.5694],[1432742400000,1.4688],[1432828800000,1.5193],[1433088000000,1.6085],[1433174400000,1.6296],[1433260800000,1.611],[1433347200000,1.5968],[1433433600000,1.6023],[1433692800000,1.5909],[1433779200000,1.5698],[1433865600000,1.5989],[1433952000000,1.6236],[1434038400000,1.6336],[1434297600000,1.6058],[1434384000000,1.5687],[1434470400000,1.5822],[1434556800000,1.5284],[1434643200000,1.4479],[1434988800000,1.5029],[1435075200000,1.5203],[1435161600000,1.4458],[1435248000000,1.3221],[1435507200000,1.2776],[1435593600000,1.3751],[1435680000000,1.3357],[1435766400000,1.2785],[1435852800000,1.2416],[1436112000000,1.2665],[1436198400000,1.1871],[1436284800000,1.1214],[1436371200000,1.1884],[1436457600000,1.2685],[1436716800000,1.3482],[1436803200000,1.3364],[1436889600000,1.2551],[1436976000000,1.2889],[1437062400000,1.347],[1437321600000,1.3395],[1437408000000,1.3514],[1437494400000,1.3464],[1437580800000,1.3809],[1437667200000,1.3573],[1437926400000,1.245],[1438012800000,1.2735],[1438099200000,1.3203],[1438185600000,1.2687],[1438272000000,1.2939],[1438531200000,1.3136],[1438617600000,1.3567],[1438704000000,1.3283],[1438790400000,1.3098],[1438876800000,1.3314],[1439136000000,1.3849],[1439222400000,1.3688],[1439308800000,1.3393],[1439395200000,1.3489],[1439481600000,1.3504],[1439740800000,1.3736],[1439827200000,1.3099],[1439913600000,1.3472],[1440000000000,1.2957],[1440086400000,1.2339],[1440345600000,1.1186],[1440432000000,1.0389],[1440518400000,1.0547],[1440604800000,1.1093],[1440691200000,1.1584],[1440950400000,1.1489],[1441036800000,1.1289],[1441123200000,1.1358],[1441555200000,1.1179],[1441641600000,1.1647],[1441728000000,1.1793],[1441814400000,1.1728],[1441900800000,1.1596],[1442160000000,1.1292],[1442246400000,1.0837],[1442332800000,1.1564],[1442419200000,1.1229],[1442505600000,1.1236],[1442764800000,1.1454],[1442851200000,1.1529],[1442937600000,1.1321],[1443024000000,1.1431],[1443110400000,1.1154],[1443369600000,1.1239],[1443456000000,1.0985],[1443542400000,1.103],[1444233600000,1.1556],[1444320000000,1.1638],[1444579200000,1.1917],[1444665600000,1.1894],[1444752000000,1.1745],[1444838400000,1.1959],[1444924800000,1.199],[1445184000000,1.2051],[1445270400000,1.2174],[1445356800000,1.1803],[1445443200000,1.224],[1445529600000,1.2634],[1445788800000,1.2668],[1445875200000,1.263],[1445961600000,1.2339],[1446048000000,1.2505],[1446134400000,1.2411],[1446393600000,1.2214],[1446480000000,1.2116],[1446566400000,1.2659],[1446652800000,1.2652],[1446739200000,1.2797],[1446998400000,1.2891],[1447084800000,1.2764],[1447171200000,1.2928],[1447257600000,1.2992],[1447344000000,1.2709],[1447603200000,1.2877],[1447689600000,1.2869],[1447776000000,1.2687],[1447862400000,1.2869],[1447948800000,1.2862],[1448208000000,1.2892],[1448294400000,1.2886],[1448380800000,1.3035],[1448467200000,1.2917],[1448553600000,1.2393],[1448812800000,1.2432],[1448899200000,1.2652],[1448985600000,1.2854],[1449072000000,1.2921],[1449158400000,1.2846],[1449417600000,1.3113],[1449504000000,1.293],[1449590400000,1.2887],[1449676800000,1.2945],[1449763200000,1.2865],[1450022400000,1.2971],[1450108800000,1.2952],[1450195200000,1.2892],[1450281600000,1.3128],[1450368000000,1.3152],[1450627200000,1.3694],[1450713600000,1.3641],[1450800000000,1.3604],[1450886400000,1.3367],[1450972800000,1.3375],[1451232000000,1.3188],[1451318400000,1.3286],[1451404800000,1.3277],[1451491200000,1.3247],[1451836800000,1.2276],[1451923200000,1.2212],[1452009600000,1.2367],[1452096000000,1.1459],[1452182400000,1.1752],[1452441600000,1.1173],[1452528000000,1.1328],[1452614400000,1.1037],[1452700800000,1.1308],[1452787200000,1.1005],[1453046400000,1.1106],[1453132800000,1.1452],[1453219200000,1.125],[1453305600000,1.0935],[1453392000000,1.098],[1453651200000,1.1142],[1453737600000,1.0661],[1453824000000,1.067],[1453910400000,1.047],[1453996800000,1.0765],[1454256000000,1.0681],[1454342400000,1.0891],[1454428800000,1.0892],[1454515200000,1.1013],[1454601600000,1.0998],[1455465600000,1.1003],[1455552000000,1.1276],[1455638400000,1.1258],[1455724800000,1.1193],[1455811200000,1.1238],[1456070400000,1.138],[1456156800000,1.1293],[1456243200000,1.1343],[1456329600000,1.0715],[1456416000000,1.0838],[1456675200000,1.0502],[1456761600000,1.0616],[1456848000000,1.0972],[1456934400000,1.0998],[1457020800000,1.0954],[1457280000000,1.1027],[1457366400000,1.1067],[1457452800000,1.0987],[1457539200000,1.0801],[1457625600000,1.0792],[1457884800000,1.1019],[1457971200000,1.1055],[1458057600000,1.1092],[1458144000000,1.1253],[1458230400000,1.1364],[1458489600000,1.1514],[1458576000000,1.142],[1458662400000,1.1412],[1458748800000,1.1289],[1458835200000,1.1382],[1459094400000,1.14],[1459180800000,1.1222],[1459267200000,1.1522],[1459353600000,1.1468],[1459440000000,1.1435],[1459785600000,1.1603],[1459872000000,1.1609],[1459958400000,1.1495],[1460044800000,1.1395],[1460304000000,1.1537],[1460390400000,1.1493],[1460476800000,1.1563],[1460563200000,1.1629],[1460649600000,1.1612],[1460908800000,1.15],[1460995200000,1.1509],[1461081600000,1.1256],[1461168000000,1.1132],[1461254400000,1.1185],[1461513600000,1.1156],[1461600000000,1.1289],[1461686400000,1.1285],[1461772800000,1.1279],[1461859200000,1.1284],[1462204800000,1.1562],[1462291200000,1.1561],[1462377600000,1.1546],[1462464000000,1.1275],[1462723200000,1.1142],[1462809600000,1.1102],[1462896000000,1.1362],[1462982400000,1.1317],[1463068800000,1.1286],[1463328000000,1.1399],[1463414400000,1.1376],[1463500800000,1.1264],[1463587200000,1.121],[1463673600000,1.1252],[1463932800000,1.1268],[1464019200000,1.1213],[1464105600000,1.1132],[1464192000000,1.1166],[1464278400000,1.113],[1464537600000,1.1064],[1464624000000,1.1377],[1464710400000,1.1354],[1464796800000,1.1369],[1464883200000,1.1519],[1465142400000,1.1515],[1465228800000,1.1535],[1465315200000,1.1493],[1465747200000,1.1171],[1465833600000,1.1211],[1465920000000,1.1361],[1466006400000,1.1284],[1466092800000,1.1405],[1466352000000,1.1429],[1466438400000,1.1375],[1466524800000,1.1519],[1466611200000,1.1497],[1466697600000,1.14],[1466956800000,1.158],[1467043200000,1.18],[1467129600000,1.1771],[1467216000000,1.178],[1467302400000,1.1727],[1467561600000,1.1866],[1467648000000,1.1854],[1467734400000,1.2041],[1467820800000,1.2142],[1467907200000,1.2076],[1468166400000,1.2247],[1468252800000,1.2571],[1468339200000,1.2519],[1468425600000,1.2511],[1468512000000,1.2596],[1468771200000,1.2547],[1468857600000,1.2469],[1468944000000,1.2481],[1469030400000,1.2529],[1469116800000,1.2422],[1469376000000,1.2523],[1469462400000,1.2643],[1469548800000,1.2515],[1469635200000,1.2672],[1469721600000,1.2713],[1469980800000,1.2507],[1470067200000,1.2603],[1470153600000,1.2613],[1470240000000,1.2569],[1470326400000,1.2598],[1470585600000,1.2717],[1470672000000,1.2802],[1470758400000,1.2803],[1470844800000,1.273],[1470931200000,1.2832],[1471190400000,1.2996],[1471276800000,1.2944],[1471363200000,1.2978],[1471449600000,1.2884],[1471536000000,1.288],[1471795200000,1.2886],[1471881600000,1.2974],[1471968000000,1.2971],[1472054400000,1.2893],[1472140800000,1.2932],[1472400000000,1.303],[1472486400000,1.2974],[1472572800000,1.3004],[1472659200000,1.2971],[1472745600000,1.3],[1473004800000,1.2993],[1473091200000,1.3044],[1473177600000,1.2991],[1473264000000,1.3041],[1473350400000,1.2962],[1473609600000,1.2796],[1473696000000,1.2778],[1473782400000,1.2716],[1474214400000,1.2818],[1474300800000,1.286],[1474387200000,1.2902],[1474473600000,1.2945],[1474560000000,1.2997],[1474819200000,1.2785],[1474905600000,1.2833],[1474992000000,1.2828],[1475078400000,1.2904],[1475164800000,1.2937],[1476028800000,1.3157],[1476115200000,1.3201],[1476201600000,1.319],[1476288000000,1.318],[1476374400000,1.3192],[1476633600000,1.3163],[1476720000000,1.3248],[1476806400000,1.3224],[1476892800000,1.3101],[1476979200000,1.3074],[1477238400000,1.3155],[1477324800000,1.3167],[1477411200000,1.3222],[1477497600000,1.318],[1477584000000,1.3122],[1477843200000,1.3098],[1477929600000,1.3211],[1478016000000,1.3167],[1478102400000,1.3249],[1478188800000,1.3214],[1478448000000,1.314],[1478534400000,1.3252],[1478620800000,1.3186],[1478707200000,1.3251],[1478793600000,1.3216],[1479052800000,1.3155],[1479139200000,1.317],[1479225600000,1.3193],[1479312000000,1.3231],[1479398400000,1.315],[1479657600000,1.3157],[1479744000000,1.327],[1479830400000,1.3238],[1479916800000,1.3409],[1480003200000,1.3453],[1480262400000,1.3469],[1480348800000,1.3495],[1480435200000,1.3525],[1480521600000,1.3489],[1480608000000,1.3414],[1480867200000,1.3271],[1480953600000,1.329],[1481040000000,1.3334],[1481126400000,1.3267],[1481212800000,1.3259],[1481472000000,1.3046],[1481558400000,1.3046],[1481644800000,1.2947],[1481731200000,1.2866],[1481817600000,1.2952],[1482076800000,1.2976],[1482163200000,1.2908],[1482249600000,1.2976],[1482336000000,1.2952],[1482422400000,1.2881],[1482681600000,1.2976],[1482768000000,1.2976],[1482854400000,1.2951],[1482940800000,1.2931],[1483027200000,1.3193],[1483113600000,1.3192],[1483372800000,1.3219],[1483459200000,1.3264],[1483545600000,1.3182],[1483632000000,1.3064],[1483891200000,1.3107],[1483977600000,1.3095],[1484064000000,1.3],[1484150400000,1.2886],[1484236800000,1.2866],[1484496000000,1.2919],[1484582400000,1.2982],[1484668800000,1.3024],[1484755200000,1.3042],[1484841600000,1.3151],[1485100800000,1.3146],[1485187200000,1.3111],[1485273600000,1.3257],[1485360000000,1.3313],[1486051200000,1.3366],[1486310400000,1.333],[1486396800000,1.3285],[1486483200000,1.3283],[1486569600000,1.3252],[1486656000000,1.324],[1486915200000,1.3324],[1487001600000,1.3322],[1487088000000,1.3201],[1487174400000,1.3305],[1487260800000,1.3236],[1487520000000,1.3391],[1487606400000,1.3459],[1487692800000,1.3478],[1487779200000,1.3574],[1487865600000,1.361],[1488124800000,1.352],[1488211200000,1.3487],[1488297600000,1.3476],[1488384000000,1.3428],[1488470400000,1.3411],[1488729600000,1.3437],[1488816000000,1.3513],[1488902400000,1.3492],[1488988800000,1.3397],[1489075200000,1.3498],[1489334400000,1.3587],[1489420800000,1.3622],[1489507200000,1.3717],[1489593600000,1.371],[1489680000000,1.3664],[1489939200000,1.3838],[1490025600000,1.409],[1490112000000,1.4327],[1490198400000,1.4326],[1490284800000,1.4305],[1490544000000,1.4193],[1490630400000,1.4222],[1490716800000,1.4186],[1490803200000,1.4099],[1490889600000,1.4268],[1491321600000,1.4287],[1491408000000,1.4326],[1491494400000,1.4314],[1491753600000,1.4143],[1491840000000,1.4021],[1491926400000,1.4042],[1492012800000,1.422],[1492099200000,1.4176],[1492358400000,1.4202],[1492444800000,1.4342],[1492531200000,1.4343],[1492617600000,1.473],[1492704000000,1.4683],[1492963200000,1.4582],[1493049600000,1.452],[1493136000000,1.4495],[1493222400000,1.4514],[1493308800000,1.4335],[1493654400000,1.426],[1493740800000,1.4261],[1493827200000,1.4258],[1493913600000,1.4263],[1494172800000,1.4217],[1494259200000,1.4092],[1494345600000,1.4175],[1494432000000,1.4266],[1494518400000,1.4395],[1494777600000,1.4576],[1494864000000,1.4777],[1494950400000,1.4595],[1495036800000,1.4682],[1495123200000,1.4753],[1495382400000,1.4858],[1495468800000,1.4963],[1495555200000,1.4892],[1495641600000,1.4829],[1495728000000,1.4751],[1496160000000,1.4875],[1496246400000,1.501],[1496332800000,1.4878],[1496592000000,1.4681],[1496678400000,1.4783],[1496764800000,1.501],[1496851200000,1.5303],[1496937600000,1.5299],[1497196800000,1.5442],[1497283200000,1.5474],[1497369600000,1.5279],[1497456000000,1.5225],[1497542400000,1.5214],[1497801600000,1.5235],[1497888000000,1.5079],[1497974400000,1.5356],[1498060800000,1.5185],[1498147200000,1.5408],[1498406400000,1.5588],[1498492800000,1.5576],[1498579200000,1.5377],[1498665600000,1.5448],[1498752000000,1.5514],[1499011200000,1.5398],[1499097600000,1.5236],[1499184000000,1.5305],[1499270400000,1.5141],[1499356800000,1.5043],[1499616000000,1.4992],[1499702400000,1.499],[1499788800000,1.4779],[1499875200000,1.4831],[1499961600000,1.4829],[1500220800000,1.465],[1500307200000,1.4591],[1500393600000,1.4715],[1500480000000,1.4798],[1500566400000,1.4742],[1500825600000,1.4723],[1500912000000,1.4667],[1500998400000,1.4487],[1501084800000,1.4554],[1501171200000,1.4582],[1501430400000,1.4653],[1501516800000,1.4629],[1501603200000,1.4488],[1501689600000,1.4419],[1501776000000,1.4365],[1502035200000,1.4505],[1502121600000,1.4549],[1502208000000,1.4859],[1502294400000,1.4826],[1502380800000,1.4792],[1502640000000,1.4999],[1502726400000,1.4908],[1502812800000,1.484],[1502899200000,1.4846],[1502985600000,1.4826],[1503244800000,1.4936],[1503331200000,1.49],[1503417600000,1.4872],[1503504000000,1.4778],[1503590400000,1.483],[1503849600000,1.4847],[1503936000000,1.48],[1504022400000,1.4805],[1504108800000,1.4744],[1504195200000,1.4789],[1504454400000,1.4931],[1504540800000,1.5005],[1504627200000,1.4919],[1504713600000,1.4915],[1504800000000,1.4954],[1505059200000,1.4848],[1505145600000,1.4829],[1505232000000,1.4862],[1505318400000,1.484],[1505404800000,1.4901],[1505664000000,1.4951],[1505750400000,1.4879],[1505836800000,1.4902],[1505923200000,1.4855],[1506009600000,1.4871],[1506268800000,1.5044],[1506355200000,1.4996],[1506441600000,1.499],[1506528000000,1.5162],[1506614400000,1.5194],[1507478400000,1.5394],[1507564800000,1.5478],[1507651200000,1.5667],[1507737600000,1.5718],[1507824000000,1.5684],[1508083200000,1.5675],[1508169600000,1.5716],[1508256000000,1.604],[1508342400000,1.6292],[1508428800000,1.6194],[1508688000000,1.6367],[1508774400000,1.6463],[1508860800000,1.662],[1508947200000,1.6435],[1509033600000,1.6509],[1509292800000,1.65],[1509379200000,1.6441],[1509465600000,1.6431],[1509552000000,1.6504],[1509638400000,1.6657],[1509897600000,1.7223],[1509984000000,1.7019],[1510070400000,1.6756],[1510156800000,1.6818],[1510243200000,1.6908],[1510502400000,1.6786],[1510588800000,1.6511],[1510675200000,1.6605],[1510761600000,1.6882],[1510848000000,1.6728],[1511107200000,1.6819],[1511193600000,1.6902],[1511280000000,1.677],[1511366400000,1.6099],[1511452800000,1.6121],[1511712000000,1.5927],[1511798400000,1.605],[1511884800000,1.5814],[1511971200000,1.572],[1512057600000,1.5835],[1512316800000,1.5961],[1512403200000,1.5984],[1512489600000,1.5927],[1512576000000,1.5813],[1512662400000,1.5952],[1512921600000,1.6358],[1513008000000,1.6197],[1513094400000,1.6308],[1513180800000,1.6287],[1513267200000,1.6077],[1513526400000,1.6112],[1513612800000,1.6275],[1513699200000,1.6351],[1513785600000,1.6553],[1513872000000,1.6574],[1514131200000,1.6627],[1514217600000,1.6528],[1514304000000,1.6206],[1514390400000,1.6341],[1514476800000,1.6457],[1514649600000,1.6474],[1514822400000,1.6478],[1514908800000,1.6481],[1514995200000,1.6627],[1515081600000,1.6622],[1515340800000,1.6736],[1515427200000,1.7135],[1515513600000,1.7093],[1515600000000,1.7025],[1515686400000,1.7132],[1515945600000,1.7024],[1516032000000,1.7232],[1516118400000,1.7083],[1516204800000,1.6978],[1516291200000,1.6969],[1516550400000,1.7266],[1516636800000,1.7272],[1516723200000,1.7375],[1516809600000,1.7155],[1516896000000,1.7203],[1517155200000,1.67],[1517241600000,1.6696],[1517328000000,1.6755],[1517414400000,1.6532],[1517500800000,1.6558],[1517760000000,1.6338],[1517846400000,1.579],[1517932800000,1.5585],[1518019200000,1.5786],[1518105600000,1.5362],[1518364800000,1.5847],[1518451200000,1.5958],[1518537600000,1.6138],[1519228800000,1.6328],[1519315200000,1.6336],[1519574400000,1.6583],[1519660800000,1.6416],[1519747200000,1.6355],[1519833600000,1.6571],[1519920000000,1.6494],[1520179200000,1.6668],[1520265600000,1.7026],[1520352000000,1.689],[1520438400000,1.7373],[1520524800000,1.7553],[1520784000000,1.7652],[1520870400000,1.7381],[1520956800000,1.7352],[1521043200000,1.7568],[1521129600000,1.7509],[1521388800000,1.8045],[1521475200000,1.844],[1521561600000,1.8313],[1521648000000,1.8127],[1521734400000,1.7884],[1521993600000,1.8364],[1522080000000,1.8449],[1522166400000,1.8074],[1522252800000,1.7851],[1522339200000,1.8394],[1522598400000,1.8153],[1522684800000,1.8182],[1522771200000,1.8158],[1523203200000,1.8192],[1523289600000,1.8388],[1523376000000,1.8298],[1523462400000,1.8438],[1523548800000,1.7965],[1523808000000,1.8071],[1523894400000,1.7626],[1523980800000,1.7693],[1524067200000,1.7854],[1524153600000,1.7858],[1524412800000,1.7784],[1524499200000,1.8003],[1524585600000,1.8397],[1524672000000,1.8057],[1524758400000,1.84],[1525190400000,1.8491],[1525276800000,1.8531],[1525363200000,1.8741],[1525622400000,1.9209],[1525708800000,1.9182],[1525795200000,1.9232],[1525881600000,1.9813],[1525968000000,1.9386],[1526227200000,1.9555],[1526313600000,2.0073],[1526400000000,2.0292],[1526486400000,2.0048],[1526572800000,2.0247],[1526832000000,2.0184],[1526918400000,2.0637],[1527004800000,2.0605],[1527091200000,2.0651],[1527177600000,2.0992],[1527436800000,2.1456],[1527523200000,2.0385],[1527609600000,2.0271],[1527696000000,2.0904],[1527782400000,2.0132],[1528041600000,2.0167],[1528128000000,2.0834],[1528214400000,2.1029],[1528300800000,2.069],[1528387200000,2.0561],[1528646400000,2.0028],[1528732800000,2.0365],[1528819200000,1.9997],[1528905600000,1.9795],[1528992000000,1.9529],[1529337600000,1.9146],[1529424000000,1.9702],[1529510400000,1.9571],[1529596800000,1.9729],[1529856000000,1.9819],[1529942400000,1.9689],[1530028800000,1.9107],[1530115200000,1.8814],[1530201600000,1.9454],[1530288000000,1.9454],[1530460800000,1.9381],[1530547200000,1.9068],[1530633600000,1.8685],[1530720000000,1.8371],[1530806400000,1.8568],[1531065600000,1.9197],[1531152000000,1.9314],[1531238400000,1.9277],[1531324800000,1.9699],[1531411200000,2.0048],[1531670400000,2.0199],[1531756800000,1.9836],[1531843200000,1.9866],[1531929600000,1.9517],[1532016000000,1.9587],[1532275200000,1.8796],[1532361600000,1.8989],[1532448000000,1.925],[1532534400000,1.9032],[1532620800000,1.8852],[1532880000000,1.8328],[1532966400000,1.8375],[1533052800000,1.807],[1533139200000,1.8089],[1533225600000,1.75],[1533484800000,1.6807],[1533571200000,1.7192],[1533657600000,1.6815],[1533744000000,1.7454],[1533830400000,1.7871],[1534089600000,1.7931],[1534176000000,1.7913],[1534262400000,1.7238],[1534348800000,1.7177],[1534435200000,1.6634],[1534694400000,1.6314],[1534780800000,1.7018],[1534867200000,1.6906],[1534953600000,1.7038],[1535040000000,1.7071],[1535299200000,1.7724],[1535385600000,1.7679],[1535472000000,1.7586],[1535558400000,1.7362],[1535644800000,1.6969],[1535904000000,1.692],[1535990400000,1.7007],[1536076800000,1.6831],[1536163200000,1.66],[1536249600000,1.6908],[1536508800000,1.6598],[1536595200000,1.669],[1536681600000,1.6219],[1536768000000,1.5923],[1536854400000,1.5819],[1537113600000,1.5435],[1537200000000,1.5772],[1537286400000,1.6034],[1537372800000,1.597],[1537459200000,1.634],[1537804800000,1.6356],[1537891200000,1.6651],[1537977600000,1.6765],[1538064000000,1.6951],[1538928000000,1.6174],[1539014400000,1.6166],[1539100800000,1.5977],[1539187200000,1.5421],[1539273600000,1.5636],[1539532800000,1.5542],[1539619200000,1.5268],[1539705600000,1.5124],[1539792000000,1.4541],[1539878400000,1.4755],[1540137600000,1.5503],[1540224000000,1.5108],[1540310400000,1.483],[1540396800000,1.4614],[1540483200000,1.4483],[1540742400000,1.4103],[1540828800000,1.4341],[1540915200000,1.4783],[1541001600000,1.4931],[1541088000000,1.5706],[1541347200000,1.5542],[1541433600000,1.5589],[1541520000000,1.5506],[1541606400000,1.5528],[1541692800000,1.5412],[1541952000000,1.5598],[1542038400000,1.5758],[1542124800000,1.5603],[1542211200000,1.5649],[1542297600000,1.5404],[1542556800000,1.5573],[1542643200000,1.536],[1542729600000,1.56],[1542816000000,1.5576],[1542902400000,1.5274],[1543161600000,1.5223],[1543248000000,1.5259],[1543334400000,1.5326],[1543420800000,1.5244],[1543507200000,1.5442],[1543766400000,1.5927],[1543852800000,1.6068],[1543939200000,1.6194],[1544025600000,1.5449],[1544112000000,1.4831],[1544371200000,1.4597],[1544457600000,1.4755],[1544544000000,1.4592],[1544630400000,1.4745],[1544716800000,1.4323],[1544976000000,1.4078],[1545062400000,1.395],[1545148800000,1.3502],[1545235200000,1.3332],[1545321600000,1.3025],[1545580800000,1.3352],[1545667200000,1.3376],[1545753600000,1.3306],[1545840000000,1.3191],[1545926400000,1.329],[1546185600000,1.3289],[1546358400000,1.2792],[1546444800000,1.2436],[1546531200000,1.2823],[1546790400000,1.2856],[1546876800000,1.2904],[1546963200000,1.3078],[1547049600000,1.3022],[1547136000000,1.2983],[1547395200000,1.27],[1547481600000,1.3093],[1547568000000,1.3297],[1547654400000,1.3246],[1547740800000,1.362],[1548000000000,1.3671],[1548086400000,1.3398],[1548172800000,1.3417],[1548259200000,1.3491],[1548345600000,1.3471],[1548604800000,1.3227],[1548691200000,1.3347],[1548777600000,1.3247],[1548864000000,1.3278],[1548950400000,1.3725],[1549814400000,1.4029],[1549900800000,1.4417],[1549987200000,1.4623],[1550073600000,1.4659],[1550160000000,1.442],[1550419200000,1.4988],[1550505600000,1.4783],[1550592000000,1.4611],[1550678400000,1.4558],[1550764800000,1.4731],[1551024000000,1.5225],[1551110400000,1.539],[1551196800000,1.5288],[1551283200000,1.5645],[1551369600000,1.5729],[1551628800000,1.5894],[1551715200000,1.5999],[1551801600000,1.5968],[1551888000000,1.5806],[1551974400000,1.5543],[1552233600000,1.6001],[1552320000000,1.6014],[1552406400000,1.5964],[1552492800000,1.586],[1552579200000,1.609],[1552838400000,1.6781],[1552924800000,1.654],[1553011200000,1.6487],[1553097600000,1.6488],[1553184000000,1.6688],[1553443200000,1.6308],[1553529600000,1.6073],[1553616000000,1.6582],[1553702400000,1.6659],[1553788800000,1.7074],[1554048000000,1.7421],[1554134400000,1.7278],[1554220800000,1.7322],[1554307200000,1.7382],[1554652800000,1.72],[1554739200000,1.751],[1554825600000,1.775],[1554912000000,1.7231],[1554998400000,1.7152],[1555257600000,1.6945],[1555344000000,1.7249],[1555430400000,1.7239],[1555516800000,1.7134],[1555603200000,1.7209],[1555862400000,1.6968],[1555948800000,1.697],[1556035200000,1.7034],[1556121600000,1.6892],[1556208000000,1.6574],[1556467200000,1.6914],[1556553600000,1.6932],[1557072000000,1.6038],[1557158400000,1.6343],[1557244800000,1.6139],[1557331200000,1.5677],[1557417600000,1.6102],[1557676800000,1.605],[1557763200000,1.5899],[1557849600000,1.6335],[1557936000000,1.6427],[1558022400000,1.6011],[1558281600000,1.5712],[1558368000000,1.5958],[1558454400000,1.5915],[1558540800000,1.554],[1558627200000,1.5526],[1558886400000,1.5687],[1558972800000,1.5907],[1559059200000,1.5782],[1559145600000,1.5678],[1559232000000,1.574],[1559491200000,1.5751],[1559577600000,1.5489],[1559664000000,1.4914],[1559750400000,1.4756],[1560096000000,1.4896],[1560182400000,1.5327],[1560268800000,1.5275],[1560355200000,1.5342],[1560441600000,1.5335],[1560700800000,1.5396],[1560787200000,1.5484],[1560873600000,1.5718],[1560960000000,1.6011],[1561046400000,1.608],[1561305600000,1.6135],[1561392000000,1.6113],[1561478400000,1.6273],[1561564800000,1.6411],[1561651200000,1.6351],[1561824000000,1.635],[1561910400000,1.6852],[1561996800000,1.7071],[1562083200000,1.6798],[1562169600000,1.6477],[1562256000000,1.6762],[1562515200000,1.6438],[1562601600000,1.6392],[1562688000000,1.6479],[1562774400000,1.6433],[1562860800000,1.6509],[1563120000000,1.6565],[1563206400000,1.6431],[1563292800000,1.6444],[1563379200000,1.6255],[1563465600000,1.6241],[1563724800000,1.6158],[1563811200000,1.6267],[1563897600000,1.6395],[1563984000000,1.6485],[1564070400000,1.6564],[1564329600000,1.6444],[1564416000000,1.6537],[1564502400000,1.6435],[1564588800000,1.6296],[1564675200000,1.615],[1564934400000,1.5796],[1565020800000,1.5747],[1565107200000,1.5867],[1565193600000,1.6133],[1565280000000,1.6125],[1565539200000,1.6299],[1565625600000,1.6266]</t>
   </si>
   <si>
+    <t>159928</t>
+  </si>
+  <si>
     <t>汇添富中证主要消费ETF</t>
   </si>
   <si>
     <t xml:space="preserve"> [[1377187200000,0.9991],[1377792000000,1.0004],[1378396800000,1.0009],[1378656000000,1.0007],[1379001600000,1.0105],[1379260800000,1.0051],[1379347200000,0.9856],[1379433600000,0.9841],[1379865600000,1.0006],[1379952000000,1.0128],[1380038400000,1.0105],[1380124800000,1.0099],[1380211200000,1.0066],[1380470400000,1.0208],[1381161600000,1.0309],[1381248000000,1.0419],[1381334400000,1.039],[1381420800000,1.0526],[1381680000000,1.0751],[1381766400000,1.0843],[1381852800000,1.0645],[1381939200000,1.063],[1382025600000,1.0667],[1382284800000,1.1037],[1382371200000,1.0938],[1382457600000,1.0556],[1382544000000,1.0445],[1382630400000,1.0183],[1382889600000,1.0106],[1382976000000,0.9992],[1383062400000,1.0117],[1383148800000,0.9852],[1383235200000,0.9793],[1383494400000,0.9808],[1383580800000,0.9886],[1383667200000,0.9795],[1383753600000,0.9671],[1383840000000,0.9547],[1384099200000,0.9676],[1384185600000,0.9822],[1384272000000,0.9669],[1384358400000,0.9806],[1384444800000,0.998],[1384704000000,1.0207],[1384790400000,1.0076],[1384876800000,1.0093],[1384963200000,1.0015],[1385049600000,0.9978],[1385308800000,0.9965],[1385395200000,0.9962],[1385481600000,1.002],[1385568000000,1.0163],[1385654400000,1.0169],[1385913600000,0.9799],[1386000000000,1.0011],[1386086400000,1.0186],[1386172800000,1.0171],[1386259200000,1.0159],[1386518400000,1.0214],[1386604800000,1.0195],[1386691200000,1.0107],[1386777600000,1.0087],[1386864000000,1.0062],[1387123200000,0.9867],[1387209600000,0.9817],[1387296000000,0.9811],[1387382400000,0.9709],[1387468800000,0.9667],[1387728000000,0.9657],[1387814400000,0.9681],[1387900800000,0.9769],[1387987200000,0.9645],[1388073600000,0.9767],[1388332800000,0.979],[1388419200000,0.9924],[1388592000000,0.9852],[1388678400000,0.9752],[1388937600000,0.947],[1389024000000,0.9484],[1389110400000,0.9528],[1389196800000,0.9426],[1389283200000,0.9394],[1389542400000,0.9387],[1389628800000,0.9504],[1389715200000,0.9497],[1389801600000,0.9545],[1389888000000,0.933],[1390147200000,0.9278],[1390233600000,0.9301],[1390320000000,0.9557],[1390406400000,0.9545],[1390492800000,0.9587],[1390752000000,0.9507],[1390838400000,0.939],[1390924800000,0.9295],[1391011200000,0.9127],[1391702400000,0.925],[1391961600000,0.9472],[1392048000000,0.9528],[1392134400000,0.9585],[1392220800000,0.9509],[1392307200000,0.97],[1392566400000,0.9833],[1392652800000,0.9722],[1392739200000,0.9777],[1392825600000,0.974],[1392912000000,0.9657],[1393171200000,0.954],[1393257600000,0.9201],[1393344000000,0.9191],[1393430400000,0.9091],[1393516800000,0.9266],[1393776000000,0.9435],[1393862400000,0.9356],[1393948800000,0.9413],[1394035200000,0.9385],[1394121600000,0.9437],[1394380800000,0.9234],[1394467200000,0.9396],[1394553600000,0.9358],[1394640000000,0.9636],[1394726400000,0.9534],[1394985600000,0.9587],[1395072000000,0.9654],[1395158400000,0.9515],[1395244800000,0.9297],[1395331200000,0.9468],[1395590400000,0.9489],[1395676800000,0.9438],[1395763200000,0.9381],[1395849600000,0.9234],[1395936000000,0.9111],[1396195200000,0.9162],[1396281600000,0.9333],[1396368000000,0.9351],[1396454400000,0.9303],[1396540800000,0.9393],[1396886400000,0.9563],[1396972800000,0.9598],[1397059200000,0.9695],[1397145600000,0.9808],[1397404800000,0.9822],[1397491200000,0.9729],[1397577600000,0.9703],[1397664000000,0.9711],[1397750400000,0.9742],[1398009600000,0.956],[1398096000000,0.9555],[1398182400000,0.9609],[1398268800000,0.958],[1398355200000,0.9311],[1398614400000,0.9087],[1398700800000,0.9219],[1398787200000,0.9299],[1399219200000,0.9334],[1399305600000,0.9357],[1399392000000,0.9238],[1399478400000,0.921],[1399564800000,0.916],[1399824000000,0.9305],[1399910400000,0.9333],[1399996800000,0.9253],[1400083200000,0.9126],[1400169600000,0.9115],[1400428800000,0.9005],[1400515200000,0.8955],[1400601600000,0.9085],[1400688000000,0.9034],[1400774400000,0.9105],[1401033600000,0.9171],[1401120000000,0.9128],[1401206400000,0.9161],[1401292800000,0.9108],[1401379200000,0.9122],[1401724800000,0.9001],[1401811200000,0.8939],[1401897600000,0.9038],[1401984000000,0.8974],[1402243200000,0.8959],[1402329600000,0.9026],[1402416000000,0.9067],[1402502400000,0.907],[1402588800000,0.9111],[1402848000000,0.9137],[1402934400000,0.9045],[1403020800000,0.8985],[1403107200000,0.8854],[1403193600000,0.8887],[1403452800000,0.8931],[1403539200000,0.9055],[1403625600000,0.9022],[1403712000000,0.9095],[1403798400000,0.9128],[1404057600000,0.9183],[1404144000000,0.9186],[1404230400000,0.9188],[1404316800000,0.9244],[1404403200000,0.9243],[1404662400000,0.9225],[1404748800000,0.9252],[1404835200000,0.9096],[1404921600000,0.9049],[1405008000000,0.9081],[1405267200000,0.9293],[1405353600000,0.9472],[1405440000000,0.9433],[1405526400000,0.9336],[1405612800000,0.9493],[1405872000000,0.9519],[1405958400000,0.9624],[1406044800000,0.9599],[1406131200000,0.9647],[1406217600000,0.9711],[1406476800000,0.9904],[1406563200000,0.988],[1406649600000,0.9875],[1406736000000,1.0043],[1406822400000,1.0087],[1407081600000,1.0233],[1407168000000,1.0231],[1407254400000,1.0188],[1407340800000,1.001],[1407427200000,1.0061],[1407686400000,1.0215],[1407772800000,1.0228],[1407859200000,1.0242],[1407945600000,1.014],[1408032000000,1.0243],[1408291200000,1.0283],[1408377600000,1.0295],[1408464000000,1.033],[1408550400000,1.0266],[1408636800000,1.0282],[1408896000000,1.0208],[1408982400000,1.0104],[1409068800000,1.0088],[1409155200000,1.0051],[1409241600000,1.0169],[1409500800000,1.0241],[1409587200000,1.0375],[1409673600000,1.0451],[1409760000000,1.0483],[1409846400000,1.0574],[1410192000000,1.0578],[1410278400000,1.058],[1410364800000,1.0486],[1410451200000,1.0514],[1410710400000,1.0531],[1410796800000,1.0265],[1410883200000,1.0342],[1410969600000,1.0422],[1411056000000,1.05],[1411315200000,1.0312],[1411401600000,1.0404],[1411488000000,1.0545],[1411574400000,1.051],[1411660800000,1.0556],[1411920000000,1.0615],[1412006400000,1.0644],[1412697600000,1.0795],[1412784000000,1.0801],[1412870400000,1.0686],[1413129600000,1.0543],[1413216000000,1.0509],[1413302400000,1.0557],[1413388800000,1.0438],[1413475200000,1.0466],[1413734400000,1.0521],[1413820800000,1.0444],[1413907200000,1.0315],[1413993600000,1.0165],[1414080000000,1.0166],[1414339200000,1.0177],[1414425600000,1.0267],[1414512000000,1.0328],[1414598400000,1.0322],[1414684800000,1.0336],[1414944000000,1.0329],[1415030400000,1.0183],[1415116800000,1.0125],[1415203200000,1.0158],[1415289600000,1.0074],[1415548800000,1.0327],[1415635200000,1.0244],[1415721600000,1.0373],[1415808000000,1.0359],[1415894400000,1.0477],[1416153600000,1.0488],[1416240000000,1.0399],[1416326400000,1.0378],[1416412800000,1.0308],[1416499200000,1.0394],[1416758400000,1.0465],[1416844800000,1.0592],[1416931200000,1.0649],[1417017600000,1.0673],[1417104000000,1.0658],[1417363200000,1.0861],[1417449600000,1.0954],[1417536000000,1.1157],[1417622400000,1.1406],[1417708800000,1.1111],[1417968000000,1.1224],[1418054400000,1.1022],[1418140800000,1.1456],[1418227200000,1.1445],[1418313600000,1.1502],[1418572800000,1.1649],[1418659200000,1.1523],[1418745600000,1.1323],[1418832000000,1.1372],[1418918400000,1.134],[1419177600000,1.1414],[1419264000000,1.1375],[1419350400000,1.1341],[1419436800000,1.144],[1419523200000,1.1513],[1419782400000,1.15],[1419868800000,1.1394],[1419955200000,1.1506],[1420387200000,1.1984],[1420473600000,1.2074],[1420560000000,1.1958],[1420646400000,1.1952],[1420732800000,1.1812],[1420992000000,1.1718],[1421078400000,1.1729],[1421164800000,1.1577],[1421251200000,1.1685],[1421337600000,1.1787],[1421596800000,1.123],[1421683200000,1.1512],[1421769600000,1.1799],[1421856000000,1.1847],[1421942400000,1.1751],[1422201600000,1.1976],[1422288000000,1.1961],[1422374400000,1.184],[1422460800000,1.1707],[1422547200000,1.1687],[1422806400000,1.1536],[1422892800000,1.1655],[1422979200000,1.1565],[1423065600000,1.1444],[1423152000000,1.1309],[1423411200000,1.1436],[1423497600000,1.1529],[1423584000000,1.166],[1423670400000,1.1757],[1423756800000,1.1862],[1424016000000,1.1972],[1424102400000,1.1963],[1424793600000,1.1917],[1424880000000,1.2074],[1424966400000,1.2154],[1425225600000,1.224],[1425312000000,1.2064],[1425398400000,1.2335],[1425484800000,1.2379],[1425571200000,1.2305],[1425830400000,1.2566],[1425916800000,1.2622],[1426003200000,1.2582],[1426089600000,1.2589],[1426176000000,1.2693],[1426435200000,1.3032],[1426521600000,1.3174],[1426608000000,1.3398],[1426694400000,1.3326],[1426780800000,1.3372],[1427040000000,1.362],[1427126400000,1.3625],[1427212800000,1.3748],[1427299200000,1.3893],[1427385600000,1.3887],[1427644800000,1.4023],[1427731200000,1.395],[1427817600000,1.4162],[1427904000000,1.4311],[1427990400000,1.4454],[1428336000000,1.4838],[1428422400000,1.4838],[1428508800000,1.468],[1428595200000,1.515],[1428854400000,1.5355],[1428940800000,1.538],[1429027200000,1.4872],[1429113600000,1.5477],[1429200000000,1.5534],[1429459200000,1.5328],[1429545600000,1.6073],[1429632000000,1.6364],[1429718400000,1.6308],[1429804800000,1.6236],[1430064000000,1.633],[1430150400000,1.5755],[1430236800000,1.6016],[1430323200000,1.5934],[1430668800000,1.6087],[1430755200000,1.549],[1430841600000,1.5278],[1430928000000,1.5139],[1431014400000,1.5532],[1431273600000,1.5946],[1431360000000,1.6215],[1431446400000,1.6416],[1431532800000,1.6302],[1431619200000,1.6078],[1431878400000,1.6074],[1431964800000,1.6471],[1432051200000,1.6591],[1432137600000,1.7201],[1432224000000,1.7581],[1432483200000,1.8197],[1432569600000,1.8557],[1432656000000,1.8689],[1432742400000,1.75],[1432828800000,1.7447],[1433088000000,1.8303],[1433174400000,1.8798],[1433260800000,1.861],[1433347200000,1.8382],[1433433600000,1.867],[1433692800000,1.8928],[1433779200000,1.8822],[1433865600000,1.9151],[1433952000000,1.9338],[1434038400000,1.9679],[1434297600000,1.9354],[1434384000000,1.8829],[1434470400000,1.9045],[1434556800000,1.8306],[1434643200000,1.7008],[1434988800000,1.7644],[1435075200000,1.8191],[1435161600000,1.7629],[1435248000000,1.6235],[1435507200000,1.5714],[1435593600000,1.6568],[1435680000000,1.585],[1435766400000,1.5],[1435852800000,1.4169],[1436112000000,1.4411],[1436198400000,1.3651],[1436284800000,1.2886],[1436371200000,1.3789],[1436457600000,1.476],[1436716800000,1.5428],[1436803200000,1.5168],[1436889600000,1.4458],[1436976000000,1.4769],[1437062400000,1.5461],[1437321600000,1.55],[1437408000000,1.5641],[1437494400000,1.5779],[1437580800000,1.6103],[1437667200000,1.5784],[1437926400000,1.4518],[1438012800000,1.4665],[1438099200000,1.5182],[1438185600000,1.4781],[1438272000000,1.4776],[1438531200000,1.4767],[1438617600000,1.5285],[1438704000000,1.5033],[1438790400000,1.4852],[1438876800000,1.512],[1439136000000,1.5739],[1439222400000,1.5736],[1439308800000,1.5651],[1439395200000,1.5815],[1439481600000,1.5933],[1439740800000,1.6166],[1439827200000,1.5138],[1439913600000,1.5397],[1440000000000,1.4919],[1440086400000,1.4296],[1440345600000,1.3125],[1440432000000,1.2449],[1440518400000,1.2515],[1440604800000,1.3119],[1440691200000,1.358],[1440950400000,1.334],[1441036800000,1.304],[1441123200000,1.3001],[1441555200000,1.2682],[1441641600000,1.29],[1441728000000,1.3085],[1441814400000,1.2885],[1441900800000,1.2809],[1442160000000,1.2468],[1442246400000,1.2011],[1442332800000,1.2676],[1442419200000,1.2288],[1442505600000,1.2372],[1442764800000,1.2642],[1442851200000,1.2725],[1442937600000,1.252],[1443024000000,1.2588],[1443110400000,1.2361],[1443369600000,1.2431],[1443456000000,1.2294],[1443542400000,1.2308],[1444233600000,1.2739],[1444320000000,1.2813],[1444579200000,1.3164],[1444665600000,1.3245],[1444752000000,1.3085],[1444838400000,1.3416],[1444924800000,1.3597],[1445184000000,1.3543],[1445270400000,1.3628],[1445356800000,1.3045],[1445443200000,1.3415],[1445529600000,1.3683],[1445788800000,1.3763],[1445875200000,1.3707],[1445961600000,1.3471],[1446048000000,1.3609],[1446134400000,1.3623],[1446393600000,1.3433],[1446480000000,1.3415],[1446566400000,1.3941],[1446652800000,1.3983],[1446739200000,1.4136],[1446998400000,1.4323],[1447084800000,1.4248],[1447171200000,1.4289],[1447257600000,1.4233],[1447344000000,1.3926],[1447603200000,1.4007],[1447689600000,1.4016],[1447776000000,1.3952],[1447862400000,1.4087],[1447948800000,1.4071],[1448208000000,1.4008],[1448294400000,1.4017],[1448380800000,1.4206],[1448467200000,1.4174],[1448553600000,1.3538],[1448812800000,1.3546],[1448899200000,1.3654],[1448985600000,1.3922],[1449072000000,1.3994],[1449158400000,1.3916],[1449417600000,1.3988],[1449504000000,1.3634],[1449590400000,1.3658],[1449676800000,1.3607],[1449763200000,1.3484],[1450022400000,1.3689],[1450108800000,1.3739],[1450195200000,1.3685],[1450281600000,1.3938],[1450368000000,1.4141],[1450627200000,1.4776],[1450713600000,1.485],[1450800000000,1.472],[1450886400000,1.4609],[1450972800000,1.4596],[1451232000000,1.4233],[1451318400000,1.4389],[1451404800000,1.4421],[1451491200000,1.4334],[1451836800000,1.3339],[1451923200000,1.3496],[1452009600000,1.3697],[1452096000000,1.2768],[1452182400000,1.3049],[1452441600000,1.2399],[1452528000000,1.239],[1452614400000,1.2157],[1452700800000,1.2417],[1452787200000,1.2044],[1453046400000,1.2098],[1453132800000,1.2498],[1453219200000,1.2244],[1453305600000,1.1955],[1453392000000,1.2048],[1453651200000,1.2173],[1453737600000,1.1547],[1453824000000,1.1513],[1453910400000,1.1254],[1453996800000,1.1597],[1454256000000,1.1529],[1454342400000,1.1776],[1454428800000,1.1744],[1454515200000,1.187],[1454601600000,1.1801],[1455465600000,1.1701],[1455552000000,1.2063],[1455638400000,1.2134],[1455724800000,1.2071],[1455811200000,1.2107],[1456070400000,1.2329],[1456156800000,1.2327],[1456243200000,1.2414],[1456329600000,1.1645],[1456416000000,1.1811],[1456675200000,1.1515],[1456761600000,1.1718],[1456848000000,1.2112],[1456934400000,1.222],[1457020800000,1.2367],[1457280000000,1.2434],[1457366400000,1.2338],[1457452800000,1.2144],[1457539200000,1.2156],[1457625600000,1.2105],[1457884800000,1.2242],[1457971200000,1.2332],[1458057600000,1.2218],[1458144000000,1.2377],[1458230400000,1.2563],[1458489600000,1.2796],[1458576000000,1.2815],[1458662400000,1.2845],[1458748800000,1.2804],[1458835200000,1.2923],[1459094400000,1.3046],[1459180800000,1.2833],[1459267200000,1.3109],[1459353600000,1.3122],[1459440000000,1.3018],[1459785600000,1.3196],[1459872000000,1.3311],[1459958400000,1.3071],[1460044800000,1.2914],[1460304000000,1.3047],[1460390400000,1.2956],[1460476800000,1.3042],[1460563200000,1.3146],[1460649600000,1.313],[1460908800000,1.2972],[1460995200000,1.2982],[1461081600000,1.2621],[1461168000000,1.2594],[1461254400000,1.2737],[1461513600000,1.2714],[1461600000000,1.2813],[1461686400000,1.2837],[1461772800000,1.2816],[1461859200000,1.2993],[1462204800000,1.351],[1462291200000,1.3445],[1462377600000,1.3506],[1462464000000,1.3092],[1462723200000,1.2954],[1462809600000,1.3127],[1462896000000,1.3458],[1462982400000,1.3381],[1463068800000,1.3272],[1463328000000,1.3486],[1463414400000,1.333],[1463500800000,1.3091],[1463587200000,1.3054],[1463673600000,1.3156],[1463932800000,1.328],[1464019200000,1.3129],[1464105600000,1.301],[1464192000000,1.2975],[1464278400000,1.2961],[1464537600000,1.2928],[1464624000000,1.3357],[1464710400000,1.3385],[1464796800000,1.3457],[1464883200000,1.3809],[1465142400000,1.3725],[1465228800000,1.3778],[1465315200000,1.3616],[1465747200000,1.3265],[1465833600000,1.3446],[1465920000000,1.3699],[1466006400000,1.3616],[1466092800000,1.3823],[1466352000000,1.3772],[1466438400000,1.3626],[1466524800000,1.3742],[1466611200000,1.3633],[1466697600000,1.3441],[1466956800000,1.3788],[1467043200000,1.3838],[1467129600000,1.3824],[1467216000000,1.3906],[1467302400000,1.3909],[1467561600000,1.4092],[1467648000000,1.4158],[1467734400000,1.4615],[1467820800000,1.4654],[1467907200000,1.457],[1468166400000,1.48],[1468252800000,1.5171],[1468339200000,1.5039],[1468425600000,1.5017],[1468512000000,1.5024],[1468771200000,1.4942],[1468857600000,1.4724],[1468944000000,1.4731],[1469030400000,1.4821],[1469116800000,1.4561],[1469376000000,1.4633],[1469462400000,1.4946],[1469548800000,1.461],[1469635200000,1.4805],[1469721600000,1.4778],[1469980800000,1.4506],[1470067200000,1.4515],[1470153600000,1.4573],[1470240000000,1.4555],[1470326400000,1.4538],[1470585600000,1.4642],[1470672000000,1.4806],[1470758400000,1.4674],[1470844800000,1.462],[1470931200000,1.4721],[1471190400000,1.4968],[1471276800000,1.4908],[1471363200000,1.4916],[1471449600000,1.4806],[1471536000000,1.4768],[1471795200000,1.4764],[1471881600000,1.4771],[1471968000000,1.4717],[1472054400000,1.4629],[1472140800000,1.4621],[1472400000000,1.4559],[1472486400000,1.4553],[1472572800000,1.4603],[1472659200000,1.449],[1472745600000,1.4426],[1473004800000,1.4463],[1473091200000,1.4605],[1473177600000,1.4519],[1473264000000,1.4504],[1473350400000,1.4402],[1473609600000,1.4044],[1473696000000,1.4073],[1473782400000,1.4044],[1474214400000,1.4152],[1474300800000,1.4144],[1474387200000,1.4129],[1474473600000,1.424],[1474560000000,1.4221],[1474819200000,1.3921],[1474905600000,1.3998],[1474992000000,1.3958],[1475078400000,1.4017],[1475164800000,1.4139],[1476028800000,1.4364],[1476115200000,1.4412],[1476201600000,1.4383],[1476288000000,1.4351],[1476374400000,1.4379],[1476633600000,1.4294],[1476720000000,1.4489],[1476806400000,1.447],[1476892800000,1.4432],[1476979200000,1.4377],[1477238400000,1.4558],[1477324800000,1.4687],[1477411200000,1.4859],[1477497600000,1.4793],[1477584000000,1.4733],[1477843200000,1.4749],[1477929600000,1.4856],[1478016000000,1.474],[1478102400000,1.4773],[1478188800000,1.4716],[1478448000000,1.4699],[1478534400000,1.4809],[1478620800000,1.4687],[1478707200000,1.4833],[1478793600000,1.4817],[1479052800000,1.4736],[1479139200000,1.4856],[1479225600000,1.4806],[1479312000000,1.479],[1479398400000,1.4725],[1479657600000,1.4684],[1479744000000,1.4702],[1479830400000,1.4761],[1479916800000,1.4916],[1480003200000,1.4938],[1480262400000,1.4928],[1480348800000,1.5194],[1480435200000,1.502],[1480521600000,1.5091],[1480608000000,1.4889],[1480867200000,1.4707],[1480953600000,1.481],[1481040000000,1.4976],[1481126400000,1.5012],[1481212800000,1.5001],[1481472000000,1.4599],[1481558400000,1.4832],[1481644800000,1.4713],[1481731200000,1.4645],[1481817600000,1.469],[1482076800000,1.4757],[1482163200000,1.4634],[1482249600000,1.4717],[1482336000000,1.4664],[1482422400000,1.4475],[1482681600000,1.4555],[1482768000000,1.4541],[1482854400000,1.4452],[1482940800000,1.4486],[1483027200000,1.4644],[1483113600000,1.4644],[1483372800000,1.4728],[1483459200000,1.5036],[1483545600000,1.4994],[1483632000000,1.497],[1483891200000,1.4968],[1483977600000,1.4972],[1484064000000,1.4804],[1484150400000,1.4698],[1484236800000,1.4586],[1484496000000,1.4491],[1484582400000,1.4654],[1484668800000,1.4803],[1484755200000,1.4752],[1484841600000,1.4852],[1485100800000,1.4888],[1485187200000,1.4896],[1485273600000,1.489],[1485360000000,1.4862],[1486051200000,1.481],[1486310400000,1.4871],[1486396800000,1.4838],[1486483200000,1.4903],[1486569600000,1.5001],[1486656000000,1.5051],[1486915200000,1.5306],[1487001600000,1.5292],[1487088000000,1.5178],[1487174400000,1.5216],[1487260800000,1.5243],[1487520000000,1.5645],[1487606400000,1.5708],[1487692800000,1.5889],[1487779200000,1.5746],[1487865600000,1.5736],[1488124800000,1.5513],[1488211200000,1.5499],[1488297600000,1.5563],[1488384000000,1.5518],[1488470400000,1.5514],[1488729600000,1.5597],[1488816000000,1.5817],[1488902400000,1.5758],[1488988800000,1.567],[1489075200000,1.5691],[1489334400000,1.5863],[1489420800000,1.5783],[1489507200000,1.5825],[1489593600000,1.5809],[1489680000000,1.577],[1489939200000,1.5918],[1490025600000,1.6266],[1490112000000,1.6309],[1490198400000,1.6267],[1490284800000,1.6298],[1490544000000,1.61],[1490630400000,1.6056],[1490716800000,1.6095],[1490803200000,1.5995],[1490889600000,1.6053],[1491321600000,1.6216],[1491408000000,1.6202],[1491494400000,1.6163],[1491753600000,1.5994],[1491840000000,1.5961],[1491926400000,1.6059],[1492012800000,1.6214],[1492099200000,1.6042],[1492358400000,1.6093],[1492444800000,1.6268],[1492531200000,1.6194],[1492617600000,1.6537],[1492704000000,1.6367],[1492963200000,1.6119],[1493049600000,1.6477],[1493136000000,1.6447],[1493222400000,1.6483],[1493308800000,1.6152],[1493654400000,1.6067],[1493740800000,1.6096],[1493827200000,1.6066],[1493913600000,1.5994],[1494172800000,1.5728],[1494259200000,1.5777],[1494345600000,1.5668],[1494432000000,1.5767],[1494518400000,1.5832],[1494777600000,1.6015],[1494864000000,1.6367],[1494950400000,1.6221],[1495036800000,1.6231],[1495123200000,1.642],[1495382400000,1.6439],[1495468800000,1.6616],[1495555200000,1.6477],[1495641600000,1.6575],[1495728000000,1.6577],[1496160000000,1.6528],[1496246400000,1.6533],[1496332800000,1.6458],[1496592000000,1.6377],[1496678400000,1.6582],[1496764800000,1.6928],[1496851200000,1.7203],[1496937600000,1.7299],[1497196800000,1.7489],[1497283200000,1.7499],[1497369600000,1.7343],[1497456000000,1.7144],[1497542400000,1.7074],[1497801600000,1.7267],[1497888000000,1.7164],[1497974400000,1.7571],[1498060800000,1.7465],[1498147200000,1.7583],[1498406400000,1.7915],[1498492800000,1.7982],[1498579200000,1.7739],[1498665600000,1.7849],[1498752000000,1.793],[1499011200000,1.7736],[1499097600000,1.7467],[1499184000000,1.7646],[1499270400000,1.755],[1499356800000,1.7377],[1499616000000,1.7518],[1499702400000,1.7664],[1499788800000,1.7491],[1499875200000,1.7454],[1499961600000,1.7518],[1500220800000,1.7105],[1500307200000,1.7175],[1500393600000,1.7402],[1500480000000,1.7612],[1500566400000,1.7734],[1500825600000,1.7961],[1500912000000,1.788],[1500998400000,1.7609],[1501084800000,1.7664],[1501171200000,1.7999],[1501430400000,1.81],[1501516800000,1.8144],[1501603200000,1.8061],[1501689600000,1.7944],[1501776000000,1.7763],[1502035200000,1.8181],[1502121600000,1.8311],[1502208000000,1.8763],[1502294400000,1.8751],[1502380800000,1.835],[1502640000000,1.8697],[1502726400000,1.8732],[1502812800000,1.8643],[1502899200000,1.8568],[1502985600000,1.8579],[1503244800000,1.8625],[1503331200000,1.8508],[1503417600000,1.8561],[1503504000000,1.8391],[1503590400000,1.8521],[1503849600000,1.8626],[1503936000000,1.8622],[1504022400000,1.8727],[1504108800000,1.8741],[1504195200000,1.8794],[1504454400000,1.8691],[1504540800000,1.8779],[1504627200000,1.8668],[1504713600000,1.8477],[1504800000000,1.8367],[1505059200000,1.8427],[1505145600000,1.8557],[1505232000000,1.8829],[1505318400000,1.8829],[1505404800000,1.8949],[1505664000000,1.9255],[1505750400000,1.9216],[1505836800000,1.9393],[1505923200000,1.9362],[1506009600000,1.9381],[1506268800000,1.9583],[1506355200000,1.9561],[1506441600000,1.9519],[1506528000000,1.984],[1506614400000,2.0],[1507478400000,2.0233],[1507564800000,2.0448],[1507651200000,2.0887],[1507737600000,2.0821],[1507824000000,2.0858],[1508083200000,2.0701],[1508169600000,2.0731],[1508256000000,2.1099],[1508342400000,2.148],[1508428800000,2.1265],[1508688000000,2.1386],[1508774400000,2.1446],[1508860800000,2.1444],[1508947200000,2.1798],[1509033600000,2.2309],[1509292800000,2.1993],[1509379200000,2.186],[1509465600000,2.1771],[1509552000000,2.1888],[1509638400000,2.2049],[1509897600000,2.2665],[1509984000000,2.2595],[1510070400000,2.2429],[1510156800000,2.2519],[1510243200000,2.315],[1510502400000,2.3085],[1510588800000,2.2583],[1510675200000,2.2796],[1510761600000,2.3435],[1510848000000,2.307],[1511107200000,2.2953],[1511193600000,2.3415],[1511280000000,2.2909],[1511366400000,2.2001],[1511452800000,2.1952],[1511712000000,2.1618],[1511798400000,2.189],[1511884800000,2.1425],[1511971200000,2.1199],[1512057600000,2.1206],[1512316800000,2.1682],[1512403200000,2.1616],[1512489600000,2.1501],[1512576000000,2.1137],[1512662400000,2.1577],[1512921600000,2.2306],[1513008000000,2.2209],[1513094400000,2.275],[1513180800000,2.2789],[1513267200000,2.2538],[1513526400000,2.2837],[1513612800000,2.3049],[1513699200000,2.3625],[1513785600000,2.3674],[1513872000000,2.3577],[1514131200000,2.3627],[1514217600000,2.3363],[1514304000000,2.2889],[1514390400000,2.3513],[1514476800000,2.3361],[1514649600000,2.336],[1514822400000,2.3457],[1514908800000,2.3666],[1514995200000,2.415],[1515081600000,2.4213],[1515340800000,2.4369],[1515427200000,2.4993],[1515513600000,2.5287],[1515600000000,2.5038],[1515686400000,2.5359],[1515945600000,2.5211],[1516032000000,2.5449],[1516118400000,2.4912],[1516204800000,2.4961],[1516291200000,2.4679],[1516550400000,2.5529],[1516636800000,2.5585],[1516723200000,2.5266],[1516809600000,2.506],[1516896000000,2.5211],[1517155200000,2.4349],[1517241600000,2.4278],[1517328000000,2.4649],[1517414400000,2.4199],[1517500800000,2.4133],[1517760000000,2.338],[1517846400000,2.2784],[1517932800000,2.2048],[1518019200000,2.2365],[1518105600000,2.1895],[1518364800000,2.2502],[1518451200000,2.2698],[1518537600000,2.2922],[1519228800000,2.3742],[1519315200000,2.3679],[1519574400000,2.3715],[1519660800000,2.3328],[1519747200000,2.2833],[1519833600000,2.3048],[1519920000000,2.2904],[1520179200000,2.2629],[1520265600000,2.2744],[1520352000000,2.2507],[1520438400000,2.2939],[1520524800000,2.3077],[1520784000000,2.3036],[1520870400000,2.2794],[1520956800000,2.2937],[1521043200000,2.3333],[1521129600000,2.3027],[1521388800000,2.3095],[1521475200000,2.2953],[1521561600000,2.2867],[1521648000000,2.2356],[1521734400000,2.1997],[1521993600000,2.1789],[1522080000000,2.1937],[1522166400000,2.1074],[1522252800000,2.1623],[1522339200000,2.1623],[1522598400000,2.1593],[1522684800000,2.1697],[1522771200000,2.2327],[1523203200000,2.2091],[1523289600000,2.2234],[1523376000000,2.2337],[1523462400000,2.2111],[1523548800000,2.1877],[1523808000000,2.1862],[1523894400000,2.1493],[1523980800000,2.1438],[1524067200000,2.199],[1524153600000,2.1727],[1524412800000,2.1701],[1524499200000,2.2272],[1524585600000,2.2317],[1524672000000,2.182],[1524758400000,2.1444],[1525190400000,2.1598],[1525276800000,2.1894],[1525363200000,2.1866],[1525622400000,2.2752],[1525708800000,2.2942],[1525795200000,2.2902],[1525881600000,2.3153],[1525968000000,2.2987],[1526227200000,2.3431],[1526313600000,2.3575],[1526400000000,2.3626],[1526486400000,2.3283],[1526572800000,2.3448],[1526832000000,2.3344],[1526918400000,2.353],[1527004800000,2.3067],[1527091200000,2.2815],[1527177600000,2.2954],[1527436800000,2.363],[1527523200000,2.3485],[1527609600000,2.3565],[1527696000000,2.4439],[1527782400000,2.3996],[1528041600000,2.4494],[1528128000000,2.4713],[1528214400000,2.4623],[1528300800000,2.4399],[1528387200000,2.4132],[1528646400000,2.3968],[1528732800000,2.483],[1528819200000,2.4514],[1528905600000,2.4174],[1528992000000,2.4],[1529337600000,2.3028],[1529424000000,2.3611],[1529510400000,2.3362],[1529596800000,2.346],[1529856000000,2.3525],[1529942400000,2.3336],[1530028800000,2.2405],[1530115200000,2.1903],[1530201600000,2.2549],[1530288000000,2.2548],[1530460800000,2.2157],[1530547200000,2.1713],[1530633600000,2.1503],[1530720000000,2.1388],[1530806400000,2.17],[1531065600000,2.2351],[1531152000000,2.2342],[1531238400000,2.2058],[1531324800000,2.261],[1531411200000,2.3036],[1531670400000,2.304],[1531756800000,2.2749],[1531843200000,2.255],[1531929600000,2.2408],[1532016000000,2.2504],[1532275200000,2.2311],[1532361600000,2.2851],[1532448000000,2.2754],[1532534400000,2.2474],[1532620800000,2.2597],[1532880000000,2.2206],[1532966400000,2.2215],[1533052800000,2.178],[1533139200000,2.1228],[1533225600000,2.0788],[1533484800000,2.0327],[1533571200000,2.0865],[1533657600000,2.0424],[1533744000000,2.1014],[1533830400000,2.1085],[1534089600000,2.0859],[1534176000000,2.0867],[1534262400000,2.0272],[1534348800000,1.9824],[1534435200000,1.948],[1534694400000,1.9657],[1534780800000,2.0368],[1534867200000,2.0194],[1534953600000,2.0311],[1535040000000,2.009],[1535299200000,2.0803],[1535385600000,2.0665],[1535472000000,2.0586],[1535558400000,2.041],[1535644800000,1.9951],[1535904000000,1.9908],[1535990400000,2.0099],[1536076800000,1.9734],[1536163200000,1.9286],[1536249600000,1.9474],[1536508800000,1.9294],[1536595200000,1.9368],[1536681600000,1.9032],[1536768000000,1.912],[1536854400000,1.9346],[1537113600000,1.9302],[1537200000000,1.9731],[1537286400000,2.0146],[1537372800000,2.0154],[1537459200000,2.0857],[1537804800000,2.07],[1537891200000,2.1273],[1537977600000,2.1253],[1538064000000,2.1465],[1538928000000,2.0381],[1539014400000,2.0512],[1539100800000,2.0073],[1539187200000,1.9312],[1539273600000,1.9824],[1539532800000,1.9469],[1539619200000,1.9372],[1539705600000,1.9209],[1539792000000,1.8795],[1539878400000,1.9485],[1540137600000,2.0397],[1540224000000,1.9322],[1540310400000,1.8793],[1540396800000,1.8451],[1540483200000,1.7994],[1540742400000,1.6641],[1540828800000,1.6535],[1540915200000,1.7078],[1541001600000,1.7356],[1541088000000,1.8312],[1541347200000,1.7952],[1541433600000,1.7809],[1541520000000,1.7845],[1541606400000,1.7864],[1541692800000,1.7759],[1541952000000,1.7837],[1542038400000,1.8257],[1542124800000,1.7951],[1542211200000,1.8077],[1542297600000,1.8135],[1542556800000,1.8309],[1542643200000,1.7931],[1542729600000,1.8133],[1542816000000,1.8096],[1542902400000,1.7718],[1543161600000,1.7626],[1543248000000,1.7584],[1543334400000,1.7887],[1543420800000,1.7836],[1543507200000,1.82],[1543766400000,1.8917],[1543852800000,1.895],[1543939200000,1.9044],[1544025600000,1.8529],[1544112000000,1.8543],[1544371200000,1.8338],[1544457600000,1.8483],[1544544000000,1.8629],[1544630400000,1.8961],[1544716800000,1.8644],[1544976000000,1.8485],[1545062400000,1.837],[1545148800000,1.8029],[1545235200000,1.8014],[1545321600000,1.7802],[1545580800000,1.8008],[1545667200000,1.7991],[1545753600000,1.787],[1545840000000,1.7848],[1545926400000,1.8174],[1546185600000,1.8173],[1546358400000,1.7998],[1546444800000,1.7642],[1546531200000,1.7918],[1546790400000,1.8113],[1546876800000,1.8033],[1546963200000,1.8257],[1547049600000,1.8231],[1547136000000,1.8497],[1547395200000,1.828],[1547481600000,1.9082],[1547568000000,1.9026],[1547654400000,1.8985],[1547740800000,1.9417],[1548000000000,1.9661],[1548086400000,1.9381],[1548172800000,1.9396],[1548259200000,1.9536],[1548345600000,1.9567],[1548604800000,1.9651],[1548691200000,1.9772],[1548777600000,1.9487],[1548864000000,1.9659],[1548950400000,1.9993],[1549814400000,2.0795],[1549900800000,2.0827],[1549987200000,2.1082],[1550073600000,2.1399],[1550160000000,2.1133],[1550419200000,2.1817],[1550505600000,2.163],[1550592000000,2.1571],[1550678400000,2.1551],[1550764800000,2.1732],[1551024000000,2.2417],[1551110400000,2.2145],[1551196800000,2.2228],[1551283200000,2.2429],[1551369600000,2.3149],[1551628800000,2.3496],[1551715200000,2.3574],[1551801600000,2.3405],[1551888000000,2.2888],[1551974400000,2.2482],[1552233600000,2.3175],[1552320000000,2.3261],[1552406400000,2.2958],[1552492800000,2.2969],[1552579200000,2.338],[1552838400000,2.4777],[1552924800000,2.4493],[1553011200000,2.443],[1553097600000,2.4297],[1553184000000,2.4454],[1553443200000,2.3832],[1553529600000,2.3926],[1553616000000,2.4499],[1553702400000,2.4806],[1553788800000,2.5924],[1554048000000,2.6456],[1554134400000,2.6166],[1554220800000,2.6176],[1554307200000,2.6707],[1554652800000,2.6838],[1554739200000,2.7456],[1554825600000,2.7825],[1554912000000,2.6806],[1554998400000,2.681],[1555257600000,2.6607],[1555344000000,2.7084],[1555430400000,2.7337],[1555516800000,2.738],[1555603200000,2.7439],[1555862400000,2.7372],[1555948800000,2.7597],[1556035200000,2.7641],[1556121600000,2.7265],[1556208000000,2.7165],[1556467200000,2.7451],[1556553600000,2.7743],[1557072000000,2.6128999999999998],[1557158400000,2.6755],[1557244800000,2.639],[1557331200000,2.5707],[1557417600000,2.6958],[1557676800000,2.7041],[1557763200000,2.6821],[1557849600000,2.8108],[1557936000000,2.8307],[1558022400000,2.7649],[1558281600000,2.6969],[1558368000000,2.7268],[1558454400000,2.7111],[1558540800000,2.6349],[1558627200000,2.6464],[1558886400000,2.6793],[1558972800000,2.7217],[1559059200000,2.7274],[1559145600000,2.7303],[1559232000000,2.7148],[1559491200000,2.7171],[1559577600000,2.6716],[1559664000000,2.6631],[1559750400000,2.6247],[1560096000000,2.6723],[1560182400000,2.8113],[1560268800000,2.775],[1560355200000,2.7653],[1560441600000,2.7397],[1560700800000,2.7118],[1560787200000,2.7378999999999998],[1560873600000,2.7548],[1560960000000,2.8353],[1561046400000,2.8215],[1561305600000,2.8472],[1561392000000,2.828],[1561478400000,2.821],[1561564800000,2.869],[1561651200000,2.8734],[1561824000000,2.8733],[1561910400000,2.9911],[1561996800000,3.0043],[1562083200000,2.9307],[1562169600000,2.8884],[1562256000000,2.9654],[1562515200000,2.9291],[1562601600000,2.9345],[1562688000000,2.9376],[1562774400000,2.9288],[1562860800000,2.9504],[1563120000000,2.9607],[1563206400000,2.9219</t>
   </si>
   <si>
+    <t>161725</t>
+  </si>
+  <si>
     <t>招商中证白酒A</t>
   </si>
   <si>
     <t xml:space="preserve"> [[1432656000000,1.0],[1432828800000,0.995],[1433347200000,0.997],[1433433600000,1.012],[1433692800000,1.038],[1433779200000,1.027],[1433865600000,1.043],[1433952000000,1.048],[1434038400000,1.075],[1434297600000,1.083],[1434384000000,1.049],[1434470400000,1.066],[1434556800000,1.025],[1434643200000,0.963],[1434988800000,1.021],[1435075200000,1.083],[1435161600000,1.061],[1435248000000,0.998],[1435507200000,1.023],[1435593600000,1.053],[1435680000000,1.015],[1435766400000,0.948],[1435852800000,0.886],[1436112000000,0.874],[1436198400000,0.825],[1436284800000,0.777],[1436371200000,0.849],[1436457600000,0.915],[1436716800000,0.951],[1436803200000,0.906],[1436889600000,0.855],[1436976000000,0.872],[1437062400000,0.909],[1437321600000,0.895],[1437408000000,0.902],[1437494400000,0.901],[1437580800000,0.923],[1437667200000,0.911],[1437926400000,0.827],[1438012800000,0.836],[1438099200000,0.86],[1438185600000,0.846],[1438272000000,0.857],[1438531200000,0.865],[1438617600000,0.892],[1438704000000,0.869],[1438790400000,0.858],[1438876800000,0.874],[1439136000000,0.907],[1439222400000,0.905],[1439308800000,0.893],[1439395200000,0.899],[1439481600000,0.904],[1439740800000,0.906],[1439827200000,0.847],[1439913600000,0.867],[1440000000000,0.849],[1440086400000,0.797],[1440345600000,0.724],[1440432000000,0.693],[1440518400000,0.699],[1440604800000,0.733],[1440691200000,0.754],[1440950400000,0.741],[1441036800000,0.723],[1441123200000,0.727],[1441555200000,0.708],[1441641600000,0.725],[1441728000000,0.744],[1441814400000,0.735],[1441900800000,0.733],[1442160000000,0.711],[1442246400000,0.697],[1442332800000,0.73],[1442419200000,0.71],[1442505600000,0.712],[1442764800000,0.726],[1442851200000,0.733],[1442937600000,0.714],[1443024000000,0.722],[1443110400000,0.712],[1443369600000,0.712],[1443456000000,0.708],[1443542400000,0.713],[1444233600000,0.737],[1444320000000,0.742],[1444579200000,0.765],[1444665600000,0.766],[1444752000000,0.759],[1444838400000,0.772],[1444924800000,0.775],[1445184000000,0.774],[1445270400000,0.779],[1445356800000,0.749],[1445443200000,0.762],[1445529600000,0.79],[1445788800000,0.799],[1445875200000,0.796],[1445961600000,0.79],[1446048000000,0.802],[1446134400000,0.804],[1446393600000,0.805],[1446480000000,0.802],[1446566400000,0.835],[1446652800000,0.847],[1446739200000,0.854],[1446998400000,0.857],[1447084800000,0.854],[1447171200000,0.853],[1447257600000,0.847],[1447344000000,0.83],[1447603200000,0.837],[1447689600000,0.841],[1447776000000,0.835],[1447862400000,0.841],[1447948800000,0.84],[1448208000000,0.833],[1448294400000,0.83],[1448380800000,0.837],[1448467200000,0.83],[1448553600000,0.795],[1448812800000,0.799],[1448899200000,0.813],[1448985600000,0.838],[1449072000000,0.839],[1449158400000,0.829],[1449417600000,0.829],[1449504000000,0.807],[1449590400000,0.808],[1449676800000,0.803],[1449763200000,0.804],[1450022400000,0.819],[1450108800000,0.826],[1450195200000,0.819],[1450281600000,0.833],[1450368000000,0.851],[1450627200000,0.901],[1450713600000,0.895],[1450800000000,0.885],[1450886400000,0.887],[1450972800000,0.878],[1451232000000,0.862],[1451318400000,0.878],[1451404800000,0.881],[1451491200000,0.884],[1451836800000,0.824],[1451923200000,0.831],[1452009600000,0.845],[1452096000000,0.787],[1452182400000,0.798],[1452441600000,0.752],[1452528000000,0.751],[1452614400000,0.745],[1452700800000,0.76],[1452787200000,0.738],[1453046400000,0.745],[1453132800000,0.771],[1453219200000,0.755],[1453305600000,0.737],[1453392000000,0.742],[1453651200000,0.754],[1453737600000,0.725],[1453824000000,0.721],[1453910400000,0.699],[1453996800000,0.722],[1454256000000,0.725],[1454342400000,0.736],[1454428800000,0.735],[1454515200000,0.74],[1454601600000,0.727],[1455465600000,0.715],[1455552000000,0.734],[1455638400000,0.734],[1455724800000,0.728],[1455811200000,0.726],[1456070400000,0.743],[1456156800000,0.762],[1456243200000,0.764],[1456329600000,0.721],[1456416000000,0.733],[1456675200000,0.706],[1456761600000,0.721],[1456848000000,0.753],[1456934400000,0.764],[1457020800000,0.779],[1457280000000,0.786],[1457366400000,0.78],[1457452800000,0.77],[1457539200000,0.777],[1457625600000,0.772],[1457884800000,0.776],[1457971200000,0.777],[1458057600000,0.771],[1458144000000,0.783],[1458230400000,0.792],[1458489600000,0.802],[1458576000000,0.806],[1458662400000,0.805],[1458748800000,0.815],[1458835200000,0.825],[1459094400000,0.844],[1459180800000,0.826],[1459267200000,0.839],[1459353600000,0.837],[1459440000000,0.828],[1459785600000,0.835],[1459872000000,0.855],[1459958400000,0.836],[1460044800000,0.825],[1460304000000,0.827],[1460390400000,0.825],[1460476800000,0.828],[1460563200000,0.835],[1460649600000,0.834],[1460908800000,0.821],[1460995200000,0.82],[1461081600000,0.8],[1461168000000,0.803],[1461254400000,0.819],[1461513600000,0.825],[1461600000000,0.83],[1461686400000,0.833],[1461772800000,0.833],[1461859200000,0.852],[1462204800000,0.91],[1462291200000,0.903],[1462377600000,0.907],[1462464000000,0.874],[1462723200000,0.872],[1462809600000,0.879],[1462896000000,0.897],[1462982400000,0.893],[1463068800000,0.888],[1463328000000,0.897],[1463414400000,0.881],[1463500800000,0.868],[1463587200000,0.862],[1463673600000,0.873],[1463932800000,0.884],[1464019200000,0.866],[1464105600000,0.859],[1464192000000,0.856],[1464278400000,0.859],[1464537600000,0.86],[1464624000000,0.888],[1464710400000,0.89],[1464796800000,0.903],[1464883200000,0.939],[1465142400000,0.935],[1465228800000,0.946],[1465315200000,0.93],[1465747200000,0.902],[1465833600000,0.928],[1465920000000,0.95],[1466006400000,0.957],[1466092800000,0.98],[1466352000000,0.972],[1466438400000,0.957],[1466524800000,0.966],[1466611200000,0.962],[1466697600000,0.951],[1466956800000,0.983],[1467043200000,0.981],[1467129600000,0.974],[1467216000000,0.986],[1467302400000,0.979],[1467561600000,0.99],[1467648000000,1.0],[1467734400000,1.065],[1467820800000,1.047],[1467907200000,1.049],[1468166400000,1.076],[1468252800000,1.088],[1468339200000,1.066],[1468425600000,1.06],[1468512000000,1.063],[1468771200000,1.049],[1468857600000,1.022],[1468944000000,1.021],[1469030400000,1.028],[1469116800000,1.006],[1469376000000,1.013],[1469462400000,1.039],[1469548800000,1.013],[1469635200000,1.023],[1469721600000,1.024],[1469980800000,0.988],[1470067200000,0.989],[1470153600000,0.99],[1470240000000,0.991],[1470326400000,0.985],[1470585600000,0.999],[1470672000000,1.017],[1470758400000,1.012],[1470844800000,1.013],[1470931200000,1.015],[1471190400000,1.034],[1471276800000,1.019],[1471363200000,1.019],[1471449600000,1.013],[1471536000000,1.008],[1471795200000,1.006],[1471881600000,1.003],[1471968000000,0.999],[1472054400000,0.993],[1472140800000,0.99],[1472400000000,0.988],[1472486400000,0.99],[1472572800000,1.0],[1472659200000,0.988],[1472745600000,0.977],[1473004800000,0.981],[1473091200000,0.99],[1473177600000,0.982],[1473264000000,0.98],[1473350400000,0.971],[1473609600000,0.94],[1473696000000,0.945],[1473782400000,0.94],[1474214400000,0.948],[1474300800000,0.942],[1474387200000,0.942],[1474473600000,0.956],[1474560000000,0.954],[1474819200000,0.929],[1474905600000,0.938],[1474992000000,0.933],[1475078400000,0.938],[1475164800000,0.955],[1476028800000,0.969],[1476115200000,0.972],[1476201600000,0.97],[1476288000000,0.963],[1476374400000,0.964],[1476633600000,0.964],[1476720000000,0.985],[1476806400000,0.986],[1476892800000,0.981],[1476979200000,0.977],[1477238400000,0.982],[1477324800000,1.007],[1477411200000,1.025],[1477497600000,1.022],[1477584000000,1.022],[1477843200000,1.017],[1477929600000,1.029],[1478016000000,1.014],[1478102400000,1.017],[1478188800000,1.005],[1478448000000,1.004],[1478534400000,1.019],[1478620800000,1.012],[1478707200000,1.021],[1478793600000,1.015],[1479052800000,1.009],[1479139200000,1.021],[1479225600000,1.013],[1479312000000,1.008],[1479398400000,1.003],[1479657600000,1.002],[1479744000000,1.005],[1479830400000,1.018],[1479916800000,1.02],[1480003200000,1.018],[1480262400000,1.02],[1480348800000,1.038],[1480435200000,1.021],[1480521600000,1.022],[1480608000000,1.013],[1480867200000,1.007],[1480953600000,1.022],[1481040000000,1.023],[1481126400000,1.039],[1481212800000,1.04],[1481472000000,1.006],[1481558400000,1.032],[1481644800000,1.028],[1481731200000,1.018],[1481817600000,1.017],[1482076800000,1.026],[1482163200000,1.017],[1482249600000,1.02],[1482336000000,1.01],[1482422400000,0.992],[1482681600000,0.996],[1482768000000,0.997],[1482854400000,0.994],[1482940800000,0.997],[1483027200000,1.016],[1483113600000,1.016],[1483372800000,1.019],[1483459200000,1.048],[1483545600000,1.045],[1483632000000,1.046],[1483891200000,1.046],[1483977600000,1.045],[1484064000000,1.031],[1484150400000,1.024],[1484236800000,1.019],[1484496000000,1.012],[1484582400000,1.026],[1484668800000,1.042],[1484755200000,1.034],[1484841600000,1.038],[1485100800000,1.04],[1485187200000,1.041],[1485273600000,1.038],[1485360000000,1.032],[1486051200000,1.026],[1486310400000,1.031],[1486396800000,1.03],[1486483200000,1.036],[1486569600000,1.05],[1486656000000,1.056],[1486915200000,1.089],[1487001600000,1.096],[1487088000000,1.088],[1487174400000,1.089],[1487260800000,1.098],[1487520000000,1.141],[1487606400000,1.138],[1487692800000,1.155],[1487779200000,1.144],[1487865600000,1.143],[1488124800000,1.119],[1488211200000,1.122],[1488297600000,1.131],[1488384000000,1.136],[1488470400000,1.142],[1488729600000,1.148],[1488816000000,1.172],[1488902400000,1.165],[1488988800000,1.158],[1489075200000,1.161],[1489334400000,1.18],[1489420800000,1.171],[1489507200000,1.175],[1489593600000,1.172],[1489680000000,1.172],[1489939200000,1.18],[1490025600000,1.221],[1490112000000,1.226],[1490198400000,1.212],[1490284800000,1.207],[1490544000000,1.186],[1490630400000,1.187],[1490716800000,1.195],[1490803200000,1.186],[1490889600000,1.188],[1491321600000,1.198],[1491408000000,1.197],[1491494400000,1.19],[1491753600000,1.161],[1491840000000,1.157],[1491926400000,1.171],[1492012800000,1.188],[1492099200000,1.175],[1492358400000,1.183],[1492444800000,1.209],[1492531200000,1.211],[1492617600000,1.248],[1492704000000,1.227],[1492963200000,1.2],[1493049600000,1.237],[1493136000000,1.226],[1493222400000,1.232],[1493308800000,1.196],[1493654400000,1.183],[1493740800000,1.192],[1493827200000,1.188],[1493913600000,1.181],[1494172800000,1.157],[1494259200000,1.169],[1494345600000,1.165],[1494432000000,1.174],[1494518400000,1.178],[1494777600000,1.198],[1494864000000,1.233],[1494950400000,1.214],[1495036800000,1.212],[1495123200000,1.222],[1495382400000,1.218],[1495468800000,1.245],[1495555200000,1.235],[1495641600000,1.235],[1495728000000,1.238],[1496160000000,1.233],[1496246400000,1.236],[1496332800000,1.229],[1496592000000,1.217],[1496678400000,1.236],[1496764800000,1.27],[1496851200000,1.281],[1496937600000,1.291],[1497196800000,1.322],[1497283200000,1.319],[1497369600000,1.309],[1497456000000,1.286],[1497542400000,1.282],[1497801600000,1.289],[1497888000000,1.285],[1497974400000,1.311],[1498060800000,1.305],[1498147200000,1.309],[1498406400000,1.345],[1498492800000,1.344],[1498579200000,1.321],[1498665600000,1.32],[1498752000000,1.323],[1499011200000,1.302],[1499097600000,1.286],[1499184000000,1.3],[1499270400000,1.294],[1499356800000,1.283],[1499616000000,1.293],[1499702400000,1.305],[1499788800000,1.288],[1499875200000,1.294],[1499961600000,1.307],[1500220800000,1.275],[1500307200000,1.284],[1500393600000,1.304],[1500480000000,1.327],[1500566400000,1.347],[1500825600000,1.37],[1500912000000,1.364],[1500998400000,1.348],[1501084800000,1.359],[1501171200000,1.417],[1501430400000,1.434],[1501516800000,1.44],[1501603200000,1.423],[1501689600000,1.407],[1501776000000,1.396],[1502035200000,1.443],[1502121600000,1.437],[1502208000000,1.483],[1502294400000,1.496],[1502380800000,1.459],[1502640000000,1.478],[1502726400000,1.477],[1502812800000,1.471],[1502899200000,1.455],[1502985600000,1.45],[1503244800000,1.443],[1503331200000,1.417],[1503417600000,1.433],[1503504000000,1.409],[1503590400000,1.422],[1503849600000,1.439],[1503936000000,1.445],[1504022400000,1.456],[1504108800000,1.447],[1504195200000,1.452],[1504454400000,1.435],[1504540800000,1.436],[1504627200000,1.424],[1504713600000,1.416],[1504800000000,1.393],[1505059200000,1.407],[1505145600000,1.444],[1505232000000,1.474],[1505318400000,1.472],[1505404800000,1.464],[1505664000000,1.506],[1505750400000,1.495],[1505836800000,1.512],[1505923200000,1.501],[1506009600000,1.506],[1506268800000,1.537],[1506355200000,1.531],[1506441600000,1.527],[1506528000000,1.553],[1506614400000,1.543],[1507478400000,1.549],[1507564800000,1.565],[1507651200000,1.596],[1507737600000,1.588],[1507824000000,1.589],[1508083200000,1.568],[1508169600000,1.568],[1508256000000,1.586],[1508342400000,1.611],[1508428800000,1.594],[1508688000000,1.602],[1508774400000,1.606],[1508860800000,1.595],[1508947200000,1.617],[1509033600000,1.648],[1509292800000,1.637],[1509379200000,1.635],[1509465600000,1.643],[1509552000000,1.653],[1509638400000,1.659],[1509897600000,1.695],[1509984000000,1.688],[1510070400000,1.681],[1510156800000,1.685],[1510243200000,1.713],[1510502400000,1.704],[1510588800000,1.672],[1510675200000,1.692],[1510761600000,1.724],[1510848000000,1.688],[1511107200000,1.671],[1511193600000,1.694],[1511280000000,1.656],[1511366400000,1.602],[1511452800000,1.601],[1511712000000,1.587],[1511798400000,1.604],[1511884800000,1.582],[1511971200000,1.569],[1512057600000,1.57],[1512316800000,1.605],[1512403200000,1.601],[1512489600000,1.596],[1512576000000,1.577],[1512662400000,1.597],[1512921600000,1.633],[1513008000000,1.63],[1513094400000,1.659],[1513180800000,1.656],[1513267200000,1.643],[1513526400000,1.665],[1513612800000,1.676],[1513699200000,1.699],[1513785600000,1.697],[1513872000000,1.677],[1514131200000,1.676],[1514217600000,1.667],[1514304000000,1.646],[1514390400000,1.691],[1514476800000,1.677],[1514649600000,1.677],[1514822400000,1.679],[1514908800000,1.683],[1514995200000,1.716],[1515081600000,1.711],[1515340800000,1.717],[1515427200000,1.752],[1515513600000,1.776],[1515600000000,1.761],[1515686400000,1.78],[1515945600000,1.787],[1516032000000,1.799],[1516118400000,1.758],[1516204800000,1.775],[1516291200000,1.758],[1516550400000,1.799],[1516636800000,1.798],[1516723200000,1.777],[1516809600000,1.767],[1516896000000,1.774],[1517155200000,1.72],[1517241600000,1.712],[1517328000000,1.731],[1517414400000,1.701],[1517500800000,1.691],[1517760000000,1.636],[1517846400000,1.622],[1517932800000,1.584],[1518019200000,1.611],[1518105600000,1.593],[1518364800000,1.629],[1518451200000,1.63],[1518537600000,1.643],[1519228800000,1.68],[1519315200000,1.675],[1519574400000,1.671],[1519660800000,1.656],[1519747200000,1.624],[1519833600000,1.639],[1519920000000,1.63],[1520179200000,1.61],[1520265600000,1.617],[1520352000000,1.617],[1520438400000,1.642],[1520524800000,1.65],[1520784000000,1.641],[1520870400000,1.623],[1520956800000,1.639],[1521043200000,1.663],[1521129600000,1.652],[1521388800000,1.657],[1521475200000,1.644],[1521561600000,1.64],[1521648000000,1.612],[1521734400000,1.585],[1521993600000,1.584],[1522080000000,1.58],[1522166400000,1.536],[1522252800000,1.573],[1522339200000,1.569],[1522598400000,1.567],[1522684800000,1.575],[1522771200000,1.612],[1523203200000,1.615],[1523289600000,1.624],[1523376000000,1.621],[1523462400000,1.618],[1523548800000,1.602],[1523808000000,1.608],[1523894400000,1.588],[1523980800000,1.58],[1524067200000,1.61],[1524153600000,1.602],[1524412800000,1.59],[1524499200000,1.623],[1524585600000,1.622],[1524672000000,1.59],[1524758400000,1.59],[1525190400000,1.612],[1525276800000,1.641],[1525363200000,1.645],[1525622400000,1.708],[1525708800000,1.718],[1525795200000,1.72],[1525881600000,1.738],[1525968000000,1.725],[1526227200000,1.751],[1526313600000,1.757],[1526400000000,1.756],[1526486400000,1.731],[1526572800000,1.74],[1526832000000,1.738],[1526918400000,1.746],[1527004800000,1.722],[1527091200000,1.709],[1527177600000,1.721],[1527436800000,1.778],[1527523200000,1.758],[1527609600000,1.774],[1527696000000,1.811],[1527782400000,1.786],[1528041600000,1.825],[1528128000000,1.842],[1528214400000,1.842],[1528300800000,1.837],[1528387200000,1.824],[1528646400000,1.82],[1528732800000,1.876],[1528819200000,1.863],[1528905600000,1.841],[1528992000000,1.834],[1529337600000,1.776],[1529424000000,1.821],[1529510400000,1.804],[1529596800000,1.807],[1529856000000,1.827],[1529942400000,1.821],[1530028800000,1.768],[1530115200000,1.733],[1530201600000,1.766],[1530288000000,1.766],[1530460800000,1.755],[1530547200000,1.716],[1530633600000,1.706],[1530720000000,1.701],[1530806400000,1.7066],[1531065600000,1.7429],[1531152000000,1.7437],[1531238400000,1.7287],[1531324800000,1.7628],[1531411200000,1.7966],[1531670400000,1.7973],[1531756800000,1.7788],[1531843200000,1.7607],[1531929600000,1.7521],[1532016000000,1.7529],[1532275200000,1.7311],[1532361600000,1.7746],[1532448000000,1.7677],[1532534400000,1.7497],[1532620800000,1.7628],[1532880000000,1.7397],[1532966400000,1.7455],[1533052800000,1.7197],[1533139200000,1.6768],[1533225600000,1.6407],[1533484800000,1.6168],[1533571200000,1.645],[1533657600000,1.6107],[1533744000000,1.6406],[1533830400000,1.6424],[1534089600000,1.6257],[1534176000000,1.6316],[1534262400000,1.5945],[1534348800000,1.5592],[1534435200000,1.5542],[1534694400000,1.561],[1534780800000,1.5975],[1534867200000,1.5854],[1534953600000,1.5887],[1535040000000,1.5741],[1535299200000,1.6204],[1535385600000,1.6087],[1535472000000,1.6059],[1535558400000,1.6017],[1535644800000,1.5842],[1535904000000,1.5814],[1535990400000,1.5871],[1536076800000,1.5616],[1536163200000,1.5389],[1536249600000,1.5524],[1536508800000,1.5436],[1536595200000,1.5436],[1536681600000,1.5195],[1536768000000,1.517],[1536854400000,1.5374],[1537113600000,1.5402],[1537200000000,1.5682],[1537286400000,1.5969],[1537372800000,1.5932],[1537459200000,1.6313],[1537804800000,1.6224],[1537891200000,1.6552],[1537977600000,1.6553],[1538064000000,1.6603],[1538928000000,1.5944],[1539014400000,1.5951],[1539100800000,1.5487],[1539187200000,1.5145],[1539273600000,1.5438],[1539532800000,1.5233],[1539619200000,1.5203],[1539705600000,1.5153],[1539792000000,1.4918],[1539878400000,1.5292],[1540137600000,1.5783],[1540224000000,1.5015],[1540310400000,1.4748],[1540396800000,1.4542],[1540483200000,1.4303],[1540742400000,1.3507],[1540828800000,1.3365],[1540915200000,1.3663],[1541001600000,1.3874],[1541088000000,1.4366],[1541347200000,1.4116],[1541433600000,1.3986],[1541520000000,1.3985],[1541606400000,1.3991],[1541692800000,1.3928],[1541952000000,1.3896],[1542038400000,1.4173],[1542124800000,1.3995],[1542211200000,1.4061],[1542297600000,1.406],[1542556800000,1.4242],[1542643200000,1.4031],[1542729600000,1.4122],[1542816000000,1.412],[1542902400000,1.3917],[1543161600000,1.388],[1543248000000,1.3843],[1543334400000,1.3977],[1543420800000,1.4004],[1543507200000,1.4266],[1543766400000,1.4699],[1543852800000,1.4695],[1543939200000,1.4765],[1544025600000,1.4497],[1544112000000,1.4523],[1544371200000,1.439],[1544457600000,1.446],[1544544000000,1.4515],[1544630400000,1.4686],[1544716800000,1.454],[1544976000000,1.4471],[1545062400000,1.4433],[1545148800000,1.4291],[1545235200000,1.4204],[1545321600000,1.406],[1545580800000,1.4121],[1545667200000,1.41],[1545753600000,1.397],[1545840000000,1.3938],[1545926400000,1.4074],[1546185600000,1.4073],[1546358400000,1.3933],[1546444800000,1.3712],[1546531200000,1.3896],[1546790400000,1.3927],[1546876800000,1.3938],[1546963200000,1.4092],[1547049600000,1.4045],[1547136000000,1.4208],[1547395200000,1.4096],[1547481600000,1.4651],[1547568000000,1.4548],[1547654400000,1.4524],[1547740800000,1.4745],[1548000000000,1.4874],[1548086400000,1.4714],[1548172800000,1.4742],[1548259200000,1.482],[1548345600000,1.4827],[1548604800000,1.4951],[1548691200000,1.5005],[1548777600000,1.4812],[1548864000000,1.4956],[1548950400000,1.5092],[1549814400000,1.5513],[1549900800000,1.5543],[1549987200000,1.566],[1550073600000,1.592],[1550160000000,1.5703],[1550419200000,1.6099],[1550505600000,1.6041],[1550592000000,1.5989],[1550678400000,1.5879],[1550764800000,1.5961],[1551024000000,1.6313],[1551110400000,1.6086],[1551196800000,1.63],[1551283200000,1.64],[1551369600000,1.6834],[1551628800000,1.6977],[1551715200000,1.6998],[1551801600000,1.6894],[1551888000000,1.6591],[1551974400000,1.6289],[1552233600000,1.67],[1552320000000,1.661],[1552406400000,1.6641],[1552492800000,1.6771],[1552579200000,1.7131],[1552838400000,1.8042],[1552924800000,1.7913],[1553011200000,1.7967],[1553097600000,1.7866],[1553184000000,1.8016],[1553443200000,1.7677],[1553529600000,1.7737],[1553616000000,1.8096],[1553702400000,1.8285],[1553788800000,1.8916],[1554048000000,1.9101],[1554134400000,1.8924],[1554220800000,1.8834],[1554307200000,1.9173],[1554652800000,1.923],[1554739200000,1.9455],[1554825600000,1.9636],[1554912000000,1.8963],[1554998400000,1.8971],[1555257600000,1.8833],[1555344000000,1.9078],[1555430400000,1.922],[1555516800000,1.9369],[1555603200000,1.9344],[1555862400000,1.9233],[1555948800000,1.9487],[1556035200000,1.94],[1556121600000,1.9128],[1556208000000,1.9308],[1556467200000,1.9404],[1556553600000,1.9487],[1557072000000,1.8342],[1557158400000,1.8623],[1557244800000,1.8619],[1557331200000,1.8158],[1557417600000,1.8808],[1557676800000,1.8844],[1557763200000,1.8728],[1557849600000,1.9554],[1557936000000,1.9748],[1558022400000,1.9339],[1558281600000,1.9004],[1558368000000,1.9136],[1558454400000,1.9008],[1558540800000,1.855],[1558627200000,1.8731],[1558886400000,1.8789],[1558972800000,1.8931],[1559059200000,1.9017],[1559145600000,1.8874],[1559232000000,1.8693],[1559491200000,1.8621],[1559577600000,1.8308],[1559664000000,1.8299],[1559750400000,1.8163],[1560096000000,1.8395],[1560182400000,1.9092],[1560268800000,1.8943],[1560355200000,1.8884],[1560441600000,1.8763],[1560700800000,1.869],[1560787200000,1.8693],[1560873600000,1.888],[1560960000000,1.9478],[1561046400000,1.9609],[1561305600000,1.9843],[1561392000000,1.9846],[1561478400000,1.9773],[1561564800000,2.0276],[1561651200000,2.0328],[1561824000000,2.0327],[1561910400000,2.1037],[1561996800000,2.1158],[1562083200000,2.0942],[1562169600000,2.0771],[1562256000000,2.1033],[1562515200000,2.0877],[1562601600000,2.0918],[1562688000000,2.0974],[1562774400000,2.0895],[1562860800000,2.1028],[1563120000000,2.0931],[1563206400000,2.0819],[1563292800000,2.0765],[1563379200000,2.0631],[1563465600000,2.0699],[1563724800000,2.0706],[1563811200000,2.0499],[1563897600000,2.0481],[1563984000000,2.0583],[1564070400000,2.0579],[1564329600000,2.0662],[1564416000000,2.0618],[1564502400000,2.047],[1564588800000,2.0338],[1564675200000,2.0275],[1564934400000,2.008],[1565020800000,2.0219],[1565107200000,2.0127],[1565193600000,2.0277],[1565280000000,2.0141],[1565539200000,2.04],[1565625600000,2.0371],[1565712000000,2.0604],[1565798400000,2.0576],[1565884800000,2.0667],[1566144000000,2.0785],[1566230400000,2.0896],[1566316800000,2.0819],[1566403200000,2.1024],[1566489600000,2.1051],[1566748800000,2.0864],[1566835200000,2.1073],[1566921600000,2.1113],[1567008000000,2.1218],[1567094400000,2.1457],[1567353600000,2.1494],[1567440000000,2.143],[1567526400000,2.1287],[1567612800000,2.133],[1567699200000,2.1337],[1567958400000,2.1332],[1568044800000,2.1284],[1568131200000,2.0835],[1568217600000,2.0993],[1568563200000,2.0929],[1568649600000,2.0948],[1568736000000,2.1271],[1568822400000,2.1286],[1568908800000,2.1367],[1569168000000,2.1244],[1569254400000,2.1448],[1569340800000,2.1395],[1569427200000,2.1275],[1569513600000,2.1241],[1569772800000,2.1053],[1570464000000,2.1199],[1570550400000,2.1082],[1570636800000,2.107],[1570723200000,2.1118],[1570982400000,2.1133],[1571068800000,2.1294],[1571155200000,2.1105],[1571241600000,2.1119],[1571328000000,2.0933],[1571587200000,2.0952],[1571673600000,2.0991],[1571760000000,2.0824],[1571846400000,2.0665],[1571932800000,2.0818],[1572192000000,2.1006],[1572278400000,2.108],[1572364800000,2.0995],[1572451200000,2.0991],[1572537600000,2.1107],[1572796800000,2.1179],[1572883200000,2.1201],[1572969600000,2.1091],[1573056000000,2.117],[1573142400000,2.1208],[1573401600000,2.1109],[1573488000000,2.1144],[1573574400000,2.121],[1573660800000,2.1316],[1573747200000,2.1251],[1574006400000,2.1206],[1574092800000,2.1289],[1574179200000,2.1342],[1574265600000,2.1325],[1574352000000,2.1054],[1574611200000,2.1027],[1574697600000,2.1122],[1574784000000,2.1157],[1574870400000,2.1097],[1574956800000,2.0844],[1575216000000,2.0844],[1575302400000,2.0799],[1575388800000,2.0855],[1575475200000,2.0844],[1575561600000,2.1047],[1575820800000,2.0991],[1575907200000,2.0994],[1575993600000,2.0891],[1576080000000,2.0812],[1576166400000,2.0961],[1576425600000,2.091],[1576512000000,2.1022],[1576598400000,2.1068],[1576684800000,2.0996],[1576771200000,2.0959],[1577030400000,2.0896],[1577116800000,2.0937],[1577203200000,2.0827],[1577289600000,2.0898],[1577376000000,2.0995],[1577635200000,2.1329],[1577721600000,2.1334],[1577894400000,2.1227],[1577980800000,2.1118],[1578240000000,2.104],[1578326400000,2.1141],[1578412800000,2.1157],[1578499200000,2.1361],[1578585600000,2.1598],[1578844800000,2.1747],[1578931200000,2.1593],[1579017600000,2.1642],[1579104000000,2.1661],[1579190400000,2.1662],[1579449600000,2.1556],[1579536000000,2.1267],[1579622400000,2.1304],[1579708800000,2.0936],[1580659200000,2.0126],[1580745600000,2.007],[1580832000000,2.0187],[1580918400000,2.0275],[1581004800000,2.0352],[1581264000000,2.0373],[1581350400000,2.0585],[1581436800000,2.0611],[1581523200000,2.0541],[1581609600000,2.0518],[1581868800000,2.0592],[1581955200000,2.0544],[1582041600000,2.0657],[1582128000000,2.0987],[1582214400000,2.0962],[1582473600000,2.0783],[1582560000000,2.0704],[1582646400000,2.0624],[1582732800000,2.0733],[1582819200000,2.0346],[1583078400000,2.0569],[1583164800000,2.0632],[1583251200000,2.0706],[1583337600000,2.1181],[1583424000000,2.0955],[1583683200000,2.0592],[1583769600000,2.0858],[1583856000000,2.0834],[1583942400000,2.0609],[1584028800000,2.0438],[1584288000000,2.0069],[1584374400000,1.9884],[1584460800000,1.9655],[1584547200000,1.9371],[1584633600000,1.9636],[1584892800000,1.9387],[1584979200000,1.9694],[1585065600000,1.9939],[1585152000000,1.9931],[1585238400000,2.0132],[1585497600000,1.9964],[1585584000000,2.0127],[1585670400000,2.0067],[1585756800000,2.0181],[1585843200000,2.016],[1586188800000,2.0392],[1586275200000,2.0391],[1586361600000,2.044],[1586448000000,2.0546],[1586707200000,2.0539],[1586793600000,2.0658],[1586880000000,2.0641],[1586966400000,2.0551],[1587052800000,2.0682],[1587312000000,2.0728],[1587398400000,2.051],[1587484800000,2.0769],[1587571200000,2.0791],[1587657600000,2.0893],[1587916800000,2.082],[1588003200000,2.109],[1588089600000,2.0968],[1588176000000,2.0995],[1588694400000,2.1067],[1588780800000,2.1184],[1588867200000,2.1282],[1589126400000,2.131],[1589212800000,2.1343],[1589299200000,2.1598],[1589385600000,2.1583],[1589472000000,2.1456],[1589731200000,2.1749],[1589817600000,2.1828],[1589904000000,2.1746],[1589990400000,2.1819],[1590076800000,2.146],[1590336000000,2.1669],[1590422400000,2.1772],[1590508800000,2.1679],[1590595200000,2.1758],[1590681600000,2.1914],[1590940800000,2.2248],[1591027200000,2.2123],[1591113600000,2.2059],[1591200000000,2.2267],[1591286400000,2.248],[1591545600000,2.2548],[1591632000000,2.2631],[1591718400000,2.2677],[1591804800000,2.2489],[1591891200000,2.2523],[1592150400000,2.222],[1592236800000,2.24],[1592323200000,2.2294],[1592409600000,2.2326],[1592496000000,2.2591],[1592755200000,2.2509],[1592841600000,2.287],[1592928000000,2.2849],[1593360000000,2.289],[1593446400000,2.3075],[1593532800000,2.3755],[1593619200000,2.4189],[1593705600000,2.4062],[1593964800000,2.4374],[1594051200000,2.477],[1594137600000,2.4754],[1594224000000,2.496],[1594310400000,2.5137],[1594569600000,2.5745],[1594656000000,2.5783],[1594742400000,2.6102],[1594828800000,2.4813],[1594915200000,2.4797],[1595174400000,2.4646],[1595260800000,2.4959],[1595347200000,2.5136],[1595433600000,2.5175],[1595520000000,2.4543],[1595779200000,2.4701],[1595865600000,2.5037],[1595952000000,2.512],[1596038400000,2.5218],[1596124800000,2.52],[1596384000000,2.5213],[1596470400000,2.5145],[1596556800000,2.5181],[1596643200000,2.4823],[1596729600000,2.4666],[1596988800000,2.4682],[1597075200000,2.4805],[1597161600000,2.4565],[1597248000000,2.467],[1597334400000,2.513],[1597593600000,2.5451],[1597680000000,2.5535],[1597766400000,2.5555],[1597852800000,2.5235],[1597939200000,2.5426],[1598198400000,2.5717],[1598284800000,2.6279],[1598371200000,2.6242],[1598457600000,2.636],[1598544000000,2.6762],[1598803200000,2.6819],[1598889600000,2.6699],[1598976000000,2.6619],[1599062400000,2.6835],[1599148800000,2.6633],[1599408000000,2.646],[1599494400000,2.6177],[1599580800000,2.5979],[1599667200000,2.6131],[1599753600000,2.6409],[1600012800000,2.6492],[1600099200000,2.6474],[1600185600000,2.6303],[1600272000000,2.6068],[1600358400000,2.6202],[1600617600000,2.6051],[1600704000000,2.5961],[1600790400000,2.5913],[1600876800000,2.5745],[1600963200000,2.5748],[1601222400000,2.5857],[1601308800000,2.5837],[1601395200000,2.5881],[1602172800000,2.6021],[1602432000000,2.6563],[1602518400000,2.6738],[1602604800000,2.6703],[1602691200000,2.6691],[1602777600000,2.6575],[1603036800000,2.6496],[1603123200000,2.682],[1603209600000,2.6854],[1603296000000,2.705],[1603382400000,2.6775],[1603641600000,2.6661],[1603728000000,2.6756],[1603814400000,2.71],[1603900800000,2.7408],[1603987200000,2.7092],[1604246400000,2.7273],[1604332800000,2.7394],[1604419200000,2.7448],[1604505600000,2.766],[1604592000000,2.7585],[1604851200000,2.7802],[1604937600000,2.805],[1605024000000,2.8064],[1605110400000,2.8271],[1605196800000,2.7859],[1605456000000,2.831],[1605542400000,2.8145],[1605628800000,2.7952],[1605715200000,2.7997],[1605801600000,2.8172],[1606060800000,2.8295],[1606147200000,2.8367],[1606233600000,2.7941],[1606320000000,2.8],[1606406400000,2.8071],[1606665600000,2.7715],[1606752000000,2.7815],[1606838400000,2.7811],[1606924800000,2.7926],[1607011200000,2.8323],[1607270400000,2.8362],[1607356800000,2.8547],[1607443200000,2.8491],[1607529600000,2.8594],[1607616000000,2.8664],[1607875200000,2.8955],[1607961600000,2.888],[1608048000000,2.9169],[1608134400000,2.9527],[1608220800000,2.956],[1608480000000,2.9624],[1608566400000,2.9863],[1608652800000,2.9787],[1608739200000,2.953],[1608825600000,2.9528],[1609084800000,3.018],[1609171200000,3.0028],[1609257600000,3.0328],[1609344000000,3.0577],[1609689600000,3.1045],[1609776000000,3.1799],[1609862400000,3.1844],[1609948800000,3.2069],[1610035200000,3.1598],[1610294400000,3.1102],[1610380800000,3.1554],[1610467200000,3.1413],[1610553600000,3.094],[1610640000000,3.0487],[1610899200000,3.0226],[1610985600000,2.9945],[1611072000000,3.005],[1611158400000,3.0459],[1611244800000,3.0353],[1611504000000,3.1245],[1611590400000,3.091],[1611676800000,3.049],[1611763200000,3.0308],[1611849600000,3.0565],[1612108800000,3.0534],[1612195200000,3.1155],[1612281600000,3.1149],[1612368000000,3.1231],[1612454400000,3.1395],[1612713600000,3.1397],[1612800000000,3.175],[1612886400000,3.2509],[1613577600000,3.1943],[1613664000000,3.1852],[1613923200000,3.0624],[1614009600000,3.0671],[1614096000000,2.9878],[1614182400000,2.9684],[1614268800000,2.931],[1614528000000,2.9386],[1614614400000,2.9026],[1614700800000,2.9335],[1614787200000,2.8686],[1614873600000,2.8832],[1615132800000,2.794],[1615219200000,2.7566],[1615305600000,2.7979],[1615392000000,2.843],[1615478400000,2.8478],[1615737600000,2.7883],[1615824000000,2.8197],[1615910400000,2.8345],[1615996800000,2.87],[1616083200000,2.8369],[1616342400000,2.8424],[1616428800000,2.8538],[1616515200000,2.8546],[1616601600000,2.8456],[1616688000000,2.8899],[1616947200000,2.9125],[1617033600000,2.9176],[1617120000000,2.8951],[1617206400000,2.9257],[1617292800000,2.9876],[1617638400000,2.9685],[1617724800000,2.9093],[1617811200000,2.934],[1617897600000,2.8972],[1618156800000,2.8985],[1618243200000,2.9099],[1618329600000,2.9261],[1618416000000,2.9163],[1618502400000,2.9479],[1618761600000,2.9642],[1618848000000,2.9794],[1618934400000,3.0125],[1619020800000,3.0122],[1619107200000,3.0278],[1619366400000,3.0078],[1619452800000,3.0268],[1619539200000,3.0619],[1619625600000,3.0602],[1619712000000,3.0436],[1620230400000,3.0005],[1620316800000,2.9776],[1620576000000,2.9547],[1620662400000,3.0012],[1620748800000,3.0233],[1620835200000,3.0259],[1620921600000,3.0461],[1621180800000,3.0737],[1621267200000,3.0764],[1621353600000,3.0642],[1621440000000,3.0994],[1621526400000,3.1037],[1621785600000,3.1425],[1621872000000,3.1953],[1621958400000,3.1818],[1622044800000,3.1904],[1622131200000,3.1924],[1622390400000,3.201</t>
   </si>
   <si>
+    <t>161005</t>
+  </si>
+  <si>
     <t>富国天惠成长混合LOF</t>
   </si>
   <si>
     <t xml:space="preserve"> [[1132070400000,1.0],[1132243200000,1.0006],[1132502400000,1.0006],[1132588800000,1.0006],[1132675200000,1.0006],[1132761600000,1.0006],[1132848000000,1.0017],[1133107200000,1.0017],[1133193600000,1.0017],[1133280000000,1.0017],[1133366400000,0.9996],[1133452800000,0.9996],[1133712000000,0.9988],[1133798400000,1.0001],[1133884800000,1.0021],[1133971200000,1.0022],[1134057600000,1.0045],[1134316800000,1.0037],[1134403200000,1.0031],[1134489600000,1.0059],[1134576000000,1.0053],[1134662400000,1.0072],[1134921600000,1.0086],[1135008000000,1.009],[1135094400000,1.0096],[1135180800000,1.013],[1135267200000,1.0177],[1135526400000,1.0214],[1135612800000,1.0217],[1135699200000,1.0229],[1135785600000,1.028],[1135872000000,1.0228],[1135958400000,1.0228],[1136304000000,1.0339],[1136390400000,1.0421],[1136476800000,1.0505],[1136736000000,1.0535],[1136822400000,1.0553],[1136908800000,1.0566],[1136995200000,1.0634],[1137081600000,1.0655],[1137340800000,1.0542],[1137427200000,1.0571],[1137513600000,1.0713],[1137600000000,1.0754],[1137686400000,1.0782],[1137945600000,1.0689],[1138032000000,1.0752],[1138118400000,1.0867],[1139155200000,1.1013],[1139241600000,1.0979],[1139328000000,1.0912],[1139414400000,1.0817],[1139500800000,1.0901],[1139760000000,1.0977],[1139846400000,1.1028],[1139932800000,1.1028],[1140019200000,1.0899],[1140105600000,1.0876],[1140364800000,1.0871],[1140451200000,1.0944],[1140537600000,1.093],[1140624000000,1.0936],[1140710400000,1.1042],[1140969600000,1.1139],[1141056000000,1.1278],[1141142400000,1.1385],[1141228800000,1.1324],[1141315200000,1.1373],[1141574400000,1.1403],[1141660800000,1.1224],[1141747200000,1.1205],[1141833600000,1.1211],[1141920000000,1.1235],[1142179200000,1.1306],[1142265600000,1.1345],[1142352000000,1.1411],[1142438400000,1.1435],[1142524800000,1.1379],[1142784000000,1.1429],[1142870400000,1.1461],[1142956800000,1.1532],[1143043200000,1.156],[1143129600000,1.155],[1143388800000,1.1586],[1143475200000,1.1662],[1143561600000,1.2035],[1143648000000,1.2098],[1143734400000,1.2199],[1143993600000,1.2422],[1144080000000,1.2475],[1144166400000,1.2604],[1144252800000,1.2766],[1144339200000,1.2759],[1144598400000,1.2867],[1144684800000,1.295],[1144771200000,1.2822],[1144857600000,1.247],[1144944000000,1.2697],[1145203200000,1.2787],[1145289600000,1.2884],[1145376000000,1.3156],[1145462400000,1.3199],[1145548800000,1.3389],[1145808000000,1.3552],[1145894400000,1.3752],[1145980800000,1.3917],[1146067200000,1.3895],[1146153600000,1.4115],[1147017600000,1.452],[1147104000000,1.4873],[1147190400000,1.5064],[1147276800000,1.4946],[1147363200000,1.5422],[1147622400000,1.5953],[1147708800000,1.5627],[1147795200000,1.5427],[1147881600000,1.5503],[1147968000000,1.5863],[1148227200000,1.561],[1148313600000,1.5171],[1148400000000,1.5127],[1148486400000,1.5152],[1148572800000,1.5399],[1148832000000,1.5818],[1148918400000,1.6226],[1149004800000,1.6148],[1149091200000,1.6471],[1149177600000,1.616],[1149436800000,1.6187],[1149523200000,1.5853],[1149609600000,1.5142],[1149696000000,1.524],[1149782400000,1.5139],[1150041600000,1.5339],[1150128000000,1.5391],[1150214400000,1.5246],[1150300800000,1.5302],[1150387200000,1.5656],[1150646400000,1.5855],[1150732800000,1.5831],[1150819200000,1.5712],[1150905600000,1.5682],[1150992000000,1.5717],[1151251200000,1.5911],[1151337600000,1.5957],[1151424000000,1.5876999999999999],[1151510400000,1.6189],[1151596800000,1.6202],[1151856000000,1.6481],[1151942400000,1.6415],[1152028800000,1.636],[1152115200000,1.6549],[1152201600000,1.6521],[1152460800000,1.6481],[1152547200000,1.6526],[1152633600000,1.6665],[1152720000000,1.6162],[1152806400000,1.6294],[1153065600000,1.6279],[1153152000000,1.6202],[1153238400000,1.5891],[1153324800000,1.5927],[1153411200000,1.6111],[1153670400000,1.6206],[1153756800000,1.6451],[1153843200000,1.6403],[1153929600000,1.6241],[1154016000000,1.6046],[1154275200000,1.5586],[1154361600000,1.5552],[1154448000000,1.5353],[1154534400000,1.5235],[1154620800000,1.5027],[1154880000000,1.4947],[1154966400000,1.5145],[1155052800000,1.5143],[1155139200000,1.5285],[1155225600000,1.5373],[1155484800000,1.504],[1155571200000,1.5193],[1155657600000,1.5328],[1155744000000,1.5215],[1155830400000,1.5186],[1156089600000,1.5293],[1156176000000,1.5449],[1156262400000,1.5406],[1156348800000,1.5483],[1156435200000,1.5491],[1156694400000,1.5759],[1156780800000,1.601],[1156867200000,1.5964],[1156953600000,1.6011],[1157040000000,1.5916],[1157299200000,1.6145],[1157385600000,1.6153],[1157472000000,1.6184],[1157558400000,1.6017],[1157644800000,1.6058],[1157904000000,1.611],[1157990400000,1.6142],[1158076800000,1.6064],[1158163200000,1.6124],[1158249600000,1.6257],[1158508800000,1.6354],[1158595200000,1.643],[1158681600000,1.6464],[1158768000000,1.6605],[1158854400000,1.6645],[1159113600000,1.6716],[1159200000000,1.6513],[1159286400000,1.6577],[1159372800000,1.6805],[1159459200000,1.6942],[1159545600000,1.6941],[1160323200000,1.7297],[1160409600000,1.7277],[1160496000000,1.7178],[1160582400000,1.6966],[1160668800000,1.6975],[1160928000000,1.6641],[1161014400000,1.6706],[1161100800000,1.6899],[1161187200000,1.702],[1161273600000,1.7027],[1161532800000,1.6706],[1161619200000,1.6974],[1161705600000,1.7179],[1161792000000,1.7255],[1161878400000,1.713],[1162137600000,1.7045],[1162224000000,1.7109],[1162310400000,1.7091],[1162396800000,1.7004],[1162483200000,1.7142],[1162742400000,1.7154],[1162828800000,1.7184],[1162915200000,1.7225],[1163001600000,1.7421],[1163088000000,1.7253],[1163347200000,1.6981],[1163433600000,1.7176],[1163520000000,1.7633],[1163606400000,1.7853],[1163692800000,1.814],[1163952000000,1.8287],[1164038400000,1.8362],[1164124800000,1.852],[1164211200000,1.8564],[1164297600000,1.8657],[1164556800000,1.8916],[1164643200000,1.9081],[1164729600000,1.9422],[1164816000000,1.9926],[1164902400000,2.0164],[1165161600000,2.0344],[1165248000000,2.0532],[1165334400000,2.0284],[1165420800000,2.013],[1165507200000,1.9766],[1165766400000,2.0349],[1165852800000,2.0577],[1165939200000,2.0846],[1166025600000,2.1112],[1166112000000,2.1567],[1166371200000,2.225],[1166457600000,2.2112],[1166544000000,2.2232],[1166630400000,2.2048],[1166716800000,2.1939],[1166976000000,2.2041],[1167062400000,2.1944],[1167148800000,2.2175],[1167235200000,2.2135],[1167321600000,2.2431],[1167494400000,2.2431],[1167840000000,2.2286],[1167926400000,2.2326],[1168185600000,2.2536],[1168272000000,2.2597],[1168358400000,2.2625],[1168444800000,2.2622],[1168531200000,2.2601],[1168790400000,2.2756],[1168876800000,2.2914],[1168963200000,2.2764],[1169049600000,2.2843],[1169136000000,2.2986],[1169395200000,2.32],[1169481600000,2.313],[1169568000000,2.3215],[1169654400000,2.3029],[1169740800000,2.3201],[1170000000000,2.3231],[1170086400000,2.3197],[1170172800000,2.2667],[1170259200000,2.2727],[1170345600000,2.2362],[1170604800000,2.217],[1170691200000,2.217],[1170777600000,2.232],[1170864000000,2.2364],[1170950400000,2.2314],[1171209600000,2.2696],[1171296000000,2.29],[1171382400000,2.3158],[1171468800000,2.3357],[1171555200000,2.3275],[1172419200000,2.3086],[1172505600000,2.2037],[1172592000000,2.2191],[1172678400000,2.2021],[1172764800000,2.221],[1173024000000,2.2064],[1173110400000,2.231],[1173196800000,2.2629],[1173283200000,2.2804],[1173369600000,2.2727],[1173628800000,2.2693],[1173715200000,2.2735],[1173801600000,2.2521],[1173888000000,2.2684],[1173974400000,2.259],[1174233600000,2.2744],[1174320000000,2.2622],[1174406400000,2.2691],[1174492800000,2.2724],[1174579200000,2.2666],[1174838400000,2.2756],[1174924800000,2.2754],[1175011200000,2.2744],[1175097600000,2.2839],[1175184000000,2.2752],[1175270400000,2.2752],[1175443200000,2.2887],[1175529600000,2.3088],[1175616000000,2.3247],[1175702400000,2.3386],[1175788800000,2.3408],[1176048000000,2.3486],[1176134400000,2.3608],[1176220800000,2.3679],[1176307200000,2.3815],[1176393600000,2.4006],[1176652800000,2.4353],[1176739200000,2.421],[1176825600000,2.4154],[1176912000000,2.3676],[1176998400000,2.4054],[1177257600000,2.4327],[1177344000000,2.4273],[1177430400000,2.4253],[1177516800000,2.4423],[1177603200000,2.4206],[1177862400000,2.4571],[1178553600000,2.4846],[1178640000000,2.476],[1178726400000,2.4621],[1178812800000,2.4458],[1179072000000,2.472],[1179158400000,2.4413],[1179244800000,2.4764],[1179331200000,2.5141],[1179417600000,2.5227],[1179676800000,2.5412],[1179763200000,2.5443],[1179849600000,2.5732],[1179936000000,2.5621],[1180022400000,2.5854],[1180281600000,2.6212],[1180368000000,2.6565],[1180454400000,2.5702],[1180540800000,2.6277],[1180627200000,2.6138],[1180886400000,2.5412],[1180972800000,2.5684],[1181059200000,2.5861],[1181145600000,2.6265],[1181232000000,2.6341],[1181491200000,2.6861],[1181577600000,2.7129],[1181664000000,2.7358],[1181750400000,2.7399],[1181836800000,2.74],[1182096000000,2.7793],[1182182400000,2.7697],[1182268800000,2.748],[1182355200000,2.7644],[1182441600000,2.7362],[1182700800000,2.7107],[1182787200000,2.7179],[1182873600000,2.7695],[1182960000000,2.719],[1183046400000,2.7015],[1183132800000,2.7014],[1183305600000,2.6784],[1183392000000,2.6971],[1183478400000,2.6677],[1183564800000,2.6081],[1183651200000,2.6633],[1183910400000,2.7033],[1183996800000,2.6889],[1184083200000,2.679],[1184169600000,2.6887],[1184256000000,2.6903],[1184515200000,2.6601],[1184601600000,2.6958],[1184688000000,2.7025],[1184774400000,2.7024],[1184860800000,2.7631],[1185120000000,2.8114],[1185206400000,2.8032],[1185292800000,2.8101],[1185379200000,2.8175],[1185465600000,2.801],[1185724800000,2.8339],[1185811200000,2.855],[1185897600000,2.8104],[1185984000000,2.8484],[1186070400000,2.9103],[1186329600000,2.9386],[1186416000000,2.9454],[1186502400000,2.927],[1186588800000,2.9758],[1186675200000,2.9539],[1186934400000,2.9417],[1187020800000,2.9614],[1187107200000,2.961],[1187193600000,2.935],[1187280000000,2.9063],[1187539200000,2.9886],[1187625600000,3.0279],[1187712000000,3.0632],[1187798400000,3.1018],[1187884800000,3.1215],[1188144000000,3.1158],[1188230400000,3.1057],[1188316800000,3.085],[1188403200000,3.1025],[1188489600000,3.1294],[1188748800000,3.1407],[1188835200000,3.1215],[1188921600000,3.1182],[1189008000000,3.1317],[1189094400000,3.0945],[1189353600000,3.1046],[1189440000000,3.0481],[1189526400000,3.0634],[1189612800000,3.1038],[1189699200000,3.1227],[1189958400000,3.142],[1190044800000,3.1147],[1190131200000,3.095],[1190217600000,3.1214],[1190304000000,3.1167],[1190563200000,3.1088],[1190649600000,3.1135],[1190736000000,3.0991],[1190822400000,3.1283],[1190908800000,3.1786],[1191081600000,3.1785],[1191772800000,3.2059],[1191859200000,3.2136],[1191945600000,3.2232],[1192032000000,3.2606],[1192118400000,3.2524],[1192377600000,3.2482],[1192464000000,3.2727],[1192550400000,3.2586],[1192636800000,3.2023],[1192723200000,3.2368],[1192982400000,3.203],[1193068800000,3.229],[1193155200000,3.2429],[1193241600000,3.1789],[1193328000000,3.1961],[1193587200000,3.2088],[1193673600000,3.2111],[1193760000000,3.2525],[1193846400000,3.2159],[1193932800000,3.1744],[1194192000000,3.1556],[1194278400000,3.151],[1194364800000,3.1554],[1194451200000,3.0938],[1194537600000,3.0815],[1194796800000,3.0722],[1194883200000,3.0581],[1194969600000,3.1205],[1195056000000,3.0947],[1195142400000,3.0699],[1195401600000,3.0692],[1195488000000,3.0963],[1195574400000,3.0836],[1195660800000,3.0204],[1195747200000,3.0412],[1196006400000,3.0335],[1196092800000,3.0024],[1196179200000,2.9865],[1196265600000,3.0223],[1196352000000,2.9931],[1196611200000,3.0044],[1196697600000,3.0252],[1196784000000,3.0714],[1196870400000,3.075],[1196956800000,3.0932],[1197216000000,3.1431],[1197302400000,3.1644],[1197388800000,3.1592],[1197475200000,3.0947],[1197561600000,3.1437],[1197820800000,3.1328],[1197907200000,3.1164],[1197993600000,3.1489],[1198080000000,3.1699],[1198166400000,3.1906],[1198425600000,3.2315],[1198512000000,3.2425],[1198598400000,3.2704],[1198684800000,3.2977],[1198771200000,3.2916],[1198857600000,3.2915],[1199030400000,3.2913],[1199203200000,3.317],[1199289600000,3.3096],[1199376000000,3.3231],[1199635200000,3.3508],[1199721600000,3.3474],[1199808000000,3.379],[1199894400000,3.3955],[1199980800000,3.4059],[1200240000000,3.4272],[1200326400000,3.4196],[1200412800000,3.3749],[1200499200000,3.3507],[1200585600000,3.3619],[1200844800000,3.2899],[1200931200000,3.1782],[1201017600000,3.2763],[1201104000000,3.314],[1201190400000,3.3194],[1201449600000,3.2253],[1201536000000,3.2153],[1201622400000,3.191],[1201708800000,3.1491],[1201795200000,3.1367],[1202054400000,3.2618],[1202140800000,3.2371],[1202832000000,3.1984],[1202918400000,3.2166],[1203004800000,3.2036],[1203264000000,3.2602],[1203350400000,3.286],[1203436800000,3.2476],[1203523200000,3.2481],[1203609600000,3.1885],[1203868800000,3.1313],[1203955200000,3.098],[1204041600000,3.1333],[1204128000000,3.1294],[1204214400000,3.1579],[1204473600000,3.2073],[1204560000000,3.1796],[1204646400000,3.1654],[1204732800000,3.1702],[1204819200000,3.1434],[1205078400000,3.0753],[1205164800000,3.0728],[1205251200000,3.0296],[1205337600000,2.9983],[1205424000000,2.9865],[1205683200000,2.9271],[1205769600000,2.8675],[1205856000000,2.9032],[1205942400000,2.9423],[1206028800000,2.9592],[1206288000000,2.9036],[1206374400000,2.915],[1206460800000,2.9197],[1206547200000,2.8928],[1206633600000,2.9344],[1206892800000,2.9039],[1206979200000,2.8411],[1207065600000,2.8237],[1207152000000,2.8444],[1207497600000,2.905],[1207584000000,2.9221],[1207670400000,2.8711],[1207756800000,2.8849],[1207843200000,2.8997],[1208102400000,2.841],[1208188800000,2.8475],[1208275200000,2.836],[1208361600000,2.8073],[1208448000000,2.7897],[1208707200000,2.7859],[1208793600000,2.7757],[1208880000000,2.8249],[1208966400000,2.9203],[1209052800000,2.9029],[1209312000000,2.8782],[1209398400000,2.8869],[1209484800000,2.9445],[1209916800000,2.977],[1210003200000,2.9639],[1210089600000,2.9116],[1210176000000,2.9492],[1210262400000,2.9478],[1210521600000,2.9517],[1210608000000,2.9532],[1210694400000,2.9773],[1210780800000,2.9584],[1210867200000,2.9477],[1211126400000,2.9443],[1211212800000,2.8857],[1211299200000,2.9065],[1211385600000,2.8854],[1211472000000,2.8834],[1211731200000,2.8518],[1211817600000,2.8558],[1211904000000,2.8793],[1211990400000,2.86],[1212076800000,2.861],[1212336000000,2.859],[1212422400000,2.8553],[1212508800000,2.8359],[1212595200000,2.8246],[1212681600000,2.8247],[1213027200000,2.7434],[1213113600000,2.7427],[1213200000000,2.7233],[1213286400000,2.6896],[1213545600000,2.6778],[1213632000000,2.6579],[1213718400000,2.7015],[1213804800000,2.6352],[1213891200000,2.659],[1214150400000,2.637],[1214236800000,2.6622],[1214323200000,2.707],[1214409600000,2.714],[1214496000000,2.6721],[1214755200000,2.6669],[1214841600000,2.6389],[1214928000000,2.6437],[1215014400000,2.6707],[1215100800000,2.6655],[1215360000000,2.7093],[1215446400000,2.7147],[1215532800000,2.7437],[1215619200000,2.7396],[1215705600000,2.7304],[1215964800000,2.7355],[1216051200000,2.6984],[1216137600000,2.6677],[1216224000000,2.6645],[1216310400000,2.6878],[1216569600000,2.7229],[1216656000000,2.72],[1216742400000,2.7088],[1216828800000,2.7353],[1216915200000,2.7274],[1217174400000,2.7336],[1217260800000,2.7221],[1217347200000,2.7172],[1217433600000,2.6964],[1217520000000,2.7088],[1217779200000,2.6947],[1217865600000,2.6758],[1217952000000,2.6765],[1218038400000,2.666],[1218124800000,2.6337],[1218384000000,2.5971],[1218470400000,2.5968],[1218556800000,2.6021],[1218643200000,2.6095],[1218729600000,2.6102],[1218988800000,2.5699],[1219075200000,2.5773],[1219161600000,2.6385],[1219248000000,2.6041],[1219334400000,2.5883],[1219593600000,2.5837],[1219680000000,2.5589],[1219766400000,2.5393],[1219852800000,2.537],[1219939200000,2.5546],[1220198400000,2.519],[1220284800000,2.5015],[1220371200000,2.4767],[1220457600000,2.4796],[1220544000000,2.4631],[1220803200000,2.4414],[1220889600000,2.4406],[1220976000000,2.4404],[1221062400000,2.4207],[1221148800000,2.4231],[1221494400000,2.4113],[1221580800000,2.3963],[1221667200000,2.379],[1221753600000,2.4559],[1222012800000,2.4795],[1222099200000,2.432],[1222185600000,2.4315],[1222272000000,2.4557],[1222358400000,2.471],[1222704000000,2.4709],[1223222400000,2.4386],[1223308800000,2.4344],[1223395200000,2.4114],[1223481600000,2.403],[1223568000000,2.3712],[1223827200000,2.3837],[1223913600000,2.3688],[1224000000000,2.359],[1224086400000,2.3342],[1224172800000,2.333],[1224432000000,2.3495],[1224518400000,2.3495],[1224604800000,2.3394],[1224691200000,2.3392],[1224777600000,2.3232],[1225036800000,2.2817],[1225123200000,2.2923],[1225209600000,2.2806],[1225296000000,2.2931],[1225382400000,2.2846],[1225641600000,2.2834],[1225728000000,2.276],[1225814400000,2.2935],[1225900800000,2.2767],[1225987200000,2.2755],[1226246400000,2.3164],[1226332800000,2.31],[1226419200000,2.3092],[1226505600000,2.3357],[1226592000000,2.3736],[1226851200000,2.3977],[1226937600000,2.3517],[1227024000000,2.3996],[1227110400000,2.3987],[1227196800000,2.3939],[1227456000000,2.3681],[1227542400000,2.3641],[1227628800000,2.3649],[1227715200000,2.3844],[1227801600000,2.3839],[1228060800000,2.3966],[1228147200000,2.4074],[1228233600000,2.4392],[1228320000000,2.4509],[1228406400000,2.4615],[1228665600000,2.4889],[1228752000000,2.4738],[1228838400000,2.4904],[1228924800000,2.4736],[1229011200000,2.4488],[1229270400000,2.4601],[1229356800000,2.469],[1229443200000,2.4825],[1229529600000,2.495],[1229616000000,2.5044],[1229875200000,2.5003],[1229961600000,2.4577],[1230048000000,2.4454],[1230134400000,2.4404],[1230220800000,2.432],[1230480000000,2.4333],[1230566400000,2.4338],[1230652800000,2.4344],[1231084800000,2.4448],[1231171200000,2.4587],[1231257600000,2.4546],[1231344000000,2.4419],[1231430400000,2.4528],[1231689600000,2.4509],[1231776000000,2.4361],[1231862400000,2.46],[1231948800000,2.4565],[1232035200000,2.4639],[1232294400000,2.4711],[1232380800000,2.4754],[1232467200000,2.468],[1232553600000,2.4747],[1232640000000,2.4706],[1233504000000,2.4784],[1233590400000,2.4967],[1233676800000,2.514],[1233763200000,2.5083],[1233849600000,2.539],[1234108800000,2.5601],[1234195200000,2.5672],[1234281600000,2.5751],[1234368000000,2.5825],[1234454400000,2.6089],[1234713600000,2.6186],[1234800000000,2.5934],[1234886400000,2.5572],[1234972800000,2.568],[1235059200000,2.5845],[1235318400000,2.6071],[1235404800000,2.5755],[1235491200000,2.5708],[1235577600000,2.5288],[1235664000000,2.5138],[1235923200000,2.525],[1236009600000,2.5187],[1236096000000,2.5778],[1236182400000,2.5742],[1236268800000,2.5672],[1236528000000,2.5378],[1236614400000,2.5548],[1236700800000,2.5464],[1236787200000,2.543],[1236873600000,2.5373],[1237132800000,2.5468],[1237219200000,2.5755],[1237305600000,2.5776],[1237392000000,2.596],[1237478400000,2.5868],[1237737600000,2.6058],[1237824000000,2.6154],[1237910400000,2.5964],[1237996800000,2.6065],[1238083200000,2.6128],[1238342400000,2.6079],[1238428800000,2.6188],[1238515200000,2.6312],[1238601600000,2.6445],[1238688000000,2.6368],[1239033600000,2.6381],[1239120000000,2.6115],[1239206400000,2.6263],[1239292800000,2.6553],[1239552000000,2.6726],[1239638400000,2.6851],[1239724800000,2.6952],[1239811200000,2.6982],[1239897600000,2.6929],[1240156800000,2.7172],[1240243200000,2.7137],[1240329600000,2.6796],[1240416000000,2.6816],[1240502400000,2.674],[1240761600000,2.6613],[1240848000000,2.6607],[1240934400000,2.6841],[1241020800000,2.6949],[1241366400000,2.721],[1241452800000,2.7202],[1241539200000,2.7285],[1241625600000,2.7227],[1241712000000,2.7291],[1241971200000,2.706],[1242057600000,2.7248],[1242144000000,2.7304],[1242230400000,2.7276],[1242316800000,2.7333],[1242576000000,2.7333],[1242662400000,2.7362],[1242748800000,2.7235],[1242835200000,2.7025],[1242921600000,2.7006],[1243180800000,2.7004],[1243267200000,2.7003],[1243353600000,2.7074],[1243785600000,2.7302],[1243872000000,2.7385],[1243958400000,2.7548],[1244044800000,2.7542],[1244131200000,2.767],[1244390400000,2.7727],[1244476800000,2.7781],[1244563200000,2.7937],[1244649600000,2.787],[1244736000000,2.7732],[1244995200000,2.8061],[1245081600000,2.8015],[1245168000000,2.8239],[1245254400000,2.8386],[1245340800000,2.8431],[1245600000000,2.8405],[1245686400000,2.8386],[1245772800000,2.8456],[1245859200000,2.8469],[1245945600000,2.8478],[1246204800000,2.8688],[1246291200000,2.8679],[1246377600000,2.884],[1246464000000,2.8941],[1246550400000,2.9042],[1246809600000,2.9034],[1246896000000,2.9029],[1246982400000,2.9076],[1247068800000,2.933],[1247155200000,2.9419],[1247414400000,2.9408],[1247500800000,2.9726],[1247587200000,2.9697],[1247673600000,2.9631],[1247760000000,2.9649],[1248019200000,2.984],[1248105600000,2.9666],[1248192000000,2.9872],[1248278400000,2.9964],[1248364800000,2.9882],[1248624000000,3.0121],[1248710400000,3.011],[1248796800000,2.9448],[1248883200000,2.9653],[1248969600000,2.9934],[1249228800000,3.0084],[1249315200000,3.0121],[1249401600000,3.0069],[1249488000000,2.9893],[1249574400000,2.9587],[1249833600000,2.9658],[1249920000000,2.9775],[1250006400000,2.9276],[1250092800000,2.9324],[1250179200000,2.8931],[1250438400000,2.8168],[1250524800000,2.8232],[1250611200000,2.7871],[1250697600000,2.83],[1250784000000,2.8636],[1251043200000,2.8896],[1251129600000,2.8676],[1251216000000,2.9004],[1251302400000,2.9071],[1251388800000,2.8763],[1251648000000,2.8038],[1251734400000,2.814],[1251820800000,2.8245],[1251907200000,2.8785],[1251993600000,2.8919],[1252252800000,2.9193],[1252339200000,2.9523],[1252425600000,2.956],[1252512000000,2.9427],[1252598400000,2.9684],[1252857600000,2.9949],[1252944000000,3.0012],[1253030400000,2.9897],[1253116800000,3.0113],[1253203200000,2.9683],[1253462400000,2.9893],[1253548800000,2.9703],[1253635200000,2.9346],[1253721600000,2.9304],[1253808000000,2.9274],[1254067200000,2.9077],[1254153600000,2.9033],[1254240000000,2.9148],[1255017600000,2.9625],[1255276800000,2.9591],[1255363200000,2.9715],[1255449600000,2.9746],[1255536000000,2.9738],[1255622400000,2.9748],[1255881600000,3.0047],[1255968000000,3.0255],[1256054400000,3.013],[1256140800000,3.0091],[1256227200000,3.0326],[1256486400000,3.034],[1256572800000,3.0036],[1256659200000,3.0052],[1256745600000,2.9785],[1256832000000,2.9964],[1257091200000,3.0514],[1257177600000,3.0649],[1257264000000,3.0748],[1257350400000,3.0729],[1257436800000,3.0728],[1257696000000,3.0776],[1257782400000,3.0823],[1257868800000,3.0795],[1257955200000,3.0871],[1258041600000,3.1034],[1258300800000,3.1439],[1258387200000,3.1437],[1258473600000,3.1437],[1258560000000,3.1495],[1258646400000,3.1439],[1258905600000,3.1635],[1258992000000,3.1082],[1259078400000,3.1469],[1259164800000,3.0849],[1259251200000,3.0515],[1259510400000,3.1154],[1259596800000,3.1393],[1259683200000,3.1495],[1259769600000,3.1464],[1259856000000,3.1506],[1260115200000,3.1658],[1260201600000,3.1515],[1260288000000,3.1267],[1260374400000,3.1358],[1260460800000,3.1379],[1260720000000,3.1499],[1260806400000,3.1457],[1260892800000,3.1354],[1260979200000,3.0974],[1261065600000,3.0593],[1261324800000,3.0563],[1261411200000,3.0268],[1261497600000,3.0436],[1261584000000,3.0927],[1261670400000,3.095],[1261929600000,3.1152],[1262016000000,3.123],[1262102400000,3.1345],[1262188800000,3.1427],[1262534400000,3.1349],[1262620800000,3.1486],[1262707200000,3.1437],[1262793600000,3.1136],[1262880000000,3.1207],[1263139200000,3.1211],[1263225600000,3.1454],[1263312000000,3.1138],[1263398400000,3.1367],[1263484800000,3.1479],[1263744000000,3.1595],[1263830400000,3.1577],[1263916800000,3.1068],[1264003200000,3.1085],[1264089600000,3.086],[1264348800000,3.0743],[1264435200000,3.0387],[1264521600000,3.0259],[1264608000000,3.0397],[1264694400000,3.0457],[1264953600000,3.0324],[1265040000000,3.0237],[1265126400000,3.0487],[1265212800000,3.0482],[1265299200000,3.0289],[1265558400000,3.0268],[1265644800000,3.0287],[1265731200000,3.0495],[1265817600000,3.0517],[1265904000000,3.0666],[1266768000000,3.0543],[1266854400000,3.0433],[1266940800000,3.064],[1267027200000,3.086],[1267113600000,3.0848],[1267372800000,3.0969],[1267459200000,3.0961],[1267545600000,3.0998],[1267632000000,3.0642],[1267718400000,3.0661],[1267977600000,3.0752],[1268064000000,3.0811],[1268150400000,3.0693],[1268236800000,3.0625],[1268323200000,3.046],[1268582400000,3.0285],[1268668800000,3.0334],[1268755200000,3.0635],[1268841600000,3.0621],[1268928000000,3.067],[1269187200000,3.0709],[1269273600000,3.0646],[1269360000000,3.0681],[1269446400000,3.0578],[1269532800000,3.0769],[1269792000000,3.0975],[1269878400000,3.1027],[1269964800000,3.0995],[1270051200000,3.1226],[1270137600000,3.1234],[1270483200000,3.1154],[1270569600000,3.1112],[1270656000000,3.1024],[1270742400000,3.1151],[1271001600000,3.1104],[1271088000000,3.1179],[1271174400000,3.1269],[1271260800000,3.111],[1271347200000,3.1056],[1271606400000,3.0508],[1271692800000,3.0579],[1271779200000,3.0931],[1271865600000,3.0998],[1271952000000,3.0901],[1272211200000,3.0845],[1272297600000,3.0588],[1272384000000,3.0591],[1272470400000,3.028],[1272556800000,3.0222],[1272902400000,3.0092],[1272988800000,3.0344],[1273075200000,2.9886],[1273161600000,2.9699],[1273420800000,2.9678],[1273507200000,2.9442],[1273593600000,2.9395],[1273680000000,2.9683],[1273766400000,2.9678],[1274025600000,2.9075],[1274112000000,2.9323],[1274198400000,2.938],[1274284800000,2.9294],[1274371200000,2.9583],[1274630400000,3.0005],[1274716800000,2.9752],[1274803200000,2.9725],[1274889600000,2.9919],[1274976000000,2.9911],[1275235200000,2.9651],[1275321600000,2.9553],[1275408000000,2.9655],[1275494400000,2.9635],[1275580800000,2.9687],[1275840000000,2.9643],[1275926400000,2.9726],[1276012800000,3.0004],[1276099200000,3.0008],[1276185600000,2.9987],[1276704000000,2.977],[1276790400000,2.9462],[1277049600000,2.9785],[1277136000000,2.981],[1277222400000,2.9749],[1277308800000,2.9791],[1277395200000,2.9676],[1277654400000,2.9546],[1277740800000,2.9012],[1277827200000,2.9007],[1277913600000,2.8787],[1278000000000,2.8745],[1278259200000,2.8788],[1278345600000,2.8997],[1278432000000,2.9093],[1278518400000,2.914],[1278604800000,2.9447],[1278864000000,2.9546],[1278950400000,2.9376],[1279036800000,2.938],[1279123200000,2.9216],[1279209600000,2.9256],[1279468800000,2.9513],[1279555200000,2.9723],[1279641600000,2.9764],[1279728000000,2.9908],[1279814400000,2.9964],[1280073600000,3.0065],[1280160000000,3.0069],[1280246400000,3.03],[1280332800000,3.0292],[1280419200000,3.0292],[1280678400000,3.0521],[1280764800000,3.0392],[1280851200000,3.0455],[1280937600000,3.0473],[1281024000000,3.066],[1281283200000,3.078],[1281369600000,3.0354],[1281456000000,3.0515],[1281542400000,3.042],[1281628800000,3.0666],[1281888000000,3.0974],[1281974400000,3.1136],[1282060800000,3.1082],[1282147200000,3.1056],[1282233600000,3.0811],[1282492800000,3.0902],[1282579200000,3.1057],[1282665600000,3.0818],[1282752000000,3.0935],[1282838400000,3.1111],[1283097600000,3.1462],[1283184000000,3.1496],[1283270400000,3.137],[1283356800000,3.1626],[1283443200000,3.1757],[1283702400000,3.1742],[1283788800000,3.1747],[1283875200000,3.1749],[1283961600000,3.1616],[1284048000000,3.1766],[1284307200000,3.1955],[1284393600000,3.1972],[1284480000000,3.1721],[1284566400000,3.145],[1284652800000,3.1572],[1284912000000,3.1534],[1284998400000,3.1547],[1285516800000,3.1774],[1285603200000,3.1727],[1285689600000,3.1538],[1285776000000,3.1777],[1286467200000,3.2148],[1286726400000,3.2121],[1286812800000,3.2121],[1286899200000,3.2273],[1286985600000,3.2006],[1287072000000,3.2191],[1287331200000,3.2052],[1287417600000,3.2489],[1287504000000,3.2718],[1287590400000,3.2573],[1287676800000,3.2595],[1287936000000,3.297],[1288022400000,3.2909],[1288108800000,3.2743],[1288195200000,3.2817],[1288281600000,3.292],[1288540800000,3.3366],[1288627200000,3.3215],[1288713600000,3.3047],[1288800000000,3.321],[1288886400000,3.3464],[1289145600000,3.3666],[1289232000000,3.3723],[1289318400000,3.3928],[1289404800000,3.3888],[1289491200000,3.3263],[1289750400000,3.356],[1289836800000,3.3201],[1289923200000,3.2547],[1290009600000,3.2795],[1290096000000,3.3232],[1290355200000,3.3483],[1290441600000,3.3366],[1290528000000,3.3769],[1290614400000,3.3878],[1290700800000,3.3767],[1290960000000,3.3838],[1291046400000,3.3538],[1291132800000,3.3478],[1291219200000,3.3537],[1291305600000,3.3581],[1291564800000,3.3499],[1291651200000,3.3825],[1291737600000,3.4016],[1291824000000,3.3747],[1291910400000,3.3959],[1292169600000,3.4479],[1292256000000,3.458],[1292342400000,3.4413],[1292428800000,3.4361],[1292515200000,3.4308],[1292774400000,3.416],[1292860800000,3.434],[1292947200000,3.417],[1293033600000,3.3957],[1293120000000,3.3838],[1293379200000,3.3562],[1293465600000,3.3337],[1293552000000,3.3553],[1293638400000,3.3691],[1293724800000,3.4222],[1294070400000,3.4412],[1294156800000,3.4394],[1294243200000,3.421],[1294329600000,3.4175],[1294588800000,3.3772],[1294675200000,3.3691],[1294761600000,3.3714],[1294848000000,3.3719],[1294934400000,3.3439],[1295193600000,3.2881],[1295280000000,3.2981],[1295366400000,3.3313],[1295452800000,3.2813],[1295539200000,3.2844],[1295798400000,3.2423],[1295884800000,3.2284],[1295971200000,3.2531],[1296057600000,3.2731],[1296144000000,3.284],[1296403200000,3.2978],[1296489600000,3.3006],[1297180800000,3.2846],[1297267200000,3.3167],[1297353600000,3.3339],[1297612800000,3.3703],[1297699200000,3.3651],[1297785600000,3.3732],[1297872000000,3.3772],[1297958400000,3.3596],[1298217600000,3.3734],[1298304000000,3.3372],[1298390400000,3.3417],[1298476800000,3.3443],[1298563200000,3.3489],[1298822400000,3.3707],[1298908800000,3.3767],[1298995200000,3.3743],[1299081600000,3.364],[1299168000000,3.3781],[1299427200000,3.3917],[1299513600000,3.3898],[1299600000000,3.3974],[1299686400000,3.3825],[1299772800000,3.3733],[1300032000000,3.3877],[1300118400000,3.3636],[1300204800000,3.3773],[1300291200000,3.3535],[1300377600000,3.3577],[1300636800000,3.343],[1300723200000,3.345],[1300809600000,3.3613],[1300896000000,3.3591],[1300982400000,3.3691],[1301241600000,3.35],[1301328000000,3.3314],[1301414400000,3.3184],[1301500800000,3.3101],[1301587200000,3.3269],[1302019200000,3.3163],[1302105600000,3.3177],[1302192000000,3.3355],[1302451200000,3.3242],[1302537600000,3.329],[1302624000000,3.3466],[1302710400000,3.3407],[1302796800000,3.349],[1303056000000,3.359],[1303142400000,3.344],[1303228800000,3.3474],[1303315200000,3.3532],[1303401600000,3.34],[1303660800000,3.3455],[1303747200000,3.3317],[1303833600000,3.3265],[1303920000000,3.2969],[1304006400000,3.3125],[1304352000000,3.3304],[1304438400000,3.3101],[1304524800000,3.3175],[1304611200000,3.326],[1304870400000,3.3302],[1304956800000,3.3325],[1305043200000,3.3354],[1305129600000,3.328],[1305216000000,3.3319],[1305475200000,3.3273],[1305561600000,3.3193],[1305648000000,3.3313],[1305734400000,3.3304],[1305820800000,3.3279],[1306080000000,3.2921],[1306166400000,3.2948],[1306252800000,3.2829],[1306339200000,3.2732],[1306425600000,3.2614],[1306684800000,3.2566],[1306771200000,3.267],[1306857600000,3.2796],[1306944000000,3.2586],[1307030400000,3.2817],[1307376000000,3.2866],[1307462400000,3.2978],[1307548800000,3.27],[1307635200000,3.2727],[1307894400000,3.2691],[1307980800000,3.2836],[1308067200000,3.2712],[1308153600000,3.2498],[1308240000000,3.2345],[1308499200000,3.2211],[1308585600000,3.2336],[1308672000000,3.2306],[1308758400000,3.2538],[1308844800000,3.283],[1309104000000,3.2935],[1309190400000,3.2934],[1309276800000,3.2796],[1309363200000,3.2992],[1309449600000,3.3061],[1309708800000,3.3347],[1309795200000,3.3393],[1309881600000,3.3389],[1309968000000,3.3488],[1310054400000,3.3528],[1310313600000,3.3618],[1310400000000,3.345],[1310486400000,3.3667],[1310572800000,3.3694],[1310659200000,3.3823],[1310918400000,3.3789],[1311004800000,3.3637],[1311091200000,3.3654],[1311177600000,3.3584],[1311264000000,3.3626],[1311523200000,3.3248],[1311609600000,3.3245],[1311696000000,3.348],[1311782400000,3.3479],[1311868800000,3.3414],[1312128000000,3.3389],[1312214400000,3.339],[1312300800000,3.3476],[1312387200000,3.3488],[1312473600000,3.3332],[1312732800000,3.3054],[1312819200000,3.3195],[1312905600000,3.3369],[1312992000000,3.3733],[1313078400000,3.3752],[1313337600000,3.3896],[1313424000000,3.3743],[1313510400000,3.37],[1313596800000,3.3457],[1313683200000,3.3407],[1313942400000,3.3214],[1314028800000,3.3358],[1314115200000,3.3417],[1314201600000,3.3714],[1314288000000,3.3724],[1314547200000,3.3661],[1314633600000,3.3557],[1314720000000,3.3451],[1314806400000,3.3311],[1314892800000,3.3167],[1315152000000,3.291],[1315238400000,3.2791],[1315324800000,3.3076],[1315411200000,3.2911],[1315497600000,3.2842],[1315843200000,3.2668],[1315929600000,3.2717],[1316016000000,3.2769],[1316102400000,3.2784],[1316361600000,3.2508],[1316448000</t>
   </si>
   <si>
+    <t>110011</t>
+  </si>
+  <si>
     <t>易方达中小盘混合</t>
   </si>
   <si>
     <t xml:space="preserve"> [[1213804800000,1.0],[1213891200000,1.0001],[1214496000000,0.9999],[1214755200000,0.9999],[1215100800000,1.0002],[1215705600000,1.0031],[1216310400000,0.9961],[1216915200000,1.0054],[1217520000000,0.9945],[1218124800000,0.9739],[1218729600000,0.9658],[1219334400000,0.9599],[1219939200000,0.9523],[1220544000000,0.9336],[1221148800000,0.9299],[1221667200000,0.9261],[1221753600000,0.9378],[1222012800000,0.9425],[1222099200000,0.9284],[1222185600000,0.9294],[1222272000000,0.9402],[1222358400000,0.9451],[1222704000000,0.9451],[1223222400000,0.9305],[1223308800000,0.9354],[1223395200000,0.9271],[1223481600000,0.9258],[1223568000000,0.916],[1223827200000,0.9266],[1223913600000,0.9235],[1224000000000,0.9227],[1224086400000,0.9077],[1224172800000,0.9086],[1224432000000,0.9159],[1224518400000,0.916],[1224604800000,0.912],[1224691200000,0.9115],[1224777600000,0.9054],[1225036800000,0.891],[1225123200000,0.8974],[1225209600000,0.8918],[1225296000000,0.897],[1225382400000,0.8952],[1225641600000,0.8948],[1225728000000,0.8886],[1225814400000,0.8982],[1225900800000,0.8939],[1225987200000,0.896],[1226246400000,0.9133],[1226332800000,0.9114],[1226419200000,0.9121],[1226505600000,0.93],[1226592000000,0.9459],[1226851200000,0.9612],[1226937600000,0.9432],[1227024000000,0.9672],[1227110400000,0.964],[1227196800000,0.9685],[1227456000000,0.9515],[1227542400000,0.9505],[1227628800000,0.9537],[1227715200000,0.9629],[1227801600000,0.9629],[1228060800000,0.9763],[1228147200000,0.9848],[1228233600000,0.996],[1228320000000,0.999],[1228406400000,1.0104],[1228665600000,1.0271],[1228752000000,1.0113],[1228838400000,1.0313],[1228924800000,1.0202],[1229011200000,0.9993],[1229270400000,1.0039],[1229356800000,1.0149],[1229443200000,1.0204],[1229529600000,1.0308],[1229616000000,1.0394],[1229875200000,1.0327],[1229961600000,1.0067],[1230048000000,0.9979],[1230134400000,0.9956],[1230220800000,0.9931],[1230480000000,0.9925],[1230566400000,0.9946],[1230652800000,0.9959],[1231084800000,1.0095],[1231171200000,1.0237],[1231257600000,1.0235],[1231344000000,1.0087],[1231430400000,1.0226],[1231689600000,1.0271],[1231776000000,1.0035],[1231862400000,1.0293],[1231948800000,1.0291],[1232035200000,1.0283],[1232294400000,1.0307],[1232380800000,1.0327],[1232467200000,1.0291],[1232553600000,1.043],[1232640000000,1.0419],[1233504000000,1.0561],[1233590400000,1.0785],[1233676800000,1.0913],[1233763200000,1.0787],[1233849600000,1.1167],[1234108800000,1.1468],[1234195200000,1.1606],[1234281600000,1.1634],[1234368000000,1.1619],[1234454400000,1.1912],[1234713600000,1.2096],[1234800000000,1.174],[1234886400000,1.141],[1234972800000,1.1618],[1235059200000,1.1805],[1235318400000,1.2017],[1235404800000,1.1595],[1235491200000,1.153],[1235577600000,1.1079],[1235664000000,1.0903],[1235923200000,1.1043],[1236009600000,1.1066],[1236096000000,1.1443],[1236182400000,1.1433],[1236268800000,1.1405],[1236528000000,1.1182],[1236614400000,1.1225],[1236700800000,1.1179],[1236787200000,1.1117],[1236873600000,1.1091],[1237132800000,1.1166],[1237219200000,1.1412],[1237305600000,1.1458],[1237392000000,1.1566],[1237478400000,1.1569],[1237737600000,1.1748],[1237824000000,1.1772],[1237910400000,1.1545],[1237996800000,1.1712],[1238083200000,1.1839],[1238342400000,1.1783],[1238428800000,1.1905],[1238515200000,1.2066],[1238601600000,1.2212],[1238688000000,1.2166],[1239033600000,1.2169],[1239120000000,1.1855],[1239206400000,1.2018],[1239292800000,1.2452],[1239552000000,1.2762],[1239638400000,1.2821],[1239724800000,1.2849],[1239811200000,1.2867],[1239897600000,1.2686],[1240156800000,1.2992],[1240243200000,1.2978],[1240329600000,1.2418],[1240416000000,1.2596],[1240502400000,1.2622],[1240761600000,1.2284],[1240848000000,1.235],[1240934400000,1.2587],[1241020800000,1.2772],[1241366400000,1.3095],[1241452800000,1.319],[1241539200000,1.3435],[1241625600000,1.3306],[1241712000000,1.3224],[1241971200000,1.2833],[1242057600000,1.3065],[1242144000000,1.3104],[1242230400000,1.3125],[1242316800000,1.3268],[1242576000000,1.3321],[1242662400000,1.3438],[1242748800000,1.3387],[1242835200000,1.3185],[1242921600000,1.3168],[1243180800000,1.3239],[1243267200000,1.3281],[1243353600000,1.3407],[1243785600000,1.3604],[1243872000000,1.3606],[1243958400000,1.3608],[1244044800000,1.3545],[1244131200000,1.3445],[1244390400000,1.3323],[1244476800000,1.3385],[1244563200000,1.3384],[1244649600000,1.332],[1244736000000,1.3065],[1244995200000,1.3205],[1245081600000,1.3176],[1245168000000,1.3318],[1245254400000,1.3497],[1245340800000,1.3473],[1245600000000,1.337],[1245686400000,1.3394],[1245772800000,1.3621],[1245859200000,1.3591],[1245945600000,1.3626],[1246204800000,1.3845],[1246291200000,1.3838],[1246377600000,1.4046],[1246464000000,1.4221],[1246550400000,1.4474],[1246809600000,1.4576],[1246896000000,1.4523],[1246982400000,1.4678],[1247068800000,1.4855],[1247155200000,1.5029],[1247414400000,1.5091],[1247500800000,1.5372],[1247587200000,1.553],[1247673600000,1.5519],[1247760000000,1.5616],[1248019200000,1.5943],[1248105600000,1.5669],[1248192000000,1.603],[1248278400000,1.6159],[1248364800000,1.6089],[1248624000000,1.6248],[1248710400000,1.6211],[1248796800000,1.5306],[1248883200000,1.5389],[1248969600000,1.5881],[1249228800000,1.6166],[1249315200000,1.648],[1249401600000,1.6305],[1249488000000,1.6064],[1249574400000,1.5527],[1249833600000,1.5551],[1249920000000,1.5627],[1250006400000,1.5041],[1250092800000,1.5178],[1250179200000,1.4748],[1250438400000,1.378],[1250524800000,1.3955],[1250611200000,1.3429],[1250697600000,1.4044],[1250784000000,1.4372],[1251043200000,1.465],[1251129600000,1.4325],[1251216000000,1.4581],[1251302400000,1.4486],[1251388800000,1.4072],[1251648000000,1.3292],[1251734400000,1.3209],[1251820800000,1.3367],[1251907200000,1.4009],[1251993600000,1.4169],[1252252800000,1.4236],[1252339200000,1.4608],[1252425600000,1.4744],[1252512000000,1.462],[1252598400000,1.4875],[1252857600000,1.5129],[1252944000000,1.5178],[1253030400000,1.5035],[1253116800000,1.5273],[1253203200000,1.4822],[1253462400000,1.5086],[1253548800000,1.4855],[1253635200000,1.4561],[1253721600000,1.4491],[1253808000000,1.4392],[1254067200000,1.4093],[1254153600000,1.4088],[1254240000000,1.4189],[1255017600000,1.4789],[1255276800000,1.4796],[1255363200000,1.4985],[1255449600000,1.5121],[1255536000000,1.5157],[1255622400000,1.5255],[1255881600000,1.5641],[1255968000000,1.5795],[1256054400000,1.574],[1256140800000,1.571],[1256227200000,1.5996],[1256486400000,1.6003],[1256572800000,1.5677],[1256659200000,1.5802],[1256745600000,1.5504],[1256832000000,1.5652],[1257091200000,1.6173],[1257177600000,1.6373],[1257264000000,1.6393],[1257350400000,1.646],[1257436800000,1.6479],[1257696000000,1.6593],[1257782400000,1.6652],[1257868800000,1.6645],[1257955200000,1.6648],[1258041600000,1.6762],[1258300800000,1.7201],[1258387200000,1.7239],[1258473600000,1.7191],[1258560000000,1.7289],[1258646400000,1.7307],[1258905600000,1.7483],[1258992000000,1.6943],[1259078400000,1.7435],[1259164800000,1.6836],[1259251200000,1.6521],[1259510400000,1.7181],[1259596800000,1.7484],[1259683200000,1.7733],[1259769600000,1.7829],[1259856000000,1.7647],[1260115200000,1.7717],[1260201600000,1.7586],[1260288000000,1.7275],[1260374400000,1.7354],[1260460800000,1.7347],[1260720000000,1.7421],[1260806400000,1.7395],[1260892800000,1.7278],[1260979200000,1.6755],[1261065600000,1.6277],[1261324800000,1.6346],[1261411200000,1.5923],[1261497600000,1.6156],[1261584000000,1.6756],[1261670400000,1.6899],[1261929600000,1.7099],[1262016000000,1.7141],[1262102400000,1.7177],[1262188800000,1.7255],[1262534400000,1.7202],[1262620800000,1.7358],[1262707200000,1.7409],[1262793600000,1.7086],[1262880000000,1.7058],[1263139200000,1.706],[1263225600000,1.7423],[1263312000000,1.7137],[1263398400000,1.752],[1263484800000,1.7626],[1263744000000,1.7721],[1263830400000,1.7607],[1263916800000,1.6965],[1264003200000,1.6939],[1264089600000,1.6486],[1264348800000,1.6343],[1264435200000,1.5876999999999999],[1264521600000,1.5789],[1264608000000,1.5931],[1264694400000,1.602],[1264953600000,1.5731],[1265040000000,1.5645],[1265126400000,1.5934],[1265212800000,1.5897],[1265299200000,1.5598],[1265558400000,1.5619],[1265644800000,1.5673],[1265731200000,1.5982],[1265817600000,1.5984],[1265904000000,1.6237],[1266768000000,1.6177],[1266854400000,1.6185],[1266940800000,1.6513],[1267027200000,1.6728],[1267113600000,1.6654],[1267372800000,1.6782],[1267459200000,1.677],[1267545600000,1.6898],[1267632000000,1.6458],[1267718400000,1.6468],[1267977600000,1.6621],[1268064000000,1.6646],[1268150400000,1.6443],[1268236800000,1.6317],[1268323200000,1.6178],[1268582400000,1.5976],[1268668800000,1.6022],[1268755200000,1.6413],[1268841600000,1.6403],[1268928000000,1.6465],[1269187200000,1.6634],[1269273600000,1.6585],[1269360000000,1.6656],[1269446400000,1.6558],[1269532800000,1.6726],[1269792000000,1.6972],[1269878400000,1.712],[1269964800000,1.7108],[1270051200000,1.7374],[1270137600000,1.7474],[1270483200000,1.7505],[1270569600000,1.7502],[1270656000000,1.7413],[1270742400000,1.7662],[1271001600000,1.7746],[1271088000000,1.7606],[1271174400000,1.7741],[1271260800000,1.7525],[1271347200000,1.7456],[1271606400000,1.674],[1271692800000,1.6853],[1271779200000,1.7287],[1271865600000,1.7383],[1271952000000,1.7306],[1272211200000,1.7272],[1272297600000,1.6937],[1272384000000,1.6857],[1272470400000,1.6391],[1272556800000,1.62],[1272902400000,1.6103],[1272988800000,1.6415],[1273075200000,1.587],[1273161600000,1.5447],[1273420800000,1.5251],[1273507200000,1.4977],[1273593600000,1.4829],[1273680000000,1.5214],[1273766400000,1.5218],[1274025600000,1.4491],[1274112000000,1.4757],[1274198400000,1.4929],[1274284800000,1.4848],[1274371200000,1.5271],[1274630400000,1.5779],[1274716800000,1.5575],[1274803200000,1.5558],[1274889600000,1.5821],[1274976000000,1.5834],[1275235200000,1.5482],[1275321600000,1.5234],[1275408000000,1.5363],[1275494400000,1.5296],[1275580800000,1.5315],[1275840000000,1.5262],[1275926400000,1.5436],[1276012800000,1.574],[1276099200000,1.5831],[1276185600000,1.5803],[1276704000000,1.5503],[1276790400000,1.5],[1277049600000,1.5297],[1277136000000,1.537],[1277222400000,1.5255],[1277308800000,1.5278],[1277395200000,1.5008],[1277654400000,1.4771],[1277740800000,1.4064],[1277827200000,1.3848],[1277913600000,1.3577],[1278000000000,1.3419],[1278259200000,1.3342],[1278345600000,1.3634],[1278432000000,1.385],[1278518400000,1.3838],[1278604800000,1.4216],[1278864000000,1.4389],[1278950400000,1.422],[1279036800000,1.4272],[1279123200000,1.4034],[1279209600000,1.4031],[1279468800000,1.4292],[1279555200000,1.468],[1279641600000,1.4755],[1279728000000,1.493],[1279814400000,1.495],[1280073600000,1.5108],[1280160000000,1.5087],[1280246400000,1.5367],[1280332800000,1.5423],[1280419200000,1.5414],[1280678400000,1.5685],[1280764800000,1.5497],[1280851200000,1.5592],[1280937600000,1.5627],[1281024000000,1.591],[1281283200000,1.6184],[1281369600000,1.5748],[1281456000000,1.5941],[1281542400000,1.5788],[1281628800000,1.6036],[1281888000000,1.636],[1281974400000,1.656],[1282060800000,1.6633],[1282147200000,1.6614],[1282233600000,1.6212],[1282492800000,1.6247],[1282579200000,1.6372],[1282665600000,1.6093],[1282752000000,1.6241],[1282838400000,1.6475],[1283097600000,1.6925],[1283184000000,1.711],[1283270400000,1.6937],[1283356800000,1.7226],[1283443200000,1.7328],[1283702400000,1.7188],[1283788800000,1.721],[1283875200000,1.7444],[1283961600000,1.7171],[1284048000000,1.7445],[1284307200000,1.7785],[1284393600000,1.7949],[1284480000000,1.7537],[1284566400000,1.724],[1284652800000,1.7266],[1284912000000,1.7137],[1284998400000,1.7113],[1285516800000,1.7505],[1285603200000,1.7341],[1285689600000,1.7105],[1285776000000,1.7408],[1286467200000,1.7773],[1286726400000,1.7637],[1286812800000,1.7756],[1286899200000,1.7767],[1286985600000,1.7323],[1287072000000,1.7315],[1287331200000,1.7131],[1287417600000,1.7688],[1287504000000,1.7863],[1287590400000,1.7963],[1287676800000,1.8241],[1287936000000,1.8688],[1288022400000,1.8696],[1288108800000,1.854],[1288195200000,1.8745],[1288281600000,1.8987],[1288540800000,1.947],[1288627200000,1.9308],[1288713600000,1.89],[1288800000000,1.9271],[1288886400000,1.9526],[1289145600000,1.9846],[1289232000000,1.9937],[1289318400000,1.9977],[1289404800000,1.9915],[1289491200000,1.9027],[1289750400000,1.9645],[1289836800000,1.925],[1289923200000,1.8679],[1290009600000,1.8858],[1290096000000,1.9532],[1290355200000,1.9861],[1290441600000,1.9667],[1290528000000,2.0158],[1290614400000,2.0183],[1290700800000,2.0146],[1290960000000,2.0274],[1291046400000,1.9972],[1291132800000,1.9861],[1291219200000,1.9907],[1291305600000,1.9727],[1291564800000,1.9505],[1291651200000,1.9846],[1291737600000,1.9788],[1291824000000,1.9464],[1291910400000,1.9677],[1292169600000,2.0226],[1292256000000,2.0343],[1292342400000,2.0276],[1292428800000,2.0228],[1292515200000,2.0254],[1292774400000,2.0108],[1292860800000,2.0293],[1292947200000,2.0105],[1293033600000,1.9792],[1293120000000,1.9524],[1293379200000,1.9129],[1293465600000,1.88],[1293552000000,1.9095],[1293638400000,1.9279],[1293724800000,1.971],[1294070400000,1.989],[1294156800000,1.9819],[1294243200000,1.9653],[1294329600000,1.9478],[1294588800000,1.899],[1294675200000,1.8819],[1294761600000,1.8798],[1294848000000,1.8856],[1294934400000,1.8539],[1295193600000,1.7781],[1295280000000,1.7786],[1295366400000,1.82],[1295452800000,1.7659],[1295539200000,1.7649],[1295798400000,1.7168],[1295884800000,1.7097],[1295971200000,1.7348],[1296057600000,1.771],[1296144000000,1.7918],[1296403200000,1.8175],[1296489600000,1.8165],[1297180800000,1.8006],[1297267200000,1.8429],[1297353600000,1.8641],[1297612800000,1.9084],[1297699200000,1.9108],[1297785600000,1.9402],[1297872000000,1.949],[1297958400000,1.9229],[1298217600000,1.9563],[1298304000000,1.9181],[1298390400000,1.9372],[1298476800000,1.944],[1298563200000,1.9362],[1298822400000,1.9622],[1298908800000,1.9682],[1298995200000,1.9619],[1299081600000,1.9199],[1299168000000,1.939],[1299427200000,1.9607],[1299513600000,1.959],[1299600000000,1.9726],[1299686400000,1.9599],[1299772800000,1.9481],[1300032000000,1.9592],[1300118400000,1.9416],[1300204800000,1.9663],[1300291200000,1.9471],[1300377600000,1.95],[1300636800000,1.938],[1300723200000,1.9319],[1300809600000,1.9569],[1300896000000,1.96],[1300982400000,1.9756],[1301241600000,1.9617],[1301328000000,1.9173],[1301414400000,1.8974],[1301500800000,1.8805],[1301587200000,1.8996],[1302019200000,1.8875],[1302105600000,1.8987],[1302192000000,1.9257],[1302451200000,1.9125],[1302537600000,1.9039],[1302624000000,1.9212],[1302710400000,1.9133],[1302796800000,1.9008],[1303056000000,1.9026],[1303142400000,1.8971],[1303228800000,1.9121],[1303315200000,1.9282],[1303401600000,1.9268],[1303660800000,1.8999],[1303747200000,1.884],[1303833600000,1.858],[1303920000000,1.8098],[1304006400000,1.8382],[1304352000000,1.8545],[1304438400000,1.8167],[1304524800000,1.8164],[1304611200000,1.8189],[1304870400000,1.8296],[1304956800000,1.843],[1305043200000,1.8459],[1305129600000,1.8215],[1305216000000,1.8269],[1305475200000,1.825],[1305561600000,1.8224],[1305648000000,1.8273],[1305734400000,1.8262],[1305820800000,1.8212],[1306080000000,1.7543],[1306166400000,1.7585],[1306252800000,1.7372],[1306339200000,1.7174],[1306425600000,1.6944],[1306684800000,1.6805],[1306771200000,1.7086],[1306857600000,1.7234],[1306944000000,1.7098],[1307030400000,1.7372],[1307376000000,1.7553],[1307462400000,1.7567],[1307548800000,1.7252],[1307635200000,1.7174],[1307894400000,1.719],[1307980800000,1.736],[1308067200000,1.7182],[1308153600000,1.687],[1308240000000,1.6718],[1308499200000,1.6581],[1308585600000,1.6781],[1308672000000,1.6778],[1308758400000,1.7076],[1308844800000,1.7374],[1309104000000,1.753],[1309190400000,1.7597],[1309276800000,1.7438],[1309363200000,1.7664],[1309449600000,1.776],[1309708800000,1.8161],[1309795200000,1.8257],[1309881600000,1.8249],[1309968000000,1.8318],[1310054400000,1.8387],[1310313600000,1.8591],[1310400000000,1.8401],[1310486400000,1.8709],[1310572800000,1.8805],[1310659200000,1.886],[1310918400000,1.884],[1311004800000,1.8643],[1311091200000,1.8654],[1311177600000,1.8467],[1311264000000,1.8506],[1311523200000,1.7932],[1311609600000,1.8033],[1311696000000,1.831],[1311782400000,1.8366],[1311868800000,1.8144],[1312128000000,1.823],[1312214400000,1.822],[1312300800000,1.8255],[1312387200000,1.8333],[1312473600000,1.815],[1312732800000,1.7605],[1312819200000,1.7722],[1312905600000,1.798],[1312992000000,1.8259],[1313078400000,1.8318],[1313337600000,1.8431],[1313424000000,1.8304],[1313510400000,1.8202],[1313596800000,1.7961],[1313683200000,1.7848],[1313942400000,1.7608],[1314028800000,1.7845],[1314115200000,1.7893],[1314201600000,1.8191],[1314288000000,1.8225],[1314547200000,1.8156],[1314633600000,1.8053],[1314720000000,1.7988],[1314806400000,1.786],[1314892800000,1.7684],[1315152000000,1.7305],[1315238400000,1.7153],[1315324800000,1.7468],[1315411200000,1.7353],[1315497600000,1.7237],[1315843200000,1.6956],[1315929600000,1.7065],[1316016000000,1.7079],[1316102400000,1.7099],[1316361600000,1.6806],[1316448000000,1.682],[1316534400000,1.7276],[1316620800000,1.6856],[1316707200000,1.6787],[1316966400000,1.6631],[1317052800000,1.6702],[1317139200000,1.6552],[1317225600000,1.6281],[1317312000000,1.6248],[1318176000000,1.6077],[1318262400000,1.5872],[1318348800000,1.6322],[1318435200000,1.6455],[1318521600000,1.636],[1318780800000,1.6482],[1318867200000,1.6058],[1318953600000,1.591],[1319040000000,1.5498],[1319126400000,1.523],[1319385600000,1.5429],[1319472000000,1.5832],[1319558400000,1.5958],[1319644800000,1.5936],[1319731200000,1.627],[1319990400000,1.6335],[1320076800000,1.6355],[1320163200000,1.6575],[1320249600000,1.6681],[1320336000000,1.6744],[1320595200000,1.6685],[1320681600000,1.6626],[1320768000000,1.6768],[1320854400000,1.6617],[1320940800000,1.6545],[1321200000000,1.69],[1321286400000,1.6966],[1321372800000,1.6568],[1321459200000,1.6599],[1321545600000,1.6282],[1321804800000,1.6244],[1321891200000,1.6216],[1321977600000,1.6185],[1322064000000,1.6177],[1322150400000,1.6076],[1322409600000,1.6136],[1322496000000,1.6371],[1322582400000,1.5966],[1322668800000,1.6224],[1322755200000,1.5936],[1323014400000,1.5542],[1323100800000,1.552],[1323187200000,1.5535],[1323273600000,1.5475],[1323360000000,1.5358],[1323619200000,1.522],[1323705600000,1.4904],[1323792000000,1.4717],[1323878400000,1.4474],[1323964800000,1.4796],[1324224000000,1.4812],[1324310400000,1.4737],[1324396800000,1.4495],[1324483200000,1.4539],[1324569600000,1.4583],[1324828800000,1.4483],[1324915200000,1.4215],[1325001600000,1.4159],[1325088000000,1.4183],[1325174400000,1.4445],[1325260800000,1.4444],[1325606400000,1.4072],[1325692800000,1.3527],[1325779200000,1.3537],[1326038400000,1.3926],[1326124800000,1.4397],[1326211200000,1.4377],[1326297600000,1.431],[1326384000000,1.3839],[1326643200000,1.3317],[1326729600000,1.3908],[1326816000000,1.3598],[1326902400000,1.3798],[1326988800000,1.3996],[1327852800000,1.3915],[1327939200000,1.3978],[1328025600000,1.3876],[1328112000000,1.4062],[1328198400000,1.4251],[1328457600000,1.4401],[1328544000000,1.4207],[1328630400000,1.4556],[1328716800000,1.4604],[1328803200000,1.4649],[1329062400000,1.4704],[1329148800000,1.4642],[1329235200000,1.4802],[1329321600000,1.4782],[1329408000000,1.4754],[1329667200000,1.4794],[1329753600000,1.4956],[1329840000000,1.5185],[1329926400000,1.5308],[1330012800000,1.5495],[1330272000000,1.5521],[1330358400000,1.5397],[1330444800000,1.5283],[1330531200000,1.5294],[1330617600000,1.5512],[1330876800000,1.5432],[1330963200000,1.5216],[1331049600000,1.5118],[1331136000000,1.5313],[1331222400000,1.5582],[1331481600000,1.5636],[1331568000000,1.5811],[1331654400000,1.5428],[1331740800000,1.5365],[1331827200000,1.5632],[1332086400000,1.5714],[1332172800000,1.54],[1332259200000,1.5441],[1332345600000,1.5375],[1332432000000,1.5134],[1332691200000,1.5156],[1332777600000,1.5103],[1332864000000,1.4583],[1332950400000,1.4483],[1333036800000,1.4495],[1333123200000,1.4494],[1333555200000,1.485],[1333641600000,1.4914],[1333900800000,1.4765],[1333987200000,1.4863],[1334073600000,1.4828],[1334160000000,1.5063],[1334246400000,1.5199],[1334505600000,1.5214],[1334592000000,1.5012],[1334678400000,1.5311],[1334764800000,1.5248],[1334851200000,1.5264],[1335110400000,1.5095],[1335196800000,1.4931],[1335283200000,1.5103],[1335369600000,1.5155],[1335456000000,1.5134],[1335888000000,1.5468],[1335974400000,1.5535],[1336060800000,1.5699],[1336320000000,1.5832],[1336406400000,1.581],[1336492800000,1.5539],[1336579200000,1.5604],[1336665600000,1.5541],[1336924800000,1.5433],[1337011200000,1.5463],[1337097600000,1.5291],[1337184000000,1.5403],[1337270400000,1.524],[1337529600000,1.5422],[1337616000000,1.5624],[1337702400000,1.5609],[1337788800000,1.5532],[1337875200000,1.536],[1338134400000,1.5545],[1338220800000,1.5843],[1338307200000,1.5859],[1338393600000,1.5807],[1338480000000,1.5816],[1338739200000,1.5427],[1338825600000,1.5378],[1338912000000,1.5265],[1338998400000,1.5178],[1339084800000,1.5146],[1339344000000,1.5453],[1339430400000,1.5567],[1339516800000,1.5806],[1339603200000,1.565],[1339689600000,1.5564],[1339948800000,1.572],[1340035200000,1.5583],[1340121600000,1.5513],[1340208000000,1.5324],[1340553600000,1.5021],[1340640000000,1.4895],[1340726400000,1.4856],[1340812800000,1.4695],[1340899200000,1.4925],[1340985600000,1.4924],[1341158400000,1.5026],[1341244800000,1.5014],[1341331200000,1.4921],[1341417600000,1.475],[1341504000000,1.5068],[1341763200000,1.4918],[1341849600000,1.478],[1341936000000,1.4922],[1342022400000,1.5167],[1342108800000,1.516],[1342368000000,1.4733],[1342454400000,1.4717],[1342540800000,1.4715],[1342627200000,1.4773],[1342713600000,1.467],[1342972800000,1.4475],[1343059200000,1.4536],[1343145600000,1.4414],[1343232000000,1.4382],[1343318400000,1.4281],[1343577600000,1.4239],[1343664000000,1.4168],[1343750400000,1.4381],[1343836800000,1.4246],[1343923200000,1.4422],[1344182400000,1.4691],[1344268800000,1.4805],[1344355200000,1.4751],[1344441600000,1.4958],[1344528000000,1.4927],[1344787200000,1.4671],[1344873600000,1.4684],[1344960000000,1.4577],[1345046400000,1.4489],[1345132800000,1.4427],[1345392000000,1.4417],[1345478400000,1.4518],[1345564800000,1.4431],[1345651200000,1.4402],[1345737600000,1.4282],[1345996800000,1.4065],[1346083200000,1.4055],[1346169600000,1.3983],[1346256000000,1.3795],[1346342400000,1.3807],[1346601600000,1.4035],[1346688000000,1.3927],[1346774400000,1.3965],[1346860800000,1.4024],[1346947200000,1.4394],[1347206400000,1.4439],[1347292800000,1.4343],[1347379200000,1.4386],[1347465600000,1.432],[1347552000000,1.4276],[1347811200000,1.4028],[1347897600000,1.3989],[1347984000000,1.4054],[1348070400000,1.386],[1348156800000,1.3835],[1348416000000,1.3911],[1348502400000,1.3947],[1348588800000,1.3764],[1348675200000,1.3971],[1348761600000,1.4156],[1348934400000,1.4155],[1349625600000,1.4107],[1349712000000,1.4363],[1349798400000,1.4404],[1349884800000,1.4261],[1349971200000,1.4178],[1350230400000,1.4147],[1350316800000,1.4246],[1350403200000,1.4229],[1350489600000,1.445],[1350576000000,1.441],[1350835200000,1.4559],[1350921600000,1.434],[1351008000000,1.4232],[1351094400000,1.4146],[1351180800000,1.4028],[1351440000000,1.3982],[1351526400000,1.4021],[1351612800000,1.4165],[1351699200000,1.4339],[1351785600000,1.434],[1352044800000,1.4317],[1352131200000,1.4336],[1352217600000,1.4246],[1352304000000,1.4141],[1352390400000,1.4055],[1352649600000,1.4052],[1352736000000,1.3939],[1352822400000,1.3996],[1352908800000,1.3944],[1352995200000,1.3824],[1353254400000,1.3769],[1353340800000,1.3756],[1353427200000,1.3824],[1353513600000,1.3692],[1353600000000,1.3809],[1353859200000,1.367],[1353945600000,1.3473],[1354032000000,1.337],[1354118400000,1.3381],[1354204800000,1.3575],[1354464000000,1.3489],[1354550400000,1.3528],[1354636800000,1.3832],[1354723200000,1.3791],[1354809600000,1.387],[1355068800000,1.3948],[1355155200000,1.3914],[1355241600000,1.3902],[1355328000000,1.3862],[1355414400000,1.4263],[1355673600000,1.4199],[1355760000000,1.4082],[1355846400000,1.4119],[1355932800000,1.4199],[1356019200000,1.4249],[1356278400000,1.4435],[1356364800000,1.4747],[1356451200000,1.4892],[1356537600000,1.4805],[1356624000000,1.4939],[1356883200000,1.5182],[1357228800000,1.5081],[1357488000000,1.5251],[1357574400000,1.527],[1357660800000,1.5334],[1357747200000,1.5325],[1357833600000,1.5144],[1358092800000,1.5627],[1358179200000,1.5679],[1358265600000,1.5703],[1358352000000,1.5654],[1358438400000,1.598],[1358697600000,1.5924],[1358784000000,1.5747],[1358870400000,1.5748],[1358956800000,1.5601],[1359043200000,1.5695],[1359302400000,1.5974],[1359388800000,1.6026],[1359475200000,1.6043],[1359561600000,1.587],[1359648000000,1.6089],[1359907200000,1.5987],[1359993600000,1.625],[1360080000000,1.6364],[1360166400000,1.6539],[1360252800000,1.6781],[1361116800000,1.6644],[1361203200000,1.6235],[1361289600000,1.6606],[1361376000000,1.6395],[1361462400000,1.6304],[1361721600000,1.6345],[1361808000000,1.6056],[1361894400000,1.6039],[1361980800000,1.6405],[1362067200000,1.6538],[1362326400000,1.5903],[1362412800000,1.6205],[1362499200000,1.6279],[1362585600000,1.6066],[1362672000000,1.5954],[1362931200000,1.6026],[1363017600000,1.5866],[1363104000000,1.5724],[1363190400000,1.5882],[1363276800000,1.5878],[1363536000000,1.5797],[1363622400000,1.584],[1363708800000,1.6208],[1363795200000,1.6299],[1363881600000,1.6355],[1364140800000,1.6372],[1364227200000,1.6444],[1364313600000,1.6509],[1364400000000,1.6255],[1364486400000,1.6235],[1364745600000,1.6259],[1364832000000,1.6004],[1364918400000,1.5862],[1365350400000,1.5848],[1365436800000,1.5911],[1365523200000,1.5804],[1365609600000,1.5807],[1365696000000,1.5777],[1365955200000,1.5759],[1366041600000,1.5871],[1366128000000,1.6098],[1366214400000,1.6046],[1366300800000,1.6286],[1366560000000,1.6192],[1366646400000,1.5886],[1366732800000,1.6067],[1366819200000,1.5921],[1366905600000,1.5724],[1367424000000,1.5762],[1367510400000,1.6077],[1367769600000,1.6252],[1367856000000,1.6284],[1367942400000,1.645],[1368028800000,1.6443],[1368115200000,1.6461],[1368374400000,1.6332],[1368460800000,1.6052],[1368547200000,1.6151],[1368633600000,1.6425],[1368720000000,1.6769],[1368979200000,1.6861],[1369065600000,1.6848],[1369152000000,1.6814],[1369238400000,1.6657],[1369324800000,1.6742],[1369584000000,1.6829],[1369670400000,1.7046],[1369756800000,1.7098],[1369843200000,1.7123],[1369929600000,1.6953],[1370188800000,1.695],[1370275200000,1.6786],[1370361600000,1.6803],[1370448000000,1.661],[1370534400000,1.6357],[1371052800000,1.5946],[1371139200000,1.6188],[1371398400000,1.6205],[1371484800000,1.643],[1371571200000,1.6434],[1371657600000,1.6096],[1371744000000,1.6093],[1372003200000,1.5381],[1372089600000,1.5403],[1372176000000,1.5581],[1372262400000,1.5714],[1372348800000,1.5875],[1372521600000,1.5874],[1372608000000,1.6212],[1372694400000,1.6442],[1372780800000,1.651],[1372867200000,1.6534],[1372953600000,1.6555],[1373212800000,1.6399],[1373299200000,1.6252],[1373385600000,1.6472],[1373472000000,1.6831],[1373558400000,1.6695],[1373817600000,1.6958],[1373904000000,1.7025],[1373990400000,1.6735],[1374076800000,1.6525],[1374163200000,1.6101],[1374422400000,1.6278],[1374508800000,1.669],[1374595200000,1.6675],[1374681600000,1.661],[1374768000000,1.6529],[1375027200000,1.6272],[1375113600000,1.6266],[1375200000000,1.6304],[1375286400000,1.6589],[1375372800000,1.6723],[1375632000000,1.6978],[1375718400000,1.6967],[1375804800000,1.6974],[1375891200000,1.6925],[1375977600000,1.7048],[1376236800000,1.7258],[1376323200000,1.7201],[1376409600000,1.7072],[1376496000000,1.6849],[1376582400000,1.669],[1376841600000,1.6973],[1376928000000,1.7021],[1377014400000,1.6863],[1377100800000,1.6881],[1377187200000,1.6847],[1377446400000,1.6986],[1377532800000,1.6979],[1377619200000,1.6772],[1377705600000,1.6721],[1377792000000,1.6682],[1378051200000,1.655],[1378137600000,1.6764],[1378224000000,1.6778],[1378310400000,1.6855],[1378396800000,1.6785],[1378656000000,1.7004],[1378742400000,1.7086],[1378828800000,1.7061],[1378915200000,1.6989],[1379001600000,1.7101],[1379260800000,1.7083],[1379347200000,1.6864],[1379433600000,1.6833],[1379865600000,1.7051],[1379952000000,1.7054],[1380038400000,1.6964],[1380124800000,1.6922],[1380211200000,1.6958],[1380470400000,1.6956],[1381161600000,1.7183],[1381248000000,1.723],[1381334400000,1.7417],[1381420800000,1.7542],[1381680000000,1.7498],[1381766400000,1.7635],[1381852800000,1.7567],[1381939200000,1.748],[1382025600000,1.7525],[1382284800000,1.7955],[1382371200000,1.7763],[1382457600000,1.7449],[1382544000000,1.7387],[1382630400000,1.7191],[1382889600000,1.7129],[1382976000000,1.7106],[1383062400000,1.7297],[1383148800000,1.7061],[1383235200000,1.7136],[1383494400000,1.7062],[1383580800000,1.7016],[1383667200000,1.6771],[1383753600000,1.6583],[1383840000000,1.6447],[1384099200000,1.6497],[1384185600000,1.6724],[1384272000000,1.6438],[1384358400000,1.6456],[1384444800000,1.6685],[1384704000000,1.6899],[1384790400000,1.6695],[1384876800000,1.6738],[1384963200000,1.655],[1385049600000,1.6467],[1385308800000,1.6408],[1385395200000,1.6396],[1385481600000,1.6441],[1385568000000,1.6713],[1385654400000,1.6704],[1385913600000,1.6434],[1386000000000,1.6599],[1386086400000,1.6725],[1386172800000,1.6656],[1386259200000,1.6597],[1386518400000,1.6599],[1386604800000,1.6591],[1386691200000,1.6435],[1386777600000,1.6489],[1386864000000,1.6574],[1387123200000,1.649],[1387209600000,1.6536],[1387296000000,1.6495],[1387382400000,1.6361],[1387468800000,1.6193],[1387728000000,1.6202],[1387814400000,1.6195],[1387900800000,1.6391],[1387987200000,1.6256],[1388073600000,1.642],[1388332800000,1.6452],[1388419200000,1.6603],[1388592000000,1.6519],[1388678400000,1.6393],[1388937600000,1.6027],[1389024000000,1.6016],[1389110400000,1.6086],[1389196800000,1.5975],[1389283200000,1.5888],[1389542400000,1.5729],[1389628800000,1.5919],[1389715200000,1.5944],[1389801600000,1.5977],[1389888000000,1.5732],[1390147200000,1.5694],[1390233600000,1.5754],[1390320000000,1.6189],[1390406400000,1.6224],[1390492800000,1.6329],[1390752000000,1.6159],[1390838400000,1.6092],[1390924800000,1.6002],[1391011200000,1.5836],[1391702400000,1.5954],[1391961600000,1.6306],[1392048000000,1.6381],[1392134400000,1.643],[1392220800000,1.6279],[1392307200000,1.6418],[1392566400000,1.653],[1392652800000,1.6426],[1392739200000,1.6405],[1392825600000,1.6342],[1392912000000,1.6227],[1393171200000,1.588],[1393257600000,1.5542],[1393344000000,1.5445],[1393430400000,1.5138],[1393516800000,1.5532],[1393776000000,1.5824],[1393862400000,1.5716],[1393948800000,1.5679],[1394035200000,1.5965],[1394121600000,1.6025],[1394380800000,1.5688],[1394467200000,1.5952],[1394553600000,1.5882],[1394640000000,1.609],[1394726400000,1.5929],[1394985600000,1.6132],[1395072000000,1.6131],[1395158400000,1.5935],[1395244800000,1.566],[1395331200000,1.6103],[1395590400000,1.621],[1395676800000,1.62],[1395763200000,1.6155],[1395849600000,1.5963],[1395936000000,1.5746],[1396195200000,1.5873],[1396281600000,1.6118],[1396368000000,1.6283],[1396454400000,1.6159],[1396540800000,1.6302],[1396886400000,1.643],[1396972800000,1.6534],[1397059200000,1.6602],[1397145600000,1.6816],[1397404800000,1.692],[1397491200000,1.6741],[1397577600000,1.6753],[1397664000000,1.6704],[1397750400000,1.6701],[1398009600000,1.6446],[1398096000000,1.6398],[1398182400000,1.648],[1398268800000,1.6431],[1398355200000,1.6102],[1398614400000,1.581],[1398700800000,1.6042],[1398787200000,1.6166],[1399219200000,1.6164],[1399305600000,1.6176],[1399392000000,1.6078],[1399478400000,1.606],[1399564800000,1.5943],[1399824000000,1.6096],[1399910400000,1.6187],[1399996800000,1.6149],[1400083200000,1.5906],[1400169600000,1.5933],[1400428800000,1.566],[1400515200000,1.5585],[1400601600000,1.5797],[1400688000000,1.5865],[1400774400000,1.6035],[1401033600000,1.6164],[1401120000000,1.6098],[1401206400000,1.6242],[1401292800000,1.618],[1401379200000,1.6176],[1401724800000,1.6026],[1401811200000,1.586],[1401897600000,1.6027],[1401984000000,1.597],[1402243200000,1.5973],[1402329600000,1.611],[1402416000000,1.6215],[1402502400000,1.6251],[1402588800000,1.6293],[1402848000000,1.6296],[1402934400000,1.6174],[1403020800000,1.6104],[1403107200000,1.5956],[1403193600000,1.5972],[1403452800000,1.6092],[1403539200000,1.6262],[1403625600000,1.6208],[1403712000000,1.6365],[1403798400000,1.6415],[1404057600000,1.6491],[1404144000000,1.6369],[1404230400000,1.6325],[1404316800000,1.6384],[1404403200000,1.6412],[1404662400000,1.648],[1404748800000,1.6539],[1404835200000,1.6282],[1404921600000,1.6165],[1405008000000,1.6242],[1405267200000,1.6532],[140</t>
+  </si>
+  <si>
+    <t>005827</t>
+  </si>
+  <si>
+    <t>易方达蓝筹精选</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [[1536076800000,1.0],[1536249600000,0.9986],[1536854400000,0.9985],[1537459200000,1.0143],[1538064000000,1.0192],[1538928000000,0.9972],[1539014400000,0.997],[1539100800000,0.9885],[1539187200000,0.9731],[1539273600000,0.9872],[1539532800000,0.982],[1539619200000,0.9793],[1539792000000,0.9706],[1539878400000,0.9855],[1540137600000,1.0084],[1540224000000,0.983],[1540310400000,0.9748],[1540396800000,0.9623],[1540483200000,0.9529],[1540742400000,0.9246],[1540828800000,0.9201],[1540915200000,0.9374],[1541001600000,0.9503],[1541088000000,0.9893],[1541347200000,0.9727],[1541433600000,0.9686],[1541520000000,0.9667],[1541606400000,0.9688],[1541692800000,0.9602],[1541952000000,0.9593],[1542038400000,0.9687],[1542124800000,0.9609],[1542211200000,0.9658],[1542297600000,0.967],[1542556800000,0.9748],[1542643200000,0.9599],[1542729600000,0.968],[1542816000000,0.9693],[1542902400000,0.9606],[1543161600000,0.9617],[1543248000000,0.9605],[1543334400000,0.9683],[1543420800000,0.9641],[1543507200000,0.9707],[1543766400000,0.9923],[1543852800000,0.9939],[1543939200000,0.9904],[1544025600000,0.9651],[1544112000000,0.9634],[1544371200000,0.9569],[1544457600000,0.963],[1544544000000,0.9678],[1544630400000,0.9788],[1544716800000,0.9688],[1544976000000,0.9642],[1545062400000,0.9591],[1545148800000,0.9514],[1545235200000,0.9479],[1545321600000,0.9404],[1546185600000,0.9471],[1546358400000,0.9306],[1546444800000,0.9199],[1546531200000,0.9268],[1546790400000,0.9315],[1546876800000,0.9332],[1546963200000,0.9473],[1547049600000,0.95],[1547136000000,0.9557],[1547395200000,0.9413],[1547481600000,0.9688],[1547568000000,0.9718],[1547654400000,0.9705],[1547740800000,0.9932],[1548000000000,0.9987],[1548086400000,0.9848],[1548172800000,0.9817],[1548259200000,0.9849],[1548345600000,0.9975],[1548604800000,0.9982],[1548691200000,1.0025],[1548777600000,0.9954],[1549814400000,1.0475],[1549900800000,1.0569],[1549987200000,1.0704],[1550073600000,1.0739],[1550160000000,1.0509],[1550419200000,1.0773],[1550505600000,1.0693],[1550592000000,1.0717],[1550678400000,1.072],[1550764800000,1.082],[1551024000000,1.1044],[1551110400000,1.0897],[1551196800000,1.0829],[1551283200000,1.0918],[1551369600000,1.1224],[1551628800000,1.137],[1551715200000,1.1393],[1551801600000,1.135],[1551888000000,1.1061],[1551974400000,1.0829],[1552233600000,1.1179],[1552320000000,1.1256],[1552406400000,1.1241],[1552492800000,1.1278],[1552579200000,1.1465],[1552838400000,1.1928],[1552924800000,1.185],[1553011200000,1.1787],[1553097600000,1.1708],[1553184000000,1.1796],[1553443200000,1.1498],[1553529600000,1.1532],[1553616000000,1.1692],[1553702400000,1.1752],[1553788800000,1.2046],[1554048000000,1.2167],[1554134400000,1.2087],[1554220800000,1.2203],[1554307200000,1.2293],[1554652800000,1.2458],[1554739200000,1.2637],[1554825600000,1.2725],[1554912000000,1.2405],[1554998400000,1.2388],[1555257600000,1.2262],[1555344000000,1.2462],[1555430400000,1.25],[1555516800000,1.2444],[1555948800000,1.2568],[1556035200000,1.2525],[1556121600000,1.2315],[1556208000000,1.2361],[1556553600000,1.2594],[1557072000000,1.1972],[1557158400000,1.217],[1557244800000,1.2076],[1557331200000,1.1682],[1557417600000,1.2182],[1557763200000,1.2013],[1557849600000,1.2493],[1557936000000,1.262],[1558022400000,1.2344],[1558281600000,1.2079],[1558368000000,1.2139],[1558454400000,1.2112],[1558540800000,1.1777],[1558627200000,1.1851],[1558886400000,1.1953],[1558972800000,1.2145],[1559059200000,1.211],[1559145600000,1.2035],[1559232000000,1.1967],[1559491200000,1.1987],[1559577600000,1.1788],[1559664000000,1.1679],[1559750400000,1.1605],[1560096000000,1.1923],[1560182400000,1.2294],[1560268800000,1.2129],[1560355200000,1.2088],[1560441600000,1.2027],[1560700800000,1.2034],[1560787200000,1.218],[1560873600000,1.2447],[1560960000000,1.2791],[1561046400000,1.2803],[1561305600000,1.2937],[1561392000000,1.2883],[1561478400000,1.2883],[1561564800000,1.3149],[1561651200000,1.3184],[1561824000000,1.3183],[1561996800000,1.3625],[1562083200000,1.3454],[1562169600000,1.3352],[1562256000000,1.362],[1562515200000,1.3402],[1562601600000,1.3354],[1562688000000,1.3471],[1562774400000,1.3405],[1562860800000,1.3469],[1563120000000,1.3476],[1563206400000,1.3368],[1563292800000,1.3376],[1563379200000,1.3244],[1563465600000,1.3346],[1563724800000,1.3297],[1563811200000,1.3241],[1563897600000,1.3249],[1563984000000,1.3393],[1564070400000,1.3386],[1564329600000,1.3463],[1564416000000,1.3432],[1564588800000,1.3232],[1564675200000,1.3003],[1564934400000,1.2746],[1565020800000,1.2825],[1565107200000,1.2834],[1565193600000,1.3014],[1565280000000,1.288],[1565539200000,1.3167],[1565625600000,1.3062],[1565712000000,1.3231],[1565798400000,1.3209],[1565884800000,1.3376],[1566144000000,1.3608],[1566230400000,1.3639],[1566316800000,1.3638],[1566403200000,1.3824],[1566489600000,1.4001],[1566748800000,1.3764],[1566835200000,1.3964],[1566921600000,1.3848],[1567008000000,1.4119],[1567094400000,1.4368],[1567353600000,1.451],[1567440000000,1.441],[1567526400000,1.4438],[1567612800000,1.4527],[1567699200000,1.4568],[1567958400000,1.4441],[1568044800000,1.43],[1568131200000,1.4],[1568217600000,1.4121],[1568563200000,1.4035],[1568649600000,1.4008],[1568736000000,1.4195],[1568822400000,1.4107],[1568908800000,1.4137],[1569168000000,1.3984],[1569254400000,1.416],[1569340800000,1.4],[1569427200000,1.3998],[1569513600000,1.3985],[1569772800000,1.3943],[1570464000000,1.4095],[1570550400000,1.3988],[1570636800000,1.418],[1570723200000,1.4294],[1570982400000,1.433],[1571068800000,1.4455],[1571155200000,1.4392],[1571241600000,1.4383],[1571328000000,1.4282],[1571587200000,1.4243],[1571673600000,1.4264],[1571760000000,1.411],[1571846400000,1.4006],[1571932800000,1.4227],[1572192000000,1.4407],[1572278400000,1.4447],[1572364800000,1.4393],[1572451200000,1.4511],[1572537600000,1.4572],[1572796800000,1.4688],[1572883200000,1.4655],[1572969600000,1.4573],[1573056000000,1.4662],[1573142400000,1.4634],[1573401600000,1.4402],[1573488000000,1.4444],[1573574400000,1.4485],[1573660800000,1.4479],[1573747200000,1.4404],[1574006400000,1.4434],[1574092800000,1.4696],[1574179200000,1.4666],[1574265600000,1.4556],[1574352000000,1.4394],[1574611200000,1.4321],[1574697600000,1.4386],[1574784000000,1.4344],[1574870400000,1.4307],[1574956800000,1.3894],[1575216000000,1.386],[1575302400000,1.3803],[1575388800000,1.3822],[1575475200000,1.3932],[1575561600000,1.4153],[1575820800000,1.3965],[1575907200000,1.3991],[1575993600000,1.4011],[1576080000000,1.407],[1576166400000,1.4293],[1576425600000,1.4225],[1576512000000,1.4512],[1576598400000,1.4513],[1576684800000,1.4452],[1576771200000,1.4449],[1577030400000,1.4496],[1577116800000,1.449],[1577203200000,1.4416],[1577289600000,1.4444],[1577376000000,1.459],[1577635200000,1.4686],[1577721600000,1.4691],[1577894400000,1.467],[1577980800000,1.459],[1578240000000,1.4325],[1578326400000,1.4496],[1578412800000,1.439],[1578499200000,1.4684],[1578585600000,1.4776],[1578844800000,1.502],[1578931200000,1.4832],[1579017600000,1.4854],[1579104000000,1.5018],[1579190400000,1.5112],[1579449600000,1.5152],[1579536000000,1.4874],[1579622400000,1.4964],[1579708800000,1.4567],[1580659200000,1.3896],[1580745600000,1.4192],[1580832000000,1.4438],[1580918400000,1.4771],[1581004800000,1.4771],[1581264000000,1.478],[1581350400000,1.5009],[1581436800000,1.5059],[1581523200000,1.5054],[1581609600000,1.5185],[1581868800000,1.5199],[1581955200000,1.5046],[1582041600000,1.5075],[1582128000000,1.5308],[1582214400000,1.5212],[1582473600000,1.4921],[1582560000000,1.4998],[1582646400000,1.479],[1582732800000,1.4931],[1582819200000,1.4546],[1583078400000,1.4773],[1583164800000,1.5001],[1583251200000,1.5064],[1583337600000,1.5576],[1583424000000,1.5357],[1583683200000,1.4821],[1583769600000,1.5045],[1583856000000,1.4998],[1583942400000,1.4537],[1584028800000,1.4456],[1584288000000,1.3715],[1584374400000,1.3789],[1584460800000,1.3366],[1584547200000,1.2966],[1584633600000,1.365],[1584892800000,1.324],[1584979200000,1.3795],[1585065600000,1.4329],[1585152000000,1.4378],[1585238400000,1.4333],[1585497600000,1.4116],[1585584000000,1.4326],[1585670400000,1.4279],[1585756800000,1.4547],[1585843200000,1.4625],[1586188800000,1.5059],[1586275200000,1.4921],[1586361600000,1.5128],[1586448000000,1.5125],[1586707200000,1.5089],[1586793600000,1.523],[1586880000000,1.521],[1586966400000,1.5273],[1587052800000,1.5422],[1587312000000,1.55],[1587398400000,1.5137],[1587484800000,1.5437],[1587571200000,1.5577],[1587657600000,1.5432],[1587916800000,1.5591],[1588003200000,1.5945],[1588089600000,1.5831],[1588176000000,1.5806],[1588694400000,1.5961],[1588780800000,1.6042],[1588867200000,1.6176],[1589126400000,1.6219],[1589212800000,1.6352],[1589299200000,1.6724],[1589385600000,1.6678],[1589472000000,1.6556],[1589731200000,1.6924],[1589817600000,1.7149],[1589904000000,1.7165],[1589990400000,1.7146],[1590076800000,1.6481],[1590336000000,1.6884],[1590422400000,1.7234],[1590508800000,1.7041],[1590595200000,1.6902],[1590681600000,1.7304],[1590940800000,1.795],[1591027200000,1.7845],[1591113600000,1.7987],[1591200000000,1.825],[1591286400000,1.8386],[1591545600000,1.8261],[1591632000000,1.8293],[1591718400000,1.8564],[1591804800000,1.8445],[1591891200000,1.8568],[1592150400000,1.8171],[1592236800000,1.8587],[1592323200000,1.8738],[1592409600000,1.8798],[1592496000000,1.915],[1592755200000,1.9118],[1592841600000,1.9628],[1592928000000,1.9547],[1593360000000,1.9514],[1593446400000,1.9677],[1593532800000,2.0074],[1593619200000,2.0719],[1593705600000,2.0915],[1593964800000,2.1211],[1594051200000,2.1461],[1594137600000,2.1695],[1594224000000,2.2215],[1594310400000,2.2159],[1594569600000,2.262],[1594656000000,2.2388],[1594742400000,2.2717],[1594828800000,2.1142],[1594915200000,2.1448],[1595174400000,2.1295],[1595260800000,2.2116],[1595347200000,2.2009],[1595433600000,2.2428],[1595520000000,2.14],[1595779200000,2.164],[1595865600000,2.2052],[1595952000000,2.2237],[1596038400000,2.229],[1596124800000,2.2271],[1596384000000,2.2422],[1596470400000,2.2584],[1596556800000,2.2724],[1596643200000,2.2326],[1596729600000,2.1984],[1596988800000,2.1857],[1597075200000,2.1998],[1597161600000,2.1676],[1597248000000,2.1656],[1597334400000,2.1985],[1597593600000,2.233],[1597680000000,2.2533],[1597766400000,2.2375],[1597852800000,2.2132],[1597939200000,2.2429],[1598198400000,2.3006],[1598284800000,2.3265],[1598371200000,2.3325],[1598457600000,2.3472],[1598544000000,2.3873],[1598803200000,2.3732],[1598889600000,2.3748],[1598976000000,2.3824],[1599062400000,2.3901],[1599148800000,2.3521],[1599408000000,2.3065],[1599494400000,2.2612],[1599580800000,2.2314],[1599667200000,2.2433],[1599753600000,2.288],[1600012800000,2.3052],[1600099200000,2.3122],[1600185600000,2.2924],[1600272000000,2.2474],[1600358400000,2.2653],[1600617600000,2.2352],[1600704000000,2.2221],[1600790400000,2.2343],[1600876800000,2.1948],[1600963200000,2.1915],[1601222400000,2.2155],[1601308800000,2.2092],[1601395200000,2.2292],[1602172800000,2.2796],[1602432000000,2.3497],[1602518400000,2.3773],[1602604800000,2.3752],[1602691200000,2.346],[1602777600000,2.3381],[1603036800000,2.3269],[1603123200000,2.369],[1603209600000,2.3784],[1603296000000,2.3954],[1603382400000,2.3584],[1603641600000,2.3612],[1603728000000,2.3894],[1603814400000,2.4535],[1603900800000,2.5053],[1603987200000,2.4487],[1604246400000,2.4773],[1604332800000,2.4973],[1604419200000,2.5153],[1604505600000,2.567],[1604592000000,2.5449],[1604851200000,2.5929],[1604937600000,2.5808],[1605024000000,2.5196],[1605110400000,2.5609],[1605196800000,2.5637],[1605456000000,2.6206],[1605542400000,2.5676],[1605628800000,2.5469],[1605715200000,2.5503999999999998],[1605801600000,2.598],[1606060800000,2.6103],[1606147200000,2.6263],[1606233600000,2.551],[1606320000000,2.5762],[1606406400000,2.5983],[1606665600000,2.5316],[1606752000000,2.5665],[1606838400000,2.541],[1606924800000,2.5726],[1607011200000,2.6321],[1607270400000,2.6132],[1607356800000,2.626],[1607443200000,2.6175],[1607529600000,2.6311],[1607616000000,2.6417],[1607875200000,2.6503],[1607961600000,2.631],[1608048000000,2.6661],[1608134400000,2.7125],[1608220800000,2.6947],[1608480000000,2.719],[1608566400000,2.7293],[1608652800000,2.744],[1608739200000,2.7299],[1608825600000,2.7329],[1609084800000,2.7401],[1609171200000,2.7537],[1609257600000,2.8212],[1609344000000,2.8661],[1609689600000,2.9202],[1609776000000,3.0144],[1609862400000,3.0452],[1609948800000,3.0491],[1610035200000,3.0306],[1610294400000,2.9898],[1610380800000,3.0335],[1610467200000,2.9997],[1610553600000,2.9985],[1610640000000,2.9819],[1610899200000,3.0143],[1610985600000,3.0303],[1611072000000,3.0868],[1611158400000,3.1302],[1611244800000,3.1652],[1611504000000,3.325],[1611590400000,3.2393],[1611676800000,3.1889],[1611763200000,3.1174],[1611849600000,3.1327],[1612108800000,3.203],[1612195200000,3.2692],[1612281600000,3.3092],[1612368000000,3.3084],[1612454400000,3.35],[1612713600000,3.3807],[1612800000000,3.4215],[1612886400000,3.5287],[1613577600000,3.461],[1613664000000,3.477],[1613923200000,3.3015],[1614009600000,3.2979],[1614096000000,3.1287],[1614182400000,3.1122],[1614268800000,2.9872],[1614528000000,3.0655],[1614614400000,3.0117],[1614700800000,3.0963],[1614787200000,2.9647],[1614873600000,2.957],[1615132800000,2.7872],[1615219200000,2.7353],[1615305600000,2.7899],[1615392000000,2.9122],[1615478400000,2.8839],[1615737600000,2.8028],[1615824000000,2.8573],[1615910400000,2.8582],[1615996800000,2.9218],[1616083200000,2.852],[1616342400000,2.8564],[1616428800000,2.8318],[1616515200000,2.7775],[1616601600000,2.7584],[1616688000000,2.8476],[1616947200000,2.8299],[1617033600000,2.8677],[1617120000000,2.8453],[1617206400000,2.9347],[1617292800000,2.9855],[1617638400000,2.9644],[1617724800000,2.8782],[1617811200000,2.901],[1617897600000,2.8442],[1618156800000,2.8003999999999998],[1618243200000,2.7903],[1618329600000,2.8208],[1618416000000,2.8078],[1618502400000,2.8464],[1618761600000,2.8982],[1618848000000,2.9181],[1618934400000,2.9122],[1619020800000,2.9193],[1619107200000,2.9844],[1619366400000,2.9613],[1619452800000,2.9863],[1619539200000,3.0005],[1619625600000,3.0175],[1619712000000,2.9722],[1620230400000,2.901],[1620316800000,2.8597],[1620576000000,2.8161],[1620662400000,2.8229],[1620748800000,2.856],[1620835200000,2.8333],[1620921600000,2.8662],[1621180800000,2.9318],[1621267200000,2.9482],[1621353600000,2.9345],[1621440000000,2.9665],[1621526400000,2.9538],[1621785600000,2.9813],[1621872000000,3.1056],[1621958400000,3.1078],[1622044800000,3.1016],[1622131200000,3.0805],[1622390400000,3.1313],[1622476800000,3.1733],[1622563200000,3.1438],[1622649600000,3.1219],[1622736000000,3.1411],[1622995200000,3.126],[1623081600000,3.049],[1623168000000,3.0587],[1623254400000,3.0916],[1623340800000,3.0421],[1623686400000,3.0088],[1623772800000,2.9664],[1623859200000,2.9786],[1623945600000,2.9668],[1624204800000,2.9584],[1624291200000,2.9605],[1624377600000,2.9518],[1624464000000,2.991],[1624550400000,3.0644],[1624809600000,3.0622],[1624896000000,3.0041],[1624982400000,3.0144],[1625068800000,3.0324],[1625155200000,2.9328],[1625414400000,2.8928],[1625500800000,2.9031],[1625587200000,2.9245],[1625673600000,2.8359],[1625760000000,2.8256],[1626019200000,2.8689],[1626105600000,2.9035],[1626192000000,2.8952],[1626278400000,2.9317],[1626364800000,2.9354]]</t>
+  </si>
+  <si>
+    <t>513050</t>
+  </si>
+  <si>
+    <t>易方达中概互联50ETF</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [[1483459200000,1.0],[1483632000000,1.0003],[1483977600000,1.0003],[1484064000000,1.0004],[1484150400000,1.0004],[1484236800000,1.0004],[1484496000000,0.9999],[1484582400000,0.9999],[1484668800000,0.9975],[1484755200000,0.9994],[1484841600000,0.9967],[1485100800000,1.0042],[1485187200000,1.0116],[1485273600000,1.0237],[1485360000000,1.0207],[1486051200000,1.0164],[1486310400000,1.0266],[1486396800000,1.027],[1486483200000,1.0433],[1486569600000,1.0413],[1486656000000,1.0464],[1486915200000,1.0525],[1487001600000,1.0442],[1487088000000,1.0519],[1487174400000,1.0678],[1487260800000,1.0618],[1487606400000,1.0749],[1487692800000,1.0896],[1487779200000,1.0775],[1487865600000,1.063],[1488124800000,1.0659],[1488211200000,1.061],[1488297600000,1.0685],[1488384000000,1.0605],[1488470400000,1.063],[1488729600000,1.0581],[1488816000000,1.0668],[1488902400000,1.0746],[1488988800000,1.0692],[1489075200000,1.0742],[1489334400000,1.0863],[1489420800000,1.0846],[1489507200000,1.0816],[1489593600000,1.0958],[1489680000000,1.1001],[1489939200000,1.1141],[1490025600000,1.0899],[1490112000000,1.0874],[1490198400000,1.0934],[1490284800000,1.0962],[1490544000000,1.0943],[1490630400000,1.0976],[1490716800000,1.1062],[1490803200000,1.1015],[1490889600000,1.0968],[1491321600000,1.0974],[1491408000000,1.1035],[1491494400000,1.1042],[1491753600000,1.1148],[1491840000000,1.1022],[1491926400000,1.1082],[1492012800000,1.0998],[1492444800000,1.1057],[1492531200000,1.1081],[1492617600000,1.1275],[1492704000000,1.1322],[1492963200000,1.1418],[1493049600000,1.1661],[1493136000000,1.1602],[1493222400000,1.171],[1493308800000,1.1607],[1493654400000,1.1753],[1493827200000,1.1621],[1493913600000,1.165],[1494172800000,1.1824],[1494259200000,1.2104],[1494345600000,1.2202],[1494432000000,1.2248],[1494518400000,1.2317],[1494777600000,1.2336],[1494864000000,1.2573],[1494950400000,1.2319],[1495036800000,1.2338],[1495123200000,1.2624],[1495382400000,1.2792],[1495468800000,1.2661],[1495555200000,1.2618],[1495641600000,1.2724],[1495728000000,1.2718],[1496160000000,1.2404],[1496246400000,1.2453],[1496332800000,1.2459],[1496592000000,1.25],[1496678400000,1.2512],[1496764800000,1.2656],[1496851200000,1.3003],[1496937600000,1.272],[1497196800000,1.2622],[1497283200000,1.2562],[1497369600000,1.25],[1497456000000,1.2334],[1497542400000,1.2346],[1497801600000,1.2682],[1497888000000,1.2673],[1497974400000,1.2949],[1498060800000,1.2946],[1498147200000,1.3035],[1498406400000,1.302],[1498492800000,1.2859],[1498579200000,1.2901],[1498665600000,1.2708],[1498752000000,1.2589],[1499011200000,1.2595],[1499184000000,1.2692],[1499270400000,1.259],[1499356800000,1.2566],[1499616000000,1.2754],[1499702400000,1.2943],[1499788800000,1.3141],[1499875200000,1.3168],[1499961600000,1.3306],[1500220800000,1.3192],[1500307200000,1.3402],[1500393600000,1.3507],[1500480000000,1.346],[1500566400000,1.3479],[1500825600000,1.3653],[1500912000000,1.3669],[1500998400000,1.389],[1501084800000,1.3821],[1501171200000,1.4162],[1501430400000,1.4255],[1501516800000,1.4229],[1501603200000,1.4032],[1501689600000,1.4109],[1501776000000,1.4165],[1502035200000,1.4511],[1502121600000,1.4619],[1502208000000,1.4625],[1502294400000,1.4055],[1502380800000,1.388],[1502640000000,1.4015],[1502726400000,1.4024],[1502812800000,1.4118],[1502899200000,1.4013],[1502985600000,1.4054],[1503244800000,1.4246],[1503331200000,1.4363],[1503417600000,1.4427],[1503504000000,1.4375],[1503590400000,1.4222],[1503849600000,1.3921],[1503936000000,1.3894],[1504022400000,1.414],[1504108800000,1.4223],[1504195200000,1.4224],[1504540800000,1.3909],[1504627200000,1.3932],[1504713600000,1.4082],[1504800000000,1.394],[1505059200000,1.4226],[1505145600000,1.4449],[1505232000000,1.4619],[1505318400000,1.4628],[1505404800000,1.4579],[1505664000000,1.4829],[1505750400000,1.4798],[1505836800000,1.4795],[1505923200000,1.4758],[1506009600000,1.4739],[1506268800000,1.4292],[1506355200000,1.4227],[1506441600000,1.44],[1506528000000,1.4341],[1506614400000,1.4511],[1507478400000,1.5017],[1507564800000,1.5165],[1507651200000,1.5055],[1507737600000,1.4911],[1507824000000,1.4989],[1508083200000,1.5271],[1508169600000,1.5101],[1508256000000,1.5226],[1508342400000,1.4922],[1508428800000,1.4916],[1508688000000,1.4825],[1508774400000,1.4812],[1508860800000,1.4661],[1508947200000,1.4485],[1509033600000,1.4427],[1509292800000,1.4483],[1509379200000,1.4691],[1509465600000,1.4817],[1509552000000,1.4718],[1509638400000,1.4768],[1509897600000,1.5139],[1509984000000,1.5263],[1510070400000,1.5221],[1510156800000,1.5201],[1510243200000,1.5099],[1510502400000,1.5189],[1510588800000,1.4987],[1510675200000,1.4951],[1510761600000,1.5324],[1510848000000,1.5554],[1511107200000,1.5649],[1511193600000,1.5917],[1511280000000,1.5933],[1511452800000,1.5682],[1511712000000,1.5455],[1511798400000,1.5439],[1511884800000,1.5036],[1511971200000,1.4884],[1512057600000,1.464],[1512316800000,1.4488],[1512403200000,1.4372],[1512489600000,1.4362],[1512576000000,1.4553],[1512662400000,1.4763],[1512921600000,1.5036],[1513008000000,1.4814],[1513094400000,1.5077],[1513180800000,1.4916],[1513267200000,1.493],[1513526400000,1.5273],[1513612800000,1.5236],[1513699200000,1.5175],[1513785600000,1.5318],[1513872000000,1.5352],[1514304000000,1.5136],[1514390400000,1.506],[1514476800000,1.4982],[1514649600000,1.4981],[1514822400000,1.5527],[1514908800000,1.557],[1514995200000,1.572],[1515081600000,1.5928],[1515340800000,1.6073],[1515427200000,1.6185],[1515513600000,1.6085],[1515600000000,1.5977],[1515686400000,1.6053],[1516032000000,1.5878],[1516118400000,1.5958],[1516204800000,1.5936],[1516291200000,1.594],[1516550400000,1.5957],[1516636800000,1.622],[1516723200000,1.6233],[1516809600000,1.6198],[1516896000000,1.6611],[1517155200000,1.6344],[1517241600000,1.5993],[1517328000000,1.6123],[1517414400000,1.5642],[1517500800000,1.5246],[1517760000000,1.4835],[1517846400000,1.4777],[1517932800000,1.452],[1518019200000,1.4041],[1518105600000,1.4185],[1518364800000,1.4331],[1518451200000,1.4692],[1518537600000,1.5306],[1519228800000,1.5696],[1519315200000,1.5949],[1519574400000,1.5939],[1519660800000,1.5479],[1519747200000,1.5379],[1519833600000,1.5308],[1519920000000,1.5196],[1520179200000,1.5225],[1520265600000,1.5509],[1520352000000,1.5576],[1520438400000,1.5662],[1520524800000,1.5949],[1520784000000,1.6092],[1520870400000,1.5803],[1520956800000,1.5906],[1521043200000,1.6154],[1521129600000,1.6221],[1521388800000,1.588],[1521475200000,1.6049],[1521561600000,1.5949],[1521648000000,1.5113],[1521734400000,1.4721],[1521993600000,1.5074],[1522080000000,1.4581],[1522166400000,1.4174],[1522252800000,1.44],[1522684800000,1.4001999999999999],[1522771200000,1.3998],[1523203200000,1.4118],[1523289600000,1.4463],[1523376000000,1.4379],[1523462400000,1.4304],[1523548800000,1.4048],[1523808000000,1.4058],[1523894400000,1.4213],[1523980800000,1.4321],[1524067200000,1.4284],[1524153600000,1.4054],[1524412800000,1.391],[1524499200000,1.3812],[1524585600000,1.3587],[1524672000000,1.3783],[1524758400000,1.4102],[1525190400000,1.4309],[1525276800000,1.4269],[1525363200000,1.4335],[1525622400000,1.4598],[1525708800000,1.4808],[1525795200000,1.479],[1525881600000,1.5051],[1525968000000,1.4978],[1526227200000,1.5095],[1526313600000,1.4865],[1526400000000,1.5102],[1526486400000,1.4992],[1526572800000,1.4654],[1526832000000,1.451],[1527004800000,1.4538],[1527091200000,1.4525],[1527177600000,1.46],[1527523200000,1.458],[1527609600000,1.457],[1527696000000,1.4611],[1527782400000,1.4927],[1528041600000,1.5407],[1528128000000,1.5464],[1528214400000,1.5564],[1528300800000,1.5475],[1528387200000,1.5465],[1528646400000,1.5649],[1528732800000,1.5788],[1528819200000,1.5723],[1528905600000,1.5876],[1528992000000,1.5911],[1529337600000,1.5455],[1529424000000,1.5676],[1529510400000,1.5429],[1529596800000,1.5435],[1529856000000,1.485],[1529942400000,1.4926],[1530028800000,1.4499],[1530115200000,1.4741],[1530201600000,1.4923],[1530288000000,1.4923],[1530547200000,1.4939],[1530720000000,1.478],[1530806400000,1.5089],[1531065600000,1.5371],[1531152000000,1.5166],[1531238400000,1.4979],[1531324800000,1.5363],[1531411200000,1.5271],[1531670400000,1.5302],[1531756800000,1.5345],[1531843200000,1.5284],[1531929600000,1.5032],[1532016000000,1.5138],[1532275200000,1.5058],[1532361600000,1.5129],[1532448000000,1.5595],[1532534400000,1.5293],[1532620800000,1.5117],[1532880000000,1.4826],[1532966400000,1.4715],[1533052800000,1.4507],[1533139200000,1.4257],[1533225600000,1.4332],[1533484800000,1.433],[1533571200000,1.4383],[1533657600000,1.4183],[1533744000000,1.4107],[1533830400000,1.4106],[1534089600000,1.3875],[1534176000000,1.3441],[1534262400000,1.3104],[1534348800000,1.3146],[1534435200000,1.336],[1534694400000,1.3632],[1534780800000,1.3627],[1534867200000,1.3706],[1534953600000,1.3499],[1535040000000,1.3627],[1535299200000,1.3973],[1535385600000,1.3799],[1535472000000,1.3763],[1535558400000,1.3471],[1535644800000,1.3435],[1535990400000,1.3189],[1536076800000,1.2673],[1536163200000,1.255],[1536249600000,1.259],[1536508800000,1.2324],[1536595200000,1.2347],[1536681600000,1.2525],[1536768000000,1.2932],[1536854400000,1.2864],[1537113600000,1.2555],[1537200000000,1.2535],[1537286400000,1.2934],[1537372800000,1.3129],[1537459200000,1.315],[1537891200000,1.3132],[1537977600000,1.3177],[1538064000000,1.3116],[1538928000000,1.2059],[1539014400000,1.1918],[1539100800000,1.1528],[1539187200000,1.1375],[1539273600000,1.1871],[1539532800000,1.1599],[1539619200000,1.1753],[1539792000000,1.1276],[1539878400000,1.1271],[1540137600000,1.1625],[1540224000000,1.1331],[1540310400000,1.084],[1540396800000,1.1092],[1540483200000,1.0979],[1540742400000,1.0662],[1540828800000,1.0686],[1540915200000,1.1149],[1541001600000,1.1879],[1541088000000,1.1942],[1541347200000,1.1706],[1541433600000,1.1788],[1541520000000,1.198],[1541606400000,1.1578],[1541692800000,1.1137],[1541952000000,1.0889],[1542038400000,1.1111],[1542124800000,1.1255],[1542211200000,1.1672],[1542297600000,1.1606],[1542556800000,1.1362],[1542643200000,1.1045],[1542729600000,1.1443],[1542902400000,1.1182],[1543161600000,1.1451],[1543248000000,1.1477],[1543334400000,1.1759],[1543420800000,1.1465],[1543507200000,1.1717],[1543766400000,1.2096],[1543852800000,1.1743],[1544025600000,1.144],[1544112000000,1.1366],[1544371200000,1.1265],[1544457600000,1.1374],[1544544000000,1.1566],[1544630400000,1.1557],[1544716800000,1.134],[1544976000000,1.1056],[1545062400000,1.0835],[1545148800000,1.0593],[1545235200000,1.0495],[1545321600000,1.0529],[1545580800000,1.0453],[1545840000000,1.073],[1545926400000,1.0668],[1546185600000,1.0579],[1546358400000,1.0492],[1546444800000,1.0189],[1546531200000,1.071],[1546790400000,1.092],[1546876800000,1.096],[1546963200000,1.1346],[1547049600000,1.1302],[1547136000000,1.1178],[1547395200000,1.0831],[1547481600000,1.1033],[1547568000000,1.1223],[1547654400000,1.1232],[1547740800000,1.1499],[1548086400000,1.1193],[1548172800000,1.125],[1548259200000,1.1331],[1548345600000,1.1722],[1548604800000,1.1567],[1548691200000,1.1493],[1548777600000,1.1739],[1548864000000,1.1916],[1548950400000,1.1885],[1549814400000,1.2063],[1549900800000,1.2216],[1549987200000,1.2212],[1550073600000,1.2224],[1550160000000,1.1932],[1550505600000,1.2085],[1550592000000,1.2169],[1550678400000,1.2059],[1550764800000,1.2312],[1551024000000,1.254],[1551110400000,1.2414],[1551196800000,1.2397],[1551283200000,1.2406],[1551369600000,1.2395],[1551628800000,1.2588],[1551715200000,1.2906],[1551801600000,1.2892],[1551888000000,1.2489],[1551974400000,1.2288],[1552233600000,1.2639],[1552320000000,1.2587],[1552406400000,1.2494],[1552492800000,1.2366],[1552579200000,1.2613],[1552838400000,1.2789],[1552924800000,1.2735],[1553011200000,1.258],[1553097600000,1.2538],[1553184000000,1.2294],[1553443200000,1.2332],[1553529600000,1.2296],[1553616000000,1.2357],[1553702400000,1.2424],[1553788800000,1.2737],[1554048000000,1.293],[1554134400000,1.2889],[1554220800000,1.3038],[1554307200000,1.3027],[1554652800000,1.3301],[1554739200000,1.3268],[1554825600000,1.3208],[1554912000000,1.3085],[1554998400000,1.3286],[1555257600000,1.2989],[1555344000000,1.3121],[1555430400000,1.3195],[1555516800000,1.3136],[1555948800000,1.3236],[1556035200000,1.3177],[1556121600000,1.3077],[1556208000000,1.3093],[1556467200000,1.3202],[1556553600000,1.3181],[1557072000000,1.2979],[1557158400000,1.2771],[1557244800000,1.2727],[1557331200000,1.2639],[1557417600000,1.2683],[1557763200000,1.2486],[1557849600000,1.266],[1557936000000,1.2639],[1558022400000,1.2101],[1558281600000,1.16],[1558368000000,1.1779],[1558454400000,1.1611],[1558540800000,1.1251],[1558627200000,1.1222],[1558972800000,1.1229],[1559059200000,1.1134],[1559145600000,1.1141],[1559232000000,1.1052],[1559491200000,1.1039],[1559577600000,1.1164],[1559664000000,1.1071],[1559750400000,1.1082],[1560096000000,1.1541],[1560182400000,1.1737],[1560268800000,1.1543],[1560355200000,1.154],[1560441600000,1.1382],[1560700800000,1.1432],[1560787200000,1.1726],[1560873600000,1.1876],[1560960000000,1.2047],[1561046400000,1.1959],[1561305600000,1.1974],[1561392000000,1.1769],[1561478400000,1.1964],[1561564800000,1.2151],[1561651200000,1.2103],[1561824000000,1.2103],[1561996800000,1.2413],[1562083200000,1.2375],[1562256000000,1.2319],[1562515200000,1.2037],[1562601600000,1.2077],[1562688000000,1.2073],[1562774400000,1.1999],[1562860800000,1.2006],[1563120000000,1.2188],[1563206400000,1.2207],[1563292800000,1.2215],[1563379200000,1.2055],[1563465600000,1.2115],[1563724800000,1.2091],[1563811200000,1.2306],[1563897600000,1.2433],[1563984000000,1.2372],[1564070400000,1.235],[1564329600000,1.2306],[1564416000000,1.2224],[1564502400000,1.2108],[1564588800000,1.1898],[1564675200000,1.1584],[1564934400000,1.1069],[1565020800000,1.1191],[1565107200000,1.1301],[1565193600000,1.1528],[1565280000000,1.1386],[1565539200000,1.1374],[1565625600000,1.1579],[1565712000000,1.1517],[1565798400000,1.1553],[1565884800000,1.1815],[1566144000000,1.2182],[1566230400000,1.2135],[1566316800000,1.2101],[1566403200000,1.1944],[1566489600000,1.1743],[1566748800000,1.1787],[1566835200000,1.1837],[1566921600000,1.1819],[1567008000000,1.2031],[1567094400000,1.2131],[1567440000000,1.2057],[1567526400000,1.2269],[1567612800000,1.2474],[1567699200000,1.2465],[1567958400000,1.2508],[1568044800000,1.2391],[1568131200000,1.2581],[1568217600000,1.266],[1568563200000,1.2556],[1568649600000,1.2585],[1568736000000,1.2599],[1568822400000,1.256],[1568908800000,1.2571],[1569168000000,1.2341],[1569254400000,1.2092],[1569340800000,1.222],[1569427200000,1.2222],[1569513600000,1.1832],[1569772800000,1.1893],[1570464000000,1.1726],[1570550400000,1.1785],[1570636800000,1.189],[1570723200000,1.2177],[1570982400000,1.2187],[1571068800000,1.2399],[1571155200000,1.2507],[1571241600000,1.2488],[1571328000000,1.2219],[1571587200000,1.235],[1571673600000,1.2187],[1571760000000,1.2118],[1571846400000,1.229],[1571932800000,1.2368],[1572192000000,1.262],[1572278400000,1.2433],[1572364800000,1.247],[1572451200000,1.2469],[1572537600000,1.2528],[1572796800000,1.2857],[1572883200000,1.2908],[1572969600000,1.2887],[1573056000000,1.3103],[1573142400000,1.3016],[1573401600000,1.2877],[1573488000000,1.2988],[1573574400000,1.2798],[1573660800000,1.2662],[1573747200000,1.2776],[1574006400000,1.2806],[1574092800000,1.2859],[1574179200000,1.2674],[1574265600000,1.2658],[1574352000000,1.2901],[1574611200000,1.3142],[1574697600000,1.3219],[1574784000000,1.3416],[1574870400000,1.3452],[1574956800000,1.3306],[1575216000000,1.3223],[1575302400000,1.3122],[1575388800000,1.3035],[1575475200000,1.3313],[1575561600000,1.3431],[1575820800000,1.333],[1575907200000,1.3351],[1575993600000,1.35],[1576080000000,1.3619],[1576166400000,1.3724],[1576425600000,1.3792],[1576512000000,1.4017],[1576598400000,1.4133],[1576684800000,1.4135],[1576771200000,1.417],[1577030400000,1.4307],[1577116800000,1.43],[1577203200000,1.4287],[1577289600000,1.4301],[1577376000000,1.437],[1577635200000,1.4254],[1577721600000,1.4121],[1577894400000,1.4657],[1577980800000,1.4589],[1578240000000,1.4588],[1578326400000,1.477],[1578412800000,1.4675],[1578499200000,1.4941],[1578585600000,1.5083],[1578844800000,1.5421],[1578931200000,1.5158],[1579017600000,1.5092],[1579104000000,1.5077],[1579190400000,1.5147],[1579449600000,1.505],[1579536000000,1.4647],[1579622400000,1.4734],[1579708800000,1.4498],[1580659200000,1.4264],[1580745600000,1.4876],[1580832000000,1.4746],[1580918400000,1.5001],[1581004800000,1.4841],[1581264000000,1.4801],[1581350400000,1.5036],[1581436800000,1.5291],[1581523200000,1.5248],[1581609600000,1.5201],[1581868800000,1.5219],[1581955200000,1.5098],[1582041600000,1.5292],[1582128000000,1.5125],[1582214400000,1.4848],[1582473600000,1.4429],[1582560000000,1.4526],[1582646400000,1.4576],[1582732800000,1.4404],[1582819200000,1.4212],[1583078400000,1.4438],[1583164800000,1.4296],[1583251200000,1.4522],[1583337600000,1.4698],[1583424000000,1.425],[1583683200000,1.362],[1583769600000,1.4055],[1583856000000,1.3753],[1583942400000,1.2962],[1584028800000,1.33],[1584288000000,1.2296],[1584374400000,1.2689],[1584460800000,1.2199],[1584547200000,1.2413],[1584633600000,1.2818],[1584892800000,1.2579],[1584979200000,1.3273],[1585065600000,1.3545],[1585152000000,1.378],[1585238400000,1.3418],[1585497600000,1.3392],[1585584000000,1.3711],[1585670400000,1.3432],[1585756800000,1.3596],[1585843200000,1.3468],[1586188800000,1.4086],[1586275200000,1.3801],[1586361600000,1.3956],[1586448000000,1.3919],[1586707200000,1.3991],[1586793600000,1.4258],[1586880000000,1.4364],[1586966400000,1.4794],[1587052800000,1.476],[1587312000000,1.4814],[1587398400000,1.4517],[1587484800000,1.4806],[1587571200000,1.4642],[1587657600000,1.4523],[1587916800000,1.4684],[1588003200000,1.4591],[1588089600000,1.4837],[1588176000000,1.4671],[1588694400000,1.4396],[1588780800000,1.4525],[1588867200000,1.4935],[1589126400000,1.5181],[1589212800000,1.5106],[1589299200000,1.5136],[1589385600000,1.5265],[1589472000000,1.528],[1589731200000,1.5847],[1589817600000,1.5989],[1589904000000,1.6071],[1589990400000,1.5817],[1590076800000,1.5071],[1590336000000,1.5255],[1590422400000,1.5732],[1590508800000,1.5494],[1590595200000,1.5286],[1590681600000,1.5794],[1590940800000,1.6118],[1591027200000,1.6338],[1591113600000,1.6655],[1591200000000,1.6672],[1591286400000,1.6836],[1591545600000,1.6689],[1591632000000,1.6671],[1591718400000,1.7074],[1591804800000,1.6673],[1591891200000,1.6862],[1592150400000,1.6831],[1592236800000,1.7303],[1592323200000,1.7498],[1592409600000,1.7597],[1592496000000,1.7657],[1592755200000,1.7719],[1592841600000,1.8261],[1592928000000,1.808],[1593360000000,1.7787],[1593446400000,1.794],[1593532800000,1.7923],[1593619200000,1.8562],[1593705600000,1.8784],[1593964800000,1.92],[1594051200000,1.8883],[1594137600000,1.9959],[1594224000000,2.0471],[1594310400000,2.0106],[1594569600000,1.9711],[1594656000000,1.9292],[1594742400000,1.9546],[1594828800000,1.8726],[1594915200000,1.9036],[1595174400000,1.9285],[1595260800000,2.0024],[1595347200000,1.9328],[1595433600000,1.9546],[1595520000000,1.9017],[1595779200000,1.9044],[1595865600000,1.9289],[1595952000000,1.9446],[1596038400000,1.937],[1596124800000,1.9418],[1596384000000,1.9887],[1596470400000,2.0265],[1596556800000,2.0551],[1596643200000,2.0392],[1596729600000,1.9543],[1596988800000,1.9157],[1597075200000,1.9242],[1597161600000,1.9494],[1597248000000,1.924],[1597334400000,1.9117],[1597593600000,1.9339],[1597680000000,1.9741],[1597766400000,1.9603],[1597852800000,1.965],[1597939200000,1.9888],[1598198400000,2.0728],[1598284800000,2.0966],[1598371200000,2.1204],[1598457600000,2.1154],[1598544000000,2.1063],[1598803200000,2.0613],[1598889600000,2.1192],[1598976000000,2.1247],[1599062400000,2.0508],[1599148800000,2.0306],[1599408000000,2.009],[1599494400000,1.9507],[1599580800000,1.9553],[1599667200000,1.9333],[1599753600000,1.9676],[1600012800000,2.0016],[1600099200000,2.0085],[1600185600000,2.0069],[1600272000000,1.9737],[1600358400000,1.9642],[1600617600000,1.9479],[1600704000000,1.9534],[1600790400000,1.9565],[1600876800000,1.9236],[1600963200000,1.924],[1601222400000,1.9557],[1601308800000,1.948],[1601395200000,1.9995],[1602172800000,2.0841],[1602432000000,2.1162],[1602518400000,2.1218],[1602604800000,2.1316],[1602691200000,2.0847],[1602777600000,2.1129],[1603036800000,2.0884],[1603123200000,2.11],[1603209600000,2.1082],[1603296000000,2.0873],[1603382400000,2.0867],[1603641600000,2.08],[1603728000000,2.1424],[1603814400000,2.1535],[1603900800000,2.1955],[1603987200000,2.1463],[1604246400000,2.1721],[1604332800000,2.1203],[1604419200000,2.1881],[1604505600000,2.2362],[1604592000000,2.2354],[1604851200000,2.2074],[1604937600000,2.0719],[1605024000000,2.0101],[1605110400000,2.0795],[1605196800000,2.1526],[1605456000000,2.1344],[1605542400000,2.0744],[1605628800000,2.0596],[1605715200000,2.0557],[1605801600000,2.1236],[1606060800000,2.1239],[1606147200000,2.1504],[1606233600000,2.1088],[1606320000000,2.1364],[1606406400000,2.1466],[1606665600000,2.0675],[1606752000000,2.0852],[1606838400000,2.0523],[1606924800000,2.0871],[1607011200000,2.0947],[1607270400000,2.0736],[1607356800000,2.0946],[1607443200000,2.0861],[1607529600000,2.0957],[1607616000000,2.1023],[1607875200000,2.0537],[1607961600000,2.0443],[1608048000000,2.0805],[1608134400000,2.111],[1608220800000,2.0948],[1608480000000,2.0895],[1608566400000,2.0696],[1608652800000,2.0952],[1608739200000,1.9891],[1608825600000,1.9881],[1609084800000,1.9118],[1609171200000,2.0005],[1609257600000,2.0772],[1609344000000,null],[1609689600000,2.0585],[1609776000000,2.1136],[1609862400000,2.0788],[1609948800000,2.0492],[1610035200000,2.1142],[1610294400000,2.0882],[1610380800000,2.0877],[1610467200000,2.0998],[1610553600000,2.1711],[1610640000000,2.1622],[1610899200000,2.1961],[1610985600000,2.2553],[1611072000000,2.3606],[1611158400000,2.3504],[1611244800000,2.3567],[1611504000000,2.4823],[1611590400000,2.4135],[1611676800000,2.3446],[1611763200000,2.3175],[1611849600000,2.2853],[1612108800000,2.3852],[1612195200000,2.4091],[1612281600000,2.4604],[1612368000000,2.4632],[1612454400000,2.4688],[1612713600000,2.4642],[1612800000000,2.497],[1612886400000,null],[1613577600000,2.5439],[1613664000000,2.5636],[1613923200000,2.4581],[1614009600000,2.4303],[1614096000000,2.3536],[1614182400000,2.3187],[1614268800000,2.2502],[1614528000000,2.3472],[1614614400000,2.3151],[1614700800000,2.3243],[1614787200000,2.2211],[1614873600000,2.2114],[1615132800000,2.071],[1615219200000,2.1599],[1615305600000,2.1515],[1615392000000,2.2424],[1615478400000,2.1712],[1615737600000,2.1391],[1615824000000,2.1616],[1615910400000,2.1646],[1615996800000,2.17],[1616083200000,2.172],[1616342400000,2.1658],[1616428800000,2.1275],[1616515200000,2.0413],[1616601600000,1.9908],[1616688000000,2.0355],[1616947200000,2.0127],[1617033600000,2.0397],[1617120000000,2.0399],[1617206400000,2.1173],[1617292800000,2.1191],[1617638400000,2.1371],[1617724800000,2.0659],[1617811200000,2.0708],[1617897600000,2.0436],[1618156800000,2.0576],[1618243200000,2.0324],[1618329600000,2.0426],[1618416000000,2.0281],[1618502400000,2.0481],[1618761600000,2.035],[1618848000000,2.0081],[1618934400000,1.9959],[1619020800000,2.0187],[1619107200000,2.0648],[1619366400000,2.0663],[1619452800000,2.0765],[1619539200000,2.0771],[1619625600000,2.0553],[1619712000000,2.0163],[1620230400000,1.9735],[1620316800000,1.9447],[1620576000000,1.8795],[1620662400000,1.863],[1620748800000,1.8758],[1620835200000,1.8053],[1620921600000,1.8271],[1621180800000,1.8523],[1621267200000,1.8798],[1621353600000,1.8786],[1621440000000,1.9196],[1621526400000,1.8796],[1621785600000,1.8653],[1621872000000,1.8957],[1621958400000,1.898],[1622044800000,1.8798],[1622131200000,1.8731],[1622390400000,1.9019],[1622476800000,1.9572],[1622563200000,1.9519],[1622649600000,1.9143],[1622736000000,1.9172],[1622995200000,1.8823],[1623081600000,1.8763],[1623168000000,1.8703],[1623254400000,1.8739],[1623340800000,1.8669],[1623686400000,1.8634],[1623772800000,1.842],[1623859200000,1.8595],[1623945600000,1.8748],[1624204800000,1.8597],[1624291200000,1.8332],[1624377600000,1.8719],[1624464000000,1.9048],[1624550400000,1.9621],[1624809600000,1.9519],[1624896000000,1.9538],[1624982400000,1.9286],[1625068800000,1.9099],[1625155200000,1.8638],[1625414400000,1.8267],[1625500800000,1.7931],[1625587200000,1.7648],[1625673600000,1.6959],[1625760000000,1.7457],[1626019200000,1.7436],[1626105600000,1.794],[1626192000000,1.7925],[1626278400000,1.8055]]</t>
+  </si>
+  <si>
+    <t>217022</t>
+  </si>
+  <si>
+    <t>招商产业债券A</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [[1332259200000,1.0],[1332432000000,1.0],[1332691200000,1.001],[1332777600000,1.001],[1332864000000,1.001],[1332950400000,1.001],[1333036800000,1.002],[1333555200000,1.004],[1333641600000,1.005],[1333900800000,1.006],[1333987200000,1.007],[1334073600000,1.008],[1334160000000,1.009],[1334246400000,1.009],[1334505600000,1.01],[1334592000000,1.011],[1334678400000,1.012],[1334764800000,1.013],[1334851200000,1.013],[1335110400000,1.015],[1335196800000,1.017],[1335283200000,1.017],[1335369600000,1.018],[1335456000000,1.018],[1335888000000,1.019],[1335974400000,1.02],[1336060800000,1.021],[1336320000000,1.021],[1336406400000,1.021],[1336492800000,1.021],[1336579200000,1.022],[1336665600000,1.023],[1336924800000,1.025],[1337011200000,1.027],[1337097600000,1.028],[1337184000000,1.029],[1337270400000,1.03],[1337529600000,1.032],[1337616000000,1.032],[1337702400000,1.033],[1337788800000,1.034],[1337875200000,1.038],[1338134400000,1.04],[1338220800000,1.04],[1338307200000,1.041],[1338393600000,1.042],[1338480000000,1.042],[1338739200000,1.044],[1338825600000,1.045],[1338912000000,1.046],[1338998400000,1.047],[1339084800000,1.053],[1339344000000,1.053],[1339430400000,1.053],[1339516800000,1.053],[1339603200000,1.053],[1339689600000,1.054],[1339948800000,1.054],[1340035200000,1.052],[1340121600000,1.053],[1340208000000,1.054],[1340553600000,1.054],[1340640000000,1.054],[1340726400000,1.054],[1340812800000,1.054],[1340899200000,1.055],[1340985600000,1.055],[1341158400000,1.055],[1341244800000,1.056],[1341331200000,1.057],[1341417600000,1.061],[1341504000000,1.061],[1341763200000,1.062],[1341849600000,1.061],[1341936000000,1.061],[1342022400000,1.062],[1342108800000,1.063],[1342368000000,1.064],[1342454400000,1.063],[1342540800000,1.063],[1342627200000,1.063],[1342713600000,1.063],[1342972800000,1.063],[1343059200000,1.063],[1343145600000,1.062],[1343232000000,1.061],[1343318400000,1.061],[1343577600000,1.061],[1343664000000,1.06],[1343750400000,1.06],[1343836800000,1.059],[1343923200000,1.058],[1344182400000,1.057],[1344268800000,1.056],[1344355200000,1.055],[1344441600000,1.055],[1344528000000,1.053],[1344787200000,1.055],[1344873600000,1.054],[1344960000000,1.054],[1345046400000,1.054],[1345132800000,1.053],[1345392000000,1.05],[1345478400000,1.049],[1345564800000,1.047],[1345651200000,1.047],[1345737600000,1.047],[1345996800000,1.046],[1346083200000,1.045],[1346169600000,1.045],[1346256000000,1.044],[1346342400000,1.045],[1346601600000,1.044],[1346688000000,1.045],[1346774400000,1.045],[1346860800000,1.045],[1346947200000,1.045],[1347206400000,1.044],[1347292800000,1.042],[1347379200000,1.04],[1347465600000,1.041],[1347552000000,1.038],[1347811200000,1.037],[1347897600000,1.038],[1347984000000,1.038],[1348070400000,1.039],[1348156800000,1.038],[1348416000000,1.04],[1348502400000,1.041],[1348588800000,1.041],[1348675200000,1.042],[1348761600000,1.043],[1348934400000,1.044],[1349625600000,1.045],[1349712000000,1.044],[1349798400000,1.045],[1349884800000,1.047],[1349971200000,1.048],[1350230400000,1.049],[1350316800000,1.05],[1350403200000,1.05],[1350489600000,1.05],[1350576000000,1.049],[1350835200000,1.049],[1350921600000,1.048],[1351008000000,1.049],[1351094400000,1.049],[1351180800000,1.048],[1351440000000,1.048],[1351526400000,1.048],[1351612800000,1.049],[1351699200000,1.049],[1351785600000,1.049],[1352044800000,1.049],[1352131200000,1.05],[1352217600000,1.05],[1352304000000,1.05],[1352390400000,1.051],[1352649600000,1.051],[1352736000000,1.052],[1352822400000,1.054],[1352908800000,1.053],[1352995200000,1.054],[1353254400000,1.055],[1353340800000,1.055],[1353427200000,1.054],[1353513600000,1.054],[1353600000000,1.054],[1353859200000,1.055],[1353945600000,1.055],[1354032000000,1.057],[1354118400000,1.057],[1354204800000,1.057],[1354464000000,1.056],[1354550400000,1.056],[1354636800000,1.056],[1354723200000,1.056],[1354809600000,1.058],[1355068800000,1.06],[1355155200000,1.06],[1355241600000,1.06],[1355328000000,1.06],[1355414400000,1.061],[1355673600000,1.062],[1355760000000,1.061],[1355846400000,1.061],[1355932800000,1.06],[1356019200000,1.06],[1356278400000,1.06],[1356364800000,1.061],[1356451200000,1.061],[1356537600000,1.061],[1356624000000,1.063],[1356883200000,1.064],[1357228800000,1.063],[1357488000000,1.065],[1357574400000,1.064],[1357660800000,1.065],[1357747200000,1.066],[1357833600000,1.066],[1358092800000,1.069],[1358179200000,1.073],[1358265600000,1.075],[1358352000000,1.075],[1358438400000,1.077],[1358697600000,1.079],[1358784000000,1.08],[1358870400000,1.079],[1358956800000,1.079],[1359043200000,1.079],[1359302400000,1.08],[1359388800000,1.081],[1359475200000,1.083],[1359561600000,1.093],[1359648000000,1.094],[1359907200000,1.095],[1359993600000,1.095],[1360080000000,1.097],[1360166400000,1.097],[1360252800000,1.097],[1361116800000,1.1],[1361203200000,1.1],[1361289600000,1.102],[1361376000000,1.105],[1361462400000,1.106],[1361721600000,1.106],[1361808000000,1.105],[1361894400000,1.105],[1361980800000,1.106],[1362067200000,1.106],[1362326400000,1.105],[1362412800000,1.107],[1362499200000,1.108],[1362585600000,1.108],[1362672000000,1.109],[1362931200000,1.109],[1363017600000,1.11],[1363104000000,1.11],[1363190400000,1.11],[1363276800000,1.111],[1363536000000,1.111],[1363622400000,1.112],[1363708800000,1.113],[1363795200000,1.114],[1363881600000,1.115],[1364140800000,1.117],[1364227200000,1.116],[1364313600000,1.116],[1364400000000,1.115],[1364486400000,1.115],[1364745600000,1.116],[1364832000000,1.118],[1364918400000,1.12],[1365350400000,1.121],[1365436800000,1.123],[1365523200000,1.124],[1365609600000,1.125],[1365696000000,1.126],[1365955200000,1.128],[1366041600000,1.128],[1366128000000,1.129],[1366214400000,1.128],[1366300800000,1.128],[1366560000000,1.125],[1366646400000,1.121],[1366732800000,1.123],[1366819200000,1.126],[1366905600000,1.128],[1367424000000,1.127],[1367510400000,1.128],[1367769600000,1.128],[1367856000000,1.131],[1367942400000,1.132],[1368028800000,1.132],[1368115200000,1.133],[1368374400000,1.135],[1368460800000,1.135],[1368547200000,1.136],[1368633600000,1.137],[1368720000000,1.138],[1368979200000,1.139],[1369065600000,1.138],[1369152000000,1.138],[1369238400000,1.138],[1369324800000,1.139],[1369584000000,1.139],[1369670400000,1.141],[1369756800000,1.142],[1369843200000,1.141],[1369929600000,1.141],[1370188800000,1.142],[1370275200000,1.141],[1370361600000,1.141],[1370448000000,1.14],[1370534400000,1.141],[1371052800000,1.138],[1371139200000,1.137],[1371398400000,1.138],[1371484800000,1.138],[1371571200000,1.136],[1371657600000,1.127],[1371744000000,1.127],[1372003200000,1.122],[1372089600000,1.123],[1372176000000,1.126],[1372262400000,1.128],[1372348800000,1.13],[1372521600000,1.13],[1372608000000,1.131],[1372694400000,1.132],[1372780800000,1.129],[1372867200000,1.129],[1372953600000,1.13],[1373212800000,1.127],[1373299200000,1.127],[1373385600000,1.126],[1373472000000,1.128],[1373558400000,1.125],[1373817600000,1.126],[1373904000000,1.125],[1373990400000,1.123],[1374076800000,1.122],[1374163200000,1.12],[1374422400000,1.118],[1374508800000,1.119],[1374595200000,1.117],[1374681600000,1.117],[1374768000000,1.117],[1375027200000,1.116],[1375113600000,1.115],[1375200000000,1.115],[1375286400000,1.117],[1375372800000,1.119],[1375632000000,1.119],[1375718400000,1.119],[1375804800000,1.116],[1375891200000,1.114],[1375977600000,1.113],[1376236800000,1.118],[1376323200000,1.116],[1376409600000,1.115],[1376496000000,1.113],[1376582400000,1.113],[1376841600000,1.114],[1376928000000,1.112],[1377014400000,1.111],[1377100800000,1.112],[1377187200000,1.112],[1377446400000,1.112],[1377532800000,1.112],[1377619200000,1.112],[1377705600000,1.112],[1377792000000,1.113],[1378051200000,1.113],[1378137600000,1.114],[1378224000000,1.115],[1378310400000,1.115],[1378396800000,1.116],[1378656000000,1.119],[1378742400000,1.12],[1378828800000,1.12],[1378915200000,1.12],[1379001600000,1.119],[1379260800000,1.119],[1379347200000,1.119],[1379433600000,1.12],[1379865600000,1.121],[1379952000000,1.12],[1380038400000,1.12],[1380124800000,1.12],[1380211200000,1.12],[1380470400000,1.12],[1381161600000,1.122],[1381248000000,1.122],[1381334400000,1.123],[1381420800000,1.123],[1381680000000,1.123],[1381766400000,1.122],[1381852800000,1.121],[1381939200000,1.122],[1382025600000,1.122],[1382284800000,1.123],[1382371200000,1.123],[1382457600000,1.121],[1382544000000,1.12],[1382630400000,1.118],[1382889600000,1.117],[1382976000000,1.116],[1383062400000,1.116],[1383148800000,1.115],[1383235200000,1.117],[1383494400000,1.117],[1383580800000,1.118],[1383667200000,1.117],[1383753600000,1.117],[1383840000000,1.116],[1384099200000,1.115],[1384185600000,1.114],[1384272000000,1.111],[1384358400000,1.109],[1384444800000,1.106],[1384704000000,1.106],[1384790400000,1.104],[1384876800000,1.102],[1384963200000,1.101],[1385049600000,1.1],[1385308800000,1.096],[1385395200000,1.094],[1385481600000,1.094],[1385568000000,1.095],[1385654400000,1.097],[1385913600000,1.098],[1386000000000,1.098],[1386086400000,1.098],[1386172800000,1.097],[1386259200000,1.096],[1386518400000,1.096],[1386604800000,1.095],[1386691200000,1.094],[1386777600000,1.093],[1386864000000,1.094],[1387123200000,1.093],[1387209600000,1.092],[1387296000000,1.091],[1387382400000,1.088],[1387468800000,1.087],[1387728000000,1.086],[1387814400000,1.087],[1387900800000,1.086],[1387987200000,1.086],[1388073600000,1.086],[1388332800000,1.086],[1388419200000,1.086],[1388592000000,1.086],[1388678400000,1.085],[1388937600000,1.084],[1389024000000,1.083],[1389110400000,1.082],[1389196800000,1.081],[1389283200000,1.08],[1389542400000,1.079],[1389628800000,1.076],[1389715200000,1.075],[1389801600000,1.075],[1389888000000,1.074],[1390147200000,1.073],[1390233600000,1.074],[1390320000000,1.077],[1390406400000,1.078],[1390492800000,1.08],[1390752000000,1.08],[1390838400000,1.083],[1390924800000,1.084],[1391011200000,1.084],[1391702400000,1.084],[1391961600000,1.086],[1392048000000,1.088],[1392134400000,1.09],[1392220800000,1.093],[1392307200000,1.096],[1392566400000,1.097],[1392652800000,1.096],[1392739200000,1.099],[1392825600000,1.102],[1392912000000,1.104],[1393171200000,1.105],[1393257600000,1.106],[1393344000000,1.107],[1393430400000,1.109],[1393516800000,1.11],[1393776000000,1.111],[1393862400000,1.109],[1393948800000,1.105],[1394035200000,1.104],[1394121600000,1.106],[1394380800000,1.106],[1394467200000,1.107],[1394553600000,1.106],[1394640000000,1.107],[1394726400000,1.108],[1394985600000,1.109],[1395072000000,1.109],[1395158400000,1.108],[1395244800000,1.108],[1395331200000,1.109],[1395590400000,1.111],[1395676800000,1.11],[1395763200000,1.109],[1395849600000,1.109],[1395936000000,1.109],[1396195200000,1.109],[1396281600000,1.111],[1396368000000,1.11],[1396454400000,1.11],[1396540800000,1.112],[1396886400000,1.114],[1396972800000,1.113],[1397059200000,1.115],[1397145600000,1.117],[1397404800000,1.119],[1397491200000,1.12],[1397577600000,1.121],[1397664000000,1.124],[1397750400000,1.125],[1398009600000,1.126],[1398096000000,1.126],[1398182400000,1.127],[1398268800000,1.127],[1398355200000,1.129],[1398614400000,1.129],[1398700800000,1.128],[1398787200000,1.13],[1399219200000,1.132],[1399305600000,1.133],[1399392000000,1.134],[1399478400000,1.136],[1399564800000,1.141],[1399824000000,1.143],[1399910400000,1.144],[1399996800000,1.145],[1400083200000,1.146],[1400169600000,1.146],[1400428800000,1.146],[1400515200000,1.146],[1400601600000,1.146],[1400688000000,1.147],[1400774400000,1.149],[1401033600000,1.15],[1401120000000,1.15],[1401206400000,1.151],[1401292800000,1.152],[1401379200000,1.154],[1401724800000,1.157],[1401811200000,1.159],[1401897600000,1.16],[1401984000000,1.161],[1402243200000,1.163],[1402329600000,1.165],[1402416000000,1.166],[1402502400000,1.167],[1402588800000,1.169],[1402848000000,1.169],[1402934400000,1.166],[1403020800000,1.164],[1403107200000,1.165],[1403193600000,1.167],[1403452800000,1.169],[1403539200000,1.17],[1403625600000,1.17],[1403712000000,1.17],[1403798400000,1.174],[1404057600000,1.174],[1404144000000,1.174],[1404230400000,1.174],[1404316800000,1.174],[1404403200000,1.174],[1404662400000,1.174],[1404748800000,1.175],[1404835200000,1.174],[1404921600000,1.175],[1405008000000,1.176],[1405267200000,1.173],[1405353600000,1.172],[1405440000000,1.178],[1405526400000,1.18],[1405612800000,1.177],[1405872000000,1.176],[1405958400000,1.178],[1406044800000,1.178],[1406131200000,1.18],[1406217600000,1.181],[1406476800000,1.183],[1406563200000,1.184],[1406649600000,1.185],[1406736000000,1.186],[1406822400000,1.186],[1407081600000,1.187],[1407168000000,1.188],[1407254400000,1.189],[1407340800000,1.19],[1407427200000,1.19],[1407686400000,1.192],[1407772800000,1.194],[1407859200000,1.195],[1407945600000,1.195],[1408032000000,1.197],[1408291200000,1.198],[1408377600000,1.199],[1408464000000,1.199],[1408550400000,1.199],[1408636800000,1.201],[1408896000000,1.202],[1408982400000,1.202],[1409068800000,1.203],[1409155200000,1.203],[1409241600000,1.204],[1409500800000,1.206],[1409587200000,1.208],[1409673600000,1.209],[1409760000000,1.21],[1409846400000,1.211],[1410192000000,1.21],[1410278400000,1.21],[1410364800000,1.21],[1410451200000,1.211],[1410710400000,1.212],[1410796800000,1.209],[1410883200000,1.211],[1410969600000,1.213],[1411056000000,1.215],[1411315200000,1.213],[1411401600000,1.215],[1411488000000,1.217],[1411574400000,1.217],[1411660800000,1.218],[1411920000000,1.219],[1412006400000,1.22],[1412697600000,1.221],[1412784000000,1.222],[1412870400000,1.222],[1413129600000,1.222],[1413216000000,1.217],[1413302400000,1.228],[1413388800000,1.229],[1413475200000,1.233],[1413734400000,1.236],[1413820800000,1.238],[1413907200000,1.238],[1413993600000,1.239],[1414080000000,1.239],[1414339200000,1.239],[1414425600000,1.243],[1414512000000,1.248],[1414598400000,1.253],[1414684800000,1.257],[1414944000000,1.26],[1415030400000,1.263],[1415116800000,1.264],[1415203200000,1.267],[1415289600000,1.269],[1415548800000,1.275],[1415635200000,1.276],[1415721600000,1.277],[1415808000000,1.275],[1415894400000,1.272],[1416153600000,1.272],[1416240000000,1.269],[1416326400000,1.268],[1416412800000,1.268],[1416499200000,1.268],[1416758400000,1.274],[1416844800000,1.275],[1416931200000,1.277],[1417017600000,1.278],[1417104000000,1.282],[1417363200000,1.281],[1417449600000,1.288],[1417536000000,1.285],[1417622400000,1.289],[1417708800000,1.284],[1417968000000,1.287],[1418054400000,1.258],[1418140800000,1.265],[1418227200000,1.265],[1418313600000,1.264],[1418572800000,1.264],[1418659200000,1.267],[1418745600000,1.26],[1418832000000,1.258],[1418918400000,1.259],[1419177600000,1.272],[1419264000000,1.273],[1419350400000,1.273],[1419436800000,1.278],[1419523200000,1.283],[1419782400000,1.283],[1419868800000,1.285],[1419955200000,1.29],[1420387200000,1.296],[1420473600000,1.297],[1420560000000,1.298],[1420646400000,1.294],[1420732800000,1.298],[1420992000000,1.296],[1421078400000,1.3],[1421164800000,1.3],[1421251200000,1.305],[1421337600000,1.308],[1421596800000,1.298],[1421683200000,1.301],[1421769600000,1.308],[1421856000000,1.315],[1421942400000,1.316],[1422201600000,1.313],[1422288000000,1.31],[1422374400000,1.309],[1422460800000,1.308],[1422547200000,1.308],[1422806400000,1.304],[1422892800000,1.306],[1422979200000,1.305],[1423065600000,1.307],[1423152000000,1.307],[1423411200000,1.308],[1423497600000,1.309],[1423584000000,1.31],[1423670400000,1.311],[1423756800000,1.314],[1424016000000,1.318],[1424102400000,1.319],[1424793600000,1.32],[1424880000000,1.32],[1424966400000,1.32],[1425225600000,1.321],[1425312000000,1.319],[1425398400000,1.319],[1425484800000,1.318],[1425571200000,1.318],[1425830400000,1.319],[1425916800000,1.318],[1426003200000,1.319],[1426089600000,1.321],[1426176000000,1.321],[1426435200000,1.323],[1426521600000,1.323],[1426608000000,1.323],[1426694400000,1.323],[1426780800000,1.324],[1427040000000,1.327],[1427126400000,1.327],[1427212800000,1.325],[1427299200000,1.324],[1427385600000,1.325],[1427644800000,1.324],[1427731200000,1.322],[1427817600000,1.324],[1427904000000,1.325],[1427990400000,1.325],[1428336000000,1.326],[1428422400000,1.325],[1428508800000,1.325],[1428595200000,1.326],[1428854400000,1.327],[1428940800000,1.327],[1429027200000,1.328],[1429113600000,1.33],[1429200000000,1.332],[1429459200000,1.335],[1429545600000,1.338],[1429632000000,1.339],[1429718400000,1.339],[1429804800000,1.338],[1430064000000,1.339],[1430150400000,1.341],[1430236800000,1.342],[1430323200000,1.342],[1430668800000,1.343],[1430755200000,1.341],[1430841600000,1.341],[1430928000000,1.342],[1431014400000,1.343],[1431273600000,1.345],[1431360000000,1.347],[1431446400000,1.348],[1431532800000,1.351],[1431619200000,1.352],[1431878400000,1.353],[1431964800000,1.353],[1432051200000,1.353],[1432137600000,1.355],[1432224000000,1.356],[1432483200000,1.358],[1432569600000,1.358],[1432656000000,1.357],[1432742400000,1.352],[1432828800000,1.351],[1433088000000,1.354],[1433174400000,1.355],[1433260800000,1.355],[1433347200000,1.355],[1433433600000,1.354],[1433692800000,1.357],[1433779200000,1.355],[1433865600000,1.354],[1433952000000,1.352],[1434038400000,1.353],[1434297600000,1.35],[1434384000000,1.348],[1434470400000,1.348],[1434556800000,1.346],[1434643200000,1.345],[1434988800000,1.346],[1435075200000,1.347],[1435161600000,1.347],[1435248000000,1.345],[1435507200000,1.346],[1435593600000,1.345],[1435680000000,1.345],[1435766400000,1.345],[1435852800000,1.345],[1436112000000,1.347],[1436198400000,1.349],[1436284800000,1.346],[1436371200000,1.344],[1436457600000,1.344],[1436716800000,1.344],[1436803200000,1.345],[1436889600000,1.344],[1436976000000,1.344],[1437062400000,1.345],[1437321600000,1.346],[1437408000000,1.348],[1437494400000,1.349],[1437580800000,1.35],[1437667200000,1.352],[1437926400000,1.353],[1438012800000,1.354],[1438099200000,1.355],[1438185600000,1.356],[1438272000000,1.356],[1438531200000,1.358],[1438617600000,1.358],[1438704000000,1.362],[1438790400000,1.364],[1438876800000,1.366],[1439136000000,1.367],[1439222400000,1.366],[1439308800000,1.366],[1439395200000,1.366],[1439481600000,1.367],[1439740800000,1.368],[1439827200000,1.368],[1439913600000,1.369],[1440000000000,1.369],[1440086400000,1.37],[1440345600000,1.371],[1440432000000,1.371],[1440518400000,1.371],[1440604800000,1.372],[1440691200000,1.373],[1440950400000,1.375],[1441036800000,1.377],[1441123200000,1.378],[1441555200000,1.379],[1441641600000,1.38],[1441728000000,1.38],[1441814400000,1.381],[1441900800000,1.382],[1442160000000,1.383],[1442246400000,1.383],[1442332800000,1.385],[1442419200000,1.385],[1442505600000,1.386],[1442764800000,1.386],[1442851200000,1.386],[1442937600000,1.386],[1443024000000,1.386],[1443110400000,1.387],[1443369600000,1.387],[1443456000000,1.388],[1443542400000,1.389],[1444233600000,1.39],[1444320000000,1.391],[1444579200000,1.391],[1444665600000,1.392],[1444752000000,1.393],[1444838400000,1.393],[1444924800000,1.394],[1445184000000,1.394],[1445270400000,1.395],[1445356800000,1.395],[1445443200000,1.395],[1445529600000,1.395],[1445788800000,1.398],[1445875200000,1.399],[1445961600000,1.4],[1446048000000,1.401],[1446134400000,1.401],[1446393600000,1.402],[1446480000000,1.402],[1446566400000,1.402],[1446652800000,1.402],[1446739200000,1.402],[1446998400000,1.4],[1447084800000,1.398],[1447171200000,1.399],[1447257600000,1.399],[1447344000000,1.399],[1447603200000,1.399],[1447689600000,1.398],[1447776000000,1.398],[1447862400000,1.398],[1447948800000,1.398],[1448208000000,1.398],[1448294400000,1.399],[1448380800000,1.4],[1448467200000,1.4],[1448553600000,1.4],[1448812800000,1.4],[1448899200000,1.4],[1448985600000,1.401],[1449072000000,1.403],[1449158400000,1.405],[1449417600000,1.406],[1449504000000,1.404],[1449590400000,1.405],[1449676800000,1.404],[1449763200000,1.405],[1450022400000,1.404],[1450108800000,1.403],[1450195200000,1.403],[1450281600000,1.404],[1450368000000,1.405],[1450627200000,1.408],[1450713600000,1.411],[1450800000000,1.412],[1450886400000,1.412],[1450972800000,1.413],[1451232000000,1.414],[1451318400000,1.415],[1451404800000,1.416],[1451491200000,1.416],[1451836800000,1.415],[1451923200000,1.416],[1452009600000,1.416],[1452096000000,1.416],[1452182400000,1.417],[1452441600000,1.418],[1452528000000,1.42],[1452614400000,1.421],[1452700800000,1.422],[1452787200000,1.423],[1453046400000,1.423],[1453132800000,1.422],[1453219200000,1.422],[1453305600000,1.422],[1453392000000,1.422],[1453651200000,1.422],[1453737600000,1.422],[1453824000000,1.421],[1453910400000,1.421],[1453996800000,1.421],[1454256000000,1.421],[1454342400000,1.422],[1454428800000,1.421],[1454515200000,1.422],[1454601600000,1.422],[1455465600000,1.424],[1455552000000,1.425],[1455638400000,1.425],[1455724800000,1.427],[1455811200000,1.427],[1456070400000,1.428],[1456156800000,1.428],[1456243200000,1.429],[1456329600000,1.429],[1456416000000,1.429],[1456675200000,1.43],[1456761600000,1.431],[1456848000000,1.431],[1456934400000,1.432],[1457020800000,1.432],[1457280000000,1.433],[1457366400000,1.434],[1457452800000,1.434],[1457539200000,1.436],[1457625600000,1.436],[1457884800000,1.437],[1457971200000,1.437],[1458057600000,1.438],[1458144000000,1.438],[1458230400000,1.439],[1458489600000,1.441],[1458576000000,1.441],[1458662400000,1.441],[1458748800000,1.442],[1458835200000,1.442],[1459094400000,1.441],[1459180800000,1.441],[1459267200000,1.441],[1459353600000,1.441],[1459440000000,1.441],[1459785600000,1.442],[1459872000000,1.442],[1459958400000,1.442],[1460044800000,1.442],[1460304000000,1.441],[1460390400000,1.439],[1460476800000,1.438],[1460563200000,1.436],[1460649600000,1.436],[1460908800000,1.436],[1460995200000,1.435],[1461081600000,1.433],[1461168000000,1.432],[1461254400000,1.43],[1461513600000,1.427],[1461600000000,1.426],[1461686400000,1.426],[1461772800000,1.427],[1461859200000,1.427],[1462204800000,1.428],[1462291200000,1.429],[1462377600000,1.43],[1462464000000,1.43],[1462723200000,1.431],[1462809600000,1.432],[1462896000000,1.432],[1462982400000,1.433],[1463068800000,1.433],[1463328000000,1.434],[1463414400000,1.433],[1463500800000,1.432],[1463587200000,1.433],[1463673600000,1.431],[1463932800000,1.43],[1464019200000,1.427],[1464105600000,1.428],[1464192000000,1.428],[1464278400000,1.428],[1464537600000,1.428],[1464624000000,1.427],[1464710400000,1.428],[1464796800000,1.428],[1464883200000,1.429],[1465142400000,1.429],[1465228800000,1.429],[1465315200000,1.43],[1465747200000,1.431],[1465833600000,1.432],[1465920000000,1.432],[1466006400000,1.433],[1466092800000,1.436],[1466352000000,1.438],[1466438400000,1.438],[1466524800000,1.439],[1466611200000,1.44],[1466697600000,1.441],[1466956800000,1.442],[1467043200000,1.443],[1467129600000,1.443],[1467216000000,1.444],[1467302400000,1.445],[1467561600000,1.446],[1467648000000,1.447],[1467734400000,1.447],[1467820800000,1.448],[1467907200000,1.449],[1468166400000,1.449],[1468252800000,1.45],[1468339200000,1.451],[1468425600000,1.451],[1468512000000,1.452],[1468771200000,1.453],[1468857600000,1.453],[1468944000000,1.454],[1469030400000,1.455],[1469116800000,1.455],[1469376000000,1.456],[1469462400000,1.456],[1469548800000,1.456],[1469635200000,1.457],[1469721600000,1.458],[1469980800000,1.458],[1470067200000,1.459],[1470153600000,1.459],[1470240000000,1.46],[1470326400000,1.461],[1470585600000,1.461],[1470672000000,1.461],[1470758400000,1.462],[1470844800000,1.462],[1470931200000,1.463],[1471190400000,1.464],[1471276800000,1.464],[1471363200000,1.465],[1471449600000,1.465],[1471536000000,1.465],[1471795200000,1.465],[1471881600000,1.465],[1471968000000,1.464],[1472054400000,1.464],[1472140800000,1.465],[1472400000000,1.465],[1472486400000,1.465],[1472572800000,1.465],[1472659200000,1.466],[1472745600000,1.466],[1473004800000,1.466],[1473091200000,1.466],[1473177600000,1.467],[1473264000000,1.467],[1473350400000,1.467],[1473609600000,1.468],[1473696000000,1.468],[1473782400000,1.468],[1474214400000,1.468],[1474300800000,1.468],[1474387200000,1.468],[1474473600000,1.469],[1474560000000,1.469],[1474819200000,1.47],[1474905600000,1.47],[1474992000000,1.47],[1475078400000,1.47],[1475164800000,1.471],[1476028800000,1.472],[1476115200000,1.472],[1476201600000,1.472],[1476288000000,1.473],[1476374400000,1.473],[1476633600000,1.474],[1476720000000,1.474],[1476806400000,1.475],[1476892800000,1.475],[1476979200000,1.476],[1477238400000,1.476],[1477324800000,1.475],[1477411200000,1.475],[1477497600000,1.474],[1477584000000,1.475],[1477843200000,1.474],[1477929600000,1.474],[1478016000000,1.475],[1478102400000,1.475],[1478188800000,1.475],[1478448000000,1.476],[1478534400000,1.475],[1478620800000,1.476],[1478707200000,1.475],[1478793600000,1.475],[1479052800000,1.475],[1479139200000,1.475],[1479225600000,1.474],[1479312000000,1.474],[1479398400000,1.473],[1479657600000,1.474],[1479744000000,1.474],[1479830400000,1.474],[1479916800000,1.474],[1480003200000,1.474],[1480262400000,1.474],[1480348800000,1.473],[1480435200000,1.471],[1480521600000,1.47],[1480608000000,1.469],[1480867200000,1.469],[1480953600000,1.467],[1481040000000,1.467],[1481126400000,1.468],[1481212800000,1.468],[1481472000000,1.467],[1481558400000,1.465],[1481644800000,1.464],[1481731200000,1.46],[1481817600000,1.46],[1482076800000,1.459],[1482163200000,1.457],[1482249600000,1.458],[1482336000000,1.46],[1482422400000,1.462],[1482681600000,1.463],[1482768000000,1.463],[1482854400000,1.463],[1482940800000,1.464],[1483027200000,1.465],[1483113600000,1.465],[1483372800000,1.466],[1483459200000,1.467],[1483545600000,1.465],[1483632000000,1.465],[1483891200000,1.466],[1483977600000,1.467],[1484064000000,1.468],[1484150400000,1.469],[1484236800000,1.469],[1484496000000,1.47],[1484582400000,1.469],[1484668800000,1.468],[1484755200000,1.467],[1484841600000,1.468],[1485100800000,1.469],[1485187200000,1.469],[1485273600000,1.469],[1485360000000,1.469],[1486051200000,1.468],[1486310400000,1.467],[1486396800000,1.466],[1486483200000,1.466],[1486569600000,1.468],[1486656000000,1.469],[1486915200000,1.47],[1487001600000,1.47],[1487088000000,1.47],[1487174400000,1.47],[1487260800000,1.471],[1487520000000,1.471],[1487606400000,1.471],[1487692800000,1.471],[1487779200000,1.472],[1487865600000,1.473],[1488124800000,1.473],[1488211200000,1.472],[1488297600000,1.472],[1488384000000,1.472],[1488470400000,1.472],[1488729600000,1.471],[1488816000000,1.471],[1488902400000,1.471],[1488988800000,1.471],[1489075200000,1.47],[1489334400000,1.471],[1489420800000,1.471],[1489507200000,1.471],[1489593600000,1.472],[1489680000000,1.472],[1489939200000,1.472],[1490025600000,1.471],[1490112000000,1.471],[1490198400000,1.472],[1490284800000,1.473],[1490544000000,1.474],[1490630400000,1.475],[1490716800000,1.476],[1490803200000,1.476],[1490889600000,1.476],[1491321600000,1.477],[1491408000000,1.476],[1491494400000,1.477],[1491753600000,1.478],[1491840000000,1.478],[1491926400000,1.478],[1492012800000,1.478],[1492099200000,1.478],[1492358400000,1.476],[1492444800000,1.476],[1492531200000,1.474],[1492617600000,1.474],[1492704000000,1.472],[1492963200000,1.471],[1493049600000,1.471],[1493136000000,1.471],[1493222400000,1.472],[1493308800000,1.472],[1493654400000,1.473],[1493740800000,1.472],[1493827200000,1.471],[1493913600000,1.47],[1494172800000,1.469],[1494259200000,1.468],[1494345600000,1.466],[1494432000000,1.466],[1494518400000,1.465],[1494777600000,1.465],[1494864000000,1.465],[1494950400000,1.465],[1495036800000,1.465],[1495123200000,1.465],[1495382400000,1.465],[1495468800000,1.465],[1495555200000,1.465],[1495641600000,1.466],[1495728000000,1.466],[1496160000000,1.466],[1496246400000,1.466],[1496332800000,1.467],[1496592000000,1.467],[1496678400000,1.468],[1496764800000,1.468],[1496851200000,1.468],[1496937600000,1.468],[1497196800000,1.47],[1497283200000,1.471],[1497369600000,1.472],[1497456000000,1.474],[1497542400000,1.475],[1497801600000,1.478],[1497888000000,1.481],[1497974400000,1.482],[1498060800000,1.483],[1498147200000,1.483],[1498406400000,1.485],[1498492800000,1.487],[1498579200000,1.488],[1498665600000,1.489],[1498752000000,1.49],[1499011200000,1.49],[1499097600000,1.49],[1499184000000,1.491],[1499270400000,1.491],[1499356800000,1.492],[1499616000000,1.493],[1499702400000,1.493],[1499788800000,1.494],[1499875200000,1.495],[1499961600000,1.495],[1500220800000,1.496],[1500307200000,1.496],[1500393600000,1.496],[1500480000000,1.496],[1500566400000,1.496],[1500825600000,1.497],[1500912000000,1.499],[1500998400000,1.499],[1501084800000,1.499],[1501171200000,1.499],[1501430400000,1.5],[1501516800000,1.5],[1501603200000,1.5],[1501689600000,1.499],[1501776000000,1.5],[1502035200000,1.5],[1502121600000,1.5],[1502208000000,1.5],[1502294400000,1.5],[1502380800000,1.5],[1502640000000,1.5],[1502726400000,1.501],[1502812800000,1.501],[1502899200000,1.501],[1502985600000,1.501],[1503244800000,1.501],[1503331200000,1.501],[1503417600000,1.501],[1503504000000,1.501],[1503590400000,1.501],[1503849600000,1.501],[1503936000000,1.5],[1504022400000,1.499],[1504108800000,1.499],[1504195200000,1.5],[1504454400000,1.5],[1504540800000,1.5],[1504627200000,1.5],[1504713600000,1.501],[1504800000000,1.501],[1505059200000,1.503],[1505145600000,1.503],[1505232000000,1.504],[1505318400000,1.504],[1505404800000,1.505],[1505664000000,1.505],[1505750400000,1.506],[1505836800000,1.506],[1505923200000,1.506],[1506009600000,1.506],[1506268800000,1.507],[1506355200000,1.507],[1506441600000,1.507],[1506528000000,1.507],[1506614400000,1.507],[1507478400000,1.509],[1507564800000,1.508],[1507651200000,1.509],[1507737600000,1.509],[1507824000000,1.509],[1508083200000,1.509],[1508169600000,1.508],[1508256000000,1.509],[1508342400000,1.509],[1508428800000,1.509],[1508688000000,1.51],[1508774400000,1.51],[1508860800000,1.51],[1508947200000,1.51],[1509033600000,1.509],[1509292800000,1.507],[1509379200000,1.507],[1509465600000,1.507],[1509552000000,1.507],[1509638400000,1.507],[1509897600000,1.507],[1509984000000,1.507],[1510070400000,1.507],[1510156800000,1.507],[1510243200000,1.506],[1510502400000,1.505],[1510588800000,1.504],[1510675200000,1.503],[1510761600000,1.504],[1510848000000,1.504],[1511107200000,1.504],[1511193600000,1.503],[1511280000000,1.5],[1511366400000,1.498],[1511452800000,1.497],[1511712000000,1.497],[1511798400000,1.497],[1511884800000,1.496],[1511971200000,1.496],[1512057600000,1.497],[1512316800000,1.499],[1512403200000,1.499],[1512489600000,1.5],[1512576000000,1.5],[1512662400000,1.501],[1512921600000,1.501],[1513008000000,1.501],[1513094400000,1.501],[1513180800000,1.501],[1513267200000,1.501],[1513526400000,1.501],[1513612800000,1.501],[1513699200000,1.501],[1513785600000,1.501],[1513872000000,1.5],[1514131200000,1.501],[1514217600000,1.501],[1514304000000,1.501],[1514390400000,1.501],[1514476800000,1.501],[1514649600000,1.502],[1514822400000,1.503],[1514908800000,1.504],[1514995200000,1.503],[1515081600000,1.504],[1515340800000,1.505],[1515427200000,1.506],[1515513600000,1.505],[1515600000000,1.505],[1515686400000,1.505],[1515945600000,1.506],[1516032000000,1.506],[1516118400000,1.506],[1516204800000,1.506],[1516291200000,1.505],[1516550400000,1.506],[1516636800000,1.506],[1516723200000,1.507],[1516809600000,1.507],[1516896000000,1.507],[1517155200000,1.508],[1517241600000,1.508],[1517328000000,1.508],[1517414400000,1.508],[1517500800000,1.509],[1517760000000,1.51],[1517846400000,1.51],[1517932800000,1.51],[1518019200000,1.511],[1518105600000,1.512],[1518364800000,1.512],[1518451200000,1.513],[1518537600000,1.513],[1519228800000,1.515],[1519315200000,1.515],[1519574400000,1.517],[1519660800000,1.518],[1519747200000,1.518],[1519833600000,1.519],[1519920000000,1.519],[1520179200000,1.52],[1520265600000,1.52],[1520352000000,1.521],[1520438400000,1.521],[1520524800000,1.522],[1520784000000,1.523],[1520870400000,1.522],[1520956800000,1.523],[1521043200000,1.522],[1521129600000,1.523],[1521388800000,1.523],[1521475200000,1.524],[1521561600000,1.524],[1521648000000,1.524],[1521734400000,1.526],[1521993600000,1.528],[1522080000000,1.529],[1522166400000,1.529],[1522252800000,1.53],[1522339200000,1.53],[1522598400000,1.531],[1522684800000,1.532],[1522771200000,1.533],[1523203200000,1.535],[1523289600000,1.536],[1523376000000,1.537],[1523462400000,1.537],[1523548800000,1.538],[1523808000000,1.539],[1523894400000,1.54],[1523980800000,1.545],[1524067200000,1.544],[1524153600000,1.544],[1524412800000,1.544],[1524499200000,1.544],[1524585600000,1.544],[1524672000000,1.543],[1524758400000,1.543],[1525190400000,1.543],[1525276800000,1.543],[1525363200000,1.543],[1525622400000,1.544],[1525708800000,1.543],[1525795200000,1.543],[1525881600000,1.543],[1525968000000,1.542],[1526227200000,1.542],</t>
+  </si>
+  <si>
+    <t>000171</t>
+  </si>
+  <si>
+    <t>易方达裕丰回报债券</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [[1377187200000,1.0],[1377792000000,0.997],[1378396800000,1.004],[1379001600000,1.005],[1379260800000,1.007],[1379347200000,1.004],[1379433600000,1.006],[1379865600000,1.011],[1379952000000,1.012],[1380038400000,1.01],[1380124800000,1.004],[1380211200000,1.002],[1380470400000,1.007],[1381161600000,1.011],[1381248000000,1.016],[1381334400000,1.012],[1381420800000,1.013],[1381680000000,1.013],[1381766400000,1.009],[1381852800000,1.004],[1381939200000,1.001],[1382025600000,1.002],[1382284800000,1.007],[1382371200000,1.002],[1382457600000,0.998],[1382544000000,0.995],[1382630400000,0.989],[1382889600000,0.989],[1382976000000,0.988],[1383062400000,0.989],[1383148800000,0.986],[1383235200000,0.986],[1383494400000,0.986],[1383580800000,0.987],[1383667200000,0.986],[1383753600000,0.986],[1383840000000,0.984],[1384099200000,0.981],[1384185600000,0.981],[1384272000000,0.979],[1384358400000,0.978],[1384444800000,0.977],[1384704000000,0.978],[1384790400000,0.977],[1384876800000,0.975],[1384963200000,0.975],[1385049600000,0.976],[1385308800000,0.975],[1385395200000,0.976],[1385481600000,0.978],[1385568000000,0.979],[1385654400000,0.981],[1385913600000,0.977],[1386000000000,0.978],[1386086400000,0.98],[1386172800000,0.978],[1386259200000,0.976],[1386518400000,0.976],[1386604800000,0.975],[1386691200000,0.974],[1386777600000,0.974],[1386864000000,0.975],[1387123200000,0.974],[1387209600000,0.973],[1387296000000,0.972],[1387382400000,0.97],[1387468800000,0.969],[1387728000000,0.968],[1387814400000,0.969],[1387900800000,0.969],[1387987200000,0.968],[1388073600000,0.969],[1388332800000,0.968],[1388419200000,0.968],[1388592000000,0.969],[1388678400000,0.968],[1388937600000,0.966],[1389024000000,0.967],[1389110400000,0.968],[1389196800000,0.97],[1389283200000,0.97],[1389542400000,0.97],[1389628800000,0.971],[1389715200000,0.971],[1389801600000,0.97],[1389888000000,0.97],[1390147200000,0.969],[1390233600000,0.969],[1390320000000,0.971],[1390406400000,0.971],[1390492800000,0.972],[1390752000000,0.976],[1390838400000,0.976],[1390924800000,0.977],[1391011200000,0.977],[1391702400000,0.979],[1391961600000,0.982],[1392048000000,0.982],[1392134400000,0.983],[1392220800000,0.984],[1392307200000,0.985],[1392566400000,0.986],[1392652800000,0.987],[1392739200000,0.987],[1392825600000,0.987],[1392912000000,0.987],[1393171200000,0.988],[1393257600000,0.988],[1393344000000,0.99],[1393430400000,0.992],[1393516800000,0.993],[1393776000000,0.995],[1393862400000,0.995],[1393948800000,0.993],[1394035200000,0.993],[1394121600000,0.994],[1394380800000,0.994],[1394467200000,0.995],[1394553600000,0.996],[1394640000000,0.997],[1394726400000,0.997],[1394985600000,0.998],[1395072000000,0.999],[1395158400000,0.997],[1395244800000,0.997],[1395331200000,0.999],[1395590400000,0.999],[1395676800000,0.999],[1395763200000,1.0],[1395849600000,1.0],[1395936000000,0.999],[1396195200000,0.999],[1396281600000,0.999],[1396368000000,0.999],[1396454400000,0.999],[1396540800000,1.0],[1396886400000,1.001],[1396972800000,1.001],[1397059200000,1.002],[1397145600000,1.003],[1397404800000,1.005],[1397491200000,1.006],[1397577600000,1.007],[1397664000000,1.01],[1397750400000,1.011],[1398009600000,1.012],[1398096000000,1.013],[1398182400000,1.013],[1398268800000,1.014],[1398355200000,1.014],[1398614400000,1.014],[1398700800000,1.015],[1398787200000,1.016],[1399219200000,1.018],[1399305600000,1.02],[1399392000000,1.021],[1399478400000,1.025],[1399564800000,1.028],[1399824000000,1.029],[1399910400000,1.03],[1399996800000,1.029],[1400083200000,1.029],[1400169600000,1.029],[1400428800000,1.029],[1400515200000,1.029],[1400601600000,1.03],[1400688000000,1.031],[1400774400000,1.029],[1401033600000,1.03],[1401120000000,1.031],[1401206400000,1.032],[1401292800000,1.034],[1401379200000,1.035],[1401724800000,1.036],[1401811200000,1.038],[1401897600000,1.039],[1401984000000,1.041],[1402243200000,1.044],[1402329600000,1.045],[1402416000000,1.047],[1402502400000,1.047],[1402588800000,1.048],[1402848000000,1.049],[1402934400000,1.05],[1403020800000,1.049],[1403107200000,1.048],[1403193600000,1.048],[1403452800000,1.051],[1403539200000,1.049],[1403625600000,1.049],[1403712000000,1.05],[1403798400000,1.051],[1404057600000,1.051],[1404144000000,1.049],[1404230400000,1.05],[1404316800000,1.05],[1404403200000,1.048],[1404662400000,1.051],[1404748800000,1.05],[1404835200000,1.051],[1404921600000,1.051],[1405008000000,1.052],[1405267200000,1.053],[1405353600000,1.053],[1405440000000,1.052],[1405526400000,1.052],[1405612800000,1.052],[1405872000000,1.052],[1405958400000,1.052],[1406044800000,1.052],[1406131200000,1.053],[1406217600000,1.053],[1406476800000,1.055],[1406563200000,1.056],[1406649600000,1.056],[1406736000000,1.058],[1406822400000,1.058],[1407081600000,1.06],[1407168000000,1.061],[1407254400000,1.063],[1407340800000,1.062],[1407427200000,1.063],[1407686400000,1.066],[1407772800000,1.066],[1407859200000,1.067],[1407945600000,1.067],[1408032000000,1.069],[1408291200000,1.07],[1408377600000,1.072],[1408464000000,1.072],[1408550400000,1.072],[1408636800000,1.073],[1408896000000,1.076],[1408982400000,1.074],[1409068800000,1.076],[1409155200000,1.076],[1409241600000,1.077],[1409500800000,1.079],[1409587200000,1.082],[1409673600000,1.084],[1409760000000,1.086],[1409846400000,1.087],[1410192000000,1.087],[1410278400000,1.087],[1410364800000,1.087],[1410451200000,1.091],[1410710400000,1.094],[1410796800000,1.089],[1410883200000,1.092],[1410969600000,1.095],[1411056000000,1.1],[1411315200000,1.097],[1411401600000,1.1],[1411488000000,1.102],[1411574400000,1.105],[1411660800000,1.105],[1411920000000,1.106],[1412006400000,1.11],[1412697600000,1.114],[1412784000000,1.114],[1412870400000,1.113],[1413129600000,1.115],[1413216000000,1.115],[1413302400000,1.118],[1413388800000,1.117],[1413475200000,1.12],[1413734400000,1.128],[1413820800000,1.128],[1413907200000,1.127],[1413993600000,1.127],[1414080000000,1.127],[1414339200000,1.133],[1414425600000,1.138],[1414512000000,1.143],[1414598400000,1.147],[1414684800000,1.147],[1414944000000,1.151],[1415030400000,1.156],[1415116800000,1.157],[1415203200000,1.16],[1415289600000,1.163],[1415548800000,1.169],[1415635200000,1.168],[1415721600000,1.168],[1415808000000,1.165],[1415894400000,1.161],[1416153600000,1.163],[1416240000000,1.16],[1416326400000,1.16],[1416412800000,1.161],[1416499200000,1.164],[1416758400000,1.174],[1416844800000,1.177],[1416931200000,1.177],[1417017600000,1.177],[1417104000000,1.18],[1417363200000,1.177],[1417449600000,1.181],[1417536000000,1.179],[1417622400000,1.185],[1417708800000,1.181],[1417968000000,1.182],[1418054400000,1.157],[1418140800000,1.164],[1418227200000,1.166],[1418313600000,1.167],[1418572800000,1.17],[1418659200000,1.171],[1418745600000,1.169],[1418832000000,1.172],[1418918400000,1.174],[1419177600000,1.168],[1419264000000,1.16],[1419350400000,1.16],[1419436800000,1.169],[1419523200000,1.173],[1419782400000,1.173],[1419868800000,1.171],[1419955200000,1.174],[1420387200000,1.179],[1420473600000,1.183],[1420560000000,1.188],[1420646400000,1.188],[1420732800000,1.187],[1420992000000,1.184],[1421078400000,1.187],[1421164800000,1.187],[1421251200000,1.189],[1421337600000,1.193],[1421596800000,1.188],[1421683200000,1.194],[1421769600000,1.197],[1421856000000,1.2],[1421942400000,1.199],[1422201600000,1.202],[1422288000000,1.203],[1422374400000,1.201],[1422460800000,1.201],[1422547200000,1.199],[1422806400000,1.195],[1422892800000,1.197],[1422979200000,1.197],[1423065600000,1.195],[1423152000000,1.192],[1423411200000,1.195],[1423497600000,1.197],[1423584000000,1.199],[1423670400000,1.2],[1423756800000,1.202],[1424016000000,1.206],[1424102400000,1.209],[1424793600000,1.207],[1424880000000,1.214],[1424966400000,1.217],[1425225600000,1.224],[1425312000000,1.228],[1425398400000,1.23],[1425484800000,1.231],[1425571200000,1.226],[1425830400000,1.23],[1425916800000,1.233],[1426003200000,1.233],[1426089600000,1.23],[1426176000000,1.233],[1426435200000,1.24],[1426521600000,1.245],[1426608000000,1.252],[1426694400000,1.257],[1426780800000,1.262],[1427040000000,1.269],[1427126400000,1.269],[1427212800000,1.271],[1427299200000,1.266],[1427385600000,1.267],[1427644800000,1.269],[1427731200000,1.267],[1427817600000,1.274],[1427904000000,1.279],[1427990400000,1.283],[1428336000000,1.286],[1428422400000,1.279],[1428508800000,1.275],[1428595200000,1.282],[1428854400000,1.287],[1428940800000,1.288],[1429027200000,1.283],[1429113600000,1.287],[1429200000000,1.293],[1429459200000,1.295],[1429545600000,1.307],[1429632000000,1.316],[1429718400000,1.319],[1429804800000,1.316],[1430064000000,1.321],[1430150400000,1.315],[1430236800000,1.322],[1430323200000,1.326],[1430668800000,1.33],[1430755200000,1.321],[1430841600000,1.319],[1430928000000,1.317],[1431014400000,1.326],[1431273600000,1.338],[1431360000000,1.344],[1431446400000,1.347],[1431532800000,1.353],[1431619200000,1.351],[1431878400000,1.356],[1431964800000,1.361],[1432051200000,1.368],[1432137600000,1.378],[1432224000000,1.382],[1432483200000,1.39],[1432569600000,1.401],[1432656000000,1.404],[1432742400000,1.382],[1432828800000,1.385],[1433088000000,1.4],[1433174400000,1.41],[1433260800000,1.414],[1433347200000,1.412],[1433433600000,1.415],[1433692800000,1.412],[1433779200000,1.413],[1433865600000,1.42],[1433952000000,1.426],[1434038400000,1.428],[1434297600000,1.425],[1434384000000,1.411],[1434470400000,1.417],[1434556800000,1.409],[1434643200000,1.395],[1434988800000,1.398],[1435075200000,1.401],[1435161600000,1.395],[1435248000000,1.382],[1435507200000,1.371],[1435593600000,1.377],[1435680000000,1.368],[1435766400000,1.357],[1435852800000,1.345],[1436112000000,1.341],[1436198400000,1.323],[1436284800000,1.303],[1436371200000,1.311],[1436457600000,1.323],[1436716800000,1.339],[1436803200000,1.345],[1436889600000,1.337],[1436976000000,1.343],[1437062400000,1.356],[1437321600000,1.363],[1437408000000,1.368],[1437494400000,1.374],[1437580800000,1.382],[1437667200000,1.377],[1437926400000,1.358],[1438012800000,1.35],[1438099200000,1.364],[1438185600000,1.359],[1438272000000,1.353],[1438531200000,1.348],[1438617600000,1.363],[1438704000000,1.361],[1438790400000,1.362],[1438876800000,1.374],[1439136000000,1.388],[1439222400000,1.384],[1439308800000,1.383],[1439395200000,1.387],[1439481600000,1.391],[1439740800000,1.396],[1439827200000,1.378],[1439913600000,1.383],[1440000000000,1.374],[1440086400000,1.364],[1440345600000,1.351],[1440432000000,1.341],[1440518400000,1.329],[1440604800000,1.338],[1440691200000,1.35],[1440950400000,1.345],[1441036800000,1.335],[1441123200000,1.333],[1441555200000,1.336],[1441641600000,1.341],[1441728000000,1.344],[1441814400000,1.343],[1441900800000,1.344],[1442160000000,1.338],[1442246400000,1.334],[1442332800000,1.341],[1442419200000,1.341],[1442505600000,1.343],[1442764800000,1.347],[1442851200000,1.348],[1442937600000,1.347],[1443024000000,1.348],[1443110400000,1.345],[1443369600000,1.348],[1443456000000,1.351],[1443542400000,1.352],[1444233600000,1.36],[1444320000000,1.361],[1444579200000,1.365],[1444665600000,1.371],[1444752000000,1.371],[1444838400000,1.375],[1444924800000,1.377],[1445184000000,1.378],[1445270400000,1.383],[1445356800000,1.375],[1445443200000,1.38],[1445529600000,1.386],[1445788800000,1.391],[1445875200000,1.393],[1445961600000,1.392],[1446048000000,1.394],[1446134400000,1.395],[1446393600000,1.394],[1446480000000,1.393],[1446566400000,1.399],[1446652800000,1.398],[1446739200000,1.402],[1446998400000,1.4],[1447084800000,1.398],[1447171200000,1.4],[1447257600000,1.402],[1447344000000,1.398],[1447603200000,1.4],[1447689600000,1.401],[1447776000000,1.398],[1447862400000,1.401],[1447948800000,1.401],[1448208000000,1.4],[1448294400000,1.404],[1448380800000,1.406],[1448467200000,1.406],[1448553600000,1.399],[1448812800000,1.403],[1448899200000,1.406],[1448985600000,1.405],[1449072000000,1.409],[1449158400000,1.412],[1449417600000,1.415],[1449504000000,1.413],[1449590400000,1.413],[1449676800000,1.413],[1449763200000,1.415],[1450022400000,1.417],[1450108800000,1.418],[1450195200000,1.419],[1450281600000,1.423],[1450368000000,1.423],[1450627200000,1.428],[1450713600000,1.432],[1450800000000,1.432],[1450886400000,1.435],[1450972800000,1.436],[1451232000000,1.434],[1451318400000,1.435],[1451404800000,1.437],[1451491200000,1.435],[1451836800000,1.424],[1451923200000,1.423],[1452009600000,1.425],[1452096000000,1.417],[1452182400000,1.419],[1452441600000,1.411],[1452528000000,1.414],[1452614400000,1.413],[1452700800000,1.417],[1452787200000,1.414],[1453046400000,1.417],[1453132800000,1.42],[1453219200000,1.419],[1453305600000,1.417],[1453392000000,1.42],[1453651200000,1.419],[1453737600000,1.413],[1453824000000,1.411],[1453910400000,1.407],[1453996800000,1.411],[1454256000000,1.41],[1454342400000,1.412],[1454428800000,1.411],[1454515200000,1.413],[1454601600000,1.413],[1455465600000,1.416],[1455552000000,1.418],[1455638400000,1.419],[1455724800000,1.419],[1455811200000,1.422],[1456070400000,1.424],[1456156800000,1.424],[1456243200000,1.424],[1456329600000,1.418],[1456416000000,1.418],[1456675200000,1.416],[1456761600000,1.417],[1456848000000,1.42],[1456934400000,1.422],[1457020800000,1.419],[1457280000000,1.422],[1457366400000,1.423],[1457452800000,1.424],[1457539200000,1.424],[1457625600000,1.424],[1457884800000,1.428],[1457971200000,1.428],[1458057600000,1.429],[1458144000000,1.433],[1458230400000,1.436],[1458489600000,1.439],[1458576000000,1.44],[1458662400000,1.44],[1458748800000,1.44],[1458835200000,1.441],[1459094400000,1.44],[1459180800000,1.438],[1459267200000,1.444],[1459353600000,1.445],[1459440000000,1.446],[1459785600000,1.45],[1459872000000,1.451],[1459958400000,1.448],[1460044800000,1.449],[1460304000000,1.449],[1460390400000,1.446],[1460476800000,1.445],[1460563200000,1.442],[1460649600000,1.44],[1460908800000,1.438],[1460995200000,1.437],[1461081600000,1.429],[1461168000000,1.424],[1461254400000,1.423],[1461513600000,1.416],[1461600000000,1.415],[1461686400000,1.416],[1461772800000,1.417],[1461859200000,1.418],[1462204800000,1.422],[1462291200000,1.422],[1462377600000,1.424],[1462464000000,1.421],[1462723200000,1.418],[1462809600000,1.419],[1462896000000,1.419],[1462982400000,1.42],[1463068800000,1.421],[1463328000000,1.422],[1463414400000,1.423],[1463500800000,1.421],[1463587200000,1.422],[1463673600000,1.425],[1463932800000,1.428],[1464019200000,1.425],[1464105600000,1.428],[1464192000000,1.43],[1464278400000,1.43],[1464537600000,1.428],[1464624000000,1.43],[1464710400000,1.432],[1464796800000,1.432],[1464883200000,1.432],[1465142400000,1.433],[1465228800000,1.433],[1465315200000,1.432],[1465747200000,1.427],[1465833600000,1.428],[1465920000000,1.433],[1466006400000,1.432],[1466092800000,1.434],[1466352000000,1.436],[1466438400000,1.437],[1466524800000,1.439],[1466611200000,1.438],[1466697600000,1.438],[1466956800000,1.442],[1467043200000,1.443],[1467129600000,1.444],[1467216000000,1.446],[1467302400000,1.447],[1467561600000,1.449],[1467648000000,1.451],[1467734400000,1.452],[1467820800000,1.453],[1467907200000,1.454],[1468166400000,1.454],[1468252800000,1.458],[1468339200000,1.459],[1468425600000,1.459],[1468512000000,1.459],[1468771200000,1.46],[1468857600000,1.46],[1468944000000,1.461],[1469030400000,1.462],[1469116800000,1.46],[1469376000000,1.46],[1469462400000,1.463],[1469548800000,1.459],[1469635200000,1.461],[1469721600000,1.461],[1469980800000,1.457],[1470067200000,1.459],[1470153600000,1.462],[1470240000000,1.463],[1470326400000,1.462],[1470585600000,1.468],[1470672000000,1.471],[1470758400000,1.47],[1470844800000,1.467],[1470931200000,1.471],[1471190400000,1.477],[1471276800000,1.478],[1471363200000,1.479],[1471449600000,1.477],[1471536000000,1.476],[1471795200000,1.476],[1471881600000,1.476],[1471968000000,1.475],[1472054400000,1.472],[1472140800000,1.473],[1472400000000,1.475],[1472486400000,1.473],[1472572800000,1.473],[1472659200000,1.472],[1472745600000,1.47],[1473004800000,1.472],[1473091200000,1.474],[1473177600000,1.474],[1473264000000,1.475],[1473350400000,1.473],[1473609600000,1.47],[1473696000000,1.471],[1473782400000,1.47],[1474214400000,1.473],[1474300800000,1.473],[1474387200000,1.473],[1474473600000,1.474],[1474560000000,1.475],[1474819200000,1.474],[1474905600000,1.474],[1474992000000,1.474],[1475078400000,1.476],[1475164800000,1.478],[1476028800000,1.485],[1476115200000,1.485],[1476201600000,1.485],[1476288000000,1.485],[1476374400000,1.485],[1476633600000,1.486],[1476720000000,1.486],[1476806400000,1.486],[1476892800000,1.487],[1476979200000,1.487],[1477238400000,1.488],[1477324800000,1.488],[1477411200000,1.486],[1477497600000,1.485],[1477584000000,1.486],[1477843200000,1.485],[1477929600000,1.487],[1478016000000,1.487],[1478102400000,1.488],[1478188800000,1.487],[1478448000000,1.487],[1478534400000,1.486],[1478620800000,1.487],[1478707200000,1.487],[1478793600000,1.486],[1479052800000,1.484],[1479139200000,1.484],[1479225600000,1.484],[1479312000000,1.483],[1479398400000,1.482],[1479657600000,1.482],[1479744000000,1.484],[1479830400000,1.487],[1479916800000,1.489],[1480003200000,1.491],[1480262400000,1.491],[1480348800000,1.49],[1480435200000,1.487],[1480521600000,1.487],[1480608000000,1.48],[1480867200000,1.475],[1480953600000,1.473],[1481040000000,1.472],[1481126400000,1.473],[1481212800000,1.474],[1481472000000,1.466],[1481558400000,1.463],[1481644800000,1.458],[1481731200000,1.447],[1481817600000,1.446],[1482076800000,1.441],[1482163200000,1.436],[1482249600000,1.437],[1482336000000,1.44],[1482422400000,1.441],[1482681600000,1.443],[1482768000000,1.445],[1482854400000,1.445],[1482940800000,1.446],[1483027200000,1.448],[1483113600000,1.449],[1483372800000,1.452],[1483459200000,1.454],[1483545600000,1.455],[1483632000000,1.454],[1483891200000,1.455],[1483977600000,1.456],[1484064000000,1.455],[1484150400000,1.455],[1484236800000,1.456],[1484496000000,1.456],[1484582400000,1.455],[1484668800000,1.455],[1484755200000,1.454],[1484841600000,1.455],[1485100800000,1.455],[1485187200000,1.456],[1485273600000,1.456],[1485360000000,1.457],[1486051200000,1.456],[1486310400000,1.454],[1486396800000,1.452],[1486483200000,1.451],[1486569600000,1.451],[1486656000000,1.452],[1486915200000,1.453],[1487001600000,1.453],[1487088000000,1.453],[1487174400000,1.453],[1487260800000,1.453],[1487520000000,1.456],[1487606400000,1.456],[1487692800000,1.456],[1487779200000,1.456],[1487865600000,1.457],[1488124800000,1.456],[1488211200000,1.456],[1488297600000,1.456],[1488384000000,1.456],[1488470400000,1.456],[1488729600000,1.457],[1488816000000,1.457],[1488902400000,1.457],[1488988800000,1.456],[1489075200000,1.457],[1489334400000,1.458],[1489420800000,1.457],[1489507200000,1.459],[1489593600000,1.46],[1489680000000,1.459],[1489939200000,1.46],[1490025600000,1.462],[1490112000000,1.462],[1490198400000,1.464],[1490284800000,1.465],[1490544000000,1.464],[1490630400000,1.463],[1490716800000,1.464],[1490803200000,1.463],[1490889600000,1.465],[1491321600000,1.467],[1491408000000,1.467],[1491494400000,1.467],[1491753600000,1.466],[1491840000000,1.465],[1491926400000,1.465],[1492012800000,1.466],[1492099200000,1.464],[1492358400000,1.464],[1492444800000,1.465],[1492531200000,1.466],[1492617600000,1.468],[1492704000000,1.467],[1492963200000,1.465],[1493049600000,1.469],[1493136000000,1.47],[1493222400000,1.47],[1493308800000,1.469],[1493654400000,1.47],[1493740800000,1.469],[1493827200000,1.469],[1493913600000,1.468],[1494172800000,1.466],[1494259200000,1.466],[1494345600000,1.465],[1494432000000,1.466],[1494518400000,1.467],[1494777600000,1.47],[1494864000000,1.473],[1494950400000,1.471],[1495036800000,1.47],[1495123200000,1.471],[1495382400000,1.473],[1495468800000,1.474],[1495555200000,1.473],[1495641600000,1.473],[1495728000000,1.472],[1496160000000,1.473],[1496246400000,1.474],[1496332800000,1.473],[1496592000000,1.474],[1496678400000,1.477],[1496764800000,1.478],[1496851200000,1.483],[1496937600000,1.483],[1497196800000,1.484],[1497283200000,1.486],[1497369600000,1.483],[1497456000000,1.483],[1497542400000,1.483],[1497801600000,1.487],[1497888000000,1.489],[1497974400000,1.494],[1498060800000,1.494],[1498147200000,1.499],[1498406400000,1.504],[1498492800000,1.506],[1498579200000,1.501],[1498665600000,1.505],[1498752000000,1.505],[1499011200000,1.502],[1499097600000,1.504],[1499184000000,1.51],[1499270400000,1.511],[1499356800000,1.511],[1499616000000,1.509],[1499702400000,1.513],[1499788800000,1.514],[1499875200000,1.513],[1499961600000,1.515],[1500220800000,1.514],[1500307200000,1.513],[1500393600000,1.516],[1500480000000,1.518],[1500566400000,1.516],[1500825600000,1.518],[1500912000000,1.515],[1500998400000,1.511],[1501084800000,1.512],[1501171200000,1.514],[1501430400000,1.514],[1501516800000,1.514],[1501603200000,1.514],[1501689600000,1.509],[1501776000000,1.508],[1502035200000,1.51],[1502121600000,1.509],[1502208000000,1.511],[1502294400000,1.511],[1502380800000,1.509],[1502640000000,1.513],[1502726400000,1.514],[1502812800000,1.512],[1502899200000,1.511],[1502985600000,1.514],[1503244800000,1.515],[1503331200000,1.516],[1503417600000,1.516],[1503504000000,1.515],[1503590400000,1.516],[1503849600000,1.52],[1503936000000,1.523],[1504022400000,1.522],[1504108800000,1.521],[1504195200000,1.52],[1504454400000,1.521],[1504540800000,1.522],[1504627200000,1.521],[1504713600000,1.523],[1504800000000,1.526],[1505059200000,1.525],[1505145600000,1.527],[1505232000000,1.527],[1505318400000,1.527],[1505404800000,1.529],[1505664000000,1.531],[1505750400000,1.529],[1505836800000,1.53],[1505923200000,1.532],[1506009600000,1.534],[1506268800000,1.533],[1506355200000,1.534],[1506441600000,1.534],[1506528000000,1.537],[1506614400000,1.539],[1507478400000,1.543],[1507564800000,1.541],[1507651200000,1.545],[1507737600000,1.551],[1507824000000,1.551],[1508083200000,1.549],[1508169600000,1.549],[1508256000000,1.556],[1508342400000,1.555],[1508428800000,1.554],[1508688000000,1.555],[1508774400000,1.558],[1508860800000,1.561],[1508947200000,1.561],[1509033600000,1.564],[1509292800000,1.562],[1509379200000,1.561],[1509465600000,1.557],[1509552000000,1.559],[1509638400000,1.561],[1509897600000,1.567],[1509984000000,1.57],[1510070400000,1.565],[1510156800000,1.573],[1510243200000,1.581],[1510502400000,1.58],[1510588800000,1.577],[1510675200000,1.574],[1510761600000,1.581],[1510848000000,1.58],[1511107200000,1.585],[1511193600000,1.595],[1511280000000,1.589],[1511366400000,1.57],[1511452800000,1.571],[1511712000000,1.566],[1511798400000,1.567],[1511884800000,1.566],[1511971200000,1.559],[1512057600000,1.558],[1512316800000,1.563],[1512403200000,1.566],[1512489600000,1.566],[1512576000000,1.561],[1512662400000,1.567],[1512921600000,1.575],[1513008000000,1.572],[1513094400000,1.577],[1513180800000,1.576],[1513267200000,1.571],[1513526400000,1.57],[1513612800000,1.576],[1513699200000,1.575],[1513785600000,1.579],[1513872000000,1.578],[1514131200000,1.578],[1514217600000,1.578],[1514304000000,1.571],[1514390400000,1.572],[1514476800000,1.573],[1514649600000,1.573],[1514822400000,1.58],[1514908800000,1.581],[1514995200000,1.583],[1515081600000,1.584],[1515340800000,1.583],[1515427200000,1.589],[1515513600000,1.59],[1515600000000,1.59],[1515686400000,1.594],[1515945600000,1.598],[1516032000000,1.601],[1516118400000,1.595],[1516204800000,1.596],[1516291200000,1.596],[1516550400000,1.606],[1516636800000,1.608],[1516723200000,1.605],[1516809600000,1.603],[1516896000000,1.606],[1517155200000,1.6],[1517241600000,1.599],[1517328000000,1.6],[1517414400000,1.599],[1517500800000,1.602],[1517760000000,1.602],[1517846400000,1.594],[1517932800000,1.584],[1518019200000,1.585],[1518105600000,1.575],[1518364800000,1.582],[1518451200000,1.587],[1518537600000,1.591],[1519228800000,1.602],[1519315200000,1.603],[1519574400000,1.609],[1519660800000,1.603],[1519747200000,1.6],[1519833600000,1.601],[1519920000000,1.6],[1520179200000,1.598],[1520265600000,1.604],[1520352000000,1.6],[1520438400000,1.606],[1520524800000,1.608],[1520784000000,1.61],[1520870400000,1.608],[1520956800000,1.606],[1521043200000,1.608],[1521129600000,1.605],[1521388800000,1.605],[1521475200000,1.605],[1521561600000,1.604],[1521648000000,1.599],[1521734400000,1.592],[1521993600000,1.591],[1522080000000,1.592],[1522166400000,1.586],[1522252800000,1.592],[1522339200000,1.594],[1522598400000,1.595],[1522684800000,1.594],[1522771200000,1.594],[1523203200000,1.594],[1523289600000,1.603],[1523376000000,1.606],[1523462400000,1.604],[1523548800000,1.601],[1523808000000,1.596],[1523894400000,1.591],[1523980800000,1.598],[1524067200000,1.605],[1524153600000,1.602],[1524412800000,1.602],[1524499200000,1.61],[1524585600000,1.609],[1524672000000,1.6],[1524758400000,1.596],[1525190400000,1.598],[1525276800000,1.599],[1525363200000,1.601],[1525622400000,1.607],[1525708800000,1.61],[1525795200000,1.609],[1525881600000,1.61],[1525968000000,1.607],[1526227200000,1.609],[1526313600000,1.611],[1526400000000,1.61],[1526486400000,1.609],[1526572800000,1.614],[1526832000000,1.617],[1526918400000,1.618],[1527004800000,1.613],[1527091200000,1.611],[1527177600000,1.61],[1527436800000,1.612],[1527523200000,1.61],[1527609600000,1.607],[1527696000000,1.614],[1527782400000,1.609],[1528041600000,1.614],[1528128000000,1.618],[1528214400000,1.618],[1528300800000,1.618],[1528387200000,1.618],[1528646400000,1.618],[1528732800000,1.622],[1528819200000,1.621],[1528905600000,1.62],[1528992000000,1.617],[1529337600000,1.609],[1529424000000,1.611],[1529510400000,1.61],[1529596800000,1.612],[1529856000000,1.611],[1529942400000,1.608],[1530028800000,1.603],[1530115200000,1.601],[1530201600000,1.609],[1530288000000,1.609],[1530460800000,1.606],[1530547200000,1.606],[1530633600000,1.606],[1530720000000,1.605],[1530806400000,1.607],[1531065600000,1.615],[1531152000000,1.617],[1531238400000,1.616],[1531324800000,1.62],[1531411200000,1.623],[1531670400000,1.623],[1531756800000,1.622],[1531843200000,1.621],[1531929600000,1.623],[1532016000000,1.626],[1532275200000,1.63],[1532361600000,1.633],[1532448000000,1.633],[1532534400000,1.63],[1532620800000,1.631],[1532880000000,1.635],[1532966400000,1.638],[1533052800000,1.634],[1533139200000,1.631],[1533225600000,1.627],[1533484800000,1.625],[1533571200000,1.634],[1533657600000,1.63],[1533744000000,1.634],[1533830400000,1.634],[1534089600000,1.633],[1534176000000,1.631],[1534262400000,1.625],[1534348800000,1.622],[1534435200000,1.616],[1534694400000,1.617],[1534780800000,1.623],[1534867200000,1.622],[1534953600000,1.623],[1535040000000,1.624],[1535299200000,1.63],[1535385600000,1.63],[1535472000000,1.628],[1535558400000,1.628],[1535644800000,1.625],[1535904000000,1.623],[1535990400000,1.626],[1536076800000,1.621],[1536163200000,1.619],[1536249600000,1.62],[1536508800000,1.617],[1536595200000,1.615],[1536681600000,1.612],[1536768000000,1.616],[1536854400000,1.617],[1537113600000,1.616],[1537200000000,1.622],[1537286400000,1.626],[1537372800000,1.626],[1537459200000,1.632],[1537804800000,1.632],[1537891200000,1.635],[1537977600000,1.635],[1538064000000,1.638],[1538928000000,1.631],[1539014400000,1.631],[1539100800000,1.632],[1539187200000,1.626],[1539273600000,1.633],[1539532800000,1.629],[1539619200000,1.627],[1539705600000,1.628],[1539792000000,1.624],[1539878400000,1.631],[1540137600000,1.64],[1540224000000,1.633],[1540310400000,1.631],[1540396800000,1.629],[1540483200000,1.627],[1540742400000,1.617],[1540828800000,1.62],[1540915200000,1.625],[1541001600000,1.628],[1541088000000,1.637],[1541347200000,1.635],[1541433600000,1.634],[1541520000000,1.634],[1541606400000,1.633],[1541692800000,1.632],[1541952000000,1.635],[1542038400000,1.637],[1542124800000,1.638],[1542211200000,1.641],[1542297600000,1.644],[1542556800000,1.645],[1542643200000,1.642],[1542729600000,1.642],[1542816000000,1.642],[1542902400000,1.639],[1543161600000,1.639],[1543248000000,1.639],[1543334400000,1.641],[1543420800000,1.641],[1543507200000,1.643],[1543766400000,1.648],[1543852800000,1.649],[1543939200000,1.649],[1544025600000,1.647],[1544112000000,1.648],[1544371200000,1.648],[1544457600000,1.647],[1544544000000,1.649],[1544630400000,1.65],[1544716800000,1.647],[1544976000000,1.643],[1545062400000,1.639],[1545148800000,1.638],[1545235200000,1.638],[1545321600000,1.637],[1545580800000,1.64],[1545667200000,1.64],[1545753600000,1.639],[1545840000000,1.64],[1545926400000,1.641],[1546185600000,1.641],[1546358400000,1.642],[1546444800000,1.642],[1546531200000,1.648],[1546790400000,1.653],[1546876800000,1.656],[1546963200000,1.662],[1547049600000,1.664],[1547136000000,1.665],[1547395200000,1.663],[1547481600000,1.667],[1547568000000,1.669],[1547654400000,1.668],[1547740800000,1.673],[1548000000000,1.675],[1548086400000,1.671],[1548172800000,1.672],[1548259200000,1.674],[1548345600000,1.676],[1548604800000,1.679],[1548691200000,1.678],[1548777600000,1.677],[1548864000000,1.68],[1548950400000,1.685],[1549814400000,1.693],[1549900800000,1.695],[1549987200000,1.699],[1550073600000,1.7],[1550160000000,1.695],[1550419200000,1.706],[1550505600000,1.704],[1550592000000,1.706],[1550678400000,1.705],[1550764800000,1.709],[1551024000000,1.721],[1551110400000,1.716],[1551196800000,1.711],[1551283200000,1.711],[1551369600000,1.715],[1551628800000,1.718],[1551715200000,1.721],[1551801600000,1.722],[1551888000000,1.717],[1551974400000,1.712],[1552233600000,1.721],[1552320000000,1.726],[1552406400000,1.721],[1552492800000,1.72],[1552579200000,1.726],[1552838400000,1.734],[1552924800000,1.733],[1553011200000,1.735],[1553097600000,1.734],[1553184000000,1.734],[1553443200000,1.727],[1553529600000,1.721],[1553616000000,1.725],[1553702400000,1.725],[1553788800000,1.737],[1554048000000,1.748],[1554134400000,1.746],[1554220800000,1.749],[1554307200000,1.753],[1554652800000,1.754],[1554739200000,1.754],[1554825600000,1.755],[1554912000000,1.744],[1554998400000,1.743],[1555257600000,1.738],[1555344000000,1.744],[1555430400000,1.748],[1555516800000,1.748],[1555603200000,1.753],[1555862400000,1.743],[1555948800000,1.742],[1556035200000,1.741],[1556121600000,1.731],[1556208000000,1.722],[1556467200000,1.725],[1556553600000,1.732],[1557072000000,1.707],[1557158400000,1.718],[1557244800000,1.713],[1557331200000,1.707],[1557417600000,1.727],[1557676800000,1.718],[1557763200000,1.717],[1557849600000,1.728],[1557936000000,1.731],[1558022400000,1.719],[1558281600000,1.711],[1558368000000,1.719],[1558454400000,1.718],[1558540800000,1.707],[1558627200000,1.707],[1558886400000,1.711],[1558972800000,1.713],[1559059200000,1.712],[1559145600000,1.709],[1559232000000,1.709],[1559491200000,1.709],[1559577600000,1.703],[1559664000000,1.702],[1559750400000,1.7],[1560096000000,1.706],[1560182400000,1.717],[1560268800000,1.714],[1560355200000,1.711],[1560441600000,1.706],[1560700800000,1.707],[1560787200000,1.708],[1560873600000,1.714],[1560960000000,1.726],[1561046400000,1.728],[1561305600000,1.732],[1561392000000,1.731],[1561478400000,1.733],[1561564800000,1.738],[1561651200000,1.739],[1561824000000,1.739],[1561910400000,1.754],[1561996800000,1.756],[1562083200000,1.753],[1562169600000,1.75],[1562256000000,1.753],[1562515200000,1.744],[1562601600000,1.744],[1562688000000,1.745],[1562774400000,1.744],[1562860800000,1.747],[1563120000000,1.747],[1563206400000,1.743],[1563292800000,1.745],[1563379200000,1.739],[1563465600000,1.741],[1563724800000,1.741],[1563811200000,1.744],[1563897600000,1.748],[1563984000000,1.753],[1564070400000,1.757],[1564329600000,1.758],[1564416000000,1.759],[1564502400000,1.757],[1564588800000,1.755],[1564675200000,1.754],[1564934400000,1.748],[1565020800000,1.747],[1565107200000,1.747],[1565193600000,1.753],[1565280000000,1.752],[1565539200000,1.76],[1565625600000,1.759],[1565712000000,1.761],[1565798400000,1.764],[1565884800000,1.766],[1566144000000,1.773],[1566230400000,1.773],[1566316800000,1.774],[1566403200000,1.776],[1566489600000,1.778],[1566748800000,1.775],[1566835200000,1.781],[1566921600000,1.779],[1567008000000,1.777],[1567094400000,1.777],[1567353600000,1.782],[1567440000000,1.782],[1567526400000,1.784],[1567612800000,1.788],[1567699200000,1.792],[1567958400000,1.796],[1568044800000,1.798],[1568131200000,1.793],[1568217600000,1.795],[1568563200000,1.795],[1568649600000,1.788],[1568736000000,1.79],[1568822400000,1.792],[1568908800000,1.795],[1569168000000,1.793],[1569254400000,1.796],[1569340800000,1.789],[1569427200000,1.783],[1569513600000,1.785],[1569772800000,1.783],[1570464000000,1.785],[1570550400000,1.785],[1570636800000,1.791],[1570723200000,1.791],[1570982400000,1.794],[1571068800000,1.789],[1571155200000,1.787],[1571241600000,1.787],[1571328000000,1.78],[1571587200000,1.779],[1571673600000,1.781],[1571760000000,1.777],[1571846400000,1.774],[1571932800000,1.778],[157219200</t>
+  </si>
+  <si>
+    <t>001182</t>
+  </si>
+  <si>
+    <t>易方达安心回馈混合</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [[1432828800000,1.0],[1433433600000,1.005],[1433692800000,0.998],[1433779200000,1.005],[1433865600000,1.006],[1433952000000,1.007],[1434038400000,1.008],[1434297600000,1.008],[1434384000000,1.006],[1434470400000,1.007],[1434556800000,1.006],[1434643200000,1.004],[1434988800000,1.004],[1435075200000,1.005],[1435161600000,1.004],[1435248000000,1.002],[1435507200000,1.001],[1435593600000,1.002],[1435680000000,1.001],[1435766400000,0.999],[1435852800000,0.997],[1436112000000,0.996],[1436198400000,0.993],[1436284800000,0.989],[1436371200000,0.989],[1436457600000,0.991],[1436716800000,0.991],[1436803200000,0.991],[1436889600000,0.991],[1436976000000,0.991],[1437062400000,0.991],[1437321600000,0.992],[1437408000000,0.992],[1437494400000,0.993],[1437580800000,0.994],[1437667200000,0.994],[1437926400000,0.994],[1438012800000,0.995],[1438099200000,0.996],[1438185600000,0.996],[1438272000000,0.996],[1438531200000,0.996],[1438617600000,0.997],[1438704000000,0.997],[1438790400000,0.998],[1438876800000,1.0],[1439136000000,1.0],[1439222400000,0.998],[1439308800000,0.997],[1439395200000,0.998],[1439481600000,0.999],[1439740800000,0.999],[1439827200000,0.999],[1439913600000,0.999],[1440000000000,0.999],[1440086400000,1.0],[1440345600000,1.001],[1440432000000,1.001],[1440518400000,1.001],[1440604800000,1.002],[1440691200000,1.002],[1440950400000,1.003],[1441036800000,1.003],[1441123200000,1.003],[1441555200000,1.003],[1441641600000,1.003],[1441728000000,1.003],[1441814400000,1.003],[1441900800000,1.003],[1442160000000,1.004],[1442246400000,1.005],[1442332800000,1.005],[1442419200000,1.005],[1442505600000,1.009],[1442764800000,1.009],[1442851200000,1.009],[1442937600000,1.009],[1443024000000,1.01],[1443110400000,1.01],[1443369600000,1.01],[1443456000000,1.012],[1443542400000,1.012],[1444233600000,1.013],[1444320000000,1.014],[1444579200000,1.016],[1444665600000,1.018],[1444752000000,1.02],[1444838400000,1.02],[1444924800000,1.02],[1445184000000,1.021],[1445270400000,1.022],[1445356800000,1.023],[1445443200000,1.023],[1445529600000,1.025],[1445788800000,1.028],[1445875200000,1.03],[1445961600000,1.032],[1446048000000,1.032],[1446134400000,1.032],[1446393600000,1.032],[1446480000000,1.032],[1446566400000,1.031],[1446652800000,1.032],[1446739200000,1.033],[1446998400000,1.028],[1447084800000,1.026],[1447171200000,1.027],[1447257600000,1.027],[1447344000000,1.027],[1447603200000,1.028],[1447689600000,1.028],[1447776000000,1.028],[1447862400000,1.028],[1447948800000,1.029],[1448208000000,1.028],[1448294400000,1.029],[1448380800000,1.03],[1448467200000,1.031],[1448553600000,1.028],[1448812800000,1.029],[1448899200000,1.029],[1448985600000,1.031],[1449072000000,1.032],[1449158400000,1.035],[1449417600000,1.037],[1449504000000,1.037],[1449590400000,1.038],[1449676800000,1.038],[1449763200000,1.038],[1450022400000,1.039],[1450108800000,1.039],[1450195200000,1.041],[1450281600000,1.042],[1450368000000,1.043],[1450627200000,1.045],[1450713600000,1.047],[1450800000000,1.048],[1450886400000,1.049],[1450972800000,1.049],[1451232000000,1.052],[1451318400000,1.055],[1451404800000,1.056],[1451491200000,1.056],[1451836800000,1.054],[1451923200000,1.054],[1452009600000,1.056],[1452096000000,1.055],[1452182400000,1.058],[1452441600000,1.057],[1452528000000,1.058],[1452614400000,1.059],[1452700800000,1.061],[1452787200000,1.059],[1453046400000,1.059],[1453132800000,1.06],[1453219200000,1.059],[1453305600000,1.057],[1453392000000,1.059],[1453651200000,1.059],[1453737600000,1.056],[1453824000000,1.055],[1453910400000,1.053],[1453996800000,1.055],[1454256000000,1.055],[1454342400000,1.055],[1454428800000,1.054],[1454515200000,1.055],[1454601600000,1.055],[1455465600000,1.057],[1455552000000,1.058],[1455638400000,1.058],[1455724800000,1.059],[1455811200000,1.06],[1456070400000,1.062],[1456156800000,1.062],[1456243200000,1.062],[1456329600000,1.06],[1456416000000,1.06],[1456675200000,1.059],[1456761600000,1.06],[1456848000000,1.062],[1456934400000,1.062],[1457020800000,1.062],[1457280000000,1.063],[1457366400000,1.063],[1457452800000,1.064],[1457539200000,1.064],[1457625600000,1.065],[1457884800000,1.067],[1457971200000,1.067],[1458057600000,1.067],[1458144000000,1.069],[1458230400000,1.071],[1458489600000,1.072],[1458576000000,1.072],[1458662400000,1.072],[1458748800000,1.072],[1458835200000,1.072],[1459094400000,1.072],[1459180800000,1.072],[1459267200000,1.073],[1459353600000,1.074],[1459440000000,1.074],[1459785600000,1.076],[1459872000000,1.076],[1459958400000,1.076],[1460044800000,1.075],[1460304000000,1.077],[1460390400000,1.075],[1460476800000,1.074],[1460563200000,1.073],[1460649600000,1.072],[1460908800000,1.072],[1460995200000,1.071],[1461081600000,1.069],[1461168000000,1.066],[1461254400000,1.064],[1461513600000,1.061],[1461600000000,1.06],[1461686400000,1.059],[1461772800000,1.06],[1461859200000,1.06],[1462204800000,1.062],[1462291200000,1.063],[1462377600000,1.064],[1462464000000,1.062],[1462723200000,1.061],[1462809600000,1.062],[1462896000000,1.061],[1462982400000,1.062],[1463068800000,1.062],[1463328000000,1.063],[1463414400000,1.063],[1463500800000,1.062],[1463587200000,1.062],[1463673600000,1.063],[1463932800000,1.065],[1464019200000,1.064],[1464105600000,1.065],[1464192000000,1.065],[1464278400000,1.065],[1464537600000,1.065],[1464624000000,1.067],[1464710400000,1.067],[1464796800000,1.068],[1464883200000,1.068],[1465142400000,1.069],[1465228800000,1.07],[1465315200000,1.07],[1465747200000,1.067],[1465833600000,1.068],[1465920000000,1.071],[1466006400000,1.07],[1466092800000,1.071],[1466352000000,1.072],[1466438400000,1.072],[1466524800000,1.073],[1466611200000,1.074],[1466697600000,1.074],[1466956800000,1.076],[1467043200000,1.077],[1467129600000,1.077],[1467216000000,1.077],[1467302400000,1.078],[1467561600000,1.081],[1467648000000,1.082],[1467734400000,1.082],[1467820800000,1.084],[1467907200000,1.084],[1468166400000,1.085],[1468252800000,1.086],[1468339200000,1.088],[1468425600000,1.088],[1468512000000,1.089],[1468771200000,1.089],[1468857600000,1.09],[1468944000000,1.09],[1469030400000,1.091],[1469116800000,1.09],[1469376000000,1.091],[1469462400000,1.092],[1469548800000,1.089],[1469635200000,1.09],[1469721600000,1.091],[1469980800000,1.09],[1470067200000,1.091],[1470153600000,1.092],[1470240000000,1.093],[1470326400000,1.093],[1470585600000,1.095],[1470672000000,1.097],[1470758400000,1.097],[1470844800000,1.096],[1470931200000,1.098],[1471190400000,1.1],[1471276800000,1.101],[1471363200000,1.102],[1471449600000,1.102],[1471536000000,1.102],[1471795200000,1.101],[1471881600000,1.101],[1471968000000,1.101],[1472054400000,1.1],[1472140800000,1.1],[1472400000000,1.101],[1472486400000,1.101],[1472572800000,1.101],[1472659200000,1.101],[1472745600000,1.1],[1473004800000,1.101],[1473091200000,1.103],[1473177600000,1.103],[1473264000000,1.103],[1473350400000,1.103],[1473609600000,1.102],[1473696000000,1.102],[1473782400000,1.102],[1474214400000,1.103],[1474300800000,1.103],[1474387200000,1.103],[1474473600000,1.104],[1474560000000,1.104],[1474819200000,1.103],[1474905600000,1.104],[1474992000000,1.104],[1475078400000,1.104],[1475164800000,1.105],[1476028800000,1.107],[1476115200000,1.107],[1476201600000,1.105],[1476288000000,1.1],[1476374400000,1.101],[1476633600000,1.101],[1476720000000,1.102],[1476806400000,1.102],[1476892800000,1.103],[1476979200000,1.103],[1477238400000,1.104],[1477324800000,1.105],[1477411200000,1.104],[1477497600000,1.104],[1477584000000,1.105],[1477843200000,1.104],[1477929600000,1.108],[1478016000000,1.107],[1478102400000,1.108],[1478188800000,1.11],[1478448000000,1.111],[1478534400000,1.113],[1478620800000,1.111],[1478707200000,1.114],[1478793600000,1.113],[1479052800000,1.114],[1479139200000,1.113],[1479225600000,1.115],[1479312000000,1.115],[1479398400000,1.115],[1479657600000,1.119],[1479744000000,1.12],[1479830400000,1.122],[1479916800000,1.122],[1480003200000,1.125],[1480262400000,1.127],[1480348800000,1.125],[1480435200000,1.119],[1480521600000,1.124],[1480608000000,1.117],[1480867200000,1.113],[1480953600000,1.111],[1481040000000,1.113],[1481126400000,1.113],[1481212800000,1.113],[1481472000000,1.1],[1481558400000,1.099],[1481644800000,1.095],[1481731200000,1.087],[1481817600000,1.089],[1482076800000,1.086],[1482163200000,1.082],[1482249600000,1.086],[1482336000000,1.089],[1482422400000,1.086],[1482681600000,1.088],[1482768000000,1.089],[1482854400000,1.09],[1482940800000,1.09],[1483027200000,1.092],[1483113600000,1.092],[1483372800000,1.097],[1483459200000,1.101],[1483545600000,1.1],[1483632000000,1.097],[1483891200000,1.101],[1483977600000,1.102],[1484064000000,1.102],[1484150400000,1.099],[1484236800000,1.098],[1484496000000,1.097],[1484582400000,1.098],[1484668800000,1.1],[1484755200000,1.099],[1484841600000,1.103],[1485100800000,1.106],[1485187200000,1.107],[1485273600000,1.109],[1485360000000,1.11],[1486051200000,1.107],[1486310400000,1.106],[1486396800000,1.105],[1486483200000,1.106],[1486569600000,1.108],[1486656000000,1.11],[1486915200000,1.112],[1487001600000,1.112],[1487088000000,1.109],[1487174400000,1.11],[1487260800000,1.109],[1487520000000,1.116],[1487606400000,1.119],[1487692800000,1.121],[1487779200000,1.122],[1487865600000,1.125],[1488124800000,1.124],[1488211200000,1.125],[1488297600000,1.126],[1488384000000,1.124],[1488470400000,1.126],[1488729600000,1.131],[1488816000000,1.131],[1488902400000,1.128],[1488988800000,1.126],[1489075200000,1.128],[1489334400000,1.134],[1489420800000,1.134],[1489507200000,1.138],[1489593600000,1.142],[1489680000000,1.137],[1489939200000,1.139],[1490025600000,1.142],[1490112000000,1.146],[1490198400000,1.149],[1490284800000,1.152],[1490544000000,1.149],[1490630400000,1.147],[1490716800000,1.148],[1490803200000,1.141],[1490889600000,1.144],[1491321600000,1.152],[1491408000000,1.155],[1491494400000,1.156],[1491753600000,1.153],[1491840000000,1.154],[1491926400000,1.155],[1492012800000,1.157],[1492099200000,1.148],[1492358400000,1.149],[1492444800000,1.15],[1492531200000,1.152],[1492617600000,1.155],[1492704000000,1.152],[1492963200000,1.147],[1493049600000,1.156],[1493136000000,1.159],[1493222400000,1.16],[1493308800000,1.159],[1493654400000,1.162],[1493740800000,1.159],[1493827200000,1.16],[1493913600000,1.158],[1494172800000,1.149],[1494259200000,1.152],[1494345600000,1.15],[1494432000000,1.155],[1494518400000,1.153],[1494777600000,1.158],[1494864000000,1.166],[1494950400000,1.164],[1495036800000,1.161],[1495123200000,1.159],[1495382400000,1.159],[1495468800000,1.156],[1495555200000,1.158],[1495641600000,1.158],[1495728000000,1.157],[1496160000000,1.158],[1496246400000,1.159],[1496332800000,1.159],[1496592000000,1.164],[1496678400000,1.169],[1496764800000,1.181],[1496851200000,1.187],[1496937600000,1.191],[1497196800000,1.188],[1497283200000,1.19],[1497369600000,1.181],[1497456000000,1.186],[1497542400000,1.185],[1497801600000,1.191],[1497888000000,1.193],[1497974400000,1.205],[1498060800000,1.2],[1498147200000,1.206],[1498406400000,1.215],[1498492800000,1.218],[1498579200000,1.21],[1498665600000,1.218],[1498752000000,1.22],[1499011200000,1.219],[1499097600000,1.217],[1499184000000,1.223],[1499270400000,1.224],[1499356800000,1.222],[1499616000000,1.217],[1499702400000,1.222],[1499788800000,1.223],[1499875200000,1.221],[1499961600000,1.224],[1500220800000,1.215],[1500307200000,1.213],[1500393600000,1.226],[1500480000000,1.23],[1500566400000,1.227],[1500825600000,1.232],[1500912000000,1.228],[1500998400000,1.223],[1501084800000,1.226],[1501171200000,1.228],[1501430400000,1.23],[1501516800000,1.231],[1501603200000,1.23],[1501689600000,1.224],[1501776000000,1.218],[1502035200000,1.222],[1502121600000,1.223],[1502208000000,1.226],[1502294400000,1.226],[1502380800000,1.219],[1502640000000,1.23],[1502726400000,1.234],[1502812800000,1.233],[1502899200000,1.233],[1502985600000,1.232],[1503244800000,1.234],[1503331200000,1.232],[1503417600000,1.231],[1503504000000,1.228],[1503590400000,1.232],[1503849600000,1.24],[1503936000000,1.242],[1504022400000,1.242],[1504108800000,1.241],[1504195200000,1.24],[1504454400000,1.249],[1504540800000,1.251],[1504627200000,1.25],[1504713600000,1.245],[1504800000000,1.248],[1505059200000,1.25],[1505145600000,1.251],[1505232000000,1.252],[1505318400000,1.252],[1505404800000,1.257],[1505664000000,1.261],[1505750400000,1.256],[1505836800000,1.259],[1505923200000,1.259],[1506009600000,1.26],[1506268800000,1.255],[1506355200000,1.254],[1506441600000,1.258],[1506528000000,1.261],[1506614400000,1.267],[1507478400000,1.275],[1507564800000,1.274],[1507651200000,1.28],[1507737600000,1.283],[1507824000000,1.288],[1508083200000,1.286],[1508169600000,1.289],[1508256000000,1.297],[1508342400000,1.296],[1508428800000,1.292],[1508688000000,1.296],[1508774400000,1.303],[1508860800000,1.307],[1508947200000,1.309],[1509033600000,1.31],[1509292800000,1.311],[1509379200000,1.317],[1509465600000,1.312],[1509552000000,1.312],[1509638400000,1.311],[1509897600000,1.327],[1509984000000,1.334],[1510070400000,1.329],[1510156800000,1.34],[1510243200000,1.356],[1510502400000,1.362],[1510588800000,1.355],[1510675200000,1.346],[1510761600000,1.351],[1510848000000,1.343],[1511107200000,1.356],[1511193600000,1.365],[1511280000000,1.359],[1511366400000,1.329],[1511452800000,1.329],[1511712000000,1.318],[1511798400000,1.325],[1511884800000,1.324],[1511971200000,1.31],[1512057600000,1.316],[1512316800000,1.321],[1512403200000,1.315],[1512489600000,1.313],[1512576000000,1.308],[1512662400000,1.321],[1512921600000,1.333],[1513008000000,1.325],[1513094400000,1.329],[1513180800000,1.325],[1513267200000,1.321],[1513526400000,1.322],[1513612800000,1.328],[1513699200000,1.327],[1513785600000,1.339],[1513872000000,1.341],[1514131200000,1.335],[1514217600000,1.338],[1514304000000,1.325],[1514390400000,1.327],[1514476800000,1.334],[1514649600000,1.334],[1514822400000,1.342],[1514908800000,1.35],[1514995200000,1.352],[1515081600000,1.352],[1515340800000,1.35],[1515427200000,1.354],[1515513600000,1.351],[1515600000000,1.349],[1515686400000,1.351],[1515945600000,1.344],[1516032000000,1.341],[1516118400000,1.334],[1516204800000,1.333],[1516291200000,1.333],[1516550400000,1.35],[1516636800000,1.357],[1516723200000,1.361],[1516809600000,1.357],[1516896000000,1.358],[1517155200000,1.344],[1517241600000,1.341],[1517328000000,1.342],[1517414400000,1.336],[1517500800000,1.345],[1517760000000,1.334],[1517846400000,1.312],[1517932800000,1.298],[1518019200000,1.313],[1518105600000,1.29],[1518364800000,1.319],[1518451200000,1.328],[1518537600000,1.331],[1519228800000,1.344],[1519315200000,1.338],[1519574400000,1.357],[1519660800000,1.354],[1519747200000,1.354],[1519833600000,1.366],[1519920000000,1.357],[1520179200000,1.359],[1520265600000,1.367],[1520352000000,1.365],[1520438400000,1.366],[1520524800000,1.378],[1520784000000,1.385],[1520870400000,1.376],[1520956800000,1.368],[1521043200000,1.371],[1521129600000,1.36],[1521388800000,1.36],[1521475200000,1.36],[1521561600000,1.359],[1521648000000,1.354],[1521734400000,1.328],[1521993600000,1.336],[1522080000000,1.347],[1522166400000,1.341],[1522252800000,1.345],[1522339200000,1.358],[1522598400000,1.358],[1522684800000,1.354],[1522771200000,1.346],[1523203200000,1.347],[1523289600000,1.354],[1523376000000,1.36],[1523462400000,1.359],[1523548800000,1.361],[1523808000000,1.362],[1523894400000,1.343],[1523980800000,1.351],[1524067200000,1.358],[1524153600000,1.348],[1524412800000,1.335],[1524499200000,1.353],[1524585600000,1.351],[1524672000000,1.334],[1524758400000,1.335],[1525190400000,1.336],[1525276800000,1.349],[1525363200000,1.347],[1525622400000,1.362],[1525708800000,1.374],[1525795200000,1.374],[1525881600000,1.377],[1525968000000,1.373],[1526227200000,1.378],[1526313600000,1.386],[1526400000000,1.379],[1526486400000,1.37],[1526572800000,1.375],[1526832000000,1.387],[1526918400000,1.391],[1527004800000,1.386],[1527091200000,1.377],[1527177600000,1.369],[1527436800000,1.373],[1527523200000,1.374],[1527609600000,1.359],[1527696000000,1.362],[1527782400000,1.351],[1528041600000,1.346],[1528128000000,1.358],[1528214400000,1.358],[1528300800000,1.357],[1528387200000,1.356],[1528646400000,1.355],[1528732800000,1.363],[1528819200000,1.351],[1528905600000,1.349],[1528992000000,1.337],[1529337600000,1.305],[1529424000000,1.315],[1529510400000,1.304],[1529596800000,1.313],[1529856000000,1.31],[1529942400000,1.312],[1530028800000,1.304],[1530115200000,1.3],[1530201600000,1.322],[1530288000000,1.322],[1530460800000,1.308],[1530547200000,1.31],[1530633600000,1.296],[1530720000000,1.29],[1530806400000,1.292],[1531065600000,1.308],[1531152000000,1.311],[1531238400000,1.3],[1531324800000,1.316],[1531411200000,1.321],[1531670400000,1.319],[1531756800000,1.318],[1531843200000,1.312],[1531929600000,1.317],[1532016000000,1.325],[1532275200000,1.334],[1532361600000,1.345],[1532448000000,1.343],[1532534400000,1.331],[1532620800000,1.329],[1532880000000,1.321],[1532966400000,1.321],[1533052800000,1.315],[1533139200000,1.297],[1533225600000,1.285],[1533484800000,1.269],[1533571200000,1.286],[1533657600000,1.275],[1533744000000,1.292],[1533830400000,1.298],[1534089600000,1.301],[1534176000000,1.296],[1534262400000,1.279],[1534348800000,1.277],[1534435200000,1.264],[1534694400000,1.27],[1534780800000,1.283],[1534867200000,1.277],[1534953600000,1.281],[1535040000000,1.28],[1535299200000,1.298],[1535385600000,1.299],[1535472000000,1.293],[1535558400000,1.286],[1535644800000,1.282],[1535904000000,1.283],[1535990400000,1.288],[1536076800000,1.279],[1536163200000,1.271],[1536249600000,1.268],[1536508800000,1.255],[1536595200000,1.255],[1536681600000,1.25],[1536768000000,1.256],[1536854400000,1.254],[1537113600000,1.247],[1537200000000,1.257],[1537286400000,1.267],[1537372800000,1.267],[1537459200000,1.28],[1537804800000,1.275],[1537891200000,1.283],[1537977600000,1.278],[1538064000000,1.285],[1538928000000,1.259],[1539014400000,1.256],[1539100800000,1.253],[1539187200000,1.227],[1539273600000,1.237],[1539532800000,1.229],[1539619200000,1.218],[1539705600000,1.229],[1539792000000,1.222],[1539878400000,1.237],[1540137600000,1.262],[1540224000000,1.249],[1540310400000,1.244],[1540396800000,1.239],[1540483200000,1.236],[1540742400000,1.223],[1540828800000,1.226],[1540915200000,1.236],[1541001600000,1.246],[1541088000000,1.272],[1541347200000,1.276],[1541433600000,1.271],[1541520000000,1.266],[1541606400000,1.262],[1541692800000,1.264],[1541952000000,1.283],[1542038400000,1.285],[1542124800000,1.284],[1542211200000,1.288],[1542297600000,1.292],[1542556800000,1.291],[1542643200000,1.275],[1542729600000,1.276],[1542816000000,1.275],[1542902400000,1.261],[1543161600000,1.261],[1543248000000,1.262],[1543334400000,1.274],[1543420800000,1.265],[1543507200000,1.272],[1543766400000,1.299],[1543852800000,1.297],[1543939200000,1.296],[1544025600000,1.282],[1544112000000,1.284],[1544371200000,1.28],[1544457600000,1.281],[1544544000000,1.284],[1544630400000,1.294],[1544716800000,1.283],[1544976000000,1.275],[1545062400000,1.27],[1545148800000,1.264],[1545235200000,1.262],[1545321600000,1.259],[1545580800000,1.267],[1545667200000,1.267],[1545753600000,1.262],[1545840000000,1.26],[1545926400000,1.256],[1546185600000,1.256],[1546358400000,1.255],[1546444800000,1.249],[1546531200000,1.259],[1546790400000,1.272],[1546876800000,1.27],[1546963200000,1.279],[1547049600000,1.288],[1547136000000,1.288],[1547395200000,1.285],[1547481600000,1.299],[1547568000000,1.296],[1547654400000,1.289],[1547740800000,1.301],[1548000000000,1.307],[1548086400000,1.302],[1548172800000,1.301],[1548259200000,1.307],[1548345600000,1.315],[1548604800000,1.316],[1548691200000,1.315],[1548777600000,1.31],[1548864000000,1.311],[1548950400000,1.324],[1549814400000,1.343],[1549900800000,1.349],[1549987200000,1.358],[1550073600000,1.361],[1550160000000,1.352],[1550419200000,1.377],[1550505600000,1.377],[1550592000000,1.386],[1550678400000,1.388],[1550764800000,1.41],[1551024000000,1.439],[1551110400000,1.431],[1551196800000,1.418],[1551283200000,1.422],[1551369600000,1.427],[1551628800000,1.437],[1551715200000,1.449],[1551801600000,1.447],[1551888000000,1.436],[1551974400000,1.423],[1552233600000,1.454],[1552320000000,1.462],[1552406400000,1.448],[1552492800000,1.443],[1552579200000,1.453],[1552838400000,1.468],[1552924800000,1.468],[1553011200000,1.464],[1553097600000,1.47],[1553184000000,1.472],[1553443200000,1.458],[1553529600000,1.44],[1553616000000,1.449],[1553702400000,1.45],[1553788800000,1.475],[1554048000000,1.502],[1554134400000,1.499],[1554220800000,1.506],[1554307200000,1.516],[1554652800000,1.502],[1554739200000,1.504],[1554825600000,1.507],[1554912000000,1.49],[1554998400000,1.49],[1555257600000,1.484],[1555344000000,1.499],[1555430400000,1.51],[1555516800000,1.511],[1555603200000,1.529],[1555862400000,1.509],[1555948800000,1.502],[1556035200000,1.507],[1556121600000,1.49],[1556208000000,1.483],[1556467200000,1.48],[1556553600000,1.482],[1557072000000,1.436],[1557158400000,1.446],[1557244800000,1.432],[1557331200000,1.425],[1557417600000,1.457],[1557676800000,1.438],[1557763200000,1.436],[1557849600000,1.458],[1557936000000,1.456],[1558022400000,1.43],[1558281600000,1.42],[1558368000000,1.434],[1558454400000,1.433],[1558540800000,1.416],[1558627200000,1.417],[1558886400000,1.426],[1558972800000,1.432],[1559059200000,1.431],[1559145600000,1.428],[1559232000000,1.429],[1559491200000,1.425],[1559577600000,1.416],[1559664000000,1.416],[1559750400000,1.404],[1560096000000,1.416],[1560182400000,1.435],[1560268800000,1.427],[1560355200000,1.423],[1560441600000,1.414],[1560700800000,1.409],[1560787200000,1.409],[1560873600000,1.431],[1560960000000,1.447],[1561046400000,1.456],[1561305600000,1.457],[1561392000000,1.449],[1561478400000,1.455],[1561564800000,1.474],[1561651200000,1.475],[1561824000000,1.475],[1561910400000,1.503],[1561996800000,1.5],[1562083200000,1.493],[1562169600000,1.492],[1562256000000,1.495],[1562515200000,1.476],[1562601600000,1.477],[1562688000000,1.474],[1562774400000,1.474],[1562860800000,1.481],[1563120000000,1.488],[1563206400000,1.49],[1563292800000,1.489],[1563379200000,1.482],[1563465600000,1.485],[1563724800000,1.506],[1563811200000,1.513],[1563897600000,1.521],[1563984000000,1.531],[1564070400000,1.536],[1564329600000,1.537],[1564416000000,1.537],[1564502400000,1.537],[1564588800000,1.535],[1564675200000,1.526],[1564934400000,1.517],[1565020800000,1.515],[1565107200000,1.511],[1565193600000,1.525],[1565280000000,1.519],[1565539200000,1.537],[1565625600000,1.534],[1565712000000,1.539],[1565798400000,1.552],[1565884800000,1.557],[1566144000000,1.575],[1566230400000,1.573],[1566316800000,1.589],[1566403200000,1.58],[1566489600000,1.586],[1566748800000,1.581],[1566835200000,1.593],[1566921600000,1.591],[1567008000000,1.592],[1567094400000,1.583],[1567353600000,1.597],[1567440000000,1.609],[1567526400000,1.61],[1567612800000,1.612],[1567699200000,1.616],[1567958400000,1.627],[1568044800000,1.622],[1568131200000,1.613],[1568217600000,1.623],[1568563200000,1.633],[1568649600000,1.624],[1568736000000,1.629],[1568822400000,1.637],[1568908800000,1.643],[1569168000000,1.641],[1569254400000,1.646],[1569340800000,1.633],[1569427200000,1.621],[1569513600000,1.634],[1569772800000,1.625],[1570464000000,1.624],[1570550400000,1.624],[1570636800000,1.64],[1570723200000,1.644],[1570982400000,1.66],[1571068800000,1.65],[1571155200000,1.643],[1571241600000,1.65],[1571328000000,1.64],[1571587200000,1.639],[1571673600000,1.649],[1571760000000,1.644],[1571846400000,1.648],[1571932800000,1.659],[1572192000000,1.667],[1572278400000,1.667],[1572364800000,1.666],[1572451200000,1.658],[1572537600000,1.673],[1572796800000,1.681],[1572883200000,1.689],[1572969600000,1.689],[1573056000000,1.692],[1573142400000,1.695],[1573401600000,1.679],[1573488000000,1.678],[1573574400000,1.685],[1573660800000,1.691],[1573747200000,1.684],[1574006400000,1.693],[1574092800000,1.707],[1574179200000,1.704],[1574265600000,1.704],[1574352000000,1.687],[1574611200000,1.684],[1574697600000,1.689],[1574784000000,1.689],[1574870400000,1.689],[1574956800000,1.683],[1575216000000,1.687],[1575302400000,1.694],[1575388800000,1.697],[1575475200000,1.71],[1575561600000,1.722],[1575820800000,1.722],[1575907200000,1.727],[1575993600000,1.726],[1576080000000,1.723],[1576166400000,1.736],[1576425600000,1.753],[1576512000000,1.762],[1576598400000,1.76],[1576684800000,1.753],[1576771200000,1.747],[1577030400000,1.74],[1577116800000,1.75],[1577203200000,1.753],[1577289600000,1.756],[1577376000000,1.748],[1577635200000,1.76],[1577721600000,1.767],[1577894400000,1.79],[1577980800000,1.788],[1578240000000,1.793],[1578326400000,1.802],[1578412800000,1.796],[1578499200000,1.819],[1578585600000,1.817],[1578844800000,1.83],[1578931200000,1.827],[1579017600000,1.831],[1579104000000,1.834],[1579190400000,1.831],[1579449600000,1.855],[1579536000000,1.853],[1579622400000,1.863],[1579708800000,1.837],[1580659200000,1.777],[1580745600000,1.818],[1580832000000,1.827],[1580918400000,1.836],[1581004800000,1.84],[1581264000000,1.849],[1581350400000,1.865],[1581436800000,1.872],[1581523200000,1.863],[1581609600000,1.867],[1581868800000,1.892],[1581955200000,1.895],[1582041600000,1.89],[1582128000000,1.907],[1582214400000,1.919],[1582473600000,1.927],[1582560000000,1.926],[1582646400000,1.905],[1582732800000,1.913],[1582819200000,1.886],[1583078400000,1.913],[1583164800000,1.912],[1583251200000,1.909],[1583337600000,1.921],[1583424000000,1.912],[1583683200000,1.881],[1583769600000,1.899],[1583856000000,1.888],[1583942400000,1.867],[1584028800000,1.856],[1584288000000,1.808],[1584374400000,1.797],[1584460800000,1.783],[1584547200000,1.774],[1584633600000,1.786],[1584892800000,1.745],[1584979200000,1.763],[1585065600000,1.797],[1585152000000,1.788],[1585238400000,1.792],[1585497600000,1.778],[1585584000000,1.783],[1585670400000,1.789],[1585756800000,1.805],[1585843200000,1.799],[1586188800000,1.823],[1586275200000,1.822],[1586361600000,1.821],[1586448000000,1.815],[1586707200000,1.803],[1586793600000,1.82],[1586880000000,1.816],[1586966400000,1.821],[1587052800000,1.834],[1587312000000,1.84],[1587398400000,1.829],[1587484800000,1.835],[1587571200000,1.83],[1587657600000,1.83],[1587916800000,1.834],[1588003200000,1.842],[1588089600000,1.852],[1588176000000,1.866],[1588694400000,1.869],[1588780800000,1.868],[1588867200000,1.877],[1589126400000,1.876],[1589212800000,1.878],[1589299200000,1.878],[1589385600000,1.865],[1589472000000,1.864],[1589731200000,1.86],[1589817600000,1.869],[1589904000000,1.86],[1589990400000,1.853],[1590076800000,1.84],[1590336000000,1.837],[1590422400000,1.851],[1590508800000,1.846],[1590595200000,1.845],[1590681600000,1.849],[1590940800000,1.877],[1591027200000,1.874],[1591113600000,1.87],[1591200000000,1.87],[1591286400000,1.866],[1591545600000,1.875],[1591632000000,1.884],[1591718400000,1.886],[1591804800000,1.887],[1591891200000,1.889],[1592150400000,1.877],[1592236800000,1.888],[1592323200000,1.887],[1592409600000,1.899],[1592496000000,1.905],[1592755200000,1.905],[1592841600000,1.906],[1592928000000,1.918],[1593360000000,1.921],[1593446400000,1.935],[1593532800000,1.953],[1593619200000,1.958],[1593705600000,1.965],[1593964800000,2.005],[1594051200000,2.005],[1594137600000,2.021],[1594224000000,2.037],[1594310400000,2.021],[1594569600000,2.038],[1594656000000,2.03],[1594742400000,2.023],[1594828800000,1.985],[1594915200000,1.996],[1595174400000,2.031],[1595260800000,2.039],[1595347200000,2.051],[1595433600000,2.061],[1595520000000,2.025],[1595779200000,2.032],[1595865600000,2.041],[1595952000000,2.066],[1596038400000,2.065],[1596124800000,2.076],[1596384000000,2.09],[1596470400000,2.09],[1596556800000,2.094],[1596643200000,2.09],[1596729600000,2.091],[1596988800000,2.099],[1597075200000,2.09],[1597161600000,2.088],[1597248000000,2.098],[1597334400000,2.111],[1597593600000,2.125],[1597680000000,2.131],[1597766400000,2.115],[1597852800000,2.103],[1597939200000,2.118],[1598198400000,2.146],[1598284800000,2.145],[1598371200000,2.127],[1598457600000,2.134],[1598544000000,2.151],[1598803200000,2.144],[1598889600000,2.163],[1598976000000,2.174],[1599062400000,2.165],[1599148800000,2.162],[1599408000000,2.14],[1599494400000,2.144],[1599580800000,2.12],[1599667200000,2.125],[1599753600000,2.152],[1600012800000,2.17],[1600099200000,2.178],[1600185600000,2.183],[1600272000000,2.196],[1600358400000,2.205],[1600617600000,2.195],[1600704000000,2.184],[1600790400000,2.205],[1600876800000,2.172],[1600963200000,2.173],[1601222400000,2.177],[1601308800000,2.181],[1601395200000,2.182],[1602172800000,2.223],[1602432000000,2.233],[1602518400000,2.245],[1602604800000,2.232],[1602691200000,2.226],[1602777600000,2.218],[1603036800000,2.202],[1603123200000,2.222],[1603209600000,2.214],[1603296000000,2.208],[1603382400000,2.19],[1603641600000,2.208],[1603728000000,2.214],[1603814400000,2.215],[1603900800000,2.226],[1603987200000,2.218],[1604246400000,2.245],[1604332800000,2.247],[1604419200000,2.26],[1604505600000,2.287],[1604592000000,2.28],[1604851200000,2.295],[1604937600000,2.298],[1605024000000,2.28],[1605110400000,2.291],[1605196800000,2.272],[1605456000000,2.265],[1605542400000,2.255],[1605628800000,2.242],[1605715200000,2.252],[1605801600000,2.258],[1606060800000,2.27],[1606147200000,2.262],[1606233600000,2.244],[1606320000000,2.236],[1606406400000,2.244],[1606665600000,2.247],[1606752000000,2.268],[1606838400000,2.264],[1606924800000,2.265],[1607011200000,2.266],[1607270400000,2.267],[1607356800000,2.267],[1607443200000,2.256],[1607529600000,2.268],[1607616000000,2.256],[1607875200000,2.266],[1607961600000,2.277],[1608048000000,2.278],[1608134400000,2.277],[1608220800000,2.278],[1608480000000,2.302],[1608566400000,2.282],[1608652800000,2.31],[1608739200000,2.297],[1608825600000,2.312],[1609084800000,2.306],[1609171200000,2.299],[1609257600000,2.308],[1609344000000,2.328],[1609689600000,2.35],[1609776000000,2.361],[1609862400000,2.367],[1609948800000,2.39],[1610035200000,2.396],[1610294400000,2.382],[1610380800000,2.399],[1610467200000,2.405],[1610553600000,2.399],[1610640000000,2.389],[1610899200000,2.416],[1610985600000,2.404],[1611072000000,2.424],[1611158400000,2.437],[1611244800000,2.44],[1611504000000,2.447],[1611590400000,2.434],[1611676800000,2.439],[1611763200000,2.399],[1611849600000,2.381],[1612108800000,2.395],[1612195200000,2.416],[1612281600000,2.406],[1612368000000,2.401],[1612454400000,2.38],[1612713600000,2.388],[1612800000000,2.413],[1612886400000,2.434],[1613577600000,2.446],[1613664000000,2.451],[1613923200000,2.439],[1614009600000,2.429],[1614096000000,2.401],[1614182400000,2.404],[1614268800000,2.382],[1614528000000,2.414],[1614614400000,2.42],[1614700800000,2.43],[1614787200000,2.394],[1614873600000,2.401],[1615132800000,2.382],[1615219200000,2.353],[1615305600000,2.349],[1615392000000,2.367],[1615478400000,2.364],[1615737600000,2.341],[1615824000000,2.349],[1615910400000,2.351],[1615996800000,2.356],[1616083200000,2.337],[1616342400000,2.351],[1616428800000,2.332],[1616515200000,2.308],[1616601600000,2.315],[1616688000000,2.338],[1616947200000,2.34],[1617033600000,2.35],[1617120000000,2.343],[1617206400000,2.35],[1617292800000,2.349],[1617638400000,2.358],[1617724800000,2.356],[1617811200000,2.35],[1617897600000,2.337],[1618156800000,2.31],[1618243200000,2.314],[1618329600000,2.326],[1618416000000,2.327],[1618502400000,2.33],[1618761600000,2.359],[1618848000000,2.365],[1618934400000,2.366],[1619020800000,2.383],[1619107200000,2.387],[1619366400000,2.382],[1619452800000,2.382],[1619539200000,2.383],[1619625600000,2.382],[1619712000000,2.385],[1620230400000,2.375],[1620316800000,2.354],[1620576000000,2.345],[1620662400000,2.334],[1620748800000,2.339],[1620835200000,2.332],[1620921600000,2.342],[1621180800000,2.361],[1621267200000,2.364],[1621353600000,2.376],[1621440000000,2.378],[1621526400000,2.371],[1621785600000,2.377],[1621872000000,2.391],[1621958400000,2.381],[1622044800000,2.389],[1622131200000,2.385],[1622390400000,2.4],[1622476800000,2.409],[1622563200000,2.403],[1622649600000,2.402],[1622736000000,2.403],[1622995200000,2.407],[1623081600000,2.401],[1623168000000,2.399],[1623254400000,2.406],[1623340800000,2.401],[1623686400000,2.401],[1623772800000,2.379],[1623859200000,2.385],[1623945600000,2.393],[1624204800000,2.414],[1624291200000,2.414],[1624377600000,2.426],[1624464000000,2.429],[1624550400000,2.433],[1624809600000,2.436],[1624896000000,2.423],[1624982400000,2.433],[1625068800000,2.428],[1625155200000,2.408],[1625414400000,2.405],[1625500800000,2.412],[1625587200000,2.423],[1625673600000,2.428],[1625760000000,2.43],[1626019200000,2.447],[1626105600000,2.449],[1626192000000,2.442],[1626278400000,2.444],[1626364800000,2.45]]</t>
+  </si>
+  <si>
+    <t>118001</t>
+  </si>
+  <si>
+    <t>易方达亚洲精选</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [[1264003200000,1.0],[1264089600000,1.0],[1264694400000,1.0],[1265299200000,1.0],[1265904000000,1.0],[1267113600000,1.0],[1267718400000,1.001],[1268323200000,1.001],[1268928000000,1.003],[1269532800000,1.002],[1270137600000,1.014],[1270742400000,1.02],[1271088000000,1.013],[1271174400000,1.02],[1271260800000,1.019],[1271347200000,1.014],[1271606400000,1.006],[1271692800000,1.011],[1271779200000,1.019],[1271865600000,1.017],[1271952000000,1.019],[1272211200000,1.026],[1272297600000,1.016],[1272384000000,1.007],[1272470400000,1.007],[1272556800000,1.014],[1272902400000,0.994],[1273075200000,0.965],[1273161600000,0.948],[1273420800000,0.981],[1273507200000,0.974],[1273593600000,0.971],[1273680000000,0.981],[1273766400000,0.975],[1274025600000,0.951],[1274112000000,0.949],[1274198400000,0.933],[1274284800000,0.912],[1274630400000,0.914],[1274716800000,0.884],[1274803200000,0.893],[1274889600000,0.918],[1274976000000,0.935],[1275235200000,0.938],[1275321600000,0.926],[1275494400000,0.946],[1275580800000,0.943],[1275840000000,0.922],[1275926400000,0.926],[1276012800000,0.923],[1276099200000,0.93],[1276185600000,0.939],[1276704000000,0.964],[1276790400000,0.969],[1277049600000,0.993],[1277136000000,0.979],[1277222400000,0.977],[1277308800000,0.976],[1277395200000,0.964],[1277654400000,0.967],[1277740800000,0.949],[1277827200000,0.951],[1278000000000,0.932],[1278259200000,0.932],[1278345600000,0.941],[1278432000000,0.937],[1278518400000,0.947],[1278604800000,0.96],[1278864000000,0.964],[1278950400000,0.963],[1279036800000,0.968],[1279123200000,0.967],[1279209600000,0.961],[1279468800000,0.958],[1279555200000,0.961],[1279641600000,0.962],[1279728000000,0.963],[1279814400000,0.967],[1280073600000,0.972],[1280160000000,0.973],[1280246400000,0.97],[1280332800000,0.968],[1280419200000,0.971],[1280678400000,0.989],[1280764800000,0.991],[1280851200000,0.994],[1280937600000,0.991],[1281024000000,0.993],[1281283200000,0.997],[1281369600000,0.988],[1281456000000,0.975],[1281542400000,0.971],[1281628800000,0.978],[1281888000000,0.979],[1281974400000,0.985],[1282060800000,0.987],[1282147200000,0.992],[1282233600000,0.987],[1282492800000,0.984],[1282579200000,0.974],[1282665600000,0.963],[1282752000000,0.963],[1282838400000,0.961],[1283097600000,0.969],[1283184000000,0.962],[1283270400000,0.98],[1283356800000,0.987],[1283443200000,0.99],[1283702400000,0.997],[1283788800000,0.994],[1283875200000,0.994],[1283961600000,1.0],[1284048000000,1.001],[1284307200000,1.011],[1284393600000,1.006],[1284480000000,1.007],[1284566400000,1.0],[1284652800000,1.012],[1284912000000,1.016],[1285516800000,1.035],[1285603200000,1.031],[1285689600000,1.036],[1285776000000,1.039],[1286467200000,1.049],[1286726400000,1.049],[1286812800000,1.039],[1286899200000,1.056],[1286985600000,1.067],[1287072000000,1.066],[1287331200000,1.055],[1287417600000,1.043],[1287504000000,1.05],[1287590400000,1.059],[1287676800000,1.062],[1287936000000,1.069],[1288022400000,1.071],[1288108800000,1.056],[1288195200000,1.06],[1288281600000,1.06],[1288540800000,1.074],[1288627200000,1.079],[1288713600000,1.093],[1288800000000,1.103],[1288886400000,1.105],[1289145600000,1.11],[1289232000000,1.105],[1289318400000,1.105],[1289404800000,1.092],[1289491200000,1.069],[1289750400000,1.07],[1289836800000,1.056],[1289923200000,1.046],[1290009600000,1.066],[1290096000000,1.068],[1290355200000,1.082],[1290441600000,1.065],[1290528000000,1.067],[1290614400000,1.067],[1290700800000,1.049],[1290960000000,1.056],[1291046400000,1.051],[1291132800000,1.066],[1291219200000,1.077],[1291305600000,1.072],[1291564800000,1.066],[1291651200000,1.07],[1291737600000,1.061],[1291824000000,1.061],[1291910400000,1.063],[1292169600000,1.065],[1292256000000,1.073],[1292342400000,1.06],[1292428800000,1.052],[1292515200000,1.056],[1292774400000,1.046],[1292860800000,1.055],[1292947200000,1.055],[1293033600000,1.05],[1293465600000,1.035],[1293552000000,1.046],[1293638400000,1.053],[1293724800000,1.057],[1294070400000,1.087],[1294156800000,1.088],[1294243200000,1.088],[1294329600000,1.085],[1294588800000,1.075],[1294675200000,1.08],[1294761600000,1.09],[1294848000000,1.091],[1294934400000,1.087],[1295193600000,1.073],[1295280000000,1.075],[1295366400000,1.082],[1295452800000,1.066],[1295539200000,1.054],[1295798400000,1.055],[1295884800000,1.054],[1295971200000,1.062],[1296057600000,1.062],[1296144000000,1.052],[1296403200000,1.04],[1296489600000,1.041],[1297180800000,1.023],[1297267200000,1.005],[1297353600000,1.006],[1297612800000,1.027],[1297699200000,1.027],[1297785600000,1.024],[1297872000000,1.028],[1297958400000,1.039],[1298217600000,1.038],[1298304000000,1.013],[1298390400000,1.006],[1298476800000,0.986],[1298563200000,1.002],[1298822400000,1.003],[1298995200000,1.004],[1299081600000,1.025],[1299168000000,1.037],[1299427200000,1.026],[1299513600000,1.039],[1299600000000,1.04],[1299686400000,1.028],[1299772800000,1.015],[1300032000000,1.023],[1300118400000,1.0],[1300204800000,1.008],[1300291200000,0.998],[1300377600000,1.005],[1300636800000,1.017],[1300723200000,1.025],[1300809600000,1.032],[1300896000000,1.044],[1300982400000,1.054],[1301241600000,1.05],[1301328000000,1.057],[1301414400000,1.078],[1301500800000,1.086],[1301587200000,1.096],[1302019200000,1.112],[1302105600000,1.111],[1302192000000,1.118],[1302451200000,1.112],[1302537600000,1.091],[1302624000000,1.111],[1302710400000,1.12],[1302796800000,1.125],[1303056000000,1.124],[1303142400000,1.116],[1303228800000,1.141],[1303315200000,1.159],[1303747200000,1.158],[1303833600000,1.143],[1303920000000,1.145],[1304006400000,1.139],[1304352000000,1.124],[1304438400000,1.105],[1304611200000,1.09],[1304870400000,1.096],[1305043200000,1.107],[1305129600000,1.09],[1305216000000,1.089],[1305475200000,1.075],[1305561600000,1.073],[1305648000000,1.088],[1305734400000,1.081],[1305820800000,1.081],[1306080000000,1.046],[1306166400000,1.055],[1306252800000,1.044],[1306339200000,1.072],[1306425600000,1.079],[1306684800000,1.082],[1306771200000,1.103],[1306857600000,1.1],[1306944000000,1.089],[1307030400000,1.074],[1307376000000,1.062],[1307462400000,1.056],[1307548800000,1.053],[1307635200000,1.041],[1307894400000,1.038],[1307980800000,1.053],[1308067200000,1.052],[1308153600000,1.031],[1308240000000,1.02],[1308499200000,1.013],[1308585600000,1.036],[1308672000000,1.044],[1308758400000,1.039],[1308844800000,1.051],[1309104000000,1.041],[1309190400000,1.042],[1309276800000,1.061],[1309363200000,1.075],[1309708800000,1.099],[1309795200000,1.103],[1309881600000,1.105],[1309968000000,1.112],[1310054400000,1.114],[1310313600000,1.095],[1310400000000,1.064],[1310486400000,1.084],[1310572800000,1.085],[1310659200000,1.09],[1310918400000,1.08],[1311004800000,1.074],[1311091200000,1.079],[1311177600000,1.074],[1311264000000,1.091],[1311523200000,1.08],[1311609600000,1.095],[1311696000000,1.098],[1311782400000,1.095],[1311868800000,1.079],[1312128000000,1.098],[1312214400000,1.081],[1312300800000,1.051],[1312387200000,1.021],[1312473600000,0.979],[1312732800000,0.94],[1312819200000,0.918],[1312905600000,0.93],[1312992000000,0.93],[1313078400000,0.925],[1313424000000,0.958],[1313510400000,0.965],[1313596800000,0.944],[1313683200000,0.887],[1313942400000,0.866],[1314028800000,0.898],[1314115200000,0.882],[1314201600000,0.891],[1314288000000,0.898],[1314547200000,0.928],[1314633600000,0.945],[1314720000000,0.971],[1314806400000,0.969],[1314892800000,0.955],[1315152000000,0.922],[1315238400000,0.911],[1315324800000,0.941],[1315411200000,0.94],[1315497600000,0.927],[1315929600000,0.883],[1316016000000,0.885],[1316102400000,0.901],[1316361600000,0.877],[1316448000000,0.867],[1316534400000,0.861],[1316620800000,0.808],[1316707200000,0.795],[1316966400000,0.763],[1317052800000,0.81],[1317139200000,0.802],[1317312000000,0.782],[1318176000000,0.791],[1318262400000,0.813],[1318348800000,0.823],[1318435200000,0.841],[1318521600000,0.835],[1318780800000,0.849],[1318867200000,0.818],[1318953600000,0.825],[1319040000000,0.798],[1319126400000,0.803],[1319385600000,0.843],[1319472000000,0.841],[1319558400000,0.847],[1319644800000,0.878],[1319731200000,0.88],[1319990400000,0.862],[1320076800000,0.851],[1320163200000,0.86],[1320249600000,0.849],[1320336000000,0.878],[1320595200000,0.868],[1320681600000,0.86],[1320768000000,0.857],[1320854400000,0.822],[1320940800000,0.831],[1321200000000,0.842],[1321286400000,0.836],[1321372800000,0.817],[1321459200000,0.82],[1321545600000,0.798],[1321804800000,0.783],[1321891200000,0.789],[1321977600000,0.772],[1322064000000,0.776],[1322150400000,0.762],[1322409600000,0.778],[1322496000000,0.795],[1322582400000,0.785],[1322668800000,0.82],[1322755200000,0.819],[1323014400000,0.824],[1323100800000,0.814],[1323187200000,0.826],[1323273600000,0.817],[1323360000000,0.795],[1323619200000,0.799],[1323705600000,0.786],[1323792000000,0.782],[1323878400000,0.764],[1323964800000,0.774],[1324224000000,0.753],[1324310400000,0.76],[1324396800000,0.777],[1324483200000,0.773],[1324569600000,0.785],[1325001600000,0.771],[1325088000000,0.773],[1325174400000,0.772],[1325260800000,0.772],[1325606400000,0.781],[1325692800000,0.779],[1325779200000,0.766],[1326038400000,0.77],[1326124800000,0.783],[1326211200000,0.782],[1326297600000,0.782],[1326384000000,0.788],[1326643200000,0.78],[1326729600000,0.797],[1326816000000,0.798],[1326902400000,0.813],[1326988800000,0.821],[1327852800000,0.819],[1327939200000,0.826],[1328025600000,0.831],[1328112000000,0.848],[1328198400000,0.846],[1328457600000,0.842],[1328544000000,0.84],[1328630400000,0.853],[1328716800000,0.862],[1328803200000,0.848],[1329062400000,0.85],[1329148800000,0.85],[1329235200000,0.864],[1329321600000,0.854],[1329408000000,0.867],[1329667200000,0.868],[1329753600000,0.866],[1329840000000,0.872],[1329926400000,0.864],[1330012800000,0.868],[1330272000000,0.856],[1330358400000,0.869],[1330444800000,0.876],[1330617600000,0.874],[1330876800000,0.863],[1330963200000,0.843],[1331049600000,0.836],[1331136000000,0.851],[1331222400000,0.854],[1331481600000,0.85],[1331568000000,0.862],[1331654400000,0.863],[1331740800000,0.861],[1331827200000,0.858],[1332086400000,0.852],[1332172800000,0.843],[1332259200000,0.836],[1332345600000,0.835],[1332432000000,0.828],[1332691200000,0.824],[1332777600000,0.835],[1332864000000,0.831],[1332950400000,0.824],[1333036800000,0.823],[1333123200000,0.822],[1333555200000,0.834],[1333987200000,0.817],[1334160000000,0.816],[1334246400000,0.829],[1334505600000,0.823],[1334592000000,0.817],[1334678400000,0.824],[1334764800000,0.828],[1334851200000,0.823],[1335110400000,0.812],[1335196800000,0.812],[1335283200000,0.811],[1335369600000,0.817],[1335456000000,0.819],[1335888000000,0.833],[1335974400000,0.827],[1336060800000,0.825],[1336320000000,0.809],[1336406400000,0.804],[1336492800000,0.794],[1336579200000,0.791],[1336665600000,0.779],[1336924800000,0.773],[1337011200000,0.774],[1337097600000,0.749],[1337184000000,0.751],[1337270400000,0.735],[1337529600000,0.738],[1337616000000,0.751],[1337702400000,0.742],[1337788800000,0.739],[1337875200000,0.737],[1338220800000,0.757],[1338307200000,0.749],[1338393600000,0.747],[1338480000000,0.743],[1338739200000,0.722],[1338825600000,0.726],[1338998400000,0.748],[1339084800000,0.743],[1339344000000,0.759],[1339430400000,0.76],[1339516800000,0.765],[1339603200000,0.759],[1339689600000,0.766],[1339948800000,0.774],[1340035200000,0.774],[1340121600000,0.78],[1340208000000,0.769],[1340553600000,0.75],[1340640000000,0.753],[1340726400000,0.757],[1340812800000,0.753],[1340899200000,0.769],[1340985600000,0.769],[1341244800000,0.78],[1341331200000,0.78],[1341417600000,0.783],[1341504000000,0.78],[1341763200000,0.768],[1341849600000,0.765],[1341936000000,0.769],[1342022400000,0.753],[1342108800000,0.76],[1342368000000,0.762],[1342454400000,0.768],[1342540800000,0.763],[1342627200000,0.775],[1342713600000,0.776],[1342972800000,0.758],[1343059200000,0.758],[1343145600000,0.753],[1343232000000,0.754],[1343318400000,0.769],[1343577600000,0.776],[1343664000000,0.788],[1343750400000,0.793],[1343836800000,0.788],[1343923200000,0.786],[1344182400000,0.798],[1344268800000,0.798],[1344355200000,0.8],[1344441600000,0.81],[1344528000000,0.809],[1344787200000,0.806],[1344873600000,0.814],[1345046400000,0.806],[1345132800000,0.806],[1345392000000,0.805],[1345478400000,0.808],[1345564800000,0.802],[1345651200000,0.808],[1345737600000,0.8],[1345996800000,0.799],[1346083200000,0.797],[1346169600000,0.795],[1346256000000,0.787],[1346342400000,0.787],[1346601600000,0.791],[1346688000000,0.785],[1346774400000,0.774],[1346860800000,0.778],[1346947200000,0.796],[1347206400000,0.795],[1347292800000,0.795],[1347379200000,0.804],[1347465600000,0.804],[1347552000000,0.824],[1347811200000,0.824],[1347897600000,0.821],[1347984000000,0.829],[1348070400000,0.817],[1348156800000,0.826],[1348416000000,0.824],[1348502400000,0.822],[1348588800000,0.813],[1348675200000,0.823],[1348761600000,0.827],[1348934400000,0.827],[1349625600000,0.827],[1349712000000,0.827],[1349798400000,0.823],[1349884800000,0.826],[1349971200000,0.827],[1350230400000,0.824],[1350316800000,0.833],[1350403200000,0.838],[1350489600000,0.842],[1350576000000,0.84],[1350835200000,0.841],[1351008000000,0.836],[1351094400000,0.839],[1351180800000,0.827],[1351612800000,0.831],[1351699200000,0.837],[1351785600000,0.843],[1352044800000,0.843],[1352131200000,0.845],[1352217600000,0.847],[1352304000000,0.837],[1352390400000,0.834],[1352649600000,0.835],[1352736000000,0.824],[1352822400000,0.827],[1352908800000,0.819],[1352995200000,0.819],[1353254400000,0.826],[1353340800000,0.825],[1353427200000,0.827],[1353600000000,0.838],[1353859200000,0.836],[1353945600000,0.837],[1354032000000,0.836],[1354118400000,0.843],[1354204800000,0.846],[1354464000000,0.844],[1354550400000,0.841],[1354636800000,0.856],[1354723200000,0.861],[1354809600000,0.862],[1355068800000,0.866],[1355155200000,0.863],[1355241600000,0.87],[1355328000000,0.871],[1355414400000,0.872],[1355673600000,0.872],[1355760000000,0.873],[1355932800000,0.88],[1356019200000,0.871],[1356278400000,0.873],[1356537600000,0.88],[1356624000000,0.884],[1356883200000,0.887],[1357228800000,0.913],[1357488000000,0.914],[1357574400000,0.903],[1357660800000,0.907],[1357747200000,0.911],[1357833600000,0.905],[1358092800000,0.914],[1358179200000,0.913],[1358265600000,0.91],[1358352000000,0.908],[1358438400000,0.918],[1358784000000,0.92],[1358870400000,0.916],[1358956800000,0.916],[1359043200000,0.913],[1359302400000,0.912],[1359388800000,0.915],[1359475200000,0.917],[1359561600000,0.909],[1359648000000,0.914],[1359907200000,0.916],[1359993600000,0.902],[1360080000000,0.906],[1360166400000,0.898],[1360252800000,0.898],[1361203200000,0.908],[1361289600000,0.915],[1361376000000,0.902],[1361462400000,0.902],[1361721600000,0.9],[1361808000000,0.891],[1361894400000,0.898],[1361980800000,0.913],[1362326400000,0.894],[1362412800000,0.899],[1362499200000,0.911],[1362585600000,0.908],[1362672000000,0.91],[1362931200000,0.91],[1363017600000,0.901],[1363104000000,0.895],[1363190400000,0.894],[1363276800000,0.886],[1363536000000,0.877],[1363622400000,0.876],[1363708800000,0.881],[1363795200000,0.875],[1363881600000,0.868],[1364140800000,0.882],[1364227200000,0.885],[1364313600000,0.893],[1364400000000,0.884],[1364832000000,0.876],[1364918400000,0.873],[1365350400000,0.85],[1365436800000,0.856],[1365523200000,0.861],[1365609600000,0.867],[1365696000000,0.861],[1365955200000,0.855],[1366041600000,0.857],[1366128000000,0.854],[1366214400000,0.853],[1366300800000,0.866],[1366560000000,0.871],[1366646400000,0.861],[1366732800000,0.872],[1366819200000,0.88],[1366905600000,0.877],[1367424000000,0.886],[1367510400000,0.886],[1367769600000,0.893],[1367856000000,0.896],[1367942400000,0.902],[1368028800000,0.9],[1368115200000,0.898],[1368374400000,0.888],[1368460800000,0.889],[1368547200000,0.887],[1368633600000,0.885],[1368979200000,0.893],[1369065600000,0.886],[1369152000000,0.883],[1369238400000,0.865],[1369324800000,0.864],[1369670400000,0.869],[1369756800000,0.867],[1369843200000,0.864],[1369929600000,0.859],[1370188800000,0.856],[1370275200000,0.855],[1370361600000,0.845],[1370534400000,0.826],[1371052800000,0.793],[1371139200000,0.802],[1371398400000,0.806],[1371484800000,0.807],[1371571200000,0.799],[1371657600000,0.771],[1371744000000,0.765],[1372003200000,0.745],[1372089600000,0.746],[1372176000000,0.76],[1372262400000,0.771],[1372348800000,0.783],[1372521600000,0.782],[1372694400000,0.777],[1372780800000,0.759],[1372953600000,0.771],[1373212800000,0.755],[1373299200000,0.759],[1373385600000,0.763],[1373472000000,0.79],[1373558400000,0.787],[1373817600000,0.788],[1373904000000,0.786],[1373990400000,0.789],[1374076800000,0.787],[1374163200000,0.786],[1374422400000,0.786],[1374508800000,0.799],[1374595200000,0.796],[1374681600000,0.796],[1374768000000,0.795],[1375027200000,0.785],[1375113600000,0.787],[1375200000000,0.786],[1375286400000,0.791],[1375372800000,0.792],[1375632000000,0.796],[1375718400000,0.791],[1375804800000,0.781],[1375891200000,0.783],[1375977600000,0.785],[1376236800000,0.792],[1376323200000,0.807],[1376582400000,0.806],[1376841600000,0.794],[1376928000000,0.779],[1377014400000,0.773],[1377100800000,0.773],[1377187200000,0.777],[1377446400000,0.779],[1377532800000,0.766],[1377619200000,0.764],[1377705600000,0.776],[1377792000000,0.777],[1378137600000,0.79],[1378224000000,0.791],[1378310400000,0.795],[1378396800000,0.797],[1378656000000,0.81],[1378742400000,0.822],[1378828800000,0.823],[1378915200000,0.822],[1379001600000,0.819],[1379260800000,0.832],[1379347200000,0.828],[1379865600000,0.833],[1379952000000,0.83],[1380038400000,0.831],[1380124800000,0.831],[1380211200000,0.828],[1380470400000,0.819],[1381161600000,0.831],[1381334400000,0.834],[1381420800000,0.843],[1381766400000,0.844],[1381852800000,0.841],[1381939200000,0.843],[1382025600000,0.848],[1382284800000,0.846],[1382371200000,0.844],[1382457600000,0.835],[1382544000000,0.834],[1382630400000,0.83],[1382889600000,0.83],[1382976000000,0.835],[1383062400000,0.839],[1383148800000,0.833],[1383235200000,0.835],[1383494400000,0.834],[1383580800000,0.829],[1383667200000,0.826],[1383753600000,0.82],[1383840000000,0.813],[1384099200000,0.812],[1384185600000,0.81],[1384272000000,0.801],[1384358400000,0.808],[1384444800000,0.817],[1384704000000,0.831],[1384790400000,0.83],[1384876800000,0.826],[1384963200000,0.818],[1385049600000,0.819],[1385308800000,0.82],[1385395200000,0.819],[1385481600000,0.822],[1385654400000,0.827],[1385913600000,0.826],[1386000000000,0.821],[1386086400000,0.816],[1386172800000,0.814],[1386259200000,0.813],[1386518400000,0.817],[1386604800000,0.814],[1386691200000,0.803],[1386777600000,0.797],[1386864000000,0.797],[1387123200000,0.793],[1387209600000,0.792],[1387296000000,0.794],[1387382400000,0.79],[1387468800000,0.789],[1387728000000,0.79],[1387814400000,0.793],[1388073600000,0.794],[1388332800000,0.793],[1388419200000,0.796],[1388592000000,0.786],[1388678400000,0.776],[1388937600000,0.77],[1389024000000,0.771],[1389110400000,0.778],[1389196800000,0.772],[1389283200000,0.773],[1389542400000,0.776],[1389628800000,0.778],[1389715200000,0.776],[1389801600000,0.778],[1389888000000,0.775],[1390233600000,0.777],[1390320000000,0.781],[1390406400000,0.77],[1390492800000,0.759],[1390752000000,0.742],[1390838400000,0.747],[1390924800000,0.75],[1391702400000,0.748],[1391961600000,0.749],[1392048000000,0.759],[1392134400000,0.767],[1392220800000,0.764],[1392307200000,0.769],[1392652800000,0.771],[1392739200000,0.772],[1392825600000,0.768],[1392912000000,0.774],[1393171200000,0.768],[1393257600000,0.767],[1393344000000,0.771],[1393430400000,0.777],[1393516800000,0.776],[1393776000000,0.772],[1393862400000,0.774],[1393948800000,0.778],[1394035200000,0.784],[1394121600000,0.788],[1394380800000,0.777],[1394467200000,0.776],[1394553600000,0.768],[1394640000000,0.766],[1394726400000,0.76],[1394985600000,0.763],[1395072000000,0.77],[1395158400000,0.768],[1395244800000,0.757],[1395331200000,0.764],[1395590400000,0.765],[1395676800000,0.756],[1395763200000,0.763],[1395849600000,0.759],[1395936000000,0.765],[1396195200000,0.773],[1396281600000,0.785],[1396368000000,0.785],[1396454400000,0.784],[1396540800000,0.778],[1396886400000,0.782],[1396972800000,0.789],[1397059200000,0.79],[1397145600000,0.78],[1397404800000,0.78],[1397491200000,0.768],[1397577600000,0.768],[1397664000000,0.774],[1398096000000,0.778],[1398182400000,0.775],[1398268800000,0.773],[1398355200000,0.765],[1398614400000,0.749],[1398700800000,0.749],[1398787200000,0.742],[1399219200000,0.748],[1399392000000,0.733],[1399478400000,0.725],[1399564800000,0.724],[1399824000000,0.736],[1399910400000,0.736],[1399996800000,0.74],[1400083200000,0.735],[1400169600000,0.734],[1400428800000,0.737],[1400515200000,0.737],[1400601600000,0.74],[1400688000000,0.746],[1400774400000,0.752],[1401120000000,0.753],[1401206400000,0.752],[1401292800000,0.748],[1401379200000,0.749],[1401724800000,0.75],[1401811200000,0.749],[1401897600000,0.756],[1401984000000,0.755],[1402243200000,0.753],[1402329600000,0.757],[1402416000000,0.761],[1402502400000,0.761],[1402588800000,0.765],[1402848000000,0.765],[1402934400000,0.761],[1403020800000,0.76],[1403107200000,0.755],[1403193600000,0.755],[1403452800000,0.753],[1403539200000,0.755],[1403625600000,0.756],[1403712000000,0.764],[1403798400000,0.765],[1404057600000,0.774],[1404230400000,0.787],[1404316800000,0.794],[1404662400000,0.799],[1404748800000,0.791],[1404835200000,0.785],[1404921600000,0.784],[1405008000000,0.785],[1405267200000,0.788],[1405353600000,0.79],[1405440000000,0.788],[1405526400000,0.785],[1405612800000,0.787],[1405872000000,0.787],[1405958400000,0.794],[1406044800000,0.799],[1406131200000,0.805],[1406217600000,0.811],[1406476800000,0.819],[1406563200000,0.823],[1406649600000,0.82],[1406736000000,0.824],[1406822400000,0.822],[1407081600000,0.827],[1407168000000,0.815],[1407254400000,0.814],[1407340800000,0.806],[1407427200000,0.806],[1407686400000,0.818],[1407772800000,0.822],[1407859200000,0.831],[1407945600000,0.829],[1408032000000,0.827],[1408291200000,0.824],[1408377600000,0.827],[1408464000000,0.83],[1408550400000,0.825],[1408636800000,0.825],[1408896000000,0.831],[1408982400000,0.836],[1409068800000,0.825],[1409155200000,0.809],[1409241600000,0.814],[1409587200000,0.819],[1409673600000,0.832],[1409760000000,0.841],[1409846400000,0.84],[1410278400000,0.827],[1410364800000,0.827],[1410451200000,0.832],[1410710400000,0.819],[1410796800000,0.812],[1410883200000,0.813],[1410969600000,0.814],[1411056000000,0.815],[1411315200000,0.802],[1411401600000,0.806],[1411488000000,0.811],[1411574400000,0.814],[1411660800000,0.81],[1411920000000,0.794],[1412006400000,0.793],[1412697600000,0.813],[1412784000000,0.818],[1412870400000,0.815],[1413129600000,0.798],[1413216000000,0.798],[1413302400000,0.803],[1413388800000,0.802],[1413475200000,0.807],[1413734400000,0.81],[1413820800000,0.812],[1413907200000,0.818],[1413993600000,0.818],[1414080000000,0.819],[1414339200000,0.808],[1414425600000,0.814],[1414512000000,0.817],[1414598400000,0.817],[1414684800000,0.822],[1414944000000,0.825],[1415030400000,0.826],[1415116800000,0.818],[1415203200000,0.817],[1415289600000,0.822],[1415548800000,0.833],[1415635200000,0.835],[1415721600000,0.838],[1415808000000,0.844],[1415894400000,0.848],[1416153600000,0.838],[1416240000000,0.826],[1416326400000,0.826],[1416412800000,0.823],[1416499200000,0.828],[1416758400000,0.838],[1416844800000,0.835],[1416931200000,0.831],[1417104000000,0.818],[1417363200000,0.794],[1417449600000,0.803],[1417536000000,0.798],[1417622400000,0.795],[1417708800000,0.787],[1417968000000,0.782],[1418054400000,0.756],[1418140800000,0.775],[1418227200000,0.762],[1418313600000,0.77],[1418572800000,0.769],[1418659200000,0.766],[1418745600000,0.754],[1418832000000,0.752],[1418918400000,0.751],[1419177600000,0.748],[1419264000000,0.75],[1419782400000,0.769],[1419868800000,0.777],[1419955200000,0.791],[1420387200000,0.787],[1420473600000,0.786],[1420560000000,0.783],[1420646400000,0.791],[1420732800000,0.794],[1420992000000,0.783],[1421078400000,0.786],[1421164800000,0.778],[1421251200000,0.779],[1421337600000,0.775],[1421683200000,0.762],[1421769600000,0.772],[1421856000000,0.771],[1421942400000,0.777],[1422201600000,0.781],[1422288000000,0.775],[1422374400000,0.777],[1422460800000,0.775],[1422547200000,0.772],[1422806400000,0.77],[1422892800000,0.771],[1422979200000,0.761],[1423065600000,0.754],[1423152000000,0.745],[1423411200000,0.74],[1423497600000,0.738],[1423584000000,0.731],[1423670400000,0.739],[1423756800000,0.747],[1424102400000,0.747],[1424793600000,0.756],[1424880000000,0.761],[1424966400000,0.764],[1425225600000,0.772],[1425312000000,0.771],[1425398400000,0.773],[1425484800000,0.773],[1425571200000,0.776],[1425830400000,0.773],[1425916800000,0.764],[1426003200000,0.761],[1426089600000,0.761],[1426176000000,0.759],[1426435200000,0.76],[1426521600000,0.765],[1426608000000,0.765],[1426694400000,0.761],[1426780800000,0.756],[1427040000000,0.765],[1427126400000,0.765],[1427212800000,0.784],[1427299200000,0.776],[1427385600000,0.777],[1427644800000,0.809],[1427731200000,0.809],[1427817600000,0.84],[1427904000000,0.87],[1428422400000,0.968],[1428508800000,0.97],[1428595200000,0.994],[1428854400000,1.032],[1428940800000,0.999],[1429027200000,0.975],[1429113600000,0.985],[1429200000000,0.965],[1429459200000,0.927],[1429545600000,0.956],[1429632000000,0.987],[1429718400000,0.991],[1429804800000,0.986],[1430064000000,1.009],[1430150400000,0.992],[1430236800000,0.996],[1430323200000,1.002],[1430668800000,1.014],[1430755200000,0.985],[1430841600000,0.968],[1430928000000,0.937],[1431014400000,0.97],[1431273600000,0.993],[1431360000000,0.979],[1431446400000,0.988],[1431532800000,1.0],[1431619200000,1.009],[1431878400000,1.018],[1431964800000,1.036],[1432051200000,1.041],[1432137600000,1.03],[1432224000000,1.038],[1432569600000,1.081],[1432656000000,1.076],[1432742400000,1.05],[1432828800000,1.074],[1433088000000,1.08],[1433174400000,1.065],[1433260800000,1.049],[1433347200000,1.036],[1433433600000,1.024],[1433692800000,1.016],[1433779200000,0.972],[1433865600000,0.976],[1433952000000,0.992],[1434038400000,1.019],[1434297600000,0.999],[1434384000000,0.98],[1434470400000,1.001],[1434556800000,1.007],[1434643200000,0.995],[1434988800000,1.008],[1435075200000,1.015],[1435161600000,1.008],[1435248000000,0.977],[1435507200000,0.914],[1435593600000,0.943],[1435766400000,0.904],[1436112000000,0.763],[1436198400000,0.687],[1436284800000,0.604],[1436371200000,0.737],[1436457600000,0.789],[1436716800000,0.819],[1436803200000,0.815],[1436889600000,0.778],[1436976000000,0.797],[1437062400000,0.815],[1437321600000,0.816],[1437408000000,0.814],[1437494400000,0.796],[1437580800000,0.808],[1437667200000,0.799],[1437926400000,0.729],[1438012800000,0.733],[1438099200000,0.746],[1438185600000,0.742],[1438272000000,0.742],[1438531200000,0.726],[1438617600000,0.73],[1438704000000,0.732],[1438790400000,0.734],[1438876800000,0.749],[1439136000000,0.781],[1439222400000,0.78],[1439308800000,0.765],[1439395200000,0.784],[1439481600000,0.792],[1439740800000,0.786],[1439827200000,0.758],[1439913600000,0.749],[1440000000000,0.715],[1440086400000,0.684],[1440345600000,0.619],[1440432000000,0.627],[1440518400000,0.631],[1440604800000,0.682],[1440691200000,0.684],[1440950400000,0.665],[1441036800000,0.642],[1441123200000,0.633],[1441641600000,0.661],[1441728000000,0.686],[1441814400000,0.666],[1441900800000,0.671],[1442160000000,0.66],[1442246400000,0.653],[1442332800000,0.673],[1442419200000,0.673],[1442505600000,0.692],[1442764800000,0.69],[1442851200000,0.695],[1442937600000,0.682],[1443024000000,0.678],[1443110400000,0.678],[1443456000000,0.66],[1443542400000,0.671],[1444233600000,0.729],[1444320000000,0.735],[1444579200000,0.749],[1444665600000,0.743],[1444752000000,0.744],[1444838400000,0.76],[1444924800000,0.768],[1445184000000,0.761],[1445270400000,0.759],[1445443200000,0.751],[1445529600000,0.761],[1445788800000,0.764],[1445875200000,0.757],[1445961600000,0.746],[1446048000000,0.747],[1446134400000,0.745],[1446393600000,0.733],[1446480000000,0.741],[1446566400000,0.767],[1446652800000,0.773],[1446739200000,0.789],[1446998400000,0.787],[1447084800000,0.779],[1447171200000,0.782],[1447257600000,0.794],[1447344000000,0.782],[1447603200000,0.76],[1447689600000,0.771],[1447776000000,0.775],[1447862400000,0.784],[1447948800000,0.791],[1448208000000,0.788],[1448294400000,0.792],[1448380800000,0.796],[1448553600000,0.774],[1448812800000,0.778],[1448899200000,0.776],[1448985600000,0.784],[1449072000000,0.779],[1449158400000,0.774],[1449417600000,0.782],[1449504000000,0.77],[1449590400000,0.761],[1449676800000,0.759],[1449763200000,0.749],[1450022400000,0.75],[1450108800000,0.753],[1450195200000,0.764],[1450281600000,0.774],[1450368000000,0.768],[1450627200000,0.771],[1450713600000,0.775],[1450800000000,0.788],[1451232000000,0.781],[1451318400000,0.781],[1451404800000,0.786],[1451491200000,0.792],[1451836800000,0.761],[1451923200000,0.757],[1452009600000,0.76],[1452096000000,0.721],[1452182400000,0.73],[1452441600000,0.696],[1452528000000,0.693],[1452614400000,0.698],[1452700800000,0.698],[1452787200000,0.679],[1453132800000,0.691],[1453219200000,0.66],[1453305600000,0.638],[1453392000000,0.649],[1453651200000,0.657],[1453737600000,0.637],[1453824000000,0.638],[1453910400000,0.632],[1453996800000,0.655],[1454256000000,0.651],[1454342400000,0.653],[1454428800000,0.64],[1454515200000,0.649],[1454601600000,0.647],[1455552000000,0.653],[1455638400000,0.651],[1455724800000,0.664],[1455811200000,0.666],[1456070400000,0.678],[1456156800000,0.673],[1456243200000,0.663],[1456329600000,0.645],[1456416000000,0.656],[1456675200000,0.646],[1456761600000,0.649],[1456848000000,0.667],[1456934400000,0.659],[1457020800000,0.665],[1457280000000,0.667],[1457366400000,0.661],[1457452800000,0.651],[1457539200000,0.649],[1457625600000,0.653],[1457884800000,0.67],[1457971200000,0.664],[1458057600000,0.658],[1458144000000,0.666],[1458230400000,0.681],[1458489600000,0.697],[1458576000000,0.696],[1458662400000,0.692],[1458748800000,0.691],[1459180800000,0.685],[1459267200000,0.696],[1459353600000,0.698],[1459440000000,0.688],[1459785600000,0.679],[1459872000000,0.686],[1459958400000,0.687],[1460044800000,0.686],[1460304000000,0.701],[1460390400000,0.698],[1460476800000,0.715],[1460563200000,0.719],[1460649600000,0.719],[1460908800000,0.712],[1460995200000,0.719],[1461081600000,0.709],[1461168000000,0.717],[1461254400000,0.718],[1461513600000,0.712],[1461600000000,0.71],[1461686400000,0.705],[1461772800000,0.704],[1461859200000,0.699],[1462204800000,0.697],[1462291200000,0.701],[1462377600000,0.704],[1462464000000,0.688],[1462723200000,0.677],[1462809600000,0.684],[1462896000000,0.684],[1462982400000,0.674],[1463068800000,0.669],[1463328000000,0.675],[1463414400000,0.681],[1463500800000,0.676],[1463587200000,0.67],[1463673600000,0.663],[1463932800000,0.665],[1464019200000,0.67],[1464105600000,0.675],[1464192000000,0.673],[1464278400000,0.688],[1464537600000,0.695],[1464624000000,0.705],[1464710400000,0.705],[1464796800000,0.704],[1464883200000,0.71],[1465142400000,0.706],[1465228800000,0.715],[1465315200000,0.707],[1465747200000,0.677],[1465833600000,0.674],[1465920000000,0.684],[1466006400000,0.674],[1466092800000,0.683],[1466352000000,0.687],[1466438400000,0.689],[1466524800000,0.696],[1466611200000,0.695],[1466697600000,0.681],[1466956800000,0.688],[1467043200000,0.69],[1467129600000,0.696],[1467216000000,0.699],[1467561600000,0.7],[1467648000000,0.693],[1467734400000,0.692],[1467820800000,0.692],[1467907200000,0.691],[1468166400000,0.696],[1468252800000,0.71],[1468339200000,0.717],[1468425600000,0.724],[1468512000000,0.725],[1468771200000,0.722],[1468857600000,0.718],[1468944000000,0.719],[1469030400000,0.721],[1469116800000,0.714],[1469376000000,0.71],[1469462400000,0.72],[1469548800000,0.716],[1469635200000,0.717],[1469721600000,0.71],[1469980800000,0.712],[1470153600000,0.706],[1470240000000,0.712],[1470326400000,0.722],[1470585600000,0.732],[1470672000000,0.736],[1470758400000,0.731],[1470844800000,0.733],[1470931200000,0.741],[1471190400000,0.75],[1471276800000,0.742],[1471363200000,0.729],[1471449600000,0.743],[1471536000000,0.739],[1471795200000,0.747],[1471881600000,0.74],[1471968000000,0.734],[1472054400000,0.728],[1472140800000,0.733],[1472400000000,0.729],[1472486400000,0.739],[1472572800000,0.735],[1472659200000,0.735],[1472745600000,0.745],[1473004800000,0.757],[1473091200000,0.773],[1473177600000,0.769],[1473264000000,0.775],[1473350400000,0.78],[1473609600000,0.755],[1473696000000,0.753],[1473782400000,0.757],[1474214400000,0.</t>
+  </si>
+  <si>
+    <t>159949</t>
+  </si>
+  <si>
+    <t>华安创业板50ETF</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [[1467216000000,1.0],[1467302400000,1.0],[1467907200000,1.0001],[1468512000000,1.0003],[1469030400000,0.9934],[1469116800000,0.9858],[1469376000000,0.9818],[1469462400000,0.9971],[1469548800000,0.9389],[1469635200000,0.9329],[1469721600000,0.9241],[1469980800000,0.9129],[1470067200000,0.9199],[1470153600000,0.9167],[1470240000000,0.9281],[1470326400000,0.9167],[1470585600000,0.9252],[1470672000000,0.9351],[1470758400000,0.9269],[1470844800000,0.9125],[1470931200000,0.9213],[1471190400000,0.9554],[1471276800000,0.9597],[1471363200000,0.9617],[1471449600000,0.9596],[1471536000000,0.9577],[1471795200000,0.9394],[1471881600000,0.9428],[1471968000000,0.95],[1472054400000,0.9415],[1472140800000,0.9467],[1472400000000,0.9481],[1472486400000,0.9495],[1472572800000,0.9503],[1472659200000,0.9441],[1472745600000,0.9398],[1473004800000,0.9442],[1473091200000,0.9604],[1473177600000,0.9555],[1473264000000,0.9622],[1473350400000,0.9499],[1473609600000,0.9242],[1473696000000,0.9196],[1473782400000,0.9176],[1474214400000,0.9274],[1474300800000,0.9252],[1474387200000,0.9258],[1474473600000,0.9279],[1474560000000,0.9194],[1474819200000,0.9042],[1474905600000,0.9131],[1474992000000,0.9101],[1475078400000,0.9113],[1475164800000,0.9142],[1476028800000,0.938],[1476115200000,0.938],[1476201600000,0.9374],[1476288000000,0.937],[1476374400000,0.9294],[1476633600000,0.9193],[1476720000000,0.9331],[1476806400000,0.9282],[1476892800000,0.9299],[1476979200000,0.9258],[1477238400000,0.9349],[1477324800000,0.9366],[1477411200000,0.9313],[1477497600000,0.9319],[1477584000000,0.9252],[1477843200000,0.9221],[1477929600000,0.9283],[1478016000000,0.9135],[1478102400000,0.9167],[1478188800000,0.9133],[1478448000000,0.9045],[1478534400000,0.9123],[1478620800000,0.899],[1478707200000,0.9076],[1478793600000,0.9119],[1479052800000,0.9197],[1479139200000,0.9291],[1479225600000,0.9278],[1479312000000,0.9172],[1479398400000,0.9151],[1479657600000,0.9121],[1479744000000,0.9259],[1479830400000,0.9218],[1479916800000,0.9135],[1480003200000,0.9247],[1480262400000,0.9232],[1480348800000,0.924],[1480435200000,0.9357],[1480521600000,0.9335],[1480608000000,0.9159],[1480867200000,0.913],[1480953600000,0.8971],[1481040000000,0.903],[1481126400000,0.8927],[1481212800000,0.8862],[1481472000000,0.835],[1481558400000,0.835],[1481644800000,0.8267],[1481731200000,0.8339],[1481817600000,0.8446],[1482076800000,0.8362],[1482163200000,0.8388],[1482249600000,0.8411],[1482336000000,0.8379],[1482422400000,0.8279],[1482681600000,0.8298],[1482768000000,0.8254],[1482854400000,0.8199],[1482940800000,0.8204],[1483027200000,0.8211],[1483113600000,0.8209],[1483372800000,0.8238],[1483459200000,0.8386],[1483545600000,0.8349],[1483632000000,0.8245],[1483891200000,0.826],[1483977600000,0.8207],[1484064000000,0.8145],[1484150400000,0.8092],[1484236800000,0.7954],[1484496000000,0.7562],[1484582400000,0.7786],[1484668800000,0.7671],[1484755200000,0.7678],[1484841600000,0.7845],[1485100800000,0.7868],[1485187200000,0.7733],[1485273600000,0.7764],[1485360000000,0.7827],[1486051200000,0.7791],[1486310400000,0.7894],[1486396800000,0.783],[1486483200000,0.7903],[1486569600000,0.7958],[1486656000000,0.7915],[1486915200000,0.7964],[1487001600000,0.7964],[1487088000000,0.7861],[1487174400000,0.7882],[1487260800000,0.7811],[1487520000000,0.7864],[1487606400000,0.7986],[1487692800000,0.7999],[1487779200000,0.8001],[1487865600000,0.8061],[1488124800000,0.8003],[1488211200000,0.8002],[1488297600000,0.8013],[1488384000000,0.7935],[1488470400000,0.7946],[1488729600000,0.8108],[1488816000000,0.8175],[1488902400000,0.81],[1488988800000,0.8079],[1489075200000,0.8058],[1489334400000,0.8148],[1489420800000,0.8065],[1489507200000,0.8084],[1489593600000,0.8117],[1489680000000,0.8044],[1489939200000,0.8057],[1490025600000,0.8079],[1490112000000,0.7982],[1490198400000,0.796],[1490284800000,0.8023],[1490544000000,0.7959],[1490630400000,0.7936],[1490716800000,0.7862],[1490803200000,0.7682],[1490889600000,0.7757],[1491321600000,0.7917],[1491408000000,0.7917],[1491494400000,0.7921],[1491753600000,0.7748],[1491840000000,0.776],[1491926400000,0.7672],[1492012800000,0.7733],[1492099200000,0.7624],[1492358400000,0.7557],[1492444800000,0.7433],[1492531200000,0.7453],[1492617600000,0.7454],[1492704000000,0.7391],[1492963200000,0.724],[1493049600000,0.7284],[1493136000000,0.7265],[1493222400000,0.7365],[1493308800000,0.7394],[1493654400000,0.7396],[1493740800000,0.738],[1493827200000,0.7375],[1493913600000,0.7287],[1494172800000,0.7212],[1494259200000,0.7301],[1494345600000,0.7185],[1494432000000,0.7186],[1494518400000,0.7177],[1494777600000,0.7175],[1494864000000,0.7313],[1494950400000,0.7376],[1495036800000,0.7337],[1495123200000,0.7289],[1495382400000,0.7212],[1495468800000,0.7076],[1495555200000,0.7137],[1495641600000,0.7164],[1495728000000,0.7097],[1496160000000,0.7099],[1496246400000,0.6946],[1496332800000,0.7067],[1496592000000,0.7133],[1496678400000,0.7155],[1496764800000,0.7299],[1496851200000,0.7272],[1496937600000,0.7285],[1497196800000,0.7175],[1497283200000,0.7282],[1497369600000,0.7267],[1497456000000,0.7408],[1497542400000,0.739],[1497801600000,0.7409],[1497888000000,0.7424],[1497974400000,0.7435],[1498060800000,0.7308],[1498147200000,0.7337],[1498406400000,0.7389],[1498492800000,0.7379],[1498579200000,0.7317],[1498665600000,0.7345],[1498752000000,0.7348],[1499011200000,0.7436],[1499097600000,0.7397],[1499184000000,0.7452],[1499270400000,0.7453],[1499356800000,0.7452],[1499616000000,0.7302],[1499702400000,0.7217],[1499788800000,0.7235],[1499875200000,0.7178],[1499961600000,0.7054],[1500220800000,0.6669],[1500307200000,0.6734],[1500393600000,0.6793],[1500480000000,0.6819],[1500566400000,0.6835],[1500825600000,0.6823],[1500912000000,0.684],[1500998400000,0.6827],[1501084800000,0.7091],[1501171200000,0.7052],[1501430400000,0.7065],[1501516800000,0.7096],[1501603200000,0.7045],[1501689600000,0.7083],[1501776000000,0.7025],[1502035200000,0.7065],[1502121600000,0.7137],[1502208000000,0.716],[1502294400000,0.7103],[1502380800000,0.7057],[1502640000000,0.7284],[1502726400000,0.7306],[1502812800000,0.7451],[1502899200000,0.7509],[1502985600000,0.7447],[1503244800000,0.7476],[1503331200000,0.741],[1503417600000,0.7371],[1503504000000,0.7317],[1503590400000,0.7413],[1503849600000,0.7557],[1503936000000,0.7501],[1504022400000,0.7516],[1504108800000,0.7565],[1504195200000,0.7669],[1504454400000,0.7751],[1504540800000,0.7732],[1504627200000,0.7834],[1504713600000,0.7782],[1504800000000,0.7744],[1505059200000,0.783],[1505145600000,0.7749],[1505232000000,0.7778],[1505318400000,0.7728],[1505404800000,0.7704],[1505664000000,0.7753],[1505750400000,0.7663],[1505836800000,0.7736],[1505923200000,0.7631],[1506009600000,0.7626],[1506268800000,0.7494],[1506355200000,0.7489],[1506441600000,0.7576],[1506528000000,0.7575],[1506614400000,0.7629],[1507478400000,0.7747],[1507564800000,0.7837],[1507651200000,0.7742],[1507737600000,0.7757],[1507824000000,0.7908],[1508083200000,0.7689],[1508169600000,0.7662],[1508256000000,0.7624],[1508342400000,0.7574],[1508428800000,0.7674],[1508688000000,0.7748],[1508774400000,0.7767],[1508860800000,0.7805],[1508947200000,0.777],[1509033600000,0.7694],[1509292800000,0.7467],[1509379200000,0.7538],[1509465600000,0.7498],[1509552000000,0.7374],[1509638400000,0.7321],[1509897600000,0.7387],[1509984000000,0.7424],[1510070400000,0.7489],[1510156800000,0.7582],[1510243200000,0.7623],[1510502400000,0.7647],[1510588800000,0.759],[1510675200000,0.7466],[1510761600000,0.7472],[1510848000000,0.7301],[1511107200000,0.7399],[1511193600000,0.7425],[1511280000000,0.7405],[1511366400000,0.7199],[1511452800000,0.7163],[1511712000000,0.7101],[1511798400000,0.7252],[1511884800000,0.7224],[1511971200000,0.7164],[1512057600000,0.7327],[1512316800000,0.7279],[1512403200000,0.7112],[1512489600000,0.7206],[1512576000000,0.7155],[1512662400000,0.7222],[1512921600000,0.7325],[1513008000000,0.7268],[1513094400000,0.7278],[1513180800000,0.7219],[1513267200000,0.7188],[1513526400000,0.7164],[1513612800000,0.7241],[1513699200000,0.7144],[1513785600000,0.7159],[1513872000000,0.7106],[1514131200000,0.6977],[1514217600000,0.7],[1514304000000,0.6973],[1514390400000,0.698],[1514476800000,0.6995],[1514649600000,0.6993],[1514822400000,0.6721],[1514908800000,0.6857],[1514995200000,0.6831],[1515081600000,0.6839],[1515340800000,0.683],[1515427200000,0.6806],[1515513600000,0.6764],[1515600000000,0.6812],[1515686400000,0.6705],[1515945600000,0.6493],[1516032000000,0.6475],[1516118400000,0.6522],[1516204800000,0.6502],[1516291200000,0.6488],[1516550400000,0.6662],[1516636800000,0.6645],[1516723200000,0.6873],[1516809600000,0.6862],[1516896000000,0.6881],[1517155200000,0.687],[1517241600000,0.6794],[1517328000000,0.6595],[1517414400000,0.644],[1517500800000,0.648],[1517760000000,0.6431],[1517846400000,0.6073],[1517932800000,0.616],[1518019200000,0.6266],[1518105600000,0.6052],[1518364800000,0.6276],[1518451200000,0.6263],[1518537600000,0.6231],[1519228800000,0.6375],[1519315200000,0.636],[1519574400000,0.662],[1519660800000,0.67],[1519747200000,0.6744],[1519833600000,0.687],[1519920000000,0.6785],[1520179200000,0.6893],[1520265600000,0.6883],[1520352000000,0.6804],[1520438400000,0.683],[1520524800000,0.712],[1520784000000,0.7245],[1520870400000,0.7213],[1520956800000,0.7103],[1521043200000,0.7155],[1521129600000,0.7021],[1521388800000,0.7105],[1521475200000,0.7159],[1521561600000,0.699],[1521648000000,0.694],[1521734400000,0.6485],[1521993600000,0.6719],[1522080000000,0.7009],[1522166400000,0.6964],[1522252800000,0.7037],[1522339200000,0.7269],[1522598400000,0.7235],[1522684800000,0.7101],[1522771200000,0.694],[1523203200000,0.698],[1523289600000,0.6949],[1523376000000,0.693],[1523462400000,0.6876],[1523548800000,0.6883],[1523808000000,0.6941],[1523894400000,0.6698],[1523980800000,0.6862],[1524067200000,0.6837],[1524153600000,0.6649],[1524412800000,0.6525],[1524499200000,0.6778],[1524585600000,0.6793],[1524672000000,0.6644],[1524758400000,0.6707],[1525190400000,0.6687],[1525276800000,0.6825],[1525363200000,0.6734],[1525622400000,0.6908],[1525708800000,0.6971],[1525795200000,0.6971],[1525881600000,0.6968],[1525968000000,0.6853],[1526227200000,0.6842],[1526313600000,0.6908],[1526400000000,0.6844],[1526486400000,0.6768],[1526572800000,0.6813],[1526832000000,0.6932],[1526918400000,0.6943],[1527004800000,0.682],[1527091200000,0.6772],[1527177600000,0.6601],[1527436800000,0.6558],[1527523200000,0.6525],[1527609600000,0.6309],[1527696000000,0.6355],[1527782400000,0.627],[1528041600000,0.626],[1528128000000,0.64],[1528214400000,0.633],[1528300800000,0.6301],[1528387200000,0.6216],[1528646400000,0.6183],[1528732800000,0.6278],[1528819200000,0.6158],[1528905600000,0.6127],[1528992000000,0.5974],[1529337600000,0.5588],[1529424000000,0.565],[1529510400000,0.5465],[1529596800000,0.5603],[1529856000000,0.5565],[1529942400000,0.5692],[1530028800000,0.5642],[1530115200000,0.5633],[1530201600000,0.589],[1530288000000,0.589],[1530460800000,0.5799],[1530547200000,0.5904],[1530633600000,0.5752],[1530720000000,0.5648],[1530806400000,0.5678],[1531065600000,0.5796],[1531152000000,0.5844],[1531238400000,0.5724],[1531324800000,0.5932],[1531411200000,0.5945],[1531670400000,0.5914],[1531756800000,0.5947],[1531843200000,0.5862],[1531929600000,0.5827],[1532016000000,0.5914],[1532275200000,0.6009],[1532361600000,0.6063],[1532448000000,0.6066],[1532534400000,0.5951],[1532620800000,0.5886],[1532880000000,0.5766],[1532966400000,0.5734],[1533052800000,0.5654],[1533139200000,0.5508],[1533225600000,0.5411],[1533484800000,0.5291],[1533571200000,0.5458],[1533657600000,0.5328],[1533744000000,0.5522],[1533830400000,0.5547],[1534089600000,0.5624],[1534176000000,0.5567],[1534262400000,0.5392],[1534348800000,0.5371],[1534435200000,0.5277],[1534694400000,0.5338],[1534780800000,0.5402],[1534867200000,0.533],[1534953600000,0.5396],[1535040000000,0.5349],[1535299200000,0.5505],[1535385600000,0.5515],[1535472000000,0.5479],[1535558400000,0.5369],[1535644800000,0.5279],[1535904000000,0.5312],[1535990400000,0.5376],[1536076800000,0.5284],[1536163200000,0.5249],[1536249600000,0.523],[1536508800000,0.5039],[1536595200000,0.505],[1536681600000,0.5038],[1536768000000,0.5065],[1536854400000,0.4979],[1537113600000,0.4918],[1537200000000,0.501],[1537286400000,0.507],[1537372800000,0.5054],[1537459200000,0.5147],[1537804800000,0.5091],[1537891200000,0.513],[1537977600000,0.5032],[1538064000000,0.5102],[1538928000000,0.4859],[1539014400000,0.4812],[1539100800000,0.4803],[1539187200000,0.4475],[1539273600000,0.4494],[1539532800000,0.4422],[1539619200000,0.4312],[1539705600000,0.4353],[1539792000000,0.4267],[1539878400000,0.4458],[1540137600000,0.4727],[1540224000000,0.4617],[1540310400000,0.4569],[1540396800000,0.4537],[1540483200000,0.4469],[1540742400000,0.4414],[1540828800000,0.4483],[1540915200000,0.4522],[1541001600000,0.4577],[1541088000000,0.4822],[1541347200000,0.4829],[1541433600000,0.4815],[1541520000000,0.4805],[1541606400000,0.4726],[1541692800000,0.4729],[1541952000000,0.4907],[1542038400000,0.4979],[1542124800000,0.495],[1542211200000,0.5037],[1542297600000,0.5024],[1542556800000,0.5009],[1542643200000,0.4852],[1542729600000,0.4866],[1542816000000,0.4832],[1542902400000,0.4636],[1543161600000,0.4624],[1543248000000,0.4656],[1543334400000,0.4758],[1543420800000,0.464],[1543507200000,0.4714],[1543766400000,0.4882],[1543852800000,0.491],[1543939200000,0.4881],[1544025600000,0.4733],[1544112000000,0.473],[1544371200000,0.4672],[1544457600000,0.4723],[1544544000000,0.4731],[1544630400000,0.4789],[1544716800000,0.4642],[1544976000000,0.4603],[1545062400000,0.457],[1545148800000,0.4478],[1545235200000,0.4493],[1545321600000,0.4466],[1545580800000,0.452],[1545667200000,0.447],[1545753600000,0.4414],[1545840000000,0.4363],[1545926400000,0.4369],[1546185600000,0.4369],[1546358400000,0.4289],[1546444800000,0.4234],[1546531200000,0.4359],[1546790400000,0.4428],[1546876800000,0.4415],[1546963200000,0.4407],[1547049600000,0.438],[1547136000000,0.4386],[1547395200000,0.4328],[1547481600000,0.4425],[1547568000000,0.4422],[1547654400000,0.4366],[1547740800000,0.4442],[1548000000000,0.4477],[1548086400000,0.4394],[1548172800000,0.4382],[1548259200000,0.4436],[1548345600000,0.445],[1548604800000,0.4427],[1548691200000,0.4368],[1548777600000,0.4307],[1548864000000,0.4309],[1548950400000,0.4478],[1549814400000,0.462],[1549900800000,0.4673],[1549987200000,0.4774],[1550073600000,0.4807],[1550160000000,0.4751],[1550419200000,0.4966],[1550505600000,0.4935],[1550592000000,0.4919],[1550678400000,0.4939],[1550764800000,0.5134],[1551024000000,0.5483],[1551110400000,0.5503],[1551196800000,0.5408],[1551283200000,0.5488],[1551369600000,0.5618],[1551628800000,0.5757],[1551715200000,0.5927],[1551801600000,0.6019],[1551888000000,0.5992],[1551974400000,0.5803],[1552233600000,0.6041],[1552320000000,0.6124],[1552406400000,0.5897],[1552492800000,0.5823],[1552579200000,0.5834],[1552838400000,0.5971],[1552924800000,0.5968],[1553011200000,0.5946],[1553097600000,0.5993],[1553184000000,0.5951],[1553443200000,0.5847],[1553529600000,0.5689],[1553616000000,0.5717],[1553702400000,0.5655],[1553788800000,0.5891],[1554048000000,0.612],[1554134400000,0.6099],[1554220800000,0.6163],[1554307200000,0.6151],[1554652800000,0.6036],[1554739200000,0.6067],[1554825600000,0.6001],[1554912000000,0.5864],[1554998400000,0.5886],[1555257600000,0.5777],[1555344000000,0.5951],[1555430400000,0.5981],[1555516800000,0.5936],[1555603200000,0.5979],[1555862400000,0.5872],[1555948800000,0.5809],[1556035200000,0.5919],[1556121600000,0.5717],[1556208000000,0.5706],[1556467200000,0.5564],[1556553600000,0.5542],[1557072000000,0.5119],[1557158400000,0.5171],[1557244800000,0.5124],[1557331200000,0.5059],[1557417600000,0.5291],[1557676800000,0.5191],[1557763200000,0.5178],[1557849600000,0.5297],[1557936000000,0.5306],[1558022400000,0.5104],[1558281600000,0.5104],[1558368000000,0.5176],[1558454400000,0.5152],[1558540800000,0.5021],[1558627200000,0.5013],[1558886400000,0.5156],[1558972800000,0.5178],[1559059200000,0.514],[1559145600000,0.5071],[1559232000000,0.5067],[1559491200000,0.501],[1559577600000,0.4967],[1559664000000,0.4959],[1559750400000,0.4859],[1560096000000,0.4906],[1560182400000,0.5106],[1560268800000,0.5051],[1560355200000,0.5063],[1560441600000,0.4988],[1560700800000,0.4975],[1560787200000,0.5004],[1560873600000,0.5068],[1560960000000,0.5188],[1561046400000,0.5299],[1561305600000,0.527],[1561392000000,0.5236],[1561478400000,0.5262],[1561564800000,0.5328],[1561651200000,0.5284],[1561824000000,0.5284],[1561910400000,0.5492],[1561996800000,0.5497],[1562083200000,0.543],[1562169600000,0.5384],[1562256000000,0.5407],[1562515200000,0.5232],[1562601600000,0.5265],[1562688000000,0.5244],[1562774400000,0.5246],[1562860800000,0.5263],[1563120000000,0.5348],[1563206400000,0.5348],[1563292800000,0.5373],[1563379200000,0.5286],[1563465600000,0.5339],[1563724800000,0.5243],[1563811200000,0.532],[1563897600000,0.5393],[1563984000000,0.5438],[1564070400000,0.5448],[1564329600000,0.5434],[1564416000000,0.5501],[1564502400000,0.5461],[1564588800000,0.545],[1564675200000,0.5378],[1564934400000,0.5262],[1565020800000,0.5182],[1565107200000,0.5157],[1565193600000,0.5238],[1565280000000,0.5205],[1565539200000,0.5322],[1565625600000,0.5283],[1565712000000,0.5334],[1565798400000,0.5406],[1565884800000,0.5441],[1566144000000,0.5684],[1566230400000,0.564],[1566316800000,0.5616],[1566403200000,0.5629],[1566489600000,0.5647],[1566748800000,0.5584],[1566835200000,0.5663],[1566921600000,0.5635],[1567008000000,0.5617],[1567094400000,0.56],[1567353600000,0.5785],[1567440000000,0.5815],[1567526400000,0.5846],[1567612800000,0.5934],[1567699200000,0.5985],[1567958400000,0.6176],[1568044800000,0.6138],[1568131200000,0.6061],[1568217600000,0.6095],[1568563200000,0.6093],[1568649600000,0.594],[1568736000000,0.5941],[1568822400000,0.6027],[1568908800000,0.6017],[1569168000000,0.5933],[1569254400000,0.5999],[1569340800000,0.5912],[1569427200000,0.5769],[1569513600000,0.5834],[1569772800000,0.5741],[1570464000000,0.5678],[1570550400000,0.5701],[1570636800000,0.5863],[1570723200000,0.5889],[1570982400000,0.5949],[1571068800000,0.5857],[1571155200000,0.584],[1571241600000,0.5847],[1571328000000,0.5809],[1571587200000,0.5776],[1571673600000,0.5855],[1571760000000,0.5786],[1571846400000,0.5789],[1571932800000,0.5864],[1572192000000,0.5977],[1572278400000,0.5899],[1572364800000,0.59],[1572451200000,0.5871],[1572537600000,0.5958],[1572796800000,0.5996],[1572883200000,0.6059],[1572969600000,0.604],[1573056000000,0.6072],[1573142400000,0.6079],[1573401600000,0.5942],[1573488000000,0.5921],[1573574400000,0.5975],[1573660800000,0.6022],[1573747200000,0.5968],[1574006400000,0.6008],[1574092800000,0.6209],[1574179200000,0.6177],[1574265600000,0.6143],[1574352000000,0.6035],[1574611200000,0.5981],[1574697600000,0.605],[1574784000000,0.6035],[1574870400000,0.6025],[1574956800000,0.5985],[1575216000000,0.5998],[1575302400000,0.603],[1575388800000,0.6035],[1575475200000,0.6188],[1575561600000,0.6248],[1575820800000,0.6217],[1575907200000,0.6306],[1575993600000,0.6239],[1576080000000,0.6242],[1576166400000,0.6397],[1576425600000,0.6495],[1576512000000,0.6579],[1576598400000,0.6551],[1576684800000,0.6538],[1576771200000,0.6453],[1577030400000,0.6337],[1577116800000,0.6491],[1577203200000,0.6557],[1577289600000,0.6598],[1577376000000,0.6473],[1577635200000,0.6585],[1577721600000,0.6605],[1577894400000,0.6716],[1577980800000,0.6721],[1578240000000,0.6788],[1578326400000,0.6863],[1578412800000,0.6764],[1578499200000,0.6968],[1578585600000,0.6946],[1578844800000,0.7052],[1578931200000,0.7017],[1579017600000,0.7017],[1579104000000,0.7037],[1579190400000,0.704],[1579449600000,0.7242],[1579536000000,0.7173],[1579622400000,0.7337],[1579708800000,0.7099],[1580659200000,0.6643],[1580745600000,0.6994],[1580832000000,0.7234],[1580918400000,0.7505],[1581004800000,0.747],[1581264000000,0.7597],[1581350400000,0.7534],[1581436800000,0.7763],[1581523200000,0.7691],[1581609600000,0.7699],[1581868800000,0.7981],[1581955200000,0.8067],[1582041600000,0.7887],[1582128000000,0.8087],[1582214400000,0.8277],[1582473600000,0.8424],[1582560000000,0.856],[1582646400000,0.8113],[1582732800000,0.8152],[1582819200000,0.7673],[1583078400000,0.7916],[1583164800000,0.8082],[1583251200000,0.8056],[1583337600000,0.8164],[1583424000000,0.8108],[1583683200000,0.7728],[1583769600000,0.7976],[1583856000000,0.7796],[1583942400000,0.76],[1584028800000,0.7565],[1584288000000,0.7091],[1584374400000,0.7129],[1584460800000,0.6978],[1584547200000,0.7003],[1584633600000,0.7081],[1584892800000,0.6749],[1584979200000,0.692],[1585065600000,0.7191],[1585152000000,0.7173],[1585238400000,0.7088],[1585497600000,0.6914],[1585584000000,0.6921],[1585670400000,0.6909],[1585756800000,0.7119],[1585843200000,0.7061],[1586188800000,0.7299],[1586275200000,0.7284],[1586361600000,0.7414],[1586448000000,0.7215],[1586707200000,0.7144],[1586793600000,0.7407],[1586880000000,0.7381],[1586966400000,0.7499],[1587052800000,0.7553],[1587312000000,0.7642],[1587398400000,0.7564],[1587484800000,0.7624],[1587571200000,0.7575],[1587657600000,0.7467],[1587916800000,0.756],[1588003200000,0.7655],[1588089600000,0.764],[1588176000000,0.779],[1588694400000,0.7967],[1588780800000,0.7932],[1588867200000,0.799],[1589126400000,0.7894],[1589212800000,0.796],[1589299200000,0.8039],[1589385600000,0.7971],[1589472000000,0.8015],[1589731200000,0.7936],[1589817600000,0.8049],[1589904000000,0.7961],[1589990400000,0.7917],[1590076800000,0.7701],[1590336000000,0.7741],[1590422400000,0.7973],[1590508800000,0.7831],[1590595200000,0.7781],[1590681600000,0.7862],[1590940800000,0.8153],[1591027200000,0.8105],[1591113600000,0.8089],[1591200000000,0.8119],[1591286400000,0.8188],[1591545600000,0.814],[1591632000000,0.8261],[1591718400000,0.8362],[1591804800000,0.8391],[1591891200000,0.8454],[1592150400000,0.8487],[1592236800000,0.8643],[1592323200000,0.8639],[1592409600000,0.8676],[1592496000000,0.893],[1592755200000,0.9052],[1592841600000,0.9211],[1592928000000,0.9186],[1593360000000,0.9126],[1593446400000,0.9401],[1593532800000,0.9332],[1593619200000,0.9376],[1593705600000,0.9513],[1593964800000,0.9799],[1594051200000,1.0049],[1594137600000,1.034],[1594224000000,1.0745],[1594310400000,1.0839],[1594569600000,1.1331],[1594656000000,1.1228],[1594742400000,1.1033],[1594828800000,1.0394],[1594915200000,1.0432],[1595174400000,1.0603],[1595260800000,1.0792],[1595347200000,1.0929],[1595433600000,1.1122],[1595520000000,1.0386],[1595779200000,1.0417],[1595865600000,1.0543],[1595952000000,1.1004],[1596038400000,1.0923],[1596124800000,1.1196],[1596384000000,1.1507],[1596470400000,1.1326],[1596556800000,1.146],[1596643200000,1.1228],[1596729600000,1.0968],[1596988800000,1.086],[1597075200000,1.0667],[1597161600000,1.0464],[1597248000000,1.0396],[1597334400000,1.0602],[1597593600000,1.0706],[1597680000000,1.0707],[1597766400000,1.029],[1597852800000,1.0224],[1597939200000,1.0421],[1598198400000,1.0613],[1598284800000,1.0709],[1598371200000,1.0462],[1598457600000,1.0667],[1598544000000,1.0927],[1598803200000,1.0791],[1598889600000,1.0882],[1598976000000,1.0941],[1599062400000,1.0854],[1599148800000,1.0803],[1599408000000,1.0421],[1599494400000,1.0474],[1599580800000,0.9937],[1599667200000,0.9804],[1599753600000,1.0026],[1600012800000,1.0183],[1600099200000,1.0281],[1600185600000,1.0123],[1600272000000,1.0158],[1600358400000,1.0319],[1600617600000,1.021],[1600704000000,1.0191],[1600790400000,1.0377],[1600876800000,1.0129],[1600963200000,1.0156],[1601222400000,1.0106],[1601308800000,1.0263],[1601395200000,1.0327],[1602172800000,1.079],[1602432000000,1.1225],[1602518400000,1.1234],[1602604800000,1.1175],[1602691200000,1.1081],[1602777600000,1.1015],[1603036800000,1.0878],[1603123200000,1.1137],[1603209600000,1.097],[1603296000000,1.0855],[1603382400000,1.0518],[1603641600000,1.059],[1603728000000,1.0741],[1603814400000,1.0857],[1603900800000,1.0995],[1603987200000,1.084],[1604246400000,1.1091],[1604332800000,1.124],[1604419200000,1.1309],[1604505600000,1.1473],[1604592000000,1.1276],[1604851200000,1.1659],[1604937600000,1.1455],[1605024000000,1.105],[1605110400000,1.1134],[1605196800000,1.1139],[1605456000000,1.1159],[1605542400000,1.0906],[1605628800000,1.0732],[1605715200000,1.0799],[1605801600000,1.091],[1606060800000,1.1043],[1606147200000,1.0988],[1606233600000,1.0716],[1606320000000,1.0686],[1606406400000,1.0727],[1606665600000,1.0812],[1606752000000,1.1102],[1606838400000,1.1003],[1606924800000,1.1128],[1607011200000,1.121],[1607270400000,1.116],[1607356800000,1.1271],[1607443200000,1.1078],[1607529600000,1.1167],[1607616000000,1.1078],[1607875200000,1.1197],[1607961600000,1.1394],[1608048000000,1.1417],[1608134400000,1.1525],[1608220800000,1.1554],[1608480000000,1.2029],[1608566400000,1.1738],[1608652800000,1.1874],[1608739200000,1.1795],[1608825600000,1.1899],[1609084800000,1.1894],[1609171200000,1.1734],[1609257600000,1.2166],[1609344000000,1.2467],[1609689600000,1.2949],[1609776000000,1.3009],[1609862400000,1.3144],[1609948800000,1.3369],[1610035200000,1.332],[1610294400000,1.3061],[1610380800000,1.3516],[1610467200000,1.3337],[1610553600000,1.3114],[1610640000000,1.3122],[1610899200000,1.3411],[1610985600000,1.31],[1611072000000,1.3664],[1611158400000,1.4022],[1611244800000,1.4349],[1611504000000,1.4313],[1611590400000,1.3859],[1611676800000,1.4012],[1611763200000,1.3475],[1611849600000,1.3289],[1612108800000,1.3445],[1612195200000,1.3793],[1612281600000,1.3826],[1612368000000,1.3779],[1612454400000,1.3769],[1612713600000,1.4179],[1612800000000,1.4416],[1612886400000,1.4782],[1613577600000,1.4315],[1613664000000,1.4084],[1613923200000,1.3398],[1614009600000,1.3328],[1614096000000,1.2804],[1614182400000,1.2676],[1614268800000,1.2399],[1614528000000,1.2799],[1614614400000,1.2668],[1614700800000,1.2781],[1614787200000,1.2065],[1614873600000,1.2152],[1615132800000,1.1508],[1615219200000,1.109],[1615305600000,1.1353],[1615392000000,1.1693],[1615478400000,1.1785],[1615737600000,1.1214],[1615824000000,1.1327],[1615910400000,1.1464],[1615996800000,1.1669],[1616083200000,1.1281],[1616342400000,1.1386],[1616428800000,1.124],[1616515200000,1.1093],[1616601600000,1.1149],[1616688000000,1.1564],[1616947200000,1.1506],[1617033600000,1.1691],[1617120000000,1.1651],[1617206400000,1.1905],[1617292800000,1.2065],[1617638400000,1.1976],[1617724800000,1.1844],[1617811200000,1.1923],[1617897600000,1.171],[1618156800000,1.1433],[1618243200000,1.156],[1618329600000,1.1874],[1618416000000,1.1809],[1618502400000,1.1755],[1618761600000,1.2309],[1618848000000,1.2277],[1618934400000,1.2378],[1619020800000,1.2484],[1619107200000,1.2814],[1619366400000,1.2699],[1619452800000,1.2789],[1619539200000,1.312],[1619625600000,1.3142],[1619712000000,1.3372],[1620230400000,1.3004],[1620316800000,1.2505],[1620576000000,1.2577],[1620662400000,1.255],[1620748800000,1.2717],[1620835200000,1.2641],[1620921600000,1.3072],[1621180800000,1.3478],[1621267200000,1.3362],[1621353600000,1.3504],[1621440000000,1.3599],[1621526400000,1.3461],[1621785600000,1.3574],[1621872000000,1.3989],[1621958400000,1.3845],[1622044800000,1.3956],[1622131200000,1.4047],[1622390400000,1.4451],[1622476800000,1.4391],[1622563200000,1.4122],[1622649600000,1.3907],[1622736000000,1.4104],[1622995200000,1.399],[1623081600000,1.3903],[1623168000000,1.3885],[1623254400000,1.4284],[1623340800000,1.4386],[1623686400000,1.4241],[1623772800000,1.3585],[1623859200000,1.3878],[1623945600000,1.4161],[1624204800000,1.4305],[1624291200000,1.4361],[1624377600000,1.4539],[1624464000000,1.435],[1624550400000,1.4706],[1624809600000,1.5034],[1624896000000,1.5028],[1624982400000,1.5392],[1625068800000,1.5319],[1625155200000,1.4784],[1625414400000,1.4865],[1625500800000,1.4571],[1625587200000,1.5156],[1625673600000,1.5285],[1625760000000,1.5171],[1626019200000,1.572],[1626105600000,1.5593],[1626192000000,1.5488],[1626278400000,1.5729],[1626364800000,1.5205]]</t>
+  </si>
+  <si>
+    <t>003095</t>
+  </si>
+  <si>
+    <t>中欧医疗健康混合A</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [[1475078400000,1.0],[1475164800000,1.0],[1476374400000,1.002],[1476979200000,0.997],[1477584000000,0.991],[1477843200000,0.993],[1477929600000,0.995],[1478016000000,0.993],[1478102400000,0.991],[1478188800000,0.99],[1478448000000,0.989],[1478534400000,0.99],[1478620800000,0.983],[1478707200000,0.988],[1478793600000,0.985],[1479052800000,0.984],[1479139200000,0.985],[1479225600000,0.983],[1479312000000,0.982],[1479398400000,0.978],[1479657600000,0.981],[1479744000000,0.988],[1479830400000,0.985],[1479916800000,0.99],[1480003200000,0.994],[1480262400000,0.995],[1480348800000,0.988],[1480435200000,0.978],[1480521600000,0.98],[1480608000000,0.966],[1480867200000,0.962],[1480953600000,0.96],[1481040000000,0.968],[1481126400000,0.965],[1481212800000,0.968],[1481472000000,0.946],[1481558400000,0.943],[1481644800000,0.939],[1481731200000,0.928],[1481817600000,0.928],[1482076800000,0.931],[1482163200000,0.93],[1482249600000,0.932],[1482336000000,0.933],[1482422400000,0.928],[1482681600000,0.929],[1482768000000,0.929],[1482854400000,0.924],[1482940800000,0.918],[1483027200000,0.927],[1483113600000,0.927],[1483372800000,0.934],[1483459200000,0.938],[1483545600000,0.94],[1483632000000,0.932],[1483891200000,0.935],[1483977600000,0.933],[1484064000000,0.928],[1484150400000,0.92],[1484236800000,0.914],[1484496000000,0.912],[1484582400000,0.918],[1484668800000,0.92],[1484755200000,0.915],[1484841600000,0.924],[1485100800000,0.928],[1485187200000,0.925],[1485273600000,0.932],[1485360000000,0.936],[1486051200000,0.936],[1486310400000,0.937],[1486396800000,0.941],[1486483200000,0.941],[1486569600000,0.939],[1486656000000,0.938],[1486915200000,0.948],[1487001600000,0.943],[1487088000000,0.931],[1487174400000,0.941],[1487260800000,0.932],[1487520000000,0.944],[1487606400000,0.956],[1487692800000,0.96],[1487779200000,0.979],[1487865600000,0.974],[1488124800000,0.969],[1488211200000,0.972],[1488297600000,0.97],[1488384000000,0.969],[1488470400000,0.968],[1488729600000,0.973],[1488816000000,0.974],[1488902400000,0.973],[1488988800000,0.966],[1489075200000,0.972],[1489334400000,0.982],[1489420800000,0.98],[1489507200000,0.987],[1489593600000,0.989],[1489680000000,0.982],[1489939200000,0.986],[1490025600000,0.996],[1490112000000,1.008],[1490198400000,1.008],[1490284800000,1.005],[1490544000000,0.995],[1490630400000,0.998],[1490716800000,0.99],[1490803200000,0.986],[1490889600000,1.002],[1491321600000,1.019],[1491408000000,1.02],[1491494400000,1.014],[1491753600000,0.998],[1491840000000,0.991],[1491926400000,0.994],[1492012800000,1.008],[1492099200000,0.997],[1492358400000,0.999],[1492444800000,1.008],[1492531200000,1.006],[1492617600000,1.028],[1492704000000,1.016],[1492963200000,0.995],[1493049600000,0.998],[1493136000000,1.003],[1493222400000,1.014],[1493308800000,1.002],[1493654400000,1.004],[1493740800000,1.001],[1493827200000,0.996],[1493913600000,0.992],[1494172800000,0.981],[1494259200000,0.982],[1494345600000,0.985],[1494432000000,0.994],[1494518400000,1.001],[1494777600000,1.022],[1494864000000,1.041],[1494950400000,1.027],[1495036800000,1.027],[1495123200000,1.032],[1495382400000,1.036],[1495468800000,1.042],[1495555200000,1.038],[1495641600000,1.036],[1495728000000,1.026],[1496160000000,1.029],[1496246400000,1.036],[1496332800000,1.026],[1496592000000,1.017],[1496678400000,1.032],[1496764800000,1.052],[1496851200000,1.068],[1496937600000,1.075],[1497196800000,1.083],[1497283200000,1.086],[1497369600000,1.066],[1497456000000,1.059],[1497542400000,1.054],[1497801600000,1.067],[1497888000000,1.059],[1497974400000,1.081],[1498060800000,1.065],[1498147200000,1.078],[1498406400000,1.098],[1498492800000,1.102],[1498579200000,1.084],[1498665600000,1.09],[1498752000000,1.096],[1499011200000,1.082],[1499097600000,1.071],[1499184000000,1.086],[1499270400000,1.074],[1499356800000,1.061],[1499616000000,1.05],[1499702400000,1.054],[1499788800000,1.049],[1499875200000,1.041],[1499961600000,1.044],[1500220800000,1.029],[1500307200000,1.021],[1500393600000,1.035],[1500480000000,1.041],[1500566400000,1.035],[1500825600000,1.036],[1500912000000,1.03],[1500998400000,1.018],[1501084800000,1.018],[1501171200000,1.026],[1501430400000,1.024],[1501516800000,1.022],[1501603200000,1.016],[1501689600000,1.005],[1501776000000,1.003],[1502035200000,1.012],[1502121600000,1.018],[1502208000000,1.036],[1502294400000,1.038],[1502380800000,1.033],[1502640000000,1.046],[1502726400000,1.039],[1502812800000,1.036],[1502899200000,1.031],[1502985600000,1.035],[1503244800000,1.043],[1503331200000,1.037],[1503417600000,1.034],[1503504000000,1.025],[1503590400000,1.026],[1503849600000,1.03],[1503936000000,1.026],[1504022400000,1.033],[1504108800000,1.03],[1504195200000,1.04],[1504454400000,1.047],[1504540800000,1.049],[1504627200000,1.041],[1504713600000,1.043],[1504800000000,1.047],[1505059200000,1.051],[1505145600000,1.048],[1505232000000,1.058],[1505318400000,1.054],[1505404800000,1.052],[1505664000000,1.058],[1505750400000,1.051],[1505836800000,1.063],[1505923200000,1.057],[1506009600000,1.059],[1506268800000,1.068],[1506355200000,1.064],[1506441600000,1.066],[1506528000000,1.081],[1506614400000,1.08],[1507478400000,1.096],[1507564800000,1.111],[1507651200000,1.13],[1507737600000,1.137],[1507824000000,1.145],[1508083200000,1.14],[1508169600000,1.143],[1508256000000,1.154],[1508342400000,1.166],[1508428800000,1.16],[1508688000000,1.179],[1508774400000,1.183],[1508860800000,1.2],[1508947200000,1.193],[1509033600000,1.204],[1509292800000,1.191],[1509379200000,1.189],[1509465600000,1.188],[1509552000000,1.196],[1509638400000,1.208],[1509897600000,1.246],[1509984000000,1.24],[1510070400000,1.223],[1510156800000,1.231],[1510243200000,1.243],[1510502400000,1.248],[1510588800000,1.216],[1510675200000,1.208],[1510761600000,1.236],[1510848000000,1.202],[1511107200000,1.222],[1511193600000,1.218],[1511280000000,1.199],[1511366400000,1.146],[1511452800000,1.148],[1511712000000,1.129],[1511798400000,1.146],[1511884800000,1.136],[1511971200000,1.135],[1512057600000,1.141],[1512316800000,1.157],[1512403200000,1.144],[1512489600000,1.15],[1512576000000,1.146],[1512662400000,1.163],[1512921600000,1.212],[1513008000000,1.212],[1513094400000,1.218],[1513180800000,1.224],[1513267200000,1.207],[1513526400000,1.208],[1513612800000,1.222],[1513699200000,1.231],[1513785600000,1.254],[1513872000000,1.245],[1514131200000,1.243],[1514217600000,1.236],[1514304000000,1.212],[1514390400000,1.227],[1514476800000,1.24],[1514649600000,1.24],[1514822400000,1.235],[1514908800000,1.24],[1514995200000,1.252],[1515081600000,1.25],[1515340800000,1.252],[1515427200000,1.279],[1515513600000,1.277],[1515600000000,1.275],[1515686400000,1.293],[1515945600000,1.283],[1516032000000,1.297],[1516118400000,1.277],[1516204800000,1.269],[1516291200000,1.266],[1516550400000,1.288],[1516636800000,1.291],[1516723200000,1.295],[1516809600000,1.269],[1516896000000,1.27],[1517155200000,1.221],[1517241600000,1.217],[1517328000000,1.222],[1517414400000,1.198],[1517500800000,1.201],[1517760000000,1.174],[1517846400000,1.129],[1517932800000,1.118],[1518019200000,1.133],[1518105600000,1.104],[1518364800000,1.155],[1518451200000,1.168],[1518537600000,1.181],[1519228800000,1.209],[1519315200000,1.201],[1519574400000,1.22],[1519660800000,1.212],[1519747200000,1.202],[1519833600000,1.22],[1519920000000,1.211],[1520179200000,1.22],[1520265600000,1.248],[1520352000000,1.246],[1520438400000,1.286],[1520524800000,1.293],[1520784000000,1.304],[1520870400000,1.282],[1520956800000,1.268],[1521043200000,1.283],[1521129600000,1.273],[1521388800000,1.317],[1521475200000,1.346],[1521561600000,1.339],[1521648000000,1.329],[1521734400000,1.303],[1521993600000,1.349],[1522080000000,1.367],[1522166400000,1.339],[1522252800000,1.317],[1522339200000,1.365],[1522598400000,1.364],[1522684800000,1.362],[1522771200000,1.346],[1523203200000,1.348],[1523289600000,1.366],[1523376000000,1.366],[1523462400000,1.394],[1523548800000,1.359],[1523808000000,1.381],[1523894400000,1.338],[1523980800000,1.351],[1524067200000,1.366],[1524153600000,1.369],[1524412800000,1.367],[1524499200000,1.387],[1524585600000,1.442],[1524672000000,1.413],[1524758400000,1.453],[1525190400000,1.462],[1525276800000,1.452],[1525363200000,1.48],[1525622400000,1.511],[1525708800000,1.493],[1525795200000,1.495],[1525881600000,1.542],[1525968000000,1.492],[1526227200000,1.492],[1526313600000,1.535],[1526400000000,1.548],[1526486400000,1.52],[1526572800000,1.527],[1526832000000,1.526],[1526918400000,1.56],[1527004800000,1.557],[1527091200000,1.569],[1527177600000,1.597],[1527436800000,1.614],[1527523200000,1.531],[1527609600000,1.522],[1527696000000,1.566],[1527782400000,1.492],[1528041600000,1.495],[1528128000000,1.551],[1528214400000,1.584],[1528300800000,1.563],[1528387200000,1.564],[1528646400000,1.513],[1528732800000,1.551],[1528819200000,1.529],[1528905600000,1.515],[1528992000000,1.49],[1529337600000,1.463],[1529424000000,1.518],[1529510400000,1.518],[1529596800000,1.53],[1529856000000,1.541],[1529942400000,1.536],[1530028800000,1.483],[1530115200000,1.468],[1530201600000,1.532],[1530288000000,1.532],[1530460800000,1.548],[1530547200000,1.528],[1530633600000,1.501],[1530720000000,1.464],[1530806400000,1.464],[1531065600000,1.517],[1531152000000,1.529],[1531238400000,1.534],[1531324800000,1.582],[1531411200000,1.61],[1531670400000,1.627],[1531756800000,1.608],[1531843200000,1.609],[1531929600000,1.556],[1532016000000,1.552],[1532275200000,1.445],[1532361600000,1.439],[1532448000000,1.476],[1532534400000,1.46],[1532620800000,1.44],[1532880000000,1.387],[1532966400000,1.397],[1533052800000,1.37],[1533139200000,1.379],[1533225600000,1.333],[1533484800000,1.27],[1533571200000,1.307],[1533657600000,1.281],[1533744000000,1.337],[1533830400000,1.372],[1534089600000,1.397],[1534176000000,1.392],[1534262400000,1.341],[1534348800000,1.343],[1534435200000,1.283],[1534694400000,1.262],[1534780800000,1.33],[1534867200000,1.33],[1534953600000,1.346],[1535040000000,1.356],[1535299200000,1.398],[1535385600000,1.389],[1535472000000,1.375],[1535558400000,1.359],[1535644800000,1.327],[1535904000000,1.322],[1535990400000,1.323],[1536076800000,1.304],[1536163200000,1.292],[1536249600000,1.322],[1536508800000,1.298],[1536595200000,1.308],[1536681600000,1.263],[1536768000000,1.245],[1536854400000,1.227],[1537113600000,1.208],[1537200000000,1.239],[1537286400000,1.256],[1537372800000,1.249],[1537459200000,1.278],[1537804800000,1.285],[1537891200000,1.311],[1537977600000,1.319],[1538064000000,1.336],[1538928000000,1.27],[1539014400000,1.255],[1539100800000,1.229],[1539187200000,1.168],[1539273600000,1.174],[1539532800000,1.162],[1539619200000,1.144],[1539705600000,1.13],[1539792000000,1.083],[1539878400000,1.135],[1540137600000,1.195],[1540224000000,1.17],[1540310400000,1.142],[1540396800000,1.129],[1540483200000,1.109],[1540742400000,1.086],[1540828800000,1.102],[1540915200000,1.135],[1541001600000,1.142],[1541088000000,1.203],[1541347200000,1.189],[1541433600000,1.197],[1541520000000,1.193],[1541606400000,1.195],[1541692800000,1.183],[1541952000000,1.204],[1542038400000,1.222],[1542124800000,1.211],[1542211200000,1.222],[1542297600000,1.199],[1542556800000,1.199],[1542643200000,1.181],[1542729600000,1.204],[1542816000000,1.201],[1542902400000,1.177],[1543161600000,1.175],[1543248000000,1.174],[1543334400000,1.187],[1543420800000,1.174],[1543507200000,1.187],[1543766400000,1.226],[1543852800000,1.243],[1543939200000,1.257],[1544025600000,1.207],[1544112000000,1.167],[1544371200000,1.15],[1544457600000,1.165],[1544544000000,1.147],[1544630400000,1.163],[1544716800000,1.129],[1544976000000,1.109],[1545062400000,1.104],[1545148800000,1.072],[1545235200000,1.061],[1545321600000,1.043],[1545580800000,1.065],[1545667200000,1.073],[1545753600000,1.066],[1545840000000,1.06],[1545926400000,1.064],[1546185600000,1.064],[1546358400000,1.03],[1546444800000,1.018],[1546531200000,1.041],[1546790400000,1.045],[1546876800000,1.046],[1546963200000,1.051],[1547049600000,1.045],[1547136000000,1.046],[1547395200000,1.033],[1547481600000,1.048],[1547568000000,1.062],[1547654400000,1.055],[1547740800000,1.077],[1548000000000,1.09],[1548086400000,1.073],[1548172800000,1.075],[1548259200000,1.076],[1548345600000,1.086],[1548604800000,1.086],[1548691200000,1.084],[1548777600000,1.072],[1548864000000,1.079],[1548950400000,1.11],[1549814400000,1.129],[1549900800000,1.139],[1549987200000,1.154],[1550073600000,1.157],[1550160000000,1.147],[1550419200000,1.195],[1550505600000,1.181],[1550592000000,1.169],[1550678400000,1.166],[1550764800000,1.181],[1551024000000,1.22],[1551110400000,1.228],[1551196800000,1.217],[1551283200000,1.255],[1551369600000,1.262],[1551628800000,1.282],[1551715200000,1.287],[1551801600000,1.279],[1551888000000,1.256],[1551974400000,1.248],[1552233600000,1.306],[1552320000000,1.308],[1552406400000,1.314],[1552492800000,1.307],[1552579200000,1.343],[1552838400000,1.399],[1552924800000,1.375],[1553011200000,1.366],[1553097600000,1.361],[1553184000000,1.367],[1553443200000,1.349],[1553529600000,1.335],[1553616000000,1.374],[1553702400000,1.368],[1553788800000,1.414],[1554048000000,1.434],[1554134400000,1.407],[1554220800000,1.404],[1554307200000,1.398],[1554652800000,1.376],[1554739200000,1.398],[1554825600000,1.414],[1554912000000,1.369],[1554998400000,1.367],[1555257600000,1.354],[1555344000000,1.37],[1555430400000,1.372],[1555516800000,1.368],[1555603200000,1.373],[1555862400000,1.37],[1555948800000,1.37],[1556035200000,1.378],[1556121600000,1.38],[1556208000000,1.381],[1556467200000,1.405],[1556553600000,1.399],[1557072000000,1.334],[1557158400000,1.377],[1557244800000,1.354],[1557331200000,1.32],[1557417600000,1.365],[1557676800000,1.375],[1557763200000,1.368],[1557849600000,1.405],[1557936000000,1.418],[1558022400000,1.388],[1558281600000,1.363],[1558368000000,1.38],[1558454400000,1.379],[1558540800000,1.348],[1558627200000,1.348],[1558886400000,1.363],[1558972800000,1.384],[1559059200000,1.378],[1559145600000,1.385],[1559232000000,1.399],[1559491200000,1.39],[1559577600000,1.364],[1559664000000,1.339],[1559750400000,1.33],[1560096000000,1.35],[1560182400000,1.391],[1560268800000,1.39],[1560355200000,1.406],[1560441600000,1.403],[1560700800000,1.391],[1560787200000,1.405],[1560873600000,1.417],[1560960000000,1.45],[1561046400000,1.45],[1561305600000,1.457],[1561392000000,1.455],[1561478400000,1.502],[1561564800000,1.517],[1561651200000,1.508],[1561824000000,1.508],[1561910400000,1.54],[1561996800000,1.559],[1562083200000,1.525],[1562169600000,1.494],[1562256000000,1.522],[1562515200000,1.489],[1562601600000,1.495],[1562688000000,1.497],[1562774400000,1.496],[1562860800000,1.498],[1563120000000,1.484],[1563206400000,1.463],[1563292800000,1.455],[1563379200000,1.435],[1563465600000,1.441],[1563724800000,1.441],[1563811200000,1.441],[1563897600000,1.451],[1563984000000,1.449],[1564070400000,1.478],[1564329600000,1.465],[1564416000000,1.466],[1564502400000,1.458],[1564588800000,1.452],[1564675200000,1.464],[1564934400000,1.438],[1565020800000,1.441],[1565107200000,1.466],[1565193600000,1.495],[1565280000000,1.493],[1565539200000,1.508],[1565625600000,1.509],[1565712000000,1.541],[1565798400000,1.541],[1565884800000,1.552],[1566144000000,1.563],[1566230400000,1.566],[1566316800000,1.55],[1566403200000,1.564],[1566489600000,1.612],[1566748800000,1.61],[1566835200000,1.616],[1566921600000,1.61],[1567008000000,1.606],[1567094400000,1.616],[1567353600000,1.644],[1567440000000,1.636],[1567526400000,1.634],[1567612800000,1.623],[1567699200000,1.633],[1567958400000,1.638],[1568044800000,1.652],[1568131200000,1.618],[1568217600000,1.624],[1568563200000,1.624],[1568649600000,1.618],[1568736000000,1.651],[1568822400000,1.67],[1568908800000,1.683],[1569168000000,1.667],[1569254400000,1.707],[1569340800000,1.711],[1569427200000,1.698],[1569513600000,1.702],[1569772800000,1.712],[1570464000000,1.727],[1570550400000,1.72],[1570636800000,1.79],[1570723200000,1.797],[1570982400000,1.796],[1571068800000,1.797],[1571155200000,1.831],[1571241600000,1.834],[1571328000000,1.831],[1571587200000,1.789],[1571673600000,1.812],[1571760000000,1.78],[1571846400000,1.779],[1571932800000,1.798],[1572192000000,1.826],[1572278400000,1.845],[1572364800000,1.833],[1572451200000,1.856],[1572537600000,1.888],[1572796800000,1.914],[1572883200000,1.904],[1572969600000,1.894],[1573056000000,1.907],[1573142400000,1.896],[1573401600000,1.857],[1573488000000,1.875],[1573574400000,1.928],[1573660800000,1.954],[1573747200000,1.935],[1574006400000,1.938],[1574092800000,1.985],[1574179200000,1.986],[1574265600000,1.953],[1574352000000,1.863],[1574611200000,1.835],[1574697600000,1.849],[1574784000000,1.837],[1574870400000,1.848],[1574956800000,1.801],[1575216000000,1.782],[1575302400000,1.777],[1575388800000,1.793],[1575475200000,1.815],[1575561600000,1.83],[1575820800000,1.789],[1575907200000,1.807],[1575993600000,1.805],[1576080000000,1.802],[1576166400000,1.84],[1576425600000,1.84],[1576512000000,1.847],[1576598400000,1.814],[1576684800000,1.804],[1576771200000,1.787],[1577030400000,1.781],[1577116800000,1.786],[1577203200000,1.784],[1577289600000,1.79],[1577376000000,1.78],[1577635200000,1.781],[1577721600000,1.808],[1577894400000,1.803],[1577980800000,1.79],[1578240000000,1.775],[1578326400000,1.808],[1578412800000,1.803],[1578499200000,1.865],[1578585600000,1.874],[1578844800000,1.89],[1578931200000,1.87],[1579017600000,1.899],[1579104000000,1.929],[1579190400000,1.953],[1579449600000,1.992],[1579536000000,1.994],[1579622400000,1.995],[1579708800000,1.941],[1580659200000,1.851],[1580745600000,1.923],[1580832000000,1.947],[1580918400000,2.011],[1581004800000,1.99],[1581264000000,1.999],[1581350400000,2.013],[1581436800000,2.048],[1581523200000,2.031],[1581609600000,2.043],[1581868800000,2.094],[1581955200000,2.085],[1582041600000,2.054],[1582128000000,2.079],[1582214400000,2.095],[1582473600000,2.106],[1582560000000,2.125],[1582646400000,2.068],[1582732800000,2.1],[1582819200000,2.048],[1583078400000,2.087],[1583164800000,2.138],[1583251200000,2.148],[1583337600000,2.197],[1583424000000,2.203],[1583683200000,2.163],[1583769600000,2.158],[1583856000000,2.126],[1583942400000,2.058],[1584028800000,2.022],[1584288000000,1.932],[1584374400000,1.93],[1584460800000,1.916],[1584547200000,1.88],[1584633600000,1.94],[1584892800000,1.897],[1584979200000,1.95],[1585065600000,2.023],[1585152000000,2.057],[1585238400000,2.068],[1585497600000,2.031],[1585584000000,2.077],[1585670400000,2.049],[1585756800000,2.073],[1585843200000,2.088],[1586188800000,2.147],[1586275200000,2.135],[1586361600000,2.227],[1586448000000,2.196],[1586707200000,2.211],[1586793600000,2.247],[1586880000000,2.22],[1586966400000,2.238],[1587052800000,2.228],[1587312000000,2.26],[1587398400000,2.246],[1587484800000,2.29],[1587571200000,2.293],[1587657600000,2.251],[1587916800000,2.295],[1588003200000,2.324],[1588089600000,2.294],[1588176000000,2.256],[1588694400000,2.29],[1588780800000,2.304],[1588867200000,2.319],[1589126400000,2.285],[1589212800000,2.354],[1589299200000,2.44],[1589385600000,2.434],[1589472000000,2.412],[1589731200000,2.468],[1589817600000,2.488],[1589904000000,2.445],[1589990400000,2.469],[1590076800000,2.427],[1590336000000,2.461],[1590422400000,2.527],[1590508800000,2.477],[1590595200000,2.457],[1590681600000,2.546],[1590940800000,2.586],[1591027200000,2.532],[1591113600000,2.552],[1591200000000,2.58],[1591286400000,2.622],[1591545600000,2.58],[1591632000000,2.609],[1591718400000,2.675],[1591804800000,2.662],[1591891200000,2.703],[1592150400000,2.732],[1592236800000,2.786],[1592323200000,2.823],[1592409600000,2.75],[1592496000000,2.833],[1592755200000,2.836],[1592841600000,2.918],[1592928000000,2.895],[1593360000000,2.942],[1593446400000,2.98],[1593532800000,2.913],[1593619200000,2.875],[1593705600000,2.914],[1593964800000,2.885],[1594051200000,2.943],[1594137600000,2.946],[1594224000000,3.044],[1594310400000,3.088],[1594569600000,3.182],[1594656000000,3.166],[1594742400000,3.212],[1594828800000,3.022],[1594915200000,3.076],[1595174400000,3.029],[1595260800000,3.152],[1595347200000,3.203],[1595433600000,3.286],[1595520000000,3.094],[1595779200000,3.132],[1595865600000,3.138],[1595952000000,3.229],[1596038400000,3.227],[1596124800000,3.283],[1596384000000,3.347],[1596470400000,3.29],[1596556800000,3.346],[1596643200000,3.263],[1596729600000,3.232],[1596988800000,3.225],[1597075200000,3.184],[1597161600000,3.088],[1597248000000,3.037],[1597334400000,3.049],[1597593600000,3.081],[1597680000000,3.117],[1597766400000,3.029],[1597852800000,3.025],[1597939200000,3.058],[1598198400000,3.058],[1598284800000,3.097],[1598371200000,3.097],[1598457600000,3.147],[1598544000000,3.242],[1598803200000,3.23],[1598889600000,3.227],[1598976000000,3.215],[1599062400000,3.203],[1599148800000,3.139],[1599408000000,3.015],[1599494400000,3.011],[1599580800000,2.891],[1599667200000,2.896],[1599753600000,2.941],[1600012800000,2.905],[1600099200000,2.944],[1600185600000,2.881],[1600272000000,2.837],[1600358400000,2.871],[1600617600000,2.848],[1600704000000,2.86],[1600790400000,2.968],[1600876800000,2.932],[1600963200000,2.958],[1601222400000,2.911],[1601308800000,2.935],[1601395200000,2.987],[1602172800000,3.067],[1602432000000,3.176],[1602518400000,3.224],[1602604800000,3.222],[1602691200000,3.192],[1602777600000,3.201],[1603036800000,3.126],[1603123200000,3.165],[1603209600000,3.161],[1603296000000,3.121],[1603382400000,3.006],[1603641600000,3.032],[1603728000000,3.136],[1603814400000,3.156],[1603900800000,3.22],[1603987200000,3.168],[1604246400000,3.17],[1604332800000,3.193],[1604419200000,3.219],[1604505600000,3.215],[1604592000000,3.144],[1604851200000,3.231],[1604937600000,3.169],[1605024000000,3.067],[1605110400000,3.107],[1605196800000,3.1],[1605456000000,3.123],[1605542400000,3.025],[1605628800000,2.926],[1605715200000,2.957],[1605801600000,2.98],[1606060800000,2.964],[1606147200000,2.952],[1606233600000,2.893],[1606320000000,2.889],[1606406400000,2.906],[1606665600000,2.917],[1606752000000,3.011],[1606838400000,3.011],[1606924800000,3.068],[1607011200000,3.13],[1607270400000,3.151],[1607356800000,3.161],[1607443200000,3.114],[1607529600000,3.175],[1607616000000,3.159],[1607875200000,3.228],[1607961600000,3.266],[1608048000000,3.295],[1608134400000,3.359],[1608220800000,3.34],[1608480000000,3.407],[1608566400000,3.382],[1608652800000,3.388],[1608739200000,3.414],[1608825600000,3.476],[1609084800000,3.458],[1609171200000,3.436],[1609257600000,3.481],[1609344000000,3.521],[1609689600000,3.486],[1609776000000,3.548],[1609862400000,3.612],[1609948800000,3.655],[1610035200000,3.63],[1610294400000,3.636],[1610380800000,3.678],[1610467200000,3.632],[1610553600000,3.58],[1610640000000,3.582],[1610899200000,3.621],[1610985600000,3.546],[1611072000000,3.737],[1611158400000,3.808],[1611244800000,4.01],[1611504000000,4.092],[1611590400000,3.949],[1611676800000,3.929],[1611763200000,3.815],[1611849600000,3.804],[1612108800000,3.87],[1612195200000,3.904],[1612281600000,3.965],[1612368000000,3.922],[1612454400000,3.98],[1612713600000,4.06],[1612800000000,4.118],[1612886400000,4.206],[1613577600000,3.975],[1613664000000,3.995],[1613923200000,3.784],[1614009600000,3.766],[1614096000000,3.62],[1614182400000,3.634],[1614268800000,3.55],[1614528000000,3.599],[1614614400000,3.532],[1614700800000,3.586],[1614787200000,3.424],[1614873600000,3.416],[1615132800000,3.216],[1615219200000,3.137],[1615305600000,3.259],[1615392000000,3.356],[1615478400000,3.377],[1615737600000,3.2],[1615824000000,3.23],[1615910400000,3.271],[1615996800000,3.346],[1616083200000,3.256],[1616342400000,3.262],[1616428800000,3.26],[1616515200000,3.262],[1616601600000,3.316],[1616688000000,3.44],[1616947200000,3.439],[1617033600000,3.518],[1617120000000,3.479],[1617206400000,3.582],[1617292800000,3.612],[1617638400000,3.556],[1617724800000,3.533],[1617811200000,3.607],[1617897600000,3.556],[1618156800000,3.438],[1618243200000,3.483],[1618329600000,3.493],[1618416000000,3.488],[1618502400000,3.459],[1618761600000,3.564],[1618848000000,3.605],[1618934400000,3.659],[1619020800000,3.646],[1619107200000,3.779],[1619366400000,3.713],[1619452800000,3.832],[1619539200000,3.919],[1619625600000,3.912],[1619712000000,3.934],[1620230400000,3.801],[1620316800000,3.673],[1620576000000,3.736],[1620662400000,3.813],[1620748800000,3.901],[1620835200000,3.919],[1620921600000,3.962],[1621180800000,4.076],[1621267200000,4.025],[1621353600000,3.994],[1621440000000,4.055],[1621526400000,4.041],[1621785600000,4.041],[1621872000000,4.139],[1621958400000,4.091],[1622044800000,4.133],[1622131200000,4.021],[1622390400000,4.099],[1622476800000,4.202],[1622563200000,4.101],[1622649600000,4.09],[1622736000000,4.14],[1622995200000,4.159],[1623081600000,4.112],[1623168000000,4.148],[1623254400000,4.215],[1623340800000,4.197],[1623686400000,4.178],[1623772800000,4.015],[1623859200000,4.071],[1623945600000,4.16],[1624204800000,4.223],[1624291200000,4.317],[1624377600000,4.3],[1624464000000,4.191],[1624550400000,4.312],[1624809600000,4.348],[1624896000000,4.316],[1624982400000,4.325],[1625068800000,4.421],[1625155200000,4.162],[1625414400000,4.122],[1625500800000,3.925],[1625587200000,4.079],[1625673600000,3.975],[1625760000000,3.98],[1626019200000,4.137],[1626105600000,4.146],[1626192000000,4.192],[1626278400000,4.217],[1626364800000,4.088]]</t>
+  </si>
+  <si>
+    <t>110008</t>
+  </si>
+  <si>
+    <t>易方达稳健收益债券B</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [[1127059200000,1.0],[1127232000000,1.0002],[1127318400000,1.0002],[1127404800000,1.0003],[1127664000000,1.0003],[1127750400000,1.0004],[1127836800000,1.0006],[1127923200000,1.0007],[1128009600000,1.0007],[1128873600000,1.0011],[1128960000000,1.0013],[1129046400000,1.0013],[1129132800000,1.0013],[1129219200000,1.0015],[1129478400000,1.0016],[1129564800000,1.0016],[1129651200000,1.0018],[1129737600000,1.0021],[1129824000000,1.0021],[1130083200000,1.0022],[1130169600000,1.0024],[1130256000000,1.0025],[1130342400000,1.0025],[1130428800000,1.0025],[1130688000000,1.0026],[1130774400000,1.0027],[1130860800000,1.0028],[1130947200000,1.0028],[1131033600000,1.0028],[1131292800000,1.0029],[1131379200000,1.003],[1131465600000,1.0031],[1131552000000,1.0031],[1131638400000,1.0031],[1131897600000,1.0033],[1131984000000,1.0033],[1132070400000,1.0034],[1132156800000,1.0035],[1132243200000,1.0036],[1132502400000,1.0037],[1132588800000,1.0038],[1132675200000,1.0041],[1132761600000,1.0041],[1132848000000,1.0042],[1133107200000,1.0044],[1133193600000,1.0044],[1133280000000,1.0045],[1133366400000,1.0046],[1133452800000,1.0046],[1133712000000,1.0048],[1133798400000,1.0049],[1133884800000,1.005],[1133971200000,1.0051],[1134057600000,1.0051],[1134316800000,1.0052],[1134403200000,1.0053],[1134489600000,1.0054],[1134576000000,1.0055],[1134662400000,1.0056],[1134921600000,1.0057],[1135008000000,1.0058],[1135094400000,1.0059],[1135180800000,1.0059],[1135267200000,1.0061],[1135526400000,1.0062],[1135612800000,1.0062],[1135699200000,1.0063],[1135785600000,1.0063],[1135872000000,1.0064],[1135958400000,1.0064],[1136304000000,1.0067],[1136390400000,1.0069],[1136476800000,1.007],[1136736000000,1.0071],[1136822400000,1.0071],[1136908800000,1.0072],[1136995200000,1.0072],[1137081600000,1.0073],[1137340800000,1.0074],[1137427200000,1.0074],[1137513600000,1.0075],[1137600000000,1.0075],[1137686400000,1.0076],[1137945600000,1.0078],[1138032000000,1.0078],[1138118400000,1.0079],[1139155200000,1.0083],[1139241600000,1.0085],[1139328000000,1.0086],[1139414400000,1.0086],[1139500800000,1.0087],[1139760000000,1.0088],[1139846400000,1.0088],[1139932800000,1.0089],[1140019200000,1.0089],[1140105600000,1.009],[1140364800000,1.0092],[1140451200000,1.0092],[1140537600000,1.0095],[1140624000000,1.0095],[1140710400000,1.0097],[1140969600000,1.0099],[1141056000000,1.0099],[1141142400000,1.01],[1141228800000,1.0102],[1141315200000,1.0102],[1141574400000,1.0104],[1141660800000,1.0104],[1141747200000,1.0104],[1141833600000,1.0105],[1141920000000,1.0105],[1142179200000,1.0106],[1142265600000,1.0107],[1142352000000,1.0109],[1142438400000,1.0109],[1142524800000,1.0109],[1142784000000,1.0111],[1142870400000,1.0113],[1142956800000,1.0114],[1143043200000,1.0114],[1143129600000,1.0115],[1143388800000,1.0116],[1143475200000,1.0117],[1143561600000,1.0117],[1143648000000,1.0118],[1143734400000,1.0121],[1143993600000,1.0122],[1144080000000,1.0125],[1144166400000,1.0126],[1144252800000,1.0128],[1144339200000,1.0131],[1144598400000,1.0132],[1144684800000,1.0132],[1144771200000,1.0133],[1144857600000,1.0133],[1144944000000,1.0133],[1145203200000,1.0135],[1145289600000,1.0135],[1145376000000,1.0135],[1145462400000,1.0136],[1145548800000,1.0136],[1145808000000,1.0137],[1145894400000,1.0138],[1145980800000,1.0138],[1146067200000,1.0139],[1146153600000,1.0139],[1147017600000,1.0143],[1147104000000,1.0143],[1147190400000,1.0144],[1147276800000,1.0145],[1147363200000,1.0146],[1147622400000,1.0147],[1147708800000,1.0147],[1147795200000,1.0147],[1147881600000,1.0148],[1147968000000,1.0148],[1148227200000,1.0149],[1148313600000,1.015],[1148400000000,1.015],[1148486400000,1.015],[1148572800000,1.0151],[1148832000000,1.0152],[1148918400000,1.0153],[1149004800000,1.0153],[1149091200000,1.0153],[1149177600000,1.0153],[1149436800000,1.0154],[1149523200000,1.0153],[1149609600000,1.0153],[1149696000000,1.0153],[1149782400000,1.0153],[1150041600000,1.0153],[1150128000000,1.0153],[1150214400000,1.0154],[1150300800000,1.0154],[1150387200000,1.0155],[1150646400000,1.0157],[1150732800000,1.0158],[1150819200000,1.0159],[1150905600000,1.0159],[1150992000000,1.016],[1151251200000,1.0166],[1151337600000,1.0166],[1151424000000,1.0166],[1151510400000,1.0166],[1151596800000,1.0167],[1151856000000,1.0168],[1151942400000,1.0168],[1152028800000,1.0168],[1152115200000,1.0169],[1152201600000,1.0169],[1152460800000,1.017],[1152547200000,1.017],[1152633600000,1.0171],[1152720000000,1.0171],[1152806400000,1.0171],[1153065600000,1.0173],[1153152000000,1.0173],[1153238400000,1.0174],[1153324800000,1.0174],[1153411200000,1.0175],[1153670400000,1.0176],[1153756800000,1.0177],[1153843200000,1.0178],[1153929600000,1.0178],[1154016000000,1.0178],[1154275200000,1.018],[1154361600000,1.018],[1154448000000,1.018],[1154534400000,1.018],[1154620800000,1.0181],[1154880000000,1.0182],[1154966400000,1.0183],[1155052800000,1.0183],[1155139200000,1.0184],[1155225600000,1.0184],[1155484800000,1.0185],[1155571200000,1.0185],[1155657600000,1.0186],[1155744000000,1.0186],[1155830400000,1.0187],[1156089600000,1.0188],[1156176000000,1.0188],[1156262400000,1.0189],[1156348800000,1.0189],[1156435200000,1.0171],[1156694400000,1.0172],[1156780800000,1.0173],[1156867200000,1.0173],[1156953600000,1.0174],[1157040000000,1.0174],[1157299200000,1.0175],[1157385600000,1.0176],[1157472000000,1.0176],[1157558400000,1.0177],[1157644800000,1.0177],[1157904000000,1.0179],[1157990400000,1.0179],[1158076800000,1.018],[1158163200000,1.018],[1158249600000,1.018],[1158508800000,1.0182],[1158595200000,1.0182],[1158681600000,1.0183],[1158768000000,1.0183],[1158854400000,1.0184],[1159113600000,1.0185],[1159200000000,1.0184],[1159286400000,1.0185],[1159372800000,1.0185],[1159459200000,1.0186],[1159545600000,1.0186],[1160323200000,1.019],[1160409600000,1.0191],[1160496000000,1.0191],[1160582400000,1.0192],[1160668800000,1.0192],[1160928000000,1.0194],[1161014400000,1.0194],[1161100800000,1.0195],[1161187200000,1.0195],[1161273600000,1.0196],[1161532800000,1.0197],[1161619200000,1.0198],[1161705600000,1.0198],[1161792000000,1.0199],[1161878400000,1.0199],[1162137600000,1.0201],[1162224000000,1.0199],[1162310400000,1.02],[1162396800000,1.02],[1162483200000,1.0201],[1162742400000,1.0202],[1162828800000,1.0203],[1162915200000,1.0203],[1163001600000,1.0204],[1163088000000,1.0204],[1163347200000,1.0206],[1163433600000,1.0206],[1163520000000,1.0207],[1163606400000,1.0207],[1163692800000,1.0208],[1163952000000,1.0209],[1164038400000,1.021],[1164124800000,1.021],[1164211200000,1.0211],[1164297600000,1.0211],[1164556800000,1.0213],[1164643200000,1.0213],[1164729600000,1.0214],[1164816000000,1.0214],[1164902400000,1.0215],[1165161600000,1.0216],[1165248000000,1.0217],[1165334400000,1.0217],[1165420800000,1.0218],[1165507200000,1.0218],[1165766400000,1.022],[1165852800000,1.022],[1165939200000,1.0221],[1166025600000,1.0221],[1166112000000,1.0222],[1166371200000,1.0223],[1166457600000,1.0224],[1166544000000,1.0225],[1166630400000,1.0225],[1166716800000,1.0227],[1166976000000,1.0229],[1167062400000,1.0229],[1167148800000,1.023],[1167235200000,1.023],[1167321600000,1.0231],[1167494400000,1.0232],[1167840000000,1.0234],[1167926400000,1.0235],[1168185600000,1.0236],[1168272000000,1.0236],[1168358400000,1.0237],[1168444800000,1.0237],[1168531200000,1.0238],[1168790400000,1.0239],[1168876800000,1.024],[1168963200000,1.0241],[1169049600000,1.0241],[1169136000000,1.0242],[1169395200000,1.0244],[1169481600000,1.0244],[1169568000000,1.0245],[1169654400000,1.0245],[1169740800000,1.0246],[1170000000000,1.0248],[1170086400000,1.0249],[1170172800000,1.0249],[1170259200000,1.025],[1170345600000,1.025],[1170604800000,1.0252],[1170691200000,1.0252],[1170777600000,1.0253],[1170864000000,1.0253],[1170950400000,1.0254],[1171209600000,1.022],[1171296000000,1.0221],[1171382400000,1.0221],[1171468800000,1.0222],[1171555200000,1.0222],[1172419200000,1.0228],[1172505600000,1.0228],[1172592000000,1.0229],[1172678400000,1.0229],[1172764800000,1.023],[1173024000000,1.0231],[1173110400000,1.0232],[1173196800000,1.0232],[1173283200000,1.0233],[1173369600000,1.0233],[1173628800000,1.0235],[1173715200000,1.0235],[1173801600000,1.0236],[1173888000000,1.0236],[1173974400000,1.0237],[1174233600000,1.0238],[1174320000000,1.0239],[1174406400000,1.0237],[1174492800000,1.0238],[1174579200000,1.0238],[1174838400000,1.0239],[1174924800000,1.024],[1175011200000,1.024],[1175097600000,1.0241],[1175184000000,1.0241],[1175270400000,1.0242],[1175443200000,1.0242],[1175529600000,1.0243],[1175616000000,1.0244],[1175702400000,1.0244],[1175788800000,1.0244],[1176048000000,1.0246],[1176134400000,1.0246],[1176220800000,1.0247],[1176307200000,1.0247],[1176393600000,1.0248],[1176652800000,1.0249],[1176739200000,1.025],[1176825600000,1.025],[1176912000000,1.025],[1176998400000,1.0251],[1177257600000,1.0252],[1177344000000,1.0253],[1177430400000,1.0253],[1177516800000,1.0254],[1177603200000,1.0254],[1177862400000,1.0255],[1178553600000,1.0259],[1178640000000,1.026],[1178726400000,1.026],[1178812800000,1.0261],[1179072000000,1.0262],[1179158400000,1.0263],[1179244800000,1.0263],[1179331200000,1.0264],[1179417600000,1.0265],[1179676800000,1.0266],[1179763200000,1.0266],[1179849600000,1.0266],[1179936000000,1.0267],[1180022400000,1.0267],[1180281600000,1.0269],[1180368000000,1.0269],[1180454400000,1.0269],[1180540800000,1.027],[1180627200000,1.027],[1180886400000,1.0271],[1180972800000,1.0272],[1181059200000,1.0272],[1181145600000,1.0273],[1181232000000,1.0273],[1181491200000,1.0275],[1181577600000,1.0275],[1181664000000,1.0276],[1181750400000,1.0277],[1181836800000,1.0277],[1182096000000,1.0279],[1182182400000,1.0279],[1182268800000,1.028],[1182355200000,1.028],[1182441600000,1.0281],[1182700800000,1.0284],[1182787200000,1.0287],[1182873600000,1.0289],[1182960000000,1.0289],[1183046400000,1.0288],[1183132800000,1.0291],[1183305600000,1.0291],[1183392000000,1.029],[1183478400000,1.029],[1183564800000,1.0291],[1183651200000,1.0291],[1183910400000,1.0293],[1183996800000,1.0293],[1184083200000,1.0294],[1184169600000,1.0295],[1184256000000,1.0296],[1184515200000,1.0298],[1184601600000,1.0298],[1184688000000,1.0299],[1184774400000,1.03],[1184860800000,1.0301],[1185120000000,1.0301],[1185206400000,1.0302],[1185292800000,1.0302],[1185379200000,1.0303],[1185465600000,1.0304],[1185724800000,1.0305],[1185811200000,1.0305],[1185897600000,1.0306],[1185984000000,1.0307],[1186070400000,1.0307],[1186329600000,1.0309],[1186416000000,1.031],[1186502400000,1.031],[1186588800000,1.0311],[1186675200000,1.0311],[1186934400000,1.0313],[1187020800000,1.0313],[1187107200000,1.0314],[1187193600000,1.0314],[1187280000000,1.0315],[1187539200000,1.0317],[1187625600000,1.0317],[1187712000000,1.0318],[1187798400000,1.0318],[1187884800000,1.0319],[1188144000000,1.032],[1188230400000,1.032],[1188316800000,1.0321],[1188403200000,1.0321],[1188489600000,1.0322],[1188748800000,1.0323],[1188835200000,1.0324],[1188921600000,1.0324],[1189008000000,1.0324],[1189094400000,1.0323],[1189353600000,1.0324],[1189440000000,1.0325],[1189526400000,1.0326],[1189612800000,1.0325],[1189699200000,1.0322],[1189958400000,1.0319],[1190044800000,1.032],[1190131200000,1.0322],[1190217600000,1.032],[1190304000000,1.0322],[1190563200000,1.0326],[1190649600000,1.0326],[1190736000000,1.0321],[1190822400000,1.033],[1190908800000,1.0339],[1191081600000,1.0344],[1191772800000,1.0351],[1191859200000,1.0353],[1191945600000,1.0354],[1192032000000,1.0355],[1192118400000,1.0355],[1192377600000,1.0356],[1192464000000,1.0356],[1192550400000,1.0352],[1192636800000,1.035],[1192723200000,1.0345],[1192982400000,1.0345],[1193068800000,1.0341],[1193155200000,1.034],[1193241600000,1.034],[1193328000000,1.0333],[1193587200000,1.0362],[1193673600000,1.0365],[1193760000000,1.0366],[1193846400000,1.0367],[1193932800000,1.0368],[1194192000000,1.0368],[1194278400000,1.0368],[1194364800000,1.0357],[1194451200000,1.0366],[1194537600000,1.0367],[1194796800000,1.0369],[1194883200000,1.0369],[1194969600000,1.0369],[1195056000000,1.037],[1195142400000,1.037],[1195401600000,1.0371],[1195488000000,1.0373],[1195574400000,1.0375],[1195660800000,1.0378],[1195747200000,1.0381],[1196006400000,1.0388],[1196092800000,1.039],[1196179200000,1.039],[1196265600000,1.039],[1196352000000,1.0391],[1196611200000,1.0392],[1196697600000,1.0393],[1196784000000,1.0395],[1196870400000,1.0398],[1196956800000,1.0402],[1197216000000,1.0407],[1197302400000,1.0408],[1197388800000,1.0409],[1197475200000,1.041],[1197561600000,1.0411],[1197820800000,1.0417],[1197907200000,1.042],[1197993600000,1.0424],[1198080000000,1.0427],[1198166400000,1.0428],[1198425600000,1.0429],[1198512000000,1.043],[1198598400000,1.043],[1198684800000,1.0431],[1198771200000,1.0432],[1198857600000,1.0432],[1199030400000,1.0433],[1199203200000,1.0434],[1199289600000,1.0434],[1199376000000,1.0435],[1199635200000,1.0436],[1199721600000,1.0437],[1199808000000,1.0438],[1199894400000,1.0438],[1199980800000,1.0439],[1200240000000,1.044],[1200326400000,1.0441],[1200412800000,1.0441],[1200499200000,1.0441],[1200585600000,1.0442],[1200844800000,1.0444],[1200931200000,1.0445],[1201017600000,1.0446],[1201104000000,1.0446],[1201190400000,1.0448],[1201449600000,1.0454],[1201536000000,1.0456],[1201622400000,1.0457],[1201708800000,1.0459],[1201795200000,1.046],[1202054400000,1.0463],[1202140800000,1.0465],[1202832000000,1.0468],[1202918400000,1.0468],[1203004800000,1.047],[1203264000000,1.047],[1203350400000,1.0469],[1203436800000,1.0469],[1203523200000,1.0469],[1203609600000,1.0468],[1203868800000,1.0467],[1203955200000,1.0467],[1204041600000,1.0468],[1204128000000,1.0468],[1204214400000,1.0469],[1204473600000,1.0472],[1204560000000,1.0475],[1204646400000,1.0478],[1204732800000,1.0478],[1204819200000,1.0479],[1205078400000,1.0489],[1205164800000,1.049],[1205251200000,1.049],[1205337600000,1.0491],[1205424000000,1.0491],[1205683200000,1.0493],[1205769600000,1.0494],[1205856000000,1.0496],[1205942400000,1.0498],[1206028800000,1.0499],[1206288000000,1.0503],[1206374400000,1.0504],[1206460800000,1.0505],[1206547200000,1.0506],[1206633600000,1.0506],[1206892800000,1.0508],[1206979200000,1.0506],[1207065600000,1.0506],[1207152000000,1.0507],[1207497600000,1.051],[1207584000000,1.0512],[1207670400000,1.0514],[1207756800000,1.0515],[1207843200000,1.0516],[1208102400000,1.0518],[1208188800000,1.0518],[1208275200000,1.0518],[1208361600000,1.0518],[1208448000000,1.0517],[1208707200000,1.0518],[1208793600000,1.0519],[1208880000000,1.0526],[1208966400000,1.0527],[1209052800000,1.0533],[1209312000000,1.0537],[1209398400000,1.0538],[1209484800000,1.054],[1209916800000,1.0545],[1210003200000,1.0544],[1210089600000,1.0542],[1210176000000,1.0545],[1210262400000,1.0547],[1210521600000,1.055],[1210608000000,1.055],[1210694400000,1.0552],[1210780800000,1.0553],[1210867200000,1.0559],[1211126400000,1.056],[1211212800000,1.0561],[1211299200000,1.0568],[1211385600000,1.0573],[1211472000000,1.0578],[1211731200000,1.0582],[1211817600000,1.0583],[1211904000000,1.0593],[1211990400000,1.0595],[1212076800000,1.0597],[1212336000000,1.06],[1212422400000,1.0597],[1212508800000,1.0597],[1212595200000,1.06],[1212681600000,1.0599],[1213027200000,1.0586],[1213113600000,1.0578],[1213200000000,1.0576],[1213286400000,1.0575],[1213545600000,1.0579],[1213632000000,1.058],[1213718400000,1.058],[1213804800000,1.0577],[1213891200000,1.0581],[1214150400000,1.058],[1214236800000,1.0582],[1214323200000,1.059],[1214409600000,1.0588],[1214496000000,1.0568],[1214755200000,1.0577],[1214841600000,1.0586],[1214928000000,1.0591],[1215014400000,1.0592],[1215100800000,1.0584],[1215360000000,1.059],[1215446400000,1.059],[1215532800000,1.0602],[1215619200000,1.061],[1215705600000,1.061],[1215964800000,1.0616],[1216051200000,1.0612],[1216137600000,1.0611],[1216224000000,1.0611],[1216310400000,1.0616],[1216569600000,1.0617],[1216656000000,1.062],[1216742400000,1.0622],[1216828800000,1.0627],[1216915200000,1.0628],[1217174400000,1.0631],[1217260800000,1.0631],[1217347200000,1.0635],[1217433600000,1.0634],[1217520000000,1.0635],[1217779200000,1.0633],[1217865600000,1.0631],[1217952000000,1.0639],[1218038400000,1.0643],[1218124800000,1.0642],[1218384000000,1.0643],[1218470400000,1.0642],[1218556800000,1.0648],[1218643200000,1.065],[1218729600000,1.0653],[1218988800000,1.0671],[1219075200000,1.068],[1219161600000,1.069],[1219248000000,1.068],[1219334400000,1.068],[1219593600000,1.0684],[1219680000000,1.0682],[1219766400000,1.0681],[1219852800000,1.0692],[1219939200000,1.0704],[1220198400000,1.0713],[1220284800000,1.0724],[1220371200000,1.0725],[1220457600000,1.073],[1220544000000,1.0731],[1220803200000,1.0732],[1220889600000,1.0739],[1220976000000,1.0758],[1221062400000,1.077],[1221148800000,1.0789],[1221494400000,1.0848],[1221580800000,1.0903],[1221667200000,1.0903],[1221753600000,1.0902],[1222012800000,1.0905],[1222099200000,1.0904],[1222185600000,1.0916],[1222272000000,1.0933],[1222358400000,1.0929],[1222704000000,1.0928],[1223222400000,1.0932],[1223308800000,1.0977],[1223395200000,1.1033],[1223481600000,1.1107],[1223568000000,1.1122],[1223827200000,1.1113],[1223913600000,1.1117],[1224000000000,1.1124],[1224086400000,1.1134],[1224172800000,1.1116],[1224432000000,1.1106],[1224518400000,1.1117],[1224604800000,1.1123],[1224691200000,1.1107],[1224777600000,1.111],[1225036800000,1.107],[1225123200000,1.1057],[1225209600000,1.1092],[1225296000000,1.1115],[1225382400000,1.1104],[1225641600000,1.1083],[1225728000000,1.11],[1225814400000,1.1119],[1225900800000,1.1153],[1225987200000,1.1163],[1226246400000,1.1201],[1226332800000,1.1204],[1226419200000,1.1227],[1226505600000,1.1263],[1226592000000,1.123],[1226851200000,1.1224],[1226937600000,1.1209],[1227024000000,1.1183],[1227110400000,1.1169],[1227196800000,1.1162],[1227456000000,1.115],[1227542400000,1.1127],[1227628800000,1.1109],[1227715200000,1.114],[1227801600000,1.1123],[1228060800000,1.1125],[1228147200000,1.1139],[1228233600000,1.1147],[1228320000000,1.1161],[1228406400000,1.1181],[1228665600000,1.1195],[1228752000000,1.1174],[1228838400000,1.1192],[1228924800000,1.1214],[1229011200000,1.122],[1229270400000,1.1235],[1229356800000,1.1244],[1229443200000,1.1267],[1229529600000,1.1284],[1229616000000,1.1288],[1229875200000,1.1285],[1229961600000,1.1295],[1230048000000,1.1302],[1230134400000,1.1298],[1230220800000,1.1286],[1230480000000,1.1293],[1230566400000,1.1294],[1230652800000,1.1299],[1231084800000,1.1338],[1231171200000,1.1345],[1231257600000,1.1373],[1231344000000,1.1385],[1231430400000,1.1397],[1231689600000,1.1413],[1231776000000,1.1392],[1231862400000,1.1354],[1231948800000,1.1272],[1232035200000,1.1236],[1232294400000,1.1207],[1232380800000,1.1144],[1232467200000,1.1124],[1232553600000,1.1156],[1232640000000,1.116],[1233504000000,1.1153],[1233590400000,1.113],[1233676800000,1.1107],[1233763200000,1.1096],[1233849600000,1.1098],[1234108800000,1.1106],[1234195200000,1.1107],[1234281600000,1.1123],[1234368000000,1.1139],[1234454400000,1.1138],[1234713600000,1.1134],[1234800000000,1.1133],[1234886400000,1.1137],[1234972800000,1.1148],[1235059200000,1.1147],[1235318400000,1.1147],[1235404800000,1.1158],[1235491200000,1.1156],[1235577600000,1.116],[1235664000000,1.1153],[1235923200000,1.1143],[1236009600000,1.1142],[1236096000000,1.1145],[1236182400000,1.1132],[1236268800000,1.1141],[1236528000000,1.1133],[1236614400000,1.1139],[1236700800000,1.1148],[1236787200000,1.1146],[1236873600000,1.1152],[1237132800000,1.1163],[1237219200000,1.1171],[1237305600000,1.1169],[1237392000000,1.1168],[1237478400000,1.1154],[1237737600000,1.1149],[1237824000000,1.1139],[1237910400000,1.114],[1237996800000,1.1133],[1238083200000,1.112],[1238342400000,1.112],[1238428800000,1.1123],[1238515200000,1.1124],[1238601600000,1.1115],[1238688000000,1.1093],[1239033600000,1.1076],[1239120000000,1.1052],[1239206400000,1.1061],[1239292800000,1.1084],[1239552000000,1.1108],[1239638400000,1.1148],[1239724800000,1.116],[1239811200000,1.1144],[1239897600000,1.1105],[1240156800000,1.1144],[1240243200000,1.1118],[1240329600000,1.1084],[1240416000000,1.11],[1240502400000,1.1118],[1240761600000,1.1099],[1240848000000,1.1095],[1240934400000,1.1118],[1241020800000,1.1166],[1241366400000,1.1193],[1241452800000,1.1185],[1241539200000,1.1193],[1241625600000,1.119],[1241712000000,1.1198],[1241971200000,1.1206],[1242057600000,1.1218],[1242144000000,1.123],[1242230400000,1.1229],[1242316800000,1.1237],[1242576000000,1.1276],[1242662400000,1.1273],[1242748800000,1.1282],[1242835200000,1.1254],[1242921600000,1.1235],[1243180800000,1.1219],[1243267200000,1.1223],[1243353600000,1.1229],[1243785600000,1.1244],[1243872000000,1.1233],[1243958400000,1.1257],[1244044800000,1.1269],[1244131200000,1.1257],[1244390400000,1.1262],[1244476800000,1.1255],[1244563200000,1.1258],[1244649600000,1.1262],[1244736000000,1.1228],[1244995200000,1.1288],[1245081600000,1.1289],[1245168000000,1.1284],[1245254400000,1.1297],[1245340800000,1.1313],[1245600000000,1.1336],[1245686400000,1.1342],[1245772800000,1.1318],[1245859200000,1.1334],[1245945600000,1.1373],[1246204800000,1.139],[1246291200000,1.1372],[1246377600000,1.143],[1246464000000,1.1455],[1246550400000,1.1491],[1246809600000,1.15],[1246896000000,1.147],[1246982400000,1.1467],[1247068800000,1.1457],[1247155200000,1.1443],[1247414400000,1.1391],[1247500800000,1.1434],[1247587200000,1.1434],[1247673600000,1.1463],[1247760000000,1.1464],[1248019200000,1.1471],[1248105600000,1.1452],[1248192000000,1.1487],[1248278400000,1.1566],[1248364800000,1.1567],[1248624000000,1.1605],[1248710400000,1.1556],[1248796800000,1.1519],[1248883200000,1.1552],[1248969600000,1.1572],[1249228800000,1.1565],[1249315200000,1.1529],[1249401600000,1.1496],[1249488000000,1.1485],[1249574400000,1.1464],[1249833600000,1.1447],[1249920000000,1.1472],[1250006400000,1.145],[1250092800000,1.1455],[1250179200000,1.1441],[1250438400000,1.1382],[1250524800000,1.1393],[1250611200000,1.1339],[1250697600000,1.1358],[1250784000000,1.1372],[1251043200000,1.1368],[1251129600000,1.1367],[1251216000000,1.1361],[1251302400000,1.1371],[1251388800000,1.1375],[1251648000000,1.1365],[1251734400000,1.1372],[1251820800000,1.1367],[1251907200000,1.1396],[1251993600000,1.1395],[1252252800000,1.1398],[1252339200000,1.139],[1252425600000,1.1409],[1252512000000,1.1427],[1252598400000,1.142],[1252857600000,1.1444],[1252944000000,1.144],[1253030400000,1.1436],[1253116800000,1.1445],[1253203200000,1.1438],[1253462400000,1.1464],[1253548800000,1.1433],[1253635200000,1.143],[1253721600000,1.1415],[1253808000000,1.1411],[1254067200000,1.1369],[1254153600000,1.1331],[1254240000000,1.1331],[1255017600000,1.1355],[1255276800000,1.1337],[1255363200000,1.1335],[1255449600000,1.1384],[1255536000000,1.1385],[1255622400000,1.1385],[1255881600000,1.139],[1255968000000,1.1405],[1256054400000,1.1397],[1256140800000,1.1409],[1256227200000,1.1418],[1256486400000,1.1421],[1256572800000,1.141],[1256659200000,1.1424],[1256745600000,1.1393],[1256832000000,1.1422],[1257091200000,1.1433],[1257177600000,1.1541],[1257264000000,1.1524],[1257350400000,1.1544],[1257436800000,1.1535],[1257696000000,1.1561],[1257782400000,1.1547],[1257868800000,1.1585],[1257955200000,1.1583],[1258041600000,1.1523],[1258300800000,1.1548],[1258387200000,1.1545],[1258473600000,1.1556],[1258560000000,1.159],[1258646400000,1.1595],[1258905600000,1.1622],[1258992000000,1.1544],[1259078400000,1.1622],[1259164800000,1.1558],[1259251200000,1.1527],[1259510400000,1.1611],[1259596800000,1.1659],[1259683200000,1.1689],[1259769600000,1.1728],[1259856000000,1.1674],[1260115200000,1.1696],[1260201600000,1.1685],[1260288000000,1.1675],[1260374400000,1.1687],[1260460800000,1.1721],[1260720000000,1.1719],[1260806400000,1.1723],[1260892800000,1.1703],[1260979200000,1.164],[1261065600000,1.1609],[1261324800000,1.163],[1261411200000,1.1606],[1261497600000,1.162],[1261584000000,1.1685],[1261670400000,1.1723],[1261929600000,1.1751],[1262016000000,1.1765],[1262102400000,1.1786],[1262188800000,1.1804],[1262534400000,1.1826],[1262620800000,1.1824],[1262707200000,1.1828],[1262793600000,1.1807],[1262880000000,1.1774],[1263139200000,1.1765],[1263225600000,1.1812],[1263312000000,1.1802],[1263398400000,1.1869],[1263484800000,1.1902],[1263744000000,1.1931],[1263830400000,1.1928],[1263916800000,1.1856],[1264003200000,1.1851],[1264089600000,1.1776],[1264348800000,1.1731],[1264435200000,1.1707],[1264521600000,1.169],[1264608000000,1.1694],[1264694400000,1.1704],[1264953600000,1.1675],[1265040000000,1.1672],[1265126400000,1.1684],[1265212800000,1.1684],[1265299200000,1.1687],[1265558400000,1.1693],[1265644800000,1.1691],[1265731200000,1.1711],[1265817600000,1.1717],[1265904000000,1.1753],[1266768000000,1.1747],[1266854400000,1.1756],[1266940800000,1.179],[1267027200000,1.1816],[1267113600000,1.1835],[1267372800000,1.1856],[1267459200000,1.1869],[1267545600000,1.1896],[1267632000000,1.1855],[1267718400000,1.186],[1267977600000,1.1887],[1268064000000,1.1886],[1268150400000,1.186],[1268236800000,1.1862],[1268323200000,1.1849],[1268582400000,1.1844],[1268668800000,1.1851],[1268755200000,1.1896],[1268841600000,1.1908],[1268928000000,1.194],[1269187200000,1.1964],[1269273600000,1.199],[1269360000000,1.2008],[1269446400000,1.201],[1269532800000,1.206],[1269792000000,1.207],[1269878400000,1.2092],[1269964800000,1.2134],[1270051200000,1.2149],[1270137600000,1.2182],[1270483200000,1.2217],[1270569600000,1.2243],[1270656000000,1.223],[1270742400000,1.2299],[1271001600000,1.234],[1271088000000,1.2333],[1271174400000,1.2335],[1271260800000,1.229],[1271347200000,1.2295],[1271606400000,1.2233],[1271692800000,1.2253],[1271779200000,1.2385],[1271865600000,1.2418],[1271952000000,1.2376],[1272211200000,1.2373],[1272297600000,1.2333],[1272384000000,1.2296],[1272470400000,1.2224],[1272556800000,1.2167],[1272902400000,1.2178],[1272988800000,1.2256],[1273075200000,1.2208],[1273161600000,1.217],[1273420800000,1.2114],[1273507200000,1.2053],[1273593600000,1.2024],[1273680000000,1.2057],[1273766400000,1.2072],[1274025600000,1.2016],[1274112000000,1.2031],[1274198400000,1.2073],[1274284800000,1.2048],[1274371200000,1.2071],[1274630400000,1.2106],[1274716800000,1.2095],[1274803200000,1.2076],[1274889600000,1.2105],[1274976000000,1.2108],[1275235200000,1.2071],[1275321600000,1.203],[1275408000000,1.2047],[1275494400000,1.2057],[1275580800000,1.2065],[1275840000000,1.21],[1275926400000,1.2142],[1276012800000,1.2146],[1276099200000,1.2191],[1276185600000,1.2204],[1276704000000,1.2132],[1276790400000,1.2062],[1277049600000,1.2083],[1277136000000,1.2096],[1277222400000,1.2094],[1277308800000,1.211],[1277395200000,1.2096],[1277654400000,1.2075],[1277740800000,1.2016],[1277827200000,1.201],[1277913600000,1.1999],[1278000000000,1.1991],[1278259200000,1.1992],[1278345600000,1.2015],[1278432000000,1.2034],[1278518400000,1.2044],[1278604800000,1.2064],[1278864000000,1.2079],[1278950400000,1.2076],[1279036800000,1.2079],[1279123200000,1.2059],[1279209600000,1.2058],[1279468800000,1.2071],[1279555200000,1.2106],[1279641600000,1.2119],[1279728000000,1.2144],[1279814400000,1.2161],[1280073600000,1.2182],[1280160000000,1.2177],[1280246400000,1.2233],[1280332800000,1.222],[1280419200000,1.2219],[1280678400000,1.2248],[1280764800000,1.2216],[1280851200000,1.2241],[1280937600000,1.2258],[1281024000000,1.2309],[1281283200000,1.236],[1281369600000,1.2271],[1281456000000,1.2284],[1281542400000,1.2285],[1281628800000,1.2303],[1281888000000,1.233],[1281974400000,1.2353],[1282060800000,1.2349],[1282147200000,1.2336],[1282233600000,1.2286],[1282492800000,1.2295],[1282579200000,1.2312],[1282665600000,1.2276],[1282752000000,1.2319],[1282838400000,1.2355],[1283097600000,1.2421],[1283184000000,1.2482],[1283270400000,1.2462],[1283356800000,1.2555],[1283443200000,1.2563],[1283702400000,1.251],[1283788800000,1.2518],[1283875200000,1.2533],[1283961600000,1.2519],[1284048000000,1.2527],[1284307200000,1.2555],[1284393600000,1.2556],[1284480000000,1.2538],[1284566400000,1.2508],[1284652800000,1.2527],[1284912000000,1.2528],[1284998400000,1.2507],[1285516800000,1.2524],[1285603200000,1.2494],[1285689600000,1.2484],[1285776000000,1.2514],[1286467200000,1.2571],[1286726400000,1.2549],[1286812800000,1.2554],[1286899200000,1.2554],[1286985600000,1.256],[1287072000000,1.2606],[1287331200000,1.2568],[1287417600000,1.2637],[1287504000000,1.2566],[1287590400000,1.2531],[1287676800000,1.2544],[1287936000000,1.2626],[1288022400000,1.2622],[1288108800000,1.2594],[1288195200000,1.2601],[1288281600000,1.2617],[1288540800000,1.2691],[1288627200000,1.271],[1288713600000,1.264],[1288800000000,1.2721],[1288886400000,1.2848],[1289145600000,1.2925],[1289232000000,1.2896],[1289318400000,1.2891],[1289404800000,1.2863],[1289491200000,1.2783],[1289750400000,1.2835],[1289836800000,1.2799],[1289923200000,1.2759],[1290009600000,1.2777],[1290096000000,1.2815],[1290355200000,1.2831],[1290441600000,1.2823],[1290528000000,1.2846],[1290614400000,1.2838],[1290700800000,1.2832],[1290960000000,1.285],[1291046400000,1.2823],[1291132800000,1.2822],[1291219200000,1.2822],[1291305600000,1.2809],[1291564800000,1.2779],[1291651200000,1.2803],[1291737600000,1.2789],[1291824000000,1.2768],[1291910400000,1.2782],[1292169600000,1.2832],[1292256000000,1.2834],[1292342400000,1.2826],[1292428800000,1.2829],[1292515200000,1.2849],[1292774400000,1.2825],[1292860800000,1.2831],[1292947200000,1.28],[1293033600000,1.2756],[1293120000000,1.2733],[1293379200000,1.2681],[1293465600000,1.2645],[1293552000000,1.2705],[1293638400000,1.2719],[1293724800000,1.2755],[1294070400000,1.2787],[1294156800000,1.2789],[1294243200000,1.2777],[1294329600000,1.2779],[1294588800000,1.2768],[1294675200000,1.275],[1294761600000,1.2754],[1294848000000,1.2736],[1294934400000,1.2707],[1295193600000,1.2661],[1295280000000,1.268],[1295366400000,1.2705],[1295452800000,1.2659],[1295539200000,1.2659],[1295798400000,1.2645],[1295884800000,1.2634],[1295971200000,1.2645],[1296057600000,1.266],[1296144000000,1.2674],[1296403200000,1.2689],[1296489600000,1.2682],[1297180800000,1.2647],[1297267200000,1.2676],[1297353600000,1.2698],[1297612800000,1.2717],[1297699200000,1.2726],[1297785600000,1.2731],[1297872000000,1.2725],[1297958400000,1.2714],[1298217600000,1.2729],[1298304000000,1.2678],[1298390400000,1.2694],[1298476800000,1.2712],[1298563200000,1.2707],[1298822400000,1.2736],[1298908800000,1.2728],[1298995200000,1.2723],[1299081600000,1.2692],[1299168000000,1.27],[1299427200000,1.2712],[1299513600000,1.2711],[1299600000000,1.2716],[1299686400000,1.2703],[1299772800000,1.2654],[1300032000000,1.2657],[1300118400000,1.2661],[1300204800000,1.2665],[1300291200000,1.2655],[1300377600000,1.2667],[1300636800000,1.2664],[1300723200000,1.2665],[1300809600000,1.2676],[1300896000000,1.2675],[1300982400000,1.2684],[1301241600000,1.2671],[1301328000000,1.2624],[1301414400000,1.2607],[1301500800000,1.2614],[1301587200000,1.2635],[1302019200000,1.2627],[1302105600000,1.2651],[1302192000000,1.2667],[1302451200000,1.2667],[1302537600000,1.2669],[1302624000000,1.2679],[1302710400000,1.267],[1302796800000,1.267],[1303056000000,1.2679],[1303142400000,1.2672],[1303228800000,1.2666],[1303315200000,1.2676],[1303401600000,1.2666],[1303660800000,1.2634],[1303747200000,1.2608],[1303833600000,1.2572],[1303920000000,1.2539],[1304006400000,1.2567],[1304352000000,1.2582],[1304438400000,1.2555],[1304524800000,1.255],[1304611200000,1.2561],[1304870400000,1.2558],[1304956800000,1.2575],[1305043200000,1.2574],[1305129600000,1.2563],[1305216000000,1.2575],[1305475200000,1.2578],[1305561600000,1.2574],[1305648000000,1.2589],[1305734400000,1.2595],[1305820800000,1.2591],[1306080000000,1.2558],[1306166400000,1.2541],[1306252800000,1.2522],[1306339200000,1.2516],[1306425600000,1.2499],[1306684800000,1.2491],[1306771200000,1.251],[1306857600000,1.2533],[1306944000000,1.253],[1307030400000,1.2545],[1307376000000,1.2558],[1307462400000,1.2559],[1307548800000,1.2532],[1307635200000,1.2541],[1307894400000,1.2491],[1307980800000,1.2487],[1308067200000,1.2474],[1308153600000,1.2451],[1308240000000,1.2465],[1308499200000,1.2454],[1308585600000,1.2458],[1308672000000,1.2457],[1308758400000,1.2459],[1308844800000,1.2458],[1309104000000,1.2495],[1309190400000,1.2489],[1309276800000,1.2471],[1309363200000,1.2501],[1309449600000,1.2488],[1309708800000,1.2512],[1309795200000,1.251],[1309881600000,1.2504],[1309968000000,1.258],[1310054400000,1.2609],[1310313600000,1.2606],[1310400000000,1.2593],[1310486400000,1.2588],[1310572800000,1.2596],[1310659200000,1.2606],[1310918400000,1.2587],[1311004800000,1.2532],[1311091200000,1.2501],[1311177600000,1.2453],[1311264000000,1.2449],[1311523200000,1.2401],[1311609600000,1.2399],[1311696000000,1.2426],[1311782400000,1.2418],[131186</t>
+  </si>
+  <si>
+    <t>515650</t>
+  </si>
+  <si>
+    <t>富国中证消费50ETF</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [[1570982400000,1.0],[1571328000000,0.9999],[1571932800000,1.0009],[1572537600000,1.0189],[1572796800000,1.0219],[1573142400000,1.0219],[1573401600000,1.0016],[1573488000000,0.9966],[1573574400000,1.001],[1573660800000,1.0005],[1573747200000,0.9932],[1574006400000,0.9969],[1574092800000,1.0062],[1574179200000,1.0019],[1574265600000,0.9944],[1574352000000,0.9759],[1574611200000,0.9768],[1574697600000,0.9832],[1574784000000,0.9782],[1574870400000,0.9756],[1574956800000,0.9589],[1575216000000,0.9626],[1575302400000,0.9674],[1575388800000,0.9729],[1575475200000,0.9754],[1575561600000,0.9887],[1575820800000,0.9859],[1575907200000,0.9864],[1575993600000,0.9793],[1576080000000,0.9741],[1576166400000,0.9921],[1576425600000,0.9881],[1576512000000,0.9999],[1576598400000,0.9995],[1576684800000,0.9965],[1576771200000,0.9942],[1577030400000,0.9896],[1577116800000,0.9943],[1577203200000,0.9888],[1577289600000,0.9942],[1577376000000,0.9989],[1577635200000,1.0153],[1577721600000,1.0166],[1577894400000,1.0251],[1577980800000,1.0112],[1578240000000,0.9999],[1578326400000,1.0156],[1578412800000,1.0169],[1578499200000,1.0328],[1578585600000,1.0402],[1578844800000,1.0499],[1578931200000,1.042],[1579017600000,1.042],[1579104000000,1.039],[1579190400000,1.0383],[1579449600000,1.0341],[1579536000000,1.0096],[1579622400000,1.0077],[1579708800000,0.9714],[1580659200000,0.8934],[1580745600000,0.9207],[1580832000000,0.934],[1580918400000,0.9509],[1581004800000,0.9536],[1581264000000,0.95],[1581350400000,0.9715],[1581436800000,0.9757],[1581523200000,0.9663],[1581609600000,0.9662],[1581868800000,0.9775],[1581955200000,0.9726],[1582041600000,0.9789],[1582128000000,1.0025],[1582214400000,0.9964],[1582473600000,0.9835],[1582560000000,0.9716],[1582646400000,0.967],[1582732800000,0.9791],[1582819200000,0.9462],[1583078400000,0.9676],[1583164800000,0.9756],[1583251200000,0.9823],[1583337600000,1.0207],[1583424000000,1.0038],[1583683200000,0.967],[1583769600000,0.9935],[1583856000000,0.9859],[1583942400000,0.9621],[1584028800000,0.9467],[1584288000000,0.9063],[1584374400000,0.8916],[1584460800000,0.8786],[1584547200000,0.8581],[1584633600000,0.8834],[1584892800000,0.8539],[1584979200000,0.8818],[1585065600000,0.9064],[1585152000000,0.9012],[1585238400000,0.9117],[1585497600000,0.8982],[1585584000000,0.9173],[1585670400000,0.9122],[1585756800000,0.9254],[1585843200000,0.9252],[1586188800000,0.9495],[1586275200000,0.941],[1586361600000,0.9443],[1586448000000,0.9531],[1586707200000,0.9593],[1586793600000,0.9719],[1586880000000,0.9603],[1586966400000,0.9591],[1587052800000,0.9702],[1587312000000,0.9755],[1587398400000,0.9605],[1587484800000,0.983],[1587571200000,0.9902],[1587657600000,0.9886],[1587916800000,0.9923],[1588003200000,1.0088],[1588089600000,1.0012],[1588176000000,1.0031],[1588694400000,1.0123],[1588780800000,1.0185],[1588867200000,1.0372],[1589126400000,1.0381],[1589212800000,1.0497],[1589299200000,1.0555],[1589385600000,1.0496],[1589472000000,1.0393],[1589731200000,1.0555],[1589817600000,1.0639],[1589904000000,1.058],[1589990400000,1.0575],[1590076800000,1.0276],[1590336000000,1.0409],[1590422400000,1.0577],[1590508800000,1.0538],[1590595200000,1.0527],[1590681600000,1.0686],[1590940800000,1.0987],[1591027200000,1.0935],[1591113600000,1.0886],[1591200000000,1.0969],[1591286400000,1.1065],[1591545600000,1.1181],[1591632000000,1.1281],[1591718400000,1.1251],[1591804800000,1.1105],[1591891200000,1.1215],[1592150400000,1.099],[1592236800000,1.1148],[1592323200000,1.1115],[1592409600000,1.1198],[1592496000000,1.146],[1592755200000,1.1374],[1592841600000,1.1483],[1592928000000,1.1569],[1593360000000,1.1618],[1593446400000,1.1774],[1593532800000,1.2166],[1593619200000,1.236],[1593705600000,1.2437],[1593964800000,1.2919],[1594051200000,1.31],[1594137600000,1.3156],[1594224000000,1.3319],[1594310400000,1.3339],[1594569600000,1.3653],[1594656000000,1.3589],[1594742400000,1.3715],[1594828800000,1.2773],[1594915200000,1.3156],[1595174400000,1.3288],[1595260800000,1.3439],[1595347200000,1.362],[1595433600000,1.3779],[1595520000000,1.3115],[1595779200000,1.3192],[1595865600000,1.3504],[1595952000000,1.3812],[1596038400000,1.3799],[1596124800000,1.3936],[1596384000000,1.4032],[1596470400000,1.3933],[1596556800000,1.3984],[1596643200000,1.3757],[1596729600000,1.37],[1596988800000,1.3766],[1597075200000,1.3793],[1597161600000,1.3573],[1597248000000,1.3563],[1597334400000,1.3806],[1597593600000,1.4009],[1597680000000,1.4109],[1597766400000,1.3977],[1597852800000,1.3757],[1597939200000,1.3924],[1598198400000,1.4121],[1598284800000,1.4316],[1598371200000,1.4219],[1598457600000,1.4302],[1598544000000,1.4782],[1598803200000,1.477],[1598889600000,1.4832],[1598976000000,1.4858],[1599062400000,1.4805],[1599148800000,1.4503],[1599408000000,1.414],[1599494400000,1.4023],[1599580800000,1.3649],[1599667200000,1.3815],[1599753600000,1.394],[1600012800000,1.4085],[1600099200000,1.4258],[1600185600000,1.4033],[1600272000000,1.3856],[1600358400000,1.4064],[1600617600000,1.3897],[1600704000000,1.3796],[1600790400000,1.387],[1600876800000,1.3643],[1600963200000,1.3674],[1601222400000,1.3736],[1601308800000,1.3826],[1601395200000,1.3875],[1602172800000,1.4032],[1602432000000,1.4514],[1602518400000,1.465],[1602604800000,1.4585],[1602691200000,1.4529],[1602777600000,1.4424],[1603036800000,1.4279],[1603123200000,1.4543],[1603209600000,1.4571],[1603296000000,1.4629],[1603382400000,1.4281],[1603641600000,1.4177],[1603728000000,1.4142],[1603814400000,1.446],[1603900800000,1.4839],[1603987200000,1.4479],[1604246400000,1.4677],[1604332800000,1.4804],[1604419200000,1.5029],[1604505600000,1.5194],[1604592000000,1.5295],[1604851200000,1.5549],[1604937600000,1.5454],[1605024000000,1.5332],[1605110400000,1.5447],[1605196800000,1.5301],[1605456000000,1.5451],[1605542400000,1.5393],[1605628800000,1.5229],[1605715200000,1.5522],[1605801600000,1.553],[1606060800000,1.5707],[1606147200000,1.5589],[1606233600000,1.5258],[1606320000000,1.5208],[1606406400000,1.5335],[1606665600000,1.5078],[1606752000000,1.5307],[1606838400000,1.5439],[1606924800000,1.5492],[1607011200000,1.5733],[1607270400000,1.5822],[1607356800000,1.5821],[1607443200000,1.5535],[1607529600000,1.5573],[1607616000000,1.5451],[1607875200000,1.5721],[1607961600000,1.5753],[1608048000000,1.5949],[1608134400000,1.6187],[1608220800000,1.5977],[1608480000000,1.6156],[1608566400000,1.6179],[1608652800000,1.6247],[1608739200000,1.6185],[1608825600000,1.626],[1609084800000,1.6624],[1609171200000,1.6522],[1609257600000,1.6856],[1609344000000,1.7253],[1609689600000,1.7676],[1609776000000,1.8406],[1609862400000,1.8567],[1609948800000,1.9049],[1610035200000,1.8561],[1610294400000,1.8151],[1610380800000,1.8689],[1610467200000,1.8484],[1610553600000,1.793],[1610640000000,1.7642],[1610899200000,1.7559],[1610985600000,1.7159],[1611072000000,1.7331],[1611158400000,1.77],[1611244800000,1.7761],[1611504000000,1.8473],[1611590400000,1.8105],[1611676800000,1.7904],[1611763200000,1.7543],[1611849600000,1.7687],[1612108800000,1.7927],[1612195200000,1.8485],[1612281600000,1.8641],[1612368000000,1.8717],[1612454400000,1.8933],[1612713600000,1.9267],[1612800000000,1.9769],[1612886400000,2.0603],[1613577600000,1.9819],[1613664000000,2.003],[1613923200000,1.879],[1614009600000,1.8681],[1614096000000,1.8098],[1614182400000,1.7961],[1614268800000,1.7464],[1614528000000,1.7796],[1614614400000,1.7442],[1614700800000,1.775],[1614787200000,1.6976],[1614873600000,1.6986],[1615132800000,1.605],[1615219200000,1.5689],[1615305600000,1.6037],[1615392000000,1.6501],[1615478400000,1.6542],[1615737600000,1.593],[1615824000000,1.618],[1615910400000,1.6502],[1615996800000,1.6854],[1616083200000,1.644],[1616342400000,1.6443],[1616428800000,1.6297],[1616515200000,1.6182],[1616601600000,1.6127],[1616688000000,1.6549],[1616947200000,1.6647],[1617033600000,1.679],[1617120000000,1.6566],[1617206400000,1.6978],[1617292800000,1.7552],[1617638400000,1.7297],[1617724800000,1.6859],[1617811200000,1.7017],[1617897600000,1.6629],[1618156800000,1.6424],[1618243200000,1.6329],[1618329600000,1.6556],[1618416000000,1.638],[1618502400000,1.6479],[1618761600000,1.6799],[1618848000000,1.6854],[1618934400000,1.6904],[1619020800000,1.6846],[1619107200000,1.7198],[1619366400000,1.6854],[1619452800000,1.7024],[1619539200000,1.7128],[1619625600000,1.738],[1619712000000,1.7162],[1620230400000,1.6634],[1620316800000,1.6299],[1620576000000,1.6138],[1620662400000,1.6529],[1620748800000,1.6643],[1620835200000,1.6485],[1620921600000,1.6858],[1621180800000,1.729],[1621267200000,1.724],[1621353600000,1.7223],[1621440000000,1.7427],[1621526400000,1.7223],[1621785600000,1.7345],[1621872000000,1.8068],[1621958400000,1.8041],[1622044800000,1.8087],[1622131200000,1.7957],[1622390400000,1.7838],[1622476800000,1.7891],[1622563200000,1.7765],[1622649600000,1.7799],[1622736000000,1.7875],[1622995200000,1.7761],[1623081600000,1.7362],[1623168000000,1.7378],[1623254400000,1.7479],[1623340800000,1.7205],[1623686400000,1.7031],[1623772800000,1.6893],[1623859200000,1.681],[1623945600000,1.6585],[1624204800000,1.6412],[1624291200000,1.6436],[1624377600000,1.6393],[1624464000000,1.6421],[1624550400000,1.6674],[1624809600000,1.6875],[1624896000000,1.6586],[1624982400000,1.6581],[1625068800000,1.6745],[1625155200000,1.6163],[1625414400000,1.593],[1625500800000,1.588],[1625587200000,1.5976],[1625673600000,1.5685],[1625760000000,1.5525],[1626019200000,1.5714],[1626105600000,1.6048],[1626192000000,1.6008],[1626278400000,1.6183],[1626364800000,1.5849]]</t>
+  </si>
+  <si>
+    <t>110022</t>
+  </si>
+  <si>
+    <t>易方达消费行业股票</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [[1282233600000,1.0],[1282838400000,1.001],[1283443200000,1.006],[1284048000000,1.006],[1284652800000,1.004],[1284998400000,1.005],[1285776000000,1.007],[1286467200000,1.013],[1287072000000,0.994],[1287676800000,1.01],[1288022400000,1.019],[1288108800000,1.014],[1288195200000,1.013],[1288281600000,1.017],[1288540800000,1.026],[1288627200000,1.024],[1288713600000,1.024],[1288800000000,1.03],[1288886400000,1.033],[1289145600000,1.038],[1289232000000,1.045],[1289318400000,1.058],[1289404800000,1.051],[1289491200000,1.02],[1289750400000,1.042],[1289836800000,1.027],[1289923200000,1.002],[1290009600000,1.01],[1290096000000,1.026],[1290355200000,1.031],[1290441600000,1.022],[1290528000000,1.036],[1290614400000,1.044],[1290700800000,1.042],[1290960000000,1.044],[1291046400000,1.028],[1291132800000,1.024],[1291219200000,1.02],[1291305600000,1.014],[1291564800000,1.002],[1291651200000,1.009],[1291737600000,1.008],[1291824000000,0.993],[1291910400000,0.999],[1292169600000,1.018],[1292256000000,1.021],[1292342400000,1.016],[1292428800000,1.013],[1292515200000,1.01],[1292774400000,1.002],[1292860800000,1.004],[1292947200000,0.995],[1293033600000,0.985],[1293120000000,0.975],[1293379200000,0.958],[1293465600000,0.952],[1293552000000,0.963],[1293638400000,0.966],[1293724800000,0.983],[1294070400000,0.986],[1294156800000,0.98],[1294243200000,0.975],[1294329600000,0.971],[1294588800000,0.952],[1294675200000,0.95],[1294761600000,0.951],[1294848000000,0.957],[1294934400000,0.948],[1295193600000,0.918],[1295280000000,0.927],[1295366400000,0.94],[1295452800000,0.916],[1295539200000,0.911],[1295798400000,0.894],[1295884800000,0.887],[1295971200000,0.897],[1296057600000,0.905],[1296144000000,0.915],[1296403200000,0.923],[1296489600000,0.921],[1297180800000,0.918],[1297267200000,0.94],[1297353600000,0.949],[1297612800000,0.962],[1297699200000,0.957],[1297785600000,0.962],[1297872000000,0.956],[1297958400000,0.952],[1298217600000,0.967],[1298304000000,0.949],[1298390400000,0.952],[1298476800000,0.951],[1298563200000,0.954],[1298822400000,0.967],[1298908800000,0.975],[1298995200000,0.977],[1299081600000,0.964],[1299168000000,0.972],[1299427200000,0.981],[1299513600000,0.986],[1299600000000,0.987],[1299686400000,0.985],[1299772800000,0.979],[1300032000000,0.987],[1300118400000,0.97],[1300204800000,0.98],[1300291200000,0.964],[1300377600000,0.965],[1300636800000,0.957],[1300723200000,0.956],[1300809600000,0.964],[1300896000000,0.961],[1300982400000,0.964],[1301241600000,0.951],[1301328000000,0.934],[1301414400000,0.931],[1301500800000,0.929],[1301587200000,0.933],[1302019200000,0.924],[1302105600000,0.93],[1302192000000,0.943],[1302451200000,0.935],[1302537600000,0.936],[1302624000000,0.95],[1302710400000,0.948],[1302796800000,0.946],[1303056000000,0.945],[1303142400000,0.947],[1303228800000,0.954],[1303315200000,0.956],[1303401600000,0.953],[1303660800000,0.962],[1303747200000,0.95],[1303833600000,0.944],[1303920000000,0.924],[1304006400000,0.935],[1304352000000,0.948],[1304438400000,0.938],[1304524800000,0.95],[1304611200000,0.955],[1304870400000,0.958],[1304956800000,0.955],[1305043200000,0.958],[1305129600000,0.957],[1305216000000,0.956],[1305475200000,0.955],[1305561600000,0.947],[1305648000000,0.955],[1305734400000,0.957],[1305820800000,0.956],[1306080000000,0.928],[1306166400000,0.923],[1306252800000,0.912],[1306339200000,0.907],[1306425600000,0.894],[1306684800000,0.897],[1306771200000,0.905],[1306857600000,0.917],[1306944000000,0.914],[1307030400000,0.927],[1307376000000,0.93],[1307462400000,0.932],[1307548800000,0.918],[1307635200000,0.923],[1307894400000,0.912],[1307980800000,0.92],[1308067200000,0.915],[1308153600000,0.904],[1308240000000,0.898],[1308499200000,0.887],[1308585600000,0.898],[1308672000000,0.904],[1308758400000,0.914],[1308844800000,0.928],[1309104000000,0.936],[1309190400000,0.935],[1309276800000,0.928],[1309363200000,0.939],[1309449600000,0.941],[1309708800000,0.962],[1309795200000,0.964],[1309881600000,0.963],[1309968000000,0.973],[1310054400000,0.976],[1310313600000,0.989],[1310400000000,0.985],[1310486400000,1.001],[1310572800000,0.996],[1310659200000,0.999],[1310918400000,1.005],[1311004800000,0.991],[1311091200000,0.995],[1311177600000,0.998],[1311264000000,0.999],[1311523200000,0.97],[1311609600000,0.973],[1311696000000,0.985],[1311782400000,0.984],[1311868800000,0.977],[1312128000000,0.974],[1312214400000,0.969],[1312300800000,0.976],[1312387200000,0.982],[1312473600000,0.977],[1312732800000,0.962],[1312819200000,0.968],[1312905600000,0.982],[1312992000000,1.008],[1313078400000,1.01],[1313337600000,1.011],[1313424000000,1.002],[1313510400000,1.001],[1313596800000,0.99],[1313683200000,0.99],[1313942400000,0.969],[1314028800000,0.975],[1314115200000,0.973],[1314201600000,0.989],[1314288000000,0.988],[1314547200000,0.992],[1314633600000,0.987],[1314720000000,0.988],[1314806400000,0.98],[1314892800000,0.97],[1315152000000,0.961],[1315238400000,0.949],[1315324800000,0.965],[1315411200000,0.96],[1315497600000,0.952],[1315843200000,0.943],[1315929600000,0.945],[1316016000000,0.946],[1316102400000,0.948],[1316361600000,0.935],[1316448000000,0.933],[1316534400000,0.949],[1316620800000,0.933],[1316707200000,0.916],[1316966400000,0.9],[1317052800000,0.907],[1317139200000,0.901],[1317225600000,0.889],[1317312000000,0.888],[1318176000000,0.876],[1318262400000,0.869],[1318348800000,0.891],[1318435200000,0.899],[1318521600000,0.896],[1318780800000,0.907],[1318867200000,0.897],[1318953600000,0.892],[1319040000000,0.873],[1319126400000,0.868],[1319385600000,0.885],[1319472000000,0.901],[1319558400000,0.911],[1319644800000,0.913],[1319731200000,0.922],[1319990400000,0.924],[1320076800000,0.927],[1320163200000,0.941],[1320249600000,0.944],[1320336000000,0.95],[1320595200000,0.948],[1320681600000,0.943],[1320768000000,0.949],[1320854400000,0.944],[1320940800000,0.943],[1321200000000,0.953],[1321286400000,0.949],[1321372800000,0.934],[1321459200000,0.933],[1321545600000,0.921],[1321804800000,0.921],[1321891200000,0.924],[1321977600000,0.924],[1322064000000,0.926],[1322150400000,0.922],[1322409600000,0.926],[1322496000000,0.933],[1322582400000,0.916],[1322668800000,0.924],[1322755200000,0.914],[1323014400000,0.897],[1323100800000,0.89],[1323187200000,0.892],[1323273600000,0.891],[1323360000000,0.878],[1323619200000,0.868],[1323705600000,0.853],[1323792000000,0.847],[1323878400000,0.844],[1323964800000,0.855],[1324224000000,0.855],[1324310400000,0.854],[1324396800000,0.846],[1324483200000,0.847],[1324569600000,0.85],[1324828800000,0.84],[1324915200000,0.819],[1325001600000,0.817],[1325088000000,0.823],[1325174400000,0.835],[1325260800000,0.835],[1325606400000,0.811],[1325692800000,0.787],[1325779200000,0.785],[1326038400000,0.799],[1326124800000,0.819],[1326211200000,0.816],[1326297600000,0.807],[1326384000000,0.786],[1326643200000,0.759],[1326729600000,0.785],[1326816000000,0.767],[1326902400000,0.778],[1326988800000,0.797],[1327852800000,0.791],[1327939200000,0.793],[1328025600000,0.791],[1328112000000,0.797],[1328198400000,0.804],[1328457600000,0.811],[1328544000000,0.801],[1328630400000,0.812],[1328716800000,0.815],[1328803200000,0.814],[1329062400000,0.823],[1329148800000,0.824],[1329235200000,0.832],[1329321600000,0.833],[1329408000000,0.831],[1329667200000,0.832],[1329753600000,0.837],[1329840000000,0.846],[1329926400000,0.852],[1330012800000,0.861],[1330272000000,0.866],[1330358400000,0.864],[1330444800000,0.86],[1330531200000,0.864],[1330617600000,0.875],[1330876800000,0.871],[1330963200000,0.865],[1331049600000,0.867],[1331136000000,0.873],[1331222400000,0.888],[1331481600000,0.89],[1331568000000,0.9],[1331654400000,0.884],[1331740800000,0.893],[1331827200000,0.911],[1332086400000,0.909],[1332172800000,0.888],[1332259200000,0.88],[1332345600000,0.877],[1332432000000,0.865],[1332691200000,0.87],[1332777600000,0.86],[1332864000000,0.836],[1332950400000,0.831],[1333036800000,0.828],[1333123200000,0.828],[1333555200000,0.849],[1333641600000,0.853],[1333900800000,0.849],[1333987200000,0.849],[1334073600000,0.85],[1334160000000,0.861],[1334246400000,0.861],[1334505600000,0.861],[1334592000000,0.849],[1334678400000,0.865],[1334764800000,0.86],[1334851200000,0.863],[1335110400000,0.856],[1335196800000,0.851],[1335283200000,0.862],[1335369600000,0.87],[1335456000000,0.87],[1335888000000,0.877],[1335974400000,0.882],[1336060800000,0.896],[1336320000000,0.902],[1336406400000,0.9],[1336492800000,0.886],[1336579200000,0.886],[1336665600000,0.883],[1336924800000,0.874],[1337011200000,0.88],[1337097600000,0.873],[1337184000000,0.88],[1337270400000,0.865],[1337529600000,0.868],[1337616000000,0.878],[1337702400000,0.877],[1337788800000,0.863],[1337875200000,0.852],[1338134400000,0.861],[1338220800000,0.869],[1338307200000,0.864],[1338393600000,0.869],[1338480000000,0.874],[1338739200000,0.859],[1338825600000,0.862],[1338912000000,0.856],[1338998400000,0.86],[1339084800000,0.857],[1339344000000,0.865],[1339430400000,0.87],[1339516800000,0.892],[1339603200000,0.897],[1339689600000,0.888],[1339948800000,0.895],[1340035200000,0.89],[1340121600000,0.885],[1340208000000,0.879],[1340553600000,0.867],[1340640000000,0.866],[1340726400000,0.865],[1340812800000,0.861],[1340899200000,0.873],[1340985600000,0.873],[1341158400000,0.877],[1341244800000,0.885],[1341331200000,0.885],[1341417600000,0.877],[1341504000000,0.901],[1341763200000,0.893],[1341849600000,0.884],[1341936000000,0.889],[1342022400000,0.894],[1342108800000,0.894],[1342368000000,0.869],[1342454400000,0.863],[1342540800000,0.861],[1342627200000,0.866],[1342713600000,0.863],[1342972800000,0.858],[1343059200000,0.864],[1343145600000,0.861],[1343232000000,0.851],[1343318400000,0.849],[1343577600000,0.846],[1343664000000,0.842],[1343750400000,0.847],[1343836800000,0.84],[1343923200000,0.849],[1344182400000,0.859],[1344268800000,0.858],[1344355200000,0.852],[1344441600000,0.869],[1344528000000,0.867],[1344787200000,0.859],[1344873600000,0.858],[1344960000000,0.852],[1345046400000,0.844],[1345132800000,0.838],[1345392000000,0.842],[1345478400000,0.853],[1345564800000,0.844],[1345651200000,0.844],[1345737600000,0.84],[1345996800000,0.833],[1346083200000,0.828],[1346169600000,0.82],[1346256000000,0.808],[1346342400000,0.807],[1346601600000,0.823],[1346688000000,0.814],[1346774400000,0.813],[1346860800000,0.812],[1346947200000,0.834],[1347206400000,0.84],[1347292800000,0.837],[1347379200000,0.838],[1347465600000,0.835],[1347552000000,0.839],[1347811200000,0.825],[1347897600000,0.822],[1347984000000,0.822],[1348070400000,0.81],[1348156800000,0.813],[1348416000000,0.815],[1348502400000,0.817],[1348588800000,0.81],[1348675200000,0.824],[1348761600000,0.839],[1348934400000,0.839],[1349625600000,0.83],[1349712000000,0.844],[1349798400000,0.847],[1349884800000,0.839],[1349971200000,0.839],[1350230400000,0.842],[1350316800000,0.848],[1350403200000,0.846],[1350489600000,0.856],[1350576000000,0.854],[1350835200000,0.853],[1350921600000,0.837],[1351008000000,0.836],[1351094400000,0.831],[1351180800000,0.82],[1351440000000,0.82],[1351526400000,0.823],[1351612800000,0.83],[1351699200000,0.84],[1351785600000,0.841],[1352044800000,0.832],[1352131200000,0.823],[1352217600000,0.823],[1352304000000,0.816],[1352390400000,0.812],[1352649600000,0.802],[1352736000000,0.793],[1352822400000,0.799],[1352908800000,0.793],[1352995200000,0.782],[1353254400000,0.768],[1353340800000,0.767],[1353427200000,0.769],[1353513600000,0.759],[1353600000000,0.768],[1353859200000,0.758],[1353945600000,0.751],[1354032000000,0.744],[1354118400000,0.747],[1354204800000,0.752],[1354464000000,0.729],[1354550400000,0.731],[1354636800000,0.742],[1354723200000,0.737],[1354809600000,0.744],[1355068800000,0.748],[1355155200000,0.75],[1355241600000,0.755],[1355328000000,0.748],[1355414400000,0.765],[1355673600000,0.769],[1355760000000,0.772],[1355846400000,0.779],[1355932800000,0.782],[1356019200000,0.783],[1356278400000,0.78],[1356364800000,0.793],[1356451200000,0.796],[1356537600000,0.798],[1356624000000,0.808],[1356883200000,0.816],[1357228800000,0.811],[1357488000000,0.814],[1357574400000,0.824],[1357660800000,0.832],[1357747200000,0.831],[1357833600000,0.822],[1358092800000,0.843],[1358179200000,0.846],[1358265600000,0.843],[1358352000000,0.842],[1358438400000,0.86],[1358697600000,0.852],[1358784000000,0.841],[1358870400000,0.843],[1358956800000,0.831],[1359043200000,0.829],[1359302400000,0.839],[1359388800000,0.839],[1359475200000,0.843],[1359561600000,0.837],[1359648000000,0.845],[1359907200000,0.839],[1359993600000,0.857],[1360080000000,0.854],[1360166400000,0.865],[1360252800000,0.882],[1361116800000,0.871],[1361203200000,0.855],[1361289600000,0.872],[1361376000000,0.862],[1361462400000,0.864],[1361721600000,0.866],[1361808000000,0.855],[1361894400000,0.853],[1361980800000,0.866],[1362067200000,0.872],[1362326400000,0.859],[1362412800000,0.871],[1362499200000,0.879],[1362585600000,0.873],[1362672000000,0.867],[1362931200000,0.864],[1363017600000,0.855],[1363104000000,0.847],[1363190400000,0.852],[1363276800000,0.855],[1363536000000,0.848],[1363622400000,0.848],[1363708800000,0.868],[1363795200000,0.874],[1363881600000,0.874],[1364140800000,0.866],[1364227200000,0.867],[1364313600000,0.866],[1364400000000,0.855],[1364486400000,0.847],[1364745600000,0.845],[1364832000000,0.837],[1364918400000,0.831],[1365350400000,0.842],[1365436800000,0.843],[1365523200000,0.841],[1365609600000,0.839],[1365696000000,0.842],[1365955200000,0.835],[1366041600000,0.838],[1366128000000,0.851],[1366214400000,0.853],[1366300800000,0.866],[1366560000000,0.864],[1366646400000,0.848],[1366732800000,0.859],[1366819200000,0.853],[1366905600000,0.846],[1367424000000,0.849],[1367510400000,0.863],[1367769600000,0.872],[1367856000000,0.876],[1367942400000,0.884],[1368028800000,0.881],[1368115200000,0.882],[1368374400000,0.875],[1368460800000,0.852],[1368547200000,0.862],[1368633600000,0.877],[1368720000000,0.886],[1368979200000,0.891],[1369065600000,0.891],[1369152000000,0.89],[1369238400000,0.882],[1369324800000,0.883],[1369584000000,0.889],[1369670400000,0.894],[1369756800000,0.896],[1369843200000,0.889],[1369929600000,0.882],[1370188800000,0.879],[1370275200000,0.867],[1370361600000,0.872],[1370448000000,0.87],[1370534400000,0.861],[1371052800000,0.846],[1371139200000,0.854],[1371398400000,0.85],[1371484800000,0.864],[1371571200000,0.866],[1371657600000,0.847],[1371744000000,0.848],[1372003200000,0.817],[1372089600000,0.828],[1372176000000,0.839],[1372262400000,0.834],[1372348800000,0.839],[1372521600000,0.839],[1372608000000,0.855],[1372694400000,0.867],[1372780800000,0.876],[1372867200000,0.878],[1372953600000,0.873],[1373212800000,0.863],[1373299200000,0.864],[1373385600000,0.873],[1373472000000,0.885],[1373558400000,0.883],[1373817600000,0.896],[1373904000000,0.899],[1373990400000,0.883],[1374076800000,0.874],[1374163200000,0.855],[1374422400000,0.867],[1374508800000,0.887],[1374595200000,0.889],[1374681600000,0.881],[1374768000000,0.877],[1375027200000,0.861],[1375113600000,0.859],[1375200000000,0.862],[1375286400000,0.878],[1375372800000,0.882],[1375632000000,0.897],[1375718400000,0.908],[1375804800000,0.909],[1375891200000,0.908],[1375977600000,0.913],[1376236800000,0.918],[1376323200000,0.911],[1376409600000,0.908],[1376496000000,0.898],[1376582400000,0.882],[1376841600000,0.901],[1376928000000,0.902],[1377014400000,0.896],[1377100800000,0.896],[1377187200000,0.892],[1377446400000,0.905],[1377532800000,0.904],[1377619200000,0.895],[1377705600000,0.891],[1377792000000,0.886],[1378051200000,0.889],[1378137600000,0.902],[1378224000000,0.902],[1378310400000,0.911],[1378396800000,0.91],[1378656000000,0.915],[1378742400000,0.918],[1378828800000,0.914],[1378915200000,0.914],[1379001600000,0.928],[1379260800000,0.933],[1379347200000,0.926],[1379433600000,0.927],[1379865600000,0.949],[1379952000000,0.962],[1380038400000,0.961],[1380124800000,0.952],[1380211200000,0.96],[1380470400000,0.968],[1381161600000,0.977],[1381248000000,0.988],[1381334400000,0.99],[1381420800000,1.001],[1381680000000,1.004],[1381766400000,1.008],[1381852800000,0.991],[1381939200000,0.981],[1382025600000,0.993],[1382284800000,1.028],[1382371200000,1.018],[1382457600000,0.988],[1382544000000,0.987],[1382630400000,0.969],[1382889600000,0.965],[1382976000000,0.959],[1383062400000,0.978],[1383148800000,0.949],[1383235200000,0.947],[1383494400000,0.948],[1383580800000,0.953],[1383667200000,0.938],[1383753600000,0.924],[1383840000000,0.913],[1384099200000,0.919],[1384185600000,0.927],[1384272000000,0.912],[1384358400000,0.928],[1384444800000,0.943],[1384704000000,0.952],[1384790400000,0.942],[1384876800000,0.946],[1384963200000,0.938],[1385049600000,0.938],[1385308800000,0.934],[1385395200000,0.931],[1385481600000,0.935],[1385568000000,0.95],[1385654400000,0.952],[1385913600000,0.922],[1386000000000,0.936],[1386086400000,0.949],[1386172800000,0.945],[1386259200000,0.945],[1386518400000,0.954],[1386604800000,0.956],[1386691200000,0.952],[1386777600000,0.957],[1386864000000,0.962],[1387123200000,0.947],[1387209600000,0.938],[1387296000000,0.939],[1387382400000,0.932],[1387468800000,0.927],[1387728000000,0.931],[1387814400000,0.937],[1387900800000,0.947],[1387987200000,0.939],[1388073600000,0.95],[1388332800000,0.954],[1388419200000,0.958],[1388592000000,0.953],[1388678400000,0.952],[1388937600000,0.932],[1389024000000,0.931],[1389110400000,0.946],[1389196800000,0.932],[1389283200000,0.927],[1389542400000,0.923],[1389628800000,0.939],[1389715200000,0.943],[1389801600000,0.939],[1389888000000,0.92],[1390147200000,0.91],[1390233600000,0.917],[1390320000000,0.938],[1390406400000,0.947],[1390492800000,0.948],[1390752000000,0.928],[1390838400000,0.925],[1390924800000,0.924],[1391011200000,0.914],[1391702400000,0.925],[1391961600000,0.948],[1392048000000,0.944],[1392134400000,0.943],[1392220800000,0.936],[1392307200000,0.942],[1392566400000,0.948],[1392652800000,0.936],[1392739200000,0.936],[1392825600000,0.93],[1392912000000,0.922],[1393171200000,0.905],[1393257600000,0.875],[1393344000000,0.872],[1393430400000,0.854],[1393516800000,0.873],[1393776000000,0.893],[1393862400000,0.885],[1393948800000,0.876],[1394035200000,0.872],[1394121600000,0.88],[1394380800000,0.86],[1394467200000,0.865],[1394553600000,0.866],[1394640000000,0.876],[1394726400000,0.869],[1394985600000,0.879],[1395072000000,0.882],[1395158400000,0.865],[1395244800000,0.839],[1395331200000,0.853],[1395590400000,0.85],[1395676800000,0.854],[1395763200000,0.858],[1395849600000,0.846],[1395936000000,0.843],[1396195200000,0.847],[1396281600000,0.858],[1396368000000,0.856],[1396454400000,0.852],[1396540800000,0.862],[1396886400000,0.879],[1396972800000,0.881],[1397059200000,0.889],[1397145600000,0.897],[1397404800000,0.902],[1397491200000,0.89],[1397577600000,0.888],[1397664000000,0.889],[1397750400000,0.888],[1398009600000,0.878],[1398096000000,0.875],[1398182400000,0.877],[1398268800000,0.874],[1398355200000,0.856],[1398614400000,0.839],[1398700800000,0.856],[1398787200000,0.863],[1399219200000,0.87],[1399305600000,0.872],[1399392000000,0.858],[1399478400000,0.856],[1399564800000,0.85],[1399824000000,0.861],[1399910400000,0.861],[1399996800000,0.855],[1400083200000,0.846],[1400169600000,0.841],[1400428800000,0.831],[1400515200000,0.831],[1400601600000,0.838],[1400688000000,0.839],[1400774400000,0.845],[1401033600000,0.854],[1401120000000,0.852],[1401206400000,0.86],[1401292800000,0.854],[1401379200000,0.857],[1401724800000,0.854],[1401811200000,0.848],[1401897600000,0.858],[1401984000000,0.854],[1402243200000,0.849],[1402329600000,0.859],[1402416000000,0.862],[1402502400000,0.863],[1402588800000,0.873],[1402848000000,0.876],[1402934400000,0.864],[1403020800000,0.86],[1403107200000,0.849],[1403193600000,0.852],[1403452800000,0.862],[1403539200000,0.871],[1403625600000,0.867],[1403712000000,0.878],[1403798400000,0.882],[1404057600000,0.883],[1404144000000,0.878],[1404230400000,0.876],[1404316800000,0.878],[1404403200000,0.879],[1404662400000,0.872],[1404748800000,0.879],[1404835200000,0.87],[1404921600000,0.861],[1405008000000,0.869],[1405267200000,0.889],[1405353600000,0.894],[1405440000000,0.887],[1405526400000,0.881],[1405612800000,0.893],[1405872000000,0.896],[1405958400000,0.909],[1406044800000,0.903],[1406131200000,0.912],[1406217600000,0.92],[1406476800000,0.934],[1406563200000,0.936],[1406649600000,0.939],[1406736000000,0.95],[1406822400000,0.947],[1407081600000,0.961],[1407168000000,0.964],[1407254400000,0.961],[1407340800000,0.944],[1407427200000,0.949],[1407686400000,0.962],[1407772800000,0.96],[1407859200000,0.961],[1407945600000,0.956],[1408032000000,0.964],[1408291200000,0.967],[1408377600000,0.97],[1408464000000,0.968],[1408550400000,0.967],[1408636800000,0.974],[1408896000000,0.96],[1408982400000,0.951],[1409068800000,0.953],[1409155200000,0.948],[1409241600000,0.961],[1409500800000,0.976],[1409587200000,0.985],[1409673600000,0.993],[1409760000000,0.994],[1409846400000,1.003],[1410192000000,1.001],[1410278400000,0.996],[1410364800000,0.987],[1410451200000,0.989],[1410710400000,0.988],[1410796800000,0.959],[1410883200000,0.967],[1410969600000,0.973],[1411056000000,0.98],[1411315200000,0.962],[1411401600000,0.967],[1411488000000,0.979],[1411574400000,0.977],[1411660800000,0.978],[1411920000000,0.985],[1412006400000,0.983],[1412697600000,0.992],[1412784000000,0.997],[1412870400000,0.993],[1413129600000,0.983],[1413216000000,0.977],[1413302400000,0.977],[1413388800000,0.961],[1413475200000,0.968],[1413734400000,0.977],[1413820800000,0.969],[1413907200000,0.958],[1413993600000,0.948],[1414080000000,0.949],[1414339200000,0.951],[1414425600000,0.959],[1414512000000,0.968],[1414598400000,0.965],[1414684800000,0.968],[1414944000000,0.966],[1415030400000,0.954],[1415116800000,0.95],[1415203200000,0.954],[1415289600000,0.949],[1415548800000,0.969],[1415635200000,0.95],[1415721600000,0.96],[1415808000000,0.958],[1415894400000,0.963],[1416153600000,0.966],[1416240000000,0.96],[1416326400000,0.956],[1416412800000,0.95],[1416499200000,0.959],[1416758400000,0.966],[1416844800000,0.978],[1416931200000,0.979],[1417017600000,0.983],[1417104000000,0.985],[1417363200000,0.993],[1417449600000,1.011],[1417536000000,1.026],[1417622400000,1.045],[1417708800000,1.028],[1417968000000,1.038],[1418054400000,1.007],[1418140800000,1.042],[1418227200000,1.038],[1418313600000,1.043],[1418572800000,1.059],[1418659200000,1.052],[1418745600000,1.038],[1418832000000,1.046],[1418918400000,1.038],[1419177600000,1.035],[1419264000000,1.033],[1419350400000,1.025],[1419436800000,1.035],[1419523200000,1.043],[1419782400000,1.041],[1419868800000,1.025],[1419955200000,1.039],[1420387200000,1.093],[1420473600000,1.109],[1420560000000,1.1],[1420646400000,1.099],[1420732800000,1.086],[1420992000000,1.094],[1421078400000,1.108],[1421164800000,1.087],[1421251200000,1.095],[1421337600000,1.1],[1421596800000,1.042],[1421683200000,1.074],[1421769600000,1.102],[1421856000000,1.106],[1421942400000,1.095],[1422201600000,1.109],[1422288000000,1.115],[1422374400000,1.105],[1422460800000,1.098],[1422547200000,1.099],[1422806400000,1.09],[1422892800000,1.108],[1422979200000,1.105],[1423065600000,1.096],[1423152000000,1.091],[1423411200000,1.098],[1423497600000,1.114],[1423584000000,1.119],[1423670400000,1.119],[1423756800000,1.126],[1424016000000,1.139],[1424102400000,1.155],[1424793600000,1.149],[1424880000000,1.154],[1424966400000,1.155],[1425225600000,1.165],[1425312000000,1.145],[1425398400000,1.16],[1425484800000,1.146],[1425571200000,1.144],[1425830400000,1.165],[1425916800000,1.172],[1426003200000,1.18],[1426089600000,1.184],[1426176000000,1.193],[1426435200000,1.221],[1426521600000,1.231],[1426608000000,1.245],[1426694400000,1.244],[1426780800000,1.247],[1427040000000,1.274],[1427126400000,1.287],[1427212800000,1.286],[1427299200000,1.283],[1427385600000,1.287],[1427644800000,1.305],[1427731200000,1.297],[1427817600000,1.321],[1427904000000,1.329],[1427990400000,1.333],[1428336000000,1.355],[1428422400000,1.356],[1428508800000,1.337],[1428595200000,1.364],[1428854400000,1.374],[1428940800000,1.371],[1429027200000,1.339],[1429113600000,1.395],[1429200000000,1.412],[1429459200000,1.39],[1429545600000,1.461],[1429632000000,1.479],[1429718400000,1.474],[1429804800000,1.471],[1430064000000,1.481],[1430150400000,1.458],[1430236800000,1.475],[1430323200000,1.47],[1430668800000,1.472],[1430755200000,1.41],[1430841600000,1.397],[1430928000000,1.393],[1431014400000,1.421],[1431273600000,1.453],[1431360000000,1.457],[1431446400000,1.466],[1431532800000,1.451],[1431619200000,1.432],[1431878400000,1.415],[1431964800000,1.452],[1432051200000,1.484],[1432137600000,1.533],[1432224000000,1.562],[1432483200000,1.609],[1432569600000,1.634],[1432656000000,1.614],[1432742400000,1.528],[1432828800000,1.523],[1433088000000,1.585],[1433174400000,1.615],[1433260800000,1.626],[1433347200000,1.609],[1433433600000,1.613],[1433692800000,1.632],[1433779200000,1.63],[1433865600000,1.653],[1433952000000,1.65],[1434038400000,1.688],[1434297600000,1.671],[1434384000000,1.612],[1434470400000,1.628],[1434556800000,1.573],[1434643200000,1.487],[1434988800000,1.559],[1435075200000,1.606],[1435161600000,1.55],[1435248000000,1.45],[1435507200000,1.428],[1435593600000,1.513],[1435680000000,1.448],[1435766400000,1.382],[1435852800000,1.311],[1436112000000,1.325],[1436198400000,1.264],[1436284800000,1.179],[1436371200000,1.275],[1436457600000,1.373],[1436716800000,1.428],[1436803200000,1.393],[1436889600000,1.331],[1436976000000,1.348],[1437062400000,1.396],[1437321600000,1.39],[1437408000000,1.393],[1437494400000,1.387],[1437580800000,1.411],[1437667200000,1.393],[1437926400000,1.284],[1438012800000,1.29],[1438099200000,1.317],[1438185600000,1.29],[1438272000000,1.292],[1438531200000,1.301],[1438617600000,1.334],[1438704000000,1.312],[1438790400000,1.306],[1438876800000,1.324],[1439136000000,1.367],[1439222400000,1.371],[1439308800000,1.345],[1439395200000,1.357],[1439481600000,1.355],[1439740800000,1.361],[1439827200000,1.278],[1439913600000,1.299],[1440000000000,1.258],[1440086400000,1.199],[1440345600000,1.105],[1440432000000,1.068],[1440518400000,1.098],[1440604800000,1.152],[1440691200000,1.184],[1440950400000,1.169],[1441036800000,1.143],[1441123200000,1.151],[1441555200000,1.12],[1441641600000,1.147],[1441728000000,1.17],[1441814400000,1.159],[1441900800000,1.159],[1442160000000,1.126],[1442246400000,1.092],[1442332800000,1.151],[1442419200000,1.121],[1442505600000,1.127],[1442764800000,1.151],[1442851200000,1.155],[1442937600000,1.131],[1443024000000,1.139],[1443110400000,1.116],[1443369600000,1.125],[1443456000000,1.114],[1443542400000,1.128],[1444233600000,1.165],[1444320000000,1.171],[1444579200000,1.204],[1444665600000,1.208],[1444752000000,1.191],[1444838400000,1.213],[1444924800000,1.222],[1445184000000,1.231],[1445270400000,1.235],[1445356800000,1.18],[1445443200000,1.207],[1445529600000,1.234],[1445788800000,1.249],[1445875200000,1.249],[1445961600000,1.227],[1446048000000,1.242],[1446134400000,1.242],[1446393600000,1.231],[1446480000000,1.228],[1446566400000,1.276],[1446652800000,1.282],[1446739200000,1.297],[1446998400000,1.307],[1447084800000,1.303],[1447171200000,1.301],[1447257600000,1.301],[1447344000000,1.279],[1447603200000,1.281],[1447689600000,1.283],[1447776000000,1.272],[1447862400000,1.287],[1447948800000,1.282],[1448208000000,1.27],[1448294400000,1.275],[1448380800000,1.289],[1448467200000,1.286],[1448553600000,1.229],[1448812800000,1.235],[1448899200000,1.248],[1448985600000,1.28],[1449072000000,1.283],[1449158400000,1.275],[1449417600000,1.283],[1449504000000,1.251],[1449590400000,1.258],[1449676800000,1.254],[1449763200000,1.254],[1450022400000,1.274],[1450108800000,1.279],[1450195200000,1.273],[1450281600000,1.295],[1450368000000,1.305],[1450627200000,1.35],[1450713600000,1.36],[1450800000000,1.357],[1450886400000,1.344],[1450972800000,1.344],[1451232000000,1.315],[1451318400000,1.332],[1451404800000,1.33],[1451491200000,1.318],[1451836800000,1.233],[1451923200000,1.241],[1452009600000,1.256],[1452096000000,1.178],[1452182400000,1.197],[1452441600000,1.138],[1452528000000,1.146],[1452614400000,1.129],[1452700800000,1.155],[1452787200000,1.125],[1453046400000,1.132],[1453132800000,1.167],[1453219200000,1.144],[1453305600000,1.11],[1453392000000,1.121],[1453651200000,1.13],[1453737600000,1.081],[1453824000000,1.072],[1453910400000,1.049],[1453996800000,1.078],[1454256000000,1.079],[1454342400000,1.103],[1454428800000,1.103],[1454515200000,1.114],[1454601600000,1.106],[1455465600000,1.096],[1455552000000,1.123],[1455638400000,1.128],[1455724800000,1.122],[1455811200000,1.121],[1456070400000,1.144],[1456156800000,1.143],[1456243200000,1.143],[1456329600000,1.076],[1456416000000,1.084],[1456675200000,1.047],[1456761600000,1.068],[1456848000000,1.113],[1456934400000,1.117],[1457020800000,1.115],[1457280000000,1.124],[1457366400000,1.123],[1457452800000,1.111],[1457539200000,1.107],[1457625600000,1.105],[1457884800000,1.119],[1457971200000,1.119],[1458057600000,1.108],[1458144000000,1.13],[1458230400000,1.15],[1458489600000,1.166],[1458576000000,1.166],[1458662400000,1.167],[1458748800000,1.165],[1458835200000,1.172],[1459094400000,1.181],[1459180800000,1.164],[1459267200000,1.188],[1459353600000,1.194],[1459440000000,1.187],[1459785600000,1.205],[1459872000000,1.219],[1459958400000,1.201],[1460044800000,1.194],[1460304000000,1.209],[1460390400000,1.205],[1460476800000,1.21],[1460563200000,1.22],[1460649600000,1.215],[1460908800000,1.206],[1460995200000,1.211],[1461081600000,1.176],[1461168000000,1.173],[1461254400000,1.194],[1461513600000,1.19],[1461600000000,1.201],[1461686400000,1.206],[1461772800000,1.204],[1461859200000,1.213],[1462204800000,1.259],[1462291200000,1.25],[1462377600000,1.252],[1462464000000,1.212],[1462723200000,1.202],[1462809600000,1.218],[1462896000000,1.235],[1462982400000,1.233],[1463068800000,1.221],[1463328000000,1.238],[1463414400000,1.225],[1463500800000,1.2],[1463587200000,1.199],[1463673600000,1.21],[1463932800000,1.224],[1464019200000,1.209],[1464105600000,1.2],[1464192000000,1.208],[1464278400000,1.207],[1464537600000,1.203],[1464624000000,1.243],[1464710400000,1.246],[1464796800000,1.252],[1464883200000,1.279],[1465142400000,1.284],[1465228800000,1.288],[1465315200000,1.274],[1465747200000,1.239],[1465833600000,1.262],[1465920000000,1.291],[1466006400000,1.284],[1466092800000,1.306],[1466352000000,1.301],[1466438400000,1.287],[1466524800000,1.298],[1466611200000,1.29],[1466697600000,1.279],[1466956800000,1.312],[1467043200000,1.311],[1467129600000,1.311],[1467216000000,1.316],[1467302400000,1.316],[1467561600000,1.334],[1467648000000,1.341],[1467734400000,1.372],[1467820800000,1.364],[1467907200000,1.362],[1468166400000,1.382],[1468252800000,1.426],[1468339200000,1.412],[1468425600000,1.409],[1468512000000,1.422],[1468771200000,1.418],[1468857600000,1.394],[1468944000000,1.391],[1469030400000,1.4],[1469116800000,1.374],[1469376000000,1.375],[1469462400000,1.414],[1469548800000,1.387],[1469635200000,1.41],[1469721600000,1.408],[1469980800000,1.382],[1470067200000,1.381],[1470153600000,1.385],[1470240000000,1.384],[1470326400000,1.377],[1470585600000,1.388],[1470672000000,1.406],[1470758400000,1.397],[1470844800000,1.396],[1470931200000,1.403],[1471190400000,1.432],[1471276800000,1.432],[1471363200000,1.437],[1471449600000,1.424],[1471536000000,1.417],[1471795200000,1.413],[1471881600000,1.412],[1471968000000,1.403],[1472054400000,1.392],[1472140800000,1.389],[1472400000000,1.381],[1472486400000,1.382],[1472572800000,1.386],[1472659200000,1.379],[1472745600000,1.371],[1473004800000,1.376],[1473091200000,1.388],[1473177600000,1.38],[1473264000000,1.377],[1473350400000,1.367],[1473609600000,1.337],[1473696000000,1.342],[1473782400000,1.328],[1474214400000,1.344],[1474300800000,1.342],[1474387200000,1.343],[1474473600000,1.354],[1474560000000,1.351],[1474819200000,1.332],[1474905600000,1.341],[1474992000000,1.342],[1475078400000,1.348],[1475164800000,1.365],[1476028800000,1.377],[1476115200000,1.377],[1476201600000,1.375],[1476288000000,1.369],[1476374400000,1.368],[1476633600000,1.359],[1476720000000,1.375],[1476806400000,1.37],[1476892800000,1.37],[1476979200000,1.369],[1477238400000,1.376],[1477324800000,1.397],[1477411200000,1.404],[1477497600000,1.401],[1477584000000,1.399],[1477843200000,1.404],[1477929600000,1.415],[1478016000000,1.403],[1478102400000,1.405],[1478188800000,1.394],[1478448000000,1.392],[1478534400000,1.406],[1478620800000,1.397],[1478707200000,1.41],[1478793600000,1.404],[1479052800000,1.394],[1479139200000,1.404],[1479225600000,1.4],[1479312000000,1.404],[1479398400000,1.4],[1479657600000,1.402],[1479744000000,1.407],[1479830400000,1.427],[1479916800000,1.446]</t>
+  </si>
+  <si>
+    <t>110003</t>
+  </si>
+  <si>
+    <t>易方达上证50增强A</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [[1079884800000,1.0],[1083254400000,0.9673],[1084118400000,0.9541],[1084204800000,0.9564],[1084291200000,0.9668],[1084377600000,0.9658],[1084464000000,0.9555],[1084723200000,0.9448],[1084809600000,0.9429],[1084896000000,0.9443],[1084982400000,0.9432],[1085068800000,0.9489],[1085328000000,0.949],[1085414400000,0.9426],[1085500800000,0.9477],[1085587200000,0.9588],[1085673600000,0.9547],[1085932800000,0.9573],[1086019200000,0.9659],[1086105600000,0.958],[1086192000000,0.9496],[1086278400000,0.9485],[1086537600000,0.941],[1086624000000,0.9295],[1086710400000,0.923],[1086796800000,0.9236],[1086883200000,0.9225],[1087142400000,0.9115],[1087228800000,0.9211],[1087315200000,0.9252],[1087401600000,0.9127],[1087488000000,0.9027],[1087747200000,0.9011],[1087833600000,0.9085],[1087920000000,0.9037],[1088006400000,0.8992],[1088092800000,0.8925],[1088352000000,0.8882],[1088438400000,0.9],[1088524800000,0.9001],[1088611200000,0.9157],[1088697600000,0.9179],[1088956800000,0.9187],[1089043200000,0.9207],[1089129600000,0.9165],[1089216000000,0.9183],[1089302400000,0.9165],[1089561600000,0.9063],[1089648000000,0.9087],[1089734400000,0.9142],[1089820800000,0.9253],[1089907200000,0.9362],[1090166400000,0.9385],[1090252800000,0.933],[1090339200000,0.934],[1090425600000,0.9153],[1090512000000,0.9167],[1090771200000,0.9092],[1090857600000,0.9066],[1090944000000,0.9091],[1091030400000,0.9178],[1091116800000,0.9107],[1091376000000,0.905],[1091462400000,0.8986],[1091548800000,0.9206],[1091635200000,0.911],[1091721600000,0.9138],[1091980800000,0.9204],[1092067200000,0.9246],[1092153600000,0.9164],[1092240000000,0.9129],[1092326400000,0.9123],[1092585600000,0.9108],[1092672000000,0.916],[1092758400000,0.9177],[1092844800000,0.9144],[1092931200000,0.9159],[1093190400000,0.9054],[1093276800000,0.9093],[1093363200000,0.9071],[1093449600000,0.9068],[1093536000000,0.8986],[1093795200000,0.8963],[1093881600000,0.9056],[1093968000000,0.8928],[1094054400000,0.8918],[1094140800000,0.891],[1094400000000,0.8873],[1094486400000,0.8906],[1094572800000,0.8812],[1094659200000,0.8694],[1094745600000,0.8726],[1095004800000,0.8603],[1095091200000,0.8798],[1095177600000,0.9022],[1095264000000,0.9095],[1095350400000,0.9293],[1095609600000,0.95],[1095696000000,0.9421],[1095782400000,0.9268],[1095868800000,0.9562],[1095955200000,0.9449],[1096214400000,0.9458],[1096300800000,0.9482],[1096387200000,0.9397],[1096473600000,0.9319],[1097164800000,0.9382],[1097424000000,0.9268],[1097510400000,0.9086],[1097596800000,0.9078],[1097683200000,0.8946],[1097769600000,0.8982],[1098028800000,0.8997],[1098115200000,0.9025],[1098201600000,0.9004],[1098288000000,0.8864],[1098374400000,0.9021],[1098633600000,0.8896],[1098720000000,0.9004],[1098806400000,0.9078],[1098892800000,0.9029],[1098979200000,0.895],[1099238400000,0.8914],[1099324800000,0.8912],[1099411200000,0.9036],[1099497600000,0.8887],[1099584000000,0.8886],[1099843200000,0.8915],[1099929600000,0.8926],[1100016000000,0.9202],[1100102400000,0.9147],[1100188800000,0.9179],[1100448000000,0.9253],[1100534400000,0.9259],[1100620800000,0.917],[1100707200000,0.921],[1100793600000,0.9257],[1101052800000,0.9205],[1101139200000,0.9075],[1101225600000,0.9074],[1101312000000,0.9103],[1101398400000,0.9078],[1101657600000,0.902],[1101744000000,0.9016],[1101830400000,0.8967],[1101916800000,0.8899],[1102003200000,0.8889],[1102262400000,0.8916],[1102348800000,0.8866],[1102435200000,0.8889],[1102521600000,0.8964],[1102608000000,0.8897],[1102867200000,0.8877],[1102953600000,0.8847],[1103040000000,0.8909],[1103126400000,0.8908],[1103212800000,0.8807],[1103472000000,0.8687],[1103558400000,0.868],[1103644800000,0.8858],[1103731200000,0.8741],[1103817600000,0.8762],[1104076800000,0.8734],[1104163200000,0.8772],[1104249600000,0.8752],[1104336000000,0.876],[1104422400000,0.877],[1104768000000,0.8595],[1104854400000,0.8617],[1104940800000,0.8524],[1105027200000,0.8534],[1105286400000,0.8608],[1105372800000,0.8642],[1105459200000,0.8643],[1105545600000,0.8619],[1105632000000,0.8569],[1105891200000,0.8418],[1105977600000,0.8454],[1106064000000,0.839],[1106150400000,0.8349],[1106236800000,0.8579],[1106496000000,0.8676],[1106582400000,0.8682],[1106668800000,0.8635],[1106755200000,0.8529],[1106841600000,0.8513],[1107100800000,0.8474],[1107187200000,0.8506],[1107273600000,0.8891],[1107360000000,0.8813],[1107446400000,0.9044],[1108483200000,0.9053],[1108569600000,0.8958],[1108656000000,0.8833],[1108915200000,0.901],[1109001600000,0.9125],[1109088000000,0.9044],[1109174400000,0.9013],[1109260800000,0.9027],[1109520000000,0.8945],[1109606400000,0.8917],[1109692800000,0.8815],[1109779200000,0.8875],[1109865600000,0.8864],[1110124800000,0.891],[1110211200000,0.9019],[1110297600000,0.8954],[1110384000000,0.8788],[1110470400000,0.8816],[1110729600000,0.8908],[1110816000000,0.8722],[1110902400000,0.8637],[1110988800000,0.8588],[1111075200000,0.8541],[1111334400000,0.8585],[1111420800000,0.8525],[1111507200000,0.8468],[1111593600000,0.8504],[1111680000000,0.8504],[1111939200000,0.8523],[1112025600000,0.8499],[1112112000000,0.8388],[1112198400000,0.8439],[1112284800000,0.8694],[1112544000000,0.8603],[1112630400000,0.8557],[1112716800000,0.8727],[1112803200000,0.8753],[1112889600000,0.8879],[1113148800000,0.8759],[1113235200000,0.8656],[1113321600000,0.8801],[1113408000000,0.8727],[1113494400000,0.8659],[1113753600000,0.8554],[1113840000000,0.8554],[1113926400000,0.8479],[1114012800000,0.8469],[1114099200000,0.8488],[1114358400000,0.847],[1114444800000,0.8521],[1114531200000,0.8415],[1114617600000,0.8512],[1114704000000,0.8468],[1115568000000,0.8312],[1115654400000,0.8319],[1115740800000,0.8207],[1115827200000,0.8012],[1115913600000,0.8042],[1116172800000,0.7945],[1116259200000,0.7966],[1116345600000,0.7974],[1116432000000,0.7979],[1116518400000,0.7975],[1116777600000,0.7825],[1116864000000,0.7793],[1116950400000,0.7797],[1117036800000,0.7699],[1117123200000,0.7641],[1117382400000,0.7676],[1117468800000,0.7713],[1117555200000,0.7579],[1117641600000,0.7361],[1117728000000,0.7395],[1117987200000,0.7619],[1118073600000,0.7562],[1118160000000,0.8168],[1118246400000,0.8231],[1118332800000,0.8114],[1118592000000,0.807],[1118678400000,0.8021],[1118764800000,0.7965],[1118851200000,0.8091],[1118937600000,0.8125],[1119196800000,0.8339],[1119283200000,0.8236],[1119369600000,0.8297],[1119456000000,0.8247],[1119542400000,0.8297],[1119801600000,0.8406],[1119888000000,0.8344],[1119974400000,0.8299],[1120060800000,0.8187],[1120147200000,0.8092],[1120406400000,0.8107],[1120492800000,0.8065],[1120579200000,0.8003],[1120665600000,0.8022],[1120752000000,0.797],[1121011200000,0.797],[1121097600000,0.8221],[1121184000000,0.817],[1121270400000,0.8235],[1121356800000,0.821],[1121616000000,0.8198],[1121702400000,0.8204],[1121788800000,0.8264],[1121875200000,0.8274],[1121961600000,0.8386],[1122220800000,0.8344],[1122307200000,0.8509],[1122393600000,0.864],[1122480000000,0.8627],[1122566400000,0.86],[1122825600000,0.861],[1122912000000,0.8679],[1122998400000,0.8666],[1123084800000,0.8632],[1123171200000,0.881],[1123430400000,0.88],[1123516800000,0.8803],[1123603200000,0.8869],[1123689600000,0.899],[1123776000000,0.8885],[1124035200000,0.9031],[1124121600000,0.8899],[1124208000000,0.8961],[1124294400000,0.8785],[1124380800000,0.8806],[1124640000000,0.8871],[1124726400000,0.8825],[1124812800000,0.8893],[1124899200000,0.8862],[1124985600000,0.8845],[1125244800000,0.8746],[1125331200000,0.8723],[1125417600000,0.8798],[1125504000000,0.8917],[1125590400000,0.8924],[1125849600000,0.8894],[1125936000000,0.8778],[1126022400000,0.8861],[1126108800000,0.891],[1126195200000,0.8873],[1126454400000,0.8842],[1126540800000,0.8923],[1126627200000,0.8959],[1126713600000,0.8948],[1126800000000,0.8914],[1127059200000,0.8898],[1127145600000,0.8846],[1127232000000,0.8694],[1127318400000,0.8559],[1127404800000,0.8509],[1127664000000,0.8517],[1127750400000,0.8421],[1127836800000,0.8442],[1127923200000,0.8546],[1128009600000,0.8555],[1128873600000,0.8507],[1128960000000,0.8573],[1129046400000,0.8561],[1129132800000,0.8491],[1129219200000,0.8388],[1129478400000,0.8319],[1129564800000,0.8329],[1129651200000,0.831],[1129737600000,0.8361],[1129824000000,0.8353],[1130083200000,0.8337],[1130169600000,0.8272],[1130256000000,0.8135],[1130342400000,0.819],[1130428800000,0.8177],[1130688000000,0.8275],[1130774400000,0.827],[1130860800000,0.8301],[1130947200000,0.823],[1131033600000,0.8255],[1131292800000,0.8189],[1131379200000,0.8234],[1131465600000,0.8228],[1131552000000,0.8145],[1131638400000,0.8157],[1131897600000,0.8117],[1131984000000,0.8061],[1132070400000,0.8088],[1132156800000,0.8091],[1132243200000,0.8248],[1132502400000,0.8244],[1132588800000,0.8134],[1132675200000,0.8212],[1132761600000,0.8283],[1132848000000,0.8333],[1133107200000,0.8296],[1133193600000,0.8221],[1133280000000,0.8261],[1133366400000,0.8254],[1133452800000,0.8239],[1133712000000,0.8175],[1133798400000,0.826],[1133884800000,0.8344],[1133971200000,0.8325],[1134057600000,0.8443],[1134316800000,0.8413],[1134403200000,0.8398],[1134489600000,0.845],[1134576000000,0.8458],[1134662400000,0.85],[1134921600000,0.8497],[1135008000000,0.8575],[1135094400000,0.8549],[1135180800000,0.8584],[1135267200000,0.8634],[1135526400000,0.8664],[1135612800000,0.8631],[1135699200000,0.8655],[1135785600000,0.8812],[1135872000000,0.8733],[1135958400000,0.8732],[1136304000000,0.8937],[1136390400000,0.9129],[1136476800000,0.9174],[1136736000000,0.9168],[1136822400000,0.9179],[1136908800000,0.9111],[1136995200000,0.9148],[1137081600000,0.9078],[1137340800000,0.8926],[1137427200000,0.8943],[1137513600000,0.9088],[1137600000000,0.9145],[1137686400000,0.9134],[1137945600000,0.9131],[1138032000000,0.9127],[1138118400000,0.9224],[1139155200000,0.9323],[1139241600000,0.9286],[1139328000000,0.9326],[1139414400000,0.9204],[1139500800000,0.9284],[1139760000000,0.9292],[1139846400000,0.9315],[1139932800000,0.9371],[1140019200000,0.929],[1140105600000,0.9305],[1140364800000,0.9311],[1140451200000,0.9446],[1140537600000,0.9441],[1140624000000,0.9514],[1140710400000,0.9564],[1140969600000,0.966],[1141056000000,0.9708],[1141142400000,0.9728],[1141228800000,0.9599],[1141315200000,0.9654],[1141574400000,0.9644],[1141660800000,0.9449],[1141747200000,0.9412],[1141833600000,0.9336],[1141920000000,0.9373],[1142179200000,0.945],[1142265600000,0.9424],[1142352000000,0.9492],[1142438400000,0.9454],[1142524800000,0.9438],[1142784000000,0.9539],[1142870400000,0.9546],[1142956800000,0.9546],[1143043200000,0.9547],[1143129600000,0.9504],[1143388800000,0.9521],[1143475200000,0.9544],[1143561600000,0.9668],[1143648000000,0.9605],[1143734400000,0.9635],[1143993600000,0.9792],[1144080000000,0.9866],[1144166400000,0.9947],[1144252800000,0.9909],[1144339200000,0.9846],[1144598400000,0.9958],[1144684800000,0.9975],[1144771200000,0.9943],[1144857600000,0.9757],[1144944000000,0.9961],[1145203200000,1.0059],[1145289600000,1.0158],[1145376000000,1.0232],[1145462400000,1.0192],[1145548800000,1.039],[1145808000000,1.0376],[1145894400000,1.0315],[1145980800000,1.0508],[1146067200000,1.0477],[1146153600000,1.0719],[1147017600000,1.1036],[1147104000000,1.1247],[1147190400000,1.1312],[1147276800000,1.1203],[1147363200000,1.1666],[1147622400000,1.1998],[1147708800000,1.191],[1147795200000,1.1908],[1147881600000,1.173],[1147968000000,1.2117],[1148227200000,1.2062],[1148313600000,1.1699],[1148400000000,1.1703],[1148486400000,1.1717],[1148572800000,1.1864],[1148832000000,1.2187],[1148918400000,1.2295],[1149004800000,1.2205],[1149091200000,1.2483],[1149177600000,1.2334],[1149436800000,1.2322],[1149523200000,1.2366],[1149609600000,1.1847],[1149696000000,1.1984],[1149782400000,1.1763],[1150041600000,1.1755],[1150128000000,1.1758],[1150214400000,1.1666],[1150300800000,1.1675],[1150387200000,1.194],[1150646400000,1.2064],[1150732800000,1.21],[1150819200000,1.2039],[1150905600000,1.2039],[1150992000000,1.2096],[1151251200000,1.2332],[1151337600000,1.2336],[1151424000000,1.2299],[1151510400000,1.2531],[1151596800000,1.2496],[1151856000000,1.2732],[1151942400000,1.2645],[1152028800000,1.2431],[1152115200000,1.2616],[1152201600000,1.2506],[1152460800000,1.2472],[1152547200000,1.2512],[1152633600000,1.2521],[1152720000000,1.2006],[1152806400000,1.2097],[1153065600000,1.2173],[1153152000000,1.2121],[1153238400000,1.1858],[1153324800000,1.1931],[1153411200000,1.2051],[1153670400000,1.2068],[1153756800000,1.2181],[1153843200000,1.2196],[1153929600000,1.2087],[1154016000000,1.1984],[1154275200000,1.1621],[1154361600000,1.1503],[1154448000000,1.1454],[1154534400000,1.1446],[1154620800000,1.125],[1154880000000,1.1129],[1154966400000,1.1297],[1155052800000,1.1283],[1155139200000,1.1464],[1155225600000,1.1467],[1155484800000,1.1254],[1155571200000,1.1408],[1155657600000,1.1539],[1155744000000,1.1433],[1155830400000,1.1407],[1156089600000,1.1422],[1156176000000,1.1556],[1156262400000,1.1579],[1156348800000,1.1655],[1156435200000,1.1665],[1156694400000,1.1858],[1156780800000,1.1894],[1156867200000,1.1872],[1156953600000,1.187],[1157040000000,1.1696],[1157299200000,1.1829],[1157385600000,1.1894],[1157472000000,1.1938],[1157558400000,1.1838],[1157644800000,1.1884],[1157904000000,1.1964],[1157990400000,1.2042],[1158076800000,1.2057],[1158163200000,1.2067],[1158249600000,1.2318],[1158508800000,1.2332],[1158595200000,1.2391],[1158681600000,1.2366],[1158768000000,1.2464],[1158854400000,1.2345],[1159113600000,1.2321],[1159200000000,1.2171],[1159286400000,1.2293],[1159372800000,1.2442],[1159459200000,1.2588],[1159545600000,1.2588],[1160323200000,1.2937],[1160409600000,1.2961],[1160496000000,1.2929],[1160582400000,1.2869],[1160668800000,1.2904],[1160928000000,1.2775],[1161014400000,1.2663],[1161100800000,1.29],[1161187200000,1.2911],[1161273600000,1.2938],[1161532800000,1.2717],[1161619200000,1.2991],[1161705600000,1.3076],[1161792000000,1.3164],[1161878400000,1.3061],[1162137600000,1.3176],[1162224000000,1.3334],[1162310400000,1.348],[1162396800000,1.3408],[1162483200000,1.3495],[1162742400000,1.3756],[1162828800000,1.3874],[1162915200000,1.372],[1163001600000,1.4009],[1163088000000,1.3937],[1163347200000,1.376],[1163433600000,1.3902],[1163520000000,1.4252],[1163606400000,1.4292],[1163692800000,1.4504],[1163952000000,1.4878],[1164038400000,1.5024],[1164124800000,1.5055],[1164211200000,1.5158],[1164297600000,1.5063],[1164556800000,1.5056],[1164643200000,1.496],[1164729600000,1.5125],[1164816000000,1.5525],[1164902400000,1.5564],[1165161600000,1.6054],[1165248000000,1.6106],[1165334400000,1.6048],[1165420800000,1.614],[1165507200000,1.5644],[1165766400000,1.6303],[1165852800000,1.6497],[1165939200000,1.6522],[1166025600000,1.6815],[1166112000000,1.7037],[1166371200000,1.7426],[1166457600000,1.7488],[1166544000000,1.7482],[1166630400000,1.7213],[1166716800000,1.7181],[1166976000000,1.7738],[1167062400000,1.7894],[1167148800000,1.8358],[1167235200000,1.8489],[1167321600000,1.9097],[1167494400000,1.9095],[1167840000000,1.9329],[1167926400000,1.9076],[1168185600000,1.9394],[1168272000000,2.0073],[1168358400000,2.0379],[1168444800000,2.0085],[1168531200000,1.973],[1168790400000,2.0479],[1168876800000,2.0707],[1168963200000,2.0387],[1169049600000,2.0224],[1169136000000,2.0779],[1169395200000,2.1445],[1169481600000,2.1628],[1169568000000,2.1944],[1169654400000,2.1431],[1169740800000,2.2029],[1170000000000,2.2531],[1170086400000,2.231],[1170172800000,2.0928],[1170259200000,2.0966],[1170345600000,2.0091],[1170604800000,1.968],[1170691200000,2.0122],[1170777600000,2.0588],[1170864000000,2.0803],[1170950400000,2.0602],[1171209600000,2.1364],[1171296000000,2.1622],[1171382400000,2.2202],[1171468800000,2.2763],[1171555200000,2.2713],[1172419200000,2.2713],[1172505600000,2.0729],[1172592000000,2.1317],[1172678400000,2.0675],[1172764800000,2.0967],[1173024000000,2.0518],[1173110400000,2.1051],[1173196800000,2.1567],[1173283200000,2.1768],[1173369600000,2.1739],[1173628800000,2.1705],[1173715200000,2.1727],[1173801600000,2.1265],[1173888000000,2.1666],[1173974400000,2.1337],[1174233600000,2.2012],[1174320000000,2.1979],[1174406400000,2.2133],[1174492800000,2.2289],[1174579200000,2.2193],[1174838400000,2.245],[1174924800000,2.2438],[1175011200000,2.269],[1175097600000,2.2962],[1175184000000,2.2855],[1175270400000,2.2854],[1175443200000,2.3387],[1175529600000,2.3631],[1175616000000,2.3775],[1175702400000,2.3973],[1175788800000,2.4022],[1176048000000,2.444],[1176134400000,2.4729],[1176220800000,2.505],[1176307200000,2.5321],[1176393600000,2.5168],[1176652800000,2.5841],[1176739200000,2.5841],[1176825600000,2.5643],[1176912000000,2.4589],[1176998400000,2.5476],[1177257600000,2.6365],[1177344000000,2.64],[1177430400000,2.6541],[1177516800000,2.6776],[1177603200000,2.6615],[1177862400000,2.7222],[1178553600000,2.7962],[1178640000000,2.8076],[1178726400000,2.8239],[1178812800000,2.8095],[1179072000000,2.8309],[1179158400000,2.7465],[1179244800000,2.79],[1179331200000,2.8242],[1179417600000,2.8162],[1179676800000,2.8219],[1179763200000,2.8266],[1179849600000,2.8389],[1179936000000,2.8343],[1180022400000,2.8467],[1180281600000,2.8659],[1180368000000,2.8855],[1180454400000,2.8134],[1180540800000,2.8473],[1180627200000,2.8342],[1180886400000,2.7645],[1180972800000,2.7989],[1181059200000,2.8024],[1181145600000,2.8324],[1181232000000,2.8311],[1181491200000,2.8601],[1181577600000,2.8872],[1181664000000,2.9094],[1181750400000,2.8972],[1181836800000,2.9081],[1182096000000,2.9475],[1182182400000,2.9451],[1182268800000,2.9179],[1182355200000,2.9392],[1182441600000,2.9143],[1182700800000,2.8832],[1182787200000,2.8903],[1182873600000,2.9287],[1182960000000,2.8937],[1183046400000,2.8747],[1183132800000,2.8747],[1183305600000,2.8741],[1183392000000,2.8895],[1183478400000,2.8629],[1183564800000,2.824],[1183651200000,2.8611],[1183910400000,2.8887],[1183996800000,2.8902],[1184083200000,2.8905],[1184169600000,2.8989],[1184256000000,2.8996],[1184515200000,2.8696],[1184601600000,2.895],[1184688000000,2.9026],[1184774400000,2.9008],[1184860800000,2.9442],[1185120000000,2.9853],[1185206400000,2.9859],[1185292800000,3.0111],[1185379200000,3.0131],[1185465600000,3.0074],[1185724800000,3.0295],[1185811200000,3.0418],[1185897600000,3.0058],[1185984000000,3.0325],[1186070400000,3.0847],[1186329600000,3.1104],[1186416000000,3.1183],[1186502400000,3.1101],[1186588800000,3.1431],[1186675200000,3.143],[1186934400000,3.1471],[1187020800000,3.1635],[1187107200000,3.1685],[1187193600000,3.1367],[1187280000000,3.1065],[1187539200000,3.1704],[1187625600000,3.1911],[1187712000000,3.2042],[1187798400000,3.227],[1187884800000,3.2597],[1188144000000,3.2686],[1188230400000,3.2686],[1188316800000,3.2459],[1188403200000,3.2561],[1188489600000,3.2703],[1188748800000,3.2996],[1188835200000,3.2763],[1188921600000,3.2687],[1189008000000,3.2859],[1189094400000,3.2552],[1189353600000,3.2751],[1189440000000,3.2176],[1189526400000,3.2298],[1189612800000,3.2649],[1189699200000,3.2757],[1189958400000,3.2986],[1190044800000,3.2841],[1190131200000,3.2695],[1190217600000,3.2855],[1190304000000,3.2774],[1190563200000,3.2882],[1190649600000,3.2731],[1190736000000,3.257],[1190822400000,3.271],[1190908800000,3.3065],[1191081600000,3.3064],[1191772800000,3.3343],[1191859200000,3.3386],[1191945600000,3.3457],[1192032000000,3.3833],[1192118400000,3.3834],[1192377600000,3.4234],[1192464000000,3.4385],[1192550400000,3.4196],[1192636800000,3.3658],[1192723200000,3.3647],[1192982400000,3.3359],[1193068800000,3.3605],[1193155200000,3.3796],[1193241600000,3.3266],[1193328000000,3.3464],[1193587200000,3.374],[1193673600000,3.3917],[1193760000000,3.402],[1193846400000,3.3978],[1193932800000,3.3751],[1194192000000,3.3395],[1194278400000,3.3212],[1194364800000,3.3345],[1194451200000,3.273],[1194537600000,3.2688],[1194796800000,3.2633],[1194883200000,3.2509],[1194969600000,3.2976],[1195056000000,3.2818],[1195142400000,3.2603],[1195401600000,3.2477],[1195488000000,3.2652],[1195574400000,3.2456],[1195660800000,3.2009],[1195747200000,3.2203],[1196006400000,3.2059],[1196092800000,3.1809],[1196179200000,3.165],[1196265600000,3.2216],[1196352000000,3.1931],[1196611200000,3.2026],[1196697600000,3.2221],[1196784000000,3.2584],[1196870400000,3.259],[1196956800000,3.2758],[1197216000000,3.2858],[1197302400000,3.2836],[1197388800000,3.2631],[1197475200000,3.2193],[1197561600000,3.2393],[1197820800000,3.1997],[1197907200000,3.1935],[1197993600000,3.2282],[1198080000000,3.2548],[1198166400000,3.2658],[1198425600000,3.2916],[1198512000000,3.2914],[1198598400000,3.2946],[1198684800000,3.3222],[1198771200000,3.3153],[1198857600000,3.3152],[1199030400000,3.3151],[1199203200000,3.3111],[1199289600000,3.321],[1199376000000,3.3344],[1199635200000,3.3535],[1199721600000,3.3638],[1199808000000,3.3805],[1199894400000,3.391],[1199980800000,3.4092],[1200240000000,3.4156],[1200326400000,3.3999],[1200412800000,3.3428],[1200499200000,3.3112],[1200585600000,3.3148],[1200844800000,3.2489],[1200931200000,3.1653],[1201017600000,3.2158],[1201104000000,3.2099],[1201190400000,3.2268],[1201449600000,3.1376],[1201536000000,3.1392],[1201622400000,3.1194],[1201708800000,3.1097],[1201795200000,3.1158],[1202054400000,3.2139],[1202140800000,3.2058],[1202832000000,3.1703],[1202918400000,3.186],[1203004800000,3.1693],[1203264000000,3.1913],[1203350400000,3.2168],[1203436800000,3.1777],[1203523200000,3.1618],[1203609600000,3.1042],[1203868800000,3.0661],[1203955200000,3.0723],[1204041600000,3.1017],[1204128000000,3.0964],[1204214400000,3.1057],[1204473600000,3.1299],[1204560000000,3.0869],[1204646400000,3.0652],[1204732800000,3.0841],[1204819200000,3.0705],[1205078400000,3.0214],[1205164800000,3.0199],[1205251200000,2.9811],[1205337600000,2.9622],[1205424000000,2.9514],[1205683200000,2.9224],[1205769600000,2.894],[1205856000000,2.9214],[1205942400000,2.9531],[1206028800000,2.9603],[1206288000000,2.905],[1206374400000,2.9137],[1206460800000,2.9181],[1206547200000,2.8718],[1206633600000,2.92],[1206892800000,2.8901],[1206979200000,2.8508],[1207065600000,2.8594],[1207152000000,2.8882],[1207497600000,2.9292],[1207584000000,2.9339],[1207670400000,2.8814],[1207756800000,2.8901],[1207843200000,2.8974],[1208102400000,2.8364],[1208188800000,2.8432],[1208275200000,2.8215],[1208361600000,2.7979],[1208448000000,2.7714],[1208707200000,2.7775],[1208793600000,2.7985],[1208880000000,2.8393],[1208966400000,2.9233],[1209052800000,2.9209],[1209312000000,2.9003],[1209398400000,2.9147],[1209484800000,2.9699],[1209916800000,2.9837],[1210003200000,2.971],[1210089600000,2.9245],[1210176000000,2.9441],[1210262400000,2.9245],[1210521600000,2.9293],[1210608000000,2.9146],[1210694400000,2.9479],[1210780800000,2.942],[1210867200000,2.9422],[1211126400000,2.9318],[1211212800000,2.8855],[1211299200000,2.9061],[1211385600000,2.8895],[1211472000000,2.8875],[1211731200000,2.8572],[1211817600000,2.8565],[1211904000000,2.8851],[1211990400000,2.8638],[1212076800000,2.8743],[1212336000000,2.8774],[1212422400000,2.8763],[1212508800000,2.8569],[1212595200000,2.8497],[1212681600000,2.8439],[1213027200000,2.7712],[1213113600000,2.7584],[1213200000000,2.7409],[1213286400000,2.7233],[1213545600000,2.7276],[1213632000000,2.7102],[1213718400000,2.7467],[1213804800000,2.6914],[1213891200000,2.71],[1214150400000,2.6884],[1214236800000,2.6967],[1214323200000,2.7236],[1214409600000,2.718],[1214496000000,2.6773],[1214755200000,2.666],[1214841600000,2.6319],[1214928000000,2.6291],[1215014400000,2.6416],[1215100800000,2.6377],[1215360000000,2.6779],[1215446400000,2.6811],[1215532800000,2.7115],[1215619200000,2.701],[1215705600000,2.6937],[1215964800000,2.6988],[1216051200000,2.6652],[1216137600000,2.6433],[1216224000000,2.6368],[1216310400000,2.6642],[1216569600000,2.6879],[1216656000000,2.6847],[1216742400000,2.6814],[1216828800000,2.7102],[1216915200000,2.7004],[1217174400000,2.7082],[1217260800000,2.6932],[1217347200000,2.688],[1217433600000,2.6671],[1217520000000,2.6784],[1217779200000,2.6602],[1217865600000,2.6463],[1217952000000,2.6551],[1218038400000,2.6532],[1218124800000,2.6249],[1218384000000,2.6019],[1218470400000,2.5993],[1218556800000,2.5981],[1218643200000,2.5942],[1218729600000,2.5981],[1218988800000,2.5651],[1219075200000,2.573],[1219161600000,2.6248],[1219248000000,2.6008],[1219334400000,2.5899],[1219593600000,2.5906],[1219680000000,2.5753],[1219766400000,2.5746],[1219852800000,2.5804],[1219939200000,2.5939],[1220198400000,2.5706],[1220284800000,2.5612],[1220371200000,2.5499],[1220457600000,2.5494],[1220544000000,2.5336],[1220803200000,2.5219],[1220889600000,2.5261],[1220976000000,2.5269],[1221062400000,2.5037],[1221148800000,2.5045],[1221494400000,2.4602],[1221580800000,2.4337],[1221667200000,2.4269],[1221753600000,2.4782],[1222012800000,2.513],[1222099200000,2.4968],[1222185600000,2.4993],[1222272000000,2.5262],[1222358400000,2.5301],[1222704000000,2.53],[1223222400000,2.4896],[1223308800000,2.4786],[1223395200000,2.4535],[1223481600000,2.4468],[1223568000000,2.4261],[1223827200000,2.4551],[1223913600000,2.4373],[1224000000000,2.4321],[1224086400000,2.406],[1224172800000,2.4091],[1224432000000,2.4279],[1224518400000,2.4216],[1224604800000,2.4061],[1224691200000,2.4016],[1224777600000,2.3822],[1225036800000,2.3452],[1225123200000,2.3638],[1225209600000,2.35],[1225296000000,2.3638],[1225382400000,2.3522],[1225641600000,2.3508],[1225728000000,2.3464],[1225814400000,2.3671],[1225900800000,2.3539],[1225987200000,2.3645],[1226246400000,2.4038],[1226332800000,2.396],[1226419200000,2.4007],[1226505600000,2.4206],[1226592000000,2.4341],[1226851200000,2.4418],[1226937600000,2.4021],[1227024000000,2.4332],[1227110400000,2.4232],[1227196800000,2.4198],[1227456000000,2.3964],[1227542400000,2.3956],[1227628800000,2.3981],[1227715200000,2.4031],[1227801600000,2.3874],[1228060800000,2.3921],[1228147200000,2.3899],[1228233600000,2.416],[1228320000000,2.4289],[1228406400000,2.4352],[1228665600000,2.459],[1228752000000,2.4409],[1228838400000,2.4599],[1228924800000,2.4446],[1229011200000,2.4186],[1229270400000,2.422],[1229356800000,2.4244],[1229443200000,2.4232],[1229529600000,2.4394],[1229616000000,2.4394],[1229875200000,2.4268],[1229961600000,2.401],[1230048000000,2.3932],[1230134400000,2.3888],[1230220800000,2.3882],[1230480000000,2.3847],[1230566400000,2.3798],[1230652800000,2.3783],[1231084800000,2.3966],[1231171200000,2.4144],[1231257600000,2.4085],[1231344000000,2.3949],[1231430400000,2.4006],[1231689600000,2.3978],[1231776000000,2.3872],[1231862400000,2.4122],[1231948800000,2.4081],[1232035200000,2.4216],[1232294400000,2.4319],[1232380800000,2.4351],[1232467200000,2.4337],[1232553600000,2.4385],[1232640000000,2.4351],[1233504000000,2.435],[1233590400000,2.4486],[1233676800000,2.4665],[1233763200000,2.465],[1233849600000,2.4861],[1234108800000,2.4959],[1234195200000,2.4977],[1234281600000,2.4975],[1234368000000,2.4852],[1234454400000,2.5056],[1234713600000,2.529],[1234800000000,2.5089],[1234886400000,2.4778],[1234972800000,2.479],[1235059200000,2.4856],[1235318400000,2.5004],[1235404800000,2.465],[1235491200000,2.4734],[1235577600000,2.4546],[1235664000000,2.4528],[1235923200000,2.453],[1236009600000,2.4418],[1236096000000,2.4816],[1236182400000,2.4893],[1236268800000,2.4839],[1236528000000,2.4623],[1236614400000,2.4736],[1236700800000,2.4686],[1236787200000,2.4666],[1236873600000,2.4648],[1237132800000,2.4759],[1237219200000,2.4922],[1237305600000,2.4911],[1237392000000,2.5021],[1237478400000,2.4977],[1237737600000,2.5135],[1237824000000,2.5182],[1237910400000,2.5077],[1237996800000,2.5281],[1238083200000,2.5343],[1238342400000,2.5305],[1238428800000,2.5348],[1238515200000,2.5419],[1238601600000,2.5511],[1238688000000,2.5567],[1239033600000,2.556],[1239120000000,2.529],[1239206400000,2.542],[1239292800000,2.5578],[1239552000000,2.5758],[1239638400000,2.5781],[1239724800000,2.5749],[1239811200000,2.5727],[1239897600000,2.5653],[1240156800000,2.5777],[1240243200000,2.5683],[1240329600000,2.5486],[1240416000000,2.5502],[1240502400000,2.5457],[1240761600000,2.5347],[1240848000000,2.5342],[1240934400000,2.5608],[1241020800000,2.5597],[1241366400000,2.5831],[1241452800000,2.5842],[1241539200000,2.5918],[1241625600000,2.5943],[1241712000000,2.6056],[1241971200000,2.5972],[1242057600000,2.6099],[1242144000000,2.6174],[1242230400000,2.6054],[1242316800000,2.6059],[1242576000000,2.6153],[1242662400000,2.623],[1242748800000,2.6116],[1242835200000,2.5942],[1242921600000,2.5926],[1243180800000,2.5942],[1243267200000,2.5864],[1243353600000,2.6042],[1243785600000,2.6349],[1243872000000,2.6329],[1243958400000,2.6591],[1244044800000,2.6705],[1244131200000,2.667],[1244390400000,2.6752],[1244476800000,2.6782],[1244563200000,2.6816],[1244649600000,2.6765],[1244736000000,2.6604],[1244995200000,2.6828],[1245081600000,2.6777],[1245168000000,2.6877],[1245254400000,2.7045],[1245340800000,2.7126],[1245600000000,2.7179],[1245686400000,2.7221],[1245772800000,2.7235],[1245859200000,2.7238],[1245945600000,2.7275],[1246204800000,2.7443],[1246291200000,2.7409],[1246377600000,2.762],[1246464000000,2.7747],[1246550400000,2.7843],[1246809600000,2.7985],[1246896000000,2.7867],[1246982400000,2.7816],[1247068800000,2.789],[1247155200000,2.7862],[1247414400000,2.7678],[1247500800000,2.7965],[1247587200000,2.8039],[1247673600000,2.8135],[1247760000000,2.8147],[1248019200000,2.8312],[1248105600000,2.8221],[1248192000000,2.8412],[1248278400000,2.8535],[1248364800000,2.857],[1248624000000,2.8783],[1248710400000,2.8756],[1248796800000,2.8318],[1248883200000,2.861],[1248969600000,2.8837],[1249228800000,2.8916],[1249315200000,2.8811],[1249401600000,2.864],[1249488000000,2.8427],[1249574400000,2.8221],[1249833600000,2.8151],[1249920000000,2.8146],[1250006400000,2.7727],[1250092800000,2.7851],[1250179200000,2.7632],[1250438400000,2.7163],[1250524800000,2.7194],[1250611200000,2.6807],[1250697600000,2.7177],[1250784000000,2.7309],[1251043200000,2.731],[1251129600000,2.692],[1251216000000,2.7025],[1251302400000,2.6936],[1251388800000,2.6628],[1251648000000,2.61],[1251734400000,2.6225],[1251820800000,2.6404],[1251907200000,2.6783],[1251993600000,2.6806],[1252252800000,2.6849],[1252339200000,2.6995],[1252425600000,2.7025],[1252512000000,2.695],[1252598400000,2.7237],[1252857600000,2.7335],[1252944000000,2.7331],[1253030400000,2.7173],[1253116800000,2.7339],[1253203200000,2.7035],[1253462400000,2.7018],[1253548800000,2.683],[1253635200000,2.6722],[1253721600000,2.6848],[1253808000000,2.6799],[1254067200000,2.6576],[1254153600000,2.664],[1254240000000,2.6719],[1255017600000,2.7112],[1255276800000,2.7064],[1255363200000,2.7204],[1255449600000,2.7284],[1255536000000,2.7326],[1255622400000,2.7316],[1255881600000,2.7508],[1255968000000,2.766],[1256054400000,2.7655],[1256140800000,2.7588],[1256227200000,2.7772],[1256486400000,2.7787],[1256572800000,2.7547],[1256659200000,2.7525],[1256745600000,2.7321],[1256832000000,2.7427],[1257091200000,2.7759],[1257177600000,2.7837],[1257264000000,2.7881],[1257350400000,2.7882],[1257436800000,2.7913],[1257696000000,2.7939],[1257782400000,2.7949],[1257868800000,2.791],[1257955200000,2.7898],[1258041600000,2.7961],[1258300800000,2.8236],[1258387200000,2.8244],[1258473600000,2.8231],[1258560000000,2.8208],[1258646400000,2.8133],[1258905600000,2.8171],[1258992000000,2.7931],[1259078400000,2.8085],[1259164800000,2.7691],[1259251200000,2.7444],[1259510400000,2.7722],[1259596800000,2.7783],[1259683200000,2.7867],[1259769600000,2.7803],[1259856000000,2.8117],[1260115200000,2.8131],[1260201600000,2.7977],[1260288000000,2.7767],[1260374400000,2.7825],[1260460800000,2.7817],[1260720000000,2.796],[1260806400000,2.7857],[1260892800000,2.7811],[1260979200000,2.7641],[1261065600000,2.7489],[1261324800000,2.7428],[1261411200000,2.7214],[1261497600000,2.7253],[1261584000000,2.7478],[1261670400000,2.7399],[1261929600000,2.7533],[1262016000000,2.7608],[1262102400000,2.7831],[1262188800000,2.787],[1262534400000,2.7735],[1262620800000,2.7817],[1262707200000,2.7708],[1262793600000,2.7546],[1262880000000,2.7554],[1263139200000,2.7606],[1263225600000,2.7695],[1263312000000,2.732],[1263398400000,2.7389],[1263484800000,2.7396],[1263744000000,2.737],[1263830400000,2.7408],[1263916800000,2.7139],[1264003200000,2.7202],[1264089600000,2.7212],[1264348800000,2.7126],[1264435200000,2.6972],[1264521600000,2.6806],[1264608000000,2.6769],[1264694400000,2.6742],[1264953600000,2.6617],[1265040000000,2.6642],[1265126400000,2.6866],[1265212800000,2.6806],[1265299200000,2.6661],[1265558400000,2.6627],[1265644800000,2.6694],[1265731200000,2.6816],[1265817600000,2.6834],[1265904000000,2.6889],[1266768000000,2.6826],[1266854400000,2.6663],[1266940800000,2.6742],[1267027200000,2.6863],[1267113600000,2.6838],[1267372800000,2.6959],[1267459200000,2.6936],[1267545600000,2.6963],[1267632000000,2.6783],[1267718400000,2.6807]</t>
+  </si>
+  <si>
+    <t>270002</t>
+  </si>
+  <si>
+    <t>广发稳健增长混合A</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [[1090771200000,1.0],[1091116800000,0.9993],[1091721600000,1.0002],[1092326400000,0.9989],[1092931200000,0.9999],[1093363200000,0.9974],[1093449600000,0.9977],[1093536000000,0.9945],[1093795200000,0.993],[1093881600000,0.9959],[1093968000000,0.992],[1094054400000,0.9922],[1094140800000,0.9926],[1094400000000,0.9904],[1094486400000,0.9906],[1094572800000,0.988],[1094659200000,0.9835],[1094745600000,0.9856],[1095004800000,0.9812],[1095091200000,0.9886],[1095177600000,0.9983],[1095264000000,1.0014],[1095350400000,1.0123],[1095609600000,1.0215],[1095696000000,1.0212],[1095782400000,1.0184],[1095868800000,1.035],[1095955200000,1.0273],[1096214400000,1.0281],[1096300800000,1.0369],[1096387200000,1.033],[1096473600000,1.0301],[1097164800000,1.0476],[1097424000000,1.0464],[1097510400000,1.0281],[1097596800000,1.0293],[1097683200000,1.0078],[1097769600000,1.0108],[1098028800000,1.0074],[1098115200000,1.0119],[1098201600000,1.0168],[1098288000000,1.0258],[1098374400000,1.0406],[1098633600000,1.044],[1098720000000,1.0526],[1098806400000,1.0492],[1098892800000,1.0435],[1098979200000,1.0351],[1099238400000,1.026],[1099324800000,1.0231],[1099411200000,1.0326],[1099497600000,1.0155],[1099584000000,1.0108],[1099843200000,1.016],[1099929600000,1.0196],[1100016000000,1.0408],[1100102400000,1.0344],[1100188800000,1.0341],[1100448000000,1.039],[1100534400000,1.0393],[1100620800000,1.0353],[1100707200000,1.0405],[1100793600000,1.0444],[1101052800000,1.0388],[1101139200000,1.0309],[1101225600000,1.0315],[1101312000000,1.0315],[1101398400000,1.03],[1101657600000,1.019],[1101744000000,1.0172],[1101830400000,1.0121],[1101916800000,1.0049],[1102003200000,1.0066],[1102262400000,1.0067],[1102348800000,1.0016],[1102435200000,1.005],[1102521600000,1.01],[1102608000000,1.0037],[1102867200000,1.0043],[1102953600000,1.006],[1103040000000,1.0064],[1103126400000,1.0045],[1103212800000,0.9986],[1103472000000,0.9855],[1103558400000,0.9784],[1103644800000,0.9882],[1103731200000,0.9795],[1103817600000,0.9804],[1104076800000,0.9799],[1104163200000,0.9859],[1104249600000,0.9885],[1104336000000,0.9888],[1104422400000,0.9949],[1104768000000,0.9829],[1104854400000,0.988],[1104940800000,0.9852],[1105027200000,0.9898],[1105286400000,0.9967],[1105372800000,1.0001],[1105459200000,1.0005],[1105545600000,1.0044],[1105632000000,1.0024],[1105891200000,0.9952],[1105977600000,0.9941],[1106064000000,0.9898],[1106150400000,0.984],[1106236800000,0.9966],[1106496000000,1.0074],[1106582400000,1.0141],[1106668800000,1.0137],[1106755200000,1.0098],[1106841600000,1.0089],[1107100800000,1.0092],[1107187200000,1.0043],[1107273600000,1.0314],[1107360000000,1.0315],[1107446400000,1.0469],[1108483200000,1.051],[1108569600000,1.0445],[1108656000000,1.0368],[1108915200000,1.0488],[1109001600000,1.0632],[1109088000000,1.061],[1109174400000,1.0587],[1109260800000,1.0636],[1109520000000,1.0606],[1109606400000,1.0595],[1109692800000,1.0505],[1109779200000,1.055],[1109865600000,1.0627],[1110124800000,1.0768],[1110211200000,1.0872],[1110297600000,1.0957],[1110384000000,1.086],[1110470400000,1.1037],[1110729600000,1.1166],[1110816000000,1.1058],[1110902400000,1.0962],[1110988800000,1.0977],[1111075200000,1.0873],[1111334400000,1.0971],[1111420800000,1.1078],[1111507200000,1.0975],[1111593600000,1.0814],[1111680000000,1.08],[1111939200000,1.0929],[1112025600000,1.0852],[1112112000000,1.0788],[1112198400000,1.0826],[1112284800000,1.11],[1112544000000,1.1162],[1112630400000,1.1214],[1112716800000,1.1458],[1112803200000,1.145],[1112889600000,1.153],[1113148800000,1.132],[1113235200000,1.1263],[1113321600000,1.1376],[1113408000000,1.1348],[1113494400000,1.1264],[1113753600000,1.1231],[1113840000000,1.1116],[1113926400000,1.1103],[1114012800000,1.1238],[1114099200000,1.1214],[1114358400000,1.1235],[1114444800000,1.1322],[1114531200000,1.1351],[1114617600000,1.1393],[1114704000000,1.1352],[1115568000000,1.1195],[1115654400000,1.1097],[1115740800000,1.0937],[1115827200000,1.0833],[1115913600000,1.0776],[1116172800000,1.073],[1116259200000,1.0783],[1116345600000,1.0622],[1116432000000,1.0601],[1116518400000,1.0638],[1116777600000,1.0552],[1116864000000,1.054],[1116950400000,1.0533],[1117036800000,1.0382],[1117123200000,1.0188],[1117382400000,1.025],[1117468800000,1.0268],[1117555200000,1.014],[1117641600000,0.9801],[1117728000000,0.9863],[1117987200000,1.0206],[1118073600000,1.0191],[1118160000000,1.0778],[1118246400000,1.0771],[1118332800000,1.0593],[1118592000000,1.0532],[1118678400000,1.0482],[1118764800000,1.0417],[1118851200000,1.0551],[1118937600000,1.0509],[1119196800000,1.0782],[1119283200000,1.0746],[1119369600000,1.088],[1119456000000,1.0837],[1119542400000,1.084],[1119801600000,1.098],[1119888000000,1.0858],[1119974400000,1.0827],[1120060800000,1.0756],[1120147200000,1.0638],[1120406400000,1.0655],[1120492800000,1.0663],[1120579200000,1.0502],[1120665600000,1.049],[1120752000000,1.0502],[1121011200000,1.0486],[1121097600000,1.0636],[1121184000000,1.0593],[1121270400000,1.0646],[1121356800000,1.0645],[1121616000000,1.0554],[1121702400000,1.0552],[1121788800000,1.0632],[1121875200000,1.0626],[1121961600000,1.0704],[1122220800000,1.0697],[1122307200000,1.0785],[1122393600000,1.0905],[1122480000000,1.0905],[1122566400000,1.0872],[1122825600000,1.0889],[1122912000000,1.0938],[1122998400000,1.0954],[1123084800000,1.0967],[1123171200000,1.1097],[1123430400000,1.1032],[1123516800000,1.1014],[1123603200000,1.1052],[1123689600000,1.1281],[1123776000000,1.1137],[1124035200000,1.1248],[1124121600000,1.115],[1124208000000,1.1237],[1124294400000,1.1025],[1124380800000,1.1027],[1124640000000,1.1106],[1124726400000,1.1088],[1124812800000,1.1119],[1124899200000,1.109],[1124985600000,1.1067],[1125244800000,1.1027],[1125331200000,1.1012],[1125417600000,1.1122],[1125504000000,1.1258],[1125590400000,1.1271],[1125849600000,1.1285],[1125936000000,1.1196],[1126022400000,1.1335],[1126108800000,1.1392],[1126195200000,1.1361],[1126454400000,1.1403],[1126540800000,1.1571],[1126627200000,1.1605],[1126713600000,1.1593],[1126800000000,1.1559],[1127059200000,1.1521],[1127145600000,1.1445],[1127232000000,1.1352],[1127318400000,1.1214],[1127404800000,1.1215],[1127664000000,1.1244],[1127750400000,1.1195],[1127836800000,1.1197],[1127923200000,1.1323],[1128009600000,1.1354],[1128873600000,1.1327],[1128960000000,1.1377],[1129046400000,1.1402],[1129132800000,1.1348],[1129219200000,1.1244],[1129478400000,1.1252],[1129564800000,1.1277],[1129651200000,1.1284],[1129737600000,1.131],[1129824000000,1.1339],[1130083200000,1.135],[1130169600000,1.1267],[1130256000000,1.1147],[1130342400000,1.1183],[1130428800000,1.1133],[1130688000000,1.1194],[1130774400000,1.1197],[1130860800000,1.1202],[1130947200000,1.1089],[1131033600000,1.1096],[1131292800000,1.105],[1131379200000,1.1089],[1131465600000,1.1121],[1131552000000,1.1067],[1131638400000,1.107],[1131897600000,1.1016],[1131984000000,1.0915],[1132070400000,1.0939],[1132156800000,1.0929],[1132243200000,1.1042],[1132502400000,1.1056],[1132588800000,1.1043],[1132675200000,1.1109],[1132761600000,1.1119],[1132848000000,1.112],[1133107200000,1.107],[1133193600000,1.0989],[1133280000000,1.098],[1133366400000,1.0932],[1133452800000,1.0905],[1133712000000,1.0832],[1133798400000,1.0852],[1133884800000,1.09],[1133971200000,1.0901],[1134057600000,1.1004],[1134316800000,1.1006],[1134403200000,1.0987],[1134489600000,1.1063],[1134576000000,1.1084],[1134662400000,1.1154],[1134921600000,1.1137],[1135008000000,1.1195],[1135094400000,1.1211],[1135180800000,1.1332],[1135267200000,1.1395],[1135526400000,1.1456],[1135612800000,1.1449],[1135699200000,1.1495],[1135785600000,1.1655],[1135872000000,1.1603],[1135958400000,1.1603],[1136304000000,1.1711],[1136390400000,1.1871],[1136476800000,1.2013],[1136736000000,1.2047],[1136822400000,1.2121],[1136908800000,1.215],[1136995200000,1.2187],[1137081600000,1.2139],[1137340800000,1.2052],[1137427200000,1.2045],[1137513600000,1.2196],[1137600000000,1.222],[1137686400000,1.2331],[1137945600000,1.233],[1138032000000,1.235],[1138118400000,1.2467],[1139155200000,1.2711],[1139241600000,1.2779],[1139328000000,1.2663],[1139414400000,1.2614],[1139500800000,1.2713],[1139760000000,1.2793],[1139846400000,1.2924],[1139932800000,1.291],[1140019200000,1.2756],[1140105600000,1.2692],[1140364800000,1.2664],[1140451200000,1.2775],[1140537600000,1.2761],[1140624000000,1.2766],[1140710400000,1.2878],[1140969600000,1.2931],[1141056000000,1.2989],[1141142400000,1.3073],[1141228800000,1.2978],[1141315200000,1.3019],[1141574400000,1.3031],[1141660800000,1.283],[1141747200000,1.2743],[1141833600000,1.2708],[1141920000000,1.2745],[1142179200000,1.2887],[1142265600000,1.2981],[1142352000000,1.3111],[1142438400000,1.313],[1142524800000,1.3044],[1142784000000,1.3103],[1142870400000,1.319],[1142956800000,1.3318],[1143043200000,1.3337],[1143129600000,1.3306],[1143388800000,1.3448],[1143475200000,1.3552],[1143561600000,1.3728],[1143648000000,1.3731],[1143734400000,1.3988],[1143993600000,1.4161],[1144080000000,1.4232],[1144166400000,1.4349],[1144252800000,1.444],[1144339200000,1.4459],[1144598400000,1.4521],[1144684800000,1.4559],[1144771200000,1.4491],[1144857600000,1.4264],[1144944000000,1.4413],[1145203200000,1.4486],[1145289600000,1.4695],[1145376000000,1.5036],[1145462400000,1.5187],[1145548800000,1.5363],[1145808000000,1.5548],[1145894400000,1.5796],[1145980800000,1.5879],[1146067200000,1.5987],[1146153600000,1.6098],[1147017600000,1.6391],[1147104000000,1.6762],[1147190400000,1.693],[1147276800000,1.7142],[1147363200000,1.7592],[1147622400000,1.8112],[1147708800000,1.7856],[1147795200000,1.785],[1147881600000,1.802],[1147968000000,1.8303],[1148227200000,1.8064],[1148313600000,1.7778],[1148400000000,1.7848],[1148486400000,1.7835],[1148572800000,1.8034],[1148832000000,1.8349],[1148918400000,1.8818],[1149004800000,1.8827],[1149091200000,1.9076],[1149177600000,1.881],[1149436800000,1.8739],[1149523200000,1.846],[1149609600000,1.7902],[1149696000000,1.8003],[1149782400000,1.8087],[1150041600000,1.8525],[1150128000000,1.8595],[1150214400000,1.8364],[1150300800000,1.8403],[1150387200000,1.8591],[1150646400000,1.8843],[1150732800000,1.8891],[1150819200000,1.881],[1150905600000,1.8724],[1150992000000,1.8749],[1151251200000,1.8833],[1151337600000,1.8919],[1151424000000,1.879],[1151510400000,1.9021],[1151596800000,1.9084],[1151856000000,1.9036],[1151942400000,1.9098],[1152028800000,1.9017],[1152115200000,1.9257],[1152201600000,1.911],[1152460800000,1.8984],[1152547200000,1.9004],[1152633600000,1.9066],[1152720000000,1.858],[1152806400000,1.8621],[1153065600000,1.8637],[1153152000000,1.8609],[1153238400000,1.8184],[1153324800000,1.8212],[1153411200000,1.8413],[1153670400000,1.8482],[1153756800000,1.8677],[1153843200000,1.8554],[1153929600000,1.8424],[1154016000000,1.8248],[1154275200000,1.7844],[1154361600000,1.7776],[1154448000000,1.7685],[1154534400000,1.7552],[1154620800000,1.7379],[1154880000000,1.7313],[1154966400000,1.7504],[1155052800000,1.7478],[1155139200000,1.7627],[1155225600000,1.7684],[1155484800000,1.7392],[1155571200000,1.7539],[1155657600000,1.7676],[1155744000000,1.7575],[1155830400000,1.754],[1156089600000,1.7584],[1156176000000,1.7896],[1156262400000,1.7885],[1156348800000,1.7951],[1156435200000,1.7984],[1156694400000,1.8292],[1156780800000,1.8533],[1156867200000,1.8529],[1156953600000,1.8553],[1157040000000,1.8458],[1157299200000,1.8621],[1157385600000,1.8603],[1157472000000,1.8567],[1157558400000,1.844],[1157644800000,1.8489],[1157904000000,1.8498],[1157990400000,1.8549],[1158076800000,1.8495],[1158163200000,1.8535],[1158249600000,1.8646],[1158508800000,1.8755],[1158595200000,1.8945],[1158681600000,1.9066],[1158768000000,1.9195],[1158854400000,1.9236],[1159113600000,1.925],[1159200000000,1.9061],[1159286400000,1.9096],[1159372800000,1.935],[1159459200000,1.9471],[1159545600000,1.947],[1160323200000,1.9693],[1160409600000,1.9626],[1160496000000,1.9526],[1160582400000,1.9228],[1160668800000,1.9194],[1160928000000,1.888],[1161014400000,1.8934],[1161100800000,1.9098],[1161187200000,1.9161],[1161273600000,1.921],[1161532800000,1.8918],[1161619200000,1.9168],[1161705600000,1.933],[1161792000000,1.9401],[1161878400000,1.9227],[1162137600000,1.9109],[1162224000000,1.9205],[1162310400000,1.9234],[1162396800000,1.9209],[1162483200000,1.9268],[1162742400000,1.9337],[1162828800000,1.9432],[1162915200000,1.9456],[1163001600000,1.9634],[1163088000000,1.9461],[1163347200000,1.9222],[1163433600000,1.9394],[1163520000000,1.9765],[1163606400000,1.9842],[1163692800000,2.0105],[1163952000000,2.0045],[1164038400000,2.0106],[1164124800000,2.0405],[1164211200000,2.0401],[1164297600000,2.061],[1164556800000,2.0896],[1164643200000,2.1029],[1164729600000,2.1274],[1164816000000,2.1771],[1164902400000,2.2041],[1165161600000,2.22],[1165248000000,2.2261],[1165334400000,2.2099],[1165420800000,2.1919],[1165507200000,2.1638],[1165766400000,2.1908],[1165852800000,2.1941],[1165939200000,2.1968],[1166025600000,2.2068],[1166112000000,2.224],[1166371200000,2.2506],[1166457600000,2.2443],[1166544000000,2.254],[1166630400000,2.2427],[1166716800000,2.236],[1166976000000,2.253],[1167062400000,2.2508],[1167148800000,2.266],[1167235200000,2.2659],[1167321600000,2.2852],[1167494400000,2.2851],[1167840000000,2.2859],[1167926400000,2.2767],[1168185600000,2.2918],[1168272000000,2.3228],[1168358400000,2.3418],[1168444800000,2.3362],[1168531200000,2.3278],[1168790400000,2.3697],[1168876800000,2.4046],[1168963200000,2.3767],[1169049600000,2.3807],[1169136000000,2.4091],[1169395200000,2.4435],[1169481600000,2.4311],[1169568000000,2.448],[1169654400000,2.4172],[1169740800000,2.438],[1170000000000,2.4497],[1170086400000,2.445],[1170172800000,2.3786],[1170259200000,2.3875],[1170345600000,2.3376],[1170604800000,2.3191],[1170691200000,2.321],[1170777600000,2.3381],[1170864000000,2.3495],[1170950400000,2.3467],[1171209600000,2.3893],[1171296000000,2.4117],[1171382400000,2.4278],[1171468800000,2.457],[1171555200000,2.4534],[1172419200000,2.4317],[1172505600000,2.3293],[1172592000000,2.3538],[1172678400000,2.3389],[1172764800000,2.3624],[1173024000000,2.363],[1173110400000,2.3811],[1173196800000,2.4175],[1173283200000,2.431],[1173369600000,2.4203],[1173628800000,2.4191],[1173715200000,2.4264],[1173801600000,2.4166],[1173888000000,2.4419],[1173974400000,2.4277],[1174233600000,2.448],[1174320000000,2.4405],[1174406400000,2.4497],[1174492800000,2.4521],[1174579200000,2.4442],[1174838400000,2.4577],[1174924800000,2.4666],[1175011200000,2.4662],[1175097600000,2.4797],[1175184000000,2.4735],[1175270400000,2.4735],[1175443200000,2.4977],[1175529600000,2.5134],[1175616000000,2.5231],[1175702400000,2.5342],[1175788800000,2.5481],[1176048000000,2.5668],[1176134400000,2.572],[1176220800000,2.5853],[1176307200000,2.6138],[1176393600000,2.6202],[1176652800000,2.6468],[1176739200000,2.662],[1176825600000,2.658],[1176912000000,2.5869],[1176998400000,2.6294],[1177257600000,2.679],[1177344000000,2.6724],[1177430400000,2.6727],[1177516800000,2.6832],[1177603200000,2.6616],[1177862400000,2.7337],[1178553600000,2.7845],[1178640000000,2.787],[1178726400000,2.7804],[1178812800000,2.7676],[1179072000000,2.7904],[1179158400000,2.7583],[1179244800000,2.7946],[1179331200000,2.8306],[1179417600000,2.8414],[1179676800000,2.8677],[1179763200000,2.8665],[1179849600000,2.9061],[1179936000000,2.9046],[1180022400000,2.9216],[1180281600000,2.9501],[1180368000000,2.9909],[1180454400000,2.9198],[1180540800000,2.9688],[1180627200000,2.9372],[1180886400000,2.8577],[1180972800000,2.9044],[1181059200000,2.9196],[1181145600000,2.9464],[1181232000000,2.9529],[1181491200000,2.9945],[1181577600000,3.0225],[1181664000000,3.0563],[1181750400000,3.0514],[1181836800000,3.0756],[1182096000000,3.1171],[1182182400000,3.1265],[1182268800000,3.0992],[1182355200000,3.1163],[1182441600000,3.0903],[1182700800000,3.0601],[1182787200000,3.0508],[1182873600000,3.0959],[1182960000000,3.0413],[1183046400000,3.0362],[1183132800000,3.0362],[1183305600000,3.0118],[1183392000000,3.034],[1183478400000,3.0209],[1183564800000,2.9636],[1183651200000,3.0119],[1183910400000,3.0524],[1183996800000,3.0358],[1184083200000,3.04],[1184169600000,3.0529],[1184256000000,3.0513],[1184515200000,3.0217],[1184601600000,3.0777],[1184688000000,3.0836],[1184774400000,3.0846],[1184860800000,3.1653],[1185120000000,3.2115],[1185206400000,3.219],[1185292800000,3.2374],[1185379200000,3.2465],[1185465600000,3.255],[1185724800000,3.2839],[1185811200000,3.2837],[1185897600000,3.2642],[1185984000000,3.3257],[1186070400000,3.3884],[1186329600000,3.4159],[1186416000000,3.4492],[1186502400000,3.4159],[1186588800000,3.4619],[1186675200000,3.432],[1186934400000,3.4133],[1187020800000,3.432],[1187107200000,3.4481],[1187193600000,3.4126],[1187280000000,3.3643],[1187539200000,3.4544],[1187625600000,3.502],[1187712000000,3.543],[1187798400000,3.604],[1187884800000,3.6488],[1188144000000,3.6513],[1188230400000,3.6448],[1188316800000,3.6171],[1188403200000,3.6283],[1188489600000,3.6642],[1188748800000,3.7148],[1188835200000,3.7033],[1188921600000,3.6879],[1189008000000,3.7078],[1189094400000,3.6723],[1189353600000,3.6958],[1189440000000,3.6243],[1189526400000,3.6378],[1189612800000,3.7202],[1189699200000,3.726],[1189958400000,3.7496],[1190044800000,3.7134],[1190131200000,3.69],[1190217600000,3.7062],[1190304000000,3.6877],[1190563200000,3.7214],[1190649600000,3.7179],[1190736000000,3.6843],[1190822400000,3.7096],[1190908800000,3.7582],[1191081600000,3.7581],[1191772800000,3.81],[1191859200000,3.8215],[1191945600000,3.8398],[1192032000000,3.8684],[1192118400000,3.8339],[1192377600000,3.811],[1192464000000,3.8422],[1192550400000,3.8085],[1192636800000,3.7346],[1192723200000,3.7628],[1192982400000,3.7536],[1193068800000,3.7833],[1193155200000,3.8326],[1193241600000,3.7799],[1193328000000,3.822],[1193587200000,3.837],[1193673600000,3.8513],[1193760000000,3.8983],[1193846400000,3.8887],[1193932800000,3.8185],[1194192000000,3.7734],[1194278400000,3.7542],[1194364800000,3.7673],[1194451200000,3.6953],[1194537600000,3.6724],[1194796800000,3.6599],[1194883200000,3.6254],[1194969600000,3.685],[1195056000000,3.6537],[1195142400000,3.6068],[1195401600000,3.5723],[1195488000000,3.6019],[1195574400000,3.5951],[1195660800000,3.5201],[1195747200000,3.5509],[1196006400000,3.5337],[1196092800000,3.4926],[1196179200000,3.4671],[1196265600000,3.5307],[1196352000000,3.5085],[1196611200000,3.5424],[1196697600000,3.5678],[1196784000000,3.6089],[1196870400000,3.6085],[1196956800000,3.6228],[1197216000000,3.6402],[1197302400000,3.6331],[1197388800000,3.5903],[1197475200000,3.5109],[1197561600000,3.5436],[1197820800000,3.494],[1197907200000,3.4848],[1197993600000,3.5206],[1198080000000,3.559],[1198166400000,3.5677],[1198425600000,3.601],[1198512000000,3.6088],[1198598400000,3.6199],[1198684800000,3.663],[1198771200000,3.6685],[1198857600000,3.6684],[1199030400000,3.6683],[1199203200000,3.6788],[1199289600000,3.665],[1199376000000,3.6999],[1199635200000,3.7421],[1199721600000,3.7337],[1199808000000,3.7685],[1199894400000,3.8186],[1199980800000,3.8559],[1200240000000,3.8747],[1200326400000,3.8309],[1200412800000,3.7398],[1200499200000,3.7063],[1200585600000,3.7182],[1200844800000,3.612],[1200931200000,3.4882],[1201017600000,3.5672],[1201104000000,3.5856],[1201190400000,3.6288],[1201449600000,3.5455],[1201536000000,3.5539],[1201622400000,3.5418],[1201708800000,3.5196],[1201795200000,3.5273],[1202054400000,3.653],[1202140800000,3.6318],[1202832000000,3.6005],[1202918400000,3.613],[1203004800000,3.587],[1203264000000,3.63],[1203350400000,3.6607],[1203436800000,3.6029],[1203523200000,3.5786],[1203609600000,3.5113],[1203868800000,3.4539],[1203955200000,3.4338],[1204041600000,3.4682],[1204128000000,3.4649],[1204214400000,3.4864],[1204473600000,3.5226],[1204560000000,3.4663],[1204646400000,3.4434],[1204732800000,3.4544],[1204819200000,3.4419],[1205078400000,3.3717],[1205164800000,3.3473],[1205251200000,3.2859],[1205337600000,3.2495],[1205424000000,3.232],[1205683200000,3.1811],[1205769600000,3.1147],[1205856000000,3.1625],[1205942400000,3.2058],[1206028800000,3.2234],[1206288000000,3.1391],[1206374400000,3.1703],[1206460800000,3.1832],[1206547200000,3.1636],[1206633600000,3.2254],[1206892800000,3.1908],[1206979200000,3.1113],[1207065600000,3.1023],[1207152000000,3.135],[1207497600000,3.2018],[1207584000000,3.2188],[1207670400000,3.1415],[1207756800000,3.169],[1207843200000,3.178],[1208102400000,3.083],[1208188800000,3.0836],[1208275200000,3.0525],[1208361600000,3.0201],[1208448000000,2.9894],[1208707200000,2.9716],[1208793600000,2.9803],[1208880000000,3.05],[1208966400000,3.1599],[1209052800000,3.1695],[1209312000000,3.1394],[1209398400000,3.1463],[1209484800000,3.2015],[1209916800000,3.2321],[1210003200000,3.2176],[1210089600000,3.1626],[1210176000000,3.1947],[1210262400000,3.178],[1210521600000,3.1802],[1210608000000,3.1805],[1210694400000,3.2223],[1210780800000,3.2062],[1210867200000,3.2098],[1211126400000,3.2042],[1211212800000,3.1494],[1211299200000,3.163],[1211385600000,3.1345],[1211472000000,3.1157],[1211731200000,3.0859],[1211817600000,3.0935],[1211904000000,3.1241],[1211990400000,3.0936],[1212076800000,3.0963],[1212336000000,3.0959],[1212422400000,3.0937],[1212508800000,3.0847],[1212595200000,3.0669],[1212681600000,3.0652],[1213027200000,2.9786],[1213113600000,2.9491],[1213200000000,2.9374],[1213286400000,2.9019],[1213545600000,2.8921],[1213632000000,2.8598],[1213718400000,2.9038],[1213804800000,2.8389],[1213891200000,2.8551],[1214150400000,2.8378],[1214236800000,2.8646],[1214323200000,2.9063],[1214409600000,2.9159],[1214496000000,2.8653],[1214755200000,2.8604],[1214841600000,2.8366],[1214928000000,2.8425],[1215014400000,2.8611],[1215100800000,2.8537],[1215360000000,2.8994],[1215446400000,2.9077],[1215532800000,2.9423],[1215619200000,2.9429],[1215705600000,2.9318],[1215964800000,2.9336],[1216051200000,2.8922],[1216137600000,2.8571],[1216224000000,2.8503],[1216310400000,2.8677],[1216569600000,2.9004],[1216656000000,2.8983],[1216742400000,2.8841],[1216828800000,2.9165],[1216915200000,2.9073],[1217174400000,2.9121],[1217260800000,2.896],[1217347200000,2.8889],[1217433600000,2.8592],[1217520000000,2.8642],[1217779200000,2.8399],[1217865600000,2.8048],[1217952000000,2.8014],[1218038400000,2.7993],[1218124800000,2.7636],[1218384000000,2.727],[1218470400000,2.7256],[1218556800000,2.7334],[1218643200000,2.7386],[1218729600000,2.7339],[1218988800000,2.6943],[1219075200000,2.7036],[1219161600000,2.7571],[1219248000000,2.7277],[1219334400000,2.7105],[1219593600000,2.7074],[1219680000000,2.6832],[1219766400000,2.6816],[1219852800000,2.6829],[1219939200000,2.7033],[1220198400000,2.6724],[1220284800000,2.6644],[1220371200000,2.6474],[1220457600000,2.6445],[1220544000000,2.6195],[1220803200000,2.5957],[1220889600000,2.5982],[1220976000000,2.5938],[1221062400000,2.5704],[1221148800000,2.5724],[1221494400000,2.5652],[1221580800000,2.5514],[1221667200000,2.5457],[1221753600000,2.5941],[1222012800000,2.6278],[1222099200000,2.5957],[1222185600000,2.5944],[1222272000000,2.6177],[1222358400000,2.6343],[1222704000000,2.6342],[1223222400000,2.5986],[1223308800000,2.5992],[1223395200000,2.5797],[1223481600000,2.5662],[1223568000000,2.5355],[1223827200000,2.5557],[1223913600000,2.5394],[1224000000000,2.5318],[1224086400000,2.5052],[1224172800000,2.509],[1224432000000,2.5311],[1224518400000,2.5252],[1224604800000,2.51],[1224691200000,2.5168],[1224777600000,2.4996],[1225036800000,2.4571],[1225123200000,2.4767],[1225209600000,2.46],[1225296000000,2.4741],[1225382400000,2.4667],[1225641600000,2.4625],[1225728000000,2.4487],[1225814400000,2.4657],[1225900800000,2.4487],[1225987200000,2.4599],[1226246400000,2.5004],[1226332800000,2.5005],[1226419200000,2.5114],[1226505600000,2.5355],[1226592000000,2.5621],[1226851200000,2.5765],[1226937600000,2.5296],[1227024000000,2.5732],[1227110400000,2.5746],[1227196800000,2.5707],[1227456000000,2.5424],[1227542400000,2.5441],[1227628800000,2.5482],[1227715200000,2.5604],[1227801600000,2.548],[1228060800000,2.5629],[1228147200000,2.5672],[1228233600000,2.5948],[1228320000000,2.6023],[1228406400000,2.6173],[1228665600000,2.6449],[1228752000000,2.6298],[1228838400000,2.6501],[1228924800000,2.6368],[1229011200000,2.6036],[1229270400000,2.6092],[1229356800000,2.6252],[1229443200000,2.6295],[1229529600000,2.6449],[1229616000000,2.6476],[1229875200000,2.636],[1229961600000,2.6014],[1230048000000,2.5879],[1230134400000,2.5824],[1230220800000,2.5793],[1230480000000,2.5786],[1230566400000,2.5734],[1230652800000,2.5707],[1231084800000,2.5996],[1231171200000,2.6205],[1231257600000,2.6205],[1231344000000,2.6068],[1231430400000,2.6212],[1231689600000,2.6226],[1231776000000,2.6042],[1231862400000,2.6349],[1231948800000,2.6395],[1232035200000,2.6495],[1232294400000,2.656],[1232380800000,2.6597],[1232467200000,2.6604],[1232553600000,2.671],[1232640000000,2.6662],[1233504000000,2.6766],[1233590400000,2.6914],[1233676800000,2.7049],[1233763200000,2.6914],[1233849600000,2.7266],[1234108800000,2.7566],[1234195200000,2.7723],[1234281600000,2.7661],[1234368000000,2.7673],[1234454400000,2.7925],[1234713600000,2.805],[1234800000000,2.782],[1234886400000,2.7513],[1234972800000,2.7613],[1235059200000,2.7815],[1235318400000,2.8146],[1235404800000,2.7849],[1235491200000,2.7775],[1235577600000,2.7307],[1235664000000,2.7086],[1235923200000,2.7263],[1236009600000,2.7173],[1236096000000,2.7741],[1236182400000,2.7777],[1236268800000,2.7763],[1236528000000,2.748],[1236614400000,2.7585],[1236700800000,2.7497],[1236787200000,2.7491],[1236873600000,2.7451],[1237132800000,2.7568],[1237219200000,2.7888],[1237305600000,2.7961],[1237392000000,2.8113],[1237478400000,2.8195],[1237737600000,2.8498],[1237824000000,2.8503],[1237910400000,2.8351],[1237996800000,2.862],[1238083200000,2.8659],[1238342400000,2.8568],[1238428800000,2.8653],[1238515200000,2.8797],[1238601600000,2.8877],[1238688000000,2.8811],[1239033600000,2.8805],[1239120000000,2.8533],[1239206400000,2.8676],[1239292800000,2.9014],[1239552000000,2.9169],[1239638400000,2.9246],[1239724800000,2.932],[1239811200000,2.9305],[1239897600000,2.9128],[1240156800000,2.9338],[1240243200000,2.9183],[1240329600000,2.8695],[1240416000000,2.8833],[1240502400000,2.8717],[1240761600000,2.849],[1240848000000,2.8547],[1240934400000,2.8817],[1241020800000,2.8948],[1241366400000,2.9376],[1241452800000,2.9439],[1241539200000,2.9635],[1241625600000,2.9589],[1241712000000,2.9582],[1241971200000,2.9204],[1242057600000,2.9447],[1242144000000,2.9625],[1242230400000,2.9601],[1242316800000,2.9617],[1242576000000,2.9769],[1242662400000,3.0047],[1242748800000,2.9991],[1242835200000,2.9771],[1242921600000,2.9665],[1243180800000,2.9853],[1243267200000,2.9621],[1243353600000,2.9714],[1243785600000,3.0136],[1243872000000,3.0242],[1243958400000,3.0554],[1244044800000,3.0533],[1244131200000,3.0534],[1244390400000,3.0454],[1244476800000,3.0381],[1244563200000,3.0451],[1244649600000,3.0321],[1244736000000,3.0131],[1244995200000,3.0205],[1245081600000,3.02],[1245168000000,3.0447],[1245254400000,3.0601],[1245340800000,3.0554],[1245600000000,3.045],[1245686400000,3.0346],[1245772800000,3.0697],[1245859200000,3.0682],[1245945600000,3.0794],[1246204800000,3.0992],[1246291200000,3.1025],[1246377600000,3.121],[1246464000000,3.1365],[1246550400000,3.1547],[1246809600000,3.158],[1246896000000,3.1408],[1246982400000,3.1573],[1247068800000,3.1635],[1247155200000,3.1719],[1247414400000,3.1566],[1247500800000,3.1856],[1247587200000,3.2057],[1247673600000,3.213],[1247760000000,3.2367],[1248019200000,3.2756],[1248105600000,3.2583],[1248192000000,3.2896],[1248278400000,3.3155],[1248364800000,3.3357],[1248624000000,3.3705],[1248710400000,3.3644],[1248796800000,3.2747],[1248883200000,3.2946],[1248969600000,3.3511],[1249228800000,3.3693],[1249315200000,3.3941],[1249401600000,3.3792],[1249488000000,3.3435],[1249574400000,3.2764],[1249833600000,3.2847],[1249920000000,3.2768],[1250006400000,3.2142],[1250092800000,3.2648],[1250179200000,3.2432],[1250438400000,3.1478],[1250524800000,3.1663],[1250611200000,3.093],[1250697600000,3.1466],[1250784000000,3.1727],[1251043200000,3.1992],[1251129600000,3.1499],[1251216000000,3.1641],[1251302400000,3.1436],[1251388800000,3.0988],[1251648000000,2.9977],[1251734400000,2.9824],[1251820800000,3.0006],[1251907200000,3.0693],[1251993600000,3.0811],[1252252800000,3.0831],[1252339200000,3.1181],[1252425600000,3.14],[1252512000000,3.1306],[1252598400000,3.151],[1252857600000,3.1711],[1252944000000,3.1859],[1253030400000,3.176],[1253116800000,3.1915],[1253203200000,3.1356],[1253462400000,3.1365],[1253548800000,3.0995],[1253635200000,3.0613],[1253721600000,3.0694],[1253808000000,3.0529],[1254067200000,3.0132],[1254153600000,3.0179],[1254240000000,3.038],[1255017600000,3.1039],[1255276800000,3.0951],[1255363200000,3.1134],[1255449600000,3.1367],[1255536000000,3.1357],[1255622400000,3.1433],[1255881600000,3.1938],[1255968000000,3.2051],[1256054400000,3.2031],[1256140800000,3.1941],[1256227200000,3.227],[1256486400000,3.2351],[1256572800000,3.187],[1256659200000,3.1904],[1256745600000,3.1466],[1256832000000,3.1608],[1257091200000,3.2002],[1257177600000,3.2135],[1257264000000,3.2199],[1257350400000,3.2216],[1257436800000,3.2347],[1257696000000,3.2357],[1257782400000,3.2389],[1257868800000,3.2254],[1257955200000,3.2197],[1258041600000,3.2241],[1258300800000,3.2731],[1258387200000,3.2783],[1258473600000,3.2827],[1258560000000,3.2855],[1258646400000,3.2806],[1258905600000,3.298],[1258992000000,3.2618],[1259078400000,3.2978],[1259164800000,3.2664],[1259251200000,3.2112],[1259510400000,3.2537],[1259596800000,3.272],[1259683200000,3.2971],[1259769600000,3.2922],[1259856000000,3.2833],[1260115200000,3.2906],[1260201600000,3.2893],[1260288000000,3.2635],[1260374400000,3.2705],[1260460800000,3.2679],[1260720000000,3.2749],[1260806400000,3.2721],[1260892800000,3.2623],[1260979200000,3.2255],[1261065600000,3.1743],[1261324800000,3.1771],[1261411200000,3.1382],[1261497600000,3.1491],[1261584000000,3.194],[1261670400000,3.191],[1261929600000,3.2138],[1262016000000,3.2175],[1262102400000,3.2249],[1262188800000,3.2257],[1262534400000,3.2195],[1262620800000,3.2449],[1262707200000,3.249],[1262793600000,3.2348],[1262880000000,3.234],[1263139200000,3.24],[1263225600000,3.2512],[1263312000000,3.212],[1263398400000,3.2298],[1263484800000,3.2323],[1263744000000,3.2505],[1263830400000,3.2543],[1263916800000,3.2148],[1264003200000,3.2068],[1264089600000,3.1722],[1264348800000,3.1603],[1264435200000,3.1231],[1264521600000,3.1051],[1264608000000,3.1065],[1264694400000,3.1093],[1264953600000,3.0893],[1265040000000,3.0914],[1265126400000,3.1103],[1265212800000,3.1136],[1265299200000,3.0912],[1265558400000,3.0893],[1265644800000,3.093],[1265731200000,3.1085],[1265817600000,3.1131],[1265904000000,3.1259],[1266768000000,3.1254],[1266854400000,3.1259],[1266940800000,3.144],[1267027200000,3.1587],[1267113600000,3.1552],[1267372800000,3.1744],[1267459200000,3.1602],[1267545600000,3.169],[1267632000000,3.1382],[1267718400000,3.137],[1267977600000,3.142],[1268064000000,3.1476],[1268150400000,3.137],[1268236800000,3.1283],[1268323200000,3.1152],[1268582400000,3.1025],[1268668800000,3.1081],[1268755200000,3.1326],[1268841600000,3.1323],[1268928000000,3.1488],[1269187200000,3.1486],[1269273600000,3.143],[1269360000000,3.1448],[1269446400000,3.1317],[1269532800000,3.1423],[1269792000000,3.1586],[1269878400000,3.1647],[1269964800000,3.1676],[1270051200000,3.1923],[1270137600000,3.1982],[1270483200000,3.1994],[1270569600000,3.2015],[1270656000000,3.1936],[1270742400000,3.2106],[1271001600000,3.2198],[1271088000000,3.2221],[1271174400000,3.2351],[1271260800000,3.2244],[1271347200000,3.2217],[1271606400000,3.1689],[1271692800000,3.1931],[1271779200000,3.218],[1271865600000,3.2232],[1271952000000,3.2167],[1272211200000,3.2078],[1272297600000,3.1821],[1272384000000,3.1724],[1272470400000,3.1414],[1272556800000,3.1322],[1272902400000,3.133],[1272988800000,3.1447],[1273075200000,3.1113],[1273161600000,3.086],[1273420800000,3.0679],[1273507200000,3.0398],[1273593600000,3.0138],[1273680000000,3.0465],[1273766400000,3.0553],[1274025600000,3.0027],[1274112000000,3.0139],[1274198400000,3.0147],[1274284800000,2.9992],[1274371200000,3.0171],[1274630400000,3.0569],[1274716800000,3.0513],[1274803200000,3.051],[1274889600000,3.0769],[1274976000000,3.0874],[1275235200000,3.0544],[1275321600000,3.048],[1275408000000,3.0595],[1275494400000,3.0565],[1275580800000,3.0646],[1275840000000,3.0658],[1275926400000,3.0672],[1276012800000,3.0893],[1276099200000,3.0915],[1276185600000,3.0873],[1276704000000,3.065],[1276790400000,3.0203],[1277049600000,3.0405],[1277136000000,3.0471],[1277222400000,3.0448],[1277308800000,3.0434],[1277395200000,3.0266],[1277654400000,3.01</t>
+  </si>
+  <si>
+    <t>501057</t>
+  </si>
+  <si>
+    <t>汇添富中证新能源汽车A</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [[1527004800000,1.0],[1527177600000,1.0001],[1527782400000,0.9998],[1528387200000,1.0006],[1528992000000,0.9949],[1529337600000,0.9819],[1529424000000,0.9844],[1529510400000,0.9773],[1529596800000,0.9854],[1529856000000,0.9852],[1529942400000,0.9895],[1530028800000,0.9856],[1530115200000,0.9765],[1530201600000,0.9961],[1530288000000,0.9961],[1530460800000,0.9809],[1530547200000,0.9799],[1530633600000,0.9676],[1530720000000,0.9563],[1530806400000,0.9624],[1531065600000,0.9756],[1531152000000,0.9855],[1531238400000,0.9822],[1531324800000,0.9949],[1531411200000,0.9984],[1531670400000,0.988],[1531756800000,0.9918],[1531843200000,0.9836],[1531929600000,0.9738],[1532016000000,0.9823],[1532275200000,0.9926],[1532361600000,0.9998],[1532448000000,0.9932],[1532534400000,0.9809],[1532620800000,0.9712],[1532880000000,0.9663],[1532966400000,0.9566],[1533052800000,0.9441],[1533139200000,0.9201],[1533225600000,0.905],[1533484800000,0.8791],[1533571200000,0.8923],[1533657600000,0.8764],[1533744000000,0.896],[1533830400000,0.902],[1534089600000,0.9044],[1534176000000,0.9011],[1534262400000,0.8811],[1534348800000,0.8696],[1534435200000,0.8594],[1534694400000,0.8679],[1534780800000,0.874],[1534867200000,0.8638],[1534953600000,0.8701],[1535040000000,0.864],[1535299200000,0.879],[1535385600000,0.8842],[1535472000000,0.8759],[1535558400000,0.8674],[1535644800000,0.857],[1535904000000,0.8571],[1535990400000,0.8614],[1536076800000,0.844],[1536163200000,0.8389],[1536249600000,0.8388],[1536508800000,0.8217],[1536595200000,0.8237],[1536681600000,0.8304],[1536768000000,0.8373],[1536854400000,0.8445],[1537113600000,0.8292],[1537200000000,0.8423],[1537286400000,0.8531],[1537372800000,0.8551],[1537459200000,0.8797],[1537804800000,0.8784],[1537891200000,0.8828],[1537977600000,0.8683],[1538064000000,0.882],[1538928000000,0.8454],[1539014400000,0.8425],[1539100800000,0.8315],[1539187200000,0.7755],[1539273600000,0.7713],[1539532800000,0.7561],[1539619200000,0.7402],[1539705600000,0.7423],[1539792000000,0.729],[1539878400000,0.7448],[1540137600000,0.7777],[1540224000000,0.7573],[1540310400000,0.7593],[1540396800000,0.7572],[1540483200000,0.7577],[1540742400000,0.7407],[1540828800000,0.7493],[1540915200000,0.7613],[1541001600000,0.7628],[1541088000000,0.7935],[1541347200000,0.7962],[1541433600000,0.7911],[1541520000000,0.7921],[1541606400000,0.7864],[1541692800000,0.7853],[1541952000000,0.8028],[1542038400000,0.8117],[1542124800000,0.8058],[1542211200000,0.8142],[1542297600000,0.821],[1542556800000,0.8238],[1542643200000,0.8081],[1542729600000,0.81],[1542816000000,0.8116],[1542902400000,0.7798],[1543161600000,0.776],[1543248000000,0.7874],[1543334400000,0.8014],[1543420800000,0.7913],[1543507200000,0.8067],[1543766400000,0.8277],[1543852800000,0.8285],[1543939200000,0.8317],[1544025600000,0.8165],[1544112000000,0.8177],[1544371200000,0.8066],[1544457600000,0.813],[1544544000000,0.8235],[1544630400000,0.8284],[1544716800000,0.8103],[1544976000000,0.8069],[1545062400000,0.8039],[1545148800000,0.7935],[1545235200000,0.7927],[1545321600000,0.7821],[1545580800000,0.7877],[1545667200000,0.7782],[1545753600000,0.7722],[1545840000000,0.7677],[1545926400000,0.7681],[1546185600000,0.7681],[1546358400000,0.7581],[1546444800000,0.7519],[1546531200000,0.767],[1546790400000,0.7814],[1546876800000,0.786],[1546963200000,0.7821],[1547049600000,0.7763],[1547136000000,0.782],[1547395200000,0.7791],[1547481600000,0.7875],[1547568000000,0.7856],[1547654400000,0.776],[1547740800000,0.7817],[1548000000000,0.7883],[1548086400000,0.7783],[1548172800000,0.7874],[1548259200000,0.7898],[1548345600000,0.7937],[1548604800000,0.7889],[1548691200000,0.7737],[1548777600000,0.7663],[1548864000000,0.7616],[1548950400000,0.7817],[1549814400000,0.8067],[1549900800000,0.8129],[1549987200000,0.8338],[1550073600000,0.8418],[1550160000000,0.8268],[1550419200000,0.8535],[1550505600000,0.848],[1550592000000,0.8553],[1550678400000,0.8537],[1550764800000,0.8672],[1551024000000,0.9162],[1551110400000,0.9202],[1551196800000,0.9044],[1551283200000,0.9057],[1551369600000,0.9166],[1551628800000,0.9264],[1551715200000,0.9363],[1551801600000,0.9485],[1551888000000,0.9443],[1551974400000,0.9023],[1552233600000,0.9401],[1552320000000,0.9516],[1552406400000,0.94],[1552492800000,0.9333],[1552579200000,0.9417],[1552838400000,0.9557],[1552924800000,0.9517],[1553011200000,0.938],[1553097600000,0.9414],[1553184000000,0.9458],[1553443200000,0.9357],[1553529600000,0.9106],[1553616000000,0.9052],[1553702400000,0.8937],[1553788800000,0.9136],[1554048000000,0.9442],[1554134400000,0.9524],[1554220800000,0.9576],[1554307200000,0.9739],[1554652800000,0.9683],[1554739200000,0.9662],[1554825600000,0.9734],[1554912000000,0.9626],[1554998400000,0.9548],[1555257600000,0.9456],[1555344000000,0.9633],[1555430400000,1.0006],[1555516800000,0.9819],[1555603200000,0.9865],[1555862400000,0.9645],[1555948800000,0.9471],[1556035200000,0.958],[1556121600000,0.9256],[1556208000000,0.9118],[1556467200000,0.8856],[1556553600000,0.8859],[1557072000000,0.8264],[1557158400000,0.835],[1557244800000,0.8282],[1557331200000,0.8185],[1557417600000,0.8428],[1557676800000,0.8275],[1557763200000,0.8201],[1557849600000,0.8371],[1557936000000,0.8519],[1558022400000,0.8233],[1558281600000,0.8167],[1558368000000,0.8311],[1558454400000,0.82],[1558540800000,0.8007],[1558627200000,0.7995],[1558886400000,0.8136],[1558972800000,0.8201],[1559059200000,0.82],[1559145600000,0.8201],[1559232000000,0.8181],[1559491200000,0.8063],[1559577600000,0.7999],[1559664000000,0.802],[1559750400000,0.7935],[1560096000000,0.8092],[1560182400000,0.8312],[1560268800000,0.8266],[1560355200000,0.8262],[1560441600000,0.8126],[1560700800000,0.8119],[1560787200000,0.8062],[1560873600000,0.8127],[1560960000000,0.8225],[1561046400000,0.832],[1561305600000,0.8337],[1561392000000,0.8226],[1561478400000,0.8255],[1561564800000,0.8293],[1561651200000,0.8235],[1561824000000,0.8234],[1561910400000,0.8467],[1561996800000,0.8612],[1562083200000,0.859],[1562169600000,0.856],[1562256000000,0.8577],[1562515200000,0.8322],[1562601600000,0.8433],[1562688000000,0.8351],[1562774400000,0.8335],[1562860800000,0.8363],[1563120000000,0.8417],[1563206400000,0.839],[1563292800000,0.8404],[1563379200000,0.83],[1563465600000,0.836],[1563724800000,0.8237],[1563811200000,0.8376],[1563897600000,0.8458],[1563984000000,0.8437],[1564070400000,0.8462],[1564329600000,0.8467],[1564416000000,0.8523],[1564502400000,0.8485],[1564588800000,0.853],[1564675200000,0.8455],[1564934400000,0.8308],[1565020800000,0.8151],[1565107200000,0.8253],[1565193600000,0.8359],[1565280000000,0.8287],[1565539200000,0.8355],[1565625600000,0.8278],[1565712000000,0.8358],[1565798400000,0.8373],[1565884800000,0.8411],[1566144000000,0.8591],[1566230400000,0.855],[1566316800000,0.849],[1566403200000,0.8499],[1566489600000,0.8441],[1566748800000,0.8375],[1566835200000,0.8523],[1566921600000,0.8517],[1567008000000,0.8472],[1567094400000,0.8475],[1567353600000,0.8626],[1567440000000,0.8665],[1567526400000,0.867],[1567612800000,0.8742],[1567699200000,0.8819],[1567958400000,0.9023],[1568044800000,0.9032],[1568131200000,0.9016],[1568217600000,0.8997],[1568563200000,0.9006],[1568649600000,0.8807],[1568736000000,0.8795],[1568822400000,0.8928],[1568908800000,0.8918],[1569168000000,0.8791],[1569254400000,0.8864],[1569340800000,0.8849],[1569427200000,0.8677],[1569513600000,0.8709],[1569772800000,0.8648],[1570464000000,0.858],[1570550400000,0.8594],[1570636800000,0.8692],[1570723200000,0.8611],[1570982400000,0.8743],[1571068800000,0.8597],[1571155200000,0.8537],[1571241600000,0.8504],[1571328000000,0.8422],[1571587200000,0.8379],[1571673600000,0.8449],[1571760000000,0.8384],[1571846400000,0.84],[1571932800000,0.8464],[1572192000000,0.8582],[1572278400000,0.8511],[1572364800000,0.8429],[1572451200000,0.8399],[1572537600000,0.8491],[1572796800000,0.853],[1572883200000,0.8668],[1572969600000,0.8721],[1573056000000,0.8716],[1573142400000,0.8716],[1573401600000,0.8556],[1573488000000,0.8558],[1573574400000,0.8534],[1573660800000,0.8553],[1573747200000,0.848],[1574006400000,0.8553],[1574092800000,0.8817],[1574179200000,0.8795],[1574265600000,0.8788],[1574352000000,0.8828],[1574611200000,0.8863],[1574697600000,0.8994],[1574784000000,0.9058],[1574870400000,0.9],[1574956800000,0.9004],[1575216000000,0.8955],[1575302400000,0.9048],[1575388800000,0.9108],[1575475200000,0.9225],[1575561600000,0.9275],[1575820800000,0.924],[1575907200000,0.9264],[1575993600000,0.92],[1576080000000,0.9197],[1576166400000,0.9403],[1576425600000,0.9533],[1576512000000,0.974],[1576598400000,0.971],[1576684800000,0.9714],[1576771200000,0.9698],[1577030400000,0.9642],[1577116800000,1.0042],[1577203200000,1.014],[1577289600000,1.0188],[1577376000000,1.0163],[1577635200000,1.0321],[1577721600000,1.0311],[1577894400000,1.0447],[1577980800000,1.0533],[1578240000000,1.0812],[1578326400000,1.0795],[1578412800000,1.0851],[1578499200000,1.0935],[1578585600000,1.09],[1578844800000,1.1152],[1578931200000,1.1265],[1579017600000,1.1114],[1579104000000,1.1106],[1579190400000,1.1098],[1579449600000,1.1317],[1579536000000,1.1101],[1579622400000,1.1498],[1579708800000,1.1254],[1580659200000,1.0493],[1580745600000,1.106],[1580832000000,1.148],[1580918400000,1.1717],[1581004800000,1.1472],[1581264000000,1.1904],[1581350400000,1.1797],[1581436800000,1.2175],[1581523200000,1.212],[1581609600000,1.2025],[1581868800000,1.245],[1581955200000,1.254],[1582041600000,1.2257],[1582128000000,1.2479],[1582214400000,1.2621],[1582473600000,1.248],[1582560000000,1.2937],[1582646400000,1.2391],[1582732800000,1.2237],[1582819200000,1.1433],[1583078400000,1.1729],[1583164800000,1.1953],[1583251200000,1.1919],[1583337600000,1.1948],[1583424000000,1.1872],[1583683200000,1.1217],[1583769600000,1.1575],[1583856000000,1.1382],[1583942400000,1.1107],[1584028800000,1.095],[1584288000000,1.0216],[1584374400000,1.0126],[1584460800000,0.992],[1584547200000,0.9845],[1584633600000,0.985],[1584892800000,0.9158],[1584979200000,0.9444],[1585065600000,0.9902],[1585152000000,0.9738],[1585238400000,0.9714],[1585497600000,0.9617],[1585584000000,0.9685],[1585670400000,0.9753],[1585756800000,0.9958],[1585843200000,0.981],[1586188800000,1.0096],[1586275200000,1.0018],[1586361600000,0.9984],[1586448000000,0.9756],[1586707200000,0.9584],[1586793600000,1.0047],[1586880000000,1.0061],[1586966400000,1.0164],[1587052800000,1.0244],[1587312000000,1.0283],[1587398400000,1.0105],[1587484800000,1.0156],[1587571200000,1.0025],[1587657600000,1.0008],[1587916800000,0.9977],[1588003200000,0.9978],[1588089600000,0.9988],[1588176000000,1.0446],[1588694400000,1.072],[1588780800000,1.0678],[1588867200000,1.0789],[1589126400000,1.065],[1589212800000,1.0689],[1589299200000,1.069],[1589385600000,1.0529],[1589472000000,1.0662],[1589731200000,1.048],[1589817600000,1.0609],[1589904000000,1.0781],[1589990400000,1.0574],[1590076800000,1.0366],[1590336000000,1.0325],[1590422400000,1.0621],[1590508800000,1.0661],[1590595200000,1.0639],[1590681600000,1.073],[1590940800000,1.1095],[1591027200000,1.1063],[1591113600000,1.1086],[1591200000000,1.1244],[1591286400000,1.1244],[1591545600000,1.1293],[1591632000000,1.1381],[1591718400000,1.1429],[1591804800000,1.1559],[1591891200000,1.1394],[1592150400000,1.1337],[1592236800000,1.1646],[1592323200000,1.1531],[1592409600000,1.1669],[1592496000000,1.2041],[1592755200000,1.2184],[1592841600000,1.2235],[1592928000000,1.2196],[1593360000000,1.212],[1593446400000,1.2311],[1593532800000,1.2358],[1593619200000,1.2364],[1593705600000,1.2611],[1593964800000,1.3093],[1594051200000,1.3671],[1594137600000,1.391],[1594224000000,1.4211],[1594310400000,1.4196],[1594569600000,1.4954],[1594656000000,1.4511],[1594742400000,1.4202],[1594828800000,1.3644],[1594915200000,1.3661],[1595174400000,1.409],[1595260800000,1.4114],[1595347200000,1.4201],[1595433600000,1.4223],[1595520000000,1.335],[1595779200000,1.326],[1595865600000,1.3591],[1595952000000,1.3941],[1596038400000,1.3866],[1596124800000,1.4074],[1596384000000,1.441],[1596470400000,1.4454],[1596556800000,1.452],[1596643200000,1.4538],[1596729600000,1.4357],[1596988800000,1.4216],[1597075200000,1.4057],[1597161600000,1.4085],[1597248000000,1.4083],[1597334400000,1.4291],[1597593600000,1.4394],[1597680000000,1.4354],[1597766400000,1.4035],[1597852800000,1.3755],[1597939200000,1.3902],[1598198400000,1.4184],[1598284800000,1.4122],[1598371200000,1.376],[1598457600000,1.4004],[1598544000000,1.412],[1598803200000,1.398],[1598889600000,1.4471],[1598976000000,1.4471],[1599062400000,1.4305],[1599148800000,1.4147],[1599408000000,1.3865],[1599494400000,1.3768],[1599580800000,1.3287],[1599667200000,1.3172],[1599753600000,1.3455],[1600012800000,1.3791],[1600099200000,1.4129],[1600185600000,1.4185],[1600272000000,1.4568],[1600358400000,1.4721],[1600617600000,1.4536],[1600704000000,1.4308],[1600790400000,1.4364],[1600876800000,1.3936],[1600963200000,1.4004],[1601222400000,1.3968],[1601308800000,1.4269],[1601395200000,1.4418],[1602172800000,1.5217],[1602432000000,1.5763],[1602518400000,1.5856],[1602604800000,1.5814],[1602691200000,1.5818],[1602777600000,1.5455],[1603036800000,1.5379],[1603123200000,1.592],[1603209600000,1.5553],[1603296000000,1.5727],[1603382400000,1.5434],[1603641600000,1.5701],[1603728000000,1.5868],[1603814400000,1.6248],[1603900800000,1.6336],[1603987200000,1.6267],[1604246400000,1.6888],[1604332800000,1.6858],[1604419200000,1.7172],[1604505600000,1.8022],[1604592000000,1.7997],[1604851200000,1.8268],[1604937600000,1.7982],[1605024000000,1.7362],[1605110400000,1.7562],[1605196800000,1.7932],[1605456000000,1.7942],[1605542400000,1.7618],[1605628800000,1.7258],[1605715200000,1.7231],[1605801600000,1.7771],[1606060800000,1.8213],[1606147200000,1.8357],[1606233600000,1.8005],[1606320000000,1.769],[1606406400000,1.7617],[1606665600000,1.7522],[1606752000000,1.7797],[1606838400000,1.7594],[1606924800000,1.7551],[1607011200000,1.7852],[1607270400000,1.8073],[1607356800000,1.8492],[1607443200000,1.8286],[1607529600000,1.815],[1607616000000,1.8003],[1607875200000,1.8539],[1607961600000,1.8763],[1608048000000,1.876],[1608134400000,1.8972],[1608220800000,1.9483],[1608480000000,2.0655],[1608566400000,2.01],[1608652800000,2.0427],[1608739200000,2.0258],[1608825600000,2.1004],[1609084800000,2.1064],[1609171200000,2.008],[1609257600000,2.0905],[1609344000000,2.137],[1609689600000,2.2993],[1609776000000,2.3274],[1609862400000,2.3043],[1609948800000,2.3629],[1610035200000,2.3366],[1610294400000,2.254],[1610380800000,2.3094],[1610467200000,2.2326],[1610553600000,2.1783],[1610640000000,2.2243],[1610899200000,2.2452],[1610985600000,2.1844],[1611072000000,2.2806],[1611158400000,2.3416],[1611244800000,2.4042],[1611504000000,2.4159],[1611590400000,2.3612],[1611676800000,2.3896],[1611763200000,2.2943],[1611849600000,2.2532],[1612108800000,2.2469],[1612195200000,2.3614],[1612281600000,2.3605],[1612368000000,2.309],[1612454400000,2.23],[1612713600000,2.2813],[1612800000000,2.3504],[1612886400000,2.3834],[1613577600000,2.3519],[1613664000000,2.3009],[1613923200000,2.2621],[1614009600000,2.2138],[1614096000000,2.1087],[1614182400000,2.0687],[1614268800000,2.0153],[1614528000000,2.1072],[1614614400000,2.1037],[1614700800000,2.1244],[1614787200000,2.0058],[1614873600000,2.0054],[1615132800000,1.9043],[1615219200000,1.8722],[1615305600000,1.9197],[1615392000000,1.9732],[1615478400000,1.9807],[1615737600000,1.9207],[1615824000000,1.9254],[1615910400000,1.9727],[1615996800000,1.9811],[1616083200000,1.9175],[1616342400000,1.9386],[1616428800000,1.8701],[1616515200000,1.8085],[1616601600000,1.8377],[1616688000000,1.9267],[1616947200000,1.904],[1617033600000,1.9299],[1617120000000,1.9037],[1617206400000,1.9391],[1617292800000,1.9652],[1617638400000,1.9729],[1617724800000,1.9567],[1617811200000,1.9452],[1617897600000,1.9126],[1618156800000,1.8491],[1618243200000,1.8598],[1618329600000,1.9446],[1618416000000,1.9377],[1618502400000,1.9212],[1618761600000,2.0406],[1618848000000,2.0185],[1618934400000,2.0144],[1619020800000,2.0231],[1619107200000,2.0525],[1619366400000,2.0255],[1619452800000,2.0168],[1619539200000,2.0655],[1619625600000,2.0663],[1619712000000,2.1089],[1620230400000,2.089],[1620316800000,2.032],[1620576000000,2.0473],[1620662400000,2.0065],[1620748800000,2.0086],[1620835200000,1.966],[1620921600000,2.0246],[1621180800000,2.1163],[1621267200000,2.1147],[1621353600000,2.1926],[1621440000000,2.1978],[1621526400000,2.1902],[1621785600000,2.2095],[1621872000000,2.2405],[1621958400000,2.2213],[1622044800000,2.2292],[1622131200000,2.3229],[1622390400000,2.4408],[1622476800000,2.415],[1622563200000,2.4017],[1622649600000,2.3938],[1622736000000,2.4555],[1622995200000,2.4054],[1623081600000,2.3869],[1623168000000,2.3841],[1623254400000,2.4682],[1623340800000,2.4946],[1623686400000,2.4844],[1623772800000,2.3336],[1623859200000,2.3964],[1623945600000,2.5064],[1624204800000,2.518],[1624291200000,2.518],[1624377600000,2.5855],[1624464000000,2.5562],[1624550400000,2.6027],[1624809600000,2.6667],[1624896000000,2.6747],[1624982400000,2.7441],[1625068800000,2.7106],[1625155200000,2.7025],[1625414400000,2.7733],[1625500800000,2.7758],[1625587200000,2.9248],[1625673600000,2.973],[1625760000000,3.0215],[1626019200000,3.1838],[1626105600000,3.1818],[1626192000000,3.0457],[1626278400000,3.104],[1626364800000,2.9685]]</t>
+  </si>
+  <si>
+    <t>510900</t>
+  </si>
+  <si>
+    <t>易方达恒生国企ETF</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [[1344441600000,1.0],[1344528000000,1.0001],[1345132800000,1.0003],[1345737600000,1.0008],[1346342400000,1.0013],[1346947200000,1.0018],[1347552000000,1.0021],[1348156800000,1.0027],[1348761600000,1.0032],[1349971200000,1.0077],[1350230400000,1.0061],[1350316800000,1.0058],[1350403200000,1.0077],[1350489600000,1.0132],[1350576000000,1.0157],[1350835200000,1.0199],[1351008000000,1.0128],[1351094400000,1.0109],[1351180800000,0.9961],[1351440000000,1.0044],[1351526400000,0.9968],[1351612800000,1.0068],[1351699200000,1.018],[1351785600000,1.0271],[1352044800000,1.0176],[1352131200000,1.0117],[1352217600000,1.0174],[1352304000000,0.9902],[1352649600000,0.98],[1352736000000,0.9601],[1352822400000,0.976],[1352908800000,0.9575],[1352995200000,0.9619],[1353254400000,0.9666],[1353340800000,0.9601],[1353427200000,0.9756],[1353513600000,0.9844],[1353600000000,0.9948],[1353859200000,0.991],[1353945600000,0.9868],[1354032000000,0.976],[1354118400000,0.9809],[1354204800000,0.9929],[1354464000000,0.978],[1354550400000,0.973],[1354636800000,1.0112],[1354723200000,1.0149],[1354809600000,1.0202],[1355068800000,1.0269],[1355155200000,1.0264],[1355241600000,1.0415],[1355328000000,1.0399],[1355414400000,1.0553],[1355673600000,1.0532],[1355760000000,1.053],[1355846400000,1.06],[1355932800000,1.0564],[1356019200000,1.0446],[1356278400000,1.0489],[1356537600000,1.0553],[1356624000000,1.0564],[1356883200000,1.0609],[1357228800000,1.1071],[1357488000000,1.1098],[1357574400000,1.0848],[1357660800000,1.0943],[1357747200000,1.103],[1357833600000,1.0935],[1358092800000,1.1066],[1358179200000,1.1061],[1358265600000,1.0979],[1358352000000,1.0934],[1358438400000,1.1153],[1358697600000,1.1175],[1358784000000,1.1235],[1358870400000,1.1198],[1358956800000,1.1138],[1359043200000,1.1051],[1359302400000,1.114],[1359388800000,1.1118],[1359475200000,1.1188],[1359561600000,1.1149],[1359648000000,1.1234],[1359907200000,1.1184],[1359993600000,1.0868],[1360080000000,1.0905],[1360166400000,1.0748],[1360252800000,1.0698],[1361116800000,1.0778],[1361203200000,1.059],[1361289600000,1.0729],[1361376000000,1.0503],[1361462400000,1.0405],[1361721600000,1.0421],[1361808000000,1.0207],[1361894400000,1.0231],[1361980800000,1.0488],[1362067200000,1.0407],[1362326400000,1.0195],[1362412800000,1.0248],[1362499200000,1.0409],[1362585600000,1.0372],[1362672000000,1.0515],[1362931200000,1.048],[1363017600000,1.0346],[1363104000000,1.0114],[1363190400000,1.0174],[1363276800000,1.0097],[1363536000000,0.9893],[1363622400000,0.9845],[1363708800000,1.0052],[1363795200000,1.0023],[1363881600000,0.9975],[1364140800000,1.0045],[1364227200000,1.0],[1364313600000,1.0102],[1364400000000,0.9976],[1364832000000,0.9874],[1364918400000,0.9831],[1365350400000,0.9539],[1365436800000,0.97],[1365523200000,0.9762],[1365609600000,0.9779],[1365696000000,0.9724],[1365955200000,0.9523],[1366041600000,0.9499],[1366128000000,0.9378],[1366214400000,0.9357],[1366300800000,0.9638],[1366560000000,0.9643],[1366646400000,0.9487],[1366732800000,0.9677],[1366819200000,0.9787],[1366905600000,0.9826],[1367424000000,0.9802],[1367510400000,0.9831],[1367769600000,0.9964],[1367856000000,1.0058],[1367942400000,1.019],[1368028800000,1.0167],[1368115200000,1.0253],[1368374400000,1.0048],[1368460800000,0.9979],[1368547200000,1.0032],[1368633600000,0.9979],[1368979200000,1.011],[1369065600000,1.0005],[1369152000000,0.9981],[1369238400000,0.9722],[1369324800000,0.9682],[1369584000000,0.9692],[1369670400000,0.9843],[1369756800000,0.9711],[1369843200000,0.9658],[1369929600000,0.9574],[1370188800000,0.953],[1370275200000,0.9529],[1370361600000,0.9476],[1370448000000,0.9378],[1370534400000,0.9264],[1371052800000,0.8889],[1371139200000,0.8869],[1371398400000,0.8987],[1371484800000,0.8989],[1371571200000,0.8864],[1371657600000,0.86],[1371744000000,0.8587],[1372003200000,0.8324],[1372089600000,0.8259],[1372176000000,0.8524],[1372262400000,0.8537],[1372348800000,0.8683],[1372521600000,0.8683],[1372694400000,0.8585],[1372780800000,0.8323],[1372867200000,0.8427],[1372953600000,0.8598],[1373212800000,0.8468],[1373299200000,0.8446],[1373385600000,0.8581],[1373472000000,0.8874],[1373558400000,0.8773],[1373817600000,0.8785],[1373904000000,0.8765],[1373990400000,0.8815],[1374076800000,0.8835],[1374163200000,0.8799],[1374422400000,0.8765],[1374508800000,0.9088],[1374595200000,0.9085],[1374681600000,0.9073],[1374768000000,0.907],[1375027200000,0.8965],[1375113600000,0.8999],[1375200000000,0.8996],[1375286400000,0.9053],[1375372800000,0.9065],[1375632000000,0.905],[1375718400000,0.8978],[1375804800000,0.8787],[1375891200000,0.8818],[1375977600000,0.8918],[1376236800000,0.9216],[1376323200000,0.9455],[1376409600000,0.9457],[1376496000000,0.9472],[1376582400000,0.9482],[1376841600000,0.9466],[1376928000000,0.9199],[1377014400000,0.9151],[1377100800000,0.9254],[1377187200000,0.9224],[1377446400000,0.9348],[1377532800000,0.9269],[1377619200000,0.9063],[1377705600000,0.9145],[1377792000000,0.9124],[1378051200000,0.9335],[1378137600000,0.9514],[1378224000000,0.9513],[1378310400000,0.9615],[1378396800000,0.9615],[1378656000000,0.978],[1378742400000,0.9929],[1378828800000,0.9874],[1378915200000,0.987],[1379001600000,0.9784],[1379260800000,0.9931],[1379347200000,0.988],[1379433600000,0.982],[1379865600000,0.9924],[1379952000000,0.9819],[1380038400000,0.9819],[1380124800000,0.9764],[1380211200000,0.9724],[1380470400000,0.9559],[1381161600000,0.9744],[1381248000000,0.972],[1381334400000,0.9681],[1381420800000,0.979],[1381766400000,0.9862],[1381852800000,0.9824],[1381939200000,0.9773],[1382025600000,0.9832],[1382284800000,0.9851],[1382371200000,0.9843],[1382457600000,0.9658],[1382544000000,0.9536],[1382630400000,0.9405],[1382889600000,0.9477],[1382976000000,0.9601],[1383062400000,0.9832],[1383148800000,0.9821],[1383235200000,0.9873],[1383494400000,0.9884],[1383580800000,0.9834],[1383667200000,0.9771],[1383753600000,0.9688],[1383840000000,0.9598],[1384099200000,0.9775],[1384185600000,0.975],[1384272000000,0.949],[1384358400000,0.9587],[1384444800000,0.9872],[1384704000000,1.041],[1384790400000,1.0461],[1384876800000,1.0524],[1384963200000,1.0445],[1385049600000,1.055],[1385308800000,1.0482],[1385395200000,1.0408],[1385481600000,1.0492],[1385568000000,1.0478],[1385654400000,1.0528],[1385913600000,1.0624],[1386000000000,1.0534],[1386086400000,1.0453],[1386172800000,1.0478],[1386259200000,1.0446],[1386518400000,1.0478],[1386604800000,1.0431],[1386691200000,1.0153],[1386777600000,1.0054],[1386864000000,1.012],[1387123200000,1.0032],[1387209600000,0.999],[1387296000000,1.0052],[1387382400000,0.9899],[1387468800000,0.9765],[1387728000000,0.9775],[1387814400000,0.994],[1388073600000,0.992],[1388332800000,0.9862],[1388419200000,0.9894],[1388592000000,0.9802],[1388678400000,0.9566],[1388937600000,0.9437],[1389024000000,0.9385],[1389110400000,0.9475],[1389196800000,0.9321],[1389283200000,0.9316],[1389542400000,0.9322],[1389628800000,0.9289],[1389715200000,0.9347],[1389801600000,0.9343],[1389888000000,0.9321],[1390147200000,0.9211],[1390233600000,0.9367],[1390320000000,0.9466],[1390406400000,0.9274],[1390492800000,0.9176],[1390752000000,0.897],[1390838400000,0.8947],[1390924800000,0.9072],[1391011200000,0.8995],[1391702400000,0.885],[1391961600000,0.8821],[1392048000000,0.9037],[1392134400000,0.9164],[1392220800000,0.9056],[1392307200000,0.9107],[1392566400000,0.9254],[1392652800000,0.9219],[1392739200000,0.9223],[1392825600000,0.9157],[1392912000000,0.9123],[1393171200000,0.9],[1393257600000,0.8945],[1393344000000,0.9001],[1393430400000,0.9142],[1393516800000,0.9081],[1393776000000,0.895],[1393862400000,0.8981],[1393948800000,0.888],[1394035200000,0.889],[1394121600000,0.8915],[1394380800000,0.8775],[1394467200000,0.8761],[1394553600000,0.8622],[1394640000000,0.8579],[1394726400000,0.8558],[1394985600000,0.8583],[1395072000000,0.8595],[1395158400000,0.8613],[1395244800000,0.8485],[1395331200000,0.8691],[1395590400000,0.8936],[1395676800000,0.8929],[1395763200000,0.9075],[1395849600000,0.9097],[1395936000000,0.9218],[1396195200000,0.9289],[1396281600000,0.9307],[1396368000000,0.9237],[1396454400000,0.9305],[1396540800000,0.9325],[1396886400000,0.9513],[1396972800000,0.9562],[1397059200000,0.9602],[1397145600000,0.9425],[1397404800000,0.9442],[1397491200000,0.9252],[1397577600000,0.9262],[1397664000000,0.93],[1398096000000,0.9259],[1398182400000,0.9145],[1398268800000,0.9174],[1398355200000,0.9043],[1398614400000,0.9015],[1398700800000,0.9116],[1398787200000,0.9025],[1399219200000,0.8988],[1399392000000,0.8906],[1399478400000,0.898],[1399564800000,0.8938],[1399824000000,0.9073],[1399910400000,0.9104],[1399996800000,0.9229],[1400083200000,0.921],[1400169600000,0.9193],[1400428800000,0.9157],[1400515200000,0.9127],[1400601600000,0.923],[1400688000000,0.9352],[1400774400000,0.9373],[1401033600000,0.9379],[1401120000000,0.9337],[1401206400000,0.9462],[1401292800000,0.9452],[1401379200000,0.9512],[1401724800000,0.9631],[1401811200000,0.959],[1401897600000,0.9635],[1401984000000,0.96],[1402243200000,0.9639],[1402329600000,0.9736],[1402416000000,0.9735],[1402502400000,0.9724],[1402588800000,0.9799],[1402848000000,0.9809],[1402934400000,0.9757],[1403020800000,0.9744],[1403107200000,0.9714],[1403193600000,0.9752],[1403452800000,0.9577],[1403539200000,0.9623],[1403625600000,0.9586],[1403712000000,0.9725],[1403798400000,0.9701],[1404057600000,0.9722],[1404230400000,0.9886],[1404316800000,0.9935],[1404403200000,0.9976],[1404662400000,0.9975],[1404748800000,0.9985],[1404835200000,0.9826],[1404921600000,0.9837],[1405008000000,0.9851],[1405267200000,0.9923],[1405353600000,0.9952],[1405440000000,0.9946],[1405526400000,0.9942],[1405612800000,0.992],[1405872000000,0.9838],[1405958400000,1.0062],[1406044800000,1.0262],[1406131200000,1.0372],[1406217600000,1.0423],[1406476800000,1.0501],[1406563200000,1.0542],[1406649600000,1.0545],[1406736000000,1.056],[1406822400000,1.0427],[1407081600000,1.0518],[1407168000000,1.0446],[1407254400000,1.0422],[1407340800000,1.0327],[1407427200000,1.0268],[1407686400000,1.0446],[1407772800000,1.0469],[1407859200000,1.0588],[1407945600000,1.0482],[1408032000000,1.0506],[1408291200000,1.0467],[1408377600000,1.0497],[1408464000000,1.0466],[1408550400000,1.037],[1408636800000,1.0477],[1408896000000,1.0534],[1408982400000,1.0543],[1409068800000,1.0493],[1409155200000,1.0358],[1409241600000,1.0386],[1409500800000,1.0386],[1409587200000,1.0392],[1409673600000,1.0715],[1409760000000,1.0777],[1409846400000,1.0769],[1410278400000,1.049],[1410364800000,1.0432],[1410451200000,1.0418],[1410710400000,1.0257],[1410796800000,1.0149],[1410883200000,1.0309],[1410969600000,1.0228],[1411056000000,1.0207],[1411315200000,1.0037],[1411401600000,1.0008],[1411488000000,1.0144],[1411574400000,1.0077],[1411660800000,1.0025],[1411920000000,0.9885],[1412006400000,0.9759],[1412697600000,0.9842],[1412784000000,0.9917],[1412870400000,0.9748],[1413129600000,0.9726],[1413216000000,0.9691],[1413302400000,0.9727],[1413388800000,0.9625],[1413475200000,0.9671],[1413734400000,0.9731],[1413820800000,0.9708],[1413907200000,0.9855],[1413993600000,0.9869],[1414080000000,0.9825],[1414339200000,0.9746],[1414425600000,0.9962],[1414512000000,1.0123],[1414598400000,1.0045],[1414684800000,1.0163],[1414944000000,1.0083],[1415030400000,1.0151],[1415116800000,1.0047],[1415203200000,1.0007],[1415289600000,0.9984],[1415548800000,1.0019],[1415635200000,1.0056],[1415721600000,1.0131],[1415808000000,1.0195],[1415894400000,1.0154],[1416153600000,0.9962],[1416240000000,0.9845],[1416326400000,0.9797],[1416412800000,0.9798],[1416499200000,0.9855],[1416758400000,1.0227],[1416844800000,1.0167],[1416931200000,1.0412],[1417017600000,1.0372],[1417104000000,1.0501],[1417363200000,1.0197],[1417449600000,1.0474],[1417536000000,1.0422],[1417622400000,1.0822],[1417708800000,1.0928],[1417968000000,1.1164],[1418054400000,1.0659],[1418140800000,1.0687],[1418227200000,1.0577],[1418313600000,1.0566],[1418572800000,1.0536],[1418659200000,1.047],[1418745600000,1.0582],[1418832000000,1.0647],[1418918400000,1.0717],[1419177600000,1.1034],[1419264000000,1.0968],[1419350400000,1.086],[1419782400000,1.1275],[1419868800000,1.1122],[1419955200000,1.124],[1420387200000,1.1451],[1420473600000,1.1263],[1420560000000,1.1268],[1420646400000,1.1304],[1420732800000,1.1352],[1420992000000,1.1288],[1421078400000,1.1332],[1421164800000,1.1296],[1421251200000,1.1474],[1421337600000,1.1333],[1421596800000,1.08],[1421683200000,1.1067],[1421769600000,1.132],[1421856000000,1.1335],[1421942400000,1.1523],[1422201600000,1.1495],[1422288000000,1.1311],[1422374400000,1.1233],[1422460800000,1.1027],[1422547200000,1.1019],[1422806400000,1.0889],[1422892800000,1.1099],[1422979200000,1.107],[1423065600000,1.1083],[1423152000000,1.0975],[1423411200000,1.0938],[1423497600000,1.0977],[1423584000000,1.0939],[1423670400000,1.1061],[1423756800000,1.1177],[1424016000000,1.1183],[1424102400000,1.1251],[1424793600000,1.1324],[1424880000000,1.1473],[1424966400000,1.1451],[1425225600000,1.1486],[1425312000000,1.1242],[1425398400000,1.1048],[1425484800000,1.0917],[1425571200000,1.0924],[1425830400000,1.099],[1425916800000,1.0834],[1426003200000,1.0754],[1426089600000,1.0886],[1426176000000,1.1018],[1426435200000,1.1116],[1426521600000,1.1132],[1426608000000,1.1263],[1426694400000,1.1383],[1426780800000,1.1419],[1427040000000,1.1432],[1427126400000,1.1263],[1427212800000,1.1233],[1427299200000,1.1181],[1427385600000,1.1165],[1427644800000,1.1544],[1427731200000,1.1583],[1427817600000,1.1773],[1427904000000,1.1884],[1428422400000,1.2541],[1428508800000,1.2866],[1428595200000,1.3107],[1428854400000,1.3681],[1428940800000,1.3376999999999999],[1429027200000,1.3552],[1429113600000,1.3767],[1429200000000,1.3588],[1429459200000,1.3182],[1429545600000,1.3572],[1429632000000,1.37],[1429718400000,1.3522],[1429804800000,1.3523],[1430064000000,1.375],[1430150400000,1.3722],[1430236800000,1.3611],[1430323200000,1.3446],[1430668800000,1.3476],[1430755200000,1.3128],[1430841600000,1.3052],[1430928000000,1.2832],[1431014400000,1.3092],[1431273600000,1.3209],[1431360000000,1.3022],[1431446400000,1.2913],[1431532800000,1.2835],[1431619200000,1.3047],[1431878400000,1.2968],[1431964800000,1.3214],[1432051200000,1.3268],[1432137600000,1.3174],[1432224000000,1.3443],[1432569600000,1.3789],[1432656000000,1.3712],[1432742400000,1.3244],[1432828800000,1.3163],[1433088000000,1.335],[1433174400000,1.326],[1433260800000,1.3181],[1433347200000,1.3206],[1433433600000,1.3022],[1433692800000,1.3213],[1433779200000,1.297],[1433865600000,1.2751999999999999],[1433952000000,1.2866],[1434038400000,1.3094],[1434297600000,1.276],[1434384000000,1.2417],[1434470400000,1.2567],[1434556800000,1.2421],[1434643200000,1.2344],[1434988800000,1.2805],[1435075200000,1.2887],[1435161600000,1.2747],[1435248000000,1.2399],[1435507200000,1.2097],[1435593600000,1.2363],[1435766400000,1.2217],[1435852800000,1.2053],[1436112000000,1.1704],[1436198400000,1.1323],[1436284800000,1.0655],[1436371200000,1.094],[1436457600000,1.1304],[1436716800000,1.1445],[1436803200000,1.1313],[1436889600000,1.119],[1436976000000,1.1249],[1437062400000,1.1335],[1437321600000,1.128],[1437408000000,1.1361],[1437494400000,1.1243],[1437580800000,1.1333],[1437667200000,1.1192],[1437926400000,1.0804],[1438012800000,1.0749],[1438099200000,1.084],[1438185600000,1.0712],[1438272000000,1.07],[1438531200000,1.0589],[1438617600000,1.0655],[1438704000000,1.0702],[1438790400000,1.0678],[1438876800000,1.0797],[1439136000000,1.0849],[1439222400000,1.1015],[1439308800000,1.0967],[1439395200000,1.1123],[1439481600000,1.11],[1439740800000,1.0999],[1439827200000,1.0815],[1439913600000,1.0689],[1440000000000,1.0452],[1440086400000,1.0245],[1440345600000,0.9674],[1440432000000,0.9605],[1440518400000,0.9531],[1440604800000,0.9957],[1440691200000,0.9835],[1440950400000,0.9812],[1441036800000,0.9514],[1441123200000,0.9349],[1441555200000,0.9157],[1441641600000,0.9526],[1441728000000,1.0001],[1441814400000,0.9838],[1441900800000,0.9762],[1442160000000,0.9779],[1442246400000,0.9749],[1442332800000,0.9952],[1442419200000,1.0006],[1442505600000,1.0062],[1442764800000,0.9944],[1442851200000,0.9888],[1442937600000,0.9635],[1443024000000,0.9538],[1443110400000,0.9578],[1443456000000,0.9283],[1443542400000,0.945],[1444233600000,1.0298],[1444320000000,1.0412],[1444579200000,1.0525],[1444665600000,1.0398],[1444752000000,1.0326],[1444838400000,1.054],[1444924800000,1.0627],[1445184000000,1.0692],[1445270400000,1.0668],[1445443200000,1.0598],[1445529600000,1.0753],[1445788800000,1.075],[1445875200000,1.0708],[1445961600000,1.0562],[1446048000000,1.0453],[1446134400000,1.0395],[1446393600000,1.0187],[1446480000000,1.0254],[1446566400000,1.0532],[1446652800000,1.0594],[1446739200000,1.0547],[1446998400000,1.0516],[1447084800000,1.0331],[1447171200000,1.0265],[1447257600000,1.0429],[1447344000000,1.0208],[1447603200000,1.0021],[1447689600000,1.0112],[1447776000000,1.0103],[1447862400000,1.0237],[1447948800000,1.0343],[1448208000000,1.0284],[1448294400000,1.0216],[1448380800000,1.0186],[1448467200000,1.0169],[1448553600000,0.9921],[1448812800000,0.9863],[1448899200000,1.0019],[1448985600000,1.0117],[1449072000000,1.006],[1449158400000,0.9886],[1449417600000,0.987],[1449504000000,0.9747],[1449590400000,0.9654],[1449676800000,0.956],[1449763200000,0.9436],[1450022400000,0.9462],[1450108800000,0.95],[1450195200000,0.9704],[1450281600000,0.985],[1450368000000,0.9823],[1450627200000,0.9927],[1450713600000,0.991],[1450800000000,1.0059],[1450886400000,1.0134],[1451232000000,0.9968],[1451318400000,0.9985],[1451404800000,0.986],[1451491200000,0.9866],[1451836800000,0.9528],[1451923200000,0.9458],[1452009600000,0.9392],[1452096000000,0.9049],[1452182400000,0.9138],[1452441600000,0.8781],[1452528000000,0.8717],[1452614400000,0.8775],[1452700800000,0.8734],[1452787200000,0.8493],[1453046400000,0.836],[1453132800000,0.8602],[1453219200000,0.8216],[1453305600000,0.804],[1453392000000,0.8316],[1453651200000,0.8395],[1453737600000,0.8113],[1453824000000,0.8183],[1453910400000,0.8251],[1453996800000,0.8464],[1454256000000,0.8377],[1454342400000,0.8291],[1454428800000,0.8068],[1454515200000,0.8182],[1454601600000,0.8255],[1455465600000,0.8035],[1455552000000,0.8206],[1455638400000,0.811],[1455724800000,0.8345],[1455811200000,0.8302],[1456070400000,0.8417],[1456156800000,0.8381],[1456243200000,0.8275],[1456329600000,0.8086],[1456416000000,0.8251],[1456675200000,0.8139],[1456761600000,0.8286],[1456848000000,0.8607],[1456934400000,0.8615],[1457020800000,0.877],[1457280000000,0.8821],[1457366400000,0.8688],[1457452800000,0.8631],[1457539200000,0.8614],[1457625600000,0.8727],[1457884800000,0.8857],[1457971200000,0.8799],[1458057600000,0.8776],[1458144000000,0.8954],[1458230400000,0.902],[1458489600000,0.9094],[1458576000000,0.9086],[1458662400000,0.9054],[1458748800000,0.8904],[1459180800000,0.8918],[1459267200000,0.9144],[1459353600000,0.9137],[1459440000000,0.8972],[1459785600000,0.8818],[1459872000000,0.8818],[1459958400000,0.8791],[1460044800000,0.8847],[1460304000000,0.8939],[1460390400000,0.8973],[1460476800000,0.9319],[1460563200000,0.9405],[1460649600000,0.9385],[1460908800000,0.9245],[1460995200000,0.9386],[1461081600000,0.9258],[1461168000000,0.9403],[1461254400000,0.9286],[1461513600000,0.9183],[1461600000000,0.9179],[1461686400000,0.9195],[1461772800000,0.9234],[1461859200000,0.9059],[1462204800000,0.8862],[1462291200000,0.8859],[1462377600000,0.8812],[1462464000000,0.8667],[1462723200000,0.8633],[1462809600000,0.8682],[1462896000000,0.8638],[1462982400000,0.8576],[1463068800000,0.8499],[1463328000000,0.8518],[1463414400000,0.8616],[1463500800000,0.8492],[1463587200000,0.8469],[1463673600000,0.8527],[1463932800000,0.8526],[1464019200000,0.8527],[1464105600000,0.8789],[1464192000000,0.8763],[1464278400000,0.8825],[1464537600000,0.8906],[1464624000000,0.8988],[1464710400000,0.9004],[1464796800000,0.9027],[1464883200000,0.9095],[1465142400000,0.9114],[1465228800000,0.9284],[1465315200000,0.9307],[1465747200000,0.8928],[1465833600000,0.8889],[1465920000000,0.8952],[1466006400000,0.8765],[1466092800000,0.8851],[1466352000000,0.8997],[1466438400000,0.9068],[1466524800000,0.922],[1466611200000,0.9209],[1466697600000,0.8966],[1466956800000,0.9079],[1467043200000,0.9075],[1467129600000,0.9178],[1467216000000,0.9331],[1467561600000,0.9446],[1467648000000,0.9319],[1467734400000,0.9209],[1467820800000,0.9311],[1467907200000,0.9246],[1468166400000,0.9421],[1468252800000,0.9594],[1468339200000,0.9641],[1468425600000,0.9742],[1468512000000,0.9779],[1468771200000,0.9843],[1468857600000,0.9737],[1468944000000,0.9768],[1469030400000,0.9792],[1469116800000,0.9736],[1469376000000,0.9764],[1469462400000,0.978],[1469548800000,0.982],[1469635200000,0.9775],[1469721600000,0.9634],[1469980800000,0.9772],[1470067200000,0.9794],[1470153600000,0.9603],[1470240000000,0.9667],[1470326400000,0.9796],[1470585600000,0.9977],[1470672000000,0.9997],[1470758400000,1.0002],[1470844800000,1.0073],[1470931200000,1.0253],[1471190400000,1.0395],[1471276800000,1.0374],[1471363200000,1.0269],[1471449600000,1.0315],[1471536000000,1.0257],[1471795200000,1.0318],[1471881600000,1.0292],[1471968000000,1.0184],[1472054400000,1.0208],[1472140800000,1.0236],[1472400000000,1.0233],[1472486400000,1.0332],[1472572800000,1.0286],[1472659200000,1.0335],[1472745600000,1.0407],[1473004800000,1.0588],[1473091200000,1.0671],[1473177600000,1.0686],[1473264000000,1.0735],[1473350400000,1.0803],[1473609600000,1.0413],[1473696000000,1.0298],[1473782400000,1.0292],[1474214400000,1.0492],[1474300800000,1.0467],[1474387200000,1.0593],[1474473600000,1.0607],[1474560000000,1.0527],[1474819200000,1.0361],[1474905600000,1.0471],[1474992000000,1.0448],[1475078400000,1.0531],[1475164800000,1.0315],[1476115200000,1.0596],[1476201600000,1.048],[1476288000000,1.0299],[1476374400000,1.0389],[1476633600000,1.0357],[1476720000000,1.0536],[1476806400000,1.0454],[1476892800000,1.0501],[1476979200000,1.0538],[1477238400000,1.0737],[1477324800000,1.073],[1477411200000,1.0576],[1477497600000,1.0483],[1477584000000,1.0404],[1477843200000,1.0417],[1477929600000,1.0589],[1478016000000,1.0361],[1478102400000,1.0311],[1478188800000,1.0325],[1478448000000,1.048],[1478534400000,1.055],[1478620800000,1.025],[1478707200000,1.0438],[1478793600000,1.035],[1479052800000,1.0274],[1479139200000,1.0366],[1479225600000,1.0342],[1479312000000,1.0317],[1479398400000,1.0357],[1479657600000,1.0489],[1479744000000,1.0685],[1479830400000,1.072],[1479916800000,1.0761],[1480003200000,1.0896],[1480262400000,1.0969],[1480348800000,1.0913],[1480435200000,1.0901],[1480521600000,1.0974],[1480608000000,1.0826],[1480867200000,1.0761],[1480953600000,1.0777],[1481040000000,1.0878],[1481126400000,1.0937],[1481212800000,1.0943],[1481472000000,1.0776],[1481558400000,1.0776],[1481644800000,1.0777],[1481731200000,1.0573],[1481817600000,1.0593],[1482076800000,1.0455],[1482163200000,1.0374],[1482249600000,1.0429],[1482336000000,1.0287],[1482422400000,1.0269],[1482854400000,1.0403],[1482940800000,1.0419],[1483027200000,1.0494],[1483113600000,1.0493],[1483372800000,1.0579],[1483459200000,1.0565],[1483545600000,1.0707],[1483632000000,1.0622],[1483891200000,1.0701],[1483977600000,1.0764],[1484064000000,1.0842],[1484150400000,1.0814],[1484236800000,1.0848],[1484496000000,1.0709],[1484582400000,1.0766],[1484668800000,1.0802],[1484755200000,1.0796],[1484841600000,1.0731],[1485100800000,1.0723],[1485187200000,1.0722],[1485273600000,1.0744],[1485360000000,1.0863],[1486051200000,1.0668],[1486310400000,1.0848],[1486396800000,1.0854],[1486483200000,1.101],[1486569600000,1.1117],[1486656000000,1.1191],[1486915200000,1.1347],[1487001600000,1.1326],[1487088000000,1.1496],[1487174400000,1.1514],[1487260800000,1.1383],[1487520000000,1.152],[1487606400000,1.1488],[1487692800000,1.1635],[1487779200000,1.1595],[1487865600000,1.1478],[1488124800000,1.1406],[1488211200000,1.1358],[1488297600000,1.1353],[1488384000000,1.131],[1488470400000,1.1213],[1488729600000,1.1219],[1488816000000,1.1309],[1488902400000,1.1375],[1488988800000,1.1186],[1489075200000,1.1159],[1489334400000,1.1343],[1489420800000,1.1424],[1489507200000,1.1372],[1489593600000,1.1608],[1489680000000,1.1603],[1489939200000,1.1697],[1490025600000,1.177],[1490112000000,1.1537],[1490198400000,1.1563],[1490284800000,1.155],[1490544000000,1.1402],[1490630400000,1.1482],[1490716800000,1.1516],[1490803200000,1.1421],[1490889600000,1.1346],[1491321600000,1.1429],[1491408000000,1.1339],[1491494400000,1.1339],[1491753600000,1.1332],[1491840000000,1.1221],[1491926400000,1.1264],[1492012800000,1.1211],[1492444800000,1.1066],[1492531200000,1.0971],[1492617600000,1.1068],[1492704000000,1.1066],[1492963200000,1.1101],[1493049600000,1.1298],[1493136000000,1.1347],[1493222400000,1.1295],[1493308800000,1.1255],[1493654400000,1.1213],[1493827200000,1.1116],[1493913600000,1.0927],[1494172800000,1.0996],[1494259200000,1.1166],[1494345600000,1.1278],[1494432000000,1.1304],[1494518400000,1.1311],[1494777600000,1.1469],[1494864000000,1.145],[1494950400000,1.1374],[1495036800000,1.1255],[1495123200000,1.1281],[1495382400000,1.1376],[1495468800000,1.1394],[1495555200000,1.1401],[1495641600000,1.1583],[1495728000000,1.1593],[1496160000000,1.1611],[1496246400000,1.1541],[1496332800000,1.1587],[1496592000000,1.1495],[1496678400000,1.1512],[1496764800000,1.1501],[1496851200000,1.156],[1496937600000,1.1503],[1497196800000,1.1385],[1497283200000,1.1433],[1497369600000,1.1423],[1497456000000,1.123],[1497542400000,1.1289],[1497801600000,1.1432],[1497888000000,1.1402],[1497974400000,1.1336],[1498060800000,1.1406],[1498147200000,1.1444],[1498406400000,1.1558],[1498492800000,1.1538],[1498579200000,1.1406],[1498665600000,1.1451],[1498752000000,1.1344],[1499011200000,1.1444],[1499097600000,1.1348],[1499184000000,1.146],[1499270400000,1.1476],[1499356800000,1.1363],[1499616000000,1.1347],[1499702400000,1.1576],[1499788800000,1.1665],[1499875200000,1.1828],[1499961600000,1.1877],[1500220800000,1.1904],[1500307200000,1.1886],[1500393600000,1.1968],[1500480000000,1.1951],[1500566400000,1.1875],[1500825600000,1.1916],[1500912000000,1.189],[1500998400000,1.1948],[1501084800000,1.1937],[1501171200000,1.1841],[1501430400000,1.19],[1501516800000,1.2081],[1501603200000,1.2119],[1501689600000,1.2059],[1501776000000,1.2044],[1502035200000,1.2113],[1502121600000,1.2128],[1502208000000,1.198],[1502294400000,1.1752],[1502380800000,1.1506],[1502640000000,1.1638],[1502726400000,1.1681],[1502812800000,1.1777],[1502899200000,1.1751],[1502985600000,1.1641],[1503244800000,1.1695],[1503331200000,1.1887],[1503417600000,1.1889],[1503504000000,1.1972],[1503590400000,1.2231],[1503849600000,1.2249],[1503936000000,1.2188],[1504022400000,1.2233],[1504108800000,1.2134],[1504195200000,1.2105],[1504454400000,1.1962],[1504540800000,1.1917],[1504627200000,1.184],[1504713600000,1.1807],[1504800000000,1.1851],[1505059200000,1.1913],[1505145600000,1.1986],[1505232000000,1.1948],[1505318400000,1.1872],[1505404800000,1.183],[1505664000000,1.1955],[1505750400000,1.1903],[1505836800000,1.1996],[1505923200000,1.2063],[1506009600000,1.196],[1506268800000,1.1762],[1506355200000,1.1837],[1506441600000,1.1931],[1506528000000,1.1782],[1506614400000,1.1832],[1507478400000,1.2367],[1507564800000,1.2363],[1507651200000,1.2278],[1507737600000,1.2362],[1507824000000,1.2391],[1508083200000,1.2474],[1508169600000,1.2442],[1508256000000,1.252],[1508342400000,1.2257],[1508428800000,1.2482],[1508688000000,1.2428],[1508774400000,1.2352],[1508860800000,1.2453],[1508947200000,1.2394],[1509033600000,1.2639],[1509292800000,1.2554],[1509379200000,1.2484],[1509465600000,1.26],[1509552000000,1.2539],[1509638400000,1.2519],[1509897600000,1.2467],[1509984000000,1.2591],[1510070400000,1.2525],[1510156800000,1.2727],[1510243200000,1.2714],[1510502400000,1.2654],[1510588800000,1.2578],[1510675200000,1.2347],[1510761600000,1.2474],[1510848000000,1.2548],[1511107200000,1.2467],[1511193600000,1.2842],[1511280000000,1.2919],[1511366400000,1.2631],[1511452800000,1.2774],[1511712000000,1.2646],[1511798400000,1.2597],[1511884800000,1.2547],[1511971200000,1.236],[1512057600000,1.2334],[1512316800000,1.241],[1512403200000,1.2368],[1512489600000,1.2038],[1512576000000,1.2034],[1512662400000,1.2192],[1512921600000,1.2331],[1513008000000,1.2206],[1513094400000,1.2444],[1513180800000,1.2419],[1513267200000,1.2249],[1513526400000,1.2306],[1513612800000,1.2422],[1513699200000,1.2375],[1513785600000,1.2415],[1513872000000,1.2479],[1514304000000,1.2379],[1514390400000,1.2448],[1514476800000,1.2454],[1514649600000,1.2453],[1514822400000,1.2775],[1514908800000,1.277],[1514995200000,1.2911],[1515081600000,1.2892],[1515340800000,1.2898],[1515427200000,1.2941],[1515513600000,1.3025],[1515600000000,1.3016],[1515686400000,1.3153],[1515945600000,1.3083],[1516032000000,1.3367],[1516118400000,1.3443],[1516204800000,1.3705],[1516291200000,1.3737],[1516550400000,1.3753],[1516636800000,1.4021],[1516723200000,1.4136],[1516809600000,1.3857],[1516896000000,1.4136],[1517155200000,1.4031],[1517241600000,1.3768],[1517328000000,1.3943],[1517414400000,1.3747],[1517500800000,1.3821],[1517760000000,1.3788],[1517846400000,1.3],[1517932800000,1.2708],[1518019200000,1.2645],[1518105600000,1.2231],[1518364800000,1.2192],[1518451200000,1.2343],[1518537600000,1.2635],[1519228800000,1.292],[1519315200000,1.3121],[1519574400000,1.32],[1519660800000,1.2963],[1519747200000,1.2718],[1519833600000,1.2777],[1519920000000,1.253],[1520179200000,1.2326],[1520265600000,1.2642],[1520352000000,1.2488],[1520438400000,1.2631],[1520524800000,1.276],[1520784000000,1.3009],[1520870400000,1.3033],[1520956800000,1.2966],[1521043200000,1.2989],[1521129600000,1.2979],[1521388800000,1.2959],[1521475200000,1.288],[1521561600000,1.2831],[1521648000000,1.2689],[1521734400000,1.2404],[1521993600000,1.2457],[1522080000000,1.2489],[1522166400000,1.2183],[1522252800000,1.223],[1522684800000,1.2323],[1522771200000,1.206],[1523203200000,1.2312],[1523289600000,1.2555],[1523376000000,1.2523],[1523462400000,1.2472],[1523548800000,1.2456],[1523808000000,1.2198],[1523894400000,1.2069],[1523980800000,1.2163],[1524067200000,1.2421],[1524153600000,1.2249],[1524412800000,1.2225],[1524499200000,1.2513],[1524585600000,1.2323],[1524672000000,1.2219],[1524758400000,1.2357],[1525190400000,1.2535],[1525276800000,1.237],[1525363200000,1.2197],[1525622400000,1.2285],[1525708800000,1.2483],[1525795200000,1.2537],[1525881600000,1.2594],[1525968000000,1.2658],[1526227200000,1.2824],[1526313600000,1.2747],[1526400000000,1.2797],[1526486400000,1.2639],[1526572800000,1.2734],[1526832000000,1.2746],[1527004800000,1.2465],[1527091200000,1.2543],[1527177600000,1.2483],[1527436800000,1.2573],[1527523200000,1.2434],[1527609600000,1.2274],[1527696000000,1.2481],[1527782400000,1.2508],[1528041600000,1.2771],[1528128000000,1.2772],[1528214400000,1.2772],[1528300800000,1.2902],[1528387200000,1.2673],[1528646400000,1.2689],[1528732800000,1.2735],[1528819200000,1.258],[1528905600000,1.2455],[1528992000000,1.2435],[1529337600000,1.2035],[1529424000000,1.212],[1529510400000,1.2004],[1529596800000,1.1996],[1529856000000,1.1873],[1529942400000,1.1834],[1530028800000,1.1665],[1530115200000,1.1737],[1530201600000,1.198],[1530288000000,1.198],[1530547200000,1.1838],[1530633600000,1.1717],[1530720000000,1.1632],[1530806400000,1.1666],[1531065600000,1.1866],[1531152000000,1.1901],[1531238400000,1.1729],[1531324800000,1.1906],[1531411200000,1.1902],[1531670400000,1.1863],[1531756800000,1.1759],[1531843200000,1.176],[1531929600000,1.1728],[1532016000000,1.1989],[1532275200000,1.2025],[1532361600000,1.2332],[1532448000000,1.2464],[1532534400000,1.2345],[1532620800000,1.2416],[1532880000000,1.2445],[1532966400000,1.2429],[1533052800000,1.2396],[1533139200000,1.2087],[1533225600000,1.2107],[1533484800000,1.2148],[1533571200000,1.2304],[1533657600000,1.2321],[1533744000000,1.2446],[1533830400000,1.2378],[1534089600000,1.2231],[1534176000000,1.2218],[1534262400000,1.2024],[1534348800000,1.198],[1534435200000,1.2006],[1534694400000,1.2102],[1534780800000,1.2154],[1534867200000,1.2257],[1534953600000,1.2235],[1535040000000,1.2255],[1535299200000,1.2505],[1535385600000,1.2478],[1535472000000,1.2469],[1535558400000,1.2365],[1535644800000,1.2292],[1535904000000,1.2254],[1535990400000,1.2306],[1536076800000,1.2064],[1536163200000,1.2],[1536249600000,1.198],[1536508800000,1.1875],[1536595200000,1.1785],[1536681600000,1.1695],[1536768000000,1.1973],[1536854400000,1.2028],[1537113600000,1.1933],[1537200000000,1.2046],[1537286400000,1.2242],[1537372800000,1.2292],[1537459200000,1.2513],[1537891200000,1.2548],[1537977600000,1.2519],[1538064000000,1.2614],[1538928000000,1.1941],[1539014400000,1.1991],[1539100800000,1.2015],[1539187</t>
+  </si>
+  <si>
+    <t>070009</t>
+  </si>
+  <si>
+    <t>嘉实超短债债券C</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [[1145980800000,1.0],[1146153600000,1.0001],[1147363200000,1.0008],[1147622400000,1.0009],[1147708800000,1.0009],[1147795200000,1.001],[1147881600000,1.0011],[1147968000000,1.0011],[1148227200000,1.0013],[1148313600000,1.0013],[1148400000000,1.0014],[1148486400000,1.0014],[1148572800000,1.0014],[1148832000000,1.0014],[1148918400000,1.0014],[1149004800000,1.0015],[1149091200000,1.0015],[1149177600000,1.0015],[1149436800000,1.0015],[1149523200000,1.0015],[1149609600000,1.0016],[1149696000000,1.0016],[1149782400000,1.0016],[1150041600000,1.0016],[1150128000000,1.0016],[1150214400000,1.0016],[1150300800000,1.0016],[1150387200000,1.0016],[1150646400000,1.0016],[1150732800000,1.0016],[1150819200000,1.0016],[1150905600000,1.0016],[1150992000000,1.0016],[1151251200000,1.0016],[1151337600000,1.0017],[1151424000000,1.0017],[1151510400000,1.0017],[1151596800000,1.0017],[1151856000000,1.0017],[1151942400000,1.0018],[1152028800000,1.0018],[1152115200000,1.0018],[1152201600000,1.0018],[1152460800000,1.002],[1152547200000,1.002],[1152633600000,1.002],[1152720000000,1.002],[1152806400000,1.002],[1153065600000,1.0022],[1153152000000,1.0022],[1153238400000,1.0022],[1153324800000,1.0022],[1153411200000,1.0023],[1153670400000,1.0024],[1153756800000,1.0024],[1153843200000,1.0024],[1153929600000,1.0024],[1154016000000,1.0024],[1154275200000,1.0025],[1154361600000,1.0026],[1154448000000,1.0026],[1154534400000,1.0026],[1154620800000,1.0028],[1154880000000,1.003],[1154966400000,1.003],[1155052800000,1.0031],[1155139200000,1.0032],[1155225600000,1.0032],[1155484800000,1.0034],[1155571200000,1.0035],[1155657600000,1.0035],[1155744000000,1.0036],[1155830400000,1.0036],[1156089600000,1.0037],[1156176000000,1.0038],[1156262400000,1.0039],[1156348800000,1.004],[1156435200000,1.004],[1156694400000,1.0042],[1156780800000,1.0042],[1156867200000,1.0043],[1156953600000,1.0044],[1157040000000,1.0045],[1157299200000,1.0046],[1157385600000,1.0047],[1157472000000,1.0048],[1157558400000,1.0048],[1157644800000,1.0049],[1157904000000,1.005],[1157990400000,1.0051],[1158076800000,1.0052],[1158163200000,1.0053],[1158249600000,1.0054],[1158508800000,1.0055],[1158595200000,1.0057],[1158681600000,1.0058],[1158768000000,1.0058],[1158854400000,1.0059],[1159113600000,1.006],[1159200000000,1.0061],[1159286400000,1.0062],[1159372800000,1.0062],[1159459200000,1.0063],[1159545600000,1.0064],[1160323200000,1.0068],[1160409600000,1.0068],[1160496000000,1.0069],[1160582400000,1.0069],[1160668800000,1.007],[1160928000000,1.0071],[1161014400000,1.0072],[1161100800000,1.0072],[1161187200000,1.0073],[1161273600000,1.0073],[1161532800000,1.0075],[1161619200000,1.0076],[1161705600000,1.0077],[1161792000000,1.0077],[1161878400000,1.0078],[1162137600000,1.008],[1162224000000,1.008],[1162310400000,1.0081],[1162396800000,1.0085],[1162483200000,1.0086],[1162742400000,1.0087],[1162828800000,1.0089],[1162915200000,1.009],[1163001600000,1.0091],[1163088000000,1.0091],[1163347200000,1.0093],[1163433600000,1.0093],[1163520000000,1.0094],[1163606400000,1.0094],[1163692800000,1.0095],[1163952000000,1.0096],[1164038400000,1.0097],[1164124800000,1.0097],[1164211200000,1.0097],[1164297600000,1.0098],[1164556800000,1.0099],[1164643200000,1.01],[1164729600000,1.01],[1164816000000,1.0101],[1164902400000,1.0102],[1165161600000,1.0103],[1165248000000,1.0105],[1165334400000,1.0107],[1165420800000,1.0108],[1165507200000,1.0108],[1165766400000,1.011],[1165852800000,1.011],[1165939200000,1.0111],[1166025600000,1.0112],[1166112000000,1.0113],[1166371200000,1.0115],[1166457600000,1.0115],[1166544000000,1.0116],[1166630400000,1.0117],[1166716800000,1.0118],[1166976000000,1.0118],[1167062400000,1.0118],[1167148800000,1.0119],[1167235200000,1.012],[1167321600000,1.012],[1167494400000,1.0121],[1167840000000,1.0124],[1167926400000,1.0124],[1168185600000,1.0126],[1168272000000,1.0127],[1168358400000,1.0128],[1168444800000,1.0128],[1168531200000,1.0129],[1168790400000,1.0131],[1168876800000,1.0133],[1168963200000,1.0133],[1169049600000,1.0134],[1169136000000,1.0135],[1169395200000,1.0137],[1169481600000,1.0138],[1169568000000,1.0139],[1169654400000,1.0139],[1169740800000,1.014],[1170000000000,1.0142],[1170086400000,1.0143],[1170172800000,1.0143],[1170259200000,1.0144],[1170345600000,1.0145],[1170604800000,1.0146],[1170691200000,1.0147],[1170777600000,1.0148],[1170864000000,1.0148],[1170950400000,1.0149],[1171209600000,1.015],[1171296000000,1.0151],[1171382400000,1.0151],[1171468800000,1.0152],[1171555200000,1.0152],[1172419200000,1.0158],[1172505600000,1.0159],[1172592000000,1.0159],[1172678400000,1.016],[1172764800000,1.0161],[1173024000000,1.0162],[1173110400000,1.0165],[1173196800000,1.0165],[1173283200000,1.0166],[1173369600000,1.0167],[1173628800000,1.0168],[1173715200000,1.0169],[1173801600000,1.0169],[1173888000000,1.017],[1173974400000,1.0171],[1174233600000,1.0172],[1174320000000,1.0174],[1174406400000,1.0175],[1174492800000,1.0175],[1174579200000,1.0178],[1174838400000,1.018],[1174924800000,1.0181],[1175011200000,1.0182],[1175097600000,1.0182],[1175184000000,1.0183],[1175270400000,1.0183],[1175443200000,1.0184],[1175529600000,1.0185],[1175616000000,1.0185],[1175702400000,1.0186],[1175788800000,1.0186],[1176048000000,1.0188],[1176134400000,1.0188],[1176220800000,1.0189],[1176307200000,1.019],[1176393600000,1.019],[1176652800000,1.0192],[1176739200000,1.0193],[1176825600000,1.0194],[1176912000000,1.0194],[1176998400000,1.0195],[1177257600000,1.0196],[1177344000000,1.0196],[1177430400000,1.0197],[1177516800000,1.0198],[1177603200000,1.0199],[1177862400000,1.0201],[1178553600000,1.0206],[1178640000000,1.0209],[1178726400000,1.021],[1178812800000,1.0212],[1179072000000,1.0214],[1179158400000,1.0215],[1179244800000,1.0215],[1179331200000,1.0215],[1179417600000,1.0216],[1179676800000,1.0217],[1179763200000,1.0217],[1179849600000,1.0217],[1179936000000,1.0218],[1180022400000,1.0219],[1180281600000,1.0221],[1180368000000,1.0221],[1180454400000,1.0226],[1180540800000,1.0226],[1180627200000,1.0227],[1180886400000,1.0228],[1180972800000,1.0228],[1181059200000,1.0229],[1181145600000,1.0229],[1181232000000,1.0229],[1181491200000,1.023],[1181577600000,1.0231],[1181664000000,1.0231],[1181750400000,1.0231],[1181836800000,1.0233],[1182096000000,1.024],[1182182400000,1.0244],[1182268800000,1.0246],[1182355200000,1.0248],[1182441600000,1.025],[1182700800000,1.0251],[1182787200000,1.0252],[1182873600000,1.0252],[1182960000000,1.0253],[1183046400000,1.0255],[1183132800000,1.0257],[1183305600000,1.0263],[1183392000000,1.0266],[1183478400000,1.0268],[1183564800000,1.027],[1183651200000,1.0269],[1183910400000,1.0274],[1183996800000,1.0275],[1184083200000,1.0274],[1184169600000,1.0278],[1184256000000,1.0279],[1184515200000,1.0286],[1184601600000,1.0286],[1184688000000,1.0289],[1184774400000,1.0289],[1184860800000,1.029],[1185120000000,1.0293],[1185206400000,1.0294],[1185292800000,1.0298],[1185379200000,1.0302],[1185465600000,1.0303],[1185724800000,1.0306],[1185811200000,1.0307],[1185897600000,1.031],[1185984000000,1.0311],[1186070400000,1.0313],[1186329600000,1.0317],[1186416000000,1.0319],[1186502400000,1.032],[1186588800000,1.0322],[1186675200000,1.0323],[1186934400000,1.0326],[1187020800000,1.0326],[1187107200000,1.0326],[1187193600000,1.0327],[1187280000000,1.0329],[1187539200000,1.0331],[1187625600000,1.0331],[1187712000000,1.0334],[1187798400000,1.0337],[1187884800000,1.0339],[1188144000000,1.0339],[1188230400000,1.0339],[1188316800000,1.0343],[1188403200000,1.0344],[1188489600000,1.0345],[1188748800000,1.0348],[1188835200000,1.0348],[1188921600000,1.0348],[1189008000000,1.0348],[1189094400000,1.0346],[1189353600000,1.0348],[1189440000000,1.0353],[1189526400000,1.0351],[1189612800000,1.0353],[1189699200000,1.0344],[1189958400000,1.0335],[1190044800000,1.0356],[1190131200000,1.0361],[1190217600000,1.0365],[1190304000000,1.0373],[1190563200000,1.0389],[1190649600000,1.0394],[1190736000000,1.0402],[1190822400000,1.0408],[1190908800000,1.0412],[1191081600000,1.042],[1191772800000,1.0438],[1191859200000,1.0437],[1191945600000,1.0433],[1192032000000,1.0433],[1192118400000,1.0432],[1192377600000,1.0434],[1192464000000,1.0432],[1192550400000,1.0427],[1192636800000,1.0425],[1192723200000,1.0421],[1192982400000,1.0421],[1193068800000,1.0422],[1193155200000,1.0426],[1193241600000,1.0427],[1193328000000,1.0424],[1193587200000,1.0438],[1193673600000,1.0441],[1193760000000,1.0445],[1193846400000,1.0448],[1193932800000,1.0448],[1194192000000,1.0448],[1194278400000,1.0443],[1194364800000,1.0439],[1194451200000,1.0437],[1194537600000,1.0436],[1194796800000,1.0437],[1194883200000,1.0433],[1194969600000,1.043],[1195056000000,1.0426],[1195142400000,1.0424],[1195401600000,1.0426],[1195488000000,1.0432],[1195574400000,1.0435],[1195660800000,1.0436],[1195747200000,1.0439],[1196006400000,1.0448],[1196092800000,1.045],[1196179200000,1.045],[1196265600000,1.045],[1196352000000,1.0452],[1196611200000,1.0453],[1196697600000,1.0454],[1196784000000,1.0457],[1196870400000,1.0459],[1196956800000,1.0463],[1197216000000,1.047],[1197302400000,1.0473],[1197388800000,1.0474],[1197475200000,1.0476],[1197561600000,1.048],[1197820800000,1.0487],[1197907200000,1.049],[1197993600000,1.049],[1198080000000,1.0496],[1198166400000,1.0502],[1198425600000,1.0508],[1198512000000,1.0509],[1198598400000,1.0512],[1198684800000,1.0512],[1198771200000,1.0514],[1198857600000,1.0513],[1199030400000,1.0515],[1199203200000,1.0516],[1199289600000,1.0517],[1199376000000,1.0518],[1199635200000,1.052],[1199721600000,1.0522],[1199808000000,1.0523],[1199894400000,1.0523],[1199980800000,1.0525],[1200240000000,1.0527],[1200326400000,1.0529],[1200412800000,1.0531],[1200499200000,1.0531],[1200585600000,1.0532],[1200844800000,1.0535],[1200931200000,1.0535],[1201017600000,1.0537],[1201104000000,1.0538],[1201190400000,1.0543],[1201449600000,1.0552],[1201536000000,1.0555],[1201622400000,1.0559],[1201708800000,1.0561],[1201795200000,1.0564],[1202054400000,1.0566],[1202140800000,1.0567],[1202832000000,1.0572],[1202918400000,1.0572],[1203004800000,1.0572],[1203264000000,1.0573],[1203350400000,1.0573],[1203436800000,1.0574],[1203523200000,1.0575],[1203609600000,1.0575],[1203868800000,1.0577],[1203955200000,1.0578],[1204041600000,1.0579],[1204128000000,1.058],[1204214400000,1.0581],[1204473600000,1.0584],[1204560000000,1.0584],[1204646400000,1.0585],[1204732800000,1.0587],[1204819200000,1.0587],[1205078400000,1.0589],[1205164800000,1.059],[1205251200000,1.059],[1205337600000,1.0591],[1205424000000,1.0592],[1205683200000,1.0594],[1205769600000,1.0595],[1205856000000,1.0597],[1205942400000,1.0597],[1206028800000,1.0599],[1206288000000,1.0601],[1206374400000,1.0602],[1206460800000,1.0604],[1206547200000,1.0604],[1206633600000,1.0605],[1206892800000,1.0607],[1206979200000,1.0607],[1207065600000,1.0608],[1207152000000,1.0609],[1207497600000,1.0612],[1207584000000,1.0613],[1207670400000,1.0612],[1207756800000,1.0613],[1207843200000,1.0614],[1208102400000,1.0616],[1208188800000,1.0614],[1208275200000,1.0615],[1208361600000,1.0617],[1208448000000,1.0619],[1208707200000,1.0621],[1208793600000,1.0622],[1208880000000,1.0622],[1208966400000,1.0624],[1209052800000,1.0624],[1209312000000,1.0627],[1209398400000,1.0628],[1209484800000,1.0629],[1209916800000,1.0634],[1210003200000,1.0635],[1210089600000,1.0635],[1210176000000,1.0637],[1210262400000,1.0638],[1210521600000,1.0642],[1210608000000,1.0643],[1210694400000,1.0644],[1210780800000,1.0645],[1210867200000,1.0646],[1211126400000,1.0648],[1211212800000,1.0649],[1211299200000,1.065],[1211385600000,1.0651],[1211472000000,1.0652],[1211731200000,1.0654],[1211817600000,1.0654],[1211904000000,1.0655],[1211990400000,1.0656],[1212076800000,1.0658],[1212336000000,1.0659],[1212422400000,1.066],[1212508800000,1.0661],[1212595200000,1.0662],[1212681600000,1.0662],[1213027200000,1.0661],[1213113600000,1.0658],[1213200000000,1.0661],[1213286400000,1.0662],[1213545600000,1.0667],[1213632000000,1.0668],[1213718400000,1.0669],[1213804800000,1.0669],[1213891200000,1.067],[1214150400000,1.0672],[1214236800000,1.0674],[1214323200000,1.0674],[1214409600000,1.0674],[1214496000000,1.0673],[1214755200000,1.0674],[1214841600000,1.0675],[1214928000000,1.0671],[1215014400000,1.067],[1215100800000,1.0672],[1215360000000,1.0672],[1215446400000,1.0673],[1215532800000,1.0673],[1215619200000,1.0675],[1215705600000,1.0677],[1215964800000,1.068],[1216051200000,1.0681],[1216137600000,1.0682],[1216224000000,1.0683],[1216310400000,1.0685],[1216569600000,1.0687],[1216656000000,1.0687],[1216742400000,1.0688],[1216828800000,1.0688],[1216915200000,1.0689],[1217174400000,1.0692],[1217260800000,1.0693],[1217347200000,1.0693],[1217433600000,1.0693],[1217520000000,1.0692],[1217779200000,1.0695],[1217865600000,1.0696],[1217952000000,1.0699],[1218038400000,1.0699],[1218124800000,1.07],[1218384000000,1.0702],[1218470400000,1.0705],[1218556800000,1.0706],[1218643200000,1.0709],[1218729600000,1.0709],[1218988800000,1.0712],[1219075200000,1.0713],[1219161600000,1.0715],[1219248000000,1.0715],[1219334400000,1.0716],[1219593600000,1.0722],[1219680000000,1.0723],[1219766400000,1.0724],[1219852800000,1.0726],[1219939200000,1.0729],[1220198400000,1.0733],[1220284800000,1.0735],[1220371200000,1.0736],[1220457600000,1.0736],[1220544000000,1.0737],[1220803200000,1.074],[1220889600000,1.0741],[1220976000000,1.0744],[1221062400000,1.0747],[1221148800000,1.075],[1221494400000,1.0764],[1221580800000,1.0782],[1221667200000,1.0779],[1221753600000,1.0774],[1222012800000,1.0776],[1222099200000,1.0777],[1222185600000,1.0778],[1222272000000,1.0777],[1222358400000,1.0778],[1222704000000,1.078],[1223222400000,1.0783],[1223308800000,1.0789],[1223395200000,1.0797],[1223481600000,1.0822],[1223568000000,1.0827],[1223827200000,1.0829],[1223913600000,1.0831],[1224000000000,1.0835],[1224086400000,1.0838],[1224172800000,1.084],[1224432000000,1.0843],[1224518400000,1.0847],[1224604800000,1.0854],[1224691200000,1.0857],[1224777600000,1.0862],[1225036800000,1.0864],[1225123200000,1.0875],[1225209600000,1.0879],[1225296000000,1.0886],[1225382400000,1.0887],[1225641600000,1.089],[1225728000000,1.089],[1225814400000,1.0896],[1225900800000,1.0904],[1225987200000,1.0908],[1226246400000,1.0916],[1226332800000,1.0922],[1226419200000,1.093],[1226505600000,1.0947],[1226592000000,1.0945],[1226851200000,1.0944],[1226937600000,1.0947],[1227024000000,1.0936],[1227110400000,1.0938],[1227196800000,1.0941],[1227456000000,1.0944],[1227542400000,1.0941],[1227628800000,1.0947],[1227715200000,1.097],[1227801600000,1.0964],[1228060800000,1.0969],[1228147200000,1.0982],[1228233600000,1.0988],[1228320000000,1.0996],[1228406400000,1.1005],[1228665600000,1.1009],[1228752000000,1.1009],[1228838400000,1.1012],[1228924800000,1.1015],[1229011200000,1.1017],[1229270400000,1.1021],[1229356800000,1.1024],[1229443200000,1.1031],[1229529600000,1.1038],[1229616000000,1.1041],[1229875200000,1.1042],[1229961600000,1.1044],[1230048000000,1.1045],[1230134400000,1.1045],[1230220800000,1.1044],[1230480000000,1.1045],[1230566400000,1.1046],[1230652800000,1.1046],[1231084800000,1.1048],[1231171200000,1.1049],[1231257600000,1.1051],[1231344000000,1.1052],[1231430400000,1.1053],[1231689600000,1.1053],[1231776000000,1.1052],[1231862400000,1.105],[1231948800000,1.1049],[1232035200000,1.1045],[1232294400000,1.1044],[1232380800000,1.104],[1232467200000,1.1039],[1232553600000,1.1041],[1232640000000,1.1044],[1233504000000,1.1045],[1233590400000,1.1044],[1233676800000,1.1042],[1233763200000,1.1037],[1233849600000,1.1039],[1234108800000,1.1042],[1234195200000,1.1041],[1234281600000,1.1042],[1234368000000,1.1044],[1234454400000,1.1045],[1234713600000,1.1046],[1234800000000,1.1046],[1234886400000,1.1046],[1234972800000,1.1047],[1235059200000,1.1047],[1235318400000,1.1049],[1235404800000,1.105],[1235491200000,1.105],[1235577600000,1.1051],[1235664000000,1.1051],[1235923200000,1.1052],[1236009600000,1.1053],[1236096000000,1.1054],[1236182400000,1.1054],[1236268800000,1.1054],[1236528000000,1.1056],[1236614400000,1.1056],[1236700800000,1.1057],[1236787200000,1.1058],[1236873600000,1.1057],[1237132800000,1.1059],[1237219200000,1.106],[1237305600000,1.106],[1237392000000,1.1061],[1237478400000,1.1061],[1237737600000,1.1063],[1237824000000,1.1063],[1237910400000,1.1063],[1237996800000,1.1063],[1238083200000,1.1062],[1238342400000,1.1063],[1238428800000,1.1063],[1238515200000,1.1062],[1238601600000,1.1063],[1238688000000,1.1059],[1239033600000,1.1061],[1239120000000,1.106],[1239206400000,1.1059],[1239292800000,1.1058],[1239552000000,1.1059],[1239638400000,1.1058],[1239724800000,1.1058],[1239811200000,1.1058],[1239897600000,1.1059],[1240156800000,1.106],[1240243200000,1.1061],[1240329600000,1.106],[1240416000000,1.106],[1240502400000,1.106],[1240761600000,1.1062],[1240848000000,1.1062],[1240934400000,1.1064],[1241020800000,1.1064],[1241366400000,1.1066],[1241452800000,1.1067],[1241539200000,1.1067],[1241625600000,1.1067],[1241712000000,1.1069],[1241971200000,1.1072],[1242057600000,1.1074],[1242144000000,1.1074],[1242230400000,1.1075],[1242316800000,1.1076],[1242576000000,1.1078],[1242662400000,1.1079],[1242748800000,1.108],[1242835200000,1.1079],[1242921600000,1.1079],[1243180800000,1.108],[1243267200000,1.1081],[1243353600000,1.108],[1243785600000,1.1081],[1243872000000,1.1081],[1243958400000,1.1081],[1244044800000,1.1081],[1244131200000,1.108],[1244390400000,1.1081],[1244476800000,1.1081],[1244563200000,1.108],[1244649600000,1.1081],[1244736000000,1.1082],[1244995200000,1.1082],[1245081600000,1.1083],[1245168000000,1.1084],[1245254400000,1.1083],[1245340800000,1.1083],[1245600000000,1.1084],[1245686400000,1.1083],[1245772800000,1.1083],[1245859200000,1.1082],[1245945600000,1.1081],[1246204800000,1.1084],[1246291200000,1.1084],[1246377600000,1.1084],[1246464000000,1.1083],[1246550400000,1.1084],[1246809600000,1.1081],[1246896000000,1.108],[1246982400000,1.108],[1247068800000,1.1075],[1247155200000,1.107],[1247414400000,1.107],[1247500800000,1.107],[1247587200000,1.1066],[1247673600000,1.1059],[1247760000000,1.105],[1248019200000,1.105],[1248105600000,1.1052],[1248192000000,1.1052],[1248278400000,1.1053],[1248364800000,1.1054],[1248624000000,1.1054],[1248710400000,1.1053],[1248796800000,1.1049],[1248883200000,1.1046],[1248969600000,1.1045],[1249228800000,1.1047],[1249315200000,1.1047],[1249401600000,1.1048],[1249488000000,1.1048],[1249574400000,1.1049],[1249833600000,1.105],[1249920000000,1.1051],[1250006400000,1.1053],[1250092800000,1.1052],[1250179200000,1.1053],[1250438400000,1.1053],[1250524800000,1.1054],[1250611200000,1.1055],[1250697600000,1.1055],[1250784000000,1.1055],[1251043200000,1.1056],[1251129600000,1.1056],[1251216000000,1.1056],[1251302400000,1.1056],[1251388800000,1.1057],[1251648000000,1.1058],[1251734400000,1.1058],[1251820800000,1.1058],[1251907200000,1.1058],[1251993600000,1.1059],[1252252800000,1.106],[1252339200000,1.106],[1252425600000,1.106],[1252512000000,1.106],[1252598400000,1.106],[1252857600000,1.1061],[1252944000000,1.1063],[1253030400000,1.1063],[1253116800000,1.1063],[1253203200000,1.1064],[1253462400000,1.1065],[1253548800000,1.1065],[1253635200000,1.1064],[1253721600000,1.1064],[1253808000000,1.1066],[1254067200000,1.1067],[1254153600000,1.1067],[1254240000000,1.1068],[1255017600000,1.1073],[1255276800000,1.1073],[1255363200000,1.1072],[1255449600000,1.107],[1255536000000,1.1069],[1255622400000,1.107],[1255881600000,1.1071],[1255968000000,1.1071],[1256054400000,1.1071],[1256140800000,1.1072],[1256227200000,1.1072],[1256486400000,1.1073],[1256572800000,1.1073],[1256659200000,1.1073],[1256745600000,1.1073],[1256832000000,1.1073],[1257091200000,1.1074],[1257177600000,1.1075],[1257264000000,1.1075],[1257350400000,1.1076],[1257436800000,1.1076],[1257696000000,1.1078],[1257782400000,1.1079],[1257868800000,1.1079],[1257955200000,1.1088],[1258041600000,1.109],[1258300800000,1.109],[1258387200000,1.109],[1258473600000,1.1091],[1258560000000,1.1091],[1258646400000,1.1093],[1258905600000,1.1096],[1258992000000,1.1096],[1259078400000,1.1097],[1259164800000,1.1098],[1259251200000,1.1098],[1259510400000,1.1098],[1259596800000,1.1098],[1259683200000,1.1099],[1259769600000,1.1099],[1259856000000,1.1099],[1260115200000,1.1101],[1260201600000,1.1101],[1260288000000,1.1102],[1260374400000,1.1102],[1260460800000,1.1103],[1260720000000,1.1104],[1260806400000,1.1104],[1260892800000,1.1105],[1260979200000,1.1106],[1261065600000,1.1105],[1261324800000,1.1107],[1261411200000,1.1107],[1261497600000,1.1107],[1261584000000,1.1108],[1261670400000,1.1108],[1261929600000,1.1108],[1262016000000,1.1109],[1262102400000,1.111],[1262188800000,1.1111],[1262534400000,1.1112],[1262620800000,1.1113],[1262707200000,1.1116],[1262793600000,1.1117],[1262880000000,1.1121],[1263139200000,1.1122],[1263225600000,1.1123],[1263312000000,1.1122],[1263398400000,1.1121],[1263484800000,1.1121],[1263744000000,1.1123],[1263830400000,1.1125],[1263916800000,1.1126],[1264003200000,1.1127],[1264089600000,1.1129],[1264348800000,1.1131],[1264435200000,1.1131],[1264521600000,1.114],[1264608000000,1.1138],[1264694400000,1.1138],[1264953600000,1.114],[1265040000000,1.1141],[1265126400000,1.114],[1265212800000,1.1141],[1265299200000,1.1143],[1265558400000,1.1145],[1265644800000,1.1147],[1265731200000,1.1146],[1265817600000,1.1147],[1265904000000,1.1147],[1266768000000,1.1151],[1266854400000,1.1151],[1266940800000,1.1153],[1267027200000,1.1154],[1267113600000,1.1155],[1267372800000,1.1157],[1267459200000,1.1159],[1267545600000,1.1159],[1267632000000,1.116],[1267718400000,1.1161],[1267977600000,1.1163],[1268064000000,1.1164],[1268150400000,1.1164],[1268236800000,1.1165],[1268323200000,1.1166],[1268582400000,1.1167],[1268668800000,1.1168],[1268755200000,1.1169],[1268841600000,1.117],[1268928000000,1.1172],[1269187200000,1.1174],[1269273600000,1.1175],[1269360000000,1.1176],[1269446400000,1.1176],[1269532800000,1.1176],[1269792000000,1.1176],[1269878400000,1.1175],[1269964800000,1.1176],[1270051200000,1.1176],[1270137600000,1.1176],[1270483200000,1.1178],[1270569600000,1.1177],[1270656000000,1.1176],[1270742400000,1.1175],[1271001600000,1.1178],[1271088000000,1.1178],[1271174400000,1.118],[1271260800000,1.118],[1271347200000,1.118],[1271606400000,1.1183],[1271692800000,1.1184],[1271779200000,1.1185],[1271865600000,1.1186],[1271952000000,1.1187],[1272211200000,1.1189],[1272297600000,1.1191],[1272384000000,1.1191],[1272470400000,1.119],[1272556800000,1.119],[1272902400000,1.119],[1272988800000,1.1192],[1273075200000,1.1192],[1273161600000,1.1193],[1273420800000,1.1195],[1273507200000,1.1194],[1273593600000,1.1196],[1273680000000,1.1195],[1273766400000,1.1197],[1274025600000,1.12],[1274112000000,1.1201],[1274198400000,1.1205],[1274284800000,1.1204],[1274371200000,1.1204],[1274630400000,1.1204],[1274716800000,1.1204],[1274803200000,1.1204],[1274889600000,1.1203],[1274976000000,1.1201],[1275235200000,1.1201],[1275321600000,1.1199],[1275408000000,1.1199],[1275494400000,1.12],[1275580800000,1.12],[1275840000000,1.1203],[1275926400000,1.1203],[1276012800000,1.1205],[1276099200000,1.1203],[1276185600000,1.1201],[1276704000000,1.1205],[1276790400000,1.1196],[1277049600000,1.1199],[1277136000000,1.1199],[1277222400000,1.1198],[1277308800000,1.1198],[1277395200000,1.1197],[1277654400000,1.12],[1277740800000,1.1201],[1277827200000,1.1201],[1277913600000,1.1202],[1278000000000,1.1203],[1278259200000,1.1206],[1278345600000,1.1208],[1278432000000,1.121],[1278518400000,1.1212],[1278604800000,1.1213],[1278864000000,1.1215],[1278950400000,1.1218],[1279036800000,1.1217],[1279123200000,1.1218],[1279209600000,1.1218],[1279468800000,1.122],[1279555200000,1.1222],[1279641600000,1.1222],[1279728000000,1.1223],[1279814400000,1.1224],[1280073600000,1.1225],[1280160000000,1.1227],[1280246400000,1.1227],[1280332800000,1.1228],[1280419200000,1.1228],[1280678400000,1.1229],[1280764800000,1.1227],[1280851200000,1.1227],[1280937600000,1.1228],[1281024000000,1.1227],[1281283200000,1.1226],[1281369600000,1.1226],[1281456000000,1.1225],[1281542400000,1.1226],[1281628800000,1.1226],[1281888000000,1.1228],[1281974400000,1.125],[1282060800000,1.1231],[1282147200000,1.1231],[1282233600000,1.1235],[1282492800000,1.1236],[1282579200000,1.1236],[1282665600000,1.1236],[1282752000000,1.1247],[1282838400000,1.1247],[1283097600000,1.1249],[1283184000000,1.1249],[1283270400000,1.125],[1283356800000,1.1251],[1283443200000,1.1251],[1283702400000,1.1253],[1283788800000,1.1253],[1283875200000,1.1253],[1283961600000,1.1253],[1284048000000,1.1251],[1284307200000,1.1252],[1284393600000,1.1252],[1284480000000,1.1252],[1284566400000,1.1252],[1284652800000,1.1252],[1284912000000,1.1255],[1284998400000,1.1254],[1285516800000,1.1256],[1285603200000,1.1256],[1285689600000,1.1257],[1285776000000,1.1257],[1286467200000,1.1263],[1286726400000,1.1265],[1286812800000,1.1266],[1286899200000,1.1267],[1286985600000,1.1268],[1287072000000,1.1269],[1287331200000,1.1271],[1287417600000,1.1271],[1287504000000,1.1269],[1287590400000,1.1269],[1287676800000,1.1269],[1287936000000,1.1271],[1288022400000,1.1272],[1288108800000,1.1273],[1288195200000,1.1274],[1288281600000,1.1275],[1288540800000,1.1276],[1288627200000,1.1277],[1288713600000,1.1277],[1288800000000,1.1276],[1288886400000,1.1274],[1289145600000,1.127],[1289232000000,1.1266],[1289318400000,1.1265],[1289404800000,1.1264],[1289491200000,1.1265],[1289750400000,1.1258],[1289836800000,1.1258],[1289923200000,1.1259],[1290009600000,1.1258],[1290096000000,1.1258],[1290355200000,1.1256],[1290441600000,1.1255],[1290528000000,1.1253],[1290614400000,1.1254],[1290700800000,1.1251],[1290960000000,1.1253],[1291046400000,1.1253],[1291132800000,1.1252],[1291219200000,1.1255],[1291305600000,1.1255],[1291564800000,1.1254],[1291651200000,1.1255],[1291737600000,1.1255],[1291824000000,1.1257],[1291910400000,1.126],[1292169600000,1.1256],[1292256000000,1.1256],[1292342400000,1.1254],[1292428800000,1.1253],[1292515200000,1.1252],[1292774400000,1.1253],[1292860800000,1.1254],[1292947200000,1.1253],[1293033600000,1.1251],[1293120000000,1.1251],[1293379200000,1.1253],[1293465600000,1.1252],[1293552000000,1.1256],[1293638400000,1.126],[1293724800000,1.1267],[1294070400000,1.1275],[1294156800000,1.128],[1294243200000,1.1282],[1294329600000,1.1285],[1294588800000,1.1288],[1294675200000,1.129],[1294761600000,1.1291],[1294848000000,1.1291],[1294934400000,1.1291],[1295193600000,1.1292],[1295280000000,1.1292],[1295366400000,1.1291],[1295452800000,1.1289],[1295539200000,1.1289],[1295798400000,1.1291],[1295884800000,1.1294],[1295971200000,1.1294],[1296057600000,1.1295],[1296144000000,1.1295],[1296403200000,1.1298],[1296489600000,1.1299],[1297180800000,1.1305],[1297267200000,1.1306],[1297353600000,1.1309],[1297612800000,1.1313],[1297699200000,1.1316],[1297785600000,1.1316],[1297872000000,1.1316],[1297958400000,1.1316],[1298217600000,1.1316],[1298304000000,1.1319],[1298390400000,1.132],[1298476800000,1.1323],[1298563200000,1.1324],[1298822400000,1.1327],[1298908800000,1.1329],[1298995200000,1.133],[1299081600000,1.1331],[1299168000000,1.1332],[1299427200000,1.1335],[1299513600000,1.1337],[1299600000000,1.1338],[1299686400000,1.1338],[1299772800000,1.1339],[1300032000000,1.1342],[1300118400000,1.1342],[1300204800000,1.1343],[1300291200000,1.1341],[1300377600000,1.1342],[1300636800000,1.1344],[1300723200000,1.1345],[1300809600000,1.1349],[1300896000000,1.135],[1300982400000,1.1351],[1301241600000,1.1356],[1301328000000,1.1363],[1301414400000,1.1364],[1301500800000,1.136],[1301587200000,1.136],[1302019200000,1.1366],[1302105600000,1.1369],[1302192000000,1.1371],[1302451200000,1.1374],[1302537600000,1.1376],[1302624000000,1.1378],[1302710400000,1.1379],[1302796800000,1.138],[1303056000000,1.1382],[1303142400000,1.1383],[1303228800000,1.1384],[1303315200000,1.1384],[1303401600000,1.1385],[1303660800000,1.1387],[1303747200000,1.1388],[1303833600000,1.1389],[1303920000000,1.139],[1304006400000,1.1392],[1304352000000,1.1396],[1304438400000,1.1397],[1304524800000,1.1402],[1304611200000,1.1404],[1304870400000,1.1405],[1304956800000,1.1407],[1305043200000,1.1407],[1305129600000,1.1408],[1305216000000,1.1408],[1305475200000,1.141],[1305561600000,1.1411],[1305648000000,1.1411],[1305734400000,1.1412],[1305820800000,1.1412],[1306080000000,1.1414],[1306166400000,1.1415],[1306252800000,1.1416],[1306339200000,1.1417],[1306425600000,1.1419],[1306684800000,1.1421],[1306771200000,1.1422],[1306857600000,1.1422],[1306944000000,1.1423],[1307030400000,1.1424],[1307376000000,1.1427],[1307462400000,1.1425],[1307548800000,1.1425],[1307635200000,1.1423],[1307894400000,1.1422],[1307980800000,1.1419],[1308067200000,1.1412],[1308153600000,1.1407],[1308240000000,1.1407],[1308499200000,1.1408],[1308585600000,1.1408],[1308672000000,1.1406],[1308758400000,1.1405],[1308844800000,1.1408],[1309104000000,1.1413],[1309190400000,1.1414],[1309276800000,1.1413],[1309363200000,1.1413],[1309449600000,1.1417],[1309708800000,1.1419],[1309795200000,1.142],[1309881600000,1.142],[1309968000000,1.1423],[1310054400000,1.1424],[1310313600000,1.1425],[1310400000000,1.1426],[1310486400000,1.1425],[1310572800000,1.1423],[1310659200000,1.141],[1310918400000,1.1411],[1311004800000,1.1408],[1311091200000,1.1403],[1311177600000,1.1396],[1311264000000,1.1396],[1311523200000,1.14],[1311609600000,1.1401],[1311696000000,1.1402],[1311782400000,1.1402],[1311868800000,1.1403],[1312128000000,1.1407],[1312214400000,1.1408],[1312300800000,1.1407],[1312387200000,1.1409],[1312473600000,1.1416],[1312732800000,1.1421],[1312819200000,1.1423],[1312905600000,1.142],[1312992000000,1.1424],[1313078400000,1.1428],[1313337600000,1.1433],[1313424000000,1.1433],[1313510400000,1.1435],[1313596800000,1.1435],[1313683200000,1.1436],[1313942400000,1.1438],[1314028800000,1.1438],[1314115200000,1.1438],[1314201600000,1.1436],[1314288000000,1.1436],[1314547200000,1.143],[1314633600000,1.1423],[1314720000000,1.1423],[1314806400000,1.1427],[1314892800000,1.1426],[1315152000000,1.1428],[1315238400000,1.1427],[1315324800000,1.1427],[1315411200000,1.1427],[1315497600000,1.1431],[1315843200000,1.1436],[1315929600000,1.1438],[1316016000000,1.1444],[1316102400000,1.1437],[1316361600000,1.144],[1316448000000,1.1441],[1316534400000,1.1441],[1316620800000,1.1442],[1316707200000,1.1447],[1316966400000,1.1456],[1317052800000,1.1457],[1317139200000,1.1457],[1317225600000,1.1458],[1317312000000,1.1444],[1318176000000,1.1469],[1318262400000,1.1475],[1318348800000,1.1467],[1318435200000,1.1469],[1318521600000,1.1474],[1318780800000,1.1479],[1318867200000,1.1486],[1318953600000,1.1493],[1319040000000,1.1501],[1319126400000,1.1511],[1319385600000,1.1513],[1319472000000,1.151],[1319558400000,1.1511],[1319644800000,1.1512],[1319731200000,1.1511],[1319990400000,1.1515],[1320076800000,1.1523],[1320163200000,1.1529],[1320249600000,1.1531],[1320336000000,1.1538],[1320595200000,1.1541],[1320681600000,1.1545],[1320768000000,1.1547],[1320854400000,1.1558],[1320940800000,1.1562],[1321200000000,1.1578],[1321286400000,1.1575],[1321372800000,1.1576],[1321459200000,1.1574],[1321545600000,1.1574],[1321804800000,1.1575],[1321891200000,1.1575],[1321977600000,1.1575],[1322064000000,1.1579],[1322150400000,1.1578],[1322409600000,1.1581],[1322496000000,1.158],[1322582400000,1.1576],[1322668800000,1.1592],[1322755200000,1.1596],[1323014400000,1.1601],[1323100800000,1.1603],[1323187200000,1.1603],[1323273600000,1.1604],[1323360000000,1.1605],[1323619200000,1.1605],[1323705600000,1.1604],[1323792000000,1.1604],[1323878400000,1.1604],[1323964800000,1.1604],[1324224000000,1.1608],[1324310400000,1.1609],[1324396800000,1.1608],[1324483200000,1.1608],[1324569600000,1.1608],[1324828800000,1.1611],[1324915200000,1.1611],[1325001600000,1.1612],[1325088000000,1.1615],[1325174400000,1.1617],[1325260800000,1.1618],[1325606400000,1.1623],[1325692800000,1.1625],[1325779200000,1.1629],[1326038400000,1.1634],[1326124800000,1.1638],[1326211200000,1.1643],[1326297600000,1.1645],[1326384000000,1.1645],[1326643200000,1.1646],[1326729600000,1.1645],[1326816000000,1.1645],[1326902400000,1.165],[1326988800000,1.1653],[1327852800000,1.1668],[1327939200000,1.167],[1328025600000,1.1671],[1328112000000,1.1674],[1328198400000,1.1676],[1328457600000,1.168],[1328544000000,1.1681],[1328630400000,1.1682],[1328716800000,1.1682],[1328803200000,1.1683],[1329062400000,1.1687],[1329148800000,1.1689],[1329235200000,1.1691],[1329321600000,1.1692],[1329408000000,1.1691],[1329667200000,1.1696],[1329753600000,1.1696],[1329840000000,1.1697],[1329926400000,1.1697],[1330012800000,1.1697],[1330272000000,1.1698],[1330358400000,1.1699],[1330444800000,1.1699],[1330531200000,1.1701],[1330617600000,1.1703],[1330876800000,1.1706],[1330963200000,1.1708],[1331049600000,1.1711],[13311</t>
+  </si>
+  <si>
+    <t>000147</t>
+  </si>
+  <si>
+    <t>易方达高等级信用债债券A</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [[1377187200000,1.0],[1377792000000,1.001],[1378396800000,1.002],[1379001600000,1.003],[1379433600000,1.004],[1380211200000,1.005],[1380470400000,1.005],[1381420800000,1.007],[1381766400000,1.007],[1381852800000,1.007],[1381939200000,1.007],[1382025600000,1.007],[1382284800000,1.007],[1382371200000,1.008],[1382457600000,1.007],[1382544000000,1.007],[1382630400000,1.007],[1382889600000,1.007],[1382976000000,1.007],[1383062400000,1.007],[1383148800000,1.006],[1383235200000,1.007],[1383494400000,1.007],[1383580800000,1.007],[1383667200000,1.007],[1383753600000,1.007],[1383840000000,1.007],[1384099200000,1.006],[1384185600000,1.006],[1384272000000,1.005],[1384358400000,1.004],[1384444800000,1.003],[1384704000000,1.004],[1384790400000,1.003],[1384876800000,1.002],[1384963200000,1.002],[1385049600000,1.0],[1385308800000,0.999],[1385395200000,0.998],[1385481600000,0.996],[1385568000000,0.998],[1385654400000,1.0],[1385913600000,0.999],[1386000000000,0.999],[1386086400000,1.0],[1386172800000,1.001],[1386259200000,1.001],[1386518400000,1.001],[1386604800000,1.001],[1386691200000,1.001],[1386777600000,1.0],[1386864000000,1.0],[1387123200000,0.999],[1387209600000,0.999],[1387296000000,1.0],[1387382400000,1.0],[1387468800000,0.999],[1387728000000,0.999],[1387814400000,0.999],[1387900800000,0.997],[1387987200000,0.997],[1388073600000,0.997],[1388332800000,0.997],[1388419200000,0.997],[1388592000000,0.997],[1388678400000,0.996],[1388937600000,0.996],[1389024000000,0.996],[1389110400000,0.995],[1389196800000,0.996],[1389283200000,0.996],[1389542400000,0.997],[1389628800000,0.997],[1389715200000,0.996],[1389801600000,0.997],[1389888000000,0.997],[1390147200000,0.999],[1390233600000,1.0],[1390320000000,1.001],[1390406400000,1.0],[1390492800000,1.0],[1390752000000,0.999],[1390838400000,1.001],[1390924800000,1.002],[1391011200000,1.003],[1391702400000,1.004],[1391961600000,1.005],[1392048000000,1.005],[1392134400000,1.005],[1392220800000,1.006],[1392307200000,1.008],[1392566400000,1.01],[1392652800000,1.01],[1392739200000,1.011],[1392825600000,1.013],[1392912000000,1.015],[1393171200000,1.017],[1393257600000,1.017],[1393344000000,1.018],[1393430400000,1.018],[1393516800000,1.019],[1393776000000,1.019],[1393862400000,1.018],[1393948800000,1.014],[1394035200000,1.015],[1394121600000,1.016],[1394380800000,1.016],[1394467200000,1.018],[1394553600000,1.019],[1394640000000,1.019],[1394726400000,1.02],[1394985600000,1.021],[1395072000000,1.021],[1395158400000,1.02],[1395244800000,1.02],[1395331200000,1.021],[1395590400000,1.021],[1395676800000,1.021],[1395763200000,1.021],[1395849600000,1.021],[1395936000000,1.021],[1396195200000,1.022],[1396281600000,1.022],[1396368000000,1.023],[1396454400000,1.024],[1396540800000,1.025],[1396886400000,1.026],[1396972800000,1.026],[1397059200000,1.027],[1397145600000,1.028],[1397404800000,1.03],[1397491200000,1.031],[1397577600000,1.033],[1397664000000,1.034],[1397750400000,1.036],[1398009600000,1.037],[1398096000000,1.038],[1398182400000,1.038],[1398268800000,1.038],[1398355200000,1.041],[1398614400000,1.042],[1398700800000,1.042],[1398787200000,1.043],[1399219200000,1.045],[1399305600000,1.046],[1399392000000,1.046],[1399478400000,1.048],[1399564800000,1.048],[1399824000000,1.049],[1399910400000,1.05],[1399996800000,1.05],[1400083200000,1.05],[1400169600000,1.05],[1400428800000,1.051],[1400515200000,1.051],[1400601600000,1.051],[1400688000000,1.05],[1400774400000,1.051],[1401033600000,1.052],[1401120000000,1.053],[1401206400000,1.053],[1401292800000,1.054],[1401379200000,1.055],[1401724800000,1.057],[1401811200000,1.058],[1401897600000,1.057],[1401984000000,1.057],[1402243200000,1.058],[1402329600000,1.059],[1402416000000,1.059],[1402502400000,1.057],[1402588800000,1.057],[1402848000000,1.058],[1402934400000,1.058],[1403020800000,1.058],[1403107200000,1.057],[1403193600000,1.057],[1403452800000,1.058],[1403539200000,1.059],[1403625600000,1.059],[1403712000000,1.059],[1403798400000,1.06],[1404057600000,1.061],[1404144000000,1.06],[1404230400000,1.061],[1404316800000,1.061],[1404403200000,1.061],[1404662400000,1.062],[1404748800000,1.062],[1404835200000,1.062],[1404921600000,1.063],[1405008000000,1.063],[1405267200000,1.064],[1405353600000,1.064],[1405440000000,1.063],[1405526400000,1.062],[1405612800000,1.061],[1405872000000,1.061],[1405958400000,1.062],[1406044800000,1.062],[1406131200000,1.063],[1406217600000,1.063],[1406476800000,1.064],[1406563200000,1.065],[1406649600000,1.065],[1406736000000,1.066],[1406822400000,1.066],[1407081600000,1.067],[1407168000000,1.067],[1407254400000,1.068],[1407340800000,1.067],[1407427200000,1.068],[1407686400000,1.068],[1407772800000,1.068],[1407859200000,1.07],[1407945600000,1.07],[1408032000000,1.071],[1408291200000,1.071],[1408377600000,1.073],[1408464000000,1.073],[1408550400000,1.074],[1408636800000,1.075],[1408896000000,1.075],[1408982400000,1.075],[1409068800000,1.076],[1409155200000,1.077],[1409241600000,1.077],[1409500800000,1.077],[1409587200000,1.078],[1409673600000,1.078],[1409760000000,1.078],[1409846400000,1.078],[1410192000000,1.079],[1410278400000,1.079],[1410364800000,1.079],[1410451200000,1.079],[1410710400000,1.08],[1410796800000,1.08],[1410883200000,1.081],[1410969600000,1.082],[1411056000000,1.083],[1411315200000,1.083],[1411401600000,1.084],[1411488000000,1.084],[1411574400000,1.084],[1411660800000,1.084],[1411920000000,1.084],[1412006400000,1.085],[1412697600000,1.086],[1412784000000,1.086],[1412870400000,1.087],[1413129600000,1.087],[1413216000000,1.088],[1413302400000,1.09],[1413388800000,1.09],[1413475200000,1.091],[1413734400000,1.093],[1413820800000,1.094],[1413907200000,1.096],[1413993600000,1.099],[1414080000000,1.1],[1414339200000,1.1],[1414425600000,1.102],[1414512000000,1.103],[1414598400000,1.104],[1414684800000,1.105],[1414944000000,1.107],[1415030400000,1.108],[1415116800000,1.11],[1415203200000,1.111],[1415289600000,1.112],[1415548800000,1.115],[1415635200000,1.116],[1415721600000,1.118],[1415808000000,1.115],[1415894400000,1.117],[1416153600000,1.117],[1416240000000,1.116],[1416326400000,1.116],[1416412800000,1.115],[1416499200000,1.113],[1416758400000,1.118],[1416844800000,1.118],[1416931200000,1.118],[1417017600000,1.119],[1417104000000,1.119],[1417363200000,1.12],[1417449600000,1.12],[1417536000000,1.117],[1417622400000,1.115],[1417708800000,1.113],[1417968000000,1.112],[1418054400000,1.095],[1418140800000,1.094],[1418227200000,1.095],[1418313600000,1.094],[1418572800000,1.094],[1418659200000,1.087],[1418745600000,1.088],[1418832000000,1.086],[1418918400000,1.087],[1419177600000,1.089],[1419264000000,1.089],[1419350400000,1.092],[1419436800000,1.094],[1419523200000,1.097],[1419782400000,1.098],[1419868800000,1.098],[1419955200000,1.099],[1420387200000,1.103],[1420473600000,1.105],[1420560000000,1.105],[1420646400000,1.106],[1420732800000,1.106],[1420992000000,1.106],[1421078400000,1.107],[1421164800000,1.107],[1421251200000,1.108],[1421337600000,1.106],[1421596800000,1.107],[1421683200000,1.107],[1421769600000,1.107],[1421856000000,1.108],[1421942400000,1.109],[1422201600000,1.11],[1422288000000,1.11],[1422374400000,1.11],[1422460800000,1.109],[1422547200000,1.11],[1422806400000,1.11],[1422892800000,1.11],[1422979200000,1.11],[1423065600000,1.111],[1423152000000,1.116],[1423411200000,1.112],[1423497600000,1.113],[1423584000000,1.113],[1423670400000,1.113],[1423756800000,1.114],[1424016000000,1.114],[1424102400000,1.115],[1424793600000,1.117],[1424880000000,1.117],[1424966400000,1.118],[1425225600000,1.118],[1425312000000,1.118],[1425398400000,1.118],[1425484800000,1.117],[1425571200000,1.117],[1425830400000,1.117],[1425916800000,1.117],[1426003200000,1.117],[1426089600000,1.118],[1426176000000,1.118],[1426435200000,1.118],[1426521600000,1.118],[1426608000000,1.118],[1426694400000,1.117],[1426780800000,1.117],[1427040000000,1.117],[1427126400000,1.117],[1427212800000,1.117],[1427299200000,1.115],[1427385600000,1.114],[1427644800000,1.11],[1427731200000,1.109],[1427817600000,1.108],[1427904000000,1.109],[1427990400000,1.109],[1428336000000,1.109],[1428422400000,1.108],[1428508800000,1.108],[1428595200000,1.109],[1428854400000,1.11],[1428940800000,1.111],[1429027200000,1.112],[1429113600000,1.112],[1429200000000,1.114],[1429459200000,1.117],[1429545600000,1.119],[1429632000000,1.12],[1429718400000,1.12],[1429804800000,1.119],[1430064000000,1.122],[1430150400000,1.122],[1430236800000,1.123],[1430323200000,1.124],[1430668800000,1.125],[1430755200000,1.125],[1430841600000,1.125],[1430928000000,1.126],[1431014400000,1.128],[1431273600000,1.129],[1431360000000,1.13],[1431446400000,1.132],[1431532800000,1.135],[1431619200000,1.136],[1431878400000,1.137],[1431964800000,1.137],[1432051200000,1.137],[1432137600000,1.137],[1432224000000,1.137],[1432483200000,1.137],[1432569600000,1.136],[1432656000000,1.136],[1432742400000,1.135],[1432828800000,1.133],[1433088000000,1.133],[1433174400000,1.134],[1433260800000,1.135],[1433347200000,1.136],[1433433600000,1.136],[1433692800000,1.136],[1433779200000,1.137],[1433865600000,1.137],[1433952000000,1.136],[1434038400000,1.136],[1434297600000,1.136],[1434384000000,1.137],[1434470400000,1.136],[1434556800000,1.137],[1434643200000,1.137],[1434988800000,1.137],[1435075200000,1.137],[1435161600000,1.137],[1435248000000,1.137],[1435507200000,1.138],[1435593600000,1.138],[1435680000000,1.138],[1435766400000,1.138],[1435852800000,1.138],[1436112000000,1.141],[1436198400000,1.144],[1436284800000,1.145],[1436371200000,1.144],[1436457600000,1.144],[1436716800000,1.144],[1436803200000,1.145],[1436889600000,1.145],[1436976000000,1.145],[1437062400000,1.146],[1437321600000,1.148],[1437408000000,1.148],[1437494400000,1.148],[1437580800000,1.15],[1437667200000,1.151],[1437926400000,1.151],[1438012800000,1.152],[1438099200000,1.153],[1438185600000,1.153],[1438272000000,1.153],[1438531200000,1.153],[1438617600000,1.154],[1438704000000,1.154],[1438790400000,1.155],[1438876800000,1.156],[1439136000000,1.157],[1439222400000,1.155],[1439308800000,1.155],[1439395200000,1.156],[1439481600000,1.156],[1439740800000,1.156],[1439827200000,1.156],[1439913600000,1.157],[1440000000000,1.157],[1440086400000,1.158],[1440345600000,1.158],[1440432000000,1.159],[1440518400000,1.159],[1440604800000,1.159],[1440691200000,1.159],[1440950400000,1.16],[1441036800000,1.161],[1441123200000,1.161],[1441555200000,1.162],[1441641600000,1.162],[1441728000000,1.162],[1441814400000,1.162],[1441900800000,1.162],[1442160000000,1.163],[1442246400000,1.163],[1442332800000,1.163],[1442419200000,1.164],[1442505600000,1.164],[1442764800000,1.164],[1442851200000,1.165],[1442937600000,1.165],[1443024000000,1.165],[1443110400000,1.165],[1443369600000,1.166],[1443456000000,1.167],[1443542400000,1.167],[1444233600000,1.168],[1444320000000,1.168],[1444579200000,1.169],[1444665600000,1.17],[1444752000000,1.171],[1444838400000,1.171],[1444924800000,1.172],[1445184000000,1.172],[1445270400000,1.173],[1445356800000,1.173],[1445443200000,1.174],[1445529600000,1.175],[1445788800000,1.176],[1445875200000,1.177],[1445961600000,1.179],[1446048000000,1.179],[1446134400000,1.179],[1446393600000,1.18],[1446480000000,1.179],[1446566400000,1.179],[1446652800000,1.179],[1446739200000,1.179],[1446998400000,1.175],[1447084800000,1.173],[1447171200000,1.173],[1447257600000,1.173],[1447344000000,1.174],[1447603200000,1.174],[1447689600000,1.174],[1447776000000,1.174],[1447862400000,1.173],[1447948800000,1.173],[1448208000000,1.173],[1448294400000,1.174],[1448380800000,1.175],[1448467200000,1.176],[1448553600000,1.177],[1448812800000,1.178],[1448899200000,1.179],[1448985600000,1.18],[1449072000000,1.181],[1449158400000,1.183],[1449417600000,1.185],[1449504000000,1.186],[1449590400000,1.187],[1449676800000,1.187],[1449763200000,1.187],[1450022400000,1.187],[1450108800000,1.187],[1450195200000,1.187],[1450281600000,1.188],[1450368000000,1.188],[1450627200000,1.19],[1450713600000,1.193],[1450800000000,1.193],[1450886400000,1.195],[1450972800000,1.195],[1451232000000,1.196],[1451318400000,1.198],[1451404800000,1.198],[1451491200000,1.198],[1451836800000,1.198],[1451923200000,1.198],[1452009600000,1.198],[1452096000000,1.199],[1452182400000,1.201],[1452441600000,1.201],[1452528000000,1.203],[1452614400000,1.204],[1452700800000,1.205],[1452787200000,1.205],[1453046400000,1.205],[1453132800000,1.205],[1453219200000,1.204],[1453305600000,1.204],[1453392000000,1.205],[1453651200000,1.204],[1453737600000,1.203],[1453824000000,1.201],[1453910400000,1.2],[1453996800000,1.201],[1454256000000,1.201],[1454342400000,1.201],[1454428800000,1.2],[1454515200000,1.201],[1454601600000,1.201],[1455465600000,1.203],[1455552000000,1.203],[1455638400000,1.203],[1455724800000,1.203],[1455811200000,1.205],[1456070400000,1.205],[1456156800000,1.205],[1456243200000,1.206],[1456329600000,1.205],[1456416000000,1.206],[1456675200000,1.206],[1456761600000,1.206],[1456848000000,1.206],[1456934400000,1.206],[1457020800000,1.207],[1457280000000,1.207],[1457366400000,1.208],[1457452800000,1.209],[1457539200000,1.209],[1457625600000,1.21],[1457884800000,1.21],[1457971200000,1.21],[1458057600000,1.21],[1458144000000,1.211],[1458230400000,1.211],[1458489600000,1.211],[1458576000000,1.211],[1458662400000,1.212],[1458748800000,1.212],[1458835200000,1.212],[1459094400000,1.211],[1459180800000,1.211],[1459267200000,1.211],[1459353600000,1.211],[1459440000000,1.211],[1459785600000,1.212],[1459872000000,1.211],[1459958400000,1.212],[1460044800000,1.211],[1460304000000,1.21],[1460390400000,1.209],[1460476800000,1.207],[1460563200000,1.204],[1460649600000,1.203],[1460908800000,1.203],[1460995200000,1.203],[1461081600000,1.201],[1461168000000,1.199],[1461254400000,1.196],[1461513600000,1.191],[1461600000000,1.19],[1461686400000,1.191],[1461772800000,1.192],[1461859200000,1.192],[1462204800000,1.193],[1462291200000,1.194],[1462377600000,1.194],[1462464000000,1.194],[1462723200000,1.196],[1462809600000,1.197],[1462896000000,1.198],[1462982400000,1.198],[1463068800000,1.199],[1463328000000,1.2],[1463414400000,1.2],[1463500800000,1.2],[1463587200000,1.199],[1463673600000,1.199],[1463932800000,1.2],[1464019200000,1.2],[1464105600000,1.2],[1464192000000,1.2],[1464278400000,1.201],[1464537600000,1.201],[1464624000000,1.201],[1464710400000,1.201],[1464796800000,1.2],[1464883200000,1.201],[1465142400000,1.201],[1465228800000,1.202],[1465315200000,1.202],[1465747200000,1.202],[1465833600000,1.203],[1465920000000,1.203],[1466006400000,1.203],[1466092800000,1.204],[1466352000000,1.205],[1466438400000,1.205],[1466524800000,1.205],[1466611200000,1.205],[1466697600000,1.206],[1466956800000,1.207],[1467043200000,1.208],[1467129600000,1.207],[1467216000000,1.208],[1467302400000,1.209],[1467561600000,1.21],[1467648000000,1.21],[1467734400000,1.211],[1467820800000,1.211],[1467907200000,1.212],[1468166400000,1.213],[1468252800000,1.213],[1468339200000,1.213],[1468425600000,1.213],[1468512000000,1.213],[1468771200000,1.214],[1468857600000,1.213],[1468944000000,1.214],[1469030400000,1.215],[1469116800000,1.215],[1469376000000,1.215],[1469462400000,1.216],[1469548800000,1.216],[1469635200000,1.217],[1469721600000,1.218],[1469980800000,1.218],[1470067200000,1.219],[1470153600000,1.219],[1470240000000,1.22],[1470326400000,1.221],[1470585600000,1.222],[1470672000000,1.223],[1470758400000,1.224],[1470844800000,1.224],[1470931200000,1.225],[1471190400000,1.225],[1471276800000,1.225],[1471363200000,1.225],[1471449600000,1.225],[1471536000000,1.225],[1471795200000,1.225],[1471881600000,1.225],[1471968000000,1.225],[1472054400000,1.225],[1472140800000,1.225],[1472400000000,1.225],[1472486400000,1.225],[1472572800000,1.225],[1472659200000,1.225],[1472745600000,1.225],[1473004800000,1.225],[1473091200000,1.225],[1473177600000,1.225],[1473264000000,1.225],[1473350400000,1.226],[1473609600000,1.226],[1473696000000,1.226],[1473782400000,1.226],[1474214400000,1.227],[1474300800000,1.227],[1474387200000,1.227],[1474473600000,1.228],[1474560000000,1.229],[1474819200000,1.229],[1474905600000,1.23],[1474992000000,1.23],[1475078400000,1.23],[1475164800000,1.231],[1476028800000,1.232],[1476115200000,1.233],[1476201600000,1.233],[1476288000000,1.233],[1476374400000,1.234],[1476633600000,1.234],[1476720000000,1.234],[1476806400000,1.235],[1476892800000,1.235],[1476979200000,1.236],[1477238400000,1.236],[1477324800000,1.235],[1477411200000,1.235],[1477497600000,1.234],[1477584000000,1.234],[1477843200000,1.234],[1477929600000,1.234],[1478016000000,1.234],[1478102400000,1.234],[1478188800000,1.234],[1478448000000,1.234],[1478534400000,1.234],[1478620800000,1.233],[1478707200000,1.233],[1478793600000,1.232],[1479052800000,1.231],[1479139200000,1.23],[1479225600000,1.23],[1479312000000,1.229],[1479398400000,1.228],[1479657600000,1.228],[1479744000000,1.227],[1479830400000,1.227],[1479916800000,1.227],[1480003200000,1.227],[1480262400000,1.227],[1480348800000,1.225],[1480435200000,1.222],[1480521600000,1.22],[1480608000000,1.218],[1480867200000,1.217],[1480953600000,1.213],[1481040000000,1.212],[1481126400000,1.213],[1481212800000,1.213],[1481472000000,1.211],[1481558400000,1.207],[1481644800000,1.203],[1481731200000,1.195],[1481817600000,1.194],[1482076800000,1.191],[1482163200000,1.189],[1482249600000,1.188],[1482336000000,1.19],[1482422400000,1.191],[1482681600000,1.192],[1482768000000,1.193],[1482854400000,1.193],[1482940800000,1.194],[1483027200000,1.196],[1483113600000,1.196],[1483372800000,1.198],[1483459200000,1.198],[1483545600000,1.199],[1483632000000,1.199],[1483891200000,1.2],[1483977600000,1.2],[1484064000000,1.2],[1484150400000,1.201],[1484236800000,1.202],[1484496000000,1.202],[1484582400000,1.201],[1484668800000,1.2],[1484755200000,1.199],[1484841600000,1.2],[1485100800000,1.2],[1485187200000,1.2],[1485273600000,1.2],[1485360000000,1.2],[1486051200000,1.201],[1486310400000,1.201],[1486396800000,1.2],[1486483200000,1.2],[1486569600000,1.2],[1486656000000,1.2],[1486915200000,1.2],[1487001600000,1.2],[1487088000000,1.2],[1487174400000,1.201],[1487260800000,1.201],[1487520000000,1.201],[1487606400000,1.201],[1487692800000,1.201],[1487779200000,1.201],[1487865600000,1.202],[1488124800000,1.202],[1488211200000,1.202],[1488297600000,1.202],[1488384000000,1.202],[1488470400000,1.202],[1488729600000,1.202],[1488816000000,1.202],[1488902400000,1.202],[1488988800000,1.202],[1489075200000,1.201],[1489334400000,1.202],[1489420800000,1.202],[1489507200000,1.202],[1489593600000,1.202],[1489680000000,1.202],[1489939200000,1.202],[1490025600000,1.202],[1490112000000,1.202],[1490198400000,1.202],[1490284800000,1.203],[1490544000000,1.204],[1490630400000,1.204],[1490716800000,1.204],[1490803200000,1.2],[1490889600000,1.199],[1491321600000,1.199],[1491408000000,1.2],[1491494400000,1.2],[1491753600000,1.202],[1491840000000,1.202],[1491926400000,1.202],[1492012800000,1.203],[1492099200000,1.203],[1492358400000,1.203],[1492444800000,1.203],[1492531200000,1.202],[1492617600000,1.202],[1492704000000,1.201],[1492963200000,1.201],[1493049600000,1.201],[1493136000000,1.201],[1493222400000,1.201],[1493308800000,1.201],[1493654400000,1.201],[1493740800000,1.201],[1493827200000,1.201],[1493913600000,1.201],[1494172800000,1.201],[1494259200000,1.2],[1494345600000,1.199],[1494432000000,1.199],[1494518400000,1.199],[1494777600000,1.199],[1494864000000,1.199],[1494950400000,1.199],[1495036800000,1.199],[1495123200000,1.2],[1495382400000,1.2],[1495468800000,1.2],[1495555200000,1.2],[1495641600000,1.2],[1495728000000,1.2],[1496160000000,1.201],[1496246400000,1.201],[1496332800000,1.202],[1496592000000,1.202],[1496678400000,1.202],[1496764800000,1.202],[1496851200000,1.202],[1496937600000,1.203],[1497196800000,1.204],[1497283200000,1.204],[1497369600000,1.205],[1497456000000,1.206],[1497542400000,1.207],[1497801600000,1.208],[1497888000000,1.21],[1497974400000,1.211],[1498060800000,1.211],[1498147200000,1.211],[1498406400000,1.212],[1498492800000,1.213],[1498579200000,1.214],[1498665600000,1.215],[1498752000000,1.215],[1499011200000,1.216],[1499097600000,1.216],[1499184000000,1.216],[1499270400000,1.217],[1499356800000,1.218],[1499616000000,1.218],[1499702400000,1.218],[1499788800000,1.218],[1499875200000,1.219],[1499961600000,1.219],[1500220800000,1.22],[1500307200000,1.218],[1500393600000,1.217],[1500480000000,1.217],[1500566400000,1.216],[1500825600000,1.215],[1500912000000,1.215],[1500998400000,1.214],[1501084800000,1.214],[1501171200000,1.214],[1501430400000,1.214],[1501516800000,1.214],[1501603200000,1.214],[1501689600000,1.215],[1501776000000,1.215],[1502035200000,1.215],[1502121600000,1.215],[1502208000000,1.215],[1502294400000,1.214],[1502380800000,1.215],[1502640000000,1.215],[1502726400000,1.216],[1502812800000,1.216],[1502899200000,1.216],[1502985600000,1.216],[1503244800000,1.216],[1503331200000,1.216],[1503417600000,1.216],[1503504000000,1.216],[1503590400000,1.216],[1503849600000,1.215],[1503936000000,1.214],[1504022400000,1.214],[1504108800000,1.213],[1504195200000,1.214],[1504454400000,1.214],[1504540800000,1.214],[1504627200000,1.215],[1504713600000,1.215],[1504800000000,1.216],[1505059200000,1.217],[1505145600000,1.217],[1505232000000,1.217],[1505318400000,1.217],[1505404800000,1.218],[1505664000000,1.219],[1505750400000,1.219],[1505836800000,1.219],[1505923200000,1.22],[1506009600000,1.22],[1506268800000,1.22],[1506355200000,1.22],[1506441600000,1.22],[1506528000000,1.22],[1506614400000,1.221],[1507478400000,1.222],[1507564800000,1.222],[1507651200000,1.222],[1507737600000,1.222],[1507824000000,1.223],[1508083200000,1.223],[1508169600000,1.223],[1508256000000,1.223],[1508342400000,1.223],[1508428800000,1.223],[1508688000000,1.224],[1508774400000,1.224],[1508860800000,1.224],[1508947200000,1.224],[1509033600000,1.224],[1509292800000,1.223],[1509379200000,1.222],[1509465600000,1.222],[1509552000000,1.223],[1509638400000,1.223],[1509897600000,1.223],[1509984000000,1.223],[1510070400000,1.223],[1510156800000,1.223],[1510243200000,1.223],[1510502400000,1.223],[1510588800000,1.222],[1510675200000,1.221],[1510761600000,1.221],[1510848000000,1.221],[1511107200000,1.221],[1511193600000,1.221],[1511280000000,1.219],[1511366400000,1.218],[1511452800000,1.217],[1511712000000,1.217],[1511798400000,1.216],[1511884800000,1.216],[1511971200000,1.216],[1512057600000,1.217],[1512316800000,1.218],[1512403200000,1.219],[1512489600000,1.22],[1512576000000,1.221],[1512662400000,1.222],[1512921600000,1.222],[1513008000000,1.223],[1513094400000,1.223],[1513180800000,1.223],[1513267200000,1.223],[1513526400000,1.223],[1513612800000,1.223],[1513699200000,1.223],[1513785600000,1.223],[1513872000000,1.222],[1514131200000,1.223],[1514217600000,1.223],[1514304000000,1.222],[1514390400000,1.222],[1514476800000,1.222],[1514649600000,1.222],[1514822400000,1.223],[1514908800000,1.223],[1514995200000,1.223],[1515081600000,1.223],[1515340800000,1.224],[1515427200000,1.224],[1515513600000,1.225],[1515600000000,1.224],[1515686400000,1.223],[1515945600000,1.223],[1516032000000,1.223],[1516118400000,1.223],[1516204800000,1.223],[1516291200000,1.223],[1516550400000,1.224],[1516636800000,1.225],[1516723200000,1.224],[1516809600000,1.224],[1516896000000,1.224],[1517155200000,1.224],[1517241600000,1.225],[1517328000000,1.225],[1517414400000,1.225],[1517500800000,1.226],[1517760000000,1.227],[1517846400000,1.228],[1517932800000,1.229],[1518019200000,1.23],[1518105600000,1.229],[1518364800000,1.23],[1518451200000,1.231],[1518537600000,1.232],[1519228800000,1.233],[1519315200000,1.234],[1519574400000,1.235],[1519660800000,1.236],[1519747200000,1.237],[1519833600000,1.237],[1519920000000,1.238],[1520179200000,1.238],[1520265600000,1.238],[1520352000000,1.239],[1520438400000,1.239],[1520524800000,1.24],[1520784000000,1.24],[1520870400000,1.24],[1520956800000,1.24],[1521043200000,1.24],[1521129600000,1.241],[1521388800000,1.241],[1521475200000,1.241],[1521561600000,1.241],[1521648000000,1.242],[1521734400000,1.244],[1521993600000,1.245],[1522080000000,1.246],[1522166400000,1.246],[1522252800000,1.247],[1522339200000,1.247],[1522598400000,1.248],[1522684800000,1.249],[1522771200000,1.25],[1523203200000,1.251],[1523289600000,1.252],[1523376000000,1.252],[1523462400000,1.253],[1523548800000,1.253],[1523808000000,1.253],[1523894400000,1.254],[1523980800000,1.259],[1524067200000,1.259],[1524153600000,1.259],[1524412800000,1.258],[1524499200000,1.258],[1524585600000,1.258],[1524672000000,1.257],[1524758400000,1.257],[1525190400000,1.256],[1525276800000,1.256],[1525363200000,1.256],[1525622400000,1.256],[1525708800000,1.255],[1525795200000,1.254],[1525881600000,1.254],[1525968000000,1.254],[1526227200000,1.253],[1526313600000,1.253],[1526400000000,1.252],[1526486400000,1.252],[1526572800000,1.252],[1526832000000,1.252],[1526918400000,1.253],[1527004800000,1.253],[1527091200000,1.253],[1527177600000,1.254],[1527436800000,1.254],[1527523200000,1.254],[1527609600000,1.255],[1527696000000,1.254],[1527782400000,1.254],[1528041600000,1.254],[1528128000000,1.253],[1528214400000,1.254],[1528300800000,1.254],[1528387200000,1.254],[1528646400000,1.254],[1528732800000,1.254],[1528819200000,1.254],[1528905600000,1.254],[1528992000000,1.254],[1529337600000,1.254],[1529424000000,1.254],[1529510400000,1.254],[1529596800000,1.255],[1529856000000,1.255],[1529942400000,1.255],[1530028800000,1.256],[1530115200000,1.257],[1530201600000,1.257],[1530288000000,1.257],[1530460800000,1.258],[1530547200000,1.259],[1530633600000,1.26],[1530720000000,1.261],[1530806400000,1.262],[1531065600000,1.262],[1531152000000,1.262],[1531238400000,1.262],[1531324800000,1.263],[1531411200000,1.263],[1531670400000,1.264],[1531756800000,1.265],[1531843200000,1.265],[1531929600000,1.267],[1532016000000,1.268],[1532275200000,1.269],[1532361600000,1.27],[1532448000000,1.271],[1532534400000,1.272],[1532620800000,1.273],[1532880000000,1.275],[1532966400000,1.276],[1533052800000,1.278],[1533139200000,1.28],[1533225600000,1.28],[1533484800000,1.282],[1533571200000,1.284],[1533657600000,1.284],[1533744000000,1.283],[1533830400000,1.281],[1534089600000,1.279],[1534176000000,1.279],[1534262400000,1.279],[1534348800000,1.278],[1534435200000,1.276],[1534694400000,1.275],[1534780800000,1.274],[1534867200000,1.274],[1534953600000,1.275],[1535040000000,1.276],[1535299200000,1.277],[1535385600000,1.277],[1535472000000,1.276],[1535558400000,1.276],[1535644800000,1.277],[1535904000000,1.277],[1535990400000,1.277],[1536076800000,1.277],[1536163200000,1.277],[1536249600000,1.278],[1536508800000,1.277],[1536595200000,1.277],[1536681600000,1.277],[1536768000000,1.277],[1536854400000,1.278],[1537113600000,1.279],[1537200000000,1.279],[1537286400000,1.279],[1537372800000,1.278],[1537459200000,1.279],[1537804800000,1.28],[1537891200000,1.28],[1537977600000,1.281],[1538064000000,1.282],[1538928000000,1.284],[1539014400000,1.284],[1539100800000,1.285],[1539187200000,1.287],[1539273600000,1.288],[1539532800000,1.289],[1539619200000,1.29],[1539705600000,1.29],[1539792000000,1.291],[1539878400000,1.292],[1540137600000,1.292],[1540224000000,1.293],[1540310400000,1.294],[1540396800000,1.294],[1540483200000,1.294],[1540742400000,1.295],[1540828800000,1.296],[1540915200000,1.297],[1541001600000,1.297],[1541088000000,1.297],[1541347200000,1.298],[1541433600000,1.298],[1541520000000,1.299],[1541606400000,1.3],[1541692800000,1.301],[1541952000000,1.301],[1542038400000,1.302],[1542124800000,1.304],[1542211200000,1.305],[1542297600000,1.307],[1542556800000,1.308],[1542643200000,1.309],[1542729600000,1.31],[1542816000000,1.31],[1542902400000,1.31],[1543161600000,1.31],[1543248000000,1.31],[1543334400000,1.311],[1543420800000,1.311],[1543507200000,1.311],[1543766400000,1.312],[1543852800000,1.312],[1543939200000,1.314],[1544025600000,1.314],[1544112000000,1.315],[1544371200000,1.316],[1544457600000,1.317],[1544544000000,1.317],[1544630400000,1.316],[1544716800000,1.315],[1544976000000,1.314],[1545062400000,1.313],[1545148800000,1.313],[1545235200000,1.314],[1545321600000,1.315],[1545580800000,1.316],[1545667200000,1.316],[1545753600000,1.316],[1545840000000,1.317],[1545926400000,1.318],[1546185600000,1.319],[1546358400000,1.32],[1546444800000,1.322],[1546531200000,1.324],[1546790400000,1.326],[1546876800000,1.328],[1546963200000,1.328],[1547049600000,1.329],[1547136000000,1.33],[1547395200000,1.33],[1547481600000,1.33],[1547568000000,1.33],[1547654400000,1.331],[1547740800000,1.331],[1548000000000,1.332],[1548086400000,1.331],[1548172800000,1.331],[1548259200000,1.331],[1548345600000,1.33],[1548604800000,1.33],[1548691200000,1.33],[1548777600000,1.331],[1548864000000,1.331],[1548950400000,1.332],[1549814400000,1.334],[1549900800000,1.335],[1549987200000,1.335],[1550073600000,1.336],[1550160000000,1.337],[1550419200000,1.337],[1550505600000,1.337],[1550592000000,1.337],[1550678400000,1.337],[1550764800000,1.337],[1551024000000,1.337],[1551110400000,1.336],[1551196800000,1.335],[1551283200000,1.335],[1551369600000,1.334],[1551628800000,1.333],[1551715200000,1.333],[1551801600000,1.332],[1551888000000,1.332],[1551974400000,1.334],[1552233600000,1.335],[1552320000000,1.335],[1552406400000,1.335],[1552492800000,1.335],[1552579200000,1.335],[1552838400000,1.335],[1552924800000,1.335],[1553011200000,1.335],[1553097600000,1.335],[1553184000000,1.336],[1553443200000,1.337],[1553529600000,1.337],[1553616000000,1.338],[1553702400000,1.338],[1553788800000,1.339],[1554048000000,1.339],[1554134400000,1.338],[1554220800000,1.337],[1554307200000,1.337],[1554652800000,1.337],[1554739200000,1.336],[1554825600000,1.335],[1554912000000,1.335],[1554998400000,1.336],[1555257600000,1.334],[1555344000000,1.333],[1555430400000,1.332],[1555516800000,1.332],[1555603200000,1.333],[1555862400000,1.333],[1555948800000,1.334],[1556035200000,1.333],[1556121600000,1.333],[1556208000000,1.334],[1556467200000,1.334],[1556553600000,1.335],[1557072000000,1.337],[1557158400000,1.338],[1557244800000,1.338],[1557331200000,1.339],[1557417600000,1.34],[1557676800000,1.341],[1557763200000,1.342],[1557849600000,1.343],[1557936000000,1.343],[1558022400000,1.344],[1558281600000,1.345],[1558368000000,1.345],[1558454400000,1.345],[1558540800000,1.345],[1558627200000,1.345],[1558886400000,1.344],[1558972800000,1.344],[1559059200000,1.344],[1559145600000,1.344],[1559232000000,1.345],[1559491200000,1.346],[1559577600000,1.345],[1559664000000,1.345],[1559750400000,1.346],[1560096000000,1.346],[1560182400000,1.346],[1560268800000,1.346],[1560355200000,1.345],[1560441600000,1.344],[1560700800000,1.344],[1560787200000,1.344],[1560873600000,1.345],[1560960000000,1.345],[1561046400000,1.346],[1561305600000,1.347],[1561392000000,1.348],[1561478400000,1.348],[1561564800000,1.348],[1561651200000,1.348],[1561824000000,1.349],[1561910400000,1.349],[1561996800000,1.35],[1562083200000,1.351],[1562169600000,1.352],[1562256000000,1.352],[1562515200000,1.353],[1562601600000,1.353],[1562688000000,1.353],[1562774400000,1.353],[1562860800000,1.353],[1563120000000,1.354],[1563206400000,1.354],[1563292800000,1.354],[1563379200000,1.354],[1563465600000,1.354],[1563724800000,1.355],[1563811200000,1.355],[1563897600000,1.355],[1563984000000,1.355],[1564070400000,1.356],[1564329600000,1.356],[1564416000000,1.356],[1564502400000,1.357],[1564588800000,1.357],[1564675200000,1.359],[1564934400000,1.36],[1565020800000,1.361],[1565107200000,1.362],[1565193600000,1.362],[1565280000000,1.362],[1565539200000,1.363],[1565625600000,1.364],[1565712000000,1.364],[1565798400000,1.365],[1565884800000,1.365],[1566144000000,1.365],[1566230400000,1.366],[1566316800000,1.365],[1566403200000,1.365],[1566489600000,1.365],[1566748800000,1.366],[1566835200000,1.366],[1566921600000,1.366],[1567008000000,1.366],[1567094400000,1.366],[1567353600000,1.366],[1567440000000,1.366],[1567526400000,1.366],[1567612800000,1.367],[1567699200000,1.367],[1567958400000,1.368],[1568044800000,1.368],[1568131200000,1.368],[1568217600000,1.368],[1568563200000,1.369],[1568649600000,1.369],[1568736000000,1.369],[1568822400000,1.369],[1568908800000,1.368],[1569168000000,1.368],[1569254400000,1.368],[1569340800000,1.368],[1569427200000,1.369],[1569513600000,1.369],[1569772800000,1.369],[1570464000000,1.37],[1570550400000,1.37],[1570636800000,1.37],[1570723200000,1.371],[1570982400000,1.371],[1571068800000,1.371],[1571155200000,1.371],[1571241600000,1.371],[1571328000000,1.371],[1571587200000,1.371],[1571673600000,1.371],[1571760000000,1.371],[1571846400000,1.371],[1571932800000,1.371],[1572192000000,1.371],[1572278400000,1.37],[1572364800000,1.369],[1572451200000,1.368],[1572537600000,1.368],[1572796800000,1.369],[1572883200000,1.369],[1572969600000,1.369],[1573056000000,1.37],[1573142400000,1.371],[1573401600000,1.371],[1573488000000,1.372],[1573574400</t>
   </si>
 </sst>
 </file>
@@ -450,7 +642,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,182 +665,420 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
-        <v>513100</v>
+      <c r="B2" t="s">
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
-        <v>513500</v>
+      <c r="B3" t="s">
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
-        <v>161128</v>
+      <c r="B4" t="s">
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
-        <v>510300</v>
+      <c r="B5" t="s">
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
-        <v>510500</v>
+      <c r="B6" t="s">
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
-        <v>159901</v>
+      <c r="B7" t="s">
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="n">
-        <v>510050</v>
+      <c r="B8" t="s">
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="n">
-        <v>159915</v>
+      <c r="B9" t="s">
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="n">
-        <v>512010</v>
+      <c r="B10" t="s">
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="n">
-        <v>159928</v>
+      <c r="B11" t="s">
+        <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="n">
-        <v>161725</v>
+      <c r="B12" t="s">
+        <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="n">
-        <v>161005</v>
+      <c r="B13" t="s">
+        <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="n">
-        <v>110011</v>
+      <c r="B14" t="s">
+        <v>39</v>
       </c>
       <c r="C14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" t="s">
+        <v>76</v>
+      </c>
+      <c r="D26" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" t="s">
+        <v>79</v>
+      </c>
+      <c r="D27" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28" t="s">
+        <v>82</v>
+      </c>
+      <c r="D28" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="D14" t="s">
+      <c r="B29" t="s">
+        <v>84</v>
+      </c>
+      <c r="C29" t="s">
+        <v>85</v>
+      </c>
+      <c r="D29" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1" t="n">
         <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>87</v>
+      </c>
+      <c r="C30" t="s">
+        <v>88</v>
+      </c>
+      <c r="D30" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>90</v>
+      </c>
+      <c r="C31" t="s">
+        <v>91</v>
+      </c>
+      <c r="D31" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/fund/data/fund.xlsx
+++ b/fund/data/fund.xlsx
@@ -15,7 +15,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="200">
+  <si>
+    <t>acc_return</t>
+  </si>
   <si>
     <t>id</t>
   </si>
@@ -26,6 +29,9 @@
     <t>total_net_value</t>
   </si>
   <si>
+    <t>[[1366819200000, 0.0], [1368720000000, 0.4], [1369929600000, -0.6], [1371484800000, -0.4], [1372521600000, -3.1], [1373558400000, 2.2], [1374681600000, 1.9], [1375804800000, 3.7], [1376928000000, 2.5], [1378137600000, 2.7], [1379260800000, 5.1], [1381161600000, 4.5], [1382284800000, 11.1], [1383235200000, 11.9], [1384358400000, 12.9], [1385481600000, 14.6], [1386691200000, 14.1], [1387814400000, 17.6], [1389110400000, 17.3], [1390320000000, 19.1], [1392048000000, 18.8], [1393257600000, 20.8], [1394380800000, 21.9], [1395331200000, 20.4], [1396454400000, 20.0], [1397664000000, 16.7], [1399219200000, 18.9], [1400169600000, 18.6], [1401379200000, 23.7], [1402588800000, 24.6], [1403712000000, 26.2], [1404921600000, 27.8], [1406044800000, 31.3], [1407168000000, 27.9], [1408291200000, 32.5], [1409241600000, 34.9], [1410710400000, 32.7], [1411660800000, 33.5], [1413388800000, 23.9], [1414512000000, 33.9], [1415635200000, 37.0], [1416758400000, 40.2], [1417968000000, 39.5], [1418918400000, 39.4], [1420473600000, 34.1], [1421683200000, 35.9], [1422806400000, 36.6], [1423756800000, 42.9], [1425571200000, 43.9], [1426694400000, 44.7], [1427817600000, 40.9], [1429113600000, 43.8], [1430236800000, 45.7], [1431446400000, 43.7], [1432656000000, 47.7], [1433779200000, 44.0], [1434988800000, 47.6], [1436198400000, 43.9], [1437321600000, 51.7], [1438272000000, 48.9], [1439395200000, 53.4], [1440518400000, 43.8], [1441900800000, 46.4], [1443024000000, 44.5], [1444752000000, 46.5], [1445875200000, 56.1], [1446998400000, 56.7], [1447948800000, 58.4], [1449158400000, 59.6], [1450281600000, 57.9], [1451491200000, 58.1], [1452700800000, 48.6], [1453910400000, 45.4], [1455724800000, 43.6], [1456848000000, 50.8], [1457971200000, 50.9], [1459180800000, 54.3], [1460390400000, 54.2], [1461513600000, 54.6], [1462723200000, 50.1], [1463673600000, 51.8], [1464883200000, 57.5], [1466352000000, 53.5], [1467302400000, 56.5], [1468512000000, 62.5], [1469635200000, 66.6], [1470758400000, 68.6], [1471881600000, 69.9], [1473091200000, 70.6], [1474387200000, 71.5], [1476115200000, 71.2], [1477238400000, 75.7], [1478188800000, 66.5], [1479312000000, 75.3], [1480521600000, 72.6], [1481644800000, 79.6], [1482854400000, 80.7], [1483977600000, 83.9], [1485187200000, 83.8], [1486915200000, 90.8], [1488124800000, 93.8], [1489075200000, 95.9], [1490198400000, 94.0], [1491494400000, 96.5], [1492704000000, 96.9], [1493913600000, 104.4], [1495036800000, 103.0], [1496332800000, 110.5], [1497456000000, 103.4], [1498579200000, 105.9], [1499788800000, 106.4], [1500912000000, 110.5], [1502035200000, 109.8], [1502985600000, 103.5], [1504108800000, 108.2], [1505318400000, 105.8], [1506441600000, 107.0], [1508169600000, 112.4], [1509292800000, 117.7], [1510243200000, 119.8], [1511452800000, 121.9], [1512576000000, 120.0], [1513699200000, 125.1], [1514908800000, 124.6], [1516118400000, 130.4], [1517241600000, 130.8], [1518364800000, 116.3], [1519920000000, 127.1], [1521043200000, 133.9], [1522166400000, 113.5], [1523548800000, 119.2], [1524672000000, 121.3], [1525968000000, 132.2], [1527091200000, 133.0], [1528300800000, 140.0], [1529510400000, 145.3], [1530547200000, 144.8], [1531756800000, 159.4], [1532880000000, 157.0], [1533830400000, 165.8], [1534953600000, 165.8], [1536163200000, 166.6], [1537286400000, 169.3], [1539100800000, 155.0], [1540224000000, 158.4], [1541347200000, 150.4], [1542297600000, 149.3], [1543507200000, 152.2], [1544716800000, 137.5], [1545926400000, 126.1], [1547136000000, 134.2], [1548259200000, 137.3], [1549987200000, 148.0], [1551110400000, 149.2], [1552233600000, 151.5], [1553184000000, 156.1], [1554307200000, 164.0], [1555516800000, 168.7], [1557072000000, 174.0], [1558022400000, 169.2], [1559145600000, 160.4], [1560355200000, 169.5], [1561478400000, 172.6], [1562515200000, 178.9], [1563465600000, 179.6], [1564588800000, 179.4], [1565712000000, 173.6], [1566835200000, 178.2], [1567958400000, 188.1], [1569168000000, 187.1], [1570723200000, 188.0], [1571846400000, 192.3], [1572969600000, 198.2], [1574092800000, 203.2], [1575216000000, 203.2], [1576166400000, 209.3], [1577289600000, 218.4], [1578499200000, 224.7], [1579622400000, 229.0], [1581436800000, 248.0], [1582560000000, 222.0], [1583683200000, 185.6], [1584633600000, 157.4], [1585756800000, 179.6], [1586966400000, 219.5], [1588089600000, 227.3], [1589472000000, 234.7], [1590595200000, 245.9], [1591718400000, 267.8], [1592841600000, 271.7], [1594137600000, 285.7], [1595260800000, 289.9], [1596384000000, 298.4], [1597334400000, 299.2], [1598457600000, 323.5], [1599580800000, 301.8], [1600704000000, 291.2], [1602518400000, 318.8], [1603641600000, 295.3], [1604592000000, 312.7], [1605715200000, 304.3], [1606838400000, 320.7], [1607961600000, 324.3], [1609084800000, 331.2], [1610294400000, 330.0], [1611244800000, 344.3], [1612368000000, 350.7], [1614096000000, 342.2], [1615219200000, 329.6], [1616342400000, 338.2], [1617292800000, 349.2], [1618502400000, 370.8], [1619625600000, 364.1], [1621180800000, 339.5], [1622131200000, 348.8], [1623254400000, 358.5], [1624464000000, 377.9], [1625587200000, 392.2], [1626710400000, 390.0], [1627833600000, 396.3], [1628179200000, 401.0]]</t>
+  </si>
+  <si>
     <t>513100</t>
   </si>
   <si>
@@ -35,6 +41,9 @@
     <t xml:space="preserve"> [[1366819200000,1.0],[1366905600000,1.0],[1367510400000,1.0],[1367942400000,1.0],[1368115200000,1.001],[1368460800000,1.001],[1368547200000,1.001],[1368633600000,1.003],[1368720000000,1.004],[1368979200000,1.006],[1369065600000,1.006],[1369152000000,0.999],[1369238400000,0.998],[1369324800000,0.997],[1369670400000,1.002],[1369756800000,0.998],[1369843200000,1.002],[1369929600000,0.994],[1370188800000,0.996],[1370275200000,0.99],[1370361600000,0.98],[1370448000000,0.983],[1370534400000,0.993],[1371052800000,0.985],[1371139200000,0.979],[1371398400000,0.987],[1371484800000,0.996],[1371571200000,0.985],[1371657600000,0.961],[1371744000000,0.958],[1372003200000,0.949],[1372089600000,0.955],[1372176000000,0.964],[1372262400000,0.968],[1372348800000,0.969],[1372521600000,0.969],[1372608000000,0.975],[1372694400000,0.975],[1372780800000,0.98],[1372953600000,0.987],[1373212800000,0.988],[1373299200000,0.993],[1373385600000,0.997],[1373472000000,1.016],[1373558400000,1.022],[1373817600000,1.024],[1373904000000,1.024],[1373990400000,1.026],[1374076800000,1.024],[1374163200000,1.013],[1374422400000,1.016],[1374508800000,1.008],[1374595200000,1.011],[1374681600000,1.019],[1374768000000,1.023],[1375027200000,1.021],[1375113600000,1.027],[1375200000000,1.029],[1375286400000,1.04],[1375372800000,1.046],[1375632000000,1.046],[1375718400000,1.039],[1375804800000,1.037],[1375891200000,1.042],[1375977600000,1.037],[1376236800000,1.039],[1376323200000,1.045],[1376409600000,1.041],[1376496000000,1.023],[1376582400000,1.021],[1376841600000,1.02],[1376928000000,1.025],[1377014400000,1.021],[1377100800000,1.031],[1377187200000,1.039],[1377446400000,1.037],[1377532800000,1.017],[1377619200000,1.02],[1377705600000,1.027],[1377792000000,1.021],[1378137600000,1.027],[1378224000000,1.038],[1378310400000,1.039],[1378396800000,1.041],[1378656000000,1.052],[1378742400000,1.057],[1378828800000,1.055],[1378915200000,1.053],[1379001600000,1.054],[1379260800000,1.051],[1379347200000,1.059],[1379433600000,1.072],[1379865600000,1.067],[1379952000000,1.067],[1380038400000,1.063],[1380124800000,1.071],[1380211200000,1.07],[1380470400000,1.066],[1381161600000,1.045],[1381248000000,1.042],[1381334400000,1.064],[1381420800000,1.072],[1381680000000,1.079],[1381766400000,1.075],[1381852800000,1.087],[1381939200000,1.093],[1382025600000,1.109],[1382284800000,1.111],[1382371200000,1.113],[1382457600000,1.106],[1382544000000,1.111],[1382630400000,1.118],[1382889600000,1.118],[1382976000000,1.121],[1383062400000,1.12],[1383148800000,1.118],[1383235200000,1.119],[1383494400000,1.121],[1383580800000,1.122],[1383667200000,1.122],[1383753600000,1.101],[1383840000000,1.114],[1384099200000,1.112],[1384185600000,1.113],[1384272000000,1.126],[1384358400000,1.129],[1384444800000,1.131],[1384704000000,1.12],[1384790400000,1.117],[1384876800000,1.113],[1384963200000,1.128],[1385049600000,1.134],[1385308800000,1.135],[1385395200000,1.142],[1385481600000,1.146],[1385654400000,1.152],[1385913600000,1.149],[1386000000000,1.149],[1386086400000,1.15],[1386172800000,1.148],[1386259200000,1.155],[1386518400000,1.157],[1386604800000,1.156],[1386691200000,1.141],[1386777600000,1.138],[1386864000000,1.137],[1387123200000,1.143],[1387209600000,1.141],[1387296000000,1.154],[1387382400000,1.152],[1387468800000,1.164],[1387728000000,1.175],[1387814400000,1.176],[1387987200000,1.18],[1388073600000,1.174],[1388332800000,1.172],[1388419200000,1.178],[1388592000000,1.17],[1388678400000,1.163],[1388937600000,1.16],[1389024000000,1.17],[1389110400000,1.173],[1389196800000,1.169],[1389283200000,1.171],[1389542400000,1.153],[1389628800000,1.174],[1389715200000,1.184],[1389801600000,1.186],[1389888000000,1.179],[1390233600000,1.188],[1390320000000,1.191],[1390406400000,1.187],[1390492800000,1.163],[1390752000000,1.153],[1390838400000,1.151],[1390924800000,1.139],[1391011200000,1.16],[1391702400000,1.169],[1391961600000,1.176],[1392048000000,1.188],[1392134400000,1.19],[1392220800000,1.2],[1392307200000,1.201],[1392652800000,1.206],[1392739200000,1.199],[1392825600000,1.205],[1392912000000,1.203],[1393171200000,1.21],[1393257600000,1.208],[1393344000000,1.207],[1393430400000,1.215],[1393516800000,1.214],[1393776000000,1.205],[1393862400000,1.221],[1393948800000,1.224],[1394035200000,1.222],[1394121600000,1.216],[1394380800000,1.219],[1394467200000,1.215],[1394553600000,1.22],[1394640000000,1.202],[1394726400000,1.195],[1394985600000,1.205],[1395072000000,1.219],[1395158400000,1.212],[1395244800000,1.217],[1395331200000,1.204],[1395590400000,1.193],[1395676800000,1.196],[1395763200000,1.182],[1395849600000,1.176],[1395936000000,1.178],[1396195200000,1.186],[1396281600000,1.207],[1396368000000,1.209],[1396454400000,1.2],[1396540800000,1.169],[1396886400000,1.168],[1396972800000,1.187],[1397059200000,1.151],[1397145600000,1.138],[1397404800000,1.147],[1397491200000,1.152],[1397577600000,1.167],[1397664000000,1.167],[1398009600000,1.176],[1398096000000,1.185],[1398182400000,1.175],[1398268800000,1.185],[1398355200000,1.166],[1398614400000,1.17],[1398700800000,1.179],[1398787200000,1.182],[1399219200000,1.189],[1399305600000,1.173],[1399392000000,1.17],[1399478400000,1.169],[1399564800000,1.174],[1399824000000,1.194],[1399910400000,1.194],[1399996800000,1.189],[1400083200000,1.179],[1400169600000,1.186],[1400428800000,1.196],[1400515200000,1.191],[1400601600000,1.202],[1400688000000,1.208],[1400774400000,1.217],[1401120000000,1.232],[1401206400000,1.229],[1401292800000,1.236],[1401379200000,1.237],[1401724800000,1.235],[1401811200000,1.238],[1401897600000,1.25],[1401984000000,1.254],[1402243200000,1.252],[1402329600000,1.253],[1402416000000,1.253],[1402502400000,1.243],[1402588800000,1.246],[1402848000000,1.248],[1402934400000,1.248],[1403020800000,1.256],[1403107200000,1.254],[1403193600000,1.255],[1403452800000,1.256],[1403539200000,1.254],[1403625600000,1.263],[1403712000000,1.262],[1403798400000,1.268],[1404057600000,1.269],[1404144000000,1.284],[1404230400000,1.286],[1404316800000,1.295],[1404662400000,1.292],[1404748800000,1.276],[1404835200000,1.285],[1404921600000,1.278],[1405008000000,1.286],[1405267200000,1.294],[1405353600000,1.289],[1405440000000,1.295],[1405526400000,1.279],[1405612800000,1.298],[1405872000000,1.296],[1405958400000,1.305],[1406044800000,1.313],[1406131200000,1.312],[1406217600000,1.307],[1406476800000,1.308],[1406563200000,1.305],[1406649600000,1.311],[1406736000000,1.286],[1406822400000,1.282],[1407081600000,1.29],[1407168000000,1.279],[1407254400000,1.28],[1407340800000,1.275],[1407427200000,1.283],[1407686400000,1.289],[1407772800000,1.287],[1407859200000,1.302],[1407945600000,1.309],[1408032000000,1.315],[1408291200000,1.325],[1408377600000,1.332],[1408464000000,1.333],[1408550400000,1.336],[1408636800000,1.338],[1408896000000,1.344],[1408982400000,1.345],[1409068800000,1.346],[1409155200000,1.343],[1409241600000,1.349],[1409587200000,1.354],[1409673600000,1.346],[1409760000000,1.343],[1409846400000,1.352],[1410192000000,1.339],[1410278400000,1.348],[1410364800000,1.348],[1410451200000,1.34],[1410710400000,1.327],[1410796800000,1.339],[1410883200000,1.341],[1410969600000,1.351],[1411056000000,1.349],[1411315200000,1.337],[1411401600000,1.334],[1411488000000,1.348],[1411574400000,1.32],[1411660800000,1.335],[1411920000000,1.334],[1412006400000,1.335],[1412697600000,1.331],[1412784000000,1.307],[1412870400000,1.275],[1413129600000,1.255],[1413216000000,1.255],[1413302400000,1.248],[1413388800000,1.239],[1413475200000,1.256],[1413734400000,1.273],[1413820800000,1.304],[1413907200000,1.297],[1413993600000,1.317],[1414080000000,1.326],[1414339200000,1.326],[1414425600000,1.344],[1414512000000,1.339],[1414598400000,1.343],[1414684800000,1.361],[1414944000000,1.366],[1415030400000,1.363],[1415116800000,1.361],[1415203200000,1.367],[1415289600000,1.366],[1415548800000,1.366],[1415635200000,1.37],[1415721600000,1.373],[1415808000000,1.379],[1415894400000,1.383],[1416153600000,1.379],[1416240000000,1.389],[1416326400000,1.382],[1416412800000,1.389],[1416499200000,1.391],[1416758400000,1.402],[1416844800000,1.402],[1416931200000,1.411],[1417104000000,1.417],[1417363200000,1.401],[1417449600000,1.406],[1417536000000,1.41],[1417622400000,1.41],[1417708800000,1.409],[1417968000000,1.395],[1418054400000,1.4],[1418140800000,1.376],[1418227200000,1.381],[1418313600000,1.367],[1418572800000,1.352],[1418659200000,1.331],[1418745600000,1.354],[1418832000000,1.39],[1418918400000,1.394],[1419177600000,1.398],[1419264000000,1.394],[1419350400000,1.396],[1419523200000,1.405],[1419782400000,1.405],[1419868800000,1.395],[1419955200000,1.38],[1420387200000,1.357],[1420473600000,1.341],[1420560000000,1.358],[1420646400000,1.384],[1420732800000,1.375],[1420992000000,1.359],[1421078400000,1.356],[1421164800000,1.35],[1421251200000,1.332],[1421337600000,1.349],[1421683200000,1.359],[1421769600000,1.367],[1421856000000,1.392],[1421942400000,1.396],[1422201600000,1.396],[1422288000000,1.36],[1422374400000,1.349],[1422460800000,1.362],[1422547200000,1.353],[1422806400000,1.366],[1422892800000,1.379],[1422979200000,1.377],[1423065600000,1.39],[1423152000000,1.379],[1423411200000,1.376],[1423497600000,1.396],[1423584000000,1.402],[1423670400000,1.419],[1423756800000,1.429],[1424102400000,1.431],[1424793600000,1.45],[1424880000000,1.456],[1424966400000,1.452],[1425225600000,1.467],[1425312000000,1.459],[1425398400000,1.454],[1425484800000,1.457],[1425571200000,1.439],[1425830400000,1.444],[1425916800000,1.417],[1426003200000,1.412],[1426089600000,1.422],[1426176000000,1.414],[1426435200000,1.432],[1426521600000,1.433],[1426608000000,1.448],[1426694400000,1.447],[1426780800000,1.459],[1427040000000,1.453],[1427126400000,1.447],[1427212800000,1.413],[1427299200000,1.407],[1427385600000,1.414],[1427644800000,1.431],[1427731200000,1.416],[1427817600000,1.409],[1427904000000,1.41],[1428336000000,1.416],[1428422400000,1.427],[1428508800000,1.436],[1428595200000,1.442],[1428854400000,1.439],[1428940800000,1.435],[1429027200000,1.443],[1429113600000,1.438],[1429200000000,1.414],[1429459200000,1.436],[1429545600000,1.442],[1429632000000,1.45],[1429718400000,1.457],[1429804800000,1.476],[1430064000000,1.471],[1430150400000,1.467],[1430236800000,1.457],[1430323200000,1.431],[1430668800000,1.455],[1430755200000,1.432],[1430841600000,1.422],[1430928000000,1.429],[1431014400000,1.448],[1431273600000,1.441],[1431360000000,1.436],[1431446400000,1.437],[1431532800000,1.458],[1431619200000,1.458],[1431878400000,1.465],[1431964800000,1.462],[1432051200000,1.463],[1432137600000,1.471],[1432224000000,1.47],[1432569600000,1.453],[1432656000000,1.477],[1432742400000,1.472],[1432828800000,1.463],[1433088000000,1.466],[1433174400000,1.461],[1433260800000,1.464],[1433347200000,1.455],[1433433600000,1.453],[1433692800000,1.441],[1433779200000,1.44],[1433865600000,1.458],[1433952000000,1.458],[1434038400000,1.448],[1434297600000,1.442],[1434384000000,1.448],[1434470400000,1.453],[1434556800000,1.471],[1434643200000,1.465],[1434988800000,1.476],[1435075200000,1.468],[1435161600000,1.465],[1435248000000,1.456],[1435507200000,1.424],[1435593600000,1.428],[1435680000000,1.439],[1435766400000,1.441],[1436112000000,1.436],[1436198400000,1.439],[1436284800000,1.414],[1436371200000,1.414],[1436457600000,1.435],[1436716800000,1.458],[1436803200000,1.468],[1436889600000,1.47],[1436976000000,1.49],[1437062400000,1.511],[1437321600000,1.517],[1437408000000,1.514],[1437494400000,1.497],[1437580800000,1.493],[1437667200000,1.478],[1437926400000,1.466],[1438012800000,1.479],[1438099200000,1.485],[1438185600000,1.492],[1438272000000,1.489],[1438531200000,1.486],[1438617600000,1.483],[1438704000000,1.494],[1438790400000,1.473],[1438876800000,1.47],[1439136000000,1.487],[1439222400000,1.495],[1439308800000,1.521],[1439395200000,1.534],[1439481600000,1.537],[1439740800000,1.548],[1439827200000,1.541],[1439913600000,1.53],[1440000000000,1.487],[1440086400000,1.426],[1440345600000,1.374],[1440432000000,1.37],[1440518400000,1.438],[1440604800000,1.473],[1440691200000,1.473],[1440950400000,1.453],[1441036800000,1.405],[1441123200000,1.44],[1441641600000,1.456],[1441728000000,1.439],[1441814400000,1.456],[1441900800000,1.464],[1442160000000,1.459],[1442246400000,1.475],[1442332800000,1.484],[1442419200000,1.484],[1442505600000,1.462],[1442764800000,1.467],[1442851200000,1.448],[1442937600000,1.449],[1443024000000,1.445],[1443110400000,1.433],[1443369600000,1.391],[1443456000000,1.383],[1443542400000,1.414],[1444233600000,1.468],[1444320000000,1.475],[1444579200000,1.477],[1444665600000,1.463],[1444752000000,1.465],[1444838400000,1.488],[1444924800000,1.496],[1445184000000,1.505],[1445270400000,1.5],[1445356800000,1.488],[1445443200000,1.517],[1445529600000,1.558],[1445788800000,1.559],[1445875200000,1.561],[1445961600000,1.574],[1446048000000,1.573],[1446134400000,1.564],[1446393600000,1.573],[1446480000000,1.581],[1446566400000,1.582],[1446652800000,1.579],[1446739200000,1.582],[1446998400000,1.567],[1447084800000,1.564],[1447171200000,1.563],[1447257600000,1.548],[1447344000000,1.521],[1447603200000,1.544],[1447689600000,1.544],[1447776000000,1.574],[1447862400000,1.574],[1447948800000,1.584],[1448208000000,1.582],[1448294400000,1.581],[1448380800000,1.582],[1448553600000,1.586],[1448812800000,1.582],[1448899200000,1.6],[1448985600000,1.589],[1449072000000,1.563],[1449158400000,1.596],[1449417600000,1.592],[1449504000000,1.595],[1449590400000,1.572],[1449676800000,1.581],[1449763200000,1.549],[1450022400000,1.563],[1450108800000,1.574],[1450195200000,1.598],[1450281600000,1.579],[1450368000000,1.552],[1450627200000,1.566],[1450713600000,1.576],[1450800000000,1.588],[1450886400000,1.587],[1451232000000,1.586],[1451318400000,1.613],[1451404800000,1.6],[1451491200000,1.581],[1451836800000,1.551],[1451923200000,1.549],[1452009600000,1.539],[1452096000000,1.499],[1452182400000,1.487],[1452441600000,1.491],[1452528000000,1.508],[1452614400000,1.457],[1452700800000,1.486],[1452787200000,1.444],[1453132800000,1.443],[1453219200000,1.439],[1453305600000,1.441],[1453392000000,1.482],[1453651200000,1.459],[1453737600000,1.473],[1453824000000,1.434],[1453910400000,1.454],[1453996800000,1.487],[1454256000000,1.49],[1454342400000,1.456],[1454428800000,1.45],[1454515200000,1.447],[1454601600000,1.394],[1455552000000,1.419],[1455638400000,1.455],[1455724800000,1.436],[1455811200000,1.441],[1456070400000,1.464],[1456156800000,1.442],[1456243200000,1.456],[1456329600000,1.471],[1456416000000,1.469],[1456675200000,1.46],[1456761600000,1.505],[1456848000000,1.508],[1456934400000,1.503],[1457020800000,1.501],[1457280000000,1.488],[1457366400000,1.473],[1457452800000,1.485],[1457539200000,1.483],[1457625600000,1.504],[1457884800000,1.506],[1457971200000,1.509],[1458057600000,1.524],[1458144000000,1.518],[1458230400000,1.514],[1458489600000,1.524],[1458576000000,1.531],[1458662400000,1.518],[1458748800000,1.524],[1459094400000,1.523],[1459180800000,1.543],[1459267200000,1.546],[1459353600000,1.538],[1459440000000,1.554],[1459785600000,1.535],[1459872000000,1.562],[1459958400000,1.537],[1460044800000,1.538],[1460304000000,1.53],[1460390400000,1.542],[1460476800000,1.562],[1460563200000,1.569],[1460649600000,1.565],[1460908800000,1.57],[1460995200000,1.559],[1461081600000,1.557],[1461168000000,1.562],[1461254400000,1.541],[1461513600000,1.546],[1461600000000,1.533],[1461686400000,1.52],[1461772800000,1.505],[1461859200000,1.489],[1462204800000,1.488],[1462291200000,1.487],[1462377600000,1.491],[1462464000000,1.499],[1462723200000,1.501],[1462809600000,1.525],[1462896000000,1.509],[1462982400000,1.497],[1463068800000,1.498],[1463328000000,1.519],[1463414400000,1.497],[1463500800000,1.503],[1463587200000,1.502],[1463673600000,1.518],[1463932800000,1.514],[1464019200000,1.545],[1464105600000,1.562],[1464192000000,1.562],[1464278400000,1.57],[1464624000000,1.58],[1464710400000,1.581],[1464796800000,1.58],[1464883200000,1.575],[1465142400000,1.572],[1465228800000,1.572],[1465315200000,1.574],[1465747200000,1.545],[1465833600000,1.545],[1465920000000,1.545],[1466006400000,1.544],[1466092800000,1.528],[1466352000000,1.535],[1466438400000,1.538],[1466524800000,1.541],[1466611200000,1.557],[1466697600000,1.496],[1466956800000,1.479],[1467043200000,1.514],[1467129600000,1.535],[1467216000000,1.554],[1467302400000,1.565],[1467648000000,1.557],[1467734400000,1.575],[1467820800000,1.58],[1467907200000,1.605],[1468166400000,1.614],[1468252800000,1.624],[1468339200000,1.619],[1468425600000,1.629],[1468512000000,1.625],[1468771200000,1.639],[1468857600000,1.634],[1468944000000,1.652],[1469030400000,1.647],[1469116800000,1.648],[1469376000000,1.653],[1469462400000,1.653],[1469548800000,1.661],[1469635200000,1.666],[1469721600000,1.667],[1469980800000,1.67],[1470067200000,1.661],[1470153600000,1.66],[1470240000000,1.67],[1470326400000,1.686],[1470585600000,1.689],[1470672000000,1.691],[1470758400000,1.686],[1470844800000,1.686],[1470931200000,1.694],[1471190400000,1.698],[1471276800000,1.685],[1471363200000,1.682],[1471449600000,1.689],[1471536000000,1.686],[1471795200000,1.698],[1471881600000,1.699],[1471968000000,1.683],[1472054400000,1.685],[1472140800000,1.685],[1472400000000,1.697],[1472486400000,1.691],[1472572800000,1.691],[1472659200000,1.692],[1472745600000,1.696],[1473091200000,1.706],[1473177600000,1.704],[1473264000000,1.695],[1473350400000,1.654],[1473609600000,1.688],[1473696000000,1.669],[1473782400000,1.681],[1474214400000,1.696],[1474300800000,1.694],[1474387200000,1.715],[1474473600000,1.722],[1474560000000,1.715],[1474819200000,1.702],[1474905600000,1.717],[1474992000000,1.72],[1475078400000,1.708],[1475164800000,1.723],[1476028800000,1.735],[1476115200000,1.712],[1476201600000,1.715],[1476288000000,1.71],[1476374400000,1.708],[1476633600000,1.709],[1476720000000,1.722],[1476806400000,1.721],[1476892800000,1.72],[1476979200000,1.733],[1477238400000,1.757],[1477324800000,1.751],[1477411200000,1.739],[1477497600000,1.731],[1477584000000,1.723],[1477843200000,1.716],[1477929600000,1.707],[1478016000000,1.688],[1478102400000,1.671],[1478188800000,1.665],[1478448000000,1.71],[1478534400000,1.723],[1478620800000,1.731],[1478707200000,1.705],[1478793600000,1.711],[1479052800000,1.697],[1479139200000,1.726],[1479225600000,1.738],[1479312000000,1.753],[1479398400000,1.749],[1479657600000,1.772],[1479744000000,1.772],[1479830400000,1.768],[1480003200000,1.78],[1480262400000,1.773],[1480348800000,1.775],[1480435200000,1.752],[1480521600000,1.726],[1480608000000,1.724],[1480867200000,1.739],[1480953600000,1.736],[1481040000000,1.764],[1481126400000,1.765],[1481212800000,1.784],[1481472000000,1.78],[1481558400000,1.799],[1481644800000,1.796],[1481731200000,1.806],[1481817600000,1.805],[1482076800000,1.807],[1482163200000,1.817],[1482249600000,1.816],[1482336000000,1.809],[1482422400000,1.812],[1482768000000,1.82],[1482854400000,1.807],[1482940800000,1.804],[1483027200000,1.782],[1483113600000,1.782],[1483372800000,1.802],[1483459200000,1.812],[1483545600000,1.816],[1483632000000,1.815],[1483891200000,1.836],[1483977600000,1.839],[1484064000000,1.844],[1484150400000,1.839],[1484236800000,1.839],[1484582400000,1.836],[1484668800000,1.827],[1484755200000,1.827],[1484841600000,1.834],[1485100800000,1.832],[1485187200000,1.838],[1485273600000,1.862],[1485360000000,1.864],[1486051200000,1.865],[1486310400000,1.868],[1486396800000,1.875],[1486483200000,1.885],[1486569600000,1.887],[1486656000000,1.895],[1486915200000,1.908],[1487001600000,1.912],[1487088000000,1.918],[1487174400000,1.917],[1487260800000,1.921],[1487606400000,1.938],[1487692800000,1.94],[1487779200000,1.93],[1487865600000,1.932],[1488124800000,1.938],[1488211200000,1.93],[1488297600000,1.952],[1488384000000,1.943],[1488470400000,1.949],[1488729600000,1.941],[1488816000000,1.942],[1488902400000,1.947],[1488988800000,1.951],[1489075200000,1.959],[1489334400000,1.958],[1489420800000,1.957],[1489507200000,1.969],[1489593600000,1.961],[1489680000000,1.96],[1489939200000,1.965],[1490025600000,1.938],[1490112000000,1.945],[1490198400000,1.94],[1490284800000,1.943],[1490544000000,1.942],[1490630400000,1.956],[1490716800000,1.968],[1490803200000,1.971],[1490889600000,1.972],[1491321600000,1.964],[1491408000000,1.965],[1491494400000,1.965],[1491753600000,1.968],[1491840000000,1.958],[1491926400000,1.949],[1492012800000,1.933],[1492358400000,1.953],[1492444800000,1.952],[1492531200000,1.949],[1492617600000,1.968],[1492704000000,1.969],[1492963200000,1.988],[1493049600000,2.007],[1493136000000,2.005],[1493222400000,2.017],[1493308800000,2.022],[1493654400000,2.045],[1493740800000,2.036],[1493827200000,2.039],[1493913600000,2.044],[1494172800000,2.05],[1494259200000,2.06],[1494345600000,2.062],[1494432000000,2.06],[1494518400000,2.061],[1494777600000,2.065],[1494864000000,2.071],[1494950400000,2.015],[1495036800000,2.03],[1495123200000,2.045],[1495382400000,2.058],[1495468800000,2.059],[1495555200000,2.072],[1495641600000,2.087],[1495728000000,2.091],[1496160000000,2.088],[1496246400000,2.082],[1496332800000,2.105],[1496592000000,2.099],[1496678400000,2.091],[1496764800000,2.096],[1496851200000,2.101],[1496937600000,2.052],[1497196800000,2.04],[1497283200000,2.055],[1497369600000,2.046],[1497456000000,2.034],[1497542400000,2.03],[1497801600000,2.062],[1497888000000,2.049],[1497974400000,2.072],[1498060800000,2.071],[1498147200000,2.081],[1498406400000,2.072],[1498492800000,2.036],[1498579200000,2.059],[1498665600000,2.02],[1498752000000,2.013],[1499011200000,1.996],[1499184000000,2.019],[1499270400000,2.001],[1499356800000,2.021],[1499616000000,2.036],[1499702400000,2.042],[1499788800000,2.064],[1499875200000,2.067],[1499961600000,2.082],[1500220800000,2.076],[1500307200000,2.091],[1500393600000,2.099],[1500480000000,2.101],[1500566400000,2.099],[1500825600000,2.106],[1500912000000,2.105],[1500998400000,2.113],[1501084800000,2.094],[1501171200000,2.093],[1501430400000,2.081],[1501516800000,2.082],[1501603200000,2.09],[1501689600000,2.083],[1501776000000,2.083],[1502035200000,2.098],[1502121600000,2.094],[1502208000000,2.088],[1502294400000,2.034],[1502380800000,2.045],[1502640000000,2.07],[1502726400000,2.074],[1502812800000,2.08],[1502899200000,2.036],[1502985600000,2.035],[1503244800000,2.032],[1503331200000,2.059],[1503417600000,2.052],[1503504000000,2.043],[1503590400000,2.041],[1503849600000,2.039],[1503936000000,2.046],[1504022400000,2.065],[1504108800000,2.082],[1504195200000,2.078],[1504540800000,2.042],[1504627200000,2.047],[1504713600000,2.05],[1504800000000,2.026],[1505059200000,2.047],[1505145600000,2.061],[1505232000000,2.068],[1505318400000,2.058],[1505404800000,2.063],[1505664000000,2.06],[1505750400000,2.067],[1505836800000,2.066],[1505923200000,2.059],[1506009600000,2.058],[1506268800000,2.039],[1506355200000,2.047],[1506441600000,2.07],[1506528000000,2.071],[1506614400000,2.09],[1507478400000,2.121],[1507564800000,2.116],[1507651200000,2.109],[1507737600000,2.104],[1507824000000,2.113],[1508083200000,2.12],[1508169600000,2.124],[1508256000000,2.125],[1508342400000,2.12],[1508428800000,2.126],[1508688000000,2.115],[1508774400000,2.121],[1508860800000,2.114],[1508947200000,2.106],[1509033600000,2.171],[1509292800000,2.177],[1509379200000,2.181],[1509465600000,2.178],[1509552000000,2.169],[1509638400000,2.186],[1509897600000,2.198],[1509984000000,2.199],[1510070400000,2.209],[1510156800000,2.2],[1510243200000,2.198],[1510502400000,2.203],[1510588800000,2.196],[1510675200000,2.181],[1510761600000,2.211],[1510848000000,2.202],[1511107200000,2.2],[1511193600000,2.227],[1511280000000,2.227],[1511452800000,2.219],[1511712000000,2.22],[1511798400000,2.228],[1511884800000,2.193],[1511971200000,2.212],[1512057600000,2.203],[1512316800000,2.179],[1512403200000,2.18],[1512489600000,2.191],[1512576000000,2.2],[1512662400000,2.211],[1512921600000,2.226],[1513008000000,2.223],[1513094400000,2.229],[1513180800000,2.221],[1513267200000,2.25],[1513526400000,2.269],[1513612800000,2.255],[1513699200000,2.251],[1513785600000,2.243],[1513872000000,2.241],[1514217600000,2.216],[1514304000000,2.217],[1514390400000,2.218],[1514476800000,2.201],[1514649600000,2.201],[1514822400000,2.23],[1514908800000,2.246],[1514995200000,2.253],[1515081600000,2.272],[1515340800000,2.276],[1515427200000,2.281],[1515513600000,2.284],[1515600000000,2.298],[1515686400000,2.307],[1516032000000,2.28],[1516118400000,2.304],[1516204800000,2.307],[1516291200000,2.307],[1516550400000,2.329],[1516636800000,2.345],[1516723200000,2.327],[1516809600000,2.318],[1516896000000,2.344],[1517155200000,2.326],[1517241600000,2.308],[1517328000000,2.316],[1517414400000,2.29],[1517500800000,2.237],[1517760000000,2.154],[1517846400000,2.213],[1517932800000,2.179],[1518019200000,2.085],[1518105600000,2.133],[1518364800000,2.163],[1518451200000,2.181],[1518537600000,2.229],[1519228800000,2.262],[1519315200000,2.307],[1519574400000,2.334],[1519660800000,2.295],[1519747200000,2.285],[1519833600000,2.251],[1519920000000,2.271],[1520179200000,2.299],[1520265600000,2.308],[1520352000000,2.31],[1520438400000,2.321],[1520524800000,2.375],[1520784000000,2.38],[1520870400000,2.347],[1520956800000,2.344],[1521043200000,2.339],[1521129600000,2.342],[1521388800000,2.288],[1521475200000,2.292],[1521561600000,2.286],[1521648000000,2.22],[1521734400000,2.166],[1521993600000,2.244],[1522080000000,2.157],[1522166400000,2.135],[1522252800000,2.183],[1522598400000,2.111],[1522684800000,2.135],[1522771200000,2.172],[1523203200000,2.15],[1523289600000,2.196],[1523376000000,2.179],[1523462400000,2.2],[1523548800000,2.192],[1523808000000,2.207],[1523894400000,2.249],[1523980800000,2.257],[1524067200000,2.239],[1524153600000,2.205],[1524412800000,2.204],[1524499200000,2.163],[1524585600000,2.16],[1524672000000,2.213],[1524758400000,2.218],[1525190400000,2.222],[1525276800000,2.224],[1525363200000,2.26],[1525622400000,2.279],[1525708800000,2.279],[1525795200000,2.307],[1525881600000,2.332],[1525968000000,2.322],[1526227200000,2.32],[1526313600000,2.299],[1526400000000,2.323],[1526486400000,2.312],[1526572800000,2.304],[1526832000000,2.319],[1526918400000,2.313],[1527004800000,2.331],[1527091200000,2.33],[1527177600000,2.335],[1527523200000,2.329],[1527609600000,2.352],[1527696000000,2.347],[1527782400000,2.382],[1528041600000,2.407],[1528128000000,2.413],[1528214400000,2.424],[1528300800000,2.4],[1528387200000,2.404],[1528646400000,2.412],[1528732800000,2.428],[1528819200000,2.427],[1528905600000,2.447],[1528992000000,2.452],[1529337600000,2.439],[1529424000000,2.47],[1529510400000,2.453],[1529596800000,2.451],[1529856000000,2.401],[1529942400000,2.421],[1530028800000,2.4],[1530115200000,2.434],[1530201600000,2.445],[1530288000000,2.445],[1530460800000,2.464],[1530547200000,2.448],[1530720000000,2.467],[1530806400000,2.511],[1531065600000,2.536],[1531152000000,2.533],[1531238400000,2.518],[1531324800000,2.578],[1531411200000,2.581],[1531670400000,2.573],[1531756800000,2.594],[1531843200000,2.591],[1531929600000,2.584],[1532016000000,2.605],[1532275200000,2.613],[1532361600000,2.634],[1532448000000,2.674],[1532534400000,2.627],[1532620800000,2.598],[1532880000000,2.57],[1532966400000,2.586],[1533052800000,2.604],[1533139200000,2.625],[1533225600000,2.649],[1533484800000,2.672],[1533571200000,2.678],[1533657600000,2.674],[1533744000000,2.673],[1533830400000,2.658],[1534089600000,2.663],[1534176000000,2.681],[1534262400000,2.654],[1534348800000,2.664],[1534435200000,2.663],[1534694400000,2.655],[1534780800000,2.651],[1534867200000,2.658],[1534953600000,2.658],[1535040000000,2.697],[1535299200000,2.716],[1535385600000,2.702],[1535472000000,2.735],[1535558400000,2.73],[1535644800000,2.74],[1535990400000,2.726],[1536076800000,2.693],[1536163200000,2.666],[1536249600000,2.658],[1536508800000,2.671],[1536595200000,2.696],[1536681600000,2.691],[1536768000000,2.715],[1536854400000,2.705],[1537113600000,2.671],[1537200000000,2.694],[1537286400000,2.693],[1537372800000,2.721],[1537459200000,2.699],[1537804800000,2.715],[1537891200000,2.719],[1537977600000,2.746],[1538064000000,2.751],[1538928000000,2.66],[1539014400000,2.668],[1539100800000,2.55],[1539187200000,2.524],[1539273600000,2.592],[1539532800000,2.561],[1539619200000,2.637],[1539705600000,2.636],[1539792000000,2.583],[1539878400000,2.583],[1540137600000,2.59],[1540224000000,2.584],[1540310400000,2.467],[1540396800000,2.547],[1540483200000,2.493],[1540742400000,2.436],[1540828800000,2.478],[1540915200000,2.538],[1541001600000,2.578],[1541088000000,2.53],[1541347200000,2.504],[1541433600000,2.527],[1541520000000,2.603],[1541606400000,2.591],[1541692800000,2.554],[1541952000000,2.484],[1542038400000,2.49],[1542124800000,2.46],[1542211200000,2.504],[1542297600000,2.493],[1542556800000,2.406],[1542643200000,2.368],[1542729600000,2.391],[1542902400000,2.368],[1543161600000,2.428],[1543248000000,2.436],[1543334400000,2.515],[1543420800000,2.502],[1543507200000,2.522],[1543766400000,2.568],[1543852800000,2.453],[1544025600000,2.456],[1544112000000,2.378],[1544371200000,2.404],[1544457600000,2.422],[1544544000000,2.446],[1544630400000,2.437],[1544716800000,2.375],[1544976000000,2.329],[1545062400000,2.342],[1545148800000,2.29],[1545235200000,2.258],[1545321600000,2.184],[1545580800000,2.137],[1545753600000,2.261],[1545840000000,2.272],[1545926400000,2.261],[1546185600000,2.277],[1546358400000,2.284],[1546444800000,2.21],[1546531200000,2.305],[1546790400000,2.325],[1546876800000,2.343],[1546963200000,2.364],[1547049600000,2.358],[1547136000000,2.342],[1547395200000,2.309],[1547481600000,2.353],[1547568000000,2.355],[1547654400000,2.372],[1547740800000,2.398],[1548000000000,2.401],[1548086400000,2.356],[1548172800000,2.363],[1548259200000,2.373],[1548345600000,2.408],[1548604800000,2.36],[1548691200000,2.333],[1548777600000,2.395],[1548864000000,2.418],[1548950400000,2.409],[1549814400000,2.436],[1549900800000,2.483],[1549987200000,2.48],[1550073600000,2.486],[1550160000000,2.493],[1550419200000,2.494],[1550505600000,2.497],[1550592000000,2.494],[1550678400000,2.472],[1550764800000,2.488],[1551024000000,2.496],[1551110400000,2.492],[1551196800000,2.486],[1551283200000,2.481],[1551369600000,2.502],[1551628800000,2.504],[1551715200000,2.504],[1551801600000,2.491],[1551888000000,2.463],[1551974400000,2.464],[1552233600000,2.515],[1552320000000,2.525],[1552406400000,2.544],[1552492800000,2.535],[1552579200000,2.564],[1552838400000,2.567],[1552924800000,2.574],[1553011200000,2.586],[1553097600000,2.615],[1553184000000,2.561],[1553443200000,2.563],[1553529600000,2.573],[1553616000000,2.562],[1553702400000,2.571],[1553788800000,2.594],[1554048000000,2.623],[1554134400000,2.629],[1554220800000,2.647],[1554307200000,2.64],[1554652800000,2.666],[1554739200000,2.653],[1554825600000,2.666],[1554912000000,2.659],[1554998400000,2.678],[1555257600000,2.673],[1555344000000,2.682],[1555430400000,2.691],[1555516800000,2.687],[1555603200000,2.692],[1555862400000,2.699],[1555948800000,2.735],[1556035200000,2.732],[1556121600000,2.745],[1556208000000,2.749],[1556467200000,2.752],[1556553600000,2.733],[1557072000000,2.74],[1557158400000,2.698],[1557244800000,2.69],[1557331200000,2.68],[1557417600000,2.692],[1557676800000,2.597],[1557763200000,2.639],[1557849600000,2.686],[1557936000000,2.714],[1558022400000,2.692],[1558281600000,2.651],[1558368000000,2.677],[1558454400000,2.666],[1558540800000,2.626],[1558627200000,2.624],[1558886400000,2.621],[1558972800000,2.615],[1559059200000,2.593],[1559145600000,2.604],[1559232000000,2.562],[1559491200000,2.504],[1559577600000,2.567],[1559664000000,2.589],[1559750400000,2.611],[1560096000000,2.691],[1560182400000,2.695],[1560268800000,2.68],[1560355200000,2.695],[1560441600000,2.683],[1560700800000,2.7],[1560787200000,2.739],[1560873600000,2.749],[1560960000000,2.771],[1561046400000,2.754],[1561305600000,2.753],[1561392000000,2.709],[1561478400000,2.726],[1561564800000,2.74],[1561651200000,2.743],[1561824000000,2.743],[1561910400000,2.776],[1561996800000,2.78],[1562083200000,2.806],[1562169600000,2.809],[1562256000000,2.802],[1562515200000,2.789],[1562601600000,2.803],[1562688000000,2.83],[1562774400000,2.821],[1562860800000,2.836],[1563120000000,2.845],[1563206400000,2.832],[1563292800000,2.823],[1563379200000,2.826],[1563465600000,2.796],[1563724800000,2.826],[1563811200000,2.846],[1563897600000,2.867],[1563984000000,2.834],[1564070400000,2.866],[1564329600000,2.857],[1564416000000,2.846],[1564502400000,2.808],[1564588800000,2.794],[1564675200000,2.758],[1564934400000,2.666],[1565020800000,2.722],[1565107200000,2.745],[1565193600000,2.81],[1565280000000,2.786],[1565539200000,2.758],[1565625600000,2.823],[1565712000000,2.736],[1565798400000,2.733],[1565884800000,2.778],[15661440</t>
   </si>
   <si>
+    <t>[[1386172800000, 0.0], [1389628800000, 0.68], [1391011200000, -1.79], [1393430400000, 2.49], [1395244800000, 3.95], [1396454400000, 4.97], [1397664000000, 3.74], [1399392000000, 4.4], [1400428800000, 4.96], [1401379200000, 7.22], [1402502400000, 7.33], [1403539200000, 8.41], [1404662400000, 9.87], [1405526400000, 8.66], [1406563200000, 9.35], [1407427200000, 7.18], [1408464000000, 10.34], [1409587200000, 11.43], [1410710400000, 10.07], [1411574400000, 9.15], [1413216000000, 4.13], [1414080000000, 9.0], [1415116800000, 12.36], [1416153600000, 13.24], [1417104000000, 14.63], [1418140800000, 12.1], [1419177600000, 15.11], [1420473600000, 11.05], [1421337600000, 11.83], [1422460800000, 12.26], [1423497600000, 14.85], [1424966400000, 17.27], [1426003200000, 13.98], [1427040000000, 17.27], [1427904000000, 15.16], [1429113600000, 17.21], [1430150400000, 17.64], [1431273600000, 17.06], [1432137600000, 18.58], [1433260800000, 17.92], [1434297600000, 16.39], [1435248000000, 17.32], [1436371200000, 14.57], [1437408000000, 18.95], [1438272000000, 18.03], [1439308800000, 21.07], [1440345600000, 10.81], [1441641600000, 14.99], [1442505600000, 14.31], [1443542400000, 12.11], [1445184000000, 18.58], [1446048000000, 21.95], [1447084800000, 21.59], [1447948800000, 22.41], [1449072000000, 20.52], [1450108800000, 21.22], [1451232000000, 22.37], [1452182400000, 15.96], [1453305600000, 12.7], [1454342400000, 14.6], [1456070400000, 16.66], [1456934400000, 20.03], [1457971200000, 20.82], [1459094400000, 22.35], [1460044800000, 22.11], [1461081600000, 25.08], [1462204800000, 22.71], [1463068800000, 23.08], [1464105600000, 26.59], [1465228800000, 27.78], [1466438400000, 26.47], [1467302400000, 28.94], [1468425600000, 33.35], [1469462400000, 33.52], [1470326400000, 33.66], [1471363200000, 33.02], [1472400000000, 34.49], [1473350400000, 30.91], [1474560000000, 33.14], [1476201600000, 32.76], [1477238400000, 34.31], [1478102400000, 30.06], [1479139200000, 37.85], [1480262400000, 40.33], [1481126400000, 42.59], [1482163200000, 45.68], [1483113600000, 43.43], [1484150400000, 44.85], [1485187200000, 43.91], [1486656000000, 47.17], [1487779200000, 49.98], [1488816000000, 50.88], [1489680000000, 51.35], [1490716800000, 50.36], [1491926400000, 49.41], [1493049600000, 51.92], [1494172800000, 52.85], [1495036800000, 50.13], [1496246400000, 53.07], [1497283200000, 53.43], [1498147200000, 53.93], [1499270400000, 51.57], [1500307200000, 53.97], [1501171200000, 54.13], [1502208000000, 53.62], [1503244800000, 50.05], [1504108800000, 51.18], [1505232000000, 51.39], [1506268800000, 52.62], [1507737600000, 55.64], [1508774400000, 57.81], [1509638400000, 58.46], [1510675200000, 57.56], [1511798400000, 60.66], [1512662400000, 62.88], [1513699200000, 64.16], [1514822400000, 62.77], [1515686400000, 67.9], [1516809600000, 67.93], [1517846400000, 57.81], [1519315200000, 61.97], [1520352000000, 60.31], [1521388800000, 59.6], [1522252800000, 54.66], [1523548800000, 55.23], [1524585600000, 54.62], [1525795200000, 59.65], [1526832000000, 62.17], [1527782400000, 62.88], [1528819200000, 65.49], [1529942400000, 64.89], [1530806400000, 69.99], [1531843200000, 74.88], [1532880000000, 77.15], [1533744000000, 80.86], [1534780800000, 81.64], [1535644800000, 83.82], [1536768000000, 84.69], [1537891200000, 85.02], [1539532800000, 76.63], [1540396800000, 74.38], [1541433600000, 76.79], [1542297600000, 76.48], [1543420800000, 76.56], [1544544000000, 70.31], [1545580800000, 51.16], [1546790400000, 62.76], [1547654400000, 66.1], [1548777600000, 68.33], [1550505600000, 75.44], [1551369600000, 75.25], [1552406400000, 76.1], [1553443200000, 75.32], [1554307200000, 80.29], [1555430400000, 81.81], [1556553600000, 85.1], [1557849600000, 82.85], [1558972800000, 80.58], [1560096000000, 85.96], [1560960000000, 90.0], [1561910400000, 90.37], [1562860800000, 93.5], [1563897600000, 94.39], [1564934400000, 84.08], [1565798400000, 87.05], [1566835200000, 89.85], [1567958400000, 97.18], [1568908800000, 97.78], [1570550400000, 93.06], [1571587200000, 98.68], [1572451200000, 100.27], [1573488000000, 102.37], [1574352000000, 104.6], [1575475200000, 105.7], [1576512000000, 109.03], [1577635200000, 110.4], [1578585600000, 111.98], [1579708800000, 114.39], [1581436800000, 120.61], [1582560000000, 105.79], [1583424000000, 93.15], [1584460800000, 58.22], [1585497600000, 73.58], [1586707200000, 82.25], [1587571200000, 86.1], [1588867200000, 94.75], [1589904000000, 98.06], [1591027200000, 105.97], [1591891200000, 102.58], [1592928000000, 102.29], [1594224000000, 107.63], [1595260800000, 113.83], [1596124800000, 114.73], [1597161600000, 121.04], [1598198400000, 123.18], [1599062400000, 121.96], [1600185600000, 115.95], [1601222400000, 115.07], [1602777600000, 120.57], [1603814400000, 106.69], [1604851200000, 120.9], [1605715200000, 120.88], [1606838400000, 126.7], [1607875200000, 124.54], [1608739200000, 128.09], [1609948800000, 131.71], [1611072000000, 135.45], [1612108800000, 129.91], [1613577600000, 138.27], [1614614400000, 135.96], [1615478400000, 141.31], [1616515200000, 139.39], [1617724800000, 151.68], [1618761600000, 156.23], [1619625600000, 157.14], [1620921600000, 154.18], [1621958400000, 153.91], [1623081600000, 155.11], [1624204800000, 157.47], [1625068800000, 163.92], [1626192000000, 167.67], [1627228800000, 170.36], [1628092800000, 170.45], [1628179200000, 170.66]]</t>
+  </si>
+  <si>
     <t>513500</t>
   </si>
   <si>
@@ -44,13 +53,19 @@
     <t xml:space="preserve"> [[1386172800000,1.0],[1386259200000,1.0002],[1386864000000,1.0005],[1387468800000,1.0029],[1388073600000,1.005],[1388419200000,1.006],[1388678400000,1.0049],[1389110400000,1.0064],[1389628800000,1.0068],[1389801600000,1.0073],[1389888000000,1.0063],[1390320000000,1.0093],[1390406400000,1.0025],[1390838400000,0.9845],[1390924800000,0.9752],[1391011200000,0.9821],[1391702400000,0.9882],[1391961600000,0.9911],[1392048000000,1.0026],[1392134400000,1.0033],[1392652800000,1.0151],[1392825600000,1.0157],[1393171200000,1.0205],[1393430400000,1.0249],[1393516800000,1.0277],[1393862400000,1.036],[1393948800000,1.0365],[1394035200000,1.0383],[1394121600000,1.0381],[1394380800000,1.0394],[1395158400000,1.031],[1395244800000,1.0395],[1395590400000,1.0311],[1395676800000,1.0354],[1395763200000,1.0282],[1395849600000,1.0269],[1395936000000,1.0321],[1396195200000,1.0406],[1396368000000,1.0503],[1396454400000,1.0497],[1396886400000,1.0295],[1396972800000,1.0401],[1397059200000,1.0189],[1397145600000,1.0092],[1397404800000,1.0178],[1397491200000,1.0254],[1397577600000,1.036],[1397664000000,1.0374],[1397750400000,1.0374],[1398009600000,1.0409],[1398268800000,1.0447],[1398355200000,1.0361],[1398700800000,1.0439],[1398787200000,1.0474],[1399219200000,1.0473],[1399392000000,1.044],[1399478400000,1.043],[1399564800000,1.045],[1399824000000,1.0558],[1399910400000,1.0566],[1399996800000,1.0521],[1400083200000,1.0421],[1400169600000,1.0455],[1400428800000,1.0496],[1400515200000,1.0425],[1400601600000,1.0515],[1400688000000,1.0543],[1400774400000,1.0591],[1401120000000,1.0654],[1401206400000,1.0645],[1401292800000,1.0704],[1401379200000,1.0722],[1401724800000,1.0728],[1401811200000,1.0747],[1401897600000,1.082],[1401984000000,1.0857],[1402243200000,1.0842],[1402329600000,1.0834],[1402416000000,1.0806],[1402502400000,1.0733],[1402588800000,1.0764],[1402848000000,1.0778],[1402934400000,1.0793],[1403020800000,1.0881],[1403107200000,1.0891],[1403193600000,1.0908],[1403452800000,1.0911],[1403539200000,1.0841],[1403625600000,1.0893],[1403712000000,1.0875],[1403798400000,1.0896],[1404057600000,1.0877],[1404144000000,1.0947],[1404230400000,1.0949],[1404316800000,1.1017],[1404662400000,1.0987],[1404748800000,1.0908],[1404835200000,1.0948],[1404921600000,1.0881],[1405008000000,1.0903],[1405267200000,1.0956],[1405353600000,1.0935],[1405440000000,1.0989],[1405526400000,1.0866],[1405612800000,1.0976],[1405872000000,1.0946],[1405958400000,1.1],[1406044800000,1.1025],[1406131200000,1.103],[1406217600000,1.098],[1406476800000,1.0987],[1406563200000,1.0935],[1406649600000,1.0943],[1406736000000,1.0729],[1406822400000,1.0698],[1407081600000,1.0771],[1407168000000,1.0666],[1407254400000,1.0673],[1407340800000,1.0615],[1407427200000,1.0718],[1407686400000,1.0743],[1407772800000,1.0726],[1407859200000,1.0803],[1407945600000,1.0852],[1408032000000,1.0851],[1408291200000,1.0941],[1408377600000,1.1001],[1408464000000,1.1034],[1408550400000,1.1076],[1408636800000,1.1053],[1408896000000,1.1111],[1408982400000,1.1125],[1409068800000,1.1125],[1409155200000,1.1105],[1409241600000,1.1144],[1409587200000,1.1143],[1409673600000,1.1139],[1409760000000,1.1117],[1409846400000,1.1179],[1410192000000,1.1041],[1410278400000,1.1065],[1410364800000,1.1082],[1410451200000,1.1018],[1410710400000,1.1007],[1410796800000,1.1091],[1410883200000,1.1103],[1410969600000,1.1165],[1411056000000,1.1154],[1411315200000,1.1068],[1411401600000,1.1002],[1411488000000,1.1087],[1411574400000,1.0915],[1411660800000,1.1011],[1411920000000,1.0988],[1412006400000,1.0956],[1412697600000,1.0933],[1412784000000,1.0702],[1412870400000,1.058],[1413129600000,1.0401],[1413216000000,1.0413],[1413302400000,1.0331],[1413388800000,1.0324],[1413475200000,1.046],[1413734400000,1.056],[1413820800000,1.0762],[1413907200000,1.0689],[1413993600000,1.0823],[1414080000000,1.09],[1414339200000,1.088],[1414425600000,1.1005],[1414512000000,1.0986],[1414598400000,1.1066],[1414684800000,1.1196],[1414944000000,1.1205],[1415030400000,1.1176],[1415116800000,1.1236],[1415203200000,1.1293],[1415289600000,1.1304],[1415548800000,1.1299],[1415635200000,1.1313],[1415721600000,1.1311],[1415808000000,1.1314],[1415894400000,1.1314],[1416153600000,1.1324],[1416240000000,1.1387],[1416326400000,1.1365],[1416412800000,1.1391],[1416499200000,1.1445],[1416758400000,1.1483],[1416844800000,1.1466],[1416931200000,1.1493],[1417104000000,1.1463],[1417363200000,1.1388],[1417449600000,1.1454],[1417536000000,1.1508],[1417622400000,1.1501],[1417708800000,1.1514],[1417968000000,1.1415],[1418054400000,1.1405],[1418140800000,1.121],[1418227200000,1.1254],[1418313600000,1.1077],[1418572800000,1.1006],[1418659200000,1.0917],[1418745600000,1.1132],[1418832000000,1.1412],[1418918400000,1.1466],[1419177600000,1.1511],[1419264000000,1.1535],[1419350400000,1.1536],[1419523200000,1.1562],[1419782400000,1.1584],[1419868800000,1.1532],[1419955200000,1.1406],[1420387200000,1.1205],[1420473600000,1.1105],[1420560000000,1.1239],[1420646400000,1.1446],[1420732800000,1.1346],[1420992000000,1.1241],[1421078400000,1.1206],[1421164800000,1.1144],[1421251200000,1.1037],[1421337600000,1.1183],[1421683200000,1.121],[1421769600000,1.1272],[1421856000000,1.1439],[1421942400000,1.1393],[1422201600000,1.143],[1422288000000,1.1277],[1422374400000,1.1107],[1422460800000,1.1226],[1422547200000,1.1084],[1422806400000,1.1231],[1422892800000,1.1389],[1422979200000,1.1334],[1423065600000,1.1462],[1423152000000,1.1409],[1423411200000,1.1367],[1423497600000,1.1485],[1423584000000,1.1492],[1423670400000,1.1608],[1423756800000,1.1648],[1424016000000,1.1648],[1424102400000,1.1674],[1424793600000,1.1761],[1424880000000,1.1745],[1424966400000,1.1727],[1425225600000,1.1805],[1425312000000,1.1757],[1425398400000,1.1703],[1425484800000,1.1718],[1425571200000,1.1555],[1425830400000,1.1606],[1425916800000,1.1414],[1426003200000,1.1398],[1426089600000,1.1548],[1426176000000,1.1472],[1426435200000,1.1631],[1426521600000,1.1587],[1426608000000,1.1722],[1426694400000,1.1646],[1426780800000,1.1757],[1427040000000,1.1727],[1427126400000,1.1647],[1427212800000,1.1481],[1427299200000,1.1447],[1427385600000,1.148],[1427644800000,1.1621],[1427731200000,1.1524],[1427817600000,1.1483],[1427904000000,1.1516],[1428336000000,1.1549],[1428422400000,1.1594],[1428508800000,1.1644],[1428595200000,1.171],[1428854400000,1.1665],[1428940800000,1.1687],[1429027200000,1.1733],[1429113600000,1.1721],[1429200000000,1.1581],[1429459200000,1.1683],[1429545600000,1.168],[1429632000000,1.174],[1429718400000,1.1768],[1429804800000,1.1786],[1430064000000,1.1732],[1430150400000,1.1764],[1430236800000,1.1711],[1430323200000,1.1588],[1430668800000,1.1757],[1430755200000,1.1622],[1430841600000,1.1569],[1430928000000,1.1607],[1431014400000,1.1768],[1431273600000,1.1706],[1431360000000,1.1677],[1431446400000,1.167],[1431532800000,1.1791],[1431619200000,1.1799],[1431878400000,1.1833],[1431964800000,1.1832],[1432051200000,1.1827],[1432137600000,1.1858],[1432224000000,1.183],[1432569600000,1.1726],[1432656000000,1.1839],[1432742400000,1.1827],[1432828800000,1.1751],[1433088000000,1.1778],[1433174400000,1.1769],[1433260800000,1.1792],[1433347200000,1.1692],[1433433600000,1.1677],[1433692800000,1.1613],[1433779200000,1.1613],[1433865600000,1.1752],[1433952000000,1.1773],[1434038400000,1.1693],[1434297600000,1.1639],[1434384000000,1.1703],[1434470400000,1.1725],[1434556800000,1.1836],[1434643200000,1.1768],[1434988800000,1.185],[1435075200000,1.1771],[1435161600000,1.1737],[1435248000000,1.1732],[1435507200000,1.1492],[1435593600000,1.1517],[1435680000000,1.1601],[1435766400000,1.16],[1436112000000,1.1558],[1436198400000,1.1625],[1436284800000,1.1437],[1436371200000,1.1457],[1436457600000,1.1599],[1436716800000,1.1762],[1436803200000,1.1819],[1436889600000,1.182],[1436976000000,1.1916],[1437062400000,1.1932],[1437321600000,1.1945],[1437408000000,1.1895],[1437494400000,1.1861],[1437580800000,1.1795],[1437667200000,1.1668],[1437926400000,1.1599],[1438012800000,1.1738],[1438099200000,1.1825],[1438185600000,1.1829],[1438272000000,1.1803],[1438531200000,1.1768],[1438617600000,1.1742],[1438704000000,1.1785],[1438790400000,1.1696],[1438876800000,1.1661],[1439136000000,1.1807],[1439222400000,1.1906],[1439308800000,1.2107],[1439395200000,1.2224],[1439481600000,1.2265],[1439740800000,1.2328],[1439827200000,1.2297],[1439913600000,1.2194],[1440000000000,1.1925],[1440086400000,1.1543],[1440345600000,1.1081],[1440432000000,1.0963],[1440518400000,1.1399],[1440604800000,1.1682],[1440691200000,1.1672],[1440950400000,1.1558],[1441036800000,1.1196],[1441123200000,1.1377],[1441641600000,1.1499],[1441728000000,1.134],[1441814400000,1.1423],[1441900800000,1.1468],[1442160000000,1.1419],[1442246400000,1.1557],[1442332800000,1.1665],[1442419200000,1.1627],[1442505600000,1.1431],[1442764800000,1.1494],[1442851200000,1.136],[1442937600000,1.1345],[1443024000000,1.131],[1443110400000,1.1304],[1443369600000,1.1008],[1443456000000,1.101],[1443542400000,1.1211],[1444233600000,1.1737],[1444320000000,1.1744],[1444579200000,1.1742],[1444665600000,1.163],[1444752000000,1.1607],[1444838400000,1.178],[1444924800000,1.1839],[1445184000000,1.1858],[1445270400000,1.1856],[1445356800000,1.1762],[1445443200000,1.1964],[1445529600000,1.2112],[1445788800000,1.2079],[1445875200000,1.2038],[1445961600000,1.2189],[1446048000000,1.2195],[1446134400000,1.2117],[1446393600000,1.2194],[1446480000000,1.2257],[1446566400000,1.2223],[1446652800000,1.2218],[1446739200000,1.223],[1446998400000,1.2133],[1447084800000,1.2159],[1447171200000,1.2121],[1447257600000,1.1955],[1447344000000,1.1826],[1447603200000,1.202],[1447689600000,1.2006],[1447776000000,1.2209],[1447862400000,1.2195],[1447948800000,1.2241],[1448208000000,1.2241],[1448294400000,1.226],[1448380800000,1.2257],[1448553600000,1.2273],[1448812800000,1.2224],[1448899200000,1.2357],[1448985600000,1.2223],[1449072000000,1.2052],[1449158400000,1.2273],[1449417600000,1.2213],[1449504000000,1.215],[1449590400000,1.2067],[1449676800000,1.2113],[1449763200000,1.1902],[1450022400000,1.1982],[1450108800000,1.2122],[1450195200000,1.231],[1450281600000,1.2149],[1450368000000,1.1944],[1450627200000,1.2028],[1450713600000,1.2135],[1450800000000,1.2281],[1450886400000,1.2266],[1451232000000,1.2237],[1451318400000,1.239],[1451404800000,1.2307],[1451491200000,1.2199],[1451836800000,1.2033],[1451923200000,1.2081],[1452009600000,1.1952],[1452096000000,1.1725],[1452182400000,1.1596],[1452441600000,1.1603],[1452528000000,1.1692],[1452614400000,1.1406],[1452700800000,1.1594],[1452787200000,1.1349],[1453132800000,1.1345],[1453219200000,1.1212],[1453305600000,1.127],[1453392000000,1.1495],[1453651200000,1.1312],[1453737600000,1.1469],[1453824000000,1.1343],[1453910400000,1.1404],[1453996800000,1.1683],[1454256000000,1.1681],[1454342400000,1.146],[1454428800000,1.152],[1454515200000,1.152],[1454601600000,1.1293],[1455552000000,1.1361],[1455638400000,1.1568],[1455724800000,1.15],[1455811200000,1.1506],[1456070400000,1.1666],[1456156800000,1.1541],[1456243200000,1.1599],[1456329600000,1.1735],[1456416000000,1.1716],[1456675200000,1.1642],[1456761600000,1.1908],[1456848000000,1.1975],[1456934400000,1.2003],[1457020800000,1.202],[1457280000000,1.1999],[1457366400000,1.1854],[1457452800000,1.1926],[1457539200000,1.1932],[1457625600000,1.2088],[1457884800000,1.2074],[1457971200000,1.2082],[1458057600000,1.2167],[1458144000000,1.2208],[1458230400000,1.2199],[1458489600000,1.2248],[1458576000000,1.2266],[1458662400000,1.2181],[1458748800000,1.2215],[1459094400000,1.2235],[1459180800000,1.2312],[1459267200000,1.2326],[1459353600000,1.2257],[1459440000000,1.233],[1459785600000,1.2182],[1459872000000,1.233],[1459958400000,1.2173],[1460044800000,1.2211],[1460304000000,1.2161],[1460390400000,1.2272],[1460476800000,1.2392],[1460563200000,1.2452],[1460649600000,1.2443],[1460908800000,1.2499],[1460995200000,1.2521],[1461081600000,1.2508],[1461168000000,1.2485],[1461254400000,1.2504],[1461513600000,1.2523],[1461600000000,1.2501],[1461686400000,1.2513],[1461772800000,1.2421],[1461859200000,1.2288],[1462204800000,1.2271],[1462291200000,1.2271],[1462377600000,1.2304],[1462464000000,1.2358],[1462723200000,1.2348],[1462809600000,1.2525],[1462896000000,1.2407],[1462982400000,1.2358],[1463068800000,1.2308],[1463328000000,1.2446],[1463414400000,1.2306],[1463500800000,1.2312],[1463587200000,1.2326],[1463673600000,1.2397],[1463932800000,1.236],[1464019200000,1.253],[1464105600000,1.2659],[1464192000000,1.2632],[1464278400000,1.2675],[1464624000000,1.2718],[1464710400000,1.2754],[1464796800000,1.2751999999999999],[1464883200000,1.2735],[1465142400000,1.2739],[1465228800000,1.2778],[1465315200000,1.2817],[1465747200000,1.2617],[1465833600000,1.2592],[1465920000000,1.2609],[1466006400000,1.26],[1466092800000,1.2568],[1466352000000,1.2624],[1466438400000,1.2647],[1466524800000,1.2678],[1466611200000,1.2795],[1466697600000,1.2355],[1466956800000,1.2239],[1467043200000,1.2489],[1467129600000,1.2665],[1467216000000,1.2832],[1467302400000,1.2894],[1467648000000,1.2824],[1467734400000,1.2945],[1467820800000,1.2928],[1467907200000,1.3129],[1468166400000,1.3171],[1468252800000,1.3284],[1468339200000,1.3275],[1468425600000,1.3335],[1468512000000,1.3314],[1468771200000,1.3376],[1468857600000,1.3359],[1468944000000,1.3412],[1469030400000,1.3348],[1469116800000,1.3368],[1469376000000,1.3364],[1469462400000,1.3352],[1469548800000,1.3315],[1469635200000,1.3322],[1469721600000,1.3327],[1469980800000,1.3261],[1470067200000,1.3212],[1470153600000,1.3205],[1470240000000,1.326],[1470326400000,1.3366],[1470585600000,1.3395],[1470672000000,1.3396],[1470758400000,1.3349],[1470844800000,1.3358],[1470931200000,1.3405],[1471190400000,1.342],[1471276800000,1.3324],[1471363200000,1.3302],[1471449600000,1.3374],[1471536000000,1.3343],[1471795200000,1.3422],[1471881600000,1.3435],[1471968000000,1.3333],[1472054400000,1.3351],[1472140800000,1.3307],[1472400000000,1.3449],[1472486400000,1.3415],[1472572800000,1.3404],[1472659200000,1.3378],[1472745600000,1.3423],[1473091200000,1.3444],[1473177600000,1.3421],[1473264000000,1.3406],[1473350400000,1.3091],[1473609600000,1.3328],[1473696000000,1.3099],[1473782400000,1.3122],[1474214400000,1.3186],[1474300800000,1.3151],[1474387200000,1.3321],[1474473600000,1.336],[1474560000000,1.3314],[1474819200000,1.3214],[1474905600000,1.328],[1474992000000,1.3359],[1475078400000,1.324],[1475164800000,1.3359],[1476028800000,1.3379],[1476115200000,1.3231],[1476201600000,1.3276],[1476288000000,1.3242],[1476374400000,1.3218],[1476633600000,1.322],[1476720000000,1.3285],[1476806400000,1.3317],[1476892800000,1.3297],[1476979200000,1.3343],[1477238400000,1.3431],[1477324800000,1.339],[1477411200000,1.3359],[1477497600000,1.3324],[1477584000000,1.3308],[1477843200000,1.3262],[1477929600000,1.3189],[1478016000000,1.3073],[1478102400000,1.3006],[1478188800000,1.2989],[1478448000000,1.3317],[1478534400000,1.339],[1478620800000,1.3542],[1478707200000,1.3581],[1478793600000,1.3606],[1479052800000,1.3639],[1479139200000,1.3785],[1479225600000,1.3785],[1479312000000,1.387],[1479398400000,1.386],[1479657600000,1.3998],[1479744000000,1.3989],[1479830400000,1.4025],[1480003200000,1.4132],[1480262400000,1.4033],[1480348800000,1.4023],[1480435200000,1.3983],[1480521600000,1.3953],[1480608000000,1.3925],[1480867200000,1.4021],[1480953600000,1.4008],[1481040000000,1.4241],[1481126400000,1.4259],[1481212800000,1.4393],[1481472000000,1.4398],[1481558400000,1.4463],[1481644800000,1.4366],[1481731200000,1.4475],[1481817600000,1.4494],[1482076800000,1.4481],[1482163200000,1.4568],[1482249600000,1.4537],[1482336000000,1.45],[1482422400000,1.4524],[1482768000000,1.4553],[1482854400000,1.4441],[1482940800000,1.4436],[1483027200000,1.4344],[1483113600000,1.4343],[1483372800000,1.448],[1483459200000,1.4568],[1483545600000,1.4513],[1483632000000,1.4432],[1483891200000,1.45],[1483977600000,1.4493],[1484064000000,1.4535],[1484150400000,1.4485],[1484236800000,1.4469],[1484496000000,1.4461],[1484582400000,1.4439],[1484668800000,1.4377],[1484755200000,1.4336],[1484841600000,1.4406],[1485100800000,1.4345],[1485187200000,1.4391],[1485273600000,1.4556],[1485360000000,1.4545],[1486051200000,1.4543],[1486310400000,1.4518],[1486396800000,1.4519],[1486483200000,1.4584],[1486569600000,1.4641],[1486656000000,1.4717],[1486915200000,1.4813],[1487001600000,1.4856],[1487088000000,1.4895],[1487174400000,1.4881],[1487260800000,1.4868],[1487606400000,1.5025],[1487692800000,1.502],[1487779200000,1.4998],[1487865600000,1.5014],[1488124800000,1.5065],[1488211200000,1.5012],[1488297600000,1.5229],[1488384000000,1.5144],[1488470400000,1.5169],[1488729600000,1.5096],[1488816000000,1.5088],[1488902400000,1.5074],[1488988800000,1.5106],[1489075200000,1.5152],[1489334400000,1.5132],[1489420800000,1.5108],[1489507200000,1.5232],[1489593600000,1.5153],[1489680000000,1.5135],[1489939200000,1.513],[1490025600000,1.4961],[1490112000000,1.4948],[1490198400000,1.4925],[1490284800000,1.4912],[1490544000000,1.4864],[1490630400000,1.4987],[1490716800000,1.5036],[1490803200000,1.5074],[1490889600000,1.5062],[1491321600000,1.4982],[1491408000000,1.5019],[1491494400000,1.5011],[1491753600000,1.504],[1491840000000,1.5002],[1491926400000,1.4941],[1492012800000,1.4778],[1492358400000,1.4931],[1492444800000,1.4902],[1492531200000,1.4838],[1492617600000,1.4977],[1492704000000,1.4939],[1492963200000,1.5066],[1493049600000,1.5192],[1493136000000,1.5187],[1493222400000,1.5208],[1493308800000,1.5186],[1493654400000,1.5233],[1493740800000,1.5202],[1493827200000,1.5226],[1493913600000,1.5272],[1494172800000,1.5285],[1494259200000,1.529],[1494345600000,1.5318],[1494432000000,1.5286],[1494518400000,1.524],[1494777600000,1.5291],[1494864000000,1.5269],[1494950400000,1.4964],[1495036800000,1.5013],[1495123200000,1.5152],[1495382400000,1.5204],[1495468800000,1.5229],[1495555200000,1.5288],[1495641600000,1.5343],[1495728000000,1.535],[1496160000000,1.5311],[1496246400000,1.5307],[1496332800000,1.5358],[1496592000000,1.5308],[1496678400000,1.5266],[1496764800000,1.5274],[1496851200000,1.5295],[1496937600000,1.5291],[1497196800000,1.5271],[1497283200000,1.5343],[1497369600000,1.5324],[1497456000000,1.5273],[1497542400000,1.5308],[1497801600000,1.5429],[1497888000000,1.5355],[1497974400000,1.5368],[1498060800000,1.5361],[1498147200000,1.5393],[1498406400000,1.5393],[1498492800000,1.5286],[1498579200000,1.5369],[1498665600000,1.5212],[1498752000000,1.5191],[1499011200000,1.5232],[1499184000000,1.5288],[1499270400000,1.5157],[1499356800000,1.5245],[1499616000000,1.5269],[1499702400000,1.5262],[1499788800000,1.5348],[1499875200000,1.5362],[1499961600000,1.5426],[1500220800000,1.5377],[1500307200000,1.5397],[1500393600000,1.5444],[1500480000000,1.5445],[1500566400000,1.5428],[1500825600000,1.541],[1500912000000,1.5471],[1500998400000,1.5484],[1501084800000,1.542],[1501171200000,1.5413],[1501430400000,1.538],[1501516800000,1.5387],[1501603200000,1.541],[1501689600000,1.5381],[1501776000000,1.5391],[1502035200000,1.5437],[1502121600000,1.5391],[1502208000000,1.5362],[1502294400000,1.5075],[1502380800000,1.5066],[1502640000000,1.5207],[1502726400000,1.5222],[1502812800000,1.5267],[1502899200000,1.5017],[1502985600000,1.4997],[1503244800000,1.5005],[1503331200000,1.5129],[1503417600000,1.5085],[1503504000000,1.503],[1503590400000,1.5068],[1503849600000,1.5024],[1503936000000,1.5025],[1504022400000,1.5053],[1504108800000,1.5118],[1504195200000,1.5126],[1504540800000,1.489],[1504627200000,1.4923],[1504713600000,1.4913],[1504800000000,1.4838],[1505059200000,1.4988],[1505145600000,1.5103],[1505232000000,1.5139],[1505318400000,1.5145],[1505404800000,1.5165],[1505664000000,1.5185],[1505750400000,1.5227],[1505836800000,1.5269],[1505923200000,1.5268],[1506009600000,1.5276],[1506268800000,1.5262],[1506355200000,1.5293],[1506441600000,1.5381],[1506528000000,1.5423],[1506614400000,1.5499],[1507478400000,1.5687],[1507564800000,1.5672],[1507651200000,1.5596],[1507737600000,1.5564],[1507824000000,1.5591],[1508083200000,1.5611],[1508169600000,1.5631],[1508256000000,1.5668],[1508342400000,1.5697],[1508428800000,1.5778],[1508688000000,1.574],[1508774400000,1.5781],[1508860800000,1.572],[1508947200000,1.5731],[1509033600000,1.5899],[1509292800000,1.585],[1509379200000,1.5844],[1509465600000,1.5846],[1509552000000,1.5825],[1509638400000,1.5846],[1509897600000,1.5906],[1509984000000,1.5895],[1510070400000,1.5931],[1510156800000,1.5886],[1510243200000,1.5866],[1510502400000,1.5895],[1510588800000,1.5872],[1510675200000,1.5756],[1510761600000,1.5895],[1510848000000,1.585],[1511107200000,1.5869],[1511193600000,1.5992],[1511280000000,1.5965],[1511452800000,1.5883],[1511712000000,1.5892],[1511798400000,1.6066],[1511884800000,1.608],[1511971200000,1.6222],[1512057600000,1.6197],[1512316800000,1.6189],[1512403200000,1.6128],[1512489600000,1.6138],[1512576000000,1.6195],[1512662400000,1.6288],[1512921600000,1.632],[1513008000000,1.6347],[1513094400000,1.6361],[1513180800000,1.6242],[1513267200000,1.6407],[1513526400000,1.6505],[1513612800000,1.6436],[1513699200000,1.6416],[1513785600000,1.6384],[1513872000000,1.6383],[1514217600000,1.627],[1514304000000,1.6283],[1514390400000,1.631],[1514476800000,1.6211],[1514649600000,1.621],[1514822400000,1.6277],[1514908800000,1.6343],[1514995200000,1.6441],[1515081600000,1.6524],[1515340800000,1.653],[1515427200000,1.6589],[1515513600000,1.6629],[1515600000000,1.6731],[1515686400000,1.679],[1516032000000,1.659],[1516118400000,1.6734],[1516204800000,1.6724],[1516291200000,1.6739],[1516550400000,1.6856],[1516636800000,1.6866],[1516723200000,1.6833],[1516809600000,1.6793],[1516896000000,1.6916],[1517155200000,1.6758],[1517241600000,1.6588],[1517328000000,1.6604],[1517414400000,1.6516],[1517500800000,1.6124],[1517760000000,1.549],[1517846400000,1.5781],[1517932800000,1.5653],[1518019200000,1.5058],[1518105600000,1.5372],[1518364800000,1.5533],[1518451200000,1.5637],[1518537600000,1.5894],[1519228800000,1.5957],[1519315200000,1.6197],[1519574400000,1.6361],[1519660800000,1.6095],[1519747200000,1.5954],[1519833600000,1.5757],[1519920000000,1.5833],[1520179200000,1.603],[1520265600000,1.6061],[1520352000000,1.6031],[1520438400000,1.6093],[1520524800000,1.6424],[1520784000000,1.6372],[1520870400000,1.624],[1520956800000,1.6146],[1521043200000,1.6119],[1521129600000,1.6195],[1521388800000,1.596],[1521475200000,1.5964],[1521561600000,1.5973],[1521648000000,1.5514],[1521734400000,1.5214],[1521993600000,1.5602],[1522080000000,1.5245],[1522166400000,1.5195],[1522252800000,1.5466],[1522598400000,1.5052],[1522684800000,1.5259],[1522771200000,1.5459],[1523203200000,1.5323],[1523289600000,1.5566],[1523376000000,1.5443],[1523462400000,1.5552],[1523548800000,1.5523],[1523808000000,1.5645],[1523894400000,1.5782],[1523980800000,1.5807],[1524067200000,1.572],[1524153600000,1.5602],[1524412800000,1.5634],[1524499200000,1.5473],[1524585600000,1.5462],[1524672000000,1.5676],[1524758400000,1.572],[1525190400000,1.5581],[1525276800000,1.5564],[1525363200000,1.5712],[1525622400000,1.578],[1525708800000,1.5797],[1525795200000,1.5965],[1525881600000,1.6125],[1525968000000,1.6097],[1526227200000,1.6066],[1526313600000,1.5991],[1526400000000,1.6124],[1526486400000,1.6097],[1526572800000,1.6077],[1526832000000,1.6217],[1526918400000,1.6153],[1527004800000,1.6198],[1527091200000,1.6176],[1527177600000,1.6151],[1527523200000,1.6003],[1527609600000,1.6254],[1527696000000,1.6129],[1527782400000,1.6288],[1528041600000,1.6393],[1528128000000,1.6393],[1528214400000,1.6503],[1528300800000,1.6463],[1528387200000,1.6535],[1528646400000,1.6567],[1528732800000,1.6608],[1528819200000,1.6549],[1528905600000,1.6544],[1528992000000,1.6612],[1529337600000,1.6492],[1529424000000,1.6608],[1529510400000,1.6534],[1529596800000,1.6589],[1529856000000,1.6382],[1529942400000,1.6489],[1530028800000,1.6441],[1530115200000,1.6639],[1530201600000,1.6702],[1530288000000,1.6701],[1530460800000,1.6749],[1530547200000,1.6749],[1530720000000,1.6818],[1530806400000,1.6999],[1531065600000,1.7165],[1531152000000,1.7189],[1531238400000,1.706],[1531324800000,1.7335],[1531411200000,1.7353],[1531670400000,1.7341],[1531756800000,1.7427],[1531843200000,1.7488],[1531929600000,1.7458],[1532016000000,1.7596],[1532275200000,1.7608],[1532361600000,1.7768],[1532448000000,1.7967],[1532534400000,1.7817],[1532620800000,1.7769],[1532880000000,1.7715],[1532966400000,1.781],[1533052800000,1.7822],[1533139200000,1.782],[1533225600000,1.8004],[1533484800000,1.8118],[1533571200000,1.8147],[1533657600000,1.8109],[1533744000000,1.8086],[1533830400000,1.7983],[1534089600000,1.7971],[1534176000000,1.8103],[1534262400000,1.8008],[1534348800000,1.8177],[1534435200000,1.8223],[1534694400000,1.8221],[1534780800000,1.8164],[1534867200000,1.8133],[1534953600000,1.8128],[1535040000000,1.8331],[1535299200000,1.8418],[1535385600000,1.8302],[1535472000000,1.8412],[1535558400000,1.8343],[1535644800000,1.8382],[1535990400000,1.8334],[1536076800000,1.8305],[1536163200000,1.823],[1536249600000,1.819],[1536508800000,1.8269],[1536595200000,1.8363],[1536681600000,1.8384],[1536768000000,1.8469],[1536854400000,1.8443],[1537113600000,1.8378],[1537200000000,1.8487],[1537286400000,1.8514],[1537372800000,1.8649],[1537459200000,1.8596],[1537804800000,1.8529],[1537891200000,1.8502],[1537977600000,1.8574],[1538064000000,1.8613],[1538928000000,1.8468],[1539014400000,1.8461],[1539100800000,1.7868],[1539187200000,1.7511],[1539273600000,1.7762],[1539532800000,1.7663],[1539619200000,1.8039],[1539705600000,1.803],[1539792000000,1.7814],[1539878400000,1.7836],[1540137600000,1.7719],[1540224000000,1.7649],[1540310400000,1.7112],[1540396800000,1.7438],[1540483200000,1.7166],[1540742400000,1.7019],[1540828800000,1.7335],[1540915200000,1.754],[1541001600000,1.7731],[1541088000000,1.7546],[1541347200000,1.7543],[1541433600000,1.7679],[1541520000000,1.805],[1541606400000,1.8038],[1541692800000,1.7915],[1541952000000,1.7599],[1542038400000,1.7612],[1542124800000,1.7424],[1542211200000,1.7612],[1542297600000,1.7648],[1542556800000,1.7321],[1542643200000,1.7014],[1542729600000,1.7108],[1542902400000,1.696],[1543161600000,1.7262],[1543248000000,1.7322],[1543334400000,1.7728],[1543420800000,1.7656],[1543507200000,1.78],[1543766400000,1.8009],[1543852800000,1.7306],[1544025600000,1.7198],[1544112000000,1.6818],[1544371200000,1.6854],[1544457600000,1.6924],[1544544000000,1.7031],[1544630400000,1.6956],[1544716800000,1.6638],[1544976000000,1.6337],[1545062400000,1.6322],[1545148800000,1.6077],[1545235200000,1.5845],[1545321600000,1.5499],[1545580800000,1.5116],[1545753600000,1.5814],[1545840000000,1.5963],[1545926400000,1.5885],[1546185600000,1.6019],[1546358400000,1.6004],[1546444800000,1.5645],[1546531200000,1.6179],[1546790400000,1.6276],[1546876800000,1.6407],[1546963200000,1.6507],[1547049600000,1.6495],[1547136000000,1.6434],[1547395200000,1.6266],[1547481600000,1.6436],[1547568000000,1.649],[1547654400000,1.661],[1547740800000,1.6847],[1548086400000,1.6653],[1548172800000,1.6718],[1548259200000,1.67],[1548345600000,1.6874],[1548604800000,1.6629],[1548691200000,1.6578],[1548777600000,1.6833],[1548864000000,1.6902],[1548950400000,1.6932],[1549814400000,1.7058],[1549900800000,1.7346],[1549987200000,1.7376],[1550073600000,1.7353],[1550160000000,1.7514],[1550505600000,1.7544],[1550592000000,1.7555],[1550678400000,1.7407],[1550764800000,1.7501],[1551024000000,1.7518],[1551110400000,1.7457],[1551196800000,1.7425],[1551283200000,1.739],[1551369600000,1.7525],[1551628800000,1.7477],[1551715200000,1.7446],[1551801600000,1.7345],[1551888000000,1.7222],[1551974400000,1.7215],[1552233600000,1.7457],[1552320000000,1.749],[1552406400000,1.761],[1552492800000,1.7571],[1552579200000,1.7702],[1552838400000,1.7746],[1552924800000,1.7737],[1553011200000,1.7694],[1553097600000,1.782],[1553184000000,1.7507],[1553443200000,1.7532],[1553529600000,1.7643],[1553616000000,1.7587],[1553702400000,1.7684],[1553788800000,1.7821],[1554048000000,1.7987],[1554134400000,1.7978],[1554220800000,1.8026],[1554307200000,1.8029],[1554652800000,1.817],[1554739200000,1.805],[1554825600000,1.8105],[1554912000000,1.8099],[1554998400000,1.8256],[1555257600000,1.8215],[1555344000000,1.8219],[1555430400000,1.8181],[1555516800000,1.8158],[1555862400000,1.8207],[1555948800000,1.8381],[1556035200000,1.8373],[1556121600000,1.8392],[1556208000000,1.8479],[1556467200000,1.8498],[1556553600000,1.851],[1557072000000,1.8445],[1557158400000,1.8213],[1557244800000,1.818],[1557331200000,1.8147],[1557417600000,1.8285],[1557676800000,1.785],[1557763200000,1.8103],[1557849600000,1.8285],[1557936000000,1.846],[1558022400000,1.8396],[1558281600000,1.8305],[1558368000000,1.8459],[1558454400000,1.8407],[1558540800000,1.819],[1558627200000,1.8218],[1558972800000,1.8058],[1559059200000,1.7935],[1559145600000,1.7976],[1559232000000,1.7742],[1559491200000,1.7667],[1559577600000,1.8026],[1559664000000,1.8195],[1559750400000,1.8323],[1560096000000,1.8596],[1560182400000,1.8589],[1560268800000,1.8552],[1560355200000,1.8633],[1560441600000,1.8606],[1560700800000,1.8622],[1560787200000,1.8804],[1560873600000,1.8846],[1560960000000,1.9],[1561046400000,1.8884],[1561305600000,1.886],[1561392000000,1.87],[1561478400000,1.871],[1561564800000,1.8805],[1561651200000,1.8902],[1561824000000,1.8901],[1561910400000,1.9037],[1561996800000,1.9036],[1562083200000,1.9223],[1562256000000,1.9203],[1562515200000,1.9161],[1562601600000,1.9183],[1562688000000,1.9271],[1562774400000,1.9265],[1562860800000,1.935],[1563120000000,1.9356],[1563206400000,1.93],[1563292800000,1.9205],[1563379200000,1.9257],[1563465600000,1.9104],[1563724800000,1.9191],[1563811200000,1.9337],[1563897600000,1.9439],[1563984000000,1.9304],[1564070400000,1.946],[1564329600000,1.9435],[1564416000000,1.9396],[1564502400000,1.918],[1564588800000,1.9034],[1564675200000,1.8914],[1564934400000,1.8408],[1565020800000,1.8769],[1565107200000,1.8862],[1565193600000,1.9233],[1565280000000,1.913],[1565539200000,1.8922],[1565625600000,1.9232],[1565712000000,1.8668],[1565798400000,1.8705],[1565884800000,1.8989],[1566144000000,1.9229],[1566230400000,1.9101],[1566316800000,1.9255],[1566403200000,1.9259],[1566489600000,1.8784],[1566748800000,1.8989],[1566835200000,1.8985],[1566921600000,1.9118],[1567008000000,1.9367],[1567094400000,1.938],[1567440000000,1.9247],[1567526400000,1.9455],[1567612800000,1.9701],[1567699200000,1.9722],[1567958400000,1.9718],[1568044800000,1.9722],[1568131200000,1.9864],[1568217600000,1.9925],[1568563200000,1.9799],[1568649600000,1.987],[1568736000000,1.9875],[1568822400000,1.9877],[1568908800000,1.9778],[1569168000000,1.9779],[1569254400000,1.961],[1569340800000,1.9728],[1569427200000,1.9682],[1569513600000,1.958],[1569772800000,1.9677],[1570464000000,1.9126],[1570550400000,1.9306],[1570636800000,1.9432],[1570723200000,1.9643],[1570982400000,1.9613],[1571068800000,1.9803],[1571155200000,1.9774],[1571241600000,1.9841],[1571328000000,1.9736],[1571587200000,1.9868],[1571673600000,1.9793],[1571760000000,1.9874],[1571846400000,1.9903],[1571932800000,1.999],[1572192000000,2.0103],[1572278400000,2.0045],[1572364800000,2.0103],[1572451200000,2.0027],[1572537600000,2.0192],[1572796800000,2.025],[1572883200000,2.0226],[1572969600000,2.0156],[1573056000000,2.0198],[1573142400000,2.0233],[1573401600000,2.0189],[1573488000000,2.0237],[1573574400000,2.0263],[1573660800000,2.03],[1573747200000,2.0461],[1574006400000,2.0456],[1574092800000,2.0442],[1574179200000,2.0394],[1574265600000,2.0391],[1574352000000,2.046],[1574611200000,2.0639],[1574697600000,2.067],[1574784000000,2.0757],[1574956800000,2.0662],[1575216000000,2.0472],[1575302400000,2.0324],[1575388800000,2.0495],[1575475200000,2.057],[1575561600000,2.0717],[1575820800000,2.0657],[1575907200000,2.0635],[1575993600000,2.069],[1576080000000,2.0829],[1576166400000,2.0807],[1576425600000,2.0883],[1576512000000,2.0903],[1576598400000,2.0897],[1576684800000,2.1005],[1576771200000,2.1105],[1577030400000,2.115],[1577116800000,2.1147],[1577289600000,2.1161],[1577376000000,2.1182],[1577635200000,2.104],[1577721600000,2.1088],[1577894400000,2.1222],[1577980800000,2.1094],[1578240000000,2.1176],[1578326400000,2.1111],[1578412800000,2.1146],[1578499200000,2.1303],[1578585600000,2.1198],[1578844800000,2.1318],[1578931200000,2.1195],[1579017600000,2.12],[1579104000000,2.1363],[1579190400000,2.1468],[1579536000000,2.1323],[1579622400000,2.1406],[1579708800000,2.1439],[1580659200000,2.106],[1580745600000,2.1537],[1580832000000,2.1792],[1580918400000,2.1918],[1581004800000,2.1734],[1581264000000,2.1927],[1581350400000,2.1974],[1581436800000,2.2061],[1581523200000,2.2052],[1581609600000,2.2113],[1581955200000,2.204],[1582041600000,2.2205],[1582128000000,2.2123],[1582214400000,2.1949],[1582473600000,2.1224],[158</t>
   </si>
   <si>
+    <t>[[1481558400000, 0.0], [1482336000000, -0.02], [1482940800000, 0.06], [1483545600000, -0.1], [1484150400000, -0.18], [1484841600000, -0.72], [1486051200000, 0.39], [1486656000000, 1.74], [1487260800000, 2.78], [1488124800000, 3.97], [1488729600000, 4.31], [1489334400000, 5.38], [1489939200000, 6.11], [1490544000000, 4.79], [1491321600000, 5.58], [1491926400000, 4.55], [1492617600000, 5.68], [1493222400000, 8.1], [1493913600000, 9.8], [1494518400000, 11.14], [1495123200000, 10.18], [1495728000000, 12.48], [1496678400000, 12.27], [1497283200000, 9.95], [1497888000000, 9.81], [1498492800000, 9.15], [1499184000000, 7.98], [1499788800000, 10.84], [1500393600000, 12.58], [1500998400000, 12.93], [1501603200000, 11.9], [1502208000000, 12.1], [1502812800000, 12.37], [1503417600000, 11.14], [1504022400000, 11.59], [1504713600000, 10.59], [1505318400000, 11.15], [1505923200000, 11.39], [1506528000000, 12.38], [1507737600000, 14.62], [1508342400000, 15.99], [1508947200000, 16.99], [1509552000000, 21.19], [1510156800000, 22.5], [1510761600000, 22.7], [1511452800000, 23.05], [1512057600000, 21.13], [1512662400000, 21.44], [1513267200000, 23.24], [1513872000000, 22.43], [1514649600000, 20.96], [1515340800000, 25.19], [1516032000000, 24.38], [1516636800000, 27.69], [1517241600000, 24.64], [1517846400000, 19.98], [1518451200000, 18.89], [1519660800000, 25.86], [1520265600000, 25.97], [1520870400000, 28.17], [1521475200000, 25.57], [1522080000000, 18.15], [1522771200000, 19.51], [1523548800000, 21.13], [1524153600000, 20.86], [1524758400000, 21.07], [1525708800000, 26.61], [1526313600000, 27.93], [1526918400000, 28.58], [1527609600000, 30.34], [1528214400000, 34.69], [1528819200000, 33.96], [1529510400000, 34.06], [1530115200000, 33.24], [1530720000000, 34.88], [1531324800000, 40.46], [1531929600000, 41.05], [1532534400000, 43.49], [1533139200000, 42.52], [1533744000000, 45.23], [1534348800000, 44.95], [1534953600000, 44.79], [1535558400000, 48.38], [1536249600000, 44.56], [1536854400000, 47.34], [1537459200000, 47.21], [1538928000000, 44.77], [1539532800000, 39.46], [1540137600000, 41.35], [1540742400000, 34.56], [1541347200000, 37.19], [1541952000000, 35.65], [1542556800000, 31.78], [1543248000000, 32.25], [1543852800000, 33.35], [1544544000000, 32.26], [1545148800000, 25.02], [1545840000000, 23.87], [1546531200000, 23.12], [1547136000000, 25.8], [1547740800000, 28.66], [1548604800000, 27.74], [1549814400000, 33.14], [1550505600000, 36.51], [1551110400000, 37.88], [1551715200000, 37.44], [1552320000000, 39.24], [1552924800000, 42.69], [1553529600000, 42.58], [1554134400000, 46.19], [1554825600000, 48.06], [1555430400000, 50.26], [1556121600000, 53.63], [1557158400000, 50.03], [1557763200000, 47.69], [1558368000000, 49.91], [1559059200000, 45.44], [1559664000000, 47.77], [1560355200000, 53.01], [1560960000000, 56.93], [1561564800000, 55.69], [1562083200000, 59.07], [1562774400000, 59.93], [1563379200000, 61.13], [1563984000000, 62.98], [1564588800000, 60.07], [1565193600000, 60.7], [1565798400000, 56.28], [1566403200000, 62.43], [1567008000000, 62.76], [1567699200000, 66.42], [1568563200000, 64.97], [1569168000000, 64.74], [1569772800000, 64.64], [1570982400000, 66.53], [1571587200000, 66.86], [1572192000000, 71.27], [1572796800000, 72.54], [1573401600000, 73.48], [1574006400000, 76.15], [1574611200000, 77.63], [1575216000000, 75.47], [1575820800000, 76.64], [1576425600000, 81.0], [1577030400000, 83.78], [1577635200000, 83.26], [1578326400000, 84.97], [1578931200000, 87.87], [1579536000000, 90.62], [1580832000000, 98.55], [1581436800000, 102.14], [1582041600000, 104.56], [1582646400000, 84.92], [1583251200000, 84.19], [1583856000000, 64.74], [1584460800000, 48.03], [1585065600000, 56.24], [1585670400000, 54.78], [1586361600000, 70.87], [1586966400000, 76.93], [1587571200000, 74.69], [1588176000000, 82.84], [1589212800000, 87.28], [1589817600000, 91.0], [1590422400000, 93.91], [1591027200000, 98.17], [1591632000000, 103.65], [1592236800000, 103.75], [1592841600000, 108.13], [1593619200000, 108.93], [1594224000000, 112.79], [1594828800000, 108.83], [1595433600000, 109.1], [1596038400000, 111.35], [1596643200000, 124.23], [1597248000000, 121.35], [1597852800000, 125.39], [1598457600000, 134.21], [1599062400000, 128.21], [1599667200000, 117.75], [1600272000000, 115.43], [1600876800000, 112.6], [1602172800000, 127.82], [1602777600000, 127.95], [1603382400000, 121.11], [1603987200000, 109.11], [1604592000000, 125.15], [1605196800000, 124.39], [1605801600000, 120.85], [1606406400000, 125.13], [1607011200000, 130.16], [1607616000000, 126.67], [1608220800000, 133.22], [1608825600000, 135.02], [1609689600000, 133.28], [1610294400000, 133.84], [1610899200000, 130.36], [1611504000000, 141.81], [1612108800000, 137.79], [1612713600000, 145.68], [1613923200000, 138.43], [1614528000000, 142.3], [1615132800000, 126.82], [1615737600000, 139.67], [1616342400000, 139.08], [1616947200000, 139.99], [1617638400000, 150.26], [1618243200000, 158.14], [1618848000000, 153.98], [1619452800000, 156.96], [1620316800000, 149.08], [1620921600000, 143.21], [1621526400000, 142.72], [1622131200000, 144.62], [1622736000000, 148.13], [1623340800000, 150.51], [1624204800000, 155.97], [1624809600000, 161.88], [1625414400000, 167.56], [1626019200000, 170.27], [1626624000000, 164.72], [1627228800000, 175.49], [1627833600000, 172.2], [1628179200000, 175.5]]</t>
+  </si>
+  <si>
     <t>161128</t>
   </si>
   <si>
     <t>易方达标普信息科技人民币</t>
   </si>
   <si>
-    <t xml:space="preserve"> [[1481558400000,1.0],[1481817600000,1.0007],[1482076800000,0.9984],[1482163200000,1.0002],[1482249600000,1.0004],[1482336000000,0.9998],[1482422400000,1.0001],[1482681600000,1.0],[1482768000000,1.0],[1482854400000,1.0006],[1482940800000,1.0006],[1483027200000,0.9987],[1483113600000,0.9987],[1483372800000,1.0014],[1483459200000,1.0021],[1483545600000,0.999],[1483632000000,0.9899],[1483891200000,0.9996],[1483977600000,0.999],[1484064000000,1.0007],[1484150400000,0.9982],[1484236800000,0.9956],[1484582400000,0.9957],[1484668800000,0.9897],[1484755200000,0.9897],[1484841600000,0.9928],[1485100800000,0.9911],[1485187200000,0.9933],[1485273600000,1.0032],[1485360000000,1.0018],[1486051200000,1.0039],[1486310400000,1.0056],[1486396800000,1.0085],[1486483200000,1.0136],[1486569600000,1.0141],[1486656000000,1.0174],[1486915200000,1.0233],[1487001600000,1.0251],[1487088000000,1.0262],[1487174400000,1.0281],[1487260800000,1.0278],[1487606400000,1.0376],[1487692800000,1.0398],[1487779200000,1.0367],[1487865600000,1.0379],[1488124800000,1.0397],[1488211200000,1.0348],[1488297600000,1.0497],[1488384000000,1.0432],[1488470400000,1.0464],[1488729600000,1.0431],[1488816000000,1.047],[1488902400000,1.0491],[1488988800000,1.0499],[1489075200000,1.0548],[1489334400000,1.0538],[1489420800000,1.0533],[1489507200000,1.059],[1489593600000,1.0575],[1489680000000,1.0582],[1489939200000,1.0611],[1490025600000,1.0477],[1490112000000,1.0526],[1490198400000,1.0489],[1490284800000,1.0492],[1490544000000,1.0479],[1490630400000,1.0561],[1490716800000,1.0601],[1490803200000,1.0611],[1490889600000,1.0616],[1491321600000,1.0558],[1491408000000,1.0557],[1491494400000,1.0553],[1491753600000,1.0552],[1491840000000,1.0497],[1491926400000,1.0455],[1492012800000,1.0374],[1492358400000,1.0488],[1492444800000,1.0489],[1492531200000,1.0453],[1492617600000,1.0568],[1492704000000,1.0572],[1492963200000,1.0677],[1493049600000,1.0765],[1493136000000,1.074],[1493222400000,1.081],[1493308800000,1.0849],[1493654400000,1.0969],[1493740800000,1.0947],[1493827200000,1.096],[1493913600000,1.098],[1494172800000,1.1035],[1494259200000,1.1065],[1494345600000,1.1109],[1494432000000,1.1097],[1494518400000,1.1114],[1494777600000,1.1155],[1494864000000,1.1202],[1494950400000,1.0884],[1495036800000,1.094],[1495123200000,1.1018],[1495382400000,1.1099],[1495468800000,1.1106],[1495555200000,1.1172],[1495641600000,1.1245],[1495728000000,1.1248],[1496160000000,1.1237],[1496246400000,1.1179],[1496332800000,1.1286],[1496592000000,1.1268],[1496678400000,1.1227],[1496764800000,1.1176],[1496851200000,1.1285],[1496937600000,1.103],[1497196800000,1.0909],[1497283200000,1.0995],[1497369600000,1.0938],[1497456000000,1.0875],[1497542400000,1.0878],[1497801600000,1.1044],[1497888000000,1.0981],[1497974400000,1.1066],[1498060800000,1.1071],[1498147200000,1.1147],[1498406400000,1.108],[1498492800000,1.0915],[1498579200000,1.1014],[1498665600000,1.0803],[1498752000000,1.0752],[1499011200000,1.0667],[1499184000000,1.0798],[1499270400000,1.0715],[1499356800000,1.0835],[1499616000000,1.0925],[1499702400000,1.0966],[1499788800000,1.1084],[1499875200000,1.1106],[1499961600000,1.1194],[1500220800000,1.1162],[1500307200000,1.1226],[1500393600000,1.1258],[1500480000000,1.1265],[1500566400000,1.1248],[1500825600000,1.1271],[1500912000000,1.1265],[1500998400000,1.1293],[1501084800000,1.1169],[1501171200000,1.117],[1501430400000,1.1097],[1501516800000,1.1129],[1501603200000,1.119],[1501689600000,1.1156],[1501776000000,1.1169],[1502035200000,1.1246],[1502121600000,1.1226],[1502208000000,1.121],[1502294400000,1.0935],[1502380800000,1.099],[1502640000000,1.1148],[1502726400000,1.1192],[1502812800000,1.1237],[1502899200000,1.1009],[1502985600000,1.1009],[1503244800000,1.0995],[1503331200000,1.1128],[1503417600000,1.1114],[1503504000000,1.1083],[1503590400000,1.108],[1503849600000,1.107],[1503936000000,1.1103],[1504022400000,1.1159],[1504108800000,1.1219],[1504195200000,1.1197],[1504540800000,1.1005],[1504627200000,1.1014],[1504713600000,1.1059],[1504800000000,1.0928],[1505059200000,1.1076],[1505145600000,1.1139],[1505232000000,1.114],[1505318400000,1.1115],[1505404800000,1.1139],[1505664000000,1.1134],[1505750400000,1.1194],[1505836800000,1.1168],[1505923200000,1.1139],[1506009600000,1.1143],[1506268800000,1.1002],[1506355200000,1.1066],[1506441600000,1.1206],[1506528000000,1.1238],[1506614400000,1.1331],[1507478400000,1.1523],[1507564800000,1.1489],[1507651200000,1.1463],[1507737600000,1.1462],[1507824000000,1.1529],[1508083200000,1.1562],[1508169600000,1.1567],[1508256000000,1.162],[1508342400000,1.1599],[1508428800000,1.1673],[1508688000000,1.1646],[1508774400000,1.1696],[1508860800000,1.1668],[1508947200000,1.1699],[1509033600000,1.2059],[1509292800000,1.2108],[1509379200000,1.2136],[1509465600000,1.2126],[1509552000000,1.2119],[1509638400000,1.2193],[1509897600000,1.2265],[1509984000000,1.2272],[1510070400000,1.2338],[1510156800000,1.225],[1510243200000,1.2236],[1510502400000,1.2244],[1510588800000,1.2234],[1510675200000,1.2119],[1510761600000,1.227],[1510848000000,1.219],[1511107200000,1.222],[1511193600000,1.2375],[1511280000000,1.2333],[1511452800000,1.2305],[1511712000000,1.2313],[1511798400000,1.2348],[1511884800000,1.2061],[1511971200000,1.2173],[1512057600000,1.2113],[1512316800000,1.1896],[1512403200000,1.192],[1512489600000,1.2013],[1512576000000,1.2092],[1512662400000,1.2144],[1512921600000,1.2224],[1513008000000,1.2196],[1513094400000,1.2216],[1513180800000,1.2168],[1513267200000,1.2324],[1513526400000,1.2421],[1513612800000,1.2346],[1513699200000,1.2329],[1513785600000,1.2247],[1513872000000,1.2243],[1514217600000,1.2091],[1514304000000,1.211],[1514390400000,1.2119],[1514476800000,1.206],[1514649600000,1.2096],[1514822400000,1.2207],[1514908800000,1.2299],[1514995200000,1.2382],[1515081600000,1.2494],[1515340800000,1.2519],[1515427200000,1.2515],[1515513600000,1.2524],[1515600000000,1.2568],[1515686400000,1.2597],[1516032000000,1.2438],[1516118400000,1.2615],[1516204800000,1.2648],[1516291200000,1.262],[1516550400000,1.2711],[1516636800000,1.2769],[1516723200000,1.2641],[1516809600000,1.2576],[1516896000000,1.2713],[1517155200000,1.2576],[1517241600000,1.2464],[1517328000000,1.2555],[1517414400000,1.2495],[1517500800000,1.2114],[1517760000000,1.1678],[1517846400000,1.1998],[1517932800000,1.1792],[1518019200000,1.1298],[1518105600000,1.1647],[1518364800000,1.181],[1518451200000,1.1889],[1518537600000,1.2152],[1519228800000,1.2335],[1519315200000,1.2579],[1519574400000,1.2744],[1519660800000,1.2586],[1519747200000,1.2532],[1519833600000,1.2341],[1519920000000,1.245],[1520179200000,1.2578],[1520265600000,1.2597],[1520352000000,1.2643],[1520438400000,1.2687],[1520524800000,1.2974],[1520784000000,1.2986],[1520870400000,1.2817],[1520956800000,1.2805],[1521043200000,1.2802],[1521129600000,1.2833],[1521388800000,1.257],[1521475200000,1.2557],[1521561600000,1.2516],[1521648000000,1.2152],[1521734400000,1.1855],[1521993600000,1.2294],[1522080000000,1.1815],[1522166400000,1.1712],[1522252800000,1.2002],[1522598400000,1.1654],[1522684800000,1.1778],[1522771200000,1.1951],[1523203200000,1.1826],[1523289600000,1.2098],[1523376000000,1.2008],[1523462400000,1.2139],[1523548800000,1.2113],[1523808000000,1.219],[1523894400000,1.2398],[1523980800000,1.2379],[1524067200000,1.2249],[1524153600000,1.2086],[1524412800000,1.2065],[1524499200000,1.1874],[1524585600000,1.183],[1524672000000,1.2123],[1524758400000,1.2107],[1525190400000,1.2263],[1525276800000,1.2309],[1525363200000,1.2505],[1525622400000,1.2609],[1525708800000,1.2661],[1525795200000,1.284],[1525881600000,1.3003],[1525968000000,1.2921],[1526227200000,1.2882],[1526313600000,1.2793],[1526400000000,1.2895],[1526486400000,1.2822],[1526572800000,1.2782],[1526832000000,1.2902],[1526918400000,1.2858],[1527004800000,1.2958],[1527091200000,1.2951],[1527177600000,1.2961],[1527523200000,1.2909],[1527609600000,1.3034],[1527696000000,1.3024],[1527782400000,1.3255],[1528041600000,1.3383],[1528128000000,1.3426],[1528214400000,1.3469],[1528300800000,1.3304],[1528387200000,1.3324],[1528646400000,1.3333],[1528732800000,1.3418],[1528819200000,1.3396],[1528905600000,1.3431],[1528992000000,1.3445],[1529337600000,1.3371],[1529424000000,1.3485],[1529510400000,1.3406],[1529596800000,1.3376999999999999],[1529856000000,1.3107],[1529942400000,1.3222],[1530028800000,1.3116],[1530115200000,1.3324],[1530201600000,1.3364],[1530288000000,1.3353],[1530460800000,1.3474],[1530547200000,1.3363],[1530720000000,1.3488],[1530806400000,1.3676],[1531065600000,1.3791],[1531152000000,1.3794],[1531238400000,1.3722],[1531324800000,1.4046],[1531411200000,1.4043],[1531670400000,1.4001],[1531756800000,1.4118],[1531843200000,1.4121],[1531929600000,1.4105],[1532016000000,1.4235],[1532275200000,1.4286],[1532361600000,1.4412],[1532448000000,1.4643],[1532534400000,1.4349],[1532620800000,1.414],[1532880000000,1.3948],[1532966400000,1.3991],[1533052800000,1.4143],[1533139200000,1.4252],[1533225600000,1.4372],[1533484800000,1.4491],[1533571200000,1.4516],[1533657600000,1.4528],[1533744000000,1.4523],[1533830400000,1.4438],[1534089600000,1.4457],[1534176000000,1.4552],[1534262400000,1.4445],[1534348800000,1.4495],[1534435200000,1.4509],[1534694400000,1.4451],[1534780800000,1.439],[1534867200000,1.4436],[1534953600000,1.4479],[1535040000000,1.4699],[1535299200000,1.4789],[1535385600000,1.4725],[1535472000000,1.4867],[1535558400000,1.4838],[1535644800000,1.4876],[1535990400000,1.4816],[1536076800000,1.4625],[1536163200000,1.4504],[1536249600000,1.4456],[1536508800000,1.4533],[1536595200000,1.4669],[1536681600000,1.4611],[1536768000000,1.4758],[1536854400000,1.4734],[1537113600000,1.4569],[1537200000000,1.4664],[1537286400000,1.4653],[1537372800000,1.4805],[1537459200000,1.4721],[1537804800000,1.4774],[1537891200000,1.4744],[1537977600000,1.4833],[1538064000000,1.4926],[1538928000000,1.4477],[1539014400000,1.4538],[1539100800000,1.3883],[1539187200000,1.3721],[1539273600000,1.4163],[1539532800000,1.3946],[1539619200000,1.4342],[1539705600000,1.4276],[1539792000000,1.4035],[1539878400000,1.4059],[1540137600000,1.4135],[1540224000000,1.4101],[1540310400000,1.3512],[1540396800000,1.395],[1540483200000,1.3718],[1540742400000,1.3456],[1540828800000,1.3645],[1540915200000,1.397],[1541001600000,1.4135],[1541088000000,1.3821],[1541347200000,1.3719],[1541433600000,1.3821],[1541520000000,1.4193],[1541606400000,1.4198],[1541692800000,1.4008],[1541952000000,1.3565],[1542038400000,1.3606],[1542124800000,1.3405],[1542211200000,1.3717],[1542297600000,1.3702],[1542556800000,1.3178],[1542643200000,1.2918],[1542729600000,1.3028],[1542902400000,1.2891],[1543161600000,1.3193],[1543248000000,1.3225],[1543334400000,1.3669],[1543420800000,1.3516],[1543507200000,1.3653],[1543766400000,1.394],[1543852800000,1.3335],[1544025600000,1.33],[1544112000000,1.2867],[1544371200000,1.3046],[1544457600000,1.3114],[1544544000000,1.3226],[1544630400000,1.3195],[1544716800000,1.2879],[1544976000000,1.2638],[1545062400000,1.2734],[1545148800000,1.2502],[1545235200000,1.229],[1545321600000,1.1921],[1545580800000,1.1637],[1545753600000,1.2287],[1545840000000,1.2387],[1545926400000,1.2308],[1546185600000,1.2415],[1546358400000,1.2395],[1546444800000,1.1825],[1546531200000,1.2312],[1546790400000,1.24],[1546876800000,1.2486],[1546963200000,1.2655],[1547049600000,1.2643],[1547136000000,1.258],[1547395200000,1.2406],[1547481600000,1.2578],[1547568000000,1.2597],[1547654400000,1.2673],[1547740800000,1.2866],[1548086400000,1.2683],[1548172800000,1.2754],[1548259200000,1.2835],[1548345600000,1.3038],[1548604800000,1.2774],[1548691200000,1.2629],[1548777600000,1.2992],[1548864000000,1.2916],[1548950400000,1.3001],[1549814400000,1.3314],[1549900800000,1.3541],[1549987200000,1.354],[1550073600000,1.3571],[1550160000000,1.3648],[1550505600000,1.3651],[1550592000000,1.3649],[1550678400000,1.3588],[1550764800000,1.3739],[1551024000000,1.3799],[1551110400000,1.3788],[1551196800000,1.3756],[1551283200000,1.3724],[1551369600000,1.3827],[1551628800000,1.3793],[1551715200000,1.3744],[1551801600000,1.3682],[1551888000000,1.3573],[1551974400000,1.3595],[1552233600000,1.3871],[1552320000000,1.3924],[1552406400000,1.4012],[1552492800000,1.4017],[1552579200000,1.4211],[1552838400000,1.4248],[1552924800000,1.4269],[1553011200000,1.4242],[1553097600000,1.4524],[1553184000000,1.4217],[1553443200000,1.4195],[1553529600000,1.4258],[1553616000000,1.4204],[1553702400000,1.4281],[1553788800000,1.4428],[1554048000000,1.4584],[1554134400000,1.4619],[1554220800000,1.4741],[1554307200000,1.4652],[1554652800000,1.4799],[1554739200000,1.4713],[1554825600000,1.4806],[1554912000000,1.4784],[1554998400000,1.4908],[1555257600000,1.4878],[1555344000000,1.4942],[1555430400000,1.5026],[1555516800000,1.5022],[1555862400000,1.5079],[1555948800000,1.5303],[1556035200000,1.5335],[1556121600000,1.5363],[1556208000000,1.5312],[1556467200000,1.5306],[1556553600000,1.533],[1557072000000,1.5247],[1557158400000,1.5003],[1557244800000,1.4975],[1557331200000,1.4897],[1557417600000,1.4984],[1557676800000,1.446],[1557763200000,1.4769],[1557849600000,1.4976],[1557936000000,1.5127],[1558022400000,1.5046],[1558281600000,1.4823],[1558368000000,1.4991],[1558454400000,1.4912],[1558540800000,1.4669],[1558627200000,1.4675],[1558972800000,1.4623],[1559059200000,1.4544],[1559145600000,1.4627],[1559232000000,1.4407],[1559491200000,1.4146],[1559577600000,1.4566],[1559664000000,1.4777],[1559750400000,1.494],[1560096000000,1.5346],[1560182400000,1.5351],[1560268800000,1.5267],[1560355200000,1.5301],[1560441600000,1.5181],[1560700800000,1.5204],[1560787200000,1.5451],[1560873600000,1.5503],[1560960000000,1.5693],[1561046400000,1.5552],[1561305600000,1.5579],[1561392000000,1.5328],[1561478400000,1.5512],[1561564800000,1.5569],[1561651200000,1.558],[1561824000000,1.5574],[1561910400000,1.5777],[1561996800000,1.5774],[1562083200000,1.5907],[1562256000000,1.589],[1562515200000,1.582],[1562601600000,1.5862],[1562688000000,1.5982],[1562774400000,1.5993],[1562860800000,1.6109],[1563120000000,1.6156],[1563206400000,1.6026],[1563292800000,1.6007],[1563379200000,1.6113],[1563465600000,1.6001],[1563724800000,1.6212],[1563811200000,1.6309],[1563897600000,1.6449],[1563984000000,1.6298],[1564070400000,1.6396],[1564329600000,1.6392],[1564416000000,1.6295],[1564502400000,1.6064],[1564588800000,1.6007],[1564675200000,1.5765],[1564934400000,1.52],[1565020800000,1.5538],[1565107200000,1.5704],[1565193600000,1.607],[1565280000000,1.5911],[1565539200000,1.5739],[1565625600000,1.613],[1565712000000,1.5664],[1565798400000,1.5628],[1565884800000,1.5913],[1566144000000,1.6157],[1566230400000,1.6096],[1566316800000,1.6271],[1566403200000,1.6243],[1566489600000,1.5747],[1566748800000,1.5955],[1566835200000,1.5988],[1566921600000,1.6008],[1567008000000,1.6276],[1567094400000,1.6282],[1567440000000,1.6085],[1567526400000,1.6346],[1567612800000,1.6666],[1567699200000,1.6642],[1567958400000,1.6527],[1568044800000,1.645],[1568131200000,1.6606],[1568217600000,1.6689],[1568563200000,1.6497],[1568649600000,1.6568],[1568736000000,1.6577],[1568822400000,1.6611],[1568908800000,1.6439],[1569168000000,1.6474],[1569254400000,1.6312],[1569340800000,1.6503],[1569427200000,1.651],[1569513600000,1.6308],[1569772800000,1.6464],[1570464000000,1.6119],[1570550400000,1.6342],[1570636800000,1.644],[1570723200000,1.6671],[1570982400000,1.6653],[1571068800000,1.6822],[1571155200000,1.6718],[1571241600000,1.669],[1571328000000,1.6524],[1571587200000,1.6686],[1571673600000,1.6467],[1571760000000,1.6505],[1571846400000,1.673],[1571932800000,1.6923],[1572192000000,1.7127],[1572278400000,1.6944],[1572364800000,1.7035],[1572451200000,1.7004],[1572537600000,1.7179],[1572796800000,1.7254],[1572883200000,1.7231],[1572969600000,1.716],[1573056000000,1.7262],[1573142400000,1.7343],[1573401600000,1.7348],[1573488000000,1.7407],[1573574400000,1.7457],[1573660800000,1.745],[1573747200000,1.7589],[1574006400000,1.7615],[1574092800000,1.7652],[1574179200000,1.7562],[1574265600000,1.7507],[1574352000000,1.7507],[1574611200000,1.7763],[1574697600000,1.7761],[1574784000000,1.7857],[1574870400000,1.7838],[1574956800000,1.7787],[1575216000000,1.7547],[1575302400000,1.7396],[1575388800000,1.7493],[1575475200000,1.759],[1575561600000,1.7741],[1575820800000,1.7664],[1575907200000,1.7664],[1575993600000,1.7778],[1576080000000,1.7929],[1576166400000,1.8013],[1576425600000,1.81],[1576512000000,1.8084],[1576598400000,1.8072],[1576684800000,1.8205],[1576771200000,1.8303],[1577030400000,1.8378],[1577116800000,1.8383],[1577203200000,1.837],[1577289600000,1.8425],[1577376000000,1.8447],[1577635200000,1.8326],[1577721600000,1.8375],[1577894400000,1.8636],[1577980800000,1.8466],[1578240000000,1.8522],[1578326400000,1.8497],[1578412800000,1.8619],[1578499200000,1.8831],[1578585600000,1.8759],[1578844800000,1.8971],[1578931200000,1.8787],[1579017600000,1.8771],[1579104000000,1.9006],[1579190400000,1.9153],[1579449600000,1.9095],[1579536000000,1.9062],[1579622400000,1.9186],[1579708800000,1.9279],[1580659200000,1.9119],[1580745600000,1.9736],[1580832000000,1.9855],[1580918400000,2.0068],[1581004800000,1.9844],[1581264000000,2.011],[1581350400000,2.0056],[1581436800000,2.0214],[1581523200000,2.0176],[1581609600000,2.0275],[1581868800000,2.026],[1581955200000,2.0203],[1582041600000,2.0456],[1582128000000,2.0257],[1582214400000,1.9859],[1582473600000,1.9055],[1582560000000,1.8447],[1582646400000,1.8492],[1582732800000,1.7503],[1582819200000,1.7605],[1583078400000,1.8554],[1583164800000,1.7809],[1583251200000,1.8419],[1583337600000,1.7847],[1583424000000,1.7482],[1583683200000,1.6209],[1583769600000,1.7214],[1583856000000,1.6474],[1583942400000,1.4894],[1584028800000,1.6746],[1584288000000,1.448],[1584374400000,1.5434],[1584460800000,1.4803],[1584547200000,1.5001],[1584633600000,1.4475],[1584892800000,1.4313],[1584979200000,1.5728],[1585065600000,1.5624],[1585152000000,1.655],[1585238400000,1.5773],[1585497600000,1.6408],[1585584000000,1.6211],[1585670400000,1.5478],[1585756800000,1.587],[1585843200000,1.5643],[1586188800000,1.6737],[1586275200000,1.707],[1586361600000,1.7087],[1586448000000,1.7045],[1586707200000,1.7071],[1586793600000,1.7773],[1586880000000,1.7413],[1586966400000,1.7693],[1587052800000,1.792],[1587312000000,1.76],[1587398400000,1.6934],[1587484800000,1.7588],[1587571200000,1.7469],[1587657600000,1.78],[1587916800000,1.7928],[1588003200000,1.7688],[1588089600000,1.8398],[1588176000000,1.8284],[1588694400000,1.8413],[1588780800000,1.8745],[1588867200000,1.8964],[1589126400000,1.9079],[1589212800000,1.8728],[1589299200000,1.8417],[1589385600000,1.8655],[1589472000000,1.8727],[1589731200000,1.9206],[1589817600000,1.91],[1589904000000,1.9507],[1589990400000,1.9224],[1590076800000,1.9319],[1590336000000,1.9391],[1590422400000,1.9391],[1590508800000,1.9437],[1590595200000,1.9452],[1590681600000,1.968],[1590940800000,1.9683],[1591027200000,1.9817],[1591113600000,1.9947],[1591200000000,1.977],[1591286400000,2.0262],[1591545600000,2.0322],[1591632000000,2.0365],[1591718400000,2.0688],[1591804800000,1.9515],[1591891200000,1.9837],[1592150400000,2.001],[1592236800000,2.0375],[1592323200000,2.0416],[1592409600000,2.0519],[1592496000000,2.0376],[1592755200000,2.0733],[1592841600000,2.0813],[1592928000000,2.0326],[1593360000000,2.0468],[1593446400000,2.0838],[1593532800000,2.0832],[1593619200000,2.0893],[1593705600000,2.0914],[1593964800000,2.1276],[1594051200000,2.0954],[1594137600000,2.124],[1594224000000,2.1279],[1594310400000,2.1229],[1594569600000,2.0803],[1594656000000,2.1049],[1594742400000,2.1153],[1594828800000,2.0883],[1594915200000,2.1018],[1595174400000,2.1495],[1595260800000,2.1256],[1595347200000,2.138],[1595433600000,2.091],[1595520000000,2.0677],[1595779200000,2.1019],[1595865600000,2.0731],[1595952000000,2.1047],[1596038400000,2.1135],[1596124800000,2.1619],[1596384000000,2.2172],[1596470400000,2.2159],[1596556800000,2.2216],[1596643200000,2.2423],[1596729600000,2.2094],[1596988800000,2.21],[1597075200000,2.1743],[1597161600000,2.2179],[1597248000000,2.2135],[1597334400000,2.2107],[1597593600000,2.2231],[1597680000000,2.2302],[1597766400000,2.2203],[1597852800000,2.2539],[1597939200000,2.274],[1598198400000,2.2956],[1598284800000,2.3065],[1598371200000,2.3475],[1598457600000,2.3421],[1598544000000,2.3629],[1598803200000,2.3609],[1598889600000,2.3982],[1598976000000,2.4148],[1599062400000,2.2821],[1599148800000,2.2549],[1599408000000,2.2556],[1599494400000,2.1585],[1599580800000,2.2281],[1599667200000,2.1775],[1599753600000,2.1637],[1600012800000,2.205],[1600099200000,2.2215],[1600185600000,2.1764],[1600272000000,2.1543],[1600358400000,2.1182],[1600617600000,2.1336],[1600704000000,2.1752],[1600790400000,2.1125],[1600876800000,2.126],[1600963200000,2.177],[1601222400000,2.2192],[1601308800000,2.2102],[1601395200000,2.2269],[1602172800000,2.2782],[1602432000000,2.3147],[1602518400000,2.3065],[1602604800000,2.3002],[1602691200000,2.2871],[1602777600000,2.2795],[1603036800000,2.2283],[1603123200000,2.2337],[1603209600000,2.2261],[1603296000000,2.2089],[1603382400000,2.2111],[1603641600000,2.1661],[1603728000000,2.1852],[1603814400000,2.1016],[1603900800000,2.1417],[1603987200000,2.0911],[1604246400000,2.0921],[1604332800000,2.1247],[1604419200000,2.1956],[1604505600000,2.2647],[1604592000000,2.2515],[1604851200000,2.2302],[1604937600000,2.1818],[1605024000000,2.2385],[1605110400000,2.2242],[1605196800000,2.2439],[1605456000000,2.2565],[1605542400000,2.235],[1605628800000,2.2067],[1605715200000,2.2204],[1605801600000,2.2085],[1606060800000,2.2054],[1606147200000,2.2375],[1606233600000,2.2403],[1606320000000,2.2413],[1606406400000,2.2513],[1606665600000,2.266],[1606752000000,2.3009],[1606838400000,2.2855],[1606924800000,2.2826],[1607011200000,2.3016],[1607270400000,2.3022],[1607356800000,2.3083],[1607443200000,2.2667],[1607529600000,2.274],[1607616000000,2.2667],[1607875200000,2.2739],[1607961600000,2.3111],[1608048000000,2.3245],[1608134400000,2.3412],[1608220800000,2.3322],[1608480000000,2.3403],[1608566400000,2.3549],[1608652800000,2.3421],[1608739200000,2.3513],[1608825600000,2.3502],[1609084800000,2.3723],[1609171200000,2.3682],[1609257600000,2.3632],[1609344000000,null],[1609689600000,2.3328],[1609776000000,2.325],[1609862400000,2.2798],[1609948800000,2.3372],[1610035200000,2.3577],[1610294400000,2.3384],[1610380800000,2.3311],[1610467200000,2.3376],[1610553600000,2.3217],[1610640000000,2.2962],[1610899200000,2.3036],[1610985600000,2.3335],[1611072000000,2.3769],[1611158400000,2.4012],[1611244800000,2.3909],[1611504000000,2.4181],[1611590400000,2.4193],[1611676800000,2.368],[1611763200000,2.3849],[1611849600000,2.326],[1612108800000,2.3779],[1612195200000,2.411],[1612281600000,2.4016],[1612368000000,2.4347],[1612454400000,2.4344],[1612713600000,2.4568],[1612800000000,2.4472],[1612886400000,null],[1613577600000,2.4395],[1613664000000,2.4392],[1613923200000,2.3843],[1614009600000,2.3769],[1614096000000,2.4146],[1614182400000,2.3303],[1614268800000,2.3505],[1614528000000,2.423],[1614614400000,2.3805],[1614700800000,2.3222],[1614787200000,2.2792],[1614873600000,2.3271],[1615132800000,2.2682],[1615219200000,2.3616],[1615305600000,2.344],[1615392000000,2.3867],[1615478400000,2.3659],[1615737600000,2.3967],[1615824000000,2.4152],[1615910400000,2.4108],[1615996800000,2.3413],[1616083200000,2.3448],[1616342400000,2.3908],[1616428800000,2.3707],[1616515200000,2.3503],[1616601600000,2.3506],[1616688000000,2.4103],[1616947200000,2.3999],[1617033600000,2.3866],[1617120000000,2.4231],[1617206400000,2.4664],[1617292800000,2.4688],[1617638400000,2.5026],[1617724800000,2.5099],[1617811200000,2.5468],[1617897600000,2.5685],[1618156800000,2.5631],[1618243200000,2.5814],[1618329600000,2.5499],[1618416000000,2.5901],[1618502400000,2.5889],[1618761600000,2.5652],[1618848000000,2.5398],[1618934400000,2.5619],[1619020800000,2.5279],[1619107200000,2.5634],[1619366400000,2.5759],[1619452800000,2.5696],[1619539200000,2.5432],[1619625600000,2.5372],[1619712000000,2.5016],[1620230400000,2.4797],[1620316800000,2.4908],[1620576000000,2.4212],[1620662400000,2.4092],[1620748800000,2.344],[1620835200000,2.3875],[1620921600000,2.4321],[1621180800000,2.4077],[1621267200000,2.3909],[1621353600000,2.3954],[1621440000000,2.4455],[1621526400000,2.4272],[1621785600000,2.4712],[1621872000000,2.4678],[1621958400000,2.4605],[1622044800000,2.4457],[1622131200000,2.4462],[1622390400000,2.4392],[1622476800000,2.4252],[1622563200000,2.4472],[1622649600000,2.4274],[1622736000000,2.4813],[1622995200000,2.4765],[1623081600000,2.475],[1623168000000,2.4782],[1623254400000,2.4966],[1623340800000,2.5051],[1623686400000,2.5226],[1623772800000,2.5104],[1623859200000,2.5468],[1623945600000,2.5266],[1624204800000,2.5597],[1624291200000,2.584],[1624377600000,2.5815],[1624464000000,2.6053],[1624550400000,2.5984],[1624809600000,2.6188],[1624896000000,2.6357],[1624982400000,2.6346],[1625068800000,2.6415],[1625155200000,2.6765],[1625414400000,2.6756],[1625500800000,2.6813],[1625587200000,2.7002],[1625673600000,2.6744],[1625760000000,2.7005],[1626019200000,2.7027],[1626105600000,2.7125],[1626192000000,2.7338],[1626278400000,2.7048]]</t>
+    <t xml:space="preserve"> [[1481558400000,1.0],[1481817600000,1.0007],[1482076800000,0.9984],[1482163200000,1.0002],[1482249600000,1.0004],[1482336000000,0.9998],[1482422400000,1.0001],[1482681600000,1.0],[1482768000000,1.0],[1482854400000,1.0006],[1482940800000,1.0006],[1483027200000,0.9987],[1483113600000,0.9987],[1483372800000,1.0014],[1483459200000,1.0021],[1483545600000,0.999],[1483632000000,0.9899],[1483891200000,0.9996],[1483977600000,0.999],[1484064000000,1.0007],[1484150400000,0.9982],[1484236800000,0.9956],[1484582400000,0.9957],[1484668800000,0.9897],[1484755200000,0.9897],[1484841600000,0.9928],[1485100800000,0.9911],[1485187200000,0.9933],[1485273600000,1.0032],[1485360000000,1.0018],[1486051200000,1.0039],[1486310400000,1.0056],[1486396800000,1.0085],[1486483200000,1.0136],[1486569600000,1.0141],[1486656000000,1.0174],[1486915200000,1.0233],[1487001600000,1.0251],[1487088000000,1.0262],[1487174400000,1.0281],[1487260800000,1.0278],[1487606400000,1.0376],[1487692800000,1.0398],[1487779200000,1.0367],[1487865600000,1.0379],[1488124800000,1.0397],[1488211200000,1.0348],[1488297600000,1.0497],[1488384000000,1.0432],[1488470400000,1.0464],[1488729600000,1.0431],[1488816000000,1.047],[1488902400000,1.0491],[1488988800000,1.0499],[1489075200000,1.0548],[1489334400000,1.0538],[1489420800000,1.0533],[1489507200000,1.059],[1489593600000,1.0575],[1489680000000,1.0582],[1489939200000,1.0611],[1490025600000,1.0477],[1490112000000,1.0526],[1490198400000,1.0489],[1490284800000,1.0492],[1490544000000,1.0479],[1490630400000,1.0561],[1490716800000,1.0601],[1490803200000,1.0611],[1490889600000,1.0616],[1491321600000,1.0558],[1491408000000,1.0557],[1491494400000,1.0553],[1491753600000,1.0552],[1491840000000,1.0497],[1491926400000,1.0455],[1492012800000,1.0374],[1492358400000,1.0488],[1492444800000,1.0489],[1492531200000,1.0453],[1492617600000,1.0568],[1492704000000,1.0572],[1492963200000,1.0677],[1493049600000,1.0765],[1493136000000,1.074],[1493222400000,1.081],[1493308800000,1.0849],[1493654400000,1.0969],[1493740800000,1.0947],[1493827200000,1.096],[1493913600000,1.098],[1494172800000,1.1035],[1494259200000,1.1065],[1494345600000,1.1109],[1494432000000,1.1097],[1494518400000,1.1114],[1494777600000,1.1155],[1494864000000,1.1202],[1494950400000,1.0884],[1495036800000,1.094],[1495123200000,1.1018],[1495382400000,1.1099],[1495468800000,1.1106],[1495555200000,1.1172],[1495641600000,1.1245],[1495728000000,1.1248],[1496160000000,1.1237],[1496246400000,1.1179],[1496332800000,1.1286],[1496592000000,1.1268],[1496678400000,1.1227],[1496764800000,1.1176],[1496851200000,1.1285],[1496937600000,1.103],[1497196800000,1.0909],[1497283200000,1.0995],[1497369600000,1.0938],[1497456000000,1.0875],[1497542400000,1.0878],[1497801600000,1.1044],[1497888000000,1.0981],[1497974400000,1.1066],[1498060800000,1.1071],[1498147200000,1.1147],[1498406400000,1.108],[1498492800000,1.0915],[1498579200000,1.1014],[1498665600000,1.0803],[1498752000000,1.0752],[1499011200000,1.0667],[1499184000000,1.0798],[1499270400000,1.0715],[1499356800000,1.0835],[1499616000000,1.0925],[1499702400000,1.0966],[1499788800000,1.1084],[1499875200000,1.1106],[1499961600000,1.1194],[1500220800000,1.1162],[1500307200000,1.1226],[1500393600000,1.1258],[1500480000000,1.1265],[1500566400000,1.1248],[1500825600000,1.1271],[1500912000000,1.1265],[1500998400000,1.1293],[1501084800000,1.1169],[1501171200000,1.117],[1501430400000,1.1097],[1501516800000,1.1129],[1501603200000,1.119],[1501689600000,1.1156],[1501776000000,1.1169],[1502035200000,1.1246],[1502121600000,1.1226],[1502208000000,1.121],[1502294400000,1.0935],[1502380800000,1.099],[1502640000000,1.1148],[1502726400000,1.1192],[1502812800000,1.1237],[1502899200000,1.1009],[1502985600000,1.1009],[1503244800000,1.0995],[1503331200000,1.1128],[1503417600000,1.1114],[1503504000000,1.1083],[1503590400000,1.108],[1503849600000,1.107],[1503936000000,1.1103],[1504022400000,1.1159],[1504108800000,1.1219],[1504195200000,1.1197],[1504540800000,1.1005],[1504627200000,1.1014],[1504713600000,1.1059],[1504800000000,1.0928],[1505059200000,1.1076],[1505145600000,1.1139],[1505232000000,1.114],[1505318400000,1.1115],[1505404800000,1.1139],[1505664000000,1.1134],[1505750400000,1.1194],[1505836800000,1.1168],[1505923200000,1.1139],[1506009600000,1.1143],[1506268800000,1.1002],[1506355200000,1.1066],[1506441600000,1.1206],[1506528000000,1.1238],[1506614400000,1.1331],[1507478400000,1.1523],[1507564800000,1.1489],[1507651200000,1.1463],[1507737600000,1.1462],[1507824000000,1.1529],[1508083200000,1.1562],[1508169600000,1.1567],[1508256000000,1.162],[1508342400000,1.1599],[1508428800000,1.1673],[1508688000000,1.1646],[1508774400000,1.1696],[1508860800000,1.1668],[1508947200000,1.1699],[1509033600000,1.2059],[1509292800000,1.2108],[1509379200000,1.2136],[1509465600000,1.2126],[1509552000000,1.2119],[1509638400000,1.2193],[1509897600000,1.2265],[1509984000000,1.2272],[1510070400000,1.2338],[1510156800000,1.225],[1510243200000,1.2236],[1510502400000,1.2244],[1510588800000,1.2234],[1510675200000,1.2119],[1510761600000,1.227],[1510848000000,1.219],[1511107200000,1.222],[1511193600000,1.2375],[1511280000000,1.2333],[1511452800000,1.2305],[1511712000000,1.2313],[1511798400000,1.2348],[1511884800000,1.2061],[1511971200000,1.2173],[1512057600000,1.2113],[1512316800000,1.1896],[1512403200000,1.192],[1512489600000,1.2013],[1512576000000,1.2092],[1512662400000,1.2144],[1512921600000,1.2224],[1513008000000,1.2196],[1513094400000,1.2216],[1513180800000,1.2168],[1513267200000,1.2324],[1513526400000,1.2421],[1513612800000,1.2346],[1513699200000,1.2329],[1513785600000,1.2247],[1513872000000,1.2243],[1514217600000,1.2091],[1514304000000,1.211],[1514390400000,1.2119],[1514476800000,1.206],[1514649600000,1.2096],[1514822400000,1.2207],[1514908800000,1.2299],[1514995200000,1.2382],[1515081600000,1.2494],[1515340800000,1.2519],[1515427200000,1.2515],[1515513600000,1.2524],[1515600000000,1.2568],[1515686400000,1.2597],[1516032000000,1.2438],[1516118400000,1.2615],[1516204800000,1.2648],[1516291200000,1.262],[1516550400000,1.2711],[1516636800000,1.2769],[1516723200000,1.2641],[1516809600000,1.2576],[1516896000000,1.2713],[1517155200000,1.2576],[1517241600000,1.2464],[1517328000000,1.2555],[1517414400000,1.2495],[1517500800000,1.2114],[1517760000000,1.1678],[1517846400000,1.1998],[1517932800000,1.1792],[1518019200000,1.1298],[1518105600000,1.1647],[1518364800000,1.181],[1518451200000,1.1889],[1518537600000,1.2152],[1519228800000,1.2335],[1519315200000,1.2579],[1519574400000,1.2744],[1519660800000,1.2586],[1519747200000,1.2532],[1519833600000,1.2341],[1519920000000,1.245],[1520179200000,1.2578],[1520265600000,1.2597],[1520352000000,1.2643],[1520438400000,1.2687],[1520524800000,1.2974],[1520784000000,1.2986],[1520870400000,1.2817],[1520956800000,1.2805],[1521043200000,1.2802],[1521129600000,1.2833],[1521388800000,1.257],[1521475200000,1.2557],[1521561600000,1.2516],[1521648000000,1.2152],[1521734400000,1.1855],[1521993600000,1.2294],[1522080000000,1.1815],[1522166400000,1.1712],[1522252800000,1.2002],[1522598400000,1.1654],[1522684800000,1.1778],[1522771200000,1.1951],[1523203200000,1.1826],[1523289600000,1.2098],[1523376000000,1.2008],[1523462400000,1.2139],[1523548800000,1.2113],[1523808000000,1.219],[1523894400000,1.2398],[1523980800000,1.2379],[1524067200000,1.2249],[1524153600000,1.2086],[1524412800000,1.2065],[1524499200000,1.1874],[1524585600000,1.183],[1524672000000,1.2123],[1524758400000,1.2107],[1525190400000,1.2263],[1525276800000,1.2309],[1525363200000,1.2505],[1525622400000,1.2609],[1525708800000,1.2661],[1525795200000,1.284],[1525881600000,1.3003],[1525968000000,1.2921],[1526227200000,1.2882],[1526313600000,1.2793],[1526400000000,1.2895],[1526486400000,1.2822],[1526572800000,1.2782],[1526832000000,1.2902],[1526918400000,1.2858],[1527004800000,1.2958],[1527091200000,1.2951],[1527177600000,1.2961],[1527523200000,1.2909],[1527609600000,1.3034],[1527696000000,1.3024],[1527782400000,1.3255],[1528041600000,1.3383],[1528128000000,1.3426],[1528214400000,1.3469],[1528300800000,1.3304],[1528387200000,1.3324],[1528646400000,1.3333],[1528732800000,1.3418],[1528819200000,1.3396],[1528905600000,1.3431],[1528992000000,1.3445],[1529337600000,1.3371],[1529424000000,1.3485],[1529510400000,1.3406],[1529596800000,1.3376999999999999],[1529856000000,1.3107],[1529942400000,1.3222],[1530028800000,1.3116],[1530115200000,1.3324],[1530201600000,1.3364],[1530288000000,1.3353],[1530460800000,1.3474],[1530547200000,1.3363],[1530720000000,1.3488],[1530806400000,1.3676],[1531065600000,1.3791],[1531152000000,1.3794],[1531238400000,1.3722],[1531324800000,1.4046],[1531411200000,1.4043],[1531670400000,1.4001],[1531756800000,1.4118],[1531843200000,1.4121],[1531929600000,1.4105],[1532016000000,1.4235],[1532275200000,1.4286],[1532361600000,1.4412],[1532448000000,1.4643],[1532534400000,1.4349],[1532620800000,1.414],[1532880000000,1.3948],[1532966400000,1.3991],[1533052800000,1.4143],[1533139200000,1.4252],[1533225600000,1.4372],[1533484800000,1.4491],[1533571200000,1.4516],[1533657600000,1.4528],[1533744000000,1.4523],[1533830400000,1.4438],[1534089600000,1.4457],[1534176000000,1.4552],[1534262400000,1.4445],[1534348800000,1.4495],[1534435200000,1.4509],[1534694400000,1.4451],[1534780800000,1.439],[1534867200000,1.4436],[1534953600000,1.4479],[1535040000000,1.4699],[1535299200000,1.4789],[1535385600000,1.4725],[1535472000000,1.4867],[1535558400000,1.4838],[1535644800000,1.4876],[1535990400000,1.4816],[1536076800000,1.4625],[1536163200000,1.4504],[1536249600000,1.4456],[1536508800000,1.4533],[1536595200000,1.4669],[1536681600000,1.4611],[1536768000000,1.4758],[1536854400000,1.4734],[1537113600000,1.4569],[1537200000000,1.4664],[1537286400000,1.4653],[1537372800000,1.4805],[1537459200000,1.4721],[1537804800000,1.4774],[1537891200000,1.4744],[1537977600000,1.4833],[1538064000000,1.4926],[1538928000000,1.4477],[1539014400000,1.4538],[1539100800000,1.3883],[1539187200000,1.3721],[1539273600000,1.4163],[1539532800000,1.3946],[1539619200000,1.4342],[1539705600000,1.4276],[1539792000000,1.4035],[1539878400000,1.4059],[1540137600000,1.4135],[1540224000000,1.4101],[1540310400000,1.3512],[1540396800000,1.395],[1540483200000,1.3718],[1540742400000,1.3456],[1540828800000,1.3645],[1540915200000,1.397],[1541001600000,1.4135],[1541088000000,1.3821],[1541347200000,1.3719],[1541433600000,1.3821],[1541520000000,1.4193],[1541606400000,1.4198],[1541692800000,1.4008],[1541952000000,1.3565],[1542038400000,1.3606],[1542124800000,1.3405],[1542211200000,1.3717],[1542297600000,1.3702],[1542556800000,1.3178],[1542643200000,1.2918],[1542729600000,1.3028],[1542902400000,1.2891],[1543161600000,1.3193],[1543248000000,1.3225],[1543334400000,1.3669],[1543420800000,1.3516],[1543507200000,1.3653],[1543766400000,1.394],[1543852800000,1.3335],[1544025600000,1.33],[1544112000000,1.2867],[1544371200000,1.3046],[1544457600000,1.3114],[1544544000000,1.3226],[1544630400000,1.3195],[1544716800000,1.2879],[1544976000000,1.2638],[1545062400000,1.2734],[1545148800000,1.2502],[1545235200000,1.229],[1545321600000,1.1921],[1545580800000,1.1637],[1545753600000,1.2287],[1545840000000,1.2387],[1545926400000,1.2308],[1546185600000,1.2415],[1546358400000,1.2395],[1546444800000,1.1825],[1546531200000,1.2312],[1546790400000,1.24],[1546876800000,1.2486],[1546963200000,1.2655],[1547049600000,1.2643],[1547136000000,1.258],[1547395200000,1.2406],[1547481600000,1.2578],[1547568000000,1.2597],[1547654400000,1.2673],[1547740800000,1.2866],[1548086400000,1.2683],[1548172800000,1.2754],[1548259200000,1.2835],[1548345600000,1.3038],[1548604800000,1.2774],[1548691200000,1.2629],[1548777600000,1.2992],[1548864000000,1.2916],[1548950400000,1.3001],[1549814400000,1.3314],[1549900800000,1.3541],[1549987200000,1.354],[1550073600000,1.3571],[1550160000000,1.3648],[1550505600000,1.3651],[1550592000000,1.3649],[1550678400000,1.3588],[1550764800000,1.3739],[1551024000000,1.3799],[1551110400000,1.3788],[1551196800000,1.3756],[1551283200000,1.3724],[1551369600000,1.3827],[1551628800000,1.3793],[1551715200000,1.3744],[1551801600000,1.3682],[1551888000000,1.3573],[1551974400000,1.3595],[1552233600000,1.3871],[1552320000000,1.3924],[1552406400000,1.4012],[1552492800000,1.4017],[1552579200000,1.4211],[1552838400000,1.4248],[1552924800000,1.4269],[1553011200000,1.4242],[1553097600000,1.4524],[1553184000000,1.4217],[1553443200000,1.4195],[1553529600000,1.4258],[1553616000000,1.4204],[1553702400000,1.4281],[1553788800000,1.4428],[1554048000000,1.4584],[1554134400000,1.4619],[1554220800000,1.4741],[1554307200000,1.4652],[1554652800000,1.4799],[1554739200000,1.4713],[1554825600000,1.4806],[1554912000000,1.4784],[1554998400000,1.4908],[1555257600000,1.4878],[1555344000000,1.4942],[1555430400000,1.5026],[1555516800000,1.5022],[1555862400000,1.5079],[1555948800000,1.5303],[1556035200000,1.5335],[1556121600000,1.5363],[1556208000000,1.5312],[1556467200000,1.5306],[1556553600000,1.533],[1557072000000,1.5247],[1557158400000,1.5003],[1557244800000,1.4975],[1557331200000,1.4897],[1557417600000,1.4984],[1557676800000,1.446],[1557763200000,1.4769],[1557849600000,1.4976],[1557936000000,1.5127],[1558022400000,1.5046],[1558281600000,1.4823],[1558368000000,1.4991],[1558454400000,1.4912],[1558540800000,1.4669],[1558627200000,1.4675],[1558972800000,1.4623],[1559059200000,1.4544],[1559145600000,1.4627],[1559232000000,1.4407],[1559491200000,1.4146],[1559577600000,1.4566],[1559664000000,1.4777],[1559750400000,1.494],[1560096000000,1.5346],[1560182400000,1.5351],[1560268800000,1.5267],[1560355200000,1.5301],[1560441600000,1.5181],[1560700800000,1.5204],[1560787200000,1.5451],[1560873600000,1.5503],[1560960000000,1.5693],[1561046400000,1.5552],[1561305600000,1.5579],[1561392000000,1.5328],[1561478400000,1.5512],[1561564800000,1.5569],[1561651200000,1.558],[1561824000000,1.5574],[1561910400000,1.5777],[1561996800000,1.5774],[1562083200000,1.5907],[1562256000000,1.589],[1562515200000,1.582],[1562601600000,1.5862],[1562688000000,1.5982],[1562774400000,1.5993],[1562860800000,1.6109],[1563120000000,1.6156],[1563206400000,1.6026],[1563292800000,1.6007],[1563379200000,1.6113],[1563465600000,1.6001],[1563724800000,1.6212],[1563811200000,1.6309],[1563897600000,1.6449],[1563984000000,1.6298],[1564070400000,1.6396],[1564329600000,1.6392],[1564416000000,1.6295],[1564502400000,1.6064],[1564588800000,1.6007],[1564675200000,1.5765],[1564934400000,1.52],[1565020800000,1.5538],[1565107200000,1.5704],[1565193600000,1.607],[1565280000000,1.5911],[1565539200000,1.5739],[1565625600000,1.613],[1565712000000,1.5664],[1565798400000,1.5628],[1565884800000,1.5913],[1566144000000,1.6157],[1566230400000,1.6096],[1566316800000,1.6271],[1566403200000,1.6243],[1566489600000,1.5747],[1566748800000,1.5955],[1566835200000,1.5988],[1566921600000,1.6008],[1567008000000,1.6276],[1567094400000,1.6282],[1567440000000,1.6085],[1567526400000,1.6346],[1567612800000,1.6666],[1567699200000,1.6642],[1567958400000,1.6527],[1568044800000,1.645],[1568131200000,1.6606],[1568217600000,1.6689],[1568563200000,1.6497],[1568649600000,1.6568],[1568736000000,1.6577],[1568822400000,1.6611],[1568908800000,1.6439],[1569168000000,1.6474],[1569254400000,1.6312],[1569340800000,1.6503],[1569427200000,1.651],[1569513600000,1.6308],[1569772800000,1.6464],[1570464000000,1.6119],[1570550400000,1.6342],[1570636800000,1.644],[1570723200000,1.6671],[1570982400000,1.6653],[1571068800000,1.6822],[1571155200000,1.6718],[1571241600000,1.669],[1571328000000,1.6524],[1571587200000,1.6686],[1571673600000,1.6467],[1571760000000,1.6505],[1571846400000,1.673],[1571932800000,1.6923],[1572192000000,1.7127],[1572278400000,1.6944],[1572364800000,1.7035],[1572451200000,1.7004],[1572537600000,1.7179],[1572796800000,1.7254],[1572883200000,1.7231],[1572969600000,1.716],[1573056000000,1.7262],[1573142400000,1.7343],[1573401600000,1.7348],[1573488000000,1.7407],[1573574400000,1.7457],[1573660800000,1.745],[1573747200000,1.7589],[1574006400000,1.7615],[1574092800000,1.7652],[1574179200000,1.7562],[1574265600000,1.7507],[1574352000000,1.7507],[1574611200000,1.7763],[1574697600000,1.7761],[1574784000000,1.7857],[1574870400000,1.7838],[1574956800000,1.7787],[1575216000000,1.7547],[1575302400000,1.7396],[1575388800000,1.7493],[1575475200000,1.759],[1575561600000,1.7741],[1575820800000,1.7664],[1575907200000,1.7664],[1575993600000,1.7778],[1576080000000,1.7929],[1576166400000,1.8013],[1576425600000,1.81],[1576512000000,1.8084],[1576598400000,1.8072],[1576684800000,1.8205],[1576771200000,1.8303],[1577030400000,1.8378],[1577116800000,1.8383],[1577203200000,1.837],[1577289600000,1.8425],[1577376000000,1.8447],[1577635200000,1.8326],[1577721600000,1.8375],[1577894400000,1.8636],[1577980800000,1.8466],[1578240000000,1.8522],[1578326400000,1.8497],[1578412800000,1.8619],[1578499200000,1.8831],[1578585600000,1.8759],[1578844800000,1.8971],[1578931200000,1.8787],[1579017600000,1.8771],[1579104000000,1.9006],[1579190400000,1.9153],[1579449600000,1.9095],[1579536000000,1.9062],[1579622400000,1.9186],[1579708800000,1.9279],[1580659200000,1.9119],[1580745600000,1.9736],[1580832000000,1.9855],[1580918400000,2.0068],[1581004800000,1.9844],[1581264000000,2.011],[1581350400000,2.0056],[1581436800000,2.0214],[1581523200000,2.0176],[1581609600000,2.0275],[1581868800000,2.026],[1581955200000,2.0203],[1582041600000,2.0456],[1582128000000,2.0257],[1582214400000,1.9859],[1582473600000,1.9055],[1582560000000,1.8447],[1582646400000,1.8492],[1582732800000,1.7503],[1582819200000,1.7605],[1583078400000,1.8554],[1583164800000,1.7809],[1583251200000,1.8419],[1583337600000,1.7847],[1583424000000,1.7482],[1583683200000,1.6209],[1583769600000,1.7214],[1583856000000,1.6474],[1583942400000,1.4894],[1584028800000,1.6746],[1584288000000,1.448],[1584374400000,1.5434],[1584460800000,1.4803],[1584547200000,1.5001],[1584633600000,1.4475],[1584892800000,1.4313],[1584979200000,1.5728],[1585065600000,1.5624],[1585152000000,1.655],[1585238400000,1.5773],[1585497600000,1.6408],[1585584000000,1.6211],[1585670400000,1.5478],[1585756800000,1.587],[1585843200000,1.5643],[1586188800000,1.6737],[1586275200000,1.707],[1586361600000,1.7087],[1586448000000,1.7045],[1586707200000,1.7071],[1586793600000,1.7773],[1586880000000,1.7413],[1586966400000,1.7693],[1587052800000,1.792],[1587312000000,1.76],[1587398400000,1.6934],[1587484800000,1.7588],[1587571200000,1.7469],[1587657600000,1.78],[1587916800000,1.7928],[1588003200000,1.7688],[1588089600000,1.8398],[1588176000000,1.8284],[1588694400000,1.8413],[1588780800000,1.8745],[1588867200000,1.8964],[1589126400000,1.9079],[1589212800000,1.8728],[1589299200000,1.8417],[1589385600000,1.8655],[1589472000000,1.8727],[1589731200000,1.9206],[1589817600000,1.91],[1589904000000,1.9507],[1589990400000,1.9224],[1590076800000,1.9319],[1590336000000,1.9391],[1590422400000,1.9391],[1590508800000,1.9437],[1590595200000,1.9452],[1590681600000,1.968],[1590940800000,1.9683],[1591027200000,1.9817],[1591113600000,1.9947],[1591200000000,1.977],[1591286400000,2.0262],[1591545600000,2.0322],[1591632000000,2.0365],[1591718400000,2.0688],[1591804800000,1.9515],[1591891200000,1.9837],[1592150400000,2.001],[1592236800000,2.0375],[1592323200000,2.0416],[1592409600000,2.0519],[1592496000000,2.0376],[1592755200000,2.0733],[1592841600000,2.0813],[1592928000000,2.0326],[1593360000000,2.0468],[1593446400000,2.0838],[1593532800000,2.0832],[1593619200000,2.0893],[1593705600000,2.0914],[1593964800000,2.1276],[1594051200000,2.0954],[1594137600000,2.124],[1594224000000,2.1279],[1594310400000,2.1229],[1594569600000,2.0803],[1594656000000,2.1049],[1594742400000,2.1153],[1594828800000,2.0883],[1594915200000,2.1018],[1595174400000,2.1495],[1595260800000,2.1256],[1595347200000,2.138],[1595433600000,2.091],[1595520000000,2.0677],[1595779200000,2.1019],[1595865600000,2.0731],[1595952000000,2.1047],[1596038400000,2.1135],[1596124800000,2.1619],[1596384000000,2.2172],[1596470400000,2.2159],[1596556800000,2.2216],[1596643200000,2.2423],[1596729600000,2.2094],[1596988800000,2.21],[1597075200000,2.1743],[1597161600000,2.2179],[1597248000000,2.2135],[1597334400000,2.2107],[1597593600000,2.2231],[1597680000000,2.2302],[1597766400000,2.2203],[1597852800000,2.2539],[1597939200000,2.274],[1598198400000,2.2956],[1598284800000,2.3065],[1598371200000,2.3475],[1598457600000,2.3421],[1598544000000,2.3629],[1598803200000,2.3609],[1598889600000,2.3982],[1598976000000,2.4148],[1599062400000,2.2821],[1599148800000,2.2549],[1599408000000,2.2556],[1599494400000,2.1585],[1599580800000,2.2281],[1599667200000,2.1775],[1599753600000,2.1637],[1600012800000,2.205],[1600099200000,2.2215],[1600185600000,2.1764],[1600272000000,2.1543],[1600358400000,2.1182],[1600617600000,2.1336],[1600704000000,2.1752],[1600790400000,2.1125],[1600876800000,2.126],[1600963200000,2.177],[1601222400000,2.2192],[1601308800000,2.2102],[1601395200000,2.2269],[1602172800000,2.2782],[1602432000000,2.3147],[1602518400000,2.3065],[1602604800000,2.3002],[1602691200000,2.2871],[1602777600000,2.2795],[1603036800000,2.2283],[1603123200000,2.2337],[1603209600000,2.2261],[1603296000000,2.2089],[1603382400000,2.2111],[1603641600000,2.1661],[1603728000000,2.1852],[1603814400000,2.1016],[1603900800000,2.1417],[1603987200000,2.0911],[1604246400000,2.0921],[1604332800000,2.1247],[1604419200000,2.1956],[1604505600000,2.2647],[1604592000000,2.2515],[1604851200000,2.2302],[1604937600000,2.1818],[1605024000000,2.2385],[1605110400000,2.2242],[1605196800000,2.2439],[1605456000000,2.2565],[1605542400000,2.235],[1605628800000,2.2067],[1605715200000,2.2204],[1605801600000,2.2085],[1606060800000,2.2054],[1606147200000,2.2375],[1606233600000,2.2403],[1606320000000,2.2413],[1606406400000,2.2513],[1606665600000,2.266],[1606752000000,2.3009],[1606838400000,2.2855],[1606924800000,2.2826],[1607011200000,2.3016],[1607270400000,2.3022],[1607356800000,2.3083],[1607443200000,2.2667],[1607529600000,2.274],[1607616000000,2.2667],[1607875200000,2.2739],[1607961600000,2.3111],[1608048000000,2.3245],[1608134400000,2.3412],[1608220800000,2.3322],[1608480000000,2.3403],[1608566400000,2.3549],[1608652800000,2.3421],[1608739200000,2.3513],[1608825600000,2.3502],[1609084800000,2.3723],[1609171200000,2.3682],[1609257600000,2.3632],[1609344000000,null],[1609689600000,2.3328],[1609776000000,2.325],[1609862400000,2.2798],[1609948800000,2.3372],[1610035200000,2.3577],[1610294400000,2.3384],[1610380800000,2.3311],[1610467200000,2.3376],[1610553600000,2.3217],[1610640000000,2.2962],[1610899200000,2.3036],[1610985600000,2.3335],[1611072000000,2.3769],[1611158400000,2.4012],[1611244800000,2.3909],[1611504000000,2.4181],[1611590400000,2.4193],[1611676800000,2.368],[1611763200000,2.3849],[1611849600000,2.326],[1612108800000,2.3779],[1612195200000,2.411],[1612281600000,2.4016],[1612368000000,2.4347],[1612454400000,2.4344],[1612713600000,2.4568],[1612800000000,2.4472],[1612886400000,null],[1613577600000,2.4395],[1613664000000,2.4392],[1613923200000,2.3843],[1614009600000,2.3769],[1614096000000,2.4146],[1614182400000,2.3303],[1614268800000,2.3505],[1614528000000,2.423],[1614614400000,2.3805],[1614700800000,2.3222],[1614787200000,2.2792],[1614873600000,2.3271],[1615132800000,2.2682],[1615219200000,2.3616],[1615305600000,2.344],[1615392000000,2.3867],[1615478400000,2.3659],[1615737600000,2.3967],[1615824000000,2.4152],[1615910400000,2.4108],[1615996800000,2.3413],[1616083200000,2.3448],[1616342400000,2.3908],[1616428800000,2.3707],[1616515200000,2.3503],[1616601600000,2.3506],[1616688000000,2.4103],[1616947200000,2.3999],[1617033600000,2.3866],[1617120000000,2.4231],[1617206400000,2.4664],[1617292800000,2.4688],[1617638400000,2.5026],[1617724800000,2.5099],[1617811200000,2.5468],[1617897600000,2.5685],[1618156800000,2.5631],[1618243200000,2.5814],[1618329600000,2.5499],[1618416000000,2.5901],[1618502400000,2.5889],[1618761600000,2.5652],[1618848000000,2.5398],[1618934400000,2.5619],[1619020800000,2.5279],[1619107200000,2.5634],[1619366400000,2.5759],[1619452800000,2.5696],[1619539200000,2.5432],[1619625600000,2.5372],[1619712000000,2.5016],[1620230400000,2.4797],[1620316800000,2.4908],[1620576000000,2.4212],[1620662400000,2.4092],[1620748800000,2.344],[1620835200000,2.3875],[1620921600000,2.4321],[1621180800000,2.4077],[1621267200000,2.3909],[1621353600000,2.3954],[1621440000000,2.4455],[1621526400000,2.4272],[1621785600000,2.4712],[1621872000000,2.4678],[1621958400000,2.4605],[1622044800000,2.4457],[1622131200000,2.4462],[1622390400000,2.4392],[1622476800000,2.4252],[1622563200000,2.4472],[1622649600000,2.4274],[1622736000000,2.4813],[1622995200000,2.4765],[1623081600000,2.475],[1623168000000,2.4782],[1623254400000,2.4966],[1623340800000,2.5051],[1623686400000,2.5226],[1623772800000,2.5104],[1623859200000,2.5468],[1623945600000,2.5266],[1624204800000,2.5597],[1624291200000,2.584],[1624377600000,2.5815],[1624464000000,2.6053],[1624550400000,2.5984],[1624809600000,2.6188],[1624896000000,2.6357],[1624982400000,2.6346],[1625068800000,2.6415],[1625155200000,2.6765],[1625414400000,2.6756],[1625500800000,2.6813],[1625587200000,2.7002],[1625673600000,2.6744],[1625760000000,2.7005],[1626019200000,2.7027],[1626105600000,2.7125],[1626192000000,2.7338],[1626278400000,2.7048],[1626364800000,2.6827],[1626624000000,2.6472],[1626710400000,2.6904],[1626796800000,2.7149],[1626883200000,2.7251],[1626969600000,2.7509],[1627228800000,2.7549],[1627315200000,2.7272],[1627401600000,2.7333],[1627488000000,2.7459],[1627574400000,2.7292],[1627833600000,2.722],[1627920000000,2.7375],[1628006400000,2.7446],[1628092800000,2.7605],[1628179200000,2.755]]</t>
+  </si>
+  <si>
+    <t>[[1336060800000, 0.0], [1338825600000, -5.59], [1340121600000, -5.33], [1341417600000, -9.38], [1342713600000, -10.41], [1344182400000, -10.78], [1345478400000, -13.4], [1346774400000, -17.63], [1348070400000, -17.78], [1349884800000, -13.84], [1351180800000, -15.9], [1352649600000, -15.75], [1353945600000, -19.55], [1355241600000, -15.2], [1356537600000, -8.61], [1358265600000, -3.67], [1359561600000, 0.37], [1361462400000, -3.04], [1362931200000, -3.23], [1364227200000, -3.9], [1365696000000, -7.97], [1367424000000, -8.49], [1368720000000, -3.1], [1370188800000, -2.49], [1371744000000, -12.59], [1372953600000, -15.54], [1374422400000, -16.1], [1375718400000, -12.53], [1377014400000, -11.88], [1378310400000, -10.63], [1379952000000, -6.68], [1381852800000, -7.55], [1383148800000, -9.39], [1384444800000, -10.29], [1385913600000, -7.75], [1387209600000, -10.13], [1388592000000, -11.47], [1389888000000, -16.98], [1391961600000, -13.62], [1393257600000, -17.79], [1394553600000, -19.49], [1395849600000, -17.94], [1397404800000, -13.68], [1398700800000, -17.87], [1400169600000, -18.23], [1401724800000, -17.97], [1403020800000, -17.32], [1404316800000, -16.02], [1405612800000, -15.91], [1407081600000, -7.68], [1408377600000, -7.69], [1409673600000, -6.4], [1411056000000, -5.77], [1413129600000, -4.73], [1414425600000, -6.25], [1415721600000, 0.43], [1417017600000, 6.47], [1418313600000, 23.19], [1419782400000, 33.24], [1421251200000, 38.56], [1422547200000, 32.05], [1424016000000, 34.56], [1425916800000, 35.31], [1427212800000, 51.23], [1428595200000, 66.62], [1430064000000, 84.49], [1431446400000, 81.1], [1432742400000, 85.52], [1434038400000, 104.27], [1435593600000, 72.71], [1436889600000, 54.13], [1438185600000, 48.71], [1439481600000, 58.62], [1440950400000, 31.43], [1442419200000, 26.44], [1444320000000, 30.65], [1445788800000, 40.39], [1447084800000, 49.84], [1448380800000, 47.91], [1449676800000, 41.76], [1450972800000, 50.06], [1452528000000, 25.81], [1453824000000, 14.61], [1455724800000, 19.43], [1457020800000, 21.01], [1458489600000, 27.09], [1459872000000, 27.38], [1461168000000, 23.55], [1462723200000, 19.97], [1464019200000, 19.97], [1465315200000, 24.22], [1466956800000, 23.02], [1468252800000, 29.78], [1469548800000, 28.1], [1470844800000, 28.84], [1472140800000, 31.83], [1473609600000, 30.18], [1475078400000, 29.5], [1476979200000, 32.76], [1478448000000, 33.86], [1479744000000, 38.26], [1481040000000, 38.56], [1482336000000, 32.9], [1483632000000, 33.36], [1485100800000, 33.96], [1487001600000, 36.76], [1488297600000, 37.63], [1489593600000, 38.54], [1490889600000, 37.59], [1492531200000, 37.18], [1493913600000, 34.65], [1495382400000, 36.02], [1496851200000, 42.11], [1498147200000, 45.2], [1499616000000, 47.0], [1500912000000, 50.27], [1502208000000, 50.87], [1503504000000, 51.06], [1504800000000, 54.87], [1506268800000, 54.46], [1508169600000, 58.26], [1509465600000, 61.6], [1510761600000, 65.93], [1512057600000, 61.66], [1513526400000, 60.6], [1514822400000, 64.67], [1516118400000, 71.14], [1517414400000, 71.02], [1519315200000, 63.97], [1520784000000, 66.22], [1522080000000, 57.52], [1523548800000, 55.82], [1525190400000, 51.45], [1526486400000, 55.54], [1527782400000, 51.99], [1529337600000, 46.64], [1530547200000, 38.43], [1531843200000, 40.32], [1533139200000, 38.01], [1534435200000, 32.36], [1535904000000, 36.24], [1537200000000, 34.19], [1539187200000, 28.21], [1540483200000, 30.23], [1541952000000, 31.46], [1543248000000, 28.67], [1544544000000, 30.09], [1545840000000, 22.72], [1547395200000, 25.82], [1548691200000, 30.97], [1550592000000, 41.46], [1551888000000, 55.94], [1553184000000, 56.92], [1554739200000, 66.8], [1556035200000, 64.9], [1557763200000, 49.16], [1559059200000, 50.28], [1560441600000, 50.45], [1561824000000, 58.03], [1563120000000, 58.81], [1564416000000, 61.05], [1565712000000, 53.46], [1567008000000, 58.05], [1568563200000, 65.07], [1570464000000, 60.02], [1571760000000, 61.37], [1573056000000, 66.37], [1574352000000, 60.44], [1575820800000, 62.11], [1577116800000, 66.22], [1578499200000, 73.33], [1580659200000, 53.36], [1581955200000, 68.66], [1583251200000, 71.01], [1584547200000, 49.13], [1585843200000, 54.26], [1587398400000, 58.14], [1589126400000, 64.65], [1590422400000, 61.15], [1591718400000, 68.57], [1593360000000, 71.98], [1594656000000, 102.04], [1595952000000, 97.33], [1597248000000, 95.56], [1598544000000, 104.54], [1600012800000, 96.33], [1601308800000, 93.98], [1603296000000, 101.76], [1604592000000, 106.33], [1606060800000, 111.39], [1607356800000, 111.7], [1608652800000, 111.49], [1610035200000, 132.04], [1611504000000, 137.43], [1612800000000, 139.98], [1614700800000, 130.06], [1615996800000, 116.97], [1617292800000, 117.84], [1618848000000, 114.57], [1620576000000, 110.94], [1621872000000, 124.84], [1623168000000, 121.73], [1624550400000, 122.62], [1626019200000, 118.82], [1627315200000, 103.21], [1628438400000, 113.28]]</t>
   </si>
   <si>
     <t>510300</t>
@@ -62,6 +77,9 @@
     <t xml:space="preserve"> [[1336060800000,1.007],[1336665600000,0.978],[1337270400000,0.955],[1337529600000,0.96],[1337875200000,0.955],[1338134400000,0.97],[1338220800000,0.984],[1338307200000,0.98],[1338393600000,0.977],[1338480000000,0.978],[1338739200000,0.951],[1338825600000,0.951],[1338912000000,0.95],[1338998400000,0.946],[1339084800000,0.94],[1339344000000,0.953],[1339430400000,0.946],[1339516800000,0.962],[1339603200000,0.955],[1339689600000,0.958],[1339948800000,0.963],[1340035200000,0.955],[1340121600000,0.953],[1340208000000,0.939],[1340553600000,0.919],[1340640000000,0.92],[1340726400000,0.917],[1340812800000,0.91],[1340899200000,0.923],[1340985600000,0.923],[1341158400000,0.924],[1341244800000,0.926],[1341331200000,0.924],[1341417600000,0.913],[1341504000000,0.928],[1341763200000,0.908],[1341849600000,0.904],[1341936000000,0.911],[1342022400000,0.92],[1342108800000,0.921],[1342368000000,0.903],[1342454400000,0.908],[1342540800000,0.908],[1342627200000,0.912],[1342713600000,0.902],[1342972800000,0.89],[1343059200000,0.894],[1343145600000,0.888],[1343232000000,0.883],[1343318400000,0.884],[1343577600000,0.879],[1343664000000,0.878],[1343750400000,0.888],[1343836800000,0.879],[1343923200000,0.887],[1344182400000,0.898],[1344268800000,0.9],[1344355200000,0.9],[1344441600000,0.908],[1344528000000,0.904],[1344787200000,0.886],[1344873600000,0.888],[1344960000000,0.879],[1345046400000,0.874],[1345132800000,0.872],[1345392000000,0.868],[1345478400000,0.872],[1345564800000,0.865],[1345651200000,0.868],[1345737600000,0.858],[1345996800000,0.84],[1346083200000,0.844],[1346169600000,0.835],[1346256000000,0.834],[1346342400000,0.831],[1346601600000,0.84],[1346688000000,0.831],[1346774400000,0.829],[1346860800000,0.836],[1346947200000,0.874],[1347206400000,0.877],[1347292800000,0.871],[1347379200000,0.875],[1347465600000,0.867],[1347552000000,0.873],[1347811200000,0.852],[1347897600000,0.843],[1347984000000,0.847],[1348070400000,0.828],[1348156800000,0.829],[1348416000000,0.835],[1348502400000,0.833],[1348588800000,0.824],[1348675200000,0.849],[1348761600000,0.864],[1348934400000,0.864],[1349625600000,0.855],[1349712000000,0.874],[1349798400000,0.876],[1349884800000,0.868],[1349971200000,0.868],[1350230400000,0.865],[1350316800000,0.866],[1350403200000,0.867],[1350489600000,0.88],[1350576000000,0.879],[1350835200000,0.882],[1350921600000,0.871],[1351008000000,0.87],[1351094400000,0.863],[1351180800000,0.847],[1351440000000,0.842],[1351526400000,0.844],[1351612800000,0.849],[1351699200000,0.866],[1351785600000,0.869],[1352044800000,0.867],[1352131200000,0.864],[1352217600000,0.862],[1352304000000,0.846],[1352390400000,0.844],[1352649600000,0.848],[1352736000000,0.834],[1352822400000,0.838],[1352908800000,0.826],[1352995200000,0.821],[1353254400000,0.819],[1353340800000,0.816],[1353427200000,0.827],[1353513600000,0.821],[1353600000000,0.826],[1353859200000,0.819],[1353945600000,0.81],[1354032000000,0.802],[1354118400000,0.797],[1354204800000,0.806],[1354464000000,0.795],[1354550400000,0.803],[1354636800000,0.832],[1354723200000,0.83],[1354809600000,0.846],[1355068800000,0.855],[1355155200000,0.851],[1355241600000,0.854],[1355328000000,0.845],[1355414400000,0.887],[1355673600000,0.891],[1355760000000,0.892],[1355846400000,0.893],[1355932800000,0.898],[1356019200000,0.893],[1356278400000,0.896],[1356364800000,0.921],[1356451200000,0.925],[1356537600000,0.92],[1356624000000,0.933],[1356883200000,0.949],[1357228800000,0.95],[1357488000000,0.9537],[1357574400000,0.9499],[1357660800000,0.95009999999999994],[1357747200000,0.9518],[1357833600000,0.9343],[1358092800000,0.9692],[1358179200000,0.9759],[1358265600000,0.969],[1358352000000,0.9599],[1358438400000,0.9757],[1358697600000,0.9815],[1358784000000,0.9763],[1358870400000,0.9803],[1358956800000,0.971],[1359043200000,0.967],[1359302400000,0.9965],[1359388800000,1.0052],[1359475200000,1.0098],[1359561600000,1.0091],[1359648000000,1.0297],[1359907200000,1.0312],[1359993600000,1.04],[1360080000000,1.0415],[1360166400000,1.0355],[1360252800000,1.04],[1361116800000,1.0272],[1361203200000,1.0081],[1361289600000,1.0144],[1361376000000,0.9804],[1361462400000,0.9752],[1361721600000,0.9782],[1361808000000,0.9644],[1361894400000,0.9744],[1361980800000,1.0033],[1362067200000,1.0015],[1362326400000,0.956],[1362412800000,0.9843],[1362499200000,0.9945],[1362585600000,0.9832],[1362672000000,0.9787],[1362931200000,0.9733],[1363017600000,0.9596],[1363104000000,0.9492],[1363190400000,0.9517],[1363276800000,0.9537],[1363536000000,0.9399],[1363622400000,0.9483],[1363708800000,0.9795],[1363795200000,0.9813],[1363881600000,0.9826],[1364140800000,0.9807],[1364227200000,0.9667],[1364313600000,0.9698],[1364400000000,0.9388],[1364486400000,0.9375],[1364745600000,0.9369],[1364832000000,0.9346],[1364918400000,0.9338],[1365350400000,0.9298],[1365436800000,0.9361],[1365523200000,0.9346],[1365609600000,0.9319],[1365696000000,0.9262],[1365955200000,0.9168],[1366041600000,0.9251],[1366128000000,0.9247],[1366214400000,0.927],[1366300800000,0.9525],[1366560000000,0.9513],[1366646400000,0.9213],[1366732800000,0.9382],[1366819200000,0.928],[1366905600000,0.9204],[1367424000000,0.9211],[1367510400000,0.9373],[1367769600000,0.9495],[1367856000000,0.951],[1367942400000,0.9559],[1368028800000,0.9503],[1368115200000,0.9552],[1368374400000,0.9514],[1368460800000,0.9376],[1368547200000,0.9427],[1368633600000,0.96],[1368720000000,0.9746],[1368979200000,0.9813],[1369065600000,0.9833],[1369152000000,0.9846],[1369238400000,0.9719],[1369324800000,0.9773],[1369584000000,0.9781],[1369670400000,0.9947],[1369756800000,0.994],[1369843200000,0.991],[1369929600000,0.9808],[1370188800000,0.9807],[1370275200000,0.9672],[1370361600000,0.9656],[1370448000000,0.954],[1370534400000,0.9388],[1371052800000,0.9092],[1371139200000,0.9156],[1371398400000,0.9109],[1371484800000,0.9169],[1371571200000,0.9106],[1371657600000,0.8813],[1371744000000,0.8804],[1372003200000,0.8259],[1372089600000,0.824],[1372176000000,0.826],[1372262400000,0.8238],[1372348800000,0.8394],[1372521600000,0.8394],[1372608000000,0.8444],[1372694400000,0.8477],[1372780800000,0.8418],[1372867200000,0.8489],[1372953600000,0.8511],[1373212800000,0.8283],[1373299200000,0.828],[1373385600000,0.8511],[1373472000000,0.8909],[1373558400000,0.8717],[1373817600000,0.8836],[1373904000000,0.8875],[1373990400000,0.8747],[1374076800000,0.8609],[1374163200000,0.8403],[1374422400000,0.8455],[1374508800000,0.8695],[1374595200000,0.8636],[1374681600000,0.8596],[1374768000000,0.8545],[1375027200000,0.8365],[1375113600000,0.8415],[1375200000000,0.843],[1375286400000,0.8627],[1375372800000,0.8635],[1375632000000,0.8752],[1375718400000,0.881],[1375804800000,0.8761],[1375891200000,0.875],[1375977600000,0.8786],[1376236800000,0.9037],[1376323200000,0.9061],[1376409600000,0.9024],[1376496000000,0.8921],[1376582400000,0.8855],[1376841600000,0.896],[1376928000000,0.8889],[1377014400000,0.8874],[1377100800000,0.8858],[1377187200000,0.8795],[1377446400000,0.8977],[1377532800000,0.8997],[1377619200000,0.8949],[1377705600000,0.8911],[1377792000000,0.8894],[1378051200000,0.8918],[1378137600000,0.9046],[1378224000000,0.9032],[1378310400000,0.8998],[1378396800000,0.9059],[1378656000000,0.9371],[1378742400000,0.9507],[1378828800000,0.9537],[1378915200000,0.9629],[1379001600000,0.9558],[1379260800000,0.9517],[1379347200000,0.9329],[1379433600000,0.9349],[1379865600000,0.9499],[1379952000000,0.9391],[1380038400000,0.9335],[1380124800000,0.9166],[1380211200000,0.9206],[1380470400000,0.9259],[1381161600000,0.9382],[1381248000000,0.9426],[1381334400000,0.9336],[1381420800000,0.9484],[1381680000000,0.9499],[1381766400000,0.948],[1381852800000,0.9305],[1381939200000,0.9273],[1382025600000,0.9321],[1382284800000,0.9492],[1382371200000,0.9396],[1382457600000,0.9293],[1382544000000,0.9224],[1382630400000,0.9104],[1382889600000,0.9094],[1382976000000,0.9117],[1383062400000,0.9251],[1383148800000,0.9122],[1383235200000,0.9164],[1383494400000,0.9147],[1383580800000,0.9159],[1383667200000,0.9045],[1383753600000,0.8996],[1383840000000,0.8872],[1384099200000,0.8902],[1384185600000,0.8993],[1384272000000,0.8796],[1384358400000,0.8858],[1384444800000,0.9032],[1384704000000,0.9326],[1384790400000,0.9263],[1384876800000,0.931],[1384963200000,0.9254],[1385049600000,0.9208],[1385308800000,0.9172],[1385395200000,0.9168],[1385481600000,0.9269],[1385568000000,0.9365],[1385654400000,0.9362],[1385913600000,0.9284],[1386000000000,0.9375],[1386086400000,0.9497],[1386172800000,0.947],[1386259200000,0.941],[1386518400000,0.9405],[1386604800000,0.9415],[1386691200000,0.9262],[1386777600000,0.925],[1386864000000,0.9241],[1387123200000,0.9092],[1387209600000,0.9048],[1387296000000,0.9051],[1387382400000,0.8957],[1387468800000,0.8751],[1387728000000,0.8775],[1387814400000,0.8788],[1387900800000,0.8852],[1387987200000,0.8701],[1388073600000,0.8846],[1388332800000,0.883],[1388419200000,0.8946],[1388592000000,0.8915],[1388678400000,0.8796],[1388937600000,0.8597],[1389024000000,0.8595],[1389110400000,0.861],[1389196800000,0.8535],[1389283200000,0.8468],[1389542400000,0.8425],[1389628800000,0.8498],[1389715200000,0.8483],[1389801600000,0.8494],[1389888000000,0.8368],[1390147200000,0.832],[1390233600000,0.8401],[1390320000000,0.8609],[1390406400000,0.8565],[1390492800000,0.8615],[1390752000000,0.8505],[1390838400000,0.8519],[1390924800000,0.8549],[1391011200000,0.8455],[1391702400000,0.8491],[1391961600000,0.8695],[1392048000000,0.8761],[1392134400000,0.8782],[1392220800000,0.8739],[1392307200000,0.8798],[1392566400000,0.8857],[1392652800000,0.875],[1392739200000,0.8846],[1392825600000,0.8768],[1392912000000,0.8683],[1393171200000,0.8499],[1393257600000,0.829],[1393344000000,0.8309],[1393430400000,0.8275],[1393516800000,0.8365],[1393776000000,0.8408],[1393862400000,0.8384],[1393948800000,0.8309],[1394035200000,0.8345],[1394121600000,0.8325],[1394380800000,0.8064],[1394467200000,0.8104],[1394553600000,0.8124],[1394640000000,0.8221],[1394726400000,0.8156],[1394985600000,0.8231],[1395072000000,0.8213],[1395158400000,0.8149],[1395244800000,0.8023],[1395331200000,0.8288],[1395590400000,0.8352],[1395676800000,0.8345],[1395763200000,0.8332],[1395849600000,0.8275],[1395936000000,0.8261],[1396195200000,0.824],[1396281600000,0.8302],[1396368000000,0.8367],[1396454400000,0.8309],[1396540800000,0.8383],[1396886400000,0.8574],[1396972800000,0.858],[1397059200000,0.8708],[1397145600000,0.8697],[1397404800000,0.8689],[1397491200000,0.8546],[1397577600000,0.8557],[1397664000000,0.8528],[1397750400000,0.8526],[1398009600000,0.8389],[1398096000000,0.8424],[1398182400000,0.8416],[1398268800000,0.8402],[1398355200000,0.8319],[1398614400000,0.8196],[1398700800000,0.8282],[1398787200000,0.8285],[1399219200000,0.8276],[1399305600000,0.828],[1399392000000,0.8206],[1399478400000,0.8207],[1399564800000,0.82],[1399824000000,0.837],[1399910400000,0.8351],[1399996800000,0.8343],[1400083200000,0.8239],[1400169600000,0.8247],[1400428800000,0.8134],[1400515200000,0.8136],[1400601600000,0.8211],[1400688000000,0.8195],[1400774400000,0.8262],[1401033600000,0.8291],[1401120000000,0.826],[1401206400000,0.8342],[1401292800000,0.829],[1401379200000,0.8296],[1401724800000,0.8273],[1401811200000,0.8193],[1401897600000,0.8277],[1401984000000,0.8225],[1402243200000,0.8222],[1402329600000,0.8322],[1402416000000,0.832],[1402502400000,0.8295],[1402588800000,0.8382],[1402848000000,0.8441],[1402934400000,0.8366],[1403020800000,0.8336],[1403107200000,0.8214],[1403193600000,0.8258],[1403452800000,0.8253],[1403539200000,0.8304],[1403625600000,0.8268],[1403712000000,0.8329],[1403798400000,0.8339],[1404057600000,0.8395],[1404144000000,0.8395],[1404230400000,0.842],[1404316800000,0.8462],[1404403200000,0.8459],[1404662400000,0.8451],[1404748800000,0.8466],[1404835200000,0.835],[1404921600000,0.8337],[1405008000000,0.8382],[1405267200000,0.8475],[1405353600000,0.8488],[1405440000000,0.8476],[1405526400000,0.8432],[1405612800000,0.8472],[1405872000000,0.848],[1405958400000,0.858],[1406044800000,0.8599],[1406131200000,0.8746],[1406217600000,0.8837],[1406476800000,0.9073],[1406563200000,0.9102],[1406649600000,0.9072],[1406736000000,0.9178],[1406822400000,0.91],[1407081600000,0.9272],[1407168000000,0.9249],[1407254400000,0.9225],[1407340800000,0.9091],[1407427200000,0.9108],[1407686400000,0.9235],[1407772800000,0.9204],[1407859200000,0.9211],[1407945600000,0.9125],[1408032000000,0.9219],[1408291200000,0.927],[1408377600000,0.9271],[1408464000000,0.9239],[1408550400000,0.9194],[1408636800000,0.9235],[1408896000000,0.915],[1408982400000,0.9079],[1409068800000,0.9093],[1409155200000,0.9032],[1409241600000,0.9134],[1409500800000,0.9197],[1409587200000,0.9313],[1409673600000,0.9397],[1409760000000,0.9462],[1409846400000,0.9548],[1410192000000,0.9531],[1410278400000,0.9484],[1410364800000,0.945],[1410451200000,0.9508],[1410710400000,0.9503],[1410796800000,0.9322],[1410883200000,0.9368],[1410969600000,0.9396],[1411056000000,0.9458],[1411315200000,0.9283],[1411401600000,0.936],[1411488000000,0.9519],[1411574400000,0.9499],[1411660800000,0.95],[1411920000000,0.9538],[1412006400000,0.9549],[1412697600000,0.965],[1412784000000,0.9662],[1412870400000,0.9604],[1413129600000,0.9559],[1413216000000,0.9526],[1413302400000,0.9589],[1413388800000,0.9517],[1413475200000,0.9507],[1413734400000,0.9555],[1413820800000,0.9474],[1413907200000,0.942],[1413993600000,0.9335],[1414080000000,0.9314],[1414339200000,0.9233],[1414425600000,0.9411],[1414512000000,0.954],[1414598400000,0.9603],[1414684800000,0.9747],[1414944000000,0.9763],[1415030400000,0.9764],[1415116800000,0.9727],[1415203200000,0.9736],[1415289600000,0.9721],[1415548800000,0.9955],[1415635200000,0.9928],[1415721600000,1.0061],[1415808000000,1.0005],[1415894400000,1.001],[1416153600000,0.9956],[1416240000000,0.986],[1416326400000,0.9844],[1416412800000,0.9844],[1416499200000,1.002],[1416758400000,1.0266],[1416844800000,1.04],[1416931200000,1.0535],[1417017600000,1.0647],[1417104000000,1.0841],[1417363200000,1.0874],[1417449600000,1.1258],[1417536000000,1.142],[1417622400000,1.1925],[1417708800000,1.1994],[1417968000000,1.2466],[1418054400000,1.1925],[1418140800000,1.2361],[1418227200000,1.2229],[1418313600000,1.2272],[1418572800000,1.2353],[1418659200000,1.267],[1418745600000,1.2888],[1418832000000,1.2843],[1418918400000,1.2986],[1419177600000,1.303],[1419264000000,1.2761],[1419350400000,1.2407],[1419436800000,1.2801],[1419523200000,1.321],[1419782400000,1.3249],[1419868800000,1.3259],[1419955200000,1.3541],[1420387200000,1.3945],[1420473600000,1.3935],[1420560000000,1.393],[1420646400000,1.3612],[1420732800000,1.3562],[1420992000000,1.3438],[1421078400000,1.3439],[1421164800000,1.3392],[1421251200000,1.3766],[1421337600000,1.3878],[1421596800000,1.2834],[1421683200000,1.299],[1421769600000,1.355],[1421856000000,1.362],[1421942400000,1.3637],[1422201600000,1.3764],[1422288000000,1.3642],[1422374400000,1.3459],[1422460800000,1.3299],[1422547200000,1.3132],[1422806400000,1.2841],[1422892800000,1.3146],[1422979200000,1.3012],[1423065600000,1.2883],[1423152000000,1.2682],[1423411200000,1.2805],[1423497600000,1.303],[1423584000000,1.313],[1423670400000,1.3163],[1423756800000,1.3261],[1424016000000,1.3373],[1424102400000,1.3458],[1424793600000,1.3296],[1424880000000,1.3618],[1424966400000,1.3641],[1425225600000,1.3746],[1425312000000,1.3401],[1425398400000,1.3485],[1425484800000,1.3358],[1425571200000,1.3291],[1425830400000,1.351],[1425916800000,1.3446],[1426003200000,1.3459],[1426089600000,1.3708],[1426176000000,1.3799],[1426435200000,1.4122],[1426521600000,1.4308],[1426608000000,1.4629],[1426694400000,1.4607],[1426780800000,1.4796],[1427040000000,1.5086],[1427126400000,1.5093],[1427212800000,1.4976],[1427299200000,1.5011],[1427385600000,1.5089],[1427644800000,1.5512],[1427731200000,1.5371],[1427817600000,1.5638],[1427904000000,1.5644],[1427990400000,1.5813],[1428336000000,1.6139],[1428422400000,1.6273],[1428508800000,1.6158],[1428595200000,1.6457],[1428854400000,1.6741],[1428940800000,1.6808],[1429027200000,1.6606],[1429113600000,1.709],[1429200000000,1.7393],[1429459200000,1.7123],[1429545600000,1.7478],[1429632000000,1.7918],[1429718400000,1.7925],[1429804800000,1.7791],[1430064000000,1.8176],[1430150400000,1.7945],[1430236800000,1.8057],[1430323200000,1.798],[1430668800000,1.8114],[1430755200000,1.741],[1430841600000,1.7252],[1430928000000,1.6946],[1431014400000,1.7271],[1431273600000,1.775],[1431360000000,1.7953],[1431446400000,1.7849],[1431532800000,1.7788],[1431619200000,1.7488],[1431878400000,1.7323],[1431964800000,1.7893],[1432051200000,1.7996],[1432137600000,1.8303],[1432224000000,1.8708],[1432483200000,1.9246],[1432569600000,1.9607],[1432656000000,1.9549],[1432742400000,1.8274],[1432828800000,1.8293],[1433088000000,1.9153],[1433174400000,1.9461],[1433260800000,1.9413],[1433347200000,1.9548],[1433433600000,1.9733],[1433692800000,2.0173],[1433779200000,2.0039],[1433865600000,2.0],[1433952000000,1.9984],[1434038400000,2.0079],[1434297600000,1.9681],[1434384000000,1.913],[1434470400000,1.9399],[1434556800000,1.8648],[1434643200000,1.7603],[1434988800000,1.8162],[1435075200000,1.8505],[1435161600000,1.7875],[1435248000000,1.6537],[1435507200000,1.6007],[1435593600000,1.7043],[1435680000000,1.6238],[1435766400000,1.5705],[1435852800000,1.4922],[1436112000000,1.5342],[1436198400000,1.509],[1436284800000,1.411],[1436371200000,1.4987],[1436457600000,1.5769],[1436716800000,1.6157],[1436803200000,1.579],[1436889600000,1.5256],[1436976000000,1.5372],[1437062400000,1.5957],[1437321600000,1.5994],[1437408000000,1.6022],[1437494400000,1.5996],[1437580800000,1.6344],[1437667200000,1.6069],[1437926400000,1.4744],[1438012800000,1.4717],[1438099200000,1.5162],[1438185600000,1.4734],[1438272000000,1.4741],[1438531200000,1.4785],[1438617600000,1.5227],[1438704000000,1.4924],[1438790400000,1.4795],[1438876800000,1.5075],[1439136000000,1.5733],[1439222400000,1.5666],[1439308800000,1.5477],[1439395200000,1.5694],[1439481600000,1.5687],[1439740800000,1.57],[1439827200000,1.4766],[1439913600000,1.4992],[1440000000000,1.4528],[1440086400000,1.3889],[1440345600000,1.2722],[1440432000000,1.1859],[1440518400000,1.1795],[1440604800000,1.2466],[1440691200000,1.2976],[1440950400000,1.3072],[1441036800000,1.3056],[1441123200000,1.3072],[1441555200000,1.2643],[1441641600000,1.2954],[1441728000000,1.3199],[1441814400000,1.3041],[1441900800000,1.3],[1442160000000,1.275],[1442246400000,1.2271],[1442332800000,1.2859],[1442419200000,1.2592],[1442505600000,1.265],[1442764800000,1.2867],[1442851200000,1.2984],[1442937600000,1.2707],[1443024000000,1.279],[1443110400000,1.2592],[1443369600000,1.2633],[1443456000000,1.2395],[1443542400000,1.2486],[1444233600000,1.2834],[1444320000000,1.2997],[1444579200000,1.3401],[1444665600000,1.3391],[1444752000000,1.3247],[1444838400000,1.3548],[1444924800000,1.3724],[1445184000000,1.3725],[1445270400000,1.3889],[1445356800000,1.35],[1445443200000,1.3692],[1445529600000,1.3868],[1445788800000,1.3934],[1445875200000,1.3949],[1445961600000,1.3694],[1446048000000,1.3726],[1446134400000,1.373],[1446393600000,1.3512],[1446480000000,1.3473],[1446566400000,1.4083],[1446652800000,1.4369],[1446739200000,1.4695],[1446998400000,1.4869],[1447084800000,1.4843],[1447171200000,1.4845],[1447257600000,1.4702],[1447344000000,1.452],[1447603200000,1.4594],[1447689600000,1.4572],[1447776000000,1.4413],[1447862400000,1.4634],[1447948800000,1.4632],[1448208000000,1.4552],[1448294400000,1.4555],[1448380800000,1.4658],[1448467200000,1.4575],[1448553600000,1.3822],[1448812800000,1.3858],[1448899200000,1.395],[1448985600000,1.4432],[1449072000000,1.4535],[1449158400000,1.4268],[1449417600000,1.4304],[1449504000000,1.4063],[1449590400000,1.4111],[1449676800000,1.4066],[1449763200000,1.4008],[1450022400000,1.4393],[1450108800000,1.4329],[1450195200000,1.4296],[1450281600000,1.4558],[1450368000000,1.4603],[1450627200000,1.4968],[1450713600000,1.5006],[1450800000000,1.4968],[1450886400000,1.4831],[1450972800000,1.4864],[1451232000000,1.4452],[1451318400000,1.4578],[1451404800000,1.4592],[1451491200000,1.4464],[1451836800000,1.3484],[1451923200000,1.3521],[1452009600000,1.3748],[1452096000000,1.2829],[1452182400000,1.308],[1452441600000,1.2446],[1452528000000,1.2531],[1452614400000,1.2307],[1452700800000,1.2553],[1452787200000,1.2168],[1453046400000,1.2213],[1453132800000,1.2559],[1453219200000,1.2377],[1453305600000,1.2031],[1453392000000,1.215],[1453651200000,1.2207],[1453737600000,1.1507],[1453824000000,1.1469],[1453910400000,1.1185],[1453996800000,1.1528],[1454256000000,1.1361],[1454342400000,1.1585],[1454428800000,1.1538],[1454515200000,1.1672],[1454601600000,1.1594],[1455465600000,1.1529],[1455552000000,1.1864],[1455638400000,1.1961],[1455724800000,1.1925],[1455811200000,1.1917],[1456070400000,1.2168],[1456156800000,1.2058],[1456243200000,1.2133],[1456329600000,1.1424],[1456416000000,1.1536],[1456675200000,1.1273],[1456761600000,1.147],[1456848000000,1.1918],[1456934400000,1.1944],[1457020800000,1.2075],[1457280000000,1.2115],[1457366400000,1.2126],[1457452800000,1.1993],[1457539200000,1.1775],[1457625600000,1.1794],[1457884800000,1.1969],[1457971200000,1.2003],[1458057600000,1.2059],[1458144000000,1.2186],[1458230400000,1.2363],[1458489600000,1.265],[1458576000000,1.2562],[1458662400000,1.2601],[1458748800000,1.24],[1458835200000,1.2459],[1459094400000,1.2354],[1459180800000,1.2226],[1459267200000,1.2526],[1459353600000,1.2532],[1459440000000,1.2546],[1459785600000,1.2704],[1459872000000,1.2678],[1459958400000,1.2499],[1460044800000,1.241],[1460304000000,1.2574],[1460390400000,1.2531],[1460476800000,1.269],[1460563200000,1.2744],[1460649600000,1.2729],[1460908800000,1.2567],[1460995200000,1.2603],[1461081600000,1.239],[1461168000000,1.2315],[1461254400000,1.2369],[1461513600000,1.232],[1461600000000,1.2384],[1461686400000,1.2336],[1461772800000,1.2318],[1461859200000,1.2306],[1462204800000,1.2516],[1462291200000,1.2501],[1462377600000,1.2518],[1462464000000,1.2216],[1462723200000,1.1976],[1462809600000,1.1989],[1462896000000,1.204],[1462982400000,1.2066],[1463068800000,1.201],[1463328000000,1.2085],[1463414400000,1.2054],[1463500800000,1.1989],[1463587200000,1.197],[1463673600000,1.2028],[1463932800000,1.2064],[1464019200000,1.1976],[1464105600000,1.1961],[1464192000000,1.1981],[1464278400000,1.1975],[1464537600000,1.1991],[1464624000000,1.2374],[1464710400000,1.234],[1464796800000,1.2365],[1464883200000,1.245],[1465142400000,1.2422],[1465228800000,1.2417],[1465315200000,1.2378],[1465747200000,1.2018],[1465833600000,1.2055],[1465920000000,1.2206],[1466006400000,1.2135],[1466092800000,1.22],[1466352000000,1.2209],[1466438400000,1.2185],[1466524800000,1.2288],[1466611200000,1.2237],[1466697600000,1.2105],[1466956800000,1.2265],[1467043200000,1.2327],[1467129600000,1.2383],[1467216000000,1.2396],[1467302400000,1.2403],[1467561600000,1.2592],[1467648000000,1.261],[1467734400000,1.2649],[1467820800000,1.2647],[1467907200000,1.2601],[1468166400000,1.2646],[1468252800000,1.2905],[1468339200000,1.2964],[1468425600000,1.2942],[1468512000000,1.2948],[1468771200000,1.2895],[1468857600000,1.2849],[1468944000000,1.281],[1469030400000,1.2866],[1469116800000,1.2765],[1469376000000,1.2789],[1469462400000,1.2934],[1469548800000,1.2746],[1469635200000,1.2757],[1469721600000,1.2701],[1469980800000,1.2599],[1470067200000,1.2644],[1470153600000,1.2661],[1470240000000,1.2688],[1470326400000,1.2707],[1470585600000,1.2814],[1470672000000,1.2898],[1470758400000,1.2848],[1470844800000,1.2816],[1470931200000,1.3044],[1471190400000,1.3411],[1471276800000,1.3354],[1471363200000,1.3335],[1471449600000,1.3303],[1471536000000,1.3311],[1471795200000,1.3205],[1471881600000,1.3225],[1471968000000,1.3184],[1472054400000,1.3106],[1472140800000,1.3099],[1472400000000,1.3101],[1472486400000,1.3117],[1472572800000,1.3175],[1472659200000,1.3078],[1472745600000,1.3128],[1473004800000,1.3156],[1473091200000,1.3244],[1473177600000,1.3236],[1473264000000,1.323],[1473350400000,1.315],[1473609600000,1.2943],[1473696000000,1.2934],[1473782400000,1.2853],[1474214400000,1.2945],[1474300800000,1.2923],[1474387200000,1.2959],[1474473600000,1.305],[1474560000000,1.299],[1474819200000,1.2787],[1474905600000,1.2865],[1474992000000,1.2828],[1475078400000,1.2879],[1475164800000,1.2913],[1476028800000,1.3063],[1476115200000,1.3109],[1476201600000,1.3086],[1476288000000,1.3095],[1476374400000,1.3106],[1476633600000,1.3],[1476720000000,1.3162],[1476806400000,1.3143],[1476892800000,1.3152],[1476979200000,1.3187],[1477238400000,1.3336],[1477324800000,1.3336],[1477411200000,1.3287],[1477497600000,1.3253],[1477584000000,1.3232],[1477843200000,1.3217],[1477929600000,1.3302],[1478016000000,1.3206],[1478102400000,1.3324],[1478188800000,1.3283],[1478448000000,1.3291],[1478534400000,1.3346],[1478620800000,1.3279],[1478707200000,1.3419],[1478793600000,1.3518],[1479052800000,1.3566],[1479139200000,1.3564],[1479225600000,1.3563],[1479312000000,1.3589],[1479398400000,1.3517],[1479657600000,1.3605],[1479744000000,1.3708],[1479830400000,1.3735],[1479916800000,1.3788],[1480003200000,1.391],[1480262400000,1.3963],[1480348800000,1.4071],[1480435200000,1.3973],[1480521600000,1.4076],[1480608000000,1.3938],[1480867200000,1.3712],[1480953600000,1.3674],[1481040000000,1.3736],[1481126400000,1.3715],[1481212800000,1.3802],[1481472000000,1.3482],[1481558400000,1.3465],[1481644800000,1.3366],[1481731200000,1.3222],[1481817600000,1.3241],[1482076800000,1.3176],[1482163200000,1.31],[1482249600000,1.321],[1482336000000,1.32],[1482422400000,1.3094],[1482681600000,1.315],[1482768000000,1.3127],[1482854400000,1.3072],[1482940800000,1.3056],[1483027200000,1.3104],[1483113600000,1.3103],[1483372800000,1.3224],[1483459200000,1.3322],[1483545600000,1.332],[1483632000000,1.3244],[1483891200000,1.3304],[1483977600000,1.3283],[1484064000000,1.3194],[1484150400000,1.313],[1484236800000,1.3138],[1484496000000,1.3135],[1484582400000,1.3161],[1484668800000,1.321],[1484755200000,1.3172],[1484841600000,1.3268],[1485100800000,1.3301],[1485187200000,1.3302],[1485273600000,1.3345],[1485360000000,1.3389],[1486051200000,1.3301],[1486310400000,1.3332],[1486396800000,1.3304],[1486483200000,1.3369],[1486569600000,1.3417],[1486656000000,1.348],[1486915200000,1.3565],[1487001600000,1.3562],[1487088000000,1.351],[1487174400000,1.358],[1487260800000,1.3508],[1487520000000,1.3692],[1487606400000,1.3734],[1487692800000,1.376],[1487779200000,1.3698],[1487865600000,1.3701],[1488124800000,1.3598],[1488211200000,1.3622],[1488297600000,1.3643],[1488384000000,1.3557],[1488470400000,1.353],[1488729600000,1.3599],[1488816000000,1.3627],[1488902400000,1.3608],[1488988800000,1.3527],[1489075200000,1.3531],[1489334400000,1.3642],[1489420800000,1.3636],[1489507200000,1.3662],[1489593600000,1.3728],[1489680000000,1.3596],[1489939200000,1.3609],[1490025600000,1.3671],[1490112000000,1.3612],[1490198400000,1.3655],[1490284800000,1.3757],[1490544000000,1.3714],[1490630400000,1.3684],[1490716800000,1.3669],[1490803200000,1.3564],[1490889600000,1.3639],[1491321600000,1.3816],[1491408000000,1.3854],[1491494400000,1.3868],[1491753600000,1.3821],[1491840000000,1.3866],[1491926400000,1.3836],[1492012800000,1.3855],[1492099200000,1.3751],[1492358400000,1.3726],[1492444800000,1.3663],[1492531200000,1.3601],[1492617600000,1.3659],[1492704000000,1.3677],[1492963200000,1.3546],[1493049600000,1.3582],[1493136000000,1.3598],[1493222400000,1.3604],[1493308800000,1.3578],[1493654400000,1.3528],[1493740800000,1.3479],[1493827200000,1.3446],[1493913600000,1.3365],[1494172800000,1.3276],[1494259200000,1.3258],[1494345600000,1.321],[1494432000000,1.3281],[1494518400000,1.3391],[1494777600000,1.3444],[1494864000000,1.3554],[1494950400000,1.3485],[1495036800000,1.3442],[1495123200000,1.3464],[1495382400000,1.3492],[1495468800000,1.3541],[1495555200000,1.3541],[1495641600000,1.3772],[1495728000000,1.3754],[1496160000000,1.3799],[1496246400000,1.3817],[1496332800000,1.3776],[1496592000000,1.3714],[1496678400000,1.3804],[1496764800000,1.3958],[1496851200000,1.406],[1496937600000,1.4122],[1497196800000,1.4116],[1497283200000,1.4148],[1497369600000,1.4],[1497456000000,1.3978],[1497542400000,1.3957],[1497801600000,1.4088],[1497888000000,1.4062],[1497974400000,1.4217],[1498060800000,1.4227],[1498147200000,1.4348],[1498406400000,1.4515],[1498492800000,1.454],[1498579200000,1.4434],[1498665600000,1.4523],[1498752000000,1.4519],[1499011200000,1.4458],[1499097600000,1.4346],[1499184000000,1.4508],[1499270400000,1.4516],[1499356800000,1.4515],[1499616000000,1.4516],[1499702400000,1.4595],[1499788800000,1.4555],[1499875200000,1.467],[1499961600000,1.4744],[1500220800000,1.4598],[1500307200000,1.4616],[1500393600000,1.4852],[1500480000000,1.492],[1500566400000,1.4852],[1500825600000,1.4908],[1500912000000,1.482],[1500998400000,1.4768],[1501084800000,1.4795],[1501171200000,1.4832],[1501430400000,1.4891],[1501516800000,1.5013],[1501603200000,1.4982],[1501689600000,1.4859],[1501776000000,1.4785],[1502035200000,1.4856],[1502121600000,1.488],[1502208000000,1.4876],[1502294400000,1.4819],[1502380800000,1.4566],[1502640000000,1.4742],[1502726400000,1.4784],[1502812800000,1.4766],[1502899200000,1.484],[1502985600000,1.4857],[1503244800000,1.4917],[1503331200000,1.4959],[1503417600000,1.4973],[1503504000000,1.4894],[1503590400000,1.5123],[1503849600000,1.5297],[1503936000000,1.5274],[1504022400000,1.5273],[1504108800000,1.5228],[1504195200000,1.5259],[1504454400000,1.5322],[1504540800000,1.5364],[1504627200000,1.5336],[1504713600000,1.5263],[1504800000000,1.5248],[1505059200000,1.5246],[1505145600000,1.5292],[1505232000000,1.5308],[1505318400000,1.526],[1505404800000,1.5265],[1505664000000,1.5308],[1505750400000,1.5265],[1505836800000,1.5305],[1505923200000,1.5287],[1506009600000,1.5286],[1506268800000,1.521],[1506355200000,1.5225],[1506441600000,1.5225],[1506528000000,1.523],[1506614400000,1.5282],[1507478400000,1.545],[1507564800000,1.5478],[1507651200000,1.5526],[1507737600000,1.5565],[1507824000000,1.5594],[1508083200000,1.5565],[1508169600000,1.5564],[1508256000000,1.568],[1508342400000,1.5632],[1508428800000,1.5616],[1508688000000,1.5631],[1508774400000,1.5738],[1508860800000,1.5803],[1508947200000,1.5865],[1509033600000,1.5971],[1509292800000,1.5924],[1509379200000,1.5913],[1509465600000,1.5875],[1509552000000,1.5876999999999999],[1509638400000,1.586],[1509897600000,1.5965],[1509984000000,1.6089],[1510070400000,1.6066],[1510156800000,1.617],[1510243200000,1.6305],[1510502400000,1.6364],[1510588800000,1.6257],[1510675200000,1.6161],[1510761600000,1.6279],[1510848000000,1.6338],[1511107200000,1.6423],[1511193600000,1.67],[1511280000000,1.6736],[1511366400000,1.6266],[1511452800000,1.6273],[1511712000000,1.6069],[1511798400000,1.6091],[1511884800000,1.6085],[1511971200000,1.5908],[1512057600000,1.588],[1512316800000,1.5958],[1512403200000,1.6038],[1512489600000,1.5945],[1512576000000,1.5774],[1512662400000,1.5895],[1512921600000,1.61],[1513008000000,1.5899],[1513094400000,1.6026],[1513180800000,1.5936],[1513267200000,1.5766],[1513526400000,1.5782],[1513612800000,1.5969],[1513699200000,1.5952],[1513785600000,1.609],[1513872000000,1.604],[1514131200000,1.5991],[1514217600000,1.6036],[1514304000000,1.5801],[1514390400000,1.5905],[1514476800000,1.5949],[1514649600000,1.5949],[1514822400000,1.6161],[1514908800000,1.6251],[1514995200000,1.6316],[1515081600000,1.6353],[1515340800000,1.6433],[1515427200000,1.6543],[1515513600000,1.6613],[1515600000000,1.6604],[1515686400000,1.6677],[1515945600000,1.6678],[1516032000000,1.6803],[1516118400000,1.6763],[1516204800000,1.6851],[1516291200000,1.6902],[1516550400000,1.7093],[1516636800000,1.7263],[1516723200000,1.729],[1516809600000,1.7198],[1516896000000,1.7261],[1517155200000,1.6965],[1517241600000,1.6794],[1517328000000,1.6868],[1517414400000,1.6758],[1517500800000,1.685],[1517760000000,1.686],[1517846400000,1.6396],[1517932800000,1.603],[1518019200000,1.589],[1518105600000,1.5254],[1518364800000,1.5437],[1518451200000,1.5607],[1518537600000,1.5723],[1519228800000,1.6039],[1519315200000,1.6108],[1519574400000,1.6283],[1519660800000,1.6062],[1519747200000,1.5931],[1519833600000,1.6027],[1519920000000,1.5906],[1520179200000,1.5911],[1520265600000,1.609],[1520352000000,1.5978],[1520438400000,1.6131],[1520524800000,1.6247],[1520784000000,1.6315],[1520870400000,1.6179],[1520956800000,1.6113],[1521043200000,1.6199],[1521129600000,1.6051],[1521388800000,1.6118],[1521475200000,1.613],[1521561600000,1.6066],[1521648000000,1.5913],[1521734400000,1.5484],[1521993600000,1.5389],[1522080000000,1.5513],[1522166400000,1.525],[1522252800000,1.5441],[1522339200000,1.5458],[1522598400000,1.5415],[1522684800000,1.5325],[1522771200000,1.5298],[1523203200000,1.5291],[1523289600000,1</t>
   </si>
   <si>
+    <t>[[1360080000000, 0.0], [1363795200000, -0.46], [1365350400000, -4.75], [1366560000000, -1.95], [1368028800000, -0.45], [1369238400000, 4.28], [1370448000000, 3.44], [1372089600000, -9.54], [1373212800000, -9.11], [1374422400000, -2.84], [1375632000000, 0.84], [1376841600000, 1.31], [1378051200000, 3.57], [1379260800000, 8.15], [1381248000000, 11.66], [1382457600000, 10.05], [1383667200000, 4.77], [1384876800000, 8.7], [1386086400000, 10.21], [1387296000000, 7.33], [1388592000000, 7.69], [1389801600000, 3.9], [1391011200000, 8.66], [1392825600000, 15.97], [1394035200000, 12.7], [1395244800000, 8.29], [1396454400000, 8.83], [1397750400000, 12.5], [1399305600000, 6.6], [1400515200000, 3.85], [1401811200000, 6.02], [1403020800000, 8.1], [1404230400000, 11.71], [1405440000000, 14.17], [1406649600000, 18.49], [1407859200000, 23.72], [1409068800000, 24.29], [1410364800000, 32.2], [1411574400000, 35.28], [1413388800000, 37.89], [1414598400000, 40.29], [1415808000000, 38.24], [1417017600000, 47.49], [1418227200000, 53.1], [1419436800000, 50.37], [1420992000000, 49.43], [1422201600000, 61.54], [1423411200000, 54.5], [1425225600000, 72.2], [1426435200000, 82.72], [1427644800000, 103.13], [1428940800000, 127.62], [1430150400000, 132.61], [1431446400000, 148.68], [1432656000000, 195.83], [1433865600000, 216.67], [1435161600000, 179.97], [1436371200000, 94.48], [1437580800000, 142.23], [1438790400000, 120.63], [1440000000000, 128.52], [1441555200000, 74.62], [1442764800000, 79.48], [1444579200000, 93.06], [1445788800000, 107.38], [1446998400000, 118.11], [1448208000000, 123.7], [1449417600000, 119.45], [1450627200000, 125.03], [1451923200000, 99.06], [1453132800000, 79.08], [1454342400000, 62.1], [1456156800000, 76.12], [1457366400000, 67.29], [1458576000000, 76.88], [1459872000000, 84.1], [1461081600000, 75.25], [1462377600000, 80.71], [1463587200000, 65.32], [1464796800000, 75.72], [1466352000000, 75.28], [1467561600000, 82.72], [1468771200000, 88.08], [1469980800000, 79.0], [1471190400000, 88.92], [1472400000000, 88.46], [1473609600000, 84.61], [1474992000000, 84.41], [1476806400000, 90.67], [1478016000000, 89.52], [1479225600000, 95.09], [1480435200000, 93.26], [1481644800000, 83.02], [1482854400000, 83.95], [1484064000000, 85.74], [1485273600000, 81.34], [1487088000000, 85.12], [1488297600000, 89.72], [1489507200000, 90.3], [1490716800000, 90.19], [1492099200000, 91.62], [1493308800000, 82.37], [1494777600000, 73.09], [1496160000000, 71.23], [1497369600000, 75.72], [1498579200000, 79.42], [1499788800000, 80.89], [1500998400000, 81.47], [1502208000000, 87.25], [1503417600000, 86.74], [1504627200000, 95.14], [1505836800000, 97.66], [1507651200000, 96.84], [1508860800000, 96.26], [1510070400000, 93.74], [1511280000000, 90.11], [1512489600000, 82.25], [1513699200000, 83.12], [1514908800000, 88.74], [1516118400000, 85.06], [1517328000000, 82.63], [1518537600000, 69.77], [1520352000000, 79.58], [1521561600000, 80.82], [1522771200000, 77.52], [1524153600000, 73.45], [1525708800000, 78.35], [1526918400000, 80.13], [1528128000000, 71.06], [1529424000000, 54.15], [1530547200000, 54.31], [1531756800000, 54.63], [1532966400000, 54.47], [1534176000000, 50.01], [1535385600000, 48.24], [1536595200000, 40.13], [1537891200000, 43.66], [1539705600000, 23.38], [1540915200000, 27.61], [1542124800000, 36.18], [1543334400000, 33.11], [1544544000000, 31.99], [1545753600000, 26.33], [1547049600000, 28.56], [1548259200000, 30.26], [1550073600000, 36.08], [1551283200000, 50.84], [1552492800000, 58.91], [1553702400000, 61.05], [1554998400000, 71.39], [1556208000000, 62.29], [1557849600000, 52.31], [1559059200000, 49.06], [1560355200000, 47.19], [1561564800000, 51.01], [1562688000000, 46.3], [1563897600000, 47.43], [1565107200000, 40.04], [1566316800000, 47.9], [1567526400000, 54.27], [1568822400000, 57.26], [1570636800000, 52.84], [1571846400000, 50.2], [1573056000000, 51.71], [1574265600000, 49.86], [1575475200000, 50.62], [1576684800000, 59.23], [1577980800000, 63.45], [1579190400000, 67.39], [1581264000000, 63.48], [1582473600000, 78.0], [1583683200000, 67.62], [1584892800000, 51.71], [1586188800000, 59.84], [1587398400000, 62.11], [1588867200000, 67.24], [1590076800000, 62.1], [1591286400000, 70.24], [1592496000000, 77.06], [1594051200000, 96.05], [1595260800000, 101.92], [1596470400000, 106.23], [1597680000000, 109.17], [1598889600000, 106.89], [1600099200000, 97.01], [1601308800000, 92.34], [1603209600000, 96.13], [1604419200000, 92.66], [1605628800000, 96.12], [1606838400000, 99.24], [1608048000000, 93.56], [1609257600000, 94.75], [1610553600000, 100.03], [1611763200000, 99.21], [1613577600000, 105.37], [1614787200000, 98.87], [1615996800000, 94.94], [1617206400000, 96.22], [1618502400000, 97.21], [1619712000000, 101.86], [1621353600000, 105.2], [1622563200000, 108.6], [1623859200000, 106.69], [1625068800000, 110.51], [1626278400000, 117.84], [1627488000000, 112.76], [1628438400000, 119.67]]</t>
+  </si>
+  <si>
     <t>510500</t>
   </si>
   <si>
@@ -71,6 +89,9 @@
     <t xml:space="preserve"> [[1360080000000,1.0],[1360252800000,1.0022],[1361462400000,0.9954],[1362067200000,1.0135],[1362672000000,0.998],[1363190400000,0.9682],[1363276800000,0.9699],[1363536000000,0.9575],[1363622400000,0.9605],[1363708800000,0.9851],[1363795200000,0.9954],[1363881600000,0.9995],[1364140800000,0.9963],[1364227200000,0.9894],[1364313600000,0.9917],[1364400000000,0.9631],[1364486400000,0.9626],[1364745600000,0.9691],[1364832000000,0.9573],[1364918400000,0.9487],[1365350400000,0.9525],[1365436800000,0.9618],[1365523200000,0.9598],[1365609600000,0.9559],[1365696000000,0.9478],[1365955200000,0.9345],[1366041600000,0.9446],[1366128000000,0.9529],[1366214400000,0.9558],[1366300800000,0.976],[1366560000000,0.9805],[1366646400000,0.954],[1366732800000,0.973],[1366819200000,0.9582],[1366905600000,0.9428],[1367424000000,0.9471],[1367510400000,0.9656],[1367769600000,0.9838],[1367856000000,0.9859],[1367942400000,0.9949],[1368028800000,0.9955],[1368115200000,1.0018],[1368374400000,1.0056],[1368460800000,0.9944],[1368547200000,1.0077],[1368633600000,1.018],[1368720000000,1.0335],[1368979200000,1.0462],[1369065600000,1.0598],[1369152000000,1.0516],[1369238400000,1.0428],[1369324800000,1.0591],[1369584000000,1.0699],[1369670400000,1.0721],[1369756800000,1.0802],[1369843200000,1.0829],[1369929600000,1.0763],[1370188800000,1.0691],[1370275200000,1.0483],[1370361600000,1.0527],[1370448000000,1.0344],[1370534400000,1.0142],[1371052800000,0.986],[1371139200000,1.0057],[1371398400000,1.0081],[1371484800000,1.0119],[1371571200000,1.0059],[1371657600000,0.9729],[1371744000000,0.968],[1372003200000,0.9083],[1372089600000,0.9046],[1372176000000,0.9234],[1372262400000,0.9086],[1372348800000,0.9095],[1372521600000,0.9095],[1372608000000,0.9266],[1372694400000,0.9416],[1372780800000,0.9431],[1372867200000,0.9506],[1372953600000,0.9454],[1373212800000,0.9089],[1373299200000,0.9143],[1373385600000,0.9429],[1373472000000,0.9694],[1373558400000,0.9609],[1373817600000,0.9803],[1373904000000,0.9925],[1373990400000,0.9782],[1374076800000,0.9772],[1374163200000,0.9529],[1374422400000,0.9716],[1374508800000,0.9951],[1374595200000,1.001],[1374681600000,0.982],[1374768000000,0.9809],[1375027200000,0.962],[1375113600000,0.9577],[1375200000000,0.963],[1375286400000,0.9884],[1375372800000,0.9919],[1375632000000,1.0084],[1375718400000,1.0192],[1375804800000,1.0094],[1375891200000,1.0121],[1375977600000,1.0158],[1376236800000,1.032],[1376323200000,1.0374],[1376409600000,1.0334],[1376496000000,1.0194],[1376582400000,0.9978],[1376841600000,1.0131],[1376928000000,1.0105],[1377014400000,1.0183],[1377100800000,1.0209],[1377187200000,1.0185],[1377446400000,1.0396],[1377532800000,1.0476],[1377619200000,1.0397],[1377705600000,1.0389],[1377792000000,1.0285],[1378051200000,1.0357],[1378137600000,1.0511],[1378224000000,1.054],[1378310400000,1.056],[1378396800000,1.0645],[1378656000000,1.0754],[1378742400000,1.0863],[1378828800000,1.076],[1378915200000,1.079],[1379001600000,1.0803],[1379260800000,1.0815],[1379347200000,1.0624],[1379433600000,1.0725],[1379865600000,1.0941],[1379952000000,1.0951],[1380038400000,1.0911],[1380124800000,1.0684],[1380211200000,1.0725],[1380470400000,1.0865],[1381161600000,1.1046],[1381248000000,1.1166],[1381334400000,1.1106],[1381420800000,1.1294],[1381680000000,1.141],[1381766400000,1.1426],[1381852800000,1.1115],[1381939200000,1.1097],[1382025600000,1.1135],[1382284800000,1.1411],[1382371200000,1.1291],[1382457600000,1.1005],[1382544000000,1.0932],[1382630400000,1.0717],[1382889600000,1.068],[1382976000000,1.0386],[1383062400000,1.0555],[1383148800000,1.0413],[1383235200000,1.0381],[1383494400000,1.0453],[1383580800000,1.059],[1383667200000,1.0477],[1383753600000,1.0331],[1383840000000,1.0177],[1384099200000,1.0221],[1384185600000,1.0317],[1384272000000,1.0124],[1384358400000,1.0259],[1384444800000,1.0473],[1384704000000,1.0729],[1384790400000,1.0763],[1384876800000,1.087],[1384963200000,1.0833],[1385049600000,1.0769],[1385308800000,1.0761],[1385395200000,1.0777],[1385481600000,1.0901],[1385568000000,1.0993],[1385654400000,1.1059],[1385913600000,1.0567],[1386000000000,1.0816],[1386086400000,1.1021],[1386172800000,1.1008],[1386259200000,1.098],[1386518400000,1.1061],[1386604800000,1.1068],[1386691200000,1.0945],[1386777600000,1.0972],[1386864000000,1.0993],[1387123200000,1.0801],[1387209600000,1.0733],[1387296000000,1.0733],[1387382400000,1.0624],[1387468800000,1.0489],[1387728000000,1.0477],[1387814400000,1.0549],[1387900800000,1.066],[1387987200000,1.0477],[1388073600000,1.0639],[1388332800000,1.0672],[1388419200000,1.0717],[1388592000000,1.0769],[1388678400000,1.0681],[1388937600000,1.0384],[1389024000000,1.0447],[1389110400000,1.046],[1389196800000,1.0342],[1389283200000,1.0153],[1389542400000,1.0105],[1389628800000,1.0305],[1389715200000,1.0374],[1389801600000,1.039],[1389888000000,1.0271],[1390147200000,1.0193],[1390233600000,1.0349],[1390320000000,1.0626],[1390406400000,1.07],[1390492800000,1.0859],[1390752000000,1.0857],[1390838400000,1.0833],[1390924800000,1.093],[1391011200000,1.0866],[1391702400000,1.1066],[1391961600000,1.1392],[1392048000000,1.1408],[1392134400000,1.1534],[1392220800000,1.1363],[1392307200000,1.1558],[1392566400000,1.1777],[1392652800000,1.1762],[1392739200000,1.1763],[1392825600000,1.1597],[1392912000000,1.1521],[1393171200000,1.1475],[1393257600000,1.1071],[1393344000000,1.1144],[1393430400000,1.0996],[1393516800000,1.1111],[1393776000000,1.1342],[1393862400000,1.1344],[1393948800000,1.1285],[1394035200000,1.127],[1394121600000,1.1213],[1394380800000,1.0787],[1394467200000,1.0798],[1394553600000,1.0801],[1394640000000,1.0917],[1394726400000,1.0866],[1394985600000,1.1084],[1395072000000,1.1144],[1395158400000,1.112],[1395244800000,1.0829],[1395331200000,1.1041],[1395590400000,1.1134],[1395676800000,1.1149],[1395763200000,1.1178],[1395849600000,1.1017],[1395936000000,1.0797],[1396195200000,1.0728],[1396281600000,1.0892],[1396368000000,1.0899],[1396454400000,1.0883],[1396540800000,1.1003],[1396886400000,1.1119],[1396972800000,1.1222],[1397059200000,1.1279],[1397145600000,1.1229],[1397404800000,1.1312],[1397491200000,1.123],[1397577600000,1.1224],[1397664000000,1.121],[1397750400000,1.125],[1398009600000,1.1071],[1398096000000,1.102],[1398182400000,1.097],[1398268800000,1.0846],[1398355200000,1.061],[1398614400000,1.0287],[1398700800000,1.0439],[1398787200000,1.0516],[1399219200000,1.0605],[1399305600000,1.066],[1399392000000,1.0471],[1399478400000,1.0483],[1399564800000,1.0378],[1399824000000,1.0647],[1399910400000,1.0632],[1399996800000,1.0623],[1400083200000,1.0425],[1400169600000,1.0412],[1400428800000,1.0356],[1400515200000,1.0385],[1400601600000,1.0476],[1400688000000,1.0476],[1400774400000,1.0593],[1401033600000,1.0707],[1401120000000,1.0682],[1401206400000,1.0804],[1401292800000,1.0693],[1401379200000,1.0714],[1401724800000,1.0695],[1401811200000,1.0602],[1401897600000,1.0723],[1401984000000,1.0685],[1402243200000,1.0628],[1402329600000,1.0748],[1402416000000,1.0799],[1402502400000,1.078],[1402588800000,1.0893],[1402848000000,1.0959],[1402934400000,1.0865],[1403020800000,1.081],[1403107200000,1.0528],[1403193600000,1.0626],[1403452800000,1.07],[1403539200000,1.077],[1403625600000,1.0702],[1403712000000,1.0837],[1403798400000,1.0916],[1404057600000,1.1017],[1404144000000,1.1092],[1404230400000,1.1171],[1404316800000,1.1284],[1404403200000,1.1246],[1404662400000,1.1274],[1404748800000,1.1345],[1404835200000,1.1189],[1404921600000,1.1189],[1405008000000,1.1324],[1405267200000,1.1495],[1405353600000,1.1504],[1405440000000,1.1417],[1405526400000,1.1331],[1405612800000,1.1363],[1405872000000,1.1328],[1405958400000,1.1477],[1406044800000,1.1403],[1406131200000,1.1396],[1406217600000,1.1495],[1406476800000,1.1714],[1406563200000,1.1826],[1406649600000,1.1849],[1406736000000,1.1967],[1406822400000,1.1836],[1407081600000,1.2028],[1407168000000,1.2087],[1407254400000,1.2167],[1407340800000,1.2048],[1407427200000,1.212],[1407686400000,1.2303],[1407772800000,1.2366],[1407859200000,1.2372],[1407945600000,1.2292],[1408032000000,1.2433],[1408291200000,1.2601],[1408377600000,1.2639],[1408464000000,1.264],[1408550400000,1.2637],[1408636800000,1.2711],[1408896000000,1.2613],[1408982400000,1.2391],[1409068800000,1.2429],[1409155200000,1.2317],[1409241600000,1.2447],[1409500800000,1.2669],[1409587200000,1.2861],[1409673600000,1.2952],[1409760000000,1.3062],[1409846400000,1.3113],[1410192000000,1.3211],[1410278400000,1.3234],[1410364800000,1.322],[1410451200000,1.3365],[1410710400000,1.3506],[1410796800000,1.305],[1410883200000,1.3165],[1410969600000,1.3257],[1411056000000,1.3368],[1411315200000,1.3187],[1411401600000,1.3355],[1411488000000,1.3527],[1411574400000,1.3528],[1411660800000,1.3576],[1411920000000,1.371],[1412006400000,1.3819],[1412697600000,1.4036],[1412784000000,1.4065],[1412870400000,1.4003],[1413129600000,1.4004],[1413216000000,1.3958],[1413302400000,1.4018],[1413388800000,1.3789],[1413475200000,1.3661],[1413734400000,1.3852],[1413820800000,1.3725],[1413907200000,1.3561],[1413993600000,1.3363],[1414080000000,1.3417],[1414339200000,1.3515],[1414425600000,1.3839],[1414512000000,1.4027],[1414598400000,1.4029],[1414684800000,1.4011],[1414944000000,1.4129],[1415030400000,1.4058],[1415116800000,1.4035],[1415203200000,1.4117],[1415289600000,1.3983],[1415548800000,1.4132],[1415635200000,1.3712],[1415721600000,1.3947],[1415808000000,1.3824],[1415894400000,1.379],[1416153600000,1.3926],[1416240000000,1.3952],[1416326400000,1.4001],[1416412800000,1.3971],[1416499200000,1.4126],[1416758400000,1.4357],[1416844800000,1.4573],[1416931200000,1.4644],[1417017600000,1.4749],[1417104000000,1.4732],[1417363200000,1.4627],[1417449600000,1.4822],[1417536000000,1.4994],[1417622400000,1.5311],[1417708800000,1.4979],[1417968000000,1.5198],[1418054400000,1.4586],[1418140800000,1.5088],[1418227200000,1.531],[1418313600000,1.5415],[1418572800000,1.5656],[1418659200000,1.5716],[1418745600000,1.5574],[1418832000000,1.5574],[1418918400000,1.5482],[1419177600000,1.4872],[1419264000000,1.4561],[1419350400000,1.4752],[1419436800000,1.5037],[1419523200000,1.5199],[1419782400000,1.5045],[1419868800000,1.4786],[1419955200000,1.4918],[1420387200000,1.518],[1420473600000,1.5354],[1420560000000,1.5377],[1420646400000,1.5254],[1420732800000,1.5157],[1420992000000,1.4943],[1421078400000,1.5144],[1421164800000,1.5074],[1421251200000,1.5266],[1421337600000,1.5466],[1421596800000,1.4808],[1421683200000,1.534],[1421769600000,1.573],[1421856000000,1.5952],[1421942400000,1.5799],[1422201600000,1.6154],[1422288000000,1.6202],[1422374400000,1.6114],[1422460800000,1.6005],[1422547200000,1.5812],[1422806400000,1.5746],[1422892800000,1.602],[1422979200000,1.5952],[1423065600000,1.5869],[1423152000000,1.5534],[1423411200000,1.545],[1423497600000,1.5661],[1423584000000,1.5832],[1423670400000,1.5943],[1423756800000,1.6189],[1424016000000,1.6469],[1424102400000,1.6584],[1424793600000,1.6569],[1424880000000,1.6745],[1424966400000,1.6882],[1425225600000,1.722],[1425312000000,1.7161],[1425398400000,1.7417],[1425484800000,1.7413],[1425571200000,1.7201],[1425830400000,1.7422],[1425916800000,1.7601],[1426003200000,1.7563],[1426089600000,1.7555],[1426176000000,1.775],[1426435200000,1.8272],[1426521600000,1.8555],[1426608000000,1.8863],[1426694400000,1.9016],[1426780800000,1.9209],[1427040000000,1.9674],[1427126400000,1.9755],[1427212800000,1.9976],[1427299200000,1.9835],[1427385600000,2.0063],[1427644800000,2.0313],[1427731200000,2.0334],[1427817600000,2.0819],[1427904000000,2.1198],[1427990400000,2.153],[1428336000000,2.2047],[1428422400000,2.189],[1428508800000,2.1716],[1428595200000,2.2293],[1428854400000,2.277],[1428940800000,2.2762],[1429027200000,2.1874],[1429113600000,2.2182],[1429200000000,2.2379],[1429459200000,2.1987],[1429545600000,2.278],[1429632000000,2.3375],[1429718400000,2.3628],[1429804800000,2.367],[1430064000000,2.3937],[1430150400000,2.3261],[1430236800000,2.3732],[1430323200000,2.3872],[1430668800000,2.3967],[1430755200000,2.3106],[1430841600000,2.2784],[1430928000000,2.2284],[1431014400000,2.312],[1431273600000,2.4122],[1431360000000,2.4647],[1431446400000,2.4868],[1431532800000,2.4839],[1431619200000,2.4645],[1431878400000,2.5096],[1431964800000,2.5719],[1432051200000,2.6148],[1432137600000,2.7114],[1432224000000,2.7562],[1432483200000,2.8296],[1432569600000,2.9236],[1432656000000,2.9583],[1432742400000,2.7807],[1432828800000,2.8092],[1433088000000,2.956],[1433174400000,3.0693],[1433260800000,3.0958],[1433347200000,3.0948],[1433433600000,3.1456],[1433692800000,3.1136],[1433779200000,3.1088],[1433865600000,3.1667],[1433952000000,3.2103],[1434038400000,3.263],[1434297600000,3.2017],[1434384000000,3.0742],[1434470400000,3.1375],[1434556800000,3.0347],[1434643200000,2.8259],[1434988800000,2.8406],[1435075200000,2.9027],[1435161600000,2.7997],[1435248000000,2.5626],[1435507200000,2.3899],[1435593600000,2.5073],[1435680000000,2.3679],[1435766400000,2.2066],[1435852800000,2.0718],[1436112000000,2.0423],[1436198400000,1.9067],[1436284800000,1.8608],[1436371200000,1.9448],[1436457600000,2.0432],[1436716800000,2.1705],[1436803200000,2.215],[1436889600000,2.0878],[1436976000000,2.1378],[1437062400000,2.2557],[1437321600000,2.2904],[1437408000000,2.3207],[1437494400000,2.3501],[1437580800000,2.4223],[1437667200000,2.3852],[1437926400000,2.2057],[1438012800000,2.1632],[1438099200000,2.2679],[1438185600000,2.2057],[1438272000000,2.1863],[1438531200000,2.1331],[1438617600000,2.2483],[1438704000000,2.2194],[1438790400000,2.2063],[1438876800000,2.2696],[1439136000000,2.3787],[1439222400000,2.3895],[1439308800000,2.362],[1439395200000,2.4186],[1439481600000,2.4448],[1439740800000,2.4999],[1439827200000,2.3131],[1439913600000,2.3653],[1440000000000,2.2852],[1440086400000,2.1629],[1440345600000,1.989],[1440432000000,1.8384],[1440518400000,1.7691],[1440604800000,1.8316],[1440691200000,1.9428],[1440950400000,1.8672],[1441036800000,1.748],[1441123200000,1.7345],[1441555200000,1.7462],[1441641600000,1.8168],[1441728000000,1.8683],[1441814400000,1.8379],[1441900800000,1.854],[1442160000000,1.7289],[1442246400000,1.6331],[1442332800000,1.7429],[1442419200000,1.7107],[1442505600000,1.7327],[1442764800000,1.7948],[1442851200000,1.8084],[1442937600000,1.7879],[1443024000000,1.8139],[1443110400000,1.7546],[1443369600000,1.7866],[1443456000000,1.7533],[1443542400000,1.7591],[1444233600000,1.8304],[1444320000000,1.8583],[1444579200000,1.9306],[1444665600000,1.9553],[1444752000000,1.9337],[1444838400000,1.9933],[1444924800000,2.0274],[1445184000000,2.0275],[1445270400000,2.0614],[1445356800000,1.9338],[1445443200000,2.008],[1445529600000,2.0583],[1445788800000,2.0738],[1445875200000,2.0876],[1445961600000,2.0362],[1446048000000,2.0541],[1446134400000,2.0476],[1446393600000,2.0058],[1446480000000,2.0017],[1446566400000,2.1023],[1446652800000,2.1044],[1446739200000,2.1533],[1446998400000,2.1811],[1447084800000,2.1895],[1447171200000,2.2212],[1447257600000,2.2203],[1447344000000,2.1876],[1447603200000,2.2309],[1447689600000,2.2105],[1447776000000,2.1744],[1447862400000,2.2298],[1447948800000,2.2551],[1448208000000,2.237],[1448294400000,2.2526],[1448380800000,2.2882],[1448467200000,2.2739],[1448553600000,2.1298],[1448812800000,2.1392],[1448899200000,2.1494],[1448985600000,2.1387],[1449072000000,2.186],[1449158400000,2.1695],[1449417600000,2.1945],[1449504000000,2.1375],[1449590400000,2.1292],[1449676800000,2.123],[1449763200000,2.1067],[1450022400000,2.1501],[1450108800000,2.1669],[1450195200000,2.1759],[1450281600000,2.2297],[1450368000000,2.2247],[1450627200000,2.2503],[1450713600000,2.27],[1450800000000,2.2459],[1450886400000,2.24],[1450972800000,2.2514],[1451232000000,2.1971],[1451318400000,2.2178],[1451404800000,2.2369],[1451491200000,2.2013],[1451836800000,2.0185],[1451923200000,1.9906],[1452009600000,2.0415],[1452096000000,1.8681],[1452182400000,1.8986],[1452441600000,1.7709],[1452528000000,1.7732],[1452614400000,1.7118],[1452700800000,1.7697],[1452787200000,1.7029],[1453046400000,1.7278],[1453132800000,1.7908],[1453219200000,1.7737],[1453305600000,1.7031],[1453392000000,1.731],[1453651200000,1.7492],[1453737600000,1.62],[1453824000000,1.5984],[1453910400000,1.5298],[1453996800000,1.5869],[1454256000000,1.5665],[1454342400000,1.621],[1454428800000,1.6278],[1454515200000,1.6603],[1454601600000,1.6437],[1455465600000,1.6447],[1455552000000,1.7126],[1455638400000,1.7325],[1455724800000,1.7284],[1455811200000,1.7349],[1456070400000,1.7709],[1456156800000,1.7612],[1456243200000,1.7729],[1456329600000,1.6322],[1456416000000,1.6389],[1456675200000,1.5525],[1456761600000,1.5884],[1456848000000,1.6697],[1456934400000,1.6767],[1457020800000,1.6315],[1457280000000,1.6695],[1457366400000,1.6729],[1457452800000,1.6301],[1457539200000,1.6041],[1457625600000,1.6018],[1457884800000,1.6556],[1457971200000,1.6418],[1458057600000,1.6197],[1458144000000,1.6731],[1458230400000,1.7323],[1458489600000,1.7758],[1458576000000,1.7688],[1458662400000,1.7814],[1458748800000,1.7523],[1458835200000,1.7691],[1459094400000,1.7577],[1459180800000,1.7239],[1459267200000,1.7867],[1459353600000,1.7922],[1459440000000,1.783],[1459785600000,1.8304],[1459872000000,1.841],[1459958400000,1.8139],[1460044800000,1.7961],[1460304000000,1.8359],[1460390400000,1.8209],[1460476800000,1.8481],[1460563200000,1.8646],[1460649600000,1.8591],[1460908800000,1.8289],[1460995200000,1.8361],[1461081600000,1.7525],[1461168000000,1.7385],[1461254400000,1.7496],[1461513600000,1.7404],[1461600000000,1.7602],[1461686400000,1.7519],[1461772800000,1.7441],[1461859200000,1.7432],[1462204800000,1.796],[1462291200000,1.7972],[1462377600000,1.8071],[1462464000000,1.7378],[1462723200000,1.6739],[1462809600000,1.6726],[1462896000000,1.6685],[1462982400000,1.6692],[1463068800000,1.6657],[1463328000000,1.6944],[1463414400000,1.6891],[1463500800000,1.6423],[1463587200000,1.6532],[1463673600000,1.6728],[1463932800000,1.6953],[1464019200000,1.6762],[1464105600000,1.6683],[1464192000000,1.6766],[1464278400000,1.6761],[1464537600000,1.6684],[1464624000000,1.7379],[1464710400000,1.7458],[1464796800000,1.7572],[1464883200000,1.7639],[1465142400000,1.7688],[1465228800000,1.7674],[1465315200000,1.7628],[1465747200000,1.6831],[1465833600000,1.6863],[1465920000000,1.7425],[1466006400000,1.736],[1466092800000,1.7461],[1466352000000,1.7528],[1466438400000,1.733],[1466524800000,1.7597],[1466611200000,1.7512],[1466697600000,1.7292],[1466956800000,1.7707],[1467043200000,1.7895],[1467129600000,1.7937],[1467216000000,1.7949],[1467302400000,1.7917],[1467561600000,1.8272],[1467648000000,1.8381],[1467734400000,1.8462],[1467820800000,1.8533],[1467907200000,1.8484],[1468166400000,1.8521],[1468252800000,1.8759],[1468339200000,1.8911],[1468425600000,1.8939],[1468512000000,1.8901],[1468771200000,1.8808],[1468857600000,1.8855],[1468944000000,1.8815],[1469030400000,1.8888],[1469116800000,1.874],[1469376000000,1.879],[1469462400000,1.904],[1469548800000,1.8259],[1469635200000,1.8295],[1469721600000,1.8177],[1469980800000,1.79],[1470067200000,1.8073],[1470153600000,1.816],[1470240000000,1.8277],[1470326400000,1.818],[1470585600000,1.8441],[1470672000000,1.8592],[1470758400000,1.8526],[1470844800000,1.8259],[1470931200000,1.8468],[1471190400000,1.8892],[1471276800000,1.897],[1471363200000,1.9026],[1471449600000,1.903],[1471536000000,1.906],[1471795200000,1.8829],[1471881600000,1.8848],[1471968000000,1.8869],[1472054400000,1.8714],[1472140800000,1.8797],[1472400000000,1.8846],[1472486400000,1.8843],[1472572800000,1.8868],[1472659200000,1.8717],[1472745600000,1.8644],[1473004800000,1.8746],[1473091200000,1.9046],[1473177600000,1.905],[1473264000000,1.9118],[1473350400000,1.8988],[1473609600000,1.8461],[1473696000000,1.8542],[1473782400000,1.8423],[1474214400000,1.8614],[1474300800000,1.8607],[1474387200000,1.8616],[1474473600000,1.874],[1474560000000,1.8698],[1474819200000,1.8327],[1474905600000,1.8453],[1474992000000,1.8441],[1475078400000,1.8498],[1475164800000,1.8582],[1476028800000,1.8929],[1476115200000,1.9039],[1476201600000,1.9028],[1476288000000,1.9036],[1476374400000,1.8992],[1476633600000,1.8827],[1476720000000,1.9108],[1476806400000,1.9067],[1476892800000,1.9077],[1476979200000,1.9009],[1477238400000,1.92],[1477324800000,1.9268],[1477411200000,1.9171],[1477497600000,1.9133],[1477584000000,1.8955],[1477843200000,1.8943],[1477929600000,1.9106],[1478016000000,1.8952],[1478102400000,1.9036],[1478188800000,1.8974],[1478448000000,1.899],[1478534400000,1.9091],[1478620800000,1.8946],[1478707200000,1.9191],[1478793600000,1.9331],[1479052800000,1.942],[1479139200000,1.9495],[1479225600000,1.9509],[1479312000000,1.9488],[1479398400000,1.9388],[1479657600000,1.9413],[1479744000000,1.9557],[1479830400000,1.9468],[1479916800000,1.9441],[1480003200000,1.9525],[1480262400000,1.9578],[1480348800000,1.943],[1480435200000,1.9326],[1480521600000,1.944],[1480608000000,1.9139],[1480867200000,1.9041],[1480953600000,1.9056],[1481040000000,1.9241],[1481126400000,1.9151],[1481212800000,1.9105],[1481472000000,1.8328],[1481558400000,1.8411],[1481644800000,1.8302],[1481731200000,1.8417],[1481817600000,1.8532],[1482076800000,1.8536],[1482163200000,1.8477],[1482249600000,1.8615],[1482336000000,1.8597],[1482422400000,1.8426],[1482681600000,1.8463],[1482768000000,1.8448],[1482854400000,1.8395],[1482940800000,1.8347],[1483027200000,1.8377],[1483113600000,1.8376],[1483372800000,1.8541],[1483459200000,1.8758],[1483545600000,1.8771],[1483632000000,1.869],[1483891200000,1.8815],[1483977600000,1.8754],[1484064000000,1.8574],[1484150400000,1.8401],[1484236800000,1.8173],[1484496000000,1.7687],[1484582400000,1.7841],[1484668800000,1.7807],[1484755200000,1.7735],[1484841600000,1.7966],[1485100800000,1.811],[1485187200000,1.809],[1485273600000,1.8134],[1485360000000,1.8262],[1486051200000,1.821],[1486310400000,1.8361],[1486396800000,1.8351],[1486483200000,1.8457],[1486569600000,1.8573],[1486656000000,1.859],[1486915200000,1.8686],[1487001600000,1.87],[1487088000000,1.8512],[1487174400000,1.8651],[1487260800000,1.8499],[1487520000000,1.8727],[1487606400000,1.8873],[1487692800000,1.8988],[1487779200000,1.8988],[1487865600000,1.8996],[1488124800000,1.8843],[1488211200000,1.8921],[1488297600000,1.8972],[1488384000000,1.8877],[1488470400000,1.893],[1488729600000,1.9118],[1488816000000,1.9134],[1488902400000,1.9059],[1488988800000,1.889],[1489075200000,1.8917],[1489334400000,1.9093],[1489420800000,1.9051],[1489507200000,1.903],[1489593600000,1.92],[1489680000000,1.9027],[1489939200000,1.9067],[1490025600000,1.9117],[1490112000000,1.907],[1490198400000,1.9107],[1490284800000,1.9212],[1490544000000,1.9122],[1490630400000,1.9072],[1490716800000,1.9019],[1490803200000,1.8714],[1490889600000,1.8788],[1491321600000,1.9194],[1491408000000,1.925],[1491494400000,1.9306],[1491753600000,1.927],[1491840000000,1.9451],[1491926400000,1.93],[1492012800000,1.9418],[1492099200000,1.9162],[1492358400000,1.895],[1492444800000,1.884],[1492531200000,1.8641],[1492617600000,1.8633],[1492704000000,1.8496],[1492963200000,1.8023],[1493049600000,1.8085],[1493136000000,1.8131],[1493222400000,1.818],[1493308800000,1.8237],[1493654400000,1.8247],[1493740800000,1.8193],[1493827200000,1.8131],[1493913600000,1.7879],[1494172800000,1.7544],[1494259200000,1.7649],[1494345600000,1.7283],[1494432000000,1.7243],[1494518400000,1.7219],[1494777600000,1.7309],[1494864000000,1.7667],[1494950400000,1.7707],[1495036800000,1.7558],[1495123200000,1.7555],[1495382400000,1.7302],[1495468800000,1.694],[1495555200000,1.7041],[1495641600000,1.7195],[1495728000000,1.7163],[1496160000000,1.7123],[1496246400000,1.6789],[1496332800000,1.6975],[1496592000000,1.7103],[1496678400000,1.7176],[1496764800000,1.7514],[1496851200000,1.7533],[1496937600000,1.7574],[1497196800000,1.7382],[1497283200000,1.761],[1497369600000,1.7572],[1497456000000,1.7735],[1497542400000,1.7718],[1497801600000,1.785],[1497888000000,1.7879],[1497974400000,1.7912],[1498060800000,1.7665],[1498147200000,1.7713],[1498406400000,1.8015],[1498492800000,1.8021],[1498579200000,1.7942],[1498665600000,1.8036],[1498752000000,1.8101],[1499011200000,1.8217],[1499097600000,1.8126],[1499184000000,1.8264],[1499270400000,1.8288],[1499356800000,1.8364],[1499616000000,1.8307],[1499702400000,1.8081],[1499788800000,1.8089],[1499875200000,1.8143],[1499961600000,1.8085],[1500220800000,1.7343],[1500307200000,1.7523],[1500393600000,1.7882],[1500480000000,1.8002],[1500566400000,1.8086],[1500825600000,1.8207],[1500912000000,1.8165],[1500998400000,1.8147],[1501084800000,1.8261],[1501171200000,1.8357],[1501430400000,1.86],[1501516800000,1.8565],[1501603200000,1.8465],[1501689600000,1.8495],[1501776000000,1.8388],[1502035200000,1.8615],[1502121600000,1.8615],[1502208000000,1.8725],[1502294400000,1.8573],[1502380800000,1.8198],[1502640000000,1.8584],[1502726400000,1.8648],[1502812800000,1.8662],[1502899200000,1.8802],[1502985600000,1.8747],[1503244800000,1.8913],[1503331200000,1.883],[1503417600000,1.8674],[1503504000000,1.8544],[1503590400000,1.8746],[1503849600000,1.8977],[1503936000000,1.8926],[1504022400000,1.9061],[1504108800000,1.9112],[1504195200000,1.9278],[1504454400000,1.9387],[1504540800000,1.9411],[1504627200000,1.9514],[1504713600000,1.9372],[1504800000000,1.9413],[1505059200000,1.9638],[1505145600000,1.9624],[1505232000000,1.9741],[1505318400000,1.9705],[1505404800000,1.9557],[1505664000000,1.97],[1505750400000,1.96],[1505836800000,1.9766],[1505923200000,1.9529],[1506009600000,1.9409],[1506268800000,1.9166],[1506355200000,1.9251],[1506441600000,1.9439],[1506528000000,1.9395],[1506614400000,1.9498],[1507478400000,1.9719],[1507564800000,1.9799],[1507651200000,1.9684],[1507737600000,1.9659],[1507824000000,1.9813],[1508083200000,1.9545],[1508169600000,1.9524],[1508256000000,1.9378],[1508342400000,1.9195],[1508428800000,1.9402],[1508688000000,1.9522],[1508774400000,1.9491],[1508860800000,1.9626],[1508947200000,1.9698],[1509033600000,1.9575],[1509292800000,1.9224],[1509379200000,1.9366],[1509465600000,1.9344],[1509552000000,1.9143],[1509638400000,1.897],[1509897600000,1.922],[1509984000000,1.934],[1510070400000,1.9374],[1510156800000,1.9517],[1510243200000,1.9608],[1510502400000,1.9695],[1510588800000,1.9527],[1510675200000,1.9301],[1510761600000,1.9363],[1510848000000,1.8787],[1511107200000,1.8993],[1511193600000,1.9063],[1511280000000,1.9011],[1511366400000,1.853],[1511452800000,1.8539],[1511712000000,1.829],[1511798400000,1.8598],[1511884800000,1.8656],[1511971200000,1.8491],[1512057600000,1.8644],[1512316800000,1.8536],[1512403200000,1.8106],[1512489600000,1.8225],[1512576000000,1.8138],[1512662400000,1.8335],[1512921600000,1.8578],[1513008000000,1.8425],[1513094400000,1.8554],[1513180800000,1.8574],[1513267200000,1.8425],[1513526400000,1.8314],[1513612800000,1.8468],[1513699200000,1.8312],[1513785600000,1.8433],[1513872000000,1.8444],[1514131200000,1.8271],[1514217600000,1.8376],[1514304000000,1.8237],[1514390400000,1.8332],[1514476800000,1.8469],[1514649600000,1.8468],[1514822400000,1.8709],[1514908800000,1.8874],[1514995200000,1.8958],[1515081600000,1.8957],[1515340800000,1.9041],[1515427200000,1.9039],[1515513600000,1.8922],[1515600000000,1.8982],[1515686400000,1.8903],[1515945600000,1.8472],[1516032000000,1.8609],[1516118400000,1.8506],[1516204800000,1.8557],[1516291200000,1.8509],[1516550400000,1.8734],[1516636800000,1.8754],[1516723200000,1.8873],[1516809600000,1.8839],[1516896000000,1.8841],[1517155200000,1.862],[1517241600000,1.863],[1517328000000,1.8263],[1517414400000,1.766],[1517500800000,1.7715],[1517760000000,1.7696],[1517846400000,1.6834],[1517932800000,1.6849],[1518019200000,1.7012],[1518105600000,1.6383],[1518364800000,1.6813],[1518451200000,1.6923],[1518537600000,1.6977],[1519228800000,1.7334],[1519315200000,1.7398],[1519574400000,1.779],[1519660800000,1.7735],[1519747200000,1.7772],[1519833600000,1.7967],[1519920000000,1.7868],[1520179200000,1.7888],[1520265600000,1.8131],[1520352000000,1.7958],[1520438400000,1.8093],[1520524800000,1.8319],[1520784000000,1.858],[1520870400000,1.8462],[1520956800000,1.827],[1521043200000,1.8237],[1521129600000,1.8139],[1521388800000,1.8157],[1521475200000,1.8214],[1521561600000,1.8082],[1521648000000,1.7997],[1521734400000,1.7066],[1521993600000,1.7409],[1522080000000,1.7798],[1522166400000,1.7617],[1522252800000,1.7798],[1522339200000,1.8035],[1522598400000,1.8055],[1522684800000,1.7872],[1522771200000,1.7752],[1523203200000,1.7773],[1523289600000,1.7885],[1523376000000,1.7953],[1523462400000,1.7849],[1523548800000,1.7777],[1523808000000,1.7731],[1523894400000,1.7376],[1523980800000,1.7611],[1524067200000,1.7711],[1524153600000,1.7345],[1524412800000,1.7172],[1524499200000,1.757],[1524585600000,1.7576],[1524672000000,1.725],[1524758400000,1.7293],[1525190400000,1.7274],[1525276800000,1.744],[1525363200000,1.7442],[1525622400000,1.7768],[1525708800000,1.7835],[1525795200000,1.7797],[1525881600000,1.7831],[1525968000000,1.7691],[1526227200000,1.7621],[1526313600000,1.778],[1526400000000,1.7738],[1526486400000,1.7653],[1526572800000,1.7721],[1526832000000,1.795],[1526918400000,1.8013],[1527004800000,1.7784],[1527091200000,1.7724],[1527177600000,1.7514],[1527436800000,1.7435],[1527523200000,1.7269],[1527609600000,1.6817],[1527696000000,1.7031],[1527782400000,1.6831],[1528041600000,1.6826],[1528128000000,1.7106],[1528214400000,1.7104],[1528300800000,1.6992],[1528387200000,1.6789],[1528646400000,1.6682],[1528732800000,1.6865],[1528819200000,1.6613],[1528905600000,1.6557],[1528992000000,1.626],[1529337600000,1.5238],[1529424000000,1.5415],[1529510400000,1.5093],[1529596800000,1.5309],[1529856000000,1.5206],[1529942400000,1.5311],[1530028800000,1.5161],[1530115200000,1.5005],[1530201600000,1.5495],[1530288000000,1.5494],[1530460800000,1.5255],[1530547200000,1.5431],[1530633600000,1.521],[1530720000000,1.4805],[1530806400000,1.4849],[1531065600000,1.5185],[1531152000000,1.5275],[1531238400000,1.4977],[1531324800000,1.5391],[1531411200000,1.5488],[1531670400000,1.5462],[1531756800000,1.5463],[1531843200000,1.5353],[1531929600000,1.5217],[1532016000000,1.5412],[1532275200000,1.5527],[1532361600000,1.5799],[1532448000000,1.5811],[1532534400000,1.5705],[1532620800000,1.5635],[1532880000000,1.5441],[1532966400000,1.5447],[1533052800000,1.5197],[1533139200000,1.4863],[1533225600000,1.4671],[1533484800000,1.4357],[1533571200000,1.475],[1533657600000,1.4523],[1533744000000,1.4897],[1533830400000,1.4977],[1534089600000,1.5053],[1534176000000,1.5001],[1534262400000,1.469],[1534348800000,1.4561],[1534435200000,1.4304],[1534694400000,1.4393],[1534780800000,1.4573],[1534867200000,1.4411],[1534953600000,1.4492],[1535040000000,1.4458],[1535299200000,1.4783],[1535385600000,1.4824],[1535472000000,1.4728],[1535558400000,1.4508],[1535644800000,1.4352],[1535904000000,1.4421],[1535990400000,1.4575],[1536076800000,1.4351],[1536163200000,1.4284],[1536249600000,1.4278],[1536508800000,1.4019],[1536595200000,1.4013],[1536681600000,1.3986],[1536768000000,1.4068],[1536854400000,1.3919],[1537113600000,1.3717],[1537200000000,1.3959],[1537286400000,1.4121],[1537372800000,1.4112],[1537459200000,1.4331],[1537804800000,1.4294],[1537891200000,1.4366],[1537977600000,1.419],[1538064000000,1.4326],[1538928000000,1.3865],[1539014400000,1.3828],[1539100800000,1.3816],[1539187200000,1.2853],[1539273600000,1.2767],[1539532800000,1.2533],[1539619200000,1.2237],[1539705600000,1.2338],[1539792000000,1.2],[1539878400000,1.2327],[1540137600000,1.2941],[1540224000000,1.2701],[1540310400000,1.2677],[1540396800000,1.2643],[1540483200000,1.264],[1540742400000,1.2429],[1540828800000,1.2556],[1540915200000,1.2761],[1541001600000,1.2844],[1541088000000,1.3265],[1541347200000,1.3276],[1541433600000,1.3273],[1541520000000,1.3209],[1541606400000,1.3117],[1541692800000,1.3083],[1541952000000,1.3424],[1542038400000,1.3671],[1542124800000,1.3618],[1542211200000,1.3844],[1542297600000,1.3964],[1542556800000,1.3997],[1542643200000,1.3599],[1542729600000,1.3649],[1542816000000,1.3641],[1542902400000,1.3112],[1543161600000,1.3086],[1543248000000,1.3144],[1543334400000,1.3311],[1543420800000,1.3027],[1543507200000,1.3117],[1543766400000,1.3537],[1543852800000,1.3602],[1543939200000,1.3504],[1544025600000,1.3227],[1544112000000,1.3232],[1544371200000,1.3083],[1544457600000,1.3198],[1544544000000,1.3199],[1544630400000,1.3352],[1544716800000,1.3021],[1544976000000,1.2996],[1545062400000,1.2926],[1545148800000,1.2748],[1545235200000,1.2782],[1545321600000,1.2696],[1545580800000,1.2831],[1545667200000,1.2684],[1545753600000,1.2633],[1545840000000,1.2494],[1545926400000,1.251],[1546185600000,1.2509],[1546358400000,1.2401],[1546444800000,1.2345],[1546531200000,1.2638],[1546790400000,1.2874],[1546876800000,1.2841],[1546963200000,1.2877],[1547049600000,1.2856],[1547136000000</t>
   </si>
   <si>
+    <t>[[1143129600000, 0.0], [1147881600000, 25.43], [1150128000000, 21.72], [1152201600000, 33.69], [1154448000000, 19.73], [1156694400000, 25.14], [1158768000000, 29.98], [1161532800000, 31.88], [1163606400000, 42.14], [1165852800000, 69.1], [1168272000000, 98.82], [1170345600000, 109.55], [1173196800000, 137.09], [1175270400000, 151.9], [1177430400000, 220.26], [1180281600000, 290.9], [1182355200000, 321.48], [1184515200000, 274.92], [1186588800000, 393.08], [1188835200000, 438.76], [1190908800000, 465.17], [1193673600000, 455.0], [1195747200000, 377.82], [1197993600000, 388.88], [1200240000000, 475.35], [1202918400000, 406.19], [1205164800000, 362.96], [1207497600000, 300.75], [1209916800000, 318.26], [1211990400000, 268.08], [1214323200000, 203.52], [1216569600000, 202.74], [1218643200000, 149.23], [1220889600000, 108.64], [1223568000000, 91.62], [1225814400000, 70.78], [1228060800000, 101.11], [1230134400000, 101.79], [1232553600000, 114.02], [1235404800000, 156.27], [1237478400000, 161.75], [1239811200000, 193.15], [1242144000000, 206.16], [1244563200000, 222.89], [1246809600000, 266.22], [1248883200000, 291.55], [1251129600000, 247.44], [1253203200000, 261.33], [1256140800000, 278.93], [1258387200000, 314.44], [1260460800000, 318.26], [1262793600000, 302.12], [1265040000000, 266.51], [1267718400000, 282.46], [1269964800000, 288.03], [1272297600000, 262.5], [1274630400000, 234.23], [1277136000000, 226.02], [1279209600000, 206.94], [1281456000000, 242.45], [1283702400000, 267.69], [1286812800000, 292.82], [1288886400000, 336.64], [1291132800000, 295.66], [1293379200000, 292.73], [1295539200000, 269.74], [1298390400000, 303.49], [1300636800000, 305.93], [1303056000000, 315.22], [1305216000000, 288.62], [1307548800000, 265.58], [1309795200000, 293.02], [1311868800000, 278.45], [1314115200000, 256.0], [1316448000000, 235.55], [1319126400000, 202.44], [1321372800000, 226.95], [1323619200000, 194.96], [1325779200000, 167.57], [1328630400000, 196.04], [1330876800000, 219.81], [1332950400000, 192.12], [1335369600000, 214.33], [1337788800000, 211.83], [1340035200000, 208.85], [1342108800000, 201.86], [1344355200000, 187.72], [1346601600000, 164.25], [1348675200000, 165.32], [1351440000000, 162.44], [1353513600000, 151.68], [1355760000000, 166.79], [1358265600000, 193.3], [1361116800000, 209.34], [1363190400000, 189.09], [1365609600000, 185.33], [1368115200000, 194.47], [1370361600000, 201.91], [1372780800000, 161.02], [1375027200000, 161.75], [1377100800000, 176.91], [1379347200000, 182.88], [1382371200000, 190.02], [1384444800000, 176.77], [1386691200000, 181.61], [1389024000000, 166.35], [1391702400000, 163.9], [1393948800000, 155.44], [1396195200000, 147.96], [1398355200000, 150.06], [1400774400000, 149.72], [1403107200000, 149.09], [1405353600000, 157.25], [1407427200000, 177.11], [1409673600000, 188.1], [1412006400000, 190.52], [1414684800000, 194.39], [1416931200000, 211.42], [1419177600000, 260.1], [1421596800000, 261.76], [1423670400000, 282.76], [1426521600000, 321.71], [1428854400000, 389.64], [1431014400000, 404.99], [1433260800000, 500.42], [1435593600000, 419.37], [1437667200000, 382.09], [1439913600000, 359.75], [1442332800000, 261.32], [1445184000000, 305.61], [1447257600000, 345.56], [1449504000000, 330.05], [1451836800000, 318.94], [1453910400000, 244.42], [1456761600000, 251.02], [1458835200000, 284.09], [1461168000000, 274.66], [1463500800000, 268.06], [1465920000000, 279.47], [1468166400000, 287.94], [1470240000000, 286.11], [1472486400000, 301.66], [1474905600000, 294.92], [1477584000000, 303.31], [1479830400000, 316.71], [1482076800000, 290.2], [1484150400000, 286.76], [1487001600000, 295.85], [1489075200000, 303.09], [1491494400000, 315.17], [1493827200000, 302.29], [1496246400000, 299.51], [1498492800000, 339.86], [1500566400000, 339.74], [1502812800000, 341.27], [1505059200000, 360.68], [1507737600000, 379.7], [1509984000000, 404.79], [1512057600000, 383.86], [1514304000000, 386.56], [1516550400000, 425.26], [1519228800000, 384.36], [1521475200000, 391.77], [1523894400000, 351.45], [1526313600000, 374.74], [1528387200000, 356.83], [1530633600000, 298.88], [1532880000000, 310.43], [1534953600000, 279.02], [1537200000000, 263.13], [1540137600000, 254.99], [1542211200000, 255.92], [1544457600000, 243.24], [1546790400000, 230.88], [1548864000000, 245.63], [1551715200000, 339.9], [1553788800000, 350.55], [1556121600000, 358.61], [1558627200000, 308.41], [1560960000000, 332.69], [1563120000000, 348.3], [1565193600000, 333.5], [1567440000000, 364.53], [1569772800000, 356.48], [1572451200000, 374.47], [1574697600000, 378.62], [1576771200000, 398.27], [1579104000000, 428.51], [1582041600000, 431.77], [1584288000000, 387.1], [1586448000000, 393.25], [1589126400000, 426.23], [1591200000000, 439.41], [1593619200000, 503.25], [1595865600000, 553.15], [1597939200000, 567.03], [1600185600000, 549.56], [1603123200000, 590.63], [1605196800000, 611.57], [1607443200000, 608.21], [1609776000000, 711.71], [1611849600000, 701.11], [1614700800000, 700.99], [1616947200000, 628.32], [1619107200000, 666.55], [1621785600000, 677.92], [1623945600000, 674.52], [1626192000000, 698.19], [1628438400000, 679.04]]</t>
+  </si>
+  <si>
     <t>159901</t>
   </si>
   <si>
@@ -80,6 +101,9 @@
     <t xml:space="preserve"> [[1143129600000,1.0],[1143734400000,1.02],[1144339200000,1.053],[1144944000000,1.119],[1145548800000,1.14],[1145808000000,1.121],[1145894400000,1.131],[1145980800000,1.142],[1146067200000,1.149],[1146153600000,1.158],[1147017600000,1.207],[1147104000000,1.242],[1147190400000,1.254],[1147276800000,1.238],[1147363200000,1.267],[1147622400000,1.33],[1147708800000,1.313],[1147795200000,1.319],[1147881600000,1.321],[1147968000000,1.355],[1148227200000,1.361],[1148313600000,1.296],[1148400000000,1.291],[1148486400000,1.296],[1148572800000,1.323],[1148832000000,1.356],[1148918400000,1.369],[1149004800000,1.353],[1149091200000,1.383],[1149177600000,1.362],[1149436800000,1.38],[1149523200000,1.375],[1149609600000,1.3],[1149696000000,1.302],[1149782400000,1.279],[1150041600000,1.283],[1150128000000,1.282],[1150214400000,1.266],[1150300800000,1.268],[1150387200000,1.302],[1150646400000,1.323],[1150732800000,1.325],[1150819200000,1.318],[1150905600000,1.313],[1150992000000,1.327],[1151251200000,1.354],[1151337600000,1.357],[1151424000000,1.353],[1151510400000,1.39],[1151596800000,1.389],[1151856000000,1.417],[1151942400000,1.402],[1152028800000,1.391],[1152115200000,1.414],[1152201600000,1.408],[1152460800000,1.412],[1152547200000,1.418],[1152633600000,1.422],[1152720000000,1.351],[1152806400000,1.365],[1153065600000,1.38],[1153152000000,1.384],[1153238400000,1.34],[1153324800000,1.348],[1153411200000,1.359],[1153670400000,1.361],[1153756800000,1.378],[1153843200000,1.371],[1153929600000,1.349],[1154016000000,1.334],[1154275200000,1.28],[1154361600000,1.27],[1154448000000,1.261],[1154534400000,1.255],[1154620800000,1.224],[1154880000000,1.206],[1154966400000,1.239],[1155052800000,1.236],[1155139200000,1.257],[1155225600000,1.259],[1155484800000,1.231],[1155571200000,1.252],[1155657600000,1.272],[1155744000000,1.261],[1155830400000,1.254],[1156089600000,1.258],[1156176000000,1.274],[1156262400000,1.272],[1156348800000,1.276],[1156435200000,1.282],[1156694400000,1.318],[1156780800000,1.326],[1156867200000,1.333],[1156953600000,1.34],[1157040000000,1.319],[1157299200000,1.34],[1157385600000,1.334],[1157472000000,1.339],[1157558400000,1.32],[1157644800000,1.319],[1157904000000,1.327],[1157990400000,1.336],[1158076800000,1.32],[1158163200000,1.316],[1158249600000,1.339],[1158508800000,1.357],[1158595200000,1.357],[1158681600000,1.361],[1158768000000,1.369],[1158854400000,1.361],[1159113600000,1.361],[1159200000000,1.345],[1159286400000,1.357],[1159372800000,1.373],[1159459200000,1.388],[1159545600000,1.388],[1160323200000,1.414],[1160409600000,1.413],[1160496000000,1.41],[1160582400000,1.397],[1160668800000,1.406],[1160928000000,1.393],[1161014400000,1.397],[1161100800000,1.419],[1161187200000,1.422],[1161273600000,1.423],[1161532800000,1.389],[1161619200000,1.419],[1161705600000,1.43],[1161792000000,1.441],[1161878400000,1.427],[1162137600000,1.426],[1162224000000,1.44],[1162310400000,1.448],[1162396800000,1.45],[1162483200000,1.463],[1162742400000,1.481],[1162828800000,1.488],[1162915200000,1.474],[1163001600000,1.499],[1163088000000,1.467],[1163347200000,1.429],[1163433600000,1.446],[1163520000000,1.498],[1163606400000,1.497],[1163692800000,1.527],[1163952000000,1.551],[1164038400000,1.572],[1164124800000,1.588],[1164211200000,1.592],[1164297600000,1.598],[1164556800000,1.625],[1164643200000,1.621],[1164729600000,1.651],[1164816000000,1.706],[1164902400000,1.729],[1165161600000,1.771],[1165248000000,1.786],[1165334400000,1.759],[1165420800000,1.746],[1165507200000,1.69],[1165766400000,1.772],[1165852800000,1.781],[1165939200000,1.782],[1166025600000,1.804],[1166112000000,1.843],[1166371200000,1.899],[1166457600000,1.891],[1166544000000,1.915],[1166630400000,1.888],[1166716800000,1.862],[1166976000000,1.899],[1167062400000,1.888],[1167148800000,1.917],[1167235200000,1.905],[1167321600000,1.954],[1167494400000,1.954],[1167840000000,1.97],[1167926400000,1.983],[1168185600000,2.037],[1168272000000,2.094],[1168358400000,2.167],[1168444800000,2.153],[1168531200000,2.115],[1168790400000,2.241],[1168876800000,2.34],[1168963200000,2.278],[1169049600000,2.297],[1169136000000,2.376],[1169395200000,2.467],[1169481600000,2.464],[1169568000000,2.48],[1169654400000,2.375],[1169740800000,2.429],[1170000000000,2.48],[1170086400000,2.458],[1170172800000,2.288],[1170259200000,2.303],[1170345600000,2.207],[1170604800000,2.201],[1170691200000,2.229],[1170777600000,2.286],[1170864000000,2.328],[1170950400000,2.315],[1171209600000,2.402],[1171296000000,2.44],[1171382400000,2.504],[1171468800000,2.586],[1171555200000,2.596],[1172419200000,2.618],[1172505600000,2.378],[1172592000000,2.46],[1172678400000,2.383],[1172764800000,2.421],[1173024000000,2.407],[1173110400000,2.431],[1173196800000,2.497],[1173283200000,2.536],[1173369600000,2.511],[1173628800000,2.512],[1173715200000,2.541],[1173801600000,2.509],[1173888000000,2.557],[1173974400000,2.524],[1174233600000,2.556],[1174320000000,2.576],[1174406400000,2.61],[1174492800000,2.616],[1174579200000,2.635],[1174838400000,2.682],[1174924800000,2.69],[1175011200000,2.676],[1175097600000,2.653],[1175184000000,2.653],[1175270400000,2.653],[1175443200000,2.72],[1175529600000,2.767],[1175616000000,2.805],[1175702400000,2.837],[1175788800000,2.88],[1176048000000,2.945],[1176134400000,2.99],[1176220800000,3.029],[1176307200000,3.1],[1176393600000,3.118],[1176652800000,3.196],[1176739200000,3.225],[1176825600000,3.274],[1176912000000,3.114],[1176998400000,3.246],[1177257600000,3.378],[1177344000000,3.379],[1177430400000,3.373],[1177516800000,3.427],[1177603200000,3.382],[1177862400000,3.444],[1178553600000,3.593],[1178640000000,3.618],[1178726400000,3.644],[1178812800000,3.625],[1179072000000,3.688],[1179158400000,3.578],[1179244800000,3.665],[1179331200000,3.758],[1179417600000,3.774],[1179676800000,3.835],[1179763200000,3.889],[1179849600000,3.964],[1179936000000,3.939],[1180022400000,4.011],[1180281600000,4.117],[1180368000000,4.247],[1180454400000,3.974],[1180540800000,4.026],[1180627200000,3.887],[1180886400000,3.589],[1180972800000,3.739],[1181059200000,3.83],[1181145600000,3.954],[1181232000000,4.012],[1181491200000,4.119],[1181577600000,4.244],[1181664000000,4.326],[1181750400000,4.287],[1181836800000,4.293],[1182096000000,4.409],[1182182400000,4.457],[1182268800000,4.4],[1182355200000,4.439],[1182441600000,4.261],[1182700800000,4.066],[1182787200000,4.123],[1182873600000,4.25],[1182960000000,4.022],[1183046400000,4.036],[1183132800000,4.036],[1183305600000,4.019],[1183392000000,4.114],[1183478400000,4.028],[1183564800000,3.789],[1183651200000,3.984],[1183910400000,4.13],[1183996800000,4.06],[1184083200000,4.095],[1184169600000,4.111],[1184256000000,4.1],[1184515200000,3.953],[1184601600000,4.065],[1184688000000,4.078],[1184774400000,4.077],[1184860800000,4.252],[1185120000000,4.466],[1185206400000,4.474],[1185292800000,4.555],[1185379200000,4.631],[1185465600000,4.646],[1185724800000,4.768],[1185811200000,4.826],[1185897600000,4.666],[1185984000000,4.871],[1186070400000,5.031],[1186329600000,5.144],[1186416000000,5.148],[1186502400000,5.05],[1186588800000,5.161],[1186675200000,5.052],[1186934400000,5.002],[1187020800000,5.076],[1187107200000,5.056],[1187193600000,5.0],[1187280000000,4.907],[1187539200000,5.16],[1187625600000,5.249],[1187712000000,5.366],[1187798400000,5.45],[1187884800000,5.513],[1188144000000,5.53],[1188230400000,5.531],[1188316800000,5.427],[1188403200000,5.508],[1188489600000,5.573],[1188748800000,5.673],[1188835200000,5.628],[1188921600000,5.624],[1189008000000,5.66],[1189094400000,5.546],[1189353600000,5.623],[1189440000000,5.354],[1189526400000,5.449],[1189612800000,5.615],[1189699200000,5.691],[1189958400000,5.794],[1190044800000,5.756],[1190131200000,5.695],[1190217600000,5.755],[1190304000000,5.746],[1190563200000,5.796],[1190649600000,5.753],[1190736000000,5.643],[1190822400000,5.728],[1190908800000,5.898],[1191081600000,5.898],[1191772800000,5.976],[1191859200000,6.008],[1191945600000,5.99],[1192032000000,5.998],[1192118400000,5.929],[1192377600000,5.945],[1192464000000,6.021],[1192550400000,5.982],[1192636800000,5.794],[1192723200000,5.824],[1192982400000,5.682],[1193068800000,5.744],[1193155200000,5.765],[1193241600000,5.543],[1193328000000,5.624],[1193587200000,5.727],[1193673600000,5.794],[1193760000000,5.942],[1193846400000,5.812],[1193932800000,5.623],[1194192000000,5.518],[1194278400000,5.525],[1194364800000,5.557],[1194451200000,5.328],[1194537600000,5.232],[1194796800000,5.189],[1194883200000,5.116],[1194969600000,5.305],[1195056000000,5.226],[1195142400000,5.137],[1195401600000,5.14],[1195488000000,5.238],[1195574400000,5.174],[1195660800000,4.924],[1195747200000,5.005],[1196006400000,4.955],[1196092800000,4.866],[1196179200000,4.776],[1196265600000,4.929],[1196352000000,4.841],[1196611200000,4.89],[1196697600000,4.946],[1196784000000,5.095],[1196870400000,5.09],[1196956800000,5.16],[1197216000000,5.277],[1197302400000,5.271],[1197388800000,5.231],[1197475200000,5.001],[1197561600000,5.122],[1197820800000,5.032],[1197907200000,5.014],[1197993600000,5.118],[1198080000000,5.193],[1198166400000,5.26],[1198425600000,5.359],[1198512000000,5.382],[1198598400000,5.458],[1198684800000,5.561],[1198771200000,5.532],[1198857600000,5.531],[1199030400000,5.531],[1199203200000,5.596],[1199289600000,5.639],[1199376000000,5.704],[1199635200000,5.79],[1199721600000,5.737],[1199808000000,5.855],[1199894400000,5.943],[1199980800000,5.953],[1200240000000,6.002],[1200326400000,5.99],[1200412800000,5.803],[1200499200000,5.677],[1200585600000,5.753],[1200844800000,5.467],[1200931200000,5.081],[1201017600000,5.352],[1201104000000,5.443],[1201190400000,5.5],[1201449600000,5.148],[1201536000000,5.163],[1201622400000,5.144],[1201708800000,5.023],[1201795200000,4.958],[1202054400000,5.349],[1202140800000,5.318],[1202832000000,5.225],[1202918400000,5.295],[1203004800000,5.24],[1203264000000,5.357],[1203350400000,5.482],[1203436800000,5.385],[1203523200000,5.364],[1203609600000,5.198],[1203868800000,4.998],[1203955200000,4.944],[1204041600000,5.068],[1204128000000,5.058],[1204214400000,5.109],[1204473600000,5.238],[1204560000000,5.129],[1204646400000,5.102],[1204732800000,5.129],[1204819200000,5.075],[1205078400000,4.862],[1205164800000,4.853],[1205251200000,4.715],[1205337600000,4.573],[1205424000000,4.527],[1205683200000,4.299],[1205769600000,4.068],[1205856000000,4.227],[1205942400000,4.372],[1206028800000,4.426],[1206288000000,4.244],[1206374400000,4.326],[1206460800000,4.346],[1206547200000,4.209],[1206633600000,4.372],[1206892800000,4.242],[1206979200000,3.966],[1207065600000,3.887],[1207152000000,3.985],[1207497600000,4.217],[1207584000000,4.28],[1207670400000,4.117],[1207756800000,4.191],[1207843200000,4.21],[1208102400000,3.927],[1208188800000,3.961],[1208275200000,3.863],[1208361600000,3.74],[1208448000000,3.619],[1208707200000,3.565],[1208793600000,3.571],[1208880000000,3.754],[1208966400000,4.089],[1209052800000,4.148],[1209312000000,4.069],[1209398400000,4.103],[1209484800000,4.282],[1209916800000,4.396],[1210003200000,4.34],[1210089600000,4.135],[1210176000000,4.245],[1210262400000,4.202],[1210521600000,4.233],[1210608000000,4.217],[1210694400000,4.352],[1210780800000,4.308],[1210867200000,4.28],[1211126400000,4.254],[1211212800000,4.025],[1211299200000,4.101],[1211385600000,4.017],[1211472000000,3.967],[1211731200000,3.857],[1211817600000,3.885],[1211904000000,3.986],[1211990400000,3.883],[1212076800000,3.904],[1212336000000,3.91],[1212422400000,3.887],[1212508800000,3.86],[1212595200000,3.814],[1212681600000,3.782],[1213027200000,3.491],[1213113600000,3.395],[1213200000000,3.36],[1213286400000,3.231],[1213545600000,3.191],[1213632000000,3.061],[1213718400000,3.215],[1213804800000,2.983],[1213891200000,3.047],[1214150400000,2.999],[1214236800000,3.086],[1214323200000,3.223],[1214409600000,3.236],[1214496000000,3.055],[1214755200000,3.036],[1214841600000,2.96],[1214928000000,2.981],[1215014400000,3.066],[1215100800000,3.06],[1215360000000,3.213],[1215446400000,3.24],[1215532800000,3.358],[1215619200000,3.308],[1215705600000,3.27],[1215964800000,3.286],[1216051200000,3.168],[1216137600000,3.045],[1216224000000,3.024],[1216310400000,3.116],[1216569600000,3.215],[1216656000000,3.21],[1216742400000,3.167],[1216828800000,3.249],[1216915200000,3.224],[1217174400000,3.249],[1217260800000,3.193],[1217347200000,3.175],[1217433600000,3.093],[1217520000000,3.118],[1217779200000,3.049],[1217865600000,2.95],[1217952000000,2.949],[1218038400000,2.948],[1218124800000,2.808],[1218384000000,2.644],[1218470400000,2.646],[1218556800000,2.663],[1218643200000,2.668],[1218729600000,2.655],[1218988800000,2.518],[1219075200000,2.553],[1219161600000,2.731],[1219248000000,2.639],[1219334400000,2.594],[1219593600000,2.582],[1219680000000,2.51],[1219766400000,2.49],[1219852800000,2.485],[1219939200000,2.547],[1220198400000,2.456],[1220284800000,2.431],[1220371200000,2.39],[1220457600000,2.405],[1220544000000,2.334],[1220803200000,2.246],[1220889600000,2.253],[1220976000000,2.261],[1221062400000,2.206],[1221148800000,2.223],[1221494400000,2.202],[1221580800000,2.151],[1221667200000,2.11],[1221753600000,2.295],[1222012800000,2.392],[1222099200000,2.266],[1222185600000,2.276],[1222272000000,2.356],[1222358400000,2.407],[1222704000000,2.406],[1223222400000,2.307],[1223308800000,2.298],[1223395200000,2.232],[1223481600000,2.189],[1223568000000,2.079],[1223827200000,2.126],[1223913600000,2.093],[1224000000000,2.073],[1224086400000,1.994],[1224172800000,2.007],[1224432000000,2.068],[1224518400000,2.057],[1224604800000,2.021],[1224691200000,2.035],[1224777600000,1.987],[1225036800000,1.857],[1225123200000,1.9],[1225209600000,1.863],[1225296000000,1.888],[1225382400000,1.86],[1225641600000,1.849],[1225728000000,1.808],[1225814400000,1.866],[1225900800000,1.829],[1225987200000,1.841],[1226246400000,1.957],[1226332800000,1.952],[1226419200000,1.968],[1226505600000,2.046],[1226592000000,2.138],[1226851200000,2.191],[1226937600000,2.038],[1227024000000,2.16],[1227110400000,2.169],[1227196800000,2.169],[1227456000000,2.086],[1227542400000,2.085],[1227628800000,2.099],[1227715200000,2.144],[1227801600000,2.131],[1228060800000,2.176],[1228147200000,2.194],[1228233600000,2.274],[1228320000000,2.294],[1228406400000,2.34],[1228665600000,2.419],[1228752000000,2.369],[1228838400000,2.41],[1228924800000,2.359],[1229011200000,2.272],[1229270400000,2.284],[1229356800000,2.328],[1229443200000,2.344],[1229529600000,2.38],[1229616000000,2.391],[1229875200000,2.355],[1229961600000,2.24],[1230048000000,2.2],[1230134400000,2.183],[1230220800000,2.159],[1230480000000,2.149],[1230566400000,2.124],[1230652800000,2.099],[1231084800000,2.153],[1231171200000,2.211],[1231257600000,2.195],[1231344000000,2.158],[1231430400000,2.192],[1231689600000,2.198],[1231776000000,2.143],[1231862400000,2.227],[1231948800000,2.23],[1232035200000,2.259],[1232294400000,2.272],[1232380800000,2.288],[1232467200000,2.279],[1232553600000,2.308],[1232640000000,2.299],[1233504000000,2.326],[1233590400000,2.382],[1233676800000,2.44],[1233763200000,2.411],[1233849600000,2.518],[1234108800000,2.61],[1234195200000,2.67],[1234281600000,2.678],[1234368000000,2.693],[1234454400000,2.791],[1234713600000,2.837],[1234800000000,2.739],[1234886400000,2.63],[1234972800000,2.68],[1235059200000,2.751],[1235318400000,2.841],[1235404800000,2.74],[1235491200000,2.703],[1235577600000,2.549],[1235664000000,2.477],[1235923200000,2.526],[1236009600000,2.516],[1236096000000,2.677],[1236182400000,2.683],[1236268800000,2.676],[1236528000000,2.578],[1236614400000,2.613],[1236700800000,2.587],[1236787200000,2.588],[1236873600000,2.566],[1237132800000,2.603],[1237219200000,2.715],[1237305600000,2.741],[1237392000000,2.793],[1237478400000,2.796],[1237737600000,2.867],[1237824000000,2.884],[1237910400000,2.817],[1237996800000,2.887],[1238083200000,2.895],[1238342400000,2.877],[1238428800000,2.907],[1238515200000,2.957],[1238601600000,2.991],[1238688000000,2.966],[1239033600000,2.97],[1239120000000,2.868],[1239206400000,2.908],[1239292800000,3.003],[1239552000000,3.057],[1239638400000,3.1],[1239724800000,3.118],[1239811200000,3.117],[1239897600000,3.073],[1240156800000,3.136],[1240243200000,3.095],[1240329600000,2.964],[1240416000000,2.993],[1240502400000,2.976],[1240761600000,2.898],[1240848000000,2.914],[1240934400000,2.991],[1241020800000,3.028],[1241366400000,3.142],[1241452800000,3.16],[1241539200000,3.219],[1241625600000,3.21],[1241712000000,3.231],[1241971200000,3.132],[1242057600000,3.22],[1242144000000,3.25],[1242230400000,3.247],[1242316800000,3.258],[1242576000000,3.272],[1242662400000,3.304],[1242748800000,3.29],[1242835200000,3.214],[1242921600000,3.209],[1243180800000,3.238],[1243267200000,3.196],[1243353600000,3.222],[1243785600000,3.304],[1243872000000,3.323],[1243958400000,3.386],[1244044800000,3.397],[1244131200000,3.378],[1244390400000,3.366],[1244476800000,3.394],[1244563200000,3.421],[1244649600000,3.386],[1244736000000,3.332],[1244995200000,3.393],[1245081600000,3.399],[1245168000000,3.473],[1245254400000,3.511],[1245340800000,3.533],[1245600000000,3.514],[1245686400000,3.5],[1245772800000,3.571],[1245859200000,3.568],[1245945600000,3.579],[1246204800000,3.631],[1246291200000,3.614],[1246377600000,3.689],[1246464000000,3.726],[1246550400000,3.804],[1246809600000,3.864],[1246896000000,3.835],[1246982400000,3.875],[1247068800000,3.923],[1247155200000,3.944],[1247414400000,3.944],[1247500800000,4.043],[1247587200000,4.071],[1247673600000,4.07],[1247760000000,4.092],[1248019200000,4.171],[1248105600000,4.106],[1248192000000,4.167],[1248278400000,4.216],[1248364800000,4.215],[1248624000000,4.278],[1248710400000,4.312],[1248796800000,4.07],[1248883200000,4.123],[1248969600000,4.254],[1249228800000,4.326],[1249315200000,4.353],[1249401600000,4.316],[1249488000000,4.24],[1249574400000,4.086],[1249833600000,4.09],[1249920000000,4.125],[1250006400000,3.957],[1250092800000,4.011],[1250179200000,3.902],[1250438400000,3.646],[1250524800000,3.686],[1250611200000,3.518],[1250697600000,3.651],[1250784000000,3.725],[1251043200000,3.783],[1251129600000,3.672],[1251216000000,3.771],[1251302400000,3.755],[1251388800000,3.626],[1251648000000,3.363],[1251734400000,3.361],[1251820800000,3.391],[1251907200000,3.592],[1251993600000,3.634],[1252252800000,3.674],[1252339200000,3.761],[1252425600000,3.805],[1252512000000,3.761],[1252598400000,3.823],[1252857600000,3.916],[1252944000000,3.938],[1253030400000,3.901],[1253116800000,3.956],[1253203200000,3.814],[1253462400000,3.842],[1253548800000,3.763],[1253635200000,3.653],[1253721600000,3.652],[1253808000000,3.624],[1254067200000,3.535],[1254153600000,3.517],[1254240000000,3.561],[1255017600000,3.743],[1255276800000,3.736],[1255363200000,3.781],[1255449600000,3.811],[1255536000000,3.822],[1255622400000,3.831],[1255881600000,3.955],[1255968000000,4.008],[1256054400000,4.008],[1256140800000,3.994],[1256227200000,4.062],[1256486400000,4.063],[1256572800000,3.948],[1256659200000,3.984],[1256745600000,3.896],[1256832000000,3.931],[1257091200000,4.064],[1257177600000,4.115],[1257264000000,4.135],[1257350400000,4.133],[1257436800000,4.162],[1257696000000,4.176],[1257782400000,4.2],[1257868800000,4.191],[1257955200000,4.21],[1258041600000,4.234],[1258300800000,4.357],[1258387200000,4.357],[1258473600000,4.356],[1258560000000,4.381],[1258646400000,4.383],[1258905600000,4.432],[1258992000000,4.283],[1259078400000,4.395],[1259164800000,4.234],[1259251200000,4.104],[1259510400000,4.285],[1259596800000,4.355],[1259683200000,4.398],[1259769600000,4.394],[1259856000000,4.4],[1260115200000,4.457],[1260201600000,4.426],[1260288000000,4.365],[1260374400000,4.392],[1260460800000,4.396],[1260720000000,4.412],[1260806400000,4.382],[1260892800000,4.338],[1260979200000,4.241],[1261065600000,4.093],[1261324800000,4.124],[1261411200000,4.011],[1261497600000,4.063],[1261584000000,4.21],[1261670400000,4.212],[1261929600000,4.275],[1262016000000,4.291],[1262102400000,4.329],[1262188800000,4.348],[1262534400000,4.309],[1262620800000,4.313],[1262707200000,4.312],[1262793600000,4.231],[1262880000000,4.246],[1263139200000,4.22],[1263225600000,4.294],[1263312000000,4.192],[1263398400000,4.258],[1263484800000,4.284],[1263744000000,4.323],[1263830400000,4.325],[1263916800000,4.178],[1264003200000,4.181],[1264089600000,4.071],[1264348800000,4.032],[1264435200000,3.923],[1264521600000,3.893],[1264608000000,3.928],[1264694400000,3.938],[1264953600000,3.888],[1265040000000,3.867],[1265126400000,3.967],[1265212800000,3.956],[1265299200000,3.876],[1265558400000,3.887],[1265644800000,3.892],[1265731200000,3.953],[1265817600000,3.965],[1265904000000,3.996],[1266768000000,3.974],[1266854400000,3.949],[1266940800000,4.019],[1267027200000,4.082],[1267113600000,4.071],[1267372800000,4.111],[1267459200000,4.101],[1267545600000,4.128],[1267632000000,4.019],[1267718400000,4.03],[1267977600000,4.061],[1268064000000,4.083],[1268150400000,4.042],[1268236800000,4.031],[1268323200000,3.97],[1268582400000,3.898],[1268668800000,3.912],[1268755200000,4.005],[1268841600000,4.007],[1268928000000,4.045],[1269187200000,4.048],[1269273600000,4.028],[1269360000000,4.031],[1269446400000,3.968],[1269532800000,4.014],[1269792000000,3.89],[1269878400000,3.903],[1269964800000,3.881],[1270051200000,3.94],[1270137600000,3.969],[1270483200000,3.959],[1270569600000,3.947],[1270656000000,3.903],[1270742400000,3.942],[1271001600000,3.915],[1271088000000,3.936],[1271174400000,3.954],[1271260800000,3.932],[1271347200000,3.906],[1271606400000,3.681],[1271692800000,3.67],[1271779200000,3.756],[1271865600000,3.742],[1271952000000,3.731],[1272211200000,3.711],[1272297600000,3.633],[1272384000000,3.626],[1272470400000,3.558],[1272556800000,3.537],[1272902400000,3.488],[1272988800000,3.517],[1273075200000,3.361],[1273161600000,3.279],[1273420800000,3.287],[1273507200000,3.223],[1273593600000,3.227],[1273680000000,3.311],[1273766400000,3.297],[1274025600000,3.107],[1274112000000,3.179],[1274198400000,3.176],[1274284800000,3.153],[1274371200000,3.228],[1274630400000,3.358],[1274716800000,3.296],[1274803200000,3.295],[1274889600000,3.352],[1274976000000,3.345],[1275235200000,3.255],[1275321600000,3.215],[1275408000000,3.247],[1275494400000,3.224],[1275580800000,3.247],[1275840000000,3.197],[1275926400000,3.212],[1276012800000,3.3],[1276099200000,3.272],[1276185600000,3.273],[1276704000000,3.243],[1276790400000,3.168],[1277049600000,3.266],[1277136000000,3.279],[1277222400000,3.254],[1277308800000,3.257],[1277395200000,3.206],[1277654400000,3.174],[1277740800000,3.017],[1277827200000,2.979],[1277913600000,2.927],[1278000000000,2.925],[1278259200000,2.909],[1278345600000,2.977],[1278432000000,3.015],[1278518400000,3.008],[1278604800000,3.109],[1278864000000,3.146],[1278950400000,3.105],[1279036800000,3.112],[1279123200000,3.071],[1279209600000,3.093],[1279468800000,3.177],[1279555200000,3.256],[1279641600000,3.252],[1279728000000,3.298],[1279814400000,3.311],[1280073600000,3.341],[1280160000000,3.333],[1280246400000,3.411],[1280332800000,3.423],[1280419200000,3.415],[1280678400000,3.483],[1280764800000,3.426],[1280851200000,3.444],[1280937600000,3.421],[1281024000000,3.482],[1281283200000,3.509],[1281369600000,3.41],[1281456000000,3.438],[1281542400000,3.395],[1281628800000,3.458],[1281888000000,3.54],[1281974400000,3.573],[1282060800000,3.574],[1282147200000,3.589],[1282233600000,3.515],[1282492800000,3.521],[1282579200000,3.56],[1282665600000,3.485],[1282752000000,3.501],[1282838400000,3.51],[1283097600000,3.595],[1283184000000,3.608],[1283270400000,3.583],[1283356800000,3.63],[1283443200000,3.637],[1283702400000,3.683],[1283788800000,3.705],[1283875200000,3.726],[1283961600000,3.654],[1284048000000,3.677],[1284307200000,3.738],[1284393600000,3.734],[1284480000000,3.663],[1284566400000,3.589],[1284652800000,3.602],[1284912000000,3.575],[1284998400000,3.585],[1285516800000,3.658],[1285603200000,3.623],[1285689600000,3.6],[1285776000000,3.671],[1286467200000,3.801],[1286726400000,3.881],[1286812800000,3.927],[1286899200000,3.991],[1286985600000,3.941],[1287072000000,4.014],[1287331200000,3.971],[1287417600000,4.071],[1287504000000,4.116],[1287590400000,4.132],[1287676800000,4.165],[1287936000000,4.304],[1288022400000,4.3],[1288108800000,4.222],[1288195200000,4.217],[1288281600000,4.221],[1288540800000,4.346],[1288627200000,4.32],[1288713600000,4.227],[1288800000000,4.31],[1288886400000,4.352],[1289145600000,4.386],[1289232000000,4.382],[1289318400000,4.381],[1289404800000,4.37],[1289491200000,4.066],[1289750400000,4.116],[1289836800000,3.929],[1289923200000,3.81],[1290009600000,3.885],[1290096000000,3.945],[1290355200000,3.959],[1290441600000,3.898],[1290528000000,4.016],[1290614400000,4.064],[1290700800000,4.031],[1290960000000,4.035],[1291046400000,3.969],[1291132800000,3.955],[1291219200000,3.988],[1291305600000,3.988],[1291564800000,3.969],[1291651200000,4.04],[1291737600000,4.021],[1291824000000,3.945],[1291910400000,3.988],[1292169600000,4.121],[1292256000000,4.144],[1292342400000,4.121],[1292428800000,4.116],[1292515200000,4.107],[1292774400000,4.05],[1292860800000,4.13],[1292947200000,4.097],[1293033600000,4.05],[1293120000000,4.012],[1293379200000,3.926],[1293465600000,3.841],[1293552000000,3.869],[1293638400000,3.888],[1293724800000,3.993],[1294070400000,4.064],[1294156800000,4.045],[1294243200000,4.026],[1294329600000,4.007],[1294588800000,3.926],[1294675200000,3.936],[1294761600000,3.94],[1294848000000,3.94],[1294934400000,3.888],[1295193600000,3.712],[1295280000000,3.722],[1295366400000,3.817],[1295452800000,3.675],[1295539200000,3.703],[1295798400000,3.646],[1295884800000,3.627],[1295971200000,3.679],[1296057600000,3.746],[1296144000000,3.779],[1296403200000,3.817],[1296489600000,3.812],[1297180800000,3.76],[1297267200000,3.869],[1297353600000,3.912],[1297612800000,4.035],[1297699200000,4.035],[1297785600000,4.097],[1297872000000,4.097],[1297958400000,4.045],[1298217600000,4.13],[1298304000000,4.016],[1298390400000,4.031],[1298476800000,4.054],[1298563200000,4.069],[1298822400000,4.14],[1298908800000,4.144],[1298995200000,4.126],[1299081600000,4.069],[1299168000000,4.126],[1299427200000,4.206],[1299513600000,4.206],[1299600000000,4.206],[1299686400000,4.154],[1299772800000,4.116],[1300032000000,4.159],[1300118400000,4.088],[1300204800000,4.13],[1300291200000,4.059],[1300377600000,4.083],[1300636800000,4.054],[1300723200000,4.064],[1300809600000,4.126],[1300896000000,4.111],[1300982400000,4.159],[1301241600000,4.14],[1301328000000,4.073],[1301414400000,4.064],[1301500800000,4.026],[1301587200000,4.064],[1302019200000,4.073],[1302105600000,4.116],[1302192000000,4.163],[1302451200000,4.13],[1302537600000,4.121],[1302624000000,4.173],[1302710400000,4.149],[1302796800000,4.14],[1303056000000,4.144],[1303142400000,4.088],[1303228800000,4.083],[1303315200000,4.102],[1303401600000,4.0761],[1303660800000,4.0059],[1303747200000,3.9793],[1303833600000,3.947],[1303920000000,3.8639],[1304006400000,3.9242],[1304352000000,3.9598],[1304438400000,3.8568],[1304524800000,3.8568],[1304611200000,3.862],[1304870400000,3.882],[1304956800000,3.9109],[1305043200000,3.9085],[1305129600000,3.8634],[1305216000000,3.8862],[1305475200000,3.8554],[1305561600000,3.8734],[1305648000000,3.8995],[1305734400000,3.8763],[1305820800000,3.8758],[1306080000000,3.7438],[1306166400000,3.7448],[1306252800000,3.7035],[1306339200000,3.6731],[1306425600000,3.6465],[1306684800000,3.6247],[1306771200000,3.6902],[1306857600000,3.7068],[1306944000000,3.6493],[1307030400000,3.6978],[1307376000000,3.7262],[1307462400000,3.74],[1307548800000,3.6626],[1307635200000,3.6797],[1307894400000,3.6626],[1307980800000,3.7253],[1308067200000,3.6873],[1308153600000,3.6261],[1308240000000,3.5971],[1308499200000,3.5658],[1308585600000,3.619],[1308672000000,3.6223],[1308758400000,3.6949],[1308844800000,3.7723],[1309104000000,3.7899],[1309190400000,3.7975],[1309276800000,3.7543],[1309363200000,3.8108],[1309449600000,3.8321],[1309708800000,3.9223],[1309795200000,3.929],[1309881600000,3.9318],[1309968000000,3.9256],[1310054400000,3.9328],[1310313600000,3.9461],[1310400000000,3.8862],[1310486400000,3.9536],[1310572800000,3.956],[1310659200000,3.9779],[1310918400000,3.9679],[1311004800000,3.9304],[1311091200000,3.9309],[1311177600000,3.8943],[1311264000000,3.909],[1311523200000,3.7766],[1311609600000,3.7908],[1311696000000,3.8321],[1311782400000,3.8202],[1311868800000,3.7875],[1312128000000,3.7965],[1312214400000,3.7761],[1312300800000,3.7737],[1312387200000,3.7813],[1312473600000,3.7096],[1312732800000,3.5715],[1312819200000,3.5696],[1312905600000,3.6085],[1312992000000,3.6607],[1313078400000,3.6755],[1313337600000,3.7258],[1313424000000,3.6963],[1313510400000,3.674],[1313596800000,3.6161],[1313683200000,3.58],[1313942400000,3.5283],[1314028800000,3.5743],[1314115200000,3.5696],[1314201600000,3.6736],[1314288000000,3.6698],[1314547200000,3.6152],[1314633600000,3.5985],[1314720000000,3.6052],[1314806400000,3.5886],[1314892800000,3.5511],[1315152000000,3.4651],[1315238400000,3.4172],[1315324800000,3.4898],[1315411200000,3.4604],[1315497600000,3.4428],[1315843200000,3.4025],[1315929600000,3.421],[1316016000000,3.4262],[1316102400000,3.4319],[1316361600000,3.3607],[1316448000000,3.3711],[1316534400000,3.4718],[1316620800000,3.3683],[1316707200000,3.337],[1316966400000,3.2786],[1317052800000,3.308],[1317139200000,3.2752],[1317225600000,3.233],[1317312000000,3.2282],[1318176000000,3.1936],[1318262400000,3.1651],[1318348800000,3.2724],[1318435200000,3.2985],[1318521600000,3.2838],[1318780800000,3.2985],[1318867200000,3.2064],[1318953600000,3.1746],[1319040000000,3.0858],[1319126400000,3.0497],[1319385600000,3.1233],[1319472000000,3.2026],[1319558400000,3.2382],[1319644800000,3.2382],[1319731200000,3.3113],[1319990400000,3.2985],[1320076800000,3.2914],[1320163200000,3.3389],[1320249600000,3.3564],[1320336000000,3.3787],[1320595200000,3.3474],[1320681600000,3.3313],[1320768000000,3.3692],[1320854400000,3.317],[1320940800000,3.3085],[1321200000000,3.3787],[1321286400000,3.3711],[1321372800000,3.2876],[1321459200000,3.2809],[1321545600000,3.1917],[1321804800000,3.195],[1321891200000,3.1917],[1321977600000,3.1717],[1322064000000,3.1765],[1322150400000,3.1518],[1322409600000,3.1542],[1322496000000,3.1964],[1322582400000,3.0887],[1322668800000,3.1556],[1322755200000,3.1134],[1323014400000,3.0417],[1323100800000,3.0431],[1323187200000,3.0478],[1323273600000,3.0426],[1323360000000,3.0127],[1323619200000,2.9771],[1323705600000,2.9159],[1323792000000,2.8807],[1323878400000,2.8152],[1323964800000,2.8769],[1324224000000,2.8741],[1324310400000,2.867],[1324396800000,2.8128],[1324483200000,2.81],[1324569600000,2.8323],[1324828800000,2.8019],[1324915200000,2.7492],[1325001600000,2.7549],[1325088000000,2.763],[1325174400000,2.8081],[1325260800000,2.8081],[1325606400000,2.7397],[1325692800000,2.697],[1325779200000,2.7112],[1326038400000,2.8067],[1326124800000,2.913],[1326211200000,2.9054],[1326297600000,2.8954],[1326384000000,2.8314],[1326643200000,2.7654],[1326729600000,2.9064],[1326816000000,2.8589],[1326902400000,2.9087],[1326988800000,2.9548],[1327852800000,2.9016],[1327939200000,2.9087],[1328025600000,2.8727],[1328112000000,2.9296],[1328198400000,2.9515],[1328457600000,2.9572],[1328544000000,2.9021],[1328630400000,2.9875],[1328716800000,2.9956],[1328803200000,3.007],[1329062400000,3.0099],[1329148800000,3.0023],[1329235200000,3.0431],[1329321600000,3.0289],[1329408000000,3.0246],[1329667200000,3.027],[1329753600000,3.0569],[1329840000000,3.1148],[1329926400000,3.1295],[1330012800000,3.1907],[1330272000000,3.2069],[1330358400000,3.1988],[1330444800000,3.1613],[1330531200000,3.1637],[1330617600000,3.2335],[1330876800000,3.2183],[1330963200000,3.176],[1331049600000,3.1594],[1331136000000,3.1993],[1331222400000,3.2477],[1331481600000,3.2392],[1331568000000,3.2738],[1331654400000,3.1665],[1331740800000,3.1475],[1331827200000,3.2069],[1332086400000,3.2178],[1332172800000,3.1594],[1332259200000,3.1613],[1332345600000,3.1471],[1332432000000,3.0939],[1332691200000,3.1029],[1332777600000,3.0811],[1332864000000,2.9814],[1332950400000,2.9496],[1333036800000,2.9434],[1333123200000,2.9434],[1333555200000,3.0317],[1333641600000,3.0526],[1333900800000,3.0232],[1333987200000,3.0531],[1334073600000,3.0597],[1334160000000,3.12],[1334246400000,3.1338],[1334505600000,3.1219],[1334592000000,3.0763],[1334678400000,3.1471],[1334764800000,3.1361],[1334851200000,3.1642],[1335110400000,3.1352],[1335196800000,3.1238],[1335283200000,3.1594],[1335369600000,3.1651],[1335456000000,3.1542],[1335888000000,3.2259],[1335974400000,3.2392],[1336060800000,3.2691],[1336320000000,3.2833],[1336406400000,3.2657],[1336492800000,3.1979],[1336579200000,3.1998],[1336665600000,3.</t>
   </si>
   <si>
+    <t>[[1104336000000, 0.0], [1110297600000, 2.88], [1112716800000, -3.28], [1115740800000, -8.49], [1118160000000, -7.9], [1120579200000, -11.33], [1122998400000, -3.64], [1125417600000, -1.39], [1127836800000, -5.41], [1130860800000, -8.13], [1133280000000, -8.13], [1135699200000, -3.99], [1139155200000, 4.06], [1141574400000, 6.9], [1143993600000, 8.08], [1147017600000, 20.75], [1149436800000, 36.08], [1151856000000, 39.95], [1154275200000, 27.37], [1156694400000, 30.52], [1159113600000, 36.44], [1161878400000, 45.27], [1164297600000, 71.81], [1166716800000, 97.56], [1169481600000, 158.15], [1172505600000, 150.31], [1174924800000, 174.94], [1177257600000, 224.08], [1180281600000, 263.27], [1182700800000, 262.52], [1184860800000, 282.93], [1187280000000, 340.53], [1189699200000, 408.7], [1192636800000, 442.17], [1195056000000, 402.48], [1197475200000, 383.2], [1199894400000, 441.55], [1202918400000, 362.42], [1205337600000, 292.01], [1207843200000, 259.29], [1210608000000, 263.64], [1213113600000, 207.29], [1215532800000, 193.98], [1217952000000, 176.31], [1220371200000, 138.12], [1223395200000, 106.64], [1225814400000, 78.28], [1228233600000, 91.82], [1230652800000, 79.67], [1233849600000, 118.06], [1236268800000, 117.8], [1238688000000, 144.94], [1241452800000, 153.86], [1244044800000, 180.88], [1246464000000, 220.82], [1248883200000, 256.24], [1251302400000, 196.13], [1253721600000, 190.31], [1256832000000, 207.89], [1259251200000, 209.44], [1261670400000, 211.77], [1264348800000, 204.27], [1267372800000, 198.97], [1269792000000, 205.57], [1272297600000, 175.32], [1274803200000, 154.25], [1277654400000, 149.34], [1280073600000, 156.32], [1282492800000, 158.13], [1284912000000, 145.07], [1288195200000, 190.83], [1290614400000, 166.69], [1293033600000, 163.81], [1295539200000, 151.63], [1298563200000, 161.58], [1300982400000, 173.23], [1303747200000, 176.24], [1306252800000, 156.74], [1308758400000, 156.08], [1311177600000, 158.57], [1313596800000, 140.63], [1316102400000, 135.66], [1319126400000, 121.52], [1321545600000, 127.15], [1323964800000, 115.1], [1326643200000, 119.69], [1329667200000, 133.56], [1332086400000, 134.61], [1334678400000, 135.66], [1337270400000, 134.35], [1339689600000, 135.54], [1342108800000, 126.45], [1344528000000, 124.34], [1346947200000, 118.54], [1349884800000, 118.02], [1352304000000, 114.59], [1354723200000, 115.72], [1357574400000, 150.1], [1359993600000, 178.15], [1363017600000, 150.1], [1365609600000, 140.66], [1368460800000, 140.8], [1371139200000, 132.58], [1373472000000, 126.51], [1375891200000, 115.05], [1378310400000, 124.22], [1381680000000, 131.5], [1384099200000, 121.52], [1386518400000, 132.05], [1389024000000, 110.18], [1392048000000, 112.41], [1394467200000, 96.67], [1396972800000, 112.83], [1399564800000, 105.73], [1402243200000, 105.17], [1404662400000, 110.32], [1407081600000, 134.7], [1409500800000, 126.62], [1412006400000, 131.49], [1415030400000, 135.26], [1417449600000, 188.01], [1419868800000, 255.7], [1422460800000, 242.99], [1425484800000, 233.42], [1427904000000, 290.83], [1430668800000, 358.94], [1433088000000, 356.37], [1435593600000, 306.53], [1438012800000, 255.27], [1440432000000, 174.31], [1443024000000, 213.0], [1446048000000, 229.42], [1448467200000, 249.42], [1450886400000, 253.7], [1453392000000, 195.01], [1456416000000, 179.73], [1458835200000, 206.86], [1461513600000, 206.58], [1464019200000, 195.44], [1466611200000, 202.44], [1469030400000, 217.29], [1471449600000, 227.57], [1474214400000, 220.14], [1477238400000, 231.99], [1479657600000, 241.13], [1482076800000, 234.82], [1484496000000, 241.39], [1487520000000, 249.12], [1489939200000, 242.7], [1492531200000, 239.05], [1495036800000, 243.14], [1497801600000, 264.14], [1500220800000, 289.97], [1502640000000, 285.15], [1505059200000, 297.85], [1508083200000, 305.72], [1510502400000, 327.32], [1512921600000, 330.82], [1515340800000, 337.8], [1517760000000, 372.43], [1520784000000, 331.71], [1523376000000, 312.98], [1525968000000, 303.77], [1528387200000, 295.15], [1530806400000, 260.52], [1533225600000, 265.73], [1535644800000, 275.09], [1538928000000, 277.32], [1541347200000, 280.59], [1543766400000, 276.72], [1546185600000, 246.87], [1548691200000, 271.12], [1551715200000, 326.43], [1554134400000, 335.37], [1557072000000, 322.94], [1559491200000, 315.52], [1561910400000, 357.95], [1564329600000, 351.13], [1566748800000, 341.13], [1569254400000, 353.25], [1572278400000, 357.19], [1574697600000, 353.7], [1577116800000, 360.6], [1579622400000, 363.52], [1582732800000, 346.89], [1585152000000, 312.55], [1587657600000, 325.64], [1590508800000, 329.65], [1592928000000, 355.21], [1595520000000, 393.71], [1597939200000, 413.57], [1600358400000, 423.89], [1603641600000, 416.96], [1606060800000, 442.37], [1608480000000, 449.71], [1610985600000, 493.78], [1614009600000, 507.21], [1616428800000, 447.68], [1618934400000, 447.37], [1621785600000, 445.49], [1624291200000, 441.74], [1626710400000, 432.99], [1628438400000, 411.12]]</t>
+  </si>
+  <si>
     <t>510050</t>
   </si>
   <si>
@@ -89,6 +113,9 @@
     <t xml:space="preserve"> [[1104336000000,1.0],[1104422400000,0.996],[1105027200000,0.981],[1105632000000,0.983],[1106236800000,0.988],[1106841600000,0.976],[1107446400000,0.873],[1108656000000,0.856],[1108915200000,0.874],[1109001600000,0.887],[1109088000000,0.878],[1109174400000,0.877],[1109260800000,0.878],[1109520000000,0.869],[1109606400000,0.866],[1109692800000,0.856],[1109779200000,0.862],[1109865600000,0.859],[1110124800000,0.864],[1110211200000,0.876],[1110297600000,0.869],[1110384000000,0.851],[1110470400000,0.854],[1110729600000,0.857],[1110816000000,0.841],[1110902400000,0.833],[1110988800000,0.827],[1111075200000,0.821],[1111334400000,0.823],[1111420800000,0.808],[1111507200000,0.802],[1111593600000,0.808],[1111680000000,0.807],[1111939200000,0.806],[1112025600000,0.803],[1112112000000,0.791],[1112198400000,0.796],[1112284800000,0.823],[1112544000000,0.809],[1112630400000,0.802],[1112716800000,0.817],[1112803200000,0.825],[1112889600000,0.838],[1113148800000,0.831],[1113235200000,0.819],[1113321600000,0.836],[1113408000000,0.826],[1113494400000,0.817],[1113753600000,0.806],[1113840000000,0.809],[1113926400000,0.799],[1114012800000,0.794],[1114099200000,0.795],[1114358400000,0.791],[1114444800000,0.799],[1114531200000,0.785],[1114617600000,0.795],[1114704000000,0.792],[1115568000000,0.777],[1115654400000,0.781],[1115740800000,0.773],[1115827200000,0.756],[1115913600000,0.759],[1116172800000,0.75],[1116259200000,0.753],[1116345600000,0.755],[1116432000000,0.757],[1116518400000,0.755],[1116777600000,0.742],[1116864000000,0.742],[1116950400000,0.743],[1117036800000,0.734],[1117123200000,0.729],[1117382400000,0.734],[1117468800000,0.736],[1117555200000,0.724],[1117641600000,0.707],[1117728000000,0.706],[1117987200000,0.723],[1118073600000,0.72],[1118160000000,0.778],[1118246400000,0.784],[1118332800000,0.773],[1118592000000,0.769],[1118678400000,0.764],[1118764800000,0.755],[1118851200000,0.767],[1118937600000,0.771],[1119196800000,0.79],[1119283200000,0.78],[1119369600000,0.785],[1119456000000,0.779],[1119542400000,0.784],[1119801600000,0.794],[1119888000000,0.788],[1119974400000,0.785],[1120060800000,0.773],[1120147200000,0.762],[1120406400000,0.761],[1120492800000,0.755],[1120579200000,0.749],[1120665600000,0.75],[1120752000000,0.742],[1121011200000,0.741],[1121097600000,0.768],[1121184000000,0.763],[1121270400000,0.769],[1121356800000,0.764],[1121616000000,0.763],[1121702400000,0.763],[1121788800000,0.77],[1121875200000,0.773],[1121961600000,0.785],[1122220800000,0.781],[1122307200000,0.797],[1122393600000,0.809],[1122480000000,0.807],[1122566400000,0.805],[1122825600000,0.807],[1122912000000,0.814],[1122998400000,0.814],[1123084800000,0.812],[1123171200000,0.829],[1123430400000,0.829],[1123516800000,0.831],[1123603200000,0.839],[1123689600000,0.849],[1123776000000,0.839],[1124035200000,0.854],[1124121600000,0.842],[1124208000000,0.848],[1124294400000,0.83],[1124380800000,0.833],[1124640000000,0.84],[1124726400000,0.835],[1124812800000,0.842],[1124899200000,0.84],[1124985600000,0.839],[1125244800000,0.828],[1125331200000,0.825],[1125417600000,0.833],[1125504000000,0.844],[1125590400000,0.846],[1125849600000,0.846],[1125936000000,0.832],[1126022400000,0.841],[1126108800000,0.843],[1126195200000,0.84],[1126454400000,0.838],[1126540800000,0.846],[1126627200000,0.85],[1126713600000,0.85],[1126800000000,0.847],[1127059200000,0.848],[1127145600000,0.843],[1127232000000,0.827],[1127318400000,0.813],[1127404800000,0.809],[1127664000000,0.81],[1127750400000,0.798],[1127836800000,0.799],[1127923200000,0.808],[1128009600000,0.809],[1128873600000,0.803],[1128960000000,0.812],[1129046400000,0.811],[1129132800000,0.804],[1129219200000,0.793],[1129478400000,0.785],[1129564800000,0.787],[1129651200000,0.785],[1129737600000,0.789],[1129824000000,0.79],[1130083200000,0.786],[1130169600000,0.78],[1130256000000,0.761],[1130342400000,0.764],[1130428800000,0.763],[1130688000000,0.773],[1130774400000,0.77],[1130860800000,0.776],[1130947200000,0.769],[1131033600000,0.772],[1131292800000,0.767],[1131379200000,0.772],[1131465600000,0.769],[1131552000000,0.759],[1131638400000,0.76],[1131897600000,0.756],[1131984000000,0.752],[1132070400000,0.757],[1132156800000,0.757],[1132243200000,0.774],[1132502400000,0.772],[1132588800000,0.76],[1132675200000,0.769],[1132761600000,0.777],[1132848000000,0.783],[1133107200000,0.779],[1133193600000,0.771],[1133280000000,0.776],[1133366400000,0.775],[1133452800000,0.773],[1133712000000,0.767],[1133798400000,0.776],[1133884800000,0.784],[1133971200000,0.782],[1134057600000,0.794],[1134316800000,0.791],[1134403200000,0.79],[1134489600000,0.795],[1134576000000,0.795],[1134662400000,0.799],[1134921600000,0.798],[1135008000000,0.804],[1135094400000,0.801],[1135180800000,0.805],[1135267200000,0.809],[1135526400000,0.814],[1135612800000,0.81],[1135699200000,0.811],[1135785600000,0.82],[1135872000000,0.814],[1135958400000,0.814],[1136304000000,0.831],[1136390400000,0.846],[1136476800000,0.855],[1136736000000,0.856],[1136822400000,0.856],[1136908800000,0.85],[1136995200000,0.854],[1137081600000,0.849],[1137340800000,0.833],[1137427200000,0.836],[1137513600000,0.853],[1137600000000,0.859],[1137686400000,0.858],[1137945600000,0.858],[1138032000000,0.856],[1138118400000,0.865],[1139155200000,0.879],[1139241600000,0.874],[1139328000000,0.88],[1139414400000,0.869],[1139500800000,0.877],[1139760000000,0.876],[1139846400000,0.879],[1139932800000,0.885],[1140019200000,0.873],[1140105600000,0.875],[1140364800000,0.875],[1140451200000,0.889],[1140537600000,0.887],[1140624000000,0.894],[1140710400000,0.899],[1140969600000,0.909],[1141056000000,0.915],[1141142400000,0.917],[1141228800000,0.901],[1141315200000,0.904],[1141574400000,1.069],[1141660800000,1.048],[1141747200000,1.044],[1141833600000,1.037],[1141920000000,1.041],[1142179200000,1.049],[1142265600000,1.045],[1142352000000,1.054],[1142438400000,1.051],[1142524800000,1.048],[1142784000000,1.062],[1142870400000,1.062],[1142956800000,1.063],[1143043200000,1.062],[1143129600000,1.055],[1143388800000,1.06],[1143475200000,1.062],[1143561600000,1.074],[1143648000000,1.065],[1143734400000,1.065],[1143993600000,1.081],[1144080000000,1.092],[1144166400000,1.099],[1144252800000,1.093],[1144339200000,1.087],[1144598400000,1.101],[1144684800000,1.105],[1144771200000,1.101],[1144857600000,1.081],[1144944000000,1.103],[1145203200000,1.116],[1145289600000,1.123],[1145376000000,1.128],[1145462400000,1.118],[1145548800000,1.139],[1145808000000,1.141],[1145894400000,1.131],[1145980800000,1.151],[1146067200000,1.146],[1146153600000,1.171],[1147017600000,1.208],[1147104000000,1.232],[1147190400000,1.238],[1147276800000,1.226],[1147363200000,1.273],[1147622400000,1.314],[1147708800000,1.308],[1147795200000,1.311],[1147881600000,1.295],[1147968000000,1.334],[1148227200000,1.335],[1148313600000,1.296],[1148400000000,1.293],[1148486400000,1.294],[1148572800000,1.312],[1148832000000,1.342],[1148918400000,1.346],[1149004800000,1.333],[1149091200000,1.366],[1149177600000,1.354],[1149436800000,1.36],[1149523200000,1.358],[1149609600000,1.297],[1149696000000,1.309],[1149782400000,1.282],[1150041600000,1.287],[1150128000000,1.284],[1150214400000,1.271],[1150300800000,1.271],[1150387200000,1.302],[1150646400000,1.314],[1150732800000,1.319],[1150819200000,1.314],[1150905600000,1.315],[1150992000000,1.321],[1151251200000,1.348],[1151337600000,1.346],[1151424000000,1.345],[1151510400000,1.373],[1151596800000,1.371],[1151856000000,1.398],[1151942400000,1.386],[1152028800000,1.36],[1152115200000,1.379],[1152201600000,1.366],[1152460800000,1.366],[1152547200000,1.37],[1152633600000,1.369],[1152720000000,1.312],[1152806400000,1.321],[1153065600000,1.331],[1153152000000,1.327],[1153238400000,1.299],[1153324800000,1.306],[1153411200000,1.318],[1153670400000,1.32],[1153756800000,1.332],[1153843200000,1.333],[1153929600000,1.322],[1154016000000,1.311],[1154275200000,1.275],[1154361600000,1.263],[1154448000000,1.258],[1154534400000,1.26],[1154620800000,1.239],[1154880000000,1.224],[1154966400000,1.244],[1155052800000,1.243],[1155139200000,1.264],[1155225600000,1.264],[1155484800000,1.242],[1155571200000,1.26],[1155657600000,1.273],[1155744000000,1.263],[1155830400000,1.262],[1156089600000,1.263],[1156176000000,1.275],[1156262400000,1.276],[1156348800000,1.284],[1156435200000,1.284],[1156694400000,1.306],[1156780800000,1.307],[1156867200000,1.306],[1156953600000,1.306],[1157040000000,1.289],[1157299200000,1.305],[1157385600000,1.312],[1157472000000,1.318],[1157558400000,1.305],[1157644800000,1.312],[1157904000000,1.321],[1157990400000,1.331],[1158076800000,1.335],[1158163200000,1.338],[1158249600000,1.365],[1158508800000,1.366],[1158595200000,1.373],[1158681600000,1.37],[1158768000000,1.382],[1158854400000,1.366],[1159113600000,1.364],[1159200000000,1.347],[1159286400000,1.36],[1159372800000,1.374],[1159459200000,1.39],[1159545600000,1.39],[1160323200000,1.432],[1160409600000,1.434],[1160496000000,1.434],[1160582400000,1.429],[1160668800000,1.431],[1160928000000,1.415],[1161014400000,1.403],[1161100800000,1.428],[1161187200000,1.429],[1161273600000,1.434],[1161532800000,1.412],[1161619200000,1.443],[1161705600000,1.451],[1161792000000,1.464],[1161878400000,1.45],[1162137600000,1.464],[1162224000000,1.487],[1162310400000,1.507],[1162396800000,1.503],[1162483200000,1.518],[1162742400000,1.551],[1162828800000,1.565],[1162915200000,1.546],[1163001600000,1.58],[1163088000000,1.571],[1163347200000,1.548],[1163433600000,1.565],[1163520000000,1.602],[1163606400000,1.609],[1163692800000,1.635],[1163952000000,1.68],[1164038400000,1.698],[1164124800000,1.704],[1164211200000,1.718],[1164297600000,1.707],[1164556800000,1.704],[1164643200000,1.689],[1164729600000,1.706],[1164816000000,1.753],[1164902400000,1.759],[1165161600000,1.821],[1165248000000,1.834],[1165334400000,1.829],[1165420800000,1.842],[1165507200000,1.779],[1165766400000,1.856],[1165852800000,1.875],[1165939200000,1.875],[1166025600000,1.908],[1166112000000,1.932],[1166371200000,1.977],[1166457600000,1.984],[1166544000000,1.984],[1166630400000,1.957],[1166716800000,1.952],[1166976000000,2.004],[1167062400000,2.013],[1167148800000,2.072],[1167235200000,2.084],[1167321600000,2.161],[1167494400000,2.159],[1167840000000,2.203],[1167926400000,2.185],[1168185600000,2.232],[1168272000000,2.319],[1168358400000,2.351],[1168444800000,2.307],[1168531200000,2.246],[1168790400000,2.342],[1168876800000,2.376],[1168963200000,2.345],[1169049600000,2.324],[1169136000000,2.393],[1169395200000,2.485],[1169481600000,2.529],[1169568000000,2.57],[1169654400000,2.514],[1169740800000,2.599],[1170000000000,2.675],[1170086400000,2.652],[1170172800000,2.48],[1170259200000,2.477],[1170345600000,2.368],[1170604800000,2.307],[1170691200000,2.364],[1170777600000,2.421],[1170864000000,2.447],[1170950400000,2.421],[1171209600000,2.51],[1171296000000,2.542],[1171382400000,2.617],[1171468800000,2.689],[1171555200000,2.687],[1172419200000,2.703],[1172505600000,2.454],[1172592000000,2.53],[1172678400000,2.467],[1172764800000,2.497],[1173024000000,2.44],[1173110400000,2.505],[1173196800000,2.562],[1173283200000,2.581],[1173369600000,2.575],[1173628800000,2.568],[1173715200000,2.578],[1173801600000,2.524],[1173888000000,2.571],[1173974400000,2.535],[1174233600000,2.615],[1174320000000,2.614],[1174406400000,2.638],[1174492800000,2.654],[1174579200000,2.646],[1174838400000,2.683],[1174924800000,2.689],[1175011200000,2.738],[1175097600000,2.758],[1175184000000,2.745],[1175270400000,2.745],[1175443200000,2.803],[1175529600000,2.828],[1175616000000,2.841],[1175702400000,2.858],[1175788800000,2.854],[1176048000000,2.911],[1176134400000,2.945],[1176220800000,2.99],[1176307200000,3.021],[1176393600000,3.001],[1176652800000,3.08],[1176739200000,3.073],[1176825600000,3.054],[1176912000000,2.932],[1176998400000,3.037],[1177257600000,3.156],[1177344000000,3.167],[1177430400000,3.193],[1177516800000,3.214],[1177603200000,3.186],[1177862400000,3.241],[1178553600000,3.329],[1178640000000,3.369],[1178726400000,3.4],[1178812800000,3.388],[1179072000000,3.411],[1179158400000,3.279],[1179244800000,3.346],[1179331200000,3.393],[1179417600000,3.373],[1179676800000,3.385],[1179763200000,3.404],[1179849600000,3.447],[1179936000000,3.432],[1180022400000,3.467],[1180281600000,3.529],[1180368000000,3.591],[1180454400000,3.375],[1180540800000,3.484],[1180627200000,3.443],[1180886400000,3.207],[1180972800000,3.296],[1181059200000,3.299],[1181145600000,3.386],[1181232000000,3.382],[1181491200000,3.459],[1181577600000,3.535],[1181664000000,3.606],[1181750400000,3.566],[1181836800000,3.595],[1182096000000,3.708],[1182182400000,3.71],[1182268800000,3.625],[1182355200000,3.688],[1182441600000,3.619],[1182700800000,3.522],[1182787200000,3.552],[1182873600000,3.656],[1182960000000,3.557],[1183046400000,3.498],[1183132800000,3.498],[1183305600000,3.502],[1183392000000,3.552],[1183478400000,3.465],[1183564800000,3.312],[1183651200000,3.439],[1183910400000,3.53],[1183996800000,3.525],[1184083200000,3.528],[1184169600000,3.568],[1184256000000,3.567],[1184515200000,3.463],[1184601600000,3.552],[1184688000000,3.576],[1184774400000,3.567],[1184860800000,3.716],[1185120000000,3.852],[1185206400000,3.857],[1185292800000,3.941],[1185379200000,3.948],[1185465600000,3.929],[1185724800000,4.008],[1185811200000,4.043],[1185897600000,3.922],[1185984000000,4.014],[1186070400000,4.19],[1186329600000,4.28],[1186416000000,4.293],[1186502400000,4.268],[1186588800000,4.385],[1186675200000,4.387],[1186934400000,4.422],[1187020800000,4.462],[1187107200000,4.486],[1187193600000,4.374],[1187280000000,4.264],[1187539200000,4.51],[1187625600000,4.589],[1187712000000,4.644],[1187798400000,4.702],[1187884800000,4.817],[1188144000000,4.847],[1188230400000,4.861],[1188316800000,4.783],[1188403200000,4.822],[1188489600000,4.886],[1188748800000,4.988],[1188835200000,4.914],[1188921600000,4.9],[1189008000000,4.969],[1189094400000,4.873],[1189353600000,4.94],[1189440000000,4.735],[1189526400000,4.774],[1189612800000,4.88],[1189699200000,4.913],[1189958400000,5.005],[1190044800000,4.961],[1190131200000,4.92],[1190217600000,4.974],[1190304000000,4.938],[1190563200000,4.99],[1190649600000,4.934],[1190736000000,4.864],[1190822400000,4.921],[1190908800000,5.048],[1191081600000,5.048],[1191772800000,5.14],[1191859200000,5.171],[1191945600000,5.195],[1192032000000,5.35],[1192118400000,5.343],[1192377600000,5.471],[1192464000000,5.5],[1192550400000,5.434],[1192636800000,5.231],[1192723200000,5.218],[1192982400000,5.105],[1193068800000,5.207],[1193155200000,5.269],[1193241600000,5.062],[1193328000000,5.134],[1193587200000,5.244],[1193673600000,5.295],[1193760000000,5.345],[1193846400000,5.282],[1193932800000,5.16],[1194192000000,5.066],[1194278400000,5.019],[1194364800000,5.061],[1194451200000,4.831],[1194537600000,4.8],[1194796800000,4.769],[1194883200000,4.72],[1194969600000,4.901],[1195056000000,4.854],[1195142400000,4.783],[1195401600000,4.75],[1195488000000,4.81],[1195574400000,4.741],[1195660800000,4.566],[1195747200000,4.644],[1196006400000,4.602],[1196092800000,4.529],[1196179200000,4.486],[1196265600000,4.684],[1196352000000,4.586],[1196611200000,4.625],[1196697600000,4.681],[1196784000000,4.797],[1196870400000,4.804],[1196956800000,4.862],[1197216000000,4.914],[1197302400000,4.9],[1197388800000,4.817],[1197475200000,4.67],[1197561600000,4.751],[1197820800000,4.609],[1197907200000,4.587],[1197993600000,4.697],[1198080000000,4.784],[1198166400000,4.83],[1198425600000,4.919],[1198512000000,4.915],[1198598400000,4.933],[1198684800000,5.025],[1198771200000,4.993],[1198857600000,4.993],[1199030400000,4.993],[1199203200000,4.997],[1199289600000,5.01],[1199376000000,5.062],[1199635200000,5.118],[1199721600000,5.14],[1199808000000,5.192],[1199894400000,5.225],[1199980800000,5.292],[1200240000000,5.311],[1200326400000,5.26],[1200412800000,5.076],[1200499200000,4.986],[1200585600000,5.005],[1200844800000,4.766],[1200931200000,4.449],[1201017600000,4.619],[1201104000000,4.611],[1201190400000,4.676],[1201449600000,4.353],[1201536000000,4.368],[1201622400000,4.29],[1201708800000,4.235],[1201795200000,4.225],[1202054400000,4.564],[1202140800000,4.533],[1202832000000,4.416],[1202918400000,4.473],[1203004800000,4.406],[1203264000000,4.48],[1203350400000,4.571],[1203436800000,4.447],[1203523200000,4.384],[1203609600000,4.211],[1203868800000,4.063],[1203955200000,4.095],[1204041600000,4.2],[1204128000000,4.173],[1204214400000,4.216],[1204473600000,4.294],[1204560000000,4.166],[1204646400000,4.114],[1204732800000,4.186],[1204819200000,4.129],[1205078400000,3.965],[1205164800000,3.973],[1205251200000,3.856],[1205337600000,3.802],[1205424000000,3.763],[1205683200000,3.646],[1205769600000,3.517],[1205856000000,3.601],[1205942400000,3.683],[1206028800000,3.692],[1206288000000,3.521],[1206374400000,3.54],[1206460800000,3.552],[1206547200000,3.396],[1206633600000,3.559],[1206892800000,3.458],[1206979200000,3.331],[1207065600000,3.362],[1207152000000,3.457],[1207497600000,3.595],[1207584000000,3.615],[1207670400000,3.424],[1207756800000,3.465],[1207843200000,3.491],[1208102400000,3.288],[1208188800000,3.319],[1208275200000,3.251],[1208361600000,3.168],[1208448000000,3.071],[1208707200000,3.103],[1208793600000,3.158],[1208880000000,3.298],[1208966400000,3.593],[1209052800000,3.589],[1209312000000,3.512],[1209398400000,3.554],[1209484800000,3.737],[1209916800000,3.787],[1210003200000,3.739],[1210089600000,3.579],[1210176000000,3.645],[1210262400000,3.585],[1210521600000,3.599],[1210608000000,3.533],[1210694400000,3.645],[1210780800000,3.621],[1210867200000,3.62],[1211126400000,3.588],[1211212800000,3.431],[1211299200000,3.495],[1211385600000,3.44],[1211472000000,3.441],[1211731200000,3.342],[1211817600000,3.348],[1211904000000,3.436],[1211990400000,3.362],[1212076800000,3.396],[1212336000000,3.412],[1212422400000,3.402],[1212508800000,3.327],[1212595200000,3.305],[1212681600000,3.28],[1213027200000,3.038],[1213113600000,2.996],[1213200000000,2.937],[1213286400000,2.874],[1213545600000,2.879],[1213632000000,2.814],[1213718400000,2.934],[1213804800000,2.75],[1213891200000,2.823],[1214150400000,2.765],[1214236800000,2.803],[1214323200000,2.893],[1214409600000,2.886],[1214496000000,2.751],[1214755200000,2.72],[1214841600000,2.612],[1214928000000,2.597],[1215014400000,2.633],[1215100800000,2.615],[1215360000000,2.75],[1215446400000,2.757],[1215532800000,2.87],[1215619200000,2.836],[1215705600000,2.82],[1215964800000,2.836],[1216051200000,2.716],[1216137600000,2.635],[1216224000000,2.616],[1216310400000,2.716],[1216569600000,2.795],[1216656000000,2.786],[1216742400000,2.777],[1216828800000,2.877],[1216915200000,2.838],[1217174400000,2.857],[1217260800000,2.806],[1217347200000,2.789],[1217433600000,2.725],[1217520000000,2.77],[1217779200000,2.713],[1217865600000,2.67],[1217952000000,2.702],[1218038400000,2.694],[1218124800000,2.59],[1218384000000,2.496],[1218470400000,2.483],[1218556800000,2.469],[1218643200000,2.46],[1218729600000,2.48],[1218988800000,2.362],[1219075200000,2.396],[1219161600000,2.581],[1219248000000,2.496],[1219334400000,2.461],[1219593600000,2.468],[1219680000000,2.426],[1219766400000,2.426],[1219852800000,2.443],[1219939200000,2.488],[1220198400000,2.407],[1220284800000,2.38],[1220371200000,2.338],[1220457600000,2.336],[1220544000000,2.278],[1220803200000,2.245],[1220889600000,2.256],[1220976000000,2.256],[1221062400000,2.17],[1221148800000,2.175],[1221494400000,2.066],[1221580800000,1.971],[1221667200000,1.943],[1221753600000,2.112],[1222012800000,2.261],[1222099200000,2.19],[1222185600000,2.202],[1222272000000,2.286],[1222358400000,2.286],[1222704000000,2.286],[1223222400000,2.168],[1223308800000,2.13],[1223395200000,2.039],[1223481600000,2.021],[1223568000000,1.949],[1223827200000,2.042],[1223913600000,1.991],[1224000000000,1.973],[1224086400000,1.887],[1224172800000,1.894],[1224432000000,1.952],[1224518400000,1.933],[1224604800000,1.885],[1224691200000,1.872],[1224777600000,1.811],[1225036800000,1.688],[1225123200000,1.741],[1225209600000,1.702],[1225296000000,1.752],[1225382400000,1.715],[1225641600000,1.713],[1225728000000,1.7],[1225814400000,1.769],[1225900800000,1.721],[1225987200000,1.756],[1226246400000,1.879],[1226332800000,1.849],[1226419200000,1.865],[1226505600000,1.925],[1226592000000,1.971],[1226851200000,2.001],[1226937600000,1.868],[1227024000000,1.965],[1227110400000,1.931],[1227196800000,1.918],[1227456000000,1.842],[1227542400000,1.841],[1227628800000,1.848],[1227715200000,1.865],[1227801600000,1.814],[1228060800000,1.829],[1228147200000,1.823],[1228233600000,1.9],[1228320000000,1.939],[1228406400000,1.958],[1228665600000,2.033],[1228752000000,1.978],[1228838400000,2.036],[1228924800000,1.992],[1229011200000,1.915],[1229270400000,1.927],[1229356800000,1.931],[1229443200000,1.928],[1229529600000,1.978],[1229616000000,1.979],[1229875200000,1.944],[1229961600000,1.865],[1230048000000,1.84],[1230134400000,1.824],[1230220800000,1.824],[1230480000000,1.814],[1230566400000,1.795],[1230652800000,1.789],[1231084800000,1.847],[1231171200000,1.901],[1231257600000,1.885],[1231344000000,1.842],[1231430400000,1.861],[1231689600000,1.854],[1231776000000,1.822],[1231862400000,1.894],[1231948800000,1.885],[1232035200000,1.926],[1232294400000,1.957],[1232380800000,1.968],[1232467200000,1.963],[1232553600000,1.976],[1232640000000,1.966],[1233504000000,1.97],[1233590400000,2.015],[1233676800000,2.073],[1233763200000,2.071],[1233849600000,2.14],[1234108800000,2.172],[1234195200000,2.181],[1234281600000,2.187],[1234368000000,2.153],[1234454400000,2.22],[1234713600000,2.292],[1234800000000,2.23],[1234886400000,2.129],[1234972800000,2.13],[1235059200000,2.153],[1235318400000,2.198],[1235404800000,2.093],[1235491200000,2.118],[1235577600000,2.052],[1235664000000,2.034],[1235923200000,2.035],[1236009600000,2.003],[1236096000000,2.13],[1236182400000,2.156],[1236268800000,2.138],[1236528000000,2.071],[1236614400000,2.104],[1236700800000,2.087],[1236787200000,2.081],[1236873600000,2.078],[1237132800000,2.112],[1237219200000,2.169],[1237305600000,2.165],[1237392000000,2.203],[1237478400000,2.194],[1237737600000,2.241],[1237824000000,2.253],[1237910400000,2.22],[1237996800000,2.292],[1238083200000,2.311],[1238342400000,2.3],[1238428800000,2.316],[1238515200000,2.34],[1238601600000,2.372],[1238688000000,2.387],[1239033600000,2.387],[1239120000000,2.295],[1239206400000,2.333],[1239292800000,2.388],[1239552000000,2.441],[1239638400000,2.452],[1239724800000,2.445],[1239811200000,2.443],[1239897600000,2.415],[1240156800000,2.459],[1240243200000,2.429],[1240329600000,2.364],[1240416000000,2.366],[1240502400000,2.35],[1240761600000,2.311],[1240848000000,2.307],[1240934400000,2.396],[1241020800000,2.393],[1241366400000,2.465],[1241452800000,2.468],[1241539200000,2.492],[1241625600000,2.503],[1241712000000,2.538],[1241971200000,2.513],[1242057600000,2.556],[1242144000000,2.576],[1242230400000,2.539],[1242316800000,2.539],[1242576000000,2.548],[1242662400000,2.571],[1242748800000,2.536],[1242835200000,2.48],[1242921600000,2.475],[1243180800000,2.479],[1243267200000,2.451],[1243353600000,2.503],[1243785600000,2.602],[1243872000000,2.6],[1243958400000,2.684],[1244044800000,2.716],[1244131200000,2.7],[1244390400000,2.729],[1244476800000,2.739],[1244563200000,2.758],[1244649600000,2.744],[1244736000000,2.698],[1244995200000,2.768],[1245081600000,2.756],[1245168000000,2.789],[1245254400000,2.844],[1245340800000,2.872],[1245600000000,2.884],[1245686400000,2.899],[1245772800000,2.906],[1245859200000,2.906],[1245945600000,2.915],[1246204800000,2.97],[1246291200000,2.96],[1246377600000,3.032],[1246464000000,3.082],[1246550400000,3.115],[1246809600000,3.161],[1246896000000,3.123],[1246982400000,3.104],[1247068800000,3.141],[1247155200000,3.127],[1247414400000,3.07],[1247500800000,3.164],[1247587200000,3.198],[1247673600000,3.222],[1247760000000,3.231],[1248019200000,3.288],[1248105600000,3.253],[1248192000000,3.316],[1248278400000,3.363],[1248364800000,3.395],[1248624000000,3.466],[1248710400000,3.458],[1248796800000,3.309],[1248883200000,3.406],[1248969600000,3.48],[1249228800000,3.508],[1249315200000,3.477],[1249401600000,3.422],[1249488000000,3.348],[1249574400000,3.271],[1249833600000,3.246],[1249920000000,3.248],[1250006400000,3.106],[1250092800000,3.148],[1250179200000,3.071],[1250438400000,2.912],[1250524800000,2.929],[1250611200000,2.799],[1250697600000,2.918],[1250784000000,2.96],[1251043200000,2.961],[1251129600000,2.834],[1251216000000,2.874],[1251302400000,2.855],[1251388800000,2.757],[1251648000000,2.582],[1251734400000,2.617],[1251820800000,2.673],[1251907200000,2.797],[1251993600000,2.805],[1252252800000,2.823],[1252339200000,2.871],[1252425600000,2.883],[1252512000000,2.858],[1252598400000,2.941],[1252857600000,2.973],[1252944000000,2.974],[1253030400000,2.918],[1253116800000,2.97],[1253203200000,2.872],[1253462400000,2.867],[1253548800000,2.802],[1253635200000,2.763],[1253721600000,2.802],[1253808000000,2.793],[1254067200000,2.72],[1254153600000,2.738],[1254240000000,2.762],[1255017600000,2.889],[1255276800000,2.871],[1255363200000,2.916],[1255449600000,2.939],[1255536000000,2.951],[1255622400000,2.948],[1255881600000,3.011],[1255968000000,3.058],[1256054400000,3.05],[1256140800000,3.025],[1256227200000,3.085],[1256486400000,3.089],[1256572800000,3.007],[1256659200000,3.002],[1256745600000,2.931],[1256832000000,2.963],[1257091200000,3.065],[1257177600000,3.096],[1257264000000,3.114],[1257350400000,3.116],[1257436800000,3.127],[1257696000000,3.134],[1257782400000,3.135],[1257868800000,3.122],[1257955200000,3.119],[1258041600000,3.137],[1258300800000,3.227],[1258387200000,3.232],[1258473600000,3.232],[1258560000000,3.227],[1258646400000,3.203],[1258905600000,3.218],[1258992000000,3.136],[1259078400000,3.188],[1259164800000,3.061],[1259251200000,2.977],[1259510400000,3.071],[1259596800000,3.099],[1259683200000,3.124],[1259769600000,3.106],[1259856000000,3.209],[1260115200000,3.22],[1260201600000,3.17],[1260288000000,3.103],[1260374400000,3.119],[1260460800000,3.117],[1260720000000,3.172],[1260806400000,3.137],[1260892800000,3.123],[1260979200000,3.066],[1261065600000,3.019],[1261324800000,3.005],[1261411200000,2.939],[1261497600000,2.956],[1261584000000,3.026],[1261670400000,2.999],[1261929600000,3.042],[1262016000000,3.07],[1262102400000,3.151],[1262188800000,3.164],[1262534400000,3.118],[1262620800000,3.151],[1262707200000,3.116],[1262793600000,3.057],[1262880000000,3.058],[1263139200000,3.071],[1263225600000,3.106],[1263312000000,2.98],[1263398400000,3.007],[1263484800000,3.014],[1263744000000,3.007],[1263830400000,3.021],[1263916800000,2.937],[1264003200000,2.958],[1264089600000,2.962],[1264348800000,2.93],[1264435200000,2.881],[1264521600000,2.825],[1264608000000,2.81],[1264694400000,2.8],[1264953600000,2.762],[1265040000000,2.768],[1265126400000,2.842],[1265212800000,2.823],[1265299200000,2.774],[1265558400000,2.763],[1265644800000,2.784],[1265731200000,2.821],[1265817600000,2.828],[1265904000000,2.851],[1266768000000,2.832],[1266854400000,2.783],[1266940800000,2.812],[1267027200000,2.848],[1267113600000,2.839],[1267372800000,2.881],[1267459200000,2.871],[1267545600000,2.883],[1267632000000,2.825],[1267718400000,2.832],[1267977600000,2.851],[1268064000000,2.872],[1268150400000,2.86],[1268236800000,2.868],[1268323200000,2.838],[1268582400000,2.796],[1268668800000,2.821],[1268755200000,2.876],[1268841600000,2.861],[1268928000000,2.88],[1269187200000,2.887],[1269273600000,2.858],[1269360000000,2.858],[1269446400000,2.819],[1269532800000,2.859],[1269792000000,2.942],[1269878400000,2.948],[1269964800000,2.925],[1270051200000,2.956],[1270137600000,2.958],[1270483200000,2.957],[1270569600000,2.938],[1270656000000,2.896],[1270742400000,2.919],[1271001600000,2.887],[1271088000000,2.943],[1271174400000,2.945],[1271260800000,2.944],[1271347200000,2.9],[1271606400000,2.76],[1271692800000,2.752],[1271779200000,2.793],[1271865600000,2.742],[1271952000000,2.729],[1272211200000,2.711],[1272297600000,2.665],[1272384000000,2.658],[1272470400000,2.657],[1272556800000,2.686],[1272902400000,2.644],[1272988800000,2.647],[1273075200000,2.529],[1273161600000,2.497],[1273420800000,2.529],[1273507200000,2.483],[1273593600000,2.522],[1273680000000,2.57],[1273766400000,2.544],[1274025600000,2.436],[1274112000000,2.486],[1274198400000,2.472],[1274284800000,2.434],[1274371200000,2.455],[1274630400000,2.531],[1274716800000,2.473],[1274803200000,2.472],[1274889600000,2.504],[1274976000000,2.493],[1275235200000,2.439],[1275321600000,2.421],[1275408000000,2.419],[1275494400000,2.404],[1275580800000,2.404],[1275840000000,2.356],[1275926400000,2.346],[1276012800000,2.42],[1276099200000,2.381],[1276185600000,2.391],[1276704000000,2.389],[1276790400000,2.377],[1277049600000,2.451],[1277136000000,2.447],[1277222400000,2.427],[1277308800000,2.429],[1277395200000,2.433],[1277654400000,2.427],[1277740800000,2.337],[1277827200000,2.323],[1277913600000,2.303],[1278000000000,2.318],[1278259200000,2.301],[1278345600000,2.336],[1278432000000,2.34],[1278518400000,2.34],[1278604800000,2.391],[1278864000000,2.41],[1278950400000,2.377],[1279036800000,2.395],[1279123200000,2.356],[1279209600000,2.356],[1279468800000,2.403],[1279555200000,2.441],[1279641600000,2.446],[1279728000000,2.469],[1279814400000,2.483],[1280073600000,2.491],[1280160000000,2.472],[1280246400000,2.528],[1280332800000,2.539],[1280419200000,2.532],[1280678400000,2.567],[1280764800000,2.523],[1280851200000,2.526],[1280937600000,2.493],[1281024000000,2.524],[1281283200000,2.535],[1281369600000,2.472],[1281456000000,2.478],[1281542400000,2.448],[1281628800000,2.467],[1281888000000,2.516],[1281974400000,2.528],[1282060800000,2.52],[1282147200000,2.544],[1282233600000,2.512],[1282492800000,2.507],[1282579200000,2.504],[1282665600000,2.451],[1282752000000,2.449],[1282838400000,2.454],[1283097600000,2.484],[1283184000000,2.461],[1283270400000,2.454],[1283356800000,2.474],[1283443200000,2.466],[1283702400000,2.52],[1283788800000,2.517],[1283875200000,2.497],[1283961600000,2.453],[1284048000000,2.449],[1284307200000,2.459],[1284393600000,2.464],[1284480000000,2.426],[1284566400000,2.384],[1284652800000,2.384],[1284912000000,2.388],[1284998400000,2.393],[1285516800000,2.411],[1285603200000,2.391],[1285689600000,2.397],[1285776000000,2.451],[1286467200000,2.542],[1286726400000,2.63],[1286812800000,2.659],[1286899200000,2.699],[1286985600000,2.736],[1287072000000,2.842],[1287331200000,2.828],[1287417600000,2.871],[1287504000000,2.878],[1287590400000,2.832],[1287676800000,2.816],[1287936000000,2.889],[1288022400000,2.864],[1288108800000,2.808],[1288195200000,2.807],[1288281600000,2.767],[1288540800000,2.825],[1288627200000,2.816],[1288713600000,2.809],[1288800000000,2.842],[1288886400000,2.868],[1289145600000,2.883],[1289232000000,2.844],[1289318400000,2.806],[1289404800000,2.836],[1289491200000,2.692],[1289750400000,2.683],[1289836800000,2.567],[1289923200000,2.544],[1290009600000,2.572],[1290096000000,2.575],[1290355200000,2.55],[1290441600000,2.505],[1290528000000,2.551],[1290614400000,2.586],[1290700800000,2.558],[1290960000000,2.551],[1291046400000,2.513],[1291132800000,2.518],[1291219200000,2.533],[1291305600000,2.545],[1291564800000,2.574],[1291651200000,2.593],[1291737600000,2.559],[1291824000000,2.533],[1291910400000,2.563],[1292169600000,2.625],[1292256000000,2.62],[1292342400000,2.602],[1292428800000,2.581],[1292515200000,2.576],[1292774400000,2.537],[1292860800000,2.596],[1292947200000,2.563],[1293033600000,2.559],[1293120000000,2.554],[1293379200000,2.511],[1293465600000,2.479],[1293552000000,2.483],[1293638400000,2.472],[1293724800000,2.509],[1294070400000,2.554],[1294156800000,2.535],[1294243200000,2.517],[1294329600000,2.543],[1294588800000,2.507],[1294675200000,2.536],[1294761600000,2.557],[1294848000000,2.554],[1294934400000,2.516],[1295193600000,2.441],[1295280000000,2.447],[1295366400000,2.483],[1295452800000,2.414],[1295539200000,2.449],[1295798400000,2.433],[1295884800000,2.432],[1295971200000,2.449],[1296057600000,2.477],[1296144000000,2.471],[1296403200000,2.493],[1296489600000,2.5],[1297180800000,2.468],[1297267200000,2.507],[1297353600000,2.509],[1297612800000,2.59],[1297699200000,2.584],[1297785600000,2.594],[1297872000000,2.589],[1297958400000,2.569],[1298217600000,2.588],[1298304000000,2.523],[1298390400000,2.529],[1298476800000,2.536],[1298563200000,2.539],[1298822400000,2.556],[1298908800000,2.572],[1298995200000,2.58],[1299081600000,2.593],[1299168000000,2.626],[1299427200000,2.675],[1299513600000,2.675],[1299600000000,2.672],[1299686400000,2.615],[1299772800000,2.589],[1300032000000,2.595],[1300118400000,2.554],[1300204800000,2.589],[1300291200000,2.558],[1300377600000,2.572],[130063</t>
   </si>
   <si>
+    <t>[[1316448000000, 0.0], [1321891200000, -0.49], [1323705600000, -11.74], [1325001600000, -17.53], [1326384000000, -23.37], [1328457600000, -21.07], [1329753600000, -15.33], [1331049600000, -13.95], [1332345600000, -13.79], [1333987200000, -19.83], [1335283200000, -21.46], [1336924800000, -17.0], [1338220800000, -16.8], [1339516800000, -13.73], [1340899200000, -16.01], [1342108800000, -16.19], [1343577600000, -20.48], [1344873600000, -15.03], [1346169600000, -16.13], [1347465600000, -13.54], [1348761600000, -20.47], [1350576000000, -17.11], [1352044800000, -20.19], [1353340800000, -24.37], [1354636800000, -28.03], [1355932800000, -24.25], [1357660800000, -15.71], [1358956800000, -13.06], [1360252800000, -5.87], [1362326400000, -1.31], [1363622400000, -3.69], [1364918400000, -4.55], [1366560000000, 4.63], [1368115200000, 12.81], [1369584000000, 24.39], [1371139200000, 22.11], [1372521600000, 15.61], [1373817600000, 30.22], [1375113600000, 27.37], [1376409600000, 33.7], [1377705600000, 38.4], [1379001600000, 41.29], [1381248000000, 59.28], [1382544000000, 45.74], [1383840000000, 36.26], [1385308800000, 45.41], [1386604800000, 38.49], [1387900800000, 44.68], [1389283200000, 51.81], [1390752000000, 65.5], [1392652800000, 72.81], [1393948800000, 63.48], [1395244800000, 58.24], [1396540800000, 50.45], [1398096000000, 49.32], [1399564800000, 40.86], [1401033600000, 48.09], [1402416000000, 53.36], [1403712000000, 55.43], [1405008000000, 52.26], [1406476800000, 47.24], [1407772800000, 56.28], [1409068800000, 58.8], [1410451200000, 69.83], [1411920000000, 69.99], [1413820800000, 69.18], [1415116800000, 68.6], [1416412800000, 66.45], [1417708800000, 75.62], [1419177600000, 68.72], [1420646400000, 71.22], [1421942400000, 87.95], [1423411200000, 88.62], [1425312000000, 116.22], [1426608000000, 140.14], [1427904000000, 171.1], [1429459200000, 166.93], [1430841600000, 213.1], [1432137600000, 287.21], [1433433600000, 323.56], [1434988800000, 267.85], [1436284800000, 151.98], [1437580800000, 222.6], [1438876800000, 179.97], [1440345600000, 131.31], [1441814400000, 117.97], [1443110400000, 117.4], [1445184000000, 164.1], [1446480000000, 164.07], [1447776000000, 188.68], [1449072000000, 192.23], [1450368000000, 204.21], [1451923200000, 161.03], [1453219200000, 139.86], [1454515200000, 131.7], [1456416000000, 118.88], [1457884800000, 119.96], [1459180800000, 134.1], [1460563200000, 153.83], [1461859200000, 133.54], [1463414400000, 127.31], [1464710400000, 137.23], [1466352000000, 132.9], [1467648000000, 146.51], [1468944000000, 148.95], [1470240000000, 134.1], [1471536000000, 142.15], [1473004800000, 139.74], [1474473600000, 138.12], [1476374400000, 140.92], [1477843200000, 137.13], [1479139200000, 139.29], [1480435200000, 139.62], [1481731200000, 117.0], [1483027200000, 115.51], [1484496000000, 101.11], [1486396800000, 107.44], [1487692800000, 110.79], [1488988800000, 114.47], [1490284800000, 115.69], [1491926400000, 108.38], [1493222400000, 102.46], [1494777600000, 95.43], [1496246400000, 90.65], [1497542400000, 99.7], [1499011200000, 102.62], [1500307200000, 84.08], [1501603200000, 90.39], [1502899200000, 102.31], [1504195200000, 105.8], [1505664000000, 109.0], [1507564800000, 111.4], [1508860800000, 110.88], [1510156800000, 107.63], [1511452800000, 96.22], [1512921600000, 99.74], [1514217600000, 93.3], [1515513600000, 93.57], [1516809600000, 95.74], [1518105600000, 72.08], [1520179200000, 94.18], [1521475200000, 101.41], [1522771200000, 98.63], [1524412800000, 89.5], [1525881600000, 101.67], [1527177600000, 95.35], [1528646400000, 83.21], [1530028800000, 67.86], [1531238400000, 70.93], [1532534400000, 75.68], [1533830400000, 64.94], [1535299200000, 63.28], [1536595200000, 52.51], [1537977600000, 52.94], [1539878400000, 36.79], [1541347200000, 47.46], [1542643200000, 48.19], [1543939200000, 51.32], [1545235200000, 39.97], [1546790400000, 39.31], [1548086400000, 37.6], [1549987200000, 49.11], [1551283200000, 68.48], [1552579200000, 82.24], [1554048000000, 93.0], [1555430400000, 88.3], [1557158400000, 64.98], [1558454400000, 63.34], [1559750400000, 55.82], [1561305600000, 67.04], [1562515200000, 66.29], [1563811200000, 69.44], [1565107200000, 65.58], [1566403200000, 78.01], [1567699200000, 86.67], [1569254400000, 86.87], [1571155200000, 82.79], [1572451200000, 84.41], [1573747200000, 84.75], [1575216000000, 84.13], [1576512000000, 98.73], [1577894400000, 102.02], [1579190400000, 112.94], [1581350400000, 123.34], [1582646400000, 140.22], [1583942400000, 125.43], [1585238400000, 109.76], [1586793600000, 118.77], [1588089600000, 123.77], [1589817600000, 136.39], [1591113600000, 136.52], [1592409600000, 150.95], [1594051200000, 186.92], [1595347200000, 206.56], [1596643200000, 211.5], [1597939200000, 191.43], [1599408000000, 192.39], [1600704000000, 182.85], [1602691200000, 202.93], [1603987200000, 193.81], [1605456000000, 200.13], [1606752000000, 198.51], [1608048000000, 205.73], [1609344000000, 228.35], [1610899200000, 248.46], [1612195200000, 257.16], [1614096000000, 232.61], [1615392000000, 203.76], [1616688000000, 203.6], [1618243200000, 203.42], [1619539200000, 237.83], [1621267200000, 242.32], [1622563200000, 259.55], [1623945600000, 259.54], [1625414400000, 272.11], [1626710400000, 284.65], [1628006400000, 295.64], [1628438400000, 283.91]]</t>
+  </si>
+  <si>
     <t>159915</t>
   </si>
   <si>
@@ -98,6 +125,9 @@
     <t xml:space="preserve"> [[1316448000000,1.0],[1316707200000,0.9983],[1317312000000,0.9974],[1318521600000,0.9992],[1319126400000,0.9973],[1319731200000,0.9995],[1320336000000,1.0037],[1320940800000,1.0087],[1321545600000,0.9968],[1321804800000,0.9924],[1321891200000,0.9951],[1321977600000,0.9914],[1322150400000,0.9888],[1322582400000,0.9601],[1322755200000,0.95],[1323014400000,0.9089],[1323100800000,0.9151],[1323187200000,0.9203],[1323273600000,0.9278],[1323360000000,0.9159],[1323619200000,0.907],[1323705600000,0.8826],[1323792000000,0.8679],[1323878400000,0.8576],[1323964800000,0.8937],[1324224000000,0.9101],[1324310400000,0.8965],[1324396800000,0.874],[1324483200000,0.8701],[1324569600000,0.8741],[1324828800000,0.8646],[1324915200000,0.8355],[1325001600000,0.8247],[1325088000000,0.8234],[1325174400000,0.8381],[1325260800000,0.838],[1325606400000,0.8122],[1325692800000,0.7667],[1325779200000,0.7693],[1326038400000,0.7965],[1326124800000,0.824],[1326211200000,0.8256],[1326297600000,0.8165],[1326384000000,0.7663],[1326643200000,0.7295],[1326729600000,0.7624],[1326816000000,0.7192],[1326902400000,0.7281],[1326988800000,0.7437],[1327852800000,0.7491],[1327939200000,0.7462],[1328025600000,0.7486],[1328112000000,0.7653],[1328198400000,0.782],[1328457600000,0.7893],[1328544000000,0.7746],[1328630400000,0.796],[1328716800000,0.8021],[1328803200000,0.8034],[1329062400000,0.8217],[1329148800000,0.8188],[1329235200000,0.833],[1329321600000,0.8295],[1329408000000,0.8249],[1329667200000,0.8286],[1329753600000,0.8467],[1329840000000,0.8726],[1329926400000,0.8695],[1330012800000,0.8757],[1330272000000,0.8734],[1330358400000,0.859],[1330444800000,0.8444],[1330531200000,0.8533],[1330617600000,0.8698],[1330876800000,0.872],[1330963200000,0.8623],[1331049600000,0.8605],[1331136000000,0.8745],[1331222400000,0.8928],[1331481600000,0.9025],[1331568000000,0.9096],[1331654400000,0.8686],[1331740800000,0.8571],[1331827200000,0.8789],[1332086400000,0.8947],[1332172800000,0.8674],[1332259200000,0.8631],[1332345600000,0.8621],[1332432000000,0.8473],[1332691200000,0.8465],[1332777600000,0.8449],[1332864000000,0.8026],[1332950400000,0.7863],[1333036800000,0.7804],[1333123200000,0.7804],[1333555200000,0.8021],[1333641600000,0.8067],[1333900800000,0.7933],[1333987200000,0.8017],[1334073600000,0.8034],[1334160000000,0.82],[1334246400000,0.8268],[1334505600000,0.8237],[1334592000000,0.8158],[1334678400000,0.832],[1334764800000,0.834],[1334851200000,0.838],[1335110400000,0.7945],[1335196800000,0.7844],[1335283200000,0.7854],[1335369600000,0.7814],[1335456000000,0.7893],[1335888000000,0.7988],[1335974400000,0.8055],[1336060800000,0.8215],[1336320000000,0.8444],[1336406400000,0.843],[1336492800000,0.8289],[1336579200000,0.8382],[1336665600000,0.8315],[1336924800000,0.83],[1337011200000,0.8303],[1337097600000,0.8189],[1337184000000,0.8263],[1337270400000,0.815],[1337529600000,0.8134],[1337616000000,0.8248],[1337702400000,0.8231],[1337788800000,0.8225],[1337875200000,0.8113],[1338134400000,0.8158],[1338220800000,0.832],[1338307200000,0.8401],[1338393600000,0.8487],[1338480000000,0.8485],[1338739200000,0.8289],[1338825600000,0.8277],[1338912000000,0.8268],[1338998400000,0.8224],[1339084800000,0.8253],[1339344000000,0.849],[1339430400000,0.8499],[1339516800000,0.8627],[1339603200000,0.8563],[1339689600000,0.8578],[1339948800000,0.8701],[1340035200000,0.864],[1340121600000,0.8651],[1340208000000,0.8546],[1340553600000,0.8335],[1340640000000,0.8281],[1340726400000,0.8315],[1340812800000,0.8225],[1340899200000,0.8399],[1340985600000,0.8398],[1341158400000,0.8558],[1341244800000,0.8588],[1341331200000,0.8539],[1341417600000,0.8365],[1341504000000,0.8513],[1341763200000,0.8341],[1341849600000,0.824],[1341936000000,0.8307],[1342022400000,0.8478],[1342108800000,0.8381],[1342368000000,0.7987],[1342454400000,0.8051],[1342540800000,0.811],[1342627200000,0.819],[1342713600000,0.8157],[1342972800000,0.8137],[1343059200000,0.8158],[1343145600000,0.8179],[1343232000000,0.8161],[1343318400000,0.8125],[1343577600000,0.7952],[1343664000000,0.782],[1343750400000,0.7963],[1343836800000,0.798],[1343923200000,0.822],[1344182400000,0.843],[1344268800000,0.8495],[1344355200000,0.8426],[1344441600000,0.8576],[1344528000000,0.8575],[1344787200000,0.8397],[1344873600000,0.8497],[1344960000000,0.8421],[1345046400000,0.835],[1345132800000,0.8322],[1345392000000,0.8433],[1345478400000,0.864],[1345564800000,0.8616],[1345651200000,0.8657],[1345737600000,0.846],[1345996800000,0.8336],[1346083200000,0.8395],[1346169600000,0.8387],[1346256000000,0.8125],[1346342400000,0.8154],[1346601600000,0.835],[1346688000000,0.8338],[1346774400000,0.8428],[1346860800000,0.8531],[1346947200000,0.8757],[1347206400000,0.8788],[1347292800000,0.8782],[1347379200000,0.879],[1347465600000,0.8646],[1347552000000,0.8584],[1347811200000,0.8351],[1347897600000,0.8346],[1347984000000,0.8398],[1348070400000,0.8152],[1348156800000,0.7974],[1348416000000,0.7964],[1348502400000,0.7872],[1348588800000,0.7634],[1348675200000,0.7808],[1348761600000,0.7953],[1348934400000,0.7952],[1349625600000,0.7962],[1349712000000,0.8214],[1349798400000,0.8319],[1349884800000,0.8204],[1349971200000,0.817],[1350230400000,0.809],[1350316800000,0.8129],[1350403200000,0.8171],[1350489600000,0.8302],[1350576000000,0.8289],[1350835200000,0.8344],[1350921600000,0.8196],[1351008000000,0.8155],[1351094400000,0.8035],[1351180800000,0.7897],[1351440000000,0.7929],[1351526400000,0.7945],[1351612800000,0.7968],[1351699200000,0.8084],[1351785600000,0.808],[1352044800000,0.7981],[1352131200000,0.7954],[1352217600000,0.7945],[1352304000000,0.7785],[1352390400000,0.7749],[1352649600000,0.7793],[1352736000000,0.7687],[1352822400000,0.7663],[1352908800000,0.7594],[1352995200000,0.7559],[1353254400000,0.7568],[1353340800000,0.7563],[1353427200000,0.7602],[1353513600000,0.7509],[1353600000000,0.7505],[1353859200000,0.736],[1353945600000,0.7101],[1354032000000,0.7003],[1354118400000,0.6951],[1354204800000,0.6993],[1354464000000,0.6841],[1354550400000,0.6923],[1354636800000,0.7197],[1354723200000,0.7191],[1354809600000,0.7341],[1355068800000,0.7441],[1355155200000,0.738],[1355241600000,0.7362],[1355328000000,0.7277],[1355414400000,0.7552],[1355673600000,0.7476],[1355760000000,0.7435],[1355846400000,0.7504],[1355932800000,0.7575],[1356019200000,0.7686],[1356278400000,0.7819],[1356364800000,0.7982],[1356451200000,0.8153],[1356537600000,0.8044],[1356624000000,0.8135],[1356883200000,0.8202],[1357228800000,0.8097],[1357488000000,0.8243],[1357574400000,0.8414],[1357660800000,0.8429],[1357747200000,0.8505],[1357833600000,0.8394],[1358092800000,0.8725],[1358179200000,0.893],[1358265600000,0.8883],[1358352000000,0.8812],[1358438400000,0.903],[1358697600000,0.9089],[1358784000000,0.889],[1358870400000,0.8929],[1358956800000,0.8694],[1359043200000,0.8751],[1359302400000,0.9001],[1359388800000,0.908],[1359475200000,0.8987],[1359561600000,0.8899],[1359648000000,0.8971],[1359907200000,0.8851],[1359993600000,0.895],[1360080000000,0.9063],[1360166400000,0.9221],[1360252800000,0.9413],[1361116800000,0.9551],[1361203200000,0.9374],[1361289600000,0.9728],[1361376000000,0.9597],[1361462400000,0.9591],[1361721600000,0.9782],[1361808000000,0.9732],[1361894400000,0.9673],[1361980800000,0.9843],[1362067200000,1.0113],[1362326400000,0.9869],[1362412800000,1.0148],[1362499200000,1.0316],[1362585600000,1.0025],[1362672000000,0.9882],[1362931200000,0.9932],[1363017600000,0.96],[1363104000000,0.9534],[1363190400000,0.9624],[1363276800000,0.9758],[1363536000000,0.9737],[1363622400000,0.9631],[1363708800000,0.9898],[1363795200000,1.0085],[1363881600000,1.0075],[1364140800000,1.0073],[1364227200000,1.0011],[1364313600000,1.0083],[1364400000000,0.991],[1364486400000,0.9898],[1364745600000,1.0016],[1364832000000,0.9658],[1364918400000,0.9545],[1365350400000,0.9754],[1365436800000,0.985],[1365523200000,0.9719],[1365609600000,0.9688],[1365696000000,0.9676],[1365955200000,0.9559],[1366041600000,0.967],[1366128000000,0.991],[1366214400000,0.9978],[1366300800000,1.0192],[1366560000000,1.0463],[1366646400000,1.0209],[1366732800000,1.0547],[1366819200000,1.0322],[1366905600000,1.0161],[1367424000000,1.0432],[1367510400000,1.0719],[1367769600000,1.0931],[1367856000000,1.0925],[1367942400000,1.1183],[1368028800000,1.1323],[1368115200000,1.1281],[1368374400000,1.136],[1368460800000,1.1147],[1368547200000,1.1558],[1368633600000,1.1525],[1368720000000,1.1683],[1368979200000,1.2005],[1369065600000,1.2253],[1369152000000,1.1873],[1369238400000,1.1908],[1369324800000,1.2259],[1369584000000,1.2439],[1369670400000,1.2092],[1369756800000,1.2172],[1369843200000,1.2264],[1369929600000,1.2258],[1370188800000,1.2023],[1370275200000,1.1687],[1370361600000,1.1803],[1370448000000,1.1685],[1370534400000,1.1779],[1371052800000,1.177],[1371139200000,1.2211],[1371398400000,1.2274],[1371484800000,1.2265],[1371571200000,1.2206],[1371657600000,1.1774],[1371744000000,1.1729],[1372003200000,1.1116],[1372089600000,1.1267],[1372176000000,1.1881],[1372262400000,1.1691],[1372348800000,1.1561],[1372521600000,1.1561],[1372608000000,1.2063],[1372694400000,1.2379],[1372780800000,1.2622],[1372867200000,1.2432],[1372953600000,1.2085],[1373212800000,1.1777],[1373299200000,1.2007],[1373385600000,1.2215],[1373472000000,1.2352],[1373558400000,1.2528],[1373817600000,1.3022],[1373904000000,1.3063],[1373990400000,1.2905],[1374076800000,1.2886],[1374163200000,1.275],[1374422400000,1.318],[1374508800000,1.3463],[1374595200000,1.3725],[1374681600000,1.31],[1374768000000,1.3166],[1375027200000,1.2897],[1375113600000,1.2737],[1375200000000,1.2848],[1375286400000,1.3481],[1375372800000,1.3466],[1375632000000,1.3626],[1375718400000,1.3723],[1375804800000,1.3316],[1375891200000,1.3429],[1375977600000,1.3279],[1376236800000,1.3159],[1376323200000,1.3277],[1376409600000,1.337],[1376496000000,1.3219],[1376582400000,1.2827],[1376841600000,1.3266],[1376928000000,1.3314],[1377014400000,1.3376],[1377100800000,1.3552],[1377187200000,1.3797],[1377446400000,1.3993],[1377532800000,1.4124],[1377619200000,1.386],[1377705600000,1.384],[1377792000000,1.3382],[1378051200000,1.366],[1378137600000,1.393],[1378224000000,1.395],[1378310400000,1.4292],[1378396800000,1.4461],[1378656000000,1.4379],[1378742400000,1.4242],[1378828800000,1.3765],[1378915200000,1.3764],[1379001600000,1.4129],[1379260800000,1.441],[1379347200000,1.4305],[1379433600000,1.4531],[1379865600000,1.4935],[1379952000000,1.4961],[1380038400000,1.4901],[1380124800000,1.4715],[1380211200000,1.4908],[1380470400000,1.5391],[1381161600000,1.5611],[1381248000000,1.5928],[1381334400000,1.5519],[1381420800000,1.5538],[1381680000000,1.5689],[1381766400000,1.5649],[1381852800000,1.5035],[1381939200000,1.4889],[1382025600000,1.5181],[1382284800000,1.5737],[1382371200000,1.5185],[1382457600000,1.4743],[1382544000000,1.4574],[1382630400000,1.4274],[1382889600000,1.4384],[1382976000000,1.4189],[1383062400000,1.4315],[1383148800000,1.3893],[1383235200000,1.3747],[1383494400000,1.3754],[1383580800000,1.4172],[1383667200000,1.3968],[1383753600000,1.377],[1383840000000,1.3626],[1384099200000,1.3642],[1384185600000,1.3816],[1384272000000,1.3635],[1384358400000,1.4053],[1384444800000,1.4269],[1384704000000,1.4515],[1384790400000,1.4592],[1384876800000,1.4604],[1384963200000,1.4601],[1385049600000,1.4557],[1385308800000,1.4541],[1385395200000,1.4519],[1385481600000,1.4938],[1385568000000,1.5019],[1385654400000,1.5354],[1385913600000,1.4095],[1386000000000,1.4111],[1386086400000,1.3943],[1386172800000,1.3517],[1386259200000,1.3569],[1386518400000,1.3958],[1386604800000,1.3849],[1386691200000,1.3988],[1386777600000,1.437],[1386864000000,1.4358],[1387123200000,1.4376],[1387209600000,1.424],[1387296000000,1.411],[1387382400000,1.4111],[1387468800000,1.4085],[1387728000000,1.3962],[1387814400000,1.414],[1387900800000,1.4468],[1387987200000,1.4258],[1388073600000,1.4534],[1388332800000,1.4682],[1388419200000,1.4642],[1388592000000,1.4958],[1388678400000,1.5178],[1388937600000,1.485],[1389024000000,1.5171],[1389110400000,1.5756],[1389196800000,1.5481],[1389283200000,1.5181],[1389542400000,1.5286],[1389628800000,1.5709],[1389715200000,1.587],[1389801600000,1.5644],[1389888000000,1.5649],[1390147200000,1.5393],[1390233600000,1.5776],[1390320000000,1.605],[1390406400000,1.6377],[1390492800000,1.6629],[1390752000000,1.655],[1390838400000,1.648],[1390924800000,1.676],[1391011200000,1.6753],[1391702400000,1.7159],[1391961600000,1.7389],[1392048000000,1.7097],[1392134400000,1.724],[1392220800000,1.6622],[1392307200000,1.6958],[1392566400000,1.7434],[1392652800000,1.7281],[1392739200000,1.7267],[1392825600000,1.6941],[1392912000000,1.6991],[1393171200000,1.7217],[1393257600000,1.6466],[1393344000000,1.6389],[1393430400000,1.5814],[1393516800000,1.6037],[1393776000000,1.6369],[1393862400000,1.631],[1393948800000,1.6348],[1394035200000,1.6326],[1394121600000,1.6304],[1394380800000,1.5709],[1394467200000,1.5583],[1394553600000,1.5621],[1394640000000,1.6038],[1394726400000,1.6006],[1394985600000,1.6486],[1395072000000,1.6577],[1395158400000,1.6362],[1395244800000,1.5824],[1395331200000,1.5848],[1395590400000,1.5597],[1395676800000,1.5577],[1395763200000,1.5829],[1395849600000,1.5279],[1395936000000,1.4864],[1396195200000,1.4835],[1396281600000,1.5137],[1396368000000,1.4839],[1396454400000,1.4815],[1396540800000,1.5045],[1396886400000,1.5089],[1396972800000,1.5318],[1397059200000,1.5433],[1397145600000,1.5237],[1397404800000,1.5333],[1397491200000,1.53],[1397577600000,1.5185],[1397664000000,1.5278],[1397750400000,1.5384],[1398009600000,1.5235],[1398096000000,1.4932],[1398182400000,1.4825],[1398268800000,1.4752],[1398355200000,1.4447],[1398614400000,1.4068],[1398700800000,1.417],[1398787200000,1.4352],[1399219200000,1.456],[1399305600000,1.4722],[1399392000000,1.4429],[1399478400000,1.4318],[1399564800000,1.4086],[1399824000000,1.4306],[1399910400000,1.4297],[1399996800000,1.4324],[1400083200000,1.4058],[1400169600000,1.376],[1400428800000,1.3784],[1400515200000,1.3961],[1400601600000,1.4108],[1400688000000,1.4236],[1400774400000,1.4532],[1401033600000,1.4809],[1401120000000,1.465],[1401206400000,1.5013],[1401292800000,1.4736],[1401379200000,1.4784],[1401724800000,1.48],[1401811200000,1.4819],[1401897600000,1.5195],[1401984000000,1.514],[1402243200000,1.4874],[1402329600000,1.5186],[1402416000000,1.5336],[1402502400000,1.5297],[1402588800000,1.5507],[1402848000000,1.5649],[1402934400000,1.5441],[1403020800000,1.5292],[1403107200000,1.4812],[1403193600000,1.4964],[1403452800000,1.5263],[1403539200000,1.5353],[1403625600000,1.5236],[1403712000000,1.5543],[1403798400000,1.5565],[1404057600000,1.5737],[1404144000000,1.5817],[1404230400000,1.5906],[1404316800000,1.5935],[1404403200000,1.5815],[1404662400000,1.561],[1404748800000,1.5795],[1404835200000,1.5507],[1404921600000,1.5276],[1405008000000,1.5226],[1405267200000,1.5313],[1405353600000,1.5029],[1405440000000,1.4778],[1405526400000,1.4714],[1405612800000,1.4637],[1405872000000,1.465],[1405958400000,1.4897],[1406044800000,1.4489],[1406131200000,1.4253],[1406217600000,1.4407],[1406476800000,1.4724],[1406563200000,1.4914],[1406649600000,1.5036],[1406736000000,1.5055],[1406822400000,1.4851],[1407081600000,1.4894],[1407168000000,1.5235],[1407254400000,1.529],[1407340800000,1.5249],[1407427200000,1.542],[1407686400000,1.5643],[1407772800000,1.5628],[1407859200000,1.5494],[1407945600000,1.5449],[1408032000000,1.558],[1408291200000,1.5974],[1408377600000,1.6057],[1408464000000,1.5958],[1408550400000,1.6183],[1408636800000,1.6331],[1408896000000,1.6137],[1408982400000,1.5784],[1409068800000,1.588],[1409155200000,1.5703],[1409241600000,1.5921],[1409500800000,1.6223],[1409587200000,1.6353],[1409673600000,1.6487],[1409760000000,1.668],[1409846400000,1.6619],[1410192000000,1.6661],[1410278400000,1.6778],[1410364800000,1.6864],[1410451200000,1.6983],[1410710400000,1.7006],[1410796800000,1.644],[1410883200000,1.6502],[1410969600000,1.6626],[1411056000000,1.6714],[1411315200000,1.6546],[1411401600000,1.6732],[1411488000000,1.6908],[1411574400000,1.6812],[1411660800000,1.6842],[1411920000000,1.6999],[1412006400000,1.7151],[1412697600000,1.7328],[1412784000000,1.7373],[1412870400000,1.7301],[1413129600000,1.7237],[1413216000000,1.7138],[1413302400000,1.7208],[1413388800000,1.7015],[1413475200000,1.6848],[1413734400000,1.7077],[1413820800000,1.6918],[1413907200000,1.6779],[1413993600000,1.6495],[1414080000000,1.6493],[1414339200000,1.6645],[1414425600000,1.6964],[1414512000000,1.7049],[1414598400000,1.7006],[1414684800000,1.6873],[1414944000000,1.705],[1415030400000,1.6902],[1415116800000,1.686],[1415203200000,1.7075],[1415289600000,1.6968],[1415548800000,1.6884],[1415635200000,1.6307],[1415721600000,1.6462],[1415808000000,1.6115],[1415894400000,1.6098],[1416153600000,1.6417],[1416240000000,1.6524],[1416326400000,1.6763],[1416412800000,1.6645],[1416499200000,1.6752],[1416758400000,1.6782],[1416844800000,1.714],[1416931200000,1.7269],[1417017600000,1.7365],[1417104000000,1.7443],[1417363200000,1.7248],[1417449600000,1.7388],[1417536000000,1.7804],[1417622400000,1.7988],[1417708800000,1.7562],[1417968000000,1.7395],[1418054400000,1.6726],[1418140800000,1.7454],[1418227200000,1.7612],[1418313600000,1.7994],[1418572800000,1.8355],[1418659200000,1.8269],[1418745600000,1.8209],[1418832000000,1.8101],[1418918400000,1.7705],[1419177600000,1.6872],[1419264000000,1.6645],[1419350400000,1.6888],[1419436800000,1.699],[1419523200000,1.7061],[1419782400000,1.6673],[1419868800000,1.6252],[1419955200000,1.6373],[1420387200000,1.6298],[1420473600000,1.711],[1420560000000,1.6928],[1420646400000,1.7122],[1420732800000,1.7239],[1420992000000,1.7597],[1421078400000,1.776],[1421164800000,1.7616],[1421251200000,1.7596],[1421337600000,1.8175],[1421596800000,1.8069],[1421683200000,1.8838],[1421769600000,1.9074],[1421856000000,1.9303],[1421942400000,1.8795],[1422201600000,1.9252],[1422288000000,1.9294],[1422374400000,1.9159],[1422460800000,1.8937],[1422547200000,1.8602],[1422806400000,1.878],[1422892800000,1.9342],[1422979200000,1.9399],[1423065600000,1.9571],[1423152000000,1.9102],[1423411200000,1.8862],[1423497600000,1.9281],[1423584000000,1.9553],[1423670400000,1.9726],[1423756800000,2.0122],[1424016000000,2.09],[1424102400000,2.0884],[1424793600000,2.07],[1424880000000,2.0744],[1424966400000,2.1261],[1425225600000,2.1898],[1425312000000,2.1622],[1425398400000,2.2147],[1425484800000,2.2199],[1425571200000,2.1511],[1425830400000,2.1975],[1425916800000,2.2531],[1426003200000,2.2425],[1426089600000,2.2234],[1426176000000,2.2787],[1426435200000,2.3588],[1426521600000,2.3527],[1426608000000,2.4014],[1426694400000,2.4026],[1426780800000,2.4351],[1427040000000,2.5218],[1427126400000,2.5917],[1427212800000,2.6206],[1427299200000,2.5172],[1427385600000,2.5518],[1427644800000,2.5139],[1427731200000,2.5621],[1427817600000,2.6368],[1427904000000,2.711],[1427990400000,2.7448],[1428336000000,2.7936],[1428422400000,2.7202],[1428508800000,2.732],[1428595200000,2.7924],[1428854400000,2.8195],[1428940800000,2.8],[1429027200000,2.6775],[1429113600000,2.7266],[1429200000000,2.7075],[1429459200000,2.6693],[1429545600000,2.8211],[1429632000000,2.8983],[1429718400000,2.9777],[1429804800000,3.0103],[1430064000000,3.0258],[1430150400000,2.966],[1430236800000,3.087],[1430323200000,3.1521],[1430668800000,3.1356],[1430755200000,3.0652],[1430841600000,3.131],[1430928000000,3.085],[1431014400000,3.2699],[1431273600000,3.4599],[1431360000000,3.5717],[1431446400000,3.508],[1431532800000,3.4521],[1431619200000,3.4564],[1431878400000,3.6009],[1431964800000,3.6493],[1432051200000,3.7394],[1432137600000,3.8721],[1432224000000,3.8555],[1432483200000,3.7993],[1432569600000,3.959],[1432656000000,3.9679],[1432742400000,3.7515],[1432828800000,3.8695],[1433088000000,4.0611],[1433174400000,4.2615],[1433260800000,4.3485],[1433347200000,4.3009],[1433433600000,4.2356],[1433692800000,4.0335],[1433779200000,4.0368],[1433865600000,4.1777],[1433952000000,4.2056],[1434038400000,4.2437],[1434297600000,4.0149],[1434384000000,3.8944],[1434470400000,4.0618],[1434556800000,3.8029],[1434643200000,3.5927],[1434988800000,3.6785],[1435075200000,3.6689],[1435161600000,3.4712],[1435248000000,3.1553],[1435507200000,2.9006],[1435593600000,3.0843],[1435680000000,2.9706],[1435766400000,2.846],[1435852800000,2.7955],[1436112000000,2.6701],[1436198400000,2.5055],[1436284800000,2.5198],[1436371200000,2.6061],[1436457600000,2.7259],[1436716800000,2.8995],[1436803200000,2.9473],[1436889600000,2.7956],[1436976000000,2.8436],[1437062400000,3.0235],[1437321600000,3.0978],[1437408000000,3.133],[1437494400000,3.1458],[1437580800000,3.226],[1437667200000,3.1433],[1437926400000,2.8962],[1438012800000,2.7806],[1438099200000,2.9127],[1438185600000,2.7638],[1438272000000,2.7445],[1438531200000,2.5858],[1438617600000,2.7573],[1438704000000,2.7077],[1438790400000,2.6865],[1438876800000,2.7997],[1439136000000,2.949],[1439222400000,2.9391],[1439308800000,2.8511],[1439395200000,2.925],[1439481600000,2.9106],[1439740800000,2.9014],[1439827200000,2.7145],[1439913600000,2.7905],[1440000000000,2.7201],[1440086400000,2.5293],[1440345600000,2.3131],[1440432000000,2.1291],[1440518400000,2.0139],[1440604800000,2.0917],[1440691200000,2.2292],[1440950400000,2.1339],[1441036800000,2.0135],[1441123200000,1.9749],[1441555200000,2.0182],[1441641600000,2.1389],[1441728000000,2.218],[1441814400000,2.1797],[1441900800000,2.2043],[1442160000000,2.0232],[1442246400000,1.8951],[1442332800000,2.0467],[1442419200000,2.0543],[1442505600000,2.1156],[1442764800000,2.2313],[1442851200000,2.2346],[1442937600000,2.2368],[1443024000000,2.2724],[1443110400000,2.174],[1443369600000,2.2917],[1443456000000,2.2644],[1443542400000,2.2436],[1444233600000,2.3656],[1444320000000,2.3953],[1444579200000,2.5088],[1444665600000,2.5374],[1444752000000,2.4947],[1444838400000,2.6082],[1444924800000,2.6589],[1445184000000,2.641],[1445270400000,2.7298],[1445356800000,2.539],[1445443200000,2.6684],[1445529600000,2.7553],[1445788800000,2.7444],[1445875200000,2.7878],[1445961600000,2.7007],[1446048000000,2.7026],[1446134400000,2.6953],[1446393600000,2.6431],[1446480000000,2.6407],[1446566400000,2.8136],[1446652800000,2.7916],[1446739200000,2.8987],[1446998400000,2.9662],[1447084800000,2.992],[1447171200000,3.0569],[1447257600000,3.0323],[1447344000000,2.9461],[1447603200000,3.0365],[1447689600000,2.9483],[1447776000000,2.8868],[1447862400000,3.0021],[1447948800000,3.0327],[1448208000000,3.0006],[1448294400000,3.0489],[1448380800000,3.1354],[1448467200000,3.0656],[1448553600000,2.8665],[1448812800000,2.8896],[1448899200000,2.8696],[1448985600000,2.8226],[1449072000000,2.9223],[1449158400000,2.9031],[1449417600000,2.9516],[1449504000000,2.9019],[1449590400000,2.8757],[1449676800000,2.9033],[1449763200000,2.8768],[1450022400000,2.9169],[1450108800000,2.9552],[1450195200000,2.9729],[1450281600000,3.0486],[1450368000000,3.0421],[1450627200000,3.041],[1450713600000,3.0498],[1450800000000,2.9903],[1450886400000,3.0028],[1450972800000,3.0004],[1451232000000,2.9363],[1451318400000,2.9511],[1451404800000,2.9825],[1451491200000,2.9152],[1451836800000,2.6863],[1451923200000,2.6103],[1452009600000,2.6635],[1452096000000,2.4457],[1452182400000,2.4384],[1452441600000,2.292],[1452528000000,2.3342],[1452614400000,2.2432],[1452700800000,2.366],[1452787200000,2.2998],[1453046400000,2.3669],[1453132800000,2.439],[1453219200000,2.3986],[1453305600000,2.2989],[1453392000000,2.3392],[1453651200000,2.3493],[1453737600000,2.1697],[1453824000000,2.1734],[1453910400000,2.074],[1453996800000,2.1699],[1454256000000,2.1683],[1454342400000,2.2605],[1454428800000,2.2764],[1454515200000,2.317],[1454601600000,2.2829],[1455465600000,2.3056],[1455552000000,2.4036],[1455638400000,2.4189],[1455724800000,2.3906],[1455811200000,2.4136],[1456070400000,2.4529],[1456156800000,2.4212],[1456243200000,2.4045],[1456329600000,2.2145],[1456416000000,2.1888],[1456675200000,2.0391],[1456761600000,2.1007],[1456848000000,2.1937],[1456934400000,2.1818],[1457020800000,2.0701],[1457280000000,2.1215],[1457366400000,2.1758],[1457452800000,2.141],[1457539200000,2.1035],[1457625600000,2.1023],[1457884800000,2.1996],[1457971200000,2.1699],[1458057600000,2.1472],[1458144000000,2.2693],[1458230400000,2.3703],[1458489600000,2.425],[1458576000000,2.4189],[1458662400000,2.4606],[1458748800000,2.4158],[1458835200000,2.4119],[1459094400000,2.3934],[1459180800000,2.341],[1459267200000,2.449],[1459353600000,2.4399],[1459440000000,2.4061],[1459785600000,2.4887],[1459872000000,2.5078],[1459958400000,2.4548],[1460044800000,2.4347],[1460304000000,2.4929],[1460390400000,2.4719],[1460476800000,2.5049],[1460563200000,2.5383],[1460649600000,2.5221],[1460908800000,2.4742],[1460995200000,2.4818],[1461081600000,2.3419],[1461168000000,2.3037],[1461254400000,2.3331],[1461513600000,2.3222],[1461600000000,2.3538],[1461686400000,2.3439],[1461772800000,2.3534],[1461859200000,2.3354],[1462204800000,2.4215],[1462291200000,2.4147],[1462377600000,2.429],[1462464000000,2.3254],[1462723200000,2.2425],[1462809600000,2.2431],[1462896000000,2.222],[1462982400000,2.2213],[1463068800000,2.211],[1463328000000,2.2471],[1463414400000,2.2731],[1463500800000,2.2064],[1463587200000,2.2251],[1463673600000,2.2562],[1463932800000,2.2928],[1464019200000,2.2681],[1464105600000,2.259],[1464192000000,2.2798],[1464278400000,2.2623],[1464537600000,2.2499],[1464624000000,2.3615],[1464710400000,2.3723],[1464796800000,2.3942],[1464883200000,2.4147],[1465142400000,2.4107],[1465228800000,2.4083],[1465315200000,2.3974],[1465747200000,2.2572],[1465833600000,2.2632],[1465920000000,2.3389],[1466006400000,2.3097],[1466092800000,2.3326],[1466352000000,2.329],[1466438400000,2.301],[1466524800000,2.3588],[1466611200000,2.3511],[1466697600000,2.3403],[1466956800000,2.4104],[1467043200000,2.437],[1467129600000,2.4296],[1467216000000,2.4457],[1467302400000,2.4278],[1467561600000,2.4681],[1467648000000,2.4651],[1467734400000,2.4605],[1467820800000,2.4522],[1467907200000,2.4579],[1468166400000,2.4361],[1468252800000,2.4668],[1468339200000,2.5073],[1468425600000,2.5158],[1468512000000,2.4844],[1468771200000,2.4699],[1468857600000,2.4952],[1468944000000,2.4895],[1469030400000,2.4859],[1469116800000,2.4697],[1469376000000,2.4652],[1469462400000,2.5012],[1469548800000,2.3685],[1469635200000,2.3517],[1469721600000,2.3331],[1469980800000,2.308],[1470067200000,2.3233],[1470153600000,2.3179],[1470240000000,2.341],[1470326400000,2.3187],[1470585600000,2.3418],[1470672000000,2.3677],[1470758400000,2.3487],[1470844800000,2.3124],[1470931200000,2.3345],[1471190400000,2.4093],[1471276800000,2.4179],[1471363200000,2.4254],[1471449600000,2.4183],[1471536000000,2.4215],[1471795200000,2.3812],[1471881600000,2.3886],[1471968000000,2.408],[1472054400000,2.3955],[1472140800000,2.4053],[1472400000000,2.4089],[1472486400000,2.4115],[1472572800000,2.4073],[1472659200000,2.396],[1472745600000,2.3848],[1473004800000,2.3974],[1473091200000,2.4407],[1473177600000,2.429],[1473264000000,2.4412],[1473350400000,2.4193],[1473609600000,2.3569],[1473696000000,2.3572],[1473782400000,2.3558],[1474214400000,2.378],[1474300800000,2.3705],[1474387200000,2.3745],[1474473600000,2.3812],[1474560000000,2.3683],[1474819200000,2.3318],[1474905600000,2.3512],[1474992000000,2.3498],[1475078400000,2.3569],[1475164800000,2.3613],[1476028800000,2.4243],[1476115200000,2.4268],[1476201600000,2.4253],[1476288000000,2.4243],[1476374400000,2.4092],[1476633600000,2.3805],[1476720000000,2.4131],[1476806400000,2.3987],[1476892800000,2.4079],[1476979200000,2.3947],[1477238400000,2.4159],[1477324800000,2.4151],[1477411200000,2.3982],[1477497600000,2.396],[1477584000000,2.3776],[1477843200000,2.3713],[1477929600000,2.3892],[1478016000000,2.3566],[1478102400000,2.3639],[1478188800000,2.3553],[1478448000000,2.3394],[1478534400000,2.3612],[1478620800000,2.3325],[1478707200000,2.354],[1478793600000,2.358],[1479052800000,2.3738],[1479139200000,2.3929],[1479225600000,2.3963],[1479312000000,2.3751],[1479398400000,2.369],[1479657600000,2.363],[1479744000000,2.3903],[1479830400000,2.3772],[1479916800000,2.3564],[1480003200000,2.3792],[1480262400000,2.3777],[1480348800000,2.3714],[1480435200000,2.3962],[1480521600000,2.395],[1480608000000,2.3529],[1480867200000,2.3533],[1480953600000,2.3297],[1481040000000,2.3433],[1481126400000,2.3215],[1481212800000,2.3054],[1481472000000,2.1794],[1481558400000,2.1801],[1481644800000,2.156],[1481731200000,2.17],[1481817600000,2.194],[1482076800000,2.1747],[1482163200000,2.1766],[1482249600000,2.1869],[1482336000000,2.181],[1482422400000,2.1571],[1482681600000,2.1675],[1482768000000,2.1617],[1482854400000,2.1492],[1482940800000,2.1516],[1483027200000,2.1551],[1483113600000,2.1551],[1483372800000,2.1559],[1483459200000,2.1865],[1483545600000,2.1781],[1483632000000,2.1579],[1483891200000,2.1543],[1483977600000,2.1435],[1484064000000,2.128],[1484150400000,2.1198],[1484236800000,2.0869],[1484496000000,2.0111],[1484582400000,2.0513],[1484668800000,2.0272],[1484755200000,2.0254],[1484841600000,2.0653],[1485100800000,2.0726],[1485187200000,2.0443],[1485273600000,2.0546],[1485360000000,2.0716],[1486051200000,2.061],[1486310400000,2.0868],[1486396800000,2.0744],[1486483200000,2.0904],[1486569600000,2.1017],[1486656000000,2.0914],[1486915200000,2.1011],[1487001600000,2.0964],[1487088000000,2.0779],[1487174400000,2.0836],[1487260800000,2.0674],[1487520000000,2.0806],[1487606400000,2.1091],[1487692800000,2.1079],[1487779200000,2.1144],[1487865600000,2.128],[1488124800000,2.1152],[1488211200000,2.1156],[1488297600000,2.1208],[1488384000000,2.1081],[1488470400000,2.1168],[1488729600000,2.1544],[1488816000000,2.1709],[1488902400000,2.1563],[1488988800000,2.1447],[1489075200000,2.1404],[1489334400000,2.1631],[1489420800000,2.149],[1489507200000,2.1491],[1489593600000,2.1589],[1489680000000,2.1402],[1489939200000,2.1447],[1490025600000,2.1526],[1490112000000,2.1389],[1490198400000,2.1387],[1490284800000,2.1569],[1490544000000,2.1376],[1490630400000,2.1341],[1490716800000,2.1175],[1490803200000,2.0788],[1490889600000,2.0942],[1491321600000,2.1331],[1491408000000,2.1342],[1491494400000,2.1366],[1491753600000,2.1001],[1491840000000,2.1057],[1491926400000,2.0838],[1492012800000,2.0977],[1492099200000,2.0726],[1492358400000,2.0516],[1492444800000,2.03],[1492531200000,2.0271],[1492617600000,2.0325],[1492704000000,2.0201],[1492963200000,1.9884],[1493049600000,1.9984],[1493136000000,2.0001],[1493222400000,2.0246],[1493308800000,2.0331],[1493654400000,2.0331],[1493740800000,2.0217],[1493827200000,2.0191],[1493913600000,1.9973],[1494172800000,1.9651],[1494259200000,1.9801],[1494345600000,1.946],[1494432000000,1.9473],[1494518400000,1.9498],[1494777600000,1.9543],[1494864000000,1.994],[1494950400000,2.0025],[1495036800000,1.9927],[1495123200000,1.9791],[1495382400000,1.9648],[1495468800000,1.932],[1495555200000,1.9525],[1495641600000,1.9541],[1495728000000,1.9409],[1496160000000,1.9454],[1496246400000,1.9065],[1496332800000,1.9258],[1496592000000,1.9428],[1496678400000,1.9484],[1496764800000,1.9853],[1496851200000,1.9797],[1496937600000,1.9812],[1497196800000,1.9585],[1497283200000,1.9807],[1497369600000,1.9753],[1497456000000,2.0036],[1497542400000,1.997],[1497801600000,2.004],[1497888000000,2.009],[1497974400000,2.0128],[1498060800000,1.9839],[1498147200000,1.994],[1498406400000,2.0092],[1498492800000,2.0079],[1498579200000,1.9949],[1498665600000,2.0012],[1498752000000,2.0064],[1499011200000,2.0262],[1499097600000,2.0191],[1499184000000,2.0268],[1499270400000,2.0294],[1499356800000,2.0256],[1499616000000,1.9901],[1499702400000,1.9688],[1499788800000,1.972],[1499875200000,1.9635],[1499961600000,1.9269],[1500220800000,1.8286],[1500307200000,1.8408],[1500393600000,1.8599],[1500480000000,1.8642],[1500566400000,1.8658],[1500825600000,1.8617],[1500912000000,1.8635],[1500998400000,1.856],[1501084800000,1.9231],[1501171200000,1.914],[1501430400000,1.9165],[1501516800000,1.9217],[1501603200000,1.9039],[1501689600000,1.9129],[1501776000000,1.898],[1502035200000,1.9121],[1502121600000,1.9451],[1502208000000,1.9459],[1502294400000,1.9356],[1502380800000,1.9228],[1502640000000,1.9792],[1502726400000,1.9848],[1502812800000,2.0141],[1502899200000,2.0231],[1502985600000,2.0103],[1503244800000,2.0184],[1503331200000,2.0025],[1503417600000,1.9941],[1503504000000,1.9813],[1503590400000,2.0002],[1503849600000,2.0332],[1503936000000,2.0207],[1504022400000,2.0285],[1504108800000,2.0403],[1504195200000,2.058],[1504454400000,2.0784],[1504540800000,2.0804],[1504627200000,2.0997],[1504713600000,2.0858],[1504800000000,2.0802],[1505059200000,2.0923],[1505145600000,2.0791],[1505232000000,2.0833],[1505318400000,2.0733],[1505404800000,2.0689],[1505664000000,2.09],[1505750400000,2.074],[1505836800000,2.0877],[150592320000</t>
   </si>
   <si>
+    <t>[[1379865600000, 0.0], [1382630400000, -2.3], [1383753600000, -9.21], [1384876800000, -5.69], [1386000000000, -4.83], [1387123200000, -6.37], [1388073600000, -4.52], [1389283200000, -6.19], [1390406400000, -7.18], [1392134400000, -4.49], [1393257600000, -7.02], [1394380800000, -11.95], [1395331200000, -11.45], [1396454400000, -14.42], [1397664000000, -12.03], [1398787200000, -15.79], [1400083200000, -16.33], [1401206400000, -15.62], [1402416000000, -15.03], [1403539200000, -16.1], [1404662400000, -15.47], [1405612800000, -15.97], [1406736000000, -11.64], [1407859200000, -11.5], [1408982400000, -12.99], [1410192000000, -9.48], [1411315200000, -9.64], [1412870400000, -4.45], [1413993600000, -6.86], [1415116800000, -5.26], [1416240000000, -4.65], [1417363200000, -0.88], [1418313600000, 2.75], [1419436800000, -1.98], [1420732800000, 2.74], [1421856000000, 7.06], [1422979200000, 4.0], [1424102400000, 6.27], [1425830400000, 8.57], [1426780800000, 15.37], [1427904000000, 22.73], [1429113600000, 31.74], [1430236800000, 35.01], [1431446400000, 38.52], [1432569600000, 55.48], [1433692800000, 59.09], [1434643200000, 44.79], [1435852800000, 24.16], [1436976000000, 28.89], [1438099200000, 32.03], [1439222400000, 36.88], [1440345600000, 11.86], [1441641600000, 16.47], [1442764800000, 14.54], [1444320000000, 16.38], [1445443200000, 22.4], [1446566400000, 26.59], [1447689600000, 28.69], [1448812800000, 24.32], [1449763200000, 28.65], [1450886400000, 33.67], [1452096000000, 14.59], [1453219200000, 12.5], [1454342400000, 8.91], [1456070400000, 13.8], [1457020800000, 9.54], [1458144000000, 12.53], [1459267200000, 15.22], [1460476800000, 15.63], [1461600000000, 12.89], [1462809600000, 11.02], [1463932800000, 12.68], [1464883200000, 15.19], [1466352000000, 14.29], [1467302400000, 17.27], [1468425600000, 25.11], [1469548800000, 25.15], [1470672000000, 28.02], [1471795200000, 28.86], [1472745600000, 30.0], [1474214400000, 28.18], [1475164800000, 29.37], [1476892800000, 31.01], [1478016000000, 31.67], [1479139200000, 31.7], [1480262400000, 34.69], [1481212800000, 32.59], [1482336000000, 29.52], [1483459200000, 32.64], [1484582400000, 29.82], [1486310400000, 33.3], [1487260800000, 32.36], [1488384000000, 34.28], [1489507200000, 37.17], [1490630400000, 42.22], [1491926400000, 40.42], [1493049600000, 45.2], [1494259200000, 40.92], [1495382400000, 48.58], [1496678400000, 47.83], [1497801600000, 52.35], [1498752000000, 55.14], [1499875200000, 48.31], [1500998400000, 44.87], [1502121600000, 45.49], [1503244800000, 49.36], [1504195200000, 47.89], [1505318400000, 48.4], [1506441600000, 49.9], [1508169600000, 57.16], [1509292800000, 65.0], [1510243200000, 69.08], [1511366400000, 60.99], [1512489600000, 59.27], [1513612800000, 62.75], [1514649600000, 64.74], [1515686400000, 71.32], [1516809600000, 71.55], [1517932800000, 55.85], [1519660800000, 64.16], [1520784000000, 76.52], [1521734400000, 78.84], [1523203200000, 81.92], [1524153600000, 78.58], [1525622400000, 92.09], [1526572800000, 102.47], [1527696000000, 109.04], [1528819200000, 99.97], [1530028800000, 91.07], [1531065600000, 91.97], [1532016000000, 95.87], [1533139200000, 80.89], [1534262400000, 72.38], [1535385600000, 76.79], [1536508800000, 65.98], [1537459200000, 63.4], [1539273600000, 56.36], [1540396800000, 46.14], [1541520000000, 55.06], [1542643200000, 53.6], [1543766400000, 59.27], [1544716800000, 43.23], [1545840000000, 31.91], [1547049600000, 30.22], [1548172800000, 34.17], [1549900800000, 44.17], [1551024000000, 52.25], [1551974400000, 55.43], [1553097600000, 64.88], [1554220800000, 73.22], [1555430400000, 72.39], [1556553600000, 69.32], [1557936000000, 64.27], [1559059200000, 57.82], [1560268800000, 52.75], [1561392000000, 61.13], [1562256000000, 67.62], [1563379200000, 62.55], [1564502400000, 64.35], [1565625600000, 62.66], [1566748800000, 76.77], [1567699200000, 79.92], [1568908800000, 81.75], [1570636800000, 80.86], [1571760000000, 81.49], [1572883200000, 93.45], [1574006400000, 96.65], [1574956800000, 84.75], [1576080000000, 83.05], [1577203200000, 83.71], [1578412800000, 87.23], [1579536000000, 99.65], [1581350400000, 97.49], [1582473600000, 99.8], [1583424000000, 106.29], [1584547200000, 78.91], [1585670400000, 93.05], [1586880000000, 108.09], [1588003200000, 112.75], [1589385600000, 117.4], [1590508800000, 116.56], [1591632000000, 124.46], [1592755200000, 147.33], [1594051200000, 160.52], [1595174400000, 173.49], [1596124800000, 200.31], [1597248000000, 178.13], [1598371200000, 182.81], [1599494400000, 177.36], [1600617600000, 161.8], [1602432000000, 185.02], [1603382400000, 166.41], [1604505600000, 180.89], [1605628800000, 161.77], [1606752000000, 166.1], [1607875200000, 171.94], [1608825600000, 200.56], [1610035200000, 216.48], [1611158400000, 216.46], [1612281600000, 225.69], [1614009600000, 220.98], [1615132800000, 175.21], [1616083200000, 173.44], [1617206400000, 194.82], [1618416000000, 182.73], [1619539200000, 215.72], [1620921600000, 224.59], [1622044800000, 231.14], [1623168000000, 223.71], [1624377600000, 225.98], [1625500800000, 209.08], [1626624000000, 228.0], [1627574400000, 196.44], [1628438400000, 199.28]]</t>
+  </si>
+  <si>
     <t>512010</t>
   </si>
   <si>
@@ -107,6 +137,9 @@
     <t xml:space="preserve"> [[1379865600000,1.0],[1380211200000,1.0022],[1380470400000,1.0026],[1381420800000,1.0042],[1382025600000,1.0052],[1382284800000,1.0073],[1382371200000,1.0066],[1382457600000,1.0029],[1382544000000,1.001],[1382630400000,0.977],[1382889600000,0.9616],[1382976000000,0.9546],[1383062400000,0.9652],[1383148800000,0.9472],[1383235200000,0.953],[1383494400000,0.9399],[1383580800000,0.9407],[1383667200000,0.9246],[1383753600000,0.9079],[1383840000000,0.896],[1384099200000,0.9205],[1384185600000,0.9325],[1384272000000,0.9173],[1384358400000,0.9326],[1384444800000,0.9387],[1384704000000,0.9445],[1384790400000,0.9382],[1384876800000,0.9431],[1384963200000,0.9412],[1385049600000,0.9326],[1385308800000,0.9331],[1385395200000,0.9327],[1385481600000,0.9412],[1385568000000,0.9477],[1385654400000,0.9544],[1385913600000,0.9304],[1386000000000,0.9517],[1386086400000,0.9636],[1386172800000,0.9636],[1386259200000,0.964],[1386518400000,0.9622],[1386604800000,0.9512],[1386691200000,0.9445],[1386777600000,0.9538],[1386864000000,0.9537],[1387123200000,0.9363],[1387209600000,0.9439],[1387296000000,0.9495],[1387382400000,0.9354],[1387468800000,0.9289],[1387728000000,0.9559],[1387814400000,0.9514],[1387900800000,0.9517],[1387987200000,0.9459],[1388073600000,0.9548],[1388332800000,0.9497],[1388419200000,0.9607],[1388592000000,0.9806],[1388678400000,0.9726],[1388937600000,0.948],[1389024000000,0.9556],[1389110400000,0.9631],[1389196800000,0.956],[1389283200000,0.9381],[1389542400000,0.9289],[1389628800000,0.9366],[1389715200000,0.9472],[1389801600000,0.9391],[1389888000000,0.9232],[1390147200000,0.9099],[1390233600000,0.9135],[1390320000000,0.9326],[1390406400000,0.9282],[1390492800000,0.9333],[1390752000000,0.914],[1390838400000,0.9215],[1390924800000,0.9245],[1391011200000,0.9198],[1391702400000,0.9123],[1391961600000,0.946],[1392048000000,0.9511],[1392134400000,0.9551],[1392220800000,0.9351],[1392307200000,0.9505],[1392566400000,0.9571],[1392652800000,0.9583],[1392739200000,0.966],[1392825600000,0.9568],[1392912000000,0.953],[1393171200000,0.9546],[1393257600000,0.9298],[1393344000000,0.9332],[1393430400000,0.9017],[1393516800000,0.9069],[1393776000000,0.9129],[1393862400000,0.9062],[1393948800000,0.8949],[1394035200000,0.8872],[1394121600000,0.8991],[1394380800000,0.8805],[1394467200000,0.8927],[1394553600000,0.891],[1394640000000,0.904],[1394726400000,0.8958],[1394985600000,0.9063],[1395072000000,0.9066],[1395158400000,0.895],[1395244800000,0.8708],[1395331200000,0.8855],[1395590400000,0.8791],[1395676800000,0.8783],[1395763200000,0.8889],[1395849600000,0.8752],[1395936000000,0.8636],[1396195200000,0.8582],[1396281600000,0.8639],[1396368000000,0.8557],[1396454400000,0.8558],[1396540800000,0.8618],[1396886400000,0.8811],[1396972800000,0.8857],[1397059200000,0.8839],[1397145600000,0.8949],[1397404800000,0.8957],[1397491200000,0.8863],[1397577600000,0.8857],[1397664000000,0.8797],[1397750400000,0.8777],[1398009600000,0.869],[1398096000000,0.8617],[1398182400000,0.8613],[1398268800000,0.8536],[1398355200000,0.8406],[1398614400000,0.8226],[1398700800000,0.8306],[1398787200000,0.8421],[1399219200000,0.8464],[1399305600000,0.8489],[1399392000000,0.8378],[1399478400000,0.839],[1399564800000,0.8392],[1399824000000,0.8517],[1399910400000,0.8493],[1399996800000,0.8504],[1400083200000,0.8367],[1400169600000,0.8313],[1400428800000,0.8169],[1400515200000,0.8167],[1400601600000,0.8233],[1400688000000,0.823],[1400774400000,0.8288],[1401033600000,0.8423],[1401120000000,0.8387],[1401206400000,0.8438],[1401292800000,0.84],[1401379200000,0.8411],[1401724800000,0.8415],[1401811200000,0.8282],[1401897600000,0.837],[1401984000000,0.834],[1402243200000,0.8353],[1402329600000,0.8439],[1402416000000,0.8497],[1402502400000,0.8466],[1402588800000,0.8485],[1402848000000,0.8479],[1402934400000,0.843],[1403020800000,0.8413],[1403107200000,0.829],[1403193600000,0.8312],[1403452800000,0.8291],[1403539200000,0.839],[1403625600000,0.8379],[1403712000000,0.8426],[1403798400000,0.8474],[1404057600000,0.8526],[1404144000000,0.8501],[1404230400000,0.8485],[1404316800000,0.8587],[1404403200000,0.8516],[1404662400000,0.8453],[1404748800000,0.8462],[1404835200000,0.831],[1404921600000,0.8301],[1405008000000,0.83],[1405267200000,0.8375],[1405353600000,0.8492],[1405440000000,0.8429],[1405526400000,0.8346],[1405612800000,0.8403],[1405872000000,0.847],[1405958400000,0.852],[1406044800000,0.8449],[1406131200000,0.8532],[1406217600000,0.8583],[1406476800000,0.8704],[1406563200000,0.8733],[1406649600000,0.8801],[1406736000000,0.8836],[1406822400000,0.8886],[1407081600000,0.8947],[1407168000000,0.8924],[1407254400000,0.8904],[1407340800000,0.878],[1407427200000,0.8792],[1407686400000,0.8907],[1407772800000,0.888],[1407859200000,0.885],[1407945600000,0.8795],[1408032000000,0.8887],[1408291200000,0.8964],[1408377600000,0.8948],[1408464000000,0.8918],[1408550400000,0.8871],[1408636800000,0.8936],[1408896000000,0.8834],[1408982400000,0.8701],[1409068800000,0.8709],[1409155200000,0.8662],[1409241600000,0.8719],[1409500800000,0.88],[1409587200000,0.8863],[1409673600000,0.8937],[1409760000000,0.8953],[1409846400000,0.9016],[1410192000000,0.9052],[1410278400000,0.9014],[1410364800000,0.894],[1410451200000,0.8993],[1410710400000,0.9017],[1410796800000,0.8831],[1410883200000,0.8931],[1410969600000,0.9059],[1411056000000,0.9134],[1411315200000,0.9036],[1411401600000,0.9125],[1411488000000,0.9213],[1411574400000,0.9171],[1411660800000,0.9187],[1411920000000,0.9248],[1412006400000,0.9279],[1412697600000,0.9652],[1412784000000,0.9573],[1412870400000,0.9555],[1413129600000,0.9644],[1413216000000,0.9545],[1413302400000,0.9772],[1413388800000,0.9662],[1413475200000,0.964],[1413734400000,0.974],[1413820800000,0.9601],[1413907200000,0.9431],[1413993600000,0.9314],[1414080000000,0.9295],[1414339200000,0.9385],[1414425600000,0.9544],[1414512000000,0.9582],[1414598400000,0.9615],[1414684800000,0.9601],[1414944000000,0.9607],[1415030400000,0.9479],[1415116800000,0.9474],[1415203200000,0.9519],[1415289600000,0.9416],[1415548800000,0.9535],[1415635200000,0.942],[1415721600000,0.9533],[1415808000000,0.9444],[1415894400000,0.9576],[1416153600000,0.9596],[1416240000000,0.9535],[1416326400000,0.9618],[1416412800000,0.9528],[1416499200000,0.9611],[1416758400000,0.9664],[1416844800000,0.9775],[1416931200000,0.9778],[1417017600000,0.9831],[1417104000000,0.9766],[1417363200000,0.9912],[1417449600000,1.0022],[1417536000000,1.0039],[1417622400000,1.0256],[1417708800000,1.0132],[1417968000000,1.0228],[1418054400000,0.9977],[1418140800000,1.032],[1418227200000,1.0243],[1418313600000,1.0275],[1418572800000,1.0422],[1418659200000,1.0377],[1418745600000,1.0189],[1418832000000,1.01],[1418918400000,0.9982],[1419177600000,0.9751],[1419264000000,0.9735],[1419350400000,0.9756],[1419436800000,0.9802],[1419523200000,0.9916],[1419782400000,0.9827],[1419868800000,0.9904],[1419955200000,1.0032],[1420387200000,1.0206],[1420473600000,1.0536],[1420560000000,1.0431],[1420646400000,1.0395],[1420732800000,1.0274],[1420992000000,1.0355],[1421078400000,1.0457],[1421164800000,1.0418],[1421251200000,1.0433],[1421337600000,1.0528],[1421596800000,1.0203],[1421683200000,1.0401],[1421769600000,1.0608],[1421856000000,1.0706],[1421942400000,1.0601],[1422201600000,1.0824],[1422288000000,1.0818],[1422374400000,1.0723],[1422460800000,1.0541],[1422547200000,1.0488],[1422806400000,1.0458],[1422892800000,1.0551],[1422979200000,1.04],[1423065600000,1.0251],[1423152000000,1.0124],[1423411200000,1.0163],[1423497600000,1.024],[1423584000000,1.0337],[1423670400000,1.0365],[1423756800000,1.0472],[1424016000000,1.0566],[1424102400000,1.0627],[1424793600000,1.0626],[1424880000000,1.0711],[1424966400000,1.0691],[1425225600000,1.0745],[1425312000000,1.0668],[1425398400000,1.0986],[1425484800000,1.0961],[1425571200000,1.0767],[1425830400000,1.0857],[1425916800000,1.0973],[1426003200000,1.0905],[1426089600000,1.0924],[1426176000000,1.1003],[1426435200000,1.1268],[1426521600000,1.1292],[1426608000000,1.1468],[1426694400000,1.1404],[1426780800000,1.1537],[1427040000000,1.1671],[1427126400000,1.1867],[1427212800000,1.1958],[1427299200000,1.1834],[1427385600000,1.1905],[1427644800000,1.2069],[1427731200000,1.2],[1427817600000,1.2216],[1427904000000,1.2273],[1427990400000,1.2385],[1428336000000,1.2724],[1428422400000,1.2575],[1428508800000,1.2528],[1428595200000,1.2888],[1428854400000,1.3312],[1428940800000,1.3358],[1429027200000,1.2942],[1429113600000,1.3174],[1429200000000,1.3134],[1429459200000,1.2667],[1429545600000,1.3201],[1429632000000,1.3503],[1429718400000,1.3433],[1429804800000,1.3436],[1430064000000,1.3639],[1430150400000,1.3261],[1430236800000,1.3501],[1430323200000,1.3461],[1430668800000,1.3445],[1430755200000,1.3224],[1430841600000,1.319],[1430928000000,1.2953],[1431014400000,1.33],[1431273600000,1.3705],[1431360000000,1.3801],[1431446400000,1.3852],[1431532800000,1.3728],[1431619200000,1.3493],[1431878400000,1.3742],[1431964800000,1.405],[1432051200000,1.4123],[1432137600000,1.4651],[1432224000000,1.4784],[1432483200000,1.5232],[1432569600000,1.5548],[1432656000000,1.5694],[1432742400000,1.4688],[1432828800000,1.5193],[1433088000000,1.6085],[1433174400000,1.6296],[1433260800000,1.611],[1433347200000,1.5968],[1433433600000,1.6023],[1433692800000,1.5909],[1433779200000,1.5698],[1433865600000,1.5989],[1433952000000,1.6236],[1434038400000,1.6336],[1434297600000,1.6058],[1434384000000,1.5687],[1434470400000,1.5822],[1434556800000,1.5284],[1434643200000,1.4479],[1434988800000,1.5029],[1435075200000,1.5203],[1435161600000,1.4458],[1435248000000,1.3221],[1435507200000,1.2776],[1435593600000,1.3751],[1435680000000,1.3357],[1435766400000,1.2785],[1435852800000,1.2416],[1436112000000,1.2665],[1436198400000,1.1871],[1436284800000,1.1214],[1436371200000,1.1884],[1436457600000,1.2685],[1436716800000,1.3482],[1436803200000,1.3364],[1436889600000,1.2551],[1436976000000,1.2889],[1437062400000,1.347],[1437321600000,1.3395],[1437408000000,1.3514],[1437494400000,1.3464],[1437580800000,1.3809],[1437667200000,1.3573],[1437926400000,1.245],[1438012800000,1.2735],[1438099200000,1.3203],[1438185600000,1.2687],[1438272000000,1.2939],[1438531200000,1.3136],[1438617600000,1.3567],[1438704000000,1.3283],[1438790400000,1.3098],[1438876800000,1.3314],[1439136000000,1.3849],[1439222400000,1.3688],[1439308800000,1.3393],[1439395200000,1.3489],[1439481600000,1.3504],[1439740800000,1.3736],[1439827200000,1.3099],[1439913600000,1.3472],[1440000000000,1.2957],[1440086400000,1.2339],[1440345600000,1.1186],[1440432000000,1.0389],[1440518400000,1.0547],[1440604800000,1.1093],[1440691200000,1.1584],[1440950400000,1.1489],[1441036800000,1.1289],[1441123200000,1.1358],[1441555200000,1.1179],[1441641600000,1.1647],[1441728000000,1.1793],[1441814400000,1.1728],[1441900800000,1.1596],[1442160000000,1.1292],[1442246400000,1.0837],[1442332800000,1.1564],[1442419200000,1.1229],[1442505600000,1.1236],[1442764800000,1.1454],[1442851200000,1.1529],[1442937600000,1.1321],[1443024000000,1.1431],[1443110400000,1.1154],[1443369600000,1.1239],[1443456000000,1.0985],[1443542400000,1.103],[1444233600000,1.1556],[1444320000000,1.1638],[1444579200000,1.1917],[1444665600000,1.1894],[1444752000000,1.1745],[1444838400000,1.1959],[1444924800000,1.199],[1445184000000,1.2051],[1445270400000,1.2174],[1445356800000,1.1803],[1445443200000,1.224],[1445529600000,1.2634],[1445788800000,1.2668],[1445875200000,1.263],[1445961600000,1.2339],[1446048000000,1.2505],[1446134400000,1.2411],[1446393600000,1.2214],[1446480000000,1.2116],[1446566400000,1.2659],[1446652800000,1.2652],[1446739200000,1.2797],[1446998400000,1.2891],[1447084800000,1.2764],[1447171200000,1.2928],[1447257600000,1.2992],[1447344000000,1.2709],[1447603200000,1.2877],[1447689600000,1.2869],[1447776000000,1.2687],[1447862400000,1.2869],[1447948800000,1.2862],[1448208000000,1.2892],[1448294400000,1.2886],[1448380800000,1.3035],[1448467200000,1.2917],[1448553600000,1.2393],[1448812800000,1.2432],[1448899200000,1.2652],[1448985600000,1.2854],[1449072000000,1.2921],[1449158400000,1.2846],[1449417600000,1.3113],[1449504000000,1.293],[1449590400000,1.2887],[1449676800000,1.2945],[1449763200000,1.2865],[1450022400000,1.2971],[1450108800000,1.2952],[1450195200000,1.2892],[1450281600000,1.3128],[1450368000000,1.3152],[1450627200000,1.3694],[1450713600000,1.3641],[1450800000000,1.3604],[1450886400000,1.3367],[1450972800000,1.3375],[1451232000000,1.3188],[1451318400000,1.3286],[1451404800000,1.3277],[1451491200000,1.3247],[1451836800000,1.2276],[1451923200000,1.2212],[1452009600000,1.2367],[1452096000000,1.1459],[1452182400000,1.1752],[1452441600000,1.1173],[1452528000000,1.1328],[1452614400000,1.1037],[1452700800000,1.1308],[1452787200000,1.1005],[1453046400000,1.1106],[1453132800000,1.1452],[1453219200000,1.125],[1453305600000,1.0935],[1453392000000,1.098],[1453651200000,1.1142],[1453737600000,1.0661],[1453824000000,1.067],[1453910400000,1.047],[1453996800000,1.0765],[1454256000000,1.0681],[1454342400000,1.0891],[1454428800000,1.0892],[1454515200000,1.1013],[1454601600000,1.0998],[1455465600000,1.1003],[1455552000000,1.1276],[1455638400000,1.1258],[1455724800000,1.1193],[1455811200000,1.1238],[1456070400000,1.138],[1456156800000,1.1293],[1456243200000,1.1343],[1456329600000,1.0715],[1456416000000,1.0838],[1456675200000,1.0502],[1456761600000,1.0616],[1456848000000,1.0972],[1456934400000,1.0998],[1457020800000,1.0954],[1457280000000,1.1027],[1457366400000,1.1067],[1457452800000,1.0987],[1457539200000,1.0801],[1457625600000,1.0792],[1457884800000,1.1019],[1457971200000,1.1055],[1458057600000,1.1092],[1458144000000,1.1253],[1458230400000,1.1364],[1458489600000,1.1514],[1458576000000,1.142],[1458662400000,1.1412],[1458748800000,1.1289],[1458835200000,1.1382],[1459094400000,1.14],[1459180800000,1.1222],[1459267200000,1.1522],[1459353600000,1.1468],[1459440000000,1.1435],[1459785600000,1.1603],[1459872000000,1.1609],[1459958400000,1.1495],[1460044800000,1.1395],[1460304000000,1.1537],[1460390400000,1.1493],[1460476800000,1.1563],[1460563200000,1.1629],[1460649600000,1.1612],[1460908800000,1.15],[1460995200000,1.1509],[1461081600000,1.1256],[1461168000000,1.1132],[1461254400000,1.1185],[1461513600000,1.1156],[1461600000000,1.1289],[1461686400000,1.1285],[1461772800000,1.1279],[1461859200000,1.1284],[1462204800000,1.1562],[1462291200000,1.1561],[1462377600000,1.1546],[1462464000000,1.1275],[1462723200000,1.1142],[1462809600000,1.1102],[1462896000000,1.1362],[1462982400000,1.1317],[1463068800000,1.1286],[1463328000000,1.1399],[1463414400000,1.1376],[1463500800000,1.1264],[1463587200000,1.121],[1463673600000,1.1252],[1463932800000,1.1268],[1464019200000,1.1213],[1464105600000,1.1132],[1464192000000,1.1166],[1464278400000,1.113],[1464537600000,1.1064],[1464624000000,1.1377],[1464710400000,1.1354],[1464796800000,1.1369],[1464883200000,1.1519],[1465142400000,1.1515],[1465228800000,1.1535],[1465315200000,1.1493],[1465747200000,1.1171],[1465833600000,1.1211],[1465920000000,1.1361],[1466006400000,1.1284],[1466092800000,1.1405],[1466352000000,1.1429],[1466438400000,1.1375],[1466524800000,1.1519],[1466611200000,1.1497],[1466697600000,1.14],[1466956800000,1.158],[1467043200000,1.18],[1467129600000,1.1771],[1467216000000,1.178],[1467302400000,1.1727],[1467561600000,1.1866],[1467648000000,1.1854],[1467734400000,1.2041],[1467820800000,1.2142],[1467907200000,1.2076],[1468166400000,1.2247],[1468252800000,1.2571],[1468339200000,1.2519],[1468425600000,1.2511],[1468512000000,1.2596],[1468771200000,1.2547],[1468857600000,1.2469],[1468944000000,1.2481],[1469030400000,1.2529],[1469116800000,1.2422],[1469376000000,1.2523],[1469462400000,1.2643],[1469548800000,1.2515],[1469635200000,1.2672],[1469721600000,1.2713],[1469980800000,1.2507],[1470067200000,1.2603],[1470153600000,1.2613],[1470240000000,1.2569],[1470326400000,1.2598],[1470585600000,1.2717],[1470672000000,1.2802],[1470758400000,1.2803],[1470844800000,1.273],[1470931200000,1.2832],[1471190400000,1.2996],[1471276800000,1.2944],[1471363200000,1.2978],[1471449600000,1.2884],[1471536000000,1.288],[1471795200000,1.2886],[1471881600000,1.2974],[1471968000000,1.2971],[1472054400000,1.2893],[1472140800000,1.2932],[1472400000000,1.303],[1472486400000,1.2974],[1472572800000,1.3004],[1472659200000,1.2971],[1472745600000,1.3],[1473004800000,1.2993],[1473091200000,1.3044],[1473177600000,1.2991],[1473264000000,1.3041],[1473350400000,1.2962],[1473609600000,1.2796],[1473696000000,1.2778],[1473782400000,1.2716],[1474214400000,1.2818],[1474300800000,1.286],[1474387200000,1.2902],[1474473600000,1.2945],[1474560000000,1.2997],[1474819200000,1.2785],[1474905600000,1.2833],[1474992000000,1.2828],[1475078400000,1.2904],[1475164800000,1.2937],[1476028800000,1.3157],[1476115200000,1.3201],[1476201600000,1.319],[1476288000000,1.318],[1476374400000,1.3192],[1476633600000,1.3163],[1476720000000,1.3248],[1476806400000,1.3224],[1476892800000,1.3101],[1476979200000,1.3074],[1477238400000,1.3155],[1477324800000,1.3167],[1477411200000,1.3222],[1477497600000,1.318],[1477584000000,1.3122],[1477843200000,1.3098],[1477929600000,1.3211],[1478016000000,1.3167],[1478102400000,1.3249],[1478188800000,1.3214],[1478448000000,1.314],[1478534400000,1.3252],[1478620800000,1.3186],[1478707200000,1.3251],[1478793600000,1.3216],[1479052800000,1.3155],[1479139200000,1.317],[1479225600000,1.3193],[1479312000000,1.3231],[1479398400000,1.315],[1479657600000,1.3157],[1479744000000,1.327],[1479830400000,1.3238],[1479916800000,1.3409],[1480003200000,1.3453],[1480262400000,1.3469],[1480348800000,1.3495],[1480435200000,1.3525],[1480521600000,1.3489],[1480608000000,1.3414],[1480867200000,1.3271],[1480953600000,1.329],[1481040000000,1.3334],[1481126400000,1.3267],[1481212800000,1.3259],[1481472000000,1.3046],[1481558400000,1.3046],[1481644800000,1.2947],[1481731200000,1.2866],[1481817600000,1.2952],[1482076800000,1.2976],[1482163200000,1.2908],[1482249600000,1.2976],[1482336000000,1.2952],[1482422400000,1.2881],[1482681600000,1.2976],[1482768000000,1.2976],[1482854400000,1.2951],[1482940800000,1.2931],[1483027200000,1.3193],[1483113600000,1.3192],[1483372800000,1.3219],[1483459200000,1.3264],[1483545600000,1.3182],[1483632000000,1.3064],[1483891200000,1.3107],[1483977600000,1.3095],[1484064000000,1.3],[1484150400000,1.2886],[1484236800000,1.2866],[1484496000000,1.2919],[1484582400000,1.2982],[1484668800000,1.3024],[1484755200000,1.3042],[1484841600000,1.3151],[1485100800000,1.3146],[1485187200000,1.3111],[1485273600000,1.3257],[1485360000000,1.3313],[1486051200000,1.3366],[1486310400000,1.333],[1486396800000,1.3285],[1486483200000,1.3283],[1486569600000,1.3252],[1486656000000,1.324],[1486915200000,1.3324],[1487001600000,1.3322],[1487088000000,1.3201],[1487174400000,1.3305],[1487260800000,1.3236],[1487520000000,1.3391],[1487606400000,1.3459],[1487692800000,1.3478],[1487779200000,1.3574],[1487865600000,1.361],[1488124800000,1.352],[1488211200000,1.3487],[1488297600000,1.3476],[1488384000000,1.3428],[1488470400000,1.3411],[1488729600000,1.3437],[1488816000000,1.3513],[1488902400000,1.3492],[1488988800000,1.3397],[1489075200000,1.3498],[1489334400000,1.3587],[1489420800000,1.3622],[1489507200000,1.3717],[1489593600000,1.371],[1489680000000,1.3664],[1489939200000,1.3838],[1490025600000,1.409],[1490112000000,1.4327],[1490198400000,1.4326],[1490284800000,1.4305],[1490544000000,1.4193],[1490630400000,1.4222],[1490716800000,1.4186],[1490803200000,1.4099],[1490889600000,1.4268],[1491321600000,1.4287],[1491408000000,1.4326],[1491494400000,1.4314],[1491753600000,1.4143],[1491840000000,1.4021],[1491926400000,1.4042],[1492012800000,1.422],[1492099200000,1.4176],[1492358400000,1.4202],[1492444800000,1.4342],[1492531200000,1.4343],[1492617600000,1.473],[1492704000000,1.4683],[1492963200000,1.4582],[1493049600000,1.452],[1493136000000,1.4495],[1493222400000,1.4514],[1493308800000,1.4335],[1493654400000,1.426],[1493740800000,1.4261],[1493827200000,1.4258],[1493913600000,1.4263],[1494172800000,1.4217],[1494259200000,1.4092],[1494345600000,1.4175],[1494432000000,1.4266],[1494518400000,1.4395],[1494777600000,1.4576],[1494864000000,1.4777],[1494950400000,1.4595],[1495036800000,1.4682],[1495123200000,1.4753],[1495382400000,1.4858],[1495468800000,1.4963],[1495555200000,1.4892],[1495641600000,1.4829],[1495728000000,1.4751],[1496160000000,1.4875],[1496246400000,1.501],[1496332800000,1.4878],[1496592000000,1.4681],[1496678400000,1.4783],[1496764800000,1.501],[1496851200000,1.5303],[1496937600000,1.5299],[1497196800000,1.5442],[1497283200000,1.5474],[1497369600000,1.5279],[1497456000000,1.5225],[1497542400000,1.5214],[1497801600000,1.5235],[1497888000000,1.5079],[1497974400000,1.5356],[1498060800000,1.5185],[1498147200000,1.5408],[1498406400000,1.5588],[1498492800000,1.5576],[1498579200000,1.5377],[1498665600000,1.5448],[1498752000000,1.5514],[1499011200000,1.5398],[1499097600000,1.5236],[1499184000000,1.5305],[1499270400000,1.5141],[1499356800000,1.5043],[1499616000000,1.4992],[1499702400000,1.499],[1499788800000,1.4779],[1499875200000,1.4831],[1499961600000,1.4829],[1500220800000,1.465],[1500307200000,1.4591],[1500393600000,1.4715],[1500480000000,1.4798],[1500566400000,1.4742],[1500825600000,1.4723],[1500912000000,1.4667],[1500998400000,1.4487],[1501084800000,1.4554],[1501171200000,1.4582],[1501430400000,1.4653],[1501516800000,1.4629],[1501603200000,1.4488],[1501689600000,1.4419],[1501776000000,1.4365],[1502035200000,1.4505],[1502121600000,1.4549],[1502208000000,1.4859],[1502294400000,1.4826],[1502380800000,1.4792],[1502640000000,1.4999],[1502726400000,1.4908],[1502812800000,1.484],[1502899200000,1.4846],[1502985600000,1.4826],[1503244800000,1.4936],[1503331200000,1.49],[1503417600000,1.4872],[1503504000000,1.4778],[1503590400000,1.483],[1503849600000,1.4847],[1503936000000,1.48],[1504022400000,1.4805],[1504108800000,1.4744],[1504195200000,1.4789],[1504454400000,1.4931],[1504540800000,1.5005],[1504627200000,1.4919],[1504713600000,1.4915],[1504800000000,1.4954],[1505059200000,1.4848],[1505145600000,1.4829],[1505232000000,1.4862],[1505318400000,1.484],[1505404800000,1.4901],[1505664000000,1.4951],[1505750400000,1.4879],[1505836800000,1.4902],[1505923200000,1.4855],[1506009600000,1.4871],[1506268800000,1.5044],[1506355200000,1.4996],[1506441600000,1.499],[1506528000000,1.5162],[1506614400000,1.5194],[1507478400000,1.5394],[1507564800000,1.5478],[1507651200000,1.5667],[1507737600000,1.5718],[1507824000000,1.5684],[1508083200000,1.5675],[1508169600000,1.5716],[1508256000000,1.604],[1508342400000,1.6292],[1508428800000,1.6194],[1508688000000,1.6367],[1508774400000,1.6463],[1508860800000,1.662],[1508947200000,1.6435],[1509033600000,1.6509],[1509292800000,1.65],[1509379200000,1.6441],[1509465600000,1.6431],[1509552000000,1.6504],[1509638400000,1.6657],[1509897600000,1.7223],[1509984000000,1.7019],[1510070400000,1.6756],[1510156800000,1.6818],[1510243200000,1.6908],[1510502400000,1.6786],[1510588800000,1.6511],[1510675200000,1.6605],[1510761600000,1.6882],[1510848000000,1.6728],[1511107200000,1.6819],[1511193600000,1.6902],[1511280000000,1.677],[1511366400000,1.6099],[1511452800000,1.6121],[1511712000000,1.5927],[1511798400000,1.605],[1511884800000,1.5814],[1511971200000,1.572],[1512057600000,1.5835],[1512316800000,1.5961],[1512403200000,1.5984],[1512489600000,1.5927],[1512576000000,1.5813],[1512662400000,1.5952],[1512921600000,1.6358],[1513008000000,1.6197],[1513094400000,1.6308],[1513180800000,1.6287],[1513267200000,1.6077],[1513526400000,1.6112],[1513612800000,1.6275],[1513699200000,1.6351],[1513785600000,1.6553],[1513872000000,1.6574],[1514131200000,1.6627],[1514217600000,1.6528],[1514304000000,1.6206],[1514390400000,1.6341],[1514476800000,1.6457],[1514649600000,1.6474],[1514822400000,1.6478],[1514908800000,1.6481],[1514995200000,1.6627],[1515081600000,1.6622],[1515340800000,1.6736],[1515427200000,1.7135],[1515513600000,1.7093],[1515600000000,1.7025],[1515686400000,1.7132],[1515945600000,1.7024],[1516032000000,1.7232],[1516118400000,1.7083],[1516204800000,1.6978],[1516291200000,1.6969],[1516550400000,1.7266],[1516636800000,1.7272],[1516723200000,1.7375],[1516809600000,1.7155],[1516896000000,1.7203],[1517155200000,1.67],[1517241600000,1.6696],[1517328000000,1.6755],[1517414400000,1.6532],[1517500800000,1.6558],[1517760000000,1.6338],[1517846400000,1.579],[1517932800000,1.5585],[1518019200000,1.5786],[1518105600000,1.5362],[1518364800000,1.5847],[1518451200000,1.5958],[1518537600000,1.6138],[1519228800000,1.6328],[1519315200000,1.6336],[1519574400000,1.6583],[1519660800000,1.6416],[1519747200000,1.6355],[1519833600000,1.6571],[1519920000000,1.6494],[1520179200000,1.6668],[1520265600000,1.7026],[1520352000000,1.689],[1520438400000,1.7373],[1520524800000,1.7553],[1520784000000,1.7652],[1520870400000,1.7381],[1520956800000,1.7352],[1521043200000,1.7568],[1521129600000,1.7509],[1521388800000,1.8045],[1521475200000,1.844],[1521561600000,1.8313],[1521648000000,1.8127],[1521734400000,1.7884],[1521993600000,1.8364],[1522080000000,1.8449],[1522166400000,1.8074],[1522252800000,1.7851],[1522339200000,1.8394],[1522598400000,1.8153],[1522684800000,1.8182],[1522771200000,1.8158],[1523203200000,1.8192],[1523289600000,1.8388],[1523376000000,1.8298],[1523462400000,1.8438],[1523548800000,1.7965],[1523808000000,1.8071],[1523894400000,1.7626],[1523980800000,1.7693],[1524067200000,1.7854],[1524153600000,1.7858],[1524412800000,1.7784],[1524499200000,1.8003],[1524585600000,1.8397],[1524672000000,1.8057],[1524758400000,1.84],[1525190400000,1.8491],[1525276800000,1.8531],[1525363200000,1.8741],[1525622400000,1.9209],[1525708800000,1.9182],[1525795200000,1.9232],[1525881600000,1.9813],[1525968000000,1.9386],[1526227200000,1.9555],[1526313600000,2.0073],[1526400000000,2.0292],[1526486400000,2.0048],[1526572800000,2.0247],[1526832000000,2.0184],[1526918400000,2.0637],[1527004800000,2.0605],[1527091200000,2.0651],[1527177600000,2.0992],[1527436800000,2.1456],[1527523200000,2.0385],[1527609600000,2.0271],[1527696000000,2.0904],[1527782400000,2.0132],[1528041600000,2.0167],[1528128000000,2.0834],[1528214400000,2.1029],[1528300800000,2.069],[1528387200000,2.0561],[1528646400000,2.0028],[1528732800000,2.0365],[1528819200000,1.9997],[1528905600000,1.9795],[1528992000000,1.9529],[1529337600000,1.9146],[1529424000000,1.9702],[1529510400000,1.9571],[1529596800000,1.9729],[1529856000000,1.9819],[1529942400000,1.9689],[1530028800000,1.9107],[1530115200000,1.8814],[1530201600000,1.9454],[1530288000000,1.9454],[1530460800000,1.9381],[1530547200000,1.9068],[1530633600000,1.8685],[1530720000000,1.8371],[1530806400000,1.8568],[1531065600000,1.9197],[1531152000000,1.9314],[1531238400000,1.9277],[1531324800000,1.9699],[1531411200000,2.0048],[1531670400000,2.0199],[1531756800000,1.9836],[1531843200000,1.9866],[1531929600000,1.9517],[1532016000000,1.9587],[1532275200000,1.8796],[1532361600000,1.8989],[1532448000000,1.925],[1532534400000,1.9032],[1532620800000,1.8852],[1532880000000,1.8328],[1532966400000,1.8375],[1533052800000,1.807],[1533139200000,1.8089],[1533225600000,1.75],[1533484800000,1.6807],[1533571200000,1.7192],[1533657600000,1.6815],[1533744000000,1.7454],[1533830400000,1.7871],[1534089600000,1.7931],[1534176000000,1.7913],[1534262400000,1.7238],[1534348800000,1.7177],[1534435200000,1.6634],[1534694400000,1.6314],[1534780800000,1.7018],[1534867200000,1.6906],[1534953600000,1.7038],[1535040000000,1.7071],[1535299200000,1.7724],[1535385600000,1.7679],[1535472000000,1.7586],[1535558400000,1.7362],[1535644800000,1.6969],[1535904000000,1.692],[1535990400000,1.7007],[1536076800000,1.6831],[1536163200000,1.66],[1536249600000,1.6908],[1536508800000,1.6598],[1536595200000,1.669],[1536681600000,1.6219],[1536768000000,1.5923],[1536854400000,1.5819],[1537113600000,1.5435],[1537200000000,1.5772],[1537286400000,1.6034],[1537372800000,1.597],[1537459200000,1.634],[1537804800000,1.6356],[1537891200000,1.6651],[1537977600000,1.6765],[1538064000000,1.6951],[1538928000000,1.6174],[1539014400000,1.6166],[1539100800000,1.5977],[1539187200000,1.5421],[1539273600000,1.5636],[1539532800000,1.5542],[1539619200000,1.5268],[1539705600000,1.5124],[1539792000000,1.4541],[1539878400000,1.4755],[1540137600000,1.5503],[1540224000000,1.5108],[1540310400000,1.483],[1540396800000,1.4614],[1540483200000,1.4483],[1540742400000,1.4103],[1540828800000,1.4341],[1540915200000,1.4783],[1541001600000,1.4931],[1541088000000,1.5706],[1541347200000,1.5542],[1541433600000,1.5589],[1541520000000,1.5506],[1541606400000,1.5528],[1541692800000,1.5412],[1541952000000,1.5598],[1542038400000,1.5758],[1542124800000,1.5603],[1542211200000,1.5649],[1542297600000,1.5404],[1542556800000,1.5573],[1542643200000,1.536],[1542729600000,1.56],[1542816000000,1.5576],[1542902400000,1.5274],[1543161600000,1.5223],[1543248000000,1.5259],[1543334400000,1.5326],[1543420800000,1.5244],[1543507200000,1.5442],[1543766400000,1.5927],[1543852800000,1.6068],[1543939200000,1.6194],[1544025600000,1.5449],[1544112000000,1.4831],[1544371200000,1.4597],[1544457600000,1.4755],[1544544000000,1.4592],[1544630400000,1.4745],[1544716800000,1.4323],[1544976000000,1.4078],[1545062400000,1.395],[1545148800000,1.3502],[1545235200000,1.3332],[1545321600000,1.3025],[1545580800000,1.3352],[1545667200000,1.3376],[1545753600000,1.3306],[1545840000000,1.3191],[1545926400000,1.329],[1546185600000,1.3289],[1546358400000,1.2792],[1546444800000,1.2436],[1546531200000,1.2823],[1546790400000,1.2856],[1546876800000,1.2904],[1546963200000,1.3078],[1547049600000,1.3022],[1547136000000,1.2983],[1547395200000,1.27],[1547481600000,1.3093],[1547568000000,1.3297],[1547654400000,1.3246],[1547740800000,1.362],[1548000000000,1.3671],[1548086400000,1.3398],[1548172800000,1.3417],[1548259200000,1.3491],[1548345600000,1.3471],[1548604800000,1.3227],[1548691200000,1.3347],[1548777600000,1.3247],[1548864000000,1.3278],[1548950400000,1.3725],[1549814400000,1.4029],[1549900800000,1.4417],[1549987200000,1.4623],[1550073600000,1.4659],[1550160000000,1.442],[1550419200000,1.4988],[1550505600000,1.4783],[1550592000000,1.4611],[1550678400000,1.4558],[1550764800000,1.4731],[1551024000000,1.5225],[1551110400000,1.539],[1551196800000,1.5288],[1551283200000,1.5645],[1551369600000,1.5729],[1551628800000,1.5894],[1551715200000,1.5999],[1551801600000,1.5968],[1551888000000,1.5806],[1551974400000,1.5543],[1552233600000,1.6001],[1552320000000,1.6014],[1552406400000,1.5964],[1552492800000,1.586],[1552579200000,1.609],[1552838400000,1.6781],[1552924800000,1.654],[1553011200000,1.6487],[1553097600000,1.6488],[1553184000000,1.6688],[1553443200000,1.6308],[1553529600000,1.6073],[1553616000000,1.6582],[1553702400000,1.6659],[1553788800000,1.7074],[1554048000000,1.7421],[1554134400000,1.7278],[1554220800000,1.7322],[1554307200000,1.7382],[1554652800000,1.72],[1554739200000,1.751],[1554825600000,1.775],[1554912000000,1.7231],[1554998400000,1.7152],[1555257600000,1.6945],[1555344000000,1.7249],[1555430400000,1.7239],[1555516800000,1.7134],[1555603200000,1.7209],[1555862400000,1.6968],[1555948800000,1.697],[1556035200000,1.7034],[1556121600000,1.6892],[1556208000000,1.6574],[1556467200000,1.6914],[1556553600000,1.6932],[1557072000000,1.6038],[1557158400000,1.6343],[1557244800000,1.6139],[1557331200000,1.5677],[1557417600000,1.6102],[1557676800000,1.605],[1557763200000,1.5899],[1557849600000,1.6335],[1557936000000,1.6427],[1558022400000,1.6011],[1558281600000,1.5712],[1558368000000,1.5958],[1558454400000,1.5915],[1558540800000,1.554],[1558627200000,1.5526],[1558886400000,1.5687],[1558972800000,1.5907],[1559059200000,1.5782],[1559145600000,1.5678],[1559232000000,1.574],[1559491200000,1.5751],[1559577600000,1.5489],[1559664000000,1.4914],[1559750400000,1.4756],[1560096000000,1.4896],[1560182400000,1.5327],[1560268800000,1.5275],[1560355200000,1.5342],[1560441600000,1.5335],[1560700800000,1.5396],[1560787200000,1.5484],[1560873600000,1.5718],[1560960000000,1.6011],[1561046400000,1.608],[1561305600000,1.6135],[1561392000000,1.6113],[1561478400000,1.6273],[1561564800000,1.6411],[1561651200000,1.6351],[1561824000000,1.635],[1561910400000,1.6852],[1561996800000,1.7071],[1562083200000,1.6798],[1562169600000,1.6477],[1562256000000,1.6762],[1562515200000,1.6438],[1562601600000,1.6392],[1562688000000,1.6479],[1562774400000,1.6433],[1562860800000,1.6509],[1563120000000,1.6565],[1563206400000,1.6431],[1563292800000,1.6444],[1563379200000,1.6255],[1563465600000,1.6241],[1563724800000,1.6158],[1563811200000,1.6267],[1563897600000,1.6395],[1563984000000,1.6485],[1564070400000,1.6564],[1564329600000,1.6444],[1564416000000,1.6537],[1564502400000,1.6435],[1564588800000,1.6296],[1564675200000,1.615],[1564934400000,1.5796],[1565020800000,1.5747],[1565107200000,1.5867],[1565193600000,1.6133],[1565280000000,1.6125],[1565539200000,1.6299],[1565625600000,1.6266]</t>
   </si>
   <si>
+    <t>[[1377187200000, 0.0], [1379865600000, 0.15], [1381420800000, 5.35], [1382544000000, 4.54], [1383667200000, -1.96], [1384790400000, 0.85], [1385913600000, -1.92], [1386864000000, 0.71], [1387987200000, -3.46], [1389196800000, -5.66], [1390320000000, -4.34], [1392048000000, -4.63], [1393171200000, -4.51], [1394121600000, -5.54], [1395244800000, -6.95], [1396368000000, -6.41], [1397577600000, -2.88], [1398700800000, -7.73], [1399996800000, -7.39], [1401120000000, -8.64], [1402329600000, -9.66], [1403452800000, -10.61], [1404403200000, -7.49], [1405526400000, -6.56], [1406649600000, -1.16], [1407772800000, 2.37], [1408896000000, 2.17], [1409846400000, 5.84], [1411056000000, 5.09], [1412784000000, 8.11], [1413907200000, 3.24], [1415030400000, 1.92], [1416153600000, 4.97], [1417104000000, 6.68], [1418227200000, 14.55], [1419350400000, 13.51], [1420646400000, 19.63], [1421769600000, 18.1], [1422892800000, 16.66], [1424016000000, 19.83], [1425571200000, 23.16], [1426694400000, 33.38], [1427817600000, 41.75], [1429027200000, 48.85], [1430150400000, 57.69], [1431360000000, 62.3], [1432483200000, 82.13], [1433433600000, 86.87], [1434556800000, 83.22], [1435766400000, 50.14], [1436889600000, 44.71], [1438012800000, 46.78], [1439136000000, 57.53], [1440086400000, 43.09], [1441555200000, 26.93], [1442505600000, 23.83], [1444233600000, 27.5], [1445356800000, 30.57], [1446480000000, 34.27], [1447603200000, 40.2], [1448553600000, 35.5], [1449676800000, 36.19], [1450800000000, 47.33], [1452009600000, 37.09], [1453132800000, 25.09], [1454256000000, 15.39], [1455811200000, 21.18], [1456934400000, 22.31], [1458057600000, 22.29], [1459180800000, 28.45], [1460390400000, 29.68], [1461513600000, 27.25], [1462723200000, 29.66], [1463673600000, 31.68], [1464796800000, 34.69], [1466092800000, 38.35], [1467216000000, 39.19], [1468339200000, 50.53], [1469462400000, 49.59], [1470585600000, 46.55], [1471536000000, 47.81], [1472659200000, 45.03], [1473782400000, 40.57], [1475078400000, 40.3], [1476806400000, 44.83], [1477929600000, 48.69], [1479052800000, 47.49], [1480003200000, 49.51], [1481126400000, 50.26], [1482249600000, 47.3], [1483372800000, 47.41], [1484496000000, 45.04], [1486051200000, 48.23], [1487174400000, 52.3], [1488297600000, 55.77], [1489420800000, 57.97], [1490544000000, 61.14], [1491840000000, 59.75], [1492963200000, 61.34], [1494172800000, 57.42], [1495123200000, 64.35], [1496592000000, 63.92], [1497542400000, 70.89], [1498665600000, 78.65], [1499788800000, 75.07], [1500912000000, 78.96], [1502035200000, 81.97], [1502985600000, 85.96], [1504108800000, 87.58], [1505232000000, 88.46], [1506355200000, 95.79], [1508083200000, 107.2], [1509033600000, 123.29], [1510156800000, 125.39], [1511280000000, 129.3], [1512403200000, 116.35], [1513526400000, 128.58], [1514476800000, 133.82], [1515600000000, 150.61], [1516723200000, 152.89], [1517846400000, 128.05], [1519574400000, 137.36], [1520524800000, 130.98], [1521648000000, 123.76], [1522771200000, 123.47], [1524067200000, 120.1], [1525363200000, 118.86], [1526486400000, 133.04], [1527609600000, 135.86], [1528732800000, 148.52], [1529942400000, 133.57], [1530806400000, 117.2], [1531929600000, 124.28], [1533052800000, 118.0], [1534176000000, 108.86], [1535299200000, 108.22], [1536249600000, 94.92], [1537372800000, 101.72], [1539187200000, 93.29], [1540310400000, 88.1], [1541433600000, 78.25], [1542556800000, 83.25], [1543507200000, 82.16], [1544630400000, 89.78], [1545753600000, 78.86], [1546963200000, 82.73], [1548086400000, 93.98], [1549814400000, 108.14], [1550764800000, 117.52], [1551888000000, 129.09], [1553011200000, 144.52], [1554134400000, 161.9], [1555344000000, 171.08], [1556467200000, 174.76], [1557849600000, 181.33], [1558972800000, 172.42], [1560182400000, 181.38], [1561305600000, 184.98], [1562169600000, 189.1], [1563292800000, 192.46], [1564416000000, 192.65], [1565539200000, 184.29], [1566489600000, 196.11], [1567612800000, 207.3], [1568822400000, 200.32], [1570550400000, 194.98], [1571673600000, 198.34], [1572796800000, 209.29], [1573747200000, 203.68], [1574870400000, 199.34], [1575993600000, 192.76], [1577116800000, 192.27], [1578326400000, 208.35], [1579449600000, 209.93], [1581264000000, 192.47], [1582214400000, 208.07], [1583337600000, 223.89], [1584460800000, 183.08], [1585584000000, 208.31], [1586793600000, 220.81], [1587916800000, 230.84], [1589299200000, 239.99], [1590422400000, 237.78], [1591545600000, 247.54], [1592496000000, 259.22], [1593964800000, 302.81], [1594915200000, 321.6], [1596038400000, 342.85], [1597161600000, 334.42], [1598284800000, 366.55], [1599408000000, 359.43], [1600358400000, 344.86], [1602172800000, 345.06], [1603296000000, 359.74], [1604419200000, 359.18], [1605542400000, 365.95], [1606665600000, 357.95], [1607616000000, 378.94], [1608739200000, 396.3], [1609948800000, 482.13], [1611072000000, 420.42], [1612195200000, 449.33], [1613923200000, 467.31], [1614873600000, 400.4], [1615996800000, 387.57], [1617120000000, 385.83], [1618329600000, 389.64], [1619452800000, 406.72], [1620835200000, 401.97], [1621958400000, 437.3], [1623081600000, 420.28], [1624291200000, 400.24], [1625414400000, 390.52], [1626364800000, 384.68], [1627488000000, 324.94], [1628438400000, 338.47]]</t>
+  </si>
+  <si>
     <t>159928</t>
   </si>
   <si>
@@ -116,6 +149,9 @@
     <t xml:space="preserve"> [[1377187200000,0.9991],[1377792000000,1.0004],[1378396800000,1.0009],[1378656000000,1.0007],[1379001600000,1.0105],[1379260800000,1.0051],[1379347200000,0.9856],[1379433600000,0.9841],[1379865600000,1.0006],[1379952000000,1.0128],[1380038400000,1.0105],[1380124800000,1.0099],[1380211200000,1.0066],[1380470400000,1.0208],[1381161600000,1.0309],[1381248000000,1.0419],[1381334400000,1.039],[1381420800000,1.0526],[1381680000000,1.0751],[1381766400000,1.0843],[1381852800000,1.0645],[1381939200000,1.063],[1382025600000,1.0667],[1382284800000,1.1037],[1382371200000,1.0938],[1382457600000,1.0556],[1382544000000,1.0445],[1382630400000,1.0183],[1382889600000,1.0106],[1382976000000,0.9992],[1383062400000,1.0117],[1383148800000,0.9852],[1383235200000,0.9793],[1383494400000,0.9808],[1383580800000,0.9886],[1383667200000,0.9795],[1383753600000,0.9671],[1383840000000,0.9547],[1384099200000,0.9676],[1384185600000,0.9822],[1384272000000,0.9669],[1384358400000,0.9806],[1384444800000,0.998],[1384704000000,1.0207],[1384790400000,1.0076],[1384876800000,1.0093],[1384963200000,1.0015],[1385049600000,0.9978],[1385308800000,0.9965],[1385395200000,0.9962],[1385481600000,1.002],[1385568000000,1.0163],[1385654400000,1.0169],[1385913600000,0.9799],[1386000000000,1.0011],[1386086400000,1.0186],[1386172800000,1.0171],[1386259200000,1.0159],[1386518400000,1.0214],[1386604800000,1.0195],[1386691200000,1.0107],[1386777600000,1.0087],[1386864000000,1.0062],[1387123200000,0.9867],[1387209600000,0.9817],[1387296000000,0.9811],[1387382400000,0.9709],[1387468800000,0.9667],[1387728000000,0.9657],[1387814400000,0.9681],[1387900800000,0.9769],[1387987200000,0.9645],[1388073600000,0.9767],[1388332800000,0.979],[1388419200000,0.9924],[1388592000000,0.9852],[1388678400000,0.9752],[1388937600000,0.947],[1389024000000,0.9484],[1389110400000,0.9528],[1389196800000,0.9426],[1389283200000,0.9394],[1389542400000,0.9387],[1389628800000,0.9504],[1389715200000,0.9497],[1389801600000,0.9545],[1389888000000,0.933],[1390147200000,0.9278],[1390233600000,0.9301],[1390320000000,0.9557],[1390406400000,0.9545],[1390492800000,0.9587],[1390752000000,0.9507],[1390838400000,0.939],[1390924800000,0.9295],[1391011200000,0.9127],[1391702400000,0.925],[1391961600000,0.9472],[1392048000000,0.9528],[1392134400000,0.9585],[1392220800000,0.9509],[1392307200000,0.97],[1392566400000,0.9833],[1392652800000,0.9722],[1392739200000,0.9777],[1392825600000,0.974],[1392912000000,0.9657],[1393171200000,0.954],[1393257600000,0.9201],[1393344000000,0.9191],[1393430400000,0.9091],[1393516800000,0.9266],[1393776000000,0.9435],[1393862400000,0.9356],[1393948800000,0.9413],[1394035200000,0.9385],[1394121600000,0.9437],[1394380800000,0.9234],[1394467200000,0.9396],[1394553600000,0.9358],[1394640000000,0.9636],[1394726400000,0.9534],[1394985600000,0.9587],[1395072000000,0.9654],[1395158400000,0.9515],[1395244800000,0.9297],[1395331200000,0.9468],[1395590400000,0.9489],[1395676800000,0.9438],[1395763200000,0.9381],[1395849600000,0.9234],[1395936000000,0.9111],[1396195200000,0.9162],[1396281600000,0.9333],[1396368000000,0.9351],[1396454400000,0.9303],[1396540800000,0.9393],[1396886400000,0.9563],[1396972800000,0.9598],[1397059200000,0.9695],[1397145600000,0.9808],[1397404800000,0.9822],[1397491200000,0.9729],[1397577600000,0.9703],[1397664000000,0.9711],[1397750400000,0.9742],[1398009600000,0.956],[1398096000000,0.9555],[1398182400000,0.9609],[1398268800000,0.958],[1398355200000,0.9311],[1398614400000,0.9087],[1398700800000,0.9219],[1398787200000,0.9299],[1399219200000,0.9334],[1399305600000,0.9357],[1399392000000,0.9238],[1399478400000,0.921],[1399564800000,0.916],[1399824000000,0.9305],[1399910400000,0.9333],[1399996800000,0.9253],[1400083200000,0.9126],[1400169600000,0.9115],[1400428800000,0.9005],[1400515200000,0.8955],[1400601600000,0.9085],[1400688000000,0.9034],[1400774400000,0.9105],[1401033600000,0.9171],[1401120000000,0.9128],[1401206400000,0.9161],[1401292800000,0.9108],[1401379200000,0.9122],[1401724800000,0.9001],[1401811200000,0.8939],[1401897600000,0.9038],[1401984000000,0.8974],[1402243200000,0.8959],[1402329600000,0.9026],[1402416000000,0.9067],[1402502400000,0.907],[1402588800000,0.9111],[1402848000000,0.9137],[1402934400000,0.9045],[1403020800000,0.8985],[1403107200000,0.8854],[1403193600000,0.8887],[1403452800000,0.8931],[1403539200000,0.9055],[1403625600000,0.9022],[1403712000000,0.9095],[1403798400000,0.9128],[1404057600000,0.9183],[1404144000000,0.9186],[1404230400000,0.9188],[1404316800000,0.9244],[1404403200000,0.9243],[1404662400000,0.9225],[1404748800000,0.9252],[1404835200000,0.9096],[1404921600000,0.9049],[1405008000000,0.9081],[1405267200000,0.9293],[1405353600000,0.9472],[1405440000000,0.9433],[1405526400000,0.9336],[1405612800000,0.9493],[1405872000000,0.9519],[1405958400000,0.9624],[1406044800000,0.9599],[1406131200000,0.9647],[1406217600000,0.9711],[1406476800000,0.9904],[1406563200000,0.988],[1406649600000,0.9875],[1406736000000,1.0043],[1406822400000,1.0087],[1407081600000,1.0233],[1407168000000,1.0231],[1407254400000,1.0188],[1407340800000,1.001],[1407427200000,1.0061],[1407686400000,1.0215],[1407772800000,1.0228],[1407859200000,1.0242],[1407945600000,1.014],[1408032000000,1.0243],[1408291200000,1.0283],[1408377600000,1.0295],[1408464000000,1.033],[1408550400000,1.0266],[1408636800000,1.0282],[1408896000000,1.0208],[1408982400000,1.0104],[1409068800000,1.0088],[1409155200000,1.0051],[1409241600000,1.0169],[1409500800000,1.0241],[1409587200000,1.0375],[1409673600000,1.0451],[1409760000000,1.0483],[1409846400000,1.0574],[1410192000000,1.0578],[1410278400000,1.058],[1410364800000,1.0486],[1410451200000,1.0514],[1410710400000,1.0531],[1410796800000,1.0265],[1410883200000,1.0342],[1410969600000,1.0422],[1411056000000,1.05],[1411315200000,1.0312],[1411401600000,1.0404],[1411488000000,1.0545],[1411574400000,1.051],[1411660800000,1.0556],[1411920000000,1.0615],[1412006400000,1.0644],[1412697600000,1.0795],[1412784000000,1.0801],[1412870400000,1.0686],[1413129600000,1.0543],[1413216000000,1.0509],[1413302400000,1.0557],[1413388800000,1.0438],[1413475200000,1.0466],[1413734400000,1.0521],[1413820800000,1.0444],[1413907200000,1.0315],[1413993600000,1.0165],[1414080000000,1.0166],[1414339200000,1.0177],[1414425600000,1.0267],[1414512000000,1.0328],[1414598400000,1.0322],[1414684800000,1.0336],[1414944000000,1.0329],[1415030400000,1.0183],[1415116800000,1.0125],[1415203200000,1.0158],[1415289600000,1.0074],[1415548800000,1.0327],[1415635200000,1.0244],[1415721600000,1.0373],[1415808000000,1.0359],[1415894400000,1.0477],[1416153600000,1.0488],[1416240000000,1.0399],[1416326400000,1.0378],[1416412800000,1.0308],[1416499200000,1.0394],[1416758400000,1.0465],[1416844800000,1.0592],[1416931200000,1.0649],[1417017600000,1.0673],[1417104000000,1.0658],[1417363200000,1.0861],[1417449600000,1.0954],[1417536000000,1.1157],[1417622400000,1.1406],[1417708800000,1.1111],[1417968000000,1.1224],[1418054400000,1.1022],[1418140800000,1.1456],[1418227200000,1.1445],[1418313600000,1.1502],[1418572800000,1.1649],[1418659200000,1.1523],[1418745600000,1.1323],[1418832000000,1.1372],[1418918400000,1.134],[1419177600000,1.1414],[1419264000000,1.1375],[1419350400000,1.1341],[1419436800000,1.144],[1419523200000,1.1513],[1419782400000,1.15],[1419868800000,1.1394],[1419955200000,1.1506],[1420387200000,1.1984],[1420473600000,1.2074],[1420560000000,1.1958],[1420646400000,1.1952],[1420732800000,1.1812],[1420992000000,1.1718],[1421078400000,1.1729],[1421164800000,1.1577],[1421251200000,1.1685],[1421337600000,1.1787],[1421596800000,1.123],[1421683200000,1.1512],[1421769600000,1.1799],[1421856000000,1.1847],[1421942400000,1.1751],[1422201600000,1.1976],[1422288000000,1.1961],[1422374400000,1.184],[1422460800000,1.1707],[1422547200000,1.1687],[1422806400000,1.1536],[1422892800000,1.1655],[1422979200000,1.1565],[1423065600000,1.1444],[1423152000000,1.1309],[1423411200000,1.1436],[1423497600000,1.1529],[1423584000000,1.166],[1423670400000,1.1757],[1423756800000,1.1862],[1424016000000,1.1972],[1424102400000,1.1963],[1424793600000,1.1917],[1424880000000,1.2074],[1424966400000,1.2154],[1425225600000,1.224],[1425312000000,1.2064],[1425398400000,1.2335],[1425484800000,1.2379],[1425571200000,1.2305],[1425830400000,1.2566],[1425916800000,1.2622],[1426003200000,1.2582],[1426089600000,1.2589],[1426176000000,1.2693],[1426435200000,1.3032],[1426521600000,1.3174],[1426608000000,1.3398],[1426694400000,1.3326],[1426780800000,1.3372],[1427040000000,1.362],[1427126400000,1.3625],[1427212800000,1.3748],[1427299200000,1.3893],[1427385600000,1.3887],[1427644800000,1.4023],[1427731200000,1.395],[1427817600000,1.4162],[1427904000000,1.4311],[1427990400000,1.4454],[1428336000000,1.4838],[1428422400000,1.4838],[1428508800000,1.468],[1428595200000,1.515],[1428854400000,1.5355],[1428940800000,1.538],[1429027200000,1.4872],[1429113600000,1.5477],[1429200000000,1.5534],[1429459200000,1.5328],[1429545600000,1.6073],[1429632000000,1.6364],[1429718400000,1.6308],[1429804800000,1.6236],[1430064000000,1.633],[1430150400000,1.5755],[1430236800000,1.6016],[1430323200000,1.5934],[1430668800000,1.6087],[1430755200000,1.549],[1430841600000,1.5278],[1430928000000,1.5139],[1431014400000,1.5532],[1431273600000,1.5946],[1431360000000,1.6215],[1431446400000,1.6416],[1431532800000,1.6302],[1431619200000,1.6078],[1431878400000,1.6074],[1431964800000,1.6471],[1432051200000,1.6591],[1432137600000,1.7201],[1432224000000,1.7581],[1432483200000,1.8197],[1432569600000,1.8557],[1432656000000,1.8689],[1432742400000,1.75],[1432828800000,1.7447],[1433088000000,1.8303],[1433174400000,1.8798],[1433260800000,1.861],[1433347200000,1.8382],[1433433600000,1.867],[1433692800000,1.8928],[1433779200000,1.8822],[1433865600000,1.9151],[1433952000000,1.9338],[1434038400000,1.9679],[1434297600000,1.9354],[1434384000000,1.8829],[1434470400000,1.9045],[1434556800000,1.8306],[1434643200000,1.7008],[1434988800000,1.7644],[1435075200000,1.8191],[1435161600000,1.7629],[1435248000000,1.6235],[1435507200000,1.5714],[1435593600000,1.6568],[1435680000000,1.585],[1435766400000,1.5],[1435852800000,1.4169],[1436112000000,1.4411],[1436198400000,1.3651],[1436284800000,1.2886],[1436371200000,1.3789],[1436457600000,1.476],[1436716800000,1.5428],[1436803200000,1.5168],[1436889600000,1.4458],[1436976000000,1.4769],[1437062400000,1.5461],[1437321600000,1.55],[1437408000000,1.5641],[1437494400000,1.5779],[1437580800000,1.6103],[1437667200000,1.5784],[1437926400000,1.4518],[1438012800000,1.4665],[1438099200000,1.5182],[1438185600000,1.4781],[1438272000000,1.4776],[1438531200000,1.4767],[1438617600000,1.5285],[1438704000000,1.5033],[1438790400000,1.4852],[1438876800000,1.512],[1439136000000,1.5739],[1439222400000,1.5736],[1439308800000,1.5651],[1439395200000,1.5815],[1439481600000,1.5933],[1439740800000,1.6166],[1439827200000,1.5138],[1439913600000,1.5397],[1440000000000,1.4919],[1440086400000,1.4296],[1440345600000,1.3125],[1440432000000,1.2449],[1440518400000,1.2515],[1440604800000,1.3119],[1440691200000,1.358],[1440950400000,1.334],[1441036800000,1.304],[1441123200000,1.3001],[1441555200000,1.2682],[1441641600000,1.29],[1441728000000,1.3085],[1441814400000,1.2885],[1441900800000,1.2809],[1442160000000,1.2468],[1442246400000,1.2011],[1442332800000,1.2676],[1442419200000,1.2288],[1442505600000,1.2372],[1442764800000,1.2642],[1442851200000,1.2725],[1442937600000,1.252],[1443024000000,1.2588],[1443110400000,1.2361],[1443369600000,1.2431],[1443456000000,1.2294],[1443542400000,1.2308],[1444233600000,1.2739],[1444320000000,1.2813],[1444579200000,1.3164],[1444665600000,1.3245],[1444752000000,1.3085],[1444838400000,1.3416],[1444924800000,1.3597],[1445184000000,1.3543],[1445270400000,1.3628],[1445356800000,1.3045],[1445443200000,1.3415],[1445529600000,1.3683],[1445788800000,1.3763],[1445875200000,1.3707],[1445961600000,1.3471],[1446048000000,1.3609],[1446134400000,1.3623],[1446393600000,1.3433],[1446480000000,1.3415],[1446566400000,1.3941],[1446652800000,1.3983],[1446739200000,1.4136],[1446998400000,1.4323],[1447084800000,1.4248],[1447171200000,1.4289],[1447257600000,1.4233],[1447344000000,1.3926],[1447603200000,1.4007],[1447689600000,1.4016],[1447776000000,1.3952],[1447862400000,1.4087],[1447948800000,1.4071],[1448208000000,1.4008],[1448294400000,1.4017],[1448380800000,1.4206],[1448467200000,1.4174],[1448553600000,1.3538],[1448812800000,1.3546],[1448899200000,1.3654],[1448985600000,1.3922],[1449072000000,1.3994],[1449158400000,1.3916],[1449417600000,1.3988],[1449504000000,1.3634],[1449590400000,1.3658],[1449676800000,1.3607],[1449763200000,1.3484],[1450022400000,1.3689],[1450108800000,1.3739],[1450195200000,1.3685],[1450281600000,1.3938],[1450368000000,1.4141],[1450627200000,1.4776],[1450713600000,1.485],[1450800000000,1.472],[1450886400000,1.4609],[1450972800000,1.4596],[1451232000000,1.4233],[1451318400000,1.4389],[1451404800000,1.4421],[1451491200000,1.4334],[1451836800000,1.3339],[1451923200000,1.3496],[1452009600000,1.3697],[1452096000000,1.2768],[1452182400000,1.3049],[1452441600000,1.2399],[1452528000000,1.239],[1452614400000,1.2157],[1452700800000,1.2417],[1452787200000,1.2044],[1453046400000,1.2098],[1453132800000,1.2498],[1453219200000,1.2244],[1453305600000,1.1955],[1453392000000,1.2048],[1453651200000,1.2173],[1453737600000,1.1547],[1453824000000,1.1513],[1453910400000,1.1254],[1453996800000,1.1597],[1454256000000,1.1529],[1454342400000,1.1776],[1454428800000,1.1744],[1454515200000,1.187],[1454601600000,1.1801],[1455465600000,1.1701],[1455552000000,1.2063],[1455638400000,1.2134],[1455724800000,1.2071],[1455811200000,1.2107],[1456070400000,1.2329],[1456156800000,1.2327],[1456243200000,1.2414],[1456329600000,1.1645],[1456416000000,1.1811],[1456675200000,1.1515],[1456761600000,1.1718],[1456848000000,1.2112],[1456934400000,1.222],[1457020800000,1.2367],[1457280000000,1.2434],[1457366400000,1.2338],[1457452800000,1.2144],[1457539200000,1.2156],[1457625600000,1.2105],[1457884800000,1.2242],[1457971200000,1.2332],[1458057600000,1.2218],[1458144000000,1.2377],[1458230400000,1.2563],[1458489600000,1.2796],[1458576000000,1.2815],[1458662400000,1.2845],[1458748800000,1.2804],[1458835200000,1.2923],[1459094400000,1.3046],[1459180800000,1.2833],[1459267200000,1.3109],[1459353600000,1.3122],[1459440000000,1.3018],[1459785600000,1.3196],[1459872000000,1.3311],[1459958400000,1.3071],[1460044800000,1.2914],[1460304000000,1.3047],[1460390400000,1.2956],[1460476800000,1.3042],[1460563200000,1.3146],[1460649600000,1.313],[1460908800000,1.2972],[1460995200000,1.2982],[1461081600000,1.2621],[1461168000000,1.2594],[1461254400000,1.2737],[1461513600000,1.2714],[1461600000000,1.2813],[1461686400000,1.2837],[1461772800000,1.2816],[1461859200000,1.2993],[1462204800000,1.351],[1462291200000,1.3445],[1462377600000,1.3506],[1462464000000,1.3092],[1462723200000,1.2954],[1462809600000,1.3127],[1462896000000,1.3458],[1462982400000,1.3381],[1463068800000,1.3272],[1463328000000,1.3486],[1463414400000,1.333],[1463500800000,1.3091],[1463587200000,1.3054],[1463673600000,1.3156],[1463932800000,1.328],[1464019200000,1.3129],[1464105600000,1.301],[1464192000000,1.2975],[1464278400000,1.2961],[1464537600000,1.2928],[1464624000000,1.3357],[1464710400000,1.3385],[1464796800000,1.3457],[1464883200000,1.3809],[1465142400000,1.3725],[1465228800000,1.3778],[1465315200000,1.3616],[1465747200000,1.3265],[1465833600000,1.3446],[1465920000000,1.3699],[1466006400000,1.3616],[1466092800000,1.3823],[1466352000000,1.3772],[1466438400000,1.3626],[1466524800000,1.3742],[1466611200000,1.3633],[1466697600000,1.3441],[1466956800000,1.3788],[1467043200000,1.3838],[1467129600000,1.3824],[1467216000000,1.3906],[1467302400000,1.3909],[1467561600000,1.4092],[1467648000000,1.4158],[1467734400000,1.4615],[1467820800000,1.4654],[1467907200000,1.457],[1468166400000,1.48],[1468252800000,1.5171],[1468339200000,1.5039],[1468425600000,1.5017],[1468512000000,1.5024],[1468771200000,1.4942],[1468857600000,1.4724],[1468944000000,1.4731],[1469030400000,1.4821],[1469116800000,1.4561],[1469376000000,1.4633],[1469462400000,1.4946],[1469548800000,1.461],[1469635200000,1.4805],[1469721600000,1.4778],[1469980800000,1.4506],[1470067200000,1.4515],[1470153600000,1.4573],[1470240000000,1.4555],[1470326400000,1.4538],[1470585600000,1.4642],[1470672000000,1.4806],[1470758400000,1.4674],[1470844800000,1.462],[1470931200000,1.4721],[1471190400000,1.4968],[1471276800000,1.4908],[1471363200000,1.4916],[1471449600000,1.4806],[1471536000000,1.4768],[1471795200000,1.4764],[1471881600000,1.4771],[1471968000000,1.4717],[1472054400000,1.4629],[1472140800000,1.4621],[1472400000000,1.4559],[1472486400000,1.4553],[1472572800000,1.4603],[1472659200000,1.449],[1472745600000,1.4426],[1473004800000,1.4463],[1473091200000,1.4605],[1473177600000,1.4519],[1473264000000,1.4504],[1473350400000,1.4402],[1473609600000,1.4044],[1473696000000,1.4073],[1473782400000,1.4044],[1474214400000,1.4152],[1474300800000,1.4144],[1474387200000,1.4129],[1474473600000,1.424],[1474560000000,1.4221],[1474819200000,1.3921],[1474905600000,1.3998],[1474992000000,1.3958],[1475078400000,1.4017],[1475164800000,1.4139],[1476028800000,1.4364],[1476115200000,1.4412],[1476201600000,1.4383],[1476288000000,1.4351],[1476374400000,1.4379],[1476633600000,1.4294],[1476720000000,1.4489],[1476806400000,1.447],[1476892800000,1.4432],[1476979200000,1.4377],[1477238400000,1.4558],[1477324800000,1.4687],[1477411200000,1.4859],[1477497600000,1.4793],[1477584000000,1.4733],[1477843200000,1.4749],[1477929600000,1.4856],[1478016000000,1.474],[1478102400000,1.4773],[1478188800000,1.4716],[1478448000000,1.4699],[1478534400000,1.4809],[1478620800000,1.4687],[1478707200000,1.4833],[1478793600000,1.4817],[1479052800000,1.4736],[1479139200000,1.4856],[1479225600000,1.4806],[1479312000000,1.479],[1479398400000,1.4725],[1479657600000,1.4684],[1479744000000,1.4702],[1479830400000,1.4761],[1479916800000,1.4916],[1480003200000,1.4938],[1480262400000,1.4928],[1480348800000,1.5194],[1480435200000,1.502],[1480521600000,1.5091],[1480608000000,1.4889],[1480867200000,1.4707],[1480953600000,1.481],[1481040000000,1.4976],[1481126400000,1.5012],[1481212800000,1.5001],[1481472000000,1.4599],[1481558400000,1.4832],[1481644800000,1.4713],[1481731200000,1.4645],[1481817600000,1.469],[1482076800000,1.4757],[1482163200000,1.4634],[1482249600000,1.4717],[1482336000000,1.4664],[1482422400000,1.4475],[1482681600000,1.4555],[1482768000000,1.4541],[1482854400000,1.4452],[1482940800000,1.4486],[1483027200000,1.4644],[1483113600000,1.4644],[1483372800000,1.4728],[1483459200000,1.5036],[1483545600000,1.4994],[1483632000000,1.497],[1483891200000,1.4968],[1483977600000,1.4972],[1484064000000,1.4804],[1484150400000,1.4698],[1484236800000,1.4586],[1484496000000,1.4491],[1484582400000,1.4654],[1484668800000,1.4803],[1484755200000,1.4752],[1484841600000,1.4852],[1485100800000,1.4888],[1485187200000,1.4896],[1485273600000,1.489],[1485360000000,1.4862],[1486051200000,1.481],[1486310400000,1.4871],[1486396800000,1.4838],[1486483200000,1.4903],[1486569600000,1.5001],[1486656000000,1.5051],[1486915200000,1.5306],[1487001600000,1.5292],[1487088000000,1.5178],[1487174400000,1.5216],[1487260800000,1.5243],[1487520000000,1.5645],[1487606400000,1.5708],[1487692800000,1.5889],[1487779200000,1.5746],[1487865600000,1.5736],[1488124800000,1.5513],[1488211200000,1.5499],[1488297600000,1.5563],[1488384000000,1.5518],[1488470400000,1.5514],[1488729600000,1.5597],[1488816000000,1.5817],[1488902400000,1.5758],[1488988800000,1.567],[1489075200000,1.5691],[1489334400000,1.5863],[1489420800000,1.5783],[1489507200000,1.5825],[1489593600000,1.5809],[1489680000000,1.577],[1489939200000,1.5918],[1490025600000,1.6266],[1490112000000,1.6309],[1490198400000,1.6267],[1490284800000,1.6298],[1490544000000,1.61],[1490630400000,1.6056],[1490716800000,1.6095],[1490803200000,1.5995],[1490889600000,1.6053],[1491321600000,1.6216],[1491408000000,1.6202],[1491494400000,1.6163],[1491753600000,1.5994],[1491840000000,1.5961],[1491926400000,1.6059],[1492012800000,1.6214],[1492099200000,1.6042],[1492358400000,1.6093],[1492444800000,1.6268],[1492531200000,1.6194],[1492617600000,1.6537],[1492704000000,1.6367],[1492963200000,1.6119],[1493049600000,1.6477],[1493136000000,1.6447],[1493222400000,1.6483],[1493308800000,1.6152],[1493654400000,1.6067],[1493740800000,1.6096],[1493827200000,1.6066],[1493913600000,1.5994],[1494172800000,1.5728],[1494259200000,1.5777],[1494345600000,1.5668],[1494432000000,1.5767],[1494518400000,1.5832],[1494777600000,1.6015],[1494864000000,1.6367],[1494950400000,1.6221],[1495036800000,1.6231],[1495123200000,1.642],[1495382400000,1.6439],[1495468800000,1.6616],[1495555200000,1.6477],[1495641600000,1.6575],[1495728000000,1.6577],[1496160000000,1.6528],[1496246400000,1.6533],[1496332800000,1.6458],[1496592000000,1.6377],[1496678400000,1.6582],[1496764800000,1.6928],[1496851200000,1.7203],[1496937600000,1.7299],[1497196800000,1.7489],[1497283200000,1.7499],[1497369600000,1.7343],[1497456000000,1.7144],[1497542400000,1.7074],[1497801600000,1.7267],[1497888000000,1.7164],[1497974400000,1.7571],[1498060800000,1.7465],[1498147200000,1.7583],[1498406400000,1.7915],[1498492800000,1.7982],[1498579200000,1.7739],[1498665600000,1.7849],[1498752000000,1.793],[1499011200000,1.7736],[1499097600000,1.7467],[1499184000000,1.7646],[1499270400000,1.755],[1499356800000,1.7377],[1499616000000,1.7518],[1499702400000,1.7664],[1499788800000,1.7491],[1499875200000,1.7454],[1499961600000,1.7518],[1500220800000,1.7105],[1500307200000,1.7175],[1500393600000,1.7402],[1500480000000,1.7612],[1500566400000,1.7734],[1500825600000,1.7961],[1500912000000,1.788],[1500998400000,1.7609],[1501084800000,1.7664],[1501171200000,1.7999],[1501430400000,1.81],[1501516800000,1.8144],[1501603200000,1.8061],[1501689600000,1.7944],[1501776000000,1.7763],[1502035200000,1.8181],[1502121600000,1.8311],[1502208000000,1.8763],[1502294400000,1.8751],[1502380800000,1.835],[1502640000000,1.8697],[1502726400000,1.8732],[1502812800000,1.8643],[1502899200000,1.8568],[1502985600000,1.8579],[1503244800000,1.8625],[1503331200000,1.8508],[1503417600000,1.8561],[1503504000000,1.8391],[1503590400000,1.8521],[1503849600000,1.8626],[1503936000000,1.8622],[1504022400000,1.8727],[1504108800000,1.8741],[1504195200000,1.8794],[1504454400000,1.8691],[1504540800000,1.8779],[1504627200000,1.8668],[1504713600000,1.8477],[1504800000000,1.8367],[1505059200000,1.8427],[1505145600000,1.8557],[1505232000000,1.8829],[1505318400000,1.8829],[1505404800000,1.8949],[1505664000000,1.9255],[1505750400000,1.9216],[1505836800000,1.9393],[1505923200000,1.9362],[1506009600000,1.9381],[1506268800000,1.9583],[1506355200000,1.9561],[1506441600000,1.9519],[1506528000000,1.984],[1506614400000,2.0],[1507478400000,2.0233],[1507564800000,2.0448],[1507651200000,2.0887],[1507737600000,2.0821],[1507824000000,2.0858],[1508083200000,2.0701],[1508169600000,2.0731],[1508256000000,2.1099],[1508342400000,2.148],[1508428800000,2.1265],[1508688000000,2.1386],[1508774400000,2.1446],[1508860800000,2.1444],[1508947200000,2.1798],[1509033600000,2.2309],[1509292800000,2.1993],[1509379200000,2.186],[1509465600000,2.1771],[1509552000000,2.1888],[1509638400000,2.2049],[1509897600000,2.2665],[1509984000000,2.2595],[1510070400000,2.2429],[1510156800000,2.2519],[1510243200000,2.315],[1510502400000,2.3085],[1510588800000,2.2583],[1510675200000,2.2796],[1510761600000,2.3435],[1510848000000,2.307],[1511107200000,2.2953],[1511193600000,2.3415],[1511280000000,2.2909],[1511366400000,2.2001],[1511452800000,2.1952],[1511712000000,2.1618],[1511798400000,2.189],[1511884800000,2.1425],[1511971200000,2.1199],[1512057600000,2.1206],[1512316800000,2.1682],[1512403200000,2.1616],[1512489600000,2.1501],[1512576000000,2.1137],[1512662400000,2.1577],[1512921600000,2.2306],[1513008000000,2.2209],[1513094400000,2.275],[1513180800000,2.2789],[1513267200000,2.2538],[1513526400000,2.2837],[1513612800000,2.3049],[1513699200000,2.3625],[1513785600000,2.3674],[1513872000000,2.3577],[1514131200000,2.3627],[1514217600000,2.3363],[1514304000000,2.2889],[1514390400000,2.3513],[1514476800000,2.3361],[1514649600000,2.336],[1514822400000,2.3457],[1514908800000,2.3666],[1514995200000,2.415],[1515081600000,2.4213],[1515340800000,2.4369],[1515427200000,2.4993],[1515513600000,2.5287],[1515600000000,2.5038],[1515686400000,2.5359],[1515945600000,2.5211],[1516032000000,2.5449],[1516118400000,2.4912],[1516204800000,2.4961],[1516291200000,2.4679],[1516550400000,2.5529],[1516636800000,2.5585],[1516723200000,2.5266],[1516809600000,2.506],[1516896000000,2.5211],[1517155200000,2.4349],[1517241600000,2.4278],[1517328000000,2.4649],[1517414400000,2.4199],[1517500800000,2.4133],[1517760000000,2.338],[1517846400000,2.2784],[1517932800000,2.2048],[1518019200000,2.2365],[1518105600000,2.1895],[1518364800000,2.2502],[1518451200000,2.2698],[1518537600000,2.2922],[1519228800000,2.3742],[1519315200000,2.3679],[1519574400000,2.3715],[1519660800000,2.3328],[1519747200000,2.2833],[1519833600000,2.3048],[1519920000000,2.2904],[1520179200000,2.2629],[1520265600000,2.2744],[1520352000000,2.2507],[1520438400000,2.2939],[1520524800000,2.3077],[1520784000000,2.3036],[1520870400000,2.2794],[1520956800000,2.2937],[1521043200000,2.3333],[1521129600000,2.3027],[1521388800000,2.3095],[1521475200000,2.2953],[1521561600000,2.2867],[1521648000000,2.2356],[1521734400000,2.1997],[1521993600000,2.1789],[1522080000000,2.1937],[1522166400000,2.1074],[1522252800000,2.1623],[1522339200000,2.1623],[1522598400000,2.1593],[1522684800000,2.1697],[1522771200000,2.2327],[1523203200000,2.2091],[1523289600000,2.2234],[1523376000000,2.2337],[1523462400000,2.2111],[1523548800000,2.1877],[1523808000000,2.1862],[1523894400000,2.1493],[1523980800000,2.1438],[1524067200000,2.199],[1524153600000,2.1727],[1524412800000,2.1701],[1524499200000,2.2272],[1524585600000,2.2317],[1524672000000,2.182],[1524758400000,2.1444],[1525190400000,2.1598],[1525276800000,2.1894],[1525363200000,2.1866],[1525622400000,2.2752],[1525708800000,2.2942],[1525795200000,2.2902],[1525881600000,2.3153],[1525968000000,2.2987],[1526227200000,2.3431],[1526313600000,2.3575],[1526400000000,2.3626],[1526486400000,2.3283],[1526572800000,2.3448],[1526832000000,2.3344],[1526918400000,2.353],[1527004800000,2.3067],[1527091200000,2.2815],[1527177600000,2.2954],[1527436800000,2.363],[1527523200000,2.3485],[1527609600000,2.3565],[1527696000000,2.4439],[1527782400000,2.3996],[1528041600000,2.4494],[1528128000000,2.4713],[1528214400000,2.4623],[1528300800000,2.4399],[1528387200000,2.4132],[1528646400000,2.3968],[1528732800000,2.483],[1528819200000,2.4514],[1528905600000,2.4174],[1528992000000,2.4],[1529337600000,2.3028],[1529424000000,2.3611],[1529510400000,2.3362],[1529596800000,2.346],[1529856000000,2.3525],[1529942400000,2.3336],[1530028800000,2.2405],[1530115200000,2.1903],[1530201600000,2.2549],[1530288000000,2.2548],[1530460800000,2.2157],[1530547200000,2.1713],[1530633600000,2.1503],[1530720000000,2.1388],[1530806400000,2.17],[1531065600000,2.2351],[1531152000000,2.2342],[1531238400000,2.2058],[1531324800000,2.261],[1531411200000,2.3036],[1531670400000,2.304],[1531756800000,2.2749],[1531843200000,2.255],[1531929600000,2.2408],[1532016000000,2.2504],[1532275200000,2.2311],[1532361600000,2.2851],[1532448000000,2.2754],[1532534400000,2.2474],[1532620800000,2.2597],[1532880000000,2.2206],[1532966400000,2.2215],[1533052800000,2.178],[1533139200000,2.1228],[1533225600000,2.0788],[1533484800000,2.0327],[1533571200000,2.0865],[1533657600000,2.0424],[1533744000000,2.1014],[1533830400000,2.1085],[1534089600000,2.0859],[1534176000000,2.0867],[1534262400000,2.0272],[1534348800000,1.9824],[1534435200000,1.948],[1534694400000,1.9657],[1534780800000,2.0368],[1534867200000,2.0194],[1534953600000,2.0311],[1535040000000,2.009],[1535299200000,2.0803],[1535385600000,2.0665],[1535472000000,2.0586],[1535558400000,2.041],[1535644800000,1.9951],[1535904000000,1.9908],[1535990400000,2.0099],[1536076800000,1.9734],[1536163200000,1.9286],[1536249600000,1.9474],[1536508800000,1.9294],[1536595200000,1.9368],[1536681600000,1.9032],[1536768000000,1.912],[1536854400000,1.9346],[1537113600000,1.9302],[1537200000000,1.9731],[1537286400000,2.0146],[1537372800000,2.0154],[1537459200000,2.0857],[1537804800000,2.07],[1537891200000,2.1273],[1537977600000,2.1253],[1538064000000,2.1465],[1538928000000,2.0381],[1539014400000,2.0512],[1539100800000,2.0073],[1539187200000,1.9312],[1539273600000,1.9824],[1539532800000,1.9469],[1539619200000,1.9372],[1539705600000,1.9209],[1539792000000,1.8795],[1539878400000,1.9485],[1540137600000,2.0397],[1540224000000,1.9322],[1540310400000,1.8793],[1540396800000,1.8451],[1540483200000,1.7994],[1540742400000,1.6641],[1540828800000,1.6535],[1540915200000,1.7078],[1541001600000,1.7356],[1541088000000,1.8312],[1541347200000,1.7952],[1541433600000,1.7809],[1541520000000,1.7845],[1541606400000,1.7864],[1541692800000,1.7759],[1541952000000,1.7837],[1542038400000,1.8257],[1542124800000,1.7951],[1542211200000,1.8077],[1542297600000,1.8135],[1542556800000,1.8309],[1542643200000,1.7931],[1542729600000,1.8133],[1542816000000,1.8096],[1542902400000,1.7718],[1543161600000,1.7626],[1543248000000,1.7584],[1543334400000,1.7887],[1543420800000,1.7836],[1543507200000,1.82],[1543766400000,1.8917],[1543852800000,1.895],[1543939200000,1.9044],[1544025600000,1.8529],[1544112000000,1.8543],[1544371200000,1.8338],[1544457600000,1.8483],[1544544000000,1.8629],[1544630400000,1.8961],[1544716800000,1.8644],[1544976000000,1.8485],[1545062400000,1.837],[1545148800000,1.8029],[1545235200000,1.8014],[1545321600000,1.7802],[1545580800000,1.8008],[1545667200000,1.7991],[1545753600000,1.787],[1545840000000,1.7848],[1545926400000,1.8174],[1546185600000,1.8173],[1546358400000,1.7998],[1546444800000,1.7642],[1546531200000,1.7918],[1546790400000,1.8113],[1546876800000,1.8033],[1546963200000,1.8257],[1547049600000,1.8231],[1547136000000,1.8497],[1547395200000,1.828],[1547481600000,1.9082],[1547568000000,1.9026],[1547654400000,1.8985],[1547740800000,1.9417],[1548000000000,1.9661],[1548086400000,1.9381],[1548172800000,1.9396],[1548259200000,1.9536],[1548345600000,1.9567],[1548604800000,1.9651],[1548691200000,1.9772],[1548777600000,1.9487],[1548864000000,1.9659],[1548950400000,1.9993],[1549814400000,2.0795],[1549900800000,2.0827],[1549987200000,2.1082],[1550073600000,2.1399],[1550160000000,2.1133],[1550419200000,2.1817],[1550505600000,2.163],[1550592000000,2.1571],[1550678400000,2.1551],[1550764800000,2.1732],[1551024000000,2.2417],[1551110400000,2.2145],[1551196800000,2.2228],[1551283200000,2.2429],[1551369600000,2.3149],[1551628800000,2.3496],[1551715200000,2.3574],[1551801600000,2.3405],[1551888000000,2.2888],[1551974400000,2.2482],[1552233600000,2.3175],[1552320000000,2.3261],[1552406400000,2.2958],[1552492800000,2.2969],[1552579200000,2.338],[1552838400000,2.4777],[1552924800000,2.4493],[1553011200000,2.443],[1553097600000,2.4297],[1553184000000,2.4454],[1553443200000,2.3832],[1553529600000,2.3926],[1553616000000,2.4499],[1553702400000,2.4806],[1553788800000,2.5924],[1554048000000,2.6456],[1554134400000,2.6166],[1554220800000,2.6176],[1554307200000,2.6707],[1554652800000,2.6838],[1554739200000,2.7456],[1554825600000,2.7825],[1554912000000,2.6806],[1554998400000,2.681],[1555257600000,2.6607],[1555344000000,2.7084],[1555430400000,2.7337],[1555516800000,2.738],[1555603200000,2.7439],[1555862400000,2.7372],[1555948800000,2.7597],[1556035200000,2.7641],[1556121600000,2.7265],[1556208000000,2.7165],[1556467200000,2.7451],[1556553600000,2.7743],[1557072000000,2.6128999999999998],[1557158400000,2.6755],[1557244800000,2.639],[1557331200000,2.5707],[1557417600000,2.6958],[1557676800000,2.7041],[1557763200000,2.6821],[1557849600000,2.8108],[1557936000000,2.8307],[1558022400000,2.7649],[1558281600000,2.6969],[1558368000000,2.7268],[1558454400000,2.7111],[1558540800000,2.6349],[1558627200000,2.6464],[1558886400000,2.6793],[1558972800000,2.7217],[1559059200000,2.7274],[1559145600000,2.7303],[1559232000000,2.7148],[1559491200000,2.7171],[1559577600000,2.6716],[1559664000000,2.6631],[1559750400000,2.6247],[1560096000000,2.6723],[1560182400000,2.8113],[1560268800000,2.775],[1560355200000,2.7653],[1560441600000,2.7397],[1560700800000,2.7118],[1560787200000,2.7378999999999998],[1560873600000,2.7548],[1560960000000,2.8353],[1561046400000,2.8215],[1561305600000,2.8472],[1561392000000,2.828],[1561478400000,2.821],[1561564800000,2.869],[1561651200000,2.8734],[1561824000000,2.8733],[1561910400000,2.9911],[1561996800000,3.0043],[1562083200000,2.9307],[1562169600000,2.8884],[1562256000000,2.9654],[1562515200000,2.9291],[1562601600000,2.9345],[1562688000000,2.9376],[1562774400000,2.9288],[1562860800000,2.9504],[1563120000000,2.9607],[1563206400000,2.9219</t>
   </si>
   <si>
+    <t>[[1432656000000, 0.0], [1433952000000, 4.8], [1434988800000, 2.1], [1435766400000, -5.2], [1436716800000, -4.9], [1437494400000, -9.9], [1438272000000, -14.3], [1439222400000, -9.5], [1440000000000, -15.1], [1440950400000, -25.9], [1441900800000, -26.7], [1442851200000, -26.7], [1444233600000, -26.3], [1445184000000, -22.6], [1445961600000, -21.0], [1446739200000, -14.6], [1447689600000, -15.9], [1448467200000, -17.0], [1449417600000, -17.1], [1450195200000, -18.15], [1450972800000, -12.15], [1452009600000, -15.5], [1452787200000, -26.4], [1453737600000, -27.72], [1454515200000, -26.19], [1456070400000, -25.89], [1456848000000, -24.87], [1457625600000, -22.94], [1458576000000, -19.48], [1459353600000, -16.32], [1460390400000, -17.54], [1461168000000, -19.78], [1462204800000, -8.89], [1462982400000, -10.62], [1463932800000, -11.53], [1464710400000, -10.92], [1465833600000, -7.06], [1466611200000, -3.59], [1467561600000, -0.74], [1468339200000, 6.99], [1469116800000, 0.89], [1470067200000, -0.85], [1470844800000, 1.6], [1471795200000, 0.89], [1472572800000, 0.27], [1473350400000, -2.68], [1474473600000, -4.2], [1476028800000, -2.88], [1476806400000, -1.15], [1477584000000, 2.51], [1478534400000, 2.21], [1479312000000, 1.09], [1480262400000, 2.31], [1481040000000, 2.62], [1481817600000, 2.06], [1482768000000, -0.02], [1483545600000, 4.98], [1484496000000, 1.54], [1485273600000, 4.25], [1486656000000, 6.12], [1487606400000, 14.66], [1488384000000, 14.45], [1489334400000, 19.04], [1490112000000, 23.83], [1490889600000, 19.87], [1492012800000, 19.87], [1492963200000, 21.12], [1493827200000, 19.87], [1494777600000, 20.91], [1495555200000, 24.76], [1496678400000, 24.87], [1497456000000, 30.07], [1498406400000, 36.22], [1499184000000, 31.53], [1499961600000, 32.26], [1500912000000, 38.2], [1501689600000, 42.68], [1502640000000, 50.07], [1503417600000, 45.38], [1504195200000, 47.36], [1505145600000, 46.53], [1505923200000, 52.47], [1507478400000, 58.41], [1508256000000, 64.17], [1509033600000, 73.82], [1509984000000, 80.04], [1510761600000, 85.64], [1511712000000, 64.32], [1512489600000, 65.73], [1513267200000, 73.03], [1514217600000, 76.78], [1514995200000, 84.44], [1515945600000, 95.54], [1516723200000, 93.97], [1517500800000, 80.53], [1518451200000, 71.0], [1519833600000, 72.4], [1520784000000, 72.72], [1521561600000, 72.56], [1522339200000, 61.46], [1523462400000, 69.12], [1524412800000, 64.74], [1525363200000, 73.34], [1526313600000, 90.85], [1527091200000, 83.34], [1528041600000, 101.48], [1528819200000, 107.42], [1529856000000, 101.79], [1530547200000, 84.44], [1531324800000, 91.71], [1532275200000, 86.75], [1533052800000, 84.97], [1533830400000, 72.89], [1534780800000, 65.87], [1535558400000, 66.53], [1536508800000, 57.44], [1537286400000, 65.78], [1538928000000, 65.39], [1539705600000, 53.02], [1540483200000, 39.74], [1541433600000, 34.78], [1542211200000, 35.95], [1543161600000, 33.12], [1543939200000, 46.96], [1544716800000, 43.44], [1545667200000, 36.42], [1546531200000, 33.15], [1547481600000, 45.25], [1548259200000, 47.96], [1549814400000, 59.07], [1550592000000, 66.7], [1551369600000, 80.24], [1552320000000, 76.65], [1553097600000, 96.78], [1554048000000, 116.58], [1554912000000, 114.37], [1555862400000, 118.69], [1557072000000, 104.41], [1557849600000, 123.84], [1558627200000, 110.65], [1559577600000, 103.87], [1560441600000, 111.16], [1561392000000, 128.52], [1562083200000, 144.15], [1562860800000, 146.3], [1563811200000, 133.1], [1564588800000, 129.08], [1565539200000, 130.63], [1566316800000, 141.08], [1567094400000, 157.0], [1568044800000, 152.69], [1568908800000, 154.76], [1570464000000, 150.56], [1571241600000, 148.57], [1572192000000, 145.75], [1572969600000, 147.87], [1573747200000, 151.86], [1574697600000, 148.64], [1575475200000, 141.71], [1576425600000, 143.35], [1577203200000, 141.26], [1578240000000, 146.63], [1579017600000, 161.81], [1580659200000, 123.58], [1581436800000, 135.81], [1582214400000, 144.66], [1583164800000, 136.34], [1583942400000, 135.76], [1584892800000, 104.94], [1585670400000, 122.09], [1586707200000, 133.99], [1587484800000, 139.8], [1588694400000, 147.31], [1589472000000, 157.12], [1590422400000, 165.09], [1591200000000, 177.58], [1592150400000, 176.39], [1592928000000, 192.25], [1594051200000, 240.7], [1594828800000, 241.79], [1595779200000, 238.96], [1596556800000, 251.07], [1597334400000, 249.78], [1598284800000, 278.76], [1599062400000, 300.25], [1600012800000, 287.29], [1600790400000, 265.41], [1602432000000, 289.97], [1603209600000, 300.97], [1603987200000, 309.96], [1604937600000, 346.16], [1605715200000, 344.16], [1606665600000, 333.5], [1607443200000, 362.82], [1608220800000, 403.33], [1609171200000, 421.11], [1610035200000, 480.76], [1610985600000, 417.96], [1611763200000, 431.75], [1612713600000, 473.12], [1614096000000, 415.41], [1614873600000, 375.68], [1615824000000, 351.55], [1616601600000, 361.39], [1617638400000, 408.08], [1618416000000, 388.25], [1619366400000, 423.01], [1620576000000, 402.84], [1621353600000, 444.44], [1622131200000, 493.14], [1623081600000, 484.86], [1623945600000, 471.03], [1624896000000, 459.22], [1625673600000, 451.16], [1626624000000, 468.22], [1627401600000, 390.91], [1628179200000, 367.81], [1628438400000, 372.79]]</t>
+  </si>
+  <si>
     <t>161725</t>
   </si>
   <si>
@@ -125,6 +161,9 @@
     <t xml:space="preserve"> [[1432656000000,1.0],[1432828800000,0.995],[1433347200000,0.997],[1433433600000,1.012],[1433692800000,1.038],[1433779200000,1.027],[1433865600000,1.043],[1433952000000,1.048],[1434038400000,1.075],[1434297600000,1.083],[1434384000000,1.049],[1434470400000,1.066],[1434556800000,1.025],[1434643200000,0.963],[1434988800000,1.021],[1435075200000,1.083],[1435161600000,1.061],[1435248000000,0.998],[1435507200000,1.023],[1435593600000,1.053],[1435680000000,1.015],[1435766400000,0.948],[1435852800000,0.886],[1436112000000,0.874],[1436198400000,0.825],[1436284800000,0.777],[1436371200000,0.849],[1436457600000,0.915],[1436716800000,0.951],[1436803200000,0.906],[1436889600000,0.855],[1436976000000,0.872],[1437062400000,0.909],[1437321600000,0.895],[1437408000000,0.902],[1437494400000,0.901],[1437580800000,0.923],[1437667200000,0.911],[1437926400000,0.827],[1438012800000,0.836],[1438099200000,0.86],[1438185600000,0.846],[1438272000000,0.857],[1438531200000,0.865],[1438617600000,0.892],[1438704000000,0.869],[1438790400000,0.858],[1438876800000,0.874],[1439136000000,0.907],[1439222400000,0.905],[1439308800000,0.893],[1439395200000,0.899],[1439481600000,0.904],[1439740800000,0.906],[1439827200000,0.847],[1439913600000,0.867],[1440000000000,0.849],[1440086400000,0.797],[1440345600000,0.724],[1440432000000,0.693],[1440518400000,0.699],[1440604800000,0.733],[1440691200000,0.754],[1440950400000,0.741],[1441036800000,0.723],[1441123200000,0.727],[1441555200000,0.708],[1441641600000,0.725],[1441728000000,0.744],[1441814400000,0.735],[1441900800000,0.733],[1442160000000,0.711],[1442246400000,0.697],[1442332800000,0.73],[1442419200000,0.71],[1442505600000,0.712],[1442764800000,0.726],[1442851200000,0.733],[1442937600000,0.714],[1443024000000,0.722],[1443110400000,0.712],[1443369600000,0.712],[1443456000000,0.708],[1443542400000,0.713],[1444233600000,0.737],[1444320000000,0.742],[1444579200000,0.765],[1444665600000,0.766],[1444752000000,0.759],[1444838400000,0.772],[1444924800000,0.775],[1445184000000,0.774],[1445270400000,0.779],[1445356800000,0.749],[1445443200000,0.762],[1445529600000,0.79],[1445788800000,0.799],[1445875200000,0.796],[1445961600000,0.79],[1446048000000,0.802],[1446134400000,0.804],[1446393600000,0.805],[1446480000000,0.802],[1446566400000,0.835],[1446652800000,0.847],[1446739200000,0.854],[1446998400000,0.857],[1447084800000,0.854],[1447171200000,0.853],[1447257600000,0.847],[1447344000000,0.83],[1447603200000,0.837],[1447689600000,0.841],[1447776000000,0.835],[1447862400000,0.841],[1447948800000,0.84],[1448208000000,0.833],[1448294400000,0.83],[1448380800000,0.837],[1448467200000,0.83],[1448553600000,0.795],[1448812800000,0.799],[1448899200000,0.813],[1448985600000,0.838],[1449072000000,0.839],[1449158400000,0.829],[1449417600000,0.829],[1449504000000,0.807],[1449590400000,0.808],[1449676800000,0.803],[1449763200000,0.804],[1450022400000,0.819],[1450108800000,0.826],[1450195200000,0.819],[1450281600000,0.833],[1450368000000,0.851],[1450627200000,0.901],[1450713600000,0.895],[1450800000000,0.885],[1450886400000,0.887],[1450972800000,0.878],[1451232000000,0.862],[1451318400000,0.878],[1451404800000,0.881],[1451491200000,0.884],[1451836800000,0.824],[1451923200000,0.831],[1452009600000,0.845],[1452096000000,0.787],[1452182400000,0.798],[1452441600000,0.752],[1452528000000,0.751],[1452614400000,0.745],[1452700800000,0.76],[1452787200000,0.738],[1453046400000,0.745],[1453132800000,0.771],[1453219200000,0.755],[1453305600000,0.737],[1453392000000,0.742],[1453651200000,0.754],[1453737600000,0.725],[1453824000000,0.721],[1453910400000,0.699],[1453996800000,0.722],[1454256000000,0.725],[1454342400000,0.736],[1454428800000,0.735],[1454515200000,0.74],[1454601600000,0.727],[1455465600000,0.715],[1455552000000,0.734],[1455638400000,0.734],[1455724800000,0.728],[1455811200000,0.726],[1456070400000,0.743],[1456156800000,0.762],[1456243200000,0.764],[1456329600000,0.721],[1456416000000,0.733],[1456675200000,0.706],[1456761600000,0.721],[1456848000000,0.753],[1456934400000,0.764],[1457020800000,0.779],[1457280000000,0.786],[1457366400000,0.78],[1457452800000,0.77],[1457539200000,0.777],[1457625600000,0.772],[1457884800000,0.776],[1457971200000,0.777],[1458057600000,0.771],[1458144000000,0.783],[1458230400000,0.792],[1458489600000,0.802],[1458576000000,0.806],[1458662400000,0.805],[1458748800000,0.815],[1458835200000,0.825],[1459094400000,0.844],[1459180800000,0.826],[1459267200000,0.839],[1459353600000,0.837],[1459440000000,0.828],[1459785600000,0.835],[1459872000000,0.855],[1459958400000,0.836],[1460044800000,0.825],[1460304000000,0.827],[1460390400000,0.825],[1460476800000,0.828],[1460563200000,0.835],[1460649600000,0.834],[1460908800000,0.821],[1460995200000,0.82],[1461081600000,0.8],[1461168000000,0.803],[1461254400000,0.819],[1461513600000,0.825],[1461600000000,0.83],[1461686400000,0.833],[1461772800000,0.833],[1461859200000,0.852],[1462204800000,0.91],[1462291200000,0.903],[1462377600000,0.907],[1462464000000,0.874],[1462723200000,0.872],[1462809600000,0.879],[1462896000000,0.897],[1462982400000,0.893],[1463068800000,0.888],[1463328000000,0.897],[1463414400000,0.881],[1463500800000,0.868],[1463587200000,0.862],[1463673600000,0.873],[1463932800000,0.884],[1464019200000,0.866],[1464105600000,0.859],[1464192000000,0.856],[1464278400000,0.859],[1464537600000,0.86],[1464624000000,0.888],[1464710400000,0.89],[1464796800000,0.903],[1464883200000,0.939],[1465142400000,0.935],[1465228800000,0.946],[1465315200000,0.93],[1465747200000,0.902],[1465833600000,0.928],[1465920000000,0.95],[1466006400000,0.957],[1466092800000,0.98],[1466352000000,0.972],[1466438400000,0.957],[1466524800000,0.966],[1466611200000,0.962],[1466697600000,0.951],[1466956800000,0.983],[1467043200000,0.981],[1467129600000,0.974],[1467216000000,0.986],[1467302400000,0.979],[1467561600000,0.99],[1467648000000,1.0],[1467734400000,1.065],[1467820800000,1.047],[1467907200000,1.049],[1468166400000,1.076],[1468252800000,1.088],[1468339200000,1.066],[1468425600000,1.06],[1468512000000,1.063],[1468771200000,1.049],[1468857600000,1.022],[1468944000000,1.021],[1469030400000,1.028],[1469116800000,1.006],[1469376000000,1.013],[1469462400000,1.039],[1469548800000,1.013],[1469635200000,1.023],[1469721600000,1.024],[1469980800000,0.988],[1470067200000,0.989],[1470153600000,0.99],[1470240000000,0.991],[1470326400000,0.985],[1470585600000,0.999],[1470672000000,1.017],[1470758400000,1.012],[1470844800000,1.013],[1470931200000,1.015],[1471190400000,1.034],[1471276800000,1.019],[1471363200000,1.019],[1471449600000,1.013],[1471536000000,1.008],[1471795200000,1.006],[1471881600000,1.003],[1471968000000,0.999],[1472054400000,0.993],[1472140800000,0.99],[1472400000000,0.988],[1472486400000,0.99],[1472572800000,1.0],[1472659200000,0.988],[1472745600000,0.977],[1473004800000,0.981],[1473091200000,0.99],[1473177600000,0.982],[1473264000000,0.98],[1473350400000,0.971],[1473609600000,0.94],[1473696000000,0.945],[1473782400000,0.94],[1474214400000,0.948],[1474300800000,0.942],[1474387200000,0.942],[1474473600000,0.956],[1474560000000,0.954],[1474819200000,0.929],[1474905600000,0.938],[1474992000000,0.933],[1475078400000,0.938],[1475164800000,0.955],[1476028800000,0.969],[1476115200000,0.972],[1476201600000,0.97],[1476288000000,0.963],[1476374400000,0.964],[1476633600000,0.964],[1476720000000,0.985],[1476806400000,0.986],[1476892800000,0.981],[1476979200000,0.977],[1477238400000,0.982],[1477324800000,1.007],[1477411200000,1.025],[1477497600000,1.022],[1477584000000,1.022],[1477843200000,1.017],[1477929600000,1.029],[1478016000000,1.014],[1478102400000,1.017],[1478188800000,1.005],[1478448000000,1.004],[1478534400000,1.019],[1478620800000,1.012],[1478707200000,1.021],[1478793600000,1.015],[1479052800000,1.009],[1479139200000,1.021],[1479225600000,1.013],[1479312000000,1.008],[1479398400000,1.003],[1479657600000,1.002],[1479744000000,1.005],[1479830400000,1.018],[1479916800000,1.02],[1480003200000,1.018],[1480262400000,1.02],[1480348800000,1.038],[1480435200000,1.021],[1480521600000,1.022],[1480608000000,1.013],[1480867200000,1.007],[1480953600000,1.022],[1481040000000,1.023],[1481126400000,1.039],[1481212800000,1.04],[1481472000000,1.006],[1481558400000,1.032],[1481644800000,1.028],[1481731200000,1.018],[1481817600000,1.017],[1482076800000,1.026],[1482163200000,1.017],[1482249600000,1.02],[1482336000000,1.01],[1482422400000,0.992],[1482681600000,0.996],[1482768000000,0.997],[1482854400000,0.994],[1482940800000,0.997],[1483027200000,1.016],[1483113600000,1.016],[1483372800000,1.019],[1483459200000,1.048],[1483545600000,1.045],[1483632000000,1.046],[1483891200000,1.046],[1483977600000,1.045],[1484064000000,1.031],[1484150400000,1.024],[1484236800000,1.019],[1484496000000,1.012],[1484582400000,1.026],[1484668800000,1.042],[1484755200000,1.034],[1484841600000,1.038],[1485100800000,1.04],[1485187200000,1.041],[1485273600000,1.038],[1485360000000,1.032],[1486051200000,1.026],[1486310400000,1.031],[1486396800000,1.03],[1486483200000,1.036],[1486569600000,1.05],[1486656000000,1.056],[1486915200000,1.089],[1487001600000,1.096],[1487088000000,1.088],[1487174400000,1.089],[1487260800000,1.098],[1487520000000,1.141],[1487606400000,1.138],[1487692800000,1.155],[1487779200000,1.144],[1487865600000,1.143],[1488124800000,1.119],[1488211200000,1.122],[1488297600000,1.131],[1488384000000,1.136],[1488470400000,1.142],[1488729600000,1.148],[1488816000000,1.172],[1488902400000,1.165],[1488988800000,1.158],[1489075200000,1.161],[1489334400000,1.18],[1489420800000,1.171],[1489507200000,1.175],[1489593600000,1.172],[1489680000000,1.172],[1489939200000,1.18],[1490025600000,1.221],[1490112000000,1.226],[1490198400000,1.212],[1490284800000,1.207],[1490544000000,1.186],[1490630400000,1.187],[1490716800000,1.195],[1490803200000,1.186],[1490889600000,1.188],[1491321600000,1.198],[1491408000000,1.197],[1491494400000,1.19],[1491753600000,1.161],[1491840000000,1.157],[1491926400000,1.171],[1492012800000,1.188],[1492099200000,1.175],[1492358400000,1.183],[1492444800000,1.209],[1492531200000,1.211],[1492617600000,1.248],[1492704000000,1.227],[1492963200000,1.2],[1493049600000,1.237],[1493136000000,1.226],[1493222400000,1.232],[1493308800000,1.196],[1493654400000,1.183],[1493740800000,1.192],[1493827200000,1.188],[1493913600000,1.181],[1494172800000,1.157],[1494259200000,1.169],[1494345600000,1.165],[1494432000000,1.174],[1494518400000,1.178],[1494777600000,1.198],[1494864000000,1.233],[1494950400000,1.214],[1495036800000,1.212],[1495123200000,1.222],[1495382400000,1.218],[1495468800000,1.245],[1495555200000,1.235],[1495641600000,1.235],[1495728000000,1.238],[1496160000000,1.233],[1496246400000,1.236],[1496332800000,1.229],[1496592000000,1.217],[1496678400000,1.236],[1496764800000,1.27],[1496851200000,1.281],[1496937600000,1.291],[1497196800000,1.322],[1497283200000,1.319],[1497369600000,1.309],[1497456000000,1.286],[1497542400000,1.282],[1497801600000,1.289],[1497888000000,1.285],[1497974400000,1.311],[1498060800000,1.305],[1498147200000,1.309],[1498406400000,1.345],[1498492800000,1.344],[1498579200000,1.321],[1498665600000,1.32],[1498752000000,1.323],[1499011200000,1.302],[1499097600000,1.286],[1499184000000,1.3],[1499270400000,1.294],[1499356800000,1.283],[1499616000000,1.293],[1499702400000,1.305],[1499788800000,1.288],[1499875200000,1.294],[1499961600000,1.307],[1500220800000,1.275],[1500307200000,1.284],[1500393600000,1.304],[1500480000000,1.327],[1500566400000,1.347],[1500825600000,1.37],[1500912000000,1.364],[1500998400000,1.348],[1501084800000,1.359],[1501171200000,1.417],[1501430400000,1.434],[1501516800000,1.44],[1501603200000,1.423],[1501689600000,1.407],[1501776000000,1.396],[1502035200000,1.443],[1502121600000,1.437],[1502208000000,1.483],[1502294400000,1.496],[1502380800000,1.459],[1502640000000,1.478],[1502726400000,1.477],[1502812800000,1.471],[1502899200000,1.455],[1502985600000,1.45],[1503244800000,1.443],[1503331200000,1.417],[1503417600000,1.433],[1503504000000,1.409],[1503590400000,1.422],[1503849600000,1.439],[1503936000000,1.445],[1504022400000,1.456],[1504108800000,1.447],[1504195200000,1.452],[1504454400000,1.435],[1504540800000,1.436],[1504627200000,1.424],[1504713600000,1.416],[1504800000000,1.393],[1505059200000,1.407],[1505145600000,1.444],[1505232000000,1.474],[1505318400000,1.472],[1505404800000,1.464],[1505664000000,1.506],[1505750400000,1.495],[1505836800000,1.512],[1505923200000,1.501],[1506009600000,1.506],[1506268800000,1.537],[1506355200000,1.531],[1506441600000,1.527],[1506528000000,1.553],[1506614400000,1.543],[1507478400000,1.549],[1507564800000,1.565],[1507651200000,1.596],[1507737600000,1.588],[1507824000000,1.589],[1508083200000,1.568],[1508169600000,1.568],[1508256000000,1.586],[1508342400000,1.611],[1508428800000,1.594],[1508688000000,1.602],[1508774400000,1.606],[1508860800000,1.595],[1508947200000,1.617],[1509033600000,1.648],[1509292800000,1.637],[1509379200000,1.635],[1509465600000,1.643],[1509552000000,1.653],[1509638400000,1.659],[1509897600000,1.695],[1509984000000,1.688],[1510070400000,1.681],[1510156800000,1.685],[1510243200000,1.713],[1510502400000,1.704],[1510588800000,1.672],[1510675200000,1.692],[1510761600000,1.724],[1510848000000,1.688],[1511107200000,1.671],[1511193600000,1.694],[1511280000000,1.656],[1511366400000,1.602],[1511452800000,1.601],[1511712000000,1.587],[1511798400000,1.604],[1511884800000,1.582],[1511971200000,1.569],[1512057600000,1.57],[1512316800000,1.605],[1512403200000,1.601],[1512489600000,1.596],[1512576000000,1.577],[1512662400000,1.597],[1512921600000,1.633],[1513008000000,1.63],[1513094400000,1.659],[1513180800000,1.656],[1513267200000,1.643],[1513526400000,1.665],[1513612800000,1.676],[1513699200000,1.699],[1513785600000,1.697],[1513872000000,1.677],[1514131200000,1.676],[1514217600000,1.667],[1514304000000,1.646],[1514390400000,1.691],[1514476800000,1.677],[1514649600000,1.677],[1514822400000,1.679],[1514908800000,1.683],[1514995200000,1.716],[1515081600000,1.711],[1515340800000,1.717],[1515427200000,1.752],[1515513600000,1.776],[1515600000000,1.761],[1515686400000,1.78],[1515945600000,1.787],[1516032000000,1.799],[1516118400000,1.758],[1516204800000,1.775],[1516291200000,1.758],[1516550400000,1.799],[1516636800000,1.798],[1516723200000,1.777],[1516809600000,1.767],[1516896000000,1.774],[1517155200000,1.72],[1517241600000,1.712],[1517328000000,1.731],[1517414400000,1.701],[1517500800000,1.691],[1517760000000,1.636],[1517846400000,1.622],[1517932800000,1.584],[1518019200000,1.611],[1518105600000,1.593],[1518364800000,1.629],[1518451200000,1.63],[1518537600000,1.643],[1519228800000,1.68],[1519315200000,1.675],[1519574400000,1.671],[1519660800000,1.656],[1519747200000,1.624],[1519833600000,1.639],[1519920000000,1.63],[1520179200000,1.61],[1520265600000,1.617],[1520352000000,1.617],[1520438400000,1.642],[1520524800000,1.65],[1520784000000,1.641],[1520870400000,1.623],[1520956800000,1.639],[1521043200000,1.663],[1521129600000,1.652],[1521388800000,1.657],[1521475200000,1.644],[1521561600000,1.64],[1521648000000,1.612],[1521734400000,1.585],[1521993600000,1.584],[1522080000000,1.58],[1522166400000,1.536],[1522252800000,1.573],[1522339200000,1.569],[1522598400000,1.567],[1522684800000,1.575],[1522771200000,1.612],[1523203200000,1.615],[1523289600000,1.624],[1523376000000,1.621],[1523462400000,1.618],[1523548800000,1.602],[1523808000000,1.608],[1523894400000,1.588],[1523980800000,1.58],[1524067200000,1.61],[1524153600000,1.602],[1524412800000,1.59],[1524499200000,1.623],[1524585600000,1.622],[1524672000000,1.59],[1524758400000,1.59],[1525190400000,1.612],[1525276800000,1.641],[1525363200000,1.645],[1525622400000,1.708],[1525708800000,1.718],[1525795200000,1.72],[1525881600000,1.738],[1525968000000,1.725],[1526227200000,1.751],[1526313600000,1.757],[1526400000000,1.756],[1526486400000,1.731],[1526572800000,1.74],[1526832000000,1.738],[1526918400000,1.746],[1527004800000,1.722],[1527091200000,1.709],[1527177600000,1.721],[1527436800000,1.778],[1527523200000,1.758],[1527609600000,1.774],[1527696000000,1.811],[1527782400000,1.786],[1528041600000,1.825],[1528128000000,1.842],[1528214400000,1.842],[1528300800000,1.837],[1528387200000,1.824],[1528646400000,1.82],[1528732800000,1.876],[1528819200000,1.863],[1528905600000,1.841],[1528992000000,1.834],[1529337600000,1.776],[1529424000000,1.821],[1529510400000,1.804],[1529596800000,1.807],[1529856000000,1.827],[1529942400000,1.821],[1530028800000,1.768],[1530115200000,1.733],[1530201600000,1.766],[1530288000000,1.766],[1530460800000,1.755],[1530547200000,1.716],[1530633600000,1.706],[1530720000000,1.701],[1530806400000,1.7066],[1531065600000,1.7429],[1531152000000,1.7437],[1531238400000,1.7287],[1531324800000,1.7628],[1531411200000,1.7966],[1531670400000,1.7973],[1531756800000,1.7788],[1531843200000,1.7607],[1531929600000,1.7521],[1532016000000,1.7529],[1532275200000,1.7311],[1532361600000,1.7746],[1532448000000,1.7677],[1532534400000,1.7497],[1532620800000,1.7628],[1532880000000,1.7397],[1532966400000,1.7455],[1533052800000,1.7197],[1533139200000,1.6768],[1533225600000,1.6407],[1533484800000,1.6168],[1533571200000,1.645],[1533657600000,1.6107],[1533744000000,1.6406],[1533830400000,1.6424],[1534089600000,1.6257],[1534176000000,1.6316],[1534262400000,1.5945],[1534348800000,1.5592],[1534435200000,1.5542],[1534694400000,1.561],[1534780800000,1.5975],[1534867200000,1.5854],[1534953600000,1.5887],[1535040000000,1.5741],[1535299200000,1.6204],[1535385600000,1.6087],[1535472000000,1.6059],[1535558400000,1.6017],[1535644800000,1.5842],[1535904000000,1.5814],[1535990400000,1.5871],[1536076800000,1.5616],[1536163200000,1.5389],[1536249600000,1.5524],[1536508800000,1.5436],[1536595200000,1.5436],[1536681600000,1.5195],[1536768000000,1.517],[1536854400000,1.5374],[1537113600000,1.5402],[1537200000000,1.5682],[1537286400000,1.5969],[1537372800000,1.5932],[1537459200000,1.6313],[1537804800000,1.6224],[1537891200000,1.6552],[1537977600000,1.6553],[1538064000000,1.6603],[1538928000000,1.5944],[1539014400000,1.5951],[1539100800000,1.5487],[1539187200000,1.5145],[1539273600000,1.5438],[1539532800000,1.5233],[1539619200000,1.5203],[1539705600000,1.5153],[1539792000000,1.4918],[1539878400000,1.5292],[1540137600000,1.5783],[1540224000000,1.5015],[1540310400000,1.4748],[1540396800000,1.4542],[1540483200000,1.4303],[1540742400000,1.3507],[1540828800000,1.3365],[1540915200000,1.3663],[1541001600000,1.3874],[1541088000000,1.4366],[1541347200000,1.4116],[1541433600000,1.3986],[1541520000000,1.3985],[1541606400000,1.3991],[1541692800000,1.3928],[1541952000000,1.3896],[1542038400000,1.4173],[1542124800000,1.3995],[1542211200000,1.4061],[1542297600000,1.406],[1542556800000,1.4242],[1542643200000,1.4031],[1542729600000,1.4122],[1542816000000,1.412],[1542902400000,1.3917],[1543161600000,1.388],[1543248000000,1.3843],[1543334400000,1.3977],[1543420800000,1.4004],[1543507200000,1.4266],[1543766400000,1.4699],[1543852800000,1.4695],[1543939200000,1.4765],[1544025600000,1.4497],[1544112000000,1.4523],[1544371200000,1.439],[1544457600000,1.446],[1544544000000,1.4515],[1544630400000,1.4686],[1544716800000,1.454],[1544976000000,1.4471],[1545062400000,1.4433],[1545148800000,1.4291],[1545235200000,1.4204],[1545321600000,1.406],[1545580800000,1.4121],[1545667200000,1.41],[1545753600000,1.397],[1545840000000,1.3938],[1545926400000,1.4074],[1546185600000,1.4073],[1546358400000,1.3933],[1546444800000,1.3712],[1546531200000,1.3896],[1546790400000,1.3927],[1546876800000,1.3938],[1546963200000,1.4092],[1547049600000,1.4045],[1547136000000,1.4208],[1547395200000,1.4096],[1547481600000,1.4651],[1547568000000,1.4548],[1547654400000,1.4524],[1547740800000,1.4745],[1548000000000,1.4874],[1548086400000,1.4714],[1548172800000,1.4742],[1548259200000,1.482],[1548345600000,1.4827],[1548604800000,1.4951],[1548691200000,1.5005],[1548777600000,1.4812],[1548864000000,1.4956],[1548950400000,1.5092],[1549814400000,1.5513],[1549900800000,1.5543],[1549987200000,1.566],[1550073600000,1.592],[1550160000000,1.5703],[1550419200000,1.6099],[1550505600000,1.6041],[1550592000000,1.5989],[1550678400000,1.5879],[1550764800000,1.5961],[1551024000000,1.6313],[1551110400000,1.6086],[1551196800000,1.63],[1551283200000,1.64],[1551369600000,1.6834],[1551628800000,1.6977],[1551715200000,1.6998],[1551801600000,1.6894],[1551888000000,1.6591],[1551974400000,1.6289],[1552233600000,1.67],[1552320000000,1.661],[1552406400000,1.6641],[1552492800000,1.6771],[1552579200000,1.7131],[1552838400000,1.8042],[1552924800000,1.7913],[1553011200000,1.7967],[1553097600000,1.7866],[1553184000000,1.8016],[1553443200000,1.7677],[1553529600000,1.7737],[1553616000000,1.8096],[1553702400000,1.8285],[1553788800000,1.8916],[1554048000000,1.9101],[1554134400000,1.8924],[1554220800000,1.8834],[1554307200000,1.9173],[1554652800000,1.923],[1554739200000,1.9455],[1554825600000,1.9636],[1554912000000,1.8963],[1554998400000,1.8971],[1555257600000,1.8833],[1555344000000,1.9078],[1555430400000,1.922],[1555516800000,1.9369],[1555603200000,1.9344],[1555862400000,1.9233],[1555948800000,1.9487],[1556035200000,1.94],[1556121600000,1.9128],[1556208000000,1.9308],[1556467200000,1.9404],[1556553600000,1.9487],[1557072000000,1.8342],[1557158400000,1.8623],[1557244800000,1.8619],[1557331200000,1.8158],[1557417600000,1.8808],[1557676800000,1.8844],[1557763200000,1.8728],[1557849600000,1.9554],[1557936000000,1.9748],[1558022400000,1.9339],[1558281600000,1.9004],[1558368000000,1.9136],[1558454400000,1.9008],[1558540800000,1.855],[1558627200000,1.8731],[1558886400000,1.8789],[1558972800000,1.8931],[1559059200000,1.9017],[1559145600000,1.8874],[1559232000000,1.8693],[1559491200000,1.8621],[1559577600000,1.8308],[1559664000000,1.8299],[1559750400000,1.8163],[1560096000000,1.8395],[1560182400000,1.9092],[1560268800000,1.8943],[1560355200000,1.8884],[1560441600000,1.8763],[1560700800000,1.869],[1560787200000,1.8693],[1560873600000,1.888],[1560960000000,1.9478],[1561046400000,1.9609],[1561305600000,1.9843],[1561392000000,1.9846],[1561478400000,1.9773],[1561564800000,2.0276],[1561651200000,2.0328],[1561824000000,2.0327],[1561910400000,2.1037],[1561996800000,2.1158],[1562083200000,2.0942],[1562169600000,2.0771],[1562256000000,2.1033],[1562515200000,2.0877],[1562601600000,2.0918],[1562688000000,2.0974],[1562774400000,2.0895],[1562860800000,2.1028],[1563120000000,2.0931],[1563206400000,2.0819],[1563292800000,2.0765],[1563379200000,2.0631],[1563465600000,2.0699],[1563724800000,2.0706],[1563811200000,2.0499],[1563897600000,2.0481],[1563984000000,2.0583],[1564070400000,2.0579],[1564329600000,2.0662],[1564416000000,2.0618],[1564502400000,2.047],[1564588800000,2.0338],[1564675200000,2.0275],[1564934400000,2.008],[1565020800000,2.0219],[1565107200000,2.0127],[1565193600000,2.0277],[1565280000000,2.0141],[1565539200000,2.04],[1565625600000,2.0371],[1565712000000,2.0604],[1565798400000,2.0576],[1565884800000,2.0667],[1566144000000,2.0785],[1566230400000,2.0896],[1566316800000,2.0819],[1566403200000,2.1024],[1566489600000,2.1051],[1566748800000,2.0864],[1566835200000,2.1073],[1566921600000,2.1113],[1567008000000,2.1218],[1567094400000,2.1457],[1567353600000,2.1494],[1567440000000,2.143],[1567526400000,2.1287],[1567612800000,2.133],[1567699200000,2.1337],[1567958400000,2.1332],[1568044800000,2.1284],[1568131200000,2.0835],[1568217600000,2.0993],[1568563200000,2.0929],[1568649600000,2.0948],[1568736000000,2.1271],[1568822400000,2.1286],[1568908800000,2.1367],[1569168000000,2.1244],[1569254400000,2.1448],[1569340800000,2.1395],[1569427200000,2.1275],[1569513600000,2.1241],[1569772800000,2.1053],[1570464000000,2.1199],[1570550400000,2.1082],[1570636800000,2.107],[1570723200000,2.1118],[1570982400000,2.1133],[1571068800000,2.1294],[1571155200000,2.1105],[1571241600000,2.1119],[1571328000000,2.0933],[1571587200000,2.0952],[1571673600000,2.0991],[1571760000000,2.0824],[1571846400000,2.0665],[1571932800000,2.0818],[1572192000000,2.1006],[1572278400000,2.108],[1572364800000,2.0995],[1572451200000,2.0991],[1572537600000,2.1107],[1572796800000,2.1179],[1572883200000,2.1201],[1572969600000,2.1091],[1573056000000,2.117],[1573142400000,2.1208],[1573401600000,2.1109],[1573488000000,2.1144],[1573574400000,2.121],[1573660800000,2.1316],[1573747200000,2.1251],[1574006400000,2.1206],[1574092800000,2.1289],[1574179200000,2.1342],[1574265600000,2.1325],[1574352000000,2.1054],[1574611200000,2.1027],[1574697600000,2.1122],[1574784000000,2.1157],[1574870400000,2.1097],[1574956800000,2.0844],[1575216000000,2.0844],[1575302400000,2.0799],[1575388800000,2.0855],[1575475200000,2.0844],[1575561600000,2.1047],[1575820800000,2.0991],[1575907200000,2.0994],[1575993600000,2.0891],[1576080000000,2.0812],[1576166400000,2.0961],[1576425600000,2.091],[1576512000000,2.1022],[1576598400000,2.1068],[1576684800000,2.0996],[1576771200000,2.0959],[1577030400000,2.0896],[1577116800000,2.0937],[1577203200000,2.0827],[1577289600000,2.0898],[1577376000000,2.0995],[1577635200000,2.1329],[1577721600000,2.1334],[1577894400000,2.1227],[1577980800000,2.1118],[1578240000000,2.104],[1578326400000,2.1141],[1578412800000,2.1157],[1578499200000,2.1361],[1578585600000,2.1598],[1578844800000,2.1747],[1578931200000,2.1593],[1579017600000,2.1642],[1579104000000,2.1661],[1579190400000,2.1662],[1579449600000,2.1556],[1579536000000,2.1267],[1579622400000,2.1304],[1579708800000,2.0936],[1580659200000,2.0126],[1580745600000,2.007],[1580832000000,2.0187],[1580918400000,2.0275],[1581004800000,2.0352],[1581264000000,2.0373],[1581350400000,2.0585],[1581436800000,2.0611],[1581523200000,2.0541],[1581609600000,2.0518],[1581868800000,2.0592],[1581955200000,2.0544],[1582041600000,2.0657],[1582128000000,2.0987],[1582214400000,2.0962],[1582473600000,2.0783],[1582560000000,2.0704],[1582646400000,2.0624],[1582732800000,2.0733],[1582819200000,2.0346],[1583078400000,2.0569],[1583164800000,2.0632],[1583251200000,2.0706],[1583337600000,2.1181],[1583424000000,2.0955],[1583683200000,2.0592],[1583769600000,2.0858],[1583856000000,2.0834],[1583942400000,2.0609],[1584028800000,2.0438],[1584288000000,2.0069],[1584374400000,1.9884],[1584460800000,1.9655],[1584547200000,1.9371],[1584633600000,1.9636],[1584892800000,1.9387],[1584979200000,1.9694],[1585065600000,1.9939],[1585152000000,1.9931],[1585238400000,2.0132],[1585497600000,1.9964],[1585584000000,2.0127],[1585670400000,2.0067],[1585756800000,2.0181],[1585843200000,2.016],[1586188800000,2.0392],[1586275200000,2.0391],[1586361600000,2.044],[1586448000000,2.0546],[1586707200000,2.0539],[1586793600000,2.0658],[1586880000000,2.0641],[1586966400000,2.0551],[1587052800000,2.0682],[1587312000000,2.0728],[1587398400000,2.051],[1587484800000,2.0769],[1587571200000,2.0791],[1587657600000,2.0893],[1587916800000,2.082],[1588003200000,2.109],[1588089600000,2.0968],[1588176000000,2.0995],[1588694400000,2.1067],[1588780800000,2.1184],[1588867200000,2.1282],[1589126400000,2.131],[1589212800000,2.1343],[1589299200000,2.1598],[1589385600000,2.1583],[1589472000000,2.1456],[1589731200000,2.1749],[1589817600000,2.1828],[1589904000000,2.1746],[1589990400000,2.1819],[1590076800000,2.146],[1590336000000,2.1669],[1590422400000,2.1772],[1590508800000,2.1679],[1590595200000,2.1758],[1590681600000,2.1914],[1590940800000,2.2248],[1591027200000,2.2123],[1591113600000,2.2059],[1591200000000,2.2267],[1591286400000,2.248],[1591545600000,2.2548],[1591632000000,2.2631],[1591718400000,2.2677],[1591804800000,2.2489],[1591891200000,2.2523],[1592150400000,2.222],[1592236800000,2.24],[1592323200000,2.2294],[1592409600000,2.2326],[1592496000000,2.2591],[1592755200000,2.2509],[1592841600000,2.287],[1592928000000,2.2849],[1593360000000,2.289],[1593446400000,2.3075],[1593532800000,2.3755],[1593619200000,2.4189],[1593705600000,2.4062],[1593964800000,2.4374],[1594051200000,2.477],[1594137600000,2.4754],[1594224000000,2.496],[1594310400000,2.5137],[1594569600000,2.5745],[1594656000000,2.5783],[1594742400000,2.6102],[1594828800000,2.4813],[1594915200000,2.4797],[1595174400000,2.4646],[1595260800000,2.4959],[1595347200000,2.5136],[1595433600000,2.5175],[1595520000000,2.4543],[1595779200000,2.4701],[1595865600000,2.5037],[1595952000000,2.512],[1596038400000,2.5218],[1596124800000,2.52],[1596384000000,2.5213],[1596470400000,2.5145],[1596556800000,2.5181],[1596643200000,2.4823],[1596729600000,2.4666],[1596988800000,2.4682],[1597075200000,2.4805],[1597161600000,2.4565],[1597248000000,2.467],[1597334400000,2.513],[1597593600000,2.5451],[1597680000000,2.5535],[1597766400000,2.5555],[1597852800000,2.5235],[1597939200000,2.5426],[1598198400000,2.5717],[1598284800000,2.6279],[1598371200000,2.6242],[1598457600000,2.636],[1598544000000,2.6762],[1598803200000,2.6819],[1598889600000,2.6699],[1598976000000,2.6619],[1599062400000,2.6835],[1599148800000,2.6633],[1599408000000,2.646],[1599494400000,2.6177],[1599580800000,2.5979],[1599667200000,2.6131],[1599753600000,2.6409],[1600012800000,2.6492],[1600099200000,2.6474],[1600185600000,2.6303],[1600272000000,2.6068],[1600358400000,2.6202],[1600617600000,2.6051],[1600704000000,2.5961],[1600790400000,2.5913],[1600876800000,2.5745],[1600963200000,2.5748],[1601222400000,2.5857],[1601308800000,2.5837],[1601395200000,2.5881],[1602172800000,2.6021],[1602432000000,2.6563],[1602518400000,2.6738],[1602604800000,2.6703],[1602691200000,2.6691],[1602777600000,2.6575],[1603036800000,2.6496],[1603123200000,2.682],[1603209600000,2.6854],[1603296000000,2.705],[1603382400000,2.6775],[1603641600000,2.6661],[1603728000000,2.6756],[1603814400000,2.71],[1603900800000,2.7408],[1603987200000,2.7092],[1604246400000,2.7273],[1604332800000,2.7394],[1604419200000,2.7448],[1604505600000,2.766],[1604592000000,2.7585],[1604851200000,2.7802],[1604937600000,2.805],[1605024000000,2.8064],[1605110400000,2.8271],[1605196800000,2.7859],[1605456000000,2.831],[1605542400000,2.8145],[1605628800000,2.7952],[1605715200000,2.7997],[1605801600000,2.8172],[1606060800000,2.8295],[1606147200000,2.8367],[1606233600000,2.7941],[1606320000000,2.8],[1606406400000,2.8071],[1606665600000,2.7715],[1606752000000,2.7815],[1606838400000,2.7811],[1606924800000,2.7926],[1607011200000,2.8323],[1607270400000,2.8362],[1607356800000,2.8547],[1607443200000,2.8491],[1607529600000,2.8594],[1607616000000,2.8664],[1607875200000,2.8955],[1607961600000,2.888],[1608048000000,2.9169],[1608134400000,2.9527],[1608220800000,2.956],[1608480000000,2.9624],[1608566400000,2.9863],[1608652800000,2.9787],[1608739200000,2.953],[1608825600000,2.9528],[1609084800000,3.018],[1609171200000,3.0028],[1609257600000,3.0328],[1609344000000,3.0577],[1609689600000,3.1045],[1609776000000,3.1799],[1609862400000,3.1844],[1609948800000,3.2069],[1610035200000,3.1598],[1610294400000,3.1102],[1610380800000,3.1554],[1610467200000,3.1413],[1610553600000,3.094],[1610640000000,3.0487],[1610899200000,3.0226],[1610985600000,2.9945],[1611072000000,3.005],[1611158400000,3.0459],[1611244800000,3.0353],[1611504000000,3.1245],[1611590400000,3.091],[1611676800000,3.049],[1611763200000,3.0308],[1611849600000,3.0565],[1612108800000,3.0534],[1612195200000,3.1155],[1612281600000,3.1149],[1612368000000,3.1231],[1612454400000,3.1395],[1612713600000,3.1397],[1612800000000,3.175],[1612886400000,3.2509],[1613577600000,3.1943],[1613664000000,3.1852],[1613923200000,3.0624],[1614009600000,3.0671],[1614096000000,2.9878],[1614182400000,2.9684],[1614268800000,2.931],[1614528000000,2.9386],[1614614400000,2.9026],[1614700800000,2.9335],[1614787200000,2.8686],[1614873600000,2.8832],[1615132800000,2.794],[1615219200000,2.7566],[1615305600000,2.7979],[1615392000000,2.843],[1615478400000,2.8478],[1615737600000,2.7883],[1615824000000,2.8197],[1615910400000,2.8345],[1615996800000,2.87],[1616083200000,2.8369],[1616342400000,2.8424],[1616428800000,2.8538],[1616515200000,2.8546],[1616601600000,2.8456],[1616688000000,2.8899],[1616947200000,2.9125],[1617033600000,2.9176],[1617120000000,2.8951],[1617206400000,2.9257],[1617292800000,2.9876],[1617638400000,2.9685],[1617724800000,2.9093],[1617811200000,2.934],[1617897600000,2.8972],[1618156800000,2.8985],[1618243200000,2.9099],[1618329600000,2.9261],[1618416000000,2.9163],[1618502400000,2.9479],[1618761600000,2.9642],[1618848000000,2.9794],[1618934400000,3.0125],[1619020800000,3.0122],[1619107200000,3.0278],[1619366400000,3.0078],[1619452800000,3.0268],[1619539200000,3.0619],[1619625600000,3.0602],[1619712000000,3.0436],[1620230400000,3.0005],[1620316800000,2.9776],[1620576000000,2.9547],[1620662400000,3.0012],[1620748800000,3.0233],[1620835200000,3.0259],[1620921600000,3.0461],[1621180800000,3.0737],[1621267200000,3.0764],[1621353600000,3.0642],[1621440000000,3.0994],[1621526400000,3.1037],[1621785600000,3.1425],[1621872000000,3.1953],[1621958400000,3.1818],[1622044800000,3.1904],[1622131200000,3.1924],[1622390400000,3.201</t>
   </si>
   <si>
+    <t>[[1132070400000, 0.0], [1134489600000, 0.59], [1136908800000, 5.66], [1140019200000, 8.99], [1142352000000, 14.31], [1144684800000, 30.69], [1147622400000, 64.17], [1149782400000, 55.11], [1152115200000, 70.8], [1154448000000, 57.49], [1156780800000, 64.8], [1159113600000, 72.66], [1161792000000, 78.89], [1164124800000, 93.43], [1166457600000, 134.74], [1168963200000, 147.78], [1171296000000, 150.91], [1174233600000, 147.32], [1176307200000, 171.97], [1179244800000, 193.81], [1181577600000, 248.25], [1183651200000, 236.84], [1185984000000, 279.45], [1188316800000, 333.91], [1190649600000, 340.47], [1193328000000, 359.48], [1195660800000, 319.04], [1197993600000, 348.62], [1200326400000, 410.93], [1203264000000, 374.24], [1205424000000, 303.82], [1207843200000, 280.24], [1210521600000, 294.36], [1212681600000, 259.86], [1215100800000, 216.61], [1217433600000, 225.01], [1219766400000, 182.33], [1222185600000, 153.05], [1225036800000, 112.35], [1227196800000, 142.83], [1229529600000, 170.3], [1232035200000, 161.85], [1234972800000, 190.13], [1237305600000, 192.74], [1239724800000, 224.68], [1242144000000, 234.25], [1244649600000, 249.62], [1246982400000, 282.38], [1249315200000, 310.77], [1251648000000, 254.18], [1253808000000, 287.76], [1256832000000, 306.51], [1259164800000, 330.55], [1261497600000, 319.33], [1263916800000, 336.02], [1266854400000, 316.62], [1269187200000, 325.05], [1271606400000, 318.91], [1274025600000, 275.12], [1276185600000, 302.99], [1278950400000, 284.32], [1281283200000, 327.22], [1283443200000, 357.08], [1286812800000, 368.2], [1289145600000, 415.42], [1291305600000, 412.82], [1293638400000, 416.18], [1296057600000, 387.19], [1298995200000, 419.83], [1301328000000, 405.99], [1303833600000, 404.41], [1306252800000, 390.35], [1308672000000, 373.47], [1311004800000, 416.41], [1313337600000, 424.77], [1315497600000, 390.77], [1318521600000, 354.83], [1320854400000, 368.44], [1323187200000, 348.57], [1325606400000, 287.88], [1328544000000, 283.37], [1330876800000, 322.57], [1333036800000, 298.34], [1335888000000, 331.76], [1338220800000, 329.66], [1340640000000, 322.08], [1342713600000, 311.11], [1345046400000, 305.05], [1347379200000, 311.69], [1350230400000, 306.85], [1352390400000, 290.3], [1354723200000, 266.46], [1357488000000, 321.05], [1359648000000, 343.79], [1362585600000, 345.54], [1364918400000, 332.95], [1367856000000, 350.18], [1370188800000, 368.86], [1372694400000, 338.57], [1375027200000, 356.96], [1377187200000, 369.12], [1379865600000, 388.96], [1382630400000, 392.99], [1384963200000, 393.67], [1387296000000, 394.38], [1389715200000, 392.06], [1392652800000, 420.86], [1394985600000, 395.15], [1397404800000, 395.9], [1399910400000, 368.45], [1402329600000, 379.69], [1404662400000, 390.47], [1406822400000, 411.25], [1409155200000, 428.12], [1411574400000, 456.56], [1414512000000, 484.78], [1416844800000, 502.73], [1419177600000, 508.29], [1421683200000, 589.95], [1424016000000, 642.36], [1426780800000, 742.95], [1429200000000, 869.47], [1431619200000, 960.49], [1433952000000, 1191.45], [1436371200000, 748.59], [1438704000000, 816.64], [1441036800000, 638.85], [1443542400000, 701.87], [1446480000000, 792.27], [1448812800000, 864.55], [1450972800000, 968.38], [1453392000000, 734.71], [1456329600000, 678.06], [1458662400000, 746.24], [1461081600000, 736.26], [1463500800000, 713.98], [1466006400000, 786.96], [1468339200000, 845.27], [1470672000000, 826.77], [1473004800000, 814.8], [1476115200000, 830.28], [1478448000000, 820.68], [1480608000000, 831.62], [1482940800000, 793.38], [1485273600000, 786.48], [1488211200000, 818.3], [1490544000000, 851.31], [1493049600000, 857.89], [1495468800000, 844.35], [1497974400000, 902.07], [1500307200000, 876.39], [1502640000000, 902.82], [1504800000000, 950.45], [1507737600000, 1010.7], [1510070400000, 1048.08], [1512403200000, 1011.89], [1514649600000, 1046.14], [1516896000000, 1078.72], [1519833600000, 1056.93], [1522166400000, 1039.45], [1524672000000, 1034.24], [1527177600000, 1090.69], [1529596800000, 1005.96], [1531843200000, 1018.97], [1534176000000, 948.1], [1536508800000, 865.64], [1539532800000, 800.82], [1541692800000, 797.31], [1544025600000, 796.81], [1546444800000, 712.19], [1548777600000, 774.35], [1551715200000, 960.09], [1554048000000, 1080.22], [1556467200000, 1065.41], [1559059200000, 1007.26], [1561478400000, 1049.23], [1563724800000, 1057.26], [1565884800000, 1091.08], [1568217600000, 1204.48], [1571241600000, 1182.03], [1573574400000, 1190.34], [1575907200000, 1212.23], [1578326400000, 1299.56], [1581350400000, 1294.64], [1583683200000, 1310.59], [1585843200000, 1220.39], [1588694400000, 1340.76], [1591027200000, 1424.2], [1593532800000, 1600.46], [1595865600000, 1802.42], [1598198400000, 1867.42], [1600358400000, 1849.58], [1603382400000, 1847.62], [1605715200000, 1907.92], [1608048000000, 1965.6], [1610467200000, 2151.62], [1612800000000, 2311.83], [1615737600000, 1981.84], [1618156800000, 2009.92], [1620748800000, 2079.81], [1623081600000, 2151.31], [1625500800000, 2108.42], [1627833600000, 2071.55], [1628438400000, 2079.81]]</t>
+  </si>
+  <si>
     <t>161005</t>
   </si>
   <si>
@@ -134,6 +173,9 @@
     <t xml:space="preserve"> [[1132070400000,1.0],[1132243200000,1.0006],[1132502400000,1.0006],[1132588800000,1.0006],[1132675200000,1.0006],[1132761600000,1.0006],[1132848000000,1.0017],[1133107200000,1.0017],[1133193600000,1.0017],[1133280000000,1.0017],[1133366400000,0.9996],[1133452800000,0.9996],[1133712000000,0.9988],[1133798400000,1.0001],[1133884800000,1.0021],[1133971200000,1.0022],[1134057600000,1.0045],[1134316800000,1.0037],[1134403200000,1.0031],[1134489600000,1.0059],[1134576000000,1.0053],[1134662400000,1.0072],[1134921600000,1.0086],[1135008000000,1.009],[1135094400000,1.0096],[1135180800000,1.013],[1135267200000,1.0177],[1135526400000,1.0214],[1135612800000,1.0217],[1135699200000,1.0229],[1135785600000,1.028],[1135872000000,1.0228],[1135958400000,1.0228],[1136304000000,1.0339],[1136390400000,1.0421],[1136476800000,1.0505],[1136736000000,1.0535],[1136822400000,1.0553],[1136908800000,1.0566],[1136995200000,1.0634],[1137081600000,1.0655],[1137340800000,1.0542],[1137427200000,1.0571],[1137513600000,1.0713],[1137600000000,1.0754],[1137686400000,1.0782],[1137945600000,1.0689],[1138032000000,1.0752],[1138118400000,1.0867],[1139155200000,1.1013],[1139241600000,1.0979],[1139328000000,1.0912],[1139414400000,1.0817],[1139500800000,1.0901],[1139760000000,1.0977],[1139846400000,1.1028],[1139932800000,1.1028],[1140019200000,1.0899],[1140105600000,1.0876],[1140364800000,1.0871],[1140451200000,1.0944],[1140537600000,1.093],[1140624000000,1.0936],[1140710400000,1.1042],[1140969600000,1.1139],[1141056000000,1.1278],[1141142400000,1.1385],[1141228800000,1.1324],[1141315200000,1.1373],[1141574400000,1.1403],[1141660800000,1.1224],[1141747200000,1.1205],[1141833600000,1.1211],[1141920000000,1.1235],[1142179200000,1.1306],[1142265600000,1.1345],[1142352000000,1.1411],[1142438400000,1.1435],[1142524800000,1.1379],[1142784000000,1.1429],[1142870400000,1.1461],[1142956800000,1.1532],[1143043200000,1.156],[1143129600000,1.155],[1143388800000,1.1586],[1143475200000,1.1662],[1143561600000,1.2035],[1143648000000,1.2098],[1143734400000,1.2199],[1143993600000,1.2422],[1144080000000,1.2475],[1144166400000,1.2604],[1144252800000,1.2766],[1144339200000,1.2759],[1144598400000,1.2867],[1144684800000,1.295],[1144771200000,1.2822],[1144857600000,1.247],[1144944000000,1.2697],[1145203200000,1.2787],[1145289600000,1.2884],[1145376000000,1.3156],[1145462400000,1.3199],[1145548800000,1.3389],[1145808000000,1.3552],[1145894400000,1.3752],[1145980800000,1.3917],[1146067200000,1.3895],[1146153600000,1.4115],[1147017600000,1.452],[1147104000000,1.4873],[1147190400000,1.5064],[1147276800000,1.4946],[1147363200000,1.5422],[1147622400000,1.5953],[1147708800000,1.5627],[1147795200000,1.5427],[1147881600000,1.5503],[1147968000000,1.5863],[1148227200000,1.561],[1148313600000,1.5171],[1148400000000,1.5127],[1148486400000,1.5152],[1148572800000,1.5399],[1148832000000,1.5818],[1148918400000,1.6226],[1149004800000,1.6148],[1149091200000,1.6471],[1149177600000,1.616],[1149436800000,1.6187],[1149523200000,1.5853],[1149609600000,1.5142],[1149696000000,1.524],[1149782400000,1.5139],[1150041600000,1.5339],[1150128000000,1.5391],[1150214400000,1.5246],[1150300800000,1.5302],[1150387200000,1.5656],[1150646400000,1.5855],[1150732800000,1.5831],[1150819200000,1.5712],[1150905600000,1.5682],[1150992000000,1.5717],[1151251200000,1.5911],[1151337600000,1.5957],[1151424000000,1.5876999999999999],[1151510400000,1.6189],[1151596800000,1.6202],[1151856000000,1.6481],[1151942400000,1.6415],[1152028800000,1.636],[1152115200000,1.6549],[1152201600000,1.6521],[1152460800000,1.6481],[1152547200000,1.6526],[1152633600000,1.6665],[1152720000000,1.6162],[1152806400000,1.6294],[1153065600000,1.6279],[1153152000000,1.6202],[1153238400000,1.5891],[1153324800000,1.5927],[1153411200000,1.6111],[1153670400000,1.6206],[1153756800000,1.6451],[1153843200000,1.6403],[1153929600000,1.6241],[1154016000000,1.6046],[1154275200000,1.5586],[1154361600000,1.5552],[1154448000000,1.5353],[1154534400000,1.5235],[1154620800000,1.5027],[1154880000000,1.4947],[1154966400000,1.5145],[1155052800000,1.5143],[1155139200000,1.5285],[1155225600000,1.5373],[1155484800000,1.504],[1155571200000,1.5193],[1155657600000,1.5328],[1155744000000,1.5215],[1155830400000,1.5186],[1156089600000,1.5293],[1156176000000,1.5449],[1156262400000,1.5406],[1156348800000,1.5483],[1156435200000,1.5491],[1156694400000,1.5759],[1156780800000,1.601],[1156867200000,1.5964],[1156953600000,1.6011],[1157040000000,1.5916],[1157299200000,1.6145],[1157385600000,1.6153],[1157472000000,1.6184],[1157558400000,1.6017],[1157644800000,1.6058],[1157904000000,1.611],[1157990400000,1.6142],[1158076800000,1.6064],[1158163200000,1.6124],[1158249600000,1.6257],[1158508800000,1.6354],[1158595200000,1.643],[1158681600000,1.6464],[1158768000000,1.6605],[1158854400000,1.6645],[1159113600000,1.6716],[1159200000000,1.6513],[1159286400000,1.6577],[1159372800000,1.6805],[1159459200000,1.6942],[1159545600000,1.6941],[1160323200000,1.7297],[1160409600000,1.7277],[1160496000000,1.7178],[1160582400000,1.6966],[1160668800000,1.6975],[1160928000000,1.6641],[1161014400000,1.6706],[1161100800000,1.6899],[1161187200000,1.702],[1161273600000,1.7027],[1161532800000,1.6706],[1161619200000,1.6974],[1161705600000,1.7179],[1161792000000,1.7255],[1161878400000,1.713],[1162137600000,1.7045],[1162224000000,1.7109],[1162310400000,1.7091],[1162396800000,1.7004],[1162483200000,1.7142],[1162742400000,1.7154],[1162828800000,1.7184],[1162915200000,1.7225],[1163001600000,1.7421],[1163088000000,1.7253],[1163347200000,1.6981],[1163433600000,1.7176],[1163520000000,1.7633],[1163606400000,1.7853],[1163692800000,1.814],[1163952000000,1.8287],[1164038400000,1.8362],[1164124800000,1.852],[1164211200000,1.8564],[1164297600000,1.8657],[1164556800000,1.8916],[1164643200000,1.9081],[1164729600000,1.9422],[1164816000000,1.9926],[1164902400000,2.0164],[1165161600000,2.0344],[1165248000000,2.0532],[1165334400000,2.0284],[1165420800000,2.013],[1165507200000,1.9766],[1165766400000,2.0349],[1165852800000,2.0577],[1165939200000,2.0846],[1166025600000,2.1112],[1166112000000,2.1567],[1166371200000,2.225],[1166457600000,2.2112],[1166544000000,2.2232],[1166630400000,2.2048],[1166716800000,2.1939],[1166976000000,2.2041],[1167062400000,2.1944],[1167148800000,2.2175],[1167235200000,2.2135],[1167321600000,2.2431],[1167494400000,2.2431],[1167840000000,2.2286],[1167926400000,2.2326],[1168185600000,2.2536],[1168272000000,2.2597],[1168358400000,2.2625],[1168444800000,2.2622],[1168531200000,2.2601],[1168790400000,2.2756],[1168876800000,2.2914],[1168963200000,2.2764],[1169049600000,2.2843],[1169136000000,2.2986],[1169395200000,2.32],[1169481600000,2.313],[1169568000000,2.3215],[1169654400000,2.3029],[1169740800000,2.3201],[1170000000000,2.3231],[1170086400000,2.3197],[1170172800000,2.2667],[1170259200000,2.2727],[1170345600000,2.2362],[1170604800000,2.217],[1170691200000,2.217],[1170777600000,2.232],[1170864000000,2.2364],[1170950400000,2.2314],[1171209600000,2.2696],[1171296000000,2.29],[1171382400000,2.3158],[1171468800000,2.3357],[1171555200000,2.3275],[1172419200000,2.3086],[1172505600000,2.2037],[1172592000000,2.2191],[1172678400000,2.2021],[1172764800000,2.221],[1173024000000,2.2064],[1173110400000,2.231],[1173196800000,2.2629],[1173283200000,2.2804],[1173369600000,2.2727],[1173628800000,2.2693],[1173715200000,2.2735],[1173801600000,2.2521],[1173888000000,2.2684],[1173974400000,2.259],[1174233600000,2.2744],[1174320000000,2.2622],[1174406400000,2.2691],[1174492800000,2.2724],[1174579200000,2.2666],[1174838400000,2.2756],[1174924800000,2.2754],[1175011200000,2.2744],[1175097600000,2.2839],[1175184000000,2.2752],[1175270400000,2.2752],[1175443200000,2.2887],[1175529600000,2.3088],[1175616000000,2.3247],[1175702400000,2.3386],[1175788800000,2.3408],[1176048000000,2.3486],[1176134400000,2.3608],[1176220800000,2.3679],[1176307200000,2.3815],[1176393600000,2.4006],[1176652800000,2.4353],[1176739200000,2.421],[1176825600000,2.4154],[1176912000000,2.3676],[1176998400000,2.4054],[1177257600000,2.4327],[1177344000000,2.4273],[1177430400000,2.4253],[1177516800000,2.4423],[1177603200000,2.4206],[1177862400000,2.4571],[1178553600000,2.4846],[1178640000000,2.476],[1178726400000,2.4621],[1178812800000,2.4458],[1179072000000,2.472],[1179158400000,2.4413],[1179244800000,2.4764],[1179331200000,2.5141],[1179417600000,2.5227],[1179676800000,2.5412],[1179763200000,2.5443],[1179849600000,2.5732],[1179936000000,2.5621],[1180022400000,2.5854],[1180281600000,2.6212],[1180368000000,2.6565],[1180454400000,2.5702],[1180540800000,2.6277],[1180627200000,2.6138],[1180886400000,2.5412],[1180972800000,2.5684],[1181059200000,2.5861],[1181145600000,2.6265],[1181232000000,2.6341],[1181491200000,2.6861],[1181577600000,2.7129],[1181664000000,2.7358],[1181750400000,2.7399],[1181836800000,2.74],[1182096000000,2.7793],[1182182400000,2.7697],[1182268800000,2.748],[1182355200000,2.7644],[1182441600000,2.7362],[1182700800000,2.7107],[1182787200000,2.7179],[1182873600000,2.7695],[1182960000000,2.719],[1183046400000,2.7015],[1183132800000,2.7014],[1183305600000,2.6784],[1183392000000,2.6971],[1183478400000,2.6677],[1183564800000,2.6081],[1183651200000,2.6633],[1183910400000,2.7033],[1183996800000,2.6889],[1184083200000,2.679],[1184169600000,2.6887],[1184256000000,2.6903],[1184515200000,2.6601],[1184601600000,2.6958],[1184688000000,2.7025],[1184774400000,2.7024],[1184860800000,2.7631],[1185120000000,2.8114],[1185206400000,2.8032],[1185292800000,2.8101],[1185379200000,2.8175],[1185465600000,2.801],[1185724800000,2.8339],[1185811200000,2.855],[1185897600000,2.8104],[1185984000000,2.8484],[1186070400000,2.9103],[1186329600000,2.9386],[1186416000000,2.9454],[1186502400000,2.927],[1186588800000,2.9758],[1186675200000,2.9539],[1186934400000,2.9417],[1187020800000,2.9614],[1187107200000,2.961],[1187193600000,2.935],[1187280000000,2.9063],[1187539200000,2.9886],[1187625600000,3.0279],[1187712000000,3.0632],[1187798400000,3.1018],[1187884800000,3.1215],[1188144000000,3.1158],[1188230400000,3.1057],[1188316800000,3.085],[1188403200000,3.1025],[1188489600000,3.1294],[1188748800000,3.1407],[1188835200000,3.1215],[1188921600000,3.1182],[1189008000000,3.1317],[1189094400000,3.0945],[1189353600000,3.1046],[1189440000000,3.0481],[1189526400000,3.0634],[1189612800000,3.1038],[1189699200000,3.1227],[1189958400000,3.142],[1190044800000,3.1147],[1190131200000,3.095],[1190217600000,3.1214],[1190304000000,3.1167],[1190563200000,3.1088],[1190649600000,3.1135],[1190736000000,3.0991],[1190822400000,3.1283],[1190908800000,3.1786],[1191081600000,3.1785],[1191772800000,3.2059],[1191859200000,3.2136],[1191945600000,3.2232],[1192032000000,3.2606],[1192118400000,3.2524],[1192377600000,3.2482],[1192464000000,3.2727],[1192550400000,3.2586],[1192636800000,3.2023],[1192723200000,3.2368],[1192982400000,3.203],[1193068800000,3.229],[1193155200000,3.2429],[1193241600000,3.1789],[1193328000000,3.1961],[1193587200000,3.2088],[1193673600000,3.2111],[1193760000000,3.2525],[1193846400000,3.2159],[1193932800000,3.1744],[1194192000000,3.1556],[1194278400000,3.151],[1194364800000,3.1554],[1194451200000,3.0938],[1194537600000,3.0815],[1194796800000,3.0722],[1194883200000,3.0581],[1194969600000,3.1205],[1195056000000,3.0947],[1195142400000,3.0699],[1195401600000,3.0692],[1195488000000,3.0963],[1195574400000,3.0836],[1195660800000,3.0204],[1195747200000,3.0412],[1196006400000,3.0335],[1196092800000,3.0024],[1196179200000,2.9865],[1196265600000,3.0223],[1196352000000,2.9931],[1196611200000,3.0044],[1196697600000,3.0252],[1196784000000,3.0714],[1196870400000,3.075],[1196956800000,3.0932],[1197216000000,3.1431],[1197302400000,3.1644],[1197388800000,3.1592],[1197475200000,3.0947],[1197561600000,3.1437],[1197820800000,3.1328],[1197907200000,3.1164],[1197993600000,3.1489],[1198080000000,3.1699],[1198166400000,3.1906],[1198425600000,3.2315],[1198512000000,3.2425],[1198598400000,3.2704],[1198684800000,3.2977],[1198771200000,3.2916],[1198857600000,3.2915],[1199030400000,3.2913],[1199203200000,3.317],[1199289600000,3.3096],[1199376000000,3.3231],[1199635200000,3.3508],[1199721600000,3.3474],[1199808000000,3.379],[1199894400000,3.3955],[1199980800000,3.4059],[1200240000000,3.4272],[1200326400000,3.4196],[1200412800000,3.3749],[1200499200000,3.3507],[1200585600000,3.3619],[1200844800000,3.2899],[1200931200000,3.1782],[1201017600000,3.2763],[1201104000000,3.314],[1201190400000,3.3194],[1201449600000,3.2253],[1201536000000,3.2153],[1201622400000,3.191],[1201708800000,3.1491],[1201795200000,3.1367],[1202054400000,3.2618],[1202140800000,3.2371],[1202832000000,3.1984],[1202918400000,3.2166],[1203004800000,3.2036],[1203264000000,3.2602],[1203350400000,3.286],[1203436800000,3.2476],[1203523200000,3.2481],[1203609600000,3.1885],[1203868800000,3.1313],[1203955200000,3.098],[1204041600000,3.1333],[1204128000000,3.1294],[1204214400000,3.1579],[1204473600000,3.2073],[1204560000000,3.1796],[1204646400000,3.1654],[1204732800000,3.1702],[1204819200000,3.1434],[1205078400000,3.0753],[1205164800000,3.0728],[1205251200000,3.0296],[1205337600000,2.9983],[1205424000000,2.9865],[1205683200000,2.9271],[1205769600000,2.8675],[1205856000000,2.9032],[1205942400000,2.9423],[1206028800000,2.9592],[1206288000000,2.9036],[1206374400000,2.915],[1206460800000,2.9197],[1206547200000,2.8928],[1206633600000,2.9344],[1206892800000,2.9039],[1206979200000,2.8411],[1207065600000,2.8237],[1207152000000,2.8444],[1207497600000,2.905],[1207584000000,2.9221],[1207670400000,2.8711],[1207756800000,2.8849],[1207843200000,2.8997],[1208102400000,2.841],[1208188800000,2.8475],[1208275200000,2.836],[1208361600000,2.8073],[1208448000000,2.7897],[1208707200000,2.7859],[1208793600000,2.7757],[1208880000000,2.8249],[1208966400000,2.9203],[1209052800000,2.9029],[1209312000000,2.8782],[1209398400000,2.8869],[1209484800000,2.9445],[1209916800000,2.977],[1210003200000,2.9639],[1210089600000,2.9116],[1210176000000,2.9492],[1210262400000,2.9478],[1210521600000,2.9517],[1210608000000,2.9532],[1210694400000,2.9773],[1210780800000,2.9584],[1210867200000,2.9477],[1211126400000,2.9443],[1211212800000,2.8857],[1211299200000,2.9065],[1211385600000,2.8854],[1211472000000,2.8834],[1211731200000,2.8518],[1211817600000,2.8558],[1211904000000,2.8793],[1211990400000,2.86],[1212076800000,2.861],[1212336000000,2.859],[1212422400000,2.8553],[1212508800000,2.8359],[1212595200000,2.8246],[1212681600000,2.8247],[1213027200000,2.7434],[1213113600000,2.7427],[1213200000000,2.7233],[1213286400000,2.6896],[1213545600000,2.6778],[1213632000000,2.6579],[1213718400000,2.7015],[1213804800000,2.6352],[1213891200000,2.659],[1214150400000,2.637],[1214236800000,2.6622],[1214323200000,2.707],[1214409600000,2.714],[1214496000000,2.6721],[1214755200000,2.6669],[1214841600000,2.6389],[1214928000000,2.6437],[1215014400000,2.6707],[1215100800000,2.6655],[1215360000000,2.7093],[1215446400000,2.7147],[1215532800000,2.7437],[1215619200000,2.7396],[1215705600000,2.7304],[1215964800000,2.7355],[1216051200000,2.6984],[1216137600000,2.6677],[1216224000000,2.6645],[1216310400000,2.6878],[1216569600000,2.7229],[1216656000000,2.72],[1216742400000,2.7088],[1216828800000,2.7353],[1216915200000,2.7274],[1217174400000,2.7336],[1217260800000,2.7221],[1217347200000,2.7172],[1217433600000,2.6964],[1217520000000,2.7088],[1217779200000,2.6947],[1217865600000,2.6758],[1217952000000,2.6765],[1218038400000,2.666],[1218124800000,2.6337],[1218384000000,2.5971],[1218470400000,2.5968],[1218556800000,2.6021],[1218643200000,2.6095],[1218729600000,2.6102],[1218988800000,2.5699],[1219075200000,2.5773],[1219161600000,2.6385],[1219248000000,2.6041],[1219334400000,2.5883],[1219593600000,2.5837],[1219680000000,2.5589],[1219766400000,2.5393],[1219852800000,2.537],[1219939200000,2.5546],[1220198400000,2.519],[1220284800000,2.5015],[1220371200000,2.4767],[1220457600000,2.4796],[1220544000000,2.4631],[1220803200000,2.4414],[1220889600000,2.4406],[1220976000000,2.4404],[1221062400000,2.4207],[1221148800000,2.4231],[1221494400000,2.4113],[1221580800000,2.3963],[1221667200000,2.379],[1221753600000,2.4559],[1222012800000,2.4795],[1222099200000,2.432],[1222185600000,2.4315],[1222272000000,2.4557],[1222358400000,2.471],[1222704000000,2.4709],[1223222400000,2.4386],[1223308800000,2.4344],[1223395200000,2.4114],[1223481600000,2.403],[1223568000000,2.3712],[1223827200000,2.3837],[1223913600000,2.3688],[1224000000000,2.359],[1224086400000,2.3342],[1224172800000,2.333],[1224432000000,2.3495],[1224518400000,2.3495],[1224604800000,2.3394],[1224691200000,2.3392],[1224777600000,2.3232],[1225036800000,2.2817],[1225123200000,2.2923],[1225209600000,2.2806],[1225296000000,2.2931],[1225382400000,2.2846],[1225641600000,2.2834],[1225728000000,2.276],[1225814400000,2.2935],[1225900800000,2.2767],[1225987200000,2.2755],[1226246400000,2.3164],[1226332800000,2.31],[1226419200000,2.3092],[1226505600000,2.3357],[1226592000000,2.3736],[1226851200000,2.3977],[1226937600000,2.3517],[1227024000000,2.3996],[1227110400000,2.3987],[1227196800000,2.3939],[1227456000000,2.3681],[1227542400000,2.3641],[1227628800000,2.3649],[1227715200000,2.3844],[1227801600000,2.3839],[1228060800000,2.3966],[1228147200000,2.4074],[1228233600000,2.4392],[1228320000000,2.4509],[1228406400000,2.4615],[1228665600000,2.4889],[1228752000000,2.4738],[1228838400000,2.4904],[1228924800000,2.4736],[1229011200000,2.4488],[1229270400000,2.4601],[1229356800000,2.469],[1229443200000,2.4825],[1229529600000,2.495],[1229616000000,2.5044],[1229875200000,2.5003],[1229961600000,2.4577],[1230048000000,2.4454],[1230134400000,2.4404],[1230220800000,2.432],[1230480000000,2.4333],[1230566400000,2.4338],[1230652800000,2.4344],[1231084800000,2.4448],[1231171200000,2.4587],[1231257600000,2.4546],[1231344000000,2.4419],[1231430400000,2.4528],[1231689600000,2.4509],[1231776000000,2.4361],[1231862400000,2.46],[1231948800000,2.4565],[1232035200000,2.4639],[1232294400000,2.4711],[1232380800000,2.4754],[1232467200000,2.468],[1232553600000,2.4747],[1232640000000,2.4706],[1233504000000,2.4784],[1233590400000,2.4967],[1233676800000,2.514],[1233763200000,2.5083],[1233849600000,2.539],[1234108800000,2.5601],[1234195200000,2.5672],[1234281600000,2.5751],[1234368000000,2.5825],[1234454400000,2.6089],[1234713600000,2.6186],[1234800000000,2.5934],[1234886400000,2.5572],[1234972800000,2.568],[1235059200000,2.5845],[1235318400000,2.6071],[1235404800000,2.5755],[1235491200000,2.5708],[1235577600000,2.5288],[1235664000000,2.5138],[1235923200000,2.525],[1236009600000,2.5187],[1236096000000,2.5778],[1236182400000,2.5742],[1236268800000,2.5672],[1236528000000,2.5378],[1236614400000,2.5548],[1236700800000,2.5464],[1236787200000,2.543],[1236873600000,2.5373],[1237132800000,2.5468],[1237219200000,2.5755],[1237305600000,2.5776],[1237392000000,2.596],[1237478400000,2.5868],[1237737600000,2.6058],[1237824000000,2.6154],[1237910400000,2.5964],[1237996800000,2.6065],[1238083200000,2.6128],[1238342400000,2.6079],[1238428800000,2.6188],[1238515200000,2.6312],[1238601600000,2.6445],[1238688000000,2.6368],[1239033600000,2.6381],[1239120000000,2.6115],[1239206400000,2.6263],[1239292800000,2.6553],[1239552000000,2.6726],[1239638400000,2.6851],[1239724800000,2.6952],[1239811200000,2.6982],[1239897600000,2.6929],[1240156800000,2.7172],[1240243200000,2.7137],[1240329600000,2.6796],[1240416000000,2.6816],[1240502400000,2.674],[1240761600000,2.6613],[1240848000000,2.6607],[1240934400000,2.6841],[1241020800000,2.6949],[1241366400000,2.721],[1241452800000,2.7202],[1241539200000,2.7285],[1241625600000,2.7227],[1241712000000,2.7291],[1241971200000,2.706],[1242057600000,2.7248],[1242144000000,2.7304],[1242230400000,2.7276],[1242316800000,2.7333],[1242576000000,2.7333],[1242662400000,2.7362],[1242748800000,2.7235],[1242835200000,2.7025],[1242921600000,2.7006],[1243180800000,2.7004],[1243267200000,2.7003],[1243353600000,2.7074],[1243785600000,2.7302],[1243872000000,2.7385],[1243958400000,2.7548],[1244044800000,2.7542],[1244131200000,2.767],[1244390400000,2.7727],[1244476800000,2.7781],[1244563200000,2.7937],[1244649600000,2.787],[1244736000000,2.7732],[1244995200000,2.8061],[1245081600000,2.8015],[1245168000000,2.8239],[1245254400000,2.8386],[1245340800000,2.8431],[1245600000000,2.8405],[1245686400000,2.8386],[1245772800000,2.8456],[1245859200000,2.8469],[1245945600000,2.8478],[1246204800000,2.8688],[1246291200000,2.8679],[1246377600000,2.884],[1246464000000,2.8941],[1246550400000,2.9042],[1246809600000,2.9034],[1246896000000,2.9029],[1246982400000,2.9076],[1247068800000,2.933],[1247155200000,2.9419],[1247414400000,2.9408],[1247500800000,2.9726],[1247587200000,2.9697],[1247673600000,2.9631],[1247760000000,2.9649],[1248019200000,2.984],[1248105600000,2.9666],[1248192000000,2.9872],[1248278400000,2.9964],[1248364800000,2.9882],[1248624000000,3.0121],[1248710400000,3.011],[1248796800000,2.9448],[1248883200000,2.9653],[1248969600000,2.9934],[1249228800000,3.0084],[1249315200000,3.0121],[1249401600000,3.0069],[1249488000000,2.9893],[1249574400000,2.9587],[1249833600000,2.9658],[1249920000000,2.9775],[1250006400000,2.9276],[1250092800000,2.9324],[1250179200000,2.8931],[1250438400000,2.8168],[1250524800000,2.8232],[1250611200000,2.7871],[1250697600000,2.83],[1250784000000,2.8636],[1251043200000,2.8896],[1251129600000,2.8676],[1251216000000,2.9004],[1251302400000,2.9071],[1251388800000,2.8763],[1251648000000,2.8038],[1251734400000,2.814],[1251820800000,2.8245],[1251907200000,2.8785],[1251993600000,2.8919],[1252252800000,2.9193],[1252339200000,2.9523],[1252425600000,2.956],[1252512000000,2.9427],[1252598400000,2.9684],[1252857600000,2.9949],[1252944000000,3.0012],[1253030400000,2.9897],[1253116800000,3.0113],[1253203200000,2.9683],[1253462400000,2.9893],[1253548800000,2.9703],[1253635200000,2.9346],[1253721600000,2.9304],[1253808000000,2.9274],[1254067200000,2.9077],[1254153600000,2.9033],[1254240000000,2.9148],[1255017600000,2.9625],[1255276800000,2.9591],[1255363200000,2.9715],[1255449600000,2.9746],[1255536000000,2.9738],[1255622400000,2.9748],[1255881600000,3.0047],[1255968000000,3.0255],[1256054400000,3.013],[1256140800000,3.0091],[1256227200000,3.0326],[1256486400000,3.034],[1256572800000,3.0036],[1256659200000,3.0052],[1256745600000,2.9785],[1256832000000,2.9964],[1257091200000,3.0514],[1257177600000,3.0649],[1257264000000,3.0748],[1257350400000,3.0729],[1257436800000,3.0728],[1257696000000,3.0776],[1257782400000,3.0823],[1257868800000,3.0795],[1257955200000,3.0871],[1258041600000,3.1034],[1258300800000,3.1439],[1258387200000,3.1437],[1258473600000,3.1437],[1258560000000,3.1495],[1258646400000,3.1439],[1258905600000,3.1635],[1258992000000,3.1082],[1259078400000,3.1469],[1259164800000,3.0849],[1259251200000,3.0515],[1259510400000,3.1154],[1259596800000,3.1393],[1259683200000,3.1495],[1259769600000,3.1464],[1259856000000,3.1506],[1260115200000,3.1658],[1260201600000,3.1515],[1260288000000,3.1267],[1260374400000,3.1358],[1260460800000,3.1379],[1260720000000,3.1499],[1260806400000,3.1457],[1260892800000,3.1354],[1260979200000,3.0974],[1261065600000,3.0593],[1261324800000,3.0563],[1261411200000,3.0268],[1261497600000,3.0436],[1261584000000,3.0927],[1261670400000,3.095],[1261929600000,3.1152],[1262016000000,3.123],[1262102400000,3.1345],[1262188800000,3.1427],[1262534400000,3.1349],[1262620800000,3.1486],[1262707200000,3.1437],[1262793600000,3.1136],[1262880000000,3.1207],[1263139200000,3.1211],[1263225600000,3.1454],[1263312000000,3.1138],[1263398400000,3.1367],[1263484800000,3.1479],[1263744000000,3.1595],[1263830400000,3.1577],[1263916800000,3.1068],[1264003200000,3.1085],[1264089600000,3.086],[1264348800000,3.0743],[1264435200000,3.0387],[1264521600000,3.0259],[1264608000000,3.0397],[1264694400000,3.0457],[1264953600000,3.0324],[1265040000000,3.0237],[1265126400000,3.0487],[1265212800000,3.0482],[1265299200000,3.0289],[1265558400000,3.0268],[1265644800000,3.0287],[1265731200000,3.0495],[1265817600000,3.0517],[1265904000000,3.0666],[1266768000000,3.0543],[1266854400000,3.0433],[1266940800000,3.064],[1267027200000,3.086],[1267113600000,3.0848],[1267372800000,3.0969],[1267459200000,3.0961],[1267545600000,3.0998],[1267632000000,3.0642],[1267718400000,3.0661],[1267977600000,3.0752],[1268064000000,3.0811],[1268150400000,3.0693],[1268236800000,3.0625],[1268323200000,3.046],[1268582400000,3.0285],[1268668800000,3.0334],[1268755200000,3.0635],[1268841600000,3.0621],[1268928000000,3.067],[1269187200000,3.0709],[1269273600000,3.0646],[1269360000000,3.0681],[1269446400000,3.0578],[1269532800000,3.0769],[1269792000000,3.0975],[1269878400000,3.1027],[1269964800000,3.0995],[1270051200000,3.1226],[1270137600000,3.1234],[1270483200000,3.1154],[1270569600000,3.1112],[1270656000000,3.1024],[1270742400000,3.1151],[1271001600000,3.1104],[1271088000000,3.1179],[1271174400000,3.1269],[1271260800000,3.111],[1271347200000,3.1056],[1271606400000,3.0508],[1271692800000,3.0579],[1271779200000,3.0931],[1271865600000,3.0998],[1271952000000,3.0901],[1272211200000,3.0845],[1272297600000,3.0588],[1272384000000,3.0591],[1272470400000,3.028],[1272556800000,3.0222],[1272902400000,3.0092],[1272988800000,3.0344],[1273075200000,2.9886],[1273161600000,2.9699],[1273420800000,2.9678],[1273507200000,2.9442],[1273593600000,2.9395],[1273680000000,2.9683],[1273766400000,2.9678],[1274025600000,2.9075],[1274112000000,2.9323],[1274198400000,2.938],[1274284800000,2.9294],[1274371200000,2.9583],[1274630400000,3.0005],[1274716800000,2.9752],[1274803200000,2.9725],[1274889600000,2.9919],[1274976000000,2.9911],[1275235200000,2.9651],[1275321600000,2.9553],[1275408000000,2.9655],[1275494400000,2.9635],[1275580800000,2.9687],[1275840000000,2.9643],[1275926400000,2.9726],[1276012800000,3.0004],[1276099200000,3.0008],[1276185600000,2.9987],[1276704000000,2.977],[1276790400000,2.9462],[1277049600000,2.9785],[1277136000000,2.981],[1277222400000,2.9749],[1277308800000,2.9791],[1277395200000,2.9676],[1277654400000,2.9546],[1277740800000,2.9012],[1277827200000,2.9007],[1277913600000,2.8787],[1278000000000,2.8745],[1278259200000,2.8788],[1278345600000,2.8997],[1278432000000,2.9093],[1278518400000,2.914],[1278604800000,2.9447],[1278864000000,2.9546],[1278950400000,2.9376],[1279036800000,2.938],[1279123200000,2.9216],[1279209600000,2.9256],[1279468800000,2.9513],[1279555200000,2.9723],[1279641600000,2.9764],[1279728000000,2.9908],[1279814400000,2.9964],[1280073600000,3.0065],[1280160000000,3.0069],[1280246400000,3.03],[1280332800000,3.0292],[1280419200000,3.0292],[1280678400000,3.0521],[1280764800000,3.0392],[1280851200000,3.0455],[1280937600000,3.0473],[1281024000000,3.066],[1281283200000,3.078],[1281369600000,3.0354],[1281456000000,3.0515],[1281542400000,3.042],[1281628800000,3.0666],[1281888000000,3.0974],[1281974400000,3.1136],[1282060800000,3.1082],[1282147200000,3.1056],[1282233600000,3.0811],[1282492800000,3.0902],[1282579200000,3.1057],[1282665600000,3.0818],[1282752000000,3.0935],[1282838400000,3.1111],[1283097600000,3.1462],[1283184000000,3.1496],[1283270400000,3.137],[1283356800000,3.1626],[1283443200000,3.1757],[1283702400000,3.1742],[1283788800000,3.1747],[1283875200000,3.1749],[1283961600000,3.1616],[1284048000000,3.1766],[1284307200000,3.1955],[1284393600000,3.1972],[1284480000000,3.1721],[1284566400000,3.145],[1284652800000,3.1572],[1284912000000,3.1534],[1284998400000,3.1547],[1285516800000,3.1774],[1285603200000,3.1727],[1285689600000,3.1538],[1285776000000,3.1777],[1286467200000,3.2148],[1286726400000,3.2121],[1286812800000,3.2121],[1286899200000,3.2273],[1286985600000,3.2006],[1287072000000,3.2191],[1287331200000,3.2052],[1287417600000,3.2489],[1287504000000,3.2718],[1287590400000,3.2573],[1287676800000,3.2595],[1287936000000,3.297],[1288022400000,3.2909],[1288108800000,3.2743],[1288195200000,3.2817],[1288281600000,3.292],[1288540800000,3.3366],[1288627200000,3.3215],[1288713600000,3.3047],[1288800000000,3.321],[1288886400000,3.3464],[1289145600000,3.3666],[1289232000000,3.3723],[1289318400000,3.3928],[1289404800000,3.3888],[1289491200000,3.3263],[1289750400000,3.356],[1289836800000,3.3201],[1289923200000,3.2547],[1290009600000,3.2795],[1290096000000,3.3232],[1290355200000,3.3483],[1290441600000,3.3366],[1290528000000,3.3769],[1290614400000,3.3878],[1290700800000,3.3767],[1290960000000,3.3838],[1291046400000,3.3538],[1291132800000,3.3478],[1291219200000,3.3537],[1291305600000,3.3581],[1291564800000,3.3499],[1291651200000,3.3825],[1291737600000,3.4016],[1291824000000,3.3747],[1291910400000,3.3959],[1292169600000,3.4479],[1292256000000,3.458],[1292342400000,3.4413],[1292428800000,3.4361],[1292515200000,3.4308],[1292774400000,3.416],[1292860800000,3.434],[1292947200000,3.417],[1293033600000,3.3957],[1293120000000,3.3838],[1293379200000,3.3562],[1293465600000,3.3337],[1293552000000,3.3553],[1293638400000,3.3691],[1293724800000,3.4222],[1294070400000,3.4412],[1294156800000,3.4394],[1294243200000,3.421],[1294329600000,3.4175],[1294588800000,3.3772],[1294675200000,3.3691],[1294761600000,3.3714],[1294848000000,3.3719],[1294934400000,3.3439],[1295193600000,3.2881],[1295280000000,3.2981],[1295366400000,3.3313],[1295452800000,3.2813],[1295539200000,3.2844],[1295798400000,3.2423],[1295884800000,3.2284],[1295971200000,3.2531],[1296057600000,3.2731],[1296144000000,3.284],[1296403200000,3.2978],[1296489600000,3.3006],[1297180800000,3.2846],[1297267200000,3.3167],[1297353600000,3.3339],[1297612800000,3.3703],[1297699200000,3.3651],[1297785600000,3.3732],[1297872000000,3.3772],[1297958400000,3.3596],[1298217600000,3.3734],[1298304000000,3.3372],[1298390400000,3.3417],[1298476800000,3.3443],[1298563200000,3.3489],[1298822400000,3.3707],[1298908800000,3.3767],[1298995200000,3.3743],[1299081600000,3.364],[1299168000000,3.3781],[1299427200000,3.3917],[1299513600000,3.3898],[1299600000000,3.3974],[1299686400000,3.3825],[1299772800000,3.3733],[1300032000000,3.3877],[1300118400000,3.3636],[1300204800000,3.3773],[1300291200000,3.3535],[1300377600000,3.3577],[1300636800000,3.343],[1300723200000,3.345],[1300809600000,3.3613],[1300896000000,3.3591],[1300982400000,3.3691],[1301241600000,3.35],[1301328000000,3.3314],[1301414400000,3.3184],[1301500800000,3.3101],[1301587200000,3.3269],[1302019200000,3.3163],[1302105600000,3.3177],[1302192000000,3.3355],[1302451200000,3.3242],[1302537600000,3.329],[1302624000000,3.3466],[1302710400000,3.3407],[1302796800000,3.349],[1303056000000,3.359],[1303142400000,3.344],[1303228800000,3.3474],[1303315200000,3.3532],[1303401600000,3.34],[1303660800000,3.3455],[1303747200000,3.3317],[1303833600000,3.3265],[1303920000000,3.2969],[1304006400000,3.3125],[1304352000000,3.3304],[1304438400000,3.3101],[1304524800000,3.3175],[1304611200000,3.326],[1304870400000,3.3302],[1304956800000,3.3325],[1305043200000,3.3354],[1305129600000,3.328],[1305216000000,3.3319],[1305475200000,3.3273],[1305561600000,3.3193],[1305648000000,3.3313],[1305734400000,3.3304],[1305820800000,3.3279],[1306080000000,3.2921],[1306166400000,3.2948],[1306252800000,3.2829],[1306339200000,3.2732],[1306425600000,3.2614],[1306684800000,3.2566],[1306771200000,3.267],[1306857600000,3.2796],[1306944000000,3.2586],[1307030400000,3.2817],[1307376000000,3.2866],[1307462400000,3.2978],[1307548800000,3.27],[1307635200000,3.2727],[1307894400000,3.2691],[1307980800000,3.2836],[1308067200000,3.2712],[1308153600000,3.2498],[1308240000000,3.2345],[1308499200000,3.2211],[1308585600000,3.2336],[1308672000000,3.2306],[1308758400000,3.2538],[1308844800000,3.283],[1309104000000,3.2935],[1309190400000,3.2934],[1309276800000,3.2796],[1309363200000,3.2992],[1309449600000,3.3061],[1309708800000,3.3347],[1309795200000,3.3393],[1309881600000,3.3389],[1309968000000,3.3488],[1310054400000,3.3528],[1310313600000,3.3618],[1310400000000,3.345],[1310486400000,3.3667],[1310572800000,3.3694],[1310659200000,3.3823],[1310918400000,3.3789],[1311004800000,3.3637],[1311091200000,3.3654],[1311177600000,3.3584],[1311264000000,3.3626],[1311523200000,3.3248],[1311609600000,3.3245],[1311696000000,3.348],[1311782400000,3.3479],[1311868800000,3.3414],[1312128000000,3.3389],[1312214400000,3.339],[1312300800000,3.3476],[1312387200000,3.3488],[1312473600000,3.3332],[1312732800000,3.3054],[1312819200000,3.3195],[1312905600000,3.3369],[1312992000000,3.3733],[1313078400000,3.3752],[1313337600000,3.3896],[1313424000000,3.3743],[1313510400000,3.37],[1313596800000,3.3457],[1313683200000,3.3407],[1313942400000,3.3214],[1314028800000,3.3358],[1314115200000,3.3417],[1314201600000,3.3714],[1314288000000,3.3724],[1314547200000,3.3661],[1314633600000,3.3557],[1314720000000,3.3451],[1314806400000,3.3311],[1314892800000,3.3167],[1315152000000,3.291],[1315238400000,3.2791],[1315324800000,3.3076],[1315411200000,3.2911],[1315497600000,3.2842],[1315843200000,3.2668],[1315929600000,3.2717],[1316016000000,3.2769],[1316102400000,3.2784],[1316361600000,3.2508],[1316448000</t>
   </si>
   <si>
+    <t>[[1213804800000, 0.0], [1221667200000, -7.39], [1224000000000, -7.73], [1225814400000, -10.18], [1227628800000, -4.63], [1229443200000, 2.04], [1231430400000, 2.26], [1233849600000, 11.67], [1235664000000, 9.03], [1237478400000, 15.69], [1239552000000, 27.62], [1241452800000, 32.02], [1243267200000, 32.96], [1245254400000, 35.19], [1247068800000, 49.2], [1248883200000, 54.72], [1250697600000, 40.83], [1252512000000, 46.78], [1255017600000, 48.52], [1256832000000, 57.43], [1258646400000, 74.51], [1260460800000, 74.93], [1262534400000, 73.43], [1264348800000, 64.56], [1266768000000, 62.85], [1268582400000, 60.78], [1270483200000, 76.56], [1272297600000, 70.7], [1274198400000, 49.97], [1276012800000, 58.34], [1278259200000, 33.59], [1280073600000, 51.82], [1281888000000, 64.74], [1283702400000, 73.29], [1285776000000, 75.56], [1288195200000, 89.36], [1290009600000, 90.52], [1291824000000, 96.78], [1293638400000, 94.87], [1295539200000, 78.04], [1297958400000, 94.35], [1299772800000, 96.95], [1301587200000, 91.95], [1303747200000, 90.34], [1305648000000, 84.49], [1307548800000, 73.95], [1309363200000, 78.2], [1311177600000, 86.49], [1312992000000, 84.34], [1314806400000, 80.22], [1316707200000, 69.15], [1319126400000, 53.08], [1320940800000, 66.65], [1322755200000, 60.36], [1324569600000, 46.4], [1326643200000, 33.33], [1329062400000, 47.65], [1330876800000, 55.16], [1332691200000, 52.31], [1334678400000, 53.91], [1336665600000, 56.29], [1338480000000, 59.12], [1340553600000, 50.92], [1342108800000, 52.35], [1343923200000, 44.74], [1345737600000, 43.29], [1347552000000, 43.23], [1349884800000, 43.07], [1351699200000, 43.88], [1353513600000, 37.2], [1355328000000, 38.96], [1357574400000, 53.49], [1359388800000, 61.29], [1361808000000, 61.6], [1363622400000, 59.37], [1365609600000, 59.03], [1367856000000, 63.96], [1369670400000, 71.82], [1371744000000, 61.98], [1373472000000, 69.6], [1375286400000, 67.1], [1377100800000, 70.12], [1378915200000, 71.23], [1381680000000, 76.49], [1383494400000, 71.99], [1385308800000, 65.24], [1387123200000, 66.08], [1389024000000, 61.19], [1390838400000, 61.97], [1393257600000, 56.3], [1395072000000, 62.38], [1396972800000, 66.54], [1398787200000, 62.74], [1400774400000, 61.38], [1402848000000, 64.08], [1404662400000, 65.98], [1406476800000, 80.43], [1408291200000, 79.58], [1410192000000, 82.05], [1412006400000, 76.57], [1414425600000, 71.93], [1416240000000, 75.75], [1418054400000, 93.49], [1419868800000, 111.67], [1421856000000, 131.32], [1423670400000, 124.37], [1426089600000, 130.99], [1427904000000, 157.31], [1429804800000, 185.87], [1431878400000, 184.34], [1433692800000, 220.29], [1435593600000, 202.75], [1437408000000, 186.98], [1439222400000, 185.53], [1441036800000, 148.37], [1443024000000, 146.11], [1445443200000, 156.81], [1447257600000, 175.54], [1449072000000, 170.73], [1450886400000, 180.32], [1452787200000, 139.79], [1454601600000, 135.95], [1457020800000, 143.88], [1458835200000, 154.92], [1460908800000, 156.06], [1462809600000, 160.22], [1464624000000, 166.83], [1466611200000, 178.49], [1468425600000, 202.25], [1470240000000, 202.44], [1472054400000, 203.71], [1474214400000, 199.05], [1476633600000, 201.88], [1478448000000, 202.88], [1480262400000, 209.73], [1482076800000, 199.86], [1483891200000, 206.71], [1486310400000, 206.53], [1488124800000, 220.16], [1489939200000, 234.9], [1491926400000, 241.88], [1493827200000, 254.49], [1495641600000, 264.43], [1497801600000, 275.38], [1499616000000, 269.73], [1501430400000, 274.39], [1503244800000, 277.93], [1505059200000, 275.74], [1507478400000, 291.94], [1509292800000, 321.11], [1511107200000, 337.57], [1512921600000, 326.77], [1514649600000, 339.61], [1516550400000, 368.93], [1518364800000, 323.68], [1520784000000, 354.32], [1522598400000, 335.42], [1524585600000, 345.88], [1526572800000, 374.01], [1528387200000, 393.35], [1530288000000, 368.22], [1532016000000, 370.07], [1533830400000, 342.81], [1535644800000, 319.76], [1537459200000, 334.99], [1540137600000, 319.07], [1541952000000, 281.48], [1543766400000, 305.82], [1545580800000, 277.7], [1547481600000, 287.14], [1549900800000, 325.41], [1551715200000, 370.16], [1553529600000, 373.85], [1555430400000, 425.12], [1557676800000, 410.8], [1559491200000, 409.09], [1561392000000, 450.23], [1563120000000, 475.31], [1564934400000, 439.96], [1566748800000, 485.62], [1568649600000, 487.47], [1571068800000, 515.62], [1572883200000, 527.17], [1574697600000, 515.14], [1576512000000, 515.87], [1578412800000, 505.94], [1580918400000, 509.03], [1582732800000, 521.77], [1584547200000, 449.83], [1586448000000, 519.76], [1588694400000, 545.68], [1590508800000, 580.02], [1592323200000, 627.46], [1594310400000, 750.65], [1596124800000, 780.46], [1597939200000, 793.37], [1599753600000, 811.97], [1602432000000, 854.25], [1604246400000, 882.2], [1606060800000, 920.49], [1607875200000, 970.92], [1609776000000, 1109.69], [1611590400000, 1130.13], [1614009600000, 1149.42], [1615824000000, 968.79], [1617724800000, 1003.92], [1619539200000, 1046.06], [1621785600000, 1065.05], [1623686400000, 1021.46], [1625500800000, 997.37], [1627315200000, 920.8], [1628438400000, 946.3]]</t>
+  </si>
+  <si>
     <t>110011</t>
   </si>
   <si>
@@ -143,13 +185,19 @@
     <t xml:space="preserve"> [[1213804800000,1.0],[1213891200000,1.0001],[1214496000000,0.9999],[1214755200000,0.9999],[1215100800000,1.0002],[1215705600000,1.0031],[1216310400000,0.9961],[1216915200000,1.0054],[1217520000000,0.9945],[1218124800000,0.9739],[1218729600000,0.9658],[1219334400000,0.9599],[1219939200000,0.9523],[1220544000000,0.9336],[1221148800000,0.9299],[1221667200000,0.9261],[1221753600000,0.9378],[1222012800000,0.9425],[1222099200000,0.9284],[1222185600000,0.9294],[1222272000000,0.9402],[1222358400000,0.9451],[1222704000000,0.9451],[1223222400000,0.9305],[1223308800000,0.9354],[1223395200000,0.9271],[1223481600000,0.9258],[1223568000000,0.916],[1223827200000,0.9266],[1223913600000,0.9235],[1224000000000,0.9227],[1224086400000,0.9077],[1224172800000,0.9086],[1224432000000,0.9159],[1224518400000,0.916],[1224604800000,0.912],[1224691200000,0.9115],[1224777600000,0.9054],[1225036800000,0.891],[1225123200000,0.8974],[1225209600000,0.8918],[1225296000000,0.897],[1225382400000,0.8952],[1225641600000,0.8948],[1225728000000,0.8886],[1225814400000,0.8982],[1225900800000,0.8939],[1225987200000,0.896],[1226246400000,0.9133],[1226332800000,0.9114],[1226419200000,0.9121],[1226505600000,0.93],[1226592000000,0.9459],[1226851200000,0.9612],[1226937600000,0.9432],[1227024000000,0.9672],[1227110400000,0.964],[1227196800000,0.9685],[1227456000000,0.9515],[1227542400000,0.9505],[1227628800000,0.9537],[1227715200000,0.9629],[1227801600000,0.9629],[1228060800000,0.9763],[1228147200000,0.9848],[1228233600000,0.996],[1228320000000,0.999],[1228406400000,1.0104],[1228665600000,1.0271],[1228752000000,1.0113],[1228838400000,1.0313],[1228924800000,1.0202],[1229011200000,0.9993],[1229270400000,1.0039],[1229356800000,1.0149],[1229443200000,1.0204],[1229529600000,1.0308],[1229616000000,1.0394],[1229875200000,1.0327],[1229961600000,1.0067],[1230048000000,0.9979],[1230134400000,0.9956],[1230220800000,0.9931],[1230480000000,0.9925],[1230566400000,0.9946],[1230652800000,0.9959],[1231084800000,1.0095],[1231171200000,1.0237],[1231257600000,1.0235],[1231344000000,1.0087],[1231430400000,1.0226],[1231689600000,1.0271],[1231776000000,1.0035],[1231862400000,1.0293],[1231948800000,1.0291],[1232035200000,1.0283],[1232294400000,1.0307],[1232380800000,1.0327],[1232467200000,1.0291],[1232553600000,1.043],[1232640000000,1.0419],[1233504000000,1.0561],[1233590400000,1.0785],[1233676800000,1.0913],[1233763200000,1.0787],[1233849600000,1.1167],[1234108800000,1.1468],[1234195200000,1.1606],[1234281600000,1.1634],[1234368000000,1.1619],[1234454400000,1.1912],[1234713600000,1.2096],[1234800000000,1.174],[1234886400000,1.141],[1234972800000,1.1618],[1235059200000,1.1805],[1235318400000,1.2017],[1235404800000,1.1595],[1235491200000,1.153],[1235577600000,1.1079],[1235664000000,1.0903],[1235923200000,1.1043],[1236009600000,1.1066],[1236096000000,1.1443],[1236182400000,1.1433],[1236268800000,1.1405],[1236528000000,1.1182],[1236614400000,1.1225],[1236700800000,1.1179],[1236787200000,1.1117],[1236873600000,1.1091],[1237132800000,1.1166],[1237219200000,1.1412],[1237305600000,1.1458],[1237392000000,1.1566],[1237478400000,1.1569],[1237737600000,1.1748],[1237824000000,1.1772],[1237910400000,1.1545],[1237996800000,1.1712],[1238083200000,1.1839],[1238342400000,1.1783],[1238428800000,1.1905],[1238515200000,1.2066],[1238601600000,1.2212],[1238688000000,1.2166],[1239033600000,1.2169],[1239120000000,1.1855],[1239206400000,1.2018],[1239292800000,1.2452],[1239552000000,1.2762],[1239638400000,1.2821],[1239724800000,1.2849],[1239811200000,1.2867],[1239897600000,1.2686],[1240156800000,1.2992],[1240243200000,1.2978],[1240329600000,1.2418],[1240416000000,1.2596],[1240502400000,1.2622],[1240761600000,1.2284],[1240848000000,1.235],[1240934400000,1.2587],[1241020800000,1.2772],[1241366400000,1.3095],[1241452800000,1.319],[1241539200000,1.3435],[1241625600000,1.3306],[1241712000000,1.3224],[1241971200000,1.2833],[1242057600000,1.3065],[1242144000000,1.3104],[1242230400000,1.3125],[1242316800000,1.3268],[1242576000000,1.3321],[1242662400000,1.3438],[1242748800000,1.3387],[1242835200000,1.3185],[1242921600000,1.3168],[1243180800000,1.3239],[1243267200000,1.3281],[1243353600000,1.3407],[1243785600000,1.3604],[1243872000000,1.3606],[1243958400000,1.3608],[1244044800000,1.3545],[1244131200000,1.3445],[1244390400000,1.3323],[1244476800000,1.3385],[1244563200000,1.3384],[1244649600000,1.332],[1244736000000,1.3065],[1244995200000,1.3205],[1245081600000,1.3176],[1245168000000,1.3318],[1245254400000,1.3497],[1245340800000,1.3473],[1245600000000,1.337],[1245686400000,1.3394],[1245772800000,1.3621],[1245859200000,1.3591],[1245945600000,1.3626],[1246204800000,1.3845],[1246291200000,1.3838],[1246377600000,1.4046],[1246464000000,1.4221],[1246550400000,1.4474],[1246809600000,1.4576],[1246896000000,1.4523],[1246982400000,1.4678],[1247068800000,1.4855],[1247155200000,1.5029],[1247414400000,1.5091],[1247500800000,1.5372],[1247587200000,1.553],[1247673600000,1.5519],[1247760000000,1.5616],[1248019200000,1.5943],[1248105600000,1.5669],[1248192000000,1.603],[1248278400000,1.6159],[1248364800000,1.6089],[1248624000000,1.6248],[1248710400000,1.6211],[1248796800000,1.5306],[1248883200000,1.5389],[1248969600000,1.5881],[1249228800000,1.6166],[1249315200000,1.648],[1249401600000,1.6305],[1249488000000,1.6064],[1249574400000,1.5527],[1249833600000,1.5551],[1249920000000,1.5627],[1250006400000,1.5041],[1250092800000,1.5178],[1250179200000,1.4748],[1250438400000,1.378],[1250524800000,1.3955],[1250611200000,1.3429],[1250697600000,1.4044],[1250784000000,1.4372],[1251043200000,1.465],[1251129600000,1.4325],[1251216000000,1.4581],[1251302400000,1.4486],[1251388800000,1.4072],[1251648000000,1.3292],[1251734400000,1.3209],[1251820800000,1.3367],[1251907200000,1.4009],[1251993600000,1.4169],[1252252800000,1.4236],[1252339200000,1.4608],[1252425600000,1.4744],[1252512000000,1.462],[1252598400000,1.4875],[1252857600000,1.5129],[1252944000000,1.5178],[1253030400000,1.5035],[1253116800000,1.5273],[1253203200000,1.4822],[1253462400000,1.5086],[1253548800000,1.4855],[1253635200000,1.4561],[1253721600000,1.4491],[1253808000000,1.4392],[1254067200000,1.4093],[1254153600000,1.4088],[1254240000000,1.4189],[1255017600000,1.4789],[1255276800000,1.4796],[1255363200000,1.4985],[1255449600000,1.5121],[1255536000000,1.5157],[1255622400000,1.5255],[1255881600000,1.5641],[1255968000000,1.5795],[1256054400000,1.574],[1256140800000,1.571],[1256227200000,1.5996],[1256486400000,1.6003],[1256572800000,1.5677],[1256659200000,1.5802],[1256745600000,1.5504],[1256832000000,1.5652],[1257091200000,1.6173],[1257177600000,1.6373],[1257264000000,1.6393],[1257350400000,1.646],[1257436800000,1.6479],[1257696000000,1.6593],[1257782400000,1.6652],[1257868800000,1.6645],[1257955200000,1.6648],[1258041600000,1.6762],[1258300800000,1.7201],[1258387200000,1.7239],[1258473600000,1.7191],[1258560000000,1.7289],[1258646400000,1.7307],[1258905600000,1.7483],[1258992000000,1.6943],[1259078400000,1.7435],[1259164800000,1.6836],[1259251200000,1.6521],[1259510400000,1.7181],[1259596800000,1.7484],[1259683200000,1.7733],[1259769600000,1.7829],[1259856000000,1.7647],[1260115200000,1.7717],[1260201600000,1.7586],[1260288000000,1.7275],[1260374400000,1.7354],[1260460800000,1.7347],[1260720000000,1.7421],[1260806400000,1.7395],[1260892800000,1.7278],[1260979200000,1.6755],[1261065600000,1.6277],[1261324800000,1.6346],[1261411200000,1.5923],[1261497600000,1.6156],[1261584000000,1.6756],[1261670400000,1.6899],[1261929600000,1.7099],[1262016000000,1.7141],[1262102400000,1.7177],[1262188800000,1.7255],[1262534400000,1.7202],[1262620800000,1.7358],[1262707200000,1.7409],[1262793600000,1.7086],[1262880000000,1.7058],[1263139200000,1.706],[1263225600000,1.7423],[1263312000000,1.7137],[1263398400000,1.752],[1263484800000,1.7626],[1263744000000,1.7721],[1263830400000,1.7607],[1263916800000,1.6965],[1264003200000,1.6939],[1264089600000,1.6486],[1264348800000,1.6343],[1264435200000,1.5876999999999999],[1264521600000,1.5789],[1264608000000,1.5931],[1264694400000,1.602],[1264953600000,1.5731],[1265040000000,1.5645],[1265126400000,1.5934],[1265212800000,1.5897],[1265299200000,1.5598],[1265558400000,1.5619],[1265644800000,1.5673],[1265731200000,1.5982],[1265817600000,1.5984],[1265904000000,1.6237],[1266768000000,1.6177],[1266854400000,1.6185],[1266940800000,1.6513],[1267027200000,1.6728],[1267113600000,1.6654],[1267372800000,1.6782],[1267459200000,1.677],[1267545600000,1.6898],[1267632000000,1.6458],[1267718400000,1.6468],[1267977600000,1.6621],[1268064000000,1.6646],[1268150400000,1.6443],[1268236800000,1.6317],[1268323200000,1.6178],[1268582400000,1.5976],[1268668800000,1.6022],[1268755200000,1.6413],[1268841600000,1.6403],[1268928000000,1.6465],[1269187200000,1.6634],[1269273600000,1.6585],[1269360000000,1.6656],[1269446400000,1.6558],[1269532800000,1.6726],[1269792000000,1.6972],[1269878400000,1.712],[1269964800000,1.7108],[1270051200000,1.7374],[1270137600000,1.7474],[1270483200000,1.7505],[1270569600000,1.7502],[1270656000000,1.7413],[1270742400000,1.7662],[1271001600000,1.7746],[1271088000000,1.7606],[1271174400000,1.7741],[1271260800000,1.7525],[1271347200000,1.7456],[1271606400000,1.674],[1271692800000,1.6853],[1271779200000,1.7287],[1271865600000,1.7383],[1271952000000,1.7306],[1272211200000,1.7272],[1272297600000,1.6937],[1272384000000,1.6857],[1272470400000,1.6391],[1272556800000,1.62],[1272902400000,1.6103],[1272988800000,1.6415],[1273075200000,1.587],[1273161600000,1.5447],[1273420800000,1.5251],[1273507200000,1.4977],[1273593600000,1.4829],[1273680000000,1.5214],[1273766400000,1.5218],[1274025600000,1.4491],[1274112000000,1.4757],[1274198400000,1.4929],[1274284800000,1.4848],[1274371200000,1.5271],[1274630400000,1.5779],[1274716800000,1.5575],[1274803200000,1.5558],[1274889600000,1.5821],[1274976000000,1.5834],[1275235200000,1.5482],[1275321600000,1.5234],[1275408000000,1.5363],[1275494400000,1.5296],[1275580800000,1.5315],[1275840000000,1.5262],[1275926400000,1.5436],[1276012800000,1.574],[1276099200000,1.5831],[1276185600000,1.5803],[1276704000000,1.5503],[1276790400000,1.5],[1277049600000,1.5297],[1277136000000,1.537],[1277222400000,1.5255],[1277308800000,1.5278],[1277395200000,1.5008],[1277654400000,1.4771],[1277740800000,1.4064],[1277827200000,1.3848],[1277913600000,1.3577],[1278000000000,1.3419],[1278259200000,1.3342],[1278345600000,1.3634],[1278432000000,1.385],[1278518400000,1.3838],[1278604800000,1.4216],[1278864000000,1.4389],[1278950400000,1.422],[1279036800000,1.4272],[1279123200000,1.4034],[1279209600000,1.4031],[1279468800000,1.4292],[1279555200000,1.468],[1279641600000,1.4755],[1279728000000,1.493],[1279814400000,1.495],[1280073600000,1.5108],[1280160000000,1.5087],[1280246400000,1.5367],[1280332800000,1.5423],[1280419200000,1.5414],[1280678400000,1.5685],[1280764800000,1.5497],[1280851200000,1.5592],[1280937600000,1.5627],[1281024000000,1.591],[1281283200000,1.6184],[1281369600000,1.5748],[1281456000000,1.5941],[1281542400000,1.5788],[1281628800000,1.6036],[1281888000000,1.636],[1281974400000,1.656],[1282060800000,1.6633],[1282147200000,1.6614],[1282233600000,1.6212],[1282492800000,1.6247],[1282579200000,1.6372],[1282665600000,1.6093],[1282752000000,1.6241],[1282838400000,1.6475],[1283097600000,1.6925],[1283184000000,1.711],[1283270400000,1.6937],[1283356800000,1.7226],[1283443200000,1.7328],[1283702400000,1.7188],[1283788800000,1.721],[1283875200000,1.7444],[1283961600000,1.7171],[1284048000000,1.7445],[1284307200000,1.7785],[1284393600000,1.7949],[1284480000000,1.7537],[1284566400000,1.724],[1284652800000,1.7266],[1284912000000,1.7137],[1284998400000,1.7113],[1285516800000,1.7505],[1285603200000,1.7341],[1285689600000,1.7105],[1285776000000,1.7408],[1286467200000,1.7773],[1286726400000,1.7637],[1286812800000,1.7756],[1286899200000,1.7767],[1286985600000,1.7323],[1287072000000,1.7315],[1287331200000,1.7131],[1287417600000,1.7688],[1287504000000,1.7863],[1287590400000,1.7963],[1287676800000,1.8241],[1287936000000,1.8688],[1288022400000,1.8696],[1288108800000,1.854],[1288195200000,1.8745],[1288281600000,1.8987],[1288540800000,1.947],[1288627200000,1.9308],[1288713600000,1.89],[1288800000000,1.9271],[1288886400000,1.9526],[1289145600000,1.9846],[1289232000000,1.9937],[1289318400000,1.9977],[1289404800000,1.9915],[1289491200000,1.9027],[1289750400000,1.9645],[1289836800000,1.925],[1289923200000,1.8679],[1290009600000,1.8858],[1290096000000,1.9532],[1290355200000,1.9861],[1290441600000,1.9667],[1290528000000,2.0158],[1290614400000,2.0183],[1290700800000,2.0146],[1290960000000,2.0274],[1291046400000,1.9972],[1291132800000,1.9861],[1291219200000,1.9907],[1291305600000,1.9727],[1291564800000,1.9505],[1291651200000,1.9846],[1291737600000,1.9788],[1291824000000,1.9464],[1291910400000,1.9677],[1292169600000,2.0226],[1292256000000,2.0343],[1292342400000,2.0276],[1292428800000,2.0228],[1292515200000,2.0254],[1292774400000,2.0108],[1292860800000,2.0293],[1292947200000,2.0105],[1293033600000,1.9792],[1293120000000,1.9524],[1293379200000,1.9129],[1293465600000,1.88],[1293552000000,1.9095],[1293638400000,1.9279],[1293724800000,1.971],[1294070400000,1.989],[1294156800000,1.9819],[1294243200000,1.9653],[1294329600000,1.9478],[1294588800000,1.899],[1294675200000,1.8819],[1294761600000,1.8798],[1294848000000,1.8856],[1294934400000,1.8539],[1295193600000,1.7781],[1295280000000,1.7786],[1295366400000,1.82],[1295452800000,1.7659],[1295539200000,1.7649],[1295798400000,1.7168],[1295884800000,1.7097],[1295971200000,1.7348],[1296057600000,1.771],[1296144000000,1.7918],[1296403200000,1.8175],[1296489600000,1.8165],[1297180800000,1.8006],[1297267200000,1.8429],[1297353600000,1.8641],[1297612800000,1.9084],[1297699200000,1.9108],[1297785600000,1.9402],[1297872000000,1.949],[1297958400000,1.9229],[1298217600000,1.9563],[1298304000000,1.9181],[1298390400000,1.9372],[1298476800000,1.944],[1298563200000,1.9362],[1298822400000,1.9622],[1298908800000,1.9682],[1298995200000,1.9619],[1299081600000,1.9199],[1299168000000,1.939],[1299427200000,1.9607],[1299513600000,1.959],[1299600000000,1.9726],[1299686400000,1.9599],[1299772800000,1.9481],[1300032000000,1.9592],[1300118400000,1.9416],[1300204800000,1.9663],[1300291200000,1.9471],[1300377600000,1.95],[1300636800000,1.938],[1300723200000,1.9319],[1300809600000,1.9569],[1300896000000,1.96],[1300982400000,1.9756],[1301241600000,1.9617],[1301328000000,1.9173],[1301414400000,1.8974],[1301500800000,1.8805],[1301587200000,1.8996],[1302019200000,1.8875],[1302105600000,1.8987],[1302192000000,1.9257],[1302451200000,1.9125],[1302537600000,1.9039],[1302624000000,1.9212],[1302710400000,1.9133],[1302796800000,1.9008],[1303056000000,1.9026],[1303142400000,1.8971],[1303228800000,1.9121],[1303315200000,1.9282],[1303401600000,1.9268],[1303660800000,1.8999],[1303747200000,1.884],[1303833600000,1.858],[1303920000000,1.8098],[1304006400000,1.8382],[1304352000000,1.8545],[1304438400000,1.8167],[1304524800000,1.8164],[1304611200000,1.8189],[1304870400000,1.8296],[1304956800000,1.843],[1305043200000,1.8459],[1305129600000,1.8215],[1305216000000,1.8269],[1305475200000,1.825],[1305561600000,1.8224],[1305648000000,1.8273],[1305734400000,1.8262],[1305820800000,1.8212],[1306080000000,1.7543],[1306166400000,1.7585],[1306252800000,1.7372],[1306339200000,1.7174],[1306425600000,1.6944],[1306684800000,1.6805],[1306771200000,1.7086],[1306857600000,1.7234],[1306944000000,1.7098],[1307030400000,1.7372],[1307376000000,1.7553],[1307462400000,1.7567],[1307548800000,1.7252],[1307635200000,1.7174],[1307894400000,1.719],[1307980800000,1.736],[1308067200000,1.7182],[1308153600000,1.687],[1308240000000,1.6718],[1308499200000,1.6581],[1308585600000,1.6781],[1308672000000,1.6778],[1308758400000,1.7076],[1308844800000,1.7374],[1309104000000,1.753],[1309190400000,1.7597],[1309276800000,1.7438],[1309363200000,1.7664],[1309449600000,1.776],[1309708800000,1.8161],[1309795200000,1.8257],[1309881600000,1.8249],[1309968000000,1.8318],[1310054400000,1.8387],[1310313600000,1.8591],[1310400000000,1.8401],[1310486400000,1.8709],[1310572800000,1.8805],[1310659200000,1.886],[1310918400000,1.884],[1311004800000,1.8643],[1311091200000,1.8654],[1311177600000,1.8467],[1311264000000,1.8506],[1311523200000,1.7932],[1311609600000,1.8033],[1311696000000,1.831],[1311782400000,1.8366],[1311868800000,1.8144],[1312128000000,1.823],[1312214400000,1.822],[1312300800000,1.8255],[1312387200000,1.8333],[1312473600000,1.815],[1312732800000,1.7605],[1312819200000,1.7722],[1312905600000,1.798],[1312992000000,1.8259],[1313078400000,1.8318],[1313337600000,1.8431],[1313424000000,1.8304],[1313510400000,1.8202],[1313596800000,1.7961],[1313683200000,1.7848],[1313942400000,1.7608],[1314028800000,1.7845],[1314115200000,1.7893],[1314201600000,1.8191],[1314288000000,1.8225],[1314547200000,1.8156],[1314633600000,1.8053],[1314720000000,1.7988],[1314806400000,1.786],[1314892800000,1.7684],[1315152000000,1.7305],[1315238400000,1.7153],[1315324800000,1.7468],[1315411200000,1.7353],[1315497600000,1.7237],[1315843200000,1.6956],[1315929600000,1.7065],[1316016000000,1.7079],[1316102400000,1.7099],[1316361600000,1.6806],[1316448000000,1.682],[1316534400000,1.7276],[1316620800000,1.6856],[1316707200000,1.6787],[1316966400000,1.6631],[1317052800000,1.6702],[1317139200000,1.6552],[1317225600000,1.6281],[1317312000000,1.6248],[1318176000000,1.6077],[1318262400000,1.5872],[1318348800000,1.6322],[1318435200000,1.6455],[1318521600000,1.636],[1318780800000,1.6482],[1318867200000,1.6058],[1318953600000,1.591],[1319040000000,1.5498],[1319126400000,1.523],[1319385600000,1.5429],[1319472000000,1.5832],[1319558400000,1.5958],[1319644800000,1.5936],[1319731200000,1.627],[1319990400000,1.6335],[1320076800000,1.6355],[1320163200000,1.6575],[1320249600000,1.6681],[1320336000000,1.6744],[1320595200000,1.6685],[1320681600000,1.6626],[1320768000000,1.6768],[1320854400000,1.6617],[1320940800000,1.6545],[1321200000000,1.69],[1321286400000,1.6966],[1321372800000,1.6568],[1321459200000,1.6599],[1321545600000,1.6282],[1321804800000,1.6244],[1321891200000,1.6216],[1321977600000,1.6185],[1322064000000,1.6177],[1322150400000,1.6076],[1322409600000,1.6136],[1322496000000,1.6371],[1322582400000,1.5966],[1322668800000,1.6224],[1322755200000,1.5936],[1323014400000,1.5542],[1323100800000,1.552],[1323187200000,1.5535],[1323273600000,1.5475],[1323360000000,1.5358],[1323619200000,1.522],[1323705600000,1.4904],[1323792000000,1.4717],[1323878400000,1.4474],[1323964800000,1.4796],[1324224000000,1.4812],[1324310400000,1.4737],[1324396800000,1.4495],[1324483200000,1.4539],[1324569600000,1.4583],[1324828800000,1.4483],[1324915200000,1.4215],[1325001600000,1.4159],[1325088000000,1.4183],[1325174400000,1.4445],[1325260800000,1.4444],[1325606400000,1.4072],[1325692800000,1.3527],[1325779200000,1.3537],[1326038400000,1.3926],[1326124800000,1.4397],[1326211200000,1.4377],[1326297600000,1.431],[1326384000000,1.3839],[1326643200000,1.3317],[1326729600000,1.3908],[1326816000000,1.3598],[1326902400000,1.3798],[1326988800000,1.3996],[1327852800000,1.3915],[1327939200000,1.3978],[1328025600000,1.3876],[1328112000000,1.4062],[1328198400000,1.4251],[1328457600000,1.4401],[1328544000000,1.4207],[1328630400000,1.4556],[1328716800000,1.4604],[1328803200000,1.4649],[1329062400000,1.4704],[1329148800000,1.4642],[1329235200000,1.4802],[1329321600000,1.4782],[1329408000000,1.4754],[1329667200000,1.4794],[1329753600000,1.4956],[1329840000000,1.5185],[1329926400000,1.5308],[1330012800000,1.5495],[1330272000000,1.5521],[1330358400000,1.5397],[1330444800000,1.5283],[1330531200000,1.5294],[1330617600000,1.5512],[1330876800000,1.5432],[1330963200000,1.5216],[1331049600000,1.5118],[1331136000000,1.5313],[1331222400000,1.5582],[1331481600000,1.5636],[1331568000000,1.5811],[1331654400000,1.5428],[1331740800000,1.5365],[1331827200000,1.5632],[1332086400000,1.5714],[1332172800000,1.54],[1332259200000,1.5441],[1332345600000,1.5375],[1332432000000,1.5134],[1332691200000,1.5156],[1332777600000,1.5103],[1332864000000,1.4583],[1332950400000,1.4483],[1333036800000,1.4495],[1333123200000,1.4494],[1333555200000,1.485],[1333641600000,1.4914],[1333900800000,1.4765],[1333987200000,1.4863],[1334073600000,1.4828],[1334160000000,1.5063],[1334246400000,1.5199],[1334505600000,1.5214],[1334592000000,1.5012],[1334678400000,1.5311],[1334764800000,1.5248],[1334851200000,1.5264],[1335110400000,1.5095],[1335196800000,1.4931],[1335283200000,1.5103],[1335369600000,1.5155],[1335456000000,1.5134],[1335888000000,1.5468],[1335974400000,1.5535],[1336060800000,1.5699],[1336320000000,1.5832],[1336406400000,1.581],[1336492800000,1.5539],[1336579200000,1.5604],[1336665600000,1.5541],[1336924800000,1.5433],[1337011200000,1.5463],[1337097600000,1.5291],[1337184000000,1.5403],[1337270400000,1.524],[1337529600000,1.5422],[1337616000000,1.5624],[1337702400000,1.5609],[1337788800000,1.5532],[1337875200000,1.536],[1338134400000,1.5545],[1338220800000,1.5843],[1338307200000,1.5859],[1338393600000,1.5807],[1338480000000,1.5816],[1338739200000,1.5427],[1338825600000,1.5378],[1338912000000,1.5265],[1338998400000,1.5178],[1339084800000,1.5146],[1339344000000,1.5453],[1339430400000,1.5567],[1339516800000,1.5806],[1339603200000,1.565],[1339689600000,1.5564],[1339948800000,1.572],[1340035200000,1.5583],[1340121600000,1.5513],[1340208000000,1.5324],[1340553600000,1.5021],[1340640000000,1.4895],[1340726400000,1.4856],[1340812800000,1.4695],[1340899200000,1.4925],[1340985600000,1.4924],[1341158400000,1.5026],[1341244800000,1.5014],[1341331200000,1.4921],[1341417600000,1.475],[1341504000000,1.5068],[1341763200000,1.4918],[1341849600000,1.478],[1341936000000,1.4922],[1342022400000,1.5167],[1342108800000,1.516],[1342368000000,1.4733],[1342454400000,1.4717],[1342540800000,1.4715],[1342627200000,1.4773],[1342713600000,1.467],[1342972800000,1.4475],[1343059200000,1.4536],[1343145600000,1.4414],[1343232000000,1.4382],[1343318400000,1.4281],[1343577600000,1.4239],[1343664000000,1.4168],[1343750400000,1.4381],[1343836800000,1.4246],[1343923200000,1.4422],[1344182400000,1.4691],[1344268800000,1.4805],[1344355200000,1.4751],[1344441600000,1.4958],[1344528000000,1.4927],[1344787200000,1.4671],[1344873600000,1.4684],[1344960000000,1.4577],[1345046400000,1.4489],[1345132800000,1.4427],[1345392000000,1.4417],[1345478400000,1.4518],[1345564800000,1.4431],[1345651200000,1.4402],[1345737600000,1.4282],[1345996800000,1.4065],[1346083200000,1.4055],[1346169600000,1.3983],[1346256000000,1.3795],[1346342400000,1.3807],[1346601600000,1.4035],[1346688000000,1.3927],[1346774400000,1.3965],[1346860800000,1.4024],[1346947200000,1.4394],[1347206400000,1.4439],[1347292800000,1.4343],[1347379200000,1.4386],[1347465600000,1.432],[1347552000000,1.4276],[1347811200000,1.4028],[1347897600000,1.3989],[1347984000000,1.4054],[1348070400000,1.386],[1348156800000,1.3835],[1348416000000,1.3911],[1348502400000,1.3947],[1348588800000,1.3764],[1348675200000,1.3971],[1348761600000,1.4156],[1348934400000,1.4155],[1349625600000,1.4107],[1349712000000,1.4363],[1349798400000,1.4404],[1349884800000,1.4261],[1349971200000,1.4178],[1350230400000,1.4147],[1350316800000,1.4246],[1350403200000,1.4229],[1350489600000,1.445],[1350576000000,1.441],[1350835200000,1.4559],[1350921600000,1.434],[1351008000000,1.4232],[1351094400000,1.4146],[1351180800000,1.4028],[1351440000000,1.3982],[1351526400000,1.4021],[1351612800000,1.4165],[1351699200000,1.4339],[1351785600000,1.434],[1352044800000,1.4317],[1352131200000,1.4336],[1352217600000,1.4246],[1352304000000,1.4141],[1352390400000,1.4055],[1352649600000,1.4052],[1352736000000,1.3939],[1352822400000,1.3996],[1352908800000,1.3944],[1352995200000,1.3824],[1353254400000,1.3769],[1353340800000,1.3756],[1353427200000,1.3824],[1353513600000,1.3692],[1353600000000,1.3809],[1353859200000,1.367],[1353945600000,1.3473],[1354032000000,1.337],[1354118400000,1.3381],[1354204800000,1.3575],[1354464000000,1.3489],[1354550400000,1.3528],[1354636800000,1.3832],[1354723200000,1.3791],[1354809600000,1.387],[1355068800000,1.3948],[1355155200000,1.3914],[1355241600000,1.3902],[1355328000000,1.3862],[1355414400000,1.4263],[1355673600000,1.4199],[1355760000000,1.4082],[1355846400000,1.4119],[1355932800000,1.4199],[1356019200000,1.4249],[1356278400000,1.4435],[1356364800000,1.4747],[1356451200000,1.4892],[1356537600000,1.4805],[1356624000000,1.4939],[1356883200000,1.5182],[1357228800000,1.5081],[1357488000000,1.5251],[1357574400000,1.527],[1357660800000,1.5334],[1357747200000,1.5325],[1357833600000,1.5144],[1358092800000,1.5627],[1358179200000,1.5679],[1358265600000,1.5703],[1358352000000,1.5654],[1358438400000,1.598],[1358697600000,1.5924],[1358784000000,1.5747],[1358870400000,1.5748],[1358956800000,1.5601],[1359043200000,1.5695],[1359302400000,1.5974],[1359388800000,1.6026],[1359475200000,1.6043],[1359561600000,1.587],[1359648000000,1.6089],[1359907200000,1.5987],[1359993600000,1.625],[1360080000000,1.6364],[1360166400000,1.6539],[1360252800000,1.6781],[1361116800000,1.6644],[1361203200000,1.6235],[1361289600000,1.6606],[1361376000000,1.6395],[1361462400000,1.6304],[1361721600000,1.6345],[1361808000000,1.6056],[1361894400000,1.6039],[1361980800000,1.6405],[1362067200000,1.6538],[1362326400000,1.5903],[1362412800000,1.6205],[1362499200000,1.6279],[1362585600000,1.6066],[1362672000000,1.5954],[1362931200000,1.6026],[1363017600000,1.5866],[1363104000000,1.5724],[1363190400000,1.5882],[1363276800000,1.5878],[1363536000000,1.5797],[1363622400000,1.584],[1363708800000,1.6208],[1363795200000,1.6299],[1363881600000,1.6355],[1364140800000,1.6372],[1364227200000,1.6444],[1364313600000,1.6509],[1364400000000,1.6255],[1364486400000,1.6235],[1364745600000,1.6259],[1364832000000,1.6004],[1364918400000,1.5862],[1365350400000,1.5848],[1365436800000,1.5911],[1365523200000,1.5804],[1365609600000,1.5807],[1365696000000,1.5777],[1365955200000,1.5759],[1366041600000,1.5871],[1366128000000,1.6098],[1366214400000,1.6046],[1366300800000,1.6286],[1366560000000,1.6192],[1366646400000,1.5886],[1366732800000,1.6067],[1366819200000,1.5921],[1366905600000,1.5724],[1367424000000,1.5762],[1367510400000,1.6077],[1367769600000,1.6252],[1367856000000,1.6284],[1367942400000,1.645],[1368028800000,1.6443],[1368115200000,1.6461],[1368374400000,1.6332],[1368460800000,1.6052],[1368547200000,1.6151],[1368633600000,1.6425],[1368720000000,1.6769],[1368979200000,1.6861],[1369065600000,1.6848],[1369152000000,1.6814],[1369238400000,1.6657],[1369324800000,1.6742],[1369584000000,1.6829],[1369670400000,1.7046],[1369756800000,1.7098],[1369843200000,1.7123],[1369929600000,1.6953],[1370188800000,1.695],[1370275200000,1.6786],[1370361600000,1.6803],[1370448000000,1.661],[1370534400000,1.6357],[1371052800000,1.5946],[1371139200000,1.6188],[1371398400000,1.6205],[1371484800000,1.643],[1371571200000,1.6434],[1371657600000,1.6096],[1371744000000,1.6093],[1372003200000,1.5381],[1372089600000,1.5403],[1372176000000,1.5581],[1372262400000,1.5714],[1372348800000,1.5875],[1372521600000,1.5874],[1372608000000,1.6212],[1372694400000,1.6442],[1372780800000,1.651],[1372867200000,1.6534],[1372953600000,1.6555],[1373212800000,1.6399],[1373299200000,1.6252],[1373385600000,1.6472],[1373472000000,1.6831],[1373558400000,1.6695],[1373817600000,1.6958],[1373904000000,1.7025],[1373990400000,1.6735],[1374076800000,1.6525],[1374163200000,1.6101],[1374422400000,1.6278],[1374508800000,1.669],[1374595200000,1.6675],[1374681600000,1.661],[1374768000000,1.6529],[1375027200000,1.6272],[1375113600000,1.6266],[1375200000000,1.6304],[1375286400000,1.6589],[1375372800000,1.6723],[1375632000000,1.6978],[1375718400000,1.6967],[1375804800000,1.6974],[1375891200000,1.6925],[1375977600000,1.7048],[1376236800000,1.7258],[1376323200000,1.7201],[1376409600000,1.7072],[1376496000000,1.6849],[1376582400000,1.669],[1376841600000,1.6973],[1376928000000,1.7021],[1377014400000,1.6863],[1377100800000,1.6881],[1377187200000,1.6847],[1377446400000,1.6986],[1377532800000,1.6979],[1377619200000,1.6772],[1377705600000,1.6721],[1377792000000,1.6682],[1378051200000,1.655],[1378137600000,1.6764],[1378224000000,1.6778],[1378310400000,1.6855],[1378396800000,1.6785],[1378656000000,1.7004],[1378742400000,1.7086],[1378828800000,1.7061],[1378915200000,1.6989],[1379001600000,1.7101],[1379260800000,1.7083],[1379347200000,1.6864],[1379433600000,1.6833],[1379865600000,1.7051],[1379952000000,1.7054],[1380038400000,1.6964],[1380124800000,1.6922],[1380211200000,1.6958],[1380470400000,1.6956],[1381161600000,1.7183],[1381248000000,1.723],[1381334400000,1.7417],[1381420800000,1.7542],[1381680000000,1.7498],[1381766400000,1.7635],[1381852800000,1.7567],[1381939200000,1.748],[1382025600000,1.7525],[1382284800000,1.7955],[1382371200000,1.7763],[1382457600000,1.7449],[1382544000000,1.7387],[1382630400000,1.7191],[1382889600000,1.7129],[1382976000000,1.7106],[1383062400000,1.7297],[1383148800000,1.7061],[1383235200000,1.7136],[1383494400000,1.7062],[1383580800000,1.7016],[1383667200000,1.6771],[1383753600000,1.6583],[1383840000000,1.6447],[1384099200000,1.6497],[1384185600000,1.6724],[1384272000000,1.6438],[1384358400000,1.6456],[1384444800000,1.6685],[1384704000000,1.6899],[1384790400000,1.6695],[1384876800000,1.6738],[1384963200000,1.655],[1385049600000,1.6467],[1385308800000,1.6408],[1385395200000,1.6396],[1385481600000,1.6441],[1385568000000,1.6713],[1385654400000,1.6704],[1385913600000,1.6434],[1386000000000,1.6599],[1386086400000,1.6725],[1386172800000,1.6656],[1386259200000,1.6597],[1386518400000,1.6599],[1386604800000,1.6591],[1386691200000,1.6435],[1386777600000,1.6489],[1386864000000,1.6574],[1387123200000,1.649],[1387209600000,1.6536],[1387296000000,1.6495],[1387382400000,1.6361],[1387468800000,1.6193],[1387728000000,1.6202],[1387814400000,1.6195],[1387900800000,1.6391],[1387987200000,1.6256],[1388073600000,1.642],[1388332800000,1.6452],[1388419200000,1.6603],[1388592000000,1.6519],[1388678400000,1.6393],[1388937600000,1.6027],[1389024000000,1.6016],[1389110400000,1.6086],[1389196800000,1.5975],[1389283200000,1.5888],[1389542400000,1.5729],[1389628800000,1.5919],[1389715200000,1.5944],[1389801600000,1.5977],[1389888000000,1.5732],[1390147200000,1.5694],[1390233600000,1.5754],[1390320000000,1.6189],[1390406400000,1.6224],[1390492800000,1.6329],[1390752000000,1.6159],[1390838400000,1.6092],[1390924800000,1.6002],[1391011200000,1.5836],[1391702400000,1.5954],[1391961600000,1.6306],[1392048000000,1.6381],[1392134400000,1.643],[1392220800000,1.6279],[1392307200000,1.6418],[1392566400000,1.653],[1392652800000,1.6426],[1392739200000,1.6405],[1392825600000,1.6342],[1392912000000,1.6227],[1393171200000,1.588],[1393257600000,1.5542],[1393344000000,1.5445],[1393430400000,1.5138],[1393516800000,1.5532],[1393776000000,1.5824],[1393862400000,1.5716],[1393948800000,1.5679],[1394035200000,1.5965],[1394121600000,1.6025],[1394380800000,1.5688],[1394467200000,1.5952],[1394553600000,1.5882],[1394640000000,1.609],[1394726400000,1.5929],[1394985600000,1.6132],[1395072000000,1.6131],[1395158400000,1.5935],[1395244800000,1.566],[1395331200000,1.6103],[1395590400000,1.621],[1395676800000,1.62],[1395763200000,1.6155],[1395849600000,1.5963],[1395936000000,1.5746],[1396195200000,1.5873],[1396281600000,1.6118],[1396368000000,1.6283],[1396454400000,1.6159],[1396540800000,1.6302],[1396886400000,1.643],[1396972800000,1.6534],[1397059200000,1.6602],[1397145600000,1.6816],[1397404800000,1.692],[1397491200000,1.6741],[1397577600000,1.6753],[1397664000000,1.6704],[1397750400000,1.6701],[1398009600000,1.6446],[1398096000000,1.6398],[1398182400000,1.648],[1398268800000,1.6431],[1398355200000,1.6102],[1398614400000,1.581],[1398700800000,1.6042],[1398787200000,1.6166],[1399219200000,1.6164],[1399305600000,1.6176],[1399392000000,1.6078],[1399478400000,1.606],[1399564800000,1.5943],[1399824000000,1.6096],[1399910400000,1.6187],[1399996800000,1.6149],[1400083200000,1.5906],[1400169600000,1.5933],[1400428800000,1.566],[1400515200000,1.5585],[1400601600000,1.5797],[1400688000000,1.5865],[1400774400000,1.6035],[1401033600000,1.6164],[1401120000000,1.6098],[1401206400000,1.6242],[1401292800000,1.618],[1401379200000,1.6176],[1401724800000,1.6026],[1401811200000,1.586],[1401897600000,1.6027],[1401984000000,1.597],[1402243200000,1.5973],[1402329600000,1.611],[1402416000000,1.6215],[1402502400000,1.6251],[1402588800000,1.6293],[1402848000000,1.6296],[1402934400000,1.6174],[1403020800000,1.6104],[1403107200000,1.5956],[1403193600000,1.5972],[1403452800000,1.6092],[1403539200000,1.6262],[1403625600000,1.6208],[1403712000000,1.6365],[1403798400000,1.6415],[1404057600000,1.6491],[1404144000000,1.6369],[1404230400000,1.6325],[1404316800000,1.6384],[1404403200000,1.6412],[1404662400000,1.648],[1404748800000,1.6539],[1404835200000,1.6282],[1404921600000,1.6165],[1405008000000,1.6242],[1405267200000,1.6532],[140</t>
   </si>
   <si>
+    <t>[[1536076800000, 0.0], [1537459200000, 1.43], [1539014400000, -0.3], [1539273600000, -1.28], [1539792000000, -2.94], [1540224000000, -1.7], [1540483200000, -4.71], [1540915200000, -6.26], [1541347200000, -2.73], [1541606400000, -3.12], [1542038400000, -3.13], [1542297600000, -3.3], [1542729600000, -3.2], [1543161600000, -3.83], [1543420800000, -3.59], [1543852800000, -0.61], [1544112000000, -3.66], [1544544000000, -3.22], [1544976000000, -3.58], [1545235200000, -5.21], [1546358400000, -6.94], [1546790400000, -6.85], [1547049600000, -5.0], [1547481600000, -3.12], [1547740800000, -0.68], [1548172800000, -1.83], [1548604800000, -0.18], [1549814400000, 4.75], [1550073600000, 7.39], [1550505600000, 6.93], [1550764800000, 8.2], [1551196800000, 8.29], [1551628800000, 13.7], [1551888000000, 10.61], [1552320000000, 12.56], [1552579200000, 14.65], [1553011200000, 17.87], [1553443200000, 14.98], [1553702400000, 17.52], [1554134400000, 20.87], [1554652800000, 24.58], [1554912000000, 24.05], [1555344000000, 24.62], [1555948800000, 25.68], [1556208000000, 23.61], [1557158400000, 21.7], [1557417600000, 21.82], [1557936000000, 26.2], [1558368000000, 21.39], [1558627200000, 18.51], [1559059200000, 21.1], [1559491200000, 19.87], [1559750400000, 16.05], [1560268800000, 21.29], [1560700800000, 20.34], [1560960000000, 27.91], [1561392000000, 28.83], [1561651200000, 31.84], [1562083200000, 34.54], [1562515200000, 34.02], [1562774400000, 34.05], [1563206400000, 33.68], [1563465600000, 33.46], [1563897600000, 32.49], [1564329600000, 34.63], [1564675200000, 30.03], [1565107200000, 28.34], [1565539200000, 31.67], [1565798400000, 32.09], [1566230400000, 36.39], [1566489600000, 40.01], [1566921600000, 38.48], [1567353600000, 45.1], [1567612800000, 45.27], [1568044800000, 43.0], [1568563200000, 40.35], [1568822400000, 41.07], [1569254400000, 41.6], [1569513600000, 39.85], [1570550400000, 39.88], [1570982400000, 43.3], [1571241600000, 43.83], [1571673600000, 42.64], [1571932800000, 42.27], [1572364800000, 43.93], [1572796800000, 46.88], [1573056000000, 46.62], [1573488000000, 44.44], [1573747200000, 44.04], [1574179200000, 46.66], [1574611200000, 43.21], [1574870400000, 43.07], [1575302400000, 38.03], [1575561600000, 41.53], [1575993600000, 40.11], [1576425600000, 42.25], [1576684800000, 44.52], [1577116800000, 44.9], [1577376000000, 45.9], [1577894400000, 46.7], [1578326400000, 44.96], [1578585600000, 47.76], [1579017600000, 48.54], [1579449600000, 51.52], [1579708800000, 45.67], [1580832000000, 44.38], [1581264000000, 47.8], [1581523200000, 50.54], [1581955200000, 50.46], [1582214400000, 52.12], [1582646400000, 47.9], [1583078400000, 47.73], [1583337600000, 55.76], [1583769600000, 50.45], [1584028800000, 44.56], [1584460800000, 33.66], [1584892800000, 32.4], [1585152000000, 43.78], [1585584000000, 43.26], [1585843200000, 46.25], [1586361600000, 51.28], [1586793600000, 52.3], [1587052800000, 54.22], [1587484800000, 54.37], [1587916800000, 55.91], [1588176000000, 58.06], [1588867200000, 61.76], [1589299200000, 67.24], [1589731200000, 69.24], [1589990400000, 71.46], [1590422400000, 72.34], [1590681600000, 73.04], [1591113600000, 79.87], [1591545600000, 82.61], [1591804800000, 84.45], [1592236800000, 85.87], [1592496000000, 91.5], [1592928000000, 95.47], [1593532800000, 100.74], [1593964800000, 112.11], [1594224000000, 122.15], [1594656000000, 123.88], [1594915200000, 114.48], [1595347200000, 120.09], [1595779200000, 116.4], [1596038400000, 122.9], [1596470400000, 125.84], [1596729600000, 119.84], [1597161600000, 116.76], [1597593600000, 123.3], [1597852800000, 121.32], [1598284800000, 132.65], [1598544000000, 138.73], [1598976000000, 138.24], [1599408000000, 130.65], [1599667200000, 124.33], [1600099200000, 131.22], [1600358400000, 126.53], [1600790400000, 123.43], [1601222400000, 121.55], [1602172800000, 127.96], [1602604800000, 137.52], [1603036800000, 132.69], [1603296000000, 139.54], [1603728000000, 138.94], [1603987200000, 144.87], [1604419200000, 151.53], [1604851200000, 159.29], [1605110400000, 156.09], [1605542400000, 156.76], [1605801600000, 159.8], [1606233600000, 155.1], [1606665600000, 153.16], [1606924800000, 157.26], [1607356800000, 162.6], [1607616000000, 164.17], [1608048000000, 166.61], [1608480000000, 171.9], [1608739200000, 172.99], [1609171200000, 175.37], [1609689600000, 192.02], [1609948800000, 204.91], [1610380800000, 203.35], [1610640000000, 198.19], [1611072000000, 208.68], [1611504000000, 232.5], [1611763200000, 211.74], [1612195200000, 226.92], [1612454400000, 235.0], [1612886400000, 252.87], [1613923200000, 230.15], [1614182400000, 211.22], [1614614400000, 201.17], [1614873600000, 195.7], [1615305600000, 178.99], [1615737600000, 180.28], [1615996800000, 192.18], [1616428800000, 183.18], [1616688000000, 184.76], [1617120000000, 184.53], [1617638400000, 196.44], [1617897600000, 184.42], [1618329600000, 182.08], [1618761600000, 189.82], [1619020800000, 191.93], [1619452800000, 198.63], [1619712000000, 197.22], [1620576000000, 181.61], [1620835200000, 183.33], [1621267200000, 194.82], [1621526400000, 195.38], [1621958400000, 210.78], [1622390400000, 213.13], [1622649600000, 212.19], [1623081600000, 204.9], [1623340800000, 204.21], [1623859200000, 197.86], [1624291200000, 196.05], [1624550400000, 206.44], [1624982400000, 201.44], [1625414400000, 189.28], [1625673600000, 183.59], [1626105600000, 190.35], [1626364800000, 193.54], [1626796800000, 192.24], [1627228800000, 168.1], [1627488000000, 157.35], [1627920000000, 157.85], [1628179200000, 153.55], [1628438400000, 156.53]]</t>
+  </si>
+  <si>
     <t>005827</t>
   </si>
   <si>
     <t>易方达蓝筹精选</t>
   </si>
   <si>
-    <t xml:space="preserve"> [[1536076800000,1.0],[1536249600000,0.9986],[1536854400000,0.9985],[1537459200000,1.0143],[1538064000000,1.0192],[1538928000000,0.9972],[1539014400000,0.997],[1539100800000,0.9885],[1539187200000,0.9731],[1539273600000,0.9872],[1539532800000,0.982],[1539619200000,0.9793],[1539792000000,0.9706],[1539878400000,0.9855],[1540137600000,1.0084],[1540224000000,0.983],[1540310400000,0.9748],[1540396800000,0.9623],[1540483200000,0.9529],[1540742400000,0.9246],[1540828800000,0.9201],[1540915200000,0.9374],[1541001600000,0.9503],[1541088000000,0.9893],[1541347200000,0.9727],[1541433600000,0.9686],[1541520000000,0.9667],[1541606400000,0.9688],[1541692800000,0.9602],[1541952000000,0.9593],[1542038400000,0.9687],[1542124800000,0.9609],[1542211200000,0.9658],[1542297600000,0.967],[1542556800000,0.9748],[1542643200000,0.9599],[1542729600000,0.968],[1542816000000,0.9693],[1542902400000,0.9606],[1543161600000,0.9617],[1543248000000,0.9605],[1543334400000,0.9683],[1543420800000,0.9641],[1543507200000,0.9707],[1543766400000,0.9923],[1543852800000,0.9939],[1543939200000,0.9904],[1544025600000,0.9651],[1544112000000,0.9634],[1544371200000,0.9569],[1544457600000,0.963],[1544544000000,0.9678],[1544630400000,0.9788],[1544716800000,0.9688],[1544976000000,0.9642],[1545062400000,0.9591],[1545148800000,0.9514],[1545235200000,0.9479],[1545321600000,0.9404],[1546185600000,0.9471],[1546358400000,0.9306],[1546444800000,0.9199],[1546531200000,0.9268],[1546790400000,0.9315],[1546876800000,0.9332],[1546963200000,0.9473],[1547049600000,0.95],[1547136000000,0.9557],[1547395200000,0.9413],[1547481600000,0.9688],[1547568000000,0.9718],[1547654400000,0.9705],[1547740800000,0.9932],[1548000000000,0.9987],[1548086400000,0.9848],[1548172800000,0.9817],[1548259200000,0.9849],[1548345600000,0.9975],[1548604800000,0.9982],[1548691200000,1.0025],[1548777600000,0.9954],[1549814400000,1.0475],[1549900800000,1.0569],[1549987200000,1.0704],[1550073600000,1.0739],[1550160000000,1.0509],[1550419200000,1.0773],[1550505600000,1.0693],[1550592000000,1.0717],[1550678400000,1.072],[1550764800000,1.082],[1551024000000,1.1044],[1551110400000,1.0897],[1551196800000,1.0829],[1551283200000,1.0918],[1551369600000,1.1224],[1551628800000,1.137],[1551715200000,1.1393],[1551801600000,1.135],[1551888000000,1.1061],[1551974400000,1.0829],[1552233600000,1.1179],[1552320000000,1.1256],[1552406400000,1.1241],[1552492800000,1.1278],[1552579200000,1.1465],[1552838400000,1.1928],[1552924800000,1.185],[1553011200000,1.1787],[1553097600000,1.1708],[1553184000000,1.1796],[1553443200000,1.1498],[1553529600000,1.1532],[1553616000000,1.1692],[1553702400000,1.1752],[1553788800000,1.2046],[1554048000000,1.2167],[1554134400000,1.2087],[1554220800000,1.2203],[1554307200000,1.2293],[1554652800000,1.2458],[1554739200000,1.2637],[1554825600000,1.2725],[1554912000000,1.2405],[1554998400000,1.2388],[1555257600000,1.2262],[1555344000000,1.2462],[1555430400000,1.25],[1555516800000,1.2444],[1555948800000,1.2568],[1556035200000,1.2525],[1556121600000,1.2315],[1556208000000,1.2361],[1556553600000,1.2594],[1557072000000,1.1972],[1557158400000,1.217],[1557244800000,1.2076],[1557331200000,1.1682],[1557417600000,1.2182],[1557763200000,1.2013],[1557849600000,1.2493],[1557936000000,1.262],[1558022400000,1.2344],[1558281600000,1.2079],[1558368000000,1.2139],[1558454400000,1.2112],[1558540800000,1.1777],[1558627200000,1.1851],[1558886400000,1.1953],[1558972800000,1.2145],[1559059200000,1.211],[1559145600000,1.2035],[1559232000000,1.1967],[1559491200000,1.1987],[1559577600000,1.1788],[1559664000000,1.1679],[1559750400000,1.1605],[1560096000000,1.1923],[1560182400000,1.2294],[1560268800000,1.2129],[1560355200000,1.2088],[1560441600000,1.2027],[1560700800000,1.2034],[1560787200000,1.218],[1560873600000,1.2447],[1560960000000,1.2791],[1561046400000,1.2803],[1561305600000,1.2937],[1561392000000,1.2883],[1561478400000,1.2883],[1561564800000,1.3149],[1561651200000,1.3184],[1561824000000,1.3183],[1561996800000,1.3625],[1562083200000,1.3454],[1562169600000,1.3352],[1562256000000,1.362],[1562515200000,1.3402],[1562601600000,1.3354],[1562688000000,1.3471],[1562774400000,1.3405],[1562860800000,1.3469],[1563120000000,1.3476],[1563206400000,1.3368],[1563292800000,1.3376],[1563379200000,1.3244],[1563465600000,1.3346],[1563724800000,1.3297],[1563811200000,1.3241],[1563897600000,1.3249],[1563984000000,1.3393],[1564070400000,1.3386],[1564329600000,1.3463],[1564416000000,1.3432],[1564588800000,1.3232],[1564675200000,1.3003],[1564934400000,1.2746],[1565020800000,1.2825],[1565107200000,1.2834],[1565193600000,1.3014],[1565280000000,1.288],[1565539200000,1.3167],[1565625600000,1.3062],[1565712000000,1.3231],[1565798400000,1.3209],[1565884800000,1.3376],[1566144000000,1.3608],[1566230400000,1.3639],[1566316800000,1.3638],[1566403200000,1.3824],[1566489600000,1.4001],[1566748800000,1.3764],[1566835200000,1.3964],[1566921600000,1.3848],[1567008000000,1.4119],[1567094400000,1.4368],[1567353600000,1.451],[1567440000000,1.441],[1567526400000,1.4438],[1567612800000,1.4527],[1567699200000,1.4568],[1567958400000,1.4441],[1568044800000,1.43],[1568131200000,1.4],[1568217600000,1.4121],[1568563200000,1.4035],[1568649600000,1.4008],[1568736000000,1.4195],[1568822400000,1.4107],[1568908800000,1.4137],[1569168000000,1.3984],[1569254400000,1.416],[1569340800000,1.4],[1569427200000,1.3998],[1569513600000,1.3985],[1569772800000,1.3943],[1570464000000,1.4095],[1570550400000,1.3988],[1570636800000,1.418],[1570723200000,1.4294],[1570982400000,1.433],[1571068800000,1.4455],[1571155200000,1.4392],[1571241600000,1.4383],[1571328000000,1.4282],[1571587200000,1.4243],[1571673600000,1.4264],[1571760000000,1.411],[1571846400000,1.4006],[1571932800000,1.4227],[1572192000000,1.4407],[1572278400000,1.4447],[1572364800000,1.4393],[1572451200000,1.4511],[1572537600000,1.4572],[1572796800000,1.4688],[1572883200000,1.4655],[1572969600000,1.4573],[1573056000000,1.4662],[1573142400000,1.4634],[1573401600000,1.4402],[1573488000000,1.4444],[1573574400000,1.4485],[1573660800000,1.4479],[1573747200000,1.4404],[1574006400000,1.4434],[1574092800000,1.4696],[1574179200000,1.4666],[1574265600000,1.4556],[1574352000000,1.4394],[1574611200000,1.4321],[1574697600000,1.4386],[1574784000000,1.4344],[1574870400000,1.4307],[1574956800000,1.3894],[1575216000000,1.386],[1575302400000,1.3803],[1575388800000,1.3822],[1575475200000,1.3932],[1575561600000,1.4153],[1575820800000,1.3965],[1575907200000,1.3991],[1575993600000,1.4011],[1576080000000,1.407],[1576166400000,1.4293],[1576425600000,1.4225],[1576512000000,1.4512],[1576598400000,1.4513],[1576684800000,1.4452],[1576771200000,1.4449],[1577030400000,1.4496],[1577116800000,1.449],[1577203200000,1.4416],[1577289600000,1.4444],[1577376000000,1.459],[1577635200000,1.4686],[1577721600000,1.4691],[1577894400000,1.467],[1577980800000,1.459],[1578240000000,1.4325],[1578326400000,1.4496],[1578412800000,1.439],[1578499200000,1.4684],[1578585600000,1.4776],[1578844800000,1.502],[1578931200000,1.4832],[1579017600000,1.4854],[1579104000000,1.5018],[1579190400000,1.5112],[1579449600000,1.5152],[1579536000000,1.4874],[1579622400000,1.4964],[1579708800000,1.4567],[1580659200000,1.3896],[1580745600000,1.4192],[1580832000000,1.4438],[1580918400000,1.4771],[1581004800000,1.4771],[1581264000000,1.478],[1581350400000,1.5009],[1581436800000,1.5059],[1581523200000,1.5054],[1581609600000,1.5185],[1581868800000,1.5199],[1581955200000,1.5046],[1582041600000,1.5075],[1582128000000,1.5308],[1582214400000,1.5212],[1582473600000,1.4921],[1582560000000,1.4998],[1582646400000,1.479],[1582732800000,1.4931],[1582819200000,1.4546],[1583078400000,1.4773],[1583164800000,1.5001],[1583251200000,1.5064],[1583337600000,1.5576],[1583424000000,1.5357],[1583683200000,1.4821],[1583769600000,1.5045],[1583856000000,1.4998],[1583942400000,1.4537],[1584028800000,1.4456],[1584288000000,1.3715],[1584374400000,1.3789],[1584460800000,1.3366],[1584547200000,1.2966],[1584633600000,1.365],[1584892800000,1.324],[1584979200000,1.3795],[1585065600000,1.4329],[1585152000000,1.4378],[1585238400000,1.4333],[1585497600000,1.4116],[1585584000000,1.4326],[1585670400000,1.4279],[1585756800000,1.4547],[1585843200000,1.4625],[1586188800000,1.5059],[1586275200000,1.4921],[1586361600000,1.5128],[1586448000000,1.5125],[1586707200000,1.5089],[1586793600000,1.523],[1586880000000,1.521],[1586966400000,1.5273],[1587052800000,1.5422],[1587312000000,1.55],[1587398400000,1.5137],[1587484800000,1.5437],[1587571200000,1.5577],[1587657600000,1.5432],[1587916800000,1.5591],[1588003200000,1.5945],[1588089600000,1.5831],[1588176000000,1.5806],[1588694400000,1.5961],[1588780800000,1.6042],[1588867200000,1.6176],[1589126400000,1.6219],[1589212800000,1.6352],[1589299200000,1.6724],[1589385600000,1.6678],[1589472000000,1.6556],[1589731200000,1.6924],[1589817600000,1.7149],[1589904000000,1.7165],[1589990400000,1.7146],[1590076800000,1.6481],[1590336000000,1.6884],[1590422400000,1.7234],[1590508800000,1.7041],[1590595200000,1.6902],[1590681600000,1.7304],[1590940800000,1.795],[1591027200000,1.7845],[1591113600000,1.7987],[1591200000000,1.825],[1591286400000,1.8386],[1591545600000,1.8261],[1591632000000,1.8293],[1591718400000,1.8564],[1591804800000,1.8445],[1591891200000,1.8568],[1592150400000,1.8171],[1592236800000,1.8587],[1592323200000,1.8738],[1592409600000,1.8798],[1592496000000,1.915],[1592755200000,1.9118],[1592841600000,1.9628],[1592928000000,1.9547],[1593360000000,1.9514],[1593446400000,1.9677],[1593532800000,2.0074],[1593619200000,2.0719],[1593705600000,2.0915],[1593964800000,2.1211],[1594051200000,2.1461],[1594137600000,2.1695],[1594224000000,2.2215],[1594310400000,2.2159],[1594569600000,2.262],[1594656000000,2.2388],[1594742400000,2.2717],[1594828800000,2.1142],[1594915200000,2.1448],[1595174400000,2.1295],[1595260800000,2.2116],[1595347200000,2.2009],[1595433600000,2.2428],[1595520000000,2.14],[1595779200000,2.164],[1595865600000,2.2052],[1595952000000,2.2237],[1596038400000,2.229],[1596124800000,2.2271],[1596384000000,2.2422],[1596470400000,2.2584],[1596556800000,2.2724],[1596643200000,2.2326],[1596729600000,2.1984],[1596988800000,2.1857],[1597075200000,2.1998],[1597161600000,2.1676],[1597248000000,2.1656],[1597334400000,2.1985],[1597593600000,2.233],[1597680000000,2.2533],[1597766400000,2.2375],[1597852800000,2.2132],[1597939200000,2.2429],[1598198400000,2.3006],[1598284800000,2.3265],[1598371200000,2.3325],[1598457600000,2.3472],[1598544000000,2.3873],[1598803200000,2.3732],[1598889600000,2.3748],[1598976000000,2.3824],[1599062400000,2.3901],[1599148800000,2.3521],[1599408000000,2.3065],[1599494400000,2.2612],[1599580800000,2.2314],[1599667200000,2.2433],[1599753600000,2.288],[1600012800000,2.3052],[1600099200000,2.3122],[1600185600000,2.2924],[1600272000000,2.2474],[1600358400000,2.2653],[1600617600000,2.2352],[1600704000000,2.2221],[1600790400000,2.2343],[1600876800000,2.1948],[1600963200000,2.1915],[1601222400000,2.2155],[1601308800000,2.2092],[1601395200000,2.2292],[1602172800000,2.2796],[1602432000000,2.3497],[1602518400000,2.3773],[1602604800000,2.3752],[1602691200000,2.346],[1602777600000,2.3381],[1603036800000,2.3269],[1603123200000,2.369],[1603209600000,2.3784],[1603296000000,2.3954],[1603382400000,2.3584],[1603641600000,2.3612],[1603728000000,2.3894],[1603814400000,2.4535],[1603900800000,2.5053],[1603987200000,2.4487],[1604246400000,2.4773],[1604332800000,2.4973],[1604419200000,2.5153],[1604505600000,2.567],[1604592000000,2.5449],[1604851200000,2.5929],[1604937600000,2.5808],[1605024000000,2.5196],[1605110400000,2.5609],[1605196800000,2.5637],[1605456000000,2.6206],[1605542400000,2.5676],[1605628800000,2.5469],[1605715200000,2.5503999999999998],[1605801600000,2.598],[1606060800000,2.6103],[1606147200000,2.6263],[1606233600000,2.551],[1606320000000,2.5762],[1606406400000,2.5983],[1606665600000,2.5316],[1606752000000,2.5665],[1606838400000,2.541],[1606924800000,2.5726],[1607011200000,2.6321],[1607270400000,2.6132],[1607356800000,2.626],[1607443200000,2.6175],[1607529600000,2.6311],[1607616000000,2.6417],[1607875200000,2.6503],[1607961600000,2.631],[1608048000000,2.6661],[1608134400000,2.7125],[1608220800000,2.6947],[1608480000000,2.719],[1608566400000,2.7293],[1608652800000,2.744],[1608739200000,2.7299],[1608825600000,2.7329],[1609084800000,2.7401],[1609171200000,2.7537],[1609257600000,2.8212],[1609344000000,2.8661],[1609689600000,2.9202],[1609776000000,3.0144],[1609862400000,3.0452],[1609948800000,3.0491],[1610035200000,3.0306],[1610294400000,2.9898],[1610380800000,3.0335],[1610467200000,2.9997],[1610553600000,2.9985],[1610640000000,2.9819],[1610899200000,3.0143],[1610985600000,3.0303],[1611072000000,3.0868],[1611158400000,3.1302],[1611244800000,3.1652],[1611504000000,3.325],[1611590400000,3.2393],[1611676800000,3.1889],[1611763200000,3.1174],[1611849600000,3.1327],[1612108800000,3.203],[1612195200000,3.2692],[1612281600000,3.3092],[1612368000000,3.3084],[1612454400000,3.35],[1612713600000,3.3807],[1612800000000,3.4215],[1612886400000,3.5287],[1613577600000,3.461],[1613664000000,3.477],[1613923200000,3.3015],[1614009600000,3.2979],[1614096000000,3.1287],[1614182400000,3.1122],[1614268800000,2.9872],[1614528000000,3.0655],[1614614400000,3.0117],[1614700800000,3.0963],[1614787200000,2.9647],[1614873600000,2.957],[1615132800000,2.7872],[1615219200000,2.7353],[1615305600000,2.7899],[1615392000000,2.9122],[1615478400000,2.8839],[1615737600000,2.8028],[1615824000000,2.8573],[1615910400000,2.8582],[1615996800000,2.9218],[1616083200000,2.852],[1616342400000,2.8564],[1616428800000,2.8318],[1616515200000,2.7775],[1616601600000,2.7584],[1616688000000,2.8476],[1616947200000,2.8299],[1617033600000,2.8677],[1617120000000,2.8453],[1617206400000,2.9347],[1617292800000,2.9855],[1617638400000,2.9644],[1617724800000,2.8782],[1617811200000,2.901],[1617897600000,2.8442],[1618156800000,2.8003999999999998],[1618243200000,2.7903],[1618329600000,2.8208],[1618416000000,2.8078],[1618502400000,2.8464],[1618761600000,2.8982],[1618848000000,2.9181],[1618934400000,2.9122],[1619020800000,2.9193],[1619107200000,2.9844],[1619366400000,2.9613],[1619452800000,2.9863],[1619539200000,3.0005],[1619625600000,3.0175],[1619712000000,2.9722],[1620230400000,2.901],[1620316800000,2.8597],[1620576000000,2.8161],[1620662400000,2.8229],[1620748800000,2.856],[1620835200000,2.8333],[1620921600000,2.8662],[1621180800000,2.9318],[1621267200000,2.9482],[1621353600000,2.9345],[1621440000000,2.9665],[1621526400000,2.9538],[1621785600000,2.9813],[1621872000000,3.1056],[1621958400000,3.1078],[1622044800000,3.1016],[1622131200000,3.0805],[1622390400000,3.1313],[1622476800000,3.1733],[1622563200000,3.1438],[1622649600000,3.1219],[1622736000000,3.1411],[1622995200000,3.126],[1623081600000,3.049],[1623168000000,3.0587],[1623254400000,3.0916],[1623340800000,3.0421],[1623686400000,3.0088],[1623772800000,2.9664],[1623859200000,2.9786],[1623945600000,2.9668],[1624204800000,2.9584],[1624291200000,2.9605],[1624377600000,2.9518],[1624464000000,2.991],[1624550400000,3.0644],[1624809600000,3.0622],[1624896000000,3.0041],[1624982400000,3.0144],[1625068800000,3.0324],[1625155200000,2.9328],[1625414400000,2.8928],[1625500800000,2.9031],[1625587200000,2.9245],[1625673600000,2.8359],[1625760000000,2.8256],[1626019200000,2.8689],[1626105600000,2.9035],[1626192000000,2.8952],[1626278400000,2.9317],[1626364800000,2.9354]]</t>
+    <t xml:space="preserve"> [[1536076800000,1.0],[1536249600000,0.9986],[1536854400000,0.9985],[1537459200000,1.0143],[1538064000000,1.0192],[1538928000000,0.9972],[1539014400000,0.997],[1539100800000,0.9885],[1539187200000,0.9731],[1539273600000,0.9872],[1539532800000,0.982],[1539619200000,0.9793],[1539792000000,0.9706],[1539878400000,0.9855],[1540137600000,1.0084],[1540224000000,0.983],[1540310400000,0.9748],[1540396800000,0.9623],[1540483200000,0.9529],[1540742400000,0.9246],[1540828800000,0.9201],[1540915200000,0.9374],[1541001600000,0.9503],[1541088000000,0.9893],[1541347200000,0.9727],[1541433600000,0.9686],[1541520000000,0.9667],[1541606400000,0.9688],[1541692800000,0.9602],[1541952000000,0.9593],[1542038400000,0.9687],[1542124800000,0.9609],[1542211200000,0.9658],[1542297600000,0.967],[1542556800000,0.9748],[1542643200000,0.9599],[1542729600000,0.968],[1542816000000,0.9693],[1542902400000,0.9606],[1543161600000,0.9617],[1543248000000,0.9605],[1543334400000,0.9683],[1543420800000,0.9641],[1543507200000,0.9707],[1543766400000,0.9923],[1543852800000,0.9939],[1543939200000,0.9904],[1544025600000,0.9651],[1544112000000,0.9634],[1544371200000,0.9569],[1544457600000,0.963],[1544544000000,0.9678],[1544630400000,0.9788],[1544716800000,0.9688],[1544976000000,0.9642],[1545062400000,0.9591],[1545148800000,0.9514],[1545235200000,0.9479],[1545321600000,0.9404],[1546185600000,0.9471],[1546358400000,0.9306],[1546444800000,0.9199],[1546531200000,0.9268],[1546790400000,0.9315],[1546876800000,0.9332],[1546963200000,0.9473],[1547049600000,0.95],[1547136000000,0.9557],[1547395200000,0.9413],[1547481600000,0.9688],[1547568000000,0.9718],[1547654400000,0.9705],[1547740800000,0.9932],[1548000000000,0.9987],[1548086400000,0.9848],[1548172800000,0.9817],[1548259200000,0.9849],[1548345600000,0.9975],[1548604800000,0.9982],[1548691200000,1.0025],[1548777600000,0.9954],[1549814400000,1.0475],[1549900800000,1.0569],[1549987200000,1.0704],[1550073600000,1.0739],[1550160000000,1.0509],[1550419200000,1.0773],[1550505600000,1.0693],[1550592000000,1.0717],[1550678400000,1.072],[1550764800000,1.082],[1551024000000,1.1044],[1551110400000,1.0897],[1551196800000,1.0829],[1551283200000,1.0918],[1551369600000,1.1224],[1551628800000,1.137],[1551715200000,1.1393],[1551801600000,1.135],[1551888000000,1.1061],[1551974400000,1.0829],[1552233600000,1.1179],[1552320000000,1.1256],[1552406400000,1.1241],[1552492800000,1.1278],[1552579200000,1.1465],[1552838400000,1.1928],[1552924800000,1.185],[1553011200000,1.1787],[1553097600000,1.1708],[1553184000000,1.1796],[1553443200000,1.1498],[1553529600000,1.1532],[1553616000000,1.1692],[1553702400000,1.1752],[1553788800000,1.2046],[1554048000000,1.2167],[1554134400000,1.2087],[1554220800000,1.2203],[1554307200000,1.2293],[1554652800000,1.2458],[1554739200000,1.2637],[1554825600000,1.2725],[1554912000000,1.2405],[1554998400000,1.2388],[1555257600000,1.2262],[1555344000000,1.2462],[1555430400000,1.25],[1555516800000,1.2444],[1555948800000,1.2568],[1556035200000,1.2525],[1556121600000,1.2315],[1556208000000,1.2361],[1556553600000,1.2594],[1557072000000,1.1972],[1557158400000,1.217],[1557244800000,1.2076],[1557331200000,1.1682],[1557417600000,1.2182],[1557763200000,1.2013],[1557849600000,1.2493],[1557936000000,1.262],[1558022400000,1.2344],[1558281600000,1.2079],[1558368000000,1.2139],[1558454400000,1.2112],[1558540800000,1.1777],[1558627200000,1.1851],[1558886400000,1.1953],[1558972800000,1.2145],[1559059200000,1.211],[1559145600000,1.2035],[1559232000000,1.1967],[1559491200000,1.1987],[1559577600000,1.1788],[1559664000000,1.1679],[1559750400000,1.1605],[1560096000000,1.1923],[1560182400000,1.2294],[1560268800000,1.2129],[1560355200000,1.2088],[1560441600000,1.2027],[1560700800000,1.2034],[1560787200000,1.218],[1560873600000,1.2447],[1560960000000,1.2791],[1561046400000,1.2803],[1561305600000,1.2937],[1561392000000,1.2883],[1561478400000,1.2883],[1561564800000,1.3149],[1561651200000,1.3184],[1561824000000,1.3183],[1561996800000,1.3625],[1562083200000,1.3454],[1562169600000,1.3352],[1562256000000,1.362],[1562515200000,1.3402],[1562601600000,1.3354],[1562688000000,1.3471],[1562774400000,1.3405],[1562860800000,1.3469],[1563120000000,1.3476],[1563206400000,1.3368],[1563292800000,1.3376],[1563379200000,1.3244],[1563465600000,1.3346],[1563724800000,1.3297],[1563811200000,1.3241],[1563897600000,1.3249],[1563984000000,1.3393],[1564070400000,1.3386],[1564329600000,1.3463],[1564416000000,1.3432],[1564588800000,1.3232],[1564675200000,1.3003],[1564934400000,1.2746],[1565020800000,1.2825],[1565107200000,1.2834],[1565193600000,1.3014],[1565280000000,1.288],[1565539200000,1.3167],[1565625600000,1.3062],[1565712000000,1.3231],[1565798400000,1.3209],[1565884800000,1.3376],[1566144000000,1.3608],[1566230400000,1.3639],[1566316800000,1.3638],[1566403200000,1.3824],[1566489600000,1.4001],[1566748800000,1.3764],[1566835200000,1.3964],[1566921600000,1.3848],[1567008000000,1.4119],[1567094400000,1.4368],[1567353600000,1.451],[1567440000000,1.441],[1567526400000,1.4438],[1567612800000,1.4527],[1567699200000,1.4568],[1567958400000,1.4441],[1568044800000,1.43],[1568131200000,1.4],[1568217600000,1.4121],[1568563200000,1.4035],[1568649600000,1.4008],[1568736000000,1.4195],[1568822400000,1.4107],[1568908800000,1.4137],[1569168000000,1.3984],[1569254400000,1.416],[1569340800000,1.4],[1569427200000,1.3998],[1569513600000,1.3985],[1569772800000,1.3943],[1570464000000,1.4095],[1570550400000,1.3988],[1570636800000,1.418],[1570723200000,1.4294],[1570982400000,1.433],[1571068800000,1.4455],[1571155200000,1.4392],[1571241600000,1.4383],[1571328000000,1.4282],[1571587200000,1.4243],[1571673600000,1.4264],[1571760000000,1.411],[1571846400000,1.4006],[1571932800000,1.4227],[1572192000000,1.4407],[1572278400000,1.4447],[1572364800000,1.4393],[1572451200000,1.4511],[1572537600000,1.4572],[1572796800000,1.4688],[1572883200000,1.4655],[1572969600000,1.4573],[1573056000000,1.4662],[1573142400000,1.4634],[1573401600000,1.4402],[1573488000000,1.4444],[1573574400000,1.4485],[1573660800000,1.4479],[1573747200000,1.4404],[1574006400000,1.4434],[1574092800000,1.4696],[1574179200000,1.4666],[1574265600000,1.4556],[1574352000000,1.4394],[1574611200000,1.4321],[1574697600000,1.4386],[1574784000000,1.4344],[1574870400000,1.4307],[1574956800000,1.3894],[1575216000000,1.386],[1575302400000,1.3803],[1575388800000,1.3822],[1575475200000,1.3932],[1575561600000,1.4153],[1575820800000,1.3965],[1575907200000,1.3991],[1575993600000,1.4011],[1576080000000,1.407],[1576166400000,1.4293],[1576425600000,1.4225],[1576512000000,1.4512],[1576598400000,1.4513],[1576684800000,1.4452],[1576771200000,1.4449],[1577030400000,1.4496],[1577116800000,1.449],[1577203200000,1.4416],[1577289600000,1.4444],[1577376000000,1.459],[1577635200000,1.4686],[1577721600000,1.4691],[1577894400000,1.467],[1577980800000,1.459],[1578240000000,1.4325],[1578326400000,1.4496],[1578412800000,1.439],[1578499200000,1.4684],[1578585600000,1.4776],[1578844800000,1.502],[1578931200000,1.4832],[1579017600000,1.4854],[1579104000000,1.5018],[1579190400000,1.5112],[1579449600000,1.5152],[1579536000000,1.4874],[1579622400000,1.4964],[1579708800000,1.4567],[1580659200000,1.3896],[1580745600000,1.4192],[1580832000000,1.4438],[1580918400000,1.4771],[1581004800000,1.4771],[1581264000000,1.478],[1581350400000,1.5009],[1581436800000,1.5059],[1581523200000,1.5054],[1581609600000,1.5185],[1581868800000,1.5199],[1581955200000,1.5046],[1582041600000,1.5075],[1582128000000,1.5308],[1582214400000,1.5212],[1582473600000,1.4921],[1582560000000,1.4998],[1582646400000,1.479],[1582732800000,1.4931],[1582819200000,1.4546],[1583078400000,1.4773],[1583164800000,1.5001],[1583251200000,1.5064],[1583337600000,1.5576],[1583424000000,1.5357],[1583683200000,1.4821],[1583769600000,1.5045],[1583856000000,1.4998],[1583942400000,1.4537],[1584028800000,1.4456],[1584288000000,1.3715],[1584374400000,1.3789],[1584460800000,1.3366],[1584547200000,1.2966],[1584633600000,1.365],[1584892800000,1.324],[1584979200000,1.3795],[1585065600000,1.4329],[1585152000000,1.4378],[1585238400000,1.4333],[1585497600000,1.4116],[1585584000000,1.4326],[1585670400000,1.4279],[1585756800000,1.4547],[1585843200000,1.4625],[1586188800000,1.5059],[1586275200000,1.4921],[1586361600000,1.5128],[1586448000000,1.5125],[1586707200000,1.5089],[1586793600000,1.523],[1586880000000,1.521],[1586966400000,1.5273],[1587052800000,1.5422],[1587312000000,1.55],[1587398400000,1.5137],[1587484800000,1.5437],[1587571200000,1.5577],[1587657600000,1.5432],[1587916800000,1.5591],[1588003200000,1.5945],[1588089600000,1.5831],[1588176000000,1.5806],[1588694400000,1.5961],[1588780800000,1.6042],[1588867200000,1.6176],[1589126400000,1.6219],[1589212800000,1.6352],[1589299200000,1.6724],[1589385600000,1.6678],[1589472000000,1.6556],[1589731200000,1.6924],[1589817600000,1.7149],[1589904000000,1.7165],[1589990400000,1.7146],[1590076800000,1.6481],[1590336000000,1.6884],[1590422400000,1.7234],[1590508800000,1.7041],[1590595200000,1.6902],[1590681600000,1.7304],[1590940800000,1.795],[1591027200000,1.7845],[1591113600000,1.7987],[1591200000000,1.825],[1591286400000,1.8386],[1591545600000,1.8261],[1591632000000,1.8293],[1591718400000,1.8564],[1591804800000,1.8445],[1591891200000,1.8568],[1592150400000,1.8171],[1592236800000,1.8587],[1592323200000,1.8738],[1592409600000,1.8798],[1592496000000,1.915],[1592755200000,1.9118],[1592841600000,1.9628],[1592928000000,1.9547],[1593360000000,1.9514],[1593446400000,1.9677],[1593532800000,2.0074],[1593619200000,2.0719],[1593705600000,2.0915],[1593964800000,2.1211],[1594051200000,2.1461],[1594137600000,2.1695],[1594224000000,2.2215],[1594310400000,2.2159],[1594569600000,2.262],[1594656000000,2.2388],[1594742400000,2.2717],[1594828800000,2.1142],[1594915200000,2.1448],[1595174400000,2.1295],[1595260800000,2.2116],[1595347200000,2.2009],[1595433600000,2.2428],[1595520000000,2.14],[1595779200000,2.164],[1595865600000,2.2052],[1595952000000,2.2237],[1596038400000,2.229],[1596124800000,2.2271],[1596384000000,2.2422],[1596470400000,2.2584],[1596556800000,2.2724],[1596643200000,2.2326],[1596729600000,2.1984],[1596988800000,2.1857],[1597075200000,2.1998],[1597161600000,2.1676],[1597248000000,2.1656],[1597334400000,2.1985],[1597593600000,2.233],[1597680000000,2.2533],[1597766400000,2.2375],[1597852800000,2.2132],[1597939200000,2.2429],[1598198400000,2.3006],[1598284800000,2.3265],[1598371200000,2.3325],[1598457600000,2.3472],[1598544000000,2.3873],[1598803200000,2.3732],[1598889600000,2.3748],[1598976000000,2.3824],[1599062400000,2.3901],[1599148800000,2.3521],[1599408000000,2.3065],[1599494400000,2.2612],[1599580800000,2.2314],[1599667200000,2.2433],[1599753600000,2.288],[1600012800000,2.3052],[1600099200000,2.3122],[1600185600000,2.2924],[1600272000000,2.2474],[1600358400000,2.2653],[1600617600000,2.2352],[1600704000000,2.2221],[1600790400000,2.2343],[1600876800000,2.1948],[1600963200000,2.1915],[1601222400000,2.2155],[1601308800000,2.2092],[1601395200000,2.2292],[1602172800000,2.2796],[1602432000000,2.3497],[1602518400000,2.3773],[1602604800000,2.3752],[1602691200000,2.346],[1602777600000,2.3381],[1603036800000,2.3269],[1603123200000,2.369],[1603209600000,2.3784],[1603296000000,2.3954],[1603382400000,2.3584],[1603641600000,2.3612],[1603728000000,2.3894],[1603814400000,2.4535],[1603900800000,2.5053],[1603987200000,2.4487],[1604246400000,2.4773],[1604332800000,2.4973],[1604419200000,2.5153],[1604505600000,2.567],[1604592000000,2.5449],[1604851200000,2.5929],[1604937600000,2.5808],[1605024000000,2.5196],[1605110400000,2.5609],[1605196800000,2.5637],[1605456000000,2.6206],[1605542400000,2.5676],[1605628800000,2.5469],[1605715200000,2.5503999999999998],[1605801600000,2.598],[1606060800000,2.6103],[1606147200000,2.6263],[1606233600000,2.551],[1606320000000,2.5762],[1606406400000,2.5983],[1606665600000,2.5316],[1606752000000,2.5665],[1606838400000,2.541],[1606924800000,2.5726],[1607011200000,2.6321],[1607270400000,2.6132],[1607356800000,2.626],[1607443200000,2.6175],[1607529600000,2.6311],[1607616000000,2.6417],[1607875200000,2.6503],[1607961600000,2.631],[1608048000000,2.6661],[1608134400000,2.7125],[1608220800000,2.6947],[1608480000000,2.719],[1608566400000,2.7293],[1608652800000,2.744],[1608739200000,2.7299],[1608825600000,2.7329],[1609084800000,2.7401],[1609171200000,2.7537],[1609257600000,2.8212],[1609344000000,2.8661],[1609689600000,2.9202],[1609776000000,3.0144],[1609862400000,3.0452],[1609948800000,3.0491],[1610035200000,3.0306],[1610294400000,2.9898],[1610380800000,3.0335],[1610467200000,2.9997],[1610553600000,2.9985],[1610640000000,2.9819],[1610899200000,3.0143],[1610985600000,3.0303],[1611072000000,3.0868],[1611158400000,3.1302],[1611244800000,3.1652],[1611504000000,3.325],[1611590400000,3.2393],[1611676800000,3.1889],[1611763200000,3.1174],[1611849600000,3.1327],[1612108800000,3.203],[1612195200000,3.2692],[1612281600000,3.3092],[1612368000000,3.3084],[1612454400000,3.35],[1612713600000,3.3807],[1612800000000,3.4215],[1612886400000,3.5287],[1613577600000,3.461],[1613664000000,3.477],[1613923200000,3.3015],[1614009600000,3.2979],[1614096000000,3.1287],[1614182400000,3.1122],[1614268800000,2.9872],[1614528000000,3.0655],[1614614400000,3.0117],[1614700800000,3.0963],[1614787200000,2.9647],[1614873600000,2.957],[1615132800000,2.7872],[1615219200000,2.7353],[1615305600000,2.7899],[1615392000000,2.9122],[1615478400000,2.8839],[1615737600000,2.8028],[1615824000000,2.8573],[1615910400000,2.8582],[1615996800000,2.9218],[1616083200000,2.852],[1616342400000,2.8564],[1616428800000,2.8318],[1616515200000,2.7775],[1616601600000,2.7584],[1616688000000,2.8476],[1616947200000,2.8299],[1617033600000,2.8677],[1617120000000,2.8453],[1617206400000,2.9347],[1617292800000,2.9855],[1617638400000,2.9644],[1617724800000,2.8782],[1617811200000,2.901],[1617897600000,2.8442],[1618156800000,2.8003999999999998],[1618243200000,2.7903],[1618329600000,2.8208],[1618416000000,2.8078],[1618502400000,2.8464],[1618761600000,2.8982],[1618848000000,2.9181],[1618934400000,2.9122],[1619020800000,2.9193],[1619107200000,2.9844],[1619366400000,2.9613],[1619452800000,2.9863],[1619539200000,3.0005],[1619625600000,3.0175],[1619712000000,2.9722],[1620230400000,2.901],[1620316800000,2.8597],[1620576000000,2.8161],[1620662400000,2.8229],[1620748800000,2.856],[1620835200000,2.8333],[1620921600000,2.8662],[1621180800000,2.9318],[1621267200000,2.9482],[1621353600000,2.9345],[1621440000000,2.9665],[1621526400000,2.9538],[1621785600000,2.9813],[1621872000000,3.1056],[1621958400000,3.1078],[1622044800000,3.1016],[1622131200000,3.0805],[1622390400000,3.1313],[1622476800000,3.1733],[1622563200000,3.1438],[1622649600000,3.1219],[1622736000000,3.1411],[1622995200000,3.126],[1623081600000,3.049],[1623168000000,3.0587],[1623254400000,3.0916],[1623340800000,3.0421],[1623686400000,3.0088],[1623772800000,2.9664],[1623859200000,2.9786],[1623945600000,2.9668],[1624204800000,2.9584],[1624291200000,2.9605],[1624377600000,2.9518],[1624464000000,2.991],[1624550400000,3.0644],[1624809600000,3.0622],[1624896000000,3.0041],[1624982400000,3.0144],[1625068800000,3.0324],[1625155200000,2.9328],[1625414400000,2.8928],[1625500800000,2.9031],[1625587200000,2.9245],[1625673600000,2.8359],[1625760000000,2.8256],[1626019200000,2.8689],[1626105600000,2.9035],[1626192000000,2.8952],[1626278400000,2.9317],[1626364800000,2.9354],[1626624000000,2.9286],[1626710400000,2.9183],[1626796800000,2.9224],[1626883200000,2.9135],[1626969600000,2.861],[1627228800000,2.681],[1627315200000,2.5192],[1627401600000,2.5497],[1627488000000,2.5735],[1627574400000,2.4967],[1627833600000,2.5664],[1627920000000,2.5785],[1628006400000,2.5596],[1628092800000,2.5337],[1628179200000,2.5355],[1628438400000,2.5653]]</t>
+  </si>
+  <si>
+    <t>[[1483459200000, 0.0], [1484236800000, 0.04], [1484841600000, -0.33], [1486051200000, 1.64], [1486656000000, 4.64], [1487260800000, 6.18], [1488124800000, 6.59], [1488729600000, 5.81], [1489334400000, 8.63], [1489939200000, 11.41], [1490544000000, 9.43], [1491321600000, 9.74], [1491926400000, 10.82], [1492704000000, 13.22], [1493308800000, 16.07], [1494259200000, 21.04], [1494864000000, 25.73], [1495468800000, 26.61], [1496246400000, 24.53], [1496851200000, 30.03], [1497456000000, 23.34], [1498060800000, 29.46], [1498665600000, 27.08], [1499356800000, 25.66], [1499961600000, 33.06], [1500566400000, 34.79], [1501171200000, 41.62], [1501776000000, 41.65], [1502380800000, 38.8], [1502985600000, 40.54], [1503590400000, 42.22], [1504195200000, 42.24], [1505059200000, 42.26], [1505664000000, 48.29], [1506268800000, 42.92], [1507478400000, 50.17], [1508083200000, 52.71], [1508688000000, 48.25], [1509292800000, 44.83], [1509897600000, 51.39], [1510502400000, 51.89], [1511107200000, 56.49], [1511798400000, 54.39], [1512403200000, 43.72], [1513008000000, 48.14], [1513612800000, 52.36], [1514390400000, 50.6], [1514995200000, 57.2], [1515600000000, 59.77], [1516291200000, 59.4], [1516896000000, 66.11], [1517500800000, 52.46], [1518105600000, 41.85], [1519315200000, 59.49], [1519920000000, 51.96], [1520524800000, 59.49], [1521129600000, 62.21], [1521734400000, 47.21], [1522684800000, 40.02], [1523462400000, 43.04], [1524067200000, 42.84], [1524672000000, 37.83], [1525622400000, 45.98], [1526227200000, 50.95], [1526832000000, 45.1], [1527609600000, 45.7], [1528214400000, 55.64], [1528819200000, 57.23], [1529510400000, 54.29], [1530115200000, 47.41], [1530806400000, 50.89], [1531411200000, 52.71], [1532016000000, 51.38], [1532620800000, 51.17], [1533225600000, 43.32], [1533830400000, 41.06], [1534435200000, 33.6], [1535040000000, 36.27], [1535644800000, 34.35], [1536508800000, 23.24], [1537113600000, 25.55], [1537891200000, 31.32], [1539100800000, 15.28], [1539792000000, 12.76], [1540396800000, 10.92], [1541001600000, 18.79], [1541606400000, 15.78], [1542211200000, 16.72], [1542902400000, 11.82], [1543507200000, 17.17], [1544371200000, 12.65], [1544976000000, 10.56], [1545580800000, 4.53], [1546444800000, 1.89], [1547049600000, 13.02], [1547654400000, 12.32], [1548345600000, 17.22], [1548950400000, 18.85], [1550160000000, 19.32], [1551024000000, 25.4], [1551628800000, 25.88], [1552233600000, 26.39], [1552838400000, 27.89], [1553443200000, 23.32], [1554048000000, 29.3], [1554739200000, 32.68], [1555344000000, 31.21], [1556121600000, 30.77], [1557158400000, 27.71], [1557849600000, 26.6], [1558454400000, 16.11], [1559145600000, 11.41], [1559750400000, 10.82], [1560441600000, 13.82], [1561046400000, 19.59], [1561651200000, 21.03], [1562515200000, 20.37], [1563120000000, 21.88], [1563724800000, 20.91], [1564329600000, 23.06], [1564934400000, 10.69], [1565539200000, 13.74], [1566144000000, 21.82], [1566748800000, 17.87], [1567440000000, 20.57], [1568044800000, 23.91], [1568736000000, 25.99], [1569340800000, 22.2], [1570550400000, 17.85], [1571155200000, 25.07], [1571760000000, 21.18], [1572364800000, 24.7], [1572969600000, 28.87], [1573574400000, 27.98], [1574179200000, 26.74], [1574784000000, 34.16], [1575388800000, 30.35], [1575993600000, 35.0], [1576598400000, 41.33], [1577203200000, 42.87], [1577894400000, 46.57], [1578499200000, 49.41], [1579104000000, 50.77], [1579708800000, 44.98], [1581004800000, 48.41], [1581609600000, 52.01], [1582214400000, 48.48], [1582819200000, 42.12], [1583424000000, 42.5], [1584028800000, 33.0], [1584633600000, 28.18], [1585238400000, 34.18], [1585843200000, 34.68], [1586707200000, 39.91], [1587312000000, 48.14], [1587916800000, 46.84], [1588780800000, 45.25], [1589385600000, 52.65], [1589990400000, 58.17], [1590595200000, 52.86], [1591200000000, 66.72], [1591804800000, 66.73], [1592409600000, 75.97], [1593360000000, 77.87], [1593964800000, 92.0], [1594569600000, 97.11], [1595174400000, 92.85], [1595779200000, 90.44], [1596384000000, 98.87], [1596988800000, 91.57], [1597593600000, 93.39], [1598198400000, 107.28], [1598803200000, 106.13], [1599408000000, 100.9], [1600012800000, 100.16], [1600617600000, 94.79], [1601222400000, 95.57], [1602518400000, 112.18], [1603123200000, 111.0], [1603728000000, 114.24], [1604332800000, 112.03], [1604937600000, 107.19], [1605542400000, 107.44], [1606147200000, 115.04], [1606752000000, 108.52], [1607356800000, 109.46], [1607961600000, 104.43], [1608566400000, 106.96], [1609171200000, 100.05], [1609862400000, 107.88], [1610467200000, 109.98], [1611072000000, 136.06], [1611676800000, 134.46], [1612281600000, 146.04], [1612886400000, 155.31], [1614096000000, 135.36], [1614700800000, 132.43], [1615305600000, 115.15], [1615910400000, 116.46], [1616515200000, 104.13], [1617120000000, 103.99], [1617811200000, 107.08], [1618416000000, 102.81], [1619020800000, 101.87], [1619625600000, 105.53], [1620662400000, 86.3], [1621267200000, 87.98], [1621872000000, 89.57], [1622476800000, 95.72], [1623081600000, 87.63], [1623772800000, 84.2], [1624377600000, 87.19], [1624982400000, 92.86], [1625587200000, 76.48], [1626192000000, 79.25], [1626796800000, 74.02], [1627401600000, 50.42], [1628006400000, 51.3], [1628179200000, 48.34]]</t>
   </si>
   <si>
     <t>513050</t>
@@ -158,7 +206,10 @@
     <t>易方达中概互联50ETF</t>
   </si>
   <si>
-    <t xml:space="preserve"> [[1483459200000,1.0],[1483632000000,1.0003],[1483977600000,1.0003],[1484064000000,1.0004],[1484150400000,1.0004],[1484236800000,1.0004],[1484496000000,0.9999],[1484582400000,0.9999],[1484668800000,0.9975],[1484755200000,0.9994],[1484841600000,0.9967],[1485100800000,1.0042],[1485187200000,1.0116],[1485273600000,1.0237],[1485360000000,1.0207],[1486051200000,1.0164],[1486310400000,1.0266],[1486396800000,1.027],[1486483200000,1.0433],[1486569600000,1.0413],[1486656000000,1.0464],[1486915200000,1.0525],[1487001600000,1.0442],[1487088000000,1.0519],[1487174400000,1.0678],[1487260800000,1.0618],[1487606400000,1.0749],[1487692800000,1.0896],[1487779200000,1.0775],[1487865600000,1.063],[1488124800000,1.0659],[1488211200000,1.061],[1488297600000,1.0685],[1488384000000,1.0605],[1488470400000,1.063],[1488729600000,1.0581],[1488816000000,1.0668],[1488902400000,1.0746],[1488988800000,1.0692],[1489075200000,1.0742],[1489334400000,1.0863],[1489420800000,1.0846],[1489507200000,1.0816],[1489593600000,1.0958],[1489680000000,1.1001],[1489939200000,1.1141],[1490025600000,1.0899],[1490112000000,1.0874],[1490198400000,1.0934],[1490284800000,1.0962],[1490544000000,1.0943],[1490630400000,1.0976],[1490716800000,1.1062],[1490803200000,1.1015],[1490889600000,1.0968],[1491321600000,1.0974],[1491408000000,1.1035],[1491494400000,1.1042],[1491753600000,1.1148],[1491840000000,1.1022],[1491926400000,1.1082],[1492012800000,1.0998],[1492444800000,1.1057],[1492531200000,1.1081],[1492617600000,1.1275],[1492704000000,1.1322],[1492963200000,1.1418],[1493049600000,1.1661],[1493136000000,1.1602],[1493222400000,1.171],[1493308800000,1.1607],[1493654400000,1.1753],[1493827200000,1.1621],[1493913600000,1.165],[1494172800000,1.1824],[1494259200000,1.2104],[1494345600000,1.2202],[1494432000000,1.2248],[1494518400000,1.2317],[1494777600000,1.2336],[1494864000000,1.2573],[1494950400000,1.2319],[1495036800000,1.2338],[1495123200000,1.2624],[1495382400000,1.2792],[1495468800000,1.2661],[1495555200000,1.2618],[1495641600000,1.2724],[1495728000000,1.2718],[1496160000000,1.2404],[1496246400000,1.2453],[1496332800000,1.2459],[1496592000000,1.25],[1496678400000,1.2512],[1496764800000,1.2656],[1496851200000,1.3003],[1496937600000,1.272],[1497196800000,1.2622],[1497283200000,1.2562],[1497369600000,1.25],[1497456000000,1.2334],[1497542400000,1.2346],[1497801600000,1.2682],[1497888000000,1.2673],[1497974400000,1.2949],[1498060800000,1.2946],[1498147200000,1.3035],[1498406400000,1.302],[1498492800000,1.2859],[1498579200000,1.2901],[1498665600000,1.2708],[1498752000000,1.2589],[1499011200000,1.2595],[1499184000000,1.2692],[1499270400000,1.259],[1499356800000,1.2566],[1499616000000,1.2754],[1499702400000,1.2943],[1499788800000,1.3141],[1499875200000,1.3168],[1499961600000,1.3306],[1500220800000,1.3192],[1500307200000,1.3402],[1500393600000,1.3507],[1500480000000,1.346],[1500566400000,1.3479],[1500825600000,1.3653],[1500912000000,1.3669],[1500998400000,1.389],[1501084800000,1.3821],[1501171200000,1.4162],[1501430400000,1.4255],[1501516800000,1.4229],[1501603200000,1.4032],[1501689600000,1.4109],[1501776000000,1.4165],[1502035200000,1.4511],[1502121600000,1.4619],[1502208000000,1.4625],[1502294400000,1.4055],[1502380800000,1.388],[1502640000000,1.4015],[1502726400000,1.4024],[1502812800000,1.4118],[1502899200000,1.4013],[1502985600000,1.4054],[1503244800000,1.4246],[1503331200000,1.4363],[1503417600000,1.4427],[1503504000000,1.4375],[1503590400000,1.4222],[1503849600000,1.3921],[1503936000000,1.3894],[1504022400000,1.414],[1504108800000,1.4223],[1504195200000,1.4224],[1504540800000,1.3909],[1504627200000,1.3932],[1504713600000,1.4082],[1504800000000,1.394],[1505059200000,1.4226],[1505145600000,1.4449],[1505232000000,1.4619],[1505318400000,1.4628],[1505404800000,1.4579],[1505664000000,1.4829],[1505750400000,1.4798],[1505836800000,1.4795],[1505923200000,1.4758],[1506009600000,1.4739],[1506268800000,1.4292],[1506355200000,1.4227],[1506441600000,1.44],[1506528000000,1.4341],[1506614400000,1.4511],[1507478400000,1.5017],[1507564800000,1.5165],[1507651200000,1.5055],[1507737600000,1.4911],[1507824000000,1.4989],[1508083200000,1.5271],[1508169600000,1.5101],[1508256000000,1.5226],[1508342400000,1.4922],[1508428800000,1.4916],[1508688000000,1.4825],[1508774400000,1.4812],[1508860800000,1.4661],[1508947200000,1.4485],[1509033600000,1.4427],[1509292800000,1.4483],[1509379200000,1.4691],[1509465600000,1.4817],[1509552000000,1.4718],[1509638400000,1.4768],[1509897600000,1.5139],[1509984000000,1.5263],[1510070400000,1.5221],[1510156800000,1.5201],[1510243200000,1.5099],[1510502400000,1.5189],[1510588800000,1.4987],[1510675200000,1.4951],[1510761600000,1.5324],[1510848000000,1.5554],[1511107200000,1.5649],[1511193600000,1.5917],[1511280000000,1.5933],[1511452800000,1.5682],[1511712000000,1.5455],[1511798400000,1.5439],[1511884800000,1.5036],[1511971200000,1.4884],[1512057600000,1.464],[1512316800000,1.4488],[1512403200000,1.4372],[1512489600000,1.4362],[1512576000000,1.4553],[1512662400000,1.4763],[1512921600000,1.5036],[1513008000000,1.4814],[1513094400000,1.5077],[1513180800000,1.4916],[1513267200000,1.493],[1513526400000,1.5273],[1513612800000,1.5236],[1513699200000,1.5175],[1513785600000,1.5318],[1513872000000,1.5352],[1514304000000,1.5136],[1514390400000,1.506],[1514476800000,1.4982],[1514649600000,1.4981],[1514822400000,1.5527],[1514908800000,1.557],[1514995200000,1.572],[1515081600000,1.5928],[1515340800000,1.6073],[1515427200000,1.6185],[1515513600000,1.6085],[1515600000000,1.5977],[1515686400000,1.6053],[1516032000000,1.5878],[1516118400000,1.5958],[1516204800000,1.5936],[1516291200000,1.594],[1516550400000,1.5957],[1516636800000,1.622],[1516723200000,1.6233],[1516809600000,1.6198],[1516896000000,1.6611],[1517155200000,1.6344],[1517241600000,1.5993],[1517328000000,1.6123],[1517414400000,1.5642],[1517500800000,1.5246],[1517760000000,1.4835],[1517846400000,1.4777],[1517932800000,1.452],[1518019200000,1.4041],[1518105600000,1.4185],[1518364800000,1.4331],[1518451200000,1.4692],[1518537600000,1.5306],[1519228800000,1.5696],[1519315200000,1.5949],[1519574400000,1.5939],[1519660800000,1.5479],[1519747200000,1.5379],[1519833600000,1.5308],[1519920000000,1.5196],[1520179200000,1.5225],[1520265600000,1.5509],[1520352000000,1.5576],[1520438400000,1.5662],[1520524800000,1.5949],[1520784000000,1.6092],[1520870400000,1.5803],[1520956800000,1.5906],[1521043200000,1.6154],[1521129600000,1.6221],[1521388800000,1.588],[1521475200000,1.6049],[1521561600000,1.5949],[1521648000000,1.5113],[1521734400000,1.4721],[1521993600000,1.5074],[1522080000000,1.4581],[1522166400000,1.4174],[1522252800000,1.44],[1522684800000,1.4001999999999999],[1522771200000,1.3998],[1523203200000,1.4118],[1523289600000,1.4463],[1523376000000,1.4379],[1523462400000,1.4304],[1523548800000,1.4048],[1523808000000,1.4058],[1523894400000,1.4213],[1523980800000,1.4321],[1524067200000,1.4284],[1524153600000,1.4054],[1524412800000,1.391],[1524499200000,1.3812],[1524585600000,1.3587],[1524672000000,1.3783],[1524758400000,1.4102],[1525190400000,1.4309],[1525276800000,1.4269],[1525363200000,1.4335],[1525622400000,1.4598],[1525708800000,1.4808],[1525795200000,1.479],[1525881600000,1.5051],[1525968000000,1.4978],[1526227200000,1.5095],[1526313600000,1.4865],[1526400000000,1.5102],[1526486400000,1.4992],[1526572800000,1.4654],[1526832000000,1.451],[1527004800000,1.4538],[1527091200000,1.4525],[1527177600000,1.46],[1527523200000,1.458],[1527609600000,1.457],[1527696000000,1.4611],[1527782400000,1.4927],[1528041600000,1.5407],[1528128000000,1.5464],[1528214400000,1.5564],[1528300800000,1.5475],[1528387200000,1.5465],[1528646400000,1.5649],[1528732800000,1.5788],[1528819200000,1.5723],[1528905600000,1.5876],[1528992000000,1.5911],[1529337600000,1.5455],[1529424000000,1.5676],[1529510400000,1.5429],[1529596800000,1.5435],[1529856000000,1.485],[1529942400000,1.4926],[1530028800000,1.4499],[1530115200000,1.4741],[1530201600000,1.4923],[1530288000000,1.4923],[1530547200000,1.4939],[1530720000000,1.478],[1530806400000,1.5089],[1531065600000,1.5371],[1531152000000,1.5166],[1531238400000,1.4979],[1531324800000,1.5363],[1531411200000,1.5271],[1531670400000,1.5302],[1531756800000,1.5345],[1531843200000,1.5284],[1531929600000,1.5032],[1532016000000,1.5138],[1532275200000,1.5058],[1532361600000,1.5129],[1532448000000,1.5595],[1532534400000,1.5293],[1532620800000,1.5117],[1532880000000,1.4826],[1532966400000,1.4715],[1533052800000,1.4507],[1533139200000,1.4257],[1533225600000,1.4332],[1533484800000,1.433],[1533571200000,1.4383],[1533657600000,1.4183],[1533744000000,1.4107],[1533830400000,1.4106],[1534089600000,1.3875],[1534176000000,1.3441],[1534262400000,1.3104],[1534348800000,1.3146],[1534435200000,1.336],[1534694400000,1.3632],[1534780800000,1.3627],[1534867200000,1.3706],[1534953600000,1.3499],[1535040000000,1.3627],[1535299200000,1.3973],[1535385600000,1.3799],[1535472000000,1.3763],[1535558400000,1.3471],[1535644800000,1.3435],[1535990400000,1.3189],[1536076800000,1.2673],[1536163200000,1.255],[1536249600000,1.259],[1536508800000,1.2324],[1536595200000,1.2347],[1536681600000,1.2525],[1536768000000,1.2932],[1536854400000,1.2864],[1537113600000,1.2555],[1537200000000,1.2535],[1537286400000,1.2934],[1537372800000,1.3129],[1537459200000,1.315],[1537891200000,1.3132],[1537977600000,1.3177],[1538064000000,1.3116],[1538928000000,1.2059],[1539014400000,1.1918],[1539100800000,1.1528],[1539187200000,1.1375],[1539273600000,1.1871],[1539532800000,1.1599],[1539619200000,1.1753],[1539792000000,1.1276],[1539878400000,1.1271],[1540137600000,1.1625],[1540224000000,1.1331],[1540310400000,1.084],[1540396800000,1.1092],[1540483200000,1.0979],[1540742400000,1.0662],[1540828800000,1.0686],[1540915200000,1.1149],[1541001600000,1.1879],[1541088000000,1.1942],[1541347200000,1.1706],[1541433600000,1.1788],[1541520000000,1.198],[1541606400000,1.1578],[1541692800000,1.1137],[1541952000000,1.0889],[1542038400000,1.1111],[1542124800000,1.1255],[1542211200000,1.1672],[1542297600000,1.1606],[1542556800000,1.1362],[1542643200000,1.1045],[1542729600000,1.1443],[1542902400000,1.1182],[1543161600000,1.1451],[1543248000000,1.1477],[1543334400000,1.1759],[1543420800000,1.1465],[1543507200000,1.1717],[1543766400000,1.2096],[1543852800000,1.1743],[1544025600000,1.144],[1544112000000,1.1366],[1544371200000,1.1265],[1544457600000,1.1374],[1544544000000,1.1566],[1544630400000,1.1557],[1544716800000,1.134],[1544976000000,1.1056],[1545062400000,1.0835],[1545148800000,1.0593],[1545235200000,1.0495],[1545321600000,1.0529],[1545580800000,1.0453],[1545840000000,1.073],[1545926400000,1.0668],[1546185600000,1.0579],[1546358400000,1.0492],[1546444800000,1.0189],[1546531200000,1.071],[1546790400000,1.092],[1546876800000,1.096],[1546963200000,1.1346],[1547049600000,1.1302],[1547136000000,1.1178],[1547395200000,1.0831],[1547481600000,1.1033],[1547568000000,1.1223],[1547654400000,1.1232],[1547740800000,1.1499],[1548086400000,1.1193],[1548172800000,1.125],[1548259200000,1.1331],[1548345600000,1.1722],[1548604800000,1.1567],[1548691200000,1.1493],[1548777600000,1.1739],[1548864000000,1.1916],[1548950400000,1.1885],[1549814400000,1.2063],[1549900800000,1.2216],[1549987200000,1.2212],[1550073600000,1.2224],[1550160000000,1.1932],[1550505600000,1.2085],[1550592000000,1.2169],[1550678400000,1.2059],[1550764800000,1.2312],[1551024000000,1.254],[1551110400000,1.2414],[1551196800000,1.2397],[1551283200000,1.2406],[1551369600000,1.2395],[1551628800000,1.2588],[1551715200000,1.2906],[1551801600000,1.2892],[1551888000000,1.2489],[1551974400000,1.2288],[1552233600000,1.2639],[1552320000000,1.2587],[1552406400000,1.2494],[1552492800000,1.2366],[1552579200000,1.2613],[1552838400000,1.2789],[1552924800000,1.2735],[1553011200000,1.258],[1553097600000,1.2538],[1553184000000,1.2294],[1553443200000,1.2332],[1553529600000,1.2296],[1553616000000,1.2357],[1553702400000,1.2424],[1553788800000,1.2737],[1554048000000,1.293],[1554134400000,1.2889],[1554220800000,1.3038],[1554307200000,1.3027],[1554652800000,1.3301],[1554739200000,1.3268],[1554825600000,1.3208],[1554912000000,1.3085],[1554998400000,1.3286],[1555257600000,1.2989],[1555344000000,1.3121],[1555430400000,1.3195],[1555516800000,1.3136],[1555948800000,1.3236],[1556035200000,1.3177],[1556121600000,1.3077],[1556208000000,1.3093],[1556467200000,1.3202],[1556553600000,1.3181],[1557072000000,1.2979],[1557158400000,1.2771],[1557244800000,1.2727],[1557331200000,1.2639],[1557417600000,1.2683],[1557763200000,1.2486],[1557849600000,1.266],[1557936000000,1.2639],[1558022400000,1.2101],[1558281600000,1.16],[1558368000000,1.1779],[1558454400000,1.1611],[1558540800000,1.1251],[1558627200000,1.1222],[1558972800000,1.1229],[1559059200000,1.1134],[1559145600000,1.1141],[1559232000000,1.1052],[1559491200000,1.1039],[1559577600000,1.1164],[1559664000000,1.1071],[1559750400000,1.1082],[1560096000000,1.1541],[1560182400000,1.1737],[1560268800000,1.1543],[1560355200000,1.154],[1560441600000,1.1382],[1560700800000,1.1432],[1560787200000,1.1726],[1560873600000,1.1876],[1560960000000,1.2047],[1561046400000,1.1959],[1561305600000,1.1974],[1561392000000,1.1769],[1561478400000,1.1964],[1561564800000,1.2151],[1561651200000,1.2103],[1561824000000,1.2103],[1561996800000,1.2413],[1562083200000,1.2375],[1562256000000,1.2319],[1562515200000,1.2037],[1562601600000,1.2077],[1562688000000,1.2073],[1562774400000,1.1999],[1562860800000,1.2006],[1563120000000,1.2188],[1563206400000,1.2207],[1563292800000,1.2215],[1563379200000,1.2055],[1563465600000,1.2115],[1563724800000,1.2091],[1563811200000,1.2306],[1563897600000,1.2433],[1563984000000,1.2372],[1564070400000,1.235],[1564329600000,1.2306],[1564416000000,1.2224],[1564502400000,1.2108],[1564588800000,1.1898],[1564675200000,1.1584],[1564934400000,1.1069],[1565020800000,1.1191],[1565107200000,1.1301],[1565193600000,1.1528],[1565280000000,1.1386],[1565539200000,1.1374],[1565625600000,1.1579],[1565712000000,1.1517],[1565798400000,1.1553],[1565884800000,1.1815],[1566144000000,1.2182],[1566230400000,1.2135],[1566316800000,1.2101],[1566403200000,1.1944],[1566489600000,1.1743],[1566748800000,1.1787],[1566835200000,1.1837],[1566921600000,1.1819],[1567008000000,1.2031],[1567094400000,1.2131],[1567440000000,1.2057],[1567526400000,1.2269],[1567612800000,1.2474],[1567699200000,1.2465],[1567958400000,1.2508],[1568044800000,1.2391],[1568131200000,1.2581],[1568217600000,1.266],[1568563200000,1.2556],[1568649600000,1.2585],[1568736000000,1.2599],[1568822400000,1.256],[1568908800000,1.2571],[1569168000000,1.2341],[1569254400000,1.2092],[1569340800000,1.222],[1569427200000,1.2222],[1569513600000,1.1832],[1569772800000,1.1893],[1570464000000,1.1726],[1570550400000,1.1785],[1570636800000,1.189],[1570723200000,1.2177],[1570982400000,1.2187],[1571068800000,1.2399],[1571155200000,1.2507],[1571241600000,1.2488],[1571328000000,1.2219],[1571587200000,1.235],[1571673600000,1.2187],[1571760000000,1.2118],[1571846400000,1.229],[1571932800000,1.2368],[1572192000000,1.262],[1572278400000,1.2433],[1572364800000,1.247],[1572451200000,1.2469],[1572537600000,1.2528],[1572796800000,1.2857],[1572883200000,1.2908],[1572969600000,1.2887],[1573056000000,1.3103],[1573142400000,1.3016],[1573401600000,1.2877],[1573488000000,1.2988],[1573574400000,1.2798],[1573660800000,1.2662],[1573747200000,1.2776],[1574006400000,1.2806],[1574092800000,1.2859],[1574179200000,1.2674],[1574265600000,1.2658],[1574352000000,1.2901],[1574611200000,1.3142],[1574697600000,1.3219],[1574784000000,1.3416],[1574870400000,1.3452],[1574956800000,1.3306],[1575216000000,1.3223],[1575302400000,1.3122],[1575388800000,1.3035],[1575475200000,1.3313],[1575561600000,1.3431],[1575820800000,1.333],[1575907200000,1.3351],[1575993600000,1.35],[1576080000000,1.3619],[1576166400000,1.3724],[1576425600000,1.3792],[1576512000000,1.4017],[1576598400000,1.4133],[1576684800000,1.4135],[1576771200000,1.417],[1577030400000,1.4307],[1577116800000,1.43],[1577203200000,1.4287],[1577289600000,1.4301],[1577376000000,1.437],[1577635200000,1.4254],[1577721600000,1.4121],[1577894400000,1.4657],[1577980800000,1.4589],[1578240000000,1.4588],[1578326400000,1.477],[1578412800000,1.4675],[1578499200000,1.4941],[1578585600000,1.5083],[1578844800000,1.5421],[1578931200000,1.5158],[1579017600000,1.5092],[1579104000000,1.5077],[1579190400000,1.5147],[1579449600000,1.505],[1579536000000,1.4647],[1579622400000,1.4734],[1579708800000,1.4498],[1580659200000,1.4264],[1580745600000,1.4876],[1580832000000,1.4746],[1580918400000,1.5001],[1581004800000,1.4841],[1581264000000,1.4801],[1581350400000,1.5036],[1581436800000,1.5291],[1581523200000,1.5248],[1581609600000,1.5201],[1581868800000,1.5219],[1581955200000,1.5098],[1582041600000,1.5292],[1582128000000,1.5125],[1582214400000,1.4848],[1582473600000,1.4429],[1582560000000,1.4526],[1582646400000,1.4576],[1582732800000,1.4404],[1582819200000,1.4212],[1583078400000,1.4438],[1583164800000,1.4296],[1583251200000,1.4522],[1583337600000,1.4698],[1583424000000,1.425],[1583683200000,1.362],[1583769600000,1.4055],[1583856000000,1.3753],[1583942400000,1.2962],[1584028800000,1.33],[1584288000000,1.2296],[1584374400000,1.2689],[1584460800000,1.2199],[1584547200000,1.2413],[1584633600000,1.2818],[1584892800000,1.2579],[1584979200000,1.3273],[1585065600000,1.3545],[1585152000000,1.378],[1585238400000,1.3418],[1585497600000,1.3392],[1585584000000,1.3711],[1585670400000,1.3432],[1585756800000,1.3596],[1585843200000,1.3468],[1586188800000,1.4086],[1586275200000,1.3801],[1586361600000,1.3956],[1586448000000,1.3919],[1586707200000,1.3991],[1586793600000,1.4258],[1586880000000,1.4364],[1586966400000,1.4794],[1587052800000,1.476],[1587312000000,1.4814],[1587398400000,1.4517],[1587484800000,1.4806],[1587571200000,1.4642],[1587657600000,1.4523],[1587916800000,1.4684],[1588003200000,1.4591],[1588089600000,1.4837],[1588176000000,1.4671],[1588694400000,1.4396],[1588780800000,1.4525],[1588867200000,1.4935],[1589126400000,1.5181],[1589212800000,1.5106],[1589299200000,1.5136],[1589385600000,1.5265],[1589472000000,1.528],[1589731200000,1.5847],[1589817600000,1.5989],[1589904000000,1.6071],[1589990400000,1.5817],[1590076800000,1.5071],[1590336000000,1.5255],[1590422400000,1.5732],[1590508800000,1.5494],[1590595200000,1.5286],[1590681600000,1.5794],[1590940800000,1.6118],[1591027200000,1.6338],[1591113600000,1.6655],[1591200000000,1.6672],[1591286400000,1.6836],[1591545600000,1.6689],[1591632000000,1.6671],[1591718400000,1.7074],[1591804800000,1.6673],[1591891200000,1.6862],[1592150400000,1.6831],[1592236800000,1.7303],[1592323200000,1.7498],[1592409600000,1.7597],[1592496000000,1.7657],[1592755200000,1.7719],[1592841600000,1.8261],[1592928000000,1.808],[1593360000000,1.7787],[1593446400000,1.794],[1593532800000,1.7923],[1593619200000,1.8562],[1593705600000,1.8784],[1593964800000,1.92],[1594051200000,1.8883],[1594137600000,1.9959],[1594224000000,2.0471],[1594310400000,2.0106],[1594569600000,1.9711],[1594656000000,1.9292],[1594742400000,1.9546],[1594828800000,1.8726],[1594915200000,1.9036],[1595174400000,1.9285],[1595260800000,2.0024],[1595347200000,1.9328],[1595433600000,1.9546],[1595520000000,1.9017],[1595779200000,1.9044],[1595865600000,1.9289],[1595952000000,1.9446],[1596038400000,1.937],[1596124800000,1.9418],[1596384000000,1.9887],[1596470400000,2.0265],[1596556800000,2.0551],[1596643200000,2.0392],[1596729600000,1.9543],[1596988800000,1.9157],[1597075200000,1.9242],[1597161600000,1.9494],[1597248000000,1.924],[1597334400000,1.9117],[1597593600000,1.9339],[1597680000000,1.9741],[1597766400000,1.9603],[1597852800000,1.965],[1597939200000,1.9888],[1598198400000,2.0728],[1598284800000,2.0966],[1598371200000,2.1204],[1598457600000,2.1154],[1598544000000,2.1063],[1598803200000,2.0613],[1598889600000,2.1192],[1598976000000,2.1247],[1599062400000,2.0508],[1599148800000,2.0306],[1599408000000,2.009],[1599494400000,1.9507],[1599580800000,1.9553],[1599667200000,1.9333],[1599753600000,1.9676],[1600012800000,2.0016],[1600099200000,2.0085],[1600185600000,2.0069],[1600272000000,1.9737],[1600358400000,1.9642],[1600617600000,1.9479],[1600704000000,1.9534],[1600790400000,1.9565],[1600876800000,1.9236],[1600963200000,1.924],[1601222400000,1.9557],[1601308800000,1.948],[1601395200000,1.9995],[1602172800000,2.0841],[1602432000000,2.1162],[1602518400000,2.1218],[1602604800000,2.1316],[1602691200000,2.0847],[1602777600000,2.1129],[1603036800000,2.0884],[1603123200000,2.11],[1603209600000,2.1082],[1603296000000,2.0873],[1603382400000,2.0867],[1603641600000,2.08],[1603728000000,2.1424],[1603814400000,2.1535],[1603900800000,2.1955],[1603987200000,2.1463],[1604246400000,2.1721],[1604332800000,2.1203],[1604419200000,2.1881],[1604505600000,2.2362],[1604592000000,2.2354],[1604851200000,2.2074],[1604937600000,2.0719],[1605024000000,2.0101],[1605110400000,2.0795],[1605196800000,2.1526],[1605456000000,2.1344],[1605542400000,2.0744],[1605628800000,2.0596],[1605715200000,2.0557],[1605801600000,2.1236],[1606060800000,2.1239],[1606147200000,2.1504],[1606233600000,2.1088],[1606320000000,2.1364],[1606406400000,2.1466],[1606665600000,2.0675],[1606752000000,2.0852],[1606838400000,2.0523],[1606924800000,2.0871],[1607011200000,2.0947],[1607270400000,2.0736],[1607356800000,2.0946],[1607443200000,2.0861],[1607529600000,2.0957],[1607616000000,2.1023],[1607875200000,2.0537],[1607961600000,2.0443],[1608048000000,2.0805],[1608134400000,2.111],[1608220800000,2.0948],[1608480000000,2.0895],[1608566400000,2.0696],[1608652800000,2.0952],[1608739200000,1.9891],[1608825600000,1.9881],[1609084800000,1.9118],[1609171200000,2.0005],[1609257600000,2.0772],[1609344000000,null],[1609689600000,2.0585],[1609776000000,2.1136],[1609862400000,2.0788],[1609948800000,2.0492],[1610035200000,2.1142],[1610294400000,2.0882],[1610380800000,2.0877],[1610467200000,2.0998],[1610553600000,2.1711],[1610640000000,2.1622],[1610899200000,2.1961],[1610985600000,2.2553],[1611072000000,2.3606],[1611158400000,2.3504],[1611244800000,2.3567],[1611504000000,2.4823],[1611590400000,2.4135],[1611676800000,2.3446],[1611763200000,2.3175],[1611849600000,2.2853],[1612108800000,2.3852],[1612195200000,2.4091],[1612281600000,2.4604],[1612368000000,2.4632],[1612454400000,2.4688],[1612713600000,2.4642],[1612800000000,2.497],[1612886400000,null],[1613577600000,2.5439],[1613664000000,2.5636],[1613923200000,2.4581],[1614009600000,2.4303],[1614096000000,2.3536],[1614182400000,2.3187],[1614268800000,2.2502],[1614528000000,2.3472],[1614614400000,2.3151],[1614700800000,2.3243],[1614787200000,2.2211],[1614873600000,2.2114],[1615132800000,2.071],[1615219200000,2.1599],[1615305600000,2.1515],[1615392000000,2.2424],[1615478400000,2.1712],[1615737600000,2.1391],[1615824000000,2.1616],[1615910400000,2.1646],[1615996800000,2.17],[1616083200000,2.172],[1616342400000,2.1658],[1616428800000,2.1275],[1616515200000,2.0413],[1616601600000,1.9908],[1616688000000,2.0355],[1616947200000,2.0127],[1617033600000,2.0397],[1617120000000,2.0399],[1617206400000,2.1173],[1617292800000,2.1191],[1617638400000,2.1371],[1617724800000,2.0659],[1617811200000,2.0708],[1617897600000,2.0436],[1618156800000,2.0576],[1618243200000,2.0324],[1618329600000,2.0426],[1618416000000,2.0281],[1618502400000,2.0481],[1618761600000,2.035],[1618848000000,2.0081],[1618934400000,1.9959],[1619020800000,2.0187],[1619107200000,2.0648],[1619366400000,2.0663],[1619452800000,2.0765],[1619539200000,2.0771],[1619625600000,2.0553],[1619712000000,2.0163],[1620230400000,1.9735],[1620316800000,1.9447],[1620576000000,1.8795],[1620662400000,1.863],[1620748800000,1.8758],[1620835200000,1.8053],[1620921600000,1.8271],[1621180800000,1.8523],[1621267200000,1.8798],[1621353600000,1.8786],[1621440000000,1.9196],[1621526400000,1.8796],[1621785600000,1.8653],[1621872000000,1.8957],[1621958400000,1.898],[1622044800000,1.8798],[1622131200000,1.8731],[1622390400000,1.9019],[1622476800000,1.9572],[1622563200000,1.9519],[1622649600000,1.9143],[1622736000000,1.9172],[1622995200000,1.8823],[1623081600000,1.8763],[1623168000000,1.8703],[1623254400000,1.8739],[1623340800000,1.8669],[1623686400000,1.8634],[1623772800000,1.842],[1623859200000,1.8595],[1623945600000,1.8748],[1624204800000,1.8597],[1624291200000,1.8332],[1624377600000,1.8719],[1624464000000,1.9048],[1624550400000,1.9621],[1624809600000,1.9519],[1624896000000,1.9538],[1624982400000,1.9286],[1625068800000,1.9099],[1625155200000,1.8638],[1625414400000,1.8267],[1625500800000,1.7931],[1625587200000,1.7648],[1625673600000,1.6959],[1625760000000,1.7457],[1626019200000,1.7436],[1626105600000,1.794],[1626192000000,1.7925],[1626278400000,1.8055]]</t>
+    <t xml:space="preserve"> [[1483459200000,1.0],[1483632000000,1.0003],[1483977600000,1.0003],[1484064000000,1.0004],[1484150400000,1.0004],[1484236800000,1.0004],[1484496000000,0.9999],[1484582400000,0.9999],[1484668800000,0.9975],[1484755200000,0.9994],[1484841600000,0.9967],[1485100800000,1.0042],[1485187200000,1.0116],[1485273600000,1.0237],[1485360000000,1.0207],[1486051200000,1.0164],[1486310400000,1.0266],[1486396800000,1.027],[1486483200000,1.0433],[1486569600000,1.0413],[1486656000000,1.0464],[1486915200000,1.0525],[1487001600000,1.0442],[1487088000000,1.0519],[1487174400000,1.0678],[1487260800000,1.0618],[1487606400000,1.0749],[1487692800000,1.0896],[1487779200000,1.0775],[1487865600000,1.063],[1488124800000,1.0659],[1488211200000,1.061],[1488297600000,1.0685],[1488384000000,1.0605],[1488470400000,1.063],[1488729600000,1.0581],[1488816000000,1.0668],[1488902400000,1.0746],[1488988800000,1.0692],[1489075200000,1.0742],[1489334400000,1.0863],[1489420800000,1.0846],[1489507200000,1.0816],[1489593600000,1.0958],[1489680000000,1.1001],[1489939200000,1.1141],[1490025600000,1.0899],[1490112000000,1.0874],[1490198400000,1.0934],[1490284800000,1.0962],[1490544000000,1.0943],[1490630400000,1.0976],[1490716800000,1.1062],[1490803200000,1.1015],[1490889600000,1.0968],[1491321600000,1.0974],[1491408000000,1.1035],[1491494400000,1.1042],[1491753600000,1.1148],[1491840000000,1.1022],[1491926400000,1.1082],[1492012800000,1.0998],[1492444800000,1.1057],[1492531200000,1.1081],[1492617600000,1.1275],[1492704000000,1.1322],[1492963200000,1.1418],[1493049600000,1.1661],[1493136000000,1.1602],[1493222400000,1.171],[1493308800000,1.1607],[1493654400000,1.1753],[1493827200000,1.1621],[1493913600000,1.165],[1494172800000,1.1824],[1494259200000,1.2104],[1494345600000,1.2202],[1494432000000,1.2248],[1494518400000,1.2317],[1494777600000,1.2336],[1494864000000,1.2573],[1494950400000,1.2319],[1495036800000,1.2338],[1495123200000,1.2624],[1495382400000,1.2792],[1495468800000,1.2661],[1495555200000,1.2618],[1495641600000,1.2724],[1495728000000,1.2718],[1496160000000,1.2404],[1496246400000,1.2453],[1496332800000,1.2459],[1496592000000,1.25],[1496678400000,1.2512],[1496764800000,1.2656],[1496851200000,1.3003],[1496937600000,1.272],[1497196800000,1.2622],[1497283200000,1.2562],[1497369600000,1.25],[1497456000000,1.2334],[1497542400000,1.2346],[1497801600000,1.2682],[1497888000000,1.2673],[1497974400000,1.2949],[1498060800000,1.2946],[1498147200000,1.3035],[1498406400000,1.302],[1498492800000,1.2859],[1498579200000,1.2901],[1498665600000,1.2708],[1498752000000,1.2589],[1499011200000,1.2595],[1499184000000,1.2692],[1499270400000,1.259],[1499356800000,1.2566],[1499616000000,1.2754],[1499702400000,1.2943],[1499788800000,1.3141],[1499875200000,1.3168],[1499961600000,1.3306],[1500220800000,1.3192],[1500307200000,1.3402],[1500393600000,1.3507],[1500480000000,1.346],[1500566400000,1.3479],[1500825600000,1.3653],[1500912000000,1.3669],[1500998400000,1.389],[1501084800000,1.3821],[1501171200000,1.4162],[1501430400000,1.4255],[1501516800000,1.4229],[1501603200000,1.4032],[1501689600000,1.4109],[1501776000000,1.4165],[1502035200000,1.4511],[1502121600000,1.4619],[1502208000000,1.4625],[1502294400000,1.4055],[1502380800000,1.388],[1502640000000,1.4015],[1502726400000,1.4024],[1502812800000,1.4118],[1502899200000,1.4013],[1502985600000,1.4054],[1503244800000,1.4246],[1503331200000,1.4363],[1503417600000,1.4427],[1503504000000,1.4375],[1503590400000,1.4222],[1503849600000,1.3921],[1503936000000,1.3894],[1504022400000,1.414],[1504108800000,1.4223],[1504195200000,1.4224],[1504540800000,1.3909],[1504627200000,1.3932],[1504713600000,1.4082],[1504800000000,1.394],[1505059200000,1.4226],[1505145600000,1.4449],[1505232000000,1.4619],[1505318400000,1.4628],[1505404800000,1.4579],[1505664000000,1.4829],[1505750400000,1.4798],[1505836800000,1.4795],[1505923200000,1.4758],[1506009600000,1.4739],[1506268800000,1.4292],[1506355200000,1.4227],[1506441600000,1.44],[1506528000000,1.4341],[1506614400000,1.4511],[1507478400000,1.5017],[1507564800000,1.5165],[1507651200000,1.5055],[1507737600000,1.4911],[1507824000000,1.4989],[1508083200000,1.5271],[1508169600000,1.5101],[1508256000000,1.5226],[1508342400000,1.4922],[1508428800000,1.4916],[1508688000000,1.4825],[1508774400000,1.4812],[1508860800000,1.4661],[1508947200000,1.4485],[1509033600000,1.4427],[1509292800000,1.4483],[1509379200000,1.4691],[1509465600000,1.4817],[1509552000000,1.4718],[1509638400000,1.4768],[1509897600000,1.5139],[1509984000000,1.5263],[1510070400000,1.5221],[1510156800000,1.5201],[1510243200000,1.5099],[1510502400000,1.5189],[1510588800000,1.4987],[1510675200000,1.4951],[1510761600000,1.5324],[1510848000000,1.5554],[1511107200000,1.5649],[1511193600000,1.5917],[1511280000000,1.5933],[1511452800000,1.5682],[1511712000000,1.5455],[1511798400000,1.5439],[1511884800000,1.5036],[1511971200000,1.4884],[1512057600000,1.464],[1512316800000,1.4488],[1512403200000,1.4372],[1512489600000,1.4362],[1512576000000,1.4553],[1512662400000,1.4763],[1512921600000,1.5036],[1513008000000,1.4814],[1513094400000,1.5077],[1513180800000,1.4916],[1513267200000,1.493],[1513526400000,1.5273],[1513612800000,1.5236],[1513699200000,1.5175],[1513785600000,1.5318],[1513872000000,1.5352],[1514304000000,1.5136],[1514390400000,1.506],[1514476800000,1.4982],[1514649600000,1.4981],[1514822400000,1.5527],[1514908800000,1.557],[1514995200000,1.572],[1515081600000,1.5928],[1515340800000,1.6073],[1515427200000,1.6185],[1515513600000,1.6085],[1515600000000,1.5977],[1515686400000,1.6053],[1516032000000,1.5878],[1516118400000,1.5958],[1516204800000,1.5936],[1516291200000,1.594],[1516550400000,1.5957],[1516636800000,1.622],[1516723200000,1.6233],[1516809600000,1.6198],[1516896000000,1.6611],[1517155200000,1.6344],[1517241600000,1.5993],[1517328000000,1.6123],[1517414400000,1.5642],[1517500800000,1.5246],[1517760000000,1.4835],[1517846400000,1.4777],[1517932800000,1.452],[1518019200000,1.4041],[1518105600000,1.4185],[1518364800000,1.4331],[1518451200000,1.4692],[1518537600000,1.5306],[1519228800000,1.5696],[1519315200000,1.5949],[1519574400000,1.5939],[1519660800000,1.5479],[1519747200000,1.5379],[1519833600000,1.5308],[1519920000000,1.5196],[1520179200000,1.5225],[1520265600000,1.5509],[1520352000000,1.5576],[1520438400000,1.5662],[1520524800000,1.5949],[1520784000000,1.6092],[1520870400000,1.5803],[1520956800000,1.5906],[1521043200000,1.6154],[1521129600000,1.6221],[1521388800000,1.588],[1521475200000,1.6049],[1521561600000,1.5949],[1521648000000,1.5113],[1521734400000,1.4721],[1521993600000,1.5074],[1522080000000,1.4581],[1522166400000,1.4174],[1522252800000,1.44],[1522684800000,1.4001999999999999],[1522771200000,1.3998],[1523203200000,1.4118],[1523289600000,1.4463],[1523376000000,1.4379],[1523462400000,1.4304],[1523548800000,1.4048],[1523808000000,1.4058],[1523894400000,1.4213],[1523980800000,1.4321],[1524067200000,1.4284],[1524153600000,1.4054],[1524412800000,1.391],[1524499200000,1.3812],[1524585600000,1.3587],[1524672000000,1.3783],[1524758400000,1.4102],[1525190400000,1.4309],[1525276800000,1.4269],[1525363200000,1.4335],[1525622400000,1.4598],[1525708800000,1.4808],[1525795200000,1.479],[1525881600000,1.5051],[1525968000000,1.4978],[1526227200000,1.5095],[1526313600000,1.4865],[1526400000000,1.5102],[1526486400000,1.4992],[1526572800000,1.4654],[1526832000000,1.451],[1527004800000,1.4538],[1527091200000,1.4525],[1527177600000,1.46],[1527523200000,1.458],[1527609600000,1.457],[1527696000000,1.4611],[1527782400000,1.4927],[1528041600000,1.5407],[1528128000000,1.5464],[1528214400000,1.5564],[1528300800000,1.5475],[1528387200000,1.5465],[1528646400000,1.5649],[1528732800000,1.5788],[1528819200000,1.5723],[1528905600000,1.5876],[1528992000000,1.5911],[1529337600000,1.5455],[1529424000000,1.5676],[1529510400000,1.5429],[1529596800000,1.5435],[1529856000000,1.485],[1529942400000,1.4926],[1530028800000,1.4499],[1530115200000,1.4741],[1530201600000,1.4923],[1530288000000,1.4923],[1530547200000,1.4939],[1530720000000,1.478],[1530806400000,1.5089],[1531065600000,1.5371],[1531152000000,1.5166],[1531238400000,1.4979],[1531324800000,1.5363],[1531411200000,1.5271],[1531670400000,1.5302],[1531756800000,1.5345],[1531843200000,1.5284],[1531929600000,1.5032],[1532016000000,1.5138],[1532275200000,1.5058],[1532361600000,1.5129],[1532448000000,1.5595],[1532534400000,1.5293],[1532620800000,1.5117],[1532880000000,1.4826],[1532966400000,1.4715],[1533052800000,1.4507],[1533139200000,1.4257],[1533225600000,1.4332],[1533484800000,1.433],[1533571200000,1.4383],[1533657600000,1.4183],[1533744000000,1.4107],[1533830400000,1.4106],[1534089600000,1.3875],[1534176000000,1.3441],[1534262400000,1.3104],[1534348800000,1.3146],[1534435200000,1.336],[1534694400000,1.3632],[1534780800000,1.3627],[1534867200000,1.3706],[1534953600000,1.3499],[1535040000000,1.3627],[1535299200000,1.3973],[1535385600000,1.3799],[1535472000000,1.3763],[1535558400000,1.3471],[1535644800000,1.3435],[1535990400000,1.3189],[1536076800000,1.2673],[1536163200000,1.255],[1536249600000,1.259],[1536508800000,1.2324],[1536595200000,1.2347],[1536681600000,1.2525],[1536768000000,1.2932],[1536854400000,1.2864],[1537113600000,1.2555],[1537200000000,1.2535],[1537286400000,1.2934],[1537372800000,1.3129],[1537459200000,1.315],[1537891200000,1.3132],[1537977600000,1.3177],[1538064000000,1.3116],[1538928000000,1.2059],[1539014400000,1.1918],[1539100800000,1.1528],[1539187200000,1.1375],[1539273600000,1.1871],[1539532800000,1.1599],[1539619200000,1.1753],[1539792000000,1.1276],[1539878400000,1.1271],[1540137600000,1.1625],[1540224000000,1.1331],[1540310400000,1.084],[1540396800000,1.1092],[1540483200000,1.0979],[1540742400000,1.0662],[1540828800000,1.0686],[1540915200000,1.1149],[1541001600000,1.1879],[1541088000000,1.1942],[1541347200000,1.1706],[1541433600000,1.1788],[1541520000000,1.198],[1541606400000,1.1578],[1541692800000,1.1137],[1541952000000,1.0889],[1542038400000,1.1111],[1542124800000,1.1255],[1542211200000,1.1672],[1542297600000,1.1606],[1542556800000,1.1362],[1542643200000,1.1045],[1542729600000,1.1443],[1542902400000,1.1182],[1543161600000,1.1451],[1543248000000,1.1477],[1543334400000,1.1759],[1543420800000,1.1465],[1543507200000,1.1717],[1543766400000,1.2096],[1543852800000,1.1743],[1544025600000,1.144],[1544112000000,1.1366],[1544371200000,1.1265],[1544457600000,1.1374],[1544544000000,1.1566],[1544630400000,1.1557],[1544716800000,1.134],[1544976000000,1.1056],[1545062400000,1.0835],[1545148800000,1.0593],[1545235200000,1.0495],[1545321600000,1.0529],[1545580800000,1.0453],[1545840000000,1.073],[1545926400000,1.0668],[1546185600000,1.0579],[1546358400000,1.0492],[1546444800000,1.0189],[1546531200000,1.071],[1546790400000,1.092],[1546876800000,1.096],[1546963200000,1.1346],[1547049600000,1.1302],[1547136000000,1.1178],[1547395200000,1.0831],[1547481600000,1.1033],[1547568000000,1.1223],[1547654400000,1.1232],[1547740800000,1.1499],[1548086400000,1.1193],[1548172800000,1.125],[1548259200000,1.1331],[1548345600000,1.1722],[1548604800000,1.1567],[1548691200000,1.1493],[1548777600000,1.1739],[1548864000000,1.1916],[1548950400000,1.1885],[1549814400000,1.2063],[1549900800000,1.2216],[1549987200000,1.2212],[1550073600000,1.2224],[1550160000000,1.1932],[1550505600000,1.2085],[1550592000000,1.2169],[1550678400000,1.2059],[1550764800000,1.2312],[1551024000000,1.254],[1551110400000,1.2414],[1551196800000,1.2397],[1551283200000,1.2406],[1551369600000,1.2395],[1551628800000,1.2588],[1551715200000,1.2906],[1551801600000,1.2892],[1551888000000,1.2489],[1551974400000,1.2288],[1552233600000,1.2639],[1552320000000,1.2587],[1552406400000,1.2494],[1552492800000,1.2366],[1552579200000,1.2613],[1552838400000,1.2789],[1552924800000,1.2735],[1553011200000,1.258],[1553097600000,1.2538],[1553184000000,1.2294],[1553443200000,1.2332],[1553529600000,1.2296],[1553616000000,1.2357],[1553702400000,1.2424],[1553788800000,1.2737],[1554048000000,1.293],[1554134400000,1.2889],[1554220800000,1.3038],[1554307200000,1.3027],[1554652800000,1.3301],[1554739200000,1.3268],[1554825600000,1.3208],[1554912000000,1.3085],[1554998400000,1.3286],[1555257600000,1.2989],[1555344000000,1.3121],[1555430400000,1.3195],[1555516800000,1.3136],[1555948800000,1.3236],[1556035200000,1.3177],[1556121600000,1.3077],[1556208000000,1.3093],[1556467200000,1.3202],[1556553600000,1.3181],[1557072000000,1.2979],[1557158400000,1.2771],[1557244800000,1.2727],[1557331200000,1.2639],[1557417600000,1.2683],[1557763200000,1.2486],[1557849600000,1.266],[1557936000000,1.2639],[1558022400000,1.2101],[1558281600000,1.16],[1558368000000,1.1779],[1558454400000,1.1611],[1558540800000,1.1251],[1558627200000,1.1222],[1558972800000,1.1229],[1559059200000,1.1134],[1559145600000,1.1141],[1559232000000,1.1052],[1559491200000,1.1039],[1559577600000,1.1164],[1559664000000,1.1071],[1559750400000,1.1082],[1560096000000,1.1541],[1560182400000,1.1737],[1560268800000,1.1543],[1560355200000,1.154],[1560441600000,1.1382],[1560700800000,1.1432],[1560787200000,1.1726],[1560873600000,1.1876],[1560960000000,1.2047],[1561046400000,1.1959],[1561305600000,1.1974],[1561392000000,1.1769],[1561478400000,1.1964],[1561564800000,1.2151],[1561651200000,1.2103],[1561824000000,1.2103],[1561996800000,1.2413],[1562083200000,1.2375],[1562256000000,1.2319],[1562515200000,1.2037],[1562601600000,1.2077],[1562688000000,1.2073],[1562774400000,1.1999],[1562860800000,1.2006],[1563120000000,1.2188],[1563206400000,1.2207],[1563292800000,1.2215],[1563379200000,1.2055],[1563465600000,1.2115],[1563724800000,1.2091],[1563811200000,1.2306],[1563897600000,1.2433],[1563984000000,1.2372],[1564070400000,1.235],[1564329600000,1.2306],[1564416000000,1.2224],[1564502400000,1.2108],[1564588800000,1.1898],[1564675200000,1.1584],[1564934400000,1.1069],[1565020800000,1.1191],[1565107200000,1.1301],[1565193600000,1.1528],[1565280000000,1.1386],[1565539200000,1.1374],[1565625600000,1.1579],[1565712000000,1.1517],[1565798400000,1.1553],[1565884800000,1.1815],[1566144000000,1.2182],[1566230400000,1.2135],[1566316800000,1.2101],[1566403200000,1.1944],[1566489600000,1.1743],[1566748800000,1.1787],[1566835200000,1.1837],[1566921600000,1.1819],[1567008000000,1.2031],[1567094400000,1.2131],[1567440000000,1.2057],[1567526400000,1.2269],[1567612800000,1.2474],[1567699200000,1.2465],[1567958400000,1.2508],[1568044800000,1.2391],[1568131200000,1.2581],[1568217600000,1.266],[1568563200000,1.2556],[1568649600000,1.2585],[1568736000000,1.2599],[1568822400000,1.256],[1568908800000,1.2571],[1569168000000,1.2341],[1569254400000,1.2092],[1569340800000,1.222],[1569427200000,1.2222],[1569513600000,1.1832],[1569772800000,1.1893],[1570464000000,1.1726],[1570550400000,1.1785],[1570636800000,1.189],[1570723200000,1.2177],[1570982400000,1.2187],[1571068800000,1.2399],[1571155200000,1.2507],[1571241600000,1.2488],[1571328000000,1.2219],[1571587200000,1.235],[1571673600000,1.2187],[1571760000000,1.2118],[1571846400000,1.229],[1571932800000,1.2368],[1572192000000,1.262],[1572278400000,1.2433],[1572364800000,1.247],[1572451200000,1.2469],[1572537600000,1.2528],[1572796800000,1.2857],[1572883200000,1.2908],[1572969600000,1.2887],[1573056000000,1.3103],[1573142400000,1.3016],[1573401600000,1.2877],[1573488000000,1.2988],[1573574400000,1.2798],[1573660800000,1.2662],[1573747200000,1.2776],[1574006400000,1.2806],[1574092800000,1.2859],[1574179200000,1.2674],[1574265600000,1.2658],[1574352000000,1.2901],[1574611200000,1.3142],[1574697600000,1.3219],[1574784000000,1.3416],[1574870400000,1.3452],[1574956800000,1.3306],[1575216000000,1.3223],[1575302400000,1.3122],[1575388800000,1.3035],[1575475200000,1.3313],[1575561600000,1.3431],[1575820800000,1.333],[1575907200000,1.3351],[1575993600000,1.35],[1576080000000,1.3619],[1576166400000,1.3724],[1576425600000,1.3792],[1576512000000,1.4017],[1576598400000,1.4133],[1576684800000,1.4135],[1576771200000,1.417],[1577030400000,1.4307],[1577116800000,1.43],[1577203200000,1.4287],[1577289600000,1.4301],[1577376000000,1.437],[1577635200000,1.4254],[1577721600000,1.4121],[1577894400000,1.4657],[1577980800000,1.4589],[1578240000000,1.4588],[1578326400000,1.477],[1578412800000,1.4675],[1578499200000,1.4941],[1578585600000,1.5083],[1578844800000,1.5421],[1578931200000,1.5158],[1579017600000,1.5092],[1579104000000,1.5077],[1579190400000,1.5147],[1579449600000,1.505],[1579536000000,1.4647],[1579622400000,1.4734],[1579708800000,1.4498],[1580659200000,1.4264],[1580745600000,1.4876],[1580832000000,1.4746],[1580918400000,1.5001],[1581004800000,1.4841],[1581264000000,1.4801],[1581350400000,1.5036],[1581436800000,1.5291],[1581523200000,1.5248],[1581609600000,1.5201],[1581868800000,1.5219],[1581955200000,1.5098],[1582041600000,1.5292],[1582128000000,1.5125],[1582214400000,1.4848],[1582473600000,1.4429],[1582560000000,1.4526],[1582646400000,1.4576],[1582732800000,1.4404],[1582819200000,1.4212],[1583078400000,1.4438],[1583164800000,1.4296],[1583251200000,1.4522],[1583337600000,1.4698],[1583424000000,1.425],[1583683200000,1.362],[1583769600000,1.4055],[1583856000000,1.3753],[1583942400000,1.2962],[1584028800000,1.33],[1584288000000,1.2296],[1584374400000,1.2689],[1584460800000,1.2199],[1584547200000,1.2413],[1584633600000,1.2818],[1584892800000,1.2579],[1584979200000,1.3273],[1585065600000,1.3545],[1585152000000,1.378],[1585238400000,1.3418],[1585497600000,1.3392],[1585584000000,1.3711],[1585670400000,1.3432],[1585756800000,1.3596],[1585843200000,1.3468],[1586188800000,1.4086],[1586275200000,1.3801],[1586361600000,1.3956],[1586448000000,1.3919],[1586707200000,1.3991],[1586793600000,1.4258],[1586880000000,1.4364],[1586966400000,1.4794],[1587052800000,1.476],[1587312000000,1.4814],[1587398400000,1.4517],[1587484800000,1.4806],[1587571200000,1.4642],[1587657600000,1.4523],[1587916800000,1.4684],[1588003200000,1.4591],[1588089600000,1.4837],[1588176000000,1.4671],[1588694400000,1.4396],[1588780800000,1.4525],[1588867200000,1.4935],[1589126400000,1.5181],[1589212800000,1.5106],[1589299200000,1.5136],[1589385600000,1.5265],[1589472000000,1.528],[1589731200000,1.5847],[1589817600000,1.5989],[1589904000000,1.6071],[1589990400000,1.5817],[1590076800000,1.5071],[1590336000000,1.5255],[1590422400000,1.5732],[1590508800000,1.5494],[1590595200000,1.5286],[1590681600000,1.5794],[1590940800000,1.6118],[1591027200000,1.6338],[1591113600000,1.6655],[1591200000000,1.6672],[1591286400000,1.6836],[1591545600000,1.6689],[1591632000000,1.6671],[1591718400000,1.7074],[1591804800000,1.6673],[1591891200000,1.6862],[1592150400000,1.6831],[1592236800000,1.7303],[1592323200000,1.7498],[1592409600000,1.7597],[1592496000000,1.7657],[1592755200000,1.7719],[1592841600000,1.8261],[1592928000000,1.808],[1593360000000,1.7787],[1593446400000,1.794],[1593532800000,1.7923],[1593619200000,1.8562],[1593705600000,1.8784],[1593964800000,1.92],[1594051200000,1.8883],[1594137600000,1.9959],[1594224000000,2.0471],[1594310400000,2.0106],[1594569600000,1.9711],[1594656000000,1.9292],[1594742400000,1.9546],[1594828800000,1.8726],[1594915200000,1.9036],[1595174400000,1.9285],[1595260800000,2.0024],[1595347200000,1.9328],[1595433600000,1.9546],[1595520000000,1.9017],[1595779200000,1.9044],[1595865600000,1.9289],[1595952000000,1.9446],[1596038400000,1.937],[1596124800000,1.9418],[1596384000000,1.9887],[1596470400000,2.0265],[1596556800000,2.0551],[1596643200000,2.0392],[1596729600000,1.9543],[1596988800000,1.9157],[1597075200000,1.9242],[1597161600000,1.9494],[1597248000000,1.924],[1597334400000,1.9117],[1597593600000,1.9339],[1597680000000,1.9741],[1597766400000,1.9603],[1597852800000,1.965],[1597939200000,1.9888],[1598198400000,2.0728],[1598284800000,2.0966],[1598371200000,2.1204],[1598457600000,2.1154],[1598544000000,2.1063],[1598803200000,2.0613],[1598889600000,2.1192],[1598976000000,2.1247],[1599062400000,2.0508],[1599148800000,2.0306],[1599408000000,2.009],[1599494400000,1.9507],[1599580800000,1.9553],[1599667200000,1.9333],[1599753600000,1.9676],[1600012800000,2.0016],[1600099200000,2.0085],[1600185600000,2.0069],[1600272000000,1.9737],[1600358400000,1.9642],[1600617600000,1.9479],[1600704000000,1.9534],[1600790400000,1.9565],[1600876800000,1.9236],[1600963200000,1.924],[1601222400000,1.9557],[1601308800000,1.948],[1601395200000,1.9995],[1602172800000,2.0841],[1602432000000,2.1162],[1602518400000,2.1218],[1602604800000,2.1316],[1602691200000,2.0847],[1602777600000,2.1129],[1603036800000,2.0884],[1603123200000,2.11],[1603209600000,2.1082],[1603296000000,2.0873],[1603382400000,2.0867],[1603641600000,2.08],[1603728000000,2.1424],[1603814400000,2.1535],[1603900800000,2.1955],[1603987200000,2.1463],[1604246400000,2.1721],[1604332800000,2.1203],[1604419200000,2.1881],[1604505600000,2.2362],[1604592000000,2.2354],[1604851200000,2.2074],[1604937600000,2.0719],[1605024000000,2.0101],[1605110400000,2.0795],[1605196800000,2.1526],[1605456000000,2.1344],[1605542400000,2.0744],[1605628800000,2.0596],[1605715200000,2.0557],[1605801600000,2.1236],[1606060800000,2.1239],[1606147200000,2.1504],[1606233600000,2.1088],[1606320000000,2.1364],[1606406400000,2.1466],[1606665600000,2.0675],[1606752000000,2.0852],[1606838400000,2.0523],[1606924800000,2.0871],[1607011200000,2.0947],[1607270400000,2.0736],[1607356800000,2.0946],[1607443200000,2.0861],[1607529600000,2.0957],[1607616000000,2.1023],[1607875200000,2.0537],[1607961600000,2.0443],[1608048000000,2.0805],[1608134400000,2.111],[1608220800000,2.0948],[1608480000000,2.0895],[1608566400000,2.0696],[1608652800000,2.0952],[1608739200000,1.9891],[1608825600000,1.9881],[1609084800000,1.9118],[1609171200000,2.0005],[1609257600000,2.0772],[1609344000000,null],[1609689600000,2.0585],[1609776000000,2.1136],[1609862400000,2.0788],[1609948800000,2.0492],[1610035200000,2.1142],[1610294400000,2.0882],[1610380800000,2.0877],[1610467200000,2.0998],[1610553600000,2.1711],[1610640000000,2.1622],[1610899200000,2.1961],[1610985600000,2.2553],[1611072000000,2.3606],[1611158400000,2.3504],[1611244800000,2.3567],[1611504000000,2.4823],[1611590400000,2.4135],[1611676800000,2.3446],[1611763200000,2.3175],[1611849600000,2.2853],[1612108800000,2.3852],[1612195200000,2.4091],[1612281600000,2.4604],[1612368000000,2.4632],[1612454400000,2.4688],[1612713600000,2.4642],[1612800000000,2.497],[1612886400000,null],[1613577600000,2.5439],[1613664000000,2.5636],[1613923200000,2.4581],[1614009600000,2.4303],[1614096000000,2.3536],[1614182400000,2.3187],[1614268800000,2.2502],[1614528000000,2.3472],[1614614400000,2.3151],[1614700800000,2.3243],[1614787200000,2.2211],[1614873600000,2.2114],[1615132800000,2.071],[1615219200000,2.1599],[1615305600000,2.1515],[1615392000000,2.2424],[1615478400000,2.1712],[1615737600000,2.1391],[1615824000000,2.1616],[1615910400000,2.1646],[1615996800000,2.17],[1616083200000,2.172],[1616342400000,2.1658],[1616428800000,2.1275],[1616515200000,2.0413],[1616601600000,1.9908],[1616688000000,2.0355],[1616947200000,2.0127],[1617033600000,2.0397],[1617120000000,2.0399],[1617206400000,2.1173],[1617292800000,2.1191],[1617638400000,2.1371],[1617724800000,2.0659],[1617811200000,2.0708],[1617897600000,2.0436],[1618156800000,2.0576],[1618243200000,2.0324],[1618329600000,2.0426],[1618416000000,2.0281],[1618502400000,2.0481],[1618761600000,2.035],[1618848000000,2.0081],[1618934400000,1.9959],[1619020800000,2.0187],[1619107200000,2.0648],[1619366400000,2.0663],[1619452800000,2.0765],[1619539200000,2.0771],[1619625600000,2.0553],[1619712000000,2.0163],[1620230400000,1.9735],[1620316800000,1.9447],[1620576000000,1.8795],[1620662400000,1.863],[1620748800000,1.8758],[1620835200000,1.8053],[1620921600000,1.8271],[1621180800000,1.8523],[1621267200000,1.8798],[1621353600000,1.8786],[1621440000000,1.9196],[1621526400000,1.8796],[1621785600000,1.8653],[1621872000000,1.8957],[1621958400000,1.898],[1622044800000,1.8798],[1622131200000,1.8731],[1622390400000,1.9019],[1622476800000,1.9572],[1622563200000,1.9519],[1622649600000,1.9143],[1622736000000,1.9172],[1622995200000,1.8823],[1623081600000,1.8763],[1623168000000,1.8703],[1623254400000,1.8739],[1623340800000,1.8669],[1623686400000,1.8634],[1623772800000,1.842],[1623859200000,1.8595],[1623945600000,1.8748],[1624204800000,1.8597],[1624291200000,1.8332],[1624377600000,1.8719],[1624464000000,1.9048],[1624550400000,1.9621],[1624809600000,1.9519],[1624896000000,1.9538],[1624982400000,1.9286],[1625068800000,1.9099],[1625155200000,1.8638],[1625414400000,1.8267],[1625500800000,1.7931],[1625587200000,1.7648],[1625673600000,1.6959],[1625760000000,1.7457],[1626019200000,1.7436],[1626105600000,1.794],[1626192000000,1.7925],[1626278400000,1.8055],[1626364800000,1.7904],[1626624000000,1.7473],[1626710400000,1.7447],[1626796800000,1.7402],[1626883200000,1.7551],[1626969600000,1.6794],[1627228800000,1.5387],[1627315200000,1.4274],[1627401600000,1.5042],[1627488000000,1.5706],[1627574400000,1.5253],[1627833600000,1.5397],[1627920000000,1.489],[1628006400000,1.513],[1628092800000,1.4822],[1628179200000,1.4834]]</t>
+  </si>
+  <si>
+    <t>[[1332259200000, 0.0], [1333987200000, 0.7], [1335283200000, 1.7], [1336924800000, 2.5], [1338220800000, 4.0], [1339516800000, 5.3], [1340899200000, 5.5], [1342108800000, 6.31], [1343577600000, 6.1], [1344873600000, 5.4], [1346169600000, 4.49], [1347465600000, 4.09], [1348761600000, 4.29], [1350576000000, 4.91], [1352044800000, 4.91], [1353340800000, 5.53], [1354636800000, 5.63], [1355932800000, 6.04], [1357660800000, 6.56], [1358956800000, 8.02], [1360252800000, 9.9], [1362326400000, 10.73], [1363622400000, 11.46], [1364918400000, 12.31], [1366560000000, 12.85], [1368115200000, 13.7], [1369584000000, 14.35], [1371139200000, 14.13], [1372521600000, 13.4], [1373817600000, 12.95], [1375113600000, 11.73], [1376409600000, 11.73], [1377705600000, 11.39], [1379001600000, 12.17], [1381248000000, 12.51], [1382544000000, 12.28], [1383840000000, 11.84], [1385308800000, 9.59], [1386604800000, 9.48], [1387900800000, 8.47], [1389283200000, 7.8], [1390752000000, 7.8], [1392652800000, 9.59], [1393948800000, 10.6], [1395244800000, 10.94], [1396540800000, 11.39], [1398096000000, 12.96], [1399564800000, 14.64], [1401033600000, 15.65], [1402416000000, 17.44], [1403712000000, 17.89], [1405008000000, 18.56], [1406476800000, 19.36], [1407772800000, 20.6], [1409068800000, 21.62], [1410451200000, 22.53], [1411920000000, 23.44], [1413820800000, 25.64], [1415116800000, 28.67], [1416412800000, 29.14], [1417708800000, 31.0], [1419177600000, 29.61], [1420646400000, 32.16], [1421942400000, 34.82], [1423411200000, 33.85], [1425312000000, 35.18], [1426608000000, 35.67], [1427904000000, 35.91], [1429459200000, 37.16], [1430841600000, 37.92], [1432137600000, 39.67], [1433433600000, 39.54], [1434988800000, 38.54], [1436284800000, 38.54], [1437580800000, 39.04], [1438876800000, 41.05], [1440345600000, 41.67], [1441814400000, 42.93], [1443110400000, 43.68], [1445184000000, 44.55], [1446480000000, 45.56], [1447776000000, 45.06], [1449072000000, 45.68], [1450368000000, 45.93], [1451923200000, 47.31], [1453219200000, 48.06], [1454515200000, 48.06], [1456416000000, 48.94], [1457884800000, 49.94], [1459180800000, 50.44], [1460563200000, 49.82], [1461859200000, 48.69], [1463414400000, 49.44], [1464710400000, 48.81], [1466352000000, 50.07], [1467648000000, 51.19], [1468944000000, 52.07], [1470240000000, 52.82], [1471536000000, 53.45], [1473004800000, 53.57], [1474473600000, 53.95], [1476374400000, 54.45], [1477843200000, 54.58], [1479139200000, 54.7], [1480435200000, 54.2], [1481731200000, 52.82], [1483027200000, 53.45], [1484496000000, 54.07], [1486396800000, 53.57], [1487692800000, 54.2], [1488988800000, 54.2], [1490284800000, 54.45], [1491926400000, 55.08], [1493222400000, 54.33], [1494777600000, 53.45], [1496246400000, 53.57], [1497542400000, 54.7], [1499011200000, 56.58], [1500307200000, 57.33], [1501603200000, 57.83], [1502899200000, 57.96], [1504195200000, 57.83], [1505664000000, 58.46], [1507564800000, 58.83], [1508860800000, 59.09], [1510156800000, 58.71], [1511452800000, 57.46], [1512921600000, 57.96], [1514217600000, 57.96], [1515513600000, 58.46], [1516809600000, 58.71], [1518105600000, 59.34], [1520179200000, 60.34], [1521475200000, 60.84], [1522771200000, 61.97], [1524412800000, 63.34], [1525881600000, 63.22], [1527177600000, 63.09], [1528646400000, 63.09], [1530028800000, 63.22], [1531238400000, 64.35], [1532534400000, 65.72], [1533830400000, 67.23], [1535299200000, 67.48], [1536595200000, 67.73], [1537977600000, 68.1], [1539878400000, 68.98], [1541347200000, 69.61], [1542643200000, 70.73], [1543939200000, 71.36], [1545235200000, 71.49], [1546790400000, 72.49], [1548086400000, 73.37], [1549987200000, 74.12], [1551283200000, 74.37], [1552579200000, 74.62], [1554048000000, 75.24], [1555430400000, 74.99], [1557158400000, 75.62], [1558454400000, 76.75], [1559750400000, 77.12], [1561305600000, 77.37], [1562515200000, 78.0], [1563811200000, 78.38], [1565107200000, 79.13], [1566403200000, 79.75], [1567699200000, 80.0], [1569254400000, 80.25], [1571155200000, 80.76], [1572451200000, 80.51], [1573747200000, 81.26], [1575216000000, 82.01], [1576512000000, 82.63], [1577894400000, 83.39], [1579190400000, 84.01], [1581350400000, 85.14], [1582646400000, 86.02], [1583942400000, 86.89], [1585238400000, 87.02], [1586793600000, 88.52], [1588089600000, 89.15], [1589817600000, 88.77], [1591113600000, 87.9], [1592409600000, 87.77], [1594051200000, 87.65], [1595347200000, 87.65], [1596643200000, 88.15], [1597939200000, 88.77], [1599408000000, 88.52], [1600704000000, 88.77], [1602691200000, 89.02], [1603987200000, 89.9], [1605456000000, 89.65], [1606752000000, 89.4], [1608048000000, 89.9], [1609344000000, 90.9], [1610899200000, 92.03], [1612195200000, 92.03], [1614096000000, 92.53], [1615392000000, 93.16], [1616688000000, 93.91], [1618243200000, 94.54], [1619539200000, 95.04], [1621267200000, 95.91], [1622563200000, 96.54], [1623945600000, 96.54], [1625414400000, 97.42], [1626710400000, 98.67], [1628006400000, 99.42], [1628438400000, 99.55]]</t>
   </si>
   <si>
     <t>217022</t>
@@ -170,6 +221,9 @@
     <t xml:space="preserve"> [[1332259200000,1.0],[1332432000000,1.0],[1332691200000,1.001],[1332777600000,1.001],[1332864000000,1.001],[1332950400000,1.001],[1333036800000,1.002],[1333555200000,1.004],[1333641600000,1.005],[1333900800000,1.006],[1333987200000,1.007],[1334073600000,1.008],[1334160000000,1.009],[1334246400000,1.009],[1334505600000,1.01],[1334592000000,1.011],[1334678400000,1.012],[1334764800000,1.013],[1334851200000,1.013],[1335110400000,1.015],[1335196800000,1.017],[1335283200000,1.017],[1335369600000,1.018],[1335456000000,1.018],[1335888000000,1.019],[1335974400000,1.02],[1336060800000,1.021],[1336320000000,1.021],[1336406400000,1.021],[1336492800000,1.021],[1336579200000,1.022],[1336665600000,1.023],[1336924800000,1.025],[1337011200000,1.027],[1337097600000,1.028],[1337184000000,1.029],[1337270400000,1.03],[1337529600000,1.032],[1337616000000,1.032],[1337702400000,1.033],[1337788800000,1.034],[1337875200000,1.038],[1338134400000,1.04],[1338220800000,1.04],[1338307200000,1.041],[1338393600000,1.042],[1338480000000,1.042],[1338739200000,1.044],[1338825600000,1.045],[1338912000000,1.046],[1338998400000,1.047],[1339084800000,1.053],[1339344000000,1.053],[1339430400000,1.053],[1339516800000,1.053],[1339603200000,1.053],[1339689600000,1.054],[1339948800000,1.054],[1340035200000,1.052],[1340121600000,1.053],[1340208000000,1.054],[1340553600000,1.054],[1340640000000,1.054],[1340726400000,1.054],[1340812800000,1.054],[1340899200000,1.055],[1340985600000,1.055],[1341158400000,1.055],[1341244800000,1.056],[1341331200000,1.057],[1341417600000,1.061],[1341504000000,1.061],[1341763200000,1.062],[1341849600000,1.061],[1341936000000,1.061],[1342022400000,1.062],[1342108800000,1.063],[1342368000000,1.064],[1342454400000,1.063],[1342540800000,1.063],[1342627200000,1.063],[1342713600000,1.063],[1342972800000,1.063],[1343059200000,1.063],[1343145600000,1.062],[1343232000000,1.061],[1343318400000,1.061],[1343577600000,1.061],[1343664000000,1.06],[1343750400000,1.06],[1343836800000,1.059],[1343923200000,1.058],[1344182400000,1.057],[1344268800000,1.056],[1344355200000,1.055],[1344441600000,1.055],[1344528000000,1.053],[1344787200000,1.055],[1344873600000,1.054],[1344960000000,1.054],[1345046400000,1.054],[1345132800000,1.053],[1345392000000,1.05],[1345478400000,1.049],[1345564800000,1.047],[1345651200000,1.047],[1345737600000,1.047],[1345996800000,1.046],[1346083200000,1.045],[1346169600000,1.045],[1346256000000,1.044],[1346342400000,1.045],[1346601600000,1.044],[1346688000000,1.045],[1346774400000,1.045],[1346860800000,1.045],[1346947200000,1.045],[1347206400000,1.044],[1347292800000,1.042],[1347379200000,1.04],[1347465600000,1.041],[1347552000000,1.038],[1347811200000,1.037],[1347897600000,1.038],[1347984000000,1.038],[1348070400000,1.039],[1348156800000,1.038],[1348416000000,1.04],[1348502400000,1.041],[1348588800000,1.041],[1348675200000,1.042],[1348761600000,1.043],[1348934400000,1.044],[1349625600000,1.045],[1349712000000,1.044],[1349798400000,1.045],[1349884800000,1.047],[1349971200000,1.048],[1350230400000,1.049],[1350316800000,1.05],[1350403200000,1.05],[1350489600000,1.05],[1350576000000,1.049],[1350835200000,1.049],[1350921600000,1.048],[1351008000000,1.049],[1351094400000,1.049],[1351180800000,1.048],[1351440000000,1.048],[1351526400000,1.048],[1351612800000,1.049],[1351699200000,1.049],[1351785600000,1.049],[1352044800000,1.049],[1352131200000,1.05],[1352217600000,1.05],[1352304000000,1.05],[1352390400000,1.051],[1352649600000,1.051],[1352736000000,1.052],[1352822400000,1.054],[1352908800000,1.053],[1352995200000,1.054],[1353254400000,1.055],[1353340800000,1.055],[1353427200000,1.054],[1353513600000,1.054],[1353600000000,1.054],[1353859200000,1.055],[1353945600000,1.055],[1354032000000,1.057],[1354118400000,1.057],[1354204800000,1.057],[1354464000000,1.056],[1354550400000,1.056],[1354636800000,1.056],[1354723200000,1.056],[1354809600000,1.058],[1355068800000,1.06],[1355155200000,1.06],[1355241600000,1.06],[1355328000000,1.06],[1355414400000,1.061],[1355673600000,1.062],[1355760000000,1.061],[1355846400000,1.061],[1355932800000,1.06],[1356019200000,1.06],[1356278400000,1.06],[1356364800000,1.061],[1356451200000,1.061],[1356537600000,1.061],[1356624000000,1.063],[1356883200000,1.064],[1357228800000,1.063],[1357488000000,1.065],[1357574400000,1.064],[1357660800000,1.065],[1357747200000,1.066],[1357833600000,1.066],[1358092800000,1.069],[1358179200000,1.073],[1358265600000,1.075],[1358352000000,1.075],[1358438400000,1.077],[1358697600000,1.079],[1358784000000,1.08],[1358870400000,1.079],[1358956800000,1.079],[1359043200000,1.079],[1359302400000,1.08],[1359388800000,1.081],[1359475200000,1.083],[1359561600000,1.093],[1359648000000,1.094],[1359907200000,1.095],[1359993600000,1.095],[1360080000000,1.097],[1360166400000,1.097],[1360252800000,1.097],[1361116800000,1.1],[1361203200000,1.1],[1361289600000,1.102],[1361376000000,1.105],[1361462400000,1.106],[1361721600000,1.106],[1361808000000,1.105],[1361894400000,1.105],[1361980800000,1.106],[1362067200000,1.106],[1362326400000,1.105],[1362412800000,1.107],[1362499200000,1.108],[1362585600000,1.108],[1362672000000,1.109],[1362931200000,1.109],[1363017600000,1.11],[1363104000000,1.11],[1363190400000,1.11],[1363276800000,1.111],[1363536000000,1.111],[1363622400000,1.112],[1363708800000,1.113],[1363795200000,1.114],[1363881600000,1.115],[1364140800000,1.117],[1364227200000,1.116],[1364313600000,1.116],[1364400000000,1.115],[1364486400000,1.115],[1364745600000,1.116],[1364832000000,1.118],[1364918400000,1.12],[1365350400000,1.121],[1365436800000,1.123],[1365523200000,1.124],[1365609600000,1.125],[1365696000000,1.126],[1365955200000,1.128],[1366041600000,1.128],[1366128000000,1.129],[1366214400000,1.128],[1366300800000,1.128],[1366560000000,1.125],[1366646400000,1.121],[1366732800000,1.123],[1366819200000,1.126],[1366905600000,1.128],[1367424000000,1.127],[1367510400000,1.128],[1367769600000,1.128],[1367856000000,1.131],[1367942400000,1.132],[1368028800000,1.132],[1368115200000,1.133],[1368374400000,1.135],[1368460800000,1.135],[1368547200000,1.136],[1368633600000,1.137],[1368720000000,1.138],[1368979200000,1.139],[1369065600000,1.138],[1369152000000,1.138],[1369238400000,1.138],[1369324800000,1.139],[1369584000000,1.139],[1369670400000,1.141],[1369756800000,1.142],[1369843200000,1.141],[1369929600000,1.141],[1370188800000,1.142],[1370275200000,1.141],[1370361600000,1.141],[1370448000000,1.14],[1370534400000,1.141],[1371052800000,1.138],[1371139200000,1.137],[1371398400000,1.138],[1371484800000,1.138],[1371571200000,1.136],[1371657600000,1.127],[1371744000000,1.127],[1372003200000,1.122],[1372089600000,1.123],[1372176000000,1.126],[1372262400000,1.128],[1372348800000,1.13],[1372521600000,1.13],[1372608000000,1.131],[1372694400000,1.132],[1372780800000,1.129],[1372867200000,1.129],[1372953600000,1.13],[1373212800000,1.127],[1373299200000,1.127],[1373385600000,1.126],[1373472000000,1.128],[1373558400000,1.125],[1373817600000,1.126],[1373904000000,1.125],[1373990400000,1.123],[1374076800000,1.122],[1374163200000,1.12],[1374422400000,1.118],[1374508800000,1.119],[1374595200000,1.117],[1374681600000,1.117],[1374768000000,1.117],[1375027200000,1.116],[1375113600000,1.115],[1375200000000,1.115],[1375286400000,1.117],[1375372800000,1.119],[1375632000000,1.119],[1375718400000,1.119],[1375804800000,1.116],[1375891200000,1.114],[1375977600000,1.113],[1376236800000,1.118],[1376323200000,1.116],[1376409600000,1.115],[1376496000000,1.113],[1376582400000,1.113],[1376841600000,1.114],[1376928000000,1.112],[1377014400000,1.111],[1377100800000,1.112],[1377187200000,1.112],[1377446400000,1.112],[1377532800000,1.112],[1377619200000,1.112],[1377705600000,1.112],[1377792000000,1.113],[1378051200000,1.113],[1378137600000,1.114],[1378224000000,1.115],[1378310400000,1.115],[1378396800000,1.116],[1378656000000,1.119],[1378742400000,1.12],[1378828800000,1.12],[1378915200000,1.12],[1379001600000,1.119],[1379260800000,1.119],[1379347200000,1.119],[1379433600000,1.12],[1379865600000,1.121],[1379952000000,1.12],[1380038400000,1.12],[1380124800000,1.12],[1380211200000,1.12],[1380470400000,1.12],[1381161600000,1.122],[1381248000000,1.122],[1381334400000,1.123],[1381420800000,1.123],[1381680000000,1.123],[1381766400000,1.122],[1381852800000,1.121],[1381939200000,1.122],[1382025600000,1.122],[1382284800000,1.123],[1382371200000,1.123],[1382457600000,1.121],[1382544000000,1.12],[1382630400000,1.118],[1382889600000,1.117],[1382976000000,1.116],[1383062400000,1.116],[1383148800000,1.115],[1383235200000,1.117],[1383494400000,1.117],[1383580800000,1.118],[1383667200000,1.117],[1383753600000,1.117],[1383840000000,1.116],[1384099200000,1.115],[1384185600000,1.114],[1384272000000,1.111],[1384358400000,1.109],[1384444800000,1.106],[1384704000000,1.106],[1384790400000,1.104],[1384876800000,1.102],[1384963200000,1.101],[1385049600000,1.1],[1385308800000,1.096],[1385395200000,1.094],[1385481600000,1.094],[1385568000000,1.095],[1385654400000,1.097],[1385913600000,1.098],[1386000000000,1.098],[1386086400000,1.098],[1386172800000,1.097],[1386259200000,1.096],[1386518400000,1.096],[1386604800000,1.095],[1386691200000,1.094],[1386777600000,1.093],[1386864000000,1.094],[1387123200000,1.093],[1387209600000,1.092],[1387296000000,1.091],[1387382400000,1.088],[1387468800000,1.087],[1387728000000,1.086],[1387814400000,1.087],[1387900800000,1.086],[1387987200000,1.086],[1388073600000,1.086],[1388332800000,1.086],[1388419200000,1.086],[1388592000000,1.086],[1388678400000,1.085],[1388937600000,1.084],[1389024000000,1.083],[1389110400000,1.082],[1389196800000,1.081],[1389283200000,1.08],[1389542400000,1.079],[1389628800000,1.076],[1389715200000,1.075],[1389801600000,1.075],[1389888000000,1.074],[1390147200000,1.073],[1390233600000,1.074],[1390320000000,1.077],[1390406400000,1.078],[1390492800000,1.08],[1390752000000,1.08],[1390838400000,1.083],[1390924800000,1.084],[1391011200000,1.084],[1391702400000,1.084],[1391961600000,1.086],[1392048000000,1.088],[1392134400000,1.09],[1392220800000,1.093],[1392307200000,1.096],[1392566400000,1.097],[1392652800000,1.096],[1392739200000,1.099],[1392825600000,1.102],[1392912000000,1.104],[1393171200000,1.105],[1393257600000,1.106],[1393344000000,1.107],[1393430400000,1.109],[1393516800000,1.11],[1393776000000,1.111],[1393862400000,1.109],[1393948800000,1.105],[1394035200000,1.104],[1394121600000,1.106],[1394380800000,1.106],[1394467200000,1.107],[1394553600000,1.106],[1394640000000,1.107],[1394726400000,1.108],[1394985600000,1.109],[1395072000000,1.109],[1395158400000,1.108],[1395244800000,1.108],[1395331200000,1.109],[1395590400000,1.111],[1395676800000,1.11],[1395763200000,1.109],[1395849600000,1.109],[1395936000000,1.109],[1396195200000,1.109],[1396281600000,1.111],[1396368000000,1.11],[1396454400000,1.11],[1396540800000,1.112],[1396886400000,1.114],[1396972800000,1.113],[1397059200000,1.115],[1397145600000,1.117],[1397404800000,1.119],[1397491200000,1.12],[1397577600000,1.121],[1397664000000,1.124],[1397750400000,1.125],[1398009600000,1.126],[1398096000000,1.126],[1398182400000,1.127],[1398268800000,1.127],[1398355200000,1.129],[1398614400000,1.129],[1398700800000,1.128],[1398787200000,1.13],[1399219200000,1.132],[1399305600000,1.133],[1399392000000,1.134],[1399478400000,1.136],[1399564800000,1.141],[1399824000000,1.143],[1399910400000,1.144],[1399996800000,1.145],[1400083200000,1.146],[1400169600000,1.146],[1400428800000,1.146],[1400515200000,1.146],[1400601600000,1.146],[1400688000000,1.147],[1400774400000,1.149],[1401033600000,1.15],[1401120000000,1.15],[1401206400000,1.151],[1401292800000,1.152],[1401379200000,1.154],[1401724800000,1.157],[1401811200000,1.159],[1401897600000,1.16],[1401984000000,1.161],[1402243200000,1.163],[1402329600000,1.165],[1402416000000,1.166],[1402502400000,1.167],[1402588800000,1.169],[1402848000000,1.169],[1402934400000,1.166],[1403020800000,1.164],[1403107200000,1.165],[1403193600000,1.167],[1403452800000,1.169],[1403539200000,1.17],[1403625600000,1.17],[1403712000000,1.17],[1403798400000,1.174],[1404057600000,1.174],[1404144000000,1.174],[1404230400000,1.174],[1404316800000,1.174],[1404403200000,1.174],[1404662400000,1.174],[1404748800000,1.175],[1404835200000,1.174],[1404921600000,1.175],[1405008000000,1.176],[1405267200000,1.173],[1405353600000,1.172],[1405440000000,1.178],[1405526400000,1.18],[1405612800000,1.177],[1405872000000,1.176],[1405958400000,1.178],[1406044800000,1.178],[1406131200000,1.18],[1406217600000,1.181],[1406476800000,1.183],[1406563200000,1.184],[1406649600000,1.185],[1406736000000,1.186],[1406822400000,1.186],[1407081600000,1.187],[1407168000000,1.188],[1407254400000,1.189],[1407340800000,1.19],[1407427200000,1.19],[1407686400000,1.192],[1407772800000,1.194],[1407859200000,1.195],[1407945600000,1.195],[1408032000000,1.197],[1408291200000,1.198],[1408377600000,1.199],[1408464000000,1.199],[1408550400000,1.199],[1408636800000,1.201],[1408896000000,1.202],[1408982400000,1.202],[1409068800000,1.203],[1409155200000,1.203],[1409241600000,1.204],[1409500800000,1.206],[1409587200000,1.208],[1409673600000,1.209],[1409760000000,1.21],[1409846400000,1.211],[1410192000000,1.21],[1410278400000,1.21],[1410364800000,1.21],[1410451200000,1.211],[1410710400000,1.212],[1410796800000,1.209],[1410883200000,1.211],[1410969600000,1.213],[1411056000000,1.215],[1411315200000,1.213],[1411401600000,1.215],[1411488000000,1.217],[1411574400000,1.217],[1411660800000,1.218],[1411920000000,1.219],[1412006400000,1.22],[1412697600000,1.221],[1412784000000,1.222],[1412870400000,1.222],[1413129600000,1.222],[1413216000000,1.217],[1413302400000,1.228],[1413388800000,1.229],[1413475200000,1.233],[1413734400000,1.236],[1413820800000,1.238],[1413907200000,1.238],[1413993600000,1.239],[1414080000000,1.239],[1414339200000,1.239],[1414425600000,1.243],[1414512000000,1.248],[1414598400000,1.253],[1414684800000,1.257],[1414944000000,1.26],[1415030400000,1.263],[1415116800000,1.264],[1415203200000,1.267],[1415289600000,1.269],[1415548800000,1.275],[1415635200000,1.276],[1415721600000,1.277],[1415808000000,1.275],[1415894400000,1.272],[1416153600000,1.272],[1416240000000,1.269],[1416326400000,1.268],[1416412800000,1.268],[1416499200000,1.268],[1416758400000,1.274],[1416844800000,1.275],[1416931200000,1.277],[1417017600000,1.278],[1417104000000,1.282],[1417363200000,1.281],[1417449600000,1.288],[1417536000000,1.285],[1417622400000,1.289],[1417708800000,1.284],[1417968000000,1.287],[1418054400000,1.258],[1418140800000,1.265],[1418227200000,1.265],[1418313600000,1.264],[1418572800000,1.264],[1418659200000,1.267],[1418745600000,1.26],[1418832000000,1.258],[1418918400000,1.259],[1419177600000,1.272],[1419264000000,1.273],[1419350400000,1.273],[1419436800000,1.278],[1419523200000,1.283],[1419782400000,1.283],[1419868800000,1.285],[1419955200000,1.29],[1420387200000,1.296],[1420473600000,1.297],[1420560000000,1.298],[1420646400000,1.294],[1420732800000,1.298],[1420992000000,1.296],[1421078400000,1.3],[1421164800000,1.3],[1421251200000,1.305],[1421337600000,1.308],[1421596800000,1.298],[1421683200000,1.301],[1421769600000,1.308],[1421856000000,1.315],[1421942400000,1.316],[1422201600000,1.313],[1422288000000,1.31],[1422374400000,1.309],[1422460800000,1.308],[1422547200000,1.308],[1422806400000,1.304],[1422892800000,1.306],[1422979200000,1.305],[1423065600000,1.307],[1423152000000,1.307],[1423411200000,1.308],[1423497600000,1.309],[1423584000000,1.31],[1423670400000,1.311],[1423756800000,1.314],[1424016000000,1.318],[1424102400000,1.319],[1424793600000,1.32],[1424880000000,1.32],[1424966400000,1.32],[1425225600000,1.321],[1425312000000,1.319],[1425398400000,1.319],[1425484800000,1.318],[1425571200000,1.318],[1425830400000,1.319],[1425916800000,1.318],[1426003200000,1.319],[1426089600000,1.321],[1426176000000,1.321],[1426435200000,1.323],[1426521600000,1.323],[1426608000000,1.323],[1426694400000,1.323],[1426780800000,1.324],[1427040000000,1.327],[1427126400000,1.327],[1427212800000,1.325],[1427299200000,1.324],[1427385600000,1.325],[1427644800000,1.324],[1427731200000,1.322],[1427817600000,1.324],[1427904000000,1.325],[1427990400000,1.325],[1428336000000,1.326],[1428422400000,1.325],[1428508800000,1.325],[1428595200000,1.326],[1428854400000,1.327],[1428940800000,1.327],[1429027200000,1.328],[1429113600000,1.33],[1429200000000,1.332],[1429459200000,1.335],[1429545600000,1.338],[1429632000000,1.339],[1429718400000,1.339],[1429804800000,1.338],[1430064000000,1.339],[1430150400000,1.341],[1430236800000,1.342],[1430323200000,1.342],[1430668800000,1.343],[1430755200000,1.341],[1430841600000,1.341],[1430928000000,1.342],[1431014400000,1.343],[1431273600000,1.345],[1431360000000,1.347],[1431446400000,1.348],[1431532800000,1.351],[1431619200000,1.352],[1431878400000,1.353],[1431964800000,1.353],[1432051200000,1.353],[1432137600000,1.355],[1432224000000,1.356],[1432483200000,1.358],[1432569600000,1.358],[1432656000000,1.357],[1432742400000,1.352],[1432828800000,1.351],[1433088000000,1.354],[1433174400000,1.355],[1433260800000,1.355],[1433347200000,1.355],[1433433600000,1.354],[1433692800000,1.357],[1433779200000,1.355],[1433865600000,1.354],[1433952000000,1.352],[1434038400000,1.353],[1434297600000,1.35],[1434384000000,1.348],[1434470400000,1.348],[1434556800000,1.346],[1434643200000,1.345],[1434988800000,1.346],[1435075200000,1.347],[1435161600000,1.347],[1435248000000,1.345],[1435507200000,1.346],[1435593600000,1.345],[1435680000000,1.345],[1435766400000,1.345],[1435852800000,1.345],[1436112000000,1.347],[1436198400000,1.349],[1436284800000,1.346],[1436371200000,1.344],[1436457600000,1.344],[1436716800000,1.344],[1436803200000,1.345],[1436889600000,1.344],[1436976000000,1.344],[1437062400000,1.345],[1437321600000,1.346],[1437408000000,1.348],[1437494400000,1.349],[1437580800000,1.35],[1437667200000,1.352],[1437926400000,1.353],[1438012800000,1.354],[1438099200000,1.355],[1438185600000,1.356],[1438272000000,1.356],[1438531200000,1.358],[1438617600000,1.358],[1438704000000,1.362],[1438790400000,1.364],[1438876800000,1.366],[1439136000000,1.367],[1439222400000,1.366],[1439308800000,1.366],[1439395200000,1.366],[1439481600000,1.367],[1439740800000,1.368],[1439827200000,1.368],[1439913600000,1.369],[1440000000000,1.369],[1440086400000,1.37],[1440345600000,1.371],[1440432000000,1.371],[1440518400000,1.371],[1440604800000,1.372],[1440691200000,1.373],[1440950400000,1.375],[1441036800000,1.377],[1441123200000,1.378],[1441555200000,1.379],[1441641600000,1.38],[1441728000000,1.38],[1441814400000,1.381],[1441900800000,1.382],[1442160000000,1.383],[1442246400000,1.383],[1442332800000,1.385],[1442419200000,1.385],[1442505600000,1.386],[1442764800000,1.386],[1442851200000,1.386],[1442937600000,1.386],[1443024000000,1.386],[1443110400000,1.387],[1443369600000,1.387],[1443456000000,1.388],[1443542400000,1.389],[1444233600000,1.39],[1444320000000,1.391],[1444579200000,1.391],[1444665600000,1.392],[1444752000000,1.393],[1444838400000,1.393],[1444924800000,1.394],[1445184000000,1.394],[1445270400000,1.395],[1445356800000,1.395],[1445443200000,1.395],[1445529600000,1.395],[1445788800000,1.398],[1445875200000,1.399],[1445961600000,1.4],[1446048000000,1.401],[1446134400000,1.401],[1446393600000,1.402],[1446480000000,1.402],[1446566400000,1.402],[1446652800000,1.402],[1446739200000,1.402],[1446998400000,1.4],[1447084800000,1.398],[1447171200000,1.399],[1447257600000,1.399],[1447344000000,1.399],[1447603200000,1.399],[1447689600000,1.398],[1447776000000,1.398],[1447862400000,1.398],[1447948800000,1.398],[1448208000000,1.398],[1448294400000,1.399],[1448380800000,1.4],[1448467200000,1.4],[1448553600000,1.4],[1448812800000,1.4],[1448899200000,1.4],[1448985600000,1.401],[1449072000000,1.403],[1449158400000,1.405],[1449417600000,1.406],[1449504000000,1.404],[1449590400000,1.405],[1449676800000,1.404],[1449763200000,1.405],[1450022400000,1.404],[1450108800000,1.403],[1450195200000,1.403],[1450281600000,1.404],[1450368000000,1.405],[1450627200000,1.408],[1450713600000,1.411],[1450800000000,1.412],[1450886400000,1.412],[1450972800000,1.413],[1451232000000,1.414],[1451318400000,1.415],[1451404800000,1.416],[1451491200000,1.416],[1451836800000,1.415],[1451923200000,1.416],[1452009600000,1.416],[1452096000000,1.416],[1452182400000,1.417],[1452441600000,1.418],[1452528000000,1.42],[1452614400000,1.421],[1452700800000,1.422],[1452787200000,1.423],[1453046400000,1.423],[1453132800000,1.422],[1453219200000,1.422],[1453305600000,1.422],[1453392000000,1.422],[1453651200000,1.422],[1453737600000,1.422],[1453824000000,1.421],[1453910400000,1.421],[1453996800000,1.421],[1454256000000,1.421],[1454342400000,1.422],[1454428800000,1.421],[1454515200000,1.422],[1454601600000,1.422],[1455465600000,1.424],[1455552000000,1.425],[1455638400000,1.425],[1455724800000,1.427],[1455811200000,1.427],[1456070400000,1.428],[1456156800000,1.428],[1456243200000,1.429],[1456329600000,1.429],[1456416000000,1.429],[1456675200000,1.43],[1456761600000,1.431],[1456848000000,1.431],[1456934400000,1.432],[1457020800000,1.432],[1457280000000,1.433],[1457366400000,1.434],[1457452800000,1.434],[1457539200000,1.436],[1457625600000,1.436],[1457884800000,1.437],[1457971200000,1.437],[1458057600000,1.438],[1458144000000,1.438],[1458230400000,1.439],[1458489600000,1.441],[1458576000000,1.441],[1458662400000,1.441],[1458748800000,1.442],[1458835200000,1.442],[1459094400000,1.441],[1459180800000,1.441],[1459267200000,1.441],[1459353600000,1.441],[1459440000000,1.441],[1459785600000,1.442],[1459872000000,1.442],[1459958400000,1.442],[1460044800000,1.442],[1460304000000,1.441],[1460390400000,1.439],[1460476800000,1.438],[1460563200000,1.436],[1460649600000,1.436],[1460908800000,1.436],[1460995200000,1.435],[1461081600000,1.433],[1461168000000,1.432],[1461254400000,1.43],[1461513600000,1.427],[1461600000000,1.426],[1461686400000,1.426],[1461772800000,1.427],[1461859200000,1.427],[1462204800000,1.428],[1462291200000,1.429],[1462377600000,1.43],[1462464000000,1.43],[1462723200000,1.431],[1462809600000,1.432],[1462896000000,1.432],[1462982400000,1.433],[1463068800000,1.433],[1463328000000,1.434],[1463414400000,1.433],[1463500800000,1.432],[1463587200000,1.433],[1463673600000,1.431],[1463932800000,1.43],[1464019200000,1.427],[1464105600000,1.428],[1464192000000,1.428],[1464278400000,1.428],[1464537600000,1.428],[1464624000000,1.427],[1464710400000,1.428],[1464796800000,1.428],[1464883200000,1.429],[1465142400000,1.429],[1465228800000,1.429],[1465315200000,1.43],[1465747200000,1.431],[1465833600000,1.432],[1465920000000,1.432],[1466006400000,1.433],[1466092800000,1.436],[1466352000000,1.438],[1466438400000,1.438],[1466524800000,1.439],[1466611200000,1.44],[1466697600000,1.441],[1466956800000,1.442],[1467043200000,1.443],[1467129600000,1.443],[1467216000000,1.444],[1467302400000,1.445],[1467561600000,1.446],[1467648000000,1.447],[1467734400000,1.447],[1467820800000,1.448],[1467907200000,1.449],[1468166400000,1.449],[1468252800000,1.45],[1468339200000,1.451],[1468425600000,1.451],[1468512000000,1.452],[1468771200000,1.453],[1468857600000,1.453],[1468944000000,1.454],[1469030400000,1.455],[1469116800000,1.455],[1469376000000,1.456],[1469462400000,1.456],[1469548800000,1.456],[1469635200000,1.457],[1469721600000,1.458],[1469980800000,1.458],[1470067200000,1.459],[1470153600000,1.459],[1470240000000,1.46],[1470326400000,1.461],[1470585600000,1.461],[1470672000000,1.461],[1470758400000,1.462],[1470844800000,1.462],[1470931200000,1.463],[1471190400000,1.464],[1471276800000,1.464],[1471363200000,1.465],[1471449600000,1.465],[1471536000000,1.465],[1471795200000,1.465],[1471881600000,1.465],[1471968000000,1.464],[1472054400000,1.464],[1472140800000,1.465],[1472400000000,1.465],[1472486400000,1.465],[1472572800000,1.465],[1472659200000,1.466],[1472745600000,1.466],[1473004800000,1.466],[1473091200000,1.466],[1473177600000,1.467],[1473264000000,1.467],[1473350400000,1.467],[1473609600000,1.468],[1473696000000,1.468],[1473782400000,1.468],[1474214400000,1.468],[1474300800000,1.468],[1474387200000,1.468],[1474473600000,1.469],[1474560000000,1.469],[1474819200000,1.47],[1474905600000,1.47],[1474992000000,1.47],[1475078400000,1.47],[1475164800000,1.471],[1476028800000,1.472],[1476115200000,1.472],[1476201600000,1.472],[1476288000000,1.473],[1476374400000,1.473],[1476633600000,1.474],[1476720000000,1.474],[1476806400000,1.475],[1476892800000,1.475],[1476979200000,1.476],[1477238400000,1.476],[1477324800000,1.475],[1477411200000,1.475],[1477497600000,1.474],[1477584000000,1.475],[1477843200000,1.474],[1477929600000,1.474],[1478016000000,1.475],[1478102400000,1.475],[1478188800000,1.475],[1478448000000,1.476],[1478534400000,1.475],[1478620800000,1.476],[1478707200000,1.475],[1478793600000,1.475],[1479052800000,1.475],[1479139200000,1.475],[1479225600000,1.474],[1479312000000,1.474],[1479398400000,1.473],[1479657600000,1.474],[1479744000000,1.474],[1479830400000,1.474],[1479916800000,1.474],[1480003200000,1.474],[1480262400000,1.474],[1480348800000,1.473],[1480435200000,1.471],[1480521600000,1.47],[1480608000000,1.469],[1480867200000,1.469],[1480953600000,1.467],[1481040000000,1.467],[1481126400000,1.468],[1481212800000,1.468],[1481472000000,1.467],[1481558400000,1.465],[1481644800000,1.464],[1481731200000,1.46],[1481817600000,1.46],[1482076800000,1.459],[1482163200000,1.457],[1482249600000,1.458],[1482336000000,1.46],[1482422400000,1.462],[1482681600000,1.463],[1482768000000,1.463],[1482854400000,1.463],[1482940800000,1.464],[1483027200000,1.465],[1483113600000,1.465],[1483372800000,1.466],[1483459200000,1.467],[1483545600000,1.465],[1483632000000,1.465],[1483891200000,1.466],[1483977600000,1.467],[1484064000000,1.468],[1484150400000,1.469],[1484236800000,1.469],[1484496000000,1.47],[1484582400000,1.469],[1484668800000,1.468],[1484755200000,1.467],[1484841600000,1.468],[1485100800000,1.469],[1485187200000,1.469],[1485273600000,1.469],[1485360000000,1.469],[1486051200000,1.468],[1486310400000,1.467],[1486396800000,1.466],[1486483200000,1.466],[1486569600000,1.468],[1486656000000,1.469],[1486915200000,1.47],[1487001600000,1.47],[1487088000000,1.47],[1487174400000,1.47],[1487260800000,1.471],[1487520000000,1.471],[1487606400000,1.471],[1487692800000,1.471],[1487779200000,1.472],[1487865600000,1.473],[1488124800000,1.473],[1488211200000,1.472],[1488297600000,1.472],[1488384000000,1.472],[1488470400000,1.472],[1488729600000,1.471],[1488816000000,1.471],[1488902400000,1.471],[1488988800000,1.471],[1489075200000,1.47],[1489334400000,1.471],[1489420800000,1.471],[1489507200000,1.471],[1489593600000,1.472],[1489680000000,1.472],[1489939200000,1.472],[1490025600000,1.471],[1490112000000,1.471],[1490198400000,1.472],[1490284800000,1.473],[1490544000000,1.474],[1490630400000,1.475],[1490716800000,1.476],[1490803200000,1.476],[1490889600000,1.476],[1491321600000,1.477],[1491408000000,1.476],[1491494400000,1.477],[1491753600000,1.478],[1491840000000,1.478],[1491926400000,1.478],[1492012800000,1.478],[1492099200000,1.478],[1492358400000,1.476],[1492444800000,1.476],[1492531200000,1.474],[1492617600000,1.474],[1492704000000,1.472],[1492963200000,1.471],[1493049600000,1.471],[1493136000000,1.471],[1493222400000,1.472],[1493308800000,1.472],[1493654400000,1.473],[1493740800000,1.472],[1493827200000,1.471],[1493913600000,1.47],[1494172800000,1.469],[1494259200000,1.468],[1494345600000,1.466],[1494432000000,1.466],[1494518400000,1.465],[1494777600000,1.465],[1494864000000,1.465],[1494950400000,1.465],[1495036800000,1.465],[1495123200000,1.465],[1495382400000,1.465],[1495468800000,1.465],[1495555200000,1.465],[1495641600000,1.466],[1495728000000,1.466],[1496160000000,1.466],[1496246400000,1.466],[1496332800000,1.467],[1496592000000,1.467],[1496678400000,1.468],[1496764800000,1.468],[1496851200000,1.468],[1496937600000,1.468],[1497196800000,1.47],[1497283200000,1.471],[1497369600000,1.472],[1497456000000,1.474],[1497542400000,1.475],[1497801600000,1.478],[1497888000000,1.481],[1497974400000,1.482],[1498060800000,1.483],[1498147200000,1.483],[1498406400000,1.485],[1498492800000,1.487],[1498579200000,1.488],[1498665600000,1.489],[1498752000000,1.49],[1499011200000,1.49],[1499097600000,1.49],[1499184000000,1.491],[1499270400000,1.491],[1499356800000,1.492],[1499616000000,1.493],[1499702400000,1.493],[1499788800000,1.494],[1499875200000,1.495],[1499961600000,1.495],[1500220800000,1.496],[1500307200000,1.496],[1500393600000,1.496],[1500480000000,1.496],[1500566400000,1.496],[1500825600000,1.497],[1500912000000,1.499],[1500998400000,1.499],[1501084800000,1.499],[1501171200000,1.499],[1501430400000,1.5],[1501516800000,1.5],[1501603200000,1.5],[1501689600000,1.499],[1501776000000,1.5],[1502035200000,1.5],[1502121600000,1.5],[1502208000000,1.5],[1502294400000,1.5],[1502380800000,1.5],[1502640000000,1.5],[1502726400000,1.501],[1502812800000,1.501],[1502899200000,1.501],[1502985600000,1.501],[1503244800000,1.501],[1503331200000,1.501],[1503417600000,1.501],[1503504000000,1.501],[1503590400000,1.501],[1503849600000,1.501],[1503936000000,1.5],[1504022400000,1.499],[1504108800000,1.499],[1504195200000,1.5],[1504454400000,1.5],[1504540800000,1.5],[1504627200000,1.5],[1504713600000,1.501],[1504800000000,1.501],[1505059200000,1.503],[1505145600000,1.503],[1505232000000,1.504],[1505318400000,1.504],[1505404800000,1.505],[1505664000000,1.505],[1505750400000,1.506],[1505836800000,1.506],[1505923200000,1.506],[1506009600000,1.506],[1506268800000,1.507],[1506355200000,1.507],[1506441600000,1.507],[1506528000000,1.507],[1506614400000,1.507],[1507478400000,1.509],[1507564800000,1.508],[1507651200000,1.509],[1507737600000,1.509],[1507824000000,1.509],[1508083200000,1.509],[1508169600000,1.508],[1508256000000,1.509],[1508342400000,1.509],[1508428800000,1.509],[1508688000000,1.51],[1508774400000,1.51],[1508860800000,1.51],[1508947200000,1.51],[1509033600000,1.509],[1509292800000,1.507],[1509379200000,1.507],[1509465600000,1.507],[1509552000000,1.507],[1509638400000,1.507],[1509897600000,1.507],[1509984000000,1.507],[1510070400000,1.507],[1510156800000,1.507],[1510243200000,1.506],[1510502400000,1.505],[1510588800000,1.504],[1510675200000,1.503],[1510761600000,1.504],[1510848000000,1.504],[1511107200000,1.504],[1511193600000,1.503],[1511280000000,1.5],[1511366400000,1.498],[1511452800000,1.497],[1511712000000,1.497],[1511798400000,1.497],[1511884800000,1.496],[1511971200000,1.496],[1512057600000,1.497],[1512316800000,1.499],[1512403200000,1.499],[1512489600000,1.5],[1512576000000,1.5],[1512662400000,1.501],[1512921600000,1.501],[1513008000000,1.501],[1513094400000,1.501],[1513180800000,1.501],[1513267200000,1.501],[1513526400000,1.501],[1513612800000,1.501],[1513699200000,1.501],[1513785600000,1.501],[1513872000000,1.5],[1514131200000,1.501],[1514217600000,1.501],[1514304000000,1.501],[1514390400000,1.501],[1514476800000,1.501],[1514649600000,1.502],[1514822400000,1.503],[1514908800000,1.504],[1514995200000,1.503],[1515081600000,1.504],[1515340800000,1.505],[1515427200000,1.506],[1515513600000,1.505],[1515600000000,1.505],[1515686400000,1.505],[1515945600000,1.506],[1516032000000,1.506],[1516118400000,1.506],[1516204800000,1.506],[1516291200000,1.505],[1516550400000,1.506],[1516636800000,1.506],[1516723200000,1.507],[1516809600000,1.507],[1516896000000,1.507],[1517155200000,1.508],[1517241600000,1.508],[1517328000000,1.508],[1517414400000,1.508],[1517500800000,1.509],[1517760000000,1.51],[1517846400000,1.51],[1517932800000,1.51],[1518019200000,1.511],[1518105600000,1.512],[1518364800000,1.512],[1518451200000,1.513],[1518537600000,1.513],[1519228800000,1.515],[1519315200000,1.515],[1519574400000,1.517],[1519660800000,1.518],[1519747200000,1.518],[1519833600000,1.519],[1519920000000,1.519],[1520179200000,1.52],[1520265600000,1.52],[1520352000000,1.521],[1520438400000,1.521],[1520524800000,1.522],[1520784000000,1.523],[1520870400000,1.522],[1520956800000,1.523],[1521043200000,1.522],[1521129600000,1.523],[1521388800000,1.523],[1521475200000,1.524],[1521561600000,1.524],[1521648000000,1.524],[1521734400000,1.526],[1521993600000,1.528],[1522080000000,1.529],[1522166400000,1.529],[1522252800000,1.53],[1522339200000,1.53],[1522598400000,1.531],[1522684800000,1.532],[1522771200000,1.533],[1523203200000,1.535],[1523289600000,1.536],[1523376000000,1.537],[1523462400000,1.537],[1523548800000,1.538],[1523808000000,1.539],[1523894400000,1.54],[1523980800000,1.545],[1524067200000,1.544],[1524153600000,1.544],[1524412800000,1.544],[1524499200000,1.544],[1524585600000,1.544],[1524672000000,1.543],[1524758400000,1.543],[1525190400000,1.543],[1525276800000,1.543],[1525363200000,1.543],[1525622400000,1.544],[1525708800000,1.543],[1525795200000,1.543],[1525881600000,1.543],[1525968000000,1.542],[1526227200000,1.542],</t>
   </si>
   <si>
+    <t>[[1377187200000, 0.0], [1380038400000, 1.0], [1381766400000, 0.9], [1382889600000, -1.1], [1383840000000, -1.6], [1384963200000, -2.5], [1386086400000, -2.0], [1387209600000, -2.7], [1388332800000, -3.2], [1389542400000, -3.0], [1390492800000, -2.8], [1392220800000, -1.6], [1393344000000, -1.0], [1394467200000, -0.5], [1395590400000, -0.1], [1396540800000, 0.0], [1397750400000, 1.1], [1399219200000, 1.8], [1400169600000, 2.9], [1401292800000, 3.4], [1402502400000, 4.7], [1403625600000, 4.9], [1404748800000, 5.0], [1405872000000, 5.2], [1406822400000, 5.8], [1407945600000, 6.7], [1409068800000, 7.6], [1410278400000, 8.7], [1411401600000, 10.0], [1413129600000, 11.5], [1414080000000, 12.7], [1415203200000, 16.0], [1416326400000, 16.0], [1417449600000, 18.1], [1418572800000, 17.0], [1419523200000, 17.3], [1420992000000, 18.4], [1421942400000, 19.9], [1423065600000, 19.5], [1424793600000, 20.7], [1425916800000, 23.3], [1427040000000, 26.9], [1427990400000, 28.3], [1429200000000, 29.3], [1430323200000, 32.6], [1431532800000, 35.3], [1432656000000, 40.4], [1433779200000, 41.3], [1434988800000, 39.8], [1436112000000, 34.1], [1437062400000, 35.6], [1438185600000, 35.9], [1439308800000, 38.3], [1440432000000, 34.1], [1441728000000, 34.4], [1442851200000, 34.8], [1444579200000, 36.5], [1445529600000, 38.6], [1446652800000, 39.8], [1447776000000, 39.8], [1448899200000, 40.6], [1450022400000, 41.7], [1450972800000, 43.6], [1452182400000, 41.9], [1453305600000, 41.7], [1454428800000, 41.1], [1456156800000, 42.4], [1457280000000, 42.2], [1458230400000, 43.6], [1459353600000, 44.5], [1460563200000, 44.2], [1461686400000, 41.6], [1462896000000, 41.9], [1464019200000, 42.5], [1465142400000, 43.3], [1466438400000, 43.7], [1467561600000, 44.9], [1468512000000, 45.9], [1469635200000, 46.1], [1470758400000, 47.0], [1471881600000, 47.6], [1473004800000, 47.2], [1474300800000, 47.3], [1476028800000, 48.5], [1476979200000, 48.7], [1478102400000, 48.8], [1479225600000, 48.4], [1480348800000, 49.0], [1481472000000, 46.6], [1482422400000, 44.1], [1483545600000, 45.5], [1484668800000, 45.5], [1486396800000, 45.2], [1487520000000, 45.6], [1488470400000, 45.6], [1489593600000, 46.0], [1490716800000, 46.4], [1492012800000, 46.6], [1493136000000, 47.0], [1494345600000, 46.5], [1495468800000, 47.4], [1496764800000, 47.8], [1497888000000, 48.9], [1499011200000, 50.2], [1499961600000, 51.5], [1501084800000, 51.2], [1502208000000, 51.1], [1503331200000, 51.6], [1504454400000, 52.1], [1505404800000, 52.9], [1506528000000, 53.7], [1508256000000, 55.6], [1509379200000, 56.1], [1510502400000, 58.0], [1511452800000, 57.1], [1512576000000, 56.1], [1513699200000, 57.5], [1514822400000, 58.0], [1515945600000, 59.8], [1516896000000, 60.6], [1518019200000, 58.5], [1519747200000, 60.0], [1520870400000, 60.8], [1521993600000, 59.1], [1523289600000, 60.3], [1524412800000, 60.2], [1525708800000, 61.0], [1526832000000, 61.7], [1527782400000, 60.9], [1528905600000, 62.0], [1530115200000, 60.1], [1531152000000, 61.7], [1532275200000, 63.0], [1533225600000, 62.7], [1534348800000, 62.2], [1535472000000, 62.8], [1536595200000, 61.5], [1537804800000, 63.2], [1539532800000, 62.9], [1540483200000, 62.7], [1541606400000, 63.3], [1542729600000, 64.2], [1543852800000, 64.9], [1544976000000, 64.3], [1545926400000, 64.1], [1547136000000, 66.5], [1548259200000, 67.4], [1549987200000, 69.9], [1551110400000, 71.6], [1552233600000, 72.1], [1553184000000, 73.4], [1554307200000, 75.3], [1555516800000, 74.8], [1557072000000, 70.7], [1558022400000, 71.9], [1559145600000, 70.9], [1560355200000, 71.1], [1561478400000, 73.3], [1562515200000, 74.4], [1563465600000, 74.1], [1564588800000, 75.5], [1565712000000, 76.1], [1566835200000, 78.1], [1567958400000, 79.6], [1569168000000, 79.3], [1570723200000, 79.1], [1571846400000, 77.4], [1572969600000, 79.3], [1574092800000, 80.3], [1575216000000, 78.9], [1576166400000, 81.6], [1577289600000, 82.7], [1578499200000, 84.8], [1579622400000, 86.1], [1581436800000, 86.8], [1582560000000, 89.9], [1583683200000, 87.6], [1584633600000, 83.2], [1585756800000, 84.7], [1586966400000, 87.5], [1588089600000, 88.9], [1589472000000, 87.6], [1590595200000, 86.8], [1591718400000, 87.3], [1592841600000, 87.8], [1594137600000, 92.9], [1595260800000, 93.3], [1596384000000, 96.3], [1597334400000, 95.9], [1598457600000, 96.3], [1599580800000, 94.0], [1600704000000, 95.3], [1602518400000, 100.2], [1603641600000, 97.8], [1604592000000, 99.6], [1605715200000, 98.5], [1606838400000, 100.5], [1607961600000, 102.4], [1609084800000, 105.7], [1610294400000, 109.7], [1611244800000, 113.3], [1612368000000, 110.7], [1614096000000, 109.2], [1615219200000, 104.6], [1616342400000, 105.5], [1617292800000, 108.6], [1618502400000, 107.3], [1619625600000, 110.6], [1621180800000, 111.7], [1622131200000, 113.2], [1623254400000, 115.0], [1624464000000, 115.6], [1625587200000, 116.8], [1626710400000, 118.5], [1627833600000, 117.9], [1628438400000, 118.3]]</t>
+  </si>
+  <si>
     <t>000171</t>
   </si>
   <si>
@@ -179,13 +233,19 @@
     <t xml:space="preserve"> [[1377187200000,1.0],[1377792000000,0.997],[1378396800000,1.004],[1379001600000,1.005],[1379260800000,1.007],[1379347200000,1.004],[1379433600000,1.006],[1379865600000,1.011],[1379952000000,1.012],[1380038400000,1.01],[1380124800000,1.004],[1380211200000,1.002],[1380470400000,1.007],[1381161600000,1.011],[1381248000000,1.016],[1381334400000,1.012],[1381420800000,1.013],[1381680000000,1.013],[1381766400000,1.009],[1381852800000,1.004],[1381939200000,1.001],[1382025600000,1.002],[1382284800000,1.007],[1382371200000,1.002],[1382457600000,0.998],[1382544000000,0.995],[1382630400000,0.989],[1382889600000,0.989],[1382976000000,0.988],[1383062400000,0.989],[1383148800000,0.986],[1383235200000,0.986],[1383494400000,0.986],[1383580800000,0.987],[1383667200000,0.986],[1383753600000,0.986],[1383840000000,0.984],[1384099200000,0.981],[1384185600000,0.981],[1384272000000,0.979],[1384358400000,0.978],[1384444800000,0.977],[1384704000000,0.978],[1384790400000,0.977],[1384876800000,0.975],[1384963200000,0.975],[1385049600000,0.976],[1385308800000,0.975],[1385395200000,0.976],[1385481600000,0.978],[1385568000000,0.979],[1385654400000,0.981],[1385913600000,0.977],[1386000000000,0.978],[1386086400000,0.98],[1386172800000,0.978],[1386259200000,0.976],[1386518400000,0.976],[1386604800000,0.975],[1386691200000,0.974],[1386777600000,0.974],[1386864000000,0.975],[1387123200000,0.974],[1387209600000,0.973],[1387296000000,0.972],[1387382400000,0.97],[1387468800000,0.969],[1387728000000,0.968],[1387814400000,0.969],[1387900800000,0.969],[1387987200000,0.968],[1388073600000,0.969],[1388332800000,0.968],[1388419200000,0.968],[1388592000000,0.969],[1388678400000,0.968],[1388937600000,0.966],[1389024000000,0.967],[1389110400000,0.968],[1389196800000,0.97],[1389283200000,0.97],[1389542400000,0.97],[1389628800000,0.971],[1389715200000,0.971],[1389801600000,0.97],[1389888000000,0.97],[1390147200000,0.969],[1390233600000,0.969],[1390320000000,0.971],[1390406400000,0.971],[1390492800000,0.972],[1390752000000,0.976],[1390838400000,0.976],[1390924800000,0.977],[1391011200000,0.977],[1391702400000,0.979],[1391961600000,0.982],[1392048000000,0.982],[1392134400000,0.983],[1392220800000,0.984],[1392307200000,0.985],[1392566400000,0.986],[1392652800000,0.987],[1392739200000,0.987],[1392825600000,0.987],[1392912000000,0.987],[1393171200000,0.988],[1393257600000,0.988],[1393344000000,0.99],[1393430400000,0.992],[1393516800000,0.993],[1393776000000,0.995],[1393862400000,0.995],[1393948800000,0.993],[1394035200000,0.993],[1394121600000,0.994],[1394380800000,0.994],[1394467200000,0.995],[1394553600000,0.996],[1394640000000,0.997],[1394726400000,0.997],[1394985600000,0.998],[1395072000000,0.999],[1395158400000,0.997],[1395244800000,0.997],[1395331200000,0.999],[1395590400000,0.999],[1395676800000,0.999],[1395763200000,1.0],[1395849600000,1.0],[1395936000000,0.999],[1396195200000,0.999],[1396281600000,0.999],[1396368000000,0.999],[1396454400000,0.999],[1396540800000,1.0],[1396886400000,1.001],[1396972800000,1.001],[1397059200000,1.002],[1397145600000,1.003],[1397404800000,1.005],[1397491200000,1.006],[1397577600000,1.007],[1397664000000,1.01],[1397750400000,1.011],[1398009600000,1.012],[1398096000000,1.013],[1398182400000,1.013],[1398268800000,1.014],[1398355200000,1.014],[1398614400000,1.014],[1398700800000,1.015],[1398787200000,1.016],[1399219200000,1.018],[1399305600000,1.02],[1399392000000,1.021],[1399478400000,1.025],[1399564800000,1.028],[1399824000000,1.029],[1399910400000,1.03],[1399996800000,1.029],[1400083200000,1.029],[1400169600000,1.029],[1400428800000,1.029],[1400515200000,1.029],[1400601600000,1.03],[1400688000000,1.031],[1400774400000,1.029],[1401033600000,1.03],[1401120000000,1.031],[1401206400000,1.032],[1401292800000,1.034],[1401379200000,1.035],[1401724800000,1.036],[1401811200000,1.038],[1401897600000,1.039],[1401984000000,1.041],[1402243200000,1.044],[1402329600000,1.045],[1402416000000,1.047],[1402502400000,1.047],[1402588800000,1.048],[1402848000000,1.049],[1402934400000,1.05],[1403020800000,1.049],[1403107200000,1.048],[1403193600000,1.048],[1403452800000,1.051],[1403539200000,1.049],[1403625600000,1.049],[1403712000000,1.05],[1403798400000,1.051],[1404057600000,1.051],[1404144000000,1.049],[1404230400000,1.05],[1404316800000,1.05],[1404403200000,1.048],[1404662400000,1.051],[1404748800000,1.05],[1404835200000,1.051],[1404921600000,1.051],[1405008000000,1.052],[1405267200000,1.053],[1405353600000,1.053],[1405440000000,1.052],[1405526400000,1.052],[1405612800000,1.052],[1405872000000,1.052],[1405958400000,1.052],[1406044800000,1.052],[1406131200000,1.053],[1406217600000,1.053],[1406476800000,1.055],[1406563200000,1.056],[1406649600000,1.056],[1406736000000,1.058],[1406822400000,1.058],[1407081600000,1.06],[1407168000000,1.061],[1407254400000,1.063],[1407340800000,1.062],[1407427200000,1.063],[1407686400000,1.066],[1407772800000,1.066],[1407859200000,1.067],[1407945600000,1.067],[1408032000000,1.069],[1408291200000,1.07],[1408377600000,1.072],[1408464000000,1.072],[1408550400000,1.072],[1408636800000,1.073],[1408896000000,1.076],[1408982400000,1.074],[1409068800000,1.076],[1409155200000,1.076],[1409241600000,1.077],[1409500800000,1.079],[1409587200000,1.082],[1409673600000,1.084],[1409760000000,1.086],[1409846400000,1.087],[1410192000000,1.087],[1410278400000,1.087],[1410364800000,1.087],[1410451200000,1.091],[1410710400000,1.094],[1410796800000,1.089],[1410883200000,1.092],[1410969600000,1.095],[1411056000000,1.1],[1411315200000,1.097],[1411401600000,1.1],[1411488000000,1.102],[1411574400000,1.105],[1411660800000,1.105],[1411920000000,1.106],[1412006400000,1.11],[1412697600000,1.114],[1412784000000,1.114],[1412870400000,1.113],[1413129600000,1.115],[1413216000000,1.115],[1413302400000,1.118],[1413388800000,1.117],[1413475200000,1.12],[1413734400000,1.128],[1413820800000,1.128],[1413907200000,1.127],[1413993600000,1.127],[1414080000000,1.127],[1414339200000,1.133],[1414425600000,1.138],[1414512000000,1.143],[1414598400000,1.147],[1414684800000,1.147],[1414944000000,1.151],[1415030400000,1.156],[1415116800000,1.157],[1415203200000,1.16],[1415289600000,1.163],[1415548800000,1.169],[1415635200000,1.168],[1415721600000,1.168],[1415808000000,1.165],[1415894400000,1.161],[1416153600000,1.163],[1416240000000,1.16],[1416326400000,1.16],[1416412800000,1.161],[1416499200000,1.164],[1416758400000,1.174],[1416844800000,1.177],[1416931200000,1.177],[1417017600000,1.177],[1417104000000,1.18],[1417363200000,1.177],[1417449600000,1.181],[1417536000000,1.179],[1417622400000,1.185],[1417708800000,1.181],[1417968000000,1.182],[1418054400000,1.157],[1418140800000,1.164],[1418227200000,1.166],[1418313600000,1.167],[1418572800000,1.17],[1418659200000,1.171],[1418745600000,1.169],[1418832000000,1.172],[1418918400000,1.174],[1419177600000,1.168],[1419264000000,1.16],[1419350400000,1.16],[1419436800000,1.169],[1419523200000,1.173],[1419782400000,1.173],[1419868800000,1.171],[1419955200000,1.174],[1420387200000,1.179],[1420473600000,1.183],[1420560000000,1.188],[1420646400000,1.188],[1420732800000,1.187],[1420992000000,1.184],[1421078400000,1.187],[1421164800000,1.187],[1421251200000,1.189],[1421337600000,1.193],[1421596800000,1.188],[1421683200000,1.194],[1421769600000,1.197],[1421856000000,1.2],[1421942400000,1.199],[1422201600000,1.202],[1422288000000,1.203],[1422374400000,1.201],[1422460800000,1.201],[1422547200000,1.199],[1422806400000,1.195],[1422892800000,1.197],[1422979200000,1.197],[1423065600000,1.195],[1423152000000,1.192],[1423411200000,1.195],[1423497600000,1.197],[1423584000000,1.199],[1423670400000,1.2],[1423756800000,1.202],[1424016000000,1.206],[1424102400000,1.209],[1424793600000,1.207],[1424880000000,1.214],[1424966400000,1.217],[1425225600000,1.224],[1425312000000,1.228],[1425398400000,1.23],[1425484800000,1.231],[1425571200000,1.226],[1425830400000,1.23],[1425916800000,1.233],[1426003200000,1.233],[1426089600000,1.23],[1426176000000,1.233],[1426435200000,1.24],[1426521600000,1.245],[1426608000000,1.252],[1426694400000,1.257],[1426780800000,1.262],[1427040000000,1.269],[1427126400000,1.269],[1427212800000,1.271],[1427299200000,1.266],[1427385600000,1.267],[1427644800000,1.269],[1427731200000,1.267],[1427817600000,1.274],[1427904000000,1.279],[1427990400000,1.283],[1428336000000,1.286],[1428422400000,1.279],[1428508800000,1.275],[1428595200000,1.282],[1428854400000,1.287],[1428940800000,1.288],[1429027200000,1.283],[1429113600000,1.287],[1429200000000,1.293],[1429459200000,1.295],[1429545600000,1.307],[1429632000000,1.316],[1429718400000,1.319],[1429804800000,1.316],[1430064000000,1.321],[1430150400000,1.315],[1430236800000,1.322],[1430323200000,1.326],[1430668800000,1.33],[1430755200000,1.321],[1430841600000,1.319],[1430928000000,1.317],[1431014400000,1.326],[1431273600000,1.338],[1431360000000,1.344],[1431446400000,1.347],[1431532800000,1.353],[1431619200000,1.351],[1431878400000,1.356],[1431964800000,1.361],[1432051200000,1.368],[1432137600000,1.378],[1432224000000,1.382],[1432483200000,1.39],[1432569600000,1.401],[1432656000000,1.404],[1432742400000,1.382],[1432828800000,1.385],[1433088000000,1.4],[1433174400000,1.41],[1433260800000,1.414],[1433347200000,1.412],[1433433600000,1.415],[1433692800000,1.412],[1433779200000,1.413],[1433865600000,1.42],[1433952000000,1.426],[1434038400000,1.428],[1434297600000,1.425],[1434384000000,1.411],[1434470400000,1.417],[1434556800000,1.409],[1434643200000,1.395],[1434988800000,1.398],[1435075200000,1.401],[1435161600000,1.395],[1435248000000,1.382],[1435507200000,1.371],[1435593600000,1.377],[1435680000000,1.368],[1435766400000,1.357],[1435852800000,1.345],[1436112000000,1.341],[1436198400000,1.323],[1436284800000,1.303],[1436371200000,1.311],[1436457600000,1.323],[1436716800000,1.339],[1436803200000,1.345],[1436889600000,1.337],[1436976000000,1.343],[1437062400000,1.356],[1437321600000,1.363],[1437408000000,1.368],[1437494400000,1.374],[1437580800000,1.382],[1437667200000,1.377],[1437926400000,1.358],[1438012800000,1.35],[1438099200000,1.364],[1438185600000,1.359],[1438272000000,1.353],[1438531200000,1.348],[1438617600000,1.363],[1438704000000,1.361],[1438790400000,1.362],[1438876800000,1.374],[1439136000000,1.388],[1439222400000,1.384],[1439308800000,1.383],[1439395200000,1.387],[1439481600000,1.391],[1439740800000,1.396],[1439827200000,1.378],[1439913600000,1.383],[1440000000000,1.374],[1440086400000,1.364],[1440345600000,1.351],[1440432000000,1.341],[1440518400000,1.329],[1440604800000,1.338],[1440691200000,1.35],[1440950400000,1.345],[1441036800000,1.335],[1441123200000,1.333],[1441555200000,1.336],[1441641600000,1.341],[1441728000000,1.344],[1441814400000,1.343],[1441900800000,1.344],[1442160000000,1.338],[1442246400000,1.334],[1442332800000,1.341],[1442419200000,1.341],[1442505600000,1.343],[1442764800000,1.347],[1442851200000,1.348],[1442937600000,1.347],[1443024000000,1.348],[1443110400000,1.345],[1443369600000,1.348],[1443456000000,1.351],[1443542400000,1.352],[1444233600000,1.36],[1444320000000,1.361],[1444579200000,1.365],[1444665600000,1.371],[1444752000000,1.371],[1444838400000,1.375],[1444924800000,1.377],[1445184000000,1.378],[1445270400000,1.383],[1445356800000,1.375],[1445443200000,1.38],[1445529600000,1.386],[1445788800000,1.391],[1445875200000,1.393],[1445961600000,1.392],[1446048000000,1.394],[1446134400000,1.395],[1446393600000,1.394],[1446480000000,1.393],[1446566400000,1.399],[1446652800000,1.398],[1446739200000,1.402],[1446998400000,1.4],[1447084800000,1.398],[1447171200000,1.4],[1447257600000,1.402],[1447344000000,1.398],[1447603200000,1.4],[1447689600000,1.401],[1447776000000,1.398],[1447862400000,1.401],[1447948800000,1.401],[1448208000000,1.4],[1448294400000,1.404],[1448380800000,1.406],[1448467200000,1.406],[1448553600000,1.399],[1448812800000,1.403],[1448899200000,1.406],[1448985600000,1.405],[1449072000000,1.409],[1449158400000,1.412],[1449417600000,1.415],[1449504000000,1.413],[1449590400000,1.413],[1449676800000,1.413],[1449763200000,1.415],[1450022400000,1.417],[1450108800000,1.418],[1450195200000,1.419],[1450281600000,1.423],[1450368000000,1.423],[1450627200000,1.428],[1450713600000,1.432],[1450800000000,1.432],[1450886400000,1.435],[1450972800000,1.436],[1451232000000,1.434],[1451318400000,1.435],[1451404800000,1.437],[1451491200000,1.435],[1451836800000,1.424],[1451923200000,1.423],[1452009600000,1.425],[1452096000000,1.417],[1452182400000,1.419],[1452441600000,1.411],[1452528000000,1.414],[1452614400000,1.413],[1452700800000,1.417],[1452787200000,1.414],[1453046400000,1.417],[1453132800000,1.42],[1453219200000,1.419],[1453305600000,1.417],[1453392000000,1.42],[1453651200000,1.419],[1453737600000,1.413],[1453824000000,1.411],[1453910400000,1.407],[1453996800000,1.411],[1454256000000,1.41],[1454342400000,1.412],[1454428800000,1.411],[1454515200000,1.413],[1454601600000,1.413],[1455465600000,1.416],[1455552000000,1.418],[1455638400000,1.419],[1455724800000,1.419],[1455811200000,1.422],[1456070400000,1.424],[1456156800000,1.424],[1456243200000,1.424],[1456329600000,1.418],[1456416000000,1.418],[1456675200000,1.416],[1456761600000,1.417],[1456848000000,1.42],[1456934400000,1.422],[1457020800000,1.419],[1457280000000,1.422],[1457366400000,1.423],[1457452800000,1.424],[1457539200000,1.424],[1457625600000,1.424],[1457884800000,1.428],[1457971200000,1.428],[1458057600000,1.429],[1458144000000,1.433],[1458230400000,1.436],[1458489600000,1.439],[1458576000000,1.44],[1458662400000,1.44],[1458748800000,1.44],[1458835200000,1.441],[1459094400000,1.44],[1459180800000,1.438],[1459267200000,1.444],[1459353600000,1.445],[1459440000000,1.446],[1459785600000,1.45],[1459872000000,1.451],[1459958400000,1.448],[1460044800000,1.449],[1460304000000,1.449],[1460390400000,1.446],[1460476800000,1.445],[1460563200000,1.442],[1460649600000,1.44],[1460908800000,1.438],[1460995200000,1.437],[1461081600000,1.429],[1461168000000,1.424],[1461254400000,1.423],[1461513600000,1.416],[1461600000000,1.415],[1461686400000,1.416],[1461772800000,1.417],[1461859200000,1.418],[1462204800000,1.422],[1462291200000,1.422],[1462377600000,1.424],[1462464000000,1.421],[1462723200000,1.418],[1462809600000,1.419],[1462896000000,1.419],[1462982400000,1.42],[1463068800000,1.421],[1463328000000,1.422],[1463414400000,1.423],[1463500800000,1.421],[1463587200000,1.422],[1463673600000,1.425],[1463932800000,1.428],[1464019200000,1.425],[1464105600000,1.428],[1464192000000,1.43],[1464278400000,1.43],[1464537600000,1.428],[1464624000000,1.43],[1464710400000,1.432],[1464796800000,1.432],[1464883200000,1.432],[1465142400000,1.433],[1465228800000,1.433],[1465315200000,1.432],[1465747200000,1.427],[1465833600000,1.428],[1465920000000,1.433],[1466006400000,1.432],[1466092800000,1.434],[1466352000000,1.436],[1466438400000,1.437],[1466524800000,1.439],[1466611200000,1.438],[1466697600000,1.438],[1466956800000,1.442],[1467043200000,1.443],[1467129600000,1.444],[1467216000000,1.446],[1467302400000,1.447],[1467561600000,1.449],[1467648000000,1.451],[1467734400000,1.452],[1467820800000,1.453],[1467907200000,1.454],[1468166400000,1.454],[1468252800000,1.458],[1468339200000,1.459],[1468425600000,1.459],[1468512000000,1.459],[1468771200000,1.46],[1468857600000,1.46],[1468944000000,1.461],[1469030400000,1.462],[1469116800000,1.46],[1469376000000,1.46],[1469462400000,1.463],[1469548800000,1.459],[1469635200000,1.461],[1469721600000,1.461],[1469980800000,1.457],[1470067200000,1.459],[1470153600000,1.462],[1470240000000,1.463],[1470326400000,1.462],[1470585600000,1.468],[1470672000000,1.471],[1470758400000,1.47],[1470844800000,1.467],[1470931200000,1.471],[1471190400000,1.477],[1471276800000,1.478],[1471363200000,1.479],[1471449600000,1.477],[1471536000000,1.476],[1471795200000,1.476],[1471881600000,1.476],[1471968000000,1.475],[1472054400000,1.472],[1472140800000,1.473],[1472400000000,1.475],[1472486400000,1.473],[1472572800000,1.473],[1472659200000,1.472],[1472745600000,1.47],[1473004800000,1.472],[1473091200000,1.474],[1473177600000,1.474],[1473264000000,1.475],[1473350400000,1.473],[1473609600000,1.47],[1473696000000,1.471],[1473782400000,1.47],[1474214400000,1.473],[1474300800000,1.473],[1474387200000,1.473],[1474473600000,1.474],[1474560000000,1.475],[1474819200000,1.474],[1474905600000,1.474],[1474992000000,1.474],[1475078400000,1.476],[1475164800000,1.478],[1476028800000,1.485],[1476115200000,1.485],[1476201600000,1.485],[1476288000000,1.485],[1476374400000,1.485],[1476633600000,1.486],[1476720000000,1.486],[1476806400000,1.486],[1476892800000,1.487],[1476979200000,1.487],[1477238400000,1.488],[1477324800000,1.488],[1477411200000,1.486],[1477497600000,1.485],[1477584000000,1.486],[1477843200000,1.485],[1477929600000,1.487],[1478016000000,1.487],[1478102400000,1.488],[1478188800000,1.487],[1478448000000,1.487],[1478534400000,1.486],[1478620800000,1.487],[1478707200000,1.487],[1478793600000,1.486],[1479052800000,1.484],[1479139200000,1.484],[1479225600000,1.484],[1479312000000,1.483],[1479398400000,1.482],[1479657600000,1.482],[1479744000000,1.484],[1479830400000,1.487],[1479916800000,1.489],[1480003200000,1.491],[1480262400000,1.491],[1480348800000,1.49],[1480435200000,1.487],[1480521600000,1.487],[1480608000000,1.48],[1480867200000,1.475],[1480953600000,1.473],[1481040000000,1.472],[1481126400000,1.473],[1481212800000,1.474],[1481472000000,1.466],[1481558400000,1.463],[1481644800000,1.458],[1481731200000,1.447],[1481817600000,1.446],[1482076800000,1.441],[1482163200000,1.436],[1482249600000,1.437],[1482336000000,1.44],[1482422400000,1.441],[1482681600000,1.443],[1482768000000,1.445],[1482854400000,1.445],[1482940800000,1.446],[1483027200000,1.448],[1483113600000,1.449],[1483372800000,1.452],[1483459200000,1.454],[1483545600000,1.455],[1483632000000,1.454],[1483891200000,1.455],[1483977600000,1.456],[1484064000000,1.455],[1484150400000,1.455],[1484236800000,1.456],[1484496000000,1.456],[1484582400000,1.455],[1484668800000,1.455],[1484755200000,1.454],[1484841600000,1.455],[1485100800000,1.455],[1485187200000,1.456],[1485273600000,1.456],[1485360000000,1.457],[1486051200000,1.456],[1486310400000,1.454],[1486396800000,1.452],[1486483200000,1.451],[1486569600000,1.451],[1486656000000,1.452],[1486915200000,1.453],[1487001600000,1.453],[1487088000000,1.453],[1487174400000,1.453],[1487260800000,1.453],[1487520000000,1.456],[1487606400000,1.456],[1487692800000,1.456],[1487779200000,1.456],[1487865600000,1.457],[1488124800000,1.456],[1488211200000,1.456],[1488297600000,1.456],[1488384000000,1.456],[1488470400000,1.456],[1488729600000,1.457],[1488816000000,1.457],[1488902400000,1.457],[1488988800000,1.456],[1489075200000,1.457],[1489334400000,1.458],[1489420800000,1.457],[1489507200000,1.459],[1489593600000,1.46],[1489680000000,1.459],[1489939200000,1.46],[1490025600000,1.462],[1490112000000,1.462],[1490198400000,1.464],[1490284800000,1.465],[1490544000000,1.464],[1490630400000,1.463],[1490716800000,1.464],[1490803200000,1.463],[1490889600000,1.465],[1491321600000,1.467],[1491408000000,1.467],[1491494400000,1.467],[1491753600000,1.466],[1491840000000,1.465],[1491926400000,1.465],[1492012800000,1.466],[1492099200000,1.464],[1492358400000,1.464],[1492444800000,1.465],[1492531200000,1.466],[1492617600000,1.468],[1492704000000,1.467],[1492963200000,1.465],[1493049600000,1.469],[1493136000000,1.47],[1493222400000,1.47],[1493308800000,1.469],[1493654400000,1.47],[1493740800000,1.469],[1493827200000,1.469],[1493913600000,1.468],[1494172800000,1.466],[1494259200000,1.466],[1494345600000,1.465],[1494432000000,1.466],[1494518400000,1.467],[1494777600000,1.47],[1494864000000,1.473],[1494950400000,1.471],[1495036800000,1.47],[1495123200000,1.471],[1495382400000,1.473],[1495468800000,1.474],[1495555200000,1.473],[1495641600000,1.473],[1495728000000,1.472],[1496160000000,1.473],[1496246400000,1.474],[1496332800000,1.473],[1496592000000,1.474],[1496678400000,1.477],[1496764800000,1.478],[1496851200000,1.483],[1496937600000,1.483],[1497196800000,1.484],[1497283200000,1.486],[1497369600000,1.483],[1497456000000,1.483],[1497542400000,1.483],[1497801600000,1.487],[1497888000000,1.489],[1497974400000,1.494],[1498060800000,1.494],[1498147200000,1.499],[1498406400000,1.504],[1498492800000,1.506],[1498579200000,1.501],[1498665600000,1.505],[1498752000000,1.505],[1499011200000,1.502],[1499097600000,1.504],[1499184000000,1.51],[1499270400000,1.511],[1499356800000,1.511],[1499616000000,1.509],[1499702400000,1.513],[1499788800000,1.514],[1499875200000,1.513],[1499961600000,1.515],[1500220800000,1.514],[1500307200000,1.513],[1500393600000,1.516],[1500480000000,1.518],[1500566400000,1.516],[1500825600000,1.518],[1500912000000,1.515],[1500998400000,1.511],[1501084800000,1.512],[1501171200000,1.514],[1501430400000,1.514],[1501516800000,1.514],[1501603200000,1.514],[1501689600000,1.509],[1501776000000,1.508],[1502035200000,1.51],[1502121600000,1.509],[1502208000000,1.511],[1502294400000,1.511],[1502380800000,1.509],[1502640000000,1.513],[1502726400000,1.514],[1502812800000,1.512],[1502899200000,1.511],[1502985600000,1.514],[1503244800000,1.515],[1503331200000,1.516],[1503417600000,1.516],[1503504000000,1.515],[1503590400000,1.516],[1503849600000,1.52],[1503936000000,1.523],[1504022400000,1.522],[1504108800000,1.521],[1504195200000,1.52],[1504454400000,1.521],[1504540800000,1.522],[1504627200000,1.521],[1504713600000,1.523],[1504800000000,1.526],[1505059200000,1.525],[1505145600000,1.527],[1505232000000,1.527],[1505318400000,1.527],[1505404800000,1.529],[1505664000000,1.531],[1505750400000,1.529],[1505836800000,1.53],[1505923200000,1.532],[1506009600000,1.534],[1506268800000,1.533],[1506355200000,1.534],[1506441600000,1.534],[1506528000000,1.537],[1506614400000,1.539],[1507478400000,1.543],[1507564800000,1.541],[1507651200000,1.545],[1507737600000,1.551],[1507824000000,1.551],[1508083200000,1.549],[1508169600000,1.549],[1508256000000,1.556],[1508342400000,1.555],[1508428800000,1.554],[1508688000000,1.555],[1508774400000,1.558],[1508860800000,1.561],[1508947200000,1.561],[1509033600000,1.564],[1509292800000,1.562],[1509379200000,1.561],[1509465600000,1.557],[1509552000000,1.559],[1509638400000,1.561],[1509897600000,1.567],[1509984000000,1.57],[1510070400000,1.565],[1510156800000,1.573],[1510243200000,1.581],[1510502400000,1.58],[1510588800000,1.577],[1510675200000,1.574],[1510761600000,1.581],[1510848000000,1.58],[1511107200000,1.585],[1511193600000,1.595],[1511280000000,1.589],[1511366400000,1.57],[1511452800000,1.571],[1511712000000,1.566],[1511798400000,1.567],[1511884800000,1.566],[1511971200000,1.559],[1512057600000,1.558],[1512316800000,1.563],[1512403200000,1.566],[1512489600000,1.566],[1512576000000,1.561],[1512662400000,1.567],[1512921600000,1.575],[1513008000000,1.572],[1513094400000,1.577],[1513180800000,1.576],[1513267200000,1.571],[1513526400000,1.57],[1513612800000,1.576],[1513699200000,1.575],[1513785600000,1.579],[1513872000000,1.578],[1514131200000,1.578],[1514217600000,1.578],[1514304000000,1.571],[1514390400000,1.572],[1514476800000,1.573],[1514649600000,1.573],[1514822400000,1.58],[1514908800000,1.581],[1514995200000,1.583],[1515081600000,1.584],[1515340800000,1.583],[1515427200000,1.589],[1515513600000,1.59],[1515600000000,1.59],[1515686400000,1.594],[1515945600000,1.598],[1516032000000,1.601],[1516118400000,1.595],[1516204800000,1.596],[1516291200000,1.596],[1516550400000,1.606],[1516636800000,1.608],[1516723200000,1.605],[1516809600000,1.603],[1516896000000,1.606],[1517155200000,1.6],[1517241600000,1.599],[1517328000000,1.6],[1517414400000,1.599],[1517500800000,1.602],[1517760000000,1.602],[1517846400000,1.594],[1517932800000,1.584],[1518019200000,1.585],[1518105600000,1.575],[1518364800000,1.582],[1518451200000,1.587],[1518537600000,1.591],[1519228800000,1.602],[1519315200000,1.603],[1519574400000,1.609],[1519660800000,1.603],[1519747200000,1.6],[1519833600000,1.601],[1519920000000,1.6],[1520179200000,1.598],[1520265600000,1.604],[1520352000000,1.6],[1520438400000,1.606],[1520524800000,1.608],[1520784000000,1.61],[1520870400000,1.608],[1520956800000,1.606],[1521043200000,1.608],[1521129600000,1.605],[1521388800000,1.605],[1521475200000,1.605],[1521561600000,1.604],[1521648000000,1.599],[1521734400000,1.592],[1521993600000,1.591],[1522080000000,1.592],[1522166400000,1.586],[1522252800000,1.592],[1522339200000,1.594],[1522598400000,1.595],[1522684800000,1.594],[1522771200000,1.594],[1523203200000,1.594],[1523289600000,1.603],[1523376000000,1.606],[1523462400000,1.604],[1523548800000,1.601],[1523808000000,1.596],[1523894400000,1.591],[1523980800000,1.598],[1524067200000,1.605],[1524153600000,1.602],[1524412800000,1.602],[1524499200000,1.61],[1524585600000,1.609],[1524672000000,1.6],[1524758400000,1.596],[1525190400000,1.598],[1525276800000,1.599],[1525363200000,1.601],[1525622400000,1.607],[1525708800000,1.61],[1525795200000,1.609],[1525881600000,1.61],[1525968000000,1.607],[1526227200000,1.609],[1526313600000,1.611],[1526400000000,1.61],[1526486400000,1.609],[1526572800000,1.614],[1526832000000,1.617],[1526918400000,1.618],[1527004800000,1.613],[1527091200000,1.611],[1527177600000,1.61],[1527436800000,1.612],[1527523200000,1.61],[1527609600000,1.607],[1527696000000,1.614],[1527782400000,1.609],[1528041600000,1.614],[1528128000000,1.618],[1528214400000,1.618],[1528300800000,1.618],[1528387200000,1.618],[1528646400000,1.618],[1528732800000,1.622],[1528819200000,1.621],[1528905600000,1.62],[1528992000000,1.617],[1529337600000,1.609],[1529424000000,1.611],[1529510400000,1.61],[1529596800000,1.612],[1529856000000,1.611],[1529942400000,1.608],[1530028800000,1.603],[1530115200000,1.601],[1530201600000,1.609],[1530288000000,1.609],[1530460800000,1.606],[1530547200000,1.606],[1530633600000,1.606],[1530720000000,1.605],[1530806400000,1.607],[1531065600000,1.615],[1531152000000,1.617],[1531238400000,1.616],[1531324800000,1.62],[1531411200000,1.623],[1531670400000,1.623],[1531756800000,1.622],[1531843200000,1.621],[1531929600000,1.623],[1532016000000,1.626],[1532275200000,1.63],[1532361600000,1.633],[1532448000000,1.633],[1532534400000,1.63],[1532620800000,1.631],[1532880000000,1.635],[1532966400000,1.638],[1533052800000,1.634],[1533139200000,1.631],[1533225600000,1.627],[1533484800000,1.625],[1533571200000,1.634],[1533657600000,1.63],[1533744000000,1.634],[1533830400000,1.634],[1534089600000,1.633],[1534176000000,1.631],[1534262400000,1.625],[1534348800000,1.622],[1534435200000,1.616],[1534694400000,1.617],[1534780800000,1.623],[1534867200000,1.622],[1534953600000,1.623],[1535040000000,1.624],[1535299200000,1.63],[1535385600000,1.63],[1535472000000,1.628],[1535558400000,1.628],[1535644800000,1.625],[1535904000000,1.623],[1535990400000,1.626],[1536076800000,1.621],[1536163200000,1.619],[1536249600000,1.62],[1536508800000,1.617],[1536595200000,1.615],[1536681600000,1.612],[1536768000000,1.616],[1536854400000,1.617],[1537113600000,1.616],[1537200000000,1.622],[1537286400000,1.626],[1537372800000,1.626],[1537459200000,1.632],[1537804800000,1.632],[1537891200000,1.635],[1537977600000,1.635],[1538064000000,1.638],[1538928000000,1.631],[1539014400000,1.631],[1539100800000,1.632],[1539187200000,1.626],[1539273600000,1.633],[1539532800000,1.629],[1539619200000,1.627],[1539705600000,1.628],[1539792000000,1.624],[1539878400000,1.631],[1540137600000,1.64],[1540224000000,1.633],[1540310400000,1.631],[1540396800000,1.629],[1540483200000,1.627],[1540742400000,1.617],[1540828800000,1.62],[1540915200000,1.625],[1541001600000,1.628],[1541088000000,1.637],[1541347200000,1.635],[1541433600000,1.634],[1541520000000,1.634],[1541606400000,1.633],[1541692800000,1.632],[1541952000000,1.635],[1542038400000,1.637],[1542124800000,1.638],[1542211200000,1.641],[1542297600000,1.644],[1542556800000,1.645],[1542643200000,1.642],[1542729600000,1.642],[1542816000000,1.642],[1542902400000,1.639],[1543161600000,1.639],[1543248000000,1.639],[1543334400000,1.641],[1543420800000,1.641],[1543507200000,1.643],[1543766400000,1.648],[1543852800000,1.649],[1543939200000,1.649],[1544025600000,1.647],[1544112000000,1.648],[1544371200000,1.648],[1544457600000,1.647],[1544544000000,1.649],[1544630400000,1.65],[1544716800000,1.647],[1544976000000,1.643],[1545062400000,1.639],[1545148800000,1.638],[1545235200000,1.638],[1545321600000,1.637],[1545580800000,1.64],[1545667200000,1.64],[1545753600000,1.639],[1545840000000,1.64],[1545926400000,1.641],[1546185600000,1.641],[1546358400000,1.642],[1546444800000,1.642],[1546531200000,1.648],[1546790400000,1.653],[1546876800000,1.656],[1546963200000,1.662],[1547049600000,1.664],[1547136000000,1.665],[1547395200000,1.663],[1547481600000,1.667],[1547568000000,1.669],[1547654400000,1.668],[1547740800000,1.673],[1548000000000,1.675],[1548086400000,1.671],[1548172800000,1.672],[1548259200000,1.674],[1548345600000,1.676],[1548604800000,1.679],[1548691200000,1.678],[1548777600000,1.677],[1548864000000,1.68],[1548950400000,1.685],[1549814400000,1.693],[1549900800000,1.695],[1549987200000,1.699],[1550073600000,1.7],[1550160000000,1.695],[1550419200000,1.706],[1550505600000,1.704],[1550592000000,1.706],[1550678400000,1.705],[1550764800000,1.709],[1551024000000,1.721],[1551110400000,1.716],[1551196800000,1.711],[1551283200000,1.711],[1551369600000,1.715],[1551628800000,1.718],[1551715200000,1.721],[1551801600000,1.722],[1551888000000,1.717],[1551974400000,1.712],[1552233600000,1.721],[1552320000000,1.726],[1552406400000,1.721],[1552492800000,1.72],[1552579200000,1.726],[1552838400000,1.734],[1552924800000,1.733],[1553011200000,1.735],[1553097600000,1.734],[1553184000000,1.734],[1553443200000,1.727],[1553529600000,1.721],[1553616000000,1.725],[1553702400000,1.725],[1553788800000,1.737],[1554048000000,1.748],[1554134400000,1.746],[1554220800000,1.749],[1554307200000,1.753],[1554652800000,1.754],[1554739200000,1.754],[1554825600000,1.755],[1554912000000,1.744],[1554998400000,1.743],[1555257600000,1.738],[1555344000000,1.744],[1555430400000,1.748],[1555516800000,1.748],[1555603200000,1.753],[1555862400000,1.743],[1555948800000,1.742],[1556035200000,1.741],[1556121600000,1.731],[1556208000000,1.722],[1556467200000,1.725],[1556553600000,1.732],[1557072000000,1.707],[1557158400000,1.718],[1557244800000,1.713],[1557331200000,1.707],[1557417600000,1.727],[1557676800000,1.718],[1557763200000,1.717],[1557849600000,1.728],[1557936000000,1.731],[1558022400000,1.719],[1558281600000,1.711],[1558368000000,1.719],[1558454400000,1.718],[1558540800000,1.707],[1558627200000,1.707],[1558886400000,1.711],[1558972800000,1.713],[1559059200000,1.712],[1559145600000,1.709],[1559232000000,1.709],[1559491200000,1.709],[1559577600000,1.703],[1559664000000,1.702],[1559750400000,1.7],[1560096000000,1.706],[1560182400000,1.717],[1560268800000,1.714],[1560355200000,1.711],[1560441600000,1.706],[1560700800000,1.707],[1560787200000,1.708],[1560873600000,1.714],[1560960000000,1.726],[1561046400000,1.728],[1561305600000,1.732],[1561392000000,1.731],[1561478400000,1.733],[1561564800000,1.738],[1561651200000,1.739],[1561824000000,1.739],[1561910400000,1.754],[1561996800000,1.756],[1562083200000,1.753],[1562169600000,1.75],[1562256000000,1.753],[1562515200000,1.744],[1562601600000,1.744],[1562688000000,1.745],[1562774400000,1.744],[1562860800000,1.747],[1563120000000,1.747],[1563206400000,1.743],[1563292800000,1.745],[1563379200000,1.739],[1563465600000,1.741],[1563724800000,1.741],[1563811200000,1.744],[1563897600000,1.748],[1563984000000,1.753],[1564070400000,1.757],[1564329600000,1.758],[1564416000000,1.759],[1564502400000,1.757],[1564588800000,1.755],[1564675200000,1.754],[1564934400000,1.748],[1565020800000,1.747],[1565107200000,1.747],[1565193600000,1.753],[1565280000000,1.752],[1565539200000,1.76],[1565625600000,1.759],[1565712000000,1.761],[1565798400000,1.764],[1565884800000,1.766],[1566144000000,1.773],[1566230400000,1.773],[1566316800000,1.774],[1566403200000,1.776],[1566489600000,1.778],[1566748800000,1.775],[1566835200000,1.781],[1566921600000,1.779],[1567008000000,1.777],[1567094400000,1.777],[1567353600000,1.782],[1567440000000,1.782],[1567526400000,1.784],[1567612800000,1.788],[1567699200000,1.792],[1567958400000,1.796],[1568044800000,1.798],[1568131200000,1.793],[1568217600000,1.795],[1568563200000,1.795],[1568649600000,1.788],[1568736000000,1.79],[1568822400000,1.792],[1568908800000,1.795],[1569168000000,1.793],[1569254400000,1.796],[1569340800000,1.789],[1569427200000,1.783],[1569513600000,1.785],[1569772800000,1.783],[1570464000000,1.785],[1570550400000,1.785],[1570636800000,1.791],[1570723200000,1.791],[1570982400000,1.794],[1571068800000,1.789],[1571155200000,1.787],[1571241600000,1.787],[1571328000000,1.78],[1571587200000,1.779],[1571673600000,1.781],[1571760000000,1.777],[1571846400000,1.774],[1571932800000,1.778],[157219200</t>
   </si>
   <si>
+    <t>[[1432828800000, 0.0], [1434297600000, 0.8], [1435161600000, 0.4], [1436112000000, -0.4], [1436889600000, -0.9], [1437667200000, -0.6], [1438617600000, -0.3], [1439395200000, -0.2], [1440345600000, 0.1], [1441123200000, 0.3], [1442246400000, 0.5], [1443024000000, 1.0], [1444579200000, 1.6], [1445356800000, 2.3], [1446134400000, 3.2], [1447084800000, 2.6], [1447862400000, 2.8], [1448812800000, 2.9], [1449590400000, 3.8], [1450368000000, 4.3], [1451318400000, 5.5], [1452182400000, 5.8], [1453132800000, 6.0], [1453910400000, 5.3], [1455465600000, 5.7], [1456243200000, 6.2], [1457020800000, 6.2], [1457971200000, 6.7], [1458748800000, 7.2], [1459785600000, 7.6], [1460563200000, 7.3], [1461513600000, 6.1], [1462377600000, 6.4], [1463328000000, 6.3], [1464105600000, 6.5], [1464883200000, 6.8], [1466006400000, 7.0], [1466956800000, 7.6], [1467734400000, 8.2], [1468512000000, 8.9], [1469462400000, 9.2], [1470240000000, 9.3], [1471190400000, 10.0], [1471968000000, 10.1], [1472745600000, 10.0], [1473696000000, 10.2], [1474819200000, 10.3], [1476201600000, 10.5], [1476979200000, 10.3], [1477929600000, 10.8], [1478707200000, 11.4], [1479657600000, 11.9], [1480435200000, 11.9], [1481212800000, 11.3], [1482163200000, 8.2], [1482940800000, 9.0], [1483891200000, 10.1], [1484668800000, 10.0], [1486051200000, 10.7], [1487001600000, 11.2], [1487779200000, 12.2], [1488729600000, 13.1], [1489507200000, 13.8], [1490284800000, 15.2], [1491408000000, 15.5], [1492358400000, 14.9], [1493136000000, 15.9], [1494172800000, 14.9], [1494950400000, 16.4], [1495728000000, 15.7], [1496851200000, 18.7], [1497801600000, 19.1], [1498579200000, 21.0], [1499356800000, 22.2], [1500307200000, 21.3], [1501084800000, 22.6], [1502035200000, 22.2], [1502812800000, 23.3], [1503590400000, 23.2], [1504540800000, 25.1], [1505318400000, 25.2], [1506268800000, 25.5], [1507651200000, 28.0], [1508428800000, 29.2], [1509379200000, 31.7], [1510156800000, 34.0], [1511107200000, 35.6], [1511884800000, 32.4], [1512662400000, 32.1], [1513612800000, 32.8], [1514390400000, 32.7], [1515340800000, 35.0], [1516118400000, 33.4], [1516896000000, 35.8], [1517846400000, 31.2], [1519228800000, 34.4], [1520179200000, 35.9], [1520956800000, 36.8], [1521734400000, 32.8], [1522684800000, 35.4], [1523808000000, 36.2], [1524585600000, 35.1], [1525708800000, 37.4], [1526486400000, 37.0], [1527436800000, 37.3], [1528214400000, 35.8], [1528992000000, 33.7], [1530028800000, 30.4], [1530720000000, 29.0], [1531670400000, 31.9], [1532448000000, 34.3], [1533225600000, 28.5], [1534176000000, 29.6], [1534953600000, 28.1], [1535904000000, 28.3], [1536681600000, 25.0], [1537459200000, 28.0], [1539100800000, 25.3], [1539878400000, 23.7], [1540828800000, 22.6], [1541606400000, 26.2], [1542556800000, 29.1], [1543334400000, 27.4], [1544112000000, 28.4], [1545062400000, 27.0], [1545840000000, 26.0], [1546876800000, 27.0], [1547654400000, 28.9], [1548604800000, 31.6], [1549987200000, 35.8], [1550764800000, 41.0], [1551715200000, 44.9], [1552492800000, 44.3], [1553443200000, 45.8], [1554220800000, 50.6], [1555257600000, 48.4], [1556035200000, 50.7], [1557244800000, 43.2], [1558022400000, 43.0], [1558972800000, 43.2], [1559750400000, 40.4], [1560787200000, 40.9], [1561564800000, 47.4], [1562256000000, 49.5], [1563206400000, 49.0], [1563984000000, 53.1], [1564934400000, 51.7], [1565712000000, 53.9], [1566489600000, 58.6], [1567440000000, 60.9], [1568217600000, 62.3], [1569254400000, 64.6], [1570636800000, 64.0], [1571587200000, 63.9], [1572364800000, 66.6], [1573142400000, 69.5], [1574092800000, 70.7], [1574870400000, 68.9], [1575820800000, 72.2], [1576598400000, 76.0], [1577376000000, 74.8], [1578412800000, 79.6], [1579190400000, 83.1], [1580832000000, 82.7], [1581609600000, 86.7], [1582560000000, 92.6], [1583337600000, 92.1], [1584288000000, 80.8], [1585065600000, 79.7], [1585843200000, 79.9], [1586880000000, 81.6], [1587657600000, 83.0], [1588867200000, 87.7], [1589817600000, 86.9], [1590595200000, 84.5], [1591545600000, 87.5], [1592323200000, 88.7], [1593446400000, 93.5], [1594224000000, 103.7], [1595174400000, 103.1], [1595952000000, 106.6], [1596729600000, 109.1], [1597680000000, 113.1], [1598457600000, 113.4], [1599408000000, 114.0], [1600185600000, 118.3], [1600963200000, 117.3], [1602604800000, 123.2], [1603382400000, 119.0], [1604332800000, 124.7], [1605110400000, 129.1], [1606060800000, 127.0], [1606838400000, 126.4], [1607616000000, 125.6], [1608566400000, 128.2], [1609344000000, 132.8], [1610380800000, 139.9], [1611158400000, 143.7], [1612108800000, 139.5], [1612886400000, 143.4], [1614268800000, 138.2], [1615219200000, 135.3], [1615996800000, 135.6], [1616947200000, 134.0], [1617811200000, 135.0], [1618761600000, 135.9], [1619539200000, 138.3], [1620748800000, 133.9], [1621526400000, 137.1], [1622476800000, 140.9], [1623254400000, 140.6], [1624291200000, 141.4], [1625068800000, 142.8], [1626019200000, 144.7], [1626796800000, 145.3], [1627574400000, 143.7], [1628438400000, 149.4]]</t>
+  </si>
+  <si>
     <t>001182</t>
   </si>
   <si>
     <t>易方达安心回馈混合</t>
   </si>
   <si>
-    <t xml:space="preserve"> [[1432828800000,1.0],[1433433600000,1.005],[1433692800000,0.998],[1433779200000,1.005],[1433865600000,1.006],[1433952000000,1.007],[1434038400000,1.008],[1434297600000,1.008],[1434384000000,1.006],[1434470400000,1.007],[1434556800000,1.006],[1434643200000,1.004],[1434988800000,1.004],[1435075200000,1.005],[1435161600000,1.004],[1435248000000,1.002],[1435507200000,1.001],[1435593600000,1.002],[1435680000000,1.001],[1435766400000,0.999],[1435852800000,0.997],[1436112000000,0.996],[1436198400000,0.993],[1436284800000,0.989],[1436371200000,0.989],[1436457600000,0.991],[1436716800000,0.991],[1436803200000,0.991],[1436889600000,0.991],[1436976000000,0.991],[1437062400000,0.991],[1437321600000,0.992],[1437408000000,0.992],[1437494400000,0.993],[1437580800000,0.994],[1437667200000,0.994],[1437926400000,0.994],[1438012800000,0.995],[1438099200000,0.996],[1438185600000,0.996],[1438272000000,0.996],[1438531200000,0.996],[1438617600000,0.997],[1438704000000,0.997],[1438790400000,0.998],[1438876800000,1.0],[1439136000000,1.0],[1439222400000,0.998],[1439308800000,0.997],[1439395200000,0.998],[1439481600000,0.999],[1439740800000,0.999],[1439827200000,0.999],[1439913600000,0.999],[1440000000000,0.999],[1440086400000,1.0],[1440345600000,1.001],[1440432000000,1.001],[1440518400000,1.001],[1440604800000,1.002],[1440691200000,1.002],[1440950400000,1.003],[1441036800000,1.003],[1441123200000,1.003],[1441555200000,1.003],[1441641600000,1.003],[1441728000000,1.003],[1441814400000,1.003],[1441900800000,1.003],[1442160000000,1.004],[1442246400000,1.005],[1442332800000,1.005],[1442419200000,1.005],[1442505600000,1.009],[1442764800000,1.009],[1442851200000,1.009],[1442937600000,1.009],[1443024000000,1.01],[1443110400000,1.01],[1443369600000,1.01],[1443456000000,1.012],[1443542400000,1.012],[1444233600000,1.013],[1444320000000,1.014],[1444579200000,1.016],[1444665600000,1.018],[1444752000000,1.02],[1444838400000,1.02],[1444924800000,1.02],[1445184000000,1.021],[1445270400000,1.022],[1445356800000,1.023],[1445443200000,1.023],[1445529600000,1.025],[1445788800000,1.028],[1445875200000,1.03],[1445961600000,1.032],[1446048000000,1.032],[1446134400000,1.032],[1446393600000,1.032],[1446480000000,1.032],[1446566400000,1.031],[1446652800000,1.032],[1446739200000,1.033],[1446998400000,1.028],[1447084800000,1.026],[1447171200000,1.027],[1447257600000,1.027],[1447344000000,1.027],[1447603200000,1.028],[1447689600000,1.028],[1447776000000,1.028],[1447862400000,1.028],[1447948800000,1.029],[1448208000000,1.028],[1448294400000,1.029],[1448380800000,1.03],[1448467200000,1.031],[1448553600000,1.028],[1448812800000,1.029],[1448899200000,1.029],[1448985600000,1.031],[1449072000000,1.032],[1449158400000,1.035],[1449417600000,1.037],[1449504000000,1.037],[1449590400000,1.038],[1449676800000,1.038],[1449763200000,1.038],[1450022400000,1.039],[1450108800000,1.039],[1450195200000,1.041],[1450281600000,1.042],[1450368000000,1.043],[1450627200000,1.045],[1450713600000,1.047],[1450800000000,1.048],[1450886400000,1.049],[1450972800000,1.049],[1451232000000,1.052],[1451318400000,1.055],[1451404800000,1.056],[1451491200000,1.056],[1451836800000,1.054],[1451923200000,1.054],[1452009600000,1.056],[1452096000000,1.055],[1452182400000,1.058],[1452441600000,1.057],[1452528000000,1.058],[1452614400000,1.059],[1452700800000,1.061],[1452787200000,1.059],[1453046400000,1.059],[1453132800000,1.06],[1453219200000,1.059],[1453305600000,1.057],[1453392000000,1.059],[1453651200000,1.059],[1453737600000,1.056],[1453824000000,1.055],[1453910400000,1.053],[1453996800000,1.055],[1454256000000,1.055],[1454342400000,1.055],[1454428800000,1.054],[1454515200000,1.055],[1454601600000,1.055],[1455465600000,1.057],[1455552000000,1.058],[1455638400000,1.058],[1455724800000,1.059],[1455811200000,1.06],[1456070400000,1.062],[1456156800000,1.062],[1456243200000,1.062],[1456329600000,1.06],[1456416000000,1.06],[1456675200000,1.059],[1456761600000,1.06],[1456848000000,1.062],[1456934400000,1.062],[1457020800000,1.062],[1457280000000,1.063],[1457366400000,1.063],[1457452800000,1.064],[1457539200000,1.064],[1457625600000,1.065],[1457884800000,1.067],[1457971200000,1.067],[1458057600000,1.067],[1458144000000,1.069],[1458230400000,1.071],[1458489600000,1.072],[1458576000000,1.072],[1458662400000,1.072],[1458748800000,1.072],[1458835200000,1.072],[1459094400000,1.072],[1459180800000,1.072],[1459267200000,1.073],[1459353600000,1.074],[1459440000000,1.074],[1459785600000,1.076],[1459872000000,1.076],[1459958400000,1.076],[1460044800000,1.075],[1460304000000,1.077],[1460390400000,1.075],[1460476800000,1.074],[1460563200000,1.073],[1460649600000,1.072],[1460908800000,1.072],[1460995200000,1.071],[1461081600000,1.069],[1461168000000,1.066],[1461254400000,1.064],[1461513600000,1.061],[1461600000000,1.06],[1461686400000,1.059],[1461772800000,1.06],[1461859200000,1.06],[1462204800000,1.062],[1462291200000,1.063],[1462377600000,1.064],[1462464000000,1.062],[1462723200000,1.061],[1462809600000,1.062],[1462896000000,1.061],[1462982400000,1.062],[1463068800000,1.062],[1463328000000,1.063],[1463414400000,1.063],[1463500800000,1.062],[1463587200000,1.062],[1463673600000,1.063],[1463932800000,1.065],[1464019200000,1.064],[1464105600000,1.065],[1464192000000,1.065],[1464278400000,1.065],[1464537600000,1.065],[1464624000000,1.067],[1464710400000,1.067],[1464796800000,1.068],[1464883200000,1.068],[1465142400000,1.069],[1465228800000,1.07],[1465315200000,1.07],[1465747200000,1.067],[1465833600000,1.068],[1465920000000,1.071],[1466006400000,1.07],[1466092800000,1.071],[1466352000000,1.072],[1466438400000,1.072],[1466524800000,1.073],[1466611200000,1.074],[1466697600000,1.074],[1466956800000,1.076],[1467043200000,1.077],[1467129600000,1.077],[1467216000000,1.077],[1467302400000,1.078],[1467561600000,1.081],[1467648000000,1.082],[1467734400000,1.082],[1467820800000,1.084],[1467907200000,1.084],[1468166400000,1.085],[1468252800000,1.086],[1468339200000,1.088],[1468425600000,1.088],[1468512000000,1.089],[1468771200000,1.089],[1468857600000,1.09],[1468944000000,1.09],[1469030400000,1.091],[1469116800000,1.09],[1469376000000,1.091],[1469462400000,1.092],[1469548800000,1.089],[1469635200000,1.09],[1469721600000,1.091],[1469980800000,1.09],[1470067200000,1.091],[1470153600000,1.092],[1470240000000,1.093],[1470326400000,1.093],[1470585600000,1.095],[1470672000000,1.097],[1470758400000,1.097],[1470844800000,1.096],[1470931200000,1.098],[1471190400000,1.1],[1471276800000,1.101],[1471363200000,1.102],[1471449600000,1.102],[1471536000000,1.102],[1471795200000,1.101],[1471881600000,1.101],[1471968000000,1.101],[1472054400000,1.1],[1472140800000,1.1],[1472400000000,1.101],[1472486400000,1.101],[1472572800000,1.101],[1472659200000,1.101],[1472745600000,1.1],[1473004800000,1.101],[1473091200000,1.103],[1473177600000,1.103],[1473264000000,1.103],[1473350400000,1.103],[1473609600000,1.102],[1473696000000,1.102],[1473782400000,1.102],[1474214400000,1.103],[1474300800000,1.103],[1474387200000,1.103],[1474473600000,1.104],[1474560000000,1.104],[1474819200000,1.103],[1474905600000,1.104],[1474992000000,1.104],[1475078400000,1.104],[1475164800000,1.105],[1476028800000,1.107],[1476115200000,1.107],[1476201600000,1.105],[1476288000000,1.1],[1476374400000,1.101],[1476633600000,1.101],[1476720000000,1.102],[1476806400000,1.102],[1476892800000,1.103],[1476979200000,1.103],[1477238400000,1.104],[1477324800000,1.105],[1477411200000,1.104],[1477497600000,1.104],[1477584000000,1.105],[1477843200000,1.104],[1477929600000,1.108],[1478016000000,1.107],[1478102400000,1.108],[1478188800000,1.11],[1478448000000,1.111],[1478534400000,1.113],[1478620800000,1.111],[1478707200000,1.114],[1478793600000,1.113],[1479052800000,1.114],[1479139200000,1.113],[1479225600000,1.115],[1479312000000,1.115],[1479398400000,1.115],[1479657600000,1.119],[1479744000000,1.12],[1479830400000,1.122],[1479916800000,1.122],[1480003200000,1.125],[1480262400000,1.127],[1480348800000,1.125],[1480435200000,1.119],[1480521600000,1.124],[1480608000000,1.117],[1480867200000,1.113],[1480953600000,1.111],[1481040000000,1.113],[1481126400000,1.113],[1481212800000,1.113],[1481472000000,1.1],[1481558400000,1.099],[1481644800000,1.095],[1481731200000,1.087],[1481817600000,1.089],[1482076800000,1.086],[1482163200000,1.082],[1482249600000,1.086],[1482336000000,1.089],[1482422400000,1.086],[1482681600000,1.088],[1482768000000,1.089],[1482854400000,1.09],[1482940800000,1.09],[1483027200000,1.092],[1483113600000,1.092],[1483372800000,1.097],[1483459200000,1.101],[1483545600000,1.1],[1483632000000,1.097],[1483891200000,1.101],[1483977600000,1.102],[1484064000000,1.102],[1484150400000,1.099],[1484236800000,1.098],[1484496000000,1.097],[1484582400000,1.098],[1484668800000,1.1],[1484755200000,1.099],[1484841600000,1.103],[1485100800000,1.106],[1485187200000,1.107],[1485273600000,1.109],[1485360000000,1.11],[1486051200000,1.107],[1486310400000,1.106],[1486396800000,1.105],[1486483200000,1.106],[1486569600000,1.108],[1486656000000,1.11],[1486915200000,1.112],[1487001600000,1.112],[1487088000000,1.109],[1487174400000,1.11],[1487260800000,1.109],[1487520000000,1.116],[1487606400000,1.119],[1487692800000,1.121],[1487779200000,1.122],[1487865600000,1.125],[1488124800000,1.124],[1488211200000,1.125],[1488297600000,1.126],[1488384000000,1.124],[1488470400000,1.126],[1488729600000,1.131],[1488816000000,1.131],[1488902400000,1.128],[1488988800000,1.126],[1489075200000,1.128],[1489334400000,1.134],[1489420800000,1.134],[1489507200000,1.138],[1489593600000,1.142],[1489680000000,1.137],[1489939200000,1.139],[1490025600000,1.142],[1490112000000,1.146],[1490198400000,1.149],[1490284800000,1.152],[1490544000000,1.149],[1490630400000,1.147],[1490716800000,1.148],[1490803200000,1.141],[1490889600000,1.144],[1491321600000,1.152],[1491408000000,1.155],[1491494400000,1.156],[1491753600000,1.153],[1491840000000,1.154],[1491926400000,1.155],[1492012800000,1.157],[1492099200000,1.148],[1492358400000,1.149],[1492444800000,1.15],[1492531200000,1.152],[1492617600000,1.155],[1492704000000,1.152],[1492963200000,1.147],[1493049600000,1.156],[1493136000000,1.159],[1493222400000,1.16],[1493308800000,1.159],[1493654400000,1.162],[1493740800000,1.159],[1493827200000,1.16],[1493913600000,1.158],[1494172800000,1.149],[1494259200000,1.152],[1494345600000,1.15],[1494432000000,1.155],[1494518400000,1.153],[1494777600000,1.158],[1494864000000,1.166],[1494950400000,1.164],[1495036800000,1.161],[1495123200000,1.159],[1495382400000,1.159],[1495468800000,1.156],[1495555200000,1.158],[1495641600000,1.158],[1495728000000,1.157],[1496160000000,1.158],[1496246400000,1.159],[1496332800000,1.159],[1496592000000,1.164],[1496678400000,1.169],[1496764800000,1.181],[1496851200000,1.187],[1496937600000,1.191],[1497196800000,1.188],[1497283200000,1.19],[1497369600000,1.181],[1497456000000,1.186],[1497542400000,1.185],[1497801600000,1.191],[1497888000000,1.193],[1497974400000,1.205],[1498060800000,1.2],[1498147200000,1.206],[1498406400000,1.215],[1498492800000,1.218],[1498579200000,1.21],[1498665600000,1.218],[1498752000000,1.22],[1499011200000,1.219],[1499097600000,1.217],[1499184000000,1.223],[1499270400000,1.224],[1499356800000,1.222],[1499616000000,1.217],[1499702400000,1.222],[1499788800000,1.223],[1499875200000,1.221],[1499961600000,1.224],[1500220800000,1.215],[1500307200000,1.213],[1500393600000,1.226],[1500480000000,1.23],[1500566400000,1.227],[1500825600000,1.232],[1500912000000,1.228],[1500998400000,1.223],[1501084800000,1.226],[1501171200000,1.228],[1501430400000,1.23],[1501516800000,1.231],[1501603200000,1.23],[1501689600000,1.224],[1501776000000,1.218],[1502035200000,1.222],[1502121600000,1.223],[1502208000000,1.226],[1502294400000,1.226],[1502380800000,1.219],[1502640000000,1.23],[1502726400000,1.234],[1502812800000,1.233],[1502899200000,1.233],[1502985600000,1.232],[1503244800000,1.234],[1503331200000,1.232],[1503417600000,1.231],[1503504000000,1.228],[1503590400000,1.232],[1503849600000,1.24],[1503936000000,1.242],[1504022400000,1.242],[1504108800000,1.241],[1504195200000,1.24],[1504454400000,1.249],[1504540800000,1.251],[1504627200000,1.25],[1504713600000,1.245],[1504800000000,1.248],[1505059200000,1.25],[1505145600000,1.251],[1505232000000,1.252],[1505318400000,1.252],[1505404800000,1.257],[1505664000000,1.261],[1505750400000,1.256],[1505836800000,1.259],[1505923200000,1.259],[1506009600000,1.26],[1506268800000,1.255],[1506355200000,1.254],[1506441600000,1.258],[1506528000000,1.261],[1506614400000,1.267],[1507478400000,1.275],[1507564800000,1.274],[1507651200000,1.28],[1507737600000,1.283],[1507824000000,1.288],[1508083200000,1.286],[1508169600000,1.289],[1508256000000,1.297],[1508342400000,1.296],[1508428800000,1.292],[1508688000000,1.296],[1508774400000,1.303],[1508860800000,1.307],[1508947200000,1.309],[1509033600000,1.31],[1509292800000,1.311],[1509379200000,1.317],[1509465600000,1.312],[1509552000000,1.312],[1509638400000,1.311],[1509897600000,1.327],[1509984000000,1.334],[1510070400000,1.329],[1510156800000,1.34],[1510243200000,1.356],[1510502400000,1.362],[1510588800000,1.355],[1510675200000,1.346],[1510761600000,1.351],[1510848000000,1.343],[1511107200000,1.356],[1511193600000,1.365],[1511280000000,1.359],[1511366400000,1.329],[1511452800000,1.329],[1511712000000,1.318],[1511798400000,1.325],[1511884800000,1.324],[1511971200000,1.31],[1512057600000,1.316],[1512316800000,1.321],[1512403200000,1.315],[1512489600000,1.313],[1512576000000,1.308],[1512662400000,1.321],[1512921600000,1.333],[1513008000000,1.325],[1513094400000,1.329],[1513180800000,1.325],[1513267200000,1.321],[1513526400000,1.322],[1513612800000,1.328],[1513699200000,1.327],[1513785600000,1.339],[1513872000000,1.341],[1514131200000,1.335],[1514217600000,1.338],[1514304000000,1.325],[1514390400000,1.327],[1514476800000,1.334],[1514649600000,1.334],[1514822400000,1.342],[1514908800000,1.35],[1514995200000,1.352],[1515081600000,1.352],[1515340800000,1.35],[1515427200000,1.354],[1515513600000,1.351],[1515600000000,1.349],[1515686400000,1.351],[1515945600000,1.344],[1516032000000,1.341],[1516118400000,1.334],[1516204800000,1.333],[1516291200000,1.333],[1516550400000,1.35],[1516636800000,1.357],[1516723200000,1.361],[1516809600000,1.357],[1516896000000,1.358],[1517155200000,1.344],[1517241600000,1.341],[1517328000000,1.342],[1517414400000,1.336],[1517500800000,1.345],[1517760000000,1.334],[1517846400000,1.312],[1517932800000,1.298],[1518019200000,1.313],[1518105600000,1.29],[1518364800000,1.319],[1518451200000,1.328],[1518537600000,1.331],[1519228800000,1.344],[1519315200000,1.338],[1519574400000,1.357],[1519660800000,1.354],[1519747200000,1.354],[1519833600000,1.366],[1519920000000,1.357],[1520179200000,1.359],[1520265600000,1.367],[1520352000000,1.365],[1520438400000,1.366],[1520524800000,1.378],[1520784000000,1.385],[1520870400000,1.376],[1520956800000,1.368],[1521043200000,1.371],[1521129600000,1.36],[1521388800000,1.36],[1521475200000,1.36],[1521561600000,1.359],[1521648000000,1.354],[1521734400000,1.328],[1521993600000,1.336],[1522080000000,1.347],[1522166400000,1.341],[1522252800000,1.345],[1522339200000,1.358],[1522598400000,1.358],[1522684800000,1.354],[1522771200000,1.346],[1523203200000,1.347],[1523289600000,1.354],[1523376000000,1.36],[1523462400000,1.359],[1523548800000,1.361],[1523808000000,1.362],[1523894400000,1.343],[1523980800000,1.351],[1524067200000,1.358],[1524153600000,1.348],[1524412800000,1.335],[1524499200000,1.353],[1524585600000,1.351],[1524672000000,1.334],[1524758400000,1.335],[1525190400000,1.336],[1525276800000,1.349],[1525363200000,1.347],[1525622400000,1.362],[1525708800000,1.374],[1525795200000,1.374],[1525881600000,1.377],[1525968000000,1.373],[1526227200000,1.378],[1526313600000,1.386],[1526400000000,1.379],[1526486400000,1.37],[1526572800000,1.375],[1526832000000,1.387],[1526918400000,1.391],[1527004800000,1.386],[1527091200000,1.377],[1527177600000,1.369],[1527436800000,1.373],[1527523200000,1.374],[1527609600000,1.359],[1527696000000,1.362],[1527782400000,1.351],[1528041600000,1.346],[1528128000000,1.358],[1528214400000,1.358],[1528300800000,1.357],[1528387200000,1.356],[1528646400000,1.355],[1528732800000,1.363],[1528819200000,1.351],[1528905600000,1.349],[1528992000000,1.337],[1529337600000,1.305],[1529424000000,1.315],[1529510400000,1.304],[1529596800000,1.313],[1529856000000,1.31],[1529942400000,1.312],[1530028800000,1.304],[1530115200000,1.3],[1530201600000,1.322],[1530288000000,1.322],[1530460800000,1.308],[1530547200000,1.31],[1530633600000,1.296],[1530720000000,1.29],[1530806400000,1.292],[1531065600000,1.308],[1531152000000,1.311],[1531238400000,1.3],[1531324800000,1.316],[1531411200000,1.321],[1531670400000,1.319],[1531756800000,1.318],[1531843200000,1.312],[1531929600000,1.317],[1532016000000,1.325],[1532275200000,1.334],[1532361600000,1.345],[1532448000000,1.343],[1532534400000,1.331],[1532620800000,1.329],[1532880000000,1.321],[1532966400000,1.321],[1533052800000,1.315],[1533139200000,1.297],[1533225600000,1.285],[1533484800000,1.269],[1533571200000,1.286],[1533657600000,1.275],[1533744000000,1.292],[1533830400000,1.298],[1534089600000,1.301],[1534176000000,1.296],[1534262400000,1.279],[1534348800000,1.277],[1534435200000,1.264],[1534694400000,1.27],[1534780800000,1.283],[1534867200000,1.277],[1534953600000,1.281],[1535040000000,1.28],[1535299200000,1.298],[1535385600000,1.299],[1535472000000,1.293],[1535558400000,1.286],[1535644800000,1.282],[1535904000000,1.283],[1535990400000,1.288],[1536076800000,1.279],[1536163200000,1.271],[1536249600000,1.268],[1536508800000,1.255],[1536595200000,1.255],[1536681600000,1.25],[1536768000000,1.256],[1536854400000,1.254],[1537113600000,1.247],[1537200000000,1.257],[1537286400000,1.267],[1537372800000,1.267],[1537459200000,1.28],[1537804800000,1.275],[1537891200000,1.283],[1537977600000,1.278],[1538064000000,1.285],[1538928000000,1.259],[1539014400000,1.256],[1539100800000,1.253],[1539187200000,1.227],[1539273600000,1.237],[1539532800000,1.229],[1539619200000,1.218],[1539705600000,1.229],[1539792000000,1.222],[1539878400000,1.237],[1540137600000,1.262],[1540224000000,1.249],[1540310400000,1.244],[1540396800000,1.239],[1540483200000,1.236],[1540742400000,1.223],[1540828800000,1.226],[1540915200000,1.236],[1541001600000,1.246],[1541088000000,1.272],[1541347200000,1.276],[1541433600000,1.271],[1541520000000,1.266],[1541606400000,1.262],[1541692800000,1.264],[1541952000000,1.283],[1542038400000,1.285],[1542124800000,1.284],[1542211200000,1.288],[1542297600000,1.292],[1542556800000,1.291],[1542643200000,1.275],[1542729600000,1.276],[1542816000000,1.275],[1542902400000,1.261],[1543161600000,1.261],[1543248000000,1.262],[1543334400000,1.274],[1543420800000,1.265],[1543507200000,1.272],[1543766400000,1.299],[1543852800000,1.297],[1543939200000,1.296],[1544025600000,1.282],[1544112000000,1.284],[1544371200000,1.28],[1544457600000,1.281],[1544544000000,1.284],[1544630400000,1.294],[1544716800000,1.283],[1544976000000,1.275],[1545062400000,1.27],[1545148800000,1.264],[1545235200000,1.262],[1545321600000,1.259],[1545580800000,1.267],[1545667200000,1.267],[1545753600000,1.262],[1545840000000,1.26],[1545926400000,1.256],[1546185600000,1.256],[1546358400000,1.255],[1546444800000,1.249],[1546531200000,1.259],[1546790400000,1.272],[1546876800000,1.27],[1546963200000,1.279],[1547049600000,1.288],[1547136000000,1.288],[1547395200000,1.285],[1547481600000,1.299],[1547568000000,1.296],[1547654400000,1.289],[1547740800000,1.301],[1548000000000,1.307],[1548086400000,1.302],[1548172800000,1.301],[1548259200000,1.307],[1548345600000,1.315],[1548604800000,1.316],[1548691200000,1.315],[1548777600000,1.31],[1548864000000,1.311],[1548950400000,1.324],[1549814400000,1.343],[1549900800000,1.349],[1549987200000,1.358],[1550073600000,1.361],[1550160000000,1.352],[1550419200000,1.377],[1550505600000,1.377],[1550592000000,1.386],[1550678400000,1.388],[1550764800000,1.41],[1551024000000,1.439],[1551110400000,1.431],[1551196800000,1.418],[1551283200000,1.422],[1551369600000,1.427],[1551628800000,1.437],[1551715200000,1.449],[1551801600000,1.447],[1551888000000,1.436],[1551974400000,1.423],[1552233600000,1.454],[1552320000000,1.462],[1552406400000,1.448],[1552492800000,1.443],[1552579200000,1.453],[1552838400000,1.468],[1552924800000,1.468],[1553011200000,1.464],[1553097600000,1.47],[1553184000000,1.472],[1553443200000,1.458],[1553529600000,1.44],[1553616000000,1.449],[1553702400000,1.45],[1553788800000,1.475],[1554048000000,1.502],[1554134400000,1.499],[1554220800000,1.506],[1554307200000,1.516],[1554652800000,1.502],[1554739200000,1.504],[1554825600000,1.507],[1554912000000,1.49],[1554998400000,1.49],[1555257600000,1.484],[1555344000000,1.499],[1555430400000,1.51],[1555516800000,1.511],[1555603200000,1.529],[1555862400000,1.509],[1555948800000,1.502],[1556035200000,1.507],[1556121600000,1.49],[1556208000000,1.483],[1556467200000,1.48],[1556553600000,1.482],[1557072000000,1.436],[1557158400000,1.446],[1557244800000,1.432],[1557331200000,1.425],[1557417600000,1.457],[1557676800000,1.438],[1557763200000,1.436],[1557849600000,1.458],[1557936000000,1.456],[1558022400000,1.43],[1558281600000,1.42],[1558368000000,1.434],[1558454400000,1.433],[1558540800000,1.416],[1558627200000,1.417],[1558886400000,1.426],[1558972800000,1.432],[1559059200000,1.431],[1559145600000,1.428],[1559232000000,1.429],[1559491200000,1.425],[1559577600000,1.416],[1559664000000,1.416],[1559750400000,1.404],[1560096000000,1.416],[1560182400000,1.435],[1560268800000,1.427],[1560355200000,1.423],[1560441600000,1.414],[1560700800000,1.409],[1560787200000,1.409],[1560873600000,1.431],[1560960000000,1.447],[1561046400000,1.456],[1561305600000,1.457],[1561392000000,1.449],[1561478400000,1.455],[1561564800000,1.474],[1561651200000,1.475],[1561824000000,1.475],[1561910400000,1.503],[1561996800000,1.5],[1562083200000,1.493],[1562169600000,1.492],[1562256000000,1.495],[1562515200000,1.476],[1562601600000,1.477],[1562688000000,1.474],[1562774400000,1.474],[1562860800000,1.481],[1563120000000,1.488],[1563206400000,1.49],[1563292800000,1.489],[1563379200000,1.482],[1563465600000,1.485],[1563724800000,1.506],[1563811200000,1.513],[1563897600000,1.521],[1563984000000,1.531],[1564070400000,1.536],[1564329600000,1.537],[1564416000000,1.537],[1564502400000,1.537],[1564588800000,1.535],[1564675200000,1.526],[1564934400000,1.517],[1565020800000,1.515],[1565107200000,1.511],[1565193600000,1.525],[1565280000000,1.519],[1565539200000,1.537],[1565625600000,1.534],[1565712000000,1.539],[1565798400000,1.552],[1565884800000,1.557],[1566144000000,1.575],[1566230400000,1.573],[1566316800000,1.589],[1566403200000,1.58],[1566489600000,1.586],[1566748800000,1.581],[1566835200000,1.593],[1566921600000,1.591],[1567008000000,1.592],[1567094400000,1.583],[1567353600000,1.597],[1567440000000,1.609],[1567526400000,1.61],[1567612800000,1.612],[1567699200000,1.616],[1567958400000,1.627],[1568044800000,1.622],[1568131200000,1.613],[1568217600000,1.623],[1568563200000,1.633],[1568649600000,1.624],[1568736000000,1.629],[1568822400000,1.637],[1568908800000,1.643],[1569168000000,1.641],[1569254400000,1.646],[1569340800000,1.633],[1569427200000,1.621],[1569513600000,1.634],[1569772800000,1.625],[1570464000000,1.624],[1570550400000,1.624],[1570636800000,1.64],[1570723200000,1.644],[1570982400000,1.66],[1571068800000,1.65],[1571155200000,1.643],[1571241600000,1.65],[1571328000000,1.64],[1571587200000,1.639],[1571673600000,1.649],[1571760000000,1.644],[1571846400000,1.648],[1571932800000,1.659],[1572192000000,1.667],[1572278400000,1.667],[1572364800000,1.666],[1572451200000,1.658],[1572537600000,1.673],[1572796800000,1.681],[1572883200000,1.689],[1572969600000,1.689],[1573056000000,1.692],[1573142400000,1.695],[1573401600000,1.679],[1573488000000,1.678],[1573574400000,1.685],[1573660800000,1.691],[1573747200000,1.684],[1574006400000,1.693],[1574092800000,1.707],[1574179200000,1.704],[1574265600000,1.704],[1574352000000,1.687],[1574611200000,1.684],[1574697600000,1.689],[1574784000000,1.689],[1574870400000,1.689],[1574956800000,1.683],[1575216000000,1.687],[1575302400000,1.694],[1575388800000,1.697],[1575475200000,1.71],[1575561600000,1.722],[1575820800000,1.722],[1575907200000,1.727],[1575993600000,1.726],[1576080000000,1.723],[1576166400000,1.736],[1576425600000,1.753],[1576512000000,1.762],[1576598400000,1.76],[1576684800000,1.753],[1576771200000,1.747],[1577030400000,1.74],[1577116800000,1.75],[1577203200000,1.753],[1577289600000,1.756],[1577376000000,1.748],[1577635200000,1.76],[1577721600000,1.767],[1577894400000,1.79],[1577980800000,1.788],[1578240000000,1.793],[1578326400000,1.802],[1578412800000,1.796],[1578499200000,1.819],[1578585600000,1.817],[1578844800000,1.83],[1578931200000,1.827],[1579017600000,1.831],[1579104000000,1.834],[1579190400000,1.831],[1579449600000,1.855],[1579536000000,1.853],[1579622400000,1.863],[1579708800000,1.837],[1580659200000,1.777],[1580745600000,1.818],[1580832000000,1.827],[1580918400000,1.836],[1581004800000,1.84],[1581264000000,1.849],[1581350400000,1.865],[1581436800000,1.872],[1581523200000,1.863],[1581609600000,1.867],[1581868800000,1.892],[1581955200000,1.895],[1582041600000,1.89],[1582128000000,1.907],[1582214400000,1.919],[1582473600000,1.927],[1582560000000,1.926],[1582646400000,1.905],[1582732800000,1.913],[1582819200000,1.886],[1583078400000,1.913],[1583164800000,1.912],[1583251200000,1.909],[1583337600000,1.921],[1583424000000,1.912],[1583683200000,1.881],[1583769600000,1.899],[1583856000000,1.888],[1583942400000,1.867],[1584028800000,1.856],[1584288000000,1.808],[1584374400000,1.797],[1584460800000,1.783],[1584547200000,1.774],[1584633600000,1.786],[1584892800000,1.745],[1584979200000,1.763],[1585065600000,1.797],[1585152000000,1.788],[1585238400000,1.792],[1585497600000,1.778],[1585584000000,1.783],[1585670400000,1.789],[1585756800000,1.805],[1585843200000,1.799],[1586188800000,1.823],[1586275200000,1.822],[1586361600000,1.821],[1586448000000,1.815],[1586707200000,1.803],[1586793600000,1.82],[1586880000000,1.816],[1586966400000,1.821],[1587052800000,1.834],[1587312000000,1.84],[1587398400000,1.829],[1587484800000,1.835],[1587571200000,1.83],[1587657600000,1.83],[1587916800000,1.834],[1588003200000,1.842],[1588089600000,1.852],[1588176000000,1.866],[1588694400000,1.869],[1588780800000,1.868],[1588867200000,1.877],[1589126400000,1.876],[1589212800000,1.878],[1589299200000,1.878],[1589385600000,1.865],[1589472000000,1.864],[1589731200000,1.86],[1589817600000,1.869],[1589904000000,1.86],[1589990400000,1.853],[1590076800000,1.84],[1590336000000,1.837],[1590422400000,1.851],[1590508800000,1.846],[1590595200000,1.845],[1590681600000,1.849],[1590940800000,1.877],[1591027200000,1.874],[1591113600000,1.87],[1591200000000,1.87],[1591286400000,1.866],[1591545600000,1.875],[1591632000000,1.884],[1591718400000,1.886],[1591804800000,1.887],[1591891200000,1.889],[1592150400000,1.877],[1592236800000,1.888],[1592323200000,1.887],[1592409600000,1.899],[1592496000000,1.905],[1592755200000,1.905],[1592841600000,1.906],[1592928000000,1.918],[1593360000000,1.921],[1593446400000,1.935],[1593532800000,1.953],[1593619200000,1.958],[1593705600000,1.965],[1593964800000,2.005],[1594051200000,2.005],[1594137600000,2.021],[1594224000000,2.037],[1594310400000,2.021],[1594569600000,2.038],[1594656000000,2.03],[1594742400000,2.023],[1594828800000,1.985],[1594915200000,1.996],[1595174400000,2.031],[1595260800000,2.039],[1595347200000,2.051],[1595433600000,2.061],[1595520000000,2.025],[1595779200000,2.032],[1595865600000,2.041],[1595952000000,2.066],[1596038400000,2.065],[1596124800000,2.076],[1596384000000,2.09],[1596470400000,2.09],[1596556800000,2.094],[1596643200000,2.09],[1596729600000,2.091],[1596988800000,2.099],[1597075200000,2.09],[1597161600000,2.088],[1597248000000,2.098],[1597334400000,2.111],[1597593600000,2.125],[1597680000000,2.131],[1597766400000,2.115],[1597852800000,2.103],[1597939200000,2.118],[1598198400000,2.146],[1598284800000,2.145],[1598371200000,2.127],[1598457600000,2.134],[1598544000000,2.151],[1598803200000,2.144],[1598889600000,2.163],[1598976000000,2.174],[1599062400000,2.165],[1599148800000,2.162],[1599408000000,2.14],[1599494400000,2.144],[1599580800000,2.12],[1599667200000,2.125],[1599753600000,2.152],[1600012800000,2.17],[1600099200000,2.178],[1600185600000,2.183],[1600272000000,2.196],[1600358400000,2.205],[1600617600000,2.195],[1600704000000,2.184],[1600790400000,2.205],[1600876800000,2.172],[1600963200000,2.173],[1601222400000,2.177],[1601308800000,2.181],[1601395200000,2.182],[1602172800000,2.223],[1602432000000,2.233],[1602518400000,2.245],[1602604800000,2.232],[1602691200000,2.226],[1602777600000,2.218],[1603036800000,2.202],[1603123200000,2.222],[1603209600000,2.214],[1603296000000,2.208],[1603382400000,2.19],[1603641600000,2.208],[1603728000000,2.214],[1603814400000,2.215],[1603900800000,2.226],[1603987200000,2.218],[1604246400000,2.245],[1604332800000,2.247],[1604419200000,2.26],[1604505600000,2.287],[1604592000000,2.28],[1604851200000,2.295],[1604937600000,2.298],[1605024000000,2.28],[1605110400000,2.291],[1605196800000,2.272],[1605456000000,2.265],[1605542400000,2.255],[1605628800000,2.242],[1605715200000,2.252],[1605801600000,2.258],[1606060800000,2.27],[1606147200000,2.262],[1606233600000,2.244],[1606320000000,2.236],[1606406400000,2.244],[1606665600000,2.247],[1606752000000,2.268],[1606838400000,2.264],[1606924800000,2.265],[1607011200000,2.266],[1607270400000,2.267],[1607356800000,2.267],[1607443200000,2.256],[1607529600000,2.268],[1607616000000,2.256],[1607875200000,2.266],[1607961600000,2.277],[1608048000000,2.278],[1608134400000,2.277],[1608220800000,2.278],[1608480000000,2.302],[1608566400000,2.282],[1608652800000,2.31],[1608739200000,2.297],[1608825600000,2.312],[1609084800000,2.306],[1609171200000,2.299],[1609257600000,2.308],[1609344000000,2.328],[1609689600000,2.35],[1609776000000,2.361],[1609862400000,2.367],[1609948800000,2.39],[1610035200000,2.396],[1610294400000,2.382],[1610380800000,2.399],[1610467200000,2.405],[1610553600000,2.399],[1610640000000,2.389],[1610899200000,2.416],[1610985600000,2.404],[1611072000000,2.424],[1611158400000,2.437],[1611244800000,2.44],[1611504000000,2.447],[1611590400000,2.434],[1611676800000,2.439],[1611763200000,2.399],[1611849600000,2.381],[1612108800000,2.395],[1612195200000,2.416],[1612281600000,2.406],[1612368000000,2.401],[1612454400000,2.38],[1612713600000,2.388],[1612800000000,2.413],[1612886400000,2.434],[1613577600000,2.446],[1613664000000,2.451],[1613923200000,2.439],[1614009600000,2.429],[1614096000000,2.401],[1614182400000,2.404],[1614268800000,2.382],[1614528000000,2.414],[1614614400000,2.42],[1614700800000,2.43],[1614787200000,2.394],[1614873600000,2.401],[1615132800000,2.382],[1615219200000,2.353],[1615305600000,2.349],[1615392000000,2.367],[1615478400000,2.364],[1615737600000,2.341],[1615824000000,2.349],[1615910400000,2.351],[1615996800000,2.356],[1616083200000,2.337],[1616342400000,2.351],[1616428800000,2.332],[1616515200000,2.308],[1616601600000,2.315],[1616688000000,2.338],[1616947200000,2.34],[1617033600000,2.35],[1617120000000,2.343],[1617206400000,2.35],[1617292800000,2.349],[1617638400000,2.358],[1617724800000,2.356],[1617811200000,2.35],[1617897600000,2.337],[1618156800000,2.31],[1618243200000,2.314],[1618329600000,2.326],[1618416000000,2.327],[1618502400000,2.33],[1618761600000,2.359],[1618848000000,2.365],[1618934400000,2.366],[1619020800000,2.383],[1619107200000,2.387],[1619366400000,2.382],[1619452800000,2.382],[1619539200000,2.383],[1619625600000,2.382],[1619712000000,2.385],[1620230400000,2.375],[1620316800000,2.354],[1620576000000,2.345],[1620662400000,2.334],[1620748800000,2.339],[1620835200000,2.332],[1620921600000,2.342],[1621180800000,2.361],[1621267200000,2.364],[1621353600000,2.376],[1621440000000,2.378],[1621526400000,2.371],[1621785600000,2.377],[1621872000000,2.391],[1621958400000,2.381],[1622044800000,2.389],[1622131200000,2.385],[1622390400000,2.4],[1622476800000,2.409],[1622563200000,2.403],[1622649600000,2.402],[1622736000000,2.403],[1622995200000,2.407],[1623081600000,2.401],[1623168000000,2.399],[1623254400000,2.406],[1623340800000,2.401],[1623686400000,2.401],[1623772800000,2.379],[1623859200000,2.385],[1623945600000,2.393],[1624204800000,2.414],[1624291200000,2.414],[1624377600000,2.426],[1624464000000,2.429],[1624550400000,2.433],[1624809600000,2.436],[1624896000000,2.423],[1624982400000,2.433],[1625068800000,2.428],[1625155200000,2.408],[1625414400000,2.405],[1625500800000,2.412],[1625587200000,2.423],[1625673600000,2.428],[1625760000000,2.43],[1626019200000,2.447],[1626105600000,2.449],[1626192000000,2.442],[1626278400000,2.444],[1626364800000,2.45]]</t>
+    <t xml:space="preserve"> [[1432828800000,1.0],[1433433600000,1.005],[1433692800000,0.998],[1433779200000,1.005],[1433865600000,1.006],[1433952000000,1.007],[1434038400000,1.008],[1434297600000,1.008],[1434384000000,1.006],[1434470400000,1.007],[1434556800000,1.006],[1434643200000,1.004],[1434988800000,1.004],[1435075200000,1.005],[1435161600000,1.004],[1435248000000,1.002],[1435507200000,1.001],[1435593600000,1.002],[1435680000000,1.001],[1435766400000,0.999],[1435852800000,0.997],[1436112000000,0.996],[1436198400000,0.993],[1436284800000,0.989],[1436371200000,0.989],[1436457600000,0.991],[1436716800000,0.991],[1436803200000,0.991],[1436889600000,0.991],[1436976000000,0.991],[1437062400000,0.991],[1437321600000,0.992],[1437408000000,0.992],[1437494400000,0.993],[1437580800000,0.994],[1437667200000,0.994],[1437926400000,0.994],[1438012800000,0.995],[1438099200000,0.996],[1438185600000,0.996],[1438272000000,0.996],[1438531200000,0.996],[1438617600000,0.997],[1438704000000,0.997],[1438790400000,0.998],[1438876800000,1.0],[1439136000000,1.0],[1439222400000,0.998],[1439308800000,0.997],[1439395200000,0.998],[1439481600000,0.999],[1439740800000,0.999],[1439827200000,0.999],[1439913600000,0.999],[1440000000000,0.999],[1440086400000,1.0],[1440345600000,1.001],[1440432000000,1.001],[1440518400000,1.001],[1440604800000,1.002],[1440691200000,1.002],[1440950400000,1.003],[1441036800000,1.003],[1441123200000,1.003],[1441555200000,1.003],[1441641600000,1.003],[1441728000000,1.003],[1441814400000,1.003],[1441900800000,1.003],[1442160000000,1.004],[1442246400000,1.005],[1442332800000,1.005],[1442419200000,1.005],[1442505600000,1.009],[1442764800000,1.009],[1442851200000,1.009],[1442937600000,1.009],[1443024000000,1.01],[1443110400000,1.01],[1443369600000,1.01],[1443456000000,1.012],[1443542400000,1.012],[1444233600000,1.013],[1444320000000,1.014],[1444579200000,1.016],[1444665600000,1.018],[1444752000000,1.02],[1444838400000,1.02],[1444924800000,1.02],[1445184000000,1.021],[1445270400000,1.022],[1445356800000,1.023],[1445443200000,1.023],[1445529600000,1.025],[1445788800000,1.028],[1445875200000,1.03],[1445961600000,1.032],[1446048000000,1.032],[1446134400000,1.032],[1446393600000,1.032],[1446480000000,1.032],[1446566400000,1.031],[1446652800000,1.032],[1446739200000,1.033],[1446998400000,1.028],[1447084800000,1.026],[1447171200000,1.027],[1447257600000,1.027],[1447344000000,1.027],[1447603200000,1.028],[1447689600000,1.028],[1447776000000,1.028],[1447862400000,1.028],[1447948800000,1.029],[1448208000000,1.028],[1448294400000,1.029],[1448380800000,1.03],[1448467200000,1.031],[1448553600000,1.028],[1448812800000,1.029],[1448899200000,1.029],[1448985600000,1.031],[1449072000000,1.032],[1449158400000,1.035],[1449417600000,1.037],[1449504000000,1.037],[1449590400000,1.038],[1449676800000,1.038],[1449763200000,1.038],[1450022400000,1.039],[1450108800000,1.039],[1450195200000,1.041],[1450281600000,1.042],[1450368000000,1.043],[1450627200000,1.045],[1450713600000,1.047],[1450800000000,1.048],[1450886400000,1.049],[1450972800000,1.049],[1451232000000,1.052],[1451318400000,1.055],[1451404800000,1.056],[1451491200000,1.056],[1451836800000,1.054],[1451923200000,1.054],[1452009600000,1.056],[1452096000000,1.055],[1452182400000,1.058],[1452441600000,1.057],[1452528000000,1.058],[1452614400000,1.059],[1452700800000,1.061],[1452787200000,1.059],[1453046400000,1.059],[1453132800000,1.06],[1453219200000,1.059],[1453305600000,1.057],[1453392000000,1.059],[1453651200000,1.059],[1453737600000,1.056],[1453824000000,1.055],[1453910400000,1.053],[1453996800000,1.055],[1454256000000,1.055],[1454342400000,1.055],[1454428800000,1.054],[1454515200000,1.055],[1454601600000,1.055],[1455465600000,1.057],[1455552000000,1.058],[1455638400000,1.058],[1455724800000,1.059],[1455811200000,1.06],[1456070400000,1.062],[1456156800000,1.062],[1456243200000,1.062],[1456329600000,1.06],[1456416000000,1.06],[1456675200000,1.059],[1456761600000,1.06],[1456848000000,1.062],[1456934400000,1.062],[1457020800000,1.062],[1457280000000,1.063],[1457366400000,1.063],[1457452800000,1.064],[1457539200000,1.064],[1457625600000,1.065],[1457884800000,1.067],[1457971200000,1.067],[1458057600000,1.067],[1458144000000,1.069],[1458230400000,1.071],[1458489600000,1.072],[1458576000000,1.072],[1458662400000,1.072],[1458748800000,1.072],[1458835200000,1.072],[1459094400000,1.072],[1459180800000,1.072],[1459267200000,1.073],[1459353600000,1.074],[1459440000000,1.074],[1459785600000,1.076],[1459872000000,1.076],[1459958400000,1.076],[1460044800000,1.075],[1460304000000,1.077],[1460390400000,1.075],[1460476800000,1.074],[1460563200000,1.073],[1460649600000,1.072],[1460908800000,1.072],[1460995200000,1.071],[1461081600000,1.069],[1461168000000,1.066],[1461254400000,1.064],[1461513600000,1.061],[1461600000000,1.06],[1461686400000,1.059],[1461772800000,1.06],[1461859200000,1.06],[1462204800000,1.062],[1462291200000,1.063],[1462377600000,1.064],[1462464000000,1.062],[1462723200000,1.061],[1462809600000,1.062],[1462896000000,1.061],[1462982400000,1.062],[1463068800000,1.062],[1463328000000,1.063],[1463414400000,1.063],[1463500800000,1.062],[1463587200000,1.062],[1463673600000,1.063],[1463932800000,1.065],[1464019200000,1.064],[1464105600000,1.065],[1464192000000,1.065],[1464278400000,1.065],[1464537600000,1.065],[1464624000000,1.067],[1464710400000,1.067],[1464796800000,1.068],[1464883200000,1.068],[1465142400000,1.069],[1465228800000,1.07],[1465315200000,1.07],[1465747200000,1.067],[1465833600000,1.068],[1465920000000,1.071],[1466006400000,1.07],[1466092800000,1.071],[1466352000000,1.072],[1466438400000,1.072],[1466524800000,1.073],[1466611200000,1.074],[1466697600000,1.074],[1466956800000,1.076],[1467043200000,1.077],[1467129600000,1.077],[1467216000000,1.077],[1467302400000,1.078],[1467561600000,1.081],[1467648000000,1.082],[1467734400000,1.082],[1467820800000,1.084],[1467907200000,1.084],[1468166400000,1.085],[1468252800000,1.086],[1468339200000,1.088],[1468425600000,1.088],[1468512000000,1.089],[1468771200000,1.089],[1468857600000,1.09],[1468944000000,1.09],[1469030400000,1.091],[1469116800000,1.09],[1469376000000,1.091],[1469462400000,1.092],[1469548800000,1.089],[1469635200000,1.09],[1469721600000,1.091],[1469980800000,1.09],[1470067200000,1.091],[1470153600000,1.092],[1470240000000,1.093],[1470326400000,1.093],[1470585600000,1.095],[1470672000000,1.097],[1470758400000,1.097],[1470844800000,1.096],[1470931200000,1.098],[1471190400000,1.1],[1471276800000,1.101],[1471363200000,1.102],[1471449600000,1.102],[1471536000000,1.102],[1471795200000,1.101],[1471881600000,1.101],[1471968000000,1.101],[1472054400000,1.1],[1472140800000,1.1],[1472400000000,1.101],[1472486400000,1.101],[1472572800000,1.101],[1472659200000,1.101],[1472745600000,1.1],[1473004800000,1.101],[1473091200000,1.103],[1473177600000,1.103],[1473264000000,1.103],[1473350400000,1.103],[1473609600000,1.102],[1473696000000,1.102],[1473782400000,1.102],[1474214400000,1.103],[1474300800000,1.103],[1474387200000,1.103],[1474473600000,1.104],[1474560000000,1.104],[1474819200000,1.103],[1474905600000,1.104],[1474992000000,1.104],[1475078400000,1.104],[1475164800000,1.105],[1476028800000,1.107],[1476115200000,1.107],[1476201600000,1.105],[1476288000000,1.1],[1476374400000,1.101],[1476633600000,1.101],[1476720000000,1.102],[1476806400000,1.102],[1476892800000,1.103],[1476979200000,1.103],[1477238400000,1.104],[1477324800000,1.105],[1477411200000,1.104],[1477497600000,1.104],[1477584000000,1.105],[1477843200000,1.104],[1477929600000,1.108],[1478016000000,1.107],[1478102400000,1.108],[1478188800000,1.11],[1478448000000,1.111],[1478534400000,1.113],[1478620800000,1.111],[1478707200000,1.114],[1478793600000,1.113],[1479052800000,1.114],[1479139200000,1.113],[1479225600000,1.115],[1479312000000,1.115],[1479398400000,1.115],[1479657600000,1.119],[1479744000000,1.12],[1479830400000,1.122],[1479916800000,1.122],[1480003200000,1.125],[1480262400000,1.127],[1480348800000,1.125],[1480435200000,1.119],[1480521600000,1.124],[1480608000000,1.117],[1480867200000,1.113],[1480953600000,1.111],[1481040000000,1.113],[1481126400000,1.113],[1481212800000,1.113],[1481472000000,1.1],[1481558400000,1.099],[1481644800000,1.095],[1481731200000,1.087],[1481817600000,1.089],[1482076800000,1.086],[1482163200000,1.082],[1482249600000,1.086],[1482336000000,1.089],[1482422400000,1.086],[1482681600000,1.088],[1482768000000,1.089],[1482854400000,1.09],[1482940800000,1.09],[1483027200000,1.092],[1483113600000,1.092],[1483372800000,1.097],[1483459200000,1.101],[1483545600000,1.1],[1483632000000,1.097],[1483891200000,1.101],[1483977600000,1.102],[1484064000000,1.102],[1484150400000,1.099],[1484236800000,1.098],[1484496000000,1.097],[1484582400000,1.098],[1484668800000,1.1],[1484755200000,1.099],[1484841600000,1.103],[1485100800000,1.106],[1485187200000,1.107],[1485273600000,1.109],[1485360000000,1.11],[1486051200000,1.107],[1486310400000,1.106],[1486396800000,1.105],[1486483200000,1.106],[1486569600000,1.108],[1486656000000,1.11],[1486915200000,1.112],[1487001600000,1.112],[1487088000000,1.109],[1487174400000,1.11],[1487260800000,1.109],[1487520000000,1.116],[1487606400000,1.119],[1487692800000,1.121],[1487779200000,1.122],[1487865600000,1.125],[1488124800000,1.124],[1488211200000,1.125],[1488297600000,1.126],[1488384000000,1.124],[1488470400000,1.126],[1488729600000,1.131],[1488816000000,1.131],[1488902400000,1.128],[1488988800000,1.126],[1489075200000,1.128],[1489334400000,1.134],[1489420800000,1.134],[1489507200000,1.138],[1489593600000,1.142],[1489680000000,1.137],[1489939200000,1.139],[1490025600000,1.142],[1490112000000,1.146],[1490198400000,1.149],[1490284800000,1.152],[1490544000000,1.149],[1490630400000,1.147],[1490716800000,1.148],[1490803200000,1.141],[1490889600000,1.144],[1491321600000,1.152],[1491408000000,1.155],[1491494400000,1.156],[1491753600000,1.153],[1491840000000,1.154],[1491926400000,1.155],[1492012800000,1.157],[1492099200000,1.148],[1492358400000,1.149],[1492444800000,1.15],[1492531200000,1.152],[1492617600000,1.155],[1492704000000,1.152],[1492963200000,1.147],[1493049600000,1.156],[1493136000000,1.159],[1493222400000,1.16],[1493308800000,1.159],[1493654400000,1.162],[1493740800000,1.159],[1493827200000,1.16],[1493913600000,1.158],[1494172800000,1.149],[1494259200000,1.152],[1494345600000,1.15],[1494432000000,1.155],[1494518400000,1.153],[1494777600000,1.158],[1494864000000,1.166],[1494950400000,1.164],[1495036800000,1.161],[1495123200000,1.159],[1495382400000,1.159],[1495468800000,1.156],[1495555200000,1.158],[1495641600000,1.158],[1495728000000,1.157],[1496160000000,1.158],[1496246400000,1.159],[1496332800000,1.159],[1496592000000,1.164],[1496678400000,1.169],[1496764800000,1.181],[1496851200000,1.187],[1496937600000,1.191],[1497196800000,1.188],[1497283200000,1.19],[1497369600000,1.181],[1497456000000,1.186],[1497542400000,1.185],[1497801600000,1.191],[1497888000000,1.193],[1497974400000,1.205],[1498060800000,1.2],[1498147200000,1.206],[1498406400000,1.215],[1498492800000,1.218],[1498579200000,1.21],[1498665600000,1.218],[1498752000000,1.22],[1499011200000,1.219],[1499097600000,1.217],[1499184000000,1.223],[1499270400000,1.224],[1499356800000,1.222],[1499616000000,1.217],[1499702400000,1.222],[1499788800000,1.223],[1499875200000,1.221],[1499961600000,1.224],[1500220800000,1.215],[1500307200000,1.213],[1500393600000,1.226],[1500480000000,1.23],[1500566400000,1.227],[1500825600000,1.232],[1500912000000,1.228],[1500998400000,1.223],[1501084800000,1.226],[1501171200000,1.228],[1501430400000,1.23],[1501516800000,1.231],[1501603200000,1.23],[1501689600000,1.224],[1501776000000,1.218],[1502035200000,1.222],[1502121600000,1.223],[1502208000000,1.226],[1502294400000,1.226],[1502380800000,1.219],[1502640000000,1.23],[1502726400000,1.234],[1502812800000,1.233],[1502899200000,1.233],[1502985600000,1.232],[1503244800000,1.234],[1503331200000,1.232],[1503417600000,1.231],[1503504000000,1.228],[1503590400000,1.232],[1503849600000,1.24],[1503936000000,1.242],[1504022400000,1.242],[1504108800000,1.241],[1504195200000,1.24],[1504454400000,1.249],[1504540800000,1.251],[1504627200000,1.25],[1504713600000,1.245],[1504800000000,1.248],[1505059200000,1.25],[1505145600000,1.251],[1505232000000,1.252],[1505318400000,1.252],[1505404800000,1.257],[1505664000000,1.261],[1505750400000,1.256],[1505836800000,1.259],[1505923200000,1.259],[1506009600000,1.26],[1506268800000,1.255],[1506355200000,1.254],[1506441600000,1.258],[1506528000000,1.261],[1506614400000,1.267],[1507478400000,1.275],[1507564800000,1.274],[1507651200000,1.28],[1507737600000,1.283],[1507824000000,1.288],[1508083200000,1.286],[1508169600000,1.289],[1508256000000,1.297],[1508342400000,1.296],[1508428800000,1.292],[1508688000000,1.296],[1508774400000,1.303],[1508860800000,1.307],[1508947200000,1.309],[1509033600000,1.31],[1509292800000,1.311],[1509379200000,1.317],[1509465600000,1.312],[1509552000000,1.312],[1509638400000,1.311],[1509897600000,1.327],[1509984000000,1.334],[1510070400000,1.329],[1510156800000,1.34],[1510243200000,1.356],[1510502400000,1.362],[1510588800000,1.355],[1510675200000,1.346],[1510761600000,1.351],[1510848000000,1.343],[1511107200000,1.356],[1511193600000,1.365],[1511280000000,1.359],[1511366400000,1.329],[1511452800000,1.329],[1511712000000,1.318],[1511798400000,1.325],[1511884800000,1.324],[1511971200000,1.31],[1512057600000,1.316],[1512316800000,1.321],[1512403200000,1.315],[1512489600000,1.313],[1512576000000,1.308],[1512662400000,1.321],[1512921600000,1.333],[1513008000000,1.325],[1513094400000,1.329],[1513180800000,1.325],[1513267200000,1.321],[1513526400000,1.322],[1513612800000,1.328],[1513699200000,1.327],[1513785600000,1.339],[1513872000000,1.341],[1514131200000,1.335],[1514217600000,1.338],[1514304000000,1.325],[1514390400000,1.327],[1514476800000,1.334],[1514649600000,1.334],[1514822400000,1.342],[1514908800000,1.35],[1514995200000,1.352],[1515081600000,1.352],[1515340800000,1.35],[1515427200000,1.354],[1515513600000,1.351],[1515600000000,1.349],[1515686400000,1.351],[1515945600000,1.344],[1516032000000,1.341],[1516118400000,1.334],[1516204800000,1.333],[1516291200000,1.333],[1516550400000,1.35],[1516636800000,1.357],[1516723200000,1.361],[1516809600000,1.357],[1516896000000,1.358],[1517155200000,1.344],[1517241600000,1.341],[1517328000000,1.342],[1517414400000,1.336],[1517500800000,1.345],[1517760000000,1.334],[1517846400000,1.312],[1517932800000,1.298],[1518019200000,1.313],[1518105600000,1.29],[1518364800000,1.319],[1518451200000,1.328],[1518537600000,1.331],[1519228800000,1.344],[1519315200000,1.338],[1519574400000,1.357],[1519660800000,1.354],[1519747200000,1.354],[1519833600000,1.366],[1519920000000,1.357],[1520179200000,1.359],[1520265600000,1.367],[1520352000000,1.365],[1520438400000,1.366],[1520524800000,1.378],[1520784000000,1.385],[1520870400000,1.376],[1520956800000,1.368],[1521043200000,1.371],[1521129600000,1.36],[1521388800000,1.36],[1521475200000,1.36],[1521561600000,1.359],[1521648000000,1.354],[1521734400000,1.328],[1521993600000,1.336],[1522080000000,1.347],[1522166400000,1.341],[1522252800000,1.345],[1522339200000,1.358],[1522598400000,1.358],[1522684800000,1.354],[1522771200000,1.346],[1523203200000,1.347],[1523289600000,1.354],[1523376000000,1.36],[1523462400000,1.359],[1523548800000,1.361],[1523808000000,1.362],[1523894400000,1.343],[1523980800000,1.351],[1524067200000,1.358],[1524153600000,1.348],[1524412800000,1.335],[1524499200000,1.353],[1524585600000,1.351],[1524672000000,1.334],[1524758400000,1.335],[1525190400000,1.336],[1525276800000,1.349],[1525363200000,1.347],[1525622400000,1.362],[1525708800000,1.374],[1525795200000,1.374],[1525881600000,1.377],[1525968000000,1.373],[1526227200000,1.378],[1526313600000,1.386],[1526400000000,1.379],[1526486400000,1.37],[1526572800000,1.375],[1526832000000,1.387],[1526918400000,1.391],[1527004800000,1.386],[1527091200000,1.377],[1527177600000,1.369],[1527436800000,1.373],[1527523200000,1.374],[1527609600000,1.359],[1527696000000,1.362],[1527782400000,1.351],[1528041600000,1.346],[1528128000000,1.358],[1528214400000,1.358],[1528300800000,1.357],[1528387200000,1.356],[1528646400000,1.355],[1528732800000,1.363],[1528819200000,1.351],[1528905600000,1.349],[1528992000000,1.337],[1529337600000,1.305],[1529424000000,1.315],[1529510400000,1.304],[1529596800000,1.313],[1529856000000,1.31],[1529942400000,1.312],[1530028800000,1.304],[1530115200000,1.3],[1530201600000,1.322],[1530288000000,1.322],[1530460800000,1.308],[1530547200000,1.31],[1530633600000,1.296],[1530720000000,1.29],[1530806400000,1.292],[1531065600000,1.308],[1531152000000,1.311],[1531238400000,1.3],[1531324800000,1.316],[1531411200000,1.321],[1531670400000,1.319],[1531756800000,1.318],[1531843200000,1.312],[1531929600000,1.317],[1532016000000,1.325],[1532275200000,1.334],[1532361600000,1.345],[1532448000000,1.343],[1532534400000,1.331],[1532620800000,1.329],[1532880000000,1.321],[1532966400000,1.321],[1533052800000,1.315],[1533139200000,1.297],[1533225600000,1.285],[1533484800000,1.269],[1533571200000,1.286],[1533657600000,1.275],[1533744000000,1.292],[1533830400000,1.298],[1534089600000,1.301],[1534176000000,1.296],[1534262400000,1.279],[1534348800000,1.277],[1534435200000,1.264],[1534694400000,1.27],[1534780800000,1.283],[1534867200000,1.277],[1534953600000,1.281],[1535040000000,1.28],[1535299200000,1.298],[1535385600000,1.299],[1535472000000,1.293],[1535558400000,1.286],[1535644800000,1.282],[1535904000000,1.283],[1535990400000,1.288],[1536076800000,1.279],[1536163200000,1.271],[1536249600000,1.268],[1536508800000,1.255],[1536595200000,1.255],[1536681600000,1.25],[1536768000000,1.256],[1536854400000,1.254],[1537113600000,1.247],[1537200000000,1.257],[1537286400000,1.267],[1537372800000,1.267],[1537459200000,1.28],[1537804800000,1.275],[1537891200000,1.283],[1537977600000,1.278],[1538064000000,1.285],[1538928000000,1.259],[1539014400000,1.256],[1539100800000,1.253],[1539187200000,1.227],[1539273600000,1.237],[1539532800000,1.229],[1539619200000,1.218],[1539705600000,1.229],[1539792000000,1.222],[1539878400000,1.237],[1540137600000,1.262],[1540224000000,1.249],[1540310400000,1.244],[1540396800000,1.239],[1540483200000,1.236],[1540742400000,1.223],[1540828800000,1.226],[1540915200000,1.236],[1541001600000,1.246],[1541088000000,1.272],[1541347200000,1.276],[1541433600000,1.271],[1541520000000,1.266],[1541606400000,1.262],[1541692800000,1.264],[1541952000000,1.283],[1542038400000,1.285],[1542124800000,1.284],[1542211200000,1.288],[1542297600000,1.292],[1542556800000,1.291],[1542643200000,1.275],[1542729600000,1.276],[1542816000000,1.275],[1542902400000,1.261],[1543161600000,1.261],[1543248000000,1.262],[1543334400000,1.274],[1543420800000,1.265],[1543507200000,1.272],[1543766400000,1.299],[1543852800000,1.297],[1543939200000,1.296],[1544025600000,1.282],[1544112000000,1.284],[1544371200000,1.28],[1544457600000,1.281],[1544544000000,1.284],[1544630400000,1.294],[1544716800000,1.283],[1544976000000,1.275],[1545062400000,1.27],[1545148800000,1.264],[1545235200000,1.262],[1545321600000,1.259],[1545580800000,1.267],[1545667200000,1.267],[1545753600000,1.262],[1545840000000,1.26],[1545926400000,1.256],[1546185600000,1.256],[1546358400000,1.255],[1546444800000,1.249],[1546531200000,1.259],[1546790400000,1.272],[1546876800000,1.27],[1546963200000,1.279],[1547049600000,1.288],[1547136000000,1.288],[1547395200000,1.285],[1547481600000,1.299],[1547568000000,1.296],[1547654400000,1.289],[1547740800000,1.301],[1548000000000,1.307],[1548086400000,1.302],[1548172800000,1.301],[1548259200000,1.307],[1548345600000,1.315],[1548604800000,1.316],[1548691200000,1.315],[1548777600000,1.31],[1548864000000,1.311],[1548950400000,1.324],[1549814400000,1.343],[1549900800000,1.349],[1549987200000,1.358],[1550073600000,1.361],[1550160000000,1.352],[1550419200000,1.377],[1550505600000,1.377],[1550592000000,1.386],[1550678400000,1.388],[1550764800000,1.41],[1551024000000,1.439],[1551110400000,1.431],[1551196800000,1.418],[1551283200000,1.422],[1551369600000,1.427],[1551628800000,1.437],[1551715200000,1.449],[1551801600000,1.447],[1551888000000,1.436],[1551974400000,1.423],[1552233600000,1.454],[1552320000000,1.462],[1552406400000,1.448],[1552492800000,1.443],[1552579200000,1.453],[1552838400000,1.468],[1552924800000,1.468],[1553011200000,1.464],[1553097600000,1.47],[1553184000000,1.472],[1553443200000,1.458],[1553529600000,1.44],[1553616000000,1.449],[1553702400000,1.45],[1553788800000,1.475],[1554048000000,1.502],[1554134400000,1.499],[1554220800000,1.506],[1554307200000,1.516],[1554652800000,1.502],[1554739200000,1.504],[1554825600000,1.507],[1554912000000,1.49],[1554998400000,1.49],[1555257600000,1.484],[1555344000000,1.499],[1555430400000,1.51],[1555516800000,1.511],[1555603200000,1.529],[1555862400000,1.509],[1555948800000,1.502],[1556035200000,1.507],[1556121600000,1.49],[1556208000000,1.483],[1556467200000,1.48],[1556553600000,1.482],[1557072000000,1.436],[1557158400000,1.446],[1557244800000,1.432],[1557331200000,1.425],[1557417600000,1.457],[1557676800000,1.438],[1557763200000,1.436],[1557849600000,1.458],[1557936000000,1.456],[1558022400000,1.43],[1558281600000,1.42],[1558368000000,1.434],[1558454400000,1.433],[1558540800000,1.416],[1558627200000,1.417],[1558886400000,1.426],[1558972800000,1.432],[1559059200000,1.431],[1559145600000,1.428],[1559232000000,1.429],[1559491200000,1.425],[1559577600000,1.416],[1559664000000,1.416],[1559750400000,1.404],[1560096000000,1.416],[1560182400000,1.435],[1560268800000,1.427],[1560355200000,1.423],[1560441600000,1.414],[1560700800000,1.409],[1560787200000,1.409],[1560873600000,1.431],[1560960000000,1.447],[1561046400000,1.456],[1561305600000,1.457],[1561392000000,1.449],[1561478400000,1.455],[1561564800000,1.474],[1561651200000,1.475],[1561824000000,1.475],[1561910400000,1.503],[1561996800000,1.5],[1562083200000,1.493],[1562169600000,1.492],[1562256000000,1.495],[1562515200000,1.476],[1562601600000,1.477],[1562688000000,1.474],[1562774400000,1.474],[1562860800000,1.481],[1563120000000,1.488],[1563206400000,1.49],[1563292800000,1.489],[1563379200000,1.482],[1563465600000,1.485],[1563724800000,1.506],[1563811200000,1.513],[1563897600000,1.521],[1563984000000,1.531],[1564070400000,1.536],[1564329600000,1.537],[1564416000000,1.537],[1564502400000,1.537],[1564588800000,1.535],[1564675200000,1.526],[1564934400000,1.517],[1565020800000,1.515],[1565107200000,1.511],[1565193600000,1.525],[1565280000000,1.519],[1565539200000,1.537],[1565625600000,1.534],[1565712000000,1.539],[1565798400000,1.552],[1565884800000,1.557],[1566144000000,1.575],[1566230400000,1.573],[1566316800000,1.589],[1566403200000,1.58],[1566489600000,1.586],[1566748800000,1.581],[1566835200000,1.593],[1566921600000,1.591],[1567008000000,1.592],[1567094400000,1.583],[1567353600000,1.597],[1567440000000,1.609],[1567526400000,1.61],[1567612800000,1.612],[1567699200000,1.616],[1567958400000,1.627],[1568044800000,1.622],[1568131200000,1.613],[1568217600000,1.623],[1568563200000,1.633],[1568649600000,1.624],[1568736000000,1.629],[1568822400000,1.637],[1568908800000,1.643],[1569168000000,1.641],[1569254400000,1.646],[1569340800000,1.633],[1569427200000,1.621],[1569513600000,1.634],[1569772800000,1.625],[1570464000000,1.624],[1570550400000,1.624],[1570636800000,1.64],[1570723200000,1.644],[1570982400000,1.66],[1571068800000,1.65],[1571155200000,1.643],[1571241600000,1.65],[1571328000000,1.64],[1571587200000,1.639],[1571673600000,1.649],[1571760000000,1.644],[1571846400000,1.648],[1571932800000,1.659],[1572192000000,1.667],[1572278400000,1.667],[1572364800000,1.666],[1572451200000,1.658],[1572537600000,1.673],[1572796800000,1.681],[1572883200000,1.689],[1572969600000,1.689],[1573056000000,1.692],[1573142400000,1.695],[1573401600000,1.679],[1573488000000,1.678],[1573574400000,1.685],[1573660800000,1.691],[1573747200000,1.684],[1574006400000,1.693],[1574092800000,1.707],[1574179200000,1.704],[1574265600000,1.704],[1574352000000,1.687],[1574611200000,1.684],[1574697600000,1.689],[1574784000000,1.689],[1574870400000,1.689],[1574956800000,1.683],[1575216000000,1.687],[1575302400000,1.694],[1575388800000,1.697],[1575475200000,1.71],[1575561600000,1.722],[1575820800000,1.722],[1575907200000,1.727],[1575993600000,1.726],[1576080000000,1.723],[1576166400000,1.736],[1576425600000,1.753],[1576512000000,1.762],[1576598400000,1.76],[1576684800000,1.753],[1576771200000,1.747],[1577030400000,1.74],[1577116800000,1.75],[1577203200000,1.753],[1577289600000,1.756],[1577376000000,1.748],[1577635200000,1.76],[1577721600000,1.767],[1577894400000,1.79],[1577980800000,1.788],[1578240000000,1.793],[1578326400000,1.802],[1578412800000,1.796],[1578499200000,1.819],[1578585600000,1.817],[1578844800000,1.83],[1578931200000,1.827],[1579017600000,1.831],[1579104000000,1.834],[1579190400000,1.831],[1579449600000,1.855],[1579536000000,1.853],[1579622400000,1.863],[1579708800000,1.837],[1580659200000,1.777],[1580745600000,1.818],[1580832000000,1.827],[1580918400000,1.836],[1581004800000,1.84],[1581264000000,1.849],[1581350400000,1.865],[1581436800000,1.872],[1581523200000,1.863],[1581609600000,1.867],[1581868800000,1.892],[1581955200000,1.895],[1582041600000,1.89],[1582128000000,1.907],[1582214400000,1.919],[1582473600000,1.927],[1582560000000,1.926],[1582646400000,1.905],[1582732800000,1.913],[1582819200000,1.886],[1583078400000,1.913],[1583164800000,1.912],[1583251200000,1.909],[1583337600000,1.921],[1583424000000,1.912],[1583683200000,1.881],[1583769600000,1.899],[1583856000000,1.888],[1583942400000,1.867],[1584028800000,1.856],[1584288000000,1.808],[1584374400000,1.797],[1584460800000,1.783],[1584547200000,1.774],[1584633600000,1.786],[1584892800000,1.745],[1584979200000,1.763],[1585065600000,1.797],[1585152000000,1.788],[1585238400000,1.792],[1585497600000,1.778],[1585584000000,1.783],[1585670400000,1.789],[1585756800000,1.805],[1585843200000,1.799],[1586188800000,1.823],[1586275200000,1.822],[1586361600000,1.821],[1586448000000,1.815],[1586707200000,1.803],[1586793600000,1.82],[1586880000000,1.816],[1586966400000,1.821],[1587052800000,1.834],[1587312000000,1.84],[1587398400000,1.829],[1587484800000,1.835],[1587571200000,1.83],[1587657600000,1.83],[1587916800000,1.834],[1588003200000,1.842],[1588089600000,1.852],[1588176000000,1.866],[1588694400000,1.869],[1588780800000,1.868],[1588867200000,1.877],[1589126400000,1.876],[1589212800000,1.878],[1589299200000,1.878],[1589385600000,1.865],[1589472000000,1.864],[1589731200000,1.86],[1589817600000,1.869],[1589904000000,1.86],[1589990400000,1.853],[1590076800000,1.84],[1590336000000,1.837],[1590422400000,1.851],[1590508800000,1.846],[1590595200000,1.845],[1590681600000,1.849],[1590940800000,1.877],[1591027200000,1.874],[1591113600000,1.87],[1591200000000,1.87],[1591286400000,1.866],[1591545600000,1.875],[1591632000000,1.884],[1591718400000,1.886],[1591804800000,1.887],[1591891200000,1.889],[1592150400000,1.877],[1592236800000,1.888],[1592323200000,1.887],[1592409600000,1.899],[1592496000000,1.905],[1592755200000,1.905],[1592841600000,1.906],[1592928000000,1.918],[1593360000000,1.921],[1593446400000,1.935],[1593532800000,1.953],[1593619200000,1.958],[1593705600000,1.965],[1593964800000,2.005],[1594051200000,2.005],[1594137600000,2.021],[1594224000000,2.037],[1594310400000,2.021],[1594569600000,2.038],[1594656000000,2.03],[1594742400000,2.023],[1594828800000,1.985],[1594915200000,1.996],[1595174400000,2.031],[1595260800000,2.039],[1595347200000,2.051],[1595433600000,2.061],[1595520000000,2.025],[1595779200000,2.032],[1595865600000,2.041],[1595952000000,2.066],[1596038400000,2.065],[1596124800000,2.076],[1596384000000,2.09],[1596470400000,2.09],[1596556800000,2.094],[1596643200000,2.09],[1596729600000,2.091],[1596988800000,2.099],[1597075200000,2.09],[1597161600000,2.088],[1597248000000,2.098],[1597334400000,2.111],[1597593600000,2.125],[1597680000000,2.131],[1597766400000,2.115],[1597852800000,2.103],[1597939200000,2.118],[1598198400000,2.146],[1598284800000,2.145],[1598371200000,2.127],[1598457600000,2.134],[1598544000000,2.151],[1598803200000,2.144],[1598889600000,2.163],[1598976000000,2.174],[1599062400000,2.165],[1599148800000,2.162],[1599408000000,2.14],[1599494400000,2.144],[1599580800000,2.12],[1599667200000,2.125],[1599753600000,2.152],[1600012800000,2.17],[1600099200000,2.178],[1600185600000,2.183],[1600272000000,2.196],[1600358400000,2.205],[1600617600000,2.195],[1600704000000,2.184],[1600790400000,2.205],[1600876800000,2.172],[1600963200000,2.173],[1601222400000,2.177],[1601308800000,2.181],[1601395200000,2.182],[1602172800000,2.223],[1602432000000,2.233],[1602518400000,2.245],[1602604800000,2.232],[1602691200000,2.226],[1602777600000,2.218],[1603036800000,2.202],[1603123200000,2.222],[1603209600000,2.214],[1603296000000,2.208],[1603382400000,2.19],[1603641600000,2.208],[1603728000000,2.214],[1603814400000,2.215],[1603900800000,2.226],[1603987200000,2.218],[1604246400000,2.245],[1604332800000,2.247],[1604419200000,2.26],[1604505600000,2.287],[1604592000000,2.28],[1604851200000,2.295],[1604937600000,2.298],[1605024000000,2.28],[1605110400000,2.291],[1605196800000,2.272],[1605456000000,2.265],[1605542400000,2.255],[1605628800000,2.242],[1605715200000,2.252],[1605801600000,2.258],[1606060800000,2.27],[1606147200000,2.262],[1606233600000,2.244],[1606320000000,2.236],[1606406400000,2.244],[1606665600000,2.247],[1606752000000,2.268],[1606838400000,2.264],[1606924800000,2.265],[1607011200000,2.266],[1607270400000,2.267],[1607356800000,2.267],[1607443200000,2.256],[1607529600000,2.268],[1607616000000,2.256],[1607875200000,2.266],[1607961600000,2.277],[1608048000000,2.278],[1608134400000,2.277],[1608220800000,2.278],[1608480000000,2.302],[1608566400000,2.282],[1608652800000,2.31],[1608739200000,2.297],[1608825600000,2.312],[1609084800000,2.306],[1609171200000,2.299],[1609257600000,2.308],[1609344000000,2.328],[1609689600000,2.35],[1609776000000,2.361],[1609862400000,2.367],[1609948800000,2.39],[1610035200000,2.396],[1610294400000,2.382],[1610380800000,2.399],[1610467200000,2.405],[1610553600000,2.399],[1610640000000,2.389],[1610899200000,2.416],[1610985600000,2.404],[1611072000000,2.424],[1611158400000,2.437],[1611244800000,2.44],[1611504000000,2.447],[1611590400000,2.434],[1611676800000,2.439],[1611763200000,2.399],[1611849600000,2.381],[1612108800000,2.395],[1612195200000,2.416],[1612281600000,2.406],[1612368000000,2.401],[1612454400000,2.38],[1612713600000,2.388],[1612800000000,2.413],[1612886400000,2.434],[1613577600000,2.446],[1613664000000,2.451],[1613923200000,2.439],[1614009600000,2.429],[1614096000000,2.401],[1614182400000,2.404],[1614268800000,2.382],[1614528000000,2.414],[1614614400000,2.42],[1614700800000,2.43],[1614787200000,2.394],[1614873600000,2.401],[1615132800000,2.382],[1615219200000,2.353],[1615305600000,2.349],[1615392000000,2.367],[1615478400000,2.364],[1615737600000,2.341],[1615824000000,2.349],[1615910400000,2.351],[1615996800000,2.356],[1616083200000,2.337],[1616342400000,2.351],[1616428800000,2.332],[1616515200000,2.308],[1616601600000,2.315],[1616688000000,2.338],[1616947200000,2.34],[1617033600000,2.35],[1617120000000,2.343],[1617206400000,2.35],[1617292800000,2.349],[1617638400000,2.358],[1617724800000,2.356],[1617811200000,2.35],[1617897600000,2.337],[1618156800000,2.31],[1618243200000,2.314],[1618329600000,2.326],[1618416000000,2.327],[1618502400000,2.33],[1618761600000,2.359],[1618848000000,2.365],[1618934400000,2.366],[1619020800000,2.383],[1619107200000,2.387],[1619366400000,2.382],[1619452800000,2.382],[1619539200000,2.383],[1619625600000,2.382],[1619712000000,2.385],[1620230400000,2.375],[1620316800000,2.354],[1620576000000,2.345],[1620662400000,2.334],[1620748800000,2.339],[1620835200000,2.332],[1620921600000,2.342],[1621180800000,2.361],[1621267200000,2.364],[1621353600000,2.376],[1621440000000,2.378],[1621526400000,2.371],[1621785600000,2.377],[1621872000000,2.391],[1621958400000,2.381],[1622044800000,2.389],[1622131200000,2.385],[1622390400000,2.4],[1622476800000,2.409],[1622563200000,2.403],[1622649600000,2.402],[1622736000000,2.403],[1622995200000,2.407],[1623081600000,2.401],[1623168000000,2.399],[1623254400000,2.406],[1623340800000,2.401],[1623686400000,2.401],[1623772800000,2.379],[1623859200000,2.385],[1623945600000,2.393],[1624204800000,2.414],[1624291200000,2.414],[1624377600000,2.426],[1624464000000,2.429],[1624550400000,2.433],[1624809600000,2.436],[1624896000000,2.423],[1624982400000,2.433],[1625068800000,2.428],[1625155200000,2.408],[1625414400000,2.405],[1625500800000,2.412],[1625587200000,2.423],[1625673600000,2.428],[1625760000000,2.43],[1626019200000,2.447],[1626105600000,2.449],[1626192000000,2.442],[1626278400000,2.444],[1626364800000,2.45],[1626624000000,2.444],[1</t>
+  </si>
+  <si>
+    <t>[[1264003200000, 0.0], [1271174400000, 2.0], [1272902400000, -0.6], [1274716800000, -11.6], [1276704000000, -3.6], [1278432000000, -6.3], [1280073600000, -2.8], [1281542400000, -2.9], [1283184000000, -3.8], [1284652800000, 1.2], [1287417600000, 4.3], [1288886400000, 10.5], [1290528000000, 6.7], [1292169600000, 6.5], [1294070400000, 8.7], [1295539200000, 5.4], [1297785600000, 2.4], [1299513600000, 3.9], [1300982400000, 5.4], [1302796800000, 12.5], [1305043200000, 10.7], [1306684800000, 8.2], [1308240000000, 2.0], [1309968000000, 11.2], [1311609600000, 9.5], [1313078400000, -7.5], [1314806400000, -3.1], [1316620800000, -19.2], [1318953600000, -17.5], [1320595200000, -13.2], [1322064000000, -22.4], [1323705600000, -21.4], [1325606400000, -21.9], [1327852800000, -18.1], [1329321600000, -14.6], [1331049600000, -16.4], [1332691200000, -17.6], [1334764800000, -17.2], [1336579200000, -20.9], [1338307200000, -25.1], [1340035200000, -22.6], [1341763200000, -23.2], [1343232000000, -24.6], [1344873600000, -18.6], [1346601600000, -20.9], [1348070400000, -18.3], [1350230400000, -17.6], [1352131200000, -15.5], [1353859200000, -16.4], [1355328000000, -12.9], [1357660800000, -9.3], [1359388800000, -8.5], [1361721600000, -10.0], [1363276800000, -11.4], [1365436800000, -14.4], [1366905600000, -12.3], [1369065600000, -11.4], [1371139200000, -19.8], [1372780800000, -24.1], [1374508800000, -20.1], [1375977600000, -21.5], [1377792000000, -22.3], [1379952000000, -17.0], [1382371200000, -15.6], [1383840000000, -18.7], [1385481600000, -17.8], [1387209600000, -20.8], [1388937600000, -23.0], [1390406400000, -23.0], [1392652800000, -22.9], [1394121600000, -21.2], [1395763200000, -23.7], [1397491200000, -23.2], [1399305600000, -25.2], [1400774400000, -24.8], [1402588800000, -23.5], [1404316800000, -20.6], [1406044800000, -20.1], [1407686400000, -18.2], [1409155200000, -19.1], [1411056000000, -18.5], [1413302400000, -19.7], [1414944000000, -17.5], [1416412800000, -17.7], [1418140800000, -22.5], [1420387200000, -21.3], [1421942400000, -22.3], [1423584000000, -26.9], [1425916800000, -23.6], [1427385600000, -22.3], [1429459200000, -7.3], [1431014400000, -3.0], [1432742400000, 5.0], [1434384000000, -2.0], [1436284800000, -39.6], [1437926400000, -27.1], [1439395200000, -21.6], [1441036800000, -35.8], [1442937600000, -31.8], [1445270400000, -24.1], [1446998400000, -21.3], [1448553600000, -22.6], [1450195200000, -23.6], [1452096000000, -27.9], [1453824000000, -36.2], [1456156800000, -32.7], [1457625600000, -34.7], [1459440000000, -31.2], [1461168000000, -28.3], [1462896000000, -31.6], [1464537600000, -30.5], [1466352000000, -31.3], [1467907200000, -30.9], [1469548800000, -28.4], [1471276800000, -25.8], [1472745600000, -25.5], [1474560000000, -22.2], [1476892800000, -23.1], [1478620800000, -25.2], [1480262400000, -22.7], [1481731200000, -28.2], [1483545600000, -26.7], [1485273600000, -25.7], [1487606400000, -20.7], [1489075200000, -18.8], [1490716800000, -18.2], [1492704000000, -16.6], [1494518400000, -13.6], [1496332800000, -13.5], [1497974400000, -13.2], [1499702400000, -12.4], [1501171200000, -9.3], [1502812800000, -9.3], [1504627200000, -8.1], [1506268800000, -6.3], [1508342400000, -3.7], [1509984000000, 0.4], [1511712000000, 1.7], [1513180800000, -0.2], [1514995200000, 6.2], [1516723200000, 8.2], [1518364800000, -2.7], [1520438400000, 6.2], [1522080000000, 3.1], [1524067200000, 1.5], [1525881600000, 7.0], [1527696000000, 9.6], [1529424000000, 9.6], [1531152000000, 4.6], [1532620800000, 6.9], [1534262400000, -1.9], [1535990400000, -1.6], [1537459200000, -1.4], [1540137600000, -9.2], [1541606400000, -10.2], [1543334400000, -10.8], [1545062400000, -16.5], [1547049600000, -16.5], [1548777600000, -11.8], [1551110400000, -8.4], [1552579200000, -5.8], [1554220800000, -2.3], [1556121600000, -3.4], [1558281600000, -11.9], [1560096000000, -12.1], [1561564800000, -7.7], [1563292800000, -7.5], [1565020800000, -12.3], [1566489600000, -8.1], [1568217600000, -5.3], [1570550400000, -9.9], [1572192000000, -3.5], [1573660800000, -3.8], [1575302400000, -4.8], [1576771200000, 1.8], [1578499200000, 6.1], [1580832000000, 6.1], [1582473600000, 6.2], [1583942400000, -3.3], [1585584000000, -3.6], [1587312000000, 2.9], [1589212800000, 7.3], [1590681600000, 13.6], [1592323200000, 25.4], [1594137600000, 36.6], [1595779200000, 31.2], [1597248000000, 31.5], [1598889600000, 43.5], [1600358400000, 37.0], [1602691200000, 39.6], [1604332800000, 42.0], [1605801600000, 51.9], [1607443200000, 45.1], [1609084800000, 43.1], [1610640000000, 52.7], [1612281600000, 73.4], [1614528000000, 69.4], [1615996800000, 60.7], [1617724800000, 51.9], [1619366400000, 55.7], [1621267200000, 38.5], [1622736000000, 35.5], [1624464000000, 33.6], [1626105600000, 30.4], [1627574400000, 17.1], [1628179200000, 18.5]]</t>
   </si>
   <si>
     <t>118001</t>
@@ -197,13 +257,19 @@
     <t xml:space="preserve"> [[1264003200000,1.0],[1264089600000,1.0],[1264694400000,1.0],[1265299200000,1.0],[1265904000000,1.0],[1267113600000,1.0],[1267718400000,1.001],[1268323200000,1.001],[1268928000000,1.003],[1269532800000,1.002],[1270137600000,1.014],[1270742400000,1.02],[1271088000000,1.013],[1271174400000,1.02],[1271260800000,1.019],[1271347200000,1.014],[1271606400000,1.006],[1271692800000,1.011],[1271779200000,1.019],[1271865600000,1.017],[1271952000000,1.019],[1272211200000,1.026],[1272297600000,1.016],[1272384000000,1.007],[1272470400000,1.007],[1272556800000,1.014],[1272902400000,0.994],[1273075200000,0.965],[1273161600000,0.948],[1273420800000,0.981],[1273507200000,0.974],[1273593600000,0.971],[1273680000000,0.981],[1273766400000,0.975],[1274025600000,0.951],[1274112000000,0.949],[1274198400000,0.933],[1274284800000,0.912],[1274630400000,0.914],[1274716800000,0.884],[1274803200000,0.893],[1274889600000,0.918],[1274976000000,0.935],[1275235200000,0.938],[1275321600000,0.926],[1275494400000,0.946],[1275580800000,0.943],[1275840000000,0.922],[1275926400000,0.926],[1276012800000,0.923],[1276099200000,0.93],[1276185600000,0.939],[1276704000000,0.964],[1276790400000,0.969],[1277049600000,0.993],[1277136000000,0.979],[1277222400000,0.977],[1277308800000,0.976],[1277395200000,0.964],[1277654400000,0.967],[1277740800000,0.949],[1277827200000,0.951],[1278000000000,0.932],[1278259200000,0.932],[1278345600000,0.941],[1278432000000,0.937],[1278518400000,0.947],[1278604800000,0.96],[1278864000000,0.964],[1278950400000,0.963],[1279036800000,0.968],[1279123200000,0.967],[1279209600000,0.961],[1279468800000,0.958],[1279555200000,0.961],[1279641600000,0.962],[1279728000000,0.963],[1279814400000,0.967],[1280073600000,0.972],[1280160000000,0.973],[1280246400000,0.97],[1280332800000,0.968],[1280419200000,0.971],[1280678400000,0.989],[1280764800000,0.991],[1280851200000,0.994],[1280937600000,0.991],[1281024000000,0.993],[1281283200000,0.997],[1281369600000,0.988],[1281456000000,0.975],[1281542400000,0.971],[1281628800000,0.978],[1281888000000,0.979],[1281974400000,0.985],[1282060800000,0.987],[1282147200000,0.992],[1282233600000,0.987],[1282492800000,0.984],[1282579200000,0.974],[1282665600000,0.963],[1282752000000,0.963],[1282838400000,0.961],[1283097600000,0.969],[1283184000000,0.962],[1283270400000,0.98],[1283356800000,0.987],[1283443200000,0.99],[1283702400000,0.997],[1283788800000,0.994],[1283875200000,0.994],[1283961600000,1.0],[1284048000000,1.001],[1284307200000,1.011],[1284393600000,1.006],[1284480000000,1.007],[1284566400000,1.0],[1284652800000,1.012],[1284912000000,1.016],[1285516800000,1.035],[1285603200000,1.031],[1285689600000,1.036],[1285776000000,1.039],[1286467200000,1.049],[1286726400000,1.049],[1286812800000,1.039],[1286899200000,1.056],[1286985600000,1.067],[1287072000000,1.066],[1287331200000,1.055],[1287417600000,1.043],[1287504000000,1.05],[1287590400000,1.059],[1287676800000,1.062],[1287936000000,1.069],[1288022400000,1.071],[1288108800000,1.056],[1288195200000,1.06],[1288281600000,1.06],[1288540800000,1.074],[1288627200000,1.079],[1288713600000,1.093],[1288800000000,1.103],[1288886400000,1.105],[1289145600000,1.11],[1289232000000,1.105],[1289318400000,1.105],[1289404800000,1.092],[1289491200000,1.069],[1289750400000,1.07],[1289836800000,1.056],[1289923200000,1.046],[1290009600000,1.066],[1290096000000,1.068],[1290355200000,1.082],[1290441600000,1.065],[1290528000000,1.067],[1290614400000,1.067],[1290700800000,1.049],[1290960000000,1.056],[1291046400000,1.051],[1291132800000,1.066],[1291219200000,1.077],[1291305600000,1.072],[1291564800000,1.066],[1291651200000,1.07],[1291737600000,1.061],[1291824000000,1.061],[1291910400000,1.063],[1292169600000,1.065],[1292256000000,1.073],[1292342400000,1.06],[1292428800000,1.052],[1292515200000,1.056],[1292774400000,1.046],[1292860800000,1.055],[1292947200000,1.055],[1293033600000,1.05],[1293465600000,1.035],[1293552000000,1.046],[1293638400000,1.053],[1293724800000,1.057],[1294070400000,1.087],[1294156800000,1.088],[1294243200000,1.088],[1294329600000,1.085],[1294588800000,1.075],[1294675200000,1.08],[1294761600000,1.09],[1294848000000,1.091],[1294934400000,1.087],[1295193600000,1.073],[1295280000000,1.075],[1295366400000,1.082],[1295452800000,1.066],[1295539200000,1.054],[1295798400000,1.055],[1295884800000,1.054],[1295971200000,1.062],[1296057600000,1.062],[1296144000000,1.052],[1296403200000,1.04],[1296489600000,1.041],[1297180800000,1.023],[1297267200000,1.005],[1297353600000,1.006],[1297612800000,1.027],[1297699200000,1.027],[1297785600000,1.024],[1297872000000,1.028],[1297958400000,1.039],[1298217600000,1.038],[1298304000000,1.013],[1298390400000,1.006],[1298476800000,0.986],[1298563200000,1.002],[1298822400000,1.003],[1298995200000,1.004],[1299081600000,1.025],[1299168000000,1.037],[1299427200000,1.026],[1299513600000,1.039],[1299600000000,1.04],[1299686400000,1.028],[1299772800000,1.015],[1300032000000,1.023],[1300118400000,1.0],[1300204800000,1.008],[1300291200000,0.998],[1300377600000,1.005],[1300636800000,1.017],[1300723200000,1.025],[1300809600000,1.032],[1300896000000,1.044],[1300982400000,1.054],[1301241600000,1.05],[1301328000000,1.057],[1301414400000,1.078],[1301500800000,1.086],[1301587200000,1.096],[1302019200000,1.112],[1302105600000,1.111],[1302192000000,1.118],[1302451200000,1.112],[1302537600000,1.091],[1302624000000,1.111],[1302710400000,1.12],[1302796800000,1.125],[1303056000000,1.124],[1303142400000,1.116],[1303228800000,1.141],[1303315200000,1.159],[1303747200000,1.158],[1303833600000,1.143],[1303920000000,1.145],[1304006400000,1.139],[1304352000000,1.124],[1304438400000,1.105],[1304611200000,1.09],[1304870400000,1.096],[1305043200000,1.107],[1305129600000,1.09],[1305216000000,1.089],[1305475200000,1.075],[1305561600000,1.073],[1305648000000,1.088],[1305734400000,1.081],[1305820800000,1.081],[1306080000000,1.046],[1306166400000,1.055],[1306252800000,1.044],[1306339200000,1.072],[1306425600000,1.079],[1306684800000,1.082],[1306771200000,1.103],[1306857600000,1.1],[1306944000000,1.089],[1307030400000,1.074],[1307376000000,1.062],[1307462400000,1.056],[1307548800000,1.053],[1307635200000,1.041],[1307894400000,1.038],[1307980800000,1.053],[1308067200000,1.052],[1308153600000,1.031],[1308240000000,1.02],[1308499200000,1.013],[1308585600000,1.036],[1308672000000,1.044],[1308758400000,1.039],[1308844800000,1.051],[1309104000000,1.041],[1309190400000,1.042],[1309276800000,1.061],[1309363200000,1.075],[1309708800000,1.099],[1309795200000,1.103],[1309881600000,1.105],[1309968000000,1.112],[1310054400000,1.114],[1310313600000,1.095],[1310400000000,1.064],[1310486400000,1.084],[1310572800000,1.085],[1310659200000,1.09],[1310918400000,1.08],[1311004800000,1.074],[1311091200000,1.079],[1311177600000,1.074],[1311264000000,1.091],[1311523200000,1.08],[1311609600000,1.095],[1311696000000,1.098],[1311782400000,1.095],[1311868800000,1.079],[1312128000000,1.098],[1312214400000,1.081],[1312300800000,1.051],[1312387200000,1.021],[1312473600000,0.979],[1312732800000,0.94],[1312819200000,0.918],[1312905600000,0.93],[1312992000000,0.93],[1313078400000,0.925],[1313424000000,0.958],[1313510400000,0.965],[1313596800000,0.944],[1313683200000,0.887],[1313942400000,0.866],[1314028800000,0.898],[1314115200000,0.882],[1314201600000,0.891],[1314288000000,0.898],[1314547200000,0.928],[1314633600000,0.945],[1314720000000,0.971],[1314806400000,0.969],[1314892800000,0.955],[1315152000000,0.922],[1315238400000,0.911],[1315324800000,0.941],[1315411200000,0.94],[1315497600000,0.927],[1315929600000,0.883],[1316016000000,0.885],[1316102400000,0.901],[1316361600000,0.877],[1316448000000,0.867],[1316534400000,0.861],[1316620800000,0.808],[1316707200000,0.795],[1316966400000,0.763],[1317052800000,0.81],[1317139200000,0.802],[1317312000000,0.782],[1318176000000,0.791],[1318262400000,0.813],[1318348800000,0.823],[1318435200000,0.841],[1318521600000,0.835],[1318780800000,0.849],[1318867200000,0.818],[1318953600000,0.825],[1319040000000,0.798],[1319126400000,0.803],[1319385600000,0.843],[1319472000000,0.841],[1319558400000,0.847],[1319644800000,0.878],[1319731200000,0.88],[1319990400000,0.862],[1320076800000,0.851],[1320163200000,0.86],[1320249600000,0.849],[1320336000000,0.878],[1320595200000,0.868],[1320681600000,0.86],[1320768000000,0.857],[1320854400000,0.822],[1320940800000,0.831],[1321200000000,0.842],[1321286400000,0.836],[1321372800000,0.817],[1321459200000,0.82],[1321545600000,0.798],[1321804800000,0.783],[1321891200000,0.789],[1321977600000,0.772],[1322064000000,0.776],[1322150400000,0.762],[1322409600000,0.778],[1322496000000,0.795],[1322582400000,0.785],[1322668800000,0.82],[1322755200000,0.819],[1323014400000,0.824],[1323100800000,0.814],[1323187200000,0.826],[1323273600000,0.817],[1323360000000,0.795],[1323619200000,0.799],[1323705600000,0.786],[1323792000000,0.782],[1323878400000,0.764],[1323964800000,0.774],[1324224000000,0.753],[1324310400000,0.76],[1324396800000,0.777],[1324483200000,0.773],[1324569600000,0.785],[1325001600000,0.771],[1325088000000,0.773],[1325174400000,0.772],[1325260800000,0.772],[1325606400000,0.781],[1325692800000,0.779],[1325779200000,0.766],[1326038400000,0.77],[1326124800000,0.783],[1326211200000,0.782],[1326297600000,0.782],[1326384000000,0.788],[1326643200000,0.78],[1326729600000,0.797],[1326816000000,0.798],[1326902400000,0.813],[1326988800000,0.821],[1327852800000,0.819],[1327939200000,0.826],[1328025600000,0.831],[1328112000000,0.848],[1328198400000,0.846],[1328457600000,0.842],[1328544000000,0.84],[1328630400000,0.853],[1328716800000,0.862],[1328803200000,0.848],[1329062400000,0.85],[1329148800000,0.85],[1329235200000,0.864],[1329321600000,0.854],[1329408000000,0.867],[1329667200000,0.868],[1329753600000,0.866],[1329840000000,0.872],[1329926400000,0.864],[1330012800000,0.868],[1330272000000,0.856],[1330358400000,0.869],[1330444800000,0.876],[1330617600000,0.874],[1330876800000,0.863],[1330963200000,0.843],[1331049600000,0.836],[1331136000000,0.851],[1331222400000,0.854],[1331481600000,0.85],[1331568000000,0.862],[1331654400000,0.863],[1331740800000,0.861],[1331827200000,0.858],[1332086400000,0.852],[1332172800000,0.843],[1332259200000,0.836],[1332345600000,0.835],[1332432000000,0.828],[1332691200000,0.824],[1332777600000,0.835],[1332864000000,0.831],[1332950400000,0.824],[1333036800000,0.823],[1333123200000,0.822],[1333555200000,0.834],[1333987200000,0.817],[1334160000000,0.816],[1334246400000,0.829],[1334505600000,0.823],[1334592000000,0.817],[1334678400000,0.824],[1334764800000,0.828],[1334851200000,0.823],[1335110400000,0.812],[1335196800000,0.812],[1335283200000,0.811],[1335369600000,0.817],[1335456000000,0.819],[1335888000000,0.833],[1335974400000,0.827],[1336060800000,0.825],[1336320000000,0.809],[1336406400000,0.804],[1336492800000,0.794],[1336579200000,0.791],[1336665600000,0.779],[1336924800000,0.773],[1337011200000,0.774],[1337097600000,0.749],[1337184000000,0.751],[1337270400000,0.735],[1337529600000,0.738],[1337616000000,0.751],[1337702400000,0.742],[1337788800000,0.739],[1337875200000,0.737],[1338220800000,0.757],[1338307200000,0.749],[1338393600000,0.747],[1338480000000,0.743],[1338739200000,0.722],[1338825600000,0.726],[1338998400000,0.748],[1339084800000,0.743],[1339344000000,0.759],[1339430400000,0.76],[1339516800000,0.765],[1339603200000,0.759],[1339689600000,0.766],[1339948800000,0.774],[1340035200000,0.774],[1340121600000,0.78],[1340208000000,0.769],[1340553600000,0.75],[1340640000000,0.753],[1340726400000,0.757],[1340812800000,0.753],[1340899200000,0.769],[1340985600000,0.769],[1341244800000,0.78],[1341331200000,0.78],[1341417600000,0.783],[1341504000000,0.78],[1341763200000,0.768],[1341849600000,0.765],[1341936000000,0.769],[1342022400000,0.753],[1342108800000,0.76],[1342368000000,0.762],[1342454400000,0.768],[1342540800000,0.763],[1342627200000,0.775],[1342713600000,0.776],[1342972800000,0.758],[1343059200000,0.758],[1343145600000,0.753],[1343232000000,0.754],[1343318400000,0.769],[1343577600000,0.776],[1343664000000,0.788],[1343750400000,0.793],[1343836800000,0.788],[1343923200000,0.786],[1344182400000,0.798],[1344268800000,0.798],[1344355200000,0.8],[1344441600000,0.81],[1344528000000,0.809],[1344787200000,0.806],[1344873600000,0.814],[1345046400000,0.806],[1345132800000,0.806],[1345392000000,0.805],[1345478400000,0.808],[1345564800000,0.802],[1345651200000,0.808],[1345737600000,0.8],[1345996800000,0.799],[1346083200000,0.797],[1346169600000,0.795],[1346256000000,0.787],[1346342400000,0.787],[1346601600000,0.791],[1346688000000,0.785],[1346774400000,0.774],[1346860800000,0.778],[1346947200000,0.796],[1347206400000,0.795],[1347292800000,0.795],[1347379200000,0.804],[1347465600000,0.804],[1347552000000,0.824],[1347811200000,0.824],[1347897600000,0.821],[1347984000000,0.829],[1348070400000,0.817],[1348156800000,0.826],[1348416000000,0.824],[1348502400000,0.822],[1348588800000,0.813],[1348675200000,0.823],[1348761600000,0.827],[1348934400000,0.827],[1349625600000,0.827],[1349712000000,0.827],[1349798400000,0.823],[1349884800000,0.826],[1349971200000,0.827],[1350230400000,0.824],[1350316800000,0.833],[1350403200000,0.838],[1350489600000,0.842],[1350576000000,0.84],[1350835200000,0.841],[1351008000000,0.836],[1351094400000,0.839],[1351180800000,0.827],[1351612800000,0.831],[1351699200000,0.837],[1351785600000,0.843],[1352044800000,0.843],[1352131200000,0.845],[1352217600000,0.847],[1352304000000,0.837],[1352390400000,0.834],[1352649600000,0.835],[1352736000000,0.824],[1352822400000,0.827],[1352908800000,0.819],[1352995200000,0.819],[1353254400000,0.826],[1353340800000,0.825],[1353427200000,0.827],[1353600000000,0.838],[1353859200000,0.836],[1353945600000,0.837],[1354032000000,0.836],[1354118400000,0.843],[1354204800000,0.846],[1354464000000,0.844],[1354550400000,0.841],[1354636800000,0.856],[1354723200000,0.861],[1354809600000,0.862],[1355068800000,0.866],[1355155200000,0.863],[1355241600000,0.87],[1355328000000,0.871],[1355414400000,0.872],[1355673600000,0.872],[1355760000000,0.873],[1355932800000,0.88],[1356019200000,0.871],[1356278400000,0.873],[1356537600000,0.88],[1356624000000,0.884],[1356883200000,0.887],[1357228800000,0.913],[1357488000000,0.914],[1357574400000,0.903],[1357660800000,0.907],[1357747200000,0.911],[1357833600000,0.905],[1358092800000,0.914],[1358179200000,0.913],[1358265600000,0.91],[1358352000000,0.908],[1358438400000,0.918],[1358784000000,0.92],[1358870400000,0.916],[1358956800000,0.916],[1359043200000,0.913],[1359302400000,0.912],[1359388800000,0.915],[1359475200000,0.917],[1359561600000,0.909],[1359648000000,0.914],[1359907200000,0.916],[1359993600000,0.902],[1360080000000,0.906],[1360166400000,0.898],[1360252800000,0.898],[1361203200000,0.908],[1361289600000,0.915],[1361376000000,0.902],[1361462400000,0.902],[1361721600000,0.9],[1361808000000,0.891],[1361894400000,0.898],[1361980800000,0.913],[1362326400000,0.894],[1362412800000,0.899],[1362499200000,0.911],[1362585600000,0.908],[1362672000000,0.91],[1362931200000,0.91],[1363017600000,0.901],[1363104000000,0.895],[1363190400000,0.894],[1363276800000,0.886],[1363536000000,0.877],[1363622400000,0.876],[1363708800000,0.881],[1363795200000,0.875],[1363881600000,0.868],[1364140800000,0.882],[1364227200000,0.885],[1364313600000,0.893],[1364400000000,0.884],[1364832000000,0.876],[1364918400000,0.873],[1365350400000,0.85],[1365436800000,0.856],[1365523200000,0.861],[1365609600000,0.867],[1365696000000,0.861],[1365955200000,0.855],[1366041600000,0.857],[1366128000000,0.854],[1366214400000,0.853],[1366300800000,0.866],[1366560000000,0.871],[1366646400000,0.861],[1366732800000,0.872],[1366819200000,0.88],[1366905600000,0.877],[1367424000000,0.886],[1367510400000,0.886],[1367769600000,0.893],[1367856000000,0.896],[1367942400000,0.902],[1368028800000,0.9],[1368115200000,0.898],[1368374400000,0.888],[1368460800000,0.889],[1368547200000,0.887],[1368633600000,0.885],[1368979200000,0.893],[1369065600000,0.886],[1369152000000,0.883],[1369238400000,0.865],[1369324800000,0.864],[1369670400000,0.869],[1369756800000,0.867],[1369843200000,0.864],[1369929600000,0.859],[1370188800000,0.856],[1370275200000,0.855],[1370361600000,0.845],[1370534400000,0.826],[1371052800000,0.793],[1371139200000,0.802],[1371398400000,0.806],[1371484800000,0.807],[1371571200000,0.799],[1371657600000,0.771],[1371744000000,0.765],[1372003200000,0.745],[1372089600000,0.746],[1372176000000,0.76],[1372262400000,0.771],[1372348800000,0.783],[1372521600000,0.782],[1372694400000,0.777],[1372780800000,0.759],[1372953600000,0.771],[1373212800000,0.755],[1373299200000,0.759],[1373385600000,0.763],[1373472000000,0.79],[1373558400000,0.787],[1373817600000,0.788],[1373904000000,0.786],[1373990400000,0.789],[1374076800000,0.787],[1374163200000,0.786],[1374422400000,0.786],[1374508800000,0.799],[1374595200000,0.796],[1374681600000,0.796],[1374768000000,0.795],[1375027200000,0.785],[1375113600000,0.787],[1375200000000,0.786],[1375286400000,0.791],[1375372800000,0.792],[1375632000000,0.796],[1375718400000,0.791],[1375804800000,0.781],[1375891200000,0.783],[1375977600000,0.785],[1376236800000,0.792],[1376323200000,0.807],[1376582400000,0.806],[1376841600000,0.794],[1376928000000,0.779],[1377014400000,0.773],[1377100800000,0.773],[1377187200000,0.777],[1377446400000,0.779],[1377532800000,0.766],[1377619200000,0.764],[1377705600000,0.776],[1377792000000,0.777],[1378137600000,0.79],[1378224000000,0.791],[1378310400000,0.795],[1378396800000,0.797],[1378656000000,0.81],[1378742400000,0.822],[1378828800000,0.823],[1378915200000,0.822],[1379001600000,0.819],[1379260800000,0.832],[1379347200000,0.828],[1379865600000,0.833],[1379952000000,0.83],[1380038400000,0.831],[1380124800000,0.831],[1380211200000,0.828],[1380470400000,0.819],[1381161600000,0.831],[1381334400000,0.834],[1381420800000,0.843],[1381766400000,0.844],[1381852800000,0.841],[1381939200000,0.843],[1382025600000,0.848],[1382284800000,0.846],[1382371200000,0.844],[1382457600000,0.835],[1382544000000,0.834],[1382630400000,0.83],[1382889600000,0.83],[1382976000000,0.835],[1383062400000,0.839],[1383148800000,0.833],[1383235200000,0.835],[1383494400000,0.834],[1383580800000,0.829],[1383667200000,0.826],[1383753600000,0.82],[1383840000000,0.813],[1384099200000,0.812],[1384185600000,0.81],[1384272000000,0.801],[1384358400000,0.808],[1384444800000,0.817],[1384704000000,0.831],[1384790400000,0.83],[1384876800000,0.826],[1384963200000,0.818],[1385049600000,0.819],[1385308800000,0.82],[1385395200000,0.819],[1385481600000,0.822],[1385654400000,0.827],[1385913600000,0.826],[1386000000000,0.821],[1386086400000,0.816],[1386172800000,0.814],[1386259200000,0.813],[1386518400000,0.817],[1386604800000,0.814],[1386691200000,0.803],[1386777600000,0.797],[1386864000000,0.797],[1387123200000,0.793],[1387209600000,0.792],[1387296000000,0.794],[1387382400000,0.79],[1387468800000,0.789],[1387728000000,0.79],[1387814400000,0.793],[1388073600000,0.794],[1388332800000,0.793],[1388419200000,0.796],[1388592000000,0.786],[1388678400000,0.776],[1388937600000,0.77],[1389024000000,0.771],[1389110400000,0.778],[1389196800000,0.772],[1389283200000,0.773],[1389542400000,0.776],[1389628800000,0.778],[1389715200000,0.776],[1389801600000,0.778],[1389888000000,0.775],[1390233600000,0.777],[1390320000000,0.781],[1390406400000,0.77],[1390492800000,0.759],[1390752000000,0.742],[1390838400000,0.747],[1390924800000,0.75],[1391702400000,0.748],[1391961600000,0.749],[1392048000000,0.759],[1392134400000,0.767],[1392220800000,0.764],[1392307200000,0.769],[1392652800000,0.771],[1392739200000,0.772],[1392825600000,0.768],[1392912000000,0.774],[1393171200000,0.768],[1393257600000,0.767],[1393344000000,0.771],[1393430400000,0.777],[1393516800000,0.776],[1393776000000,0.772],[1393862400000,0.774],[1393948800000,0.778],[1394035200000,0.784],[1394121600000,0.788],[1394380800000,0.777],[1394467200000,0.776],[1394553600000,0.768],[1394640000000,0.766],[1394726400000,0.76],[1394985600000,0.763],[1395072000000,0.77],[1395158400000,0.768],[1395244800000,0.757],[1395331200000,0.764],[1395590400000,0.765],[1395676800000,0.756],[1395763200000,0.763],[1395849600000,0.759],[1395936000000,0.765],[1396195200000,0.773],[1396281600000,0.785],[1396368000000,0.785],[1396454400000,0.784],[1396540800000,0.778],[1396886400000,0.782],[1396972800000,0.789],[1397059200000,0.79],[1397145600000,0.78],[1397404800000,0.78],[1397491200000,0.768],[1397577600000,0.768],[1397664000000,0.774],[1398096000000,0.778],[1398182400000,0.775],[1398268800000,0.773],[1398355200000,0.765],[1398614400000,0.749],[1398700800000,0.749],[1398787200000,0.742],[1399219200000,0.748],[1399392000000,0.733],[1399478400000,0.725],[1399564800000,0.724],[1399824000000,0.736],[1399910400000,0.736],[1399996800000,0.74],[1400083200000,0.735],[1400169600000,0.734],[1400428800000,0.737],[1400515200000,0.737],[1400601600000,0.74],[1400688000000,0.746],[1400774400000,0.752],[1401120000000,0.753],[1401206400000,0.752],[1401292800000,0.748],[1401379200000,0.749],[1401724800000,0.75],[1401811200000,0.749],[1401897600000,0.756],[1401984000000,0.755],[1402243200000,0.753],[1402329600000,0.757],[1402416000000,0.761],[1402502400000,0.761],[1402588800000,0.765],[1402848000000,0.765],[1402934400000,0.761],[1403020800000,0.76],[1403107200000,0.755],[1403193600000,0.755],[1403452800000,0.753],[1403539200000,0.755],[1403625600000,0.756],[1403712000000,0.764],[1403798400000,0.765],[1404057600000,0.774],[1404230400000,0.787],[1404316800000,0.794],[1404662400000,0.799],[1404748800000,0.791],[1404835200000,0.785],[1404921600000,0.784],[1405008000000,0.785],[1405267200000,0.788],[1405353600000,0.79],[1405440000000,0.788],[1405526400000,0.785],[1405612800000,0.787],[1405872000000,0.787],[1405958400000,0.794],[1406044800000,0.799],[1406131200000,0.805],[1406217600000,0.811],[1406476800000,0.819],[1406563200000,0.823],[1406649600000,0.82],[1406736000000,0.824],[1406822400000,0.822],[1407081600000,0.827],[1407168000000,0.815],[1407254400000,0.814],[1407340800000,0.806],[1407427200000,0.806],[1407686400000,0.818],[1407772800000,0.822],[1407859200000,0.831],[1407945600000,0.829],[1408032000000,0.827],[1408291200000,0.824],[1408377600000,0.827],[1408464000000,0.83],[1408550400000,0.825],[1408636800000,0.825],[1408896000000,0.831],[1408982400000,0.836],[1409068800000,0.825],[1409155200000,0.809],[1409241600000,0.814],[1409587200000,0.819],[1409673600000,0.832],[1409760000000,0.841],[1409846400000,0.84],[1410278400000,0.827],[1410364800000,0.827],[1410451200000,0.832],[1410710400000,0.819],[1410796800000,0.812],[1410883200000,0.813],[1410969600000,0.814],[1411056000000,0.815],[1411315200000,0.802],[1411401600000,0.806],[1411488000000,0.811],[1411574400000,0.814],[1411660800000,0.81],[1411920000000,0.794],[1412006400000,0.793],[1412697600000,0.813],[1412784000000,0.818],[1412870400000,0.815],[1413129600000,0.798],[1413216000000,0.798],[1413302400000,0.803],[1413388800000,0.802],[1413475200000,0.807],[1413734400000,0.81],[1413820800000,0.812],[1413907200000,0.818],[1413993600000,0.818],[1414080000000,0.819],[1414339200000,0.808],[1414425600000,0.814],[1414512000000,0.817],[1414598400000,0.817],[1414684800000,0.822],[1414944000000,0.825],[1415030400000,0.826],[1415116800000,0.818],[1415203200000,0.817],[1415289600000,0.822],[1415548800000,0.833],[1415635200000,0.835],[1415721600000,0.838],[1415808000000,0.844],[1415894400000,0.848],[1416153600000,0.838],[1416240000000,0.826],[1416326400000,0.826],[1416412800000,0.823],[1416499200000,0.828],[1416758400000,0.838],[1416844800000,0.835],[1416931200000,0.831],[1417104000000,0.818],[1417363200000,0.794],[1417449600000,0.803],[1417536000000,0.798],[1417622400000,0.795],[1417708800000,0.787],[1417968000000,0.782],[1418054400000,0.756],[1418140800000,0.775],[1418227200000,0.762],[1418313600000,0.77],[1418572800000,0.769],[1418659200000,0.766],[1418745600000,0.754],[1418832000000,0.752],[1418918400000,0.751],[1419177600000,0.748],[1419264000000,0.75],[1419782400000,0.769],[1419868800000,0.777],[1419955200000,0.791],[1420387200000,0.787],[1420473600000,0.786],[1420560000000,0.783],[1420646400000,0.791],[1420732800000,0.794],[1420992000000,0.783],[1421078400000,0.786],[1421164800000,0.778],[1421251200000,0.779],[1421337600000,0.775],[1421683200000,0.762],[1421769600000,0.772],[1421856000000,0.771],[1421942400000,0.777],[1422201600000,0.781],[1422288000000,0.775],[1422374400000,0.777],[1422460800000,0.775],[1422547200000,0.772],[1422806400000,0.77],[1422892800000,0.771],[1422979200000,0.761],[1423065600000,0.754],[1423152000000,0.745],[1423411200000,0.74],[1423497600000,0.738],[1423584000000,0.731],[1423670400000,0.739],[1423756800000,0.747],[1424102400000,0.747],[1424793600000,0.756],[1424880000000,0.761],[1424966400000,0.764],[1425225600000,0.772],[1425312000000,0.771],[1425398400000,0.773],[1425484800000,0.773],[1425571200000,0.776],[1425830400000,0.773],[1425916800000,0.764],[1426003200000,0.761],[1426089600000,0.761],[1426176000000,0.759],[1426435200000,0.76],[1426521600000,0.765],[1426608000000,0.765],[1426694400000,0.761],[1426780800000,0.756],[1427040000000,0.765],[1427126400000,0.765],[1427212800000,0.784],[1427299200000,0.776],[1427385600000,0.777],[1427644800000,0.809],[1427731200000,0.809],[1427817600000,0.84],[1427904000000,0.87],[1428422400000,0.968],[1428508800000,0.97],[1428595200000,0.994],[1428854400000,1.032],[1428940800000,0.999],[1429027200000,0.975],[1429113600000,0.985],[1429200000000,0.965],[1429459200000,0.927],[1429545600000,0.956],[1429632000000,0.987],[1429718400000,0.991],[1429804800000,0.986],[1430064000000,1.009],[1430150400000,0.992],[1430236800000,0.996],[1430323200000,1.002],[1430668800000,1.014],[1430755200000,0.985],[1430841600000,0.968],[1430928000000,0.937],[1431014400000,0.97],[1431273600000,0.993],[1431360000000,0.979],[1431446400000,0.988],[1431532800000,1.0],[1431619200000,1.009],[1431878400000,1.018],[1431964800000,1.036],[1432051200000,1.041],[1432137600000,1.03],[1432224000000,1.038],[1432569600000,1.081],[1432656000000,1.076],[1432742400000,1.05],[1432828800000,1.074],[1433088000000,1.08],[1433174400000,1.065],[1433260800000,1.049],[1433347200000,1.036],[1433433600000,1.024],[1433692800000,1.016],[1433779200000,0.972],[1433865600000,0.976],[1433952000000,0.992],[1434038400000,1.019],[1434297600000,0.999],[1434384000000,0.98],[1434470400000,1.001],[1434556800000,1.007],[1434643200000,0.995],[1434988800000,1.008],[1435075200000,1.015],[1435161600000,1.008],[1435248000000,0.977],[1435507200000,0.914],[1435593600000,0.943],[1435766400000,0.904],[1436112000000,0.763],[1436198400000,0.687],[1436284800000,0.604],[1436371200000,0.737],[1436457600000,0.789],[1436716800000,0.819],[1436803200000,0.815],[1436889600000,0.778],[1436976000000,0.797],[1437062400000,0.815],[1437321600000,0.816],[1437408000000,0.814],[1437494400000,0.796],[1437580800000,0.808],[1437667200000,0.799],[1437926400000,0.729],[1438012800000,0.733],[1438099200000,0.746],[1438185600000,0.742],[1438272000000,0.742],[1438531200000,0.726],[1438617600000,0.73],[1438704000000,0.732],[1438790400000,0.734],[1438876800000,0.749],[1439136000000,0.781],[1439222400000,0.78],[1439308800000,0.765],[1439395200000,0.784],[1439481600000,0.792],[1439740800000,0.786],[1439827200000,0.758],[1439913600000,0.749],[1440000000000,0.715],[1440086400000,0.684],[1440345600000,0.619],[1440432000000,0.627],[1440518400000,0.631],[1440604800000,0.682],[1440691200000,0.684],[1440950400000,0.665],[1441036800000,0.642],[1441123200000,0.633],[1441641600000,0.661],[1441728000000,0.686],[1441814400000,0.666],[1441900800000,0.671],[1442160000000,0.66],[1442246400000,0.653],[1442332800000,0.673],[1442419200000,0.673],[1442505600000,0.692],[1442764800000,0.69],[1442851200000,0.695],[1442937600000,0.682],[1443024000000,0.678],[1443110400000,0.678],[1443456000000,0.66],[1443542400000,0.671],[1444233600000,0.729],[1444320000000,0.735],[1444579200000,0.749],[1444665600000,0.743],[1444752000000,0.744],[1444838400000,0.76],[1444924800000,0.768],[1445184000000,0.761],[1445270400000,0.759],[1445443200000,0.751],[1445529600000,0.761],[1445788800000,0.764],[1445875200000,0.757],[1445961600000,0.746],[1446048000000,0.747],[1446134400000,0.745],[1446393600000,0.733],[1446480000000,0.741],[1446566400000,0.767],[1446652800000,0.773],[1446739200000,0.789],[1446998400000,0.787],[1447084800000,0.779],[1447171200000,0.782],[1447257600000,0.794],[1447344000000,0.782],[1447603200000,0.76],[1447689600000,0.771],[1447776000000,0.775],[1447862400000,0.784],[1447948800000,0.791],[1448208000000,0.788],[1448294400000,0.792],[1448380800000,0.796],[1448553600000,0.774],[1448812800000,0.778],[1448899200000,0.776],[1448985600000,0.784],[1449072000000,0.779],[1449158400000,0.774],[1449417600000,0.782],[1449504000000,0.77],[1449590400000,0.761],[1449676800000,0.759],[1449763200000,0.749],[1450022400000,0.75],[1450108800000,0.753],[1450195200000,0.764],[1450281600000,0.774],[1450368000000,0.768],[1450627200000,0.771],[1450713600000,0.775],[1450800000000,0.788],[1451232000000,0.781],[1451318400000,0.781],[1451404800000,0.786],[1451491200000,0.792],[1451836800000,0.761],[1451923200000,0.757],[1452009600000,0.76],[1452096000000,0.721],[1452182400000,0.73],[1452441600000,0.696],[1452528000000,0.693],[1452614400000,0.698],[1452700800000,0.698],[1452787200000,0.679],[1453132800000,0.691],[1453219200000,0.66],[1453305600000,0.638],[1453392000000,0.649],[1453651200000,0.657],[1453737600000,0.637],[1453824000000,0.638],[1453910400000,0.632],[1453996800000,0.655],[1454256000000,0.651],[1454342400000,0.653],[1454428800000,0.64],[1454515200000,0.649],[1454601600000,0.647],[1455552000000,0.653],[1455638400000,0.651],[1455724800000,0.664],[1455811200000,0.666],[1456070400000,0.678],[1456156800000,0.673],[1456243200000,0.663],[1456329600000,0.645],[1456416000000,0.656],[1456675200000,0.646],[1456761600000,0.649],[1456848000000,0.667],[1456934400000,0.659],[1457020800000,0.665],[1457280000000,0.667],[1457366400000,0.661],[1457452800000,0.651],[1457539200000,0.649],[1457625600000,0.653],[1457884800000,0.67],[1457971200000,0.664],[1458057600000,0.658],[1458144000000,0.666],[1458230400000,0.681],[1458489600000,0.697],[1458576000000,0.696],[1458662400000,0.692],[1458748800000,0.691],[1459180800000,0.685],[1459267200000,0.696],[1459353600000,0.698],[1459440000000,0.688],[1459785600000,0.679],[1459872000000,0.686],[1459958400000,0.687],[1460044800000,0.686],[1460304000000,0.701],[1460390400000,0.698],[1460476800000,0.715],[1460563200000,0.719],[1460649600000,0.719],[1460908800000,0.712],[1460995200000,0.719],[1461081600000,0.709],[1461168000000,0.717],[1461254400000,0.718],[1461513600000,0.712],[1461600000000,0.71],[1461686400000,0.705],[1461772800000,0.704],[1461859200000,0.699],[1462204800000,0.697],[1462291200000,0.701],[1462377600000,0.704],[1462464000000,0.688],[1462723200000,0.677],[1462809600000,0.684],[1462896000000,0.684],[1462982400000,0.674],[1463068800000,0.669],[1463328000000,0.675],[1463414400000,0.681],[1463500800000,0.676],[1463587200000,0.67],[1463673600000,0.663],[1463932800000,0.665],[1464019200000,0.67],[1464105600000,0.675],[1464192000000,0.673],[1464278400000,0.688],[1464537600000,0.695],[1464624000000,0.705],[1464710400000,0.705],[1464796800000,0.704],[1464883200000,0.71],[1465142400000,0.706],[1465228800000,0.715],[1465315200000,0.707],[1465747200000,0.677],[1465833600000,0.674],[1465920000000,0.684],[1466006400000,0.674],[1466092800000,0.683],[1466352000000,0.687],[1466438400000,0.689],[1466524800000,0.696],[1466611200000,0.695],[1466697600000,0.681],[1466956800000,0.688],[1467043200000,0.69],[1467129600000,0.696],[1467216000000,0.699],[1467561600000,0.7],[1467648000000,0.693],[1467734400000,0.692],[1467820800000,0.692],[1467907200000,0.691],[1468166400000,0.696],[1468252800000,0.71],[1468339200000,0.717],[1468425600000,0.724],[1468512000000,0.725],[1468771200000,0.722],[1468857600000,0.718],[1468944000000,0.719],[1469030400000,0.721],[1469116800000,0.714],[1469376000000,0.71],[1469462400000,0.72],[1469548800000,0.716],[1469635200000,0.717],[1469721600000,0.71],[1469980800000,0.712],[1470153600000,0.706],[1470240000000,0.712],[1470326400000,0.722],[1470585600000,0.732],[1470672000000,0.736],[1470758400000,0.731],[1470844800000,0.733],[1470931200000,0.741],[1471190400000,0.75],[1471276800000,0.742],[1471363200000,0.729],[1471449600000,0.743],[1471536000000,0.739],[1471795200000,0.747],[1471881600000,0.74],[1471968000000,0.734],[1472054400000,0.728],[1472140800000,0.733],[1472400000000,0.729],[1472486400000,0.739],[1472572800000,0.735],[1472659200000,0.735],[1472745600000,0.745],[1473004800000,0.757],[1473091200000,0.773],[1473177600000,0.769],[1473264000000,0.775],[1473350400000,0.78],[1473609600000,0.755],[1473696000000,0.753],[1473782400000,0.757],[1474214400000,0.</t>
   </si>
   <si>
+    <t>[[1467216000000, 0.0], [1469376000000, -1.82], [1470067200000, -8.01], [1470758400000, -7.31], [1471449600000, -4.04], [1472140800000, -5.33], [1473004800000, -5.58], [1473696000000, -8.04], [1474560000000, -8.06], [1476028800000, -6.2], [1476720000000, -6.69], [1477411200000, -6.87], [1478102400000, -8.33], [1478793600000, -8.81], [1479657600000, -8.79], [1480348800000, -7.6], [1481040000000, -9.7], [1481731200000, -16.61], [1482422400000, -17.21], [1483113600000, -17.91], [1483977600000, -17.93], [1484668800000, -23.29], [1485360000000, -21.73], [1486656000000, -20.85], [1487520000000, -21.36], [1488211200000, -19.98], [1488902400000, -19.0], [1489593600000, -18.83], [1490284800000, -19.77], [1491321600000, -20.83], [1492012800000, -22.67], [1492704000000, -26.09], [1493654400000, -26.04], [1494345600000, -28.15], [1495036800000, -26.63], [1495728000000, -29.03], [1496764800000, -27.01], [1497456000000, -25.92], [1498147200000, -26.63], [1499011200000, -25.64], [1499702400000, -27.83], [1500393600000, -32.07], [1501084800000, -29.09], [1501776000000, -29.75], [1502640000000, -27.16], [1503331200000, -25.9], [1504022400000, -24.84], [1504713600000, -22.18], [1505404800000, -22.96], [1506268800000, -25.06], [1507564800000, -21.63], [1508256000000, -23.76], [1508947200000, -22.3], [1509638400000, -26.79], [1510502400000, -23.53], [1511193600000, -25.75], [1511884800000, -27.76], [1512576000000, -28.45], [1513267200000, -28.12], [1514131200000, -30.23], [1514822400000, -32.79], [1515513600000, -32.36], [1516204800000, -34.98], [1516896000000, -31.19], [1517760000000, -35.69], [1518451200000, -37.37], [1519747200000, -32.56], [1520438400000, -31.7], [1521129600000, -29.79], [1521993600000, -32.81], [1522684800000, -28.99], [1523548800000, -31.17], [1524412800000, -34.75], [1525276800000, -31.75], [1525968000000, -31.47], [1526832000000, -30.68], [1527523200000, -34.75], [1528214400000, -36.7], [1528905600000, -38.73], [1529856000000, -44.35], [1530460800000, -42.01], [1531152000000, -41.56], [1531843200000, -41.38], [1532534400000, -40.49], [1533225600000, -45.89], [1534089600000, -43.76], [1534780800000, -45.98], [1535472000000, -45.21], [1536163200000, -47.51], [1536854400000, -50.21], [1537804800000, -49.09], [1539100800000, -51.97], [1539792000000, -57.33], [1540483200000, -55.31], [1541347200000, -51.71], [1542038400000, -50.21], [1542729600000, -51.34], [1543420800000, -53.6], [1544112000000, -52.7], [1544976000000, -53.97], [1545667200000, -55.3], [1546444800000, -57.66], [1547136000000, -56.14], [1548000000000, -55.23], [1548691200000, -56.32], [1549987200000, -52.26], [1550678400000, -50.61], [1551369600000, -43.82], [1552233600000, -39.59], [1552924800000, -40.32], [1553616000000, -42.83], [1554307200000, -38.49], [1555257600000, -42.23], [1555948800000, -41.91], [1557072000000, -48.81], [1557763200000, -48.22], [1558454400000, -48.48], [1559145600000, -49.29], [1560096000000, -50.94], [1560787200000, -49.96], [1561478400000, -47.38], [1562083200000, -45.7], [1562774400000, -47.54], [1563465600000, -46.61], [1564329600000, -45.66], [1565020800000, -48.18], [1565712000000, -46.66], [1566403200000, -43.71], [1567094400000, -44.0], [1567958400000, -38.24], [1568736000000, -40.59], [1569427200000, -42.31], [1570723200000, -41.11], [1571587200000, -42.24], [1572278400000, -41.01], [1572969600000, -39.6], [1573660800000, -39.78], [1574352000000, -39.65], [1575216000000, -40.02], [1575907200000, -36.94], [1576598400000, -34.49], [1577289600000, -34.02], [1578240000000, -32.12], [1578931200000, -29.83], [1579622400000, -26.63], [1581004800000, -25.3], [1581868800000, -20.19], [1582560000000, -14.4], [1583251200000, -19.44], [1583942400000, -24.0], [1584633600000, -29.19], [1585497600000, -30.86], [1586275200000, -27.16], [1586966400000, -25.01], [1587657600000, -25.33], [1588780800000, -20.68], [1589472000000, -19.85], [1590336000000, -22.59], [1591027200000, -18.95], [1591718400000, -16.38], [1592409600000, -13.24], [1593446400000, -5.99], [1594137600000, 3.4], [1594828800000, 3.94], [1595520000000, 3.86], [1596384000000, 15.07], [1597075200000, 6.67], [1597766400000, 2.9], [1598457600000, 6.67], [1599148800000, 8.03], [1600012800000, 1.83], [1600704000000, 1.91], [1601395200000, 3.27], [1602777600000, 10.15], [1603641600000, 5.9], [1604332800000, 12.4], [1605024000000, 10.5], [1605715200000, 7.99], [1606406400000, 7.27], [1607270400000, 11.6], [1607961600000, 13.94], [1608652800000, 18.74], [1609344000000, 24.67], [1610294400000, 30.61], [1610985600000, 31.0], [1611676800000, 40.12], [1612368000000, 37.79], [1613664000000, 40.84], [1614528000000, 27.99], [1615219200000, 10.9], [1615910400000, 14.64], [1616601600000, 11.49], [1617292800000, 20.65], [1618243200000, 15.6], [1618934400000, 23.78], [1619625600000, 31.42], [1620748800000, 27.17], [1621440000000, 35.99], [1622131200000, 40.47], [1622995200000, 39.9], [1623772800000, 35.85], [1624464000000, 43.5], [1625155200000, 47.84], [1626019200000, 57.2], [1626710400000, 53.69], [1627401600000, 45.43], [1628092800000, 56.57], [1628438400000, 52.44]]</t>
+  </si>
+  <si>
     <t>159949</t>
   </si>
   <si>
     <t>华安创业板50ETF</t>
   </si>
   <si>
-    <t xml:space="preserve"> [[1467216000000,1.0],[1467302400000,1.0],[1467907200000,1.0001],[1468512000000,1.0003],[1469030400000,0.9934],[1469116800000,0.9858],[1469376000000,0.9818],[1469462400000,0.9971],[1469548800000,0.9389],[1469635200000,0.9329],[1469721600000,0.9241],[1469980800000,0.9129],[1470067200000,0.9199],[1470153600000,0.9167],[1470240000000,0.9281],[1470326400000,0.9167],[1470585600000,0.9252],[1470672000000,0.9351],[1470758400000,0.9269],[1470844800000,0.9125],[1470931200000,0.9213],[1471190400000,0.9554],[1471276800000,0.9597],[1471363200000,0.9617],[1471449600000,0.9596],[1471536000000,0.9577],[1471795200000,0.9394],[1471881600000,0.9428],[1471968000000,0.95],[1472054400000,0.9415],[1472140800000,0.9467],[1472400000000,0.9481],[1472486400000,0.9495],[1472572800000,0.9503],[1472659200000,0.9441],[1472745600000,0.9398],[1473004800000,0.9442],[1473091200000,0.9604],[1473177600000,0.9555],[1473264000000,0.9622],[1473350400000,0.9499],[1473609600000,0.9242],[1473696000000,0.9196],[1473782400000,0.9176],[1474214400000,0.9274],[1474300800000,0.9252],[1474387200000,0.9258],[1474473600000,0.9279],[1474560000000,0.9194],[1474819200000,0.9042],[1474905600000,0.9131],[1474992000000,0.9101],[1475078400000,0.9113],[1475164800000,0.9142],[1476028800000,0.938],[1476115200000,0.938],[1476201600000,0.9374],[1476288000000,0.937],[1476374400000,0.9294],[1476633600000,0.9193],[1476720000000,0.9331],[1476806400000,0.9282],[1476892800000,0.9299],[1476979200000,0.9258],[1477238400000,0.9349],[1477324800000,0.9366],[1477411200000,0.9313],[1477497600000,0.9319],[1477584000000,0.9252],[1477843200000,0.9221],[1477929600000,0.9283],[1478016000000,0.9135],[1478102400000,0.9167],[1478188800000,0.9133],[1478448000000,0.9045],[1478534400000,0.9123],[1478620800000,0.899],[1478707200000,0.9076],[1478793600000,0.9119],[1479052800000,0.9197],[1479139200000,0.9291],[1479225600000,0.9278],[1479312000000,0.9172],[1479398400000,0.9151],[1479657600000,0.9121],[1479744000000,0.9259],[1479830400000,0.9218],[1479916800000,0.9135],[1480003200000,0.9247],[1480262400000,0.9232],[1480348800000,0.924],[1480435200000,0.9357],[1480521600000,0.9335],[1480608000000,0.9159],[1480867200000,0.913],[1480953600000,0.8971],[1481040000000,0.903],[1481126400000,0.8927],[1481212800000,0.8862],[1481472000000,0.835],[1481558400000,0.835],[1481644800000,0.8267],[1481731200000,0.8339],[1481817600000,0.8446],[1482076800000,0.8362],[1482163200000,0.8388],[1482249600000,0.8411],[1482336000000,0.8379],[1482422400000,0.8279],[1482681600000,0.8298],[1482768000000,0.8254],[1482854400000,0.8199],[1482940800000,0.8204],[1483027200000,0.8211],[1483113600000,0.8209],[1483372800000,0.8238],[1483459200000,0.8386],[1483545600000,0.8349],[1483632000000,0.8245],[1483891200000,0.826],[1483977600000,0.8207],[1484064000000,0.8145],[1484150400000,0.8092],[1484236800000,0.7954],[1484496000000,0.7562],[1484582400000,0.7786],[1484668800000,0.7671],[1484755200000,0.7678],[1484841600000,0.7845],[1485100800000,0.7868],[1485187200000,0.7733],[1485273600000,0.7764],[1485360000000,0.7827],[1486051200000,0.7791],[1486310400000,0.7894],[1486396800000,0.783],[1486483200000,0.7903],[1486569600000,0.7958],[1486656000000,0.7915],[1486915200000,0.7964],[1487001600000,0.7964],[1487088000000,0.7861],[1487174400000,0.7882],[1487260800000,0.7811],[1487520000000,0.7864],[1487606400000,0.7986],[1487692800000,0.7999],[1487779200000,0.8001],[1487865600000,0.8061],[1488124800000,0.8003],[1488211200000,0.8002],[1488297600000,0.8013],[1488384000000,0.7935],[1488470400000,0.7946],[1488729600000,0.8108],[1488816000000,0.8175],[1488902400000,0.81],[1488988800000,0.8079],[1489075200000,0.8058],[1489334400000,0.8148],[1489420800000,0.8065],[1489507200000,0.8084],[1489593600000,0.8117],[1489680000000,0.8044],[1489939200000,0.8057],[1490025600000,0.8079],[1490112000000,0.7982],[1490198400000,0.796],[1490284800000,0.8023],[1490544000000,0.7959],[1490630400000,0.7936],[1490716800000,0.7862],[1490803200000,0.7682],[1490889600000,0.7757],[1491321600000,0.7917],[1491408000000,0.7917],[1491494400000,0.7921],[1491753600000,0.7748],[1491840000000,0.776],[1491926400000,0.7672],[1492012800000,0.7733],[1492099200000,0.7624],[1492358400000,0.7557],[1492444800000,0.7433],[1492531200000,0.7453],[1492617600000,0.7454],[1492704000000,0.7391],[1492963200000,0.724],[1493049600000,0.7284],[1493136000000,0.7265],[1493222400000,0.7365],[1493308800000,0.7394],[1493654400000,0.7396],[1493740800000,0.738],[1493827200000,0.7375],[1493913600000,0.7287],[1494172800000,0.7212],[1494259200000,0.7301],[1494345600000,0.7185],[1494432000000,0.7186],[1494518400000,0.7177],[1494777600000,0.7175],[1494864000000,0.7313],[1494950400000,0.7376],[1495036800000,0.7337],[1495123200000,0.7289],[1495382400000,0.7212],[1495468800000,0.7076],[1495555200000,0.7137],[1495641600000,0.7164],[1495728000000,0.7097],[1496160000000,0.7099],[1496246400000,0.6946],[1496332800000,0.7067],[1496592000000,0.7133],[1496678400000,0.7155],[1496764800000,0.7299],[1496851200000,0.7272],[1496937600000,0.7285],[1497196800000,0.7175],[1497283200000,0.7282],[1497369600000,0.7267],[1497456000000,0.7408],[1497542400000,0.739],[1497801600000,0.7409],[1497888000000,0.7424],[1497974400000,0.7435],[1498060800000,0.7308],[1498147200000,0.7337],[1498406400000,0.7389],[1498492800000,0.7379],[1498579200000,0.7317],[1498665600000,0.7345],[1498752000000,0.7348],[1499011200000,0.7436],[1499097600000,0.7397],[1499184000000,0.7452],[1499270400000,0.7453],[1499356800000,0.7452],[1499616000000,0.7302],[1499702400000,0.7217],[1499788800000,0.7235],[1499875200000,0.7178],[1499961600000,0.7054],[1500220800000,0.6669],[1500307200000,0.6734],[1500393600000,0.6793],[1500480000000,0.6819],[1500566400000,0.6835],[1500825600000,0.6823],[1500912000000,0.684],[1500998400000,0.6827],[1501084800000,0.7091],[1501171200000,0.7052],[1501430400000,0.7065],[1501516800000,0.7096],[1501603200000,0.7045],[1501689600000,0.7083],[1501776000000,0.7025],[1502035200000,0.7065],[1502121600000,0.7137],[1502208000000,0.716],[1502294400000,0.7103],[1502380800000,0.7057],[1502640000000,0.7284],[1502726400000,0.7306],[1502812800000,0.7451],[1502899200000,0.7509],[1502985600000,0.7447],[1503244800000,0.7476],[1503331200000,0.741],[1503417600000,0.7371],[1503504000000,0.7317],[1503590400000,0.7413],[1503849600000,0.7557],[1503936000000,0.7501],[1504022400000,0.7516],[1504108800000,0.7565],[1504195200000,0.7669],[1504454400000,0.7751],[1504540800000,0.7732],[1504627200000,0.7834],[1504713600000,0.7782],[1504800000000,0.7744],[1505059200000,0.783],[1505145600000,0.7749],[1505232000000,0.7778],[1505318400000,0.7728],[1505404800000,0.7704],[1505664000000,0.7753],[1505750400000,0.7663],[1505836800000,0.7736],[1505923200000,0.7631],[1506009600000,0.7626],[1506268800000,0.7494],[1506355200000,0.7489],[1506441600000,0.7576],[1506528000000,0.7575],[1506614400000,0.7629],[1507478400000,0.7747],[1507564800000,0.7837],[1507651200000,0.7742],[1507737600000,0.7757],[1507824000000,0.7908],[1508083200000,0.7689],[1508169600000,0.7662],[1508256000000,0.7624],[1508342400000,0.7574],[1508428800000,0.7674],[1508688000000,0.7748],[1508774400000,0.7767],[1508860800000,0.7805],[1508947200000,0.777],[1509033600000,0.7694],[1509292800000,0.7467],[1509379200000,0.7538],[1509465600000,0.7498],[1509552000000,0.7374],[1509638400000,0.7321],[1509897600000,0.7387],[1509984000000,0.7424],[1510070400000,0.7489],[1510156800000,0.7582],[1510243200000,0.7623],[1510502400000,0.7647],[1510588800000,0.759],[1510675200000,0.7466],[1510761600000,0.7472],[1510848000000,0.7301],[1511107200000,0.7399],[1511193600000,0.7425],[1511280000000,0.7405],[1511366400000,0.7199],[1511452800000,0.7163],[1511712000000,0.7101],[1511798400000,0.7252],[1511884800000,0.7224],[1511971200000,0.7164],[1512057600000,0.7327],[1512316800000,0.7279],[1512403200000,0.7112],[1512489600000,0.7206],[1512576000000,0.7155],[1512662400000,0.7222],[1512921600000,0.7325],[1513008000000,0.7268],[1513094400000,0.7278],[1513180800000,0.7219],[1513267200000,0.7188],[1513526400000,0.7164],[1513612800000,0.7241],[1513699200000,0.7144],[1513785600000,0.7159],[1513872000000,0.7106],[1514131200000,0.6977],[1514217600000,0.7],[1514304000000,0.6973],[1514390400000,0.698],[1514476800000,0.6995],[1514649600000,0.6993],[1514822400000,0.6721],[1514908800000,0.6857],[1514995200000,0.6831],[1515081600000,0.6839],[1515340800000,0.683],[1515427200000,0.6806],[1515513600000,0.6764],[1515600000000,0.6812],[1515686400000,0.6705],[1515945600000,0.6493],[1516032000000,0.6475],[1516118400000,0.6522],[1516204800000,0.6502],[1516291200000,0.6488],[1516550400000,0.6662],[1516636800000,0.6645],[1516723200000,0.6873],[1516809600000,0.6862],[1516896000000,0.6881],[1517155200000,0.687],[1517241600000,0.6794],[1517328000000,0.6595],[1517414400000,0.644],[1517500800000,0.648],[1517760000000,0.6431],[1517846400000,0.6073],[1517932800000,0.616],[1518019200000,0.6266],[1518105600000,0.6052],[1518364800000,0.6276],[1518451200000,0.6263],[1518537600000,0.6231],[1519228800000,0.6375],[1519315200000,0.636],[1519574400000,0.662],[1519660800000,0.67],[1519747200000,0.6744],[1519833600000,0.687],[1519920000000,0.6785],[1520179200000,0.6893],[1520265600000,0.6883],[1520352000000,0.6804],[1520438400000,0.683],[1520524800000,0.712],[1520784000000,0.7245],[1520870400000,0.7213],[1520956800000,0.7103],[1521043200000,0.7155],[1521129600000,0.7021],[1521388800000,0.7105],[1521475200000,0.7159],[1521561600000,0.699],[1521648000000,0.694],[1521734400000,0.6485],[1521993600000,0.6719],[1522080000000,0.7009],[1522166400000,0.6964],[1522252800000,0.7037],[1522339200000,0.7269],[1522598400000,0.7235],[1522684800000,0.7101],[1522771200000,0.694],[1523203200000,0.698],[1523289600000,0.6949],[1523376000000,0.693],[1523462400000,0.6876],[1523548800000,0.6883],[1523808000000,0.6941],[1523894400000,0.6698],[1523980800000,0.6862],[1524067200000,0.6837],[1524153600000,0.6649],[1524412800000,0.6525],[1524499200000,0.6778],[1524585600000,0.6793],[1524672000000,0.6644],[1524758400000,0.6707],[1525190400000,0.6687],[1525276800000,0.6825],[1525363200000,0.6734],[1525622400000,0.6908],[1525708800000,0.6971],[1525795200000,0.6971],[1525881600000,0.6968],[1525968000000,0.6853],[1526227200000,0.6842],[1526313600000,0.6908],[1526400000000,0.6844],[1526486400000,0.6768],[1526572800000,0.6813],[1526832000000,0.6932],[1526918400000,0.6943],[1527004800000,0.682],[1527091200000,0.6772],[1527177600000,0.6601],[1527436800000,0.6558],[1527523200000,0.6525],[1527609600000,0.6309],[1527696000000,0.6355],[1527782400000,0.627],[1528041600000,0.626],[1528128000000,0.64],[1528214400000,0.633],[1528300800000,0.6301],[1528387200000,0.6216],[1528646400000,0.6183],[1528732800000,0.6278],[1528819200000,0.6158],[1528905600000,0.6127],[1528992000000,0.5974],[1529337600000,0.5588],[1529424000000,0.565],[1529510400000,0.5465],[1529596800000,0.5603],[1529856000000,0.5565],[1529942400000,0.5692],[1530028800000,0.5642],[1530115200000,0.5633],[1530201600000,0.589],[1530288000000,0.589],[1530460800000,0.5799],[1530547200000,0.5904],[1530633600000,0.5752],[1530720000000,0.5648],[1530806400000,0.5678],[1531065600000,0.5796],[1531152000000,0.5844],[1531238400000,0.5724],[1531324800000,0.5932],[1531411200000,0.5945],[1531670400000,0.5914],[1531756800000,0.5947],[1531843200000,0.5862],[1531929600000,0.5827],[1532016000000,0.5914],[1532275200000,0.6009],[1532361600000,0.6063],[1532448000000,0.6066],[1532534400000,0.5951],[1532620800000,0.5886],[1532880000000,0.5766],[1532966400000,0.5734],[1533052800000,0.5654],[1533139200000,0.5508],[1533225600000,0.5411],[1533484800000,0.5291],[1533571200000,0.5458],[1533657600000,0.5328],[1533744000000,0.5522],[1533830400000,0.5547],[1534089600000,0.5624],[1534176000000,0.5567],[1534262400000,0.5392],[1534348800000,0.5371],[1534435200000,0.5277],[1534694400000,0.5338],[1534780800000,0.5402],[1534867200000,0.533],[1534953600000,0.5396],[1535040000000,0.5349],[1535299200000,0.5505],[1535385600000,0.5515],[1535472000000,0.5479],[1535558400000,0.5369],[1535644800000,0.5279],[1535904000000,0.5312],[1535990400000,0.5376],[1536076800000,0.5284],[1536163200000,0.5249],[1536249600000,0.523],[1536508800000,0.5039],[1536595200000,0.505],[1536681600000,0.5038],[1536768000000,0.5065],[1536854400000,0.4979],[1537113600000,0.4918],[1537200000000,0.501],[1537286400000,0.507],[1537372800000,0.5054],[1537459200000,0.5147],[1537804800000,0.5091],[1537891200000,0.513],[1537977600000,0.5032],[1538064000000,0.5102],[1538928000000,0.4859],[1539014400000,0.4812],[1539100800000,0.4803],[1539187200000,0.4475],[1539273600000,0.4494],[1539532800000,0.4422],[1539619200000,0.4312],[1539705600000,0.4353],[1539792000000,0.4267],[1539878400000,0.4458],[1540137600000,0.4727],[1540224000000,0.4617],[1540310400000,0.4569],[1540396800000,0.4537],[1540483200000,0.4469],[1540742400000,0.4414],[1540828800000,0.4483],[1540915200000,0.4522],[1541001600000,0.4577],[1541088000000,0.4822],[1541347200000,0.4829],[1541433600000,0.4815],[1541520000000,0.4805],[1541606400000,0.4726],[1541692800000,0.4729],[1541952000000,0.4907],[1542038400000,0.4979],[1542124800000,0.495],[1542211200000,0.5037],[1542297600000,0.5024],[1542556800000,0.5009],[1542643200000,0.4852],[1542729600000,0.4866],[1542816000000,0.4832],[1542902400000,0.4636],[1543161600000,0.4624],[1543248000000,0.4656],[1543334400000,0.4758],[1543420800000,0.464],[1543507200000,0.4714],[1543766400000,0.4882],[1543852800000,0.491],[1543939200000,0.4881],[1544025600000,0.4733],[1544112000000,0.473],[1544371200000,0.4672],[1544457600000,0.4723],[1544544000000,0.4731],[1544630400000,0.4789],[1544716800000,0.4642],[1544976000000,0.4603],[1545062400000,0.457],[1545148800000,0.4478],[1545235200000,0.4493],[1545321600000,0.4466],[1545580800000,0.452],[1545667200000,0.447],[1545753600000,0.4414],[1545840000000,0.4363],[1545926400000,0.4369],[1546185600000,0.4369],[1546358400000,0.4289],[1546444800000,0.4234],[1546531200000,0.4359],[1546790400000,0.4428],[1546876800000,0.4415],[1546963200000,0.4407],[1547049600000,0.438],[1547136000000,0.4386],[1547395200000,0.4328],[1547481600000,0.4425],[1547568000000,0.4422],[1547654400000,0.4366],[1547740800000,0.4442],[1548000000000,0.4477],[1548086400000,0.4394],[1548172800000,0.4382],[1548259200000,0.4436],[1548345600000,0.445],[1548604800000,0.4427],[1548691200000,0.4368],[1548777600000,0.4307],[1548864000000,0.4309],[1548950400000,0.4478],[1549814400000,0.462],[1549900800000,0.4673],[1549987200000,0.4774],[1550073600000,0.4807],[1550160000000,0.4751],[1550419200000,0.4966],[1550505600000,0.4935],[1550592000000,0.4919],[1550678400000,0.4939],[1550764800000,0.5134],[1551024000000,0.5483],[1551110400000,0.5503],[1551196800000,0.5408],[1551283200000,0.5488],[1551369600000,0.5618],[1551628800000,0.5757],[1551715200000,0.5927],[1551801600000,0.6019],[1551888000000,0.5992],[1551974400000,0.5803],[1552233600000,0.6041],[1552320000000,0.6124],[1552406400000,0.5897],[1552492800000,0.5823],[1552579200000,0.5834],[1552838400000,0.5971],[1552924800000,0.5968],[1553011200000,0.5946],[1553097600000,0.5993],[1553184000000,0.5951],[1553443200000,0.5847],[1553529600000,0.5689],[1553616000000,0.5717],[1553702400000,0.5655],[1553788800000,0.5891],[1554048000000,0.612],[1554134400000,0.6099],[1554220800000,0.6163],[1554307200000,0.6151],[1554652800000,0.6036],[1554739200000,0.6067],[1554825600000,0.6001],[1554912000000,0.5864],[1554998400000,0.5886],[1555257600000,0.5777],[1555344000000,0.5951],[1555430400000,0.5981],[1555516800000,0.5936],[1555603200000,0.5979],[1555862400000,0.5872],[1555948800000,0.5809],[1556035200000,0.5919],[1556121600000,0.5717],[1556208000000,0.5706],[1556467200000,0.5564],[1556553600000,0.5542],[1557072000000,0.5119],[1557158400000,0.5171],[1557244800000,0.5124],[1557331200000,0.5059],[1557417600000,0.5291],[1557676800000,0.5191],[1557763200000,0.5178],[1557849600000,0.5297],[1557936000000,0.5306],[1558022400000,0.5104],[1558281600000,0.5104],[1558368000000,0.5176],[1558454400000,0.5152],[1558540800000,0.5021],[1558627200000,0.5013],[1558886400000,0.5156],[1558972800000,0.5178],[1559059200000,0.514],[1559145600000,0.5071],[1559232000000,0.5067],[1559491200000,0.501],[1559577600000,0.4967],[1559664000000,0.4959],[1559750400000,0.4859],[1560096000000,0.4906],[1560182400000,0.5106],[1560268800000,0.5051],[1560355200000,0.5063],[1560441600000,0.4988],[1560700800000,0.4975],[1560787200000,0.5004],[1560873600000,0.5068],[1560960000000,0.5188],[1561046400000,0.5299],[1561305600000,0.527],[1561392000000,0.5236],[1561478400000,0.5262],[1561564800000,0.5328],[1561651200000,0.5284],[1561824000000,0.5284],[1561910400000,0.5492],[1561996800000,0.5497],[1562083200000,0.543],[1562169600000,0.5384],[1562256000000,0.5407],[1562515200000,0.5232],[1562601600000,0.5265],[1562688000000,0.5244],[1562774400000,0.5246],[1562860800000,0.5263],[1563120000000,0.5348],[1563206400000,0.5348],[1563292800000,0.5373],[1563379200000,0.5286],[1563465600000,0.5339],[1563724800000,0.5243],[1563811200000,0.532],[1563897600000,0.5393],[1563984000000,0.5438],[1564070400000,0.5448],[1564329600000,0.5434],[1564416000000,0.5501],[1564502400000,0.5461],[1564588800000,0.545],[1564675200000,0.5378],[1564934400000,0.5262],[1565020800000,0.5182],[1565107200000,0.5157],[1565193600000,0.5238],[1565280000000,0.5205],[1565539200000,0.5322],[1565625600000,0.5283],[1565712000000,0.5334],[1565798400000,0.5406],[1565884800000,0.5441],[1566144000000,0.5684],[1566230400000,0.564],[1566316800000,0.5616],[1566403200000,0.5629],[1566489600000,0.5647],[1566748800000,0.5584],[1566835200000,0.5663],[1566921600000,0.5635],[1567008000000,0.5617],[1567094400000,0.56],[1567353600000,0.5785],[1567440000000,0.5815],[1567526400000,0.5846],[1567612800000,0.5934],[1567699200000,0.5985],[1567958400000,0.6176],[1568044800000,0.6138],[1568131200000,0.6061],[1568217600000,0.6095],[1568563200000,0.6093],[1568649600000,0.594],[1568736000000,0.5941],[1568822400000,0.6027],[1568908800000,0.6017],[1569168000000,0.5933],[1569254400000,0.5999],[1569340800000,0.5912],[1569427200000,0.5769],[1569513600000,0.5834],[1569772800000,0.5741],[1570464000000,0.5678],[1570550400000,0.5701],[1570636800000,0.5863],[1570723200000,0.5889],[1570982400000,0.5949],[1571068800000,0.5857],[1571155200000,0.584],[1571241600000,0.5847],[1571328000000,0.5809],[1571587200000,0.5776],[1571673600000,0.5855],[1571760000000,0.5786],[1571846400000,0.5789],[1571932800000,0.5864],[1572192000000,0.5977],[1572278400000,0.5899],[1572364800000,0.59],[1572451200000,0.5871],[1572537600000,0.5958],[1572796800000,0.5996],[1572883200000,0.6059],[1572969600000,0.604],[1573056000000,0.6072],[1573142400000,0.6079],[1573401600000,0.5942],[1573488000000,0.5921],[1573574400000,0.5975],[1573660800000,0.6022],[1573747200000,0.5968],[1574006400000,0.6008],[1574092800000,0.6209],[1574179200000,0.6177],[1574265600000,0.6143],[1574352000000,0.6035],[1574611200000,0.5981],[1574697600000,0.605],[1574784000000,0.6035],[1574870400000,0.6025],[1574956800000,0.5985],[1575216000000,0.5998],[1575302400000,0.603],[1575388800000,0.6035],[1575475200000,0.6188],[1575561600000,0.6248],[1575820800000,0.6217],[1575907200000,0.6306],[1575993600000,0.6239],[1576080000000,0.6242],[1576166400000,0.6397],[1576425600000,0.6495],[1576512000000,0.6579],[1576598400000,0.6551],[1576684800000,0.6538],[1576771200000,0.6453],[1577030400000,0.6337],[1577116800000,0.6491],[1577203200000,0.6557],[1577289600000,0.6598],[1577376000000,0.6473],[1577635200000,0.6585],[1577721600000,0.6605],[1577894400000,0.6716],[1577980800000,0.6721],[1578240000000,0.6788],[1578326400000,0.6863],[1578412800000,0.6764],[1578499200000,0.6968],[1578585600000,0.6946],[1578844800000,0.7052],[1578931200000,0.7017],[1579017600000,0.7017],[1579104000000,0.7037],[1579190400000,0.704],[1579449600000,0.7242],[1579536000000,0.7173],[1579622400000,0.7337],[1579708800000,0.7099],[1580659200000,0.6643],[1580745600000,0.6994],[1580832000000,0.7234],[1580918400000,0.7505],[1581004800000,0.747],[1581264000000,0.7597],[1581350400000,0.7534],[1581436800000,0.7763],[1581523200000,0.7691],[1581609600000,0.7699],[1581868800000,0.7981],[1581955200000,0.8067],[1582041600000,0.7887],[1582128000000,0.8087],[1582214400000,0.8277],[1582473600000,0.8424],[1582560000000,0.856],[1582646400000,0.8113],[1582732800000,0.8152],[1582819200000,0.7673],[1583078400000,0.7916],[1583164800000,0.8082],[1583251200000,0.8056],[1583337600000,0.8164],[1583424000000,0.8108],[1583683200000,0.7728],[1583769600000,0.7976],[1583856000000,0.7796],[1583942400000,0.76],[1584028800000,0.7565],[1584288000000,0.7091],[1584374400000,0.7129],[1584460800000,0.6978],[1584547200000,0.7003],[1584633600000,0.7081],[1584892800000,0.6749],[1584979200000,0.692],[1585065600000,0.7191],[1585152000000,0.7173],[1585238400000,0.7088],[1585497600000,0.6914],[1585584000000,0.6921],[1585670400000,0.6909],[1585756800000,0.7119],[1585843200000,0.7061],[1586188800000,0.7299],[1586275200000,0.7284],[1586361600000,0.7414],[1586448000000,0.7215],[1586707200000,0.7144],[1586793600000,0.7407],[1586880000000,0.7381],[1586966400000,0.7499],[1587052800000,0.7553],[1587312000000,0.7642],[1587398400000,0.7564],[1587484800000,0.7624],[1587571200000,0.7575],[1587657600000,0.7467],[1587916800000,0.756],[1588003200000,0.7655],[1588089600000,0.764],[1588176000000,0.779],[1588694400000,0.7967],[1588780800000,0.7932],[1588867200000,0.799],[1589126400000,0.7894],[1589212800000,0.796],[1589299200000,0.8039],[1589385600000,0.7971],[1589472000000,0.8015],[1589731200000,0.7936],[1589817600000,0.8049],[1589904000000,0.7961],[1589990400000,0.7917],[1590076800000,0.7701],[1590336000000,0.7741],[1590422400000,0.7973],[1590508800000,0.7831],[1590595200000,0.7781],[1590681600000,0.7862],[1590940800000,0.8153],[1591027200000,0.8105],[1591113600000,0.8089],[1591200000000,0.8119],[1591286400000,0.8188],[1591545600000,0.814],[1591632000000,0.8261],[1591718400000,0.8362],[1591804800000,0.8391],[1591891200000,0.8454],[1592150400000,0.8487],[1592236800000,0.8643],[1592323200000,0.8639],[1592409600000,0.8676],[1592496000000,0.893],[1592755200000,0.9052],[1592841600000,0.9211],[1592928000000,0.9186],[1593360000000,0.9126],[1593446400000,0.9401],[1593532800000,0.9332],[1593619200000,0.9376],[1593705600000,0.9513],[1593964800000,0.9799],[1594051200000,1.0049],[1594137600000,1.034],[1594224000000,1.0745],[1594310400000,1.0839],[1594569600000,1.1331],[1594656000000,1.1228],[1594742400000,1.1033],[1594828800000,1.0394],[1594915200000,1.0432],[1595174400000,1.0603],[1595260800000,1.0792],[1595347200000,1.0929],[1595433600000,1.1122],[1595520000000,1.0386],[1595779200000,1.0417],[1595865600000,1.0543],[1595952000000,1.1004],[1596038400000,1.0923],[1596124800000,1.1196],[1596384000000,1.1507],[1596470400000,1.1326],[1596556800000,1.146],[1596643200000,1.1228],[1596729600000,1.0968],[1596988800000,1.086],[1597075200000,1.0667],[1597161600000,1.0464],[1597248000000,1.0396],[1597334400000,1.0602],[1597593600000,1.0706],[1597680000000,1.0707],[1597766400000,1.029],[1597852800000,1.0224],[1597939200000,1.0421],[1598198400000,1.0613],[1598284800000,1.0709],[1598371200000,1.0462],[1598457600000,1.0667],[1598544000000,1.0927],[1598803200000,1.0791],[1598889600000,1.0882],[1598976000000,1.0941],[1599062400000,1.0854],[1599148800000,1.0803],[1599408000000,1.0421],[1599494400000,1.0474],[1599580800000,0.9937],[1599667200000,0.9804],[1599753600000,1.0026],[1600012800000,1.0183],[1600099200000,1.0281],[1600185600000,1.0123],[1600272000000,1.0158],[1600358400000,1.0319],[1600617600000,1.021],[1600704000000,1.0191],[1600790400000,1.0377],[1600876800000,1.0129],[1600963200000,1.0156],[1601222400000,1.0106],[1601308800000,1.0263],[1601395200000,1.0327],[1602172800000,1.079],[1602432000000,1.1225],[1602518400000,1.1234],[1602604800000,1.1175],[1602691200000,1.1081],[1602777600000,1.1015],[1603036800000,1.0878],[1603123200000,1.1137],[1603209600000,1.097],[1603296000000,1.0855],[1603382400000,1.0518],[1603641600000,1.059],[1603728000000,1.0741],[1603814400000,1.0857],[1603900800000,1.0995],[1603987200000,1.084],[1604246400000,1.1091],[1604332800000,1.124],[1604419200000,1.1309],[1604505600000,1.1473],[1604592000000,1.1276],[1604851200000,1.1659],[1604937600000,1.1455],[1605024000000,1.105],[1605110400000,1.1134],[1605196800000,1.1139],[1605456000000,1.1159],[1605542400000,1.0906],[1605628800000,1.0732],[1605715200000,1.0799],[1605801600000,1.091],[1606060800000,1.1043],[1606147200000,1.0988],[1606233600000,1.0716],[1606320000000,1.0686],[1606406400000,1.0727],[1606665600000,1.0812],[1606752000000,1.1102],[1606838400000,1.1003],[1606924800000,1.1128],[1607011200000,1.121],[1607270400000,1.116],[1607356800000,1.1271],[1607443200000,1.1078],[1607529600000,1.1167],[1607616000000,1.1078],[1607875200000,1.1197],[1607961600000,1.1394],[1608048000000,1.1417],[1608134400000,1.1525],[1608220800000,1.1554],[1608480000000,1.2029],[1608566400000,1.1738],[1608652800000,1.1874],[1608739200000,1.1795],[1608825600000,1.1899],[1609084800000,1.1894],[1609171200000,1.1734],[1609257600000,1.2166],[1609344000000,1.2467],[1609689600000,1.2949],[1609776000000,1.3009],[1609862400000,1.3144],[1609948800000,1.3369],[1610035200000,1.332],[1610294400000,1.3061],[1610380800000,1.3516],[1610467200000,1.3337],[1610553600000,1.3114],[1610640000000,1.3122],[1610899200000,1.3411],[1610985600000,1.31],[1611072000000,1.3664],[1611158400000,1.4022],[1611244800000,1.4349],[1611504000000,1.4313],[1611590400000,1.3859],[1611676800000,1.4012],[1611763200000,1.3475],[1611849600000,1.3289],[1612108800000,1.3445],[1612195200000,1.3793],[1612281600000,1.3826],[1612368000000,1.3779],[1612454400000,1.3769],[1612713600000,1.4179],[1612800000000,1.4416],[1612886400000,1.4782],[1613577600000,1.4315],[1613664000000,1.4084],[1613923200000,1.3398],[1614009600000,1.3328],[1614096000000,1.2804],[1614182400000,1.2676],[1614268800000,1.2399],[1614528000000,1.2799],[1614614400000,1.2668],[1614700800000,1.2781],[1614787200000,1.2065],[1614873600000,1.2152],[1615132800000,1.1508],[1615219200000,1.109],[1615305600000,1.1353],[1615392000000,1.1693],[1615478400000,1.1785],[1615737600000,1.1214],[1615824000000,1.1327],[1615910400000,1.1464],[1615996800000,1.1669],[1616083200000,1.1281],[1616342400000,1.1386],[1616428800000,1.124],[1616515200000,1.1093],[1616601600000,1.1149],[1616688000000,1.1564],[1616947200000,1.1506],[1617033600000,1.1691],[1617120000000,1.1651],[1617206400000,1.1905],[1617292800000,1.2065],[1617638400000,1.1976],[1617724800000,1.1844],[1617811200000,1.1923],[1617897600000,1.171],[1618156800000,1.1433],[1618243200000,1.156],[1618329600000,1.1874],[1618416000000,1.1809],[1618502400000,1.1755],[1618761600000,1.2309],[1618848000000,1.2277],[1618934400000,1.2378],[1619020800000,1.2484],[1619107200000,1.2814],[1619366400000,1.2699],[1619452800000,1.2789],[1619539200000,1.312],[1619625600000,1.3142],[1619712000000,1.3372],[1620230400000,1.3004],[1620316800000,1.2505],[1620576000000,1.2577],[1620662400000,1.255],[1620748800000,1.2717],[1620835200000,1.2641],[1620921600000,1.3072],[1621180800000,1.3478],[1621267200000,1.3362],[1621353600000,1.3504],[1621440000000,1.3599],[1621526400000,1.3461],[1621785600000,1.3574],[1621872000000,1.3989],[1621958400000,1.3845],[1622044800000,1.3956],[1622131200000,1.4047],[1622390400000,1.4451],[1622476800000,1.4391],[1622563200000,1.4122],[1622649600000,1.3907],[1622736000000,1.4104],[1622995200000,1.399],[1623081600000,1.3903],[1623168000000,1.3885],[1623254400000,1.4284],[1623340800000,1.4386],[1623686400000,1.4241],[1623772800000,1.3585],[1623859200000,1.3878],[1623945600000,1.4161],[1624204800000,1.4305],[1624291200000,1.4361],[1624377600000,1.4539],[1624464000000,1.435],[1624550400000,1.4706],[1624809600000,1.5034],[1624896000000,1.5028],[1624982400000,1.5392],[1625068800000,1.5319],[1625155200000,1.4784],[1625414400000,1.4865],[1625500800000,1.4571],[1625587200000,1.5156],[1625673600000,1.5285],[1625760000000,1.5171],[1626019200000,1.572],[1626105600000,1.5593],[1626192000000,1.5488],[1626278400000,1.5729],[1626364800000,1.5205]]</t>
+    <t xml:space="preserve"> [[1467216000000,1.0],[1467302400000,1.0],[1467907200000,1.0001],[1468512000000,1.0003],[1469030400000,0.9934],[1469116800000,0.9858],[1469376000000,0.9818],[1469462400000,0.9971],[1469548800000,0.9389],[1469635200000,0.9329],[1469721600000,0.9241],[1469980800000,0.9129],[1470067200000,0.9199],[1470153600000,0.9167],[1470240000000,0.9281],[1470326400000,0.9167],[1470585600000,0.9252],[1470672000000,0.9351],[1470758400000,0.9269],[1470844800000,0.9125],[1470931200000,0.9213],[1471190400000,0.9554],[1471276800000,0.9597],[1471363200000,0.9617],[1471449600000,0.9596],[1471536000000,0.9577],[1471795200000,0.9394],[1471881600000,0.9428],[1471968000000,0.95],[1472054400000,0.9415],[1472140800000,0.9467],[1472400000000,0.9481],[1472486400000,0.9495],[1472572800000,0.9503],[1472659200000,0.9441],[1472745600000,0.9398],[1473004800000,0.9442],[1473091200000,0.9604],[1473177600000,0.9555],[1473264000000,0.9622],[1473350400000,0.9499],[1473609600000,0.9242],[1473696000000,0.9196],[1473782400000,0.9176],[1474214400000,0.9274],[1474300800000,0.9252],[1474387200000,0.9258],[1474473600000,0.9279],[1474560000000,0.9194],[1474819200000,0.9042],[1474905600000,0.9131],[1474992000000,0.9101],[1475078400000,0.9113],[1475164800000,0.9142],[1476028800000,0.938],[1476115200000,0.938],[1476201600000,0.9374],[1476288000000,0.937],[1476374400000,0.9294],[1476633600000,0.9193],[1476720000000,0.9331],[1476806400000,0.9282],[1476892800000,0.9299],[1476979200000,0.9258],[1477238400000,0.9349],[1477324800000,0.9366],[1477411200000,0.9313],[1477497600000,0.9319],[1477584000000,0.9252],[1477843200000,0.9221],[1477929600000,0.9283],[1478016000000,0.9135],[1478102400000,0.9167],[1478188800000,0.9133],[1478448000000,0.9045],[1478534400000,0.9123],[1478620800000,0.899],[1478707200000,0.9076],[1478793600000,0.9119],[1479052800000,0.9197],[1479139200000,0.9291],[1479225600000,0.9278],[1479312000000,0.9172],[1479398400000,0.9151],[1479657600000,0.9121],[1479744000000,0.9259],[1479830400000,0.9218],[1479916800000,0.9135],[1480003200000,0.9247],[1480262400000,0.9232],[1480348800000,0.924],[1480435200000,0.9357],[1480521600000,0.9335],[1480608000000,0.9159],[1480867200000,0.913],[1480953600000,0.8971],[1481040000000,0.903],[1481126400000,0.8927],[1481212800000,0.8862],[1481472000000,0.835],[1481558400000,0.835],[1481644800000,0.8267],[1481731200000,0.8339],[1481817600000,0.8446],[1482076800000,0.8362],[1482163200000,0.8388],[1482249600000,0.8411],[1482336000000,0.8379],[1482422400000,0.8279],[1482681600000,0.8298],[1482768000000,0.8254],[1482854400000,0.8199],[1482940800000,0.8204],[1483027200000,0.8211],[1483113600000,0.8209],[1483372800000,0.8238],[1483459200000,0.8386],[1483545600000,0.8349],[1483632000000,0.8245],[1483891200000,0.826],[1483977600000,0.8207],[1484064000000,0.8145],[1484150400000,0.8092],[1484236800000,0.7954],[1484496000000,0.7562],[1484582400000,0.7786],[1484668800000,0.7671],[1484755200000,0.7678],[1484841600000,0.7845],[1485100800000,0.7868],[1485187200000,0.7733],[1485273600000,0.7764],[1485360000000,0.7827],[1486051200000,0.7791],[1486310400000,0.7894],[1486396800000,0.783],[1486483200000,0.7903],[1486569600000,0.7958],[1486656000000,0.7915],[1486915200000,0.7964],[1487001600000,0.7964],[1487088000000,0.7861],[1487174400000,0.7882],[1487260800000,0.7811],[1487520000000,0.7864],[1487606400000,0.7986],[1487692800000,0.7999],[1487779200000,0.8001],[1487865600000,0.8061],[1488124800000,0.8003],[1488211200000,0.8002],[1488297600000,0.8013],[1488384000000,0.7935],[1488470400000,0.7946],[1488729600000,0.8108],[1488816000000,0.8175],[1488902400000,0.81],[1488988800000,0.8079],[1489075200000,0.8058],[1489334400000,0.8148],[1489420800000,0.8065],[1489507200000,0.8084],[1489593600000,0.8117],[1489680000000,0.8044],[1489939200000,0.8057],[1490025600000,0.8079],[1490112000000,0.7982],[1490198400000,0.796],[1490284800000,0.8023],[1490544000000,0.7959],[1490630400000,0.7936],[1490716800000,0.7862],[1490803200000,0.7682],[1490889600000,0.7757],[1491321600000,0.7917],[1491408000000,0.7917],[1491494400000,0.7921],[1491753600000,0.7748],[1491840000000,0.776],[1491926400000,0.7672],[1492012800000,0.7733],[1492099200000,0.7624],[1492358400000,0.7557],[1492444800000,0.7433],[1492531200000,0.7453],[1492617600000,0.7454],[1492704000000,0.7391],[1492963200000,0.724],[1493049600000,0.7284],[1493136000000,0.7265],[1493222400000,0.7365],[1493308800000,0.7394],[1493654400000,0.7396],[1493740800000,0.738],[1493827200000,0.7375],[1493913600000,0.7287],[1494172800000,0.7212],[1494259200000,0.7301],[1494345600000,0.7185],[1494432000000,0.7186],[1494518400000,0.7177],[1494777600000,0.7175],[1494864000000,0.7313],[1494950400000,0.7376],[1495036800000,0.7337],[1495123200000,0.7289],[1495382400000,0.7212],[1495468800000,0.7076],[1495555200000,0.7137],[1495641600000,0.7164],[1495728000000,0.7097],[1496160000000,0.7099],[1496246400000,0.6946],[1496332800000,0.7067],[1496592000000,0.7133],[1496678400000,0.7155],[1496764800000,0.7299],[1496851200000,0.7272],[1496937600000,0.7285],[1497196800000,0.7175],[1497283200000,0.7282],[1497369600000,0.7267],[1497456000000,0.7408],[1497542400000,0.739],[1497801600000,0.7409],[1497888000000,0.7424],[1497974400000,0.7435],[1498060800000,0.7308],[1498147200000,0.7337],[1498406400000,0.7389],[1498492800000,0.7379],[1498579200000,0.7317],[1498665600000,0.7345],[1498752000000,0.7348],[1499011200000,0.7436],[1499097600000,0.7397],[1499184000000,0.7452],[1499270400000,0.7453],[1499356800000,0.7452],[1499616000000,0.7302],[1499702400000,0.7217],[1499788800000,0.7235],[1499875200000,0.7178],[1499961600000,0.7054],[1500220800000,0.6669],[1500307200000,0.6734],[1500393600000,0.6793],[1500480000000,0.6819],[1500566400000,0.6835],[1500825600000,0.6823],[1500912000000,0.684],[1500998400000,0.6827],[1501084800000,0.7091],[1501171200000,0.7052],[1501430400000,0.7065],[1501516800000,0.7096],[1501603200000,0.7045],[1501689600000,0.7083],[1501776000000,0.7025],[1502035200000,0.7065],[1502121600000,0.7137],[1502208000000,0.716],[1502294400000,0.7103],[1502380800000,0.7057],[1502640000000,0.7284],[1502726400000,0.7306],[1502812800000,0.7451],[1502899200000,0.7509],[1502985600000,0.7447],[1503244800000,0.7476],[1503331200000,0.741],[1503417600000,0.7371],[1503504000000,0.7317],[1503590400000,0.7413],[1503849600000,0.7557],[1503936000000,0.7501],[1504022400000,0.7516],[1504108800000,0.7565],[1504195200000,0.7669],[1504454400000,0.7751],[1504540800000,0.7732],[1504627200000,0.7834],[1504713600000,0.7782],[1504800000000,0.7744],[1505059200000,0.783],[1505145600000,0.7749],[1505232000000,0.7778],[1505318400000,0.7728],[1505404800000,0.7704],[1505664000000,0.7753],[1505750400000,0.7663],[1505836800000,0.7736],[1505923200000,0.7631],[1506009600000,0.7626],[1506268800000,0.7494],[1506355200000,0.7489],[1506441600000,0.7576],[1506528000000,0.7575],[1506614400000,0.7629],[1507478400000,0.7747],[1507564800000,0.7837],[1507651200000,0.7742],[1507737600000,0.7757],[1507824000000,0.7908],[1508083200000,0.7689],[1508169600000,0.7662],[1508256000000,0.7624],[1508342400000,0.7574],[1508428800000,0.7674],[1508688000000,0.7748],[1508774400000,0.7767],[1508860800000,0.7805],[1508947200000,0.777],[1509033600000,0.7694],[1509292800000,0.7467],[1509379200000,0.7538],[1509465600000,0.7498],[1509552000000,0.7374],[1509638400000,0.7321],[1509897600000,0.7387],[1509984000000,0.7424],[1510070400000,0.7489],[1510156800000,0.7582],[1510243200000,0.7623],[1510502400000,0.7647],[1510588800000,0.759],[1510675200000,0.7466],[1510761600000,0.7472],[1510848000000,0.7301],[1511107200000,0.7399],[1511193600000,0.7425],[1511280000000,0.7405],[1511366400000,0.7199],[1511452800000,0.7163],[1511712000000,0.7101],[1511798400000,0.7252],[1511884800000,0.7224],[1511971200000,0.7164],[1512057600000,0.7327],[1512316800000,0.7279],[1512403200000,0.7112],[1512489600000,0.7206],[1512576000000,0.7155],[1512662400000,0.7222],[1512921600000,0.7325],[1513008000000,0.7268],[1513094400000,0.7278],[1513180800000,0.7219],[1513267200000,0.7188],[1513526400000,0.7164],[1513612800000,0.7241],[1513699200000,0.7144],[1513785600000,0.7159],[1513872000000,0.7106],[1514131200000,0.6977],[1514217600000,0.7],[1514304000000,0.6973],[1514390400000,0.698],[1514476800000,0.6995],[1514649600000,0.6993],[1514822400000,0.6721],[1514908800000,0.6857],[1514995200000,0.6831],[1515081600000,0.6839],[1515340800000,0.683],[1515427200000,0.6806],[1515513600000,0.6764],[1515600000000,0.6812],[1515686400000,0.6705],[1515945600000,0.6493],[1516032000000,0.6475],[1516118400000,0.6522],[1516204800000,0.6502],[1516291200000,0.6488],[1516550400000,0.6662],[1516636800000,0.6645],[1516723200000,0.6873],[1516809600000,0.6862],[1516896000000,0.6881],[1517155200000,0.687],[1517241600000,0.6794],[1517328000000,0.6595],[1517414400000,0.644],[1517500800000,0.648],[1517760000000,0.6431],[1517846400000,0.6073],[1517932800000,0.616],[1518019200000,0.6266],[1518105600000,0.6052],[1518364800000,0.6276],[1518451200000,0.6263],[1518537600000,0.6231],[1519228800000,0.6375],[1519315200000,0.636],[1519574400000,0.662],[1519660800000,0.67],[1519747200000,0.6744],[1519833600000,0.687],[1519920000000,0.6785],[1520179200000,0.6893],[1520265600000,0.6883],[1520352000000,0.6804],[1520438400000,0.683],[1520524800000,0.712],[1520784000000,0.7245],[1520870400000,0.7213],[1520956800000,0.7103],[1521043200000,0.7155],[1521129600000,0.7021],[1521388800000,0.7105],[1521475200000,0.7159],[1521561600000,0.699],[1521648000000,0.694],[1521734400000,0.6485],[1521993600000,0.6719],[1522080000000,0.7009],[1522166400000,0.6964],[1522252800000,0.7037],[1522339200000,0.7269],[1522598400000,0.7235],[1522684800000,0.7101],[1522771200000,0.694],[1523203200000,0.698],[1523289600000,0.6949],[1523376000000,0.693],[1523462400000,0.6876],[1523548800000,0.6883],[1523808000000,0.6941],[1523894400000,0.6698],[1523980800000,0.6862],[1524067200000,0.6837],[1524153600000,0.6649],[1524412800000,0.6525],[1524499200000,0.6778],[1524585600000,0.6793],[1524672000000,0.6644],[1524758400000,0.6707],[1525190400000,0.6687],[1525276800000,0.6825],[1525363200000,0.6734],[1525622400000,0.6908],[1525708800000,0.6971],[1525795200000,0.6971],[1525881600000,0.6968],[1525968000000,0.6853],[1526227200000,0.6842],[1526313600000,0.6908],[1526400000000,0.6844],[1526486400000,0.6768],[1526572800000,0.6813],[1526832000000,0.6932],[1526918400000,0.6943],[1527004800000,0.682],[1527091200000,0.6772],[1527177600000,0.6601],[1527436800000,0.6558],[1527523200000,0.6525],[1527609600000,0.6309],[1527696000000,0.6355],[1527782400000,0.627],[1528041600000,0.626],[1528128000000,0.64],[1528214400000,0.633],[1528300800000,0.6301],[1528387200000,0.6216],[1528646400000,0.6183],[1528732800000,0.6278],[1528819200000,0.6158],[1528905600000,0.6127],[1528992000000,0.5974],[1529337600000,0.5588],[1529424000000,0.565],[1529510400000,0.5465],[1529596800000,0.5603],[1529856000000,0.5565],[1529942400000,0.5692],[1530028800000,0.5642],[1530115200000,0.5633],[1530201600000,0.589],[1530288000000,0.589],[1530460800000,0.5799],[1530547200000,0.5904],[1530633600000,0.5752],[1530720000000,0.5648],[1530806400000,0.5678],[1531065600000,0.5796],[1531152000000,0.5844],[1531238400000,0.5724],[1531324800000,0.5932],[1531411200000,0.5945],[1531670400000,0.5914],[1531756800000,0.5947],[1531843200000,0.5862],[1531929600000,0.5827],[1532016000000,0.5914],[1532275200000,0.6009],[1532361600000,0.6063],[1532448000000,0.6066],[1532534400000,0.5951],[1532620800000,0.5886],[1532880000000,0.5766],[1532966400000,0.5734],[1533052800000,0.5654],[1533139200000,0.5508],[1533225600000,0.5411],[1533484800000,0.5291],[1533571200000,0.5458],[1533657600000,0.5328],[1533744000000,0.5522],[1533830400000,0.5547],[1534089600000,0.5624],[1534176000000,0.5567],[1534262400000,0.5392],[1534348800000,0.5371],[1534435200000,0.5277],[1534694400000,0.5338],[1534780800000,0.5402],[1534867200000,0.533],[1534953600000,0.5396],[1535040000000,0.5349],[1535299200000,0.5505],[1535385600000,0.5515],[1535472000000,0.5479],[1535558400000,0.5369],[1535644800000,0.5279],[1535904000000,0.5312],[1535990400000,0.5376],[1536076800000,0.5284],[1536163200000,0.5249],[1536249600000,0.523],[1536508800000,0.5039],[1536595200000,0.505],[1536681600000,0.5038],[1536768000000,0.5065],[1536854400000,0.4979],[1537113600000,0.4918],[1537200000000,0.501],[1537286400000,0.507],[1537372800000,0.5054],[1537459200000,0.5147],[1537804800000,0.5091],[1537891200000,0.513],[1537977600000,0.5032],[1538064000000,0.5102],[1538928000000,0.4859],[1539014400000,0.4812],[1539100800000,0.4803],[1539187200000,0.4475],[1539273600000,0.4494],[1539532800000,0.4422],[1539619200000,0.4312],[1539705600000,0.4353],[1539792000000,0.4267],[1539878400000,0.4458],[1540137600000,0.4727],[1540224000000,0.4617],[1540310400000,0.4569],[1540396800000,0.4537],[1540483200000,0.4469],[1540742400000,0.4414],[1540828800000,0.4483],[1540915200000,0.4522],[1541001600000,0.4577],[1541088000000,0.4822],[1541347200000,0.4829],[1541433600000,0.4815],[1541520000000,0.4805],[1541606400000,0.4726],[1541692800000,0.4729],[1541952000000,0.4907],[1542038400000,0.4979],[1542124800000,0.495],[1542211200000,0.5037],[1542297600000,0.5024],[1542556800000,0.5009],[1542643200000,0.4852],[1542729600000,0.4866],[1542816000000,0.4832],[1542902400000,0.4636],[1543161600000,0.4624],[1543248000000,0.4656],[1543334400000,0.4758],[1543420800000,0.464],[1543507200000,0.4714],[1543766400000,0.4882],[1543852800000,0.491],[1543939200000,0.4881],[1544025600000,0.4733],[1544112000000,0.473],[1544371200000,0.4672],[1544457600000,0.4723],[1544544000000,0.4731],[1544630400000,0.4789],[1544716800000,0.4642],[1544976000000,0.4603],[1545062400000,0.457],[1545148800000,0.4478],[1545235200000,0.4493],[1545321600000,0.4466],[1545580800000,0.452],[1545667200000,0.447],[1545753600000,0.4414],[1545840000000,0.4363],[1545926400000,0.4369],[1546185600000,0.4369],[1546358400000,0.4289],[1546444800000,0.4234],[1546531200000,0.4359],[1546790400000,0.4428],[1546876800000,0.4415],[1546963200000,0.4407],[1547049600000,0.438],[1547136000000,0.4386],[1547395200000,0.4328],[1547481600000,0.4425],[1547568000000,0.4422],[1547654400000,0.4366],[1547740800000,0.4442],[1548000000000,0.4477],[1548086400000,0.4394],[1548172800000,0.4382],[1548259200000,0.4436],[1548345600000,0.445],[1548604800000,0.4427],[1548691200000,0.4368],[1548777600000,0.4307],[1548864000000,0.4309],[1548950400000,0.4478],[1549814400000,0.462],[1549900800000,0.4673],[1549987200000,0.4774],[1550073600000,0.4807],[1550160000000,0.4751],[1550419200000,0.4966],[1550505600000,0.4935],[1550592000000,0.4919],[1550678400000,0.4939],[1550764800000,0.5134],[1551024000000,0.5483],[1551110400000,0.5503],[1551196800000,0.5408],[1551283200000,0.5488],[1551369600000,0.5618],[1551628800000,0.5757],[1551715200000,0.5927],[1551801600000,0.6019],[1551888000000,0.5992],[1551974400000,0.5803],[1552233600000,0.6041],[1552320000000,0.6124],[1552406400000,0.5897],[1552492800000,0.5823],[1552579200000,0.5834],[1552838400000,0.5971],[1552924800000,0.5968],[1553011200000,0.5946],[1553097600000,0.5993],[1553184000000,0.5951],[1553443200000,0.5847],[1553529600000,0.5689],[1553616000000,0.5717],[1553702400000,0.5655],[1553788800000,0.5891],[1554048000000,0.612],[1554134400000,0.6099],[1554220800000,0.6163],[1554307200000,0.6151],[1554652800000,0.6036],[1554739200000,0.6067],[1554825600000,0.6001],[1554912000000,0.5864],[1554998400000,0.5886],[1555257600000,0.5777],[1555344000000,0.5951],[1555430400000,0.5981],[1555516800000,0.5936],[1555603200000,0.5979],[1555862400000,0.5872],[1555948800000,0.5809],[1556035200000,0.5919],[1556121600000,0.5717],[1556208000000,0.5706],[1556467200000,0.5564],[1556553600000,0.5542],[1557072000000,0.5119],[1557158400000,0.5171],[1557244800000,0.5124],[1557331200000,0.5059],[1557417600000,0.5291],[1557676800000,0.5191],[1557763200000,0.5178],[1557849600000,0.5297],[1557936000000,0.5306],[1558022400000,0.5104],[1558281600000,0.5104],[1558368000000,0.5176],[1558454400000,0.5152],[1558540800000,0.5021],[1558627200000,0.5013],[1558886400000,0.5156],[1558972800000,0.5178],[1559059200000,0.514],[1559145600000,0.5071],[1559232000000,0.5067],[1559491200000,0.501],[1559577600000,0.4967],[1559664000000,0.4959],[1559750400000,0.4859],[1560096000000,0.4906],[1560182400000,0.5106],[1560268800000,0.5051],[1560355200000,0.5063],[1560441600000,0.4988],[1560700800000,0.4975],[1560787200000,0.5004],[1560873600000,0.5068],[1560960000000,0.5188],[1561046400000,0.5299],[1561305600000,0.527],[1561392000000,0.5236],[1561478400000,0.5262],[1561564800000,0.5328],[1561651200000,0.5284],[1561824000000,0.5284],[1561910400000,0.5492],[1561996800000,0.5497],[1562083200000,0.543],[1562169600000,0.5384],[1562256000000,0.5407],[1562515200000,0.5232],[1562601600000,0.5265],[1562688000000,0.5244],[1562774400000,0.5246],[1562860800000,0.5263],[1563120000000,0.5348],[1563206400000,0.5348],[1563292800000,0.5373],[1563379200000,0.5286],[1563465600000,0.5339],[1563724800000,0.5243],[1563811200000,0.532],[1563897600000,0.5393],[1563984000000,0.5438],[1564070400000,0.5448],[1564329600000,0.5434],[1564416000000,0.5501],[1564502400000,0.5461],[1564588800000,0.545],[1564675200000,0.5378],[1564934400000,0.5262],[1565020800000,0.5182],[1565107200000,0.5157],[1565193600000,0.5238],[1565280000000,0.5205],[1565539200000,0.5322],[1565625600000,0.5283],[1565712000000,0.5334],[1565798400000,0.5406],[1565884800000,0.5441],[1566144000000,0.5684],[1566230400000,0.564],[1566316800000,0.5616],[1566403200000,0.5629],[1566489600000,0.5647],[1566748800000,0.5584],[1566835200000,0.5663],[1566921600000,0.5635],[1567008000000,0.5617],[1567094400000,0.56],[1567353600000,0.5785],[1567440000000,0.5815],[1567526400000,0.5846],[1567612800000,0.5934],[1567699200000,0.5985],[1567958400000,0.6176],[1568044800000,0.6138],[1568131200000,0.6061],[1568217600000,0.6095],[1568563200000,0.6093],[1568649600000,0.594],[1568736000000,0.5941],[1568822400000,0.6027],[1568908800000,0.6017],[1569168000000,0.5933],[1569254400000,0.5999],[1569340800000,0.5912],[1569427200000,0.5769],[1569513600000,0.5834],[1569772800000,0.5741],[1570464000000,0.5678],[1570550400000,0.5701],[1570636800000,0.5863],[1570723200000,0.5889],[1570982400000,0.5949],[1571068800000,0.5857],[1571155200000,0.584],[1571241600000,0.5847],[1571328000000,0.5809],[1571587200000,0.5776],[1571673600000,0.5855],[1571760000000,0.5786],[1571846400000,0.5789],[1571932800000,0.5864],[1572192000000,0.5977],[1572278400000,0.5899],[1572364800000,0.59],[1572451200000,0.5871],[1572537600000,0.5958],[1572796800000,0.5996],[1572883200000,0.6059],[1572969600000,0.604],[1573056000000,0.6072],[1573142400000,0.6079],[1573401600000,0.5942],[1573488000000,0.5921],[1573574400000,0.5975],[1573660800000,0.6022],[1573747200000,0.5968],[1574006400000,0.6008],[1574092800000,0.6209],[1574179200000,0.6177],[1574265600000,0.6143],[1574352000000,0.6035],[1574611200000,0.5981],[1574697600000,0.605],[1574784000000,0.6035],[1574870400000,0.6025],[1574956800000,0.5985],[1575216000000,0.5998],[1575302400000,0.603],[1575388800000,0.6035],[1575475200000,0.6188],[1575561600000,0.6248],[1575820800000,0.6217],[1575907200000,0.6306],[1575993600000,0.6239],[1576080000000,0.6242],[1576166400000,0.6397],[1576425600000,0.6495],[1576512000000,0.6579],[1576598400000,0.6551],[1576684800000,0.6538],[1576771200000,0.6453],[1577030400000,0.6337],[1577116800000,0.6491],[1577203200000,0.6557],[1577289600000,0.6598],[1577376000000,0.6473],[1577635200000,0.6585],[1577721600000,0.6605],[1577894400000,0.6716],[1577980800000,0.6721],[1578240000000,0.6788],[1578326400000,0.6863],[1578412800000,0.6764],[1578499200000,0.6968],[1578585600000,0.6946],[1578844800000,0.7052],[1578931200000,0.7017],[1579017600000,0.7017],[1579104000000,0.7037],[1579190400000,0.704],[1579449600000,0.7242],[1579536000000,0.7173],[1579622400000,0.7337],[1579708800000,0.7099],[1580659200000,0.6643],[1580745600000,0.6994],[1580832000000,0.7234],[1580918400000,0.7505],[1581004800000,0.747],[1581264000000,0.7597],[1581350400000,0.7534],[1581436800000,0.7763],[1581523200000,0.7691],[1581609600000,0.7699],[1581868800000,0.7981],[1581955200000,0.8067],[1582041600000,0.7887],[1582128000000,0.8087],[1582214400000,0.8277],[1582473600000,0.8424],[1582560000000,0.856],[1582646400000,0.8113],[1582732800000,0.8152],[1582819200000,0.7673],[1583078400000,0.7916],[1583164800000,0.8082],[1583251200000,0.8056],[1583337600000,0.8164],[1583424000000,0.8108],[1583683200000,0.7728],[1583769600000,0.7976],[1583856000000,0.7796],[1583942400000,0.76],[1584028800000,0.7565],[1584288000000,0.7091],[1584374400000,0.7129],[1584460800000,0.6978],[1584547200000,0.7003],[1584633600000,0.7081],[1584892800000,0.6749],[1584979200000,0.692],[1585065600000,0.7191],[1585152000000,0.7173],[1585238400000,0.7088],[1585497600000,0.6914],[1585584000000,0.6921],[1585670400000,0.6909],[1585756800000,0.7119],[1585843200000,0.7061],[1586188800000,0.7299],[1586275200000,0.7284],[1586361600000,0.7414],[1586448000000,0.7215],[1586707200000,0.7144],[1586793600000,0.7407],[1586880000000,0.7381],[1586966400000,0.7499],[1587052800000,0.7553],[1587312000000,0.7642],[1587398400000,0.7564],[1587484800000,0.7624],[1587571200000,0.7575],[1587657600000,0.7467],[1587916800000,0.756],[1588003200000,0.7655],[1588089600000,0.764],[1588176000000,0.779],[1588694400000,0.7967],[1588780800000,0.7932],[1588867200000,0.799],[1589126400000,0.7894],[1589212800000,0.796],[1589299200000,0.8039],[1589385600000,0.7971],[1589472000000,0.8015],[1589731200000,0.7936],[1589817600000,0.8049],[1589904000000,0.7961],[1589990400000,0.7917],[1590076800000,0.7701],[1590336000000,0.7741],[1590422400000,0.7973],[1590508800000,0.7831],[1590595200000,0.7781],[1590681600000,0.7862],[1590940800000,0.8153],[1591027200000,0.8105],[1591113600000,0.8089],[1591200000000,0.8119],[1591286400000,0.8188],[1591545600000,0.814],[1591632000000,0.8261],[1591718400000,0.8362],[1591804800000,0.8391],[1591891200000,0.8454],[1592150400000,0.8487],[1592236800000,0.8643],[1592323200000,0.8639],[1592409600000,0.8676],[1592496000000,0.893],[1592755200000,0.9052],[1592841600000,0.9211],[1592928000000,0.9186],[1593360000000,0.9126],[1593446400000,0.9401],[1593532800000,0.9332],[1593619200000,0.9376],[1593705600000,0.9513],[1593964800000,0.9799],[1594051200000,1.0049],[1594137600000,1.034],[1594224000000,1.0745],[1594310400000,1.0839],[1594569600000,1.1331],[1594656000000,1.1228],[1594742400000,1.1033],[1594828800000,1.0394],[1594915200000,1.0432],[1595174400000,1.0603],[1595260800000,1.0792],[1595347200000,1.0929],[1595433600000,1.1122],[1595520000000,1.0386],[1595779200000,1.0417],[1595865600000,1.0543],[1595952000000,1.1004],[1596038400000,1.0923],[1596124800000,1.1196],[1596384000000,1.1507],[1596470400000,1.1326],[1596556800000,1.146],[1596643200000,1.1228],[1596729600000,1.0968],[1596988800000,1.086],[1597075200000,1.0667],[1597161600000,1.0464],[1597248000000,1.0396],[1597334400000,1.0602],[1597593600000,1.0706],[1597680000000,1.0707],[1597766400000,1.029],[1597852800000,1.0224],[1597939200000,1.0421],[1598198400000,1.0613],[1598284800000,1.0709],[1598371200000,1.0462],[1598457600000,1.0667],[1598544000000,1.0927],[1598803200000,1.0791],[1598889600000,1.0882],[1598976000000,1.0941],[1599062400000,1.0854],[1599148800000,1.0803],[1599408000000,1.0421],[1599494400000,1.0474],[1599580800000,0.9937],[1599667200000,0.9804],[1599753600000,1.0026],[1600012800000,1.0183],[1600099200000,1.0281],[1600185600000,1.0123],[1600272000000,1.0158],[1600358400000,1.0319],[1600617600000,1.021],[1600704000000,1.0191],[1600790400000,1.0377],[1600876800000,1.0129],[1600963200000,1.0156],[1601222400000,1.0106],[1601308800000,1.0263],[1601395200000,1.0327],[1602172800000,1.079],[1602432000000,1.1225],[1602518400000,1.1234],[1602604800000,1.1175],[1602691200000,1.1081],[1602777600000,1.1015],[1603036800000,1.0878],[1603123200000,1.1137],[1603209600000,1.097],[1603296000000,1.0855],[1603382400000,1.0518],[1603641600000,1.059],[1603728000000,1.0741],[1603814400000,1.0857],[1603900800000,1.0995],[1603987200000,1.084],[1604246400000,1.1091],[1604332800000,1.124],[1604419200000,1.1309],[1604505600000,1.1473],[1604592000000,1.1276],[1604851200000,1.1659],[1604937600000,1.1455],[1605024000000,1.105],[1605110400000,1.1134],[1605196800000,1.1139],[1605456000000,1.1159],[1605542400000,1.0906],[1605628800000,1.0732],[1605715200000,1.0799],[1605801600000,1.091],[1606060800000,1.1043],[1606147200000,1.0988],[1606233600000,1.0716],[1606320000000,1.0686],[1606406400000,1.0727],[1606665600000,1.0812],[1606752000000,1.1102],[1606838400000,1.1003],[1606924800000,1.1128],[1607011200000,1.121],[1607270400000,1.116],[1607356800000,1.1271],[1607443200000,1.1078],[1607529600000,1.1167],[1607616000000,1.1078],[1607875200000,1.1197],[1607961600000,1.1394],[1608048000000,1.1417],[1608134400000,1.1525],[1608220800000,1.1554],[1608480000000,1.2029],[1608566400000,1.1738],[1608652800000,1.1874],[1608739200000,1.1795],[1608825600000,1.1899],[1609084800000,1.1894],[1609171200000,1.1734],[1609257600000,1.2166],[1609344000000,1.2467],[1609689600000,1.2949],[1609776000000,1.3009],[1609862400000,1.3144],[1609948800000,1.3369],[1610035200000,1.332],[1610294400000,1.3061],[1610380800000,1.3516],[1610467200000,1.3337],[1610553600000,1.3114],[1610640000000,1.3122],[1610899200000,1.3411],[1610985600000,1.31],[1611072000000,1.3664],[1611158400000,1.4022],[1611244800000,1.4349],[1611504000000,1.4313],[1611590400000,1.3859],[1611676800000,1.4012],[1611763200000,1.3475],[1611849600000,1.3289],[1612108800000,1.3445],[1612195200000,1.3793],[1612281600000,1.3826],[1612368000000,1.3779],[1612454400000,1.3769],[1612713600000,1.4179],[1612800000000,1.4416],[1612886400000,1.4782],[1613577600000,1.4315],[1613664000000,1.4084],[1613923200000,1.3398],[1614009600000,1.3328],[1614096000000,1.2804],[1614182400000,1.2676],[1614268800000,1.2399],[1614528000000,1.2799],[1614614400000,1.2668],[1614700800000,1.2781],[1614787200000,1.2065],[1614873600000,1.2152],[1615132800000,1.1508],[1615219200000,1.109],[1615305600000,1.1353],[1615392000000,1.1693],[1615478400000,1.1785],[1615737600000,1.1214],[1615824000000,1.1327],[1615910400000,1.1464],[1615996800000,1.1669],[1616083200000,1.1281],[1616342400000,1.1386],[1616428800000,1.124],[1616515200000,1.1093],[1616601600000,1.1149],[1616688000000,1.1564],[1616947200000,1.1506],[1617033600000,1.1691],[1617120000000,1.1651],[1617206400000,1.1905],[1617292800000,1.2065],[1617638400000,1.1976],[1617724800000,1.1844],[1617811200000,1.1923],[1617897600000,1.171],[1618156800000,1.1433],[1618243200000,1.156],[1618329600000,1.1874],[1618416000000,1.1809],[1618502400000,1.1755],[1618761600000,1.2309],[1618848000000,1.2277],[1618934400000,1.2378],[1619020800000,1.2484],[1619107200000,1.2814],[1619366400000,1.2699],[1619452800000,1.2789],[1619539200000,1.312],[1619625600000,1.3142],[1619712000000,1.3372],[1620230400000,1.3004],[1620316800000,1.2505],[1620576000000,1.2577],[1620662400000,1.255],[1620748800000,1.2717],[1620835200000,1.2641],[1620921600000,1.3072],[1621180800000,1.3478],[1621267200000,1.3362],[1621353600000,1.3504],[1621440000000,1.3599],[1621526400000,1.3461],[1621785600000,1.3574],[1621872000000,1.3989],[1621958400000,1.3845],[1622044800000,1.3956],[1622131200000,1.4047],[1622390400000,1.4451],[1622476800000,1.4391],[1622563200000,1.4122],[1622649600000,1.3907],[1622736000000,1.4104],[1622995200000,1.399],[1623081600000,1.3903],[1623168000000,1.3885],[1623254400000,1.4284],[1623340800000,1.4386],[1623686400000,1.4241],[1623772800000,1.3585],[1623859200000,1.3878],[1623945600000,1.4161],[1624204800000,1.4305],[1624291200000,1.4361],[1624377600000,1.4539],[1624464000000,1.435],[1624550400000,1.4706],[1624809600000,1.5034],[1624896000000,1.5028],[1624982400000,1.5392],[1625068800000,1.5319],[1625155200000,1.4784],[1625414400000,1.4865],[1625500800000,1.4571],[1625587200000,1.5156],[1625673600000,1.5285],[1625760000000,1.5171],[1626019200000,1.572],[1626105600000,1.5593],[1626192000000,1.5488],[1626278400000,1.5729],[1626364800000,1.5205],[1626624000000,1.5296],[1626710400000,1.5369],[1626796800000,1.5873],[1626883200000,1.5788],[1626969600000,1.5419],[1627228800000,1.4935],[1627315200000,1.4268],[1627401600000,1.4543],[1627488000000,1.5385],[1627574400000,1.5279],[1627833600000,1.5463],[1627920000000,1.5343],[1628006400000,1.5787],[1628092800000,1.5657],[1628179200000,1.5485],[1628438400000,1.5244]]</t>
+  </si>
+  <si>
+    <t>[[1475078400000, 0.0], [1477843200000, -0.7], [1478448000000, -1.1], [1479052800000, -1.6], [1479657600000, -1.9], [1480262400000, -0.5], [1480867200000, -3.8], [1481472000000, -5.4], [1482076800000, -6.9], [1482681600000, -7.1], [1483113600000, -7.3], [1483891200000, -6.5], [1484496000000, -8.8], [1485100800000, -7.2], [1486310400000, -6.3], [1486915200000, -5.2], [1487520000000, -5.6], [1488124800000, -3.1], [1488729600000, -2.7], [1489334400000, -1.8], [1489939200000, -1.4], [1490544000000, -0.5], [1491321600000, 1.9], [1491926400000, -0.6], [1492531200000, 0.6], [1493136000000, 0.3], [1493827200000, -0.4], [1494432000000, -0.6], [1495036800000, 2.7], [1495641600000, 3.6], [1496592000000, 1.7], [1497196800000, 8.3], [1497801600000, 6.7], [1498406400000, 9.8], [1499011200000, 8.2], [1499616000000, 5.0], [1500220800000, 2.9], [1500825600000, 3.6], [1501430400000, 2.4], [1502035200000, 1.2], [1502640000000, 4.6], [1503244800000, 4.3], [1503849600000, 3.0], [1504454400000, 4.7], [1505059200000, 5.1], [1505664000000, 5.8], [1506268800000, 6.8], [1507478400000, 9.6], [1508083200000, 14.0], [1508688000000, 17.9], [1509292800000, 19.1], [1509897600000, 24.6], [1510502400000, 24.8], [1511107200000, 22.2], [1511712000000, 12.9], [1512316800000, 15.7], [1512921600000, 21.2], [1513526400000, 20.8], [1514131200000, 24.3], [1514649600000, 24.0], [1515340800000, 25.2], [1515945600000, 28.3], [1516550400000, 28.8], [1517155200000, 22.1], [1517760000000, 17.4], [1518364800000, 15.5], [1519574400000, 22.0], [1520179200000, 22.0], [1520784000000, 30.4], [1521388800000, 31.7], [1521993600000, 34.9], [1522598400000, 36.4], [1523376000000, 36.6], [1523980800000, 35.1], [1524585600000, 44.2], [1525363200000, 48.0], [1525968000000, 49.2], [1526572800000, 52.7], [1527177600000, 59.7], [1527782400000, 49.2], [1528387200000, 56.4], [1528992000000, 49.0], [1529856000000, 54.52], [1530288000000, 53.57], [1530806400000, 46.41], [1531411200000, 61.79], [1532016000000, 55.68], [1532620800000, 43.88], [1533225600000, 32.6], [1533830400000, 36.71], [1534435200000, 27.33], [1535040000000, 35.02], [1535644800000, 31.97], [1536249600000, 31.44], [1536854400000, 21.42], [1537459200000, 26.8], [1538928000000, 25.96], [1539532800000, 14.57], [1540137600000, 18.05], [1540742400000, 6.56], [1541347200000, 17.42], [1541952000000, 19.0], [1542556800000, 18.47], [1543161600000, 15.94], [1543766400000, 21.32], [1544371200000, 13.31], [1544976000000, 8.99], [1545580800000, 4.35], [1546185600000, 4.24], [1546876800000, 2.35], [1547481600000, 2.56], [1548086400000, 5.19], [1548691200000, 6.35], [1549900800000, 12.15], [1550505600000, 16.58], [1551110400000, 21.53], [1551715200000, 27.75], [1552320000000, 29.96], [1552924800000, 37.02], [1553529600000, 32.81], [1554134400000, 40.4], [1554825600000, 41.14], [1555430400000, 36.71], [1556035200000, 37.34], [1557072000000, 32.7], [1557676800000, 37.02], [1558281600000, 35.76], [1558886400000, 35.76], [1559491200000, 38.61], [1560182400000, 38.71], [1560787200000, 40.19], [1561392000000, 45.46], [1561910400000, 54.42], [1562515200000, 49.04], [1563120000000, 48.51], [1563724800000, 43.98], [1564329600000, 46.51], [1564934400000, 43.66], [1565539200000, 51.04], [1566144000000, 56.84], [1566748800000, 61.79], [1567353600000, 65.38], [1567958400000, 64.75], [1568649600000, 62.64], [1569254400000, 72.02], [1570464000000, 74.13], [1571068800000, 81.5], [1571673600000, 83.09], [1572278400000, 86.56], [1572883200000, 92.78], [1573488000000, 89.73], [1574092800000, 101.32], [1574697600000, 86.99], [1575302400000, 79.4], [1575907200000, 82.56], [1576512000000, 86.77], [1577116800000, 80.35], [1577721600000, 82.66], [1578412800000, 82.14], [1579017600000, 92.26], [1579622400000, 102.37], [1580918400000, 104.06], [1581523200000, 106.17], [1582128000000, 111.23], [1582732800000, 113.44], [1583337600000, 123.67], [1583942400000, 109.02], [1584547200000, 90.25], [1585152000000, 108.91], [1585756800000, 110.6], [1586448000000, 123.56], [1587052800000, 126.93], [1587657600000, 129.36], [1588694400000, 133.47], [1589299200000, 149.28], [1589904000000, 149.81], [1590508800000, 153.18], [1591113600000, 161.08], [1591718400000, 174.05], [1592323200000, 189.65], [1592928000000, 197.24], [1593705600000, 199.24], [1594310400000, 217.58], [1594915200000, 216.32], [1595520000000, 218.21], [1596124800000, 238.13], [1596729600000, 232.76], [1597334400000, 213.47], [1597939200000, 214.42], [1598544000000, 233.81], [1599148800000, 222.96], [1599753600000, 202.09], [1600358400000, 194.71], [1600963200000, 203.88], [1602432000000, 226.86], [1603036800000, 221.59], [1603641600000, 211.68], [1604246400000, 226.22], [1604851200000, 232.65], [1605456000000, 221.27], [1606060800000, 204.51], [1606665600000, 199.56], [1607270400000, 224.22], [1607875200000, 232.34], [1608480000000, 251.2], [1609084800000, 256.58], [1609776000000, 266.07], [1610380800000, 279.77], [1610985600000, 265.73], [1611590400000, 308.64], [1612195200000, 303.85], [1612800000000, 326.64], [1614009600000, 289.16], [1614614400000, 264.24], [1615219200000, 222.19], [1615824000000, 232.09], [1616428800000, 235.28], [1617033600000, 262.75], [1617724800000, 264.35], [1618329600000, 260.09], [1618934400000, 277.77], [1619539200000, 305.45], [1620576000000, 285.96], [1621180800000, 322.16], [1621785600000, 318.44], [1622390400000, 324.61], [1622995200000, 331.0], [1623686400000, 333.02], [1624291200000, 347.82], [1624896000000, 347.72], [1625500800000, 306.09], [1626105600000, 329.62], [1626710400000, 334.62], [1627315200000, 284.9], [1627920000000, 318.44], [1628438400000, 310.03]]</t>
   </si>
   <si>
     <t>003095</t>
@@ -212,7 +278,10 @@
     <t>中欧医疗健康混合A</t>
   </si>
   <si>
-    <t xml:space="preserve"> [[1475078400000,1.0],[1475164800000,1.0],[1476374400000,1.002],[1476979200000,0.997],[1477584000000,0.991],[1477843200000,0.993],[1477929600000,0.995],[1478016000000,0.993],[1478102400000,0.991],[1478188800000,0.99],[1478448000000,0.989],[1478534400000,0.99],[1478620800000,0.983],[1478707200000,0.988],[1478793600000,0.985],[1479052800000,0.984],[1479139200000,0.985],[1479225600000,0.983],[1479312000000,0.982],[1479398400000,0.978],[1479657600000,0.981],[1479744000000,0.988],[1479830400000,0.985],[1479916800000,0.99],[1480003200000,0.994],[1480262400000,0.995],[1480348800000,0.988],[1480435200000,0.978],[1480521600000,0.98],[1480608000000,0.966],[1480867200000,0.962],[1480953600000,0.96],[1481040000000,0.968],[1481126400000,0.965],[1481212800000,0.968],[1481472000000,0.946],[1481558400000,0.943],[1481644800000,0.939],[1481731200000,0.928],[1481817600000,0.928],[1482076800000,0.931],[1482163200000,0.93],[1482249600000,0.932],[1482336000000,0.933],[1482422400000,0.928],[1482681600000,0.929],[1482768000000,0.929],[1482854400000,0.924],[1482940800000,0.918],[1483027200000,0.927],[1483113600000,0.927],[1483372800000,0.934],[1483459200000,0.938],[1483545600000,0.94],[1483632000000,0.932],[1483891200000,0.935],[1483977600000,0.933],[1484064000000,0.928],[1484150400000,0.92],[1484236800000,0.914],[1484496000000,0.912],[1484582400000,0.918],[1484668800000,0.92],[1484755200000,0.915],[1484841600000,0.924],[1485100800000,0.928],[1485187200000,0.925],[1485273600000,0.932],[1485360000000,0.936],[1486051200000,0.936],[1486310400000,0.937],[1486396800000,0.941],[1486483200000,0.941],[1486569600000,0.939],[1486656000000,0.938],[1486915200000,0.948],[1487001600000,0.943],[1487088000000,0.931],[1487174400000,0.941],[1487260800000,0.932],[1487520000000,0.944],[1487606400000,0.956],[1487692800000,0.96],[1487779200000,0.979],[1487865600000,0.974],[1488124800000,0.969],[1488211200000,0.972],[1488297600000,0.97],[1488384000000,0.969],[1488470400000,0.968],[1488729600000,0.973],[1488816000000,0.974],[1488902400000,0.973],[1488988800000,0.966],[1489075200000,0.972],[1489334400000,0.982],[1489420800000,0.98],[1489507200000,0.987],[1489593600000,0.989],[1489680000000,0.982],[1489939200000,0.986],[1490025600000,0.996],[1490112000000,1.008],[1490198400000,1.008],[1490284800000,1.005],[1490544000000,0.995],[1490630400000,0.998],[1490716800000,0.99],[1490803200000,0.986],[1490889600000,1.002],[1491321600000,1.019],[1491408000000,1.02],[1491494400000,1.014],[1491753600000,0.998],[1491840000000,0.991],[1491926400000,0.994],[1492012800000,1.008],[1492099200000,0.997],[1492358400000,0.999],[1492444800000,1.008],[1492531200000,1.006],[1492617600000,1.028],[1492704000000,1.016],[1492963200000,0.995],[1493049600000,0.998],[1493136000000,1.003],[1493222400000,1.014],[1493308800000,1.002],[1493654400000,1.004],[1493740800000,1.001],[1493827200000,0.996],[1493913600000,0.992],[1494172800000,0.981],[1494259200000,0.982],[1494345600000,0.985],[1494432000000,0.994],[1494518400000,1.001],[1494777600000,1.022],[1494864000000,1.041],[1494950400000,1.027],[1495036800000,1.027],[1495123200000,1.032],[1495382400000,1.036],[1495468800000,1.042],[1495555200000,1.038],[1495641600000,1.036],[1495728000000,1.026],[1496160000000,1.029],[1496246400000,1.036],[1496332800000,1.026],[1496592000000,1.017],[1496678400000,1.032],[1496764800000,1.052],[1496851200000,1.068],[1496937600000,1.075],[1497196800000,1.083],[1497283200000,1.086],[1497369600000,1.066],[1497456000000,1.059],[1497542400000,1.054],[1497801600000,1.067],[1497888000000,1.059],[1497974400000,1.081],[1498060800000,1.065],[1498147200000,1.078],[1498406400000,1.098],[1498492800000,1.102],[1498579200000,1.084],[1498665600000,1.09],[1498752000000,1.096],[1499011200000,1.082],[1499097600000,1.071],[1499184000000,1.086],[1499270400000,1.074],[1499356800000,1.061],[1499616000000,1.05],[1499702400000,1.054],[1499788800000,1.049],[1499875200000,1.041],[1499961600000,1.044],[1500220800000,1.029],[1500307200000,1.021],[1500393600000,1.035],[1500480000000,1.041],[1500566400000,1.035],[1500825600000,1.036],[1500912000000,1.03],[1500998400000,1.018],[1501084800000,1.018],[1501171200000,1.026],[1501430400000,1.024],[1501516800000,1.022],[1501603200000,1.016],[1501689600000,1.005],[1501776000000,1.003],[1502035200000,1.012],[1502121600000,1.018],[1502208000000,1.036],[1502294400000,1.038],[1502380800000,1.033],[1502640000000,1.046],[1502726400000,1.039],[1502812800000,1.036],[1502899200000,1.031],[1502985600000,1.035],[1503244800000,1.043],[1503331200000,1.037],[1503417600000,1.034],[1503504000000,1.025],[1503590400000,1.026],[1503849600000,1.03],[1503936000000,1.026],[1504022400000,1.033],[1504108800000,1.03],[1504195200000,1.04],[1504454400000,1.047],[1504540800000,1.049],[1504627200000,1.041],[1504713600000,1.043],[1504800000000,1.047],[1505059200000,1.051],[1505145600000,1.048],[1505232000000,1.058],[1505318400000,1.054],[1505404800000,1.052],[1505664000000,1.058],[1505750400000,1.051],[1505836800000,1.063],[1505923200000,1.057],[1506009600000,1.059],[1506268800000,1.068],[1506355200000,1.064],[1506441600000,1.066],[1506528000000,1.081],[1506614400000,1.08],[1507478400000,1.096],[1507564800000,1.111],[1507651200000,1.13],[1507737600000,1.137],[1507824000000,1.145],[1508083200000,1.14],[1508169600000,1.143],[1508256000000,1.154],[1508342400000,1.166],[1508428800000,1.16],[1508688000000,1.179],[1508774400000,1.183],[1508860800000,1.2],[1508947200000,1.193],[1509033600000,1.204],[1509292800000,1.191],[1509379200000,1.189],[1509465600000,1.188],[1509552000000,1.196],[1509638400000,1.208],[1509897600000,1.246],[1509984000000,1.24],[1510070400000,1.223],[1510156800000,1.231],[1510243200000,1.243],[1510502400000,1.248],[1510588800000,1.216],[1510675200000,1.208],[1510761600000,1.236],[1510848000000,1.202],[1511107200000,1.222],[1511193600000,1.218],[1511280000000,1.199],[1511366400000,1.146],[1511452800000,1.148],[1511712000000,1.129],[1511798400000,1.146],[1511884800000,1.136],[1511971200000,1.135],[1512057600000,1.141],[1512316800000,1.157],[1512403200000,1.144],[1512489600000,1.15],[1512576000000,1.146],[1512662400000,1.163],[1512921600000,1.212],[1513008000000,1.212],[1513094400000,1.218],[1513180800000,1.224],[1513267200000,1.207],[1513526400000,1.208],[1513612800000,1.222],[1513699200000,1.231],[1513785600000,1.254],[1513872000000,1.245],[1514131200000,1.243],[1514217600000,1.236],[1514304000000,1.212],[1514390400000,1.227],[1514476800000,1.24],[1514649600000,1.24],[1514822400000,1.235],[1514908800000,1.24],[1514995200000,1.252],[1515081600000,1.25],[1515340800000,1.252],[1515427200000,1.279],[1515513600000,1.277],[1515600000000,1.275],[1515686400000,1.293],[1515945600000,1.283],[1516032000000,1.297],[1516118400000,1.277],[1516204800000,1.269],[1516291200000,1.266],[1516550400000,1.288],[1516636800000,1.291],[1516723200000,1.295],[1516809600000,1.269],[1516896000000,1.27],[1517155200000,1.221],[1517241600000,1.217],[1517328000000,1.222],[1517414400000,1.198],[1517500800000,1.201],[1517760000000,1.174],[1517846400000,1.129],[1517932800000,1.118],[1518019200000,1.133],[1518105600000,1.104],[1518364800000,1.155],[1518451200000,1.168],[1518537600000,1.181],[1519228800000,1.209],[1519315200000,1.201],[1519574400000,1.22],[1519660800000,1.212],[1519747200000,1.202],[1519833600000,1.22],[1519920000000,1.211],[1520179200000,1.22],[1520265600000,1.248],[1520352000000,1.246],[1520438400000,1.286],[1520524800000,1.293],[1520784000000,1.304],[1520870400000,1.282],[1520956800000,1.268],[1521043200000,1.283],[1521129600000,1.273],[1521388800000,1.317],[1521475200000,1.346],[1521561600000,1.339],[1521648000000,1.329],[1521734400000,1.303],[1521993600000,1.349],[1522080000000,1.367],[1522166400000,1.339],[1522252800000,1.317],[1522339200000,1.365],[1522598400000,1.364],[1522684800000,1.362],[1522771200000,1.346],[1523203200000,1.348],[1523289600000,1.366],[1523376000000,1.366],[1523462400000,1.394],[1523548800000,1.359],[1523808000000,1.381],[1523894400000,1.338],[1523980800000,1.351],[1524067200000,1.366],[1524153600000,1.369],[1524412800000,1.367],[1524499200000,1.387],[1524585600000,1.442],[1524672000000,1.413],[1524758400000,1.453],[1525190400000,1.462],[1525276800000,1.452],[1525363200000,1.48],[1525622400000,1.511],[1525708800000,1.493],[1525795200000,1.495],[1525881600000,1.542],[1525968000000,1.492],[1526227200000,1.492],[1526313600000,1.535],[1526400000000,1.548],[1526486400000,1.52],[1526572800000,1.527],[1526832000000,1.526],[1526918400000,1.56],[1527004800000,1.557],[1527091200000,1.569],[1527177600000,1.597],[1527436800000,1.614],[1527523200000,1.531],[1527609600000,1.522],[1527696000000,1.566],[1527782400000,1.492],[1528041600000,1.495],[1528128000000,1.551],[1528214400000,1.584],[1528300800000,1.563],[1528387200000,1.564],[1528646400000,1.513],[1528732800000,1.551],[1528819200000,1.529],[1528905600000,1.515],[1528992000000,1.49],[1529337600000,1.463],[1529424000000,1.518],[1529510400000,1.518],[1529596800000,1.53],[1529856000000,1.541],[1529942400000,1.536],[1530028800000,1.483],[1530115200000,1.468],[1530201600000,1.532],[1530288000000,1.532],[1530460800000,1.548],[1530547200000,1.528],[1530633600000,1.501],[1530720000000,1.464],[1530806400000,1.464],[1531065600000,1.517],[1531152000000,1.529],[1531238400000,1.534],[1531324800000,1.582],[1531411200000,1.61],[1531670400000,1.627],[1531756800000,1.608],[1531843200000,1.609],[1531929600000,1.556],[1532016000000,1.552],[1532275200000,1.445],[1532361600000,1.439],[1532448000000,1.476],[1532534400000,1.46],[1532620800000,1.44],[1532880000000,1.387],[1532966400000,1.397],[1533052800000,1.37],[1533139200000,1.379],[1533225600000,1.333],[1533484800000,1.27],[1533571200000,1.307],[1533657600000,1.281],[1533744000000,1.337],[1533830400000,1.372],[1534089600000,1.397],[1534176000000,1.392],[1534262400000,1.341],[1534348800000,1.343],[1534435200000,1.283],[1534694400000,1.262],[1534780800000,1.33],[1534867200000,1.33],[1534953600000,1.346],[1535040000000,1.356],[1535299200000,1.398],[1535385600000,1.389],[1535472000000,1.375],[1535558400000,1.359],[1535644800000,1.327],[1535904000000,1.322],[1535990400000,1.323],[1536076800000,1.304],[1536163200000,1.292],[1536249600000,1.322],[1536508800000,1.298],[1536595200000,1.308],[1536681600000,1.263],[1536768000000,1.245],[1536854400000,1.227],[1537113600000,1.208],[1537200000000,1.239],[1537286400000,1.256],[1537372800000,1.249],[1537459200000,1.278],[1537804800000,1.285],[1537891200000,1.311],[1537977600000,1.319],[1538064000000,1.336],[1538928000000,1.27],[1539014400000,1.255],[1539100800000,1.229],[1539187200000,1.168],[1539273600000,1.174],[1539532800000,1.162],[1539619200000,1.144],[1539705600000,1.13],[1539792000000,1.083],[1539878400000,1.135],[1540137600000,1.195],[1540224000000,1.17],[1540310400000,1.142],[1540396800000,1.129],[1540483200000,1.109],[1540742400000,1.086],[1540828800000,1.102],[1540915200000,1.135],[1541001600000,1.142],[1541088000000,1.203],[1541347200000,1.189],[1541433600000,1.197],[1541520000000,1.193],[1541606400000,1.195],[1541692800000,1.183],[1541952000000,1.204],[1542038400000,1.222],[1542124800000,1.211],[1542211200000,1.222],[1542297600000,1.199],[1542556800000,1.199],[1542643200000,1.181],[1542729600000,1.204],[1542816000000,1.201],[1542902400000,1.177],[1543161600000,1.175],[1543248000000,1.174],[1543334400000,1.187],[1543420800000,1.174],[1543507200000,1.187],[1543766400000,1.226],[1543852800000,1.243],[1543939200000,1.257],[1544025600000,1.207],[1544112000000,1.167],[1544371200000,1.15],[1544457600000,1.165],[1544544000000,1.147],[1544630400000,1.163],[1544716800000,1.129],[1544976000000,1.109],[1545062400000,1.104],[1545148800000,1.072],[1545235200000,1.061],[1545321600000,1.043],[1545580800000,1.065],[1545667200000,1.073],[1545753600000,1.066],[1545840000000,1.06],[1545926400000,1.064],[1546185600000,1.064],[1546358400000,1.03],[1546444800000,1.018],[1546531200000,1.041],[1546790400000,1.045],[1546876800000,1.046],[1546963200000,1.051],[1547049600000,1.045],[1547136000000,1.046],[1547395200000,1.033],[1547481600000,1.048],[1547568000000,1.062],[1547654400000,1.055],[1547740800000,1.077],[1548000000000,1.09],[1548086400000,1.073],[1548172800000,1.075],[1548259200000,1.076],[1548345600000,1.086],[1548604800000,1.086],[1548691200000,1.084],[1548777600000,1.072],[1548864000000,1.079],[1548950400000,1.11],[1549814400000,1.129],[1549900800000,1.139],[1549987200000,1.154],[1550073600000,1.157],[1550160000000,1.147],[1550419200000,1.195],[1550505600000,1.181],[1550592000000,1.169],[1550678400000,1.166],[1550764800000,1.181],[1551024000000,1.22],[1551110400000,1.228],[1551196800000,1.217],[1551283200000,1.255],[1551369600000,1.262],[1551628800000,1.282],[1551715200000,1.287],[1551801600000,1.279],[1551888000000,1.256],[1551974400000,1.248],[1552233600000,1.306],[1552320000000,1.308],[1552406400000,1.314],[1552492800000,1.307],[1552579200000,1.343],[1552838400000,1.399],[1552924800000,1.375],[1553011200000,1.366],[1553097600000,1.361],[1553184000000,1.367],[1553443200000,1.349],[1553529600000,1.335],[1553616000000,1.374],[1553702400000,1.368],[1553788800000,1.414],[1554048000000,1.434],[1554134400000,1.407],[1554220800000,1.404],[1554307200000,1.398],[1554652800000,1.376],[1554739200000,1.398],[1554825600000,1.414],[1554912000000,1.369],[1554998400000,1.367],[1555257600000,1.354],[1555344000000,1.37],[1555430400000,1.372],[1555516800000,1.368],[1555603200000,1.373],[1555862400000,1.37],[1555948800000,1.37],[1556035200000,1.378],[1556121600000,1.38],[1556208000000,1.381],[1556467200000,1.405],[1556553600000,1.399],[1557072000000,1.334],[1557158400000,1.377],[1557244800000,1.354],[1557331200000,1.32],[1557417600000,1.365],[1557676800000,1.375],[1557763200000,1.368],[1557849600000,1.405],[1557936000000,1.418],[1558022400000,1.388],[1558281600000,1.363],[1558368000000,1.38],[1558454400000,1.379],[1558540800000,1.348],[1558627200000,1.348],[1558886400000,1.363],[1558972800000,1.384],[1559059200000,1.378],[1559145600000,1.385],[1559232000000,1.399],[1559491200000,1.39],[1559577600000,1.364],[1559664000000,1.339],[1559750400000,1.33],[1560096000000,1.35],[1560182400000,1.391],[1560268800000,1.39],[1560355200000,1.406],[1560441600000,1.403],[1560700800000,1.391],[1560787200000,1.405],[1560873600000,1.417],[1560960000000,1.45],[1561046400000,1.45],[1561305600000,1.457],[1561392000000,1.455],[1561478400000,1.502],[1561564800000,1.517],[1561651200000,1.508],[1561824000000,1.508],[1561910400000,1.54],[1561996800000,1.559],[1562083200000,1.525],[1562169600000,1.494],[1562256000000,1.522],[1562515200000,1.489],[1562601600000,1.495],[1562688000000,1.497],[1562774400000,1.496],[1562860800000,1.498],[1563120000000,1.484],[1563206400000,1.463],[1563292800000,1.455],[1563379200000,1.435],[1563465600000,1.441],[1563724800000,1.441],[1563811200000,1.441],[1563897600000,1.451],[1563984000000,1.449],[1564070400000,1.478],[1564329600000,1.465],[1564416000000,1.466],[1564502400000,1.458],[1564588800000,1.452],[1564675200000,1.464],[1564934400000,1.438],[1565020800000,1.441],[1565107200000,1.466],[1565193600000,1.495],[1565280000000,1.493],[1565539200000,1.508],[1565625600000,1.509],[1565712000000,1.541],[1565798400000,1.541],[1565884800000,1.552],[1566144000000,1.563],[1566230400000,1.566],[1566316800000,1.55],[1566403200000,1.564],[1566489600000,1.612],[1566748800000,1.61],[1566835200000,1.616],[1566921600000,1.61],[1567008000000,1.606],[1567094400000,1.616],[1567353600000,1.644],[1567440000000,1.636],[1567526400000,1.634],[1567612800000,1.623],[1567699200000,1.633],[1567958400000,1.638],[1568044800000,1.652],[1568131200000,1.618],[1568217600000,1.624],[1568563200000,1.624],[1568649600000,1.618],[1568736000000,1.651],[1568822400000,1.67],[1568908800000,1.683],[1569168000000,1.667],[1569254400000,1.707],[1569340800000,1.711],[1569427200000,1.698],[1569513600000,1.702],[1569772800000,1.712],[1570464000000,1.727],[1570550400000,1.72],[1570636800000,1.79],[1570723200000,1.797],[1570982400000,1.796],[1571068800000,1.797],[1571155200000,1.831],[1571241600000,1.834],[1571328000000,1.831],[1571587200000,1.789],[1571673600000,1.812],[1571760000000,1.78],[1571846400000,1.779],[1571932800000,1.798],[1572192000000,1.826],[1572278400000,1.845],[1572364800000,1.833],[1572451200000,1.856],[1572537600000,1.888],[1572796800000,1.914],[1572883200000,1.904],[1572969600000,1.894],[1573056000000,1.907],[1573142400000,1.896],[1573401600000,1.857],[1573488000000,1.875],[1573574400000,1.928],[1573660800000,1.954],[1573747200000,1.935],[1574006400000,1.938],[1574092800000,1.985],[1574179200000,1.986],[1574265600000,1.953],[1574352000000,1.863],[1574611200000,1.835],[1574697600000,1.849],[1574784000000,1.837],[1574870400000,1.848],[1574956800000,1.801],[1575216000000,1.782],[1575302400000,1.777],[1575388800000,1.793],[1575475200000,1.815],[1575561600000,1.83],[1575820800000,1.789],[1575907200000,1.807],[1575993600000,1.805],[1576080000000,1.802],[1576166400000,1.84],[1576425600000,1.84],[1576512000000,1.847],[1576598400000,1.814],[1576684800000,1.804],[1576771200000,1.787],[1577030400000,1.781],[1577116800000,1.786],[1577203200000,1.784],[1577289600000,1.79],[1577376000000,1.78],[1577635200000,1.781],[1577721600000,1.808],[1577894400000,1.803],[1577980800000,1.79],[1578240000000,1.775],[1578326400000,1.808],[1578412800000,1.803],[1578499200000,1.865],[1578585600000,1.874],[1578844800000,1.89],[1578931200000,1.87],[1579017600000,1.899],[1579104000000,1.929],[1579190400000,1.953],[1579449600000,1.992],[1579536000000,1.994],[1579622400000,1.995],[1579708800000,1.941],[1580659200000,1.851],[1580745600000,1.923],[1580832000000,1.947],[1580918400000,2.011],[1581004800000,1.99],[1581264000000,1.999],[1581350400000,2.013],[1581436800000,2.048],[1581523200000,2.031],[1581609600000,2.043],[1581868800000,2.094],[1581955200000,2.085],[1582041600000,2.054],[1582128000000,2.079],[1582214400000,2.095],[1582473600000,2.106],[1582560000000,2.125],[1582646400000,2.068],[1582732800000,2.1],[1582819200000,2.048],[1583078400000,2.087],[1583164800000,2.138],[1583251200000,2.148],[1583337600000,2.197],[1583424000000,2.203],[1583683200000,2.163],[1583769600000,2.158],[1583856000000,2.126],[1583942400000,2.058],[1584028800000,2.022],[1584288000000,1.932],[1584374400000,1.93],[1584460800000,1.916],[1584547200000,1.88],[1584633600000,1.94],[1584892800000,1.897],[1584979200000,1.95],[1585065600000,2.023],[1585152000000,2.057],[1585238400000,2.068],[1585497600000,2.031],[1585584000000,2.077],[1585670400000,2.049],[1585756800000,2.073],[1585843200000,2.088],[1586188800000,2.147],[1586275200000,2.135],[1586361600000,2.227],[1586448000000,2.196],[1586707200000,2.211],[1586793600000,2.247],[1586880000000,2.22],[1586966400000,2.238],[1587052800000,2.228],[1587312000000,2.26],[1587398400000,2.246],[1587484800000,2.29],[1587571200000,2.293],[1587657600000,2.251],[1587916800000,2.295],[1588003200000,2.324],[1588089600000,2.294],[1588176000000,2.256],[1588694400000,2.29],[1588780800000,2.304],[1588867200000,2.319],[1589126400000,2.285],[1589212800000,2.354],[1589299200000,2.44],[1589385600000,2.434],[1589472000000,2.412],[1589731200000,2.468],[1589817600000,2.488],[1589904000000,2.445],[1589990400000,2.469],[1590076800000,2.427],[1590336000000,2.461],[1590422400000,2.527],[1590508800000,2.477],[1590595200000,2.457],[1590681600000,2.546],[1590940800000,2.586],[1591027200000,2.532],[1591113600000,2.552],[1591200000000,2.58],[1591286400000,2.622],[1591545600000,2.58],[1591632000000,2.609],[1591718400000,2.675],[1591804800000,2.662],[1591891200000,2.703],[1592150400000,2.732],[1592236800000,2.786],[1592323200000,2.823],[1592409600000,2.75],[1592496000000,2.833],[1592755200000,2.836],[1592841600000,2.918],[1592928000000,2.895],[1593360000000,2.942],[1593446400000,2.98],[1593532800000,2.913],[1593619200000,2.875],[1593705600000,2.914],[1593964800000,2.885],[1594051200000,2.943],[1594137600000,2.946],[1594224000000,3.044],[1594310400000,3.088],[1594569600000,3.182],[1594656000000,3.166],[1594742400000,3.212],[1594828800000,3.022],[1594915200000,3.076],[1595174400000,3.029],[1595260800000,3.152],[1595347200000,3.203],[1595433600000,3.286],[1595520000000,3.094],[1595779200000,3.132],[1595865600000,3.138],[1595952000000,3.229],[1596038400000,3.227],[1596124800000,3.283],[1596384000000,3.347],[1596470400000,3.29],[1596556800000,3.346],[1596643200000,3.263],[1596729600000,3.232],[1596988800000,3.225],[1597075200000,3.184],[1597161600000,3.088],[1597248000000,3.037],[1597334400000,3.049],[1597593600000,3.081],[1597680000000,3.117],[1597766400000,3.029],[1597852800000,3.025],[1597939200000,3.058],[1598198400000,3.058],[1598284800000,3.097],[1598371200000,3.097],[1598457600000,3.147],[1598544000000,3.242],[1598803200000,3.23],[1598889600000,3.227],[1598976000000,3.215],[1599062400000,3.203],[1599148800000,3.139],[1599408000000,3.015],[1599494400000,3.011],[1599580800000,2.891],[1599667200000,2.896],[1599753600000,2.941],[1600012800000,2.905],[1600099200000,2.944],[1600185600000,2.881],[1600272000000,2.837],[1600358400000,2.871],[1600617600000,2.848],[1600704000000,2.86],[1600790400000,2.968],[1600876800000,2.932],[1600963200000,2.958],[1601222400000,2.911],[1601308800000,2.935],[1601395200000,2.987],[1602172800000,3.067],[1602432000000,3.176],[1602518400000,3.224],[1602604800000,3.222],[1602691200000,3.192],[1602777600000,3.201],[1603036800000,3.126],[1603123200000,3.165],[1603209600000,3.161],[1603296000000,3.121],[1603382400000,3.006],[1603641600000,3.032],[1603728000000,3.136],[1603814400000,3.156],[1603900800000,3.22],[1603987200000,3.168],[1604246400000,3.17],[1604332800000,3.193],[1604419200000,3.219],[1604505600000,3.215],[1604592000000,3.144],[1604851200000,3.231],[1604937600000,3.169],[1605024000000,3.067],[1605110400000,3.107],[1605196800000,3.1],[1605456000000,3.123],[1605542400000,3.025],[1605628800000,2.926],[1605715200000,2.957],[1605801600000,2.98],[1606060800000,2.964],[1606147200000,2.952],[1606233600000,2.893],[1606320000000,2.889],[1606406400000,2.906],[1606665600000,2.917],[1606752000000,3.011],[1606838400000,3.011],[1606924800000,3.068],[1607011200000,3.13],[1607270400000,3.151],[1607356800000,3.161],[1607443200000,3.114],[1607529600000,3.175],[1607616000000,3.159],[1607875200000,3.228],[1607961600000,3.266],[1608048000000,3.295],[1608134400000,3.359],[1608220800000,3.34],[1608480000000,3.407],[1608566400000,3.382],[1608652800000,3.388],[1608739200000,3.414],[1608825600000,3.476],[1609084800000,3.458],[1609171200000,3.436],[1609257600000,3.481],[1609344000000,3.521],[1609689600000,3.486],[1609776000000,3.548],[1609862400000,3.612],[1609948800000,3.655],[1610035200000,3.63],[1610294400000,3.636],[1610380800000,3.678],[1610467200000,3.632],[1610553600000,3.58],[1610640000000,3.582],[1610899200000,3.621],[1610985600000,3.546],[1611072000000,3.737],[1611158400000,3.808],[1611244800000,4.01],[1611504000000,4.092],[1611590400000,3.949],[1611676800000,3.929],[1611763200000,3.815],[1611849600000,3.804],[1612108800000,3.87],[1612195200000,3.904],[1612281600000,3.965],[1612368000000,3.922],[1612454400000,3.98],[1612713600000,4.06],[1612800000000,4.118],[1612886400000,4.206],[1613577600000,3.975],[1613664000000,3.995],[1613923200000,3.784],[1614009600000,3.766],[1614096000000,3.62],[1614182400000,3.634],[1614268800000,3.55],[1614528000000,3.599],[1614614400000,3.532],[1614700800000,3.586],[1614787200000,3.424],[1614873600000,3.416],[1615132800000,3.216],[1615219200000,3.137],[1615305600000,3.259],[1615392000000,3.356],[1615478400000,3.377],[1615737600000,3.2],[1615824000000,3.23],[1615910400000,3.271],[1615996800000,3.346],[1616083200000,3.256],[1616342400000,3.262],[1616428800000,3.26],[1616515200000,3.262],[1616601600000,3.316],[1616688000000,3.44],[1616947200000,3.439],[1617033600000,3.518],[1617120000000,3.479],[1617206400000,3.582],[1617292800000,3.612],[1617638400000,3.556],[1617724800000,3.533],[1617811200000,3.607],[1617897600000,3.556],[1618156800000,3.438],[1618243200000,3.483],[1618329600000,3.493],[1618416000000,3.488],[1618502400000,3.459],[1618761600000,3.564],[1618848000000,3.605],[1618934400000,3.659],[1619020800000,3.646],[1619107200000,3.779],[1619366400000,3.713],[1619452800000,3.832],[1619539200000,3.919],[1619625600000,3.912],[1619712000000,3.934],[1620230400000,3.801],[1620316800000,3.673],[1620576000000,3.736],[1620662400000,3.813],[1620748800000,3.901],[1620835200000,3.919],[1620921600000,3.962],[1621180800000,4.076],[1621267200000,4.025],[1621353600000,3.994],[1621440000000,4.055],[1621526400000,4.041],[1621785600000,4.041],[1621872000000,4.139],[1621958400000,4.091],[1622044800000,4.133],[1622131200000,4.021],[1622390400000,4.099],[1622476800000,4.202],[1622563200000,4.101],[1622649600000,4.09],[1622736000000,4.14],[1622995200000,4.159],[1623081600000,4.112],[1623168000000,4.148],[1623254400000,4.215],[1623340800000,4.197],[1623686400000,4.178],[1623772800000,4.015],[1623859200000,4.071],[1623945600000,4.16],[1624204800000,4.223],[1624291200000,4.317],[1624377600000,4.3],[1624464000000,4.191],[1624550400000,4.312],[1624809600000,4.348],[1624896000000,4.316],[1624982400000,4.325],[1625068800000,4.421],[1625155200000,4.162],[1625414400000,4.122],[1625500800000,3.925],[1625587200000,4.079],[1625673600000,3.975],[1625760000000,3.98],[1626019200000,4.137],[1626105600000,4.146],[1626192000000,4.192],[1626278400000,4.217],[1626364800000,4.088]]</t>
+    <t xml:space="preserve"> [[1475078400000,1.0],[1475164800000,1.0],[1476374400000,1.002],[1476979200000,0.997],[1477584000000,0.991],[1477843200000,0.993],[1477929600000,0.995],[1478016000000,0.993],[1478102400000,0.991],[1478188800000,0.99],[1478448000000,0.989],[1478534400000,0.99],[1478620800000,0.983],[1478707200000,0.988],[1478793600000,0.985],[1479052800000,0.984],[1479139200000,0.985],[1479225600000,0.983],[1479312000000,0.982],[1479398400000,0.978],[1479657600000,0.981],[1479744000000,0.988],[1479830400000,0.985],[1479916800000,0.99],[1480003200000,0.994],[1480262400000,0.995],[1480348800000,0.988],[1480435200000,0.978],[1480521600000,0.98],[1480608000000,0.966],[1480867200000,0.962],[1480953600000,0.96],[1481040000000,0.968],[1481126400000,0.965],[1481212800000,0.968],[1481472000000,0.946],[1481558400000,0.943],[1481644800000,0.939],[1481731200000,0.928],[1481817600000,0.928],[1482076800000,0.931],[1482163200000,0.93],[1482249600000,0.932],[1482336000000,0.933],[1482422400000,0.928],[1482681600000,0.929],[1482768000000,0.929],[1482854400000,0.924],[1482940800000,0.918],[1483027200000,0.927],[1483113600000,0.927],[1483372800000,0.934],[1483459200000,0.938],[1483545600000,0.94],[1483632000000,0.932],[1483891200000,0.935],[1483977600000,0.933],[1484064000000,0.928],[1484150400000,0.92],[1484236800000,0.914],[1484496000000,0.912],[1484582400000,0.918],[1484668800000,0.92],[1484755200000,0.915],[1484841600000,0.924],[1485100800000,0.928],[1485187200000,0.925],[1485273600000,0.932],[1485360000000,0.936],[1486051200000,0.936],[1486310400000,0.937],[1486396800000,0.941],[1486483200000,0.941],[1486569600000,0.939],[1486656000000,0.938],[1486915200000,0.948],[1487001600000,0.943],[1487088000000,0.931],[1487174400000,0.941],[1487260800000,0.932],[1487520000000,0.944],[1487606400000,0.956],[1487692800000,0.96],[1487779200000,0.979],[1487865600000,0.974],[1488124800000,0.969],[1488211200000,0.972],[1488297600000,0.97],[1488384000000,0.969],[1488470400000,0.968],[1488729600000,0.973],[1488816000000,0.974],[1488902400000,0.973],[1488988800000,0.966],[1489075200000,0.972],[1489334400000,0.982],[1489420800000,0.98],[1489507200000,0.987],[1489593600000,0.989],[1489680000000,0.982],[1489939200000,0.986],[1490025600000,0.996],[1490112000000,1.008],[1490198400000,1.008],[1490284800000,1.005],[1490544000000,0.995],[1490630400000,0.998],[1490716800000,0.99],[1490803200000,0.986],[1490889600000,1.002],[1491321600000,1.019],[1491408000000,1.02],[1491494400000,1.014],[1491753600000,0.998],[1491840000000,0.991],[1491926400000,0.994],[1492012800000,1.008],[1492099200000,0.997],[1492358400000,0.999],[1492444800000,1.008],[1492531200000,1.006],[1492617600000,1.028],[1492704000000,1.016],[1492963200000,0.995],[1493049600000,0.998],[1493136000000,1.003],[1493222400000,1.014],[1493308800000,1.002],[1493654400000,1.004],[1493740800000,1.001],[1493827200000,0.996],[1493913600000,0.992],[1494172800000,0.981],[1494259200000,0.982],[1494345600000,0.985],[1494432000000,0.994],[1494518400000,1.001],[1494777600000,1.022],[1494864000000,1.041],[1494950400000,1.027],[1495036800000,1.027],[1495123200000,1.032],[1495382400000,1.036],[1495468800000,1.042],[1495555200000,1.038],[1495641600000,1.036],[1495728000000,1.026],[1496160000000,1.029],[1496246400000,1.036],[1496332800000,1.026],[1496592000000,1.017],[1496678400000,1.032],[1496764800000,1.052],[1496851200000,1.068],[1496937600000,1.075],[1497196800000,1.083],[1497283200000,1.086],[1497369600000,1.066],[1497456000000,1.059],[1497542400000,1.054],[1497801600000,1.067],[1497888000000,1.059],[1497974400000,1.081],[1498060800000,1.065],[1498147200000,1.078],[1498406400000,1.098],[1498492800000,1.102],[1498579200000,1.084],[1498665600000,1.09],[1498752000000,1.096],[1499011200000,1.082],[1499097600000,1.071],[1499184000000,1.086],[1499270400000,1.074],[1499356800000,1.061],[1499616000000,1.05],[1499702400000,1.054],[1499788800000,1.049],[1499875200000,1.041],[1499961600000,1.044],[1500220800000,1.029],[1500307200000,1.021],[1500393600000,1.035],[1500480000000,1.041],[1500566400000,1.035],[1500825600000,1.036],[1500912000000,1.03],[1500998400000,1.018],[1501084800000,1.018],[1501171200000,1.026],[1501430400000,1.024],[1501516800000,1.022],[1501603200000,1.016],[1501689600000,1.005],[1501776000000,1.003],[1502035200000,1.012],[1502121600000,1.018],[1502208000000,1.036],[1502294400000,1.038],[1502380800000,1.033],[1502640000000,1.046],[1502726400000,1.039],[1502812800000,1.036],[1502899200000,1.031],[1502985600000,1.035],[1503244800000,1.043],[1503331200000,1.037],[1503417600000,1.034],[1503504000000,1.025],[1503590400000,1.026],[1503849600000,1.03],[1503936000000,1.026],[1504022400000,1.033],[1504108800000,1.03],[1504195200000,1.04],[1504454400000,1.047],[1504540800000,1.049],[1504627200000,1.041],[1504713600000,1.043],[1504800000000,1.047],[1505059200000,1.051],[1505145600000,1.048],[1505232000000,1.058],[1505318400000,1.054],[1505404800000,1.052],[1505664000000,1.058],[1505750400000,1.051],[1505836800000,1.063],[1505923200000,1.057],[1506009600000,1.059],[1506268800000,1.068],[1506355200000,1.064],[1506441600000,1.066],[1506528000000,1.081],[1506614400000,1.08],[1507478400000,1.096],[1507564800000,1.111],[1507651200000,1.13],[1507737600000,1.137],[1507824000000,1.145],[1508083200000,1.14],[1508169600000,1.143],[1508256000000,1.154],[1508342400000,1.166],[1508428800000,1.16],[1508688000000,1.179],[1508774400000,1.183],[1508860800000,1.2],[1508947200000,1.193],[1509033600000,1.204],[1509292800000,1.191],[1509379200000,1.189],[1509465600000,1.188],[1509552000000,1.196],[1509638400000,1.208],[1509897600000,1.246],[1509984000000,1.24],[1510070400000,1.223],[1510156800000,1.231],[1510243200000,1.243],[1510502400000,1.248],[1510588800000,1.216],[1510675200000,1.208],[1510761600000,1.236],[1510848000000,1.202],[1511107200000,1.222],[1511193600000,1.218],[1511280000000,1.199],[1511366400000,1.146],[1511452800000,1.148],[1511712000000,1.129],[1511798400000,1.146],[1511884800000,1.136],[1511971200000,1.135],[1512057600000,1.141],[1512316800000,1.157],[1512403200000,1.144],[1512489600000,1.15],[1512576000000,1.146],[1512662400000,1.163],[1512921600000,1.212],[1513008000000,1.212],[1513094400000,1.218],[1513180800000,1.224],[1513267200000,1.207],[1513526400000,1.208],[1513612800000,1.222],[1513699200000,1.231],[1513785600000,1.254],[1513872000000,1.245],[1514131200000,1.243],[1514217600000,1.236],[1514304000000,1.212],[1514390400000,1.227],[1514476800000,1.24],[1514649600000,1.24],[1514822400000,1.235],[1514908800000,1.24],[1514995200000,1.252],[1515081600000,1.25],[1515340800000,1.252],[1515427200000,1.279],[1515513600000,1.277],[1515600000000,1.275],[1515686400000,1.293],[1515945600000,1.283],[1516032000000,1.297],[1516118400000,1.277],[1516204800000,1.269],[1516291200000,1.266],[1516550400000,1.288],[1516636800000,1.291],[1516723200000,1.295],[1516809600000,1.269],[1516896000000,1.27],[1517155200000,1.221],[1517241600000,1.217],[1517328000000,1.222],[1517414400000,1.198],[1517500800000,1.201],[1517760000000,1.174],[1517846400000,1.129],[1517932800000,1.118],[1518019200000,1.133],[1518105600000,1.104],[1518364800000,1.155],[1518451200000,1.168],[1518537600000,1.181],[1519228800000,1.209],[1519315200000,1.201],[1519574400000,1.22],[1519660800000,1.212],[1519747200000,1.202],[1519833600000,1.22],[1519920000000,1.211],[1520179200000,1.22],[1520265600000,1.248],[1520352000000,1.246],[1520438400000,1.286],[1520524800000,1.293],[1520784000000,1.304],[1520870400000,1.282],[1520956800000,1.268],[1521043200000,1.283],[1521129600000,1.273],[1521388800000,1.317],[1521475200000,1.346],[1521561600000,1.339],[1521648000000,1.329],[1521734400000,1.303],[1521993600000,1.349],[1522080000000,1.367],[1522166400000,1.339],[1522252800000,1.317],[1522339200000,1.365],[1522598400000,1.364],[1522684800000,1.362],[1522771200000,1.346],[1523203200000,1.348],[1523289600000,1.366],[1523376000000,1.366],[1523462400000,1.394],[1523548800000,1.359],[1523808000000,1.381],[1523894400000,1.338],[1523980800000,1.351],[1524067200000,1.366],[1524153600000,1.369],[1524412800000,1.367],[1524499200000,1.387],[1524585600000,1.442],[1524672000000,1.413],[1524758400000,1.453],[1525190400000,1.462],[1525276800000,1.452],[1525363200000,1.48],[1525622400000,1.511],[1525708800000,1.493],[1525795200000,1.495],[1525881600000,1.542],[1525968000000,1.492],[1526227200000,1.492],[1526313600000,1.535],[1526400000000,1.548],[1526486400000,1.52],[1526572800000,1.527],[1526832000000,1.526],[1526918400000,1.56],[1527004800000,1.557],[1527091200000,1.569],[1527177600000,1.597],[1527436800000,1.614],[1527523200000,1.531],[1527609600000,1.522],[1527696000000,1.566],[1527782400000,1.492],[1528041600000,1.495],[1528128000000,1.551],[1528214400000,1.584],[1528300800000,1.563],[1528387200000,1.564],[1528646400000,1.513],[1528732800000,1.551],[1528819200000,1.529],[1528905600000,1.515],[1528992000000,1.49],[1529337600000,1.463],[1529424000000,1.518],[1529510400000,1.518],[1529596800000,1.53],[1529856000000,1.541],[1529942400000,1.536],[1530028800000,1.483],[1530115200000,1.468],[1530201600000,1.532],[1530288000000,1.532],[1530460800000,1.548],[1530547200000,1.528],[1530633600000,1.501],[1530720000000,1.464],[1530806400000,1.464],[1531065600000,1.517],[1531152000000,1.529],[1531238400000,1.534],[1531324800000,1.582],[1531411200000,1.61],[1531670400000,1.627],[1531756800000,1.608],[1531843200000,1.609],[1531929600000,1.556],[1532016000000,1.552],[1532275200000,1.445],[1532361600000,1.439],[1532448000000,1.476],[1532534400000,1.46],[1532620800000,1.44],[1532880000000,1.387],[1532966400000,1.397],[1533052800000,1.37],[1533139200000,1.379],[1533225600000,1.333],[1533484800000,1.27],[1533571200000,1.307],[1533657600000,1.281],[1533744000000,1.337],[1533830400000,1.372],[1534089600000,1.397],[1534176000000,1.392],[1534262400000,1.341],[1534348800000,1.343],[1534435200000,1.283],[1534694400000,1.262],[1534780800000,1.33],[1534867200000,1.33],[1534953600000,1.346],[1535040000000,1.356],[1535299200000,1.398],[1535385600000,1.389],[1535472000000,1.375],[1535558400000,1.359],[1535644800000,1.327],[1535904000000,1.322],[1535990400000,1.323],[1536076800000,1.304],[1536163200000,1.292],[1536249600000,1.322],[1536508800000,1.298],[1536595200000,1.308],[1536681600000,1.263],[1536768000000,1.245],[1536854400000,1.227],[1537113600000,1.208],[1537200000000,1.239],[1537286400000,1.256],[1537372800000,1.249],[1537459200000,1.278],[1537804800000,1.285],[1537891200000,1.311],[1537977600000,1.319],[1538064000000,1.336],[1538928000000,1.27],[1539014400000,1.255],[1539100800000,1.229],[1539187200000,1.168],[1539273600000,1.174],[1539532800000,1.162],[1539619200000,1.144],[1539705600000,1.13],[1539792000000,1.083],[1539878400000,1.135],[1540137600000,1.195],[1540224000000,1.17],[1540310400000,1.142],[1540396800000,1.129],[1540483200000,1.109],[1540742400000,1.086],[1540828800000,1.102],[1540915200000,1.135],[1541001600000,1.142],[1541088000000,1.203],[1541347200000,1.189],[1541433600000,1.197],[1541520000000,1.193],[1541606400000,1.195],[1541692800000,1.183],[1541952000000,1.204],[1542038400000,1.222],[1542124800000,1.211],[1542211200000,1.222],[1542297600000,1.199],[1542556800000,1.199],[1542643200000,1.181],[1542729600000,1.204],[1542816000000,1.201],[1542902400000,1.177],[1543161600000,1.175],[1543248000000,1.174],[1543334400000,1.187],[1543420800000,1.174],[1543507200000,1.187],[1543766400000,1.226],[1543852800000,1.243],[1543939200000,1.257],[1544025600000,1.207],[1544112000000,1.167],[1544371200000,1.15],[1544457600000,1.165],[1544544000000,1.147],[1544630400000,1.163],[1544716800000,1.129],[1544976000000,1.109],[1545062400000,1.104],[1545148800000,1.072],[1545235200000,1.061],[1545321600000,1.043],[1545580800000,1.065],[1545667200000,1.073],[1545753600000,1.066],[1545840000000,1.06],[1545926400000,1.064],[1546185600000,1.064],[1546358400000,1.03],[1546444800000,1.018],[1546531200000,1.041],[1546790400000,1.045],[1546876800000,1.046],[1546963200000,1.051],[1547049600000,1.045],[1547136000000,1.046],[1547395200000,1.033],[1547481600000,1.048],[1547568000000,1.062],[1547654400000,1.055],[1547740800000,1.077],[1548000000000,1.09],[1548086400000,1.073],[1548172800000,1.075],[1548259200000,1.076],[1548345600000,1.086],[1548604800000,1.086],[1548691200000,1.084],[1548777600000,1.072],[1548864000000,1.079],[1548950400000,1.11],[1549814400000,1.129],[1549900800000,1.139],[1549987200000,1.154],[1550073600000,1.157],[1550160000000,1.147],[1550419200000,1.195],[1550505600000,1.181],[1550592000000,1.169],[1550678400000,1.166],[1550764800000,1.181],[1551024000000,1.22],[1551110400000,1.228],[1551196800000,1.217],[1551283200000,1.255],[1551369600000,1.262],[1551628800000,1.282],[1551715200000,1.287],[1551801600000,1.279],[1551888000000,1.256],[1551974400000,1.248],[1552233600000,1.306],[1552320000000,1.308],[1552406400000,1.314],[1552492800000,1.307],[1552579200000,1.343],[1552838400000,1.399],[1552924800000,1.375],[1553011200000,1.366],[1553097600000,1.361],[1553184000000,1.367],[1553443200000,1.349],[1553529600000,1.335],[1553616000000,1.374],[1553702400000,1.368],[1553788800000,1.414],[1554048000000,1.434],[1554134400000,1.407],[1554220800000,1.404],[1554307200000,1.398],[1554652800000,1.376],[1554739200000,1.398],[1554825600000,1.414],[1554912000000,1.369],[1554998400000,1.367],[1555257600000,1.354],[1555344000000,1.37],[1555430400000,1.372],[1555516800000,1.368],[1555603200000,1.373],[1555862400000,1.37],[1555948800000,1.37],[1556035200000,1.378],[1556121600000,1.38],[1556208000000,1.381],[1556467200000,1.405],[1556553600000,1.399],[1557072000000,1.334],[1557158400000,1.377],[1557244800000,1.354],[1557331200000,1.32],[1557417600000,1.365],[1557676800000,1.375],[1557763200000,1.368],[1557849600000,1.405],[1557936000000,1.418],[1558022400000,1.388],[1558281600000,1.363],[1558368000000,1.38],[1558454400000,1.379],[1558540800000,1.348],[1558627200000,1.348],[1558886400000,1.363],[1558972800000,1.384],[1559059200000,1.378],[1559145600000,1.385],[1559232000000,1.399],[1559491200000,1.39],[1559577600000,1.364],[1559664000000,1.339],[1559750400000,1.33],[1560096000000,1.35],[1560182400000,1.391],[1560268800000,1.39],[1560355200000,1.406],[1560441600000,1.403],[1560700800000,1.391],[1560787200000,1.405],[1560873600000,1.417],[1560960000000,1.45],[1561046400000,1.45],[1561305600000,1.457],[1561392000000,1.455],[1561478400000,1.502],[1561564800000,1.517],[1561651200000,1.508],[1561824000000,1.508],[1561910400000,1.54],[1561996800000,1.559],[1562083200000,1.525],[1562169600000,1.494],[1562256000000,1.522],[1562515200000,1.489],[1562601600000,1.495],[1562688000000,1.497],[1562774400000,1.496],[1562860800000,1.498],[1563120000000,1.484],[1563206400000,1.463],[1563292800000,1.455],[1563379200000,1.435],[1563465600000,1.441],[1563724800000,1.441],[1563811200000,1.441],[1563897600000,1.451],[1563984000000,1.449],[1564070400000,1.478],[1564329600000,1.465],[1564416000000,1.466],[1564502400000,1.458],[1564588800000,1.452],[1564675200000,1.464],[1564934400000,1.438],[1565020800000,1.441],[1565107200000,1.466],[1565193600000,1.495],[1565280000000,1.493],[1565539200000,1.508],[1565625600000,1.509],[1565712000000,1.541],[1565798400000,1.541],[1565884800000,1.552],[1566144000000,1.563],[1566230400000,1.566],[1566316800000,1.55],[1566403200000,1.564],[1566489600000,1.612],[1566748800000,1.61],[1566835200000,1.616],[1566921600000,1.61],[1567008000000,1.606],[1567094400000,1.616],[1567353600000,1.644],[1567440000000,1.636],[1567526400000,1.634],[1567612800000,1.623],[1567699200000,1.633],[1567958400000,1.638],[1568044800000,1.652],[1568131200000,1.618],[1568217600000,1.624],[1568563200000,1.624],[1568649600000,1.618],[1568736000000,1.651],[1568822400000,1.67],[1568908800000,1.683],[1569168000000,1.667],[1569254400000,1.707],[1569340800000,1.711],[1569427200000,1.698],[1569513600000,1.702],[1569772800000,1.712],[1570464000000,1.727],[1570550400000,1.72],[1570636800000,1.79],[1570723200000,1.797],[1570982400000,1.796],[1571068800000,1.797],[1571155200000,1.831],[1571241600000,1.834],[1571328000000,1.831],[1571587200000,1.789],[1571673600000,1.812],[1571760000000,1.78],[1571846400000,1.779],[1571932800000,1.798],[1572192000000,1.826],[1572278400000,1.845],[1572364800000,1.833],[1572451200000,1.856],[1572537600000,1.888],[1572796800000,1.914],[1572883200000,1.904],[1572969600000,1.894],[1573056000000,1.907],[1573142400000,1.896],[1573401600000,1.857],[1573488000000,1.875],[1573574400000,1.928],[1573660800000,1.954],[1573747200000,1.935],[1574006400000,1.938],[1574092800000,1.985],[1574179200000,1.986],[1574265600000,1.953],[1574352000000,1.863],[1574611200000,1.835],[1574697600000,1.849],[1574784000000,1.837],[1574870400000,1.848],[1574956800000,1.801],[1575216000000,1.782],[1575302400000,1.777],[1575388800000,1.793],[1575475200000,1.815],[1575561600000,1.83],[1575820800000,1.789],[1575907200000,1.807],[1575993600000,1.805],[1576080000000,1.802],[1576166400000,1.84],[1576425600000,1.84],[1576512000000,1.847],[1576598400000,1.814],[1576684800000,1.804],[1576771200000,1.787],[1577030400000,1.781],[1577116800000,1.786],[1577203200000,1.784],[1577289600000,1.79],[1577376000000,1.78],[1577635200000,1.781],[1577721600000,1.808],[1577894400000,1.803],[1577980800000,1.79],[1578240000000,1.775],[1578326400000,1.808],[1578412800000,1.803],[1578499200000,1.865],[1578585600000,1.874],[1578844800000,1.89],[1578931200000,1.87],[1579017600000,1.899],[1579104000000,1.929],[1579190400000,1.953],[1579449600000,1.992],[1579536000000,1.994],[1579622400000,1.995],[1579708800000,1.941],[1580659200000,1.851],[1580745600000,1.923],[1580832000000,1.947],[1580918400000,2.011],[1581004800000,1.99],[1581264000000,1.999],[1581350400000,2.013],[1581436800000,2.048],[1581523200000,2.031],[1581609600000,2.043],[1581868800000,2.094],[1581955200000,2.085],[1582041600000,2.054],[1582128000000,2.079],[1582214400000,2.095],[1582473600000,2.106],[1582560000000,2.125],[1582646400000,2.068],[1582732800000,2.1],[1582819200000,2.048],[1583078400000,2.087],[1583164800000,2.138],[1583251200000,2.148],[1583337600000,2.197],[1583424000000,2.203],[1583683200000,2.163],[1583769600000,2.158],[1583856000000,2.126],[1583942400000,2.058],[1584028800000,2.022],[1584288000000,1.932],[1584374400000,1.93],[1584460800000,1.916],[1584547200000,1.88],[1584633600000,1.94],[1584892800000,1.897],[1584979200000,1.95],[1585065600000,2.023],[1585152000000,2.057],[1585238400000,2.068],[1585497600000,2.031],[1585584000000,2.077],[1585670400000,2.049],[1585756800000,2.073],[1585843200000,2.088],[1586188800000,2.147],[1586275200000,2.135],[1586361600000,2.227],[1586448000000,2.196],[1586707200000,2.211],[1586793600000,2.247],[1586880000000,2.22],[1586966400000,2.238],[1587052800000,2.228],[1587312000000,2.26],[1587398400000,2.246],[1587484800000,2.29],[1587571200000,2.293],[1587657600000,2.251],[1587916800000,2.295],[1588003200000,2.324],[1588089600000,2.294],[1588176000000,2.256],[1588694400000,2.29],[1588780800000,2.304],[1588867200000,2.319],[1589126400000,2.285],[1589212800000,2.354],[1589299200000,2.44],[1589385600000,2.434],[1589472000000,2.412],[1589731200000,2.468],[1589817600000,2.488],[1589904000000,2.445],[1589990400000,2.469],[1590076800000,2.427],[1590336000000,2.461],[1590422400000,2.527],[1590508800000,2.477],[1590595200000,2.457],[1590681600000,2.546],[1590940800000,2.586],[1591027200000,2.532],[1591113600000,2.552],[1591200000000,2.58],[1591286400000,2.622],[1591545600000,2.58],[1591632000000,2.609],[1591718400000,2.675],[1591804800000,2.662],[1591891200000,2.703],[1592150400000,2.732],[1592236800000,2.786],[1592323200000,2.823],[1592409600000,2.75],[1592496000000,2.833],[1592755200000,2.836],[1592841600000,2.918],[1592928000000,2.895],[1593360000000,2.942],[1593446400000,2.98],[1593532800000,2.913],[1593619200000,2.875],[1593705600000,2.914],[1593964800000,2.885],[1594051200000,2.943],[1594137600000,2.946],[1594224000000,3.044],[1594310400000,3.088],[1594569600000,3.182],[1594656000000,3.166],[1594742400000,3.212],[1594828800000,3.022],[1594915200000,3.076],[1595174400000,3.029],[1595260800000,3.152],[1595347200000,3.203],[1595433600000,3.286],[1595520000000,3.094],[1595779200000,3.132],[1595865600000,3.138],[1595952000000,3.229],[1596038400000,3.227],[1596124800000,3.283],[1596384000000,3.347],[1596470400000,3.29],[1596556800000,3.346],[1596643200000,3.263],[1596729600000,3.232],[1596988800000,3.225],[1597075200000,3.184],[1597161600000,3.088],[1597248000000,3.037],[1597334400000,3.049],[1597593600000,3.081],[1597680000000,3.117],[1597766400000,3.029],[1597852800000,3.025],[1597939200000,3.058],[1598198400000,3.058],[1598284800000,3.097],[1598371200000,3.097],[1598457600000,3.147],[1598544000000,3.242],[1598803200000,3.23],[1598889600000,3.227],[1598976000000,3.215],[1599062400000,3.203],[1599148800000,3.139],[1599408000000,3.015],[1599494400000,3.011],[1599580800000,2.891],[1599667200000,2.896],[1599753600000,2.941],[1600012800000,2.905],[1600099200000,2.944],[1600185600000,2.881],[1600272000000,2.837],[1600358400000,2.871],[1600617600000,2.848],[1600704000000,2.86],[1600790400000,2.968],[1600876800000,2.932],[1600963200000,2.958],[1601222400000,2.911],[1601308800000,2.935],[1601395200000,2.987],[1602172800000,3.067],[1602432000000,3.176],[1602518400000,3.224],[1602604800000,3.222],[1602691200000,3.192],[1602777600000,3.201],[1603036800000,3.126],[1603123200000,3.165],[1603209600000,3.161],[1603296000000,3.121],[1603382400000,3.006],[1603641600000,3.032],[1603728000000,3.136],[1603814400000,3.156],[1603900800000,3.22],[1603987200000,3.168],[1604246400000,3.17],[1604332800000,3.193],[1604419200000,3.219],[1604505600000,3.215],[1604592000000,3.144],[1604851200000,3.231],[1604937600000,3.169],[1605024000000,3.067],[1605110400000,3.107],[1605196800000,3.1],[1605456000000,3.123],[1605542400000,3.025],[1605628800000,2.926],[1605715200000,2.957],[1605801600000,2.98],[1606060800000,2.964],[1606147200000,2.952],[1606233600000,2.893],[1606320000000,2.889],[1606406400000,2.906],[1606665600000,2.917],[1606752000000,3.011],[1606838400000,3.011],[1606924800000,3.068],[1607011200000,3.13],[1607270400000,3.151],[1607356800000,3.161],[1607443200000,3.114],[1607529600000,3.175],[1607616000000,3.159],[1607875200000,3.228],[1607961600000,3.266],[1608048000000,3.295],[1608134400000,3.359],[1608220800000,3.34],[1608480000000,3.407],[1608566400000,3.382],[1608652800000,3.388],[1608739200000,3.414],[1608825600000,3.476],[1609084800000,3.458],[1609171200000,3.436],[1609257600000,3.481],[1609344000000,3.521],[1609689600000,3.486],[1609776000000,3.548],[1609862400000,3.612],[1609948800000,3.655],[1610035200000,3.63],[1610294400000,3.636],[1610380800000,3.678],[1610467200000,3.632],[1610553600000,3.58],[1610640000000,3.582],[1610899200000,3.621],[1610985600000,3.546],[1611072000000,3.737],[1611158400000,3.808],[1611244800000,4.01],[1611504000000,4.092],[1611590400000,3.949],[1611676800000,3.929],[1611763200000,3.815],[1611849600000,3.804],[1612108800000,3.87],[1612195200000,3.904],[1612281600000,3.965],[1612368000000,3.922],[1612454400000,3.98],[1612713600000,4.06],[1612800000000,4.118],[1612886400000,4.206],[1613577600000,3.975],[1613664000000,3.995],[1613923200000,3.784],[1614009600000,3.766],[1614096000000,3.62],[1614182400000,3.634],[1614268800000,3.55],[1614528000000,3.599],[1614614400000,3.532],[1614700800000,3.586],[1614787200000,3.424],[1614873600000,3.416],[1615132800000,3.216],[1615219200000,3.137],[1615305600000,3.259],[1615392000000,3.356],[1615478400000,3.377],[1615737600000,3.2],[1615824000000,3.23],[1615910400000,3.271],[1615996800000,3.346],[1616083200000,3.256],[1616342400000,3.262],[1616428800000,3.26],[1616515200000,3.262],[1616601600000,3.316],[1616688000000,3.44],[1616947200000,3.439],[1617033600000,3.518],[1617120000000,3.479],[1617206400000,3.582],[1617292800000,3.612],[1617638400000,3.556],[1617724800000,3.533],[1617811200000,3.607],[1617897600000,3.556],[1618156800000,3.438],[1618243200000,3.483],[1618329600000,3.493],[1618416000000,3.488],[1618502400000,3.459],[1618761600000,3.564],[1618848000000,3.605],[1618934400000,3.659],[1619020800000,3.646],[1619107200000,3.779],[1619366400000,3.713],[1619452800000,3.832],[1619539200000,3.919],[1619625600000,3.912],[1619712000000,3.934],[1620230400000,3.801],[1620316800000,3.673],[1620576000000,3.736],[1620662400000,3.813],[1620748800000,3.901],[1620835200000,3.919],[1620921600000,3.962],[1621180800000,4.076],[1621267200000,4.025],[1621353600000,3.994],[1621440000000,4.055],[1621526400000,4.041],[1621785600000,4.041],[1621872000000,4.139],[1621958400000,4.091],[1622044800000,4.133],[1622131200000,4.021],[1622390400000,4.099],[1622476800000,4.202],[1622563200000,4.101],[1622649600000,4.09],[1622736000000,4.14],[1622995200000,4.159],[1623081600000,4.112],[1623168000000,4.148],[1623254400000,4.215],[1623340800000,4.197],[1623686400000,4.178],[1623772800000,4.015],[1623859200000,4.071],[1623945600000,4.16],[1624204800000,4.223],[1624291200000,4.317],[1624377600000,4.3],[1624464000000,4.191],[1624550400000,4.312],[1624809600000,4.348],[1624896000000,4.316],[1624982400000,4.325],[1625068800000,4.421],[1625155200000,4.162],[1625414400000,4.122],[1625500800000,3.925],[1625587200000,4.079],[1625673600000,3.975],[1625760000000,3.98],[1626019200000,4.137],[1626105600000,4.146],[1626192000000,4.192],[1626278400000,4.217],[1626364800000,4.088],[1626624000000,4.18],[1626710400000,4.193],[1626796800000,4.251],[1626883200000,4.126],[1626969600000,3.984],[1627228800000,3.788],[1627315200000,3.726],[1627401600000,3.872],[1627488000000,3.971],[1627574400000,3.853],[1627833600000,3.904],[1627920000000,4.041],[1628006400000,4.057],[1628092800000,4.065],[1628179200000,3.95],[1628438400000,3.962]]</t>
+  </si>
+  <si>
+    <t>[[1127059200000, 0.0], [1130083200000, 0.22], [1132243200000, 0.36], [1134576000000, 0.55], [1136995200000, 0.72], [1140105600000, 0.9], [1142438400000, 1.09], [1144771200000, 1.34], [1147708800000, 1.48], [1150041600000, 1.54], [1152201600000, 1.7], [1154534400000, 1.81], [1156867200000, 1.74], [1159200000000, 1.85], [1161878400000, 2.01], [1164211200000, 2.13], [1166544000000, 2.27], [1169049600000, 2.44], [1171382400000, 2.57], [1174320000000, 2.75], [1176393600000, 2.69], [1179331200000, 2.86], [1181664000000, 2.98], [1183910400000, 3.15], [1186070400000, 2.93], [1188403200000, 3.07], [1190736000000, 2.92], [1193587200000, 3.34], [1195747200000, 3.54], [1198080000000, 4.01], [1200412800000, 4.15], [1203350400000, 4.44], [1205683200000, 4.69], [1208102400000, 4.94], [1210608000000, 5.28], [1213027200000, 5.65], [1215360000000, 5.69], [1217520000000, 6.15], [1219852800000, 6.74], [1222272000000, 9.23], [1225123200000, 10.52], [1227456000000, 11.48], [1229616000000, 12.92], [1232294400000, 12.05], [1235059200000, 11.41], [1237392000000, 11.64], [1239811200000, 11.38], [1242230400000, 12.31], [1244736000000, 12.29], [1247068800000, 14.79], [1249401600000, 15.21], [1251734400000, 13.86], [1254067200000, 13.83], [1257091200000, 14.53], [1259251200000, 15.55], [1261584000000, 17.27], [1264003200000, 19.09], [1266940800000, 18.42], [1269273600000, 20.61], [1271692800000, 23.49], [1274112000000, 21.06], [1276704000000, 22.18], [1279036800000, 21.58], [1281369600000, 23.75], [1283702400000, 26.44], [1286899200000, 26.93], [1289232000000, 30.79], [1291564800000, 29.47], [1293724800000, 29.16], [1296144000000, 28.18], [1299081600000, 28.4], [1301414400000, 27.37], [1303920000000, 26.55], [1306339200000, 26.27], [1308758400000, 25.58], [1311091200000, 26.09], [1313424000000, 25.23], [1315843200000, 22.94], [1318780800000, 23.92], [1320940800000, 26.39], [1323273600000, 25.61], [1325692800000, 23.42], [1328630400000, 26.21], [1330963200000, 28.01], [1333123200000, 27.37], [1335974400000, 30.83], [1338307200000, 32.91], [1340726400000, 33.35], [1342972800000, 33.81], [1345132800000, 33.25], [1347465600000, 33.06], [1350316800000, 34.37], [1352649600000, 35.3], [1354809600000, 36.55], [1357574400000, 41.96], [1359907200000, 45.52], [1362672000000, 46.18], [1365350400000, 46.03], [1367942400000, 47.51], [1370275200000, 49.9], [1372780800000, 47.07], [1375113600000, 45.14], [1377446400000, 45.25], [1379952000000, 47.71], [1382889600000, 46.39], [1385049600000, 43.27], [1387382400000, 42.49], [1389801600000, 41.6], [1392739200000, 44.92], [1395072000000, 46.38], [1397491200000, 47.25], [1399996800000, 48.62], [1402416000000, 51.61], [1404748800000, 53.63], [1407081600000, 55.99], [1409241600000, 58.11], [1411660800000, 63.13], [1414598400000, 69.53], [1416931200000, 76.23], [1419264000000, 82.19], [1421769600000, 89.32], [1424102400000, 88.75], [1427040000000, 93.81], [1429459200000, 98.11], [1431878400000, 104.06], [1434038400000, 109.52], [1436457600000, 111.67], [1438790400000, 112.74], [1441123200000, 114.35], [1444233600000, 115.44], [1446566400000, 120.11], [1448899200000, 120.57], [1451232000000, 124.6], [1453651200000, 120.96], [1456416000000, 119.23], [1458748800000, 122.99], [1461168000000, 122.24], [1463587200000, 121.67], [1466092800000, 124.69], [1468425600000, 130.38], [1470758400000, 132.16], [1473091200000, 132.28], [1476201600000, 133.59], [1478534400000, 134.46], [1480867200000, 133.33], [1483027200000, 129.96], [1485360000000, 131.92], [1488297600000, 132.94], [1490630400000, 134.08], [1493136000000, 133.01], [1495555200000, 131.13], [1498060800000, 136.27], [1500393600000, 139.1], [1502726400000, 139.75], [1505059200000, 140.98], [1507824000000, 142.91], [1510156800000, 142.71], [1512489600000, 139.73], [1514822400000, 141.14], [1517155200000, 141.28], [1519920000000, 141.24], [1522252800000, 143.28], [1524758400000, 145.97], [1527436800000, 147.05], [1529856000000, 140.9], [1531929600000, 141.67], [1534262400000, 143.61], [1536595200000, 141.94], [1539619200000, 140.37], [1541952000000, 145.19], [1544112000000, 148.95], [1546531200000, 145.97], [1548864000000, 151.63], [1551801600000, 166.09], [1554134400000, 170.85], [1556553600000, 165.39], [1559145600000, 162.9], [1561564800000, 166.28], [1563811200000, 166.38], [1566144000000, 170.48], [1568563200000, 174.22], [1571328000000, 172.89], [1573660800000, 173.94], [1575993600000, 176.71], [1578412800000, 183.84], [1581436800000, 185.9], [1583769600000, 190.38], [1586188800000, 187.83], [1588780800000, 189.97], [1591113600000, 185.88], [1593619200000, 188.59], [1595952000000, 193.83], [1598284800000, 196.87], [1600617600000, 194.44], [1603641600000, 194.4], [1605801600000, 197.35], [1608134400000, 197.65], [1610553600000, 204.7], [1612886400000, 206.47], [1615824000000, 207.31], [1618243200000, 206.33], [1620835200000, 208.67], [1623168000000, 212.1], [1625587200000, 213.55], [1627920000000, 216.61], [1628438400000, 217.7]]</t>
   </si>
   <si>
     <t>110008</t>
@@ -224,13 +293,19 @@
     <t xml:space="preserve"> [[1127059200000,1.0],[1127232000000,1.0002],[1127318400000,1.0002],[1127404800000,1.0003],[1127664000000,1.0003],[1127750400000,1.0004],[1127836800000,1.0006],[1127923200000,1.0007],[1128009600000,1.0007],[1128873600000,1.0011],[1128960000000,1.0013],[1129046400000,1.0013],[1129132800000,1.0013],[1129219200000,1.0015],[1129478400000,1.0016],[1129564800000,1.0016],[1129651200000,1.0018],[1129737600000,1.0021],[1129824000000,1.0021],[1130083200000,1.0022],[1130169600000,1.0024],[1130256000000,1.0025],[1130342400000,1.0025],[1130428800000,1.0025],[1130688000000,1.0026],[1130774400000,1.0027],[1130860800000,1.0028],[1130947200000,1.0028],[1131033600000,1.0028],[1131292800000,1.0029],[1131379200000,1.003],[1131465600000,1.0031],[1131552000000,1.0031],[1131638400000,1.0031],[1131897600000,1.0033],[1131984000000,1.0033],[1132070400000,1.0034],[1132156800000,1.0035],[1132243200000,1.0036],[1132502400000,1.0037],[1132588800000,1.0038],[1132675200000,1.0041],[1132761600000,1.0041],[1132848000000,1.0042],[1133107200000,1.0044],[1133193600000,1.0044],[1133280000000,1.0045],[1133366400000,1.0046],[1133452800000,1.0046],[1133712000000,1.0048],[1133798400000,1.0049],[1133884800000,1.005],[1133971200000,1.0051],[1134057600000,1.0051],[1134316800000,1.0052],[1134403200000,1.0053],[1134489600000,1.0054],[1134576000000,1.0055],[1134662400000,1.0056],[1134921600000,1.0057],[1135008000000,1.0058],[1135094400000,1.0059],[1135180800000,1.0059],[1135267200000,1.0061],[1135526400000,1.0062],[1135612800000,1.0062],[1135699200000,1.0063],[1135785600000,1.0063],[1135872000000,1.0064],[1135958400000,1.0064],[1136304000000,1.0067],[1136390400000,1.0069],[1136476800000,1.007],[1136736000000,1.0071],[1136822400000,1.0071],[1136908800000,1.0072],[1136995200000,1.0072],[1137081600000,1.0073],[1137340800000,1.0074],[1137427200000,1.0074],[1137513600000,1.0075],[1137600000000,1.0075],[1137686400000,1.0076],[1137945600000,1.0078],[1138032000000,1.0078],[1138118400000,1.0079],[1139155200000,1.0083],[1139241600000,1.0085],[1139328000000,1.0086],[1139414400000,1.0086],[1139500800000,1.0087],[1139760000000,1.0088],[1139846400000,1.0088],[1139932800000,1.0089],[1140019200000,1.0089],[1140105600000,1.009],[1140364800000,1.0092],[1140451200000,1.0092],[1140537600000,1.0095],[1140624000000,1.0095],[1140710400000,1.0097],[1140969600000,1.0099],[1141056000000,1.0099],[1141142400000,1.01],[1141228800000,1.0102],[1141315200000,1.0102],[1141574400000,1.0104],[1141660800000,1.0104],[1141747200000,1.0104],[1141833600000,1.0105],[1141920000000,1.0105],[1142179200000,1.0106],[1142265600000,1.0107],[1142352000000,1.0109],[1142438400000,1.0109],[1142524800000,1.0109],[1142784000000,1.0111],[1142870400000,1.0113],[1142956800000,1.0114],[1143043200000,1.0114],[1143129600000,1.0115],[1143388800000,1.0116],[1143475200000,1.0117],[1143561600000,1.0117],[1143648000000,1.0118],[1143734400000,1.0121],[1143993600000,1.0122],[1144080000000,1.0125],[1144166400000,1.0126],[1144252800000,1.0128],[1144339200000,1.0131],[1144598400000,1.0132],[1144684800000,1.0132],[1144771200000,1.0133],[1144857600000,1.0133],[1144944000000,1.0133],[1145203200000,1.0135],[1145289600000,1.0135],[1145376000000,1.0135],[1145462400000,1.0136],[1145548800000,1.0136],[1145808000000,1.0137],[1145894400000,1.0138],[1145980800000,1.0138],[1146067200000,1.0139],[1146153600000,1.0139],[1147017600000,1.0143],[1147104000000,1.0143],[1147190400000,1.0144],[1147276800000,1.0145],[1147363200000,1.0146],[1147622400000,1.0147],[1147708800000,1.0147],[1147795200000,1.0147],[1147881600000,1.0148],[1147968000000,1.0148],[1148227200000,1.0149],[1148313600000,1.015],[1148400000000,1.015],[1148486400000,1.015],[1148572800000,1.0151],[1148832000000,1.0152],[1148918400000,1.0153],[1149004800000,1.0153],[1149091200000,1.0153],[1149177600000,1.0153],[1149436800000,1.0154],[1149523200000,1.0153],[1149609600000,1.0153],[1149696000000,1.0153],[1149782400000,1.0153],[1150041600000,1.0153],[1150128000000,1.0153],[1150214400000,1.0154],[1150300800000,1.0154],[1150387200000,1.0155],[1150646400000,1.0157],[1150732800000,1.0158],[1150819200000,1.0159],[1150905600000,1.0159],[1150992000000,1.016],[1151251200000,1.0166],[1151337600000,1.0166],[1151424000000,1.0166],[1151510400000,1.0166],[1151596800000,1.0167],[1151856000000,1.0168],[1151942400000,1.0168],[1152028800000,1.0168],[1152115200000,1.0169],[1152201600000,1.0169],[1152460800000,1.017],[1152547200000,1.017],[1152633600000,1.0171],[1152720000000,1.0171],[1152806400000,1.0171],[1153065600000,1.0173],[1153152000000,1.0173],[1153238400000,1.0174],[1153324800000,1.0174],[1153411200000,1.0175],[1153670400000,1.0176],[1153756800000,1.0177],[1153843200000,1.0178],[1153929600000,1.0178],[1154016000000,1.0178],[1154275200000,1.018],[1154361600000,1.018],[1154448000000,1.018],[1154534400000,1.018],[1154620800000,1.0181],[1154880000000,1.0182],[1154966400000,1.0183],[1155052800000,1.0183],[1155139200000,1.0184],[1155225600000,1.0184],[1155484800000,1.0185],[1155571200000,1.0185],[1155657600000,1.0186],[1155744000000,1.0186],[1155830400000,1.0187],[1156089600000,1.0188],[1156176000000,1.0188],[1156262400000,1.0189],[1156348800000,1.0189],[1156435200000,1.0171],[1156694400000,1.0172],[1156780800000,1.0173],[1156867200000,1.0173],[1156953600000,1.0174],[1157040000000,1.0174],[1157299200000,1.0175],[1157385600000,1.0176],[1157472000000,1.0176],[1157558400000,1.0177],[1157644800000,1.0177],[1157904000000,1.0179],[1157990400000,1.0179],[1158076800000,1.018],[1158163200000,1.018],[1158249600000,1.018],[1158508800000,1.0182],[1158595200000,1.0182],[1158681600000,1.0183],[1158768000000,1.0183],[1158854400000,1.0184],[1159113600000,1.0185],[1159200000000,1.0184],[1159286400000,1.0185],[1159372800000,1.0185],[1159459200000,1.0186],[1159545600000,1.0186],[1160323200000,1.019],[1160409600000,1.0191],[1160496000000,1.0191],[1160582400000,1.0192],[1160668800000,1.0192],[1160928000000,1.0194],[1161014400000,1.0194],[1161100800000,1.0195],[1161187200000,1.0195],[1161273600000,1.0196],[1161532800000,1.0197],[1161619200000,1.0198],[1161705600000,1.0198],[1161792000000,1.0199],[1161878400000,1.0199],[1162137600000,1.0201],[1162224000000,1.0199],[1162310400000,1.02],[1162396800000,1.02],[1162483200000,1.0201],[1162742400000,1.0202],[1162828800000,1.0203],[1162915200000,1.0203],[1163001600000,1.0204],[1163088000000,1.0204],[1163347200000,1.0206],[1163433600000,1.0206],[1163520000000,1.0207],[1163606400000,1.0207],[1163692800000,1.0208],[1163952000000,1.0209],[1164038400000,1.021],[1164124800000,1.021],[1164211200000,1.0211],[1164297600000,1.0211],[1164556800000,1.0213],[1164643200000,1.0213],[1164729600000,1.0214],[1164816000000,1.0214],[1164902400000,1.0215],[1165161600000,1.0216],[1165248000000,1.0217],[1165334400000,1.0217],[1165420800000,1.0218],[1165507200000,1.0218],[1165766400000,1.022],[1165852800000,1.022],[1165939200000,1.0221],[1166025600000,1.0221],[1166112000000,1.0222],[1166371200000,1.0223],[1166457600000,1.0224],[1166544000000,1.0225],[1166630400000,1.0225],[1166716800000,1.0227],[1166976000000,1.0229],[1167062400000,1.0229],[1167148800000,1.023],[1167235200000,1.023],[1167321600000,1.0231],[1167494400000,1.0232],[1167840000000,1.0234],[1167926400000,1.0235],[1168185600000,1.0236],[1168272000000,1.0236],[1168358400000,1.0237],[1168444800000,1.0237],[1168531200000,1.0238],[1168790400000,1.0239],[1168876800000,1.024],[1168963200000,1.0241],[1169049600000,1.0241],[1169136000000,1.0242],[1169395200000,1.0244],[1169481600000,1.0244],[1169568000000,1.0245],[1169654400000,1.0245],[1169740800000,1.0246],[1170000000000,1.0248],[1170086400000,1.0249],[1170172800000,1.0249],[1170259200000,1.025],[1170345600000,1.025],[1170604800000,1.0252],[1170691200000,1.0252],[1170777600000,1.0253],[1170864000000,1.0253],[1170950400000,1.0254],[1171209600000,1.022],[1171296000000,1.0221],[1171382400000,1.0221],[1171468800000,1.0222],[1171555200000,1.0222],[1172419200000,1.0228],[1172505600000,1.0228],[1172592000000,1.0229],[1172678400000,1.0229],[1172764800000,1.023],[1173024000000,1.0231],[1173110400000,1.0232],[1173196800000,1.0232],[1173283200000,1.0233],[1173369600000,1.0233],[1173628800000,1.0235],[1173715200000,1.0235],[1173801600000,1.0236],[1173888000000,1.0236],[1173974400000,1.0237],[1174233600000,1.0238],[1174320000000,1.0239],[1174406400000,1.0237],[1174492800000,1.0238],[1174579200000,1.0238],[1174838400000,1.0239],[1174924800000,1.024],[1175011200000,1.024],[1175097600000,1.0241],[1175184000000,1.0241],[1175270400000,1.0242],[1175443200000,1.0242],[1175529600000,1.0243],[1175616000000,1.0244],[1175702400000,1.0244],[1175788800000,1.0244],[1176048000000,1.0246],[1176134400000,1.0246],[1176220800000,1.0247],[1176307200000,1.0247],[1176393600000,1.0248],[1176652800000,1.0249],[1176739200000,1.025],[1176825600000,1.025],[1176912000000,1.025],[1176998400000,1.0251],[1177257600000,1.0252],[1177344000000,1.0253],[1177430400000,1.0253],[1177516800000,1.0254],[1177603200000,1.0254],[1177862400000,1.0255],[1178553600000,1.0259],[1178640000000,1.026],[1178726400000,1.026],[1178812800000,1.0261],[1179072000000,1.0262],[1179158400000,1.0263],[1179244800000,1.0263],[1179331200000,1.0264],[1179417600000,1.0265],[1179676800000,1.0266],[1179763200000,1.0266],[1179849600000,1.0266],[1179936000000,1.0267],[1180022400000,1.0267],[1180281600000,1.0269],[1180368000000,1.0269],[1180454400000,1.0269],[1180540800000,1.027],[1180627200000,1.027],[1180886400000,1.0271],[1180972800000,1.0272],[1181059200000,1.0272],[1181145600000,1.0273],[1181232000000,1.0273],[1181491200000,1.0275],[1181577600000,1.0275],[1181664000000,1.0276],[1181750400000,1.0277],[1181836800000,1.0277],[1182096000000,1.0279],[1182182400000,1.0279],[1182268800000,1.028],[1182355200000,1.028],[1182441600000,1.0281],[1182700800000,1.0284],[1182787200000,1.0287],[1182873600000,1.0289],[1182960000000,1.0289],[1183046400000,1.0288],[1183132800000,1.0291],[1183305600000,1.0291],[1183392000000,1.029],[1183478400000,1.029],[1183564800000,1.0291],[1183651200000,1.0291],[1183910400000,1.0293],[1183996800000,1.0293],[1184083200000,1.0294],[1184169600000,1.0295],[1184256000000,1.0296],[1184515200000,1.0298],[1184601600000,1.0298],[1184688000000,1.0299],[1184774400000,1.03],[1184860800000,1.0301],[1185120000000,1.0301],[1185206400000,1.0302],[1185292800000,1.0302],[1185379200000,1.0303],[1185465600000,1.0304],[1185724800000,1.0305],[1185811200000,1.0305],[1185897600000,1.0306],[1185984000000,1.0307],[1186070400000,1.0307],[1186329600000,1.0309],[1186416000000,1.031],[1186502400000,1.031],[1186588800000,1.0311],[1186675200000,1.0311],[1186934400000,1.0313],[1187020800000,1.0313],[1187107200000,1.0314],[1187193600000,1.0314],[1187280000000,1.0315],[1187539200000,1.0317],[1187625600000,1.0317],[1187712000000,1.0318],[1187798400000,1.0318],[1187884800000,1.0319],[1188144000000,1.032],[1188230400000,1.032],[1188316800000,1.0321],[1188403200000,1.0321],[1188489600000,1.0322],[1188748800000,1.0323],[1188835200000,1.0324],[1188921600000,1.0324],[1189008000000,1.0324],[1189094400000,1.0323],[1189353600000,1.0324],[1189440000000,1.0325],[1189526400000,1.0326],[1189612800000,1.0325],[1189699200000,1.0322],[1189958400000,1.0319],[1190044800000,1.032],[1190131200000,1.0322],[1190217600000,1.032],[1190304000000,1.0322],[1190563200000,1.0326],[1190649600000,1.0326],[1190736000000,1.0321],[1190822400000,1.033],[1190908800000,1.0339],[1191081600000,1.0344],[1191772800000,1.0351],[1191859200000,1.0353],[1191945600000,1.0354],[1192032000000,1.0355],[1192118400000,1.0355],[1192377600000,1.0356],[1192464000000,1.0356],[1192550400000,1.0352],[1192636800000,1.035],[1192723200000,1.0345],[1192982400000,1.0345],[1193068800000,1.0341],[1193155200000,1.034],[1193241600000,1.034],[1193328000000,1.0333],[1193587200000,1.0362],[1193673600000,1.0365],[1193760000000,1.0366],[1193846400000,1.0367],[1193932800000,1.0368],[1194192000000,1.0368],[1194278400000,1.0368],[1194364800000,1.0357],[1194451200000,1.0366],[1194537600000,1.0367],[1194796800000,1.0369],[1194883200000,1.0369],[1194969600000,1.0369],[1195056000000,1.037],[1195142400000,1.037],[1195401600000,1.0371],[1195488000000,1.0373],[1195574400000,1.0375],[1195660800000,1.0378],[1195747200000,1.0381],[1196006400000,1.0388],[1196092800000,1.039],[1196179200000,1.039],[1196265600000,1.039],[1196352000000,1.0391],[1196611200000,1.0392],[1196697600000,1.0393],[1196784000000,1.0395],[1196870400000,1.0398],[1196956800000,1.0402],[1197216000000,1.0407],[1197302400000,1.0408],[1197388800000,1.0409],[1197475200000,1.041],[1197561600000,1.0411],[1197820800000,1.0417],[1197907200000,1.042],[1197993600000,1.0424],[1198080000000,1.0427],[1198166400000,1.0428],[1198425600000,1.0429],[1198512000000,1.043],[1198598400000,1.043],[1198684800000,1.0431],[1198771200000,1.0432],[1198857600000,1.0432],[1199030400000,1.0433],[1199203200000,1.0434],[1199289600000,1.0434],[1199376000000,1.0435],[1199635200000,1.0436],[1199721600000,1.0437],[1199808000000,1.0438],[1199894400000,1.0438],[1199980800000,1.0439],[1200240000000,1.044],[1200326400000,1.0441],[1200412800000,1.0441],[1200499200000,1.0441],[1200585600000,1.0442],[1200844800000,1.0444],[1200931200000,1.0445],[1201017600000,1.0446],[1201104000000,1.0446],[1201190400000,1.0448],[1201449600000,1.0454],[1201536000000,1.0456],[1201622400000,1.0457],[1201708800000,1.0459],[1201795200000,1.046],[1202054400000,1.0463],[1202140800000,1.0465],[1202832000000,1.0468],[1202918400000,1.0468],[1203004800000,1.047],[1203264000000,1.047],[1203350400000,1.0469],[1203436800000,1.0469],[1203523200000,1.0469],[1203609600000,1.0468],[1203868800000,1.0467],[1203955200000,1.0467],[1204041600000,1.0468],[1204128000000,1.0468],[1204214400000,1.0469],[1204473600000,1.0472],[1204560000000,1.0475],[1204646400000,1.0478],[1204732800000,1.0478],[1204819200000,1.0479],[1205078400000,1.0489],[1205164800000,1.049],[1205251200000,1.049],[1205337600000,1.0491],[1205424000000,1.0491],[1205683200000,1.0493],[1205769600000,1.0494],[1205856000000,1.0496],[1205942400000,1.0498],[1206028800000,1.0499],[1206288000000,1.0503],[1206374400000,1.0504],[1206460800000,1.0505],[1206547200000,1.0506],[1206633600000,1.0506],[1206892800000,1.0508],[1206979200000,1.0506],[1207065600000,1.0506],[1207152000000,1.0507],[1207497600000,1.051],[1207584000000,1.0512],[1207670400000,1.0514],[1207756800000,1.0515],[1207843200000,1.0516],[1208102400000,1.0518],[1208188800000,1.0518],[1208275200000,1.0518],[1208361600000,1.0518],[1208448000000,1.0517],[1208707200000,1.0518],[1208793600000,1.0519],[1208880000000,1.0526],[1208966400000,1.0527],[1209052800000,1.0533],[1209312000000,1.0537],[1209398400000,1.0538],[1209484800000,1.054],[1209916800000,1.0545],[1210003200000,1.0544],[1210089600000,1.0542],[1210176000000,1.0545],[1210262400000,1.0547],[1210521600000,1.055],[1210608000000,1.055],[1210694400000,1.0552],[1210780800000,1.0553],[1210867200000,1.0559],[1211126400000,1.056],[1211212800000,1.0561],[1211299200000,1.0568],[1211385600000,1.0573],[1211472000000,1.0578],[1211731200000,1.0582],[1211817600000,1.0583],[1211904000000,1.0593],[1211990400000,1.0595],[1212076800000,1.0597],[1212336000000,1.06],[1212422400000,1.0597],[1212508800000,1.0597],[1212595200000,1.06],[1212681600000,1.0599],[1213027200000,1.0586],[1213113600000,1.0578],[1213200000000,1.0576],[1213286400000,1.0575],[1213545600000,1.0579],[1213632000000,1.058],[1213718400000,1.058],[1213804800000,1.0577],[1213891200000,1.0581],[1214150400000,1.058],[1214236800000,1.0582],[1214323200000,1.059],[1214409600000,1.0588],[1214496000000,1.0568],[1214755200000,1.0577],[1214841600000,1.0586],[1214928000000,1.0591],[1215014400000,1.0592],[1215100800000,1.0584],[1215360000000,1.059],[1215446400000,1.059],[1215532800000,1.0602],[1215619200000,1.061],[1215705600000,1.061],[1215964800000,1.0616],[1216051200000,1.0612],[1216137600000,1.0611],[1216224000000,1.0611],[1216310400000,1.0616],[1216569600000,1.0617],[1216656000000,1.062],[1216742400000,1.0622],[1216828800000,1.0627],[1216915200000,1.0628],[1217174400000,1.0631],[1217260800000,1.0631],[1217347200000,1.0635],[1217433600000,1.0634],[1217520000000,1.0635],[1217779200000,1.0633],[1217865600000,1.0631],[1217952000000,1.0639],[1218038400000,1.0643],[1218124800000,1.0642],[1218384000000,1.0643],[1218470400000,1.0642],[1218556800000,1.0648],[1218643200000,1.065],[1218729600000,1.0653],[1218988800000,1.0671],[1219075200000,1.068],[1219161600000,1.069],[1219248000000,1.068],[1219334400000,1.068],[1219593600000,1.0684],[1219680000000,1.0682],[1219766400000,1.0681],[1219852800000,1.0692],[1219939200000,1.0704],[1220198400000,1.0713],[1220284800000,1.0724],[1220371200000,1.0725],[1220457600000,1.073],[1220544000000,1.0731],[1220803200000,1.0732],[1220889600000,1.0739],[1220976000000,1.0758],[1221062400000,1.077],[1221148800000,1.0789],[1221494400000,1.0848],[1221580800000,1.0903],[1221667200000,1.0903],[1221753600000,1.0902],[1222012800000,1.0905],[1222099200000,1.0904],[1222185600000,1.0916],[1222272000000,1.0933],[1222358400000,1.0929],[1222704000000,1.0928],[1223222400000,1.0932],[1223308800000,1.0977],[1223395200000,1.1033],[1223481600000,1.1107],[1223568000000,1.1122],[1223827200000,1.1113],[1223913600000,1.1117],[1224000000000,1.1124],[1224086400000,1.1134],[1224172800000,1.1116],[1224432000000,1.1106],[1224518400000,1.1117],[1224604800000,1.1123],[1224691200000,1.1107],[1224777600000,1.111],[1225036800000,1.107],[1225123200000,1.1057],[1225209600000,1.1092],[1225296000000,1.1115],[1225382400000,1.1104],[1225641600000,1.1083],[1225728000000,1.11],[1225814400000,1.1119],[1225900800000,1.1153],[1225987200000,1.1163],[1226246400000,1.1201],[1226332800000,1.1204],[1226419200000,1.1227],[1226505600000,1.1263],[1226592000000,1.123],[1226851200000,1.1224],[1226937600000,1.1209],[1227024000000,1.1183],[1227110400000,1.1169],[1227196800000,1.1162],[1227456000000,1.115],[1227542400000,1.1127],[1227628800000,1.1109],[1227715200000,1.114],[1227801600000,1.1123],[1228060800000,1.1125],[1228147200000,1.1139],[1228233600000,1.1147],[1228320000000,1.1161],[1228406400000,1.1181],[1228665600000,1.1195],[1228752000000,1.1174],[1228838400000,1.1192],[1228924800000,1.1214],[1229011200000,1.122],[1229270400000,1.1235],[1229356800000,1.1244],[1229443200000,1.1267],[1229529600000,1.1284],[1229616000000,1.1288],[1229875200000,1.1285],[1229961600000,1.1295],[1230048000000,1.1302],[1230134400000,1.1298],[1230220800000,1.1286],[1230480000000,1.1293],[1230566400000,1.1294],[1230652800000,1.1299],[1231084800000,1.1338],[1231171200000,1.1345],[1231257600000,1.1373],[1231344000000,1.1385],[1231430400000,1.1397],[1231689600000,1.1413],[1231776000000,1.1392],[1231862400000,1.1354],[1231948800000,1.1272],[1232035200000,1.1236],[1232294400000,1.1207],[1232380800000,1.1144],[1232467200000,1.1124],[1232553600000,1.1156],[1232640000000,1.116],[1233504000000,1.1153],[1233590400000,1.113],[1233676800000,1.1107],[1233763200000,1.1096],[1233849600000,1.1098],[1234108800000,1.1106],[1234195200000,1.1107],[1234281600000,1.1123],[1234368000000,1.1139],[1234454400000,1.1138],[1234713600000,1.1134],[1234800000000,1.1133],[1234886400000,1.1137],[1234972800000,1.1148],[1235059200000,1.1147],[1235318400000,1.1147],[1235404800000,1.1158],[1235491200000,1.1156],[1235577600000,1.116],[1235664000000,1.1153],[1235923200000,1.1143],[1236009600000,1.1142],[1236096000000,1.1145],[1236182400000,1.1132],[1236268800000,1.1141],[1236528000000,1.1133],[1236614400000,1.1139],[1236700800000,1.1148],[1236787200000,1.1146],[1236873600000,1.1152],[1237132800000,1.1163],[1237219200000,1.1171],[1237305600000,1.1169],[1237392000000,1.1168],[1237478400000,1.1154],[1237737600000,1.1149],[1237824000000,1.1139],[1237910400000,1.114],[1237996800000,1.1133],[1238083200000,1.112],[1238342400000,1.112],[1238428800000,1.1123],[1238515200000,1.1124],[1238601600000,1.1115],[1238688000000,1.1093],[1239033600000,1.1076],[1239120000000,1.1052],[1239206400000,1.1061],[1239292800000,1.1084],[1239552000000,1.1108],[1239638400000,1.1148],[1239724800000,1.116],[1239811200000,1.1144],[1239897600000,1.1105],[1240156800000,1.1144],[1240243200000,1.1118],[1240329600000,1.1084],[1240416000000,1.11],[1240502400000,1.1118],[1240761600000,1.1099],[1240848000000,1.1095],[1240934400000,1.1118],[1241020800000,1.1166],[1241366400000,1.1193],[1241452800000,1.1185],[1241539200000,1.1193],[1241625600000,1.119],[1241712000000,1.1198],[1241971200000,1.1206],[1242057600000,1.1218],[1242144000000,1.123],[1242230400000,1.1229],[1242316800000,1.1237],[1242576000000,1.1276],[1242662400000,1.1273],[1242748800000,1.1282],[1242835200000,1.1254],[1242921600000,1.1235],[1243180800000,1.1219],[1243267200000,1.1223],[1243353600000,1.1229],[1243785600000,1.1244],[1243872000000,1.1233],[1243958400000,1.1257],[1244044800000,1.1269],[1244131200000,1.1257],[1244390400000,1.1262],[1244476800000,1.1255],[1244563200000,1.1258],[1244649600000,1.1262],[1244736000000,1.1228],[1244995200000,1.1288],[1245081600000,1.1289],[1245168000000,1.1284],[1245254400000,1.1297],[1245340800000,1.1313],[1245600000000,1.1336],[1245686400000,1.1342],[1245772800000,1.1318],[1245859200000,1.1334],[1245945600000,1.1373],[1246204800000,1.139],[1246291200000,1.1372],[1246377600000,1.143],[1246464000000,1.1455],[1246550400000,1.1491],[1246809600000,1.15],[1246896000000,1.147],[1246982400000,1.1467],[1247068800000,1.1457],[1247155200000,1.1443],[1247414400000,1.1391],[1247500800000,1.1434],[1247587200000,1.1434],[1247673600000,1.1463],[1247760000000,1.1464],[1248019200000,1.1471],[1248105600000,1.1452],[1248192000000,1.1487],[1248278400000,1.1566],[1248364800000,1.1567],[1248624000000,1.1605],[1248710400000,1.1556],[1248796800000,1.1519],[1248883200000,1.1552],[1248969600000,1.1572],[1249228800000,1.1565],[1249315200000,1.1529],[1249401600000,1.1496],[1249488000000,1.1485],[1249574400000,1.1464],[1249833600000,1.1447],[1249920000000,1.1472],[1250006400000,1.145],[1250092800000,1.1455],[1250179200000,1.1441],[1250438400000,1.1382],[1250524800000,1.1393],[1250611200000,1.1339],[1250697600000,1.1358],[1250784000000,1.1372],[1251043200000,1.1368],[1251129600000,1.1367],[1251216000000,1.1361],[1251302400000,1.1371],[1251388800000,1.1375],[1251648000000,1.1365],[1251734400000,1.1372],[1251820800000,1.1367],[1251907200000,1.1396],[1251993600000,1.1395],[1252252800000,1.1398],[1252339200000,1.139],[1252425600000,1.1409],[1252512000000,1.1427],[1252598400000,1.142],[1252857600000,1.1444],[1252944000000,1.144],[1253030400000,1.1436],[1253116800000,1.1445],[1253203200000,1.1438],[1253462400000,1.1464],[1253548800000,1.1433],[1253635200000,1.143],[1253721600000,1.1415],[1253808000000,1.1411],[1254067200000,1.1369],[1254153600000,1.1331],[1254240000000,1.1331],[1255017600000,1.1355],[1255276800000,1.1337],[1255363200000,1.1335],[1255449600000,1.1384],[1255536000000,1.1385],[1255622400000,1.1385],[1255881600000,1.139],[1255968000000,1.1405],[1256054400000,1.1397],[1256140800000,1.1409],[1256227200000,1.1418],[1256486400000,1.1421],[1256572800000,1.141],[1256659200000,1.1424],[1256745600000,1.1393],[1256832000000,1.1422],[1257091200000,1.1433],[1257177600000,1.1541],[1257264000000,1.1524],[1257350400000,1.1544],[1257436800000,1.1535],[1257696000000,1.1561],[1257782400000,1.1547],[1257868800000,1.1585],[1257955200000,1.1583],[1258041600000,1.1523],[1258300800000,1.1548],[1258387200000,1.1545],[1258473600000,1.1556],[1258560000000,1.159],[1258646400000,1.1595],[1258905600000,1.1622],[1258992000000,1.1544],[1259078400000,1.1622],[1259164800000,1.1558],[1259251200000,1.1527],[1259510400000,1.1611],[1259596800000,1.1659],[1259683200000,1.1689],[1259769600000,1.1728],[1259856000000,1.1674],[1260115200000,1.1696],[1260201600000,1.1685],[1260288000000,1.1675],[1260374400000,1.1687],[1260460800000,1.1721],[1260720000000,1.1719],[1260806400000,1.1723],[1260892800000,1.1703],[1260979200000,1.164],[1261065600000,1.1609],[1261324800000,1.163],[1261411200000,1.1606],[1261497600000,1.162],[1261584000000,1.1685],[1261670400000,1.1723],[1261929600000,1.1751],[1262016000000,1.1765],[1262102400000,1.1786],[1262188800000,1.1804],[1262534400000,1.1826],[1262620800000,1.1824],[1262707200000,1.1828],[1262793600000,1.1807],[1262880000000,1.1774],[1263139200000,1.1765],[1263225600000,1.1812],[1263312000000,1.1802],[1263398400000,1.1869],[1263484800000,1.1902],[1263744000000,1.1931],[1263830400000,1.1928],[1263916800000,1.1856],[1264003200000,1.1851],[1264089600000,1.1776],[1264348800000,1.1731],[1264435200000,1.1707],[1264521600000,1.169],[1264608000000,1.1694],[1264694400000,1.1704],[1264953600000,1.1675],[1265040000000,1.1672],[1265126400000,1.1684],[1265212800000,1.1684],[1265299200000,1.1687],[1265558400000,1.1693],[1265644800000,1.1691],[1265731200000,1.1711],[1265817600000,1.1717],[1265904000000,1.1753],[1266768000000,1.1747],[1266854400000,1.1756],[1266940800000,1.179],[1267027200000,1.1816],[1267113600000,1.1835],[1267372800000,1.1856],[1267459200000,1.1869],[1267545600000,1.1896],[1267632000000,1.1855],[1267718400000,1.186],[1267977600000,1.1887],[1268064000000,1.1886],[1268150400000,1.186],[1268236800000,1.1862],[1268323200000,1.1849],[1268582400000,1.1844],[1268668800000,1.1851],[1268755200000,1.1896],[1268841600000,1.1908],[1268928000000,1.194],[1269187200000,1.1964],[1269273600000,1.199],[1269360000000,1.2008],[1269446400000,1.201],[1269532800000,1.206],[1269792000000,1.207],[1269878400000,1.2092],[1269964800000,1.2134],[1270051200000,1.2149],[1270137600000,1.2182],[1270483200000,1.2217],[1270569600000,1.2243],[1270656000000,1.223],[1270742400000,1.2299],[1271001600000,1.234],[1271088000000,1.2333],[1271174400000,1.2335],[1271260800000,1.229],[1271347200000,1.2295],[1271606400000,1.2233],[1271692800000,1.2253],[1271779200000,1.2385],[1271865600000,1.2418],[1271952000000,1.2376],[1272211200000,1.2373],[1272297600000,1.2333],[1272384000000,1.2296],[1272470400000,1.2224],[1272556800000,1.2167],[1272902400000,1.2178],[1272988800000,1.2256],[1273075200000,1.2208],[1273161600000,1.217],[1273420800000,1.2114],[1273507200000,1.2053],[1273593600000,1.2024],[1273680000000,1.2057],[1273766400000,1.2072],[1274025600000,1.2016],[1274112000000,1.2031],[1274198400000,1.2073],[1274284800000,1.2048],[1274371200000,1.2071],[1274630400000,1.2106],[1274716800000,1.2095],[1274803200000,1.2076],[1274889600000,1.2105],[1274976000000,1.2108],[1275235200000,1.2071],[1275321600000,1.203],[1275408000000,1.2047],[1275494400000,1.2057],[1275580800000,1.2065],[1275840000000,1.21],[1275926400000,1.2142],[1276012800000,1.2146],[1276099200000,1.2191],[1276185600000,1.2204],[1276704000000,1.2132],[1276790400000,1.2062],[1277049600000,1.2083],[1277136000000,1.2096],[1277222400000,1.2094],[1277308800000,1.211],[1277395200000,1.2096],[1277654400000,1.2075],[1277740800000,1.2016],[1277827200000,1.201],[1277913600000,1.1999],[1278000000000,1.1991],[1278259200000,1.1992],[1278345600000,1.2015],[1278432000000,1.2034],[1278518400000,1.2044],[1278604800000,1.2064],[1278864000000,1.2079],[1278950400000,1.2076],[1279036800000,1.2079],[1279123200000,1.2059],[1279209600000,1.2058],[1279468800000,1.2071],[1279555200000,1.2106],[1279641600000,1.2119],[1279728000000,1.2144],[1279814400000,1.2161],[1280073600000,1.2182],[1280160000000,1.2177],[1280246400000,1.2233],[1280332800000,1.222],[1280419200000,1.2219],[1280678400000,1.2248],[1280764800000,1.2216],[1280851200000,1.2241],[1280937600000,1.2258],[1281024000000,1.2309],[1281283200000,1.236],[1281369600000,1.2271],[1281456000000,1.2284],[1281542400000,1.2285],[1281628800000,1.2303],[1281888000000,1.233],[1281974400000,1.2353],[1282060800000,1.2349],[1282147200000,1.2336],[1282233600000,1.2286],[1282492800000,1.2295],[1282579200000,1.2312],[1282665600000,1.2276],[1282752000000,1.2319],[1282838400000,1.2355],[1283097600000,1.2421],[1283184000000,1.2482],[1283270400000,1.2462],[1283356800000,1.2555],[1283443200000,1.2563],[1283702400000,1.251],[1283788800000,1.2518],[1283875200000,1.2533],[1283961600000,1.2519],[1284048000000,1.2527],[1284307200000,1.2555],[1284393600000,1.2556],[1284480000000,1.2538],[1284566400000,1.2508],[1284652800000,1.2527],[1284912000000,1.2528],[1284998400000,1.2507],[1285516800000,1.2524],[1285603200000,1.2494],[1285689600000,1.2484],[1285776000000,1.2514],[1286467200000,1.2571],[1286726400000,1.2549],[1286812800000,1.2554],[1286899200000,1.2554],[1286985600000,1.256],[1287072000000,1.2606],[1287331200000,1.2568],[1287417600000,1.2637],[1287504000000,1.2566],[1287590400000,1.2531],[1287676800000,1.2544],[1287936000000,1.2626],[1288022400000,1.2622],[1288108800000,1.2594],[1288195200000,1.2601],[1288281600000,1.2617],[1288540800000,1.2691],[1288627200000,1.271],[1288713600000,1.264],[1288800000000,1.2721],[1288886400000,1.2848],[1289145600000,1.2925],[1289232000000,1.2896],[1289318400000,1.2891],[1289404800000,1.2863],[1289491200000,1.2783],[1289750400000,1.2835],[1289836800000,1.2799],[1289923200000,1.2759],[1290009600000,1.2777],[1290096000000,1.2815],[1290355200000,1.2831],[1290441600000,1.2823],[1290528000000,1.2846],[1290614400000,1.2838],[1290700800000,1.2832],[1290960000000,1.285],[1291046400000,1.2823],[1291132800000,1.2822],[1291219200000,1.2822],[1291305600000,1.2809],[1291564800000,1.2779],[1291651200000,1.2803],[1291737600000,1.2789],[1291824000000,1.2768],[1291910400000,1.2782],[1292169600000,1.2832],[1292256000000,1.2834],[1292342400000,1.2826],[1292428800000,1.2829],[1292515200000,1.2849],[1292774400000,1.2825],[1292860800000,1.2831],[1292947200000,1.28],[1293033600000,1.2756],[1293120000000,1.2733],[1293379200000,1.2681],[1293465600000,1.2645],[1293552000000,1.2705],[1293638400000,1.2719],[1293724800000,1.2755],[1294070400000,1.2787],[1294156800000,1.2789],[1294243200000,1.2777],[1294329600000,1.2779],[1294588800000,1.2768],[1294675200000,1.275],[1294761600000,1.2754],[1294848000000,1.2736],[1294934400000,1.2707],[1295193600000,1.2661],[1295280000000,1.268],[1295366400000,1.2705],[1295452800000,1.2659],[1295539200000,1.2659],[1295798400000,1.2645],[1295884800000,1.2634],[1295971200000,1.2645],[1296057600000,1.266],[1296144000000,1.2674],[1296403200000,1.2689],[1296489600000,1.2682],[1297180800000,1.2647],[1297267200000,1.2676],[1297353600000,1.2698],[1297612800000,1.2717],[1297699200000,1.2726],[1297785600000,1.2731],[1297872000000,1.2725],[1297958400000,1.2714],[1298217600000,1.2729],[1298304000000,1.2678],[1298390400000,1.2694],[1298476800000,1.2712],[1298563200000,1.2707],[1298822400000,1.2736],[1298908800000,1.2728],[1298995200000,1.2723],[1299081600000,1.2692],[1299168000000,1.27],[1299427200000,1.2712],[1299513600000,1.2711],[1299600000000,1.2716],[1299686400000,1.2703],[1299772800000,1.2654],[1300032000000,1.2657],[1300118400000,1.2661],[1300204800000,1.2665],[1300291200000,1.2655],[1300377600000,1.2667],[1300636800000,1.2664],[1300723200000,1.2665],[1300809600000,1.2676],[1300896000000,1.2675],[1300982400000,1.2684],[1301241600000,1.2671],[1301328000000,1.2624],[1301414400000,1.2607],[1301500800000,1.2614],[1301587200000,1.2635],[1302019200000,1.2627],[1302105600000,1.2651],[1302192000000,1.2667],[1302451200000,1.2667],[1302537600000,1.2669],[1302624000000,1.2679],[1302710400000,1.267],[1302796800000,1.267],[1303056000000,1.2679],[1303142400000,1.2672],[1303228800000,1.2666],[1303315200000,1.2676],[1303401600000,1.2666],[1303660800000,1.2634],[1303747200000,1.2608],[1303833600000,1.2572],[1303920000000,1.2539],[1304006400000,1.2567],[1304352000000,1.2582],[1304438400000,1.2555],[1304524800000,1.255],[1304611200000,1.2561],[1304870400000,1.2558],[1304956800000,1.2575],[1305043200000,1.2574],[1305129600000,1.2563],[1305216000000,1.2575],[1305475200000,1.2578],[1305561600000,1.2574],[1305648000000,1.2589],[1305734400000,1.2595],[1305820800000,1.2591],[1306080000000,1.2558],[1306166400000,1.2541],[1306252800000,1.2522],[1306339200000,1.2516],[1306425600000,1.2499],[1306684800000,1.2491],[1306771200000,1.251],[1306857600000,1.2533],[1306944000000,1.253],[1307030400000,1.2545],[1307376000000,1.2558],[1307462400000,1.2559],[1307548800000,1.2532],[1307635200000,1.2541],[1307894400000,1.2491],[1307980800000,1.2487],[1308067200000,1.2474],[1308153600000,1.2451],[1308240000000,1.2465],[1308499200000,1.2454],[1308585600000,1.2458],[1308672000000,1.2457],[1308758400000,1.2459],[1308844800000,1.2458],[1309104000000,1.2495],[1309190400000,1.2489],[1309276800000,1.2471],[1309363200000,1.2501],[1309449600000,1.2488],[1309708800000,1.2512],[1309795200000,1.251],[1309881600000,1.2504],[1309968000000,1.258],[1310054400000,1.2609],[1310313600000,1.2606],[1310400000000,1.2593],[1310486400000,1.2588],[1310572800000,1.2596],[1310659200000,1.2606],[1310918400000,1.2587],[1311004800000,1.2532],[1311091200000,1.2501],[1311177600000,1.2453],[1311264000000,1.2449],[1311523200000,1.2401],[1311609600000,1.2399],[1311696000000,1.2426],[1311782400000,1.2418],[131186</t>
   </si>
   <si>
+    <t>[[1570982400000, 0.0], [1571932800000, 0.09], [1572796800000, 2.19], [1573401600000, 0.16], [1573574400000, 0.1], [1573747200000, -0.68], [1574092800000, 0.62], [1574265600000, -0.56], [1574611200000, -2.32], [1574784000000, -2.18], [1574956800000, -4.11], [1575302400000, -3.26], [1575475200000, -2.46], [1575820800000, -1.41], [1575993600000, -2.07], [1576166400000, -0.79], [1576512000000, -0.01], [1576684800000, -0.35], [1577030400000, -1.04], [1577203200000, -1.12], [1577376000000, -0.11], [1577721600000, 1.66], [1577980800000, 1.12], [1578326400000, 1.56], [1578499200000, 3.28], [1578844800000, 4.99], [1579017600000, 4.2], [1579190400000, 3.83], [1579536000000, 0.96], [1579708800000, -2.86], [1580745600000, -7.93], [1580918400000, -4.91], [1581264000000, -5.0], [1581436800000, -2.43], [1581609600000, -3.38], [1581955200000, -2.74], [1582128000000, 0.25], [1582473600000, -1.65], [1582646400000, -3.3], [1582819200000, -5.38], [1583164800000, -2.44], [1583337600000, 2.07], [1583683200000, -3.3], [1583856000000, -1.41], [1584028800000, -5.33], [1584374400000, -10.84], [1584547200000, -14.19], [1584892800000, -14.61], [1585065600000, -9.36], [1585238400000, -8.83], [1585584000000, -8.27], [1585756800000, -7.46], [1586188800000, -5.05], [1586361600000, -5.57], [1586707200000, -4.07], [1586880000000, -3.97], [1587052800000, -2.98], [1587398400000, -3.95], [1587571200000, -0.98], [1587916800000, -0.77], [1588089600000, 0.12], [1588694400000, 1.23], [1588867200000, 3.72], [1589212800000, 4.97], [1589385600000, 4.96], [1589731200000, 5.55], [1589904000000, 5.8], [1590076800000, 2.76], [1590422400000, 5.77], [1590595200000, 5.27], [1590940800000, 9.87], [1591113600000, 8.86], [1591286400000, 10.65], [1591632000000, 12.81], [1591804800000, 11.05], [1592150400000, 9.9], [1592323200000, 11.15], [1592496000000, 14.6], [1592841600000, 14.83], [1593360000000, 16.18], [1593532800000, 21.66], [1593705600000, 24.37], [1594051200000, 31.0], [1594224000000, 33.19], [1594569600000, 36.53], [1594742400000, 37.15], [1594915200000, 31.56], [1595260800000, 34.39], [1595433600000, 37.79], [1595779200000, 31.92], [1595952000000, 38.12], [1596124800000, 39.36], [1596470400000, 39.33], [1596643200000, 37.57], [1596988800000, 37.66], [1597161600000, 35.73], [1597334400000, 38.06], [1597680000000, 41.09], [1597852800000, 37.57], [1598198400000, 41.21], [1598371200000, 42.19], [1598544000000, 47.82], [1598889600000, 48.32], [1599062400000, 48.05], [1599408000000, 41.4], [1599580800000, 36.49], [1599753600000, 39.4], [1600099200000, 42.58], [1600272000000, 38.56], [1600617600000, 38.97], [1600790400000, 38.7], [1600963200000, 36.74], [1601308800000, 38.26], [1602172800000, 40.32], [1602518400000, 46.5], [1602691200000, 45.29], [1603036800000, 42.79], [1603209600000, 45.71], [1603382400000, 42.81], [1603728000000, 41.42], [1603900800000, 48.39], [1604246400000, 46.77], [1604419200000, 50.29], [1604592000000, 52.95], [1604937600000, 54.54], [1605110400000, 54.47], [1605456000000, 54.51], [1605628800000, 52.29], [1605801600000, 55.3], [1606147200000, 55.89], [1606320000000, 52.08], [1606665600000, 50.78], [1606838400000, 54.39], [1607011200000, 57.33], [1607356800000, 58.21], [1607529600000, 55.73], [1607875200000, 57.21], [1608048000000, 59.49], [1608220800000, 59.77], [1608566400000, 61.79], [1608739200000, 61.85], [1609084800000, 66.24], [1609257600000, 68.56], [1609689600000, 76.76], [1609862400000, 85.67], [1610035200000, 85.61], [1610380800000, 86.89], [1610553600000, 79.3], [1610899200000, 75.59], [1611072000000, 73.31], [1611244800000, 77.61], [1611590400000, 81.05], [1611763200000, 75.43], [1612108800000, 79.27], [1612281600000, 86.41], [1612454400000, 89.33], [1612800000000, 97.69], [1613577600000, 98.19], [1613923200000, 87.9], [1614096000000, 80.98], [1614268800000, 74.64], [1614614400000, 74.42], [1614787200000, 69.76], [1615132800000, 60.5], [1615305600000, 60.37], [1615478400000, 65.42], [1615824000000, 61.8], [1615996800000, 68.54], [1616342400000, 64.43], [1616515200000, 61.82], [1616688000000, 65.49], [1617033600000, 67.9], [1617206400000, 69.78], [1617638400000, 72.97], [1617811200000, 70.17], [1618156800000, 64.24], [1618329600000, 65.56], [1618502400000, 64.79], [1618848000000, 68.54], [1619020800000, 68.46], [1619366400000, 68.54], [1619539200000, 71.28], [1619712000000, 71.62], [1620316800000, 62.99], [1620662400000, 65.29], [1620835200000, 64.85], [1621180800000, 72.9], [1621353600000, 72.23], [1621526400000, 72.23], [1621872000000, 80.68], [1622044800000, 80.87], [1622390400000, 78.38], [1622563200000, 77.65], [1622736000000, 78.75], [1623081600000, 73.62], [1623254400000, 74.79], [1623686400000, 70.31], [1623859200000, 68.1], [1624204800000, 64.12], [1624377600000, 63.93], [1624550400000, 66.74], [1624896000000, 65.86], [1625068800000, 67.45], [1625414400000, 59.3], [1625587200000, 59.76], [1625760000000, 55.25], [1626105600000, 60.48], [1626278400000, 61.83], [1626624000000, 60.07], [1626796800000, 58.44], [1626969600000, 53.46], [1627315200000, 39.72], [1627488000000, 41.34], [1627833600000, 42.69], [1628006400000, 44.4], [1628179200000, 42.36], [1628438400000, 46.32]]</t>
+  </si>
+  <si>
     <t>515650</t>
   </si>
   <si>
     <t>富国中证消费50ETF</t>
   </si>
   <si>
-    <t xml:space="preserve"> [[1570982400000,1.0],[1571328000000,0.9999],[1571932800000,1.0009],[1572537600000,1.0189],[1572796800000,1.0219],[1573142400000,1.0219],[1573401600000,1.0016],[1573488000000,0.9966],[1573574400000,1.001],[1573660800000,1.0005],[1573747200000,0.9932],[1574006400000,0.9969],[1574092800000,1.0062],[1574179200000,1.0019],[1574265600000,0.9944],[1574352000000,0.9759],[1574611200000,0.9768],[1574697600000,0.9832],[1574784000000,0.9782],[1574870400000,0.9756],[1574956800000,0.9589],[1575216000000,0.9626],[1575302400000,0.9674],[1575388800000,0.9729],[1575475200000,0.9754],[1575561600000,0.9887],[1575820800000,0.9859],[1575907200000,0.9864],[1575993600000,0.9793],[1576080000000,0.9741],[1576166400000,0.9921],[1576425600000,0.9881],[1576512000000,0.9999],[1576598400000,0.9995],[1576684800000,0.9965],[1576771200000,0.9942],[1577030400000,0.9896],[1577116800000,0.9943],[1577203200000,0.9888],[1577289600000,0.9942],[1577376000000,0.9989],[1577635200000,1.0153],[1577721600000,1.0166],[1577894400000,1.0251],[1577980800000,1.0112],[1578240000000,0.9999],[1578326400000,1.0156],[1578412800000,1.0169],[1578499200000,1.0328],[1578585600000,1.0402],[1578844800000,1.0499],[1578931200000,1.042],[1579017600000,1.042],[1579104000000,1.039],[1579190400000,1.0383],[1579449600000,1.0341],[1579536000000,1.0096],[1579622400000,1.0077],[1579708800000,0.9714],[1580659200000,0.8934],[1580745600000,0.9207],[1580832000000,0.934],[1580918400000,0.9509],[1581004800000,0.9536],[1581264000000,0.95],[1581350400000,0.9715],[1581436800000,0.9757],[1581523200000,0.9663],[1581609600000,0.9662],[1581868800000,0.9775],[1581955200000,0.9726],[1582041600000,0.9789],[1582128000000,1.0025],[1582214400000,0.9964],[1582473600000,0.9835],[1582560000000,0.9716],[1582646400000,0.967],[1582732800000,0.9791],[1582819200000,0.9462],[1583078400000,0.9676],[1583164800000,0.9756],[1583251200000,0.9823],[1583337600000,1.0207],[1583424000000,1.0038],[1583683200000,0.967],[1583769600000,0.9935],[1583856000000,0.9859],[1583942400000,0.9621],[1584028800000,0.9467],[1584288000000,0.9063],[1584374400000,0.8916],[1584460800000,0.8786],[1584547200000,0.8581],[1584633600000,0.8834],[1584892800000,0.8539],[1584979200000,0.8818],[1585065600000,0.9064],[1585152000000,0.9012],[1585238400000,0.9117],[1585497600000,0.8982],[1585584000000,0.9173],[1585670400000,0.9122],[1585756800000,0.9254],[1585843200000,0.9252],[1586188800000,0.9495],[1586275200000,0.941],[1586361600000,0.9443],[1586448000000,0.9531],[1586707200000,0.9593],[1586793600000,0.9719],[1586880000000,0.9603],[1586966400000,0.9591],[1587052800000,0.9702],[1587312000000,0.9755],[1587398400000,0.9605],[1587484800000,0.983],[1587571200000,0.9902],[1587657600000,0.9886],[1587916800000,0.9923],[1588003200000,1.0088],[1588089600000,1.0012],[1588176000000,1.0031],[1588694400000,1.0123],[1588780800000,1.0185],[1588867200000,1.0372],[1589126400000,1.0381],[1589212800000,1.0497],[1589299200000,1.0555],[1589385600000,1.0496],[1589472000000,1.0393],[1589731200000,1.0555],[1589817600000,1.0639],[1589904000000,1.058],[1589990400000,1.0575],[1590076800000,1.0276],[1590336000000,1.0409],[1590422400000,1.0577],[1590508800000,1.0538],[1590595200000,1.0527],[1590681600000,1.0686],[1590940800000,1.0987],[1591027200000,1.0935],[1591113600000,1.0886],[1591200000000,1.0969],[1591286400000,1.1065],[1591545600000,1.1181],[1591632000000,1.1281],[1591718400000,1.1251],[1591804800000,1.1105],[1591891200000,1.1215],[1592150400000,1.099],[1592236800000,1.1148],[1592323200000,1.1115],[1592409600000,1.1198],[1592496000000,1.146],[1592755200000,1.1374],[1592841600000,1.1483],[1592928000000,1.1569],[1593360000000,1.1618],[1593446400000,1.1774],[1593532800000,1.2166],[1593619200000,1.236],[1593705600000,1.2437],[1593964800000,1.2919],[1594051200000,1.31],[1594137600000,1.3156],[1594224000000,1.3319],[1594310400000,1.3339],[1594569600000,1.3653],[1594656000000,1.3589],[1594742400000,1.3715],[1594828800000,1.2773],[1594915200000,1.3156],[1595174400000,1.3288],[1595260800000,1.3439],[1595347200000,1.362],[1595433600000,1.3779],[1595520000000,1.3115],[1595779200000,1.3192],[1595865600000,1.3504],[1595952000000,1.3812],[1596038400000,1.3799],[1596124800000,1.3936],[1596384000000,1.4032],[1596470400000,1.3933],[1596556800000,1.3984],[1596643200000,1.3757],[1596729600000,1.37],[1596988800000,1.3766],[1597075200000,1.3793],[1597161600000,1.3573],[1597248000000,1.3563],[1597334400000,1.3806],[1597593600000,1.4009],[1597680000000,1.4109],[1597766400000,1.3977],[1597852800000,1.3757],[1597939200000,1.3924],[1598198400000,1.4121],[1598284800000,1.4316],[1598371200000,1.4219],[1598457600000,1.4302],[1598544000000,1.4782],[1598803200000,1.477],[1598889600000,1.4832],[1598976000000,1.4858],[1599062400000,1.4805],[1599148800000,1.4503],[1599408000000,1.414],[1599494400000,1.4023],[1599580800000,1.3649],[1599667200000,1.3815],[1599753600000,1.394],[1600012800000,1.4085],[1600099200000,1.4258],[1600185600000,1.4033],[1600272000000,1.3856],[1600358400000,1.4064],[1600617600000,1.3897],[1600704000000,1.3796],[1600790400000,1.387],[1600876800000,1.3643],[1600963200000,1.3674],[1601222400000,1.3736],[1601308800000,1.3826],[1601395200000,1.3875],[1602172800000,1.4032],[1602432000000,1.4514],[1602518400000,1.465],[1602604800000,1.4585],[1602691200000,1.4529],[1602777600000,1.4424],[1603036800000,1.4279],[1603123200000,1.4543],[1603209600000,1.4571],[1603296000000,1.4629],[1603382400000,1.4281],[1603641600000,1.4177],[1603728000000,1.4142],[1603814400000,1.446],[1603900800000,1.4839],[1603987200000,1.4479],[1604246400000,1.4677],[1604332800000,1.4804],[1604419200000,1.5029],[1604505600000,1.5194],[1604592000000,1.5295],[1604851200000,1.5549],[1604937600000,1.5454],[1605024000000,1.5332],[1605110400000,1.5447],[1605196800000,1.5301],[1605456000000,1.5451],[1605542400000,1.5393],[1605628800000,1.5229],[1605715200000,1.5522],[1605801600000,1.553],[1606060800000,1.5707],[1606147200000,1.5589],[1606233600000,1.5258],[1606320000000,1.5208],[1606406400000,1.5335],[1606665600000,1.5078],[1606752000000,1.5307],[1606838400000,1.5439],[1606924800000,1.5492],[1607011200000,1.5733],[1607270400000,1.5822],[1607356800000,1.5821],[1607443200000,1.5535],[1607529600000,1.5573],[1607616000000,1.5451],[1607875200000,1.5721],[1607961600000,1.5753],[1608048000000,1.5949],[1608134400000,1.6187],[1608220800000,1.5977],[1608480000000,1.6156],[1608566400000,1.6179],[1608652800000,1.6247],[1608739200000,1.6185],[1608825600000,1.626],[1609084800000,1.6624],[1609171200000,1.6522],[1609257600000,1.6856],[1609344000000,1.7253],[1609689600000,1.7676],[1609776000000,1.8406],[1609862400000,1.8567],[1609948800000,1.9049],[1610035200000,1.8561],[1610294400000,1.8151],[1610380800000,1.8689],[1610467200000,1.8484],[1610553600000,1.793],[1610640000000,1.7642],[1610899200000,1.7559],[1610985600000,1.7159],[1611072000000,1.7331],[1611158400000,1.77],[1611244800000,1.7761],[1611504000000,1.8473],[1611590400000,1.8105],[1611676800000,1.7904],[1611763200000,1.7543],[1611849600000,1.7687],[1612108800000,1.7927],[1612195200000,1.8485],[1612281600000,1.8641],[1612368000000,1.8717],[1612454400000,1.8933],[1612713600000,1.9267],[1612800000000,1.9769],[1612886400000,2.0603],[1613577600000,1.9819],[1613664000000,2.003],[1613923200000,1.879],[1614009600000,1.8681],[1614096000000,1.8098],[1614182400000,1.7961],[1614268800000,1.7464],[1614528000000,1.7796],[1614614400000,1.7442],[1614700800000,1.775],[1614787200000,1.6976],[1614873600000,1.6986],[1615132800000,1.605],[1615219200000,1.5689],[1615305600000,1.6037],[1615392000000,1.6501],[1615478400000,1.6542],[1615737600000,1.593],[1615824000000,1.618],[1615910400000,1.6502],[1615996800000,1.6854],[1616083200000,1.644],[1616342400000,1.6443],[1616428800000,1.6297],[1616515200000,1.6182],[1616601600000,1.6127],[1616688000000,1.6549],[1616947200000,1.6647],[1617033600000,1.679],[1617120000000,1.6566],[1617206400000,1.6978],[1617292800000,1.7552],[1617638400000,1.7297],[1617724800000,1.6859],[1617811200000,1.7017],[1617897600000,1.6629],[1618156800000,1.6424],[1618243200000,1.6329],[1618329600000,1.6556],[1618416000000,1.638],[1618502400000,1.6479],[1618761600000,1.6799],[1618848000000,1.6854],[1618934400000,1.6904],[1619020800000,1.6846],[1619107200000,1.7198],[1619366400000,1.6854],[1619452800000,1.7024],[1619539200000,1.7128],[1619625600000,1.738],[1619712000000,1.7162],[1620230400000,1.6634],[1620316800000,1.6299],[1620576000000,1.6138],[1620662400000,1.6529],[1620748800000,1.6643],[1620835200000,1.6485],[1620921600000,1.6858],[1621180800000,1.729],[1621267200000,1.724],[1621353600000,1.7223],[1621440000000,1.7427],[1621526400000,1.7223],[1621785600000,1.7345],[1621872000000,1.8068],[1621958400000,1.8041],[1622044800000,1.8087],[1622131200000,1.7957],[1622390400000,1.7838],[1622476800000,1.7891],[1622563200000,1.7765],[1622649600000,1.7799],[1622736000000,1.7875],[1622995200000,1.7761],[1623081600000,1.7362],[1623168000000,1.7378],[1623254400000,1.7479],[1623340800000,1.7205],[1623686400000,1.7031],[1623772800000,1.6893],[1623859200000,1.681],[1623945600000,1.6585],[1624204800000,1.6412],[1624291200000,1.6436],[1624377600000,1.6393],[1624464000000,1.6421],[1624550400000,1.6674],[1624809600000,1.6875],[1624896000000,1.6586],[1624982400000,1.6581],[1625068800000,1.6745],[1625155200000,1.6163],[1625414400000,1.593],[1625500800000,1.588],[1625587200000,1.5976],[1625673600000,1.5685],[1625760000000,1.5525],[1626019200000,1.5714],[1626105600000,1.6048],[1626192000000,1.6008],[1626278400000,1.6183],[1626364800000,1.5849]]</t>
+    <t xml:space="preserve"> [[1570982400000,1.0],[1571328000000,0.9999],[1571932800000,1.0009],[1572537600000,1.0189],[1572796800000,1.0219],[1573142400000,1.0219],[1573401600000,1.0016],[1573488000000,0.9966],[1573574400000,1.001],[1573660800000,1.0005],[1573747200000,0.9932],[1574006400000,0.9969],[1574092800000,1.0062],[1574179200000,1.0019],[1574265600000,0.9944],[1574352000000,0.9759],[1574611200000,0.9768],[1574697600000,0.9832],[1574784000000,0.9782],[1574870400000,0.9756],[1574956800000,0.9589],[1575216000000,0.9626],[1575302400000,0.9674],[1575388800000,0.9729],[1575475200000,0.9754],[1575561600000,0.9887],[1575820800000,0.9859],[1575907200000,0.9864],[1575993600000,0.9793],[1576080000000,0.9741],[1576166400000,0.9921],[1576425600000,0.9881],[1576512000000,0.9999],[1576598400000,0.9995],[1576684800000,0.9965],[1576771200000,0.9942],[1577030400000,0.9896],[1577116800000,0.9943],[1577203200000,0.9888],[1577289600000,0.9942],[1577376000000,0.9989],[1577635200000,1.0153],[1577721600000,1.0166],[1577894400000,1.0251],[1577980800000,1.0112],[1578240000000,0.9999],[1578326400000,1.0156],[1578412800000,1.0169],[1578499200000,1.0328],[1578585600000,1.0402],[1578844800000,1.0499],[1578931200000,1.042],[1579017600000,1.042],[1579104000000,1.039],[1579190400000,1.0383],[1579449600000,1.0341],[1579536000000,1.0096],[1579622400000,1.0077],[1579708800000,0.9714],[1580659200000,0.8934],[1580745600000,0.9207],[1580832000000,0.934],[1580918400000,0.9509],[1581004800000,0.9536],[1581264000000,0.95],[1581350400000,0.9715],[1581436800000,0.9757],[1581523200000,0.9663],[1581609600000,0.9662],[1581868800000,0.9775],[1581955200000,0.9726],[1582041600000,0.9789],[1582128000000,1.0025],[1582214400000,0.9964],[1582473600000,0.9835],[1582560000000,0.9716],[1582646400000,0.967],[1582732800000,0.9791],[1582819200000,0.9462],[1583078400000,0.9676],[1583164800000,0.9756],[1583251200000,0.9823],[1583337600000,1.0207],[1583424000000,1.0038],[1583683200000,0.967],[1583769600000,0.9935],[1583856000000,0.9859],[1583942400000,0.9621],[1584028800000,0.9467],[1584288000000,0.9063],[1584374400000,0.8916],[1584460800000,0.8786],[1584547200000,0.8581],[1584633600000,0.8834],[1584892800000,0.8539],[1584979200000,0.8818],[1585065600000,0.9064],[1585152000000,0.9012],[1585238400000,0.9117],[1585497600000,0.8982],[1585584000000,0.9173],[1585670400000,0.9122],[1585756800000,0.9254],[1585843200000,0.9252],[1586188800000,0.9495],[1586275200000,0.941],[1586361600000,0.9443],[1586448000000,0.9531],[1586707200000,0.9593],[1586793600000,0.9719],[1586880000000,0.9603],[1586966400000,0.9591],[1587052800000,0.9702],[1587312000000,0.9755],[1587398400000,0.9605],[1587484800000,0.983],[1587571200000,0.9902],[1587657600000,0.9886],[1587916800000,0.9923],[1588003200000,1.0088],[1588089600000,1.0012],[1588176000000,1.0031],[1588694400000,1.0123],[1588780800000,1.0185],[1588867200000,1.0372],[1589126400000,1.0381],[1589212800000,1.0497],[1589299200000,1.0555],[1589385600000,1.0496],[1589472000000,1.0393],[1589731200000,1.0555],[1589817600000,1.0639],[1589904000000,1.058],[1589990400000,1.0575],[1590076800000,1.0276],[1590336000000,1.0409],[1590422400000,1.0577],[1590508800000,1.0538],[1590595200000,1.0527],[1590681600000,1.0686],[1590940800000,1.0987],[1591027200000,1.0935],[1591113600000,1.0886],[1591200000000,1.0969],[1591286400000,1.1065],[1591545600000,1.1181],[1591632000000,1.1281],[1591718400000,1.1251],[1591804800000,1.1105],[1591891200000,1.1215],[1592150400000,1.099],[1592236800000,1.1148],[1592323200000,1.1115],[1592409600000,1.1198],[1592496000000,1.146],[1592755200000,1.1374],[1592841600000,1.1483],[1592928000000,1.1569],[1593360000000,1.1618],[1593446400000,1.1774],[1593532800000,1.2166],[1593619200000,1.236],[1593705600000,1.2437],[1593964800000,1.2919],[1594051200000,1.31],[1594137600000,1.3156],[1594224000000,1.3319],[1594310400000,1.3339],[1594569600000,1.3653],[1594656000000,1.3589],[1594742400000,1.3715],[1594828800000,1.2773],[1594915200000,1.3156],[1595174400000,1.3288],[1595260800000,1.3439],[1595347200000,1.362],[1595433600000,1.3779],[1595520000000,1.3115],[1595779200000,1.3192],[1595865600000,1.3504],[1595952000000,1.3812],[1596038400000,1.3799],[1596124800000,1.3936],[1596384000000,1.4032],[1596470400000,1.3933],[1596556800000,1.3984],[1596643200000,1.3757],[1596729600000,1.37],[1596988800000,1.3766],[1597075200000,1.3793],[1597161600000,1.3573],[1597248000000,1.3563],[1597334400000,1.3806],[1597593600000,1.4009],[1597680000000,1.4109],[1597766400000,1.3977],[1597852800000,1.3757],[1597939200000,1.3924],[1598198400000,1.4121],[1598284800000,1.4316],[1598371200000,1.4219],[1598457600000,1.4302],[1598544000000,1.4782],[1598803200000,1.477],[1598889600000,1.4832],[1598976000000,1.4858],[1599062400000,1.4805],[1599148800000,1.4503],[1599408000000,1.414],[1599494400000,1.4023],[1599580800000,1.3649],[1599667200000,1.3815],[1599753600000,1.394],[1600012800000,1.4085],[1600099200000,1.4258],[1600185600000,1.4033],[1600272000000,1.3856],[1600358400000,1.4064],[1600617600000,1.3897],[1600704000000,1.3796],[1600790400000,1.387],[1600876800000,1.3643],[1600963200000,1.3674],[1601222400000,1.3736],[1601308800000,1.3826],[1601395200000,1.3875],[1602172800000,1.4032],[1602432000000,1.4514],[1602518400000,1.465],[1602604800000,1.4585],[1602691200000,1.4529],[1602777600000,1.4424],[1603036800000,1.4279],[1603123200000,1.4543],[1603209600000,1.4571],[1603296000000,1.4629],[1603382400000,1.4281],[1603641600000,1.4177],[1603728000000,1.4142],[1603814400000,1.446],[1603900800000,1.4839],[1603987200000,1.4479],[1604246400000,1.4677],[1604332800000,1.4804],[1604419200000,1.5029],[1604505600000,1.5194],[1604592000000,1.5295],[1604851200000,1.5549],[1604937600000,1.5454],[1605024000000,1.5332],[1605110400000,1.5447],[1605196800000,1.5301],[1605456000000,1.5451],[1605542400000,1.5393],[1605628800000,1.5229],[1605715200000,1.5522],[1605801600000,1.553],[1606060800000,1.5707],[1606147200000,1.5589],[1606233600000,1.5258],[1606320000000,1.5208],[1606406400000,1.5335],[1606665600000,1.5078],[1606752000000,1.5307],[1606838400000,1.5439],[1606924800000,1.5492],[1607011200000,1.5733],[1607270400000,1.5822],[1607356800000,1.5821],[1607443200000,1.5535],[1607529600000,1.5573],[1607616000000,1.5451],[1607875200000,1.5721],[1607961600000,1.5753],[1608048000000,1.5949],[1608134400000,1.6187],[1608220800000,1.5977],[1608480000000,1.6156],[1608566400000,1.6179],[1608652800000,1.6247],[1608739200000,1.6185],[1608825600000,1.626],[1609084800000,1.6624],[1609171200000,1.6522],[1609257600000,1.6856],[1609344000000,1.7253],[1609689600000,1.7676],[1609776000000,1.8406],[1609862400000,1.8567],[1609948800000,1.9049],[1610035200000,1.8561],[1610294400000,1.8151],[1610380800000,1.8689],[1610467200000,1.8484],[1610553600000,1.793],[1610640000000,1.7642],[1610899200000,1.7559],[1610985600000,1.7159],[1611072000000,1.7331],[1611158400000,1.77],[1611244800000,1.7761],[1611504000000,1.8473],[1611590400000,1.8105],[1611676800000,1.7904],[1611763200000,1.7543],[1611849600000,1.7687],[1612108800000,1.7927],[1612195200000,1.8485],[1612281600000,1.8641],[1612368000000,1.8717],[1612454400000,1.8933],[1612713600000,1.9267],[1612800000000,1.9769],[1612886400000,2.0603],[1613577600000,1.9819],[1613664000000,2.003],[1613923200000,1.879],[1614009600000,1.8681],[1614096000000,1.8098],[1614182400000,1.7961],[1614268800000,1.7464],[1614528000000,1.7796],[1614614400000,1.7442],[1614700800000,1.775],[1614787200000,1.6976],[1614873600000,1.6986],[1615132800000,1.605],[1615219200000,1.5689],[1615305600000,1.6037],[1615392000000,1.6501],[1615478400000,1.6542],[1615737600000,1.593],[1615824000000,1.618],[1615910400000,1.6502],[1615996800000,1.6854],[1616083200000,1.644],[1616342400000,1.6443],[1616428800000,1.6297],[1616515200000,1.6182],[1616601600000,1.6127],[1616688000000,1.6549],[1616947200000,1.6647],[1617033600000,1.679],[1617120000000,1.6566],[1617206400000,1.6978],[1617292800000,1.7552],[1617638400000,1.7297],[1617724800000,1.6859],[1617811200000,1.7017],[1617897600000,1.6629],[1618156800000,1.6424],[1618243200000,1.6329],[1618329600000,1.6556],[1618416000000,1.638],[1618502400000,1.6479],[1618761600000,1.6799],[1618848000000,1.6854],[1618934400000,1.6904],[1619020800000,1.6846],[1619107200000,1.7198],[1619366400000,1.6854],[1619452800000,1.7024],[1619539200000,1.7128],[1619625600000,1.738],[1619712000000,1.7162],[1620230400000,1.6634],[1620316800000,1.6299],[1620576000000,1.6138],[1620662400000,1.6529],[1620748800000,1.6643],[1620835200000,1.6485],[1620921600000,1.6858],[1621180800000,1.729],[1621267200000,1.724],[1621353600000,1.7223],[1621440000000,1.7427],[1621526400000,1.7223],[1621785600000,1.7345],[1621872000000,1.8068],[1621958400000,1.8041],[1622044800000,1.8087],[1622131200000,1.7957],[1622390400000,1.7838],[1622476800000,1.7891],[1622563200000,1.7765],[1622649600000,1.7799],[1622736000000,1.7875],[1622995200000,1.7761],[1623081600000,1.7362],[1623168000000,1.7378],[1623254400000,1.7479],[1623340800000,1.7205],[1623686400000,1.7031],[1623772800000,1.6893],[1623859200000,1.681],[1623945600000,1.6585],[1624204800000,1.6412],[1624291200000,1.6436],[1624377600000,1.6393],[1624464000000,1.6421],[1624550400000,1.6674],[1624809600000,1.6875],[1624896000000,1.6586],[1624982400000,1.6581],[1625068800000,1.6745],[1625155200000,1.6163],[1625414400000,1.593],[1625500800000,1.588],[1625587200000,1.5976],[1625673600000,1.5685],[1625760000000,1.5525],[1626019200000,1.5714],[1626105600000,1.6048],[1626192000000,1.6008],[1626278400000,1.6183],[1626364800000,1.5849],[1626624000000,1.6007],[1626710400000,1.6004],[1626796800000,1.5844],[1626883200000,1.5705],[1626969600000,1.5346],[1627228800000,1.4617],[1627315200000,1.3972],[1627401600000,1.4128],[1627488000000,1.4134],[1627574400000,1.3782],[1627833600000,1.4269],[1627920000000,1.463],[1628006400000,1.444],[1628092800000,1.4324],[1628179200000,1.4236],[1628438400000,1.4632]]</t>
+  </si>
+  <si>
+    <t>[[1282233600000, 0.0], [1288281600000, 1.7], [1289923200000, 0.2], [1291564800000, 0.2], [1293033600000, -1.5], [1294761600000, -4.9], [1296403200000, -7.7], [1298476800000, -4.9], [1300118400000, -3.0], [1301587200000, -6.7], [1303401600000, -4.7], [1305129600000, -4.3], [1306771200000, -9.5], [1308499200000, -11.3], [1309968000000, -2.7], [1311609600000, -2.7], [1313078400000, 1.0], [1314720000000, -1.2], [1316448000000, -6.7], [1318521600000, -10.4], [1320163200000, -5.9], [1321804800000, -7.9], [1323273600000, -10.9], [1324915200000, -18.1], [1326643200000, -24.1], [1328716800000, -18.5], [1330358400000, -13.6], [1331827200000, -8.9], [1333641600000, -14.7], [1335283200000, -13.8], [1337097600000, -12.7], [1338739200000, -14.1], [1340208000000, -12.1], [1341849600000, -11.6], [1343318400000, -15.1], [1344960000000, -14.8], [1346601600000, -17.7], [1348070400000, -19.0], [1350230400000, -15.8], [1351699200000, -16.0], [1353340800000, -23.3], [1354809600000, -25.6], [1356451200000, -20.4], [1358352000000, -15.8], [1359993600000, -14.3], [1362067200000, -12.8], [1363708800000, -13.2], [1365523200000, -15.9], [1367424000000, -15.1], [1369065600000, -10.9], [1370534400000, -13.9], [1372521600000, -16.1], [1373990400000, -11.7], [1375632000000, -10.3], [1377100800000, -10.4], [1378742400000, -8.2], [1381161600000, -2.3], [1382630400000, -3.1], [1384272000000, -8.8], [1385913600000, -7.8], [1387382400000, -6.8], [1389110400000, -5.4], [1390752000000, -7.2], [1392825600000, -7.0], [1394467200000, -13.5], [1395936000000, -15.7], [1397664000000, -11.1], [1399478400000, -14.4], [1401120000000, -14.8], [1402848000000, -12.4], [1404316800000, -12.2], [1405958400000, -9.1], [1407427200000, -5.1], [1409068800000, -4.7], [1410796800000, -4.1], [1412870400000, -0.7], [1414512000000, -3.2], [1416153600000, -3.4], [1417622400000, 4.5], [1419264000000, 3.3], [1421078400000, 10.8], [1422547200000, 9.9], [1424793600000, 14.9], [1426435200000, 22.1], [1427904000000, 32.9], [1429632000000, 47.9], [1431360000000, 45.7], [1432828800000, 52.3], [1434470400000, 62.8], [1436198400000, 26.4], [1437667200000, 39.3], [1439308800000, 34.5], [1440950400000, 16.9], [1442764800000, 15.1], [1444838400000, 21.3], [1446480000000, 22.8], [1447948800000, 28.2], [1449590400000, 25.8], [1451232000000, 31.5], [1452787200000, 12.5], [1454428800000, 10.3], [1456675200000, 4.7], [1458144000000, 13.0], [1459872000000, 21.9], [1461513600000, 19.0], [1463068800000, 22.1], [1464710400000, 24.6], [1466524800000, 29.8], [1468166400000, 38.2], [1469635200000, 41.0], [1471276800000, 43.2], [1472745600000, 37.1], [1474560000000, 35.1], [1476806400000, 37.0], [1478448000000, 39.2], [1479916800000, 44.6], [1481558400000, 44.6], [1483027200000, 41.3], [1484668800000, 44.9], [1486915200000, 49.9], [1488384000000, 53.7], [1490025600000, 63.5], [1491840000000, 60.5], [1493308800000, 68.1], [1495036800000, 70.9], [1496851200000, 83.5], [1498492800000, 92.8], [1499961600000, 87.7], [1501603200000, 89.5], [1503244800000, 91.1], [1504713600000, 90.2], [1506355200000, 98.1], [1508428800000, 111.5], [1510070400000, 123.9], [1511712000000, 119.1], [1513180800000, 128.1], [1514822400000, 134.2], [1516291200000, 145.7], [1517932800000, 126.5], [1520179200000, 133.4], [1521648000000, 130.8], [1523462400000, 124.1], [1525276800000, 123.6], [1526918400000, 135.7], [1528387200000, 146.7], [1530115200000, 128.4], [1531670400000, 135.6], [1533139200000, 116.4], [1534780800000, 105.7], [1536249600000, 96.8], [1537977600000, 110.5], [1540224000000, 91.0], [1541692800000, 80.2], [1543334400000, 80.1], [1544976000000, 84.9], [1546531200000, 76.9], [1548172800000, 91.8], [1550419200000, 115.3], [1551888000000, 122.4], [1553529600000, 136.5], [1555257600000, 161.4], [1557158400000, 157.6], [1558627200000, 156.3], [1560355200000, 160.1], [1561910400000, 190.4], [1563379200000, 176.9], [1565020800000, 169.6], [1566489600000, 189.9], [1568131200000, 187.7], [1570464000000, 191.7], [1571932800000, 186.3], [1573574400000, 196.7], [1575216000000, 187.3], [1576684800000, 194.9], [1578412800000, 203.1], [1580745600000, 176.8], [1582214400000, 200.9], [1583856000000, 200.5], [1585497600000, 175.1], [1587052800000, 192.9], [1589126400000, 209.1], [1590595200000, 216.7], [1592236800000, 226.7], [1594051200000, 272.2], [1595520000000, 276.5], [1597161600000, 284.8], [1598803200000, 335.6], [1600272000000, 313.5], [1602604800000, 326.1], [1604246400000, 331.1], [1605715200000, 360.7], [1607356800000, 369.9], [1608825600000, 399.9], [1610553600000, 435.6], [1612195200000, 460.2], [1614268800000, 409.9], [1615910400000, 380.8], [1617638400000, 414.2], [1619107200000, 423.7], [1621180800000, 426.9], [1622649600000, 440.9], [1624377600000, 405.3], [1626019200000, 390.0], [1627488000000, 341.5], [1628438400000, 353.0]]</t>
   </si>
   <si>
     <t>110022</t>
@@ -242,6 +317,9 @@
     <t xml:space="preserve"> [[1282233600000,1.0],[1282838400000,1.001],[1283443200000,1.006],[1284048000000,1.006],[1284652800000,1.004],[1284998400000,1.005],[1285776000000,1.007],[1286467200000,1.013],[1287072000000,0.994],[1287676800000,1.01],[1288022400000,1.019],[1288108800000,1.014],[1288195200000,1.013],[1288281600000,1.017],[1288540800000,1.026],[1288627200000,1.024],[1288713600000,1.024],[1288800000000,1.03],[1288886400000,1.033],[1289145600000,1.038],[1289232000000,1.045],[1289318400000,1.058],[1289404800000,1.051],[1289491200000,1.02],[1289750400000,1.042],[1289836800000,1.027],[1289923200000,1.002],[1290009600000,1.01],[1290096000000,1.026],[1290355200000,1.031],[1290441600000,1.022],[1290528000000,1.036],[1290614400000,1.044],[1290700800000,1.042],[1290960000000,1.044],[1291046400000,1.028],[1291132800000,1.024],[1291219200000,1.02],[1291305600000,1.014],[1291564800000,1.002],[1291651200000,1.009],[1291737600000,1.008],[1291824000000,0.993],[1291910400000,0.999],[1292169600000,1.018],[1292256000000,1.021],[1292342400000,1.016],[1292428800000,1.013],[1292515200000,1.01],[1292774400000,1.002],[1292860800000,1.004],[1292947200000,0.995],[1293033600000,0.985],[1293120000000,0.975],[1293379200000,0.958],[1293465600000,0.952],[1293552000000,0.963],[1293638400000,0.966],[1293724800000,0.983],[1294070400000,0.986],[1294156800000,0.98],[1294243200000,0.975],[1294329600000,0.971],[1294588800000,0.952],[1294675200000,0.95],[1294761600000,0.951],[1294848000000,0.957],[1294934400000,0.948],[1295193600000,0.918],[1295280000000,0.927],[1295366400000,0.94],[1295452800000,0.916],[1295539200000,0.911],[1295798400000,0.894],[1295884800000,0.887],[1295971200000,0.897],[1296057600000,0.905],[1296144000000,0.915],[1296403200000,0.923],[1296489600000,0.921],[1297180800000,0.918],[1297267200000,0.94],[1297353600000,0.949],[1297612800000,0.962],[1297699200000,0.957],[1297785600000,0.962],[1297872000000,0.956],[1297958400000,0.952],[1298217600000,0.967],[1298304000000,0.949],[1298390400000,0.952],[1298476800000,0.951],[1298563200000,0.954],[1298822400000,0.967],[1298908800000,0.975],[1298995200000,0.977],[1299081600000,0.964],[1299168000000,0.972],[1299427200000,0.981],[1299513600000,0.986],[1299600000000,0.987],[1299686400000,0.985],[1299772800000,0.979],[1300032000000,0.987],[1300118400000,0.97],[1300204800000,0.98],[1300291200000,0.964],[1300377600000,0.965],[1300636800000,0.957],[1300723200000,0.956],[1300809600000,0.964],[1300896000000,0.961],[1300982400000,0.964],[1301241600000,0.951],[1301328000000,0.934],[1301414400000,0.931],[1301500800000,0.929],[1301587200000,0.933],[1302019200000,0.924],[1302105600000,0.93],[1302192000000,0.943],[1302451200000,0.935],[1302537600000,0.936],[1302624000000,0.95],[1302710400000,0.948],[1302796800000,0.946],[1303056000000,0.945],[1303142400000,0.947],[1303228800000,0.954],[1303315200000,0.956],[1303401600000,0.953],[1303660800000,0.962],[1303747200000,0.95],[1303833600000,0.944],[1303920000000,0.924],[1304006400000,0.935],[1304352000000,0.948],[1304438400000,0.938],[1304524800000,0.95],[1304611200000,0.955],[1304870400000,0.958],[1304956800000,0.955],[1305043200000,0.958],[1305129600000,0.957],[1305216000000,0.956],[1305475200000,0.955],[1305561600000,0.947],[1305648000000,0.955],[1305734400000,0.957],[1305820800000,0.956],[1306080000000,0.928],[1306166400000,0.923],[1306252800000,0.912],[1306339200000,0.907],[1306425600000,0.894],[1306684800000,0.897],[1306771200000,0.905],[1306857600000,0.917],[1306944000000,0.914],[1307030400000,0.927],[1307376000000,0.93],[1307462400000,0.932],[1307548800000,0.918],[1307635200000,0.923],[1307894400000,0.912],[1307980800000,0.92],[1308067200000,0.915],[1308153600000,0.904],[1308240000000,0.898],[1308499200000,0.887],[1308585600000,0.898],[1308672000000,0.904],[1308758400000,0.914],[1308844800000,0.928],[1309104000000,0.936],[1309190400000,0.935],[1309276800000,0.928],[1309363200000,0.939],[1309449600000,0.941],[1309708800000,0.962],[1309795200000,0.964],[1309881600000,0.963],[1309968000000,0.973],[1310054400000,0.976],[1310313600000,0.989],[1310400000000,0.985],[1310486400000,1.001],[1310572800000,0.996],[1310659200000,0.999],[1310918400000,1.005],[1311004800000,0.991],[1311091200000,0.995],[1311177600000,0.998],[1311264000000,0.999],[1311523200000,0.97],[1311609600000,0.973],[1311696000000,0.985],[1311782400000,0.984],[1311868800000,0.977],[1312128000000,0.974],[1312214400000,0.969],[1312300800000,0.976],[1312387200000,0.982],[1312473600000,0.977],[1312732800000,0.962],[1312819200000,0.968],[1312905600000,0.982],[1312992000000,1.008],[1313078400000,1.01],[1313337600000,1.011],[1313424000000,1.002],[1313510400000,1.001],[1313596800000,0.99],[1313683200000,0.99],[1313942400000,0.969],[1314028800000,0.975],[1314115200000,0.973],[1314201600000,0.989],[1314288000000,0.988],[1314547200000,0.992],[1314633600000,0.987],[1314720000000,0.988],[1314806400000,0.98],[1314892800000,0.97],[1315152000000,0.961],[1315238400000,0.949],[1315324800000,0.965],[1315411200000,0.96],[1315497600000,0.952],[1315843200000,0.943],[1315929600000,0.945],[1316016000000,0.946],[1316102400000,0.948],[1316361600000,0.935],[1316448000000,0.933],[1316534400000,0.949],[1316620800000,0.933],[1316707200000,0.916],[1316966400000,0.9],[1317052800000,0.907],[1317139200000,0.901],[1317225600000,0.889],[1317312000000,0.888],[1318176000000,0.876],[1318262400000,0.869],[1318348800000,0.891],[1318435200000,0.899],[1318521600000,0.896],[1318780800000,0.907],[1318867200000,0.897],[1318953600000,0.892],[1319040000000,0.873],[1319126400000,0.868],[1319385600000,0.885],[1319472000000,0.901],[1319558400000,0.911],[1319644800000,0.913],[1319731200000,0.922],[1319990400000,0.924],[1320076800000,0.927],[1320163200000,0.941],[1320249600000,0.944],[1320336000000,0.95],[1320595200000,0.948],[1320681600000,0.943],[1320768000000,0.949],[1320854400000,0.944],[1320940800000,0.943],[1321200000000,0.953],[1321286400000,0.949],[1321372800000,0.934],[1321459200000,0.933],[1321545600000,0.921],[1321804800000,0.921],[1321891200000,0.924],[1321977600000,0.924],[1322064000000,0.926],[1322150400000,0.922],[1322409600000,0.926],[1322496000000,0.933],[1322582400000,0.916],[1322668800000,0.924],[1322755200000,0.914],[1323014400000,0.897],[1323100800000,0.89],[1323187200000,0.892],[1323273600000,0.891],[1323360000000,0.878],[1323619200000,0.868],[1323705600000,0.853],[1323792000000,0.847],[1323878400000,0.844],[1323964800000,0.855],[1324224000000,0.855],[1324310400000,0.854],[1324396800000,0.846],[1324483200000,0.847],[1324569600000,0.85],[1324828800000,0.84],[1324915200000,0.819],[1325001600000,0.817],[1325088000000,0.823],[1325174400000,0.835],[1325260800000,0.835],[1325606400000,0.811],[1325692800000,0.787],[1325779200000,0.785],[1326038400000,0.799],[1326124800000,0.819],[1326211200000,0.816],[1326297600000,0.807],[1326384000000,0.786],[1326643200000,0.759],[1326729600000,0.785],[1326816000000,0.767],[1326902400000,0.778],[1326988800000,0.797],[1327852800000,0.791],[1327939200000,0.793],[1328025600000,0.791],[1328112000000,0.797],[1328198400000,0.804],[1328457600000,0.811],[1328544000000,0.801],[1328630400000,0.812],[1328716800000,0.815],[1328803200000,0.814],[1329062400000,0.823],[1329148800000,0.824],[1329235200000,0.832],[1329321600000,0.833],[1329408000000,0.831],[1329667200000,0.832],[1329753600000,0.837],[1329840000000,0.846],[1329926400000,0.852],[1330012800000,0.861],[1330272000000,0.866],[1330358400000,0.864],[1330444800000,0.86],[1330531200000,0.864],[1330617600000,0.875],[1330876800000,0.871],[1330963200000,0.865],[1331049600000,0.867],[1331136000000,0.873],[1331222400000,0.888],[1331481600000,0.89],[1331568000000,0.9],[1331654400000,0.884],[1331740800000,0.893],[1331827200000,0.911],[1332086400000,0.909],[1332172800000,0.888],[1332259200000,0.88],[1332345600000,0.877],[1332432000000,0.865],[1332691200000,0.87],[1332777600000,0.86],[1332864000000,0.836],[1332950400000,0.831],[1333036800000,0.828],[1333123200000,0.828],[1333555200000,0.849],[1333641600000,0.853],[1333900800000,0.849],[1333987200000,0.849],[1334073600000,0.85],[1334160000000,0.861],[1334246400000,0.861],[1334505600000,0.861],[1334592000000,0.849],[1334678400000,0.865],[1334764800000,0.86],[1334851200000,0.863],[1335110400000,0.856],[1335196800000,0.851],[1335283200000,0.862],[1335369600000,0.87],[1335456000000,0.87],[1335888000000,0.877],[1335974400000,0.882],[1336060800000,0.896],[1336320000000,0.902],[1336406400000,0.9],[1336492800000,0.886],[1336579200000,0.886],[1336665600000,0.883],[1336924800000,0.874],[1337011200000,0.88],[1337097600000,0.873],[1337184000000,0.88],[1337270400000,0.865],[1337529600000,0.868],[1337616000000,0.878],[1337702400000,0.877],[1337788800000,0.863],[1337875200000,0.852],[1338134400000,0.861],[1338220800000,0.869],[1338307200000,0.864],[1338393600000,0.869],[1338480000000,0.874],[1338739200000,0.859],[1338825600000,0.862],[1338912000000,0.856],[1338998400000,0.86],[1339084800000,0.857],[1339344000000,0.865],[1339430400000,0.87],[1339516800000,0.892],[1339603200000,0.897],[1339689600000,0.888],[1339948800000,0.895],[1340035200000,0.89],[1340121600000,0.885],[1340208000000,0.879],[1340553600000,0.867],[1340640000000,0.866],[1340726400000,0.865],[1340812800000,0.861],[1340899200000,0.873],[1340985600000,0.873],[1341158400000,0.877],[1341244800000,0.885],[1341331200000,0.885],[1341417600000,0.877],[1341504000000,0.901],[1341763200000,0.893],[1341849600000,0.884],[1341936000000,0.889],[1342022400000,0.894],[1342108800000,0.894],[1342368000000,0.869],[1342454400000,0.863],[1342540800000,0.861],[1342627200000,0.866],[1342713600000,0.863],[1342972800000,0.858],[1343059200000,0.864],[1343145600000,0.861],[1343232000000,0.851],[1343318400000,0.849],[1343577600000,0.846],[1343664000000,0.842],[1343750400000,0.847],[1343836800000,0.84],[1343923200000,0.849],[1344182400000,0.859],[1344268800000,0.858],[1344355200000,0.852],[1344441600000,0.869],[1344528000000,0.867],[1344787200000,0.859],[1344873600000,0.858],[1344960000000,0.852],[1345046400000,0.844],[1345132800000,0.838],[1345392000000,0.842],[1345478400000,0.853],[1345564800000,0.844],[1345651200000,0.844],[1345737600000,0.84],[1345996800000,0.833],[1346083200000,0.828],[1346169600000,0.82],[1346256000000,0.808],[1346342400000,0.807],[1346601600000,0.823],[1346688000000,0.814],[1346774400000,0.813],[1346860800000,0.812],[1346947200000,0.834],[1347206400000,0.84],[1347292800000,0.837],[1347379200000,0.838],[1347465600000,0.835],[1347552000000,0.839],[1347811200000,0.825],[1347897600000,0.822],[1347984000000,0.822],[1348070400000,0.81],[1348156800000,0.813],[1348416000000,0.815],[1348502400000,0.817],[1348588800000,0.81],[1348675200000,0.824],[1348761600000,0.839],[1348934400000,0.839],[1349625600000,0.83],[1349712000000,0.844],[1349798400000,0.847],[1349884800000,0.839],[1349971200000,0.839],[1350230400000,0.842],[1350316800000,0.848],[1350403200000,0.846],[1350489600000,0.856],[1350576000000,0.854],[1350835200000,0.853],[1350921600000,0.837],[1351008000000,0.836],[1351094400000,0.831],[1351180800000,0.82],[1351440000000,0.82],[1351526400000,0.823],[1351612800000,0.83],[1351699200000,0.84],[1351785600000,0.841],[1352044800000,0.832],[1352131200000,0.823],[1352217600000,0.823],[1352304000000,0.816],[1352390400000,0.812],[1352649600000,0.802],[1352736000000,0.793],[1352822400000,0.799],[1352908800000,0.793],[1352995200000,0.782],[1353254400000,0.768],[1353340800000,0.767],[1353427200000,0.769],[1353513600000,0.759],[1353600000000,0.768],[1353859200000,0.758],[1353945600000,0.751],[1354032000000,0.744],[1354118400000,0.747],[1354204800000,0.752],[1354464000000,0.729],[1354550400000,0.731],[1354636800000,0.742],[1354723200000,0.737],[1354809600000,0.744],[1355068800000,0.748],[1355155200000,0.75],[1355241600000,0.755],[1355328000000,0.748],[1355414400000,0.765],[1355673600000,0.769],[1355760000000,0.772],[1355846400000,0.779],[1355932800000,0.782],[1356019200000,0.783],[1356278400000,0.78],[1356364800000,0.793],[1356451200000,0.796],[1356537600000,0.798],[1356624000000,0.808],[1356883200000,0.816],[1357228800000,0.811],[1357488000000,0.814],[1357574400000,0.824],[1357660800000,0.832],[1357747200000,0.831],[1357833600000,0.822],[1358092800000,0.843],[1358179200000,0.846],[1358265600000,0.843],[1358352000000,0.842],[1358438400000,0.86],[1358697600000,0.852],[1358784000000,0.841],[1358870400000,0.843],[1358956800000,0.831],[1359043200000,0.829],[1359302400000,0.839],[1359388800000,0.839],[1359475200000,0.843],[1359561600000,0.837],[1359648000000,0.845],[1359907200000,0.839],[1359993600000,0.857],[1360080000000,0.854],[1360166400000,0.865],[1360252800000,0.882],[1361116800000,0.871],[1361203200000,0.855],[1361289600000,0.872],[1361376000000,0.862],[1361462400000,0.864],[1361721600000,0.866],[1361808000000,0.855],[1361894400000,0.853],[1361980800000,0.866],[1362067200000,0.872],[1362326400000,0.859],[1362412800000,0.871],[1362499200000,0.879],[1362585600000,0.873],[1362672000000,0.867],[1362931200000,0.864],[1363017600000,0.855],[1363104000000,0.847],[1363190400000,0.852],[1363276800000,0.855],[1363536000000,0.848],[1363622400000,0.848],[1363708800000,0.868],[1363795200000,0.874],[1363881600000,0.874],[1364140800000,0.866],[1364227200000,0.867],[1364313600000,0.866],[1364400000000,0.855],[1364486400000,0.847],[1364745600000,0.845],[1364832000000,0.837],[1364918400000,0.831],[1365350400000,0.842],[1365436800000,0.843],[1365523200000,0.841],[1365609600000,0.839],[1365696000000,0.842],[1365955200000,0.835],[1366041600000,0.838],[1366128000000,0.851],[1366214400000,0.853],[1366300800000,0.866],[1366560000000,0.864],[1366646400000,0.848],[1366732800000,0.859],[1366819200000,0.853],[1366905600000,0.846],[1367424000000,0.849],[1367510400000,0.863],[1367769600000,0.872],[1367856000000,0.876],[1367942400000,0.884],[1368028800000,0.881],[1368115200000,0.882],[1368374400000,0.875],[1368460800000,0.852],[1368547200000,0.862],[1368633600000,0.877],[1368720000000,0.886],[1368979200000,0.891],[1369065600000,0.891],[1369152000000,0.89],[1369238400000,0.882],[1369324800000,0.883],[1369584000000,0.889],[1369670400000,0.894],[1369756800000,0.896],[1369843200000,0.889],[1369929600000,0.882],[1370188800000,0.879],[1370275200000,0.867],[1370361600000,0.872],[1370448000000,0.87],[1370534400000,0.861],[1371052800000,0.846],[1371139200000,0.854],[1371398400000,0.85],[1371484800000,0.864],[1371571200000,0.866],[1371657600000,0.847],[1371744000000,0.848],[1372003200000,0.817],[1372089600000,0.828],[1372176000000,0.839],[1372262400000,0.834],[1372348800000,0.839],[1372521600000,0.839],[1372608000000,0.855],[1372694400000,0.867],[1372780800000,0.876],[1372867200000,0.878],[1372953600000,0.873],[1373212800000,0.863],[1373299200000,0.864],[1373385600000,0.873],[1373472000000,0.885],[1373558400000,0.883],[1373817600000,0.896],[1373904000000,0.899],[1373990400000,0.883],[1374076800000,0.874],[1374163200000,0.855],[1374422400000,0.867],[1374508800000,0.887],[1374595200000,0.889],[1374681600000,0.881],[1374768000000,0.877],[1375027200000,0.861],[1375113600000,0.859],[1375200000000,0.862],[1375286400000,0.878],[1375372800000,0.882],[1375632000000,0.897],[1375718400000,0.908],[1375804800000,0.909],[1375891200000,0.908],[1375977600000,0.913],[1376236800000,0.918],[1376323200000,0.911],[1376409600000,0.908],[1376496000000,0.898],[1376582400000,0.882],[1376841600000,0.901],[1376928000000,0.902],[1377014400000,0.896],[1377100800000,0.896],[1377187200000,0.892],[1377446400000,0.905],[1377532800000,0.904],[1377619200000,0.895],[1377705600000,0.891],[1377792000000,0.886],[1378051200000,0.889],[1378137600000,0.902],[1378224000000,0.902],[1378310400000,0.911],[1378396800000,0.91],[1378656000000,0.915],[1378742400000,0.918],[1378828800000,0.914],[1378915200000,0.914],[1379001600000,0.928],[1379260800000,0.933],[1379347200000,0.926],[1379433600000,0.927],[1379865600000,0.949],[1379952000000,0.962],[1380038400000,0.961],[1380124800000,0.952],[1380211200000,0.96],[1380470400000,0.968],[1381161600000,0.977],[1381248000000,0.988],[1381334400000,0.99],[1381420800000,1.001],[1381680000000,1.004],[1381766400000,1.008],[1381852800000,0.991],[1381939200000,0.981],[1382025600000,0.993],[1382284800000,1.028],[1382371200000,1.018],[1382457600000,0.988],[1382544000000,0.987],[1382630400000,0.969],[1382889600000,0.965],[1382976000000,0.959],[1383062400000,0.978],[1383148800000,0.949],[1383235200000,0.947],[1383494400000,0.948],[1383580800000,0.953],[1383667200000,0.938],[1383753600000,0.924],[1383840000000,0.913],[1384099200000,0.919],[1384185600000,0.927],[1384272000000,0.912],[1384358400000,0.928],[1384444800000,0.943],[1384704000000,0.952],[1384790400000,0.942],[1384876800000,0.946],[1384963200000,0.938],[1385049600000,0.938],[1385308800000,0.934],[1385395200000,0.931],[1385481600000,0.935],[1385568000000,0.95],[1385654400000,0.952],[1385913600000,0.922],[1386000000000,0.936],[1386086400000,0.949],[1386172800000,0.945],[1386259200000,0.945],[1386518400000,0.954],[1386604800000,0.956],[1386691200000,0.952],[1386777600000,0.957],[1386864000000,0.962],[1387123200000,0.947],[1387209600000,0.938],[1387296000000,0.939],[1387382400000,0.932],[1387468800000,0.927],[1387728000000,0.931],[1387814400000,0.937],[1387900800000,0.947],[1387987200000,0.939],[1388073600000,0.95],[1388332800000,0.954],[1388419200000,0.958],[1388592000000,0.953],[1388678400000,0.952],[1388937600000,0.932],[1389024000000,0.931],[1389110400000,0.946],[1389196800000,0.932],[1389283200000,0.927],[1389542400000,0.923],[1389628800000,0.939],[1389715200000,0.943],[1389801600000,0.939],[1389888000000,0.92],[1390147200000,0.91],[1390233600000,0.917],[1390320000000,0.938],[1390406400000,0.947],[1390492800000,0.948],[1390752000000,0.928],[1390838400000,0.925],[1390924800000,0.924],[1391011200000,0.914],[1391702400000,0.925],[1391961600000,0.948],[1392048000000,0.944],[1392134400000,0.943],[1392220800000,0.936],[1392307200000,0.942],[1392566400000,0.948],[1392652800000,0.936],[1392739200000,0.936],[1392825600000,0.93],[1392912000000,0.922],[1393171200000,0.905],[1393257600000,0.875],[1393344000000,0.872],[1393430400000,0.854],[1393516800000,0.873],[1393776000000,0.893],[1393862400000,0.885],[1393948800000,0.876],[1394035200000,0.872],[1394121600000,0.88],[1394380800000,0.86],[1394467200000,0.865],[1394553600000,0.866],[1394640000000,0.876],[1394726400000,0.869],[1394985600000,0.879],[1395072000000,0.882],[1395158400000,0.865],[1395244800000,0.839],[1395331200000,0.853],[1395590400000,0.85],[1395676800000,0.854],[1395763200000,0.858],[1395849600000,0.846],[1395936000000,0.843],[1396195200000,0.847],[1396281600000,0.858],[1396368000000,0.856],[1396454400000,0.852],[1396540800000,0.862],[1396886400000,0.879],[1396972800000,0.881],[1397059200000,0.889],[1397145600000,0.897],[1397404800000,0.902],[1397491200000,0.89],[1397577600000,0.888],[1397664000000,0.889],[1397750400000,0.888],[1398009600000,0.878],[1398096000000,0.875],[1398182400000,0.877],[1398268800000,0.874],[1398355200000,0.856],[1398614400000,0.839],[1398700800000,0.856],[1398787200000,0.863],[1399219200000,0.87],[1399305600000,0.872],[1399392000000,0.858],[1399478400000,0.856],[1399564800000,0.85],[1399824000000,0.861],[1399910400000,0.861],[1399996800000,0.855],[1400083200000,0.846],[1400169600000,0.841],[1400428800000,0.831],[1400515200000,0.831],[1400601600000,0.838],[1400688000000,0.839],[1400774400000,0.845],[1401033600000,0.854],[1401120000000,0.852],[1401206400000,0.86],[1401292800000,0.854],[1401379200000,0.857],[1401724800000,0.854],[1401811200000,0.848],[1401897600000,0.858],[1401984000000,0.854],[1402243200000,0.849],[1402329600000,0.859],[1402416000000,0.862],[1402502400000,0.863],[1402588800000,0.873],[1402848000000,0.876],[1402934400000,0.864],[1403020800000,0.86],[1403107200000,0.849],[1403193600000,0.852],[1403452800000,0.862],[1403539200000,0.871],[1403625600000,0.867],[1403712000000,0.878],[1403798400000,0.882],[1404057600000,0.883],[1404144000000,0.878],[1404230400000,0.876],[1404316800000,0.878],[1404403200000,0.879],[1404662400000,0.872],[1404748800000,0.879],[1404835200000,0.87],[1404921600000,0.861],[1405008000000,0.869],[1405267200000,0.889],[1405353600000,0.894],[1405440000000,0.887],[1405526400000,0.881],[1405612800000,0.893],[1405872000000,0.896],[1405958400000,0.909],[1406044800000,0.903],[1406131200000,0.912],[1406217600000,0.92],[1406476800000,0.934],[1406563200000,0.936],[1406649600000,0.939],[1406736000000,0.95],[1406822400000,0.947],[1407081600000,0.961],[1407168000000,0.964],[1407254400000,0.961],[1407340800000,0.944],[1407427200000,0.949],[1407686400000,0.962],[1407772800000,0.96],[1407859200000,0.961],[1407945600000,0.956],[1408032000000,0.964],[1408291200000,0.967],[1408377600000,0.97],[1408464000000,0.968],[1408550400000,0.967],[1408636800000,0.974],[1408896000000,0.96],[1408982400000,0.951],[1409068800000,0.953],[1409155200000,0.948],[1409241600000,0.961],[1409500800000,0.976],[1409587200000,0.985],[1409673600000,0.993],[1409760000000,0.994],[1409846400000,1.003],[1410192000000,1.001],[1410278400000,0.996],[1410364800000,0.987],[1410451200000,0.989],[1410710400000,0.988],[1410796800000,0.959],[1410883200000,0.967],[1410969600000,0.973],[1411056000000,0.98],[1411315200000,0.962],[1411401600000,0.967],[1411488000000,0.979],[1411574400000,0.977],[1411660800000,0.978],[1411920000000,0.985],[1412006400000,0.983],[1412697600000,0.992],[1412784000000,0.997],[1412870400000,0.993],[1413129600000,0.983],[1413216000000,0.977],[1413302400000,0.977],[1413388800000,0.961],[1413475200000,0.968],[1413734400000,0.977],[1413820800000,0.969],[1413907200000,0.958],[1413993600000,0.948],[1414080000000,0.949],[1414339200000,0.951],[1414425600000,0.959],[1414512000000,0.968],[1414598400000,0.965],[1414684800000,0.968],[1414944000000,0.966],[1415030400000,0.954],[1415116800000,0.95],[1415203200000,0.954],[1415289600000,0.949],[1415548800000,0.969],[1415635200000,0.95],[1415721600000,0.96],[1415808000000,0.958],[1415894400000,0.963],[1416153600000,0.966],[1416240000000,0.96],[1416326400000,0.956],[1416412800000,0.95],[1416499200000,0.959],[1416758400000,0.966],[1416844800000,0.978],[1416931200000,0.979],[1417017600000,0.983],[1417104000000,0.985],[1417363200000,0.993],[1417449600000,1.011],[1417536000000,1.026],[1417622400000,1.045],[1417708800000,1.028],[1417968000000,1.038],[1418054400000,1.007],[1418140800000,1.042],[1418227200000,1.038],[1418313600000,1.043],[1418572800000,1.059],[1418659200000,1.052],[1418745600000,1.038],[1418832000000,1.046],[1418918400000,1.038],[1419177600000,1.035],[1419264000000,1.033],[1419350400000,1.025],[1419436800000,1.035],[1419523200000,1.043],[1419782400000,1.041],[1419868800000,1.025],[1419955200000,1.039],[1420387200000,1.093],[1420473600000,1.109],[1420560000000,1.1],[1420646400000,1.099],[1420732800000,1.086],[1420992000000,1.094],[1421078400000,1.108],[1421164800000,1.087],[1421251200000,1.095],[1421337600000,1.1],[1421596800000,1.042],[1421683200000,1.074],[1421769600000,1.102],[1421856000000,1.106],[1421942400000,1.095],[1422201600000,1.109],[1422288000000,1.115],[1422374400000,1.105],[1422460800000,1.098],[1422547200000,1.099],[1422806400000,1.09],[1422892800000,1.108],[1422979200000,1.105],[1423065600000,1.096],[1423152000000,1.091],[1423411200000,1.098],[1423497600000,1.114],[1423584000000,1.119],[1423670400000,1.119],[1423756800000,1.126],[1424016000000,1.139],[1424102400000,1.155],[1424793600000,1.149],[1424880000000,1.154],[1424966400000,1.155],[1425225600000,1.165],[1425312000000,1.145],[1425398400000,1.16],[1425484800000,1.146],[1425571200000,1.144],[1425830400000,1.165],[1425916800000,1.172],[1426003200000,1.18],[1426089600000,1.184],[1426176000000,1.193],[1426435200000,1.221],[1426521600000,1.231],[1426608000000,1.245],[1426694400000,1.244],[1426780800000,1.247],[1427040000000,1.274],[1427126400000,1.287],[1427212800000,1.286],[1427299200000,1.283],[1427385600000,1.287],[1427644800000,1.305],[1427731200000,1.297],[1427817600000,1.321],[1427904000000,1.329],[1427990400000,1.333],[1428336000000,1.355],[1428422400000,1.356],[1428508800000,1.337],[1428595200000,1.364],[1428854400000,1.374],[1428940800000,1.371],[1429027200000,1.339],[1429113600000,1.395],[1429200000000,1.412],[1429459200000,1.39],[1429545600000,1.461],[1429632000000,1.479],[1429718400000,1.474],[1429804800000,1.471],[1430064000000,1.481],[1430150400000,1.458],[1430236800000,1.475],[1430323200000,1.47],[1430668800000,1.472],[1430755200000,1.41],[1430841600000,1.397],[1430928000000,1.393],[1431014400000,1.421],[1431273600000,1.453],[1431360000000,1.457],[1431446400000,1.466],[1431532800000,1.451],[1431619200000,1.432],[1431878400000,1.415],[1431964800000,1.452],[1432051200000,1.484],[1432137600000,1.533],[1432224000000,1.562],[1432483200000,1.609],[1432569600000,1.634],[1432656000000,1.614],[1432742400000,1.528],[1432828800000,1.523],[1433088000000,1.585],[1433174400000,1.615],[1433260800000,1.626],[1433347200000,1.609],[1433433600000,1.613],[1433692800000,1.632],[1433779200000,1.63],[1433865600000,1.653],[1433952000000,1.65],[1434038400000,1.688],[1434297600000,1.671],[1434384000000,1.612],[1434470400000,1.628],[1434556800000,1.573],[1434643200000,1.487],[1434988800000,1.559],[1435075200000,1.606],[1435161600000,1.55],[1435248000000,1.45],[1435507200000,1.428],[1435593600000,1.513],[1435680000000,1.448],[1435766400000,1.382],[1435852800000,1.311],[1436112000000,1.325],[1436198400000,1.264],[1436284800000,1.179],[1436371200000,1.275],[1436457600000,1.373],[1436716800000,1.428],[1436803200000,1.393],[1436889600000,1.331],[1436976000000,1.348],[1437062400000,1.396],[1437321600000,1.39],[1437408000000,1.393],[1437494400000,1.387],[1437580800000,1.411],[1437667200000,1.393],[1437926400000,1.284],[1438012800000,1.29],[1438099200000,1.317],[1438185600000,1.29],[1438272000000,1.292],[1438531200000,1.301],[1438617600000,1.334],[1438704000000,1.312],[1438790400000,1.306],[1438876800000,1.324],[1439136000000,1.367],[1439222400000,1.371],[1439308800000,1.345],[1439395200000,1.357],[1439481600000,1.355],[1439740800000,1.361],[1439827200000,1.278],[1439913600000,1.299],[1440000000000,1.258],[1440086400000,1.199],[1440345600000,1.105],[1440432000000,1.068],[1440518400000,1.098],[1440604800000,1.152],[1440691200000,1.184],[1440950400000,1.169],[1441036800000,1.143],[1441123200000,1.151],[1441555200000,1.12],[1441641600000,1.147],[1441728000000,1.17],[1441814400000,1.159],[1441900800000,1.159],[1442160000000,1.126],[1442246400000,1.092],[1442332800000,1.151],[1442419200000,1.121],[1442505600000,1.127],[1442764800000,1.151],[1442851200000,1.155],[1442937600000,1.131],[1443024000000,1.139],[1443110400000,1.116],[1443369600000,1.125],[1443456000000,1.114],[1443542400000,1.128],[1444233600000,1.165],[1444320000000,1.171],[1444579200000,1.204],[1444665600000,1.208],[1444752000000,1.191],[1444838400000,1.213],[1444924800000,1.222],[1445184000000,1.231],[1445270400000,1.235],[1445356800000,1.18],[1445443200000,1.207],[1445529600000,1.234],[1445788800000,1.249],[1445875200000,1.249],[1445961600000,1.227],[1446048000000,1.242],[1446134400000,1.242],[1446393600000,1.231],[1446480000000,1.228],[1446566400000,1.276],[1446652800000,1.282],[1446739200000,1.297],[1446998400000,1.307],[1447084800000,1.303],[1447171200000,1.301],[1447257600000,1.301],[1447344000000,1.279],[1447603200000,1.281],[1447689600000,1.283],[1447776000000,1.272],[1447862400000,1.287],[1447948800000,1.282],[1448208000000,1.27],[1448294400000,1.275],[1448380800000,1.289],[1448467200000,1.286],[1448553600000,1.229],[1448812800000,1.235],[1448899200000,1.248],[1448985600000,1.28],[1449072000000,1.283],[1449158400000,1.275],[1449417600000,1.283],[1449504000000,1.251],[1449590400000,1.258],[1449676800000,1.254],[1449763200000,1.254],[1450022400000,1.274],[1450108800000,1.279],[1450195200000,1.273],[1450281600000,1.295],[1450368000000,1.305],[1450627200000,1.35],[1450713600000,1.36],[1450800000000,1.357],[1450886400000,1.344],[1450972800000,1.344],[1451232000000,1.315],[1451318400000,1.332],[1451404800000,1.33],[1451491200000,1.318],[1451836800000,1.233],[1451923200000,1.241],[1452009600000,1.256],[1452096000000,1.178],[1452182400000,1.197],[1452441600000,1.138],[1452528000000,1.146],[1452614400000,1.129],[1452700800000,1.155],[1452787200000,1.125],[1453046400000,1.132],[1453132800000,1.167],[1453219200000,1.144],[1453305600000,1.11],[1453392000000,1.121],[1453651200000,1.13],[1453737600000,1.081],[1453824000000,1.072],[1453910400000,1.049],[1453996800000,1.078],[1454256000000,1.079],[1454342400000,1.103],[1454428800000,1.103],[1454515200000,1.114],[1454601600000,1.106],[1455465600000,1.096],[1455552000000,1.123],[1455638400000,1.128],[1455724800000,1.122],[1455811200000,1.121],[1456070400000,1.144],[1456156800000,1.143],[1456243200000,1.143],[1456329600000,1.076],[1456416000000,1.084],[1456675200000,1.047],[1456761600000,1.068],[1456848000000,1.113],[1456934400000,1.117],[1457020800000,1.115],[1457280000000,1.124],[1457366400000,1.123],[1457452800000,1.111],[1457539200000,1.107],[1457625600000,1.105],[1457884800000,1.119],[1457971200000,1.119],[1458057600000,1.108],[1458144000000,1.13],[1458230400000,1.15],[1458489600000,1.166],[1458576000000,1.166],[1458662400000,1.167],[1458748800000,1.165],[1458835200000,1.172],[1459094400000,1.181],[1459180800000,1.164],[1459267200000,1.188],[1459353600000,1.194],[1459440000000,1.187],[1459785600000,1.205],[1459872000000,1.219],[1459958400000,1.201],[1460044800000,1.194],[1460304000000,1.209],[1460390400000,1.205],[1460476800000,1.21],[1460563200000,1.22],[1460649600000,1.215],[1460908800000,1.206],[1460995200000,1.211],[1461081600000,1.176],[1461168000000,1.173],[1461254400000,1.194],[1461513600000,1.19],[1461600000000,1.201],[1461686400000,1.206],[1461772800000,1.204],[1461859200000,1.213],[1462204800000,1.259],[1462291200000,1.25],[1462377600000,1.252],[1462464000000,1.212],[1462723200000,1.202],[1462809600000,1.218],[1462896000000,1.235],[1462982400000,1.233],[1463068800000,1.221],[1463328000000,1.238],[1463414400000,1.225],[1463500800000,1.2],[1463587200000,1.199],[1463673600000,1.21],[1463932800000,1.224],[1464019200000,1.209],[1464105600000,1.2],[1464192000000,1.208],[1464278400000,1.207],[1464537600000,1.203],[1464624000000,1.243],[1464710400000,1.246],[1464796800000,1.252],[1464883200000,1.279],[1465142400000,1.284],[1465228800000,1.288],[1465315200000,1.274],[1465747200000,1.239],[1465833600000,1.262],[1465920000000,1.291],[1466006400000,1.284],[1466092800000,1.306],[1466352000000,1.301],[1466438400000,1.287],[1466524800000,1.298],[1466611200000,1.29],[1466697600000,1.279],[1466956800000,1.312],[1467043200000,1.311],[1467129600000,1.311],[1467216000000,1.316],[1467302400000,1.316],[1467561600000,1.334],[1467648000000,1.341],[1467734400000,1.372],[1467820800000,1.364],[1467907200000,1.362],[1468166400000,1.382],[1468252800000,1.426],[1468339200000,1.412],[1468425600000,1.409],[1468512000000,1.422],[1468771200000,1.418],[1468857600000,1.394],[1468944000000,1.391],[1469030400000,1.4],[1469116800000,1.374],[1469376000000,1.375],[1469462400000,1.414],[1469548800000,1.387],[1469635200000,1.41],[1469721600000,1.408],[1469980800000,1.382],[1470067200000,1.381],[1470153600000,1.385],[1470240000000,1.384],[1470326400000,1.377],[1470585600000,1.388],[1470672000000,1.406],[1470758400000,1.397],[1470844800000,1.396],[1470931200000,1.403],[1471190400000,1.432],[1471276800000,1.432],[1471363200000,1.437],[1471449600000,1.424],[1471536000000,1.417],[1471795200000,1.413],[1471881600000,1.412],[1471968000000,1.403],[1472054400000,1.392],[1472140800000,1.389],[1472400000000,1.381],[1472486400000,1.382],[1472572800000,1.386],[1472659200000,1.379],[1472745600000,1.371],[1473004800000,1.376],[1473091200000,1.388],[1473177600000,1.38],[1473264000000,1.377],[1473350400000,1.367],[1473609600000,1.337],[1473696000000,1.342],[1473782400000,1.328],[1474214400000,1.344],[1474300800000,1.342],[1474387200000,1.343],[1474473600000,1.354],[1474560000000,1.351],[1474819200000,1.332],[1474905600000,1.341],[1474992000000,1.342],[1475078400000,1.348],[1475164800000,1.365],[1476028800000,1.377],[1476115200000,1.377],[1476201600000,1.375],[1476288000000,1.369],[1476374400000,1.368],[1476633600000,1.359],[1476720000000,1.375],[1476806400000,1.37],[1476892800000,1.37],[1476979200000,1.369],[1477238400000,1.376],[1477324800000,1.397],[1477411200000,1.404],[1477497600000,1.401],[1477584000000,1.399],[1477843200000,1.404],[1477929600000,1.415],[1478016000000,1.403],[1478102400000,1.405],[1478188800000,1.394],[1478448000000,1.392],[1478534400000,1.406],[1478620800000,1.397],[1478707200000,1.41],[1478793600000,1.404],[1479052800000,1.394],[1479139200000,1.404],[1479225600000,1.4],[1479312000000,1.404],[1479398400000,1.4],[1479657600000,1.402],[1479744000000,1.407],[1479830400000,1.427],[1479916800000,1.446]</t>
   </si>
   <si>
+    <t>[[1079884800000, 0.0], [1086278400000, -5.15], [1088956800000, -8.13], [1091462400000, -10.14], [1093968000000, -10.72], [1096473600000, -6.81], [1099584000000, -11.14], [1102262400000, -10.84], [1104854400000, -13.83], [1107360000000, -11.87], [1110816000000, -12.78], [1113321600000, -11.99], [1116432000000, -20.21], [1118937600000, -18.75], [1121616000000, -18.02], [1124121600000, -11.01], [1126627200000, -10.41], [1129737600000, -16.39], [1132243200000, -17.52], [1134921600000, -15.03], [1137513600000, -9.12], [1140969600000, -3.4], [1143475200000, -4.56], [1145980800000, 5.08], [1149091200000, 24.83], [1151596800000, 25.2], [1154275200000, 15.99], [1156780800000, 18.86], [1159286400000, 23.06], [1162310400000, 35.87], [1164816000000, 58.49], [1167321600000, 98.01], [1170172800000, 118.27], [1173283200000, 127.57], [1175702400000, 151.96], [1178812800000, 197.57], [1181491200000, 209.73], [1183910400000, 218.14], [1186416000000, 286.49], [1188921600000, 331.27], [1191945600000, 354.57], [1194451200000, 332.48], [1196956800000, 333.33], [1199635200000, 356.94], [1202140800000, 312.05], [1205251200000, 243.76], [1207843200000, 218.33], [1210694400000, 233.67], [1213286400000, 165.41], [1215964800000, 157.97], [1218470400000, 127.73], [1220976000000, 105.72], [1224086400000, 68.98], [1226592000000, 77.52], [1229270400000, 73.84], [1231948800000, 69.62], [1235059200000, 93.17], [1237737600000, 101.65], [1240329600000, 112.32], [1242921600000, 125.69], [1245772800000, 165.47], [1248278400000, 204.98], [1250784000000, 167.72], [1253462400000, 158.88], [1256659200000, 174.29], [1259164800000, 179.33], [1261670400000, 170.46], [1264435200000, 157.48], [1267545600000, 157.21], [1270051200000, 165.14], [1272902400000, 136.08], [1275408000000, 116.6], [1278345600000, 108.7], [1280851200000, 128.0], [1283356800000, 123.96], [1286899200000, 144.32], [1289404800000, 159.43], [1291910400000, 133.99], [1294675200000, 132.53], [1297785600000, 136.27], [1300291200000, 134.11], [1303142400000, 148.06], [1305734400000, 134.9], [1308499200000, 119.76], [1311004800000, 130.92], [1313510400000, 117.15], [1316102400000, 108.22], [1319385600000, 100.47], [1321891200000, 99.16], [1324396800000, 86.79], [1326988800000, 106.12], [1330272000000, 111.83], [1332777600000, 102.81], [1335456000000, 110.86], [1338307200000, 109.49], [1340899200000, 99.74], [1343318400000, 90.95], [1345996800000, 82.17], [1348502400000, 81.8], [1351526400000, 83.84], [1354032000000, 79.86], [1356537600000, 108.25], [1359475200000, 130.22], [1362585600000, 120.22], [1365436800000, 107.49], [1368374400000, 111.41], [1371139200000, 102.17], [1373558400000, 93.23], [1376236800000, 95.48], [1378742400000, 108.61], [1382025600000, 97.91], [1384704000000, 102.26], [1387209600000, 93.48], [1389801600000, 82.44], [1392912000000, 84.48], [1395590400000, 82.44], [1398182400000, 86.12], [1401033600000, 82.2], [1403625600000, 82.69], [1406131200000, 94.78], [1408636800000, 99.77], [1411401600000, 99.19], [1414512000000, 100.5], [1417017600000, 123.35], [1419523200000, 193.46], [1422374400000, 196.93], [1425484800000, 184.53], [1427990400000, 235.01], [1430841600000, 272.06], [1433347200000, 297.5], [1436112000000, 242.94], [1438617600000, 224.71], [1441123200000, 190.82], [1444579200000, 199.48], [1447084800000, 230.88], [1449590400000, 213.25], [1452182400000, 193.77], [1455465600000, 161.77], [1457971200000, 178.3], [1460563200000, 191.16], [1463328000000, 182.25], [1466006400000, 185.93], [1468512000000, 206.32], [1471190400000, 218.17], [1473696000000, 205.38], [1476979200000, 212.7], [1479657600000, 223.98], [1482163200000, 217.38], [1484668800000, 225.16], [1487779200000, 231.24], [1490284800000, 233.89], [1493136000000, 233.22], [1495728000000, 250.48], [1498579200000, 267.71], [1501084800000, 279.63], [1503590400000, 294.37], [1506268800000, 295.76], [1509379200000, 326.46], [1511884800000, 340.87], [1514390400000, 349.8], [1516896000000, 390.7], [1520179200000, 349.58], [1522684800000, 321.57], [1525708800000, 331.17], [1528214400000, 342.37], [1530720000000, 298.27], [1533225600000, 300.52], [1535904000000, 310.46], [1539100800000, 315.01], [1541606400000, 301.81], [1544112000000, 296.3], [1546876800000, 274.72], [1549987200000, 331.26], [1552492800000, 358.62], [1555257600000, 404.79], [1558022400000, 385.12], [1560787200000, 398.57], [1563206400000, 426.03], [1565712000000, 420.21], [1568217600000, 446.53], [1571587200000, 452.07], [1574092800000, 466.99], [1576598400000, 458.81], [1579190400000, 470.78], [1582560000000, 444.24], [1585065600000, 417.7], [1587657600000, 442.52], [1590595200000, 453.79], [1593446400000, 502.46], [1595952000000, 579.46], [1598457600000, 593.8], [1600963200000, 586.41], [1604332800000, 615.87], [1606838400000, 655.49], [1609344000000, 713.9], [1612108800000, 751.08], [1615219200000, 678.16], [1617811200000, 698.47], [1620748800000, 671.75], [1623254400000, 703.03], [1626019200000, 645.48], [1628438400000, 608.69]]</t>
+  </si>
+  <si>
     <t>110003</t>
   </si>
   <si>
@@ -251,6 +329,9 @@
     <t xml:space="preserve"> [[1079884800000,1.0],[1083254400000,0.9673],[1084118400000,0.9541],[1084204800000,0.9564],[1084291200000,0.9668],[1084377600000,0.9658],[1084464000000,0.9555],[1084723200000,0.9448],[1084809600000,0.9429],[1084896000000,0.9443],[1084982400000,0.9432],[1085068800000,0.9489],[1085328000000,0.949],[1085414400000,0.9426],[1085500800000,0.9477],[1085587200000,0.9588],[1085673600000,0.9547],[1085932800000,0.9573],[1086019200000,0.9659],[1086105600000,0.958],[1086192000000,0.9496],[1086278400000,0.9485],[1086537600000,0.941],[1086624000000,0.9295],[1086710400000,0.923],[1086796800000,0.9236],[1086883200000,0.9225],[1087142400000,0.9115],[1087228800000,0.9211],[1087315200000,0.9252],[1087401600000,0.9127],[1087488000000,0.9027],[1087747200000,0.9011],[1087833600000,0.9085],[1087920000000,0.9037],[1088006400000,0.8992],[1088092800000,0.8925],[1088352000000,0.8882],[1088438400000,0.9],[1088524800000,0.9001],[1088611200000,0.9157],[1088697600000,0.9179],[1088956800000,0.9187],[1089043200000,0.9207],[1089129600000,0.9165],[1089216000000,0.9183],[1089302400000,0.9165],[1089561600000,0.9063],[1089648000000,0.9087],[1089734400000,0.9142],[1089820800000,0.9253],[1089907200000,0.9362],[1090166400000,0.9385],[1090252800000,0.933],[1090339200000,0.934],[1090425600000,0.9153],[1090512000000,0.9167],[1090771200000,0.9092],[1090857600000,0.9066],[1090944000000,0.9091],[1091030400000,0.9178],[1091116800000,0.9107],[1091376000000,0.905],[1091462400000,0.8986],[1091548800000,0.9206],[1091635200000,0.911],[1091721600000,0.9138],[1091980800000,0.9204],[1092067200000,0.9246],[1092153600000,0.9164],[1092240000000,0.9129],[1092326400000,0.9123],[1092585600000,0.9108],[1092672000000,0.916],[1092758400000,0.9177],[1092844800000,0.9144],[1092931200000,0.9159],[1093190400000,0.9054],[1093276800000,0.9093],[1093363200000,0.9071],[1093449600000,0.9068],[1093536000000,0.8986],[1093795200000,0.8963],[1093881600000,0.9056],[1093968000000,0.8928],[1094054400000,0.8918],[1094140800000,0.891],[1094400000000,0.8873],[1094486400000,0.8906],[1094572800000,0.8812],[1094659200000,0.8694],[1094745600000,0.8726],[1095004800000,0.8603],[1095091200000,0.8798],[1095177600000,0.9022],[1095264000000,0.9095],[1095350400000,0.9293],[1095609600000,0.95],[1095696000000,0.9421],[1095782400000,0.9268],[1095868800000,0.9562],[1095955200000,0.9449],[1096214400000,0.9458],[1096300800000,0.9482],[1096387200000,0.9397],[1096473600000,0.9319],[1097164800000,0.9382],[1097424000000,0.9268],[1097510400000,0.9086],[1097596800000,0.9078],[1097683200000,0.8946],[1097769600000,0.8982],[1098028800000,0.8997],[1098115200000,0.9025],[1098201600000,0.9004],[1098288000000,0.8864],[1098374400000,0.9021],[1098633600000,0.8896],[1098720000000,0.9004],[1098806400000,0.9078],[1098892800000,0.9029],[1098979200000,0.895],[1099238400000,0.8914],[1099324800000,0.8912],[1099411200000,0.9036],[1099497600000,0.8887],[1099584000000,0.8886],[1099843200000,0.8915],[1099929600000,0.8926],[1100016000000,0.9202],[1100102400000,0.9147],[1100188800000,0.9179],[1100448000000,0.9253],[1100534400000,0.9259],[1100620800000,0.917],[1100707200000,0.921],[1100793600000,0.9257],[1101052800000,0.9205],[1101139200000,0.9075],[1101225600000,0.9074],[1101312000000,0.9103],[1101398400000,0.9078],[1101657600000,0.902],[1101744000000,0.9016],[1101830400000,0.8967],[1101916800000,0.8899],[1102003200000,0.8889],[1102262400000,0.8916],[1102348800000,0.8866],[1102435200000,0.8889],[1102521600000,0.8964],[1102608000000,0.8897],[1102867200000,0.8877],[1102953600000,0.8847],[1103040000000,0.8909],[1103126400000,0.8908],[1103212800000,0.8807],[1103472000000,0.8687],[1103558400000,0.868],[1103644800000,0.8858],[1103731200000,0.8741],[1103817600000,0.8762],[1104076800000,0.8734],[1104163200000,0.8772],[1104249600000,0.8752],[1104336000000,0.876],[1104422400000,0.877],[1104768000000,0.8595],[1104854400000,0.8617],[1104940800000,0.8524],[1105027200000,0.8534],[1105286400000,0.8608],[1105372800000,0.8642],[1105459200000,0.8643],[1105545600000,0.8619],[1105632000000,0.8569],[1105891200000,0.8418],[1105977600000,0.8454],[1106064000000,0.839],[1106150400000,0.8349],[1106236800000,0.8579],[1106496000000,0.8676],[1106582400000,0.8682],[1106668800000,0.8635],[1106755200000,0.8529],[1106841600000,0.8513],[1107100800000,0.8474],[1107187200000,0.8506],[1107273600000,0.8891],[1107360000000,0.8813],[1107446400000,0.9044],[1108483200000,0.9053],[1108569600000,0.8958],[1108656000000,0.8833],[1108915200000,0.901],[1109001600000,0.9125],[1109088000000,0.9044],[1109174400000,0.9013],[1109260800000,0.9027],[1109520000000,0.8945],[1109606400000,0.8917],[1109692800000,0.8815],[1109779200000,0.8875],[1109865600000,0.8864],[1110124800000,0.891],[1110211200000,0.9019],[1110297600000,0.8954],[1110384000000,0.8788],[1110470400000,0.8816],[1110729600000,0.8908],[1110816000000,0.8722],[1110902400000,0.8637],[1110988800000,0.8588],[1111075200000,0.8541],[1111334400000,0.8585],[1111420800000,0.8525],[1111507200000,0.8468],[1111593600000,0.8504],[1111680000000,0.8504],[1111939200000,0.8523],[1112025600000,0.8499],[1112112000000,0.8388],[1112198400000,0.8439],[1112284800000,0.8694],[1112544000000,0.8603],[1112630400000,0.8557],[1112716800000,0.8727],[1112803200000,0.8753],[1112889600000,0.8879],[1113148800000,0.8759],[1113235200000,0.8656],[1113321600000,0.8801],[1113408000000,0.8727],[1113494400000,0.8659],[1113753600000,0.8554],[1113840000000,0.8554],[1113926400000,0.8479],[1114012800000,0.8469],[1114099200000,0.8488],[1114358400000,0.847],[1114444800000,0.8521],[1114531200000,0.8415],[1114617600000,0.8512],[1114704000000,0.8468],[1115568000000,0.8312],[1115654400000,0.8319],[1115740800000,0.8207],[1115827200000,0.8012],[1115913600000,0.8042],[1116172800000,0.7945],[1116259200000,0.7966],[1116345600000,0.7974],[1116432000000,0.7979],[1116518400000,0.7975],[1116777600000,0.7825],[1116864000000,0.7793],[1116950400000,0.7797],[1117036800000,0.7699],[1117123200000,0.7641],[1117382400000,0.7676],[1117468800000,0.7713],[1117555200000,0.7579],[1117641600000,0.7361],[1117728000000,0.7395],[1117987200000,0.7619],[1118073600000,0.7562],[1118160000000,0.8168],[1118246400000,0.8231],[1118332800000,0.8114],[1118592000000,0.807],[1118678400000,0.8021],[1118764800000,0.7965],[1118851200000,0.8091],[1118937600000,0.8125],[1119196800000,0.8339],[1119283200000,0.8236],[1119369600000,0.8297],[1119456000000,0.8247],[1119542400000,0.8297],[1119801600000,0.8406],[1119888000000,0.8344],[1119974400000,0.8299],[1120060800000,0.8187],[1120147200000,0.8092],[1120406400000,0.8107],[1120492800000,0.8065],[1120579200000,0.8003],[1120665600000,0.8022],[1120752000000,0.797],[1121011200000,0.797],[1121097600000,0.8221],[1121184000000,0.817],[1121270400000,0.8235],[1121356800000,0.821],[1121616000000,0.8198],[1121702400000,0.8204],[1121788800000,0.8264],[1121875200000,0.8274],[1121961600000,0.8386],[1122220800000,0.8344],[1122307200000,0.8509],[1122393600000,0.864],[1122480000000,0.8627],[1122566400000,0.86],[1122825600000,0.861],[1122912000000,0.8679],[1122998400000,0.8666],[1123084800000,0.8632],[1123171200000,0.881],[1123430400000,0.88],[1123516800000,0.8803],[1123603200000,0.8869],[1123689600000,0.899],[1123776000000,0.8885],[1124035200000,0.9031],[1124121600000,0.8899],[1124208000000,0.8961],[1124294400000,0.8785],[1124380800000,0.8806],[1124640000000,0.8871],[1124726400000,0.8825],[1124812800000,0.8893],[1124899200000,0.8862],[1124985600000,0.8845],[1125244800000,0.8746],[1125331200000,0.8723],[1125417600000,0.8798],[1125504000000,0.8917],[1125590400000,0.8924],[1125849600000,0.8894],[1125936000000,0.8778],[1126022400000,0.8861],[1126108800000,0.891],[1126195200000,0.8873],[1126454400000,0.8842],[1126540800000,0.8923],[1126627200000,0.8959],[1126713600000,0.8948],[1126800000000,0.8914],[1127059200000,0.8898],[1127145600000,0.8846],[1127232000000,0.8694],[1127318400000,0.8559],[1127404800000,0.8509],[1127664000000,0.8517],[1127750400000,0.8421],[1127836800000,0.8442],[1127923200000,0.8546],[1128009600000,0.8555],[1128873600000,0.8507],[1128960000000,0.8573],[1129046400000,0.8561],[1129132800000,0.8491],[1129219200000,0.8388],[1129478400000,0.8319],[1129564800000,0.8329],[1129651200000,0.831],[1129737600000,0.8361],[1129824000000,0.8353],[1130083200000,0.8337],[1130169600000,0.8272],[1130256000000,0.8135],[1130342400000,0.819],[1130428800000,0.8177],[1130688000000,0.8275],[1130774400000,0.827],[1130860800000,0.8301],[1130947200000,0.823],[1131033600000,0.8255],[1131292800000,0.8189],[1131379200000,0.8234],[1131465600000,0.8228],[1131552000000,0.8145],[1131638400000,0.8157],[1131897600000,0.8117],[1131984000000,0.8061],[1132070400000,0.8088],[1132156800000,0.8091],[1132243200000,0.8248],[1132502400000,0.8244],[1132588800000,0.8134],[1132675200000,0.8212],[1132761600000,0.8283],[1132848000000,0.8333],[1133107200000,0.8296],[1133193600000,0.8221],[1133280000000,0.8261],[1133366400000,0.8254],[1133452800000,0.8239],[1133712000000,0.8175],[1133798400000,0.826],[1133884800000,0.8344],[1133971200000,0.8325],[1134057600000,0.8443],[1134316800000,0.8413],[1134403200000,0.8398],[1134489600000,0.845],[1134576000000,0.8458],[1134662400000,0.85],[1134921600000,0.8497],[1135008000000,0.8575],[1135094400000,0.8549],[1135180800000,0.8584],[1135267200000,0.8634],[1135526400000,0.8664],[1135612800000,0.8631],[1135699200000,0.8655],[1135785600000,0.8812],[1135872000000,0.8733],[1135958400000,0.8732],[1136304000000,0.8937],[1136390400000,0.9129],[1136476800000,0.9174],[1136736000000,0.9168],[1136822400000,0.9179],[1136908800000,0.9111],[1136995200000,0.9148],[1137081600000,0.9078],[1137340800000,0.8926],[1137427200000,0.8943],[1137513600000,0.9088],[1137600000000,0.9145],[1137686400000,0.9134],[1137945600000,0.9131],[1138032000000,0.9127],[1138118400000,0.9224],[1139155200000,0.9323],[1139241600000,0.9286],[1139328000000,0.9326],[1139414400000,0.9204],[1139500800000,0.9284],[1139760000000,0.9292],[1139846400000,0.9315],[1139932800000,0.9371],[1140019200000,0.929],[1140105600000,0.9305],[1140364800000,0.9311],[1140451200000,0.9446],[1140537600000,0.9441],[1140624000000,0.9514],[1140710400000,0.9564],[1140969600000,0.966],[1141056000000,0.9708],[1141142400000,0.9728],[1141228800000,0.9599],[1141315200000,0.9654],[1141574400000,0.9644],[1141660800000,0.9449],[1141747200000,0.9412],[1141833600000,0.9336],[1141920000000,0.9373],[1142179200000,0.945],[1142265600000,0.9424],[1142352000000,0.9492],[1142438400000,0.9454],[1142524800000,0.9438],[1142784000000,0.9539],[1142870400000,0.9546],[1142956800000,0.9546],[1143043200000,0.9547],[1143129600000,0.9504],[1143388800000,0.9521],[1143475200000,0.9544],[1143561600000,0.9668],[1143648000000,0.9605],[1143734400000,0.9635],[1143993600000,0.9792],[1144080000000,0.9866],[1144166400000,0.9947],[1144252800000,0.9909],[1144339200000,0.9846],[1144598400000,0.9958],[1144684800000,0.9975],[1144771200000,0.9943],[1144857600000,0.9757],[1144944000000,0.9961],[1145203200000,1.0059],[1145289600000,1.0158],[1145376000000,1.0232],[1145462400000,1.0192],[1145548800000,1.039],[1145808000000,1.0376],[1145894400000,1.0315],[1145980800000,1.0508],[1146067200000,1.0477],[1146153600000,1.0719],[1147017600000,1.1036],[1147104000000,1.1247],[1147190400000,1.1312],[1147276800000,1.1203],[1147363200000,1.1666],[1147622400000,1.1998],[1147708800000,1.191],[1147795200000,1.1908],[1147881600000,1.173],[1147968000000,1.2117],[1148227200000,1.2062],[1148313600000,1.1699],[1148400000000,1.1703],[1148486400000,1.1717],[1148572800000,1.1864],[1148832000000,1.2187],[1148918400000,1.2295],[1149004800000,1.2205],[1149091200000,1.2483],[1149177600000,1.2334],[1149436800000,1.2322],[1149523200000,1.2366],[1149609600000,1.1847],[1149696000000,1.1984],[1149782400000,1.1763],[1150041600000,1.1755],[1150128000000,1.1758],[1150214400000,1.1666],[1150300800000,1.1675],[1150387200000,1.194],[1150646400000,1.2064],[1150732800000,1.21],[1150819200000,1.2039],[1150905600000,1.2039],[1150992000000,1.2096],[1151251200000,1.2332],[1151337600000,1.2336],[1151424000000,1.2299],[1151510400000,1.2531],[1151596800000,1.2496],[1151856000000,1.2732],[1151942400000,1.2645],[1152028800000,1.2431],[1152115200000,1.2616],[1152201600000,1.2506],[1152460800000,1.2472],[1152547200000,1.2512],[1152633600000,1.2521],[1152720000000,1.2006],[1152806400000,1.2097],[1153065600000,1.2173],[1153152000000,1.2121],[1153238400000,1.1858],[1153324800000,1.1931],[1153411200000,1.2051],[1153670400000,1.2068],[1153756800000,1.2181],[1153843200000,1.2196],[1153929600000,1.2087],[1154016000000,1.1984],[1154275200000,1.1621],[1154361600000,1.1503],[1154448000000,1.1454],[1154534400000,1.1446],[1154620800000,1.125],[1154880000000,1.1129],[1154966400000,1.1297],[1155052800000,1.1283],[1155139200000,1.1464],[1155225600000,1.1467],[1155484800000,1.1254],[1155571200000,1.1408],[1155657600000,1.1539],[1155744000000,1.1433],[1155830400000,1.1407],[1156089600000,1.1422],[1156176000000,1.1556],[1156262400000,1.1579],[1156348800000,1.1655],[1156435200000,1.1665],[1156694400000,1.1858],[1156780800000,1.1894],[1156867200000,1.1872],[1156953600000,1.187],[1157040000000,1.1696],[1157299200000,1.1829],[1157385600000,1.1894],[1157472000000,1.1938],[1157558400000,1.1838],[1157644800000,1.1884],[1157904000000,1.1964],[1157990400000,1.2042],[1158076800000,1.2057],[1158163200000,1.2067],[1158249600000,1.2318],[1158508800000,1.2332],[1158595200000,1.2391],[1158681600000,1.2366],[1158768000000,1.2464],[1158854400000,1.2345],[1159113600000,1.2321],[1159200000000,1.2171],[1159286400000,1.2293],[1159372800000,1.2442],[1159459200000,1.2588],[1159545600000,1.2588],[1160323200000,1.2937],[1160409600000,1.2961],[1160496000000,1.2929],[1160582400000,1.2869],[1160668800000,1.2904],[1160928000000,1.2775],[1161014400000,1.2663],[1161100800000,1.29],[1161187200000,1.2911],[1161273600000,1.2938],[1161532800000,1.2717],[1161619200000,1.2991],[1161705600000,1.3076],[1161792000000,1.3164],[1161878400000,1.3061],[1162137600000,1.3176],[1162224000000,1.3334],[1162310400000,1.348],[1162396800000,1.3408],[1162483200000,1.3495],[1162742400000,1.3756],[1162828800000,1.3874],[1162915200000,1.372],[1163001600000,1.4009],[1163088000000,1.3937],[1163347200000,1.376],[1163433600000,1.3902],[1163520000000,1.4252],[1163606400000,1.4292],[1163692800000,1.4504],[1163952000000,1.4878],[1164038400000,1.5024],[1164124800000,1.5055],[1164211200000,1.5158],[1164297600000,1.5063],[1164556800000,1.5056],[1164643200000,1.496],[1164729600000,1.5125],[1164816000000,1.5525],[1164902400000,1.5564],[1165161600000,1.6054],[1165248000000,1.6106],[1165334400000,1.6048],[1165420800000,1.614],[1165507200000,1.5644],[1165766400000,1.6303],[1165852800000,1.6497],[1165939200000,1.6522],[1166025600000,1.6815],[1166112000000,1.7037],[1166371200000,1.7426],[1166457600000,1.7488],[1166544000000,1.7482],[1166630400000,1.7213],[1166716800000,1.7181],[1166976000000,1.7738],[1167062400000,1.7894],[1167148800000,1.8358],[1167235200000,1.8489],[1167321600000,1.9097],[1167494400000,1.9095],[1167840000000,1.9329],[1167926400000,1.9076],[1168185600000,1.9394],[1168272000000,2.0073],[1168358400000,2.0379],[1168444800000,2.0085],[1168531200000,1.973],[1168790400000,2.0479],[1168876800000,2.0707],[1168963200000,2.0387],[1169049600000,2.0224],[1169136000000,2.0779],[1169395200000,2.1445],[1169481600000,2.1628],[1169568000000,2.1944],[1169654400000,2.1431],[1169740800000,2.2029],[1170000000000,2.2531],[1170086400000,2.231],[1170172800000,2.0928],[1170259200000,2.0966],[1170345600000,2.0091],[1170604800000,1.968],[1170691200000,2.0122],[1170777600000,2.0588],[1170864000000,2.0803],[1170950400000,2.0602],[1171209600000,2.1364],[1171296000000,2.1622],[1171382400000,2.2202],[1171468800000,2.2763],[1171555200000,2.2713],[1172419200000,2.2713],[1172505600000,2.0729],[1172592000000,2.1317],[1172678400000,2.0675],[1172764800000,2.0967],[1173024000000,2.0518],[1173110400000,2.1051],[1173196800000,2.1567],[1173283200000,2.1768],[1173369600000,2.1739],[1173628800000,2.1705],[1173715200000,2.1727],[1173801600000,2.1265],[1173888000000,2.1666],[1173974400000,2.1337],[1174233600000,2.2012],[1174320000000,2.1979],[1174406400000,2.2133],[1174492800000,2.2289],[1174579200000,2.2193],[1174838400000,2.245],[1174924800000,2.2438],[1175011200000,2.269],[1175097600000,2.2962],[1175184000000,2.2855],[1175270400000,2.2854],[1175443200000,2.3387],[1175529600000,2.3631],[1175616000000,2.3775],[1175702400000,2.3973],[1175788800000,2.4022],[1176048000000,2.444],[1176134400000,2.4729],[1176220800000,2.505],[1176307200000,2.5321],[1176393600000,2.5168],[1176652800000,2.5841],[1176739200000,2.5841],[1176825600000,2.5643],[1176912000000,2.4589],[1176998400000,2.5476],[1177257600000,2.6365],[1177344000000,2.64],[1177430400000,2.6541],[1177516800000,2.6776],[1177603200000,2.6615],[1177862400000,2.7222],[1178553600000,2.7962],[1178640000000,2.8076],[1178726400000,2.8239],[1178812800000,2.8095],[1179072000000,2.8309],[1179158400000,2.7465],[1179244800000,2.79],[1179331200000,2.8242],[1179417600000,2.8162],[1179676800000,2.8219],[1179763200000,2.8266],[1179849600000,2.8389],[1179936000000,2.8343],[1180022400000,2.8467],[1180281600000,2.8659],[1180368000000,2.8855],[1180454400000,2.8134],[1180540800000,2.8473],[1180627200000,2.8342],[1180886400000,2.7645],[1180972800000,2.7989],[1181059200000,2.8024],[1181145600000,2.8324],[1181232000000,2.8311],[1181491200000,2.8601],[1181577600000,2.8872],[1181664000000,2.9094],[1181750400000,2.8972],[1181836800000,2.9081],[1182096000000,2.9475],[1182182400000,2.9451],[1182268800000,2.9179],[1182355200000,2.9392],[1182441600000,2.9143],[1182700800000,2.8832],[1182787200000,2.8903],[1182873600000,2.9287],[1182960000000,2.8937],[1183046400000,2.8747],[1183132800000,2.8747],[1183305600000,2.8741],[1183392000000,2.8895],[1183478400000,2.8629],[1183564800000,2.824],[1183651200000,2.8611],[1183910400000,2.8887],[1183996800000,2.8902],[1184083200000,2.8905],[1184169600000,2.8989],[1184256000000,2.8996],[1184515200000,2.8696],[1184601600000,2.895],[1184688000000,2.9026],[1184774400000,2.9008],[1184860800000,2.9442],[1185120000000,2.9853],[1185206400000,2.9859],[1185292800000,3.0111],[1185379200000,3.0131],[1185465600000,3.0074],[1185724800000,3.0295],[1185811200000,3.0418],[1185897600000,3.0058],[1185984000000,3.0325],[1186070400000,3.0847],[1186329600000,3.1104],[1186416000000,3.1183],[1186502400000,3.1101],[1186588800000,3.1431],[1186675200000,3.143],[1186934400000,3.1471],[1187020800000,3.1635],[1187107200000,3.1685],[1187193600000,3.1367],[1187280000000,3.1065],[1187539200000,3.1704],[1187625600000,3.1911],[1187712000000,3.2042],[1187798400000,3.227],[1187884800000,3.2597],[1188144000000,3.2686],[1188230400000,3.2686],[1188316800000,3.2459],[1188403200000,3.2561],[1188489600000,3.2703],[1188748800000,3.2996],[1188835200000,3.2763],[1188921600000,3.2687],[1189008000000,3.2859],[1189094400000,3.2552],[1189353600000,3.2751],[1189440000000,3.2176],[1189526400000,3.2298],[1189612800000,3.2649],[1189699200000,3.2757],[1189958400000,3.2986],[1190044800000,3.2841],[1190131200000,3.2695],[1190217600000,3.2855],[1190304000000,3.2774],[1190563200000,3.2882],[1190649600000,3.2731],[1190736000000,3.257],[1190822400000,3.271],[1190908800000,3.3065],[1191081600000,3.3064],[1191772800000,3.3343],[1191859200000,3.3386],[1191945600000,3.3457],[1192032000000,3.3833],[1192118400000,3.3834],[1192377600000,3.4234],[1192464000000,3.4385],[1192550400000,3.4196],[1192636800000,3.3658],[1192723200000,3.3647],[1192982400000,3.3359],[1193068800000,3.3605],[1193155200000,3.3796],[1193241600000,3.3266],[1193328000000,3.3464],[1193587200000,3.374],[1193673600000,3.3917],[1193760000000,3.402],[1193846400000,3.3978],[1193932800000,3.3751],[1194192000000,3.3395],[1194278400000,3.3212],[1194364800000,3.3345],[1194451200000,3.273],[1194537600000,3.2688],[1194796800000,3.2633],[1194883200000,3.2509],[1194969600000,3.2976],[1195056000000,3.2818],[1195142400000,3.2603],[1195401600000,3.2477],[1195488000000,3.2652],[1195574400000,3.2456],[1195660800000,3.2009],[1195747200000,3.2203],[1196006400000,3.2059],[1196092800000,3.1809],[1196179200000,3.165],[1196265600000,3.2216],[1196352000000,3.1931],[1196611200000,3.2026],[1196697600000,3.2221],[1196784000000,3.2584],[1196870400000,3.259],[1196956800000,3.2758],[1197216000000,3.2858],[1197302400000,3.2836],[1197388800000,3.2631],[1197475200000,3.2193],[1197561600000,3.2393],[1197820800000,3.1997],[1197907200000,3.1935],[1197993600000,3.2282],[1198080000000,3.2548],[1198166400000,3.2658],[1198425600000,3.2916],[1198512000000,3.2914],[1198598400000,3.2946],[1198684800000,3.3222],[1198771200000,3.3153],[1198857600000,3.3152],[1199030400000,3.3151],[1199203200000,3.3111],[1199289600000,3.321],[1199376000000,3.3344],[1199635200000,3.3535],[1199721600000,3.3638],[1199808000000,3.3805],[1199894400000,3.391],[1199980800000,3.4092],[1200240000000,3.4156],[1200326400000,3.3999],[1200412800000,3.3428],[1200499200000,3.3112],[1200585600000,3.3148],[1200844800000,3.2489],[1200931200000,3.1653],[1201017600000,3.2158],[1201104000000,3.2099],[1201190400000,3.2268],[1201449600000,3.1376],[1201536000000,3.1392],[1201622400000,3.1194],[1201708800000,3.1097],[1201795200000,3.1158],[1202054400000,3.2139],[1202140800000,3.2058],[1202832000000,3.1703],[1202918400000,3.186],[1203004800000,3.1693],[1203264000000,3.1913],[1203350400000,3.2168],[1203436800000,3.1777],[1203523200000,3.1618],[1203609600000,3.1042],[1203868800000,3.0661],[1203955200000,3.0723],[1204041600000,3.1017],[1204128000000,3.0964],[1204214400000,3.1057],[1204473600000,3.1299],[1204560000000,3.0869],[1204646400000,3.0652],[1204732800000,3.0841],[1204819200000,3.0705],[1205078400000,3.0214],[1205164800000,3.0199],[1205251200000,2.9811],[1205337600000,2.9622],[1205424000000,2.9514],[1205683200000,2.9224],[1205769600000,2.894],[1205856000000,2.9214],[1205942400000,2.9531],[1206028800000,2.9603],[1206288000000,2.905],[1206374400000,2.9137],[1206460800000,2.9181],[1206547200000,2.8718],[1206633600000,2.92],[1206892800000,2.8901],[1206979200000,2.8508],[1207065600000,2.8594],[1207152000000,2.8882],[1207497600000,2.9292],[1207584000000,2.9339],[1207670400000,2.8814],[1207756800000,2.8901],[1207843200000,2.8974],[1208102400000,2.8364],[1208188800000,2.8432],[1208275200000,2.8215],[1208361600000,2.7979],[1208448000000,2.7714],[1208707200000,2.7775],[1208793600000,2.7985],[1208880000000,2.8393],[1208966400000,2.9233],[1209052800000,2.9209],[1209312000000,2.9003],[1209398400000,2.9147],[1209484800000,2.9699],[1209916800000,2.9837],[1210003200000,2.971],[1210089600000,2.9245],[1210176000000,2.9441],[1210262400000,2.9245],[1210521600000,2.9293],[1210608000000,2.9146],[1210694400000,2.9479],[1210780800000,2.942],[1210867200000,2.9422],[1211126400000,2.9318],[1211212800000,2.8855],[1211299200000,2.9061],[1211385600000,2.8895],[1211472000000,2.8875],[1211731200000,2.8572],[1211817600000,2.8565],[1211904000000,2.8851],[1211990400000,2.8638],[1212076800000,2.8743],[1212336000000,2.8774],[1212422400000,2.8763],[1212508800000,2.8569],[1212595200000,2.8497],[1212681600000,2.8439],[1213027200000,2.7712],[1213113600000,2.7584],[1213200000000,2.7409],[1213286400000,2.7233],[1213545600000,2.7276],[1213632000000,2.7102],[1213718400000,2.7467],[1213804800000,2.6914],[1213891200000,2.71],[1214150400000,2.6884],[1214236800000,2.6967],[1214323200000,2.7236],[1214409600000,2.718],[1214496000000,2.6773],[1214755200000,2.666],[1214841600000,2.6319],[1214928000000,2.6291],[1215014400000,2.6416],[1215100800000,2.6377],[1215360000000,2.6779],[1215446400000,2.6811],[1215532800000,2.7115],[1215619200000,2.701],[1215705600000,2.6937],[1215964800000,2.6988],[1216051200000,2.6652],[1216137600000,2.6433],[1216224000000,2.6368],[1216310400000,2.6642],[1216569600000,2.6879],[1216656000000,2.6847],[1216742400000,2.6814],[1216828800000,2.7102],[1216915200000,2.7004],[1217174400000,2.7082],[1217260800000,2.6932],[1217347200000,2.688],[1217433600000,2.6671],[1217520000000,2.6784],[1217779200000,2.6602],[1217865600000,2.6463],[1217952000000,2.6551],[1218038400000,2.6532],[1218124800000,2.6249],[1218384000000,2.6019],[1218470400000,2.5993],[1218556800000,2.5981],[1218643200000,2.5942],[1218729600000,2.5981],[1218988800000,2.5651],[1219075200000,2.573],[1219161600000,2.6248],[1219248000000,2.6008],[1219334400000,2.5899],[1219593600000,2.5906],[1219680000000,2.5753],[1219766400000,2.5746],[1219852800000,2.5804],[1219939200000,2.5939],[1220198400000,2.5706],[1220284800000,2.5612],[1220371200000,2.5499],[1220457600000,2.5494],[1220544000000,2.5336],[1220803200000,2.5219],[1220889600000,2.5261],[1220976000000,2.5269],[1221062400000,2.5037],[1221148800000,2.5045],[1221494400000,2.4602],[1221580800000,2.4337],[1221667200000,2.4269],[1221753600000,2.4782],[1222012800000,2.513],[1222099200000,2.4968],[1222185600000,2.4993],[1222272000000,2.5262],[1222358400000,2.5301],[1222704000000,2.53],[1223222400000,2.4896],[1223308800000,2.4786],[1223395200000,2.4535],[1223481600000,2.4468],[1223568000000,2.4261],[1223827200000,2.4551],[1223913600000,2.4373],[1224000000000,2.4321],[1224086400000,2.406],[1224172800000,2.4091],[1224432000000,2.4279],[1224518400000,2.4216],[1224604800000,2.4061],[1224691200000,2.4016],[1224777600000,2.3822],[1225036800000,2.3452],[1225123200000,2.3638],[1225209600000,2.35],[1225296000000,2.3638],[1225382400000,2.3522],[1225641600000,2.3508],[1225728000000,2.3464],[1225814400000,2.3671],[1225900800000,2.3539],[1225987200000,2.3645],[1226246400000,2.4038],[1226332800000,2.396],[1226419200000,2.4007],[1226505600000,2.4206],[1226592000000,2.4341],[1226851200000,2.4418],[1226937600000,2.4021],[1227024000000,2.4332],[1227110400000,2.4232],[1227196800000,2.4198],[1227456000000,2.3964],[1227542400000,2.3956],[1227628800000,2.3981],[1227715200000,2.4031],[1227801600000,2.3874],[1228060800000,2.3921],[1228147200000,2.3899],[1228233600000,2.416],[1228320000000,2.4289],[1228406400000,2.4352],[1228665600000,2.459],[1228752000000,2.4409],[1228838400000,2.4599],[1228924800000,2.4446],[1229011200000,2.4186],[1229270400000,2.422],[1229356800000,2.4244],[1229443200000,2.4232],[1229529600000,2.4394],[1229616000000,2.4394],[1229875200000,2.4268],[1229961600000,2.401],[1230048000000,2.3932],[1230134400000,2.3888],[1230220800000,2.3882],[1230480000000,2.3847],[1230566400000,2.3798],[1230652800000,2.3783],[1231084800000,2.3966],[1231171200000,2.4144],[1231257600000,2.4085],[1231344000000,2.3949],[1231430400000,2.4006],[1231689600000,2.3978],[1231776000000,2.3872],[1231862400000,2.4122],[1231948800000,2.4081],[1232035200000,2.4216],[1232294400000,2.4319],[1232380800000,2.4351],[1232467200000,2.4337],[1232553600000,2.4385],[1232640000000,2.4351],[1233504000000,2.435],[1233590400000,2.4486],[1233676800000,2.4665],[1233763200000,2.465],[1233849600000,2.4861],[1234108800000,2.4959],[1234195200000,2.4977],[1234281600000,2.4975],[1234368000000,2.4852],[1234454400000,2.5056],[1234713600000,2.529],[1234800000000,2.5089],[1234886400000,2.4778],[1234972800000,2.479],[1235059200000,2.4856],[1235318400000,2.5004],[1235404800000,2.465],[1235491200000,2.4734],[1235577600000,2.4546],[1235664000000,2.4528],[1235923200000,2.453],[1236009600000,2.4418],[1236096000000,2.4816],[1236182400000,2.4893],[1236268800000,2.4839],[1236528000000,2.4623],[1236614400000,2.4736],[1236700800000,2.4686],[1236787200000,2.4666],[1236873600000,2.4648],[1237132800000,2.4759],[1237219200000,2.4922],[1237305600000,2.4911],[1237392000000,2.5021],[1237478400000,2.4977],[1237737600000,2.5135],[1237824000000,2.5182],[1237910400000,2.5077],[1237996800000,2.5281],[1238083200000,2.5343],[1238342400000,2.5305],[1238428800000,2.5348],[1238515200000,2.5419],[1238601600000,2.5511],[1238688000000,2.5567],[1239033600000,2.556],[1239120000000,2.529],[1239206400000,2.542],[1239292800000,2.5578],[1239552000000,2.5758],[1239638400000,2.5781],[1239724800000,2.5749],[1239811200000,2.5727],[1239897600000,2.5653],[1240156800000,2.5777],[1240243200000,2.5683],[1240329600000,2.5486],[1240416000000,2.5502],[1240502400000,2.5457],[1240761600000,2.5347],[1240848000000,2.5342],[1240934400000,2.5608],[1241020800000,2.5597],[1241366400000,2.5831],[1241452800000,2.5842],[1241539200000,2.5918],[1241625600000,2.5943],[1241712000000,2.6056],[1241971200000,2.5972],[1242057600000,2.6099],[1242144000000,2.6174],[1242230400000,2.6054],[1242316800000,2.6059],[1242576000000,2.6153],[1242662400000,2.623],[1242748800000,2.6116],[1242835200000,2.5942],[1242921600000,2.5926],[1243180800000,2.5942],[1243267200000,2.5864],[1243353600000,2.6042],[1243785600000,2.6349],[1243872000000,2.6329],[1243958400000,2.6591],[1244044800000,2.6705],[1244131200000,2.667],[1244390400000,2.6752],[1244476800000,2.6782],[1244563200000,2.6816],[1244649600000,2.6765],[1244736000000,2.6604],[1244995200000,2.6828],[1245081600000,2.6777],[1245168000000,2.6877],[1245254400000,2.7045],[1245340800000,2.7126],[1245600000000,2.7179],[1245686400000,2.7221],[1245772800000,2.7235],[1245859200000,2.7238],[1245945600000,2.7275],[1246204800000,2.7443],[1246291200000,2.7409],[1246377600000,2.762],[1246464000000,2.7747],[1246550400000,2.7843],[1246809600000,2.7985],[1246896000000,2.7867],[1246982400000,2.7816],[1247068800000,2.789],[1247155200000,2.7862],[1247414400000,2.7678],[1247500800000,2.7965],[1247587200000,2.8039],[1247673600000,2.8135],[1247760000000,2.8147],[1248019200000,2.8312],[1248105600000,2.8221],[1248192000000,2.8412],[1248278400000,2.8535],[1248364800000,2.857],[1248624000000,2.8783],[1248710400000,2.8756],[1248796800000,2.8318],[1248883200000,2.861],[1248969600000,2.8837],[1249228800000,2.8916],[1249315200000,2.8811],[1249401600000,2.864],[1249488000000,2.8427],[1249574400000,2.8221],[1249833600000,2.8151],[1249920000000,2.8146],[1250006400000,2.7727],[1250092800000,2.7851],[1250179200000,2.7632],[1250438400000,2.7163],[1250524800000,2.7194],[1250611200000,2.6807],[1250697600000,2.7177],[1250784000000,2.7309],[1251043200000,2.731],[1251129600000,2.692],[1251216000000,2.7025],[1251302400000,2.6936],[1251388800000,2.6628],[1251648000000,2.61],[1251734400000,2.6225],[1251820800000,2.6404],[1251907200000,2.6783],[1251993600000,2.6806],[1252252800000,2.6849],[1252339200000,2.6995],[1252425600000,2.7025],[1252512000000,2.695],[1252598400000,2.7237],[1252857600000,2.7335],[1252944000000,2.7331],[1253030400000,2.7173],[1253116800000,2.7339],[1253203200000,2.7035],[1253462400000,2.7018],[1253548800000,2.683],[1253635200000,2.6722],[1253721600000,2.6848],[1253808000000,2.6799],[1254067200000,2.6576],[1254153600000,2.664],[1254240000000,2.6719],[1255017600000,2.7112],[1255276800000,2.7064],[1255363200000,2.7204],[1255449600000,2.7284],[1255536000000,2.7326],[1255622400000,2.7316],[1255881600000,2.7508],[1255968000000,2.766],[1256054400000,2.7655],[1256140800000,2.7588],[1256227200000,2.7772],[1256486400000,2.7787],[1256572800000,2.7547],[1256659200000,2.7525],[1256745600000,2.7321],[1256832000000,2.7427],[1257091200000,2.7759],[1257177600000,2.7837],[1257264000000,2.7881],[1257350400000,2.7882],[1257436800000,2.7913],[1257696000000,2.7939],[1257782400000,2.7949],[1257868800000,2.791],[1257955200000,2.7898],[1258041600000,2.7961],[1258300800000,2.8236],[1258387200000,2.8244],[1258473600000,2.8231],[1258560000000,2.8208],[1258646400000,2.8133],[1258905600000,2.8171],[1258992000000,2.7931],[1259078400000,2.8085],[1259164800000,2.7691],[1259251200000,2.7444],[1259510400000,2.7722],[1259596800000,2.7783],[1259683200000,2.7867],[1259769600000,2.7803],[1259856000000,2.8117],[1260115200000,2.8131],[1260201600000,2.7977],[1260288000000,2.7767],[1260374400000,2.7825],[1260460800000,2.7817],[1260720000000,2.796],[1260806400000,2.7857],[1260892800000,2.7811],[1260979200000,2.7641],[1261065600000,2.7489],[1261324800000,2.7428],[1261411200000,2.7214],[1261497600000,2.7253],[1261584000000,2.7478],[1261670400000,2.7399],[1261929600000,2.7533],[1262016000000,2.7608],[1262102400000,2.7831],[1262188800000,2.787],[1262534400000,2.7735],[1262620800000,2.7817],[1262707200000,2.7708],[1262793600000,2.7546],[1262880000000,2.7554],[1263139200000,2.7606],[1263225600000,2.7695],[1263312000000,2.732],[1263398400000,2.7389],[1263484800000,2.7396],[1263744000000,2.737],[1263830400000,2.7408],[1263916800000,2.7139],[1264003200000,2.7202],[1264089600000,2.7212],[1264348800000,2.7126],[1264435200000,2.6972],[1264521600000,2.6806],[1264608000000,2.6769],[1264694400000,2.6742],[1264953600000,2.6617],[1265040000000,2.6642],[1265126400000,2.6866],[1265212800000,2.6806],[1265299200000,2.6661],[1265558400000,2.6627],[1265644800000,2.6694],[1265731200000,2.6816],[1265817600000,2.6834],[1265904000000,2.6889],[1266768000000,2.6826],[1266854400000,2.6663],[1266940800000,2.6742],[1267027200000,2.6863],[1267113600000,2.6838],[1267372800000,2.6959],[1267459200000,2.6936],[1267545600000,2.6963],[1267632000000,2.6783],[1267718400000,2.6807]</t>
   </si>
   <si>
+    <t>[[1090771200000, 0.0], [1095177600000, -0.17], [1098201600000, 1.68], [1100620800000, 3.53], [1103040000000, 0.64], [1105545600000, 0.44], [1108915200000, 4.88], [1111334400000, 9.71], [1113753600000, 12.44], [1116777600000, 5.34], [1119196800000, 7.78], [1121616000000, 5.37], [1124035200000, 12.71], [1126454400000, 14.35], [1129478400000, 12.69], [1131897600000, 10.15], [1134316800000, 10.04], [1136822400000, 22.06], [1140019200000, 28.99], [1142438400000, 33.16], [1144857600000, 45.72], [1147881600000, 89.29], [1150300800000, 93.73], [1152720000000, 95.78], [1155139200000, 84.73], [1157558400000, 94.1], [1160496000000, 107.08], [1162915200000, 106.26], [1165334400000, 139.79], [1167926400000, 156.41], [1170345600000, 169.91], [1173369600000, 188.25], [1175702400000, 213.5], [1178726400000, 268.07], [1181145600000, 306.04], [1183478400000, 324.64], [1185897600000, 385.38], [1188316800000, 473.48], [1190736000000, 490.26], [1193673600000, 531.95], [1196092800000, 442.4], [1198512000000, 471.41], [1200931200000, 441.3], [1203955200000, 427.72], [1206374400000, 361.94], [1208880000000, 331.9], [1211472000000, 347.14], [1214150400000, 264.06], [1216569600000, 282.77], [1218988800000, 221.16], [1221494400000, 182.57], [1224432000000, 172.37], [1226851200000, 185.94], [1229270400000, 195.72], [1231862400000, 203.4], [1234886400000, 238.2], [1237305600000, 251.59], [1239811200000, 291.77], [1242316800000, 301.1], [1245081600000, 318.53], [1247500800000, 368.03], [1249920000000, 395.3], [1252339200000, 347.86], [1255449600000, 353.42], [1257868800000, 379.93], [1260288000000, 391.32], [1262793600000, 382.74], [1265212800000, 345.94], [1268236800000, 350.41], [1270742400000, 375.4], [1273420800000, 332.07], [1275840000000, 331.43], [1278518400000, 295.08], [1280937600000, 333.71], [1283356800000, 362.83], [1286812800000, 408.1], [1289232000000, 448.58], [1291651200000, 405.4], [1294156800000, 420.16], [1297180800000, 380.77], [1299600000000, 415.29], [1302192000000, 410.06], [1304870400000, 385.21], [1307376000000, 369.33], [1309795200000, 392.69], [1312214400000, 382.63], [1314633600000, 374.2], [1317139200000, 337.88], [1320163200000, 350.39], [1322582400000, 329.85], [1325001600000, 297.48], [1328112000000, 302.58], [1330531200000, 324.82], [1332950400000, 316.26], [1335888000000, 336.18], [1338307200000, 336.71], [1340812800000, 328.02], [1343145600000, 328.7], [1345564800000, 318.22], [1347984000000, 308.32], [1350921600000, 317.11], [1353340800000, 298.07], [1355760000000, 302.8], [1358438400000, 333.21], [1361462400000, 336.38], [1363881600000, 348.82], [1366646400000, 350.62], [1369324800000, 396.64], [1372176000000, 370.31], [1374508800000, 403.27], [1376928000000, 391.64], [1379347200000, 400.07], [1382544000000, 394.94], [1384963200000, 382.76], [1387382400000, 372.18], [1389888000000, 366.2], [1392912000000, 380.58], [1395331200000, 351.68], [1398009600000, 346.83], [1400601600000, 324.77], [1403107200000, 325.2], [1405526400000, 328.54], [1407945600000, 345.95], [1410451200000, 360.78], [1413475200000, 356.33], [1415894400000, 350.57], [1418313600000, 380.28], [1421078400000, 401.74], [1423497600000, 411.27], [1426521600000, 468.4], [1429027200000, 526.91], [1431532800000, 599.67], [1433952000000, 725.15], [1436457600000, 549.24], [1438876800000, 611.86], [1441641600000, 555.34], [1444665600000, 581.01], [1447084800000, 622.81], [1449504000000, 605.53], [1452009600000, 606.24], [1454428800000, 560.46], [1457452800000, 583.54], [1459958400000, 593.85], [1462464000000, 594.37], [1464883200000, 586.32], [1467648000000, 630.15], [1470067200000, 653.31], [1472486400000, 639.72], [1475078400000, 620.51], [1478102400000, 644.93], [1480521600000, 637.01], [1482940800000, 619.12], [1485360000000, 627.17], [1488384000000, 633.25], [1490803200000, 631.4], [1493654400000, 627.5], [1496246400000, 622.09], [1498665600000, 653.44], [1501084800000, 646.91], [1503504000000, 659.52], [1505923200000, 686.25], [1508947200000, 731.26], [1511366400000, 758.92], [1513785600000, 768.03], [1516204800000, 801.15], [1519228800000, 764.42], [1521648000000, 779.18], [1524412800000, 760.11], [1527004800000, 795.43], [1529510400000, 767.18], [1531843200000, 774.24], [1534262400000, 722.82], [1536681600000, 716.33], [1539792000000, 681.86], [1542211200000, 712.37], [1544630400000, 717.46], [1547136000000, 696.76], [1550160000000, 734.62], [1552579200000, 776.36], [1555257600000, 775.23], [1557936000000, 805.53], [1560441600000, 815.84], [1562774400000, 853.06], [1565193600000, 864.79], [1567612800000, 897.35], [1570723200000, 924.68], [1573142400000, 943.11], [1575561600000, 940.15], [1578240000000, 953.07], [1581350400000, 991.56], [1583769600000, 1022.19], [1586275200000, 1015.71], [1589126400000, 1059.8], [1591545600000, 1073.86], [1594137600000, 1141.8], [1596556800000, 1191.05], [1598976000000, 1222.99], [1601395200000, 1184.94], [1604505600000, 1205.11], [1606924800000, 1211.73], [1609344000000, 1240.29], [1611849600000, 1285.42], [1614873600000, 1241.12], [1617292800000, 1232.26], [1620230400000, 1250.61], [1622649600000, 1244.54], [1625155200000, 1218.58], [1627574400000, 1173.42], [1628438400000, 1194.48]]</t>
+  </si>
+  <si>
     <t>270002</t>
   </si>
   <si>
@@ -260,13 +341,19 @@
     <t xml:space="preserve"> [[1090771200000,1.0],[1091116800000,0.9993],[1091721600000,1.0002],[1092326400000,0.9989],[1092931200000,0.9999],[1093363200000,0.9974],[1093449600000,0.9977],[1093536000000,0.9945],[1093795200000,0.993],[1093881600000,0.9959],[1093968000000,0.992],[1094054400000,0.9922],[1094140800000,0.9926],[1094400000000,0.9904],[1094486400000,0.9906],[1094572800000,0.988],[1094659200000,0.9835],[1094745600000,0.9856],[1095004800000,0.9812],[1095091200000,0.9886],[1095177600000,0.9983],[1095264000000,1.0014],[1095350400000,1.0123],[1095609600000,1.0215],[1095696000000,1.0212],[1095782400000,1.0184],[1095868800000,1.035],[1095955200000,1.0273],[1096214400000,1.0281],[1096300800000,1.0369],[1096387200000,1.033],[1096473600000,1.0301],[1097164800000,1.0476],[1097424000000,1.0464],[1097510400000,1.0281],[1097596800000,1.0293],[1097683200000,1.0078],[1097769600000,1.0108],[1098028800000,1.0074],[1098115200000,1.0119],[1098201600000,1.0168],[1098288000000,1.0258],[1098374400000,1.0406],[1098633600000,1.044],[1098720000000,1.0526],[1098806400000,1.0492],[1098892800000,1.0435],[1098979200000,1.0351],[1099238400000,1.026],[1099324800000,1.0231],[1099411200000,1.0326],[1099497600000,1.0155],[1099584000000,1.0108],[1099843200000,1.016],[1099929600000,1.0196],[1100016000000,1.0408],[1100102400000,1.0344],[1100188800000,1.0341],[1100448000000,1.039],[1100534400000,1.0393],[1100620800000,1.0353],[1100707200000,1.0405],[1100793600000,1.0444],[1101052800000,1.0388],[1101139200000,1.0309],[1101225600000,1.0315],[1101312000000,1.0315],[1101398400000,1.03],[1101657600000,1.019],[1101744000000,1.0172],[1101830400000,1.0121],[1101916800000,1.0049],[1102003200000,1.0066],[1102262400000,1.0067],[1102348800000,1.0016],[1102435200000,1.005],[1102521600000,1.01],[1102608000000,1.0037],[1102867200000,1.0043],[1102953600000,1.006],[1103040000000,1.0064],[1103126400000,1.0045],[1103212800000,0.9986],[1103472000000,0.9855],[1103558400000,0.9784],[1103644800000,0.9882],[1103731200000,0.9795],[1103817600000,0.9804],[1104076800000,0.9799],[1104163200000,0.9859],[1104249600000,0.9885],[1104336000000,0.9888],[1104422400000,0.9949],[1104768000000,0.9829],[1104854400000,0.988],[1104940800000,0.9852],[1105027200000,0.9898],[1105286400000,0.9967],[1105372800000,1.0001],[1105459200000,1.0005],[1105545600000,1.0044],[1105632000000,1.0024],[1105891200000,0.9952],[1105977600000,0.9941],[1106064000000,0.9898],[1106150400000,0.984],[1106236800000,0.9966],[1106496000000,1.0074],[1106582400000,1.0141],[1106668800000,1.0137],[1106755200000,1.0098],[1106841600000,1.0089],[1107100800000,1.0092],[1107187200000,1.0043],[1107273600000,1.0314],[1107360000000,1.0315],[1107446400000,1.0469],[1108483200000,1.051],[1108569600000,1.0445],[1108656000000,1.0368],[1108915200000,1.0488],[1109001600000,1.0632],[1109088000000,1.061],[1109174400000,1.0587],[1109260800000,1.0636],[1109520000000,1.0606],[1109606400000,1.0595],[1109692800000,1.0505],[1109779200000,1.055],[1109865600000,1.0627],[1110124800000,1.0768],[1110211200000,1.0872],[1110297600000,1.0957],[1110384000000,1.086],[1110470400000,1.1037],[1110729600000,1.1166],[1110816000000,1.1058],[1110902400000,1.0962],[1110988800000,1.0977],[1111075200000,1.0873],[1111334400000,1.0971],[1111420800000,1.1078],[1111507200000,1.0975],[1111593600000,1.0814],[1111680000000,1.08],[1111939200000,1.0929],[1112025600000,1.0852],[1112112000000,1.0788],[1112198400000,1.0826],[1112284800000,1.11],[1112544000000,1.1162],[1112630400000,1.1214],[1112716800000,1.1458],[1112803200000,1.145],[1112889600000,1.153],[1113148800000,1.132],[1113235200000,1.1263],[1113321600000,1.1376],[1113408000000,1.1348],[1113494400000,1.1264],[1113753600000,1.1231],[1113840000000,1.1116],[1113926400000,1.1103],[1114012800000,1.1238],[1114099200000,1.1214],[1114358400000,1.1235],[1114444800000,1.1322],[1114531200000,1.1351],[1114617600000,1.1393],[1114704000000,1.1352],[1115568000000,1.1195],[1115654400000,1.1097],[1115740800000,1.0937],[1115827200000,1.0833],[1115913600000,1.0776],[1116172800000,1.073],[1116259200000,1.0783],[1116345600000,1.0622],[1116432000000,1.0601],[1116518400000,1.0638],[1116777600000,1.0552],[1116864000000,1.054],[1116950400000,1.0533],[1117036800000,1.0382],[1117123200000,1.0188],[1117382400000,1.025],[1117468800000,1.0268],[1117555200000,1.014],[1117641600000,0.9801],[1117728000000,0.9863],[1117987200000,1.0206],[1118073600000,1.0191],[1118160000000,1.0778],[1118246400000,1.0771],[1118332800000,1.0593],[1118592000000,1.0532],[1118678400000,1.0482],[1118764800000,1.0417],[1118851200000,1.0551],[1118937600000,1.0509],[1119196800000,1.0782],[1119283200000,1.0746],[1119369600000,1.088],[1119456000000,1.0837],[1119542400000,1.084],[1119801600000,1.098],[1119888000000,1.0858],[1119974400000,1.0827],[1120060800000,1.0756],[1120147200000,1.0638],[1120406400000,1.0655],[1120492800000,1.0663],[1120579200000,1.0502],[1120665600000,1.049],[1120752000000,1.0502],[1121011200000,1.0486],[1121097600000,1.0636],[1121184000000,1.0593],[1121270400000,1.0646],[1121356800000,1.0645],[1121616000000,1.0554],[1121702400000,1.0552],[1121788800000,1.0632],[1121875200000,1.0626],[1121961600000,1.0704],[1122220800000,1.0697],[1122307200000,1.0785],[1122393600000,1.0905],[1122480000000,1.0905],[1122566400000,1.0872],[1122825600000,1.0889],[1122912000000,1.0938],[1122998400000,1.0954],[1123084800000,1.0967],[1123171200000,1.1097],[1123430400000,1.1032],[1123516800000,1.1014],[1123603200000,1.1052],[1123689600000,1.1281],[1123776000000,1.1137],[1124035200000,1.1248],[1124121600000,1.115],[1124208000000,1.1237],[1124294400000,1.1025],[1124380800000,1.1027],[1124640000000,1.1106],[1124726400000,1.1088],[1124812800000,1.1119],[1124899200000,1.109],[1124985600000,1.1067],[1125244800000,1.1027],[1125331200000,1.1012],[1125417600000,1.1122],[1125504000000,1.1258],[1125590400000,1.1271],[1125849600000,1.1285],[1125936000000,1.1196],[1126022400000,1.1335],[1126108800000,1.1392],[1126195200000,1.1361],[1126454400000,1.1403],[1126540800000,1.1571],[1126627200000,1.1605],[1126713600000,1.1593],[1126800000000,1.1559],[1127059200000,1.1521],[1127145600000,1.1445],[1127232000000,1.1352],[1127318400000,1.1214],[1127404800000,1.1215],[1127664000000,1.1244],[1127750400000,1.1195],[1127836800000,1.1197],[1127923200000,1.1323],[1128009600000,1.1354],[1128873600000,1.1327],[1128960000000,1.1377],[1129046400000,1.1402],[1129132800000,1.1348],[1129219200000,1.1244],[1129478400000,1.1252],[1129564800000,1.1277],[1129651200000,1.1284],[1129737600000,1.131],[1129824000000,1.1339],[1130083200000,1.135],[1130169600000,1.1267],[1130256000000,1.1147],[1130342400000,1.1183],[1130428800000,1.1133],[1130688000000,1.1194],[1130774400000,1.1197],[1130860800000,1.1202],[1130947200000,1.1089],[1131033600000,1.1096],[1131292800000,1.105],[1131379200000,1.1089],[1131465600000,1.1121],[1131552000000,1.1067],[1131638400000,1.107],[1131897600000,1.1016],[1131984000000,1.0915],[1132070400000,1.0939],[1132156800000,1.0929],[1132243200000,1.1042],[1132502400000,1.1056],[1132588800000,1.1043],[1132675200000,1.1109],[1132761600000,1.1119],[1132848000000,1.112],[1133107200000,1.107],[1133193600000,1.0989],[1133280000000,1.098],[1133366400000,1.0932],[1133452800000,1.0905],[1133712000000,1.0832],[1133798400000,1.0852],[1133884800000,1.09],[1133971200000,1.0901],[1134057600000,1.1004],[1134316800000,1.1006],[1134403200000,1.0987],[1134489600000,1.1063],[1134576000000,1.1084],[1134662400000,1.1154],[1134921600000,1.1137],[1135008000000,1.1195],[1135094400000,1.1211],[1135180800000,1.1332],[1135267200000,1.1395],[1135526400000,1.1456],[1135612800000,1.1449],[1135699200000,1.1495],[1135785600000,1.1655],[1135872000000,1.1603],[1135958400000,1.1603],[1136304000000,1.1711],[1136390400000,1.1871],[1136476800000,1.2013],[1136736000000,1.2047],[1136822400000,1.2121],[1136908800000,1.215],[1136995200000,1.2187],[1137081600000,1.2139],[1137340800000,1.2052],[1137427200000,1.2045],[1137513600000,1.2196],[1137600000000,1.222],[1137686400000,1.2331],[1137945600000,1.233],[1138032000000,1.235],[1138118400000,1.2467],[1139155200000,1.2711],[1139241600000,1.2779],[1139328000000,1.2663],[1139414400000,1.2614],[1139500800000,1.2713],[1139760000000,1.2793],[1139846400000,1.2924],[1139932800000,1.291],[1140019200000,1.2756],[1140105600000,1.2692],[1140364800000,1.2664],[1140451200000,1.2775],[1140537600000,1.2761],[1140624000000,1.2766],[1140710400000,1.2878],[1140969600000,1.2931],[1141056000000,1.2989],[1141142400000,1.3073],[1141228800000,1.2978],[1141315200000,1.3019],[1141574400000,1.3031],[1141660800000,1.283],[1141747200000,1.2743],[1141833600000,1.2708],[1141920000000,1.2745],[1142179200000,1.2887],[1142265600000,1.2981],[1142352000000,1.3111],[1142438400000,1.313],[1142524800000,1.3044],[1142784000000,1.3103],[1142870400000,1.319],[1142956800000,1.3318],[1143043200000,1.3337],[1143129600000,1.3306],[1143388800000,1.3448],[1143475200000,1.3552],[1143561600000,1.3728],[1143648000000,1.3731],[1143734400000,1.3988],[1143993600000,1.4161],[1144080000000,1.4232],[1144166400000,1.4349],[1144252800000,1.444],[1144339200000,1.4459],[1144598400000,1.4521],[1144684800000,1.4559],[1144771200000,1.4491],[1144857600000,1.4264],[1144944000000,1.4413],[1145203200000,1.4486],[1145289600000,1.4695],[1145376000000,1.5036],[1145462400000,1.5187],[1145548800000,1.5363],[1145808000000,1.5548],[1145894400000,1.5796],[1145980800000,1.5879],[1146067200000,1.5987],[1146153600000,1.6098],[1147017600000,1.6391],[1147104000000,1.6762],[1147190400000,1.693],[1147276800000,1.7142],[1147363200000,1.7592],[1147622400000,1.8112],[1147708800000,1.7856],[1147795200000,1.785],[1147881600000,1.802],[1147968000000,1.8303],[1148227200000,1.8064],[1148313600000,1.7778],[1148400000000,1.7848],[1148486400000,1.7835],[1148572800000,1.8034],[1148832000000,1.8349],[1148918400000,1.8818],[1149004800000,1.8827],[1149091200000,1.9076],[1149177600000,1.881],[1149436800000,1.8739],[1149523200000,1.846],[1149609600000,1.7902],[1149696000000,1.8003],[1149782400000,1.8087],[1150041600000,1.8525],[1150128000000,1.8595],[1150214400000,1.8364],[1150300800000,1.8403],[1150387200000,1.8591],[1150646400000,1.8843],[1150732800000,1.8891],[1150819200000,1.881],[1150905600000,1.8724],[1150992000000,1.8749],[1151251200000,1.8833],[1151337600000,1.8919],[1151424000000,1.879],[1151510400000,1.9021],[1151596800000,1.9084],[1151856000000,1.9036],[1151942400000,1.9098],[1152028800000,1.9017],[1152115200000,1.9257],[1152201600000,1.911],[1152460800000,1.8984],[1152547200000,1.9004],[1152633600000,1.9066],[1152720000000,1.858],[1152806400000,1.8621],[1153065600000,1.8637],[1153152000000,1.8609],[1153238400000,1.8184],[1153324800000,1.8212],[1153411200000,1.8413],[1153670400000,1.8482],[1153756800000,1.8677],[1153843200000,1.8554],[1153929600000,1.8424],[1154016000000,1.8248],[1154275200000,1.7844],[1154361600000,1.7776],[1154448000000,1.7685],[1154534400000,1.7552],[1154620800000,1.7379],[1154880000000,1.7313],[1154966400000,1.7504],[1155052800000,1.7478],[1155139200000,1.7627],[1155225600000,1.7684],[1155484800000,1.7392],[1155571200000,1.7539],[1155657600000,1.7676],[1155744000000,1.7575],[1155830400000,1.754],[1156089600000,1.7584],[1156176000000,1.7896],[1156262400000,1.7885],[1156348800000,1.7951],[1156435200000,1.7984],[1156694400000,1.8292],[1156780800000,1.8533],[1156867200000,1.8529],[1156953600000,1.8553],[1157040000000,1.8458],[1157299200000,1.8621],[1157385600000,1.8603],[1157472000000,1.8567],[1157558400000,1.844],[1157644800000,1.8489],[1157904000000,1.8498],[1157990400000,1.8549],[1158076800000,1.8495],[1158163200000,1.8535],[1158249600000,1.8646],[1158508800000,1.8755],[1158595200000,1.8945],[1158681600000,1.9066],[1158768000000,1.9195],[1158854400000,1.9236],[1159113600000,1.925],[1159200000000,1.9061],[1159286400000,1.9096],[1159372800000,1.935],[1159459200000,1.9471],[1159545600000,1.947],[1160323200000,1.9693],[1160409600000,1.9626],[1160496000000,1.9526],[1160582400000,1.9228],[1160668800000,1.9194],[1160928000000,1.888],[1161014400000,1.8934],[1161100800000,1.9098],[1161187200000,1.9161],[1161273600000,1.921],[1161532800000,1.8918],[1161619200000,1.9168],[1161705600000,1.933],[1161792000000,1.9401],[1161878400000,1.9227],[1162137600000,1.9109],[1162224000000,1.9205],[1162310400000,1.9234],[1162396800000,1.9209],[1162483200000,1.9268],[1162742400000,1.9337],[1162828800000,1.9432],[1162915200000,1.9456],[1163001600000,1.9634],[1163088000000,1.9461],[1163347200000,1.9222],[1163433600000,1.9394],[1163520000000,1.9765],[1163606400000,1.9842],[1163692800000,2.0105],[1163952000000,2.0045],[1164038400000,2.0106],[1164124800000,2.0405],[1164211200000,2.0401],[1164297600000,2.061],[1164556800000,2.0896],[1164643200000,2.1029],[1164729600000,2.1274],[1164816000000,2.1771],[1164902400000,2.2041],[1165161600000,2.22],[1165248000000,2.2261],[1165334400000,2.2099],[1165420800000,2.1919],[1165507200000,2.1638],[1165766400000,2.1908],[1165852800000,2.1941],[1165939200000,2.1968],[1166025600000,2.2068],[1166112000000,2.224],[1166371200000,2.2506],[1166457600000,2.2443],[1166544000000,2.254],[1166630400000,2.2427],[1166716800000,2.236],[1166976000000,2.253],[1167062400000,2.2508],[1167148800000,2.266],[1167235200000,2.2659],[1167321600000,2.2852],[1167494400000,2.2851],[1167840000000,2.2859],[1167926400000,2.2767],[1168185600000,2.2918],[1168272000000,2.3228],[1168358400000,2.3418],[1168444800000,2.3362],[1168531200000,2.3278],[1168790400000,2.3697],[1168876800000,2.4046],[1168963200000,2.3767],[1169049600000,2.3807],[1169136000000,2.4091],[1169395200000,2.4435],[1169481600000,2.4311],[1169568000000,2.448],[1169654400000,2.4172],[1169740800000,2.438],[1170000000000,2.4497],[1170086400000,2.445],[1170172800000,2.3786],[1170259200000,2.3875],[1170345600000,2.3376],[1170604800000,2.3191],[1170691200000,2.321],[1170777600000,2.3381],[1170864000000,2.3495],[1170950400000,2.3467],[1171209600000,2.3893],[1171296000000,2.4117],[1171382400000,2.4278],[1171468800000,2.457],[1171555200000,2.4534],[1172419200000,2.4317],[1172505600000,2.3293],[1172592000000,2.3538],[1172678400000,2.3389],[1172764800000,2.3624],[1173024000000,2.363],[1173110400000,2.3811],[1173196800000,2.4175],[1173283200000,2.431],[1173369600000,2.4203],[1173628800000,2.4191],[1173715200000,2.4264],[1173801600000,2.4166],[1173888000000,2.4419],[1173974400000,2.4277],[1174233600000,2.448],[1174320000000,2.4405],[1174406400000,2.4497],[1174492800000,2.4521],[1174579200000,2.4442],[1174838400000,2.4577],[1174924800000,2.4666],[1175011200000,2.4662],[1175097600000,2.4797],[1175184000000,2.4735],[1175270400000,2.4735],[1175443200000,2.4977],[1175529600000,2.5134],[1175616000000,2.5231],[1175702400000,2.5342],[1175788800000,2.5481],[1176048000000,2.5668],[1176134400000,2.572],[1176220800000,2.5853],[1176307200000,2.6138],[1176393600000,2.6202],[1176652800000,2.6468],[1176739200000,2.662],[1176825600000,2.658],[1176912000000,2.5869],[1176998400000,2.6294],[1177257600000,2.679],[1177344000000,2.6724],[1177430400000,2.6727],[1177516800000,2.6832],[1177603200000,2.6616],[1177862400000,2.7337],[1178553600000,2.7845],[1178640000000,2.787],[1178726400000,2.7804],[1178812800000,2.7676],[1179072000000,2.7904],[1179158400000,2.7583],[1179244800000,2.7946],[1179331200000,2.8306],[1179417600000,2.8414],[1179676800000,2.8677],[1179763200000,2.8665],[1179849600000,2.9061],[1179936000000,2.9046],[1180022400000,2.9216],[1180281600000,2.9501],[1180368000000,2.9909],[1180454400000,2.9198],[1180540800000,2.9688],[1180627200000,2.9372],[1180886400000,2.8577],[1180972800000,2.9044],[1181059200000,2.9196],[1181145600000,2.9464],[1181232000000,2.9529],[1181491200000,2.9945],[1181577600000,3.0225],[1181664000000,3.0563],[1181750400000,3.0514],[1181836800000,3.0756],[1182096000000,3.1171],[1182182400000,3.1265],[1182268800000,3.0992],[1182355200000,3.1163],[1182441600000,3.0903],[1182700800000,3.0601],[1182787200000,3.0508],[1182873600000,3.0959],[1182960000000,3.0413],[1183046400000,3.0362],[1183132800000,3.0362],[1183305600000,3.0118],[1183392000000,3.034],[1183478400000,3.0209],[1183564800000,2.9636],[1183651200000,3.0119],[1183910400000,3.0524],[1183996800000,3.0358],[1184083200000,3.04],[1184169600000,3.0529],[1184256000000,3.0513],[1184515200000,3.0217],[1184601600000,3.0777],[1184688000000,3.0836],[1184774400000,3.0846],[1184860800000,3.1653],[1185120000000,3.2115],[1185206400000,3.219],[1185292800000,3.2374],[1185379200000,3.2465],[1185465600000,3.255],[1185724800000,3.2839],[1185811200000,3.2837],[1185897600000,3.2642],[1185984000000,3.3257],[1186070400000,3.3884],[1186329600000,3.4159],[1186416000000,3.4492],[1186502400000,3.4159],[1186588800000,3.4619],[1186675200000,3.432],[1186934400000,3.4133],[1187020800000,3.432],[1187107200000,3.4481],[1187193600000,3.4126],[1187280000000,3.3643],[1187539200000,3.4544],[1187625600000,3.502],[1187712000000,3.543],[1187798400000,3.604],[1187884800000,3.6488],[1188144000000,3.6513],[1188230400000,3.6448],[1188316800000,3.6171],[1188403200000,3.6283],[1188489600000,3.6642],[1188748800000,3.7148],[1188835200000,3.7033],[1188921600000,3.6879],[1189008000000,3.7078],[1189094400000,3.6723],[1189353600000,3.6958],[1189440000000,3.6243],[1189526400000,3.6378],[1189612800000,3.7202],[1189699200000,3.726],[1189958400000,3.7496],[1190044800000,3.7134],[1190131200000,3.69],[1190217600000,3.7062],[1190304000000,3.6877],[1190563200000,3.7214],[1190649600000,3.7179],[1190736000000,3.6843],[1190822400000,3.7096],[1190908800000,3.7582],[1191081600000,3.7581],[1191772800000,3.81],[1191859200000,3.8215],[1191945600000,3.8398],[1192032000000,3.8684],[1192118400000,3.8339],[1192377600000,3.811],[1192464000000,3.8422],[1192550400000,3.8085],[1192636800000,3.7346],[1192723200000,3.7628],[1192982400000,3.7536],[1193068800000,3.7833],[1193155200000,3.8326],[1193241600000,3.7799],[1193328000000,3.822],[1193587200000,3.837],[1193673600000,3.8513],[1193760000000,3.8983],[1193846400000,3.8887],[1193932800000,3.8185],[1194192000000,3.7734],[1194278400000,3.7542],[1194364800000,3.7673],[1194451200000,3.6953],[1194537600000,3.6724],[1194796800000,3.6599],[1194883200000,3.6254],[1194969600000,3.685],[1195056000000,3.6537],[1195142400000,3.6068],[1195401600000,3.5723],[1195488000000,3.6019],[1195574400000,3.5951],[1195660800000,3.5201],[1195747200000,3.5509],[1196006400000,3.5337],[1196092800000,3.4926],[1196179200000,3.4671],[1196265600000,3.5307],[1196352000000,3.5085],[1196611200000,3.5424],[1196697600000,3.5678],[1196784000000,3.6089],[1196870400000,3.6085],[1196956800000,3.6228],[1197216000000,3.6402],[1197302400000,3.6331],[1197388800000,3.5903],[1197475200000,3.5109],[1197561600000,3.5436],[1197820800000,3.494],[1197907200000,3.4848],[1197993600000,3.5206],[1198080000000,3.559],[1198166400000,3.5677],[1198425600000,3.601],[1198512000000,3.6088],[1198598400000,3.6199],[1198684800000,3.663],[1198771200000,3.6685],[1198857600000,3.6684],[1199030400000,3.6683],[1199203200000,3.6788],[1199289600000,3.665],[1199376000000,3.6999],[1199635200000,3.7421],[1199721600000,3.7337],[1199808000000,3.7685],[1199894400000,3.8186],[1199980800000,3.8559],[1200240000000,3.8747],[1200326400000,3.8309],[1200412800000,3.7398],[1200499200000,3.7063],[1200585600000,3.7182],[1200844800000,3.612],[1200931200000,3.4882],[1201017600000,3.5672],[1201104000000,3.5856],[1201190400000,3.6288],[1201449600000,3.5455],[1201536000000,3.5539],[1201622400000,3.5418],[1201708800000,3.5196],[1201795200000,3.5273],[1202054400000,3.653],[1202140800000,3.6318],[1202832000000,3.6005],[1202918400000,3.613],[1203004800000,3.587],[1203264000000,3.63],[1203350400000,3.6607],[1203436800000,3.6029],[1203523200000,3.5786],[1203609600000,3.5113],[1203868800000,3.4539],[1203955200000,3.4338],[1204041600000,3.4682],[1204128000000,3.4649],[1204214400000,3.4864],[1204473600000,3.5226],[1204560000000,3.4663],[1204646400000,3.4434],[1204732800000,3.4544],[1204819200000,3.4419],[1205078400000,3.3717],[1205164800000,3.3473],[1205251200000,3.2859],[1205337600000,3.2495],[1205424000000,3.232],[1205683200000,3.1811],[1205769600000,3.1147],[1205856000000,3.1625],[1205942400000,3.2058],[1206028800000,3.2234],[1206288000000,3.1391],[1206374400000,3.1703],[1206460800000,3.1832],[1206547200000,3.1636],[1206633600000,3.2254],[1206892800000,3.1908],[1206979200000,3.1113],[1207065600000,3.1023],[1207152000000,3.135],[1207497600000,3.2018],[1207584000000,3.2188],[1207670400000,3.1415],[1207756800000,3.169],[1207843200000,3.178],[1208102400000,3.083],[1208188800000,3.0836],[1208275200000,3.0525],[1208361600000,3.0201],[1208448000000,2.9894],[1208707200000,2.9716],[1208793600000,2.9803],[1208880000000,3.05],[1208966400000,3.1599],[1209052800000,3.1695],[1209312000000,3.1394],[1209398400000,3.1463],[1209484800000,3.2015],[1209916800000,3.2321],[1210003200000,3.2176],[1210089600000,3.1626],[1210176000000,3.1947],[1210262400000,3.178],[1210521600000,3.1802],[1210608000000,3.1805],[1210694400000,3.2223],[1210780800000,3.2062],[1210867200000,3.2098],[1211126400000,3.2042],[1211212800000,3.1494],[1211299200000,3.163],[1211385600000,3.1345],[1211472000000,3.1157],[1211731200000,3.0859],[1211817600000,3.0935],[1211904000000,3.1241],[1211990400000,3.0936],[1212076800000,3.0963],[1212336000000,3.0959],[1212422400000,3.0937],[1212508800000,3.0847],[1212595200000,3.0669],[1212681600000,3.0652],[1213027200000,2.9786],[1213113600000,2.9491],[1213200000000,2.9374],[1213286400000,2.9019],[1213545600000,2.8921],[1213632000000,2.8598],[1213718400000,2.9038],[1213804800000,2.8389],[1213891200000,2.8551],[1214150400000,2.8378],[1214236800000,2.8646],[1214323200000,2.9063],[1214409600000,2.9159],[1214496000000,2.8653],[1214755200000,2.8604],[1214841600000,2.8366],[1214928000000,2.8425],[1215014400000,2.8611],[1215100800000,2.8537],[1215360000000,2.8994],[1215446400000,2.9077],[1215532800000,2.9423],[1215619200000,2.9429],[1215705600000,2.9318],[1215964800000,2.9336],[1216051200000,2.8922],[1216137600000,2.8571],[1216224000000,2.8503],[1216310400000,2.8677],[1216569600000,2.9004],[1216656000000,2.8983],[1216742400000,2.8841],[1216828800000,2.9165],[1216915200000,2.9073],[1217174400000,2.9121],[1217260800000,2.896],[1217347200000,2.8889],[1217433600000,2.8592],[1217520000000,2.8642],[1217779200000,2.8399],[1217865600000,2.8048],[1217952000000,2.8014],[1218038400000,2.7993],[1218124800000,2.7636],[1218384000000,2.727],[1218470400000,2.7256],[1218556800000,2.7334],[1218643200000,2.7386],[1218729600000,2.7339],[1218988800000,2.6943],[1219075200000,2.7036],[1219161600000,2.7571],[1219248000000,2.7277],[1219334400000,2.7105],[1219593600000,2.7074],[1219680000000,2.6832],[1219766400000,2.6816],[1219852800000,2.6829],[1219939200000,2.7033],[1220198400000,2.6724],[1220284800000,2.6644],[1220371200000,2.6474],[1220457600000,2.6445],[1220544000000,2.6195],[1220803200000,2.5957],[1220889600000,2.5982],[1220976000000,2.5938],[1221062400000,2.5704],[1221148800000,2.5724],[1221494400000,2.5652],[1221580800000,2.5514],[1221667200000,2.5457],[1221753600000,2.5941],[1222012800000,2.6278],[1222099200000,2.5957],[1222185600000,2.5944],[1222272000000,2.6177],[1222358400000,2.6343],[1222704000000,2.6342],[1223222400000,2.5986],[1223308800000,2.5992],[1223395200000,2.5797],[1223481600000,2.5662],[1223568000000,2.5355],[1223827200000,2.5557],[1223913600000,2.5394],[1224000000000,2.5318],[1224086400000,2.5052],[1224172800000,2.509],[1224432000000,2.5311],[1224518400000,2.5252],[1224604800000,2.51],[1224691200000,2.5168],[1224777600000,2.4996],[1225036800000,2.4571],[1225123200000,2.4767],[1225209600000,2.46],[1225296000000,2.4741],[1225382400000,2.4667],[1225641600000,2.4625],[1225728000000,2.4487],[1225814400000,2.4657],[1225900800000,2.4487],[1225987200000,2.4599],[1226246400000,2.5004],[1226332800000,2.5005],[1226419200000,2.5114],[1226505600000,2.5355],[1226592000000,2.5621],[1226851200000,2.5765],[1226937600000,2.5296],[1227024000000,2.5732],[1227110400000,2.5746],[1227196800000,2.5707],[1227456000000,2.5424],[1227542400000,2.5441],[1227628800000,2.5482],[1227715200000,2.5604],[1227801600000,2.548],[1228060800000,2.5629],[1228147200000,2.5672],[1228233600000,2.5948],[1228320000000,2.6023],[1228406400000,2.6173],[1228665600000,2.6449],[1228752000000,2.6298],[1228838400000,2.6501],[1228924800000,2.6368],[1229011200000,2.6036],[1229270400000,2.6092],[1229356800000,2.6252],[1229443200000,2.6295],[1229529600000,2.6449],[1229616000000,2.6476],[1229875200000,2.636],[1229961600000,2.6014],[1230048000000,2.5879],[1230134400000,2.5824],[1230220800000,2.5793],[1230480000000,2.5786],[1230566400000,2.5734],[1230652800000,2.5707],[1231084800000,2.5996],[1231171200000,2.6205],[1231257600000,2.6205],[1231344000000,2.6068],[1231430400000,2.6212],[1231689600000,2.6226],[1231776000000,2.6042],[1231862400000,2.6349],[1231948800000,2.6395],[1232035200000,2.6495],[1232294400000,2.656],[1232380800000,2.6597],[1232467200000,2.6604],[1232553600000,2.671],[1232640000000,2.6662],[1233504000000,2.6766],[1233590400000,2.6914],[1233676800000,2.7049],[1233763200000,2.6914],[1233849600000,2.7266],[1234108800000,2.7566],[1234195200000,2.7723],[1234281600000,2.7661],[1234368000000,2.7673],[1234454400000,2.7925],[1234713600000,2.805],[1234800000000,2.782],[1234886400000,2.7513],[1234972800000,2.7613],[1235059200000,2.7815],[1235318400000,2.8146],[1235404800000,2.7849],[1235491200000,2.7775],[1235577600000,2.7307],[1235664000000,2.7086],[1235923200000,2.7263],[1236009600000,2.7173],[1236096000000,2.7741],[1236182400000,2.7777],[1236268800000,2.7763],[1236528000000,2.748],[1236614400000,2.7585],[1236700800000,2.7497],[1236787200000,2.7491],[1236873600000,2.7451],[1237132800000,2.7568],[1237219200000,2.7888],[1237305600000,2.7961],[1237392000000,2.8113],[1237478400000,2.8195],[1237737600000,2.8498],[1237824000000,2.8503],[1237910400000,2.8351],[1237996800000,2.862],[1238083200000,2.8659],[1238342400000,2.8568],[1238428800000,2.8653],[1238515200000,2.8797],[1238601600000,2.8877],[1238688000000,2.8811],[1239033600000,2.8805],[1239120000000,2.8533],[1239206400000,2.8676],[1239292800000,2.9014],[1239552000000,2.9169],[1239638400000,2.9246],[1239724800000,2.932],[1239811200000,2.9305],[1239897600000,2.9128],[1240156800000,2.9338],[1240243200000,2.9183],[1240329600000,2.8695],[1240416000000,2.8833],[1240502400000,2.8717],[1240761600000,2.849],[1240848000000,2.8547],[1240934400000,2.8817],[1241020800000,2.8948],[1241366400000,2.9376],[1241452800000,2.9439],[1241539200000,2.9635],[1241625600000,2.9589],[1241712000000,2.9582],[1241971200000,2.9204],[1242057600000,2.9447],[1242144000000,2.9625],[1242230400000,2.9601],[1242316800000,2.9617],[1242576000000,2.9769],[1242662400000,3.0047],[1242748800000,2.9991],[1242835200000,2.9771],[1242921600000,2.9665],[1243180800000,2.9853],[1243267200000,2.9621],[1243353600000,2.9714],[1243785600000,3.0136],[1243872000000,3.0242],[1243958400000,3.0554],[1244044800000,3.0533],[1244131200000,3.0534],[1244390400000,3.0454],[1244476800000,3.0381],[1244563200000,3.0451],[1244649600000,3.0321],[1244736000000,3.0131],[1244995200000,3.0205],[1245081600000,3.02],[1245168000000,3.0447],[1245254400000,3.0601],[1245340800000,3.0554],[1245600000000,3.045],[1245686400000,3.0346],[1245772800000,3.0697],[1245859200000,3.0682],[1245945600000,3.0794],[1246204800000,3.0992],[1246291200000,3.1025],[1246377600000,3.121],[1246464000000,3.1365],[1246550400000,3.1547],[1246809600000,3.158],[1246896000000,3.1408],[1246982400000,3.1573],[1247068800000,3.1635],[1247155200000,3.1719],[1247414400000,3.1566],[1247500800000,3.1856],[1247587200000,3.2057],[1247673600000,3.213],[1247760000000,3.2367],[1248019200000,3.2756],[1248105600000,3.2583],[1248192000000,3.2896],[1248278400000,3.3155],[1248364800000,3.3357],[1248624000000,3.3705],[1248710400000,3.3644],[1248796800000,3.2747],[1248883200000,3.2946],[1248969600000,3.3511],[1249228800000,3.3693],[1249315200000,3.3941],[1249401600000,3.3792],[1249488000000,3.3435],[1249574400000,3.2764],[1249833600000,3.2847],[1249920000000,3.2768],[1250006400000,3.2142],[1250092800000,3.2648],[1250179200000,3.2432],[1250438400000,3.1478],[1250524800000,3.1663],[1250611200000,3.093],[1250697600000,3.1466],[1250784000000,3.1727],[1251043200000,3.1992],[1251129600000,3.1499],[1251216000000,3.1641],[1251302400000,3.1436],[1251388800000,3.0988],[1251648000000,2.9977],[1251734400000,2.9824],[1251820800000,3.0006],[1251907200000,3.0693],[1251993600000,3.0811],[1252252800000,3.0831],[1252339200000,3.1181],[1252425600000,3.14],[1252512000000,3.1306],[1252598400000,3.151],[1252857600000,3.1711],[1252944000000,3.1859],[1253030400000,3.176],[1253116800000,3.1915],[1253203200000,3.1356],[1253462400000,3.1365],[1253548800000,3.0995],[1253635200000,3.0613],[1253721600000,3.0694],[1253808000000,3.0529],[1254067200000,3.0132],[1254153600000,3.0179],[1254240000000,3.038],[1255017600000,3.1039],[1255276800000,3.0951],[1255363200000,3.1134],[1255449600000,3.1367],[1255536000000,3.1357],[1255622400000,3.1433],[1255881600000,3.1938],[1255968000000,3.2051],[1256054400000,3.2031],[1256140800000,3.1941],[1256227200000,3.227],[1256486400000,3.2351],[1256572800000,3.187],[1256659200000,3.1904],[1256745600000,3.1466],[1256832000000,3.1608],[1257091200000,3.2002],[1257177600000,3.2135],[1257264000000,3.2199],[1257350400000,3.2216],[1257436800000,3.2347],[1257696000000,3.2357],[1257782400000,3.2389],[1257868800000,3.2254],[1257955200000,3.2197],[1258041600000,3.2241],[1258300800000,3.2731],[1258387200000,3.2783],[1258473600000,3.2827],[1258560000000,3.2855],[1258646400000,3.2806],[1258905600000,3.298],[1258992000000,3.2618],[1259078400000,3.2978],[1259164800000,3.2664],[1259251200000,3.2112],[1259510400000,3.2537],[1259596800000,3.272],[1259683200000,3.2971],[1259769600000,3.2922],[1259856000000,3.2833],[1260115200000,3.2906],[1260201600000,3.2893],[1260288000000,3.2635],[1260374400000,3.2705],[1260460800000,3.2679],[1260720000000,3.2749],[1260806400000,3.2721],[1260892800000,3.2623],[1260979200000,3.2255],[1261065600000,3.1743],[1261324800000,3.1771],[1261411200000,3.1382],[1261497600000,3.1491],[1261584000000,3.194],[1261670400000,3.191],[1261929600000,3.2138],[1262016000000,3.2175],[1262102400000,3.2249],[1262188800000,3.2257],[1262534400000,3.2195],[1262620800000,3.2449],[1262707200000,3.249],[1262793600000,3.2348],[1262880000000,3.234],[1263139200000,3.24],[1263225600000,3.2512],[1263312000000,3.212],[1263398400000,3.2298],[1263484800000,3.2323],[1263744000000,3.2505],[1263830400000,3.2543],[1263916800000,3.2148],[1264003200000,3.2068],[1264089600000,3.1722],[1264348800000,3.1603],[1264435200000,3.1231],[1264521600000,3.1051],[1264608000000,3.1065],[1264694400000,3.1093],[1264953600000,3.0893],[1265040000000,3.0914],[1265126400000,3.1103],[1265212800000,3.1136],[1265299200000,3.0912],[1265558400000,3.0893],[1265644800000,3.093],[1265731200000,3.1085],[1265817600000,3.1131],[1265904000000,3.1259],[1266768000000,3.1254],[1266854400000,3.1259],[1266940800000,3.144],[1267027200000,3.1587],[1267113600000,3.1552],[1267372800000,3.1744],[1267459200000,3.1602],[1267545600000,3.169],[1267632000000,3.1382],[1267718400000,3.137],[1267977600000,3.142],[1268064000000,3.1476],[1268150400000,3.137],[1268236800000,3.1283],[1268323200000,3.1152],[1268582400000,3.1025],[1268668800000,3.1081],[1268755200000,3.1326],[1268841600000,3.1323],[1268928000000,3.1488],[1269187200000,3.1486],[1269273600000,3.143],[1269360000000,3.1448],[1269446400000,3.1317],[1269532800000,3.1423],[1269792000000,3.1586],[1269878400000,3.1647],[1269964800000,3.1676],[1270051200000,3.1923],[1270137600000,3.1982],[1270483200000,3.1994],[1270569600000,3.2015],[1270656000000,3.1936],[1270742400000,3.2106],[1271001600000,3.2198],[1271088000000,3.2221],[1271174400000,3.2351],[1271260800000,3.2244],[1271347200000,3.2217],[1271606400000,3.1689],[1271692800000,3.1931],[1271779200000,3.218],[1271865600000,3.2232],[1271952000000,3.2167],[1272211200000,3.2078],[1272297600000,3.1821],[1272384000000,3.1724],[1272470400000,3.1414],[1272556800000,3.1322],[1272902400000,3.133],[1272988800000,3.1447],[1273075200000,3.1113],[1273161600000,3.086],[1273420800000,3.0679],[1273507200000,3.0398],[1273593600000,3.0138],[1273680000000,3.0465],[1273766400000,3.0553],[1274025600000,3.0027],[1274112000000,3.0139],[1274198400000,3.0147],[1274284800000,2.9992],[1274371200000,3.0171],[1274630400000,3.0569],[1274716800000,3.0513],[1274803200000,3.051],[1274889600000,3.0769],[1274976000000,3.0874],[1275235200000,3.0544],[1275321600000,3.048],[1275408000000,3.0595],[1275494400000,3.0565],[1275580800000,3.0646],[1275840000000,3.0658],[1275926400000,3.0672],[1276012800000,3.0893],[1276099200000,3.0915],[1276185600000,3.0873],[1276704000000,3.065],[1276790400000,3.0203],[1277049600000,3.0405],[1277136000000,3.0471],[1277222400000,3.0448],[1277308800000,3.0434],[1277395200000,3.0266],[1277654400000,3.01</t>
   </si>
   <si>
+    <t>[[1527004800000, 0.0], [1528387200000, 0.06], [1529424000000, -1.56], [1529856000000, -1.48], [1530115200000, -2.35], [1530460800000, -1.91], [1530720000000, -4.37], [1531152000000, -1.45], [1531411200000, -0.16], [1531843200000, -1.64], [1532275200000, -0.74], [1532534400000, -1.91], [1532966400000, -4.34], [1533225600000, -9.5], [1533657600000, -12.36], [1534089600000, -9.56], [1534348800000, -13.04], [1534780800000, -12.6], [1535040000000, -13.6], [1535472000000, -12.41], [1535904000000, -14.29], [1536163200000, -16.11], [1536595200000, -17.63], [1536854400000, -15.55], [1537286400000, -14.69], [1537804800000, -12.16], [1538064000000, -11.8], [1539100800000, -16.85], [1539532800000, -24.39], [1539792000000, -27.1], [1540224000000, -24.27], [1540483200000, -24.23], [1540915200000, -23.87], [1541347200000, -20.38], [1541606400000, -21.36], [1542038400000, -18.83], [1542297600000, -17.9], [1542729600000, -19.0], [1543161600000, -22.4], [1543420800000, -20.87], [1543852800000, -17.15], [1544112000000, -18.23], [1544544000000, -17.65], [1544976000000, -19.31], [1545235200000, -20.73], [1545667200000, -22.18], [1545926400000, -23.19], [1546444800000, -24.81], [1546876800000, -21.4], [1547136000000, -21.8], [1547568000000, -21.44], [1548000000000, -21.17], [1548259200000, -21.02], [1548691200000, -22.63], [1548950400000, -21.83], [1549987200000, -16.62], [1550419200000, -14.65], [1550678400000, -14.63], [1551110400000, -7.98], [1551369600000, -8.34], [1551801600000, -5.15], [1552233600000, -5.99], [1552492800000, -6.67], [1552924800000, -4.83], [1553184000000, -5.42], [1553616000000, -9.48], [1554048000000, -5.58], [1554307200000, -2.61], [1554825600000, -2.66], [1555257600000, -5.44], [1555516800000, -1.81], [1555948800000, -5.29], [1556208000000, -8.82], [1557072000000, -17.36], [1557331200000, -18.15], [1557763200000, -17.99], [1558022400000, -17.67], [1558454400000, -18.0], [1558886400000, -18.64], [1559145600000, -17.99], [1559577600000, -20.01], [1560096000000, -19.08], [1560355200000, -17.38], [1560787200000, -19.38], [1561046400000, -16.8], [1561478400000, -17.45], [1561824000000, -17.66], [1562083200000, -14.1], [1562515200000, -16.78], [1562774400000, -16.65], [1563206400000, -16.1], [1563465600000, -16.4], [1563897600000, -15.42], [1564329600000, -15.33], [1564588800000, -14.7], [1565020800000, -18.49], [1565280000000, -17.13], [1565712000000, -16.42], [1566144000000, -14.09], [1566403200000, -15.01], [1566835200000, -14.77], [1567094400000, -15.25], [1567526400000, -13.3], [1567958400000, -9.77], [1568217600000, -10.03], [1568736000000, -12.05], [1569168000000, -12.09], [1569427200000, -13.23], [1570464000000, -14.2], [1570723200000, -13.89], [1571155200000, -14.63], [1571587200000, -16.21], [1571846400000, -16.0], [1572278400000, -14.89], [1572537600000, -15.09], [1572969600000, -12.79], [1573401600000, -14.44], [1573660800000, -14.47], [1574092800000, -11.83], [1574352000000, -11.72], [1574784000000, -9.42], [1575216000000, -10.45], [1575475200000,